--- a/output/frat/depth_2/frat_3_conceptnet_search.xlsx
+++ b/output/frat/depth_2/frat_3_conceptnet_search.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rejna/projects/github.com/r_m_thesis/output/frat/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5AC24-A90C-DC47-97FF-4AF548950B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="13360" yWindow="500" windowWidth="15980" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="268">
   <si>
     <t>FrAt</t>
   </si>
@@ -328,10 +334,10 @@
     <t>strong</t>
   </si>
   <si>
-    <t>statement, answer</t>
-  </si>
-  <si>
-    <t>semicircle, object, condenst, toonophile, tert, fourth_position, of, ortho, sulfanylidene, used_in_reading_out_numbers, politics, twelveth_letter_of_roman_alphabet, deoxycytidine_monophosphate, ml, banisht, boson, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, bruxomania, athwartships, t_zone, g_force, r_rotunda, b.eng, anaptyxis, byte, norovirus, third_letter_of_roman_alphabet, tesh, goals, b_story, clu, islamic_calendar, which's, encreast, t's, scalogram, employ, nb, set_theory, dispenst, builder's_tea, ometry, grand, sincerely, take_l, addrest, mc, t_internet, internet_slang, fandom_slang, toodles, tositumomab, nyse, numero_sign, oxygen, o_face, d, constant_of_integration, topology, date, smell_o_meter, clansperson, south, decomposition, lambdacism, absorpt, limbo, advanc’t, transhumanism, l_size, numeral, air_conditioned, greengrocer's_apostrophe, inorganic_substance, hoplo, b.e.e, five_hundred, o’s, ground, zoöphytology, ell, beeswax, b.med, ll.b, besides, bent, b.s.n, short_s, costa, some, contradistinguisht, third_person, t_piece, parsing, gasogen, homer, vowel, fermion, dezh, partheno, b.comm, republican, women's_christmas, character, issaron, blood_group, o_shaped, object_oriented_programming, aikens, stop_codon, symbols, cherisht, multi, gangsta, auriculo, drencht, technical_foul, blogosphere, other, dirhem, account, hey, programming, myctag, fitz, type_erasure, homoio, 360, nfd, blockt, ods, gentleman, b.m, pells, istro, diastereoisomer, thymine, titles, motorcycle, precisely, procedural_programming_lanuage, b_s, perhaps, or, jack_o_lantern, talk_to, e_♭_instrument, dubya, pbuh, z, ts, d_b, ballet, chromatic_scale, s, bs, uk, supersymmetry, java, begot, was, charlie, w, dilf, wth, remainder, logico, y_all'd've, bought, beset, hydrogen, equipt, writo, re, archeopteryx, balanophagous, nd, checkt, type_b, ss, vexillographer, b's, yo, aitkens, journalism, connectogram, w_r_t, soupcon, 1_g, j.d, gilf, heat_content, embellisht, education, down_to_t, el, chemical_symbol_for_hydrogen, cent, patronymic, audio, b.chir, template_metaprogramming, copyright_symbol, visarga, empoverisht, rh, 24mo, double, dealt, pharmacology, descendant, xiphisternum, interfix, xtianity, nc_17, sarcastic, its, minretumomab, lolz, high_c, edobacomab, kayo, legal, b.s.a, homoeo, dropt, hard, century, attackt, scale, bereft, pitch_perfect, latin, non_rhotic, ll, t’s, schwar, vitamin_c, g_s, terminology, letter, h's, cobol, rust, penny_sterling, dswounds, replace, urbiscript, b.acc, mo, long_s, sx, b.compt, nail, chaussé'd, mho, batsman, cello, urobilinogen, córdoba, p, diatonic_semitone, tg, estes, levo, guildswoman, b.math, j, back_o_bourke, enharmonic, have_got, belcht, perl, t_junction, stereodescriptor, radius, vicesimo_quarto, aitkins, oh, boron, c_s, electronics, d_shaped, s_shaped, ℓ, rhotacism, sextodecimo, o'clock, mac, rat_tail_radish, javascript, cisgender, doxogenic, conservative, tittle, ecmascript, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, softography, encampt, nuevo_sol, dactinomycin, nf, curst, penny, g_rated, twouldn't, terminal_s, v, surname, purkins, dry_cell_battery, hb, w's, b.sc.n, paradigm, man_o_war, c, svo, external, bridgmanite, crept, burnt, w_o, goatshair, dram, is, malloc, dog's_letter, m.d, right, b_minor, round, count_out, second_letter_of_alphabet, randomness, vocative_case, oversman, business, s's, illo, testosterone, t_splice, dwelt, hentai, twasn't, r’s, stl, w_shaped, last, b_shaped, digrest, clg, go_to_market, e, ed, s_hole, misle, allies, regards, use, gomer, composition, egotist, ino, sphygmo, prototype_based_language, secondary, l_shaped, c.f.r, gev, chromatic_semitone, ostomy, nationality, twere, bath, t_shirt, graphophone, west, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, tertiary, coke, first_letter_of_word_chair, 100, axiomatic, sports, b.s.e.e, w_i, hawksbeard, clicko, pædo, glycopeptidolipid, dialects, venipuncture, double_u, dacryohemorrhea, occupation, us, catherine_havasi's_initials, berkeleio, spello, gf, built, laetrile, dice, go, cor, c’s, l’s, grade, cyclone, china, bps, pound_sterling, finance, deuteron, survival_horror, kc, c_hole, symbologenic, 4chan, homœo, bullswool, scheme, hausdorff, sec, perrins, sol_fa, attacht, enravisht, ocracy, point, manosphere, air_conditioner, wide, multiple_o's, s_size, group_b, d_♭, most_vexing_parse, entomology, lulz, t_group, tungsten, clapt, segovia, rd, company, scantily_clad, est, slut's_wool, bethe, from_latin_libra, video_game, cœno, b, approacht, subatomic_particle, c_minor, edrecolomab, watt, yt, d.d, b_final, cricket, anime, taking_bus, cab, levulose, lb, dex, seent, galaxy, sigmoid, h, diminisht, h_shackle, seventh_letter_of_roman_alphabet, pithers, b.sc, coenoblast, sneaksman, acroatics, shortcut_for_air_conditioning, theirs, aikins, indicative, economics, basketball, coarticulate, football_pitch, solfeggio, dipt, pers, duff's_device, hundred, air_conditioning, year, set, sports_statistic, b_sharp, bleacht, disjoint, dreamt, miladdo, used_mainly_after_where_here_and_there, christofascist, urano, american_library_association, b.m.e, ds, swounds, ah, ls, triton, dendro, bubnoff_unit, b_flat, mornings, cholecystolithiasis, pandean, size, turn, proscribed, entertainment, nonstandard, banned, eth, had, lambert, dioxygen, nacolomab_tafenatox, roentgen, betimes, possess, mute_h, otw, cytosine, g’s, b.ch.d, did, b.th, o_ring, spat, irish, lose, d's, break_off, ies, a, galactic_coordinate_system, upon, solfège, deoxyribose, fifty, twou'dn't, slidometer, da, water, theorem, blest, lua, has, neighborhood, lvalue, animanga_character, tesla, nights, coenosteum, taplitumomab, big, bel, vocative, g_shaped, doubleyou, horse, henry, b.ed, skainsmate, kinesiology, computer_languages, ga, confest, dispossest, hydrogen's_chemical_symbol, t_shaped, cherubs, d_hole, hs, exactly, bye, bliss, afterwards, crasht, tier, fundamental_constant, s’s, deprest, decemvirate, word, bohdanowiczite, organic_chemistry, transsexual, o'reilly, b.com, kb, monoclonal_antibody, social, with, b.lib, predicted, transmissivity, would, chemical_symbol_of_carbon, 3gl, d_minor, abbreviation, average, dx, monoatomic_cation, rs, igg, o, gigabyte, atomic_nucleus, caught, thinko, caravansary, c's, b_complex_vitamin, holliers, wilkes, g's, brusht, hirs, oes, naptumomab_estafenatox, particle, ie, pneumo, ub, snooker, xylanolysis, twelvemo, latitude, fourth_letter_of_roman_alphabet, ve, h’s, b.as, perfectly, brought, taxable, b.des, axiom, penalty_arc, vulvo, czechoslovak, askt, b.c.e, football, interconsonantal, second_letter_of_roman_alphabet, worn_on_nose, grammar, second, kamatz, khoum, k_r, mit, ancient_greek, descending_s, h_shaped, moisturizer, game, etc, people'd, even, gram, lemalesomab, bethought, annext, rasopathy, pantile, bornt, pigscot, ada, will_o_wisp, clasht, 50, dript, b_♭_instrument, lethek, long_vowel, time, cropt, television_show, gigography, hemoglobin, zero, b.acy, clothing, abasht, seleno, major_scale, perfection, were, b’s, spectral_class, pneumato, gravity, tendu_en_arrière, triiodothyronine, chemical_symbol_of_oxygen, mitumomab, speako, y, wed, cross, birdsmouth, noons, northern_england, oyl, klecksography, medicine, gameto, litre, 12mo, sithence, law, example_of_programming_language, excuse, gee, korea, celestial_object, encroacht, unstressed, tis, 500, admonisht, curly_bracket_language, blemisht, adventure_game, strong_electrolyte, run_o_mill, nones, barn, r_shaped, b.a, 18mo, kd, argyro, old_penny, jesus_was_crucified, universal_donor, slang, gravo, coulomb, backwards, blood_type, developt, grunsel, present_tense, diceroll, drachm, c_sharp, chirpt, saint, status, robertsman, blent, gentleman's_agreement, unicode, oto, eighth_letter_of_roman_alphabet, delete, bcpl, rail_transport, vagino, b.s.e, cervico, basic, b_testing, cc, meadow, distinguisht, otl, group_o, circa, strident, force_unit, electricity, regina, f_instrument, galanthophile, proton_hydron, disrelisht, labial, ruby, alphabet, one, c_major, plan_b, c_note, b.mus, tuesday, cad, copenhagen, burnisht, reference, mbta, type_o, thyroxine, americo, c_suite, gas_constant, linguistics, deoxythymidine_monophosphate, air_to_ground, g_minor, b.f.a, avoucht, b_school, hegira, until_february_1971, cymoscope, b_word, tonic, astronomy, always_capitalized_in_modern_usage, balletomania, lth, internet, subway, orotidine, pethers, against, human, archæo, l's, w’s, eirs, nemato, canonical, teen, guanine, ing, l_plate, gb, operator, verb, build_cathedral, segrosome, darwin, hydrogen_atom, computing, 2h, canine_letter, r's, breadth, tenatumomab, vrykolaka, do, hematinometer, object_oriented_programming_language, saxon_genitive, city, besprent, iono, cs, chartered_accountant, music, tradeswoman, accomplisht, megakaryocytopoiesis, gw, sitcom, signore, thousand, linotype, lost, litho, la, log, curiously_recurring_template_pattern, seah, en, b.litt, imciromab, degree_centigrade, k, saint_anthony's_cross, deduc’t, metric_ton, boa, sn, physicotheology, calendar_terms, os, pemtumomab, transgender, text_messaging, yours, white, when_it_is_nonstandardly_used_as_relative_pronoun, arterio, svedberg, tee, astonisht, blackophilia, cleft, falcon, abolisht, mark, b.arch, rogers, see_also_es, believe, b.s.l, jocular, computer_language, it, eiffel, software, compiler, zoö, chapter, crusht, ours, ball, php, spherocylindrical, green, wednesday, loser_sign, flat, wave_clip, fréchet, sterling, follow, bacillus, reflectoporn, b.l.s, mab, b_major, hamiltonian, œ, singular, januarys, problemo, porno, vitamin_d, kolmogorov, ob, d_major, statistic_reporting_number_of_games_that_player_has_participated_in, detumomab, antigen, planck's_constant, treble_clef, bit, hers, soccer, printing, ricketts, western, zoarchaeologist, wolf_hook, brandisht, s_bomb, q, o's, wwwww, b.b.a, herpeto, ties, stinko, bynempt, pencil, antigone, oötidogenesis, c_shaped, es, billion, information_services_and_technology, fatosphere, marinobufagin, convention, blood, memosphere, vegas, black, dunzo, thing, raguileo_alphabet, speed_of_light, you, eclipst, storativity, ambusht, tween, relaxing, sulesomab, twas, and_so_on, anothergates, omer, stock_symbol, awk, t, irc, drop_d, aeronautical_jargon, reporting, sulfur, dismist, st, besought, cancer, d’s, uranoso, genitive_case, wynn, tcl, nfc, spearsman, nnw, d100, base, sxsw, n, cocaine, danc’t, peripherovascular, work, bronx, witness, parkins, valor, do_dièse, celestial_body, mathmo, disestablisht, r_rated, h_beam, belgium, hunter's_moon, hib, women, anguisht, ratings, toy, spliceosome, embost, blusht, electrical_resistance, magneto, unsupported_titles_c_sharp, infix, enforc’t, the, accounts_receivable, tibeto, string, canadian_dollar, deuterium, gangster, phm.b, dextro, plantsperson, muography, baulk_line, it's, accurst, t_square, acceleration_of_gravity, programming_language, expertise, comprest, trailer, ataxia_telangiectasia, g_major, denounc’t, psepho, empathogen, zf, philo, liter, builder's_mug, b_movie, hin, b.tech, zounds, dialect, d_sharp, movie, drest, pneumono, symbol_for_hydrogen, c_channel, are, tees, introverted, aspirated_h, l, annodated, r, working_leg, rex, person, b.lit, scanno, zero_g, british, semivowel, cat_o_nine_tails, coeno, demolisht, gravitational_constant, forwards, anxio, lead, shambolic, pinfall, czechoslovakian, third_letter_of_alphabet, over, kudo, died, general, medial_s, ashoka, glosso, attendance, signor, modius, lino, ephah, o_canada, statesman, morpheme, g_sharp, deckt, let's, lev, daunc’t, high_level, open, okay, gs, stage, th, babs, t_pose, cmos, deoxyguanosine_monophosphate, tritium, emission_theory, have, b_side, düsseldorf, cue_ball, ws, clipt, i, aircraft, b.s, equivalent, corner_tooth, b.e, hors_categorie, king's_man, baseball, t_stop, ge, fortran, cetera, physics, begat, flatulogenic, w5, excrescence, pound, kuh, f, atta, dislik’t, d_s, taula, m, supercee, scampsman, python, denmark</t>
+    <t>answer, statement</t>
+  </si>
+  <si>
+    <t>red, water, band, very, lonely, quiet, reaction, city, blood, emotional, like, figure, intense, british, cloud, clean, pregnant, local, party, brash, cutter, drop, wax, film, page, air_hunger, falling, serve_customers, bulla, unhappy, large, herb, sound, gun, negative, operation, wool, light_handed, people, wet, grievous, peep, india, communication, river, process, sad, set, sharp, utter, crimplene, metal, happy, sympathy, believe, love, want, hard, color, stone, thrill, smile, state, punishment, point, change, bid, derogatory, deep, rub, keen, window, hot, howl, steel, busy, rise, action, rapper, express, cell, positive, flat, boil, music, case, cry, ace, specified, car, tree, help, bright, show, have, safe, person, chronic, make, not, sensationalism, northern_england, level, fit, upset, kiss, low, act, stitch, give, a, slang, us, displeasure, adjective, smash, crash, depression, hope, sorrow, noise, difficult, fire_hose, trick, tap, price, better, dull, para, distraught, wall, strong, attack, pig, lucid_dream, boost, cockney_rhyming_slang, mouth, faint, belt, family, cat, rock, bar, sneeze, scream, air, pain, ad, yelp, humour, liquid, good, wetness, affection, jog, humans, visiting_art_gallery, eye, sick, dress, drug, slice, activity, headroom, wash, light, measurement, urgent, chicken, glad, wind, cold, feeling, history, loving_else, emotion, energy, gravity, high, listen, being, paint, type, obstreperous, event, hurt, coat, chemistry, mist, speaker, weighted, shrill, print, talk, soft, test, response, haste, regret, subtle, evil, vicious, swell, censure, aviation, signal, procedure, term, napkin, shot, discovering_truth, pressure, ham_handed, when, moan, running, sorry, great, physically, life, charge, war, think, crown, sadness, born, gas, practice, despair</t>
   </si>
   <si>
     <t>deer</t>
@@ -343,221 +349,488 @@
     <t>horse</t>
   </si>
   <si>
-    <t>aud, athwartships, t_zone, acting, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, sincerely, square_metre, t_internet, fandom_slang, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, act, short_s, proton, third_person, t_piece, parsing, agaze, vowel, first, dezh, language, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, dirhem, account, academy, amos, type_erasure, megabyte, diastereoisomer, motorcycle, procedural_programming_lanuage, zoa, pbuh, rafivirumab, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, nd, e_vite, cup, soupcon, united_kingdom, casualty, group, embellisht, damma, data, visarga, double, dealt, high_c, ll, level, g_s, letter, robatumumab, penny_sterling, replace, cat, academic, type, diatonic_semitone, estes, before, e_tail, have_got, belcht, aitkins, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, dry_cell_battery, connecter, hb, efungumab, paradigm, u’s, dram, is, count_out, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, espionage, prototype_based_language, acrita, magic_e, tertiary, brassiere, u_tube, gf, dice, ambassador, c’s, team, pound_sterling, finance, c_hole, 4chan, e_shaped, p_word, metre, asymmetric, e’s, segovia, heroin, ultimata, brewster, video_game, c_minor, yt, half_crown, amp, anime, w:abo_blood_group_system, anode, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, bleacht, american_library_association, triton, pandean, turn, proscribed, entertainment, automobile, roentgen, spat, australian_dollar, lose, d's, micro, twou'dn't, cajun, water, blest, animanga_character, musical_artist, non_u, einsteinium, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, caravansary, hirs, twelvemo, fourth_letter_of_roman_alphabet, april, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, annext, lexatumumab, cuppa, bornt, application, clasht, philippine, time, cropt, television_show, aken, ms, perfection, answer, were, spectral_class, noons, e_folding, arctic, e's, automata, excuse, gee, libivirumab, encroacht, accepted, tis, mb, coulomb, chirpt, audit, distinguisht, circa, e_quainted, labial, moo_u, mbta, deoxythymidine_monophosphate, para, mausolea, eirs, build_cathedral, hydrogen_atom, frigga, vrykolaka, administration, object_oriented_programming_language, tradeswoman, accomplisht, thousand, u_boat, seah, en, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, transgender, copypasta, television_station, cleft, falcon, ahold, my, compiler, taxa, green, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, kolmogorov, bit, ties, atmosphere, bynempt, pencil, thirteenth_letter_of_roman_alphabet, es, austria, nebacumab, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, e_sharp, genitive_case, nfc, e_tailing, d100, minor, stade, do_dièse, hunter's_moon, ratings, gelfond's_constant, shi, electrical_resistance, the, string, mth, dextro, it's, liter, builder's_mug, c_channel, accidental, miscellaneum, emergency, british, author, in, keynote, medium, uranium, vis_vis, ashoka, accommodation, age, signor, ae, statesman, let's, stage, solfege, cmos, cetera, physics, begat, anecdotum, kuh, dislik’t, m, can_store_food, denmark, angstrom, tert, twelveth_letter_of_roman_alphabet, banisht, foravirumab, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, mano_mano, decomposition, transhumanism, l_size, acaulous, ell, beeswax, ze, bent, u_rp, academician, aa, fermion, blood_group, atomic_weight, gangsta, other, mega, be, programming, asqtad, blockt, aglutition, ods, ri, thymine, absolute_temperature, titles, ues, or, u_shaped, argent, ex, talk_to, chromatic_scale, s, make, military, exbivirumab, american, charlie, crease, re, checkt, ss, athanogene, bisphenol, after, ebrary, gilf, education, maiden_over, statement, jack_lent, 24mo, pharmacology, xtianity, automatic, century, pure, bereft, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, alto, nail, chaussé'd, cello, p, levo, saké, j, an, vicesimo_quarto, assist, c_s, fictional_character, playoff, javascript, cisgender, conservative, tittle, ecmascript, curst, purkins, crept, round, randomness, oversman, a’s, twasn't, go_to_market, pip, gomer, e_tailer, l_shaped, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, astragal, us, cor, grade, china, deuteron, survival_horror, kc, amphibian, bullswool, scheme, hausdorff, sec, perrins, est, slut's_wool, from_latin_libra, b, subatomic_particle, jack_dandy, seent, sigmoid, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, mature, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, b_flat, eth, lambert, major, betimes, otw, e_form, did, anterior, a, shanxi, lua, has, neighborhood, lvalue, tesla, nights, g_shaped, skainsmate, ga, dispossest, wiener_dog, d_hole, hs, deprest, triple, admiral, fifth_letter_of_roman_alphabet, d_minor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, football, e_s, epeen, phenomena, k_r, mit, h_shaped, gram, pigscot, rackarock, neura, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, criteria, litre, sithence, celestial_object, absent, admonisht, blemisht, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, status, blent, unicode, jackanapes, otl, flowering_plant, archaea, regina, proton_hydron, ruby, state, bacteria, colossea, arterial, specific_absorption_coefficient, linguistics, specific_rotation, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, avoucht, lth, subway, canonical, teen, absolute, guanine, pritumumab, ing, l_plate, verb, iv, u's, r's, b_♭, mapatumumab, cs, england, log, curiously_recurring_template_pattern, lgbt, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, taxaphobic, abolisht, rogers, capital, artery, crusht, ours, sterling, u_turn, lines, asian, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, wolf_hook, s_bomb, emma, fuckabilly, c_shaped, vegas, thing, stretch, tween, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, spearsman, drive, danc’t, mass_number, cycle_of_fifths, valor, power_pill, euse, belgium, women, esrb_rating, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, baulk_line, accurst, t_square, acre, comprest, trailer, necitumumab, meetaversary, madalyn, computer_science, movie, polynomial_time, issa, country, diptera, r, zero_g, actus, intetumumab, m's, pinfall, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, fox, deoxyguanosine_monophosphate, roof, have, approved, hyoid, tilt_whirl, corner_tooth, er, baseball, t_stop, association, austroasiatic, e_road, d_s, taula, supercee, eradiation, condenst, chess, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, clu, islamic_calendar, employ, set_theory, take_l, nyse, anecdota, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, can_begin_to_leak, besides, costa, homer, women's_christmas, sevirumab, aikens, stop_codon, symbols, technical_foul, port_o_john, nfd, gentleman, u_bolt, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, ts, available, java, μ, w, ramucirumab, bought, street_slang, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, au, template_metaprogramming, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, dropt, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, h's, cobol, admit, urbiscript, iii, long_s, denosumab, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, enharmonic, mother, abbreviation_of'you, electronics, rhotacism, america, stadia, bug_boo, alpha_privativum, clept, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, terminal_s, v, home, c, external, malloc, np, dog's_letter, indefinite_article, right, aware, electronic, dwelt, cock_hoop, r’s, stl, elaborate, ed, s_hole, basketball_league, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, preposition, occupation, dateaversary, built, go, do, sol_fa, attacht, enravisht, s_size, no, aspect_ratio, entomology, sie, graph, rd, approacht, levulose, sixteenth_letter_of_roman_alphabet, h_shackle, they, toll_road, indicative, basketball, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, kenna, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, un, break_off, ies, fork, upon, solfège, exhibit, n_acetyl_p_aminophenol, computer_languages, confest, exponential, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, transsexual, hulkamaniac, ai, americanization, annus, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, snooker, ü, read, alotta, acid, perfectly, brought, male, askt, worn_on_nose, ajax, descending_s, game, etc, people'd, pantile, regavirumab, apiece, 50, dript, b_♭_instrument, raxibacumab, australia, eye, iratumumab, ii, abaft, ana, ette, medicine, 12mo, law, aweigh, 500, curly_bracket_language, acronym, old_penny, panobacumab, blood_type, drachm, artificer, robertsman, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, fist_letter_of_alphabet, cad, copenhagen, reference, p_uman, fatha, metacism, gas_constant, air_to_ground, stamulumab, tonic, internet, pethers, semitone, darwin, aes, peso, besprent, jessa, lucatumumab, chartered_accountant, music, water_spout, sitcom, signore, lost, degree_centigrade, result, sn, australian, not, clitic, software, php, amacrine, airman, fathom, and_e, auditor, vitamin_d, ob, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, information_services_and_technology, acephalopodia, by_from_home_depot, you, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, parkins, celestial_body, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, unsupported_titles_c_sharp, uracil, chemical_symbol_for_phosphorous, accounts_receivable, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, restaurant, hoodla, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, attack, adjutant, demolisht, relaxacon, lead, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, class, lev, scale_height, alexipyretic, transit_card, open, å, irrevocable, th, babs, t_pose, tritium, associate, clipt, m'lady, ge, fortran, musea, excrescence, pound, monsieur, form_of_vessle, atta, semicircle, of, politics, deoxycytidine_monophosphate, ml, boson, ace, quanta, r_rotunda, abetalipoproteinemia, which's, ps, first_alphabet, history, builder's_tea, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, ground, problem, some, contradistinguisht, character, issaron, selligueain, object_oriented_programming, cherisht, multi, and, panitumumab, pells, of_piece, metalic_cylindrical_container, z, mmole, loophole, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, aviation, foreroom, j.d, heat_content, give_hand, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, abundant, ab, gantenerumab, amnia, its, lolz, hard, logic, pitch_perfect, non_rhotic, before_bee, t’s, e_quaintance, ofatumumab, mitochondria, rust, anna, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, set_containing_one_element, amplitude, d_shaped, s_shaped, u_235, ppbar, pointed, nf, twouldn't, letter_grade, ne_er, cock_leekie, burnt, goatshair, highland, m.d, business, s's, square_meter, testosterone, new_zealand, last, elemeno, digrest, clg, e, misle, ilka, allies, composition, every, secondary, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, l’s, cyclone, abeigh, about, dunam, all_gog, point, potato, air_conditioner, ancient, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, d.d, cricket, cab, afternoon, dex, galaxy, u_pick, diminisht, seventh_letter_of_roman_alphabet, p’s, em, acroatics, economics, duff's_device, hundred, air_conditioning, swounds, ah, ls, efold, m_shaped, mornings, size, also, xe, had, air, possess, cytosine, americanize, ata, deoxyribose, fifty, da, theorem, scotland, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, monoatomic_cation, atomic_nucleus, caught, æ, holliers, wilkes, g's, ub, list, h’s, incuba, m'lord, ecstasy, taxable, also_known_as, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, luggage, ada, plus, li, lethek, long_vowel, any, clothing, abasht, mathematics, awhape, cross, northern_england, example_of_programming_language, adventure_game, strong_electrolyte, 18mo, kd, slang, backwards, present_tense, diceroll, c_sharp, media, gentleman's_agreement, altitude, bcpl, rail_transport, basic, azure, strident, upper_class, disrelisht, c_note, tuesday, burnisht, purposes, absorbancy, thyroxine, c_suite, g_minor, vitamin, hegira, against, human, l's, to, gb, river, e_tard, 2h, canine_letter, per, saxon_genitive, city, tuvirumab, absorbance, acceleration, echeng, hotel, beanbag, deduc’t, calendar_terms, svedberg, tee, astonisht, knitting, michigan, mark, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, deterministic, hertz, abc, marketing, d_major, he, ricketts, best, q, activity, apl, hip_hop_music, monday, walk_mile_in_someone's_shoes, atrocha, hail, relaxing, and_so_on, panthea, awk, expertise, usd, besought, d’s, frame, sxsw, cocaine, bronx, arace, h_beam, meter, avancé, e_thumb, four, percentage_point, toy, infix, anno, army, deuterium, ataxia_telangiectasia, henan, buffet, zf, hin, amateur, zounds, drest, dialect, ds, hedra, tees, introverted, aspirated_h, fail, rex, person, gravitational_constant, address, forwards, died, e_head, medial_s, industry, attendance, modius, meta, british_film_certificate, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>toonophile, ortho, aud, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, t's, scalogram, ometry, sincerely, t_internet, o_face, constant_of_integration, clansperson, lambdacism, getting_paid, air_conditioned, act, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, o_shaped, drencht, historical, account, academy, myctag, amos, type_erasure, 360, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, ballet, ante, alphabetic, was, article, remainder, equipt, archeopteryx, balanophagous, b's, w_r_t, cup, soupcon, group, embellisht, f_minus, data, double, dealt, xiphisternum, interfix, high_c, kayo, level, letter, replace, cat, academic, type, diatonic_semitone, estes, before, have_got, belcht, aitkins, boron, a440, a's, sextodecimo, annually, adenine, p_adic, surname, dry_cell_battery, connecter, hb, paradigm, man_o_war, svo, is, b_minor, count_out, vocative_case, allele, t_splice, pee, regards, egotist, ino, axis, amain, prototype_based_language, k_pop, acrita, tertiary, clicko, brassiere, double_u, ambassador, c’s, team, finance, c_hole, symbologenic, 4chan, homœo, p_word, asymmetric, segovia, heroin, ultimata, bethe, cœno, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, solfeggio, adjusted, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, j’s, proscribed, entertainment, automobile, roentgen, spat, australian_dollar, lose, jth, aberdeen_hook, twou'dn't, cajun, blest, coenosteum, bel, vocative, b.ed, musical_artist, bye, tier, bohdanowiczite, organic_chemistry, monoclonal_antibody, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, april, axiom, la_dièse, grammar, air_branch, khoum, acardiacus, pp, aaa, lemalesomab, annext, cuppa, bornt, application, will_o_wisp, clasht, philippine, time, cropt, television_show, aken, zero, seleno, perfection, answer, were, spectral_class, speako, noons, oyl, gameto, arctic, automata, encroacht, accepted, unstressed, tis, run_o_mill, barn, b.a, argyro, coulomb, chirpt, audit, distinguisht, circa, galanthophile, labial, b.mus, mbta, deoxythymidine_monophosphate, para, cymoscope, soul_music, mausolea, eirs, nemato, build_cathedral, segrosome, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, en, b.litt, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, cleft, falcon, ahold, believe, f_hole, compiler, zoö, taxa, august, flat, fréchet, mab, problemo, kolmogorov, detumomab, antigen, bit, printing, western, unit, ties, atmosphere, bynempt, antigone, oötidogenesis, es, fatosphere, memosphere, austria, dunzo, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, genitive_case, wynn, nfc, nnw, minor, do_dièse, hunter's_moon, ratings, f's, electrical_resistance, the, tibeto, string, phm.b, it's, builder's_mug, c_channel, accidental, miscellaneum, scanno, british, semivowel, f’s, author, in, keynote, vis_vis, ashoka, accommodation, glosso, signor, age, ae, lino, statesman, let's, okay, stage, solfege, cmos, rip, b.s, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, can_store_food, denmark, angstrom, tert, banisht, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, numero_sign, mano_mano, road_transport, decomposition, acaulous, hoplo, beeswax, bent, academician, gasogen, aa, fermion, partheno, b.comm, blood_group, atomic_weight, other, programming, hey, asqtad, homoio, blockt, aglutition, ods, istro, thymine, absolute_temperature, titles, b_s, or, argent, talk_to, chromatic_scale, s, military, american, charlie, wth, logico, writo, re, checkt, ss, athanogene, bisphenol, after, connectogram, gilf, education, statement, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, latin, adult, vitamin_c, as, phosphorus, dswounds, mo, alto, cello, urobilinogen, p, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, ℓ, mac, playoff, javascript, cisgender, conservative, tittle, ecmascript, softography, curst, purkins, crept, w_o, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, go_to_market, pip, ostomy, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, pædo, venipuncture, astragal, dacryohemorrhea, us, grade, deuteron, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, tungsten, rhythm_and_blues, est, slut's_wool, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, tenth_letter_of_roman_alphabet, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, dioxygen, nacolomab_tafenatox, major, betimes, otw, b.ch.d, anterior, a, lua, has, neighborhood, lvalue, tesla, nights, taplitumomab, skainsmate, f_sharp, japanese, dispossest, wiener_dog, deprest, joule, b.com, triple, with, narration, admiral, rating, sanatoria, average, rs, o, ve, all_mort, b.des, czechoslovak, interconsonantal, second_letter_of_roman_alphabet, phenomena, k_r, mit, ancient_greek, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, klecksography, criteria, sithence, celestial_object, absent, admonisht, blemisht, nones, r_shaped, jesus_was_crucified, developt, rix, area, saint, blent, unicode, jackanapes, vagino, cervico, b_testing, otl, archaea, regina, ruby, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, specific_rotation, b.f.a, resturant, adjective, alpha_privative, anuptaphobia, b_word, avoucht, subway, canonical, teen, absolute, ing, verb, iv, manga, computing, r's, b_♭, cs, england, linotype, curiously_recurring_template_pattern, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, taxaphobic, abolisht, rogers, b.s.l, artery, crusht, ours, spherocylindrical, wednesday, lines, reflectoporn, asian, sf_f, œ, singular, januarys, amissing, p's, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, fuckabilly, c_shaped, blood, vegas, thing, britain, tween, sulesomab, twas, anothergates, stock_symbol, dismist, rat, cancer, toward, beginnings, tcl, spearsman, drive, danc’t, mass_number, peripherovascular, witness, rf, cycle_of_fifths, euse, belgium, hib, women, embost, blusht, turing_machine, enforc’t, plantsperson, muography, accurst, t_square, acre, comprest, trailer, empathogen, meetaversary, computer_science, movie, polynomial_time, issa, country, diptera, b.lit, anxio, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, cj, fox, weak_electrolyte, roof, have, approved, ws, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, taula, supercee, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, ff_hole, norovirus, b_story, clu, set_theory, mc, tositumomab, nyse, variant, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, b.e.e, o’s, can_begin_to_leak, jj, ll.b, besides, costa, republican, women's_christmas, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, port_o_john, fitz, fs, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, available, bs, java, w, bought, type_b, yo, aitkens, active, down_to_t, black_english_and_slang, biblical, patronymic, au, audio, vector, template_metaprogramming, b.chir, copyright_symbol, empoverisht, cockalorum, sarcastic, legal, airplane, f_major, dropt, attackt, scale, cola, assault, schwar, piss_like_racehorse, terminology, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, tg, hulkamania, b.math, enharmonic, rhotacism, o'clock, stadia, america, bug_boo, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, penny, terminal_s, w's, c, external, malloc, np, dog's_letter, indefinite_article, right, aware, dwelt, cock_hoop, r’s, stl, b_shaped, ed, s_hole, basketball_league, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, go, sol_fa, attacht, enravisht, multiple_o's, s_size, no, aspect_ratio, entomology, graph, approacht, b_final, sixteenth_letter_of_roman_alphabet, lb, form, indicative, basketball, coarticulate, pers, set, used_mainly_after_where_here_and_there, christofascist, b.m.e, kenna, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, o_ring, un, ies, fork, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, doubleyou, kinesiology, computer_languages, confest, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, o'reilly, hulkamaniac, yot, kb, ai, americanization, annus, b.lib, predicted, chemical_symbol_of_carbon, 3gl, dx, accusative_case, c's, brusht, particle, ra, latitude, alotta, acid, perfectly, brought, singer_songwriter, askt, b.c.e, ajax, descending_s, game, etc, euphemistic, pantile, et_seq, apiece, b_♭_instrument, dript, b’s, marijuana, pneumato, eye, chemical_symbol_of_oxygen, mitumomab, ii, abaft, ana, ette, medicine, law, aweigh, korea, curly_bracket_language, j_shaped, acronym, gravo, blood_type, artificer, cigarette, robertsman, oto, delete, p_complete, cc, meadow, atlantic, electricity, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, fatha, gas_constant, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, aes, peso, besprent, jessa, iono, chartered_accountant, music, water_spout, gw, sitcom, signore, lost, degree_centigrade, k, result, white, australian, arterio, not, b.arch, software, ball, php, amacrine, airman, bacillus, b.l.s, nipple, auditor, fo, search, hers, adp, awry, brandisht, toll_highway, wwwww, b.b.a, herpeto, billion, information_services_and_technology, acephalopodia, you, apprentice, t, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, spliceosome, unsupported_titles_c_sharp, magneto, chemical_symbol_for_phosphorous, accounts_receivable, canadian_dollar, programming_language, denounc’t, restaurant, hoodla, philo, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, shambolic, annealing, adoors, ship, final, asked, morpheme, class, alexipyretic, transit_card, open, å, th, babs, t_pose, tritium, b_side, associate, clipt, fortran, musea, w5, excrescence, flatulogenic, form_of_vessle, atta, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, postnominal, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, builder's_tea, biology, addrest, quotha, can_return_five_cents, js, oxygen, superior, d, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, degree_fahrenheit, zoöphytology, b.med, problem, contradistinguisht, selligueain, object_oriented_programming, cherisht, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, jack_o_lantern, z, loophole, d_b, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, neuropraxia, beset, ess, aviation, vexillographer, foreroom, cor_anglais, give_hand, pronoun, cent, chemistry, abundant, ab, amnia, descendant, its, lolz, b.s.a, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, mitochondria, rust, anna, b.compt, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, set_containing_one_element, amplitude, s_shaped, ppbar, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, bridgmanite, cock_leekie, burnt, goatshair, business, s's, illo, testosterone, new_zealand, w_shaped, last, elemeno, digrest, e, ilka, allies, composition, sphygmo, every, secondary, c.f.r, fraunhofer_line, chromatic_semitone, nationality, alfa, t_shirt, graphophone, west, sports, hawksbeard, jack_napes, catherine_havasi's_initials, spello, laetrile, cyclone, bps, abeigh, about, ocracy, all_gog, point, potato, manosphere, air_conditioner, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, edrecolomab, watt, cricket, taking_bus, afternoon, diminisht, p’s, acroatics, duff's_device, hundred, air_conditioning, miladdo, urano, swounds, ah, master_of_ceremonies, mornings, size, also, banned, air, cytosine, b.th, irish, americanize, galactic_coordinate_system, ata, theorem, scotland, horse, aptychus, t_shaped, exactly, bliss, abandannaad, afterwards, ff, caught, b_complex_vitamin, æ, holliers, wilkes, oes, ub, list, b.as, incuba, taxable, vulvo, ack, she, second, kamatz, alee, container, anonymous, moisturizer, even, bethought, luggage, ada, plus, long_vowel, hemoglobin, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, wed, awhape, cross, northern_england, example_of_programming_language, 18mo, kd, universal_donor, slang, backwards, grunsel, present_tense, c_sharp, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, group_o, strident, fluor, fluorine, disrelisht, c_note, tuesday, burnisht, absorbancy, thyroxine, americo, c_suite, vitamin, balletomania, against, archæo, to, canine_letter, per, saxon_genitive, city, absorbance, acceleration, litho, la, hotel, beanbag, deduc’t, j_drama, svedberg, tee, astonisht, jack, see_also_es, at_pinch, jocular, computer_language, it, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, porno, he, ricketts, best, activity, apl, stinko, hip_hop_music, marinobufagin, convention, black, walk_mile_in_someone's_shoes, atrocha, hail, relaxing, and_so_on, panthea, awk, expertise, besought, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, avancé, four, percentage_point, toy, infix, anno, army, ataxia_telangiectasia, buffet, psepho, zf, f_bomb, b_movie, amateur, b.tech, zounds, dialect, drest, pneumono, hedra, tees, introverted, sixth_letter_of_roman_alphabet, rex, person, coeno, address, forwards, over, medial_s, industry, attendance, o_canada, deckt, auxiliary, daunc’t, gs, glass, emission_theory, düsseldorf, i, aircraft, equivalent, j's, hors_categorie, king's_man, lemur, f, scampsman, python</t>
-  </si>
-  <si>
-    <t>aud, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, t's, sincerely, t_internet, constant_of_integration, clansperson, lambdacism, getting_paid, air_conditioned, act, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, dezh, drencht, historical, account, academy, myctag, amos, type_erasure, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, ballet, ante, alphabetic, was, article, remainder, equipt, nd, b's, w_r_t, cup, soupcon, group, embellisht, f_minus, data, double, dealt, high_c, ll, level, letter, penny_sterling, replace, cat, academic, type, diatonic_semitone, estes, before, have_got, belcht, aitkins, boron, a440, a's, sextodecimo, annually, adenine, p_adic, dry_cell_battery, connecter, hb, paradigm, is, b_minor, count_out, allele, t_splice, pee, regards, egotist, ino, axis, amain, prototype_based_language, acrita, tertiary, brassiere, double_u, dice, ambassador, c’s, team, finance, c_hole, 4chan, p_word, asymmetric, segovia, heroin, ultimata, bethe, video_game, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, pandean, proscribed, entertainment, automobile, roentgen, spat, australian_dollar, lose, d's, twou'dn't, cajun, blest, bel, b.ed, musical_artist, bye, tier, organic_chemistry, monoclonal_antibody, transmissivity, abbreviation, caravansary, hirs, twelvemo, fourth_letter_of_roman_alphabet, april, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, pp, aaa, annext, cuppa, bornt, application, clasht, philippine, time, cropt, television_show, aken, perfection, answer, were, spectral_class, noons, arctic, automata, excuse, encroacht, accepted, tis, barn, b.a, coulomb, chirpt, audit, distinguisht, circa, labial, b.mus, mbta, deoxythymidine_monophosphate, para, mausolea, eirs, build_cathedral, fb, frigga, breadth, vrykolaka, administration, object_oriented_programming_language, tradeswoman, accomplisht, en, b.litt, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, transgender, copypasta, cleft, falcon, ahold, believe, f_hole, compiler, taxa, august, flat, fréchet, mab, kolmogorov, bit, printing, western, ties, atmosphere, bynempt, es, austria, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, genitive_case, wynn, nfc, nnw, d100, minor, do_dièse, hunter's_moon, ratings, f's, electrical_resistance, the, string, phm.b, dextro, it's, builder's_mug, c_channel, accidental, miscellaneum, british, semivowel, f’s, author, in, keynote, vis_vis, ashoka, accommodation, age, signor, ae, statesman, let's, stage, solfege, cmos, rip, b.s, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, can_store_food, denmark, angstrom, tert, banisht, third_letter_of_roman_alphabet, four_lines, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, mano_mano, decomposition, acaulous, beeswax, bent, academician, aa, fermion, b.comm, blood_group, atomic_weight, other, programming, asqtad, blockt, aglutition, ods, thymine, absolute_temperature, titles, b_s, or, argent, talk_to, chromatic_scale, s, military, american, charlie, wth, re, checkt, ss, athanogene, bisphenol, after, gilf, education, statement, jack_lent, 24mo, pharmacology, xtianity, automatic, century, pure, bereft, adult, vitamin_c, as, phosphorus, dswounds, alto, nail, chaussé'd, cello, p, j, an, vicesimo_quarto, assist, c_s, ℓ, playoff, javascript, cisgender, conservative, tittle, ecmascript, curst, purkins, crept, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, go_to_market, pip, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, astragal, us, grade, deuteron, survival_horror, kc, amphibian, bullswool, scheme, hausdorff, sec, perrins, group_b, tungsten, est, slut's_wool, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, b_flat, eth, major, betimes, otw, b.ch.d, did, anterior, a, lua, has, neighborhood, lvalue, tesla, nights, skainsmate, f_sharp, dispossest, wiener_dog, d_hole, deprest, b.com, triple, with, admiral, d_minor, rating, sanatoria, average, rs, o, ve, all_mort, b.des, football, second_letter_of_roman_alphabet, phenomena, k_r, mit, pigscot, rackarock, neura, iodabenzene, methamphetamine, major_scale, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, criteria, sithence, celestial_object, absent, admonisht, blemisht, nones, r_shaped, jesus_was_crucified, developt, rix, area, saint, blent, unicode, jackanapes, b_testing, otl, archaea, regina, ruby, bacteria, colossea, arterial, specific_absorption_coefficient, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, subway, canonical, teen, absolute, ing, verb, iv, manga, computing, r's, b_♭, cs, england, curiously_recurring_template_pattern, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, taxaphobic, abolisht, rogers, b.s.l, artery, crusht, ours, wednesday, lines, asian, sf_f, singular, januarys, amissing, p's, wolf_hook, s_bomb, fuckabilly, c_shaped, vegas, thing, tween, twas, anothergates, stock_symbol, dismist, rat, cancer, toward, beginnings, tcl, spearsman, drive, danc’t, mass_number, witness, rf, cycle_of_fifths, valor, euse, belgium, hib, women, embost, blusht, turing_machine, enforc’t, plantsperson, baulk_line, accurst, t_square, acre, comprest, trailer, meetaversary, computer_science, movie, polynomial_time, issa, country, diptera, r, b.lit, pinfall, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, roof, have, approved, ws, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, d_s, taula, supercee, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, ff_hole, b_story, clu, set_theory, nyse, anecdota, south, workaday, numeral, frequency, oboe_d_amore, b.e.e, five_hundred, can_begin_to_leak, ll.b, besides, costa, republican, women's_christmas, aikens, stop_codon, symbols, folio, technical_foul, port_o_john, nfd, fs, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, available, bs, java, w, bought, type_b, aitkens, active, down_to_t, black_english_and_slang, biblical, au, b.chir, template_metaprogramming, copyright_symbol, empoverisht, cockalorum, sarcastic, legal, airplane, f_major, dropt, attackt, scale, cola, assault, schwar, piss_like_racehorse, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, tg, hulkamania, b.math, enharmonic, rhotacism, stadia, america, bug_boo, alpha_privativum, clept, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, terminal_s, w's, c, external, malloc, np, dog's_letter, indefinite_article, right, aware, dwelt, cock_hoop, r’s, stl, b_shaped, ed, s_hole, basketball_league, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, occupation, dateaversary, built, go, do, sol_fa, attacht, enravisht, s_size, no, aspect_ratio, entomology, graph, rd, approacht, b_final, sixteenth_letter_of_roman_alphabet, lb, form, indicative, basketball, coarticulate, pers, set, used_mainly_after_where_here_and_there, b.m.e, kenna, nonstandard, dialectal, aqua, ⠁, un, break_off, ies, fork, upon, solfège, exhibit, big, n_acetyl_p_aminophenol, doubleyou, computer_languages, confest, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, hulkamaniac, kb, ai, americanization, annus, b.lib, predicted, would, chemical_symbol_of_carbon, 3gl, dx, accusative_case, c's, brusht, ra, snooker, latitude, alotta, acid, perfectly, brought, askt, b.c.e, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, apiece, b_♭_instrument, dript, b’s, ii, abaft, ana, ette, medicine, 12mo, law, aweigh, 500, curly_bracket_language, acronym, old_penny, blood_type, artificer, robertsman, delete, p_complete, cc, meadow, atlantic, electricity, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, fatha, gas_constant, b_school, tonic, astronomy, internet, pethers, w’s, semitone, darwin, aes, peso, besprent, jessa, chartered_accountant, music, water_spout, gw, sitcom, signore, lost, degree_centigrade, result, sn, white, australian, not, b.arch, software, ball, php, amacrine, airman, bacillus, b.l.s, nipple, auditor, vitamin_d, ob, fo, search, hers, adp, awry, brandisht, toll_highway, wwwww, b.b.a, billion, information_services_and_technology, acephalopodia, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, parkins, celestial_body, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, unsupported_titles_c_sharp, chemical_symbol_for_phosphorous, accounts_receivable, canadian_dollar, programming_language, denounc’t, restaurant, hoodla, d_sharp, are, l, ampere, annodated, working_leg, attack, adjutant, f_s, demolisht, relaxacon, annealing, adoors, ship, final, asked, class, alexipyretic, transit_card, open, å, th, babs, t_pose, tritium, b_side, associate, clipt, ge, fortran, musea, w5, excrescence, form_of_vessle, atta, semicircle, of, politics, deoxycytidine_monophosphate, ml, boson, ace, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, builder's_tea, biology, addrest, quotha, can_return_five_cents, oxygen, superior, d, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, degree_fahrenheit, b.med, problem, some, contradistinguisht, selligueain, object_oriented_programming, cherisht, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, z, loophole, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, aviation, foreroom, cor_anglais, j.d, give_hand, pronoun, cent, chemistry, abundant, ab, amnia, its, lolz, b.s.a, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, mitochondria, rust, anna, b.compt, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, set_containing_one_element, amplitude, d_shaped, s_shaped, ppbar, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, cock_leekie, burnt, goatshair, m.d, business, s's, testosterone, new_zealand, w_shaped, last, elemeno, digrest, e, misle, ilka, allies, composition, every, secondary, c.f.r, fraunhofer_line, chromatic_semitone, nationality, alfa, t_shirt, west, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, cyclone, bps, abeigh, about, all_gog, point, potato, air_conditioner, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, watt, d.d, cricket, taking_bus, afternoon, dex, diminisht, p’s, acroatics, duff's_device, hundred, air_conditioning, swounds, ah, mornings, size, also, banned, had, air, possess, cytosine, b.th, americanize, galactic_coordinate_system, ata, da, theorem, scotland, horse, aptychus, t_shaped, exactly, bliss, abandannaad, afterwards, ff, caught, b_complex_vitamin, æ, holliers, wilkes, ub, list, b.as, incuba, taxable, ack, she, second, kamatz, alee, container, anonymous, moisturizer, even, bethought, luggage, ada, plus, long_vowel, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, wed, awhape, cross, northern_england, example_of_programming_language, adventure_game, 18mo, kd, slang, backwards, grunsel, present_tense, diceroll, c_sharp, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, strident, fluor, fluorine, disrelisht, c_note, tuesday, burnisht, absorbancy, thyroxine, c_suite, vitamin, against, to, canine_letter, per, saxon_genitive, city, absorbance, acceleration, hotel, beanbag, deduc’t, svedberg, tee, astonisht, see_also_es, at_pinch, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, d_major, he, ricketts, best, activity, apl, hip_hop_music, black, walk_mile_in_someone's_shoes, atrocha, hail, relaxing, and_so_on, panthea, awk, expertise, besought, d’s, frame, sxsw, cocaine, work, bass_clef, bronx, arace, avancé, four, percentage_point, toy, infix, anno, army, deuterium, ataxia_telangiectasia, buffet, zf, f_bomb, b_movie, amateur, b.tech, zounds, dialect, drest, ds, hedra, tees, introverted, sixth_letter_of_roman_alphabet, rex, person, address, forwards, died, medial_s, industry, attendance, deckt, auxiliary, daunc’t, gs, glass, emission_theory, düsseldorf, cue_ball, i, aircraft, equivalent, hors_categorie, king's_man, lemur, f, scampsman, python</t>
-  </si>
-  <si>
-    <t>semicircle, object, condenst, angstrom, chess, tert, of, sulfanylidene, aud, acreage, alphanumeric, boson, banisht, ace, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, quanta, athwartships, t_zone, acting, aphobia, abetalipoproteinemia, anaptyxis, van_der_waals_constant, which's, tesh, four_lines, roadway, encreast, combo_pass, t's, ps, first_alphabet, nb, set_theory, dispenst, builder's_tea, jackanape, sincerely, addrest, square_metre, quotha, mc, t_internet, internet_slang, fandom_slang, toodles, at, can_return_five_cents, oxygen, superior, d, anecdota, topology, mano_mano, south, clansperson, absorpt, workaday, advanc’t, greengrocer's_apostrophe, getting_paid, numeral, am, frequency, oboe_d_amore, acaulous, yes'm, act, controlled_vocabulary_types, five_hundred, can_begin_to_leak, beeswax, besides, bent, short_s, proton, problem, some, academician, contradistinguisht, third_person, t_piece, agaze, aa, vowel, first, dezh, fermion, women's_christmas, selligueain, blood_group, aikens, stop_codon, atomic_weight, symbols, cherisht, and, drencht, technical_foul, historical, account, mega, be, port_o_john, academy, asqtad, amos, megabyte, nfd, blockt, aglutition, ods, ri, pells, diastereoisomer, of_piece, tt, vide, thymine, motorcycle, absolute_temperature, precisely, atomic, metalic_cylindrical_container, mouse, perhaps, sloth, or, zoa, argent, oi, talk_to, scarlet_letter, z, mmole, loophole, ts, s, indefinite, ante, make, military, i18n, available, send_criminal_to_prison, uk, supersymmetry, java, american, begot, alphabetic, was, jack_lantern, van, w, article, dilf, y_all'd've, neuropraxia, bought, crease, beset, ess, re, equipt, checkt, nd, aviation, ss, athanogene, foreroom, bisphenol, after, aitkens, cup, active, j.d, gilf, group, embellisht, education, maiden_over, give_hand, down_to_t, pronoun, black_english_and_slang, biblical, au, data, chemistry, abundant, vv, statement, ab, viscount, jack_lent, empoverisht, 24mo, double, dealt, pharmacology, cockalorum, xiphisternum, interfix, xtianity, sarcastic, amnia, its, lolz, legal, airplane, automatic, dropt, peruvian, pure, attackt, bereft, pitch_perfect, scale, latin, adult, ll, cola, mi, assault, logic, piss_like_racehorse, v’s, level, before_bee, t’s, letter, as, mitochondria, phosphorus, penny_sterling, dswounds, replace, admit, iii, anna, cat, academic, long_s, alto, sx, type, nail, chaussé'd, mho, batsman, cello, tg, p, diatonic_semitone, hulkamania, estes, before, ma_am, guildswoman, victim, an, enharmonic, mother, have_got, belcht, t_junction, stereodescriptor, vicesimo_quarto, aitkins, cilia, set_containing_one_element, a440, assist, amplitude, d_shaped, s_shaped, a's, sextodecimo, fictional_character, america, stadia, playoff, bug_boo, ppbar, cisgender, alpha_privativum, clept, tittle, annually, adenine, arc, encampt, p_adic, nuevo_sol, bomb, dactinomycin, pointed, curst, penny, version, twouldn't, terminal_s, purkins, connecter, letter_grade, ne_er, c, videte, cock_leekie, crept, burnt, goatshair, is, np, indefinite_article, m.d, round, count_out, aware, randomness, allele, oversman, business, s's, testosterone, square_meter, t_splice, a’s, dwelt, new_zealand, twasn't, cock_hoop, last, elemeno, digrest, e, pee, ed, pip, s_hole, basketball_league, misle, ilka, allies, regards, egotist, ino, every, axis, amain, secondary, imperative, flute, fraunhofer_line, chromatic_semitone, nationality, fora, twere, alfa, aunt, acrita, t_shirt, shaped, inferior, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, tertiary, madam, artillery, sports, vagina, axiomatic, hawksbeard, jack_napes, volt, preposition, dialects, brassiere, venipuncture, astragal, occupation, us, dateaversary, built, dice, ambassador, value, grade, team, china, abeigh, about, finance, deuteron, survival_horror, do, amphibian, bullswool, dunam, 4chan, all_gog, point, p_word, hausdorff, sec, perrins, attacht, enravisht, potato, metre, s_size, no, memoranda, acardiacus_acephalus, aspect_ratio, asymmetric, entomology, accumulator, lulz, t_group, graph, clapt, segovia, rd, heroin, ultimata, brewster, est, slut's_wool, chockablock, scantily_clad, video_game, company, comics_character, b, subatomic_particle, approacht, d.d, yt, half_crown, amp, cricket, jack_dandy, afternoon, sixteenth_letter_of_roman_alphabet, dex, seent, sigmoid, verse, um, w:abo_blood_group_system, bee, diminisht, john_dreams, p’s, anode, pithers, em, sneaksman, acroatics, theirs, aikins, ragamuffin, mature, indicative, algorithm, basketball, football_pitch, dipt, pers, hair_clip, adjusted, 1000, year, set, p_shaped, disjoint, bleacht, dreamt, used_mainly_after_where_here_and_there, abiosis, american_library_association, swounds, kenna, ah, triton, m_shaped, mornings, size, pandean, also, proscribed, entertainment, nonstandard, eth, dialectal, viscountess, had, automobile, air, aqua, major, betimes, ⠁, possess, otw, did, anterior, spat, australian_dollar, un, lose, d's, break_off, ies, americanize, a, fork, upon, ata, twou'dn't, cajun, da, theorem, blest, neighborhood, has, exhibit, scotland, tesla, nights, n_acetyl_p_aminophenol, five, horse, aptychus, musical_artist, skainsmate, computer_languages, confest, igm, dispossest, aerial, computing_theory, t_shaped, wiener_dog, cherubs, d_hole, exactly, abandannaad, afterwards, crasht, s’s, deprest, v_cut, organic_chemistry, transsexual, hulkamaniac, molarity, monoclonal_antibody, triple, ai, americanization, annus, predicted, transmissivity, admiral, would, d_minor, victor, abbreviation, rating, sanatoria, dx, o, accusative_case, caught, caravansary, m’s, æ, m_size, holliers, wilkes, brusht, hirs, 5, snipt, list, snooker, twelvemo, fourth_letter_of_roman_alphabet, ve, april, alotta, acid, incuba, m'lord, perfectly, all_mort, brought, taxable, axiom, penalty_arc, male, ack, she, la_dièse, askt, football, interconsonantal, grammar, air_branch, second, ajax, kamatz, alee, container, khoum, phenomena, acardiacus, euphemism, mit, descending_s, anonymous, pp, game, aaa, people'd, even, bethought, annext, pantile, cuppa, luggage, bornt, pigscot, application, rackarock, neura, apiece, clasht, philippine, dript, plus, li, long_vowel, time, cropt, aken, any, iodabenzene, methamphetamine, ms, abasht, perfection, answer, were, spectral_class, mathematics, equal_temperament, triiodothyronine, amphibious, ii, y, mammal, abaft, ana, awhape, cross, birdsmouth, noons, ette, medicine, northern_england, criteria, 12mo, sithence, arctic, automata, excuse, titular, aweigh, celestial_object, encroacht, absent, accepted, cl, tis, 500, admonisht, adventure_game, blemisht, weingarten_right, nones, acronym, mb, 18mo, old_penny, slang, backwards, blood_type, developt, present_tense, diceroll, rix, area, c_sharp, media, chirpt, artificer, saint, robertsman, blent, gentleman's_agreement, jackanapes, audit, v_neck, delete, altitude, rail_transport, p_complete, meadow, azure, distinguisht, otl, strident, archaea, atlantic, can_store_food, disrelisht, labial, ruby, alphabet, one, tuesday, u, bacteria, fist_letter_of_alphabet, copenhagen, burnisht, colossea, v_twin, mbta, arterial, absorbancy, thyroxine, specific_absorption_coefficient, fatha, metacism, deoxythymidine_monophosphate, specific_rotation, para, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, avoucht, vitamin, mausolea, internet, subway, pethers, against, eirs, teen, absolute, to, ing, semitone, verb, v_necked, vs, build_cathedral, iv, darwin, frigga, aes, vrykolaka, per, b_♭, administration, peso, saxon_genitive, besprent, jessa, versus, music, tradeswoman, accomplisht, water_spout, absorbance, england, signore, thousand, vanadium, lost, acceleration, hotel, en, astand, pawn, beanbag, k, saint_anthony's_cross, deduc’t, metric_ton, result, sn, physicotheology, first_letter_of_roman_alphabet, anthracite, os, transgender, svedberg, yours, australian, copypasta, when_it_is_nonstandardly_used_as_relative_pronoun, not, tee, astonisht, knitting, cleft, taxaphobic, michigan, organic_compound, abolisht, ahold, rogers, see_also_es, my, at_pinch, jocular, it, eiffel, clitic, software, artery, taxa, crusht, ours, heifer, ev, amacrine, august, fréchet, lines, airman, fathom, asian, deterministic, hertz, mab, abc, singular, auditor, januarys, vitamin_d, kolmogorov, ob, d_major, amissing, p's, search, he, nautical_mile, bit, hers, ricketts, printing, adp, awry, best, wolf_hook, brandisht, s_bomb, toll_highway, activity, apl, ties, atmosphere, bynempt, hip_hop_music, emma, thirteenth_letter_of_roman_alphabet, fuckabilly, es, information_services_and_technology, vegas, acephalopodia, austria, monday, walk_mile_in_someone's_shoes, raguileo_alphabet, atrocha, hail, eclipst, storativity, ambusht, tween, apprentice, panthea, twas, expertise, anothergates, ha, stock_symbol, t, drop_d, reporting, sulfur, dismist, st, besought, rat, dry_storage, toward, d’s, beginnings, genitive_case, frame, polyvinyl_chloride, spearsman, drive, d100, aviator, sxsw, n, danc’t, minor, mass_number, stade, bronx, arace, parkins, cycle_of_fifths, valor, celestial_body, meter, euse, v's, disestablisht, avancé, print_on_printer, hunter's_moon, anguisht, women, on, delta_v, four, percentage_point, ratings, neighborhood_map, pvc, embost, blusht, infix, turing_machine, enforc’t, chemical_symbol_for_phosphorous, the, anno, army, v_shaped, string, deuterium, mth, dextro, plantsperson, baulk_line, accurst, it's, t_square, acre, programming_language, ataxia_telangiectasia, buffet, comprest, trailer, denounc’t, restaurant, zf, meetaversary, hoodla, v_sign, madalyn, builder's_mug, amateur, computer_science, zounds, dialect, drest, d_sharp, polynomial_time, ds, issa, country, are, hedra, tees, accidental, diptera, l, ampere, miscellaneum, r, annodated, attack, person, adjutant, british, actus, author, demolisht, address, forwards, relaxacon, in, m's, keynote, pinfall, annealing, adoors, kudo, medium, died, vis_vis, medial_s, accommodation, age, signor, industry, ship, ae, ephemera, attendance, final, asked, statesman, morpheme, meta, deckt, let's, class, auxiliary, deoxyadenosine_monophosphate, daunc’t, alexipyretic, transit_card, open, gs, stage, å, th, glass, solfege, fox, babs, t_pose, tritium, roof, have, cue_ball, approved, associate, clipt, i, aircraft, equivalent, tilt_whirl, corner_tooth, hors_categorie, king's_man, er, baseball, t_stop, m'lady, ge, lemur, musea, physics, begat, association, excrescence, f, anecdotum, monsieur, form_of_vessle, str, secret_intelligence_service, atta, dislik’t, d_s, taula, m, scampsman, python, denmark</t>
-  </si>
-  <si>
-    <t>celestial_body, star</t>
-  </si>
-  <si>
-    <t>fish, water</t>
-  </si>
-  <si>
-    <t>believe, b.s.l, computer_language, chemical_symbol_of_carbon, 3gl, fourth_position, compiler, chapter, nf, average, politics, ball, dry_cell_battery, o, deoxycytidine_monophosphate, b.sc.n, php, c's, b_complex_vitamin, ml, paradigm, hb, c, flat, external, ub, follow, b.eng, bacillus, malloc, latitude, byte, b.l.s, b_major, b.as, b_story, third_letter_of_roman_alphabet, clu, b_minor, second_letter_of_alphabet, b.des, stl, b.c.e, b_shaped, second_letter_of_roman_alphabet, bit, internet_slang, k_r, nyse, composition, moisturizer, d, etc, constant_of_integration, b.b.a, c.f.r, decomposition, chromatic_semitone, limbo, ada, billion, c_shaped, air_conditioned, b_♭_instrument, b.e.e, assembly_language, carbon, b.acy, coke, 100, b.med, clothing, black, raguileo_alphabet, speed_of_light, b.s.e.e, first_letter_of_word_chair, b’s, tendu_en_arrière, ll.b, major_scale, and_so_on, spectral_class, awk, catherine_havasi's_initials, b.s.n, stock_symbol, costa, aeronautical_jargon, go, cancer, b.comm, c’s, cyclone, object_oriented_programming, bps, blood_group, law, example_of_programming_language, stop_codon, multi, tcl, nfc, kc, c_hole, other, sol_fa, cocaine, programming, account, air_conditioner, curly_bracket_language, d_♭, type_erasure, group_b, barn, b.a, kd, b.m, most_vexing_parse, entomology, jesus_was_crucified, do_dièse, slang, coulomb, belgium, titles, hib, blood_type, company, procedural_programming_lanuage, bethe, b_s, b, c_sharp, c_minor, b_final, e_♭_instrument, cricket, unsupported_titles_c_sharp, anime, taking_bus, ballet, chromatic_scale, lb, unicode, bs, uk, sigmoid, canadian_dollar, bcpl, java, phm.b, b.s.e, charlie, basic, b_testing, cc, programming_language, b.sc, circa, shortcut_for_air_conditioning, electricity, f_instrument, c_note, ecmascript, labial, ruby, duff's_device, alphabet, hundred, type_b, air_conditioning, b_movie, b.mus, b's, b.tech, c_major, plan_b, soupcon, cad, c_channel, b_sharp, introverted, working_leg, c_suite, b.lit, b.m.e, cent, solfeggio, b.f.a, british, b_school, b_word, bubnoff_unit, b_flat, astronomy, tonic, size, template_metaprogramming, b.chir, thing, copyright_symbol, banned, third_letter_of_alphabet, b.s.a, high_c, legal, canonical, century, scale, ashoka, b.th, cytosine, vitamin_c, b.ch.d, computing, letter, breadth, rust, cobol, galactic_coordinate_system, a, object_oriented_programming_language, urbiscript, b.acc, city, high_level, cs, music, b.compt, chartered_accountant, solfège, lua, big, cello, lvalue, córdoba, diatonic_semitone, cmos, bel, emission_theory, b_side, düsseldorf, perl, b.math, enharmonic, aircraft, computer_languages, curiously_recurring_template_pattern, b.s, i, j, degree_centigrade, b.ed, b.litt, boa, b.e, boron, bye, bliss, c_s, fundamental_constant, fortran, decemvirate, tier, text_messaging, cetera, ℓ, b.com, physics, f, kuh, kb, javascript, falcon, supercee, conservative, python, b.lib, b.arch</t>
-  </si>
-  <si>
-    <t>ground, hill, down</t>
-  </si>
-  <si>
-    <t>toonophile, ortho, aud, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, scalogram, ometry, sincerely, square_metre, t_internet, fandom_slang, o_face, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, algol, act, non_sequituri, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, dezh, o_shaped, language, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, dirhem, account, academy, man, myctag, amos, type_erasure, 360, megabyte, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, rafivirumab, ballet, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, archeopteryx, balanophagous, nd, b's, e_vite, w_r_t, cup, soupcon, united_kingdom, casualty, group, embellisht, f_minus, damma, data, visarga, double, dealt, xiphisternum, interfix, writer, high_c, kayo, ll, level, g_s, letter, robatumumab, penny_sterling, replace, kasra, cat, academic, type, diatonic_semitone, estes, before, e_tail, have_got, belcht, aitkins, i’s, boron, subject, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, surname, meaning, dry_cell_battery, connecter, hb, efungumab, paradigm, man_o_war, svo, u’s, dram, is, b_minor, count_out, vocative_case, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, espionage, prototype_based_language, k_pop, acrita, magic_e, tertiary, miserabilist, clicko, brassiere, double_u, u_tube, gf, dice, ambassador, nisba, c’s, team, pound_sterling, finance, c_hole, symbologenic, 4chan, homœo, personal, e_shaped, p_word, metre, ious, asymmetric, e’s, segovia, heroin, ultimata, brewster, bethe, video_game, cœno, you_and, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, j’s, pandean, turn, proscribed, entertainment, automobile, hypercorrection, roentgen, spat, australian_dollar, roman_numeral, lose, d's, jth, micro, aberdeen_hook, proverb, twou'dn't, cajun, water, blest, perpendicular_pronoun, animanga_character, coenosteum, bel, vocative, b.ed, musical_artist, non_u, i_don't_care, einsteinium, bye, tier, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, twelvemo, fourth_letter_of_roman_alphabet, india, april, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, lemalesomab, annext, lexatumumab, cuppa, bornt, application, will_o_wisp, first_person, clasht, philippine, time, cropt, television_show, aken, zero, ms, seleno, perfection, answer, were, spectral_class, speako, noons, e_folding, oyl, gameto, arctic, e's, automata, excuse, gee, libivirumab, encroacht, accepted, unstressed, tis, run_o_mill, barn, mb, b.a, argyro, coulomb, iferous, sr, chirpt, audit, distinguisht, circa, e_quainted, galanthophile, labial, i_ship, b.mus, moo_u, ngl, mbta, deoxythymidine_monophosphate, ignominy, para, cymoscope, soul_music, mausolea, eirs, nemato, build_cathedral, segrosome, hydrogen_atom, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, equiangular, thousand, u_boat, seah, en, b.litt, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, sentences, television_station, cleft, falcon, ahold, believe, my, f_hole, compiler, zoö, taxa, green, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, problemo, kolmogorov, detumomab, antigen, bit, printing, western, unit, ties, atmosphere, bynempt, pencil, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, nay, austria, dunzo, nebacumab, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, e_sharp, i'll've, genitive_case, wynn, nfc, nnw, e_tailing, d100, minor, stade, do_dièse, hunter's_moon, ignore, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, tibeto, string, mth, phm.b, dextro, it's, liter, builder's_mug, c_channel, accidental, i'd, miscellaneum, emergency, scanno, hebdomadiversary, british, semivowel, ego, author, f’s, in, keynote, medium, uranium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, i_and_i, lino, statesman, let's, okay, stage, solfege, cmos, rip, b.s, me_pronoun, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, denmark, can_store_food, angstrom, tert, twelveth_letter_of_roman_alphabet, ich, banisht, foravirumab, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, chill, internet_slang, toodles, at, numero_sign, mano_mano, road_transport, decomposition, transhumanism, l_size, acaulous, hoplo, ell, beeswax, me_reference, ze, bent, u_rp, academician, gasogen, aa, sudoriferous, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, palochka, other, mega, hey, be, programming, asqtad, homoio, blockt, aglutition, ods, ri, istro, thymine, absolute_temperature, titles, b_s, ues, or, u_shaped, argent, ex, talk_to, chromatic_scale, s, self, make, military, exbivirumab, ihood, american, charlie, wth, logico, crease, writo, re, checkt, ss, athanogene, bisphenol, after, connectogram, ebrary, gilf, education, maiden_over, oic, statement, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, i_wiss, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, yours_truly, levo, saké, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, ℓ, single, fictional_character, mac, playoff, javascript, cisgender, self_me, self_reference, conservative, tittle, ecmascript, softography, curst, purkins, crept, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, linking_vowel, go_to_market, pip, gomer, e_tailer, l_shaped, ostomy, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, pædo, venipuncture, astragal, dacryohemorrhea, us, cor, grade, china, deuteron, survival_horror, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, tungsten, rhythm_and_blues, est, slut's_wool, from_latin_libra, me_subject, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, number, shortcut_for_air_conditioning, ragamuffin, mature, tenth_letter_of_roman_alphabet, i'm, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, lambert, dioxygen, nacolomab_tafenatox, imac, major, betimes, otw, e_form, b.ch.d, did, anterior, a, shanxi, lua, has, neighborhood, lvalue, tesla, nights, i'se, taplitumomab, g_shaped, skainsmate, f_sharp, ga, dispossest, japanese, wiener_dog, d_hole, hs, deprest, joule, b.com, triple, i's, with, narration, admiral, fifth_letter_of_roman_alphabet, d_minor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, b.des, czechoslovak, football, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, mit, ancient_greek, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, klecksography, criteria, litre, sithence, me, celestial_object, absent, admonisht, blemisht, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, status, subjective, blent, unicode, jackanapes, vagino, cervico, b_testing, otl, flowering_plant, archaea, regina, proton_hydron, ruby, state, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, lth, subway, canonical, teen, absolute, guanine, pritumumab, ing, l_plate, verb, iv, manga, computing, u's, r's, b_♭, mapatumumab, cs, england, linotype, log, curiously_recurring_template_pattern, lgbt, astand, boa, bloviate, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, pronouns, taxaphobic, abolisht, rogers, capital, b.s.l, inorite, urbicidal, artery, crusht, ours, spherocylindrical, wednesday, sterling, u_turn, lines, reflectoporn, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, speaker, emma, fuckabilly, c_shaped, blood, vegas, i_ness, thing, stretch, tween, britain, sulesomab, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, spearsman, drive, danc’t, mass_number, peripherovascular, witness, rf, cycle_of_fifths, valor, power_pill, euse, belgium, hib, women, esrb_rating, ch, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, muography, baulk_line, accurst, t_square, acre, comprest, trailer, firs_person, necitumumab, empathogen, meetaversary, madalyn, computer_science, movie, polynomial_time, issa, country, diptera, r, b.lit, cutting_edge, zero_g, actus, intetumumab, anxio, m's, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, i_hood, ephemera, deoxyadenosine_monophosphate, high_level, cj, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, i_beam, hyoid, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, austroasiatic, e_road, d_s, taula, supercee, eradiation, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, norovirus, b_story, clu, islamic_calendar, employ, set_theory, take_l, mc, tositumomab, nyse, variant, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, o’s, b.e.e, can_begin_to_leak, jj, ll.b, besides, ownership, costa, homer, grammatical, republican, women's_christmas, sevirumab, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, port_o_john, fitz, nfd, fs, gentleman, u_bolt, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, i18n, available, bs, java, μ, w, apple, ramucirumab, bought, street_slang, type_b, yo, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, patronymic, au, metaphysics, audio, vector, template_metaprogramming, b.chir, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, terminology, h's, cobol, admit, urbiscript, b.acc, iii, long_s, denosumab, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, interstate, b.math, enharmonic, mother, abbreviation_of'you, electronics, rhotacism, o'clock, stadia, america, bug_boo, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, terminal_s, v, home, w's, c, external, i'll, malloc, np, dog's_letter, indefinite_article, right, aware, electronic, dwelt, cock_hoop, r’s, stl, elaborate, b_shaped, ed, s_hole, basketball_league, flute, fora, twere, aunt, muggins, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, go, do, sol_fa, attacht, enravisht, multiple_o's, no, s_size, aspect_ratio, entomology, sie, graph, rd, approacht, b_final, myself, levulose, sixteenth_letter_of_roman_alphabet, lb, h_shackle, they, form, toll_road, indicative, basketball, coarticulate, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, christofascist, b.m.e, kenna, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, o_ring, un, break_off, fashionable, ies, fork, upon, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, doubleyou, kinesiology, computer_languages, confest, exponential, aerial, computing_theory, stan, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, o'reilly, hulkamaniac, yot, kb, ai, meaning_me, americanization, annus, b.lib, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, 1, particle, ra, snooker, ü, read, latitude, alotta, and_eye, acid, ninth, perfectly, brought, singer_songwriter, male, askt, b.c.e, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, regavirumab, apiece, 50, dript, b_♭_instrument, raxibacumab, b’s, marijuana, pneumato, australia, eye, chemical_symbol_of_oxygen, mitumomab, iratumumab, ii, i've, abaft, ana, ette, subjective_pronoun, medicine, 12mo, law, aweigh, korea, 500, curly_bracket_language, j_shaped, acronym, old_penny, gravo, identification, panobacumab, blood_type, drachm, artificer, i'ven't, cigarette, idollator, robertsman, oto, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, p_uman, fatha, metacism, gas_constant, air_to_ground, afaiu, i'd've, stamulumab, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, darwin, aes, peso, besprent, ignoble, jessa, lucatumumab, iono, chartered_accountant, music, water_spout, gw, sitcom, signore, lost, degree_centigrade, k, result, sn, cinema, white, australian, arterio, not, b.arch, clitic, software, sentence, ball, php, amacrine, idren, ith, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, wwwww, b.b.a, herpeto, billion, information_services_and_technology, acephalopodia, by_from_home_depot, you, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, ify, dry_storage, base, aviator, n, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, spliceosome, unsupported_titles_c_sharp, magneto, uracil, chemical_symbol_for_phosphorous, accounts_receivable, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, iyaric, restaurant, hoodla, philo, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, lead, shambolic, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, morpheme, class, lev, scale_height, alexipyretic, transit_card, open, å, irrevocable, th, auri, babs, t_pose, tritium, b_side, associate, clipt, zymosimeter, pronoun_me, m'lady, ge, fortran, almost, musea, w5, excrescence, pound, flatulogenic, monsieur, form_of_vessle, atta, semicircle, description, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, postnominal, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, number_one, ps, first_alphabet, history, my_ass, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, js, oxygen, superior, d, date, topology, iration, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, degree_fahrenheit, ground, zoöphytology, b.med, problem, some, contradistinguisht, character, issaron, selligueain, digital, object_oriented_programming, cherisht, multi, and, panitumumab, b.m, pells, of_piece, metalic_cylindrical_container, jamaica, jack_o_lantern, z, mmole, loophole, d_b, egocentric, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, aviation, vexillographer, foreroom, cor_anglais, j.d, heat_content, give_hand, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, referred, abundant, ab, gantenerumab, amnia, descendant, its, lolz, b.s.a, hard, deictic, i_shaped, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, e_quaintance, ofatumumab, mitochondria, rust, anna, b.compt, equi, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, set_containing_one_element, amplitude, d_shaped, s_shaped, u_235, ppbar, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, bridgmanite, cock_leekie, burnt, goatshair, highland, m.d, business, s's, illo, testosterone, square_meter, new_zealand, w_shaped, last, elemeno, digrest, clg, e, misle, ilka, allies, composition, sphygmo, every, secondary, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, graphophone, iwantone, capitol, west, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, spello, laetrile, ital, iform, l’s, cyclone, bps, abeigh, about, dunam, ocracy, all_gog, point, potato, manosphere, air_conditioner, ancient, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, edrecolomab, watt, d.d, dotless_i, itinually, cricket, taking_bus, cab, afternoon, i'dn't've, dex, galaxy, u_pick, diminisht, seventh_letter_of_roman_alphabet, p’s, em, acroatics, economics, duff's_device, hundred, air_conditioning, like_me, miladdo, urano, swounds, ah, ls, efold, m_shaped, master_of_ceremonies, roman, mornings, size, also, xe, banned, had, air, possess, cytosine, b.th, self_description, irish, americanize, iodine, galactic_coordinate_system, ata, deoxyribose, fifty, da, theorem, scotland, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, one_person, ff, personal_identification, monoatomic_cation, atomic_nucleus, caught, b_complex_vitamin, æ, holliers, wilkes, g's, oes, ub, list, h’s, b.as, incuba, m'lord, ecstasy, nosism, taxable, also_known_as, vulvo, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, luggage, ada, plus, li, lethek, long_vowel, hemoglobin, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, wed, awhape, cross, northern_england, example_of_programming_language, adventure_game, strong_electrolyte, 18mo, kd, inity, universal_donor, slang, backwards, grunsel, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, group_o, strident, fluor, fluorine, egocentric_pronoun, upper_class, disrelisht, c_note, tuesday, burnisht, almost_me, purposes, absorbancy, thyroxine, americo, c_suite, g_minor, vitamin, hegira, balletomania, against, human, archæo, l's, to, gb, river, e_tard, 2h, canine_letter, per, firs, saxon_genitive, city, tuvirumab, absorbance, acceleration, litho, echeng, la, hotel, beanbag, deduc’t, like, j_drama, calendar_terms, svedberg, tee, astonisht, knitting, jack, michigan, mark, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, porno, d_major, he, ricketts, best, q, activity, lyrical_i, apl, stinko, hip_hop_music, marinobufagin, convention, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, expertise, rexx, usd, besought, d’s, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, h_beam, meter, avancé, e_thumb, four, percentage_point, toy, infix, anno, army, deuterium, personal_pronoun, ataxia_telangiectasia, henan, buffet, psepho, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, dialect, drest, pneumono, zir, ds, hedra, tees, introverted, aspirated_h, sixth_letter_of_roman_alphabet, fail, rex, person, coeno, gravitational_constant, address, forwards, over, single_alphabet, died, e_head, medial_s, industry, attendance, modius, meta, o_canada, british_film_certificate, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, j's, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
+    <t xml:space="preserve">bimedian, plus_minus_sign, supermodular, subtree, generatrix, anallagmatic, triaugmented, bidiagonal, power_of, finitism, tame, generalization, polyiamond, tractrix, trilogarithm, projection, coanalytic, james_clerk_maxwell, homaloid, eigenspectrum, formal_power_series, please_excuse_my_dear_aunt_sally, compact_space, superlogarithm, trapezian, parametric_equation, incidence, intersection, trihexagonal, equimultiple, rectilinear, semiaxis, norm, supermembrane, cuboctahedron, binormal, fixed_set, apodization, subbase, overorder, bimetric, fractal_geometry, algorithmics, dual, new_math, normal_form, groud, spherical_harmonics, elementary_geometry, polyhedron, pencil, fuzzification, cross_section, affinized, johnson_solid, complex, apothem, hyp, dihedron, equilateral_triangle, quasiperiodic, cubefree, linear_pair, accent_mark, bialgebroid, subcollection, leafspace, primitive_root, boundary_term, angular_defect, syzygy, limit, bialgebra, dirigent, properness, quadratic_form, computus, amphihexahedron, conocuneus, binode, stellated, mountainslope, power_center, subduple, metabelian, prime_decomposition, polytopal, mathematics_c, reweighted, aeronautics, decadic, speed, tacnode, exradius, classroom, sinical, submersion, equiprobable, cologarithm, pseudospectral, homological, biquadrate, version, polynema, superseparability, bigraph, mediatrix, nilmanifold, interpolate, cliff, calculating_circumference, metricity, desargues_configuration, maplet, topologized, logarithm, differentiate, cardinal_number, hexacosichoron, gradian, first_passage_time, axiom, connected, radix_point, conic_section, reflection, cocircularity, ellipsis, bicategorical, line_of_apsides, maximal, rediagonalize, strong, involute, trigonometric_series, semiprime, pathological, jacques_charles, backgammon, subacute, pandigital, chirality, gyrorotation, transflection, equicontinuous, supermeasure, exponential, eigenproblem, radius_vector, tiling, filter, hyperdiffusion, orthoradial, pronic, zero_matrix, solve, integerness, mathematical_process, ith, de_morgan's_law, positone, zeta_function, polynomial, orthant, semigroup, triamond, unknottedness, apolar, mathematical_logic, quantic, hyperelliptic, hedron, cubic_curve, cochain_complex, additive_inverse, quasipotential, complex_analysis, functional_analysis, malfatti_circle, art_gallery_problem, homothecy, measure_theory, wavelet, capacitated, adjacent_angle, morphism, figural, polylogarithm, mapping, matroidal, reflexivity, canonical_form, clarithmetic, sublinear, enneagon, square_circle, information_theory, eccentric, holomorphy, radio, countably, conus, null, parallelotope, lp, invariance, ternary, parallel_postulate, surface_area, coring, normal, sieve_of_eratosthenes, circumference, ordinate, affine_space, newform, nonmatrix, categorical_product, pentomino, numerical_analysis, rheometry, geometrylike, boron_tree, associahedron, disjoint_union, semicircle, square_pyramid, orthonormalization, unary, quadrivariate, iatromathematics, hexlet, superellipse, basin_of_attraction, semilattice, semisimple, nonisomorphically, part, cocircular, filf, achronality, rotation, without_loss_of_generality, lean, horodisk, underbound, number_line, trilobite, lexicographic_order, anisotropic, factorable, x_ray_diffraction, retraction, eigenhead, partial_derivative, shearlike, summable, golden_ratio, one, lowest_common_multiple, cyclic_inscriptable, zonohedron, integral_equation, addend, pentacron, subspace, logocyclic_curve, net, line_segment, hyperbolic_sector, minus_plus_sign, projectability, pentakis, op, biholomorphic, backscatter, cyclotomic, bounded_function, damping_ratio, tricorn, eigenvariety, semiregular_tessellation, differentially, semidirect, pentadecimal, conversion, cointegration, tent, hexagonal_prism, dirac_delta_function, principal_ultrafilter, composite_function, osculator, leavable, dromion, point_at_infinity, k_adic, board, pseudo_edge, extremum, regular_open, orbifolding, null_set, domatic, useful_in_business, mantissa, covering_space, pseudotriangle, even_function, capping, primeness, biregular, grandi's_series, disconnected, nomogram, caustic, catalan_number, approximand, isospectral, radiant, nonomino, connectance, monodromic, central_angle, monic, tessellate, smooth, power_function, abstract_algebra, sexy, equinumerous, conics, n_dimensional, star, coproduct, tridigital, adjointable, inclusion_function, convexified, hyperbolic_function, aboslute, inscribe, n_omino, directly_proportional, coin, superdevelopment, contralaterality, noncardinal, hyperdeficient, half_integer, sumset, pentakis_dodecahedron, affinor, single_valued, thomas_carlyle, regular_continued_fraction, geometrogenesis, hexakis, trace, ring, derangement, summation, microarcsecond, chiliagon, inhabited, from, frobenius, strictly_increasing_function, coalgebraic, superformula, quadrantal, radius, classifying_space, abelian_algebra, horocycle, hard_science, plane_angle, characteristic, triacontagon, cyclic_quadrilateral, minute, monotony, second_order, polyhedral, floor_function, signum_function, ramifiable, binomial_series, mansard_roof, subtracting, simplified_expression, homaloidal, tetragon, diagram, pentacube, laplace_transform, brahmagupta's_formula, intuitionistic, dodecagon, bilinear, if_and_only_if, modulo, inversion_pair, minimization, language_of_nature, unit_function, divergent_series, cartesian_product, attack, sphenomegacorona, orthomodular, mathemaku, trope, crunode, nondifferentiable, copoint, corner_solution, poissonian, semispace, tractable, spinode, idempotent, interpenetrative, pyritohedral, multigrid, lcm, trimery, floor, quadrature, n_ary, cauchy_problem, continuant, bomdas, knottedness, manipulative, subconical, covertex, antiunitary, leaf, cofinite, tractricoid, rounded, residuosity, expansivity, sexy_prime, poloid, cross_multiplication, scalene_triangle, infimum, compactify, hyperarithmetic, relatively_prime, gibbs_phenomenon, gyro, absolute_term, first_order, asymptotic_analysis, multideterminantal, angle_bracket, kite, stereoelectronics, polyharmonic, linearoid, chaology, cant, flat_space, hyperellipsoid, disphenoid, astroid, true_lover's_knot, algebraist, equivariant, noncototient, tore, cyclometry, metric_tensor, formalism, middle, binary_function, antiphase, eikonalized, sedenion, superreal, adding_subtracting, polynomic, hull, superscript, sublemma, termgraph, peak, generic, supergauge, nonperturbative, mathematical_space, irrational, pseudoradical, semifield, fish, term, biinfinite, piecewise, adicity, biconjugate, polystick, nonsimple, nappe, real_valued, holomorphicity, resultant, embedding, circle_of_antisimilitude, euler_line, bispectrum, interprime, algebra_geometry, dimensionality, distribution, nonsimply, evenly, uniformize, proposition, branch, logistic_function, crown, vertex_figure, semiparametric, go, pointwise, curve, homothety, regular_closed, zero, numeric, spline, permutohedron, algebroid, travel, radian, affinity, turning_number, cancellative, theorem, subsurface, comeasurable, constant, aperiodic, approximant, lp_space, setlike, degenerate_conic, eigenvariable, comonoid, 4_polytope, integrally, disassortative, subword, hyperfunction, genetics, game_theoretical, majorant, baseline, synergetics, obtuse_triangle, subresultant, antiautomorphism, hyperscalar, hand, antifundamental, lorentz_group, anders_celsius, stereotomy, angle, septic, sinusoidal, nonzero, enneahedral, equinumerosity, number_cruncher, posetal, orbit, pentamery, structure, epsilontic, quadrate, hyperbolic_polynomial, function_value, evector, nonstiff, accidental, coevent, sort, modulus, small_worldness, quasireversibility, grass, cogredient, epigraph, discrete_mathematics, harmonic_series, hyperbolic_angle, form_factor, four_vector, subtend, semialgebraic, base, paracompact, open_rectangle, study_of_shapes, grothendieck_universe, additive, sparsify, antipersistent, maximum, synclastic, sphenic_number, pyritohedron, bessel_function, numbers, permute, subterm, quasilinear, rod, preconditioner, pentagon, tomahawk, orthoplex, hypercell, rhombic_dodecahedron, lemmatically, regular_prime, laplacian, acute, subtense, periodogram, proper, isohedral, rounding, trigonometric_cofunction, octahedron, infinite, gon, uniform, coterminal, biparavector, polynomial_time, decreasing_function, arg, exponential_equation, self_dual, prospectivity, ophthalmogeometry, parallelizability, center, cotton, gyrotranslation, tromino, gyrocentroid, undefined, stellation, monsky's_theorem, isotomic, superseparable, compactum, foliate_curve, rbf, number_theorist, hyperbolic_plane, diffeomorphic, polyalgorithm, coaugmentation, diffeomorphism, bicorn, transition_matrix, addition_subtraction, superposition_principle, spacelike, coquaternion, residue, snub_dodecahedron, equivalence, common_multiple, determinacy, bicrossproduct, centroid, category, divergent, parallelepipedal, atoroidal, symmetric_function, jacobi_identity, mlse, construct, iterate, treespace, sextantal, dimension, epicycle, exponential_function, image, exponential_growth, wavenumber, parenthesis, f.g, locale, inclined, cofactor, calculations, parallelepiped, abbreviate, diverge, eigenequation, fourgon, monotonic, frequently, truth_function, anticommutation, periodic, comparable, adele, parallel, bis, relative, superellipsoid, conjugate_angles, vector_field, string, hyperdeterminant, mountain, subbag, rice, bodmas, lognormal, octonion, moniamond, tail, spherical_geometry, representation_theory, central_limit_theorem, generate, quadrable, multivariate, absolute_value, extrapolate, tesseral, tissot's_indicatrix, piecewise_linear, bitruncated, definition, inertial_space, calculator, comparison, kumon_method, glome, isoperimetric, linear_equation, diamond, quasiconvex, magnitude, ultraproduct, conformality, slide, automorphy, scalar_field, flype, odd_number, australia, size_theory, pauli_matrix, angular, duplation, one_form, punctual, transactional_analysis, self_affinity, possibilistic, multimodality, hyperbolic_cosine, additive_operation, abelian, hero_of_alexandria, geometrography, one_start, microtile, pole, page, reasoning, zenzizenzic, circle_segment, biordinal, intersect, hendecagon, mass_function, snub, concurrent, squashable, roulette, calculation, extract, so_called, geometricity, facultative, lerp, line_of_centers, polygonness, tetracuspid, domain_theory, alternate_angles, evaluation, nine_point_circle, angled, hessian, csc, piece, hosohedron, ramification, monograde, second, obvious_by_inspection, hyperball, sd, bichromatic, nonfuzzy, slope_field, eigenphase, quincunx, stochastic_process, nonconformally, kill, ground_set, natural_function, dividable, interjoin, real_number, antiset, rectangular_number, biharmonic, window, euclidean, antiprismatic, co_ordinate_axis, allometric, eigensolution, sphere, hyperbola, hypocycloid, zero_vector, gaussian, graph_theoretical, eckardt_point, dot, taxicab_distance, associate, crunodal, group, infinitesimal_analysis, microgeometry, quadratic_integer, superconnection, dodecadodecahedron, common_antilog, value, centroscopy, vanish, polymath, half_space, citizen, metrization, faciend, round_angle, homomorphically, pauli_vector, overlap, hypergroup, ill_defined, nonprime, dynamic_programming, supercommutative, univariate, spirallikeness, grassmannian, isocline, projectivization, irregular_prism, dendrimer, trapdoor_function, exinscribed, subgrid, transposition, pseudoprime, geometric, laplace_operator, bell_curve, decycling, semi_decidability, zetetics, thalesian, pcp, trihedron, cylinder, nonagon, quasiharmonic, effective, quintate, superficies, antisymmetrization, calculus, scalar, cyclometric, roc, tetraspace, descriptive_geometry, flecnode, phase, wwwww, monodendron, factorion, quadrant, grothendieck_group, overprime, spread, theory_of_games, sexual, antipersistence, system, polygenic, diagonalizable, reachable, operadic, pseudoconcave, amalgamate, hyperoctahedral, call_graph, johari_window, hexadecagon, transformally, simplices, injective, antikink, antimatroid, bitangential, apex, subcubic, del, standardized_variable, subsolution, einstein_space, functional, lowest_common_denominator, cut, ireland, reductio_ad_absurdum, nonhyperbolic, logistic_curve, number_ray, equianharmonic, simplexity, spherical_excess, conjugate, submatrix, helicoid, projective_plane, superstatistics, wave_vector, real_function, principle, four, zenoness, superadditive, sexangle, radical_center, signature, centre_of_mass, repellor, reweight, z_transform, adjoin, biclustering, quasicontinuous, gyroangle, superalgebra, oliver_heaviside, graph_theoretic, tamari_lattice, hebesphenomegacorona, lemniscate, unranking, bornological, spherical, resplendent, coxeter_dynkin_diagram, sidelength, anharmonic, profinite, asymptotic, hexagonal, tetrad, zero_dimensional, equiaffine, mle, recursive_definition, hemiellipse, trispectrum, real_axis, deficiency, lens, stuff, ratelessly, oxygon, galois_theory, stochastics, mark, hamiltonian, do_math, chain_complex, explementary, nephroid, discrete_fourier_transform, coefficientwise, additive_group, differential_topology, closed_form, synthetic_division, smooth_function, symmorphic, digon, trinitrocresol, lemma, algorithmic, analysis_situs, supertransformation, convolve, cyclidic, analysis, laparo, homocentric, focus, superization, adj, multilobe, dihedral_angle, paracentric, pyramidal_number, pemdas, symplectomorphism, antitrigonometric_function, graph_theory, rank, ansatz, self_adjoint, rectangle, reducible, euclidean_distance, alhazen, commutative_algebra, excircle, monotonicity, ultrafinitism, persistent, equicrescent, rederive, alternativity, semilune, idele, multivalued, projective, taken, econometrician, round, rhombitruncated_icosidodecahedron, geometry, nonlinear, analytic_geometry, wa, levi_graph, mathematics, instrument, zone, subsequence, tangent, coaction, n_space, covariantize, folium, subrange, mathml, archimedean_spiral, divergence, eilenberg_maclane_space, manifoldness, evangelista_torricelli, conoid, comtrace, j, icosihenagon, symmetry, k_adic_notation, calculating_area, obtuse_angled, generant, supersmooth, love, dirichlet_eta_function, maxitive, reduction, hyperjump, congruence, isoptic, bidiagonalization, riemannian_geometry, semicontinuity, change, bistochastic, rep_tile, adelically, subunitary, hyperspace, quasi_invariant, coxeter_diagram, supergeometry, transvection, instantaneous_velocity, separatrix, cancellation, vorticity, partial_differential, domain, antisymmetrizing, related, horseshoe_map, semimean, regular_black_hole, main, random_function, squircle, operator, quinquesect, supertranslation, pythagorean_quadruple, lower_extreme, nonodd, set_theoretic, orbiform, intensionality, fiberwise, dual_polyhedron, box, beautiful, act, lineoid, antilinear, elliptization, verification, incommensurable, numeracy, defuzzification, superexponential, us, superposability, cline, persymmetry, regular_function, covariantization, pleuro, factorial, derivation, multiplicative_operation, zero_one_law, geocentric_coordinate_time, bifundamental, semiparabola, kelvin_function, centrosymmetry, congruency, connected_space, complex_plane, transpose_conjugate, orthogon, claude_shannon, airy_equation, laplace, cusp, trick, duotensorial, course, lightlike, orthocenter, common_antilogarithm, novelty_theory, resplendency, prism, antilogarithm, multifractal, incongruent, hexatetrahedron, geometric_mean, oblong_number, terminating, hyperspatial, glider_gun, polar_equation, quadric, locally_finite, multenion, hyperreal, geometry_shader, biholomorphism, macrogeometry, linearization, curlicue_fractal, gaze, channel, penalty_function, primality, local_maximum, scalefree, apollonian_gasket, polyhe, deviatoric, categorify, specialization, supertorus, hermitian, polar, degenerate, quadratic_function, epsilontics, semiangle, square_matrix, skin, sociotemporal, orthonormal, cumulant, oblique_line, bedmas, operatorial, bimodule, icosasphere, scalenohedron, cremona_richmond_configuration, astrogeometry, gamma, conjugation, reason, formal_science, twin_prime, contour_integral, coquaternionic, integrodifferential, agonic, pentatope, automorphic, commensurizer, vector_function, concentric, category_theory, trinominal, phi, sail_curve, straight_line, radical_line, recurrence_relation, fourier_series, law, injection, cuboid, polycube, beamspace, random_walker, nonmanifold, intersphere, deficient, acute_triangle, angle_bisector, submonoid, semiminor, keith_number, zero_order_hold, perimeter, heptakis, stationary_point, chi_square_test, non_negative, plane_geometry, gudermannian, zonotopic, identity_function, nonprimitive, sequence, superpolynomial, homogeneous_polynomial, trident, function, morita_equivalence, inflection_point, superpose, semiconjugate, numbers_equations, biorthogonal, incircle, square_root, analytic, conchoidal, continuum, polygonization, elliptic_geometry, constraint, pi, minoration, support, city, data_smoothing, anticlastic, octomino, physics, multilinear, scaling, quasilocal, cross_ratio, euclidean_group, concordant, polygonize, factorise, mathlete, non_euclidean_geometry, directrix, positive_recurrent, chronogeometry, semilogarithmic, trapeze, nullipotent, semicontinuous, taxicab_geometry, inflection, computer, cyclic, truncation, normed_vector_space, dct, polytan, nonconstructive, english, generating_function, unital, quadrangulation, subexpression, archimedean_solid, infinite_continued_fraction, cross_polytope, peakon, deconvolution, exceptional, unbinned, truncated_cube, cocommutative, disjunction, noncuple, alhazen's_problem, plücker_coordinate, sesquialterate, monotonic_increasing, differential, inscribed_circle, graph, fixed_point, differential_geometry, harmonic_function, polynomiography, pentachoron, bitangent, midpoint, nontotient, rational_function, semidecidability, team, convergent, solid_torus, complement, superparticular, circulant, bielliptic, uncolorability, reflex_angle, hypermatrix, gcd, kronecker_delta, left_inverse, dedekind_cut, hypertensor, halfspace, prime_constellation, orthonormality, edgepath, logicism, quasisplit, define, groupoidal, median, nonidentity, linear_algebra, distribution_function, phasor, implicit_function, have, module, asymptotics, body, math_class, way, honeycomb, cyclotomy, heptahedron, quadrisecant, real, pointless_topology, multicategory, bidirected, rose, projective_geometry, nonvanishing, multibody, apodize, describe, arccosh, antihyperbolic_function, unit_interval, undercomplete, toset, grad, convex, antimonotone, quasivariety, keplerate, trivariate, tombstone, eutactic, segment, anisotomic, undegenerate, port, semilinear, polykay, logarithmic_trigonometric_function, equivalent, comparable_function, different, symplectic, generation, chain, recursive, calculate, generic_property, hyperrectangle, heaviside_unit_function, face, round_off, eigenbasis, decigrade, superegg, cospectral, record, instanton, dms, morley_triangle, ipsilaterality, trapezium, tracial, hemiaplasia, scheme_theory, deg, rose_curve, bar, noncommutativity, comparability, quadrivium, isogonal, cap, polyacron, hyperinteger, entscheidungsproblem, sawtooth_wave, toolpath, unit, upper_quartile, subproposition, fuzzify, deltoidal_icositetrahedron, snake, structuralism, ship, anticommutator, snark, euclidian_space, octadecagon, floydian, line_of_striction, sdr, underrelax, zeroary, nonnull, minor, branching_process, symmedian, semiregular, countable, jacob's_ladder, divisibility_sequence, polymatroid, tetrakis_hexahedron, ometry, finite_element, supershape, hertzian, cardinality, cointegrated, scalar_curl, type, co, rateless, corepresentation, quasidisorder, polymodality, bialtitude, knotting, random, geocomplexity, game, multinomial, parallelohedron, subequal, hypergraph, erosion, hemiequilateral, involution, nonsingleton, circle, sphericon, superintegrable, penteract, step_function, pentacontagon, free, average, subdigraph, perturb, sethood, acoptic, arithmetic_progression, first_normal_form, geography, riemann_space, subtangent, antiperiodic, subsphere, geometry_of_numbers, skew, subgradient, bisector, balayage, nose, prime, heapable, eliminate, spire, horospherical, gnomon, icosagon, dense_in_itself, bisect, coding_theory, band, rpd, lower_set, matric, nonparametric, transitivity, bank, alternate, superuniversal, like, figure, tetracontagon, pseudotensor, antisymmetrical, dioperad, aggregate, orthobicupola, metric_space, transform, hairy_ball_theorem, schläfli_symbol, circular_arc, cylindroid, conjoin, ruled, superatomic, subposet, degree_of_freedom, irregular_prime, persymmetric, hexeract, axis, semimeridian, complex_differentiable, bisymmetry, enneract, definite_integral, homothetic, emmy_noether, large, rule, cofunction, fibonacci_spiral, antimedial, rw, macdonald_polynomial, commutativity, sound, steradian, pointclass, altitude, ergodic, pseudoduality, supermodule, cycle_chord, commensurable, arithmetization, regular_polygon, isotropy, scotland, maximization, one_on_one, travelling_salesman_problem, frequentist, stereogeometry, antilogarithmic, octant, laplace_plane, right_angle, isotrivial, zeno, equidecomposability, major_axis, composition, superfactorial, subface, axial_point, math_subject, paraboloid, point, sublattice, plesiohedron, formal, obtuse_angled_triangle, mod, singularity, retrosnub, hemiellipsoid, parameter, logit, five_lemma, corner, epicycloid, subconvexity, cell, flex, hyperradius, closure, curvilinead, trapezoid, scientific_notation, azygetic, progression, sub_gaussian, checksum, iso, cryptomorphism, elliptic_function, difference_quotient, fundamental_theorem, seminormality, icositetrahedron, evolute, direct_product, integral_transform, wallcrossing, nonpositive, strictly_decreasing_function, sequent_calculus, set_theory, coassociative, halfwave, subcardioid, subcone, computational_chemistry, congruent, beknottedness, octeract, abelianization, detailed_balance, polytope, historical, bag, grade, acute_angle, strict_ordering, salinon, preexponential, harmonic_mean, duad, projectivity, undecagon, primitive_recursive, polytrope, metacube, mathematical_analysis, polar_coordinates, frey_curve, supertrace, apeirogon, critical_point, discontinuous, combinatorial_commutative_algebra, bisymmetric, geometricize, uncertainty, hypercube, septangle, deduction, mathematese, probabilistic, bridgeness, nonconcordant, subsequential, one_of, hyperoperation, transversal, mereotopology, ball_game, measure, centre_of_curvature, increasing_function, extreme_point, concave_envelope, sagitta, natural_log, farm, convergence, kronecker_product, composite, geometrization, monogon, swim, coaxial, denumerable, number, antiparallelly, triangle, deterministic, traverse, arithmetic, quasiconcave, crunch, decakis, enneagonal, applicate, terminate, root_mean_square, oblongum, tesseract, alternately, fluent, golygon, discretize, verging, noneuclidean_geometry, sector, plane, holed_torus, polykite, common_denominator, diophantine_geometry, entrywise, unimodular, golden_spiral, dress, geodesic, complex_number, common_difference, poisson, total_function, bigenus, hyperfinite, nonordinal, affine_group, orthotomy, topology, subnormal, together, underrelaxation, complementary_angles, polydrafter, accident, basepoint, logicomathematical, smart, hemisymptom, summability, friend, solvmanifold, procyclic, octacube, semipositone, posology, perpendicular, probability_mass_function, precisely_unless, ultrafilter, overrelax, orthotope, language_of_god, uncolorable, quantion, anchor_ring, convexification, oblique_angle, bifurcation_theory, semimajor_axis, collinear, nascent, timelike, not_function, rationalization, geometric_progression, sesquitertian, semiparabolic, irregular, longer_version, departure, space_centrode, arithmetic_geometry, acalculiac, pigeonhole_principle, probability_measure, cyclohedron, absolute_geometry, antisymmetrize, heptadecagon, pseudodifferential_operator, parabolic, subproof, determinantal, nonsqueezing, hexiamond, number_theoretic_function, rangebased, uk, on, quarter, inradius, penalty_copy, nonvoid, poisson_process, well_ordering, ellipticity, subbasis, unity, polygonhood, polychoron, blood, indeterminate, superlinear, function_table, octavate, mathematical_economics, euclidean_geometry, coordinate, subpolynomial, multiplicative, apeirohedron, proth_number, ulp, totally_disconnected, local, john_venn, pythagorean_triple, trisector, inversely_proportional, pleurodynia, build_better_gun, eigencoefficient, algebraic_geometry, supercompact, nonselfadjoint, nonnegatively, belinkedness, discontinuity, metamathematical, dilogarithm, metry, eigencurve, onto, knot, fibonacci_number, s_plane, triexponential, line, rectangular_hyperbola, equiregular, laplace's_equation, monadic, recursion, hyperbolic_space, gunter's_scale, scroll, amphichiral, affine, identical, lituus, wedge, probability_theory, fluorophobic, unary_function, equiaffinity, hypersphere, vector_algebra, superexponentiation, cubed, torsor, difference_equation, codimension, pre_hilbert_space, edge, pythagorean_triangle, direct, presented, tridecagonal, graph_state, codomain, turn, rectification, subtraction, entity, shape, antisymmetrized, calculating_radius, lumpability, vectorial, scalene, topological, variable, mode, lateralism, quindecagonal, flat, exeter_point, open, trinomial, tri, gyroparallelogram, tqft, decimal_without_zero, randomized_algorithm, unode, ramsey's_theorem, number_language, pseudocodeword, inverse_trigonometric_function, square, hillclimbing, correlogram, decategorification, lower_bound, relation, pseudocubic, be, perforation, unipotent, infix_notation, biprism, non_null_persistent, projectable, unlesss, chainette, cartesian_space, radical_plane, oloid, trihedral, cochain, confluent, semigroud, abbreviation, quasiconformal, bimaximal, nonproper, hadwiger's_theorem, parity, let_be, linearizable, equilaterality, counion, polyform, triquadrantal, tetrakis, logarithmic_spiral, roll, subshift, hyperbolic_sine, hepteract, rhombus, probability_space, rotopulsator, orbispace, affix, orthochronous, lissajous_curve, ceiling_function, school, transpose, principal_part, fleflecnode, arxiv, antifield, pyramidalized, topic, improper_integral, posedness, exponentiation, truncation_error, wavefield, interior_point, ssa, supplement, isocapacitary, ramsey_theory, triomino, prismoid, pretzelosity, benoit_mandelbrot, pomset, affinization, multinumber, irrep, chord, homogenous_polynomial, uneven, locus, system_of_equations, bidegree, clipmapping, 8_cell, nlp, hexoctahedron, spheroform, mathematical_relation, gauge, sextic, amblygon, game_theory, redex, rhombihexahedron, unit_hyperbola, osculating, arbelos, node, graph_theoretically, indeterminant, equidissectable, homography, inflectional, ice_fractal, inner_product_space, open_book, hypograph, field_axiom, euclid's_postulate, supercatenoid, semiautomaton, arclength, polysquare, rectangular_coordinates, word_problem, brachistochrone, isoperimetry, meridian, critical_function, toroid, catacaustic, rampant, fuzzy_logic, extremal, slinky, subfactorial, epsilon, parallelizable, cogroup, osculation, wellsean, turing_computable_function, anticommuting, helmholtz_function, half_plane, integer_factorization, ultradiscretizing, minus_sign, reachability, evectant, supremal, oscnode, lévy_flight, supertransform, semilocal, subbundle, for_all, flag, lagrangian_function, cartesian_plane, isography, euler's_identity, confounder, variadic, siegel_zero, holyhedron, ultralocal, hypercritical_point, space_curve, transcendental_number, lectically, rate, ary, front, facet, b.math, möbius_transformation, gradient, rooted, kepler_solid, ics, algebraic_number_theory, exceptional_space, isomorphic, loxodrome, prime_factorization, practical_number, monte_carlo_method, integraph, riemann, heegner_point, orthogonal, resummation, directed_infinity, unit_vector, nonconnected, even_number, nonnegative, homogeneous_function, hyperdiffusive, bicriterion, algebraic, straight, cogebra, pentagonal_prism, bihamiltonian, equal, quaternion, lemoine_hexagon, mathematical_sociology, endomorphism, pseudoinverse, pedal_curve, dipyramid, indecomposability, hyperellipse, unit_circle, immersion, blockwise, argumentless, multisymplectic, distinguished, granocentric, subrepresentation, queensland, ceil, refactorable, bracket, length, bouquet, hyperreal_number, complete_angle, factorizable, octogram, equidecomposable, comonad, open_book_decomposition, bicircular, small, divine_proportion, desmic, bouquet_of_circles, satisfiability, clinometer, cofibration, isomonodromic, boolean_logic, polyplet, intuitionistic_logic, klein_bottle, evaluate, simple_harmonic_motion, fuchsian_group, yellis, hermitize, lie_algebra, distribute, kaprekar_number, spiral_of_archimedes, constant_function, bean_curve, theta, helix, orthoplexes, connectivity, superlinearity, gyrodiagonal, theoretical_probability, big_o_notation, uncountable, cepstrum, sigma, present, mean, corollary, full_circle, graph_antihole, axiomless, n_iamond, allegory, waveform, orthoplices, right_angled_triangle, midsphere, trigonometric, modular, chaotic, matrix, kth, well_defined, monomino, partition_function, brutalism, comodule, irreducible, jsr, pyramidoid, ellipse, polylog, curvature, odd, motor_variable, many_to_many, algebra, clino, covector, supersingular, e, finite_dimensional, coordinatization, erdős_number, parabola, tractory, sequentiality, unconstrainted, saw_tooth, actus, semistrict, divide, adic, polysaturated, ellipsoidal, tailedness, eventually, bimedial, faithful, john_von_neumann, discriminant, polyangle, null_recurrence, distance_function, archimedean_ordered_field, surjective, tautochronous, antiholomorphic, hyperstructure, strange_attractor, heptagrid, calculating_degrees, mesologarithm, cubic_equation, assortativity, partition_of_unity, jump, acg, regular_grid, semianalytic, almost_all, logarithmic_function, longer, rolle's_theorem, pseudospherical, polyhex, nonfunction, topological_group, orthoptic, algebraical, multialgebra, monotonically, invex, degree, wild, trochoid, obtuse, homogenous_function, similar, convolution, figurework, euclidean_space, enneagram, quartic_function, extensionality, semiarc, lerf, translationary, location, glider, refactorization, great_circle, aperture, gerbe, indicatrix, array, quartal, goniometer, voxel, division_sign, subtriplicate, gauss_map, time_independent, superjump, mandelbrot_set, quasipolynomial, paravector, malnormality, multigraph, niels_henrik_abel, music_room, play, osculate, hyperplane, primitive, semitangent, halving, right_angled, triality, submultialgebra, weakening, hilbert_curve, cantellation, polyfrob, cohesion, bicharacteristic, ideal, zeuthen_segre_invariant, mediant, immerse, hyperscaling, geometrician, bifurcation, paracomplex, simple_fraction, truncated_icosahedron, parallelogram, cutset, semimartingale, contingence, operation, tfae, metaplectic, university, centrosymmetric, reptation, homotopical, octonionics, dx, character, stationary_distribution, eccentricity, canonical_formalism, orthotomic, hyperfactorial, tomset, color, state, radius_of_curvature, open_half_space, decomino, conformal_mapping, plane_curve, truncated_cuboctahedron, subforest, residuated, estimator, sidehill, augmented_sphenocorona, premetric, homoeoid, polyomino, geometrist, crt, section, rationalize, bourbakism, binarize, steinmetz_solid, noncomputable, factorization, suffix, subscript, quasiidentity, fitness_model, quadratrix, stepsize, supercircle, choron, sedenionic, hypergroupoid, hexadecachoron, antispace, coth, martingale, level, arithmetical, 24_cell, delta, smallest_common_multiples, scalar_multiplication, aberrancy, defuzzify, coframe, spherocylinder, conchoid, approximable, circumcenter, pierre_de_fermat, physicomathematics, nonagram, porime, negligible_set, rigidification, precongruence, quasitoric, mansard, expansive, indefinite, mathematician, polynome, trivial, heptagon, hendecagonal, inside, mathematicalism, applied_mathematics, icositetragon, addition, significant_digit, complex_fraction, injectivity, polygonality, logic, isochrone, antiparallel, crystallogeometrical, antipole, subplane, orthocomplemented, coinverse, interior_angle, universal_property, eigengap, treelength, pseudomathematics, ergodic_theory, binomial_theorem, normality, diagram_chasing, restrict, outcome_variable, quism, simple_continued_fraction, hyperkähler, n_dimensional_space, stress_function, semiperimeter, polycell, absolutely_convergent, coend, great_rhombicuboctahedron, rounded_down, boolean_algebra, obround, random_walk, inapproximable, superalgebraic, non_strict, golyhedron, domain_of_convergence, </t>
+  </si>
+  <si>
+    <t>frequent_flier, focus, press, slag, big, rank, chin_music, door, crusher_gauge, scoop, judge, tuneage, aluminum, face_melter, fettler, pinheaded, pansy, front, party, heel, crowbar, cream, fan, seagull, vaginoid, taken, fail, round, touch, land, noisy, bullet, below, prosody, shin, table, instrument, electrical, wave, tune, hog, wired, tube, nasty, kicking, continue, neck, screw, wood, sergeant, quack, break, current, animal, h, mine, nicker, entry, question, roller, pants, p, bone, ts_girl, fireman, shoe, military, zipper, cave, place, kick_down, fodder, plant, reverse, change, pocket, buster, double, construction, congestion, ventilate, deal, formation, auditorium, salt, leak, grouping, case, lovatic, music, dig, water_of_crystallization, jig, fine, related, souped_up, hyphy, main, sail, compression, woodshed, speed, brick, coercion, lots, omnipotent, diff, internet, committee, release, make, ruff, fancy, cage, magnify, small, brokeback, box, pinhead, strain, act, acquire, fumble, grey, chink, stroke, past, dog, rush, moll, lay, us, spiro, blade, live, beat, acceleration, swab, putt, kickplate, range, simple, pipe, sports, lowball, flush, noise, cans, trick, boy, punch, course, escape, strike, snowdrop, kink, strong, hammer, racket, carry, split, bunk_off, pig, limp, metal_detector, phatness, stinger, hood, rock, rack, sub, cowgirl, draw, do, pump, channel, retrospectoscope, alive, medical_practitioner, beresque, smoke, kick, ear_rape, drill, stem, bork, bell, horse's_doovers, axe, embalming_fluid, file, other, effect, snooker, skin, dough, magnetism, full, computing, sick, lump, prang, word, available, three, titanic, sucker, chill, bikie, dime, weak, nuke, chicken, black, wind, tinned_dog, play_ponies, move, bumper, pone, bruise, weight_weenie, fight, lead, lock, cankle, gravity, high, passage, street, trump, doof, shitmobile, la, beach_break, gear, sundowner, jump, deacon, ankle_biter, invasive, botany, soap, paper, frail, depart, here, rapmeister, headlight, shredder, tom, can, weakness, law, pick, foo, pediatron, moronic, take, spurn, around, crowd, card, flutter, dogs, degree, close, general_term, cactus, caesar's_palace, step_to, equalizer, patrol, attenuate, monkey_metal, crumb, pan, roundabout, silk, office, motion, one, arm, peen, location, bilge, chocolate, kid, out, nut, rapacious, very, dynamometer, scale, clock, doing, scorchio, physics, ghetto_blaster, sweight, flight, jackhammer, stick, comes, pack, play, upstage, cutter, bus, typewriter, pass, computer, cissy, milk_of_amnesia, fields, snedge, mouthpiece, goer, ram, happen, mallcore, wasted, bridge, board, grain, shiny, jake_brake, scuffer, general, cod, sing, meet, people, cratedigger, wolf, cricket, gathering, crook, chief, wane, race, river, class, sandbox, stronghand, sharp, plug, metal, bush, smooth, polish, body_snatcher, tablespoon, brain, cut_up, pop, zoology, fl, kick_up_arse, forward, absolute_system, stomp, fiddle, rock_music, rank_and_file, state, noisemonger, area, beak, dope, spoonbending, government, coin, rub, sometimes, pair, nautical, nad, turn_over, jerk, eighty_eight, stack, condition, too, phat, root, spearchucker, breakbone, furry_muff, car, bikeporn, ring, put_out, run, work, no_wucking_furries, have, field, crit, body, kicker, way, fathom, kick_off, muscle, walking_gentleman, ableness, level, block, shake, pedrail, trotter, tripod, minute, loot, buttonhole, ankle, bashment, foot, object, proggy, foot_pound_second, acid, salmon, abg, kick_up, lap, dutch_hoe, horn, dynamism, army, might, truck_driver's_gear_change, rock_and_roll, v, twelve, jack, face, rosebud, driving, better, para, skeg, friction, influence, incarceritis, scrunge, clew, hardcore, die, kinematics, weed, attack, handle, blog, electricity, mashup, spark, bunch, thing, ninja, mouth, tack, tuck, family, use, bar, bent, chip, business, destroy, strength_might, chrome, chunder, cap, floor, bandy, broadway, royalty, abc, bust, squeeze_play, product, lance, profession, crocus, red_eye, torque, mile, well, dipper, magic, stab, steed, twist, pace, truck, sleep, unit, funktastic, bird_colonel, lick, compulsion, ship, membrane, horses, snapper, retropropulsion, crunkmeister, joystick, impetus, drum, mc, grinder, manhandle, fixing, mud_kicker, belly, tear_it_up, knob, stopper, pill, energy, chemical, rabiz, cant, digits, hippodrome, type, footslut, reliever, hong_kong_foot, casting_couch, softball, random, get_out, game, count, blech, soft, resistance, c, ebony, science, cue, cease, footsie, twenty, legal, evil, salvo, ball, carte_soleil, aviation, clown, fish, rope, term, road_iron, fly, craft, scut_monkey, pool, impetuously, ringnut, lac, surface, jingle, bedfordshire, egg, jake_leg, accelerate, compound, geography, litrebike, blackwash, charge, nose, dog_bone, idiot, self_existent, go, gas, loud, juggernaut, horseplay, bread, cowboy, fap, pad, organ, wheels, band, angel, travel, affinity, blooper, between, blocker, bank, kick_it, bet, like, finger, crawfish, tip, walking_lady, british, katycat, boris_bike, feel, dish, tabnab, fill, cylindroid, drive, spoon, romp, abe, end, elbow, human, physical_phenomenon, flipper, drop, shovel, wax, funky, go_ballistic, mad, brush, jam, large, cheez, normal_for_norfolk, liquid_laugh, rule, fencing, nard, herb, giving, hand, sound, truss, strap, angle, flk, butt, hygiene, flake, bud, violate, telltale, scotland, baseball, bands, gem, funkadelic, drop_kick, bottom, sad, attraction, walk, set, movement, pull, top, fool, assembly, hunk, tango, leg_it, bike, pit, stat, autogiro, grass, frame, objects, elemental, bop, point, back, space, gee, link, break_in, hit, pussy, formal, pfo, key, primary, vibe_out, chick, action, toy, gross, wire, jazz, opening, arse_end, creps, troll, distance, spinner, juicer, plastic, bugger, blooter, player, rod, spring, progress, two, safe, up, push, blow, dub, multicolour_yawn, nub, proper, chronic, cycle, magnet, contraction, single, northern_england, size, cupper, homes, fit, physical, hip, paddle, fade, chicken_colonel, going, trap, mount, propel, i_don't_fancy_yours, pull_off, ear, dis, include, log, bag, hold, grade, juice, bad, wanker, smash, crash, shoehorn, hole, punt, sprog, x, metric, difficult, hydrodynamic, pimp, electric, crumbly, unplugged, super, canal, lug, dicey, surgery, horse, underfoot, scope, rag, fall, kicked, forces, room, hambone, overpower, tired, belt, measure, iron, jungle_fever, shaft, notch, kernel, flare, broken, jungle, stretch, boot, whip, hack, bleeding, straddle, hardware, post, number, corporation, scut, tool, power, zebra, have_painters_in, football, input_arm, drama, crank, kinodynamic, paste, surprise, read, sleeve, quincy, backstop, subject, chin, duck, wail, mf, note, transfer, rockness, flash, ching, tag, cold, gap, dynamic, snap, maggot, weight, together, bite, crack, bleep, accident, raw, clip, scuff, eighth, crucial, target, pewter, push_bike, slip, event, equipollent, organization, pierce, shunt, moo, trainer, some, bougie, string, chassé, yoke, shred, prodge, diddle, magnetic, agony_box, lift, endo, under, plough, grip, burner, rest, mountain, supratentorial, tail, lunge, ivory, bend, scat, mode_of_production, boat, bitser, parakinesis, shot, standing, tin, spider, two_stroke, euboxic, fin, bit, shrinker, outside, wheel, squeeze, brakeforce, uk, quarter, gray, trip, buzzie, wrist, fascinoma, slide, damage, build, shank, put_boot_in, hellbox, arrow, altuve, blood, chassis, crapmobile, hand_solo, spaz_attack, shoop, ballkicker, lawn_job, norrie, rocket, pitch, shoot_boots, wick, local, pole, page, soft_boxing, poundal, crush, gig, white, violence, sailboat, balls, centripetal_force, medicine, stock, fly_kite, wear, offbeat, grunt, so, line, bed, brass, sky, walloper, toe, sock, jigger, pinheadedness, control, wedge, come, unbreakable, maneuver, lip, peep, kidney, piece, man, behind, hard, moving, stone, donk, chunk, barb, banger, ringhead, tackle, bid, leverage, turn, steel, hatch, winder, ten, chair, check, rat, stave, positive, many, nickel, flat, skip, tongue, lag, open, ace, banjo, sow, dial, group, eph, skronky, tea, show, jar, choogle, smelly, shoot, hive, square, person, mass, joint, jet, garden, pink, road, windpipe, jolly, thrust, inside_straight_draw, critical, tee_off, grice, power_bottom, pot, er, shuffle, sport, mixmaster, rail_transport, side, dodge, ox, strength, a, yard, mat, slang, games, keep, baller, jungalist, sticker, stamp, turnout, cook, adjective, half, mechanics, cunt_punt, solid, soup, resonance, perfuse, olds, scrape, kinit, tap, head, roll, down, kick_ass, series, kick_butt, score, stylee, bolt, wing, bang, rapophile, boost, lace, rocketamine, force, over, load, house_of_commons, gambling, gerbil, leg, cat, vamp, stage, drag, bollocks, road_warrior, peckhorn, durability, stink, dead, swedge, shine, brutal, air, saw, thimble, ecstasy, nudge, park, button, hypo, ad, crescendo, serial, hall, boom, step, taking, manipulate, force_play, off, lord, bluey, scratch, good, guns, inject, heeler, bear, cut, sole, dump, tear, interest, stress, promote, storm, hoof, spacer, girl, launch, dry_pot, vitamin_h, fong, history, staff, four, king, sweat, netherlands, switch, hop, screen, copper, video_game, hook, balloon, oliver, snake_oil, gather, heavy, cross, ken, abdomen, polo, lily, language, time, jaw, lower, saturation, transgress, appy, shoulder, push_button, plunk, collective, tosh, play_with_oneself, gamble, bounce, swell, document, van, butter, si, open_ended, leftpondia, audience, vehemence, poker, trip_out, stuff, when, cigarette, footer, cut_up_shines, propulsion, superior, let_fluffy_off_chain, pommie_wash, breakwater, gentle, direction, great, pluck, physically, stimulation, footfucker, sand, chaser, runner, get_around, motor, flimsy, heat, ac, chess, locomotive</t>
+  </si>
+  <si>
+    <t>there, start, big, door, detort, front, geometry, touch, counterclockwise, table, proprioception, mathematics, instrument, electrical, wave, dextrorotatory, contraversion, neck, screw, straight, current, animal, deflection, moral_compass, return, turnkey, feedback, claim, reverse, change, limit, whack, exchange, steer, devise, machine, introversion, news, corners, book, backflow, venue, know, main, ruff, make, sun, small, visit, act, stroke, pattern, lay, us, exproprioception, order, noise, backman, orientation, trick, boy, warp, course, clear, strike, castle, conscience, strong, dorsopleural, stocking, sideslip, do, favor, other, money, flip, computing, eye, hind, serpentine, stool, deviate, activity, measurement, reason, move, lead, street, turtle, normal, edges, call_on, take, part, around, store, caracole, shade, throw, cars, sequence, knife, dextroversion, right_left, office, motion, turned, location, sinistrodextral, epaulement, contrary, backaction, support, physics, righteous, shows, right_handed, preposition, determine, play, bigger, pass, five, general, people, cricket, crook, river, sharp, character, color, dextro, perfection, decision, forward, misderive, smell, area, askew, rub, nautical, aim, justly, backup, work, ability, body, obvert, torsion, shake, nonstandard, foot, discolor, port, rebel, face, driving, alarm, handle, attack, record, logic, mouth, chip, purple, opposite, row, pain, earth, decoration, twist, payment, leaf, rightways, reserve, skewback, change_by_reversal, recline, askance, thought, command, feeling, anchor, religion, circular, dorsolateral, clock_tower, canescent, forth, retention, game, middle, with, linebacker, complete, opinion, regret, legal, falsify, circle, slew, go_back, world, watch, righty, dextrally, hands, profile, nose, dexter, go, back_up, bat, stay, left_right, travel, bank, again, like, figure, british, feel, drive, season, dollar, large, right_hand, flop, wallet, hand, sound, chest, angle, introverted, sinistral, bottom, seed, remote, walk, backwards, top, movement, retreat, mining, back, point, gee, hit, key, canada, weave, action, dominance, corner, cornerback, nice, lose, strengthen, sight, scanno, deviation, two, nature, proper, common, rightfully, fear, going, ear, transmit, googly, fake, center, crash, backspace, spot, translate, everything, playing, turn_around, consulship, horse, distinctive, prone, rightie, trepopnea, measure, angles, introversive, look, bitter, rear, swim, tool, device, refuse, backhander, sideways, read, stand, counterfeit, inverse, cover, snap, hide, heaven, diagonal, heading, listen, position, dancing, rest, tail, backshot, rightly, about_face, lie, house, correctly, trend, wheel, diversion, uk, on, quarter, send, debt, arrow, pitch, page, gate, worn, translation, line, bed, float, preference, sock, piece, become, behind, retort, symbol, sensitivity, experience, reach, turn, steel, stance, chair, tortuous, finance, playing_games, future, garden, road, pot, sport, side, perspective, dextrad, slang, yard, half, retro, oscillate, desk, rightward, roll, head, down, counterwheel, description, whirl, wall, form, box_compass, wend, sundial, left, force, go_bad, usually, get, torso, air, leave, back_and_forth, left_handed, taking, off, lord, mouse, dextral, slap, backface, disorientation, switch, chemistry, memory, empire, in, brace, off_side, initial, backcast, bout, time, slotback, shoulder, bacon, make_right, signal, right, backside, far, poker, away, yes, verse, style, direction, operate, movable, keyhole, heat</t>
+  </si>
+  <si>
+    <t>lie_down, hospital, give_up, decompression_sickness, abomination, cholera, british, filth, vection, symptom, fever, drink, nausea, grim, healthy, eat_lunch, sickless, illness, people, morbid, throw_up, flu, patient, plant, nervous, smell, less, experience, indigestion, ssp, doctor, disgusting, motion_sickness, book, he, gastritis, music, cry, get_sick, tabu, biological, instantaneous, graduate, person, lay_down, fit, characteristic, courageous, unwell, mucus, sickening, slang, bad, soup, substitute, uneasiness, eat, down, diseased, health, turnsick, morbific, die, pig, unhealthy, author, tired, sneeze, trainsick, air, pain, anointing_of_sick, american, well, get_drunk, peter, humans, sick, anisakiasis, disease, wise, virus, sucker, cold, amount, alot, agriculture, move, germ, being, ar, sickly, sickness, migraine, gender, manga, stagger, take, nauseous, ill, bends, spit, vomit, uk, motion, being_ill, puke, ginger</t>
+  </si>
+  <si>
+    <t>star, celestial_body</t>
+  </si>
+  <si>
+    <t>water, fish</t>
+  </si>
+  <si>
+    <t>container, band, cut, temporary, jury_rig, repair, skin, aid, hack, wound, cover, bandage</t>
+  </si>
+  <si>
+    <t>ground, down, hill</t>
+  </si>
+  <si>
+    <t>move_car, assrun, door, plants, package, items, warning, get_someware_quickly, effort, bullet, millstone, break, time_period, mine, entertainment, faster_walk, military, need_to_travel_fast, wheelpit, limit, batsman, deal, go_to_bathroom_first, leak, red_stick, streak, pinch_hitter, eastern, fine, bird, would_increase_heartrate, sail, speed, internet, circuit, make, svecoman, swamp, detail, landrush, prove_physical_endurance, hamgyong, overrun, boy, overstride, reflection, escape, seat, cat's_paw, learning, print_run, transition, story, stocking, consequence, inrunning, head_for_hills, presentaneous, michurinism, movement_fast, act_quickly, smoke, old_zebras, stay_fit, race_activity, eye, outdistance, shipping, without_troubling_scorers, candidate, executionism, chicken, black, cosmism, modern, snuff, feet, sessa, move, fight, trump, run_amok, run_risk, farm_strike, part, store, dogs, neglect, curse, issue, wear_sports_suit, seep, motion, one, linguistics, curry, display, get_somewhere_faster_than_walking, plod, quality, go_to_park, maintain_muscle_strength, popping_crease, board, go_faster, concede, intercurrence, runout, type_in, river, fast_jog, christmas, protected_area, board_game, hurkaru, root, evacuation, fastpack, transportation, faster_jog, hurdle, new_left, slash, writing, rivulet, cool, zubatovshchina, bog, shell, hasten, electronics, rap, leg_bye, delivery, attack, crock, cast, antirightist, ninja, mouth, colorature, drawer, run_off, stay_healthy, floor, dash, moonrun, snap_it_up, mail, niceness, happening, earth, jogging, combustion, no_ball, carry_through, flame, light, dell, anchor, agriculture, anger, earned_run, idle, solution, with, beat_feet, stretches, miler, autorun, television, fish, playing_football, term, watch, federal, compete, running, play_sport, charge, rabid_dog, branch, go, run_out, presently, travel, gain, thunder, romp, human, dock, just_do, travelled, quickness, ordinary, hand, freerun, dopamine, structure, drink_lot, noun_form_of_verb_running, bathe_sweat_off_body, accidental, fool, unravelled, sort, yawn, scared, vault, tab, base, battery, scarper, run_down, outslug, have_appropriate_shoes, runny, american_football, rod, player, enclosure, spring, sneakers, re_run, up, oil, fear, hightail_it, log, fellrunning, hold, descend, husk, block_signal, election, declare_candidacy, haugean, run_somebody_ragged, subdecurrent, activity_fast, price, lug, horse, belt, vowel, footmanship, north_america, scramble, trot_gallop, rundale, device, get_into_shape, football, playing_lacrosse, run_low, surprise, taxis, model, engine, humans, dimension, time_slice, run_away_from, flash, racetrack, cover, shortness_of_breath, uprun, hide, diverge, circumcursation, propagation, target, proscribed, lift, put_on_running_shoes, rest, weather, migration, riding, dap, escaping, house, hurl, former, stand_still, narrow, slide, australia, expedite, rotary_encoder, getting_fit, win_race, wanted_to_get_in_shape, paulicianism, exec, may_fall, mind, shorter, assault_course, trip_trap, covenanter, run_temperature, enter, pope, reach_destination, faster_walking, electrotachyscope, run_batted_in, control, plate, come, piece, become, migrated, smallball, rain, run_bath, phonoscope, kill, accelerator, blue, fast_action, always, racing, trajectory, group, solidarity, flight_line, jug, few, quick_walk, killing, property, skedaddle, sport, move_fast, kerrison_predictor, manhattan, inadequate, schedule, crease, soup, mobile, tap, windmill, sleet, mechanism, spread, cat, plunge, bishop, still, leave, sprint, go_fast, lord, bath, cut, dump, interest, rheophile, leave_house_first, four, seceder, sweat, sheeprun, runathon, underrun, buzzer, spawning, shift, time, dodder, slowly, going_jogging_for_people_who, yank, nod, van, legs, signal, air_travel, runholder, atren, hurrying, runnable, footrace, stuff, mark, scurry, chew, wicked, panic, rank, ran, run_gamut, clothing, occur, zoomies, ambulation, party, in_hurry, forerun, fan, marathon_activity, bow, mathematics, bicycle, go_jogging, tube, get_tired, prevail, might_miss_bus, plant, reverse, change, actual, drain, removal, machine, speed_up, express, book, cry, leg_movement, make_run_for_it, run_up_against, cake, manchesterism, hurdles, dangerous, racecourse, main, hasty_walk, increased_metabolism, cruise, choose_location, urinate, box, beautiful, act, stream, something, stroke, burn, rush, lay, midrun, us, ride, runlevel, vehicle, scampering, pipe, locomotion, melted, flush, batting_average, playing_sport, nonrunner, trick, mopstick, warp, course, run_out_of_steam, saint_simonianism, height, split, respect, close_hauled, fast_moving, gang, real_covenant, run_and_gun, unrun, tracks, kingitanga, north_midland_us, baton, races, measurement, get_away_from, long_off, turn_on, daily, being, print, cost, here, feese, curriculum, runscorer, law, century, run_fever, run_gauntlet, sequence, function, dye, county_seat, dive, riser, effeminist, motivation, need_for_exercise, moving_forward, scale, city, physics, runned, cooper_test, need_exercise, sneaker_race, intense, flight, stick, urge, run_after_ball, pond, crime, coal, concom, lightly, barrow, speedrun, cricket, walking_fast, metal, slower_than, forward, bum, after, employment, striding, playground, pair, nautical, jerk, lave, human_activity, almost, programming_language, intelligent_agent_activity, help, bees, standing_up, body, peculiar_people, snotty, courant, real, block, surge, motorway, seam, commando, prerun, depression, car_could_run_over, different, and, promptness, record, last, about, bar, trot_fast, destroy, exhaust, break_one's_duck, pain, dry_run, unit, ore, ship, flea, minor, bye, runnel, energy, long_on, type, almost_sprint, random, game, fast_movement, talk, batmobile, moderator, break_away, moment, runneth, biology, free, average, craft, laudianism, geography, nose, prime, death, philosophy, ultrarun, band, fast_feet, going_for_run, migrate, warranty, bank, again, like, finger, vein, abduction, drink, duke, flash_cut, large, rule, sound, altitude, were_wound_up, nonrun, scotland, stationary, walk, pull, retreat, drift, mining, sore_knees, go_outside, point, necessary, fast, enclosed, cell, stampede, beeline, blow, stonewall, instruction, letter, give, remember, hearing_crowd_go_mad, historical, jerkwater, wardmote, spot, hole, super, register, camp, measure, trance, slow_sprint, look, now, run_after, swim, post, number, continuously, dot_ball, deplete, means, rhine, duck, streak_it, trade, picture, vortex_atom, nylon, scutter, proprietor, together, strip, meal, run_by, get_cramp, cursorialist, at, wicket, score_home_run, double_quick, speed_quickness, patten, preparation, boat, honest, company, king_pair, trickle, instant, fastest, parkour, uk, send, rin, damage, run_around, plan, save, storekeeper, ruin, yrunne, compare_southern_us_branch_and_new_york_and_new_england_brook, roller_mill, local, white, run_amuck, put, french_fake, circulate, line, address, wigwag, scroll, statement, represent, maneuver, rotal, behind, bring, hard, storage, moving, situationism, run_errand, direct, speel, basin, tenderness, walk_quickly, fennoman, finance, mould, partnership, speed_merchant, linescore, tree, tally, show, succeed, shoot, mass, be, social, big_monster, bat_in, areas, head, playthrough, labadist, equilibrium, start_now, school, force, period, locus, ultrarunning, relocation, mean_dog_chasing, good, jog, train, fat_people, arise, translocating, jogging_sprint, staff, paint, hunt_down, run_aground, secure, trial, cross, rushlight, football_play, dutchman's_log, spare, rat_race, fast_jogging, thank, hurry_up, enforce, runabout, execution, get_somewhere_quickly, highway, floppy_boobs, vertical, rape, slower, run_in, trouble_scorers, wear_good_shoes, slogger, front, hotfoot, touch, sprinting, pony_express, liberty, inrun, crawl, fast_motion, talivan, continue, run_somebody_of_their_feet, aircraft, run_over, animal, process, eating, service, return, fastloader, dummy_run, purpose, tear_along, jog_fast, emergency, overflow, news, hinder, vellicate, sprint_jog, running_game, scamper, length, traveling, mentastics, compare_walk, run_up, sensitive, urgency, run_in_family, eddy, vessel, descent, runoff, bunk, menace, multirun, spank, moving_quickly, present, run_time, fire_away, natural, run_for_hills, mechanic, stop, move_legs_quickly, use_legs, contemporary, draw, do, lam, silverite, foredeal, clipper, dictionary, drill, hustle, sick, leave_line, late, runs, speech, five_tool_player, hare, jin, big_hairy_monster, wild_horses, with_legs, passage, hear_crowd_go_mad, fortified, true_blue, young_italy, situate, jump, runrate, brief, cards, bowling_figures, clothing_store, frightened, around, card, degree, close, suddenly, pressure, ask, bottle, molten, office, location, out, bing, very, slow_down, you're_in_running_race, non_aspectual_quantity, play, pass, run_along, runway, footstep, runagate, run_away, illness, black_market, race, habit, recreation, sketch, walk_slowly, orb, region, join_track_team, going_fast, state, getting_exercise, birthday, maquis, busy, faster, write_program, suicide, suit, movement_2_june, car, backup, exercise, work, stretch_leg_muscles, age_of_aquarius, zoopraxinoscope, stern, irreversible, kiss, fastest_walking, shake, standstill, video_games, cooking, gesture, tie_shoes, protest, joy, seeing_wolverine, rheophyte, run_scared, gravel, biscuit, inside, atrin, millrun, hot_swap, cord, grave, list, dogme, run_high, get_away, juggling, run_for_roses, knit, flee, pace, truck, runningly, tense, walk_off, tide, bobsledding, young_ireland, cultural_revolution, quick_motion, incur, retention, athletes, run_circles_around, yedding, flurry, haste, runaway, mental, job, world, surface, put_on_shoes, procursive, really_fast, sneaker, extra, back_up, angel, lollardy, runholding, british, fluids, fill, drive, tall, march, breathe, look_where_going, track_down, through, walk_very, gun, runaholic, butt, container, underground_railroad, misfield, rushingly, bottom, top, hill, movement, afraid, frush, end_run, gallop, back, space, stop_walking, aquathlon, action, gaum, rapid_walking, roof, toilet, boating, dub, single, physical, going, pinch_point, tread, smash, fire_up, wearing, meat, walk_speedily, duration, run_for_it, get_somewhere_fast, programming, tired, iron, stretch, boot, maths, hurrisome, landholding, wildfire, play_soccer, error, doing_exercises, terror, consort, like_jogging, occurrence, disease, nothing, indian, ex, swallow, runback, voyage, event, than, under, with_quickness, decide_on_platform, scat, shot, smuggle, monkey_run, walking, stitches, has, everrunning, haunt, squeeze, introduce, trip, water, bowling_average, television_episode, burrows_wheeler_transform, rocket, song_and_supper_room, play_baseball, traffic, dialect, float, heart, driver, communication, drinking, orderly, run_of_mill, climb, reach, hot, scorer, vatakkiruttal, positive, ace, were_scared, strike_bowler, auto_tiering, future, six, lack, new, commit_murder, person, prompt, next, staircase, walk_very_fast, jet, road, harrow, get_out_of_bed, intermittent, broadcast, marathonist, rapid_locomotion, pot, wound, rail_transport, stitch, a, slang, hundred, solid, worse, court, west_coast_offense, run_rampant, releasing_energy, run_into_ground, down, cause, feed, form, score, mahagujarat, sign, walking_faster, over, food, domestic, air, racing_feet, deliver, celerity, taking, sole, hurried, stress, storm, disintegrate, getting_physical_activity, division, dam, fastest_walk, move_legs_very_fast, empire, hook, go_quickly, run_through, executable, card_games, beway, regular, medical, walking_motion, right, procedure, one_short, soccer, great, runner, heat, beached, move_legs, discharge, big, media, take_asthma_meds, fall_down, valence, physical_activity, slope, run_show, land, puddle, fast_striding, skiing, strike_rate, tab_stop, current, moving_fast, shoe, place, lot, construction, runless, gait, fast_walking, music, case, radiate, perfect, colorado, rean, arrest, sudden, lots, diluviate, waling, horizontal, nonstarter, fighting_enemy, trot, run_across, past, dog, low_wine, cabinet, car_park, range, museum, order, noise, sports, outgallop, ground, pinch, punch, eat, flying_kite, carry, burst, nonexecuting, maiden_over, rake, get_there_faster, hunt, take_to_woods, in_short_order, first, money, computing, toolsy, unsteady, miss, ambulance, activity, weak, fresh, playing_sports, yronne, lead, or, high, street, turtle, dullness, pound_pavement, run_to, move_feet, baby, maiden, friendship_store, hedge, run_for, fear_of_getting_beat_up, walk_faster, quickly, boulangism, barrel, swedenborgianism, stake, experiment, life, sheet_anchor, trip_over_tree_root, fast_lane, outrun, lope, span, chow, view, hasty, transcur, roadwork, bridge, parliamentary, general, host, people, debacle, execute, proposal, ahead, intrarun, area, political_campaign, dispeed, guide, ribbonism, baseball_term, turn_over, delay, condition, spill, bundle, run, field, spin, not_to_face_one's_problems, get_physical_activity, diffuse, play_lacrosse, nail, human_movement, low, bodyline, pee, transport, interrun, run_dry, fire, home_plate, wearing_sneakers, headway, lidderon, hie, railroad, rapidly, park, like_ran, laudian, fly_coop, family, breathe_hard, use, business, wide, fast_track, feeze, étape, well, oxygen, walking_quickly, go_for_run, put_foot_forward, wine, someone, run_bases, song, go_far, ago, festinate, boredom, unearned_run, favourable, ravel, stale, boundary, sickness, errand, science, trouble, complete, special, china, gutter, worm, legal, retail, aviation, dispatchful, go_for_jog, fly, rushaholic, accelerate, mercury, on_prem, atom, gas, melt, sprint_race, extend, danger, red, exhaustion, complain, between, new_zealand, rapidless, station, usa, element, biohardware, running_play, country, nether, drop, runlet, golden_duck, intentional, tie, content, status, hurry_skurry, bleed, really, negative, situation, baseball, movement_forward, exposure, ralstonism, photography, frame, pour, brake, rescue, confederationist, illegal, cruiser, path, fog, distance, nice, fell_running, program, walk_fast, lose, straightaway, bright, safe, primer, rannest, holy_hour, shock, regenerationism, not_necessarily_by_foot, chowder_beer, growth, snail, electric, fast_pace, turn_around, febronianism, athletics, unravel, exercising, morning, grab, blue_light, track, creek, up_and_running, physical_event, fast_walk, stand, runstand, waste, weight, heaven, nash, spate, position, flow, reward, move_quickly, forest, dancing, grip, test, carry_out, buy_pair_of_sneakers, slow, quality_control, enthusiasm, very_fast, hurry, jogging_fast, standing, leeroy, lie, fast_gait, trend, later, wheel, war, run_into, sidewalk, expeditiousness, make_break_for_it, sidewalks, sit, locality, servant, rerun, pretty, golf, inaction, medicine, smaller, fly_kite, brass, ern, travel_rapidly, bed, aid, demand, wet, exercise_activity, marathon, ply, bored, one_time, campaign, steel, rise, meeting, ladder, time_frame, tend, date, rapid_leggings, defensive_field, decrease, learn_to_walk, dyke, slant, scoring_home_run, garden, chartism, volume, lace_tennis_shoes, oxford_movement, bustle, side, remark, yard, getting_away_with_crime, manage, adjective, turn_tail, noncandidacy, route, software, run_hot, rapid, wing, speedily, leg, usually, run_of_ball, indefinite_quantity, thoroughbred, produce, step, run_on, off, site, accompany, liquid, napoleon, hit_six, linear, speed_heart_up, flesh, minimarathon, leggings, hurricane, playing_ball, convey, jacobitism, expedition, language, become_physically_fit, batch, flooding, perspire, run_hot_and_cold, away, specific, operate, bleep_test, pluck, quick, quicksand, runnest, cantonalism, appearance</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>nitrogen, toonophile, ortho, aud, set_phrase, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, scalogram, ometry, sincerely, square_metre, t_internet, fandom_slang, o_face, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, act, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, dezh, o_shaped, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, dirhem, account, academy, myctag, amos, type_erasure, 360, megabyte, diastereoisomer, tt, vide, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, ballet, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, archeopteryx, balanophagous, nd, b's, e_vite, w_r_t, cup, soupcon, casualty, group, embellisht, rosebush, f_minus, n_tert_butyl, data, vv, visarga, double, dealt, xiphisternum, interfix, north, high_c, kayo, ll, v’s, level, g_s, letter, penny_sterling, replace, cat, academic, type, diatonic_semitone, estes, before, e_tail, victim, have_got, belcht, aitkins, boron, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, surname, dry_cell_battery, connecter, hb, paradigm, man_o_war, svo, embryoniferous, dram, is, b_minor, count_out, vocative_case, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, prototype_based_language, acrita, magic_e, tertiary, vagina, clicko, brassiere, double_u, gf, dice, ambassador, c’s, team, pound_sterling, finance, c_hole, symbologenic, 4chan, homœo, e_shaped, p_word, metre, asymmetric, e’s, segovia, heroin, ultimata, brewster, bethe, video_game, cœno, comics_character, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, pandean, turn, proscribed, entertainment, automobile, roentgen, neutron, spat, australian_dollar, lose, d's, hook_n_kill, twou'dn't, cajun, water, blest, animanga_character, coenosteum, bel, vocative, b.ed, musical_artist, note, einsteinium, bye, tier, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, salt_n_shake, twelvemo, fourth_letter_of_roman_alphabet, april, pork_n_beans, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, lemalesomab, annext, cuppa, bornt, application, will_o_wisp, n_ary, clasht, philippine, time, cropt, television_show, aken, zero, ms, seleno, perfection, answer, were, spectral_class, speako, noons, e_folding, oyl, gameto, arctic, e's, automata, excuse, gee, titular, sw, encroacht, accepted, unstressed, tis, run_o_mill, barn, mb, b.a, lurianic, argyro, coulomb, chirpt, audit, distinguisht, circa, e_quainted, galanthophile, labial, b.mus, mbta, deoxythymidine_monophosphate, para, cymoscope, mausolea, eirs, nemato, build_cathedral, segrosome, hydrogen_atom, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, thousand, seah, en, b.litt, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, television_station, cleft, falcon, organic_compound, ahold, believe, my, f_hole, compiler, zoö, taxa, green, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, dead_n_buried, problemo, kolmogorov, detumomab, antigen, bit, fish_n_chips, printing, western, ties, atmosphere, bynempt, pencil, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, n_bomb, austria, dunzo, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, e_sharp, genitive_case, wynn, nfc, nnw, e_tailing, d100, minor, stade, do_dièse, hunter's_moon, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, tibeto, string, mth, phm.b, dextro, warsaw, it's, liter, builder's_mug, c_channel, accidental, miscellaneum, emergency, scanno, british, semivowel, f’s, author, in, junonian, keynote, medium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, lino, statesman, let's, okay, stage, solfege, cmos, rip, b.s, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, denmark, can_store_food, angstrom, tert, twelveth_letter_of_roman_alphabet, banisht, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, transhumanism, l_size, acaulous, hoplo, ell, beeswax, ze, bent, academician, gasogen, aa, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, other, mega, hey, be, programming, asqtad, homoio, blockt, aglutition, ods, ri, istro, thymine, absolute_temperature, titles, b_s, or, argent, ex, talk_to, chromatic_scale, s, make, military, american, charlie, van, wth, logico, crease, writo, re, checkt, ss, athanogene, bisphenol, after, connectogram, ebrary, gilf, education, maiden_over, statement, viscount, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, iso, levo, saké, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, ℓ, fictional_character, mac, playoff, javascript, cisgender, conservative, tittle, ecmascript, softography, curst, purkins, videte, crept, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, go_to_market, pip, gomer, e_tailer, l_shaped, ostomy, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, volt, pædo, venipuncture, astragal, dacryohemorrhea, us, cor, value, grade, china, deuteron, survival_horror, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, tungsten, est, slut's_wool, from_latin_libra, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, verse, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, mature, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, lambert, dioxygen, nacolomab_tafenatox, major, betimes, otw, leonid, e_form, b.ch.d, did, anterior, salt, a, shanxi, lua, has, neighborhood, lvalue, tesla, nights, taplitumomab, g_shaped, skainsmate, f_sharp, ga, dispossest, wiener_dog, d_hole, hs, deprest, b.com, triple, with, admiral, fifth_letter_of_roman_alphabet, d_minor, victor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, b.des, pyrrhonist, czechoslovak, football, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, euphemism, ancient_greek, mit, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, klecksography, criteria, litre, sithence, celestial_object, absent, cl, admonisht, blemisht, weingarten_right, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, status, blent, unicode, jackanapes, v_neck, neuter, vagino, cervico, b_testing, otl, flowering_plant, archaea, regina, proton_hydron, ruby, state, u, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, rake_n_scrape, corn, lth, drag_n_drop, subway, canonical, teen, absolute, guanine, ing, l_plate, verb, iv, manga, computing, r's, b_♭, cs, england, linotype, log, curiously_recurring_template_pattern, functional_group, lgbt, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, taxaphobic, abolisht, rogers, capital, b.s.l, artery, crusht, ours, spherocylindrical, wednesday, sterling, lines, reflectoporn, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, emma, fuckabilly, c_shaped, blood, vegas, thing, stretch, tween, sulesomab, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, polyvinyl_chloride, spearsman, drive, sapon, danc’t, mass_number, peripherovascular, witness, rf, cycle_of_fifths, valor, power_pill, euse, v's, belgium, hib, women, esrb_rating, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, muography, baulk_line, accurst, t_square, acre, comprest, fourteenth_letter_of_roman_alphabet, trailer, empathogen, meetaversary, ns, madalyn, computer_science, drum_n_bass, movie, polynomial_time, issa, country, diptera, r, b.lit, zero_g, actus, anxio, m's, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, e_road, d_s, taula, supercee, eradiation, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, norovirus, b_story, clu, islamic_calendar, employ, set_theory, rock_n_roll, take_l, mc, tositumomab, nyse, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, o’s, b.e.e, can_begin_to_leak, ll.b, besides, costa, homer, republican, women's_christmas, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, n's, port_o_john, fitz, nfd, fs, gentleman, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, nae, i18n, available, bs, java, w, bought, street_slang, type_b, yo, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, patronymic, au, audio, b.chir, template_metaprogramming, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, cannabinoid, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, terminology, h's, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, b.math, enharmonic, mother, electronics, rhotacism, o'clock, stadia, america, bug_boo, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, version, terminal_s, w's, c, external, malloc, np, dog's_letter, indefinite_article, right, aware, electronic, dwelt, cock_hoop, r’s, stl, elaborate, b_shaped, n’s, ed, s_hole, basketball_league, n_butyl, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, go, normal, do, sol_fa, attacht, enravisht, multiple_o's, no, s_size, aspect_ratio, entomology, sie, graph, rd, approacht, b_final, levulose, sixteenth_letter_of_roman_alphabet, lb, h_shackle, they, form, indicative, basketball, coarticulate, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, christofascist, b.m.e, kenna, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, o_ring, un, break_off, ies, fork, upon, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, doubleyou, kinesiology, computer_languages, confest, exponential, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, o'reilly, hulkamaniac, kb, ai, americanization, annus, b.lib, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, propoxur, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, particle, ra, snipt, snooker, latitude, alotta, acid, perfectly, brought, male, askt, b.c.e, cannabinol, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, apiece, 50, dript, b_♭_instrument, pick_n_mix, b’s, pneumato, australia, chemical_symbol_of_oxygen, mitumomab, ii, abaft, ana, ette, medicine, ne, 12mo, law, aweigh, korea, 500, curly_bracket_language, acronym, old_penny, gravo, blood_type, drachm, artificer, robertsman, oto, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, mac_n_cheese, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, fatha, metacism, gas_constant, air_to_ground, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, darwin, aes, peso, besprent, jessa, iono, chartered_accountant, music, water_spout, gw, sitcom, signore, vanadium, lost, degree_centigrade, k, result, sn, white, australian, arterio, not, b.arch, clitic, software, ball, php, ev, amacrine, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, wwwww, b.b.a, herpeto, billion, information_services_and_technology, nape, acephalopodia, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, echonian, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, pvc, spliceosome, unsupported_titles_c_sharp, magneto, chemical_symbol_for_phosphorous, accounts_receivable, molecule, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, restaurant, hoodla, v_sign, philo, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, lead, shambolic, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, morpheme, noun, class, lev, scale_height, alexipyretic, transit_card, open, å, th, babs, t_pose, tritium, b_side, associate, clipt, m'lady, ge, fortran, musea, w5, excrescence, pound, flatulogenic, monsieur, form_of_vessle, atta, semicircle, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, history, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, controlled_vocabulary_types, degree_fahrenheit, cyclo, ground, zoöphytology, b.med, newton, problem, some, contradistinguisht, character, issaron, selligueain, object_oriented_programming, cherisht, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, jack_o_lantern, z, mmole, loophole, d_b, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, aviation, vexillographer, foreroom, cor_anglais, j.d, heat_content, give_hand, penlite, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, abundant, ab, amnia, descendant, its, lolz, b.s.a, hard, peruvian, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, e_quaintance, mitochondria, rust, anna, b.compt, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, n_gram, set_containing_one_element, amplitude, d_shaped, s_shaped, ppbar, secretary_problem, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, bridgmanite, cock_leekie, burnt, goatshair, highland, m.d, business, s's, illo, testosterone, square_meter, new_zealand, w_shaped, last, elemeno, digrest, clg, e, misle, ilka, allies, composition, sphygmo, every, secondary, imperative, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, graphophone, west, normality, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, spello, laetrile, l’s, cyclone, bps, abeigh, about, dunam, ocracy, all_gog, point, potato, manosphere, air_conditioner, ancient, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, edrecolomab, watt, d.d, cricket, taking_bus, cab, afternoon, dex, galaxy, diminisht, seventh_letter_of_roman_alphabet, p’s, em, rig, acroatics, economics, duff's_device, hundred, air_conditioning, miladdo, urano, swounds, ah, ls, efold, m_shaped, mornings, size, also, xe, banned, viscountess, had, air, possess, cytosine, b.th, irish, americanize, galactic_coordinate_system, poland, ata, deoxyribose, fifty, da, theorem, scotland, five, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, v_cut, ff, monoatomic_cation, atomic_nucleus, n_shaped, caught, b_complex_vitamin, æ, holliers, wilkes, g's, oes, 5, ub, list, h’s, b.as, incuba, m'lord, ecstasy, taxable, also_known_as, vulvo, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, n_plex, luggage, ada, plus, li, lethek, long_vowel, hemoglobin, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, wed, awhape, cross, northern_england, example_of_programming_language, applicable, adventure_game, strong_electrolyte, 18mo, kd, universal_donor, slang, backwards, grunsel, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, group_o, strident, fluor, fluorine, disrelisht, c_note, tuesday, panamanian, burnisht, v_twin, purposes, absorbancy, thyroxine, americo, c_suite, g_minor, vitamin, hegira, balletomania, against, human, archæo, l's, to, gb, v_necked, vs, river, e_tard, 2h, canine_letter, per, saxon_genitive, city, versus, absorbance, acceleration, litho, echeng, la, hotel, beanbag, deduc’t, calendar_terms, svedberg, tee, astonisht, knitting, michigan, mark, n_adic, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, porno, d_major, he, ricketts, best, q, activity, apl, stinko, hip_hop_music, marinobufagin, convention, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, expertise, besought, d’s, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, h_beam, meter, avancé, e_thumb, delta_v, four, percentage_point, toy, drill_n_bass, infix, anno, army, v_shaped, deuterium, ataxia_telangiectasia, henan, buffet, psepho, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, drest, dialect, pneumono, ds, hedra, tees, introverted, aspirated_h, sixth_letter_of_roman_alphabet, fail, rex, person, coeno, gravitational_constant, address, forwards, direct_broadcast_satellite, over, died, e_head, medial_s, industry, attendance, modius, meta, o_canada, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, fan_fiction, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
+    <t>platform, peace, why, roadkill, door, plants, preserve, deck, home_wrecker, fountain, argyll_robertson_pupil, porridge, nerve, nitrogen_narcosis, above, cream, piping, buck, landshark, bullet, hoist, table, saddle, genus, green_on_green, market, slit, neck, owner, break, jockey, mine, snowboarding, entertainment, pants, bone, surface_layer, military, mother, zipper, little_house, tail_shedding, white_phosphorus, pocket, deep, darter, glue, town, indicator, fine, bird, apple, flesh_and_blood, mata_mata, sail, airport, ban, wooden, python, internet, dry_fly, make, garment, sun, princess, littlun, hat, noggin, pattern, corn, warm, hobby, fledged, comb, boy, curtain, breakaway, water_organ, geordie, thrush, escape, seat, enemy, learning, cat's_paw, strong, protein, batten, opera, blood_sport, limp, write, barbet, lek, sky_daddy, hood, age, roaster, parasite, sing_song, tiling, smoke, bell, flashlight, labour, everywhere, match, eye, entertaining, pollination, nation, dime, vore, chicken, black, sparrow, amniote, feet, move, roommate, reclaim, circumference, musical, heap, penis, loop, cooling_tower, black_headed_gull, sandpiper, part, encore, store, athlete, dogs, rotation, outgrow, roadrunner, leave_home, oviparous_animal, cars, fishfly, issue, heaf, one, motion, strand, benjamin, display, fret, mechanical_device, hydrofoil, hydrofoil_craft, blitzkrieg, aerobiosis, abiocoen, tent, classification, pied_billed_grebe, lightning_bird, board, shiny, queen, canary, wolf, chief, river, christmas, windows, snowflake, building, star, kingdom, vertebrate, cassowary, knitting, coin, bigging, aerohydrodynamic, springtail, root, coating, ring, transportation, waft, surface_of_earth, ass, feedstore, fowl, bull, telephone, dragon, characteristic, slash, minute, googolplex, writing, cats, human_body, hydroplane, horn, army, lawn, shell, driving, electronics, rap, united_states, bunch, coon, stingy, tack, mouth, washing, chip, chinese, respiratorium, water_telescope, american, mail, beef, earth, leaf, lick, la_la_land, small_fry, crib, stilt, twin, alcoholic, light, command, ferry, anchor, theatre, dirt, circular, cant, snowgun, verdin, semiwater, foul, solution, soft, new_york_city, middle, with, hull, mechanical, olive, stench_trap, curvet, sprinkler, generic, bilateral_symmetry, television, drunk, cot, fish, term, napkin, diddy, watch, predation, moth, squirrel, spirit, running, rhea, propagate, charge, branch, factory, crown, go, beast, organ, bee's_dick, travel, thunder, component, upon, ant, wash_hands, girls, connect, human, stole, maintenance, dock, achromatism, giving, hand, southern_lapwing, deadfall, any, hairball, bud, potoo, structure, india, maniraptoran, sleighing_ride, church, grass, design, vault, must, knag, tab, base, pug, bloodbird, draft, opening, scarf, front_yard, weightlifting, numbers, opinicus, basement, rod, player, spring, progress, female, two, up, proper, parkette, flowers, weaver, uniform, crew, alert, trap, orangutan, farmer, cape, air_breathing_vertebrate, mount, retromingent, transmit, ear, passerine, overcrowd, hold, cotton, vent, propeller, price, bluetail, spoons, horse, huia, lion, north_america, red_throated_loon, evening, trash, category, zebra, football, onde, punkie, anatomy, tiger, construct, surprise, out_of, humans, charm, little, image, tag, cover, maggot, body_part, hide, bee, raw, target, outdoor, relative, string, yoke, manner, baggie, output, rest, mountain, rice, oxygenator, spy, tail, goat, flies, weather, moisture, riding, honey_buzzard, house, wallydraigle, hamster, lumber, concession, top_down, legislature, clydesdale, outside, born, central_park, makes, slide, flock, australia, cuttie, exuviae, merry_go_round, lodge, tasty, fogbow, pole, page, ridge, chapel, upland_moa, mind, flask, thermotank, skyscraper, kookaburra, stock, pope, nightingale, basketball, syndactyly, control, plate, quarry, vapour, sac, peep, piece, become, rain, fur, recreational, wow, kill, thrill, foredraft, taste, trail, blue, window, birth, debut, sapsucker, always, birdmom, dot, tongue, wantoe, group, sauce, jar, velvet, pest, value, captain, sigh, few, typography, fried_egg, deposit, budgerigar, sport, spanner, kinnara, lizards, rookery, hoatzin, soup, cookie, mobile, cylinder, tap, penny, sowl, moiety, meaning, grown_up, bark, reckling, great_auk, skyaking, spread, sexual, cat, flight_suit, venatio, bishop, leave, thimble, underbelly, naturalization, button, cooper's_hawk, trunk, source, dry, grownup, bath, bower, shrimp, cut, teakettle, ireland, fun, hawk, plume, saddleback, pens, gerfalcon, automobile, brook, four, beans, statue, tassel, video_game, navy, win, often, podunk, mansion, time, tan, mite, regurgitalith, van, legs, signal, feral_child, rape_rack, butterfly_stroke, carriage, personal, tarn, monkey, lens, stuff, circus, mark, web, triphibious, sand, visible, chess, zugunruhe, avivore, pup, render, rocker, rank, wurly, rectangle, quadruped, leech, quail, party, drinker, increment, fan, native, rithe, round, gnat, rubber, kittiwake, bow, instrument, emu, hog, transparent, peel, marquise, hermit, love, peeper, plant, reverse, dummy, relaxation, change, rep_tile, exchange, column, machine, cry, stall, related, blast, cake, cartomancy, main, moon, buffalo, fancy, bars, transaction, eremacausis, box, globe, beautiful, spout, strain, vermin, stream, stroke, movie, burn, us, due, blade, ride, vehicle, swatch, pterosaur, quadratojugal, bug, pipe, locomotion, flush, club, clam, course, drop_dimes, aardvark, trinket, toddle, evergreen, pin, mare, air_to_surface, seal, growl, offspring, small_stuff, gang, channel, necessity, zw_system, sperm, kick, american_goldfinch, snooker, cancer, skin, vireo, parent, bee_eater, word, day, generic_term, warm_blooded_animal, wind, gaol, being, relaxing, hurt, jot, botany, print, here, elder, law, barfly, crake, take, virgin, mon, household, fourchette, shade, swimmer, child, sequence, old, sunday, function, cheque, kleptoparasitize, desert_tortoise, dive, hail, dinosaurs, chocolate, swamp_cooler, bowbearer, support, scale, avidin, city, overcast, physics, masturbate, cedar_waxwing, drug_addict, stick, handkerchief, bus, trapeze, pond, drizzle, rotor, quill, pets, english, human_being, tattle, elephant, pen, cricket, gathering, given_name, flasher, utter, metal, sugar, municipal, poky, pop, graph, parrot, red_cunt_hair, floss, forward, bum, psittaciform, shit_factory, derogatory, systems_science, government, playground, nautical, stuffed_animal, frozen_custard, eat_out, material, leaves, oak, almost, intelligent_agent_activity, private, crab, patriot, brood, have, dove, body, roast, way, honeycomb, furculum, block, pickaninny, object, depression, greenback, entrainment, inn, rowing, cottage, chain, microchromosome, face, nest, pazuzu, record, noseclip, bar, boatswain's_pipe, gazelle, destroy, condominium, pain, red_eye, waterbird, coke, fasten, clutch, sleep, unit, pelt, snake, ship, hunger, flea, bill, fang, auk, qualities, cow, calm, energy, call, sailor, type, co, eel, cloaca, fabric, astronomy, lemon, game, cuck, phytovolatilization, whistler, cellblock, circle, need, verd, free, average, shed, craft, seabird, fother, jingle, egg, geography, tim, nose, prime, pessulus, village, bread, rustler, rough, band, fuck, pyxis, harp, lieutenant, bank, bet, again, empedocles, like, figure, finger, clodhopper, smallcraft, clearance, chestnut, transform, steam, wingnut, concentration, drink, nest_box, waterhen, hydrogen, axis, duke, durgy, large, safari, rule, flying, beaver, wallet, sound, altitude, tetradactyly, caprimulgiform_bird, chest, wildcat, pouch, thong, seed, walk, grow_up, hemopneumoperitoneum, specific_humidity, mining, chuck, starfish, elemental, point, necessary, hit, fast, chick, boss, corner, cell, phosphorus_pentoxide, bind, quintessence, familiar, sponge, sublunary_sphere, blow, icositetrahedron, apricot, cycle, prow, crop, provide, saucer, sling, perform, trailer, epizootic, fairy_butter, big_five, strake, letter, lin, give, historical, grade, mess, spot, firefly, molecule, birdfucker, powder_room, aerophile, chordata, pet, canal, camp, measure, bench, farm, dun, you, swim, post, number, kinship, traverse, bathroom, phone, aerenchymous, been, anemorhria, hen, merlion, brat, plane, dangly_bits, duck, dress, picture, buildings, vane, possum, painting, together, fork, hydromassage, creeple, strip, vulture, friend, meal, leash, siphonium, boat, humble, spider, company, owl, tin, horsiculture, fin, uk, waterthrush, quarter, tode, send, item, dark, ticket, robin, arrow, major, adult, blood, casper, run_around, arrange, racer, local, gig, white, bellyband, flyer, put, album, weapon, art, ear_tuft, knot, line, scroll, wing_bar, jigger, lane, find_outside, cent, queen's_park, production, man, mummy, ocean, mop, rosebush, moving, newspaper, edge, cherry, barb, feathers, nervous, winterer, turn, basin, mater, tailed, scientific, shape, poke, hunter, finance, flat, tree, tea, show, shoot, stopping, square, uncinate_process, mass, relation, be, basipodium, bbq, continent, coupla, social, keep, coral, brown, avivorous, prison, dual_carriageway, cannon, hypertrophy, college, head, roll, potato, virgula, contact, school, lace, force, jacket, shag, lute, tone, avian, holloway, chase, waftage, lizard, tine, scratch, latch, good, turn_out, railing, bear, utterance, train, marijuana, tear, pickle, inmate, christmas_tree, green, omer, node, staff, oxidize, producer, mill, switch, florida_room, paint, tails, subimago, cross, reply, banana, promontory, maturity, swell, butter, crystal, anemotaxis, parkway, raise, cigarette, tintinnabulum, basket, style, aerotolerant, mate, highway, nun, press, flag, start, fettler, patch, forficate, front, development, heel, coracoid, tot, gruiform, lop, touch, furnace, beard, but, archosaur, crawl, worth, short, romance, nursling, wood, straight, miniature, aircraft, animal, process, anaerobiontic, dutch_reckoning, eating, service, return, closet, flatulence, steer, deer, convection_cell, stork, beverage, insects, fare, wapanese, guard, hair, juvenile, leaf_peeper, vonce, shower, length, cells, girthline, goolies, walrus, disk, lake, snow, small, sailing, vessel, grey, beat, big_air, kitten, baffle, red_dog, squirrel_cage, aye_aye, boose, pilot, its, wyakin, clear, linen, present, mean, flower, natural, stop, reeve, rock, hamilton, splenial_bone, do, fold, pump, whiff, breathalyzer, buckwheat_coal, dictionary, portable, albuminin, pejorative, peashooter, placard, fetus, trouser, stool, donkey, master, carpet, vodka, koala, sucker, brute, runs, speech, scarce, hose, protobird, parrock, hare, whipping, lock, gravity, passage, cash, ibis, coat, maat, soap, den, tom, can, poll, tinamou, larger, hang, chipmunk, around, skyway, degree, close, card, wild, non_person_animal, general_term, eaten, pressure, eyestripe, similar, battle, bless, tit, animal_type, crumb, compass, office, excellent, noun, location, glider, out, gaseous, very, food_pyramid, scalie, cart, play, whelk_stall, bigger, tarmac, ram, coat_tree, soma, sitter, making, race, plain_song, recreation, tablespoon, gras, color, poster, state, sex, deliquiate, less, small_intestine, bogger, man_of_war, busy, slim, before, serve, blackbird, talon, mollusk, car, spawn, grill, exercise, work, drinking_bird, fry, zoopraxinoscope, bay, rickle, stern, leaflet, bubble_wand, chen, delta, wag, backyard, petty, lap, ooch, black_hole, orphan, rabbit, jack, dear, gravel, predatory, biscuit, inside, berry, pronephron, die, moose, spark, flyaway, teeny, cord, pony, list, zealandia, ornithochory, sea, layer, husband, articulate, truck, payment, horses, mc, northern_bald_ibis, eggplant, lantern, chemical, porcupine, grape, babe, mayfly, cows, pavilion, settle, watermelon, rolling_paper, squeak, lenormand, huge, mental, tawny_frogmouth, surangular, chump_change, speak, shop, surface, flyweight, medium, fell, loud, naturally_occurring_tangible_substance, chirper, yap, bat, angel, cigarette_paper, british, rattlesnake, fill, dollar, species, drive, tall, garden_party, eggs, film, windsucking, road_captain, earthly_branch, set_table, manini, jam, antihunter, mineral, fox, truss, bate, through, gun, canada_goose, container, garage, wildlife, ornithochorous, mosquito, top, hill, biped, movement, bike, back, space, front_door, dart, key, weave, primary, action, wire, shit, spinner, small_game, young, mom, roof, soccer_field, toilet, scooter, expression, theater, fetter, dinky, fairway, sap, milk, reduce, single, size, apartment, drachm, physical, clothes, sicko, goes, pothunter, tread, manor, request, fillet, juice, hockey, smash, toponym, mole, translate, appendage, meat, archer, whale, aerogenic, foil, lure, capital, grid, programming, iron, shaft, whip, mahogany_spitfire, formerly, sneeze, crown_land, predator, bushel, power, apple_tree, comedy, spear, paste, buddy, read, oyster, central, mammal, bait, skunk, disease, man_eater, rooster, enjoyment, swallow, chew_toy, partner, aerogenous, muffin, father, kenning, under, eagle, ostrich, skipper, children, chickenhawk, scat, shot, fertile, prize, bubble, walking, has, britain, countryside, yellow, engineering, trip, preen, face_fly, water, build, tiller, iceberg_basement, crappo, albatross, dialectal, rail, widening, termite, indraught, rocket, pitch, lamb, peanuts, dik_dik, limp_wristed, hedgehop, float, toe, didapper, grown, occupant, communication, hopper, red_backed_shrike, plumage, stone, hill_topping, climb, sacrifice, allantois, pygarg, buttonquail, hot, parapterum, rat, chickenhead, proavian, swimming_pool, humidity, pea, heft, person, saprophagan, thread, land_patent, road, doll, vector, struthioniform, pot, wound, rail_transport, stitch, flank, washroom, a, economy_car, slang, united_kingdom, matanza, colour, review, eats, wart, solid, meteorology, court, desk, wrangler, fitness, geese, down, jail, series, feed, form, sign, bolt, rein, armadillo, over, smother, rattle, dance, mush, food, aerobiont, air, arch, parkade, fucking, furniture, needle, overcome, birdeye, account, mortling, hoof, stars, girl, wash, holding, breeder, crow, much, hop, division, dwell, hook, mist, gather, concern, public_place, lengthen, one_horse_town, birdbath, nuisance, regular, thick, shadowgraphy, animals, lobster, england, cloudy, anything, feeder, propulsion, draft_horse, home, great, nightjar, yak, heat, there, plain, made, cutty, big, squirt, perch, back_yard, marmot, printing, hydraulophone, digit, parakeet, serpent, woods, biddy, minikin, slope, land, lew, puddle, tailcuff, veterinarian, intercostal, wave, houses, courser, tad, puff, resident, black_and_tan, pier, current, name, critter, navel, liner, magnetoception, shoe, skinner_box, place, hovel, rib, lot, living_thing, construction, doctor, ornithotomy, gait, space_shuttle, music, case, perfect, feast, supply, flyover, camel, total, mamba, ruff, cage, halones, horizontal, nip, regurgitate, passenger, dog, cabinet, glide, live, winger, range, pie, order, sheep, piccolo, sports, ground, protect, excrete, long, eat, castle, scab, paddock, carry, pig, petal, smallville, rake, rack, hunt, military_macaw, koranimal, snout, stem, fried, horsehair, greyback, money, wanty, dough, flip, full, haze, computing, complemental_air, tylarus, marry, snag, activity, furby, aerohydrous, hut, nictitating_membrane, garbage, escutcheon, fresh, rural, archimedes, strongback, lead, mink, or, raven, high, street, covering, turtle, sandwich, scuttle, abaction, whiffling, gear, baby, paper, pike, syllable, getting_wet, headlight, flood, hedge, phylum, colony, paycheck, urchin, prairie_dog, barrel, gale, living, crowd, throw, exsufflation, swamplife, experiment, roundabout, life, silk, slate, waterfowl, arm, coypu, yed, kid, nut, skylark, viscus, dust, creature, politics, overpass, ape, restaurant, penguin, hydra, span, hydrogen_oxygen, getting, cloud, chickenlips, freshwater, skink, canuckland, calling_card, dinosaur, bridge, spar, circumscribe, ornithoid, general, humorous, sing, greenlet, people, class, holds, matter, twinter, fluid, sharp, wrong, oven, brain, zoology, buzzard, podotheca, butterfly, dogs_cats, slink, tailhole, area, dope, caudofemoralis, cup, rub, sometimes, condition, ounce, stadium, manaia, spill, courtyard, run, mask, lamp, pneumatization, field, ability, vertebrates, diffuse, performance, muscle, not, beach, hay, low, dishwasher, anaerobiosis, mud, foot, tar, manimal, ice, envelope, pee, alpha_paper, transport, brood_patch, fire, restraint, puppy, park, grow, thing, shu, stang, organic_matter, family, use, business, dip, culture, tv, fairy, pigs, cupola, product, malaria, well, oxygen, dipper, decoration, airplane, elementology, stomach, warbler, becket, wine, scavenger, south_africa, outdoors, drum, song, maverick, articulary, insect, stopper, barn, stale, shitbird, vertex, twink, powder_down, beam, wild_animal, smalls, science, grating, worm, legal, chick_flick, ball, aviation, hummel, californication, fly, guy, shirr, crap, relationship, gnaff, vet, wren, skimpy, rainbow, cupboard, mercury, rooms, atom, senior, carcass, gas, melt, copy, juke, red, stay, abbey, organic, staple, new_zealand, tip, station, usa, dish, goal, tabnab, spoon, element, country, wishbone, drop, library, disneyland, green_island, tie, lumberjack_breakfast, curling, reed, ducks, camber, bleed, unpleasant, pneumohemopericardium, wool, turf, baseball, dog_poop, cabin, leather, derm, architecture, coast, frame, cellmate, spit_roast, brake, oinker, holder, inch, toy, canoe, solid_object, fog, program, nice, knowledge, blame_canada, lady, heavier_than_air, wisp, safe, nature, hair_trigger, common, zoo, calypter, hip, paddle, growth, burned, flynet, whitebelly, snail, meatpacking, catch, everything, ratite, beast_of_burden, playing, jugal, grupetto, grassplot, loke, room, diminutive, boggard, bunsen_burner, public, nz, hack, loon, baboon, chop, bedroom, witch, birds, raptor, track, creek, fishing, note, freeway, backwash, cold, ramp, weight, driveway, sink, heaven, germ, clip, wastey, bangle, slip, mister, reward, chinese_astrology, windowsill, turkey, rider, shirttail, principal, eyes, forest, thruway, test, drench, tout, putting, ivory, violin, canvas, furry, staying, sproglet, we, pneumatic_bone, bass, bit, washout, billboard, tribe, war, noun_substantive, sidewalk, aurora, greenspace, beastly, servant, gooly, pretty, flicker, hummingbird, fawn, medicine, smaller, receipt, bed, sky, mast, scuba_dive, beer, upward, feather, demand, wet, puffin, swimming, bulldog, kingfisher, panda, frisbee, stonefly, ladder, chair, substance, sharp_shinned_hawk, whisk, residual_volume, slant, dyke, garden, buy, corncrake, aeroembolism, whistle, side, yard, watercock, cook, hermaphrodite, childish, hope, kiwi, scrape, earths, prey, poultry, wall, rapid, dram, wing, trees, leg, usually, mum, triphibian, commons, get, hall, sauropsid, step, kneegrow, off, what, grounded, site, try, liquid, mouse, bean, cute, rug, tailcoat, bunny, flesh, enrich, chanate, mule, kitchen, king_shit_of_fuck_mountain, keck, king, convey, candy, chemistry, heavy, bald_eagle, long_tail, ficus, jumbo, plunk, ferret, goose, greenfly, bacon, epithet, spur, increase, dolphin, stunt, peekaboo, corona, weeb, weeaboo, tetrapod, pound, bunnies, away, circuity, pluck, swatter, spit, herpetoculture, theory, appearance, pneumaticity, pan</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>nitrogen, toonophile, ortho, aud, set_phrase, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, scalogram, ometry, sincerely, square_metre, t_internet, fandom_slang, o_face, constant_of_integration, eddress, clansperson, nlq, lambdacism, getting_paid, am, air_conditioned, algol, act, non_sequituri, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, dezh, o_shaped, language, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, dirhem, account, academy, man, amos, type_erasure, 360, megabyte, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, rafivirumab, ballet, ante, q_and, alphabetic, there, was, article, remainder, equipt, archeopteryx, balanophagous, nd, b's, e_vite, cup, soupcon, united_kingdom, casualty, group, embellisht, rosebush, f_minus, n_tert_butyl, damma, data, double, dealt, xiphisternum, interfix, writer, north, high_c, kayo, ll, level, g_s, letter, robatumumab, penny_sterling, replace, kasra, cat, academic, type, diatonic_semitone, estes, before, e_tail, have_got, belcht, aitkins, i’s, boron, subject, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, surname, meaning, dry_cell_battery, connecter, hb, efungumab, paradigm, man_o_war, svo, embryoniferous, u’s, dram, is, b_minor, count_out, vocative_case, allele, ees, t_splice, pee, regards, egotist, ino, axis, amain, espionage, prototype_based_language, acrita, magic_e, tertiary, miserabilist, clicko, brassiere, u_tube, dnf, gf, dice, ambassador, nisba, c’s, team, pound_sterling, finance, c_hole, symbologenic, 4chan, homœo, personal, e_shaped, p_word, metre, ious, asymmetric, e’s, segovia, heroin, ultimata, brewster, bethe, magazine, video_game, cœno, you_and, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, pandean, turn, proscribed, entertainment, automobile, hypercorrection, roentgen, neutron, spat, australian_dollar, roman_numeral, lose, d's, micro, proverb, hook_n_kill, twou'dn't, cajun, blest, perpendicular_pronoun, animanga_character, coenosteum, bel, vocative, b.ed, musical_artist, non_u, note, i_don't_care, einsteinium, bye, tier, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, salt_n_shake, twelvemo, fourth_letter_of_roman_alphabet, india, april, pork_n_beans, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, lemalesomab, annext, lexatumumab, cuppa, bornt, application, will_o_wisp, n_ary, first_person, clasht, philippine, time, cropt, television_show, aken, zero, ms, seleno, perfection, answer, were, spectral_class, speako, noons, e_folding, oyl, gameto, arctic, e's, automata, excuse, gee, libivirumab, sw, encroacht, accepted, unstressed, tis, run_o_mill, barn, mb, b.a, lurianic, argyro, coulomb, iferous, sr, chirpt, audit, distinguisht, circa, e_quainted, galanthophile, labial, i_ship, b.mus, moo_u, ngl, mbta, deoxythymidine_monophosphate, ignominy, para, cymoscope, mausolea, eirs, nemato, quasar, build_cathedral, segrosome, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, equiangular, thousand, u_boat, seah, en, b.litt, imciromab, pawn, qs, q's, metric_ton, saint_anthony's_cross, physicotheology, os, pemtumomab, transgender, copypasta, sentences, television_station, cleft, falcon, ahold, believe, my, f_hole, compiler, zoö, taxa, green, august, loser_sign, flat, fréchet, mab, dead_n_buried, problemo, kolmogorov, detumomab, antigen, bit, fish_n_chips, printing, ties, atmosphere, bynempt, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, nay, n_bomb, austria, dunzo, nebacumab, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, e_sharp, i'll've, genitive_case, nfc, e_tailing, d100, minor, stade, do_dièse, hunter's_moon, ignore, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, tibeto, string, mth, phm.b, dextro, warsaw, it's, liter, builder's_mug, c_channel, accidental, i'd, miscellaneum, emergency, scanno, hebdomadiversary, british, ego, f’s, author, in, junonian, keynote, medium, uranium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, i_and_i, lino, statesman, let's, okay, stage, solfege, cmos, rip, b.s, me_pronoun, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, denmark, can_store_food, angstrom, tert, twelveth_letter_of_roman_alphabet, ich, banisht, foravirumab, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, chill, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, l_size, acaulous, hoplo, ell, beeswax, me_reference, ze, bent, u_rp, academician, gasogen, aa, sudoriferous, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, palochka, other, mega, hey, be, programming, asqtad, homoio, blockt, aglutition, ods, ri, istro, thymine, absolute_temperature, titles, b_s, ues, or, u_shaped, argent, ex, talk_to, chromatic_scale, s, self, make, military, exbivirumab, ihood, american, charlie, logico, crease, writo, re, checkt, ss, athanogene, bisphenol, after, connectogram, ebrary, gilf, education, maiden_over, oic, statement, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, i_wiss, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, iso, q’s, yours_truly, levo, saké, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, ℓ, single, fictional_character, mac, playoff, javascript, cisgender, self_me, self_reference, conservative, tittle, ecmascript, softography, curst, purkins, crept, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, linking_vowel, go_to_market, pip, gomer, e_tailer, l_shaped, ostomy, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, pædo, venipuncture, astragal, dacryohemorrhea, us, cor, grade, china, deuteron, survival_horror, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, est, slut's_wool, from_latin_libra, me_subject, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, number, shortcut_for_air_conditioning, ragamuffin, mature, i'm, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, lambert, dioxygen, q_ball, nacolomab_tafenatox, imac, major, betimes, otw, leonid, e_form, b.ch.d, did, anterior, salt, a, shanxi, lua, has, neighborhood, lvalue, tesla, nights, i'se, taplitumomab, g_shaped, skainsmate, f_sharp, ga, dispossest, wiener_dog, d_hole, deprest, b.com, triple, i's, admiral, fifth_letter_of_roman_alphabet, d_minor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, b.des, pyrrhonist, czechoslovak, football, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, mit, ancient_greek, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, klecksography, criteria, litre, sithence, me, celestial_object, absent, admonisht, blemisht, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, subjective, blent, unicode, jackanapes, neuter, vagino, cervico, b_testing, otl, flowering_plant, archaea, regina, ruby, state, u, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, rake_n_scrape, corn, lth, drag_n_drop, subway, canonical, teen, absolute, guanine, pritumumab, ing, l_plate, verb, iv, manga, computing, u's, r's, b_♭, mapatumumab, cs, england, linotype, log, curiously_recurring_template_pattern, functional_group, lgbt, astand, boa, bloviate, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, pronouns, taxaphobic, abolisht, rogers, capital, b.s.l, inorite, urbicidal, artery, crusht, ours, spherocylindrical, sterling, u_turn, lines, reflectoporn, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, speaker, emma, fuckabilly, c_shaped, blood, vegas, i_ness, thing, stretch, tween, sulesomab, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, spearsman, drive, sapon, danc’t, mass_number, peripherovascular, rf, cycle_of_fifths, valor, power_pill, euse, belgium, hib, women, esrb_rating, ch, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, muography, baulk_line, accurst, t_square, acre, comprest, fourteenth_letter_of_roman_alphabet, trailer, firs_person, necitumumab, empathogen, meetaversary, ns, madalyn, computer_science, drum_n_bass, movie, polynomial_time, issa, country, diptera, r, b.lit, cutting_edge, zero_g, actus, intetumumab, anxio, m's, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, i_hood, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, i_beam, hyoid, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, austroasiatic, e_road, d_s, taula, supercee, eradiation, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, norovirus, b_story, clu, set_theory, rock_n_roll, take_l, mc, tositumomab, nyse, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, o’s, b.e.e, can_begin_to_leak, ll.b, besides, ownership, costa, homer, grammatical, women's_christmas, sevirumab, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, n's, port_o_john, fitz, nfd, fs, gentleman, u_bolt, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, ts, nae, i18n, available, bs, java, μ, w, apple, ramucirumab, bought, street_slang, type_b, yo, aitkens, 1_g, active, down_to_t, black_english_and_slang, biblical, patronymic, au, metaphysics, audio, b.chir, template_metaprogramming, copyright_symbol, ey, empoverisht, riq, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, cannabinoid, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, terminology, cobol, admit, urbiscript, b.acc, iii, long_s, denosumab, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, interstate, b.math, enharmonic, mother, abbreviation_of'you, electronics, rhotacism, o'clock, stadia, america, bug_boo, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, terminal_s, v, home, c, external, i'll, malloc, np, dog's_letter, indefinite_article, right, aware, electronic, dwelt, cock_hoop, r’s, stl, elaborate, b_shaped, n’s, ed, s_hole, basketball_league, n_butyl, flute, fora, twere, aunt, muggins, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, go, normal, do, sol_fa, attacht, enravisht, multiple_o's, no, s_size, aspect_ratio, entomology, sie, graph, rd, quarto, approacht, b_final, myself, levulose, sixteenth_letter_of_roman_alphabet, lb, they, form, toll_road, indicative, basketball, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, christofascist, b.m.e, kenna, pseudonym, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, g’s, o_ring, un, break_off, fashionable, ies, fork, upon, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, kinesiology, computer_languages, confest, exponential, aerial, computing_theory, stan, cherubs, crasht, fundamental_constant, s’s, decemvirate, transsexual, o'reilly, hulkamaniac, kb, ai, meaning_me, americanization, annus, b.lib, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, propoxur, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, 1, particle, ra, snooker, ü, read, latitude, alotta, and_eye, acid, ninth, perfectly, brought, male, askt, b.c.e, cannabinol, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, regavirumab, apiece, 50, dript, b_♭_instrument, raxibacumab, pick_n_mix, b’s, pneumato, australia, eye, chemical_symbol_of_oxygen, mitumomab, iratumumab, ii, i've, abaft, ana, ette, subjective_pronoun, medicine, ne, 12mo, law, aweigh, korea, 500, curly_bracket_language, acronym, old_penny, gravo, identification, panobacumab, blood_type, drachm, artificer, i'ven't, idollator, robertsman, queen, oto, hyperbolic_function, delete, p_complete, mac_n_cheese, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, p_uman, fatha, metacism, gas_constant, air_to_ground, afaiu, i'd've, stamulumab, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, dnq, semitone, operator, darwin, aes, peso, besprent, ignoble, jessa, lucatumumab, iono, chartered_accountant, music, water_spout, sitcom, signore, lost, degree_centigrade, k, result, sn, cinema, australian, arterio, not, b.arch, clitic, software, sentence, ball, php, amacrine, idren, ith, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, b.b.a, herpeto, billion, information_services_and_technology, nape, acephalopodia, by_from_home_depot, you, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, ify, dry_storage, base, aviator, n, echonian, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, spliceosome, unsupported_titles_c_sharp, magneto, uracil, chemical_symbol_for_phosphorous, accounts_receivable, molecule, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, iyaric, restaurant, hoodla, philo, d_sharp, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, shambolic, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, morpheme, noun, class, lev, scale_height, alexipyretic, transit_card, open, å, irrevocable, th, auri, babs, t_pose, tritium, b_side, associate, clipt, zymosimeter, pronoun_me, m'lady, ge, fortran, almost, musea, excrescence, flatulogenic, pound, monsieur, form_of_vessle, atta, semicircle, description, of, used_in_reading_out_numbers, politics, dq, ml, deoxycytidine_monophosphate, boson, ace, bruxomania, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, number_one, ps, first_alphabet, history, my_ass, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, topology, iration, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, degree_fahrenheit, cyclo, ground, zoöphytology, b.med, newton, problem, some, contradistinguisht, issaron, selligueain, digital, object_oriented_programming, cherisht, multi, and, panitumumab, b.m, pells, of_piece, metalic_cylindrical_container, jamaica, jack_o_lantern, z, mmole, loophole, d_b, egocentric, indefinite, send_criminal_to_prison, uk, supersymmetry, rational_numbers, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, aviation, vexillographer, foreroom, cor_anglais, j.d, give_hand, penlite, pronoun, el, cent, chemistry, referred, abundant, ab, gantenerumab, amnia, descendant, its, lolz, b.s.a, hard, deictic, i_shaped, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, e_quaintance, ofatumumab, mitochondria, rust, anna, b.compt, equi, active_galaxy, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, n_gram, set_containing_one_element, amplitude, d_shaped, s_shaped, u_235, ppbar, q_shaped, secretary_problem, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, bridgmanite, cock_leekie, each, burnt, goatshair, highland, m.d, business, s's, illo, testosterone, square_meter, new_zealand, last, elemeno, digrest, clg, e, dsq, misle, ilka, allies, composition, sphygmo, every, secondary, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, graphophone, iwantone, capitol, normality, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, spello, laetrile, ital, iform, l’s, cyclone, bps, abeigh, about, dunam, ocracy, all_gog, point, potato, manosphere, air_conditioner, ancient, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, edrecolomab, dotless_i, d.d, itinually, cricket, taking_bus, cab, afternoon, i'dn't've, dex, galaxy, u_pick, diminisht, seventh_letter_of_roman_alphabet, p’s, em, rig, acroatics, economics, duff's_device, hundred, air_conditioning, like_me, miladdo, urano, swounds, ah, ls, efold, m_shaped, roman, mornings, size, also, xe, banned, had, air, possess, cytosine, b.th, self_description, irish, americanize, iodine, galactic_coordinate_system, poland, ata, fifty, da, theorem, scotland, horse, aptychus, accident_and_emergency, igm, t_shaped, exactly, bliss, abandannaad, afterwards, one_person, ff, personal_identification, n_shaped, caught, b_complex_vitamin, æ, holliers, wilkes, g's, oes, ub, list, b.as, incuba, m'lord, ecstasy, nosism, taxable, also_known_as, vulvo, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, n_plex, luggage, ada, plus, li, lethek, long_vowel, hemoglobin, any, b.acy, clothing, abasht, f_18, question, tendu_en_arrière, mathematics, awhape, cross, northern_england, example_of_programming_language, applicable, adventure_game, 18mo, kd, inity, universal_donor, slang, backwards, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, group_o, strident, fluor, fluorine, egocentric_pronoun, upper_class, disrelisht, c_note, tuesday, panamanian, burnisht, almost_me, purposes, absorbancy, thyroxine, americo, c_suite, g_minor, vitamin, balletomania, against, human, archæo, l's, to, gb, river, e_tard, canine_letter, per, firs, saxon_genitive, city, tuvirumab, absorbance, acceleration, litho, echeng, la, hotel, beanbag, deduc’t, like, svedberg, tee, astonisht, knitting, michigan, n_adic, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, porno, d_major, he, ricketts, best, activity, lyrical_i, apl, stinko, hip_hop_music, marinobufagin, convention, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, expertise, rexx, usd, besought, d’s, uranoso, frame, sxsw, cocaine, bass_clef, bronx, arace, meter, avancé, e_thumb, four, percentage_point, toy, drill_n_bass, infix, anno, army, 4to, deuterium, personal_pronoun, ataxia_telangiectasia, henan, buffet, psepho, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, dialect, drest, pneumono, zir, ds, hedra, tees, introverted, sixth_letter_of_roman_alphabet, fail, rex, person, coeno, gravitational_constant, address, forwards, direct_broadcast_satellite, over, single_alphabet, died, e_head, medial_s, industry, attendance, modius, meta, o_canada, british_film_certificate, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, fan_fiction, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>rogers, see_also_es, predicted, nuevo_sol, software, of, sulfanylidene, terminal_s, abbreviation, dx, purkins, ours, o, boson, caravansary, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, holliers, wilkes, c, hirs, athwartships, goatshair, is, ve, which's, nipple, count_out, singular, oversman, randomness, business, s's, januarys, axiom, set_theory, builder's_tea, e, grammar, second, ed, s_hole, khoum, internet_slang, toodles, allies, bit, ricketts, hers, wolf_hook, descending_s, ino, s_bomb, d, even, secondary, south, clansperson, pantile, greengrocer's_apostrophe, numeral, inorganic_substance, pigscot, es, vegas, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, beeswax, axiomatic, hawksbeard, raguileo_alphabet, besides, storativity, spectral_class, short_s, anothergates, t, third_person, sulfur, st, fermion, women's_christmas, birdsmouth, noons, aikens, sithence, genitive_case, symbols, spearsman, bullswool, celestial_object, perrins, sec, sxsw, n, s_size, bronx, nones, ods, parkins, lulz, jesus_was_crucified, pells, slang, celestial_body, r_rated, diastereoisomer, backwards, segovia, hunter's_moon, motorcycle, company, present_tense, est, slut's_wool, perhaps, subatomic_particle, z, talk_to, saint, cricket, robertsman, gentleman's_agreement, uk, supersymmetry, sigmoid, bcpl, string, plantsperson, pithers, it's, meadow, programming_language, otl, sneaksman, strident, acroatics, theirs, indicative, aikins, f_instrument, zf, labial, alphabet, pers, ss, builder's_mug, zounds, dialect, aitkens, set, movie, copenhagen, are, l, used_mainly_after_where_here_and_there, annodated, american_library_association, swounds, forwards, mornings, size, proscribed, nonstandard, internet, its, lolz, eth, pinfall, sarcastic, pethers, kudo, legal, eirs, medial_s, ing, betimes, signor, verb, otw, spat, letter, vrykolaka, dswounds, ies, replace, a, statesman, let's, saxon_genitive, long_s, music, sx, tradeswoman, theorem, gs, mho, batsman, has, stage, nights, signore, babs, estes, guildswoman, skainsmate, i, have_got, stereodescriptor, equivalent, en, aitkins, cherubs, corner_tooth, hors_categorie, king's_man, bliss, afterwards, physicotheology, s’s, os, s_shaped, organic_chemistry, text_messaging, svedberg, yours, when_it_is_nonstandardly_used_as_relative_pronoun, physics, sextodecimo, atta, scampsman, m, denmark</t>
-  </si>
-  <si>
-    <t>nitrogen, aud, set_phrase, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, sincerely, square_metre, t_internet, fandom_slang, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, act, b.s.n, proton, short_s, third_person, t_piece, agaze, vowel, first, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, dirhem, account, academy, myctag, amos, type_erasure, megabyte, diastereoisomer, tt, vide, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, ballet, ante, alphabetic, there, was, article, hydrogen, equipt, b's, e_vite, w_r_t, cup, soupcon, casualty, group, embellisht, rosebush, f_minus, n_tert_butyl, data, vv, visarga, double, dealt, north, high_c, v’s, level, g_s, letter, replace, cat, academic, type, diatonic_semitone, estes, before, e_tail, victim, have_got, belcht, aitkins, boron, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, dry_cell_battery, connecter, hb, paradigm, embryoniferous, dram, is, b_minor, count_out, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, acrita, magic_e, tertiary, vagina, brassiere, double_u, gf, ambassador, c’s, team, pound_sterling, finance, c_hole, 4chan, e_shaped, p_word, metre, asymmetric, e’s, segovia, heroin, ultimata, brewster, bethe, comics_character, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, sneaksman, theirs, aikins, algorithm, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, turn, proscribed, entertainment, automobile, neutron, spat, australian_dollar, lose, hook_n_kill, twou'dn't, cajun, water, blest, animanga_character, bel, b.ed, musical_artist, note, einsteinium, bye, tier, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, caravansary, hirs, salt_n_shake, april, pork_n_beans, axiom, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, annext, cuppa, bornt, application, n_ary, clasht, philippine, time, cropt, aken, ms, perfection, answer, were, spectral_class, noons, e_folding, arctic, e's, automata, excuse, gee, titular, sw, encroacht, accepted, tis, barn, mb, b.a, lurianic, coulomb, chirpt, audit, distinguisht, circa, e_quainted, labial, b.mus, mbta, deoxythymidine_monophosphate, para, mausolea, eirs, build_cathedral, hydrogen_atom, fb, frigga, breadth, vrykolaka, administration, object_oriented_programming_language, tradeswoman, accomplisht, thousand, seah, en, b.litt, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, transgender, copypasta, television_station, cleft, falcon, organic_compound, ahold, believe, my, f_hole, compiler, taxa, green, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, dead_n_buried, kolmogorov, bit, fish_n_chips, printing, western, ties, atmosphere, bynempt, pencil, thirteenth_letter_of_roman_alphabet, es, n_bomb, austria, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, e_sharp, genitive_case, wynn, nfc, nnw, e_tailing, minor, stade, do_dièse, hunter's_moon, ratings, gelfond's_constant, f's, shi, the, string, mth, phm.b, warsaw, it's, liter, builder's_mug, c_channel, accidental, miscellaneum, emergency, british, semivowel, f’s, author, in, junonian, keynote, medium, vis_vis, ashoka, accommodation, age, signor, ae, statesman, let's, stage, solfege, cmos, rip, b.s, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, denmark, can_store_food, angstrom, tert, twelveth_letter_of_roman_alphabet, banisht, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, transhumanism, l_size, acaulous, ell, beeswax, ze, bent, academician, aa, fermion, b.comm, blood_group, atomic_weight, gangsta, other, mega, be, programming, asqtad, blockt, aglutition, ods, ri, thymine, absolute_temperature, titles, b_s, or, argent, ex, talk_to, chromatic_scale, s, make, military, american, charlie, van, wth, crease, re, checkt, ss, athanogene, bisphenol, after, ebrary, education, maiden_over, statement, viscount, jack_lent, 24mo, pharmacology, xtianity, automatic, century, pure, bereft, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, alto, cello, p, iso, levo, saké, j, an, vicesimo_quarto, assist, c_s, ℓ, fictional_character, playoff, javascript, cisgender, conservative, tittle, ecmascript, curst, purkins, videte, crept, w_o, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, pip, gomer, e_tailer, l_shaped, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, volt, astragal, us, cor, value, grade, china, deuteron, amphibian, bullswool, kc, hausdorff, sec, perrins, group_b, tungsten, est, slut's_wool, from_latin_libra, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, verse, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, mature, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, b_flat, eth, lambert, major, betimes, otw, leonid, e_form, b.ch.d, anterior, salt, a, shanxi, lua, has, neighborhood, lvalue, tesla, nights, g_shaped, skainsmate, f_sharp, ga, dispossest, wiener_dog, hs, deprest, b.com, triple, with, admiral, fifth_letter_of_roman_alphabet, victor, rating, sanatoria, average, o, ethyl, ve, all_mort, b.des, pyrrhonist, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, euphemism, mit, h_shaped, gram, pigscot, rackarock, neura, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, criteria, litre, sithence, celestial_object, absent, cl, admonisht, blemisht, weingarten_right, nones, jesus_was_crucified, developt, rix, primary_care, area, saint, status, blent, unicode, jackanapes, v_neck, neuter, b_testing, otl, flowering_plant, archaea, proton_hydron, ruby, state, u, bacteria, colossea, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, anuptaphobia, b_word, avoucht, rake_n_scrape, corn, lth, drag_n_drop, subway, canonical, teen, absolute, guanine, ing, l_plate, verb, iv, manga, computing, b_♭, cs, england, log, curiously_recurring_template_pattern, functional_group, lgbt, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, taxaphobic, abolisht, rogers, capital, b.s.l, artery, crusht, ours, wednesday, sterling, lines, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, wolf_hook, s_bomb, emma, fuckabilly, c_shaped, vegas, thing, stretch, tween, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, polyvinyl_chloride, spearsman, drive, sapon, danc’t, mass_number, witness, rf, cycle_of_fifths, valor, power_pill, euse, v's, belgium, hib, women, esrb_rating, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, accurst, t_square, acre, comprest, fourteenth_letter_of_roman_alphabet, trailer, meetaversary, ns, madalyn, computer_science, drum_n_bass, movie, polynomial_time, issa, country, diptera, r, b.lit, zero_g, actus, m's, pinfall, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, e_road, taula, supercee, eradiation, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, b_story, clu, islamic_calendar, employ, set_theory, rock_n_roll, take_l, nyse, anecdota, south, workaday, numeral, frequency, oboe_d_amore, computerized, b.e.e, can_begin_to_leak, ll.b, besides, costa, homer, republican, women's_christmas, aikens, stop_codon, symbols, folio, technical_foul, n's, port_o_john, fs, gentleman, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, nae, i18n, available, bs, java, w, bought, street_slang, type_b, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, au, b.chir, template_metaprogramming, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, cannabinoid, attackt, scale, cola, assault, piss_like_racehorse, vitamin_e, h's, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, b.math, enharmonic, mother, electronics, stadia, america, bug_boo, alpha_privativum, clept, arc, encampt, nuevo_sol, bomb, penny, g_rated, version, terminal_s, w's, c, external, malloc, np, indefinite_article, aware, electronic, dwelt, cock_hoop, stl, elaborate, b_shaped, n’s, ed, s_hole, basketball_league, n_butyl, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, occupation, dateaversary, built, go, normal, sol_fa, attacht, enravisht, s_size, no, aspect_ratio, entomology, sie, graph, approacht, b_final, levulose, sixteenth_letter_of_roman_alphabet, lb, h_shackle, they, form, indicative, basketball, coarticulate, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, b.m.e, kenna, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, un, ies, fork, upon, solfège, exhibit, big, n_acetyl_p_aminophenol, doubleyou, computer_languages, confest, exponential, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, hulkamaniac, kb, ai, americanization, annus, b.lib, disco_biscuit, predicted, chemical_symbol_of_carbon, im, 3gl, dx, propoxur, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, ra, snipt, latitude, alotta, acid, perfectly, brought, male, askt, b.c.e, cannabinol, worn_on_nose, ajax, descending_s, game, etc, euphemistic, pantile, et_seq, apiece, 50, dript, b_♭_instrument, pick_n_mix, b’s, australia, ii, abaft, ana, ette, medicine, ne, law, aweigh, curly_bracket_language, acronym, blood_type, drachm, artificer, robertsman, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, mac_n_cheese, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, fatha, metacism, air_to_ground, b_school, tonic, astronomy, internet, pethers, w’s, semitone, aes, peso, besprent, jessa, chartered_accountant, music, water_spout, gw, signore, vanadium, lost, degree_centigrade, result, white, australian, not, b.arch, clitic, software, ball, php, ev, amacrine, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, wwwww, b.b.a, billion, information_services_and_technology, nape, acephalopodia, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, echonian, parkins, celestial_body, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, pvc, unsupported_titles_c_sharp, chemical_symbol_for_phosphorous, molecule, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, restaurant, hoodla, v_sign, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, f_s, demolisht, relaxacon, lead, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, noun, class, lev, scale_height, alexipyretic, transit_card, open, å, th, babs, t_pose, tritium, b_side, associate, clipt, m'lady, ge, fortran, musea, w5, excrescence, pound, monsieur, form_of_vessle, atta, of, politics, deoxycytidine_monophosphate, ml, boson, ace, quanta, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, history, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, controlled_vocabulary_types, degree_fahrenheit, cyclo, ground, b.med, newton, problem, contradistinguisht, character, issaron, selligueain, object_oriented_programming, cherisht, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, z, mmole, loophole, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, neuropraxia, beset, ess, estradiol, aviation, foreroom, cor_anglais, heat_content, give_hand, penlite, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, abundant, ab, amnia, its, lolz, b.s.a, hard, peruvian, logic, pitch_perfect, f_minor, before_bee, t’s, e_quaintance, mitochondria, rust, anna, b.compt, guildswoman, perl, t_junction, stereodescriptor, cilia, n_gram, set_containing_one_element, amplitude, s_shaped, ppbar, secretary_problem, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, cock_leekie, burnt, goatshair, highland, business, s's, square_meter, testosterone, new_zealand, w_shaped, last, elemeno, digrest, clg, e, ilka, allies, composition, every, secondary, imperative, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, west, normality, madam, sports, hawksbeard, jack_napes, catherine_havasi's_initials, l’s, cyclone, bps, abeigh, about, dunam, all_gog, point, potato, air_conditioner, ancient, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, watt, cricket, taking_bus, cab, afternoon, galaxy, diminisht, seventh_letter_of_roman_alphabet, p’s, em, rig, acroatics, economics, duff's_device, hundred, air_conditioning, swounds, ah, ls, efold, m_shaped, mornings, size, also, xe, banned, viscountess, air, cytosine, b.th, americanize, galactic_coordinate_system, poland, ata, deoxyribose, fifty, theorem, scotland, five, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, v_cut, ff, monoatomic_cation, atomic_nucleus, n_shaped, caught, b_complex_vitamin, æ, holliers, wilkes, g's, 5, ub, list, h’s, b.as, incuba, m'lord, ecstasy, taxable, also_known_as, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, n_plex, luggage, ada, plus, li, lethek, long_vowel, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, wed, awhape, cross, northern_england, example_of_programming_language, applicable, strong_electrolyte, 18mo, kd, slang, backwards, grunsel, present_tense, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, strident, fluor, fluorine, disrelisht, c_note, tuesday, panamanian, burnisht, v_twin, purposes, absorbancy, thyroxine, c_suite, g_minor, vitamin, hegira, against, human, l's, to, gb, v_necked, vs, river, e_tard, 2h, per, saxon_genitive, city, versus, absorbance, acceleration, echeng, hotel, beanbag, deduc’t, calendar_terms, svedberg, tee, astonisht, knitting, michigan, mark, n_adic, estrogen, see_also_es, at_pinch, jocular, computer_language, it, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, he, ricketts, best, q, activity, apl, hip_hop_music, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, and_so_on, panthea, awk, expertise, besought, frame, sxsw, cocaine, work, bass_clef, bronx, arace, h_beam, meter, e_thumb, avancé, delta_v, four, percentage_point, drill_n_bass, anno, army, v_shaped, ataxia_telangiectasia, henan, buffet, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, drest, dialect, hedra, tees, introverted, aspirated_h, sixth_letter_of_roman_alphabet, fail, person, gravitational_constant, address, forwards, direct_broadcast_satellite, e_head, medial_s, industry, attendance, modius, meta, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, i, aircraft, equivalent, fan_fiction, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>nitrogen, toonophile, ortho, aud, set_phrase, athwartships, acting, farad, aphobia, anaptyxis, van_der_waals_constant, goals, scalogram, ometry, square_metre, fandom_slang, o_face, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, algol, act, non_sequituri, b.s.n, proton, short_s, third_person, parsing, agaze, vowel, first, dezh, o_shaped, purchase_cellular_phone, base_of_natural_logarithms, historical, dirhem, account, academy, man, myctag, amos, type_erasure, 360, megabyte, diastereoisomer, tt, vide, motorcycle, procedural_programming_lanuage, fuck, zoa, ballet, ante, alphabetic, there, article, remainder, archeopteryx, balanophagous, nd, b's, e_vite, w_r_t, cup, soupcon, casualty, group, rosebush, f_minus, n_tert_butyl, data, vv, double, xiphisternum, interfix, writer, north, high_c, kayo, ll, v’s, level, g_s, letter, penny_sterling, replace, kasra, cat, academic, type, diatonic_semitone, estes, before, e_tail, victim, have_got, aitkins, i’s, boron, subject, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, surname, meaning, dry_cell_battery, connecter, hb, paradigm, man_o_war, svo, embryoniferous, dram, is, b_minor, count_out, vocative_case, allele, ees, pee, ino, axis, amain, prototype_based_language, acrita, magic_e, vagina, miserabilist, clicko, brassiere, double_u, gf, dice, ambassador, nisba, c’s, team, pound_sterling, c_hole, symbologenic, homœo, personal, e_shaped, p_word, metre, ious, asymmetric, e’s, segovia, heroin, ultimata, brewster, bethe, video_game, cœno, comics_character, you_and, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, american_library_association, triton, bubnoff_unit, pandean, turn, proscribed, automobile, hypercorrection, roentgen, neutron, spat, australian_dollar, roman_numeral, d's, proverb, hook_n_kill, cajun, perpendicular_pronoun, animanga_character, coenosteum, bel, vocative, b.ed, musical_artist, note, i_don't_care, einsteinium, bye, tier, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, salt_n_shake, twelvemo, fourth_letter_of_roman_alphabet, india, april, pork_n_beans, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, lemalesomab, cuppa, application, will_o_wisp, n_ary, first_person, philippine, television_show, aken, zero, ms, seleno, answer, spectral_class, speako, noons, e_folding, oyl, gameto, arctic, e's, automata, excuse, gee, titular, sw, accepted, unstressed, run_o_mill, barn, mb, b.a, lurianic, argyro, coulomb, iferous, sr, audit, circa, e_quainted, galanthophile, labial, i_ship, b.mus, ngl, ignominy, para, cymoscope, mausolea, eirs, nemato, segrosome, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, megakaryocytopoiesis, equiangular, thousand, seah, en, b.litt, imciromab, pawn, physicotheology, os, pemtumomab, copypasta, sentences, television_station, falcon, organic_compound, ahold, believe, my, f_hole, compiler, zoö, taxa, green, august, loser_sign, flat, mab, dead_n_buried, problemo, detumomab, antigen, bit, fish_n_chips, printing, western, atmosphere, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, nay, n_bomb, austria, dunzo, raguileo_alphabet, speed_of_light, storativity, ha, irc, e_sharp, i'll've, genitive_case, wynn, nfc, nnw, e_tailing, d100, minor, stade, do_dièse, hunter's_moon, ignore, gelfond's_constant, f's, shi, electrical_resistance, the, tibeto, string, mth, phm.b, dextro, warsaw, it's, liter, builder's_mug, c_channel, accidental, i'd, miscellaneum, emergency, hebdomadiversary, scanno, british, semivowel, ego, author, f’s, in, junonian, keynote, medium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, i_and_i, lino, statesman, let's, okay, stage, solfege, cmos, rip, b.s, me_pronoun, f_shaped, cetera, physics, anecdotum, kuh, m, can_store_food, denmark, angstrom, twelveth_letter_of_roman_alphabet, ich, third_letter_of_roman_alphabet, four_lines, roadway, combo_pass, jackanape, chill, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, l_size, acaulous, hoplo, ell, beeswax, me_reference, ze, academician, gasogen, aa, sudoriferous, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, palochka, other, mega, hey, be, programming, asqtad, homoio, aglutition, ods, ri, istro, absolute_temperature, titles, b_s, or, argent, ex, talk_to, chromatic_scale, self, s, make, military, ihood, american, charlie, van, wth, logico, crease, writo, re, ss, athanogene, bisphenol, after, connectogram, ebrary, gilf, education, maiden_over, oic, statement, viscount, jack_lent, rh, pharmacology, minretumomab, edobacomab, automatic, homoeo, century, pure, i_wiss, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, iso, yours_truly, levo, saké, j, an, back_o_bourke, oh, assist, c_s, ℓ, single, fictional_character, mac, playoff, javascript, self_reference, self_me, conservative, ecmascript, softography, purkins, videte, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, linking_vowel, go_to_market, pip, gomer, e_tailer, l_shaped, ostomy, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, volt, pædo, venipuncture, astragal, dacryohemorrhea, us, cor, value, grade, china, deuteron, survival_horror, amphibian, bullswool, kc, scheme, sec, perrins, group_b, tungsten, est, slut's_wool, from_latin_libra, me_subject, b, subatomic_particle, jack_dandy, bass, sigmoid, verse, um, bee, john_dreams, pithers, number, shortcut_for_air_conditioning, ragamuffin, mature, i'm, hair_clip, year, p_shaped, abiosis, dendro, b_flat, eth, lambert, dioxygen, nacolomab_tafenatox, imac, major, betimes, otw, leonid, e_form, b.ch.d, did, anterior, salt, a, shanxi, lua, has, lvalue, i'se, nights, taplitumomab, g_shaped, skainsmate, f_sharp, ga, wiener_dog, d_hole, b.com, triple, i's, with, admiral, fifth_letter_of_roman_alphabet, d_minor, victor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, b.des, pyrrhonist, czechoslovak, football, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, euphemism, ancient_greek, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, amphibious, y, mammal, birdsmouth, klecksography, criteria, litre, sithence, me, celestial_object, absent, cl, weingarten_right, nones, r_shaped, jesus_was_crucified, rix, primary_care, area, saint, subjective, unicode, jackanapes, v_neck, neuter, vagino, cervico, b_testing, otl, flowering_plant, archaea, regina, ruby, state, u, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, rake_n_scrape, corn, lth, drag_n_drop, canonical, absolute, guanine, ing, l_plate, verb, iv, manga, computing, r's, b_♭, cs, england, linotype, log, curiously_recurring_template_pattern, functional_group, lgbt, astand, boa, bloviate, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, pronouns, taxaphobic, rogers, capital, b.s.l, inorite, urbicidal, artery, ours, spherocylindrical, wednesday, sterling, lines, reflectoporn, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, speaker, emma, fuckabilly, c_shaped, blood, vegas, i_ness, thing, stretch, sulesomab, anothergates, omer, stock_symbol, rat, cancer, toward, beginnings, erlang, tcl, polyvinyl_chloride, spearsman, drive, sapon, mass_number, peripherovascular, witness, rf, cycle_of_fifths, valor, power_pill, euse, v's, belgium, hib, esrb_rating, ch, e_minor, turing_machine, gangster, plantsperson, muography, baulk_line, acre, fourteenth_letter_of_roman_alphabet, firs_person, empathogen, meetaversary, ns, madalyn, computer_science, drum_n_bass, movie, polynomial_time, issa, country, diptera, r, b.lit, cutting_edge, zero_g, actus, anxio, m's, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, i_hood, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, i_beam, tilt_whirl, corner_tooth, b.e, er, baseball, association, e_road, d_s, supercee, eradiation, object, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, g_force, ff_hole, norovirus, b_story, clu, set_theory, rock_n_roll, take_l, mc, tositumomab, nyse, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, o’s, b.e.e, can_begin_to_leak, ll.b, besides, ownership, costa, homer, grammatical, republican, women's_christmas, aikens, stop_codon, symbols, folio, auriculo, blogosphere, n's, port_o_john, fitz, nfd, fs, gentleman, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, nae, i18n, available, bs, java, w, apple, street_slang, type_b, yo, aitkens, 1_g, active, black_english_and_slang, biblical, patronymic, au, metaphysics, audio, b.chir, template_metaprogramming, copyright_symbol, ey, cockalorum, nc_17, sarcastic, legal, airplane, f_major, cannabinoid, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, terminology, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, hulkamania, ma_am, interstate, b.math, enharmonic, mother, electronics, rhotacism, o'clock, stadia, america, bug_boo, doxogenic, alpha_privativum, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, nuevo_sol, bomb, dactinomycin, penny, g_rated, version, terminal_s, v, w's, c, external, i'll, malloc, np, dog's_letter, indefinite_article, right, aware, electronic, cock_hoop, r’s, stl, elaborate, b_shaped, n’s, ed, s_hole, basketball_league, n_butyl, flute, fora, aunt, muggins, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, glycopeptidolipid, berkeleio, dateaversary, go, normal, do, sol_fa, multiple_o's, no, s_size, aspect_ratio, entomology, sie, graph, rd, b_final, myself, levulose, sixteenth_letter_of_roman_alphabet, lb, they, form, indicative, coarticulate, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, christofascist, b.m.e, kenna, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, g’s, o_ring, un, break_off, fashionable, ies, fork, upon, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, doubleyou, kinesiology, computer_languages, exponential, aerial, computing_theory, stan, cherubs, fundamental_constant, s’s, decemvirate, word, o'reilly, hulkamaniac, kb, ai, meaning_me, americanization, annus, b.lib, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, propoxur, igg, gigabyte, accusative_case, c's, m’s, m_size, 1, particle, ra, snipt, snooker, latitude, alotta, and_eye, acid, ninth, male, b.c.e, cannabinol, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, apiece, 50, b_♭_instrument, pick_n_mix, b’s, pneumato, australia, eye, chemical_symbol_of_oxygen, mitumomab, ii, i've, abaft, ana, ette, subjective_pronoun, medicine, ne, 12mo, law, aweigh, korea, 500, curly_bracket_language, acronym, old_penny, gravo, identification, blood_type, drachm, artificer, i'ven't, idollator, robertsman, oto, hyperbolic_function, delete, p_complete, mac_n_cheese, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, fatha, metacism, gas_constant, air_to_ground, afaiu, i'd've, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, darwin, aes, peso, ignoble, jessa, iono, chartered_accountant, music, water_spout, gw, sitcom, signore, vanadium, degree_centigrade, k, result, sn, cinema, white, australian, arterio, not, b.arch, clitic, software, sentence, ball, php, ev, amacrine, idren, ith, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, toll_highway, ezhou, wwwww, b.b.a, herpeto, billion, nape, acephalopodia, you, apprentice, t, drop_d, aeronautical_jargon, sulfur, st, ify, dry_storage, base, aviator, n, echonian, parkins, celestial_body, mathmo, r_rated, print_on_printer, on, neighborhood_map, hubei, department, pvc, spliceosome, unsupported_titles_c_sharp, magneto, chemical_symbol_for_phosphorous, accounts_receivable, molecule, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, iyaric, restaurant, hoodla, v_sign, philo, d_sharp, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, relaxacon, shambolic, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, morpheme, noun, class, lev, scale_height, alexipyretic, transit_card, å, auri, babs, b_side, associate, zymosimeter, pronoun_me, m'lady, ge, fortran, almost, musea, w5, flatulogenic, pound, monsieur, form_of_vessle, atta, semicircle, description, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, number_one, ps, first_alphabet, history, my_ass, builder's_tea, biology, grand, quotha, can_return_five_cents, oxygen, superior, d, iration, limbo, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, controlled_vocabulary_types, degree_fahrenheit, cyclo, ground, zoöphytology, b.med, newton, problem, some, issaron, selligueain, digital, object_oriented_programming, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, jamaica, jack_o_lantern, z, mmole, loophole, d_b, egocentric, indefinite, send_criminal_to_prison, uk, supersymmetry, jack_lantern, dilf, y_all'd've, neuropraxia, ess, estradiol, aviation, vexillographer, foreroom, cor_anglais, j.d, give_hand, penlite, pronoun, el, cent, chemistry, referred, abundant, ab, amnia, descendant, its, lolz, b.s.a, hard, peruvian, deictic, i_shaped, logic, non_rhotic, before_bee, f_minor, e_quaintance, mitochondria, rust, anna, b.compt, equi, guildswoman, perl, stereodescriptor, radius, cilia, n_gram, set_containing_one_element, amplitude, d_shaped, s_shaped, ppbar, secretary_problem, pointed, nf, effing_and_blinding, b.sc.n, letter_grade, ne_er, bridgmanite, cock_leekie, goatshair, highland, m.d, business, s's, illo, testosterone, square_meter, new_zealand, w_shaped, last, elemeno, clg, e, misle, ilka, allies, composition, sphygmo, every, secondary, imperative, c.f.r, fraunhofer_line, gev, chromatic_semitone, alfa, graphophone, iwantone, capitol, west, normality, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, spello, laetrile, ital, iform, l’s, cyclone, bps, abeigh, about, dunam, ocracy, all_gog, potato, manosphere, air_conditioner, ancient, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, chockablock, company, edrecolomab, watt, d.d, dotless_i, itinually, cricket, taking_bus, cab, afternoon, i'dn't've, dex, galaxy, seventh_letter_of_roman_alphabet, p’s, em, rig, acroatics, economics, duff's_device, hundred, air_conditioning, like_me, miladdo, urano, swounds, ah, ls, efold, m_shaped, roman, mornings, size, also, xe, banned, viscountess, had, air, possess, cytosine, b.th, self_description, irish, americanize, iodine, galactic_coordinate_system, poland, ata, fifty, da, theorem, scotland, five, horse, aptychus, accident_and_emergency, igm, bliss, abandannaad, afterwards, v_cut, one_person, ff, personal_identification, n_shaped, b_complex_vitamin, æ, holliers, wilkes, g's, oes, 5, ub, list, b.as, incuba, m'lord, ecstasy, nosism, also_known_as, vulvo, ack, she, nz, second, alee, container, e_conomy, anonymous, moisturizer, even, n_plex, luggage, ada, plus, li, lethek, long_vowel, hemoglobin, any, b.acy, clothing, f_18, tendu_en_arrière, mathematics, wed, awhape, northern_england, example_of_programming_language, applicable, adventure_game, kd, inity, universal_donor, slang, backwards, grunsel, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, b.s.e, basic, azure, group_o, strident, fluor, fluorine, egocentric_pronoun, c_note, panamanian, v_twin, almost_me, purposes, absorbancy, americo, c_suite, g_minor, vitamin, balletomania, archæo, l's, to, gb, v_necked, vs, river, e_tard, canine_letter, per, firs, saxon_genitive, city, versus, absorbance, acceleration, litho, echeng, la, hotel, beanbag, like, svedberg, knitting, michigan, n_adic, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, porno, d_major, he, ricketts, best, activity, lyrical_i, apl, stinko, hip_hop_music, marinobufagin, convention, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, rexx, d’s, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, meter, avancé, e_thumb, delta_v, four, percentage_point, toy, drill_n_bass, infix, anno, army, v_shaped, deuterium, personal_pronoun, henan, buffet, psepho, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, dialect, pneumono, zir, ds, hedra, introverted, sixth_letter_of_roman_alphabet, fail, rex, person, coeno, gravitational_constant, address, forwards, direct_broadcast_satellite, over, single_alphabet, died, e_head, medial_s, industry, attendance, modius, meta, o_canada, g_sharp, auxiliary, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, fan_fiction, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>toonophile, ortho, aud, athwartships, acting, farad, aphobia, anaptyxis, van_der_waals_constant, goals, scalogram, ometry, square_metre, fandom_slang, o_face, constant_of_integration, clansperson, lambdacism, getting_paid, am, air_conditioned, algol, act, non_sequituri, short_s, third_person, parsing, agaze, vowel, first, dezh, o_shaped, language, historical, dirhem, account, academy, man, myctag, amos, type_erasure, 360, megabyte, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, rafivirumab, ante, alphabetic, article, remainder, hydrogen, archeopteryx, balanophagous, nd, w_r_t, cup, soupcon, united_kingdom, group, f_minus, damma, data, visarga, double, xiphisternum, interfix, writer, high_c, kayo, ll, level, g_s, letter, robatumumab, penny_sterling, replace, kasra, cat, academic, type, diatonic_semitone, estes, before, have_got, aitkins, i’s, subject, a440, a's, sextodecimo, annually, adenine, surname, meaning, dry_cell_battery, connecter, hb, efungumab, paradigm, man_o_war, svo, u’s, dram, is, count_out, vocative_case, allele, hentai, use, ino, axis, amain, espionage, prototype_based_language, acrita, miserabilist, clicko, brassiere, double_u, u_tube, gf, dice, ambassador, nisba, c’s, team, finance, c_hole, symbologenic, homœo, personal, metre, ious, asymmetric, segovia, ultimata, brewster, video_game, cœno, you_and, c_minor, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, american_library_association, triton, pandean, turn, proscribed, automobile, hypercorrection, roentgen, spat, australian_dollar, roman_numeral, d's, micro, proverb, cajun, water, perpendicular_pronoun, coenosteum, vocative, musical_artist, non_u, i_don't_care, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, social, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, twelvemo, fourth_letter_of_roman_alphabet, india, april, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, aaa, lemalesomab, lexatumumab, cuppa, application, will_o_wisp, first_person, television_show, aken, zero, ms, seleno, answer, spectral_class, speako, noons, oyl, gameto, arctic, automata, excuse, gee, libivirumab, accepted, unstressed, run_o_mill, mb, argyro, coulomb, iferous, sr, audit, circa, galanthophile, labial, i_ship, moo_u, ngl, ignominy, cymoscope, mausolea, eirs, nemato, segrosome, hydrogen_atom, fb, frigga, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, megakaryocytopoiesis, equiangular, thousand, u_boat, en, imciromab, physicotheology, os, pemtumomab, copypasta, sentences, falcon, ahold, my, f_hole, compiler, zoö, taxa, green, august, flat, wave_clip, mab, hamiltonian, problemo, detumomab, antigen, printing, western, atmosphere, pencil, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, nay, austria, dunzo, nebacumab, raguileo_alphabet, speed_of_light, storativity, ha, irc, i'll've, genitive_case, wynn, nfc, nnw, d100, minor, stade, do_dièse, hunter's_moon, ignore, f's, electrical_resistance, the, tibeto, string, mth, dextro, it's, builder's_mug, c_channel, accidental, i'd, miscellaneum, scanno, hebdomadiversary, british, semivowel, ego, author, f’s, in, keynote, medium, uranium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, i_and_i, lino, statesman, let's, okay, stage, solfege, cmos, rip, me_pronoun, f_shaped, cetera, physics, anecdotum, kuh, m, can_store_food, denmark, angstrom, ich, foravirumab, third_letter_of_roman_alphabet, four_lines, roadway, combo_pass, jackanape, chill, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, transhumanism, acaulous, hoplo, beeswax, me_reference, u_rp, academician, gasogen, aa, sudoriferous, fermion, partheno, blood_group, atomic_weight, gangsta, palochka, other, mega, hey, be, programming, asqtad, homoio, aglutition, ods, ri, istro, absolute_temperature, titles, ues, or, u_shaped, argent, talk_to, chromatic_scale, self, s, make, military, exbivirumab, ihood, american, charlie, wth, logico, crease, writo, re, ss, athanogene, bisphenol, after, connectogram, gilf, education, maiden_over, oic, statement, jack_lent, rh, pharmacology, minretumomab, edobacomab, automatic, homoeo, century, i_wiss, latin, adult, mi, vitamin_c, as, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, yours_truly, j, an, back_o_bourke, oh, assist, c_s, single, fictional_character, mac, playoff, javascript, self_reference, self_me, conservative, ecmascript, softography, purkins, w_o, round, randomness, oversman, a’s, linking_vowel, go_to_market, ostomy, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, pædo, venipuncture, astragal, dacryohemorrhea, us, grade, china, deuteron, survival_horror, amphibian, bullswool, kc, scheme, sec, perrins, tungsten, est, slut's_wool, me_subject, b, subatomic_particle, jack_dandy, bass, sigmoid, um, bee, john_dreams, pithers, number, shortcut_for_air_conditioning, ragamuffin, mature, i'm, hair_clip, year, abiosis, dendro, b_flat, eth, dioxygen, nacolomab_tafenatox, imac, major, betimes, otw, did, anterior, a, lua, has, lvalue, i'se, nights, taplitumomab, g_shaped, skainsmate, f_sharp, ga, wiener_dog, d_hole, hs, triple, i's, with, admiral, d_minor, rating, sanatoria, average, rs, o, ve, all_mort, czechoslovak, football, interconsonantal, phenomena, k_r, ancient_greek, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, major_scale, gravity, equal_temperament, amphibious, y, mammal, birdsmouth, klecksography, criteria, sithence, me, celestial_object, absent, nones, r_shaped, jesus_was_crucified, rix, area, saint, status, subjective, unicode, jackanapes, vagino, cervico, otl, archaea, regina, proton_hydron, ruby, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, linguistics, specific_rotation, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, canonical, pritumumab, absolute, guanine, ing, verb, iv, manga, computing, u's, r's, b_♭, mapatumumab, cs, england, linotype, curiously_recurring_template_pattern, astand, boa, bloviate, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, pronouns, taxaphobic, rogers, inorite, urbicidal, artery, ours, spherocylindrical, wednesday, u_turn, lines, reflectoporn, asian, sf_f, œ, singular, januarys, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, planck's_constant, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, speaker, emma, fuckabilly, c_shaped, blood, vegas, i_ness, thing, sulesomab, anothergates, stock_symbol, rat, cancer, toward, beginnings, tcl, spearsman, drive, mass_number, peripherovascular, witness, rf, cycle_of_fifths, valor, euse, belgium, ch, gangster, plantsperson, muography, baulk_line, acre, firs_person, necitumumab, empathogen, meetaversary, madalyn, computer_science, movie, issa, country, diptera, r, cutting_edge, zero_g, actus, intetumumab, anxio, m's, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, i_hood, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, i_beam, hyoid, tilt_whirl, corner_tooth, er, baseball, association, austroasiatic, d_s, supercee, object, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, g_force, ff_hole, norovirus, clu, islamic_calendar, employ, set_theory, mc, tositumomab, nyse, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, five_hundred, o’s, can_begin_to_leak, besides, ownership, costa, grammatical, republican, women's_christmas, sevirumab, aikens, stop_codon, symbols, folio, auriculo, blogosphere, port_o_john, fitz, nfd, fs, gentleman, u_bolt, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, i18n, available, java, μ, w, apple, ramucirumab, yo, aitkens, journalism, 1_g, active, black_english_and_slang, biblical, patronymic, au, metaphysics, audio, template_metaprogramming, copyright_symbol, cockalorum, nc_17, sarcastic, legal, airplane, f_major, scale, cola, assault, schwar, piss_like_racehorse, terminology, h's, cobol, admit, urbiscript, iii, long_s, denosumab, sx, mho, batsman, córdoba, hulkamania, ma_am, interstate, enharmonic, mother, abbreviation_of'you, electronics, rhotacism, o'clock, stadia, america, bug_boo, doxogenic, alpha_privativum, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, nuevo_sol, bomb, dactinomycin, penny, g_rated, terminal_s, v, home, w's, c, external, i'll, malloc, dog's_letter, indefinite_article, right, aware, cock_hoop, r’s, stl, ed, s_hole, basketball_league, flute, fora, aunt, muggins, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, w_i, preposition, glycopeptidolipid, berkeleio, dateaversary, go, do, sol_fa, multiple_o's, s_size, no, aspect_ratio, entomology, graph, rd, myself, h_shackle, form, toll_road, indicative, coarticulate, pers, set, used_mainly_after_where_here_and_there, christofascist, kenna, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, o_ring, un, break_off, fashionable, ies, fork, upon, solfège, slidometer, exhibit, doubleyou, kinesiology, computer_languages, aerial, stan, cherubs, fundamental_constant, s’s, decemvirate, word, o'reilly, hulkamaniac, kb, ai, meaning_me, americanization, annus, predicted, would, chemical_symbol_of_carbon, 3gl, dx, igg, gigabyte, accusative_case, c's, m’s, m_size, 1, particle, ra, snooker, ü, read, alotta, and_eye, acid, ninth, male, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, regavirumab, apiece, b_♭_instrument, raxibacumab, pneumato, eye, chemical_symbol_of_oxygen, mitumomab, iratumumab, ii, i've, abaft, ana, ette, subjective_pronoun, medicine, 12mo, law, aweigh, korea, 500, curly_bracket_language, acronym, old_penny, gravo, identification, panobacumab, blood_type, drachm, artificer, i'ven't, idollator, robertsman, oto, eighth_letter_of_roman_alphabet, delete, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, fist_letter_of_alphabet, cad, copenhagen, reference, p_uman, fatha, metacism, gas_constant, air_to_ground, afaiu, i'd've, stamulumab, tonic, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, darwin, aes, ignoble, jessa, lucatumumab, iono, chartered_accountant, music, water_spout, gw, sitcom, signore, degree_centigrade, k, result, sn, cinema, white, australian, arterio, not, clitic, software, sentence, php, amacrine, idren, ith, airman, fathom, nipple, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, toll_highway, wwwww, herpeto, acephalopodia, by_from_home_depot, you, apprentice, t, drop_d, aeronautical_jargon, sulfur, st, ify, dry_storage, base, aviator, n, parkins, celestial_body, mathmo, r_rated, print_on_printer, on, neighborhood_map, spliceosome, unsupported_titles_c_sharp, magneto, uracil, accounts_receivable, canadian_dollar, acceleration_of_gravity, programming_language, g_major, iyaric, restaurant, hoodla, philo, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, attack, adjutant, cat_o_nine_tails, f_s, relaxacon, lead, shambolic, annealing, adoors, general, ship, final, asked, morpheme, class, alexipyretic, transit_card, å, irrevocable, auri, babs, associate, zymosimeter, pronoun_me, m'lady, ge, fortran, almost, musea, w5, flatulogenic, monsieur, form_of_vessle, atta, semicircle, description, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, r_rotunda, abetalipoproteinemia, which's, number_one, first_alphabet, my_ass, builder's_tea, biology, grand, quotha, can_return_five_cents, oxygen, superior, d, date, iration, limbo, greengrocer's_apostrophe, inorganic_substance, yes'm, degree_fahrenheit, ground, zoöphytology, some, character, selligueain, digital, object_oriented_programming, multi, and, panitumumab, pells, of_piece, metalic_cylindrical_container, jamaica, jack_o_lantern, z, mmole, loophole, d_b, egocentric, indefinite, send_criminal_to_prison, uk, supersymmetry, jack_lantern, dilf, y_all'd've, neuropraxia, ess, aviation, vexillographer, foreroom, cor_anglais, j.d, heat_content, give_hand, pronoun, chemical_symbol_for_hydrogen, cent, chemistry, referred, abundant, ab, gantenerumab, amnia, descendant, its, lolz, hard, deictic, i_shaped, logic, non_rhotic, before_bee, f_minor, ofatumumab, mitochondria, rust, anna, equi, guildswoman, perl, stereodescriptor, radius, cilia, set_containing_one_element, amplitude, d_shaped, s_shaped, u_235, pointed, nf, effing_and_blinding, letter_grade, ne_er, bridgmanite, cock_leekie, goatshair, m.d, business, s's, illo, square_meter, w_shaped, last, elemeno, clg, e, misle, ilka, allies, composition, sphygmo, every, secondary, c.f.r, fraunhofer_line, gev, chromatic_semitone, alfa, graphophone, iwantone, capitol, west, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, spello, laetrile, ital, iform, cyclone, abeigh, about, dunam, ocracy, all_gog, potato, manosphere, air_conditioner, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, chockablock, company, edrecolomab, watt, d.d, dotless_i, itinually, cricket, afternoon, i'dn't've, dex, galaxy, u_pick, seventh_letter_of_roman_alphabet, em, acroatics, economics, duff's_device, hundred, air_conditioning, like_me, miladdo, urano, swounds, ah, m_shaped, roman, mornings, size, also, had, air, possess, cytosine, self_description, irish, americanize, iodine, ata, deoxyribose, da, theorem, scotland, horse, aptychus, henry, hydrogen's_chemical_symbol, igm, bliss, abandannaad, afterwards, one_person, ff, personal_identification, monoatomic_cation, atomic_nucleus, æ, holliers, wilkes, g's, oes, ub, list, h’s, incuba, m'lord, nosism, vulvo, ack, she, second, alee, container, anonymous, moisturizer, even, luggage, ada, plus, li, long_vowel, hemoglobin, any, clothing, f_18, mathematics, wed, awhape, northern_england, example_of_programming_language, adventure_game, strong_electrolyte, kd, inity, universal_donor, slang, backwards, grunsel, present_tense, diceroll, c_sharp, media, gentleman's_agreement, altitude, bcpl, basic, azure, group_o, strident, fluor, fluorine, egocentric_pronoun, upper_class, c_note, almost_me, absorbancy, americo, c_suite, g_minor, vitamin, hegira, balletomania, human, archæo, to, gb, 2h, canine_letter, firs, saxon_genitive, city, tuvirumab, absorbance, acceleration, litho, la, hotel, beanbag, like, calendar_terms, svedberg, knitting, michigan, mark, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, lmfao, hertz, abc, porno, d_major, he, ricketts, best, q, activity, lyrical_i, apl, stinko, hip_hop_music, marinobufagin, convention, monday, walk_mile_in_someone's_shoes, atrocha, hail, relaxing, and_so_on, panthea, awk, rexx, usd, d’s, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, h_beam, meter, avancé, four, toy, infix, anno, army, deuterium, personal_pronoun, buffet, psepho, zf, f_bomb, amateur, zir, pneumono, zounds, dialect, ds, hedra, introverted, aspirated_h, sixth_letter_of_roman_alphabet, rex, person, coeno, forwards, gravitational_constant, address, over, single_alphabet, died, medial_s, industry, attendance, meta, o_canada, british_film_certificate, g_sharp, auxiliary, gs, glass, emission_theory, düsseldorf, cue_ball, i, aircraft, equivalent, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python</t>
-  </si>
-  <si>
-    <t>nitrogen, toonophile, ortho, aud, set_phrase, urban, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, real_time_strategy, tesh, goals, t's, scalogram, ometry, sincerely, square_metre, t_internet, fandom_slang, o_face, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, algol, act, non_sequituri, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, dezh, o_shaped, language, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, dirhem, account, academy, man, myctag, amos, type_erasure, 360, megabyte, diastereoisomer, tt, vide, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, rafivirumab, ballet, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, archeopteryx, balanophagous, nd, b's, e_vite, from_aardvark_to_zymurgy, w_r_t, cup, soupcon, united_kingdom, casualty, group, embellisht, rosebush, f_minus, n_tert_butyl, damma, data, vv, visarga, double, dealt, xiphisternum, interfix, writer, north, high_c, kayo, ll, v’s, level, g_s, letter, robatumumab, penny_sterling, replace, kasra, cat, academic, type, diatonic_semitone, estes, before, e_tail, victim, have_got, belcht, aitkins, i’s, boron, subject, oxford_spelling, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, zs, surname, meaning, dry_cell_battery, connecter, hb, efungumab, paradigm, man_o_war, svo, embryoniferous, u’s, dram, is, b_minor, count_out, vocative_case, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, espionage, prototype_based_language, acrita, magic_e, tertiary, vagina, miserabilist, clicko, brassiere, double_u, u_tube, gf, dice, ambassador, nisba, c’s, team, pound_sterling, finance, c_hole, symbologenic, 4chan, homœo, personal, e_shaped, p_word, z_shaped, metre, ious, asymmetric, e’s, segovia, heroin, ultimata, brewster, bethe, video_game, cœno, comics_character, you_and, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, pandean, turn, proscribed, entertainment, automobile, hypercorrection, roentgen, neutron, spat, australian_dollar, roman_numeral, lose, d's, micro, proverb, hook_n_kill, twou'dn't, cajun, water, blest, perpendicular_pronoun, animanga_character, coenosteum, bel, vocative, b.ed, musical_artist, non_u, note, i_don't_care, einsteinium, bye, tier, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, salt_n_shake, twelvemo, fourth_letter_of_roman_alphabet, india, april, pork_n_beans, axiom, penalty_arc, la_dièse, grammar, air_branch, z_order, khoum, acardiacus, e_volution, pp, aaa, lemalesomab, annext, lexatumumab, cuppa, bornt, application, will_o_wisp, n_ary, first_person, clasht, philippine, time, cropt, television_show, aken, zero, ms, seleno, perfection, answer, were, spectral_class, speako, noons, e_folding, oyl, gameto, arctic, e's, automata, excuse, gee, titular, libivirumab, sw, encroacht, accepted, unstressed, tis, run_o_mill, barn, mb, b.a, lurianic, argyro, coulomb, iferous, sr, chirpt, audit, distinguisht, circa, e_quainted, galanthophile, labial, i_ship, b.mus, moo_u, ngl, mbta, deoxythymidine_monophosphate, ignominy, para, cymoscope, mausolea, eirs, nemato, build_cathedral, segrosome, hydrogen_atom, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, equiangular, thousand, u_boat, seah, en, b.litt, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, sentences, television_station, cleft, falcon, organic_compound, ahold, believe, my, f_hole, compiler, zoö, taxa, green, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, dead_n_buried, problemo, kolmogorov, detumomab, antigen, bit, fish_n_chips, printing, western, ties, atmosphere, bynempt, pencil, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, nay, n_bomb, austria, dunzo, nebacumab, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, e_sharp, i'll've, genitive_case, wynn, nfc, nnw, e_tailing, d100, minor, stade, do_dièse, hunter's_moon, ignore, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, tibeto, string, mth, phm.b, dextro, warsaw, it's, liter, builder's_mug, c_channel, accidental, i'd, miscellaneum, emergency, scanno, hebdomadiversary, british, semivowel, ego, author, f’s, in, junonian, keynote, medium, uranium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, i_and_i, lino, statesman, let's, okay, stage, solfege, cmos, rip, b.s, me_pronoun, f_shaped, cetera, physics, begat, anecdotum, kuh, last_letter_of_alphabet, dislik’t, m, can_store_food, denmark, angstrom, tert, twelveth_letter_of_roman_alphabet, ich, banisht, foravirumab, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, chill, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, transhumanism, l_size, acaulous, hoplo, ell, beeswax, me_reference, ze, bent, u_rp, zzzzzz, academician, gasogen, aa, sudoriferous, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, palochka, other, mega, hey, be, programming, asqtad, homoio, blockt, aglutition, ods, ri, istro, thymine, absolute_temperature, titles, b_s, ues, or, u_shaped, argent, ex, talk_to, zzzzzzzz, chromatic_scale, s, self, make, military, exbivirumab, ihood, american, charlie, van, wth, logico, crease, writo, re, checkt, ss, athanogene, bisphenol, after, connectogram, ebrary, gilf, education, maiden_over, oic, statement, viscount, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, i_wiss, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, iso, yours_truly, levo, saké, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, ℓ, single, fictional_character, mac, playoff, javascript, cisgender, self_me, self_reference, conservative, tittle, ecmascript, softography, curst, purkins, videte, crept, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, linking_vowel, go_to_market, pip, gomer, e_tailer, l_shaped, ostomy, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, volt, pædo, venipuncture, astragal, dacryohemorrhea, us, zee, cor, value, grade, china, deuteron, survival_horror, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, tungsten, est, slut's_wool, from_latin_libra, me_subject, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, verse, um, bee, john_dreams, pithers, number, shortcut_for_air_conditioning, ragamuffin, mature, i'm, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, lambert, dioxygen, nacolomab_tafenatox, imac, major, betimes, otw, leonid, e_form, b.ch.d, did, anterior, salt, a, cap, shanxi, lua, has, neighborhood, lvalue, tesla, nights, i'se, taplitumomab, g_shaped, skainsmate, f_sharp, ga, dispossest, wiener_dog, d_hole, hs, deprest, b.com, triple, i's, with, admiral, fifth_letter_of_roman_alphabet, d_minor, victor, rating, sanatoria, average, rs, o, ethyl, omega, ve, all_mort, b.des, pyrrhonist, czechoslovak, football, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, euphemism, ancient_greek, mit, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, y, mammal, z's, birdsmouth, klecksography, criteria, litre, sithence, me, celestial_object, absent, cl, admonisht, blemisht, weingarten_right, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, uzzard, area, saint, status, subjective, blent, unicode, jackanapes, v_neck, neuter, z_buffer, vagino, cervico, b_testing, otl, flowering_plant, archaea, regina, proton_hydron, ruby, state, u, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, rake_n_scrape, corn, lth, drag_n_drop, subway, canonical, teen, absolute, guanine, pritumumab, ing, l_plate, verb, iv, manga, computing, u's, r's, b_♭, mapatumumab, cs, england, linotype, log, curiously_recurring_template_pattern, functional_group, lgbt, astand, boa, bloviate, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, pronouns, taxaphobic, abolisht, rogers, capital, b.s.l, inorite, urbicidal, artery, crusht, ours, spherocylindrical, wednesday, sterling, u_turn, lines, reflectoporn, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, speaker, emma, fuckabilly, c_shaped, blood, vegas, i_ness, thing, stretch, tween, x, sulesomab, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, polyvinyl_chloride, spearsman, drive, sapon, danc’t, mass_number, peripherovascular, witness, rf, cycle_of_fifths, valor, power_pill, euse, v's, belgium, hib, women, esrb_rating, ch, e_minor, embost, blusht, turing_machine, enforc’t, zed, z_axis, gangster, z’s, plantsperson, muography, baulk_line, accurst, t_square, acre, comprest, fourteenth_letter_of_roman_alphabet, trailer, firs_person, necitumumab, empathogen, meetaversary, ns, madalyn, computer_science, drum_n_bass, computer_graphics, movie, polynomial_time, issa, country, diptera, r, b.lit, cutting_edge, zero_g, actus, intetumumab, anxio, m's, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, i_hood, ephemera, lexical, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, i_beam, hyoid, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, austroasiatic, e_road, d_s, taula, supercee, eradiation, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, norovirus, b_story, clu, islamic_calendar, employ, set_theory, rock_n_roll, take_l, mc, tositumomab, nyse, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, o’s, b.e.e, can_begin_to_leak, ll.b, besides, ownership, zzzzzzz, costa, homer, grammatical, republican, women's_christmas, sevirumab, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, z_fighting, n's, port_o_john, fitz, nfd, fs, gentleman, u_bolt, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, nae, i18n, available, bs, zulu, java, μ, w, apple, ramucirumab, bought, street_slang, type_b, yo, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, patronymic, au, metaphysics, audio, b.chir, template_metaprogramming, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, cannabinoid, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, terminology, h's, cobol, admit, alpha_to_omega, urbiscript, b.acc, iii, long_s, denosumab, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, interstate, b.math, enharmonic, mother, abbreviation_of'you, electronics, rhotacism, o'clock, stadia, america, bug_boo, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, version, terminal_s, v, home, w's, c, external, i'll, malloc, np, dog's_letter, indefinite_article, right, aware, electronic, dwelt, cock_hoop, r’s, stl, elaborate, b_shaped, n’s, ed, s_hole, basketball_league, n_butyl, flute, fora, twere, aunt, muggins, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, go, normal, do, sol_fa, attacht, enravisht, multiple_o's, no, s_size, aspect_ratio, entomology, sie, graph, rd, approacht, b_final, myself, levulose, sixteenth_letter_of_roman_alphabet, lb, h_shackle, they, form, toll_road, indicative, basketball, coarticulate, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, christofascist, map, b.m.e, kenna, from_to_z, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, o_ring, un, break_off, fashionable, ies, fork, upon, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, doubleyou, kinesiology, computer_languages, confest, exponential, aerial, computing_theory, stan, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, o'reilly, hulkamaniac, kb, ai, meaning_me, americanization, annus, b.lib, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, propoxur, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, 1, particle, ra, snipt, snooker, ü, read, latitude, alotta, and_eye, acid, ninth, perfectly, brought, male, askt, b.c.e, cannabinol, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, regavirumab, apiece, 50, dript, b_♭_instrument, raxibacumab, pick_n_mix, b’s, pneumato, australia, eye, chemical_symbol_of_oxygen, mitumomab, iratumumab, ii, i've, abaft, ana, ette, subjective_pronoun, medicine, ne, 12mo, law, aweigh, korea, 500, curly_bracket_language, acronym, old_penny, gravo, identification, panobacumab, blood_type, drachm, artificer, i'ven't, idollator, robertsman, oto, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, mac_n_cheese, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, p_uman, fatha, metacism, gas_constant, air_to_ground, afaiu, i'd've, stamulumab, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, darwin, aes, peso, besprent, ignoble, jessa, lucatumumab, iono, chartered_accountant, music, water_spout, zzzz, xyz, gw, sitcom, signore, vanadium, lost, degree_centigrade, k, result, sn, cinema, white, australian, arterio, not, izzard, b.arch, clitic, software, sentence, ball, php, ev, amacrine, idren, ith, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, wwwww, b.b.a, herpeto, billion, information_services_and_technology, nape, acephalopodia, by_from_home_depot, you, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, ify, dry_storage, tetrachlorvinphos, base, aviator, n, echonian, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, pvc, spliceosome, unsupported_titles_c_sharp, magneto, uracil, chemical_symbol_for_phosphorous, accounts_receivable, molecule, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, zino, g_major, denounc’t, iyaric, restaurant, hoodla, v_sign, philo, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, lead, shambolic, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, morpheme, noun, class, lev, scale_height, alexipyretic, transit_card, open, å, irrevocable, th, auri, babs, t_pose, tritium, b_side, associate, clipt, zymosimeter, pronoun_me, m'lady, ge, fortran, almost, musea, w5, excrescence, pound, flatulogenic, monsieur, form_of_vessle, atta, semicircle, description, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, number_one, ps, first_alphabet, history, my_ass, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, iration, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, controlled_vocabulary_types, degree_fahrenheit, cyclo, ground, zoöphytology, b.med, newton, problem, some, contradistinguisht, character, issaron, selligueain, digital, object_oriented_programming, cherisht, multi, and, panitumumab, b.m, pells, of_piece, metalic_cylindrical_container, jamaica, jack_o_lantern, z, mmole, loophole, d_b, egocentric, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, aviation, vexillographer, foreroom, cor_anglais, j.d, heat_content, give_hand, penlite, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, referred, abundant, ab, gantenerumab, amnia, descendant, its, lolz, b.s.a, hard, peruvian, deictic, i_shaped, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, e_quaintance, ezed, ofatumumab, mitochondria, rust, anna, b.compt, equi, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, n_gram, set_containing_one_element, amplitude, d_shaped, s_shaped, u_235, ppbar, secretary_problem, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, bridgmanite, cock_leekie, burnt, goatshair, highland, m.d, business, s's, illo, testosterone, square_meter, new_zealand, w_shaped, last, elemeno, digrest, clg, e, misle, ilka, allies, composition, sphygmo, every, secondary, imperative, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, graphophone, iwantone, capitol, west, normality, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, spello, laetrile, ital, iform, l’s, cyclone, bps, abeigh, about, atomic_number, dunam, ocracy, all_gog, point, potato, manosphere, air_conditioner, ancient, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, fullz, chockablock, scantily_clad, company, edrecolomab, watt, d.d, dotless_i, itinually, cricket, taking_bus, cab, afternoon, i'dn't've, dex, galaxy, u_pick, diminisht, seventh_letter_of_roman_alphabet, p’s, em, rig, acroatics, economics, duff's_device, hundred, air_conditioning, like_me, miladdo, urano, swounds, ah, ls, efold, m_shaped, roman, mornings, size, also, xe, banned, viscountess, had, air, possess, cytosine, b.th, self_description, irish, americanize, iodine, galactic_coordinate_system, poland, ata, deoxyribose, fifty, da, theorem, scotland, five, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, v_cut, one_person, ff, personal_identification, monoatomic_cation, atomic_nucleus, n_shaped, caught, b_complex_vitamin, æ, holliers, wilkes, g's, oes, 5, ub, list, h’s, b.as, comprehensive, incuba, m'lord, ecstasy, nosism, taxable, also_known_as, vulvo, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, n_plex, luggage, ada, plus, li, lethek, long_vowel, hemoglobin, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, wed, awhape, cross, northern_england, example_of_programming_language, applicable, adventure_game, strong_electrolyte, 18mo, kd, inity, universal_donor, slang, backwards, grunsel, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, group_o, strident, fluor, fluorine, egocentric_pronoun, upper_class, disrelisht, c_note, tuesday, panamanian, burnisht, v_twin, almost_me, purposes, absorbancy, thyroxine, americo, c_suite, g_minor, vitamin, hegira, balletomania, against, human, archæo, l's, to, gb, v_necked, vs, river, e_tard, 2h, canine_letter, per, firs, saxon_genitive, city, versus, tuvirumab, absorbance, acceleration, litho, echeng, la, hotel, beanbag, deduc’t, like, calendar_terms, zzzzz, svedberg, tee, astonisht, knitting, michigan, mark, n_adic, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, zza, lmfao, follow, deterministic, hertz, b_major, abc, marketing, porno, d_major, he, ricketts, best, q, activity, lyrical_i, apl, stinko, hip_hop_music, marinobufagin, convention, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, expertise, rexx, usd, besought, d’s, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, h_beam, meter, avancé, e_thumb, delta_v, four, percentage_point, toy, drill_n_bass, infix, anno, army, v_shaped, zzz, deuterium, personal_pronoun, ataxia_telangiectasia, henan, buffet, psepho, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, dialect, drest, pneumono, zir, ds, hedra, tees, introverted, aspirated_h, sixth_letter_of_roman_alphabet, fail, rex, person, coeno, gravitational_constant, address, forwards, direct_broadcast_satellite, over, single_alphabet, died, e_head, medial_s, industry, attendance, modius, meta, o_canada, british_film_certificate, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, fan_fiction, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>aud, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, sincerely, square_metre, t_internet, fandom_slang, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, act, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, dezh, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, dirhem, account, academy, myctag, amos, type_erasure, megabyte, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, ballet, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, nd, b's, e_vite, w_r_t, cup, soupcon, casualty, group, embellisht, f_minus, data, visarga, double, dealt, high_c, ll, level, g_s, letter, penny_sterling, replace, cat, academic, type, diatonic_semitone, estes, before, e_tail, have_got, belcht, aitkins, boron, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, dry_cell_battery, connecter, hb, paradigm, dram, is, b_minor, count_out, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, prototype_based_language, acrita, magic_e, tertiary, brassiere, double_u, gf, dice, ambassador, c’s, team, pound_sterling, finance, c_hole, 4chan, e_shaped, p_word, metre, asymmetric, e’s, segovia, heroin, ultimata, brewster, bethe, video_game, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, pandean, turn, proscribed, entertainment, automobile, roentgen, spat, australian_dollar, lose, d's, twou'dn't, cajun, water, blest, animanga_character, bel, b.ed, musical_artist, einsteinium, bye, tier, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, caravansary, hirs, twelvemo, fourth_letter_of_roman_alphabet, april, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, annext, cuppa, bornt, application, clasht, philippine, time, cropt, television_show, aken, ms, perfection, answer, were, spectral_class, noons, e_folding, arctic, e's, automata, gee, encroacht, accepted, tis, barn, mb, b.a, coulomb, chirpt, audit, distinguisht, circa, e_quainted, labial, b.mus, mbta, deoxythymidine_monophosphate, para, mausolea, eirs, build_cathedral, hydrogen_atom, fb, frigga, breadth, vrykolaka, administration, object_oriented_programming_language, tradeswoman, accomplisht, thousand, seah, en, b.litt, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, transgender, copypasta, television_station, cleft, falcon, ahold, believe, my, f_hole, compiler, taxa, green, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, kolmogorov, bit, printing, western, ties, atmosphere, bynempt, pencil, thirteenth_letter_of_roman_alphabet, es, austria, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, e_sharp, genitive_case, wynn, nfc, nnw, e_tailing, d100, minor, stade, do_dièse, hunter's_moon, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, string, mth, phm.b, dextro, it's, liter, builder's_mug, c_channel, accidental, miscellaneum, emergency, british, semivowel, f’s, author, in, keynote, medium, vis_vis, ashoka, accommodation, age, signor, ae, statesman, let's, stage, solfege, cmos, rip, b.s, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, denmark, can_store_food, angstrom, tert, twelveth_letter_of_roman_alphabet, banisht, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, mano_mano, decomposition, transhumanism, l_size, acaulous, ell, beeswax, ze, bent, academician, aa, fermion, b.comm, blood_group, atomic_weight, gangsta, other, mega, be, programming, asqtad, blockt, aglutition, ods, ri, thymine, absolute_temperature, titles, b_s, or, argent, ex, talk_to, chromatic_scale, s, make, military, american, charlie, wth, crease, re, checkt, ss, athanogene, bisphenol, after, ebrary, gilf, education, maiden_over, statement, jack_lent, 24mo, pharmacology, xtianity, automatic, century, pure, bereft, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, alto, nail, chaussé'd, cello, p, levo, saké, j, an, vicesimo_quarto, assist, c_s, ℓ, fictional_character, playoff, javascript, cisgender, conservative, tittle, ecmascript, curst, purkins, crept, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, go_to_market, pip, gomer, e_tailer, l_shaped, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, astragal, us, cor, grade, china, deuteron, survival_horror, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, tungsten, est, slut's_wool, from_latin_libra, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, mature, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, b_flat, eth, lambert, major, betimes, otw, e_form, b.ch.d, did, anterior, a, shanxi, lua, has, neighborhood, lvalue, tesla, nights, g_shaped, skainsmate, f_sharp, ga, dispossest, wiener_dog, d_hole, hs, deprest, b.com, triple, with, admiral, fifth_letter_of_roman_alphabet, d_minor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, b.des, football, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, mit, h_shaped, gram, pigscot, rackarock, neura, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, mammal, birdsmouth, criteria, litre, sithence, celestial_object, absent, admonisht, blemisht, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, status, blent, unicode, jackanapes, b_testing, otl, flowering_plant, archaea, regina, proton_hydron, ruby, state, bacteria, colossea, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, lth, subway, canonical, teen, absolute, guanine, ing, l_plate, verb, iv, manga, computing, r's, b_♭, cs, england, log, curiously_recurring_template_pattern, lgbt, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, taxaphobic, abolisht, rogers, capital, b.s.l, artery, crusht, ours, wednesday, sterling, lines, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, wolf_hook, s_bomb, emma, fuckabilly, c_shaped, vegas, thing, stretch, tween, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, spearsman, drive, danc’t, mass_number, witness, rf, cycle_of_fifths, power_pill, euse, belgium, hib, women, esrb_rating, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, baulk_line, accurst, t_square, acre, comprest, trailer, meetaversary, madalyn, computer_science, movie, polynomial_time, issa, country, diptera, r, b.lit, zero_g, actus, m's, pinfall, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, e_road, d_s, taula, supercee, eradiation, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, b_story, clu, islamic_calendar, employ, set_theory, take_l, nyse, anecdota, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, b.e.e, can_begin_to_leak, ll.b, besides, costa, homer, republican, women's_christmas, aikens, stop_codon, symbols, folio, technical_foul, port_o_john, nfd, fs, gentleman, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, available, bs, java, w, bought, street_slang, type_b, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, au, b.chir, template_metaprogramming, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, h's, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, b.math, enharmonic, mother, electronics, rhotacism, stadia, america, bug_boo, alpha_privativum, clept, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, terminal_s, w's, c, external, malloc, np, dog's_letter, indefinite_article, right, aware, electronic, dwelt, cock_hoop, r’s, stl, elaborate, b_shaped, ed, s_hole, basketball_league, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, occupation, dateaversary, built, go, do, sol_fa, attacht, enravisht, s_size, no, aspect_ratio, entomology, sie, graph, rd, approacht, b_final, levulose, sixteenth_letter_of_roman_alphabet, lb, h_shackle, they, form, indicative, basketball, coarticulate, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, b.m.e, kenna, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, un, break_off, ies, fork, solfège, exhibit, big, n_acetyl_p_aminophenol, doubleyou, computer_languages, confest, exponential, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, hulkamaniac, kb, ai, americanization, annus, b.lib, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, ra, snooker, latitude, alotta, acid, perfectly, brought, male, askt, b.c.e, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, apiece, 50, dript, b_♭_instrument, b’s, australia, ii, abaft, ana, ette, medicine, 12mo, law, aweigh, 500, curly_bracket_language, acronym, old_penny, blood_type, drachm, artificer, robertsman, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, fatha, metacism, gas_constant, air_to_ground, b_school, tonic, astronomy, internet, pethers, w’s, semitone, darwin, aes, peso, besprent, jessa, chartered_accountant, music, water_spout, gw, sitcom, signore, lost, degree_centigrade, result, sn, white, australian, not, b.arch, clitic, software, ball, php, amacrine, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, wwwww, b.b.a, billion, information_services_and_technology, acephalopodia, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, parkins, celestial_body, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, unsupported_titles_c_sharp, chemical_symbol_for_phosphorous, accounts_receivable, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, restaurant, hoodla, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, f_s, demolisht, relaxacon, lead, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, class, lev, scale_height, alexipyretic, transit_card, open, å, th, babs, t_pose, tritium, b_side, associate, clipt, m'lady, ge, fortran, musea, w5, excrescence, pound, monsieur, form_of_vessle, atta, semicircle, of, politics, deoxycytidine_monophosphate, ml, boson, ace, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, history, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, degree_fahrenheit, ground, b.med, problem, some, contradistinguisht, character, issaron, selligueain, object_oriented_programming, cherisht, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, z, mmole, loophole, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, aviation, foreroom, cor_anglais, j.d, heat_content, give_hand, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, abundant, ab, amnia, its, lolz, b.s.a, hard, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, e_quaintance, mitochondria, rust, anna, b.compt, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, set_containing_one_element, amplitude, d_shaped, s_shaped, ppbar, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, cock_leekie, burnt, goatshair, highland, m.d, business, s's, square_meter, testosterone, new_zealand, w_shaped, last, elemeno, digrest, clg, e, misle, ilka, allies, composition, every, secondary, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, west, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, l’s, cyclone, bps, abeigh, about, dunam, all_gog, point, potato, air_conditioner, ancient, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, watt, d.d, cricket, taking_bus, cab, afternoon, dex, galaxy, diminisht, seventh_letter_of_roman_alphabet, p’s, em, acroatics, economics, duff's_device, hundred, air_conditioning, swounds, ah, ls, efold, m_shaped, mornings, size, also, xe, banned, had, air, possess, cytosine, b.th, americanize, galactic_coordinate_system, ata, deoxyribose, fifty, da, theorem, scotland, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, ff, monoatomic_cation, atomic_nucleus, caught, b_complex_vitamin, æ, holliers, wilkes, g's, ub, list, h’s, b.as, incuba, m'lord, ecstasy, taxable, also_known_as, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, luggage, ada, plus, li, lethek, long_vowel, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, wed, awhape, cross, northern_england, example_of_programming_language, adventure_game, strong_electrolyte, 18mo, kd, slang, backwards, grunsel, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, strident, fluor, fluorine, disrelisht, c_note, tuesday, burnisht, purposes, absorbancy, thyroxine, c_suite, g_minor, vitamin, hegira, against, human, l's, to, gb, river, e_tard, 2h, canine_letter, per, saxon_genitive, city, absorbance, acceleration, echeng, hotel, beanbag, deduc’t, calendar_terms, svedberg, tee, astonisht, knitting, michigan, mark, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, d_major, he, ricketts, best, q, activity, apl, hip_hop_music, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, expertise, besought, d’s, frame, sxsw, cocaine, work, bass_clef, bronx, arace, h_beam, meter, avancé, e_thumb, four, percentage_point, toy, infix, anno, army, deuterium, ataxia_telangiectasia, henan, buffet, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, drest, dialect, ds, hedra, tees, introverted, aspirated_h, sixth_letter_of_roman_alphabet, fail, rex, person, gravitational_constant, address, forwards, died, e_head, medial_s, industry, attendance, modius, meta, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>chair, sitting, seat, furniture</t>
-  </si>
-  <si>
-    <t>aud, athwartships, acting, farad, aphobia, anaptyxis, van_der_waals_constant, goals, square_metre, fandom_slang, constant_of_integration, clansperson, lambdacism, getting_paid, am, air_conditioned, act, b.s.n, proton, short_s, third_person, parsing, agaze, vowel, first, dezh, historical, dirhem, account, academy, myctag, amos, type_erasure, megabyte, diastereoisomer, tt, vide, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, ballet, ante, alphabetic, article, remainder, hydrogen, nd, b's, w_r_t, cup, soupcon, group, f_minus, data, vv, visarga, double, high_c, ll, v’s, level, g_s, letter, penny_sterling, replace, cat, academic, type, diatonic_semitone, estes, before, victim, have_got, aitkins, boron, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, dry_cell_battery, connecter, hb, paradigm, dram, is, b_minor, count_out, allele, hentai, pee, use, ino, axis, amain, prototype_based_language, k_pop, acrita, vagina, brassiere, double_u, gf, dice, ambassador, c’s, team, pound_sterling, c_hole, p_word, metre, asymmetric, segovia, heroin, ultimata, brewster, bethe, video_game, comics_character, c_minor, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, b_sharp, american_library_association, triton, bubnoff_unit, j’s, pandean, turn, proscribed, automobile, roentgen, spat, australian_dollar, d's, jth, aberdeen_hook, cajun, water, animanga_character, bel, b.ed, musical_artist, bye, tier, organic_chemistry, molarity, monoclonal_antibody, social, abbreviation, caravansary, hirs, twelvemo, fourth_letter_of_roman_alphabet, april, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, pp, aaa, cuppa, application, philippine, television_show, aken, ms, answer, spectral_class, noons, arctic, automata, excuse, gee, titular, accepted, barn, mb, b.a, coulomb, audit, circa, labial, b.mus, para, soul_music, mausolea, eirs, hydrogen_atom, fb, frigga, breadth, vrykolaka, administration, object_oriented_programming_language, tradeswoman, thousand, seah, en, b.litt, pawn, physicotheology, os, copypasta, falcon, organic_compound, ahold, believe, my, f_hole, compiler, taxa, green, august, loser_sign, flat, wave_clip, mab, hamiltonian, bit, printing, western, unit, atmosphere, pencil, thirteenth_letter_of_roman_alphabet, es, austria, raguileo_alphabet, speed_of_light, storativity, ha, genitive_case, wynn, nfc, nnw, d100, minor, stade, do_dièse, hunter's_moon, f's, electrical_resistance, the, string, mth, phm.b, dextro, it's, liter, builder's_mug, c_channel, accidental, miscellaneum, british, semivowel, f’s, author, in, keynote, medium, vis_vis, ashoka, accommodation, age, signor, ae, statesman, let's, stage, solfege, cmos, rip, b.s, f_shaped, cetera, physics, anecdotum, kuh, m, can_store_food, denmark, angstrom, twelveth_letter_of_roman_alphabet, third_letter_of_roman_alphabet, four_lines, roadway, combo_pass, jackanape, internet_slang, toodles, at, mano_mano, road_transport, decomposition, transhumanism, l_size, acaulous, ell, beeswax, academician, aa, fermion, b.comm, blood_group, atomic_weight, gangsta, other, mega, be, programming, asqtad, aglutition, ods, ri, absolute_temperature, titles, b_s, or, argent, talk_to, chromatic_scale, s, make, military, american, charlie, van, wth, crease, re, ss, athanogene, bisphenol, after, gilf, education, maiden_over, statement, viscount, jack_lent, pharmacology, automatic, century, pure, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, alto, nail, chaussé'd, cello, p, levo, j, an, assist, c_s, ℓ, fictional_character, playoff, javascript, conservative, ecmascript, purkins, videte, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, go_to_market, pip, gomer, l_shaped, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, volt, astragal, us, cor, value, grade, deuteron, survival_horror, amphibian, bullswool, kc, scheme, sec, perrins, group_b, tungsten, rhythm_and_blues, est, slut's_wool, from_latin_libra, b, subatomic_particle, jack_dandy, bass, sigmoid, verse, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, mature, tenth_letter_of_roman_alphabet, hair_clip, year, p_shaped, abiosis, b_flat, eth, lambert, major, betimes, otw, b.ch.d, did, anterior, a, lua, has, lvalue, nights, g_shaped, skainsmate, f_sharp, ga, japanese, wiener_dog, d_hole, hs, joule, b.com, triple, with, narration, admiral, d_minor, victor, rating, sanatoria, average, rs, o, ve, all_mort, b.des, football, second_letter_of_roman_alphabet, phenomena, k_r, euphemism, h_shaped, gram, pigscot, rackarock, neura, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, amphibious, y, mammal, birdsmouth, criteria, litre, sithence, celestial_object, absent, cl, weingarten_right, nones, r_shaped, jesus_was_crucified, rix, area, saint, status, unicode, jackanapes, v_neck, b_testing, otl, archaea, regina, proton_hydron, ruby, u, bacteria, colossea, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, lth, canonical, absolute, guanine, ing, l_plate, verb, iv, manga, computing, r's, b_♭, cs, england, log, curiously_recurring_template_pattern, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, taxaphobic, rogers, b.s.l, artery, ours, wednesday, sterling, lines, asian, sf_f, singular, januarys, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, wolf_hook, s_bomb, emma, fuckabilly, c_shaped, vegas, thing, britain, anothergates, omer, stock_symbol, rat, cancer, toward, beginnings, tcl, polyvinyl_chloride, spearsman, drive, mass_number, witness, rf, cycle_of_fifths, valor, euse, v's, belgium, hib, turing_machine, gangster, plantsperson, baulk_line, acre, meetaversary, madalyn, computer_science, movie, polynomial_time, issa, country, diptera, r, b.lit, zero_g, actus, m's, pinfall, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, cj, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, tilt_whirl, corner_tooth, b.e, er, baseball, association, d_s, supercee, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, g_force, ff_hole, b_story, clu, islamic_calendar, employ, set_theory, take_l, nyse, variant, anecdota, south, workaday, numeral, frequency, oboe_d_amore, b.e.e, five_hundred, can_begin_to_leak, jj, ll.b, besides, costa, homer, republican, women's_christmas, aikens, stop_codon, symbols, folio, port_o_john, nfd, fs, gentleman, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, available, bs, java, w, type_b, aitkens, journalism, 1_g, active, black_english_and_slang, biblical, au, vector, template_metaprogramming, b.chir, copyright_symbol, cockalorum, nc_17, sarcastic, legal, airplane, f_major, scale, cola, assault, schwar, piss_like_racehorse, h's, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, hulkamania, ma_am, b.math, enharmonic, mother, electronics, rhotacism, stadia, america, bug_boo, alpha_privativum, arc, nuevo_sol, bomb, dactinomycin, penny, g_rated, version, terminal_s, w's, c, external, malloc, np, dog's_letter, indefinite_article, right, aware, cock_hoop, r’s, stl, b_shaped, ed, s_hole, basketball_league, flute, fora, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, dateaversary, go, do, sol_fa, s_size, no, aspect_ratio, entomology, graph, rd, b_final, levulose, sixteenth_letter_of_roman_alphabet, lb, h_shackle, form, indicative, coarticulate, pers, set, used_mainly_after_where_here_and_there, b.m.e, kenna, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, un, break_off, ies, fork, upon, solfège, exhibit, big, n_acetyl_p_aminophenol, doubleyou, computer_languages, aerial, computing_theory, cherubs, fundamental_constant, s’s, decemvirate, word, hulkamaniac, yot, kb, ai, americanization, annus, b.lib, predicted, would, chemical_symbol_of_carbon, 3gl, dx, igg, gigabyte, accusative_case, c's, m’s, m_size, ra, snipt, snooker, latitude, alotta, acid, singer_songwriter, male, b.c.e, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, apiece, 50, b_♭_instrument, b’s, marijuana, ii, abaft, ana, ette, medicine, 12mo, law, aweigh, 500, curly_bracket_language, j_shaped, acronym, old_penny, blood_type, drachm, artificer, cigarette, robertsman, eighth_letter_of_roman_alphabet, delete, p_complete, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, fatha, metacism, gas_constant, air_to_ground, b_school, tonic, astronomy, internet, pethers, w’s, semitone, darwin, aes, peso, jessa, chartered_accountant, music, water_spout, gw, sitcom, signore, vanadium, degree_centigrade, k, result, sn, white, australian, not, b.arch, clitic, software, ball, php, ev, amacrine, airman, bacillus, fathom, b.l.s, nipple, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, toll_highway, wwwww, b.b.a, billion, acephalopodia, apprentice, t, drop_d, aeronautical_jargon, sulfur, st, dry_storage, base, aviator, n, parkins, celestial_body, r_rated, print_on_printer, on, neighborhood_map, pvc, unsupported_titles_c_sharp, chemical_symbol_for_phosphorous, accounts_receivable, canadian_dollar, acceleration_of_gravity, programming_language, g_major, restaurant, hoodla, v_sign, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, f_s, relaxacon, lead, annealing, adoors, general, ship, ephah, final, asked, class, lev, alexipyretic, transit_card, å, babs, b_side, associate, m'lady, ge, fortran, musea, w5, pound, monsieur, form_of_vessle, atta, semicircle, of, politics, deoxycytidine_monophosphate, ml, boson, ace, quanta, postnominal, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, builder's_tea, biology, grand, quotha, can_return_five_cents, js, oxygen, superior, d, date, limbo, greengrocer's_apostrophe, inorganic_substance, yes'm, degree_fahrenheit, controlled_vocabulary_types, ground, b.med, problem, some, character, issaron, selligueain, object_oriented_programming, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, z, mmole, loophole, indefinite, send_criminal_to_prison, uk, supersymmetry, jack_lantern, dilf, y_all'd've, neuropraxia, ess, aviation, foreroom, cor_anglais, j.d, heat_content, give_hand, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, abundant, ab, amnia, its, lolz, b.s.a, hard, peruvian, logic, non_rhotic, before_bee, f_minor, mitochondria, rust, anna, b.compt, guildswoman, perl, stereodescriptor, radius, cilia, set_containing_one_element, amplitude, d_shaped, s_shaped, ppbar, pointed, nf, effing_and_blinding, b.sc.n, letter_grade, ne_er, cock_leekie, goatshair, m.d, business, s's, square_meter, new_zealand, w_shaped, last, elemeno, clg, e, misle, ilka, allies, composition, every, secondary, imperative, c.f.r, fraunhofer_line, gev, chromatic_semitone, alfa, west, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, l’s, cyclone, bps, abeigh, about, dunam, all_gog, potato, air_conditioner, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, chockablock, company, watt, d.d, cricket, taking_bus, cab, afternoon, dex, galaxy, seventh_letter_of_roman_alphabet, p’s, em, acroatics, economics, duff's_device, hundred, air_conditioning, swounds, ah, ls, m_shaped, master_of_ceremonies, mornings, size, also, banned, viscountess, had, air, possess, cytosine, b.th, americanize, galactic_coordinate_system, ata, deoxyribose, fifty, da, theorem, scotland, five, horse, aptychus, henry, hydrogen's_chemical_symbol, igm, bliss, abandannaad, afterwards, v_cut, ff, monoatomic_cation, atomic_nucleus, b_complex_vitamin, æ, holliers, wilkes, g's, 5, ub, list, h’s, b.as, incuba, m'lord, ack, she, second, alee, container, anonymous, moisturizer, even, luggage, ada, plus, li, lethek, long_vowel, any, b.acy, clothing, f_18, tendu_en_arrière, mathematics, wed, awhape, northern_england, example_of_programming_language, adventure_game, strong_electrolyte, kd, slang, backwards, grunsel, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, b.s.e, basic, azure, strident, fluor, fluorine, c_note, v_twin, absorbancy, c_suite, g_minor, vitamin, hegira, human, l's, to, gb, v_necked, vs, 2h, canine_letter, per, saxon_genitive, city, versus, absorbance, acceleration, hotel, beanbag, j_drama, calendar_terms, svedberg, knitting, jack, michigan, mark, see_also_es, at_pinch, jocular, computer_language, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, d_major, he, ricketts, best, q, activity, apl, hip_hop_music, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, d’s, frame, sxsw, cocaine, work, bass_clef, bronx, arace, h_beam, meter, avancé, delta_v, four, percentage_point, toy, infix, anno, army, v_shaped, deuterium, buffet, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, dialect, ds, hedra, introverted, aspirated_h, sixth_letter_of_roman_alphabet, rex, person, gravitational_constant, address, forwards, died, medial_s, industry, attendance, modius, meta, g_sharp, auxiliary, gs, glass, emission_theory, düsseldorf, cue_ball, i, aircraft, equivalent, j's, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python</t>
-  </si>
-  <si>
-    <t>nitrogen, aud, set_phrase, athwartships, t_zone, acting, aphobia, anaptyxis, van_der_waals_constant, tesh, t's, sincerely, t_internet, fandom_slang, constant_of_integration, clansperson, lambdacism, getting_paid, air_conditioned, act, short_s, proton, third_person, t_piece, agaze, vowel, first, drencht, historical, account, academy, amos, type_erasure, diastereoisomer, motorcycle, procedural_programming_lanuage, zoa, pbuh, ante, alphabetic, was, article, hydrogen, equipt, cup, soupcon, group, embellisht, rosebush, n_tert_butyl, data, visarga, double, dealt, xiphisternum, interfix, north, high_c, level, letter, replace, cat, academic, type, diatonic_semitone, estes, before, have_got, belcht, aitkins, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, dry_cell_battery, connecter, hb, paradigm, embryoniferous, is, count_out, allele, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, acrita, tertiary, brassiere, ambassador, c’s, team, pound_sterling, finance, c_hole, 4chan, p_word, asymmetric, segovia, heroin, ultimata, brewster, c_minor, yt, half_crown, amp, anime, w:abo_blood_group_system, anode, sneaksman, theirs, aikins, algorithm, solfeggio, adjusted, 1000, bleacht, american_library_association, triton, proscribed, entertainment, automobile, neutron, spat, australian_dollar, lose, hook_n_kill, twou'dn't, cajun, water, blest, animanga_character, musical_artist, note, organic_chemistry, monoclonal_antibody, social, transmissivity, abbreviation, caravansary, hirs, salt_n_shake, april, pork_n_beans, axiom, la_dièse, grammar, air_branch, khoum, acardiacus, pp, aaa, annext, cuppa, bornt, application, n_ary, clasht, philippine, time, cropt, aken, perfection, answer, were, spectral_class, noons, arctic, automata, sw, encroacht, accepted, tis, lurianic, coulomb, chirpt, audit, distinguisht, circa, labial, mbta, deoxythymidine_monophosphate, para, mausolea, eirs, build_cathedral, hydrogen_atom, frigga, vrykolaka, administration, object_oriented_programming_language, tradeswoman, accomplisht, thousand, seah, en, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, transgender, copypasta, cleft, falcon, ahold, compiler, taxa, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, dead_n_buried, kolmogorov, bit, fish_n_chips, printing, ties, atmosphere, bynempt, pencil, es, n_bomb, austria, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, genitive_case, nfc, minor, do_dièse, hunter's_moon, ratings, the, string, warsaw, it's, liter, builder's_mug, c_channel, accidental, miscellaneum, british, author, in, junonian, keynote, vis_vis, ashoka, accommodation, age, signor, ae, statesman, let's, stage, solfege, cmos, cetera, physics, begat, anecdotum, kuh, dislik’t, m, denmark, can_store_food, angstrom, tert, twelveth_letter_of_roman_alphabet, banisht, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, transhumanism, l_size, acaulous, ell, beeswax, bent, academician, aa, fermion, blood_group, atomic_weight, other, programming, asqtad, blockt, aglutition, ods, thymine, absolute_temperature, titles, or, argent, talk_to, chromatic_scale, s, military, american, charlie, re, checkt, ss, athanogene, bisphenol, after, gilf, education, statement, jack_lent, 24mo, pharmacology, xtianity, automatic, century, pure, bereft, latin, adult, vitamin_c, as, phosphorus, dswounds, alto, cello, iso, levo, j, an, vicesimo_quarto, assist, c_s, playoff, javascript, cisgender, conservative, tittle, ecmascript, curst, purkins, crept, randomness, oversman, a’s, twasn't, pip, gomer, l_shaped, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, venipuncture, astragal, us, cor, grade, china, deuteron, amphibian, bullswool, kc, hausdorff, sec, perrins, est, slut's_wool, from_latin_libra, b, subatomic_particle, jack_dandy, seent, sigmoid, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, b_flat, eth, lambert, major, betimes, otw, leonid, anterior, salt, a, lua, has, neighborhood, lvalue, tesla, nights, skainsmate, dispossest, wiener_dog, hs, deprest, triple, admiral, rating, sanatoria, average, o, ve, all_mort, pyrrhonist, interconsonantal, phenomena, k_r, mit, h_shaped, pigscot, rackarock, neura, iodabenzene, methamphetamine, major_scale, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, criteria, litre, sithence, celestial_object, absent, admonisht, blemisht, nones, jesus_was_crucified, developt, rix, area, saint, status, blent, unicode, jackanapes, neuter, otl, archaea, proton_hydron, ruby, bacteria, colossea, arterial, specific_absorption_coefficient, linguistics, specific_rotation, resturant, adjective, alpha_privative, anuptaphobia, avoucht, rake_n_scrape, corn, lth, drag_n_drop, subway, canonical, teen, absolute, ing, l_plate, verb, iv, computing, b_♭, cs, england, log, curiously_recurring_template_pattern, functional_group, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, taxaphobic, abolisht, rogers, artery, crusht, ours, sterling, lines, asian, œ, singular, januarys, amissing, p's, planck's_constant, wolf_hook, s_bomb, fuckabilly, c_shaped, vegas, thing, tween, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, tcl, spearsman, drive, sapon, danc’t, mass_number, cycle_of_fifths, euse, belgium, women, embost, blusht, turing_machine, enforc’t, plantsperson, accurst, t_square, acre, comprest, fourteenth_letter_of_roman_alphabet, trailer, meetaversary, ns, computer_science, drum_n_bass, polynomial_time, issa, country, diptera, r, pinfall, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, fox, roof, have, approved, tilt_whirl, corner_tooth, er, baseball, t_stop, association, taula, supercee, object, condenst, chess, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, clu, islamic_calendar, employ, set_theory, rock_n_roll, take_l, mc, nyse, anecdota, south, workaday, numeral, frequency, oboe_d_amore, can_begin_to_leak, besides, costa, homer, women's_christmas, aikens, stop_codon, symbols, technical_foul, n's, port_o_john, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, ts, nae, i18n, available, java, w, bought, aitkens, journalism, active, down_to_t, black_english_and_slang, biblical, au, template_metaprogramming, copyright_symbol, empoverisht, cockalorum, sarcastic, legal, airplane, dropt, cannabinoid, attackt, scale, cola, assault, piss_like_racehorse, h's, cobol, admit, urbiscript, iii, long_s, sx, mho, batsman, córdoba, tg, hulkamania, enharmonic, stadia, america, bug_boo, alpha_privativum, clept, arc, encampt, nuevo_sol, bomb, penny, terminal_s, c, external, malloc, np, indefinite_article, aware, dwelt, cock_hoop, stl, n’s, ed, s_hole, basketball_league, n_butyl, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, preposition, occupation, dateaversary, built, go, normal, sol_fa, attacht, enravisht, s_size, no, aspect_ratio, entomology, graph, approacht, levulose, sixteenth_letter_of_roman_alphabet, h_shackle, indicative, basketball, pers, set, used_mainly_after_where_here_and_there, kenna, nonstandard, dialectal, aqua, ⠁, mute_h, un, ies, fork, solfège, exhibit, n_acetyl_p_aminophenol, confest, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, transsexual, hulkamaniac, kb, ai, americanization, annus, predicted, chemical_symbol_of_carbon, 3gl, dx, propoxur, accusative_case, c's, brusht, alotta, acid, perfectly, brought, askt, cannabinol, ajax, descending_s, game, etc, pantile, apiece, 50, dript, b_♭_instrument, pick_n_mix, eye, ii, abaft, ana, ette, medicine, ne, law, aweigh, curly_bracket_language, acronym, blood_type, artificer, robertsman, eighth_letter_of_roman_alphabet, delete, p_complete, mac_n_cheese, cc, meadow, atlantic, electricity, f_instrument, alphabet, one, c_major, fist_letter_of_alphabet, cad, copenhagen, reference, fatha, tonic, internet, pethers, semitone, aes, peso, besprent, jessa, chartered_accountant, music, water_spout, signore, lost, degree_centigrade, k, result, australian, not, software, php, amacrine, airman, auditor, search, hers, adp, awry, brandisht, toll_highway, information_services_and_technology, nape, acephalopodia, you, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, echonian, parkins, celestial_body, disestablisht, print_on_printer, anguisht, on, neighborhood_map, unsupported_titles_c_sharp, chemical_symbol_for_phosphorous, molecule, canadian_dollar, programming_language, denounc’t, restaurant, hoodla, symbol_for_hydrogen, are, l, ampere, annodated, attack, adjutant, demolisht, relaxacon, lead, annealing, adoors, ship, ephah, final, asked, morpheme, noun, class, lev, alexipyretic, transit_card, open, å, th, babs, t_pose, tritium, associate, clipt, ge, fortran, musea, excrescence, pound, form_of_vessle, atta, of, politics, deoxycytidine_monophosphate, ml, boson, ace, quanta, abetalipoproteinemia, which's, ps, first_alphabet, builder's_tea, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, cyclo, newton, problem, contradistinguisht, character, issaron, selligueain, object_oriented_programming, cherisht, multi, and, pells, of_piece, metalic_cylindrical_container, z, loophole, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, neuropraxia, beset, ess, aviation, foreroom, heat_content, give_hand, penlite, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, abundant, ab, amnia, its, lolz, logic, pitch_perfect, before_bee, t’s, mitochondria, rust, anna, guildswoman, perl, t_junction, stereodescriptor, cilia, n_gram, set_containing_one_element, amplitude, s_shaped, ppbar, secretary_problem, pointed, nf, twouldn't, letter_grade, ne_er, cock_leekie, burnt, goatshair, business, s's, testosterone, new_zealand, last, elemeno, digrest, e, ilka, allies, composition, every, secondary, c.f.r, fraunhofer_line, chromatic_semitone, nationality, alfa, t_shirt, normality, sports, hawksbeard, jack_napes, catherine_havasi's_initials, l’s, cyclone, abeigh, about, all_gog, point, potato, air_conditioner, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, cab, afternoon, diminisht, p’s, rig, acroatics, duff's_device, hundred, air_conditioning, swounds, ah, ls, mornings, also, air, cytosine, americanize, poland, ata, deoxyribose, fifty, theorem, scotland, horse, aptychus, henry, hydrogen's_chemical_symbol, t_shaped, exactly, bliss, abandannaad, afterwards, monoatomic_cation, atomic_nucleus, n_shaped, caught, æ, holliers, wilkes, ub, list, h’s, incuba, taxable, ack, she, second, kamatz, alee, container, anonymous, moisturizer, even, bethought, n_plex, luggage, ada, plus, lethek, long_vowel, any, clothing, abasht, awhape, cross, northern_england, example_of_programming_language, applicable, strong_electrolyte, 18mo, kd, slang, backwards, present_tense, c_sharp, gentleman's_agreement, altitude, bcpl, rail_transport, basic, azure, strident, disrelisht, c_note, tuesday, panamanian, burnisht, absorbancy, thyroxine, c_suite, vitamin, hegira, against, human, l's, to, 2h, per, saxon_genitive, city, absorbance, acceleration, hotel, beanbag, deduc’t, calendar_terms, svedberg, tee, astonisht, mark, n_adic, see_also_es, at_pinch, jocular, computer_language, it, chapter, heifer, deterministic, hertz, abc, he, ricketts, best, q, activity, apl, hip_hop_music, walk_mile_in_someone's_shoes, atrocha, hail, and_so_on, panthea, awk, expertise, besought, frame, sxsw, cocaine, bronx, arace, h_beam, avancé, four, percentage_point, drill_n_bass, infix, anno, army, ataxia_telangiectasia, buffet, zf, hin, amateur, zounds, dialect, drest, hedra, tees, introverted, aspirated_h, person, address, forwards, direct_broadcast_satellite, medial_s, industry, attendance, modius, deckt, auxiliary, daunc’t, gs, glass, emission_theory, düsseldorf, i, aircraft, equivalent, fan_fiction, hors_categorie, king's_man, lemur, f, scampsman, python</t>
-  </si>
-  <si>
-    <t>aud, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, t's, sincerely, t_internet, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, air_conditioned, act, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, dezh, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, account, academy, amos, type_erasure, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, ballet, ante, alphabetic, there, was, article, remainder, equipt, nd, b's, e_vite, cup, soupcon, casualty, group, embellisht, f_minus, data, double, dealt, high_c, ll, level, letter, penny_sterling, replace, cat, academic, type, diatonic_semitone, estes, before, e_tail, have_got, belcht, aitkins, boron, a440, a's, sextodecimo, annually, adenine, p_adic, dry_cell_battery, connecter, hb, paradigm, is, b_minor, count_out, allele, ees, t_splice, pee, regards, egotist, ino, axis, amain, prototype_based_language, acrita, magic_e, tertiary, brassiere, dice, ambassador, c’s, team, finance, c_hole, 4chan, e_shaped, p_word, asymmetric, e’s, segovia, heroin, ultimata, bethe, video_game, c_minor, yt, half_crown, amp, anime, w:abo_blood_group_system, fujita_scale, anode, b.sc, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, pandean, proscribed, entertainment, automobile, roentgen, spat, australian_dollar, lose, d's, twou'dn't, cajun, blest, bel, b.ed, musical_artist, einsteinium, bye, tier, organic_chemistry, monoclonal_antibody, transmissivity, abbreviation, caravansary, hirs, twelvemo, fourth_letter_of_roman_alphabet, april, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, annext, cuppa, bornt, application, clasht, philippine, time, cropt, television_show, aken, perfection, answer, were, spectral_class, noons, e_folding, arctic, e's, automata, encroacht, accepted, tis, barn, b.a, coulomb, chirpt, audit, distinguisht, circa, e_quainted, labial, b.mus, mbta, deoxythymidine_monophosphate, para, mausolea, eirs, build_cathedral, fb, frigga, breadth, vrykolaka, administration, object_oriented_programming_language, tradeswoman, accomplisht, thousand, en, b.litt, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, transgender, copypasta, television_station, cleft, falcon, ahold, believe, f_hole, compiler, taxa, august, flat, fréchet, mab, kolmogorov, bit, printing, ties, atmosphere, bynempt, es, austria, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, e_sharp, genitive_case, nfc, e_tailing, d100, minor, do_dièse, hunter's_moon, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, string, phm.b, dextro, it's, builder's_mug, c_channel, accidental, miscellaneum, emergency, british, f’s, author, in, keynote, vis_vis, ashoka, accommodation, age, signor, ae, statesman, let's, stage, solfege, cmos, rip, b.s, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, denmark, can_store_food, angstrom, tert, banisht, third_letter_of_roman_alphabet, four_lines, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, mano_mano, decomposition, acaulous, beeswax, ze, bent, academician, aa, fermion, b.comm, blood_group, atomic_weight, other, programming, asqtad, blockt, aglutition, ods, thymine, absolute_temperature, titles, b_s, or, argent, ex, talk_to, chromatic_scale, s, military, american, charlie, re, checkt, ss, athanogene, bisphenol, after, ebrary, gilf, education, statement, jack_lent, 24mo, pharmacology, xtianity, automatic, century, pure, bereft, adult, vitamin_c, as, phosphorus, dswounds, alto, nail, chaussé'd, cello, p, saké, j, an, vicesimo_quarto, assist, c_s, ℓ, playoff, javascript, cisgender, conservative, tittle, ecmascript, curst, purkins, crept, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, go_to_market, pip, e_tailer, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, astragal, us, grade, china, deuteron, survival_horror, kc, amphibian, bullswool, scheme, hausdorff, sec, perrins, group_b, est, slut's_wool, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, b_flat, eth, major, betimes, otw, e_form, b.ch.d, did, anterior, a, shanxi, lua, has, neighborhood, lvalue, tesla, nights, skainsmate, f_sharp, dispossest, wiener_dog, d_hole, deprest, b.com, triple, admiral, fifth_letter_of_roman_alphabet, d_minor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, b.des, football, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, mit, pigscot, rackarock, neura, iodabenzene, methamphetamine, major_scale, equal_temperament, triiodothyronine, amphibious, mammal, birdsmouth, criteria, sithence, celestial_object, absent, admonisht, blemisht, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, blent, unicode, jackanapes, b_testing, flowering_plant, otl, archaea, regina, ruby, state, bacteria, colossea, arterial, specific_absorption_coefficient, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, subway, canonical, teen, absolute, ing, verb, iv, manga, computing, r's, b_♭, cs, england, curiously_recurring_template_pattern, lgbt, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, taxaphobic, abolisht, rogers, capital, b.s.l, artery, crusht, ours, lines, asian, sf_f, e_major, œ, singular, januarys, east, amissing, p's, wolf_hook, s_bomb, fuckabilly, c_shaped, vegas, thing, stretch, tween, twas, anothergates, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, spearsman, drive, danc’t, mass_number, rf, cycle_of_fifths, power_pill, euse, belgium, hib, women, esrb_rating, e_minor, embost, blusht, turing_machine, enforc’t, plantsperson, baulk_line, accurst, t_square, acre, comprest, trailer, meetaversary, computer_science, movie, polynomial_time, issa, country, diptera, r, b.lit, pinfall, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, roof, have, approved, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, e_road, d_s, taula, supercee, eradiation, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, ff_hole, b_story, clu, set_theory, nyse, anecdota, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, b.e.e, can_begin_to_leak, ll.b, besides, costa, women's_christmas, aikens, stop_codon, symbols, folio, technical_foul, port_o_john, nfd, fs, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, ts, available, bs, java, w, bought, street_slang, type_b, aitkens, active, down_to_t, black_english_and_slang, biblical, au, b.chir, template_metaprogramming, copyright_symbol, ey, empoverisht, cockalorum, sarcastic, legal, airplane, f_major, dropt, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, tg, hulkamania, b.math, enharmonic, rhotacism, stadia, america, bug_boo, alpha_privativum, clept, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, terminal_s, c, external, malloc, np, dog's_letter, indefinite_article, right, aware, electronic, dwelt, cock_hoop, r’s, stl, elaborate, b_shaped, ed, s_hole, basketball_league, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, preposition, occupation, dateaversary, built, go, do, sol_fa, attacht, enravisht, s_size, no, aspect_ratio, entomology, sie, graph, rd, approacht, b_final, sixteenth_letter_of_roman_alphabet, lb, they, form, indicative, basketball, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, b.m.e, kenna, nonstandard, dialectal, aqua, ⠁, un, break_off, ies, fork, solfège, exhibit, big, n_acetyl_p_aminophenol, computer_languages, confest, exponential, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, transsexual, hulkamaniac, kb, ai, americanization, annus, b.lib, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, accusative_case, c's, brusht, ra, snooker, latitude, alotta, acid, perfectly, brought, askt, b.c.e, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, apiece, b_♭_instrument, dript, b’s, australia, ii, abaft, ana, ette, medicine, 12mo, law, aweigh, 500, curly_bracket_language, acronym, old_penny, blood_type, artificer, robertsman, hyperbolic_function, p_complete, cc, meadow, atlantic, electricity, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, fatha, gas_constant, b_school, tonic, astronomy, internet, pethers, semitone, darwin, aes, peso, besprent, jessa, chartered_accountant, music, water_spout, sitcom, signore, lost, degree_centigrade, result, sn, australian, not, b.arch, software, ball, php, amacrine, airman, bacillus, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, hers, adp, awry, brandisht, toll_highway, ezhou, b.b.a, billion, information_services_and_technology, acephalopodia, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, parkins, celestial_body, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, unsupported_titles_c_sharp, chemical_symbol_for_phosphorous, accounts_receivable, canadian_dollar, equal_mc_squared, programming_language, denounc’t, restaurant, hoodla, d_sharp, are, l, ampere, annodated, working_leg, attack, adjutant, f_s, demolisht, relaxacon, annealing, adoors, ship, polymyxin_e, final, asked, class, scale_height, alexipyretic, transit_card, open, å, th, babs, t_pose, tritium, b_side, associate, clipt, ge, fortran, musea, excrescence, form_of_vessle, atta, semicircle, of, politics, deoxycytidine_monophosphate, ml, boson, ace, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, history, builder's_tea, biology, addrest, quotha, can_return_five_cents, oxygen, superior, d, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, transcendental_number, degree_fahrenheit, b.med, problem, some, contradistinguisht, selligueain, object_oriented_programming, cherisht, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, z, loophole, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, aviation, foreroom, cor_anglais, j.d, give_hand, pronoun, cent, chemistry, abundant, ab, amnia, its, lolz, b.s.a, logic, pitch_perfect, non_rhotic, f_minor, t’s, before_bee, e_quaintance, mitochondria, rust, anna, b.compt, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, set_containing_one_element, amplitude, d_shaped, s_shaped, ppbar, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, cock_leekie, burnt, goatshair, highland, m.d, business, s's, testosterone, new_zealand, elemeno, digrest, e, misle, ilka, allies, composition, every, secondary, c.f.r, fraunhofer_line, chromatic_semitone, nationality, alfa, t_shirt, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, cyclone, bps, abeigh, about, all_gog, point, potato, air_conditioner, ancient, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, d.d, cricket, taking_bus, afternoon, dex, diminisht, p’s, acroatics, duff's_device, hundred, air_conditioning, swounds, ah, efold, mornings, size, also, xe, banned, had, air, possess, cytosine, b.th, americanize, galactic_coordinate_system, ata, da, theorem, scotland, horse, aptychus, accident_and_emergency, t_shaped, exactly, bliss, abandannaad, afterwards, ff, caught, b_complex_vitamin, æ, holliers, wilkes, ub, list, b.as, incuba, ecstasy, taxable, also_known_as, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, luggage, ada, plus, long_vowel, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, awhape, cross, northern_england, example_of_programming_language, adventure_game, 18mo, kd, slang, backwards, present_tense, diceroll, c_sharp, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, strident, fluor, fluorine, disrelisht, c_note, tuesday, burnisht, purposes, absorbancy, thyroxine, c_suite, vitamin, against, to, river, e_tard, canine_letter, per, saxon_genitive, city, absorbance, acceleration, echeng, hotel, beanbag, deduc’t, svedberg, tee, astonisht, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, d_major, he, ricketts, best, activity, apl, hip_hop_music, black, walk_mile_in_someone's_shoes, atrocha, hail, relaxing, and_so_on, panthea, awk, expertise, besought, d’s, frame, sxsw, cocaine, bass_clef, bronx, arace, avancé, e_thumb, four, percentage_point, toy, infix, anno, army, deuterium, ataxia_telangiectasia, henan, buffet, zf, f_bomb, b_movie, amateur, b.tech, zounds, dialect, drest, ds, hedra, tees, introverted, sixth_letter_of_roman_alphabet, fail, rex, person, address, forwards, died, e_head, medial_s, industry, attendance, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, hors_categorie, king's_man, lemur, f, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>aud, athwartships, acting, aphobia, anaptyxis, van_der_waals_constant, square_metre, constant_of_integration, clansperson, lambdacism, getting_paid, am, air_conditioned, algol, act, non_sequituri, b.s.n, proton, short_s, third_person, agaze, vowel, first, dezh, historical, account, academy, man, amos, type_erasure, megabyte, diastereoisomer, motorcycle, procedural_programming_lanuage, zoa, ballet, ante, alphabetic, article, nd, b's, cup, soupcon, group, data, double, xiphisternum, interfix, writer, high_c, ll, level, letter, penny_sterling, replace, kasra, cat, academic, type, diatonic_semitone, estes, before, have_got, aitkins, i’s, boron, subject, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, meaning, dry_cell_battery, connecter, hb, paradigm, is, b_minor, count_out, allele, pee, ino, axis, amain, acrita, miserabilist, brassiere, dice, ambassador, nisba, c’s, team, pound_sterling, c_hole, personal, p_word, metre, ious, asymmetric, segovia, heroin, ultimata, brewster, bethe, video_game, you_and, c_minor, half_crown, amp, anime, w:abo_blood_group_system, anode, b.sc, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, b_sharp, american_library_association, triton, bubnoff_unit, pandean, proscribed, automobile, hypercorrection, spat, australian_dollar, roman_numeral, d's, proverb, cajun, perpendicular_pronoun, animanga_character, bel, b.ed, musical_artist, i_don't_care, bye, tier, organic_chemistry, molarity, monoclonal_antibody, abbreviation, caravansary, hirs, twelvemo, fourth_letter_of_roman_alphabet, india, april, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, pp, aaa, cuppa, application, first_person, philippine, aken, ms, answer, spectral_class, noons, arctic, automata, accepted, barn, mb, b.a, coulomb, iferous, sr, audit, circa, labial, i_ship, b.mus, ngl, ignominy, para, mausolea, eirs, frigga, breadth, vrykolaka, administration, object_oriented_programming_language, tradeswoman, equiangular, thousand, seah, en, b.litt, pawn, physicotheology, os, copypasta, sentences, falcon, ahold, believe, my, compiler, taxa, green, august, loser_sign, flat, mab, bit, atmosphere, thirteenth_letter_of_roman_alphabet, es, nay, austria, raguileo_alphabet, speed_of_light, storativity, ha, i'll've, genitive_case, nfc, d100, minor, stade, do_dièse, hunter's_moon, ignore, the, string, mth, phm.b, dextro, it's, liter, builder's_mug, c_channel, accidental, i'd, miscellaneum, hebdomadiversary, british, ego, author, in, keynote, medium, vis_vis, ashoka, accommodation, age, signor, ae, i_and_i, statesman, let's, stage, solfege, cmos, b.s, me_pronoun, cetera, physics, anecdotum, kuh, m, can_store_food, denmark, angstrom, twelveth_letter_of_roman_alphabet, ich, third_letter_of_roman_alphabet, four_lines, roadway, combo_pass, jackanape, chill, internet_slang, toodles, at, mano_mano, decomposition, l_size, acaulous, ell, beeswax, me_reference, academician, sudoriferous, aa, fermion, b.comm, blood_group, atomic_weight, palochka, other, mega, be, programming, asqtad, aglutition, ods, ri, absolute_temperature, titles, b_s, or, argent, talk_to, chromatic_scale, s, self, make, military, ihood, american, charlie, crease, re, ss, athanogene, bisphenol, after, gilf, education, maiden_over, oic, statement, jack_lent, pharmacology, automatic, century, pure, i_wiss, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, alto, nail, chaussé'd, cello, p, yours_truly, levo, j, an, assist, c_s, ℓ, single, fictional_character, playoff, javascript, self_reference, self_me, conservative, ecmascript, purkins, round, second_letter_of_alphabet, randomness, oversman, a’s, linking_vowel, pip, gomer, l_shaped, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, venipuncture, astragal, us, cor, grade, deuteron, survival_horror, amphibian, bullswool, kc, sec, perrins, group_b, est, slut's_wool, from_latin_libra, me_subject, b, subatomic_particle, jack_dandy, sigmoid, um, bee, john_dreams, pithers, number, shortcut_for_air_conditioning, ragamuffin, mature, i'm, hair_clip, year, p_shaped, abiosis, b_flat, eth, lambert, imac, major, betimes, otw, b.ch.d, did, anterior, a, lua, has, lvalue, i'se, nights, skainsmate, wiener_dog, d_hole, b.com, triple, i's, admiral, d_minor, rating, sanatoria, average, o, ve, all_mort, b.des, football, interconsonantal, second_letter_of_roman_alphabet, phenomena, k_r, pigscot, rackarock, neura, iodabenzene, methamphetamine, major_scale, equal_temperament, amphibious, y, mammal, birdsmouth, criteria, litre, sithence, me, celestial_object, absent, nones, jesus_was_crucified, rix, area, saint, subjective, unicode, jackanapes, b_testing, otl, archaea, ruby, bacteria, colossea, arterial, specific_absorption_coefficient, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, lth, canonical, absolute, ing, l_plate, verb, iv, computing, b_♭, cs, england, log, curiously_recurring_template_pattern, astand, boa, bloviate, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, pronouns, taxaphobic, rogers, b.s.l, inorite, urbicidal, artery, ours, sterling, lines, asian, singular, januarys, amissing, p's, wolf_hook, s_bomb, speaker, emma, fuckabilly, c_shaped, vegas, i_ness, thing, anothergates, omer, stock_symbol, rat, cancer, toward, beginnings, tcl, spearsman, drive, mass_number, cycle_of_fifths, euse, belgium, hib, ch, turing_machine, plantsperson, baulk_line, acre, firs_person, meetaversary, madalyn, computer_science, polynomial_time, issa, country, diptera, r, b.lit, cutting_edge, actus, m's, pinfall, third_letter_of_alphabet, kudo, i_hood, ephemera, deoxyadenosine_monophosphate, high_level, fox, roof, have, approved, i_beam, tilt_whirl, corner_tooth, b.e, er, baseball, association, d_s, supercee, object, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, b_story, clu, set_theory, take_l, mc, nyse, anecdota, south, workaday, numeral, frequency, oboe_d_amore, b.e.e, five_hundred, can_begin_to_leak, ll.b, besides, ownership, costa, homer, grammatical, women's_christmas, aikens, stop_codon, symbols, port_o_john, nfd, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, i18n, available, bs, java, w, apple, type_b, aitkens, active, black_english_and_slang, biblical, au, metaphysics, b.chir, template_metaprogramming, copyright_symbol, cockalorum, sarcastic, legal, airplane, scale, cola, assault, piss_like_racehorse, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, hulkamania, ma_am, interstate, b.math, enharmonic, mother, stadia, america, bug_boo, alpha_privativum, arc, nuevo_sol, bomb, dactinomycin, penny, terminal_s, c, external, i'll, malloc, np, indefinite_article, aware, cock_hoop, stl, b_shaped, ed, s_hole, basketball_league, flute, fora, aunt, muggins, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, preposition, dateaversary, go, do, sol_fa, s_size, no, aspect_ratio, entomology, graph, rd, b_final, myself, levulose, sixteenth_letter_of_roman_alphabet, lb, indicative, pers, set, used_mainly_after_where_here_and_there, b.m.e, kenna, nonstandard, dialectal, aqua, ⠁, un, break_off, fashionable, ies, fork, solfège, exhibit, big, n_acetyl_p_aminophenol, computer_languages, aerial, computing_theory, stan, cherubs, fundamental_constant, s’s, decemvirate, hulkamaniac, kb, ai, meaning_me, americanization, annus, b.lib, predicted, would, chemical_symbol_of_carbon, 3gl, dx, accusative_case, c's, m’s, m_size, 1, snooker, latitude, alotta, and_eye, acid, ninth, male, b.c.e, ajax, descending_s, game, etc, people'd, pantile, apiece, 50, b_♭_instrument, b’s, eye, ii, i've, abaft, ana, ette, subjective_pronoun, medicine, 12mo, law, aweigh, 500, curly_bracket_language, acronym, old_penny, identification, blood_type, artificer, i'ven't, idollator, robertsman, p_complete, cc, meadow, atlantic, electricity, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, fatha, metacism, afaiu, i'd've, b_school, tonic, astronomy, internet, pethers, semitone, darwin, aes, peso, ignoble, jessa, chartered_accountant, music, water_spout, signore, degree_centigrade, k, result, sn, cinema, australian, not, b.arch, clitic, software, sentence, ball, php, amacrine, idren, ith, airman, bacillus, fathom, b.l.s, auditor, vitamin_d, ob, search, nautical_mile, hers, adp, awry, toll_highway, b.b.a, billion, acephalopodia, you, apprentice, t, drop_d, aeronautical_jargon, sulfur, st, ify, dry_storage, aviator, n, parkins, celestial_body, print_on_printer, on, neighborhood_map, unsupported_titles_c_sharp, chemical_symbol_for_phosphorous, canadian_dollar, programming_language, iyaric, restaurant, hoodla, d_sharp, are, ampere, annodated, working_leg, attack, adjutant, relaxacon, annealing, adoors, ship, ephah, final, asked, morpheme, class, lev, alexipyretic, transit_card, å, auri, babs, b_side, associate, zymosimeter, pronoun_me, m'lady, ge, fortran, almost, musea, pound, monsieur, form_of_vessle, atta, semicircle, description, of, politics, deoxycytidine_monophosphate, ml, boson, ace, quanta, b.eng, abetalipoproteinemia, byte, which's, number_one, ps, first_alphabet, my_ass, builder's_tea, quotha, can_return_five_cents, oxygen, superior, d, iration, limbo, greengrocer's_apostrophe, inorganic_substance, yes'm, b.med, problem, some, issaron, selligueain, digital, object_oriented_programming, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, jamaica, z, mmole, loophole, egocentric, indefinite, send_criminal_to_prison, uk, supersymmetry, jack_lantern, dilf, y_all'd've, neuropraxia, ess, aviation, foreroom, j.d, give_hand, pronoun, el, cent, chemistry, referred, abundant, ab, amnia, its, lolz, b.s.a, deictic, i_shaped, logic, before_bee, mitochondria, rust, anna, b.compt, equi, guildswoman, perl, stereodescriptor, cilia, set_containing_one_element, amplitude, d_shaped, s_shaped, ppbar, pointed, nf, b.sc.n, letter_grade, ne_er, cock_leekie, goatshair, m.d, business, s's, square_meter, new_zealand, elemeno, e, misle, ilka, allies, composition, every, secondary, c.f.r, fraunhofer_line, chromatic_semitone, alfa, iwantone, capitol, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, ital, iform, l’s, cyclone, bps, abeigh, about, dunam, all_gog, potato, air_conditioner, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, chockablock, company, dotless_i, d.d, itinually, cricket, taking_bus, cab, afternoon, i'dn't've, dex, p’s, em, acroatics, duff's_device, hundred, air_conditioning, like_me, swounds, ah, ls, m_shaped, roman, mornings, size, also, banned, had, air, possess, cytosine, b.th, self_description, americanize, iodine, galactic_coordinate_system, ata, fifty, da, theorem, scotland, horse, aptychus, igm, bliss, abandannaad, afterwards, one_person, personal_identification, b_complex_vitamin, æ, holliers, wilkes, ub, list, b.as, incuba, m'lord, nosism, ack, she, second, alee, container, anonymous, moisturizer, even, luggage, ada, plus, li, lethek, long_vowel, any, b.acy, clothing, tendu_en_arrière, awhape, northern_england, example_of_programming_language, adventure_game, kd, inity, slang, backwards, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, b.s.e, basic, azure, strident, egocentric_pronoun, c_note, almost_me, absorbancy, c_suite, vitamin, l's, to, per, firs, saxon_genitive, city, absorbance, acceleration, hotel, beanbag, like, svedberg, knitting, michigan, see_also_es, at_pinch, computer_language, it, eiffel, chapter, heifer, follow, deterministic, hertz, b_major, abc, d_major, he, ricketts, best, activity, lyrical_i, apl, hip_hop_music, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, and_so_on, panthea, awk, rexx, d’s, frame, sxsw, cocaine, bronx, arace, meter, avancé, four, percentage_point, infix, anno, army, deuterium, personal_pronoun, buffet, zf, b_movie, hin, zir, amateur, ds, zounds, dialect, b.tech, hedra, introverted, person, address, forwards, single_alphabet, died, medial_s, industry, attendance, modius, meta, auxiliary, gs, glass, emission_theory, düsseldorf, cue_ball, i, aircraft, equivalent, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python</t>
-  </si>
-  <si>
-    <t>toonophile, ortho, aud, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, scalogram, ometry, sincerely, square_metre, t_internet, fandom_slang, o_face, eddress, clansperson, lambdacism, getting_paid, am, act, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, dezh, o_shaped, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, dirhem, account, academy, myctag, amos, 360, megabyte, diastereoisomer, motorcycle, fuck, zoa, pbuh, ballet, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, archeopteryx, balanophagous, nd, b's, e_vite, w_r_t, cup, casualty, group, embellisht, f_minus, data, visarga, double, dealt, xiphisternum, interfix, kayo, ll, level, g_s, letter, penny_sterling, replace, cat, academic, type, diatonic_semitone, estes, before, e_tail, have_got, belcht, aitkins, boron, a440, a's, sextodecimo, annually, adenine, p_adic, surname, connecter, hb, man_o_war, svo, dram, is, b_minor, count_out, vocative_case, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, prototype_based_language, acrita, magic_e, tertiary, clicko, brassiere, double_u, gf, dice, ambassador, team, finance, symbologenic, 4chan, homœo, e_shaped, p_word, metre, asymmetric, e’s, segovia, heroin, ultimata, brewster, bethe, video_game, cœno, yt, half_crown, amp, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, pandean, turn, proscribed, entertainment, automobile, roentgen, spat, australian_dollar, lose, d's, twou'dn't, cajun, water, blest, coenosteum, bel, vocative, b.ed, musical_artist, einsteinium, bye, tier, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, twelvemo, fourth_letter_of_roman_alphabet, april, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, lemalesomab, annext, cuppa, bornt, application, will_o_wisp, clasht, philippine, time, cropt, television_show, aken, zero, ms, seleno, perfection, answer, were, spectral_class, speako, noons, e_folding, oyl, gameto, arctic, e's, automata, gee, encroacht, accepted, unstressed, tis, run_o_mill, barn, mb, b.a, argyro, chirpt, audit, distinguisht, e_quainted, galanthophile, labial, b.mus, mbta, deoxythymidine_monophosphate, para, cymoscope, mausolea, eirs, nemato, build_cathedral, segrosome, hydrogen_atom, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, tradeswoman, accomplisht, megakaryocytopoiesis, thousand, en, b.litt, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, television_station, cleft, ahold, believe, my, f_hole, zoö, taxa, green, august, wave_clip, fréchet, mab, hamiltonian, problemo, kolmogorov, detumomab, antigen, bit, printing, western, ties, atmosphere, bynempt, pencil, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, austria, dunzo, raguileo_alphabet, eclipst, storativity, ambusht, ha, irc, e_sharp, genitive_case, wynn, nnw, e_tailing, d100, minor, stade, hunter's_moon, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, tibeto, string, mth, phm.b, dextro, it's, builder's_mug, accidental, miscellaneum, emergency, scanno, british, semivowel, f’s, author, in, keynote, medium, vis_vis, accommodation, glosso, signor, age, ae, lino, statesman, let's, okay, stage, solfege, rip, b.s, f_shaped, physics, begat, anecdotum, dislik’t, m, can_store_food, denmark, angstrom, tert, banisht, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, numero_sign, mano_mano, transhumanism, acaulous, hoplo, beeswax, ze, bent, academician, gasogen, aa, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, mega, hey, be, asqtad, homoio, blockt, aglutition, ods, ri, istro, thymine, absolute_temperature, b_s, or, argent, ex, talk_to, s, make, military, american, wth, logico, crease, writo, re, checkt, ss, athanogene, bisphenol, after, connectogram, ebrary, gilf, education, maiden_over, statement, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, pure, bereft, latin, adult, mi, as, phosphorus, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, saké, an, back_o_bourke, vicesimo_quarto, oh, assist, ℓ, fictional_character, mac, playoff, cisgender, tittle, softography, curst, purkins, crept, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, go_to_market, pip, e_tailer, ostomy, shaped, inferior, axiomatic, pædo, venipuncture, astragal, dacryohemorrhea, us, grade, china, deuteron, survival_horror, amphibian, bullswool, scheme, hausdorff, sec, perrins, group_b, tungsten, est, slut's_wool, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, ragamuffin, mature, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, eth, dioxygen, nacolomab_tafenatox, major, betimes, otw, e_form, b.ch.d, did, anterior, a, shanxi, neighborhood, has, tesla, nights, taplitumomab, g_shaped, skainsmate, f_sharp, ga, dispossest, wiener_dog, d_hole, hs, deprest, b.com, triple, with, admiral, fifth_letter_of_roman_alphabet, d_minor, rating, sanatoria, rs, o, ethyl, ve, all_mort, b.des, czechoslovak, football, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, mit, ancient_greek, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, gravity, equal_temperament, triiodothyronine, amphibious, mammal, birdsmouth, klecksography, criteria, sithence, celestial_object, absent, admonisht, blemisht, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, status, blent, jackanapes, vagino, cervico, b_testing, flowering_plant, otl, archaea, regina, proton_hydron, ruby, state, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, subway, teen, absolute, guanine, ing, verb, iv, manga, computing, r's, b_♭, england, linotype, lgbt, astand, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, taxaphobic, abolisht, rogers, capital, b.s.l, artery, crusht, ours, spherocylindrical, wednesday, lines, reflectoporn, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, emma, fuckabilly, blood, vegas, stretch, tween, sulesomab, twas, anothergates, stock_symbol, dismist, rat, toward, beginnings, erlang, spearsman, drive, danc’t, mass_number, peripherovascular, witness, rf, cycle_of_fifths, power_pill, euse, hib, women, esrb_rating, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, muography, baulk_line, accurst, t_square, acre, comprest, trailer, empathogen, meetaversary, madalyn, computer_science, movie, polynomial_time, issa, country, diptera, r, b.lit, zero_g, actus, anxio, m's, pinfall, czechoslovakian, kudo, ephemera, deoxyadenosine_monophosphate, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, e_road, d_s, taula, eradiation, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, norovirus, b_story, islamic_calendar, employ, set_theory, mc, tositumomab, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, o’s, b.e.e, can_begin_to_leak, ll.b, besides, republican, women's_christmas, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, port_o_john, fitz, nfd, fs, gentleman, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, dubya, ts, available, bs, java, w, bought, street_slang, type_b, yo, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, patronymic, au, audio, b.chir, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, terminology, h's, admit, b.acc, iii, long_s, sx, mho, batsman, tg, hulkamania, ma_am, b.math, enharmonic, mother, electronics, rhotacism, o'clock, stadia, america, bug_boo, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, terminal_s, w's, c, np, dog's_letter, indefinite_article, right, aware, electronic, dwelt, cock_hoop, r’s, elaborate, b_shaped, ed, s_hole, basketball_league, flute, fora, twere, aunt, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, b.s.e.e, w_i, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, do, attacht, enravisht, multiple_o's, s_size, no, aspect_ratio, entomology, sie, graph, rd, approacht, b_final, sixteenth_letter_of_roman_alphabet, lb, h_shackle, they, form, indicative, basketball, coarticulate, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, christofascist, b.m.e, kenna, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, o_ring, un, break_off, ies, fork, slidometer, exhibit, big, n_acetyl_p_aminophenol, doubleyou, kinesiology, computer_languages, confest, exponential, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, word, transsexual, o'reilly, hulkamaniac, kb, ai, americanization, annus, b.lib, disco_biscuit, predicted, would, im, dx, igg, gigabyte, accusative_case, m’s, m_size, brusht, particle, ra, snooker, latitude, alotta, acid, perfectly, brought, male, askt, b.c.e, worn_on_nose, ajax, descending_s, game, people'd, euphemistic, pantile, et_seq, apiece, dript, b’s, pneumato, australia, chemical_symbol_of_oxygen, mitumomab, ii, abaft, ana, ette, medicine, 12mo, aweigh, korea, 500, acronym, old_penny, gravo, blood_type, drachm, artificer, robertsman, oto, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, meadow, force_unit, atlantic, f_instrument, alphabet, one, plan_b, fist_letter_of_alphabet, copenhagen, reference, fatha, metacism, gas_constant, air_to_ground, b_school, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, darwin, aes, peso, besprent, jessa, iono, music, water_spout, gw, sitcom, signore, lost, k, result, sn, white, australian, arterio, not, b.arch, clitic, software, ball, amacrine, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, wwwww, b.b.a, herpeto, billion, information_services_and_technology, acephalopodia, apprentice, t, drop_d, reporting, sulfur, st, dry_storage, base, aviator, n, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, spliceosome, magneto, chemical_symbol_for_phosphorous, accounts_receivable, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, restaurant, hoodla, philo, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, lead, shambolic, annealing, adoors, general, ship, polymyxin_e, final, asked, morpheme, class, scale_height, alexipyretic, transit_card, open, å, th, babs, t_pose, tritium, b_side, associate, clipt, m'lady, ge, musea, w5, excrescence, flatulogenic, monsieur, form_of_vessle, atta, semicircle, of, used_in_reading_out_numbers, politics, boson, ace, bruxomania, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, history, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, absorpt, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, degree_fahrenheit, ground, zoöphytology, b.med, problem, some, contradistinguisht, character, selligueain, cherisht, and, b.m, pells, of_piece, metalic_cylindrical_container, jack_o_lantern, z, mmole, loophole, d_b, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, aviation, vexillographer, foreroom, cor_anglais, j.d, heat_content, give_hand, pronoun, chemical_symbol_for_hydrogen, chemistry, abundant, ab, amnia, descendant, its, lolz, b.s.a, hard, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, e_quaintance, mitochondria, anna, b.compt, guildswoman, t_junction, stereodescriptor, radius, cilia, set_containing_one_element, amplitude, d_shaped, s_shaped, ppbar, pointed, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, bridgmanite, cock_leekie, burnt, goatshair, highland, m.d, business, s's, illo, testosterone, square_meter, new_zealand, w_shaped, last, elemeno, digrest, clg, e, misle, ilka, allies, sphygmo, every, secondary, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, graphophone, west, madam, sports, hawksbeard, jack_napes, dialects, spello, laetrile, bps, abeigh, about, dunam, ocracy, all_gog, point, potato, manosphere, ancient, wide, memoranda, acardiacus_acephalus, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, edrecolomab, watt, d.d, cricket, taking_bus, afternoon, dex, galaxy, diminisht, seventh_letter_of_roman_alphabet, p’s, em, acroatics, economics, miladdo, urano, swounds, ah, efold, m_shaped, mornings, size, also, xe, banned, had, air, possess, b.th, irish, americanize, galactic_coordinate_system, ata, deoxyribose, da, theorem, scotland, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, ff, monoatomic_cation, atomic_nucleus, caught, b_complex_vitamin, æ, holliers, wilkes, g's, oes, list, h’s, b.as, incuba, m'lord, ecstasy, taxable, also_known_as, vulvo, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, even, bethought, luggage, plus, li, long_vowel, hemoglobin, any, b.acy, abasht, f_18, tendu_en_arrière, mathematics, wed, awhape, cross, northern_england, adventure_game, strong_electrolyte, 18mo, universal_donor, slang, backwards, grunsel, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, azure, group_o, strident, fluor, fluorine, disrelisht, tuesday, burnisht, purposes, absorbancy, thyroxine, americo, g_minor, vitamin, hegira, balletomania, against, human, archæo, to, gb, river, e_tard, 2h, canine_letter, per, saxon_genitive, absorbance, acceleration, litho, echeng, la, hotel, beanbag, deduc’t, calendar_terms, svedberg, tee, astonisht, knitting, michigan, mark, estrogen, see_also_es, at_pinch, jocular, it, eiffel, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, porno, d_major, he, ricketts, best, q, activity, apl, stinko, hip_hop_music, marinobufagin, convention, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, panthea, expertise, besought, d’s, uranoso, frame, sxsw, work, bass_clef, bronx, arace, h_beam, meter, avancé, e_thumb, four, percentage_point, toy, infix, anno, army, deuterium, ataxia_telangiectasia, henan, buffet, psepho, zf, f_bomb, b_movie, amateur, b.tech, pneumono, zounds, dialect, drest, ds, hedra, tees, aspirated_h, sixth_letter_of_roman_alphabet, fail, rex, person, coeno, gravitational_constant, address, forwards, over, died, e_head, medial_s, industry, attendance, meta, o_canada, g_sharp, deckt, auxiliary, daunc’t, gs, glass, e_cruitment, cue_ball, i, aircraft, equivalent, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>nitrogen, toonophile, ortho, aud, set_phrase, athwartships, acting, farad, aphobia, anaptyxis, van_der_waals_constant, goals, scalogram, ometry, square_metre, fandom_slang, o_face, constant_of_integration, clansperson, lambdacism, getting_paid, am, air_conditioned, act, b.s.n, proton, short_s, third_person, parsing, agaze, vowel, first, dezh, o_shaped, language, historical, dirhem, account, academy, myctag, amos, type_erasure, 360, megabyte, diastereoisomer, tt, vide, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, rafivirumab, ballet, ante, alphabetic, article, remainder, hydrogen, archeopteryx, balanophagous, nd, b's, w_r_t, cup, soupcon, united_kingdom, group, rosebush, f_minus, n_tert_butyl, damma, data, vv, visarga, double, xiphisternum, interfix, north, high_c, kayo, ll, v’s, level, g_s, letter, robatumumab, penny_sterling, replace, cat, academic, type, diatonic_semitone, estes, before, victim, have_got, aitkins, boron, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, surname, dry_cell_battery, connecter, hb, efungumab, paradigm, man_o_war, svo, embryoniferous, u’s, dram, is, b_minor, count_out, vocative_case, allele, hentai, pee, use, ino, axis, amain, espionage, prototype_based_language, acrita, vagina, clicko, brassiere, double_u, u_tube, gf, dice, ambassador, c’s, team, pound_sterling, finance, c_hole, symbologenic, homœo, p_word, metre, asymmetric, segovia, heroin, ultimata, brewster, bethe, video_game, cœno, comics_character, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, b_sharp, american_library_association, triton, bubnoff_unit, pandean, turn, proscribed, automobile, roentgen, neutron, spat, australian_dollar, d's, micro, hook_n_kill, cajun, water, animanga_character, coenosteum, bel, vocative, b.ed, musical_artist, non_u, note, bye, tier, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, social, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, salt_n_shake, twelvemo, fourth_letter_of_roman_alphabet, april, pork_n_beans, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, pp, aaa, lemalesomab, lexatumumab, cuppa, application, will_o_wisp, n_ary, philippine, television_show, aken, zero, ms, seleno, answer, spectral_class, speako, noons, oyl, gameto, arctic, automata, excuse, gee, titular, libivirumab, sw, accepted, unstressed, run_o_mill, barn, mb, b.a, lurianic, argyro, coulomb, audit, circa, galanthophile, labial, b.mus, moo_u, para, cymoscope, mausolea, eirs, nemato, segrosome, hydrogen_atom, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, megakaryocytopoiesis, thousand, u_boat, seah, en, b.litt, imciromab, pawn, physicotheology, os, pemtumomab, copypasta, falcon, organic_compound, ahold, believe, my, f_hole, compiler, zoö, taxa, green, august, loser_sign, flat, wave_clip, mab, hamiltonian, dead_n_buried, problemo, detumomab, antigen, bit, fish_n_chips, printing, western, atmosphere, pencil, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, n_bomb, austria, dunzo, nebacumab, raguileo_alphabet, speed_of_light, storativity, ha, irc, genitive_case, wynn, nfc, nnw, d100, minor, stade, do_dièse, hunter's_moon, f's, electrical_resistance, the, tibeto, string, mth, phm.b, dextro, warsaw, it's, liter, builder's_mug, c_channel, accidental, miscellaneum, scanno, british, semivowel, f’s, author, in, junonian, keynote, medium, uranium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, lino, statesman, let's, okay, stage, solfege, cmos, rip, b.s, f_shaped, cetera, physics, anecdotum, kuh, m, can_store_food, denmark, angstrom, twelveth_letter_of_roman_alphabet, foravirumab, third_letter_of_roman_alphabet, four_lines, roadway, combo_pass, jackanape, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, transhumanism, l_size, acaulous, hoplo, ell, beeswax, u_rp, academician, gasogen, aa, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, other, mega, hey, be, programming, asqtad, homoio, aglutition, ods, ri, istro, absolute_temperature, titles, b_s, ues, or, u_shaped, argent, talk_to, chromatic_scale, s, make, military, exbivirumab, american, charlie, van, wth, logico, crease, writo, re, ss, athanogene, bisphenol, after, connectogram, gilf, education, maiden_over, statement, viscount, jack_lent, rh, pharmacology, minretumomab, edobacomab, automatic, homoeo, century, pure, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, iso, levo, j, an, back_o_bourke, oh, assist, c_s, ℓ, fictional_character, mac, playoff, javascript, conservative, ecmascript, softography, purkins, videte, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, go_to_market, pip, gomer, l_shaped, ostomy, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, volt, pædo, venipuncture, astragal, dacryohemorrhea, us, cor, value, grade, china, deuteron, survival_horror, amphibian, bullswool, kc, scheme, sec, perrins, group_b, tungsten, est, slut's_wool, from_latin_libra, b, subatomic_particle, jack_dandy, bass, sigmoid, verse, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, mature, hair_clip, year, p_shaped, abiosis, dendro, b_flat, eth, lambert, dioxygen, nacolomab_tafenatox, major, betimes, otw, leonid, b.ch.d, did, anterior, salt, a, lua, has, lvalue, nights, taplitumomab, g_shaped, skainsmate, f_sharp, ga, wiener_dog, d_hole, hs, b.com, triple, with, admiral, d_minor, victor, rating, sanatoria, average, rs, o, ve, all_mort, b.des, pyrrhonist, czechoslovak, football, interconsonantal, second_letter_of_roman_alphabet, phenomena, k_r, euphemism, ancient_greek, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, amphibious, y, mammal, birdsmouth, klecksography, criteria, litre, sithence, celestial_object, absent, cl, weingarten_right, nones, r_shaped, jesus_was_crucified, rix, area, saint, status, unicode, jackanapes, v_neck, neuter, vagino, cervico, b_testing, otl, archaea, regina, proton_hydron, ruby, u, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, rake_n_scrape, corn, lth, drag_n_drop, canonical, pritumumab, absolute, guanine, ing, l_plate, verb, iv, manga, computing, u's, r's, b_♭, mapatumumab, cs, england, linotype, log, curiously_recurring_template_pattern, functional_group, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, taxaphobic, rogers, b.s.l, artery, ours, spherocylindrical, wednesday, sterling, u_turn, lines, reflectoporn, asian, sf_f, œ, singular, januarys, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, emma, fuckabilly, c_shaped, blood, vegas, thing, sulesomab, anothergates, omer, stock_symbol, rat, cancer, toward, beginnings, tcl, polyvinyl_chloride, spearsman, drive, sapon, mass_number, peripherovascular, witness, rf, cycle_of_fifths, valor, euse, v's, belgium, hib, turing_machine, gangster, plantsperson, muography, baulk_line, acre, fourteenth_letter_of_roman_alphabet, necitumumab, empathogen, meetaversary, ns, madalyn, computer_science, drum_n_bass, movie, polynomial_time, issa, country, diptera, r, b.lit, zero_g, actus, intetumumab, anxio, m's, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, hyoid, tilt_whirl, corner_tooth, b.e, er, baseball, association, austroasiatic, d_s, supercee, object, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, g_force, ff_hole, norovirus, b_story, clu, islamic_calendar, employ, set_theory, rock_n_roll, take_l, mc, tositumomab, nyse, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, b.e.e, five_hundred, o’s, can_begin_to_leak, ll.b, besides, costa, homer, republican, women's_christmas, sevirumab, aikens, stop_codon, symbols, folio, auriculo, blogosphere, n's, port_o_john, fitz, nfd, fs, gentleman, u_bolt, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, nae, i18n, available, bs, java, μ, w, ramucirumab, type_b, yo, aitkens, journalism, 1_g, active, black_english_and_slang, biblical, patronymic, au, audio, b.chir, template_metaprogramming, copyright_symbol, cockalorum, nc_17, sarcastic, legal, airplane, f_major, cannabinoid, scale, cola, assault, schwar, piss_like_racehorse, terminology, h's, cobol, admit, urbiscript, b.acc, iii, long_s, denosumab, sx, mho, batsman, córdoba, hulkamania, ma_am, b.math, enharmonic, mother, abbreviation_of'you, electronics, rhotacism, o'clock, stadia, america, bug_boo, doxogenic, alpha_privativum, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, nuevo_sol, bomb, dactinomycin, penny, g_rated, version, terminal_s, v, home, w's, c, external, malloc, np, dog's_letter, indefinite_article, right, aware, cock_hoop, r’s, stl, b_shaped, n’s, ed, s_hole, basketball_league, n_butyl, flute, fora, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, glycopeptidolipid, berkeleio, dateaversary, go, normal, do, sol_fa, multiple_o's, no, s_size, aspect_ratio, entomology, graph, rd, b_final, levulose, sixteenth_letter_of_roman_alphabet, lb, h_shackle, form, toll_road, indicative, coarticulate, pers, set, used_mainly_after_where_here_and_there, christofascist, b.m.e, kenna, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, o_ring, un, break_off, ies, fork, upon, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, doubleyou, kinesiology, computer_languages, aerial, computing_theory, cherubs, fundamental_constant, s’s, decemvirate, word, o'reilly, hulkamaniac, kb, ai, americanization, annus, b.lib, predicted, would, chemical_symbol_of_carbon, 3gl, dx, propoxur, igg, gigabyte, accusative_case, c's, m’s, m_size, particle, ra, snipt, snooker, ü, read, latitude, alotta, acid, male, b.c.e, cannabinol, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, regavirumab, apiece, 50, b_♭_instrument, raxibacumab, pick_n_mix, b’s, pneumato, eye, chemical_symbol_of_oxygen, mitumomab, iratumumab, ii, abaft, ana, ette, medicine, ne, 12mo, law, aweigh, korea, 500, curly_bracket_language, acronym, old_penny, gravo, panobacumab, blood_type, drachm, artificer, robertsman, oto, eighth_letter_of_roman_alphabet, delete, p_complete, mac_n_cheese, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, p_uman, fatha, metacism, gas_constant, air_to_ground, stamulumab, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, darwin, aes, peso, jessa, lucatumumab, iono, chartered_accountant, music, water_spout, gw, sitcom, signore, vanadium, degree_centigrade, k, result, sn, white, australian, arterio, not, b.arch, clitic, software, ball, php, ev, amacrine, airman, bacillus, fathom, b.l.s, nipple, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, toll_highway, wwwww, b.b.a, herpeto, billion, nape, acephalopodia, by_from_home_depot, you, apprentice, t, drop_d, aeronautical_jargon, sulfur, st, dry_storage, base, aviator, n, echonian, parkins, celestial_body, mathmo, r_rated, print_on_printer, on, neighborhood_map, pvc, spliceosome, unsupported_titles_c_sharp, magneto, uracil, chemical_symbol_for_phosphorous, accounts_receivable, molecule, canadian_dollar, acceleration_of_gravity, programming_language, g_major, restaurant, hoodla, v_sign, philo, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, relaxacon, lead, shambolic, annealing, adoors, general, ship, ephah, final, asked, morpheme, noun, class, lev, alexipyretic, transit_card, å, irrevocable, babs, b_side, associate, m'lady, ge, fortran, musea, w5, flatulogenic, pound, monsieur, form_of_vessle, atta, semicircle, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, builder's_tea, biology, grand, quotha, can_return_five_cents, oxygen, superior, d, date, limbo, greengrocer's_apostrophe, inorganic_substance, yes'm, degree_fahrenheit, controlled_vocabulary_types, cyclo, ground, zoöphytology, b.med, newton, problem, some, character, issaron, selligueain, object_oriented_programming, multi, and, panitumumab, b.m, pells, of_piece, metalic_cylindrical_container, jack_o_lantern, z, mmole, loophole, d_b, indefinite, send_criminal_to_prison, uk, supersymmetry, jack_lantern, dilf, y_all'd've, neuropraxia, ess, aviation, vexillographer, foreroom, cor_anglais, j.d, heat_content, give_hand, penlite, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, abundant, ab, gantenerumab, amnia, descendant, its, lolz, b.s.a, hard, peruvian, logic, non_rhotic, before_bee, f_minor, ofatumumab, mitochondria, rust, anna, b.compt, guildswoman, perl, stereodescriptor, radius, cilia, n_gram, set_containing_one_element, amplitude, d_shaped, s_shaped, u_235, ppbar, secretary_problem, pointed, nf, effing_and_blinding, b.sc.n, letter_grade, ne_er, bridgmanite, cock_leekie, goatshair, m.d, business, s's, illo, testosterone, square_meter, new_zealand, w_shaped, last, elemeno, clg, e, misle, ilka, allies, composition, sphygmo, every, secondary, imperative, c.f.r, fraunhofer_line, gev, chromatic_semitone, alfa, graphophone, west, normality, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, spello, laetrile, l’s, cyclone, bps, abeigh, about, dunam, ocracy, all_gog, potato, manosphere, air_conditioner, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, chockablock, company, edrecolomab, watt, d.d, cricket, taking_bus, cab, afternoon, dex, galaxy, u_pick, seventh_letter_of_roman_alphabet, p’s, em, rig, acroatics, economics, duff's_device, hundred, air_conditioning, miladdo, urano, swounds, ah, ls, m_shaped, mornings, size, also, banned, viscountess, had, air, possess, cytosine, b.th, irish, americanize, galactic_coordinate_system, poland, ata, deoxyribose, fifty, da, theorem, scotland, five, horse, aptychus, henry, hydrogen's_chemical_symbol, igm, bliss, abandannaad, afterwards, v_cut, ff, monoatomic_cation, atomic_nucleus, n_shaped, b_complex_vitamin, æ, holliers, wilkes, g's, oes, 5, ub, list, h’s, b.as, incuba, m'lord, vulvo, ack, she, second, alee, container, anonymous, moisturizer, even, n_plex, luggage, ada, plus, li, lethek, long_vowel, hemoglobin, any, b.acy, clothing, f_18, tendu_en_arrière, wed, awhape, northern_england, example_of_programming_language, applicable, adventure_game, strong_electrolyte, kd, universal_donor, slang, backwards, grunsel, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, b.s.e, basic, azure, group_o, strident, fluor, fluorine, upper_class, c_note, panamanian, v_twin, absorbancy, americo, c_suite, g_minor, vitamin, hegira, balletomania, human, archæo, l's, to, gb, v_necked, vs, 2h, canine_letter, per, saxon_genitive, city, versus, tuvirumab, absorbance, acceleration, litho, la, hotel, beanbag, calendar_terms, svedberg, knitting, michigan, mark, n_adic, see_also_es, at_pinch, jocular, computer_language, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, porno, d_major, he, ricketts, best, q, activity, apl, stinko, hip_hop_music, marinobufagin, convention, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, usd, d’s, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, h_beam, meter, avancé, delta_v, four, percentage_point, toy, drill_n_bass, infix, anno, army, v_shaped, deuterium, buffet, psepho, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, dialect, pneumono, zir, ds, hedra, introverted, aspirated_h, sixth_letter_of_roman_alphabet, rex, person, coeno, gravitational_constant, address, forwards, direct_broadcast_satellite, over, died, medial_s, industry, attendance, modius, meta, o_canada, british_film_certificate, g_sharp, auxiliary, gs, glass, emission_theory, düsseldorf, cue_ball, i, aircraft, equivalent, fan_fiction, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python</t>
-  </si>
-  <si>
-    <t>object, chess, of, sulfanylidene, politics, alphanumeric, deoxycytidine_monophosphate, ml, boson, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, athwartships, farad, r_rotunda, ff_hole, anaptyxis, which's, third_letter_of_roman_alphabet, clu, ps, set_theory, builder's_tea, biology, mc, internet_slang, toodles, nyse, oxygen, d, constant_of_integration, clansperson, south, decomposition, lambdacism, limbo, greengrocer's_apostrophe, numeral, inorganic_substance, air_conditioned, degree_fahrenheit, beeswax, besides, short_s, proton, problem, costa, third_person, parsing, vowel, fermion, women's_christmas, blood_group, object_oriented_programming, aikens, stop_codon, symbols, multi, folio, and, other, account, programming, type_erasure, fs, ods, pells, diastereoisomer, titles, motorcycle, procedural_programming_lanuage, perhaps, or, fuck, talk_to, e_♭_instrument, z, chromatic_scale, s, i18n, uk, supersymmetry, java, alphabetic, charlie, remainder, re, ss, aitkens, cor_anglais, soupcon, education, f_minus, cent, chemistry, template_metaprogramming, copyright_symbol, pharmacology, its, xiphisternum, interfix, lolz, sarcastic, high_c, legal, f_major, century, pure, non_rhotic, f_minor, schwar, vitamin_c, letter, cobol, phosphorus, dswounds, rust, replace, urbiscript, long_s, sx, batsman, mho, córdoba, cello, p, diatonic_semitone, estes, guildswoman, perl, j, an, enharmonic, have_got, stereodescriptor, radius, aitkins, c_s, s_shaped, rhotacism, sextodecimo, javascript, ppbar, conservative, ecmascript, p_adic, nuevo_sol, nf, penny, terminal_s, purkins, dry_cell_battery, effing_and_blinding, paradigm, c, external, goatshair, is, malloc, np, dog's_letter, indefinite_article, right, count_out, randomness, oversman, business, s's, new_zealand, r’s, stl, elemeno, e, go_to_market, pee, ed, pip, s_hole, allies, composition, ino, prototype_based_language, secondary, c.f.r, chromatic_semitone, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, coke, first_letter_of_word_chair, 100, axiomatic, hawksbeard, venipuncture, catherine_havasi's_initials, us, go, c’s, grade, cyclone, china, finance, deuteron, kc, c_hole, bullswool, scheme, p_word, sec, perrins, sol_fa, air_conditioner, s_size, no, d_♭, most_vexing_parse, entomology, lulz, segovia, heroin, brewster, company, est, slut's_wool, video_game, b, subatomic_particle, c_minor, cricket, anime, bass, sixteenth_letter_of_roman_alphabet, sigmoid, fujita_scale, p’s, pithers, form, sneaksman, acroatics, shortcut_for_air_conditioning, theirs, aikins, indicative, duff's_device, solfeggio, pers, hundred, air_conditioning, 1000, set, p_shaped, used_mainly_after_where_here_and_there, american_library_association, swounds, ah, triton, b_flat, mornings, proscribed, nonstandard, eth, roentgen, betimes, cytosine, spat, ies, a, upon, solfège, theorem, lua, has, big, lvalue, scotland, nights, n_acetyl_p_aminophenol, musical_artist, skainsmate, f_sharp, computing_theory, cherubs, bliss, afterwards, fundamental_constant, s’s, decemvirate, organic_chemistry, kb, monoclonal_antibody, ff, predicted, chemical_symbol_of_carbon, 3gl, abbreviation, average, dx, rs, o, c's, caravansary, æ, holliers, wilkes, hirs, ra, ub, ve, axiom, interconsonantal, grammar, second, khoum, k_r, descending_s, moisturizer, pp, game, etc, euphemistic, even, pantile, et_seq, pigscot, ada, b_♭_instrument, philippine, long_vowel, television_show, clothing, methamphetamine, f_18, major_scale, spectral_class, y, northern_england, birdsmouth, noons, medicine, law, sithence, example_of_programming_language, excuse, celestial_object, curly_bracket_language, nones, r_shaped, kd, jesus_was_crucified, slang, coulomb, backwards, blood_type, present_tense, c_sharp, saint, robertsman, gentleman's_agreement, unicode, bcpl, p_complete, basic, cc, meadow, strident, circa, electricity, regina, f_instrument, fluor, fluorine, c_note, labial, ruby, alphabet, one, c_major, cad, copenhagen, c_suite, gas_constant, para, tonic, internet, pethers, eirs, canonical, ing, verb, manga, computing, canine_letter, fb, r's, vrykolaka, per, object_oriented_programming_language, peso, saxon_genitive, city, cs, chartered_accountant, music, tradeswoman, sitcom, signore, thousand, curiously_recurring_template_pattern, en, degree_centigrade, pawn, k, boa, physicotheology, os, text_messaging, svedberg, yours, when_it_is_nonstandardly_used_as_relative_pronoun, falcon, rogers, see_also_es, f_hole, computer_language, it, software, compiler, chapter, ours, php, lmfao, flat, deterministic, mab, sf_f, nipple, singular, januarys, fo, p's, he, bit, hers, ricketts, printing, wolf_hook, s_bomb, apl, c_shaped, es, vegas, thing, raguileo_alphabet, speed_of_light, storativity, relaxing, and_so_on, awk, anothergates, stock_symbol, t, drop_d, aeronautical_jargon, sulfur, st, cancer, genitive_case, tcl, nfc, spearsman, base, sxsw, n, cocaine, bass_clef, bronx, rf, parkins, valor, do_dièse, celestial_body, r_rated, belgium, hunter's_moon, percentage_point, toy, f's, unsupported_titles_c_sharp, electrical_resistance, infix, turing_machine, chemical_symbol_for_phosphorous, the, accounts_receivable, string, canadian_dollar, plantsperson, it's, programming_language, zf, f_bomb, builder's_mug, zir, zounds, dialect, movie, polynomial_time, c_channel, are, introverted, l, sixth_letter_of_roman_alphabet, annodated, r, rex, person, british, f’s, forwards, author, f_s, in, pinfall, third_letter_of_alphabet, kudo, medial_s, ashoka, attendance, signor, statesman, morpheme, let's, high_level, gs, stage, babs, cmos, rip, weak_electrolyte, emission_theory, have, düsseldorf, i, aircraft, equivalent, corner_tooth, hors_categorie, king's_man, f_shaped, baseball, ge, fortran, cetera, physics, f, kuh, atta, scampsman, m, supercee, python, denmark</t>
-  </si>
-  <si>
-    <t>nitrogen, toonophile, ortho, aud, set_phrase, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, scalogram, ometry, sincerely, square_metre, t_internet, fandom_slang, o_face, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, act, b.s.n, proton, short_s, kay, third_person, t_piece, parsing, agaze, vowel, first, dezh, o_shaped, language, purchase_cellular_phone, base_of_natural_logarithms, thousands, drencht, historical, dirhem, account, academy, myctag, amos, type_erasure, 360, megabyte, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, rafivirumab, ballet, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, archeopteryx, balanophagous, nd, b's, e_vite, w_r_t, cup, soupcon, united_kingdom, casualty, group, embellisht, rosebush, f_minus, n_tert_butyl, damma, data, visarga, double, dealt, xiphisternum, interfix, north, high_c, kayo, ll, level, g_s, letter, robatumumab, penny_sterling, replace, cat, academic, type, diatonic_semitone, estes, before, e_tail, have_got, belcht, aitkins, boron, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, surname, dry_cell_battery, connecter, hb, efungumab, paradigm, man_o_war, svo, embryoniferous, u’s, kilobyte, dram, is, b_minor, count_out, vocative_case, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, espionage, ok, prototype_based_language, k_pop, acrita, magic_e, tertiary, clicko, brassiere, double_u, u_tube, gf, dice, ambassador, c’s, team, pound_sterling, finance, c_hole, symbologenic, 4chan, homœo, e_shaped, p_word, metre, asymmetric, e’s, segovia, alias, heroin, ultimata, brewster, bethe, video_game, cœno, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, j’s, pandean, turn, proscribed, entertainment, automobile, roentgen, carrying_capacity, neutron, spat, australian_dollar, lose, d's, jth, micro, aberdeen_hook, hook_n_kill, twou'dn't, cajun, water, blest, animanga_character, coenosteum, bel, vocative, b.ed, musical_artist, non_u, note, einsteinium, bye, tier, f_k, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, salt_n_shake, twelvemo, fourth_letter_of_roman_alphabet, april, pork_n_beans, axiom, penalty_arc, la_dièse, grammar, air_branch, kmer, khoum, acardiacus, e_volution, pp, aaa, lemalesomab, annext, lexatumumab, cuppa, bornt, application, will_o_wisp, n_ary, clasht, philippine, time, cropt, kk, aken, television_show, zero, ms, seleno, perfection, answer, were, spectral_class, speako, noons, e_folding, oyl, gameto, arctic, e's, automata, excuse, gee, libivirumab, sw, encroacht, accepted, unstressed, tis, run_o_mill, barn, mb, b.a, lurianic, argyro, coulomb, chirpt, k_hole, audit, distinguisht, circa, e_quainted, galanthophile, labial, b.mus, moo_u, mbta, j_pop, deoxythymidine_monophosphate, para, cymoscope, soul_music, mausolea, eirs, nemato, chink, build_cathedral, segrosome, hydrogen_atom, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, thousand, u_boat, kth, seah, en, b.litt, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, television_station, cleft, falcon, ahold, believe, my, f_hole, compiler, zoö, taxa, politicker, green, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, dead_n_buried, problemo, kolmogorov, detumomab, antigen, bit, fish_n_chips, printing, western, unit, ties, atmosphere, bynempt, pencil, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, n_bomb, austria, dunzo, nebacumab, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, e_sharp, 56k, key, genitive_case, wynn, nfc, nnw, e_tailing, d100, minor, stade, dog, do_dièse, hunter's_moon, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, tibeto, string, frolicker, mth, phm.b, dextro, warsaw, it's, liter, builder's_mug, c_channel, honey_oil, accidental, miscellaneum, emergency, scanno, british, semivowel, f’s, author, in, junonian, keynote, medium, uranium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, lino, statesman, let's, okay, stage, mimicker, solfege, cmos, rip, b.s, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, can_store_food, denmark, angstrom, tert, twelveth_letter_of_roman_alphabet, banisht, foravirumab, third_letter_of_roman_alphabet, four_lines, kilobit, roadway, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, numero_sign, mano_mano, road_transport, decomposition, transhumanism, l_size, acaulous, hoplo, ell, beeswax, ze, bent, u_rp, academician, gasogen, aa, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, other, mega, hey, be, programming, asqtad, homoio, blockt, aglutition, ods, ri, istro, thymine, absolute_temperature, titles, leetspeak, b_s, ues, or, u_shaped, argent, ex, talk_to, chromatic_scale, s, make, military, exbivirumab, american, charlie, wth, logico, crease, writo, re, checkt, ss, k_drama, athanogene, bisphenol, after, connectogram, ebrary, gilf, education, maiden_over, k_shaped, statement, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, iso, levo, saké, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, ℓ, fictional_character, mac, playoff, javascript, cisgender, conservative, tittle, ecmascript, k_rad, softography, curst, purkins, crept, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, go_to_market, pip, gomer, e_tailer, l_shaped, ostomy, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, pædo, k's, venipuncture, astragal, dacryohemorrhea, us, cor, grade, china, kilometres, deuteron, survival_horror, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, tungsten, rhythm_and_blues, est, slut's_wool, from_latin_libra, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, mature, tenth_letter_of_roman_alphabet, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, lambert, dioxygen, nacolomab_tafenatox, major, betimes, otw, leonid, e_form, b.ch.d, did, anterior, salt, a, 4ktro, shanxi, lua, has, neighborhood, lvalue, tesla, nights, taplitumomab, g_shaped, skainsmate, f_sharp, ga, dispossest, japanese, wiener_dog, d_hole, hs, deprest, joule, b.com, triple, with, narration, ketamine, admiral, fifth_letter_of_roman_alphabet, d_minor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, b.des, pyrrhonist, czechoslovak, football, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, mit, ancient_greek, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, hark, y, mammal, birdsmouth, klecksography, criteria, litre, sithence, celestial_object, absent, admonisht, blemisht, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, status, blent, unicode, jackanapes, neuter, vagino, cervico, b_testing, otl, flowering_plant, archaea, regina, proton_hydron, ruby, state, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, rake_n_scrape, corn, lth, drag_n_drop, subway, jay, canonical, teen, absolute, guanine, pritumumab, ing, l_plate, verb, iv, manga, computing, u's, r's, b_♭, mapatumumab, cs, england, linotype, log, curiously_recurring_template_pattern, functional_group, lgbt, astand, kilometre, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, taxaphobic, abolisht, rogers, capital, b.s.l, hearken, artery, crusht, ours, spherocylindrical, wednesday, sterling, u_turn, lines, reflectoporn, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, korean, planck's_constant, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, emma, fuckabilly, c_shaped, blood, vegas, thing, stretch, tween, britain, sulesomab, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, spearsman, drive, sapon, danc’t, mass_number, peripherovascular, witness, rf, cycle_of_fifths, valor, power_pill, euse, belgium, hib, women, esrb_rating, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, muography, baulk_line, accurst, t_square, acre, comprest, fourteenth_letter_of_roman_alphabet, trailer, necitumumab, empathogen, meetaversary, ns, madalyn, computer_science, drum_n_bass, movie, polynomial_time, issa, country, diptera, r, b.lit, zero_g, actus, intetumumab, anxio, m's, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, physicker, cj, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, hyoid, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, austroasiatic, e_road, d_s, taula, supercee, eradiation, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, norovirus, b_story, clu, islamic_calendar, employ, set_theory, rock_n_roll, take_l, mc, tositumomab, nyse, variant, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, o’s, b.e.e, can_begin_to_leak, jj, ll.b, besides, costa, homer, republican, women's_christmas, sevirumab, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, n's, port_o_john, fitz, nfd, fs, gentleman, u_bolt, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, nae, i18n, available, bs, java, μ, w, ramucirumab, bought, street_slang, type_b, yo, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, patronymic, au, audio, vector, template_metaprogramming, b.chir, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, cannabinoid, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, terminology, h's, cobol, admit, urbiscript, b.acc, iii, long_s, denosumab, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, b.math, enharmonic, mother, abbreviation_of'you, electronics, rhotacism, o'clock, stadia, america, bug_boo, ock, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, terminal_s, v, home, w's, kamiltonian, c, external, malloc, np, dog's_letter, indefinite_article, right, aware, super_c, electronic, dwelt, cock_hoop, r’s, stl, elaborate, 401k, b_shaped, n’s, ed, s_hole, basketball_league, n_butyl, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, go, normal, do, sol_fa, attacht, enravisht, multiple_o's, no, s_size, aspect_ratio, entomology, sie, graph, rd, approacht, b_final, levulose, sixteenth_letter_of_roman_alphabet, lb, h_shackle, they, form, toll_road, indicative, basketball, coarticulate, pers, set, anticker, natural_logarithm, used_mainly_after_where_here_and_there, christofascist, ks, b.m.e, kenna, kilo, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, o_ring, un, break_off, ies, fork, upon, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, doubleyou, kinesiology, computer_languages, confest, exponential, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, o'reilly, hulkamaniac, yot, kb, ai, americanization, annus, b.lib, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, propoxur, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, particle, ra, snooker, ü, read, latitude, alotta, acid, perfectly, brought, singer_songwriter, male, askt, b.c.e, cannabinol, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, regavirumab, apiece, 50, dript, b_♭_instrument, raxibacumab, pick_n_mix, b’s, marijuana, pneumato, australia, eye, chemical_symbol_of_oxygen, mitumomab, iratumumab, ii, abaft, ana, ette, medicine, ne, 12mo, law, aweigh, korea, hydraulic_conductivity, 500, curly_bracket_language, j_shaped, acronym, old_penny, gravo, panobacumab, blood_type, drachm, artificer, cigarette, robertsman, oto, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, mac_n_cheese, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, p_uman, fatha, metacism, gas_constant, air_to_ground, stamulumab, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, darwin, aes, peso, besprent, jessa, lucatumumab, iono, chartered_accountant, music, water_spout, gw, sitcom, signore, lost, degree_centigrade, k, result, sn, white, australian, arterio, not, musicker, b.arch, clitic, software, ball, php, amacrine, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, wwwww, b.b.a, super_acid, herpeto, billion, information_services_and_technology, nape, acephalopodia, by_from_home_depot, you, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, echonian, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, spliceosome, unsupported_titles_c_sharp, magneto, uracil, chemical_symbol_for_phosphorous, accounts_receivable, molecule, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, restaurant, hoodla, philo, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, lead, shambolic, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, morpheme, noun, class, lev, scale_height, alexipyretic, transit_card, open, å, irrevocable, th, babs, t_pose, tritium, b_side, associate, clipt, m'lady, ge, fortran, musea, w5, excrescence, pound, flatulogenic, monsieur, form_of_vessle, atta, semicircle, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, postnominal, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, history, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, js, oxygen, superior, d, date, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, degree_fahrenheit, cyclo, ground, zoöphytology, b.med, newton, problem, some, contradistinguisht, character, issaron, selligueain, object_oriented_programming, cherisht, multi, and, panitumumab, b.m, pells, of_piece, metalic_cylindrical_container, jack_o_lantern, z, mmole, loophole, d_b, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, bbs, aviation, vexillographer, foreroom, cor_anglais, j.d, heat_content, give_hand, penlite, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, abundant, ab, gantenerumab, amnia, descendant, its, lolz, b.s.a, hard, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, e_quaintance, ofatumumab, mitochondria, rust, anna, b.compt, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, n_gram, set_containing_one_element, k’s, amplitude, d_shaped, s_shaped, u_235, ppbar, secretary_problem, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, twink, bridgmanite, cock_leekie, burnt, goatshair, highland, m.d, business, s's, illo, testosterone, square_meter, panicker, new_zealand, w_shaped, last, elemeno, kelvin, eleventh_letter_of_roman_alphabet, digrest, clg, e, misle, ilka, allies, composition, sphygmo, every, secondary, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, graphophone, west, normality, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, spello, laetrile, l’s, cyclone, bps, abeigh, about, dunam, ocracy, all_gog, point, potato, manosphere, air_conditioner, ancient, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, edrecolomab, watt, d.d, cricket, taking_bus, cab, afternoon, ⓚ, dex, galaxy, u_pick, diminisht, seventh_letter_of_roman_alphabet, p’s, em, rig, acroatics, economics, duff's_device, hundred, air_conditioning, miladdo, urano, swounds, ah, ls, efold, m_shaped, master_of_ceremonies, mornings, size, also, xe, banned, had, air, possess, cytosine, b.th, irish, americanize, galactic_coordinate_system, poland, ata, deoxyribose, fifty, da, theorem, scotland, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, special_k, ff, monoatomic_cation, atomic_nucleus, n_shaped, caught, b_complex_vitamin, æ, holliers, wilkes, g's, oes, ub, list, h’s, b.as, incuba, m'lord, ecstasy, taxable, also_known_as, vulvo, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, n_plex, luggage, ada, plus, li, lethek, long_vowel, hemoglobin, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, wed, awhape, cross, northern_england, example_of_programming_language, applicable, adventure_game, strong_electrolyte, 18mo, kd, universal_donor, slang, backwards, grunsel, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, group_o, strident, fluor, fluorine, upper_class, disrelisht, c_note, tuesday, panamanian, burnisht, purposes, absorbancy, thyroxine, americo, c_suite, g_minor, vitamin, hegira, balletomania, si, against, human, archæo, l's, contract, potassium, to, gb, river, e_tard, 2h, canine_letter, per, saxon_genitive, city, tuvirumab, absorbance, acceleration, litho, echeng, la, hotel, beanbag, deduc’t, j_drama, calendar_terms, svedberg, tee, astonisht, knitting, jack, michigan, mark, n_adic, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, porno, d_major, he, ricketts, best, q, activity, apl, stinko, hip_hop_music, marinobufagin, convention, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, expertise, usd, besought, d’s, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, jet, h_beam, meter, avancé, e_thumb, four, percentage_point, toy, drill_n_bass, infix, anno, army, deuterium, ataxia_telangiectasia, henan, buffet, psepho, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, dialect, drest, pneumono, ds, hedra, tees, introverted, aspirated_h, sixth_letter_of_roman_alphabet, fail, rex, person, coeno, gravitational_constant, address, forwards, cat_valium, direct_broadcast_satellite, over, died, e_head, medial_s, industry, attendance, modius, meta, o_canada, british_film_certificate, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, j's, fan_fiction, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>nitrogen, toonophile, ortho, aud, set_phrase, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, scalogram, ometry, sincerely, square_metre, t_internet, fandom_slang, o_face, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, act, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, dezh, o_shaped, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, dirhem, account, academy, myctag, amos, type_erasure, 360, megabyte, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, ballet, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, archeopteryx, balanophagous, nd, b's, e_vite, w_r_t, cup, soupcon, casualty, group, embellisht, rosebush, f_minus, n_tert_butyl, data, visarga, double, dealt, xiphisternum, interfix, north, high_c, kayo, ll, level, g_s, letter, penny_sterling, replace, cat, academic, type, diatonic_semitone, estes, before, e_tail, have_got, belcht, aitkins, boron, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, surname, dry_cell_battery, connecter, hb, paradigm, man_o_war, svo, embryoniferous, dram, is, b_minor, count_out, vocative_case, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, prototype_based_language, acrita, magic_e, tertiary, clicko, brassiere, double_u, gf, dice, ambassador, c’s, team, pound_sterling, finance, c_hole, symbologenic, 4chan, homœo, e_shaped, p_word, metre, asymmetric, e’s, segovia, heroin, ultimata, brewster, bethe, video_game, cœno, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, pandean, turn, proscribed, entertainment, automobile, roentgen, neutron, spat, australian_dollar, lose, d's, hook_n_kill, twou'dn't, cajun, water, blest, animanga_character, coenosteum, bel, vocative, b.ed, musical_artist, note, einsteinium, bye, tier, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, salt_n_shake, twelvemo, fourth_letter_of_roman_alphabet, april, pork_n_beans, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, lemalesomab, annext, cuppa, bornt, application, will_o_wisp, n_ary, clasht, philippine, time, cropt, television_show, aken, zero, ms, seleno, perfection, answer, were, spectral_class, speako, noons, e_folding, oyl, gameto, arctic, e's, automata, gee, sw, encroacht, accepted, unstressed, tis, run_o_mill, barn, mb, b.a, lurianic, argyro, coulomb, chirpt, audit, distinguisht, circa, e_quainted, galanthophile, labial, b.mus, mbta, deoxythymidine_monophosphate, para, cymoscope, mausolea, eirs, nemato, build_cathedral, segrosome, hydrogen_atom, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, thousand, seah, en, b.litt, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, television_station, cleft, falcon, ahold, believe, my, f_hole, compiler, zoö, taxa, green, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, dead_n_buried, problemo, kolmogorov, detumomab, antigen, bit, fish_n_chips, printing, western, ties, atmosphere, bynempt, pencil, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, n_bomb, austria, dunzo, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, e_sharp, genitive_case, wynn, nfc, nnw, e_tailing, d100, minor, stade, do_dièse, hunter's_moon, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, tibeto, string, mth, phm.b, dextro, warsaw, it's, liter, builder's_mug, c_channel, accidental, miscellaneum, emergency, scanno, british, semivowel, f’s, author, in, junonian, keynote, medium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, lino, statesman, let's, okay, stage, solfege, cmos, rip, b.s, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, denmark, can_store_food, angstrom, tert, twelveth_letter_of_roman_alphabet, banisht, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, transhumanism, l_size, acaulous, hoplo, ell, beeswax, ze, bent, academician, gasogen, aa, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, other, mega, hey, be, programming, asqtad, homoio, blockt, aglutition, ods, ri, istro, thymine, absolute_temperature, titles, b_s, or, argent, ex, talk_to, chromatic_scale, s, make, military, american, charlie, wth, logico, crease, writo, re, checkt, ss, athanogene, bisphenol, after, connectogram, ebrary, gilf, education, maiden_over, statement, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, iso, levo, saké, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, ℓ, fictional_character, mac, playoff, javascript, cisgender, conservative, tittle, ecmascript, softography, curst, purkins, crept, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, go_to_market, pip, gomer, e_tailer, l_shaped, ostomy, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, pædo, venipuncture, astragal, dacryohemorrhea, us, cor, grade, china, deuteron, survival_horror, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, tungsten, est, slut's_wool, from_latin_libra, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, mature, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, lambert, dioxygen, nacolomab_tafenatox, major, betimes, otw, leonid, e_form, b.ch.d, did, anterior, salt, a, shanxi, lua, has, neighborhood, lvalue, tesla, nights, taplitumomab, g_shaped, skainsmate, f_sharp, ga, dispossest, wiener_dog, d_hole, hs, deprest, b.com, triple, with, admiral, fifth_letter_of_roman_alphabet, d_minor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, b.des, pyrrhonist, czechoslovak, football, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, mit, ancient_greek, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, klecksography, criteria, litre, sithence, celestial_object, absent, admonisht, blemisht, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, status, blent, unicode, jackanapes, neuter, vagino, cervico, b_testing, otl, flowering_plant, archaea, regina, proton_hydron, ruby, state, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, rake_n_scrape, corn, lth, drag_n_drop, subway, canonical, teen, absolute, guanine, ing, l_plate, verb, iv, manga, computing, r's, b_♭, cs, england, linotype, log, curiously_recurring_template_pattern, functional_group, lgbt, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, taxaphobic, abolisht, rogers, capital, b.s.l, artery, crusht, ours, spherocylindrical, wednesday, sterling, lines, reflectoporn, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, emma, fuckabilly, c_shaped, blood, vegas, thing, stretch, tween, sulesomab, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, spearsman, drive, sapon, danc’t, mass_number, peripherovascular, witness, rf, cycle_of_fifths, power_pill, euse, belgium, hib, women, esrb_rating, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, muography, baulk_line, accurst, t_square, acre, comprest, fourteenth_letter_of_roman_alphabet, trailer, empathogen, meetaversary, ns, madalyn, computer_science, drum_n_bass, movie, polynomial_time, issa, country, diptera, r, b.lit, zero_g, actus, anxio, m's, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, e_road, d_s, taula, supercee, eradiation, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, norovirus, b_story, clu, islamic_calendar, employ, set_theory, rock_n_roll, take_l, mc, tositumomab, nyse, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, o’s, b.e.e, can_begin_to_leak, ll.b, besides, costa, homer, republican, women's_christmas, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, n's, port_o_john, fitz, nfd, fs, gentleman, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, nae, i18n, available, bs, java, w, bought, street_slang, type_b, yo, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, patronymic, au, audio, b.chir, template_metaprogramming, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, cannabinoid, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, terminology, h's, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, b.math, enharmonic, mother, electronics, rhotacism, o'clock, stadia, america, bug_boo, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, terminal_s, w's, c, external, malloc, np, dog's_letter, indefinite_article, right, aware, electronic, dwelt, cock_hoop, r’s, stl, elaborate, b_shaped, n’s, ed, s_hole, basketball_league, n_butyl, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, go, normal, do, sol_fa, attacht, enravisht, multiple_o's, no, s_size, aspect_ratio, entomology, sie, graph, rd, approacht, b_final, levulose, sixteenth_letter_of_roman_alphabet, lb, h_shackle, they, form, indicative, basketball, coarticulate, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, christofascist, b.m.e, kenna, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, o_ring, un, break_off, ies, fork, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, doubleyou, kinesiology, computer_languages, confest, exponential, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, o'reilly, hulkamaniac, kb, ai, americanization, annus, b.lib, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, propoxur, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, particle, ra, snooker, latitude, alotta, acid, perfectly, brought, male, askt, b.c.e, cannabinol, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, apiece, 50, dript, b_♭_instrument, pick_n_mix, b’s, pneumato, australia, chemical_symbol_of_oxygen, mitumomab, ii, abaft, ana, ette, medicine, ne, 12mo, law, aweigh, korea, 500, curly_bracket_language, acronym, old_penny, gravo, blood_type, drachm, artificer, robertsman, oto, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, mac_n_cheese, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, fatha, metacism, gas_constant, air_to_ground, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, darwin, aes, peso, besprent, jessa, iono, chartered_accountant, music, water_spout, gw, sitcom, signore, lost, degree_centigrade, k, result, sn, white, australian, arterio, not, b.arch, clitic, software, ball, php, amacrine, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, wwwww, b.b.a, herpeto, billion, information_services_and_technology, nape, acephalopodia, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, echonian, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, spliceosome, unsupported_titles_c_sharp, magneto, chemical_symbol_for_phosphorous, accounts_receivable, molecule, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, restaurant, hoodla, philo, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, lead, shambolic, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, morpheme, noun, class, lev, scale_height, alexipyretic, transit_card, open, å, th, babs, t_pose, tritium, b_side, associate, clipt, m'lady, ge, fortran, musea, w5, excrescence, pound, flatulogenic, monsieur, form_of_vessle, atta, semicircle, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, history, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, degree_fahrenheit, cyclo, ground, zoöphytology, b.med, newton, problem, some, contradistinguisht, character, issaron, selligueain, object_oriented_programming, cherisht, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, jack_o_lantern, z, mmole, loophole, d_b, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, aviation, vexillographer, foreroom, cor_anglais, j.d, heat_content, give_hand, penlite, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, abundant, ab, amnia, descendant, its, lolz, b.s.a, hard, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, e_quaintance, mitochondria, rust, anna, b.compt, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, n_gram, set_containing_one_element, amplitude, d_shaped, s_shaped, ppbar, secretary_problem, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, bridgmanite, cock_leekie, burnt, goatshair, highland, m.d, business, s's, illo, testosterone, square_meter, new_zealand, w_shaped, last, elemeno, digrest, clg, e, misle, ilka, allies, composition, sphygmo, every, secondary, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, graphophone, west, normality, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, spello, laetrile, l’s, cyclone, bps, abeigh, about, dunam, ocracy, all_gog, point, potato, manosphere, air_conditioner, ancient, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, edrecolomab, watt, d.d, cricket, taking_bus, cab, afternoon, dex, galaxy, diminisht, seventh_letter_of_roman_alphabet, p’s, em, rig, acroatics, economics, duff's_device, hundred, air_conditioning, miladdo, urano, swounds, ah, ls, efold, m_shaped, mornings, size, also, xe, banned, had, air, possess, cytosine, b.th, irish, americanize, galactic_coordinate_system, poland, ata, deoxyribose, fifty, da, theorem, scotland, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, ff, monoatomic_cation, atomic_nucleus, n_shaped, caught, b_complex_vitamin, æ, holliers, wilkes, g's, oes, ub, list, h’s, b.as, incuba, m'lord, ecstasy, taxable, also_known_as, vulvo, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, n_plex, luggage, ada, plus, li, lethek, long_vowel, hemoglobin, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, wed, awhape, cross, northern_england, example_of_programming_language, applicable, adventure_game, strong_electrolyte, 18mo, kd, universal_donor, slang, backwards, grunsel, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, group_o, strident, fluor, fluorine, disrelisht, c_note, tuesday, panamanian, burnisht, purposes, absorbancy, thyroxine, americo, c_suite, g_minor, vitamin, hegira, balletomania, against, human, archæo, l's, to, gb, river, e_tard, 2h, canine_letter, per, saxon_genitive, city, absorbance, acceleration, litho, echeng, la, hotel, beanbag, deduc’t, calendar_terms, svedberg, tee, astonisht, knitting, michigan, mark, n_adic, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, porno, d_major, he, ricketts, best, q, activity, apl, stinko, hip_hop_music, marinobufagin, convention, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, expertise, besought, d’s, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, h_beam, meter, avancé, e_thumb, four, percentage_point, toy, drill_n_bass, infix, anno, army, deuterium, ataxia_telangiectasia, henan, buffet, psepho, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, drest, dialect, pneumono, ds, hedra, tees, introverted, aspirated_h, sixth_letter_of_roman_alphabet, fail, rex, person, coeno, gravitational_constant, address, forwards, direct_broadcast_satellite, over, died, e_head, medial_s, industry, attendance, modius, meta, o_canada, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, fan_fiction, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>nitrogen, toonophile, ortho, aud, set_phrase, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, scalogram, ometry, sincerely, square_metre, t_internet, fandom_slang, o_face, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, algol, act, non_sequituri, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, dezh, o_shaped, language, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, dirhem, account, academy, man, myctag, amos, type_erasure, 360, megabyte, diastereoisomer, tt, vide, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, rafivirumab, ballet, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, archeopteryx, balanophagous, nd, b's, e_vite, w_r_t, cup, soupcon, united_kingdom, casualty, group, embellisht, rosebush, f_minus, n_tert_butyl, damma, data, vv, visarga, double, dealt, xiphisternum, interfix, writer, north, high_c, kayo, ll, v’s, level, g_s, letter, robatumumab, penny_sterling, replace, kasra, cat, academic, type, diatonic_semitone, estes, before, e_tail, victim, have_got, belcht, aitkins, i’s, boron, subject, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, surname, meaning, dry_cell_battery, connecter, hb, efungumab, paradigm, man_o_war, svo, embryoniferous, u’s, dram, is, b_minor, count_out, vocative_case, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, espionage, prototype_based_language, acrita, magic_e, tertiary, vagina, miserabilist, clicko, brassiere, double_u, u_tube, gf, dice, ambassador, nisba, c’s, team, pound_sterling, finance, c_hole, symbologenic, 4chan, homœo, personal, e_shaped, p_word, metre, ious, asymmetric, e’s, segovia, heroin, ultimata, brewster, bethe, video_game, cœno, comics_character, you_and, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, pandean, turn, proscribed, entertainment, automobile, hypercorrection, roentgen, neutron, spat, australian_dollar, roman_numeral, lose, d's, micro, proverb, hook_n_kill, twou'dn't, cajun, water, blest, perpendicular_pronoun, animanga_character, coenosteum, bel, vocative, b.ed, musical_artist, non_u, note, i_don't_care, einsteinium, bye, tier, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, salt_n_shake, twelvemo, fourth_letter_of_roman_alphabet, india, april, pork_n_beans, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, lemalesomab, annext, lexatumumab, cuppa, bornt, application, will_o_wisp, n_ary, first_person, clasht, philippine, time, cropt, television_show, aken, zero, ms, seleno, perfection, answer, were, spectral_class, speako, noons, e_folding, oyl, gameto, arctic, e's, automata, excuse, gee, titular, libivirumab, sw, encroacht, accepted, unstressed, tis, run_o_mill, barn, mb, b.a, lurianic, argyro, coulomb, iferous, sr, chirpt, audit, distinguisht, circa, e_quainted, galanthophile, labial, i_ship, b.mus, moo_u, ngl, mbta, deoxythymidine_monophosphate, ignominy, para, cymoscope, mausolea, eirs, nemato, build_cathedral, segrosome, hydrogen_atom, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, equiangular, thousand, u_boat, seah, en, b.litt, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, sentences, television_station, cleft, falcon, organic_compound, ahold, believe, my, f_hole, compiler, zoö, taxa, green, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, dead_n_buried, problemo, kolmogorov, detumomab, antigen, bit, fish_n_chips, printing, western, ties, atmosphere, bynempt, pencil, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, nay, n_bomb, austria, dunzo, nebacumab, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, e_sharp, i'll've, genitive_case, wynn, nfc, nnw, e_tailing, d100, minor, stade, do_dièse, hunter's_moon, ignore, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, tibeto, string, mth, phm.b, dextro, warsaw, it's, liter, builder's_mug, c_channel, accidental, i'd, miscellaneum, emergency, scanno, hebdomadiversary, british, semivowel, ego, author, f’s, in, junonian, keynote, medium, uranium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, i_and_i, lino, statesman, let's, okay, stage, solfege, cmos, rip, b.s, me_pronoun, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, denmark, can_store_food, angstrom, tert, twelveth_letter_of_roman_alphabet, ich, banisht, foravirumab, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, chill, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, transhumanism, l_size, acaulous, hoplo, ell, beeswax, me_reference, ze, bent, u_rp, academician, gasogen, aa, sudoriferous, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, palochka, other, mega, hey, be, programming, asqtad, homoio, blockt, aglutition, ods, ri, istro, thymine, absolute_temperature, titles, b_s, ues, or, u_shaped, argent, ex, talk_to, chromatic_scale, s, self, make, military, exbivirumab, ihood, american, charlie, van, wth, logico, crease, writo, re, checkt, ss, athanogene, bisphenol, after, connectogram, ebrary, gilf, education, maiden_over, oic, statement, viscount, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, i_wiss, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, iso, yours_truly, levo, saké, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, ℓ, single, fictional_character, mac, playoff, javascript, cisgender, self_me, self_reference, conservative, tittle, ecmascript, softography, curst, purkins, videte, crept, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, linking_vowel, go_to_market, pip, gomer, e_tailer, l_shaped, ostomy, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, volt, pædo, venipuncture, astragal, dacryohemorrhea, us, cor, value, grade, china, deuteron, survival_horror, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, tungsten, est, slut's_wool, from_latin_libra, me_subject, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, verse, um, bee, john_dreams, pithers, number, shortcut_for_air_conditioning, ragamuffin, mature, i'm, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, lambert, dioxygen, nacolomab_tafenatox, imac, major, betimes, otw, leonid, e_form, b.ch.d, did, anterior, salt, a, shanxi, lua, has, neighborhood, lvalue, tesla, nights, i'se, taplitumomab, g_shaped, skainsmate, f_sharp, ga, dispossest, wiener_dog, d_hole, hs, deprest, b.com, triple, i's, with, admiral, fifth_letter_of_roman_alphabet, d_minor, victor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, b.des, pyrrhonist, czechoslovak, football, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, euphemism, ancient_greek, mit, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, klecksography, criteria, litre, sithence, me, celestial_object, absent, cl, admonisht, blemisht, weingarten_right, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, status, subjective, blent, unicode, jackanapes, v_neck, neuter, vagino, cervico, b_testing, otl, flowering_plant, archaea, regina, proton_hydron, ruby, state, u, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, rake_n_scrape, corn, lth, drag_n_drop, subway, canonical, teen, absolute, guanine, pritumumab, ing, l_plate, verb, iv, manga, computing, u's, r's, b_♭, mapatumumab, cs, england, linotype, log, curiously_recurring_template_pattern, functional_group, lgbt, astand, boa, bloviate, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, pronouns, taxaphobic, abolisht, rogers, capital, b.s.l, inorite, urbicidal, artery, crusht, ours, spherocylindrical, wednesday, sterling, u_turn, lines, reflectoporn, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, speaker, emma, fuckabilly, c_shaped, blood, vegas, i_ness, thing, stretch, tween, sulesomab, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, polyvinyl_chloride, spearsman, drive, sapon, danc’t, mass_number, peripherovascular, witness, rf, cycle_of_fifths, valor, power_pill, euse, v's, belgium, hib, women, esrb_rating, ch, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, muography, baulk_line, accurst, t_square, acre, comprest, fourteenth_letter_of_roman_alphabet, trailer, firs_person, necitumumab, empathogen, meetaversary, ns, madalyn, computer_science, drum_n_bass, movie, polynomial_time, issa, country, diptera, r, b.lit, cutting_edge, zero_g, actus, intetumumab, anxio, m's, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, i_hood, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, i_beam, hyoid, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, austroasiatic, e_road, d_s, taula, supercee, eradiation, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, norovirus, b_story, clu, islamic_calendar, employ, set_theory, rock_n_roll, take_l, mc, tositumomab, nyse, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, o’s, b.e.e, can_begin_to_leak, ll.b, besides, ownership, costa, homer, grammatical, republican, women's_christmas, sevirumab, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, n's, port_o_john, fitz, nfd, fs, gentleman, u_bolt, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, nae, i18n, available, bs, java, μ, w, apple, ramucirumab, bought, street_slang, type_b, yo, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, patronymic, au, metaphysics, audio, b.chir, template_metaprogramming, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, cannabinoid, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, terminology, h's, cobol, admit, urbiscript, b.acc, iii, long_s, denosumab, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, interstate, b.math, enharmonic, mother, abbreviation_of'you, electronics, rhotacism, o'clock, stadia, america, bug_boo, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, version, terminal_s, v, home, w's, c, external, i'll, malloc, np, dog's_letter, indefinite_article, right, aware, electronic, dwelt, cock_hoop, r’s, stl, elaborate, b_shaped, n’s, ed, s_hole, basketball_league, n_butyl, flute, fora, twere, aunt, muggins, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, go, normal, do, sol_fa, attacht, enravisht, multiple_o's, no, s_size, aspect_ratio, entomology, sie, graph, rd, approacht, b_final, myself, levulose, sixteenth_letter_of_roman_alphabet, lb, h_shackle, they, form, toll_road, indicative, basketball, coarticulate, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, christofascist, b.m.e, kenna, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, o_ring, un, break_off, fashionable, ies, fork, upon, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, doubleyou, kinesiology, computer_languages, confest, exponential, aerial, computing_theory, stan, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, o'reilly, hulkamaniac, kb, ai, meaning_me, americanization, annus, b.lib, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, propoxur, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, 1, particle, ra, snipt, snooker, ü, read, latitude, alotta, and_eye, acid, ninth, perfectly, brought, male, askt, b.c.e, cannabinol, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, regavirumab, apiece, 50, dript, b_♭_instrument, raxibacumab, pick_n_mix, b’s, pneumato, australia, eye, chemical_symbol_of_oxygen, mitumomab, iratumumab, ii, i've, abaft, ana, ette, subjective_pronoun, medicine, ne, 12mo, law, aweigh, korea, 500, curly_bracket_language, acronym, old_penny, gravo, identification, panobacumab, blood_type, drachm, artificer, i'ven't, idollator, robertsman, oto, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, mac_n_cheese, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, p_uman, fatha, metacism, gas_constant, air_to_ground, afaiu, i'd've, stamulumab, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, darwin, aes, peso, besprent, ignoble, jessa, lucatumumab, iono, chartered_accountant, music, water_spout, gw, sitcom, signore, vanadium, lost, degree_centigrade, k, result, sn, cinema, white, australian, arterio, not, b.arch, clitic, software, sentence, ball, php, ev, amacrine, idren, ith, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, wwwww, b.b.a, herpeto, billion, information_services_and_technology, nape, acephalopodia, by_from_home_depot, you, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, ify, dry_storage, base, aviator, n, echonian, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, pvc, spliceosome, unsupported_titles_c_sharp, magneto, uracil, chemical_symbol_for_phosphorous, accounts_receivable, molecule, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, iyaric, restaurant, hoodla, v_sign, philo, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, lead, shambolic, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, morpheme, noun, class, lev, scale_height, alexipyretic, transit_card, open, å, irrevocable, th, auri, babs, t_pose, tritium, b_side, associate, clipt, zymosimeter, pronoun_me, m'lady, ge, fortran, almost, musea, w5, excrescence, pound, flatulogenic, monsieur, form_of_vessle, atta, semicircle, description, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, number_one, ps, first_alphabet, history, my_ass, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, iration, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, controlled_vocabulary_types, degree_fahrenheit, cyclo, ground, zoöphytology, b.med, newton, problem, some, contradistinguisht, character, issaron, selligueain, digital, object_oriented_programming, cherisht, multi, and, panitumumab, b.m, pells, of_piece, metalic_cylindrical_container, jamaica, jack_o_lantern, z, mmole, loophole, d_b, egocentric, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, aviation, vexillographer, foreroom, cor_anglais, j.d, heat_content, give_hand, penlite, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, referred, abundant, ab, gantenerumab, amnia, descendant, its, lolz, b.s.a, hard, peruvian, deictic, i_shaped, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, e_quaintance, ofatumumab, mitochondria, rust, anna, b.compt, equi, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, n_gram, set_containing_one_element, amplitude, d_shaped, s_shaped, u_235, ppbar, secretary_problem, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, bridgmanite, cock_leekie, burnt, goatshair, highland, m.d, business, s's, illo, testosterone, square_meter, new_zealand, w_shaped, last, elemeno, digrest, clg, e, misle, ilka, allies, composition, sphygmo, every, secondary, imperative, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, graphophone, iwantone, capitol, west, normality, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, spello, laetrile, ital, iform, l’s, cyclone, bps, abeigh, about, dunam, ocracy, all_gog, point, potato, manosphere, air_conditioner, ancient, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, edrecolomab, watt, d.d, dotless_i, itinually, cricket, taking_bus, cab, afternoon, i'dn't've, dex, galaxy, u_pick, diminisht, seventh_letter_of_roman_alphabet, p’s, em, rig, acroatics, economics, duff's_device, hundred, air_conditioning, like_me, miladdo, urano, swounds, ah, ls, efold, m_shaped, roman, mornings, size, also, xe, banned, viscountess, had, air, possess, cytosine, b.th, self_description, irish, americanize, iodine, galactic_coordinate_system, poland, ata, deoxyribose, fifty, da, theorem, scotland, five, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, v_cut, one_person, ff, personal_identification, monoatomic_cation, atomic_nucleus, n_shaped, caught, b_complex_vitamin, æ, holliers, wilkes, g's, oes, 5, ub, list, h’s, b.as, incuba, m'lord, ecstasy, nosism, taxable, also_known_as, vulvo, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, n_plex, luggage, ada, plus, li, lethek, long_vowel, hemoglobin, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, wed, awhape, cross, northern_england, example_of_programming_language, applicable, adventure_game, strong_electrolyte, 18mo, kd, inity, universal_donor, slang, backwards, grunsel, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, group_o, strident, fluor, fluorine, egocentric_pronoun, upper_class, disrelisht, c_note, tuesday, panamanian, burnisht, v_twin, almost_me, purposes, absorbancy, thyroxine, americo, c_suite, g_minor, vitamin, hegira, balletomania, against, human, archæo, l's, to, gb, v_necked, vs, river, e_tard, 2h, canine_letter, per, firs, saxon_genitive, city, versus, tuvirumab, absorbance, acceleration, litho, echeng, la, hotel, beanbag, deduc’t, like, calendar_terms, svedberg, tee, astonisht, knitting, michigan, mark, n_adic, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, porno, d_major, he, ricketts, best, q, activity, lyrical_i, apl, stinko, hip_hop_music, marinobufagin, convention, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, expertise, rexx, usd, besought, d’s, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, h_beam, meter, avancé, e_thumb, delta_v, four, percentage_point, toy, drill_n_bass, infix, anno, army, v_shaped, deuterium, personal_pronoun, ataxia_telangiectasia, henan, buffet, psepho, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, dialect, drest, pneumono, zir, ds, hedra, tees, introverted, aspirated_h, sixth_letter_of_roman_alphabet, fail, rex, person, coeno, gravitational_constant, address, forwards, direct_broadcast_satellite, over, single_alphabet, died, e_head, medial_s, industry, attendance, modius, meta, o_canada, british_film_certificate, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, fan_fiction, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>semicircle, condenst, tert, of, politics, deoxycytidine_monophosphate, ml, banisht, ceast, foravirumab, t_zone, g_force, third_letter_of_roman_alphabet, tesh, clu, goals, encreast, t's, nb, dispenst, grand, sincerely, addrest, internet_slang, t_internet, nyse, d, constant_of_integration, topology, decomposition, absorpt, limbo, advanc’t, numeral, inorganic_substance, air_conditioned, five_hundred, ground, bent, u_rp, costa, some, contradistinguisht, t_piece, vowel, dezh, object_oriented_programming, sevirumab, language, stop_codon, symbols, multi, cherisht, gangsta, drencht, technical_foul, other, programming, account, dirhem, type_erasure, nfd, gentleman, panitumumab, blockt, diastereoisomer, thymine, u_bolt, precisely, titles, procedural_programming_lanuage, ues, u_shaped, z, e_♭_instrument, rafivirumab, ts, chromatic_scale, s, exbivirumab, uk, java, begot, was, dilf, charlie, w, μ, y_all'd've, ramucirumab, bought, beset, equipt, checkt, nd, 1_g, soupcon, j.d, united_kingdom, gilf, embellisht, education, down_to_t, cent, damma, template_metaprogramming, gantenerumab, copyright_symbol, empoverisht, 24mo, double, pharmacology, dealt, xtianity, nc_17, high_c, legal, dropt, hard, century, attackt, bereft, pitch_perfect, ll, t’s, vitamin_c, g_s, letter, ofatumumab, robatumumab, rust, cobol, penny_sterling, urbiscript, denosumab, sx, nail, chaussé'd, cello, tg, córdoba, p, diatonic_semitone, perl, t_junction, j, enharmonic, stereodescriptor, belcht, vicesimo_quarto, abbreviation_of'you, c_s, electronics, d_shaped, u_235, javascript, cisgender, conservative, clept, tittle, ecmascript, encampt, dactinomycin, nf, penny, g_rated, curst, twouldn't, v, home, dry_cell_battery, efungumab, paradigm, c, external, u’s, burnt, crept, is, malloc, dram, m.d, round, business, testosterone, t_splice, dwelt, twasn't, elemeno, stl, digrest, e, clg, ed, misle, regards, composition, egotist, espionage, c.f.r, chromatic_semitone, gev, nationality, twere, t_shirt, assembly_language, carbon, tertiary, coke, 100, sports, first_letter_of_word_chair, dialects, occupation, catherine_havasi's_initials, u_tube, us, gf, built, dice, go, c’s, cyclone, china, finance, survival_horror, deuteron, do, kc, c_hole, 4chan, point, hausdorff, sol_fa, attacht, enravisht, air_conditioner, d_♭, most_vexing_parse, entomology, t_group, clapt, rd, company, scantily_clad, video_game, b, approacht, d.d, c_minor, yt, anime, dex, seent, galaxy, sigmoid, u_pick, diminisht, seventh_letter_of_roman_alphabet, shortcut_for_air_conditioning, toll_road, economics, basketball, duff's_device, dipt, football_pitch, air_conditioning, solfeggio, hundred, 1000, set, sports_statistic, disjoint, bleacht, dreamt, triton, b_flat, pandean, turn, nonstandard, entertainment, had, possess, cytosine, otw, g’s, did, lose, d's, break_off, ies, micro, a, upon, solfège, twou'dn't, da, blest, lua, neighborhood, lvalue, tesla, g_shaped, musical_artist, non_u, computer_languages, confest, dispossest, ga, t_shaped, d_hole, exactly, bliss, crasht, fundamental_constant, decemvirate, deprest, organic_chemistry, transsexual, kb, monoclonal_antibody, transmissivity, would, chemical_symbol_of_carbon, 3gl, d_minor, abbreviation, dx, average, igg, o, gigabyte, caught, c's, g's, brusht, ub, snooker, ü, twelvemo, read, ve, fourth_letter_of_roman_alphabet, perfectly, brought, taxable, penalty_arc, askt, football, worn_on_nose, grammar, kamatz, k_r, mit, moisturizer, game, etc, people'd, gram, bethought, annext, lexatumumab, bornt, ada, regavirumab, b_♭_instrument, dript, clasht, long_vowel, time, cropt, raxibacumab, clothing, abasht, major_scale, were, perfection, spectral_class, gravity, triiodothyronine, eye, iratumumab, y, northern_england, cross, law, example_of_programming_language, 12mo, excuse, gee, libivirumab, encroacht, tis, 500, admonisht, curly_bracket_language, blemisht, adventure_game, 18mo, kd, old_penny, jesus_was_crucified, slang, coulomb, panobacumab, developt, diceroll, drachm, c_sharp, chirpt, blent, unicode, bcpl, rail_transport, basic, cc, distinguisht, otl, circa, force_unit, electricity, upper_class, f_instrument, disrelisht, c_note, alphabet, ruby, tuesday, c_major, moo_u, cad, burnisht, mbta, p_uman, thyroxine, c_suite, air_to_ground, deoxythymidine_monophosphate, g_minor, stamulumab, avoucht, until_february_1971, tonic, internet, subway, against, human, canonical, pritumumab, teen, guanine, gb, verb, build_cathedral, darwin, computing, u's, object_oriented_programming_language, city, besprent, mapatumumab, lucatumumab, cs, chartered_accountant, music, accomplisht, tuvirumab, lost, thousand, u_boat, curiously_recurring_template_pattern, en, degree_centigrade, deduc’t, saint_anthony's_cross, boa, metric_ton, sn, os, transgender, text_messaging, tee, astonisht, cleft, falcon, abolisht, computer_language, it, eiffel, chapter, compiler, crusht, php, green, flat, fréchet, u_turn, mab, vitamin_d, kolmogorov, ob, d_major, statistic_reporting_number_of_games_that_player_has_participated_in, treble_clef, bit, brandisht, ties, bynempt, c_shaped, es, information_services_and_technology, nebacumab, raguileo_alphabet, speed_of_light, by_from_home_depot, you, thing, eclipst, tween, ambusht, and_so_on, awk, twas, expertise, stock_symbol, t, usd, drop_d, aeronautical_jargon, reporting, dismist, st, besought, cancer, d’s, tcl, nfc, d100, n, cocaine, danc’t, valor, do_dièse, disestablisht, r_rated, anguisht, belgium, women, ratings, embost, blusht, unsupported_titles_c_sharp, uracil, infix, enforc’t, the, canadian_dollar, deuterium, gangster, dextro, acceleration_of_gravity, baulk_line, accurst, ataxia_telangiectasia, t_square, programming_language, comprest, trailer, g_major, necitumumab, denounc’t, ds, drest, dialect, d_sharp, movie, are, c_channel, introverted, tees, l, r, person, zero_g, british, gravitational_constant, demolisht, intetumumab, third_letter_of_alphabet, died, uranium, general, ashoka, attendance, british_film_certificate, g_sharp, deckt, daunc’t, high_level, open, gs, th, irrevocable, t_pose, cmos, deoxyguanosine_monophosphate, tritium, emission_theory, düsseldorf, cue_ball, have, i, aircraft, clipt, hyoid, baseball, t_stop, ge, fortran, cetera, begat, excrescence, physics, austroasiatic, f, kuh, atta, dislik’t, d_s, taula, m, supercee, python</t>
-  </si>
-  <si>
-    <t>aud, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, sincerely, square_metre, t_internet, fandom_slang, constant_of_integration, eddress, clansperson, getting_paid, am, air_conditioned, act, b.s.n, proton, short_s, third_person, t_piece, agaze, vowel, first, dezh, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, dirhem, account, academy, amos, type_erasure, megabyte, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, ballet, ante, alphabetic, there, was, article, hydrogen, equipt, nd, b's, e_vite, cup, soupcon, casualty, group, embellisht, f_minus, data, visarga, double, dealt, xiphisternum, interfix, high_c, ll, level, g_s, letter, penny_sterling, replace, cat, academic, type, diatonic_semitone, estes, before, e_tail, have_got, belcht, aitkins, boron, a440, a's, sextodecimo, annually, adenine, p_adic, dry_cell_battery, connecter, hb, paradigm, dram, is, b_minor, count_out, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, acrita, magic_e, tertiary, brassiere, gf, dice, ambassador, c’s, team, finance, c_hole, 4chan, e_shaped, p_word, metre, asymmetric, e’s, segovia, heroin, ultimata, brewster, bethe, video_game, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, pandean, turn, proscribed, entertainment, automobile, spat, australian_dollar, lose, d's, twou'dn't, cajun, water, blest, bel, b.ed, musical_artist, einsteinium, bye, tier, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, caravansary, hirs, twelvemo, fourth_letter_of_roman_alphabet, april, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, annext, cuppa, bornt, application, clasht, philippine, time, cropt, aken, ms, perfection, answer, were, spectral_class, noons, e_folding, arctic, e's, automata, gee, encroacht, accepted, tis, barn, mb, b.a, coulomb, chirpt, audit, distinguisht, circa, e_quainted, labial, b.mus, mbta, deoxythymidine_monophosphate, para, mausolea, eirs, build_cathedral, hydrogen_atom, fb, frigga, breadth, vrykolaka, administration, object_oriented_programming_language, tradeswoman, accomplisht, thousand, en, b.litt, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, transgender, copypasta, television_station, cleft, falcon, ahold, believe, my, f_hole, compiler, taxa, green, august, flat, wave_clip, fréchet, mab, hamiltonian, kolmogorov, bit, printing, ties, atmosphere, bynempt, pencil, thirteenth_letter_of_roman_alphabet, es, austria, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, e_sharp, genitive_case, nfc, e_tailing, d100, minor, stade, do_dièse, hunter's_moon, ratings, gelfond's_constant, f's, shi, the, string, mth, phm.b, dextro, it's, builder's_mug, c_channel, accidental, miscellaneum, emergency, british, semivowel, f’s, author, in, keynote, medium, vis_vis, ashoka, accommodation, age, signor, ae, statesman, let's, stage, solfege, cmos, rip, b.s, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, denmark, can_store_food, angstrom, tert, banisht, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, mano_mano, decomposition, transhumanism, acaulous, beeswax, ze, bent, academician, aa, fermion, b.comm, blood_group, atomic_weight, gangsta, other, mega, be, programming, asqtad, blockt, aglutition, ods, ri, thymine, absolute_temperature, titles, b_s, or, argent, ex, talk_to, chromatic_scale, s, make, military, american, charlie, crease, re, checkt, ss, athanogene, bisphenol, after, ebrary, gilf, education, maiden_over, statement, jack_lent, 24mo, pharmacology, xtianity, automatic, century, pure, bereft, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, alto, nail, chaussé'd, cello, p, saké, j, an, vicesimo_quarto, assist, c_s, ℓ, fictional_character, playoff, javascript, cisgender, conservative, tittle, ecmascript, curst, purkins, crept, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, pip, e_tailer, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, venipuncture, astragal, us, grade, china, deuteron, survival_horror, amphibian, bullswool, kc, hausdorff, sec, perrins, group_b, est, slut's_wool, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, mature, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, b_flat, eth, major, betimes, otw, e_form, b.ch.d, did, anterior, a, shanxi, lua, has, neighborhood, lvalue, tesla, nights, g_shaped, skainsmate, f_sharp, ga, dispossest, wiener_dog, d_hole, hs, deprest, b.com, triple, admiral, fifth_letter_of_roman_alphabet, d_minor, rating, sanatoria, average, o, ethyl, ve, all_mort, b.des, football, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, mit, h_shaped, gram, pigscot, rackarock, neura, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, criteria, sithence, celestial_object, absent, admonisht, blemisht, nones, jesus_was_crucified, developt, rix, primary_care, area, saint, status, blent, unicode, jackanapes, b_testing, flowering_plant, otl, archaea, proton_hydron, ruby, state, bacteria, colossea, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, subway, canonical, teen, absolute, guanine, ing, verb, iv, manga, computing, b_♭, cs, england, curiously_recurring_template_pattern, lgbt, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, taxaphobic, abolisht, rogers, capital, b.s.l, artery, crusht, ours, lines, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, wolf_hook, s_bomb, emma, fuckabilly, c_shaped, vegas, thing, stretch, tween, twas, anothergates, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, spearsman, drive, danc’t, mass_number, rf, cycle_of_fifths, power_pill, euse, belgium, hib, women, esrb_rating, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, baulk_line, accurst, t_square, acre, comprest, trailer, meetaversary, madalyn, computer_science, movie, polynomial_time, issa, country, diptera, r, b.lit, zero_g, actus, m's, pinfall, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, e_road, d_s, taula, supercee, eradiation, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, b_story, clu, islamic_calendar, employ, set_theory, mc, nyse, anecdota, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, b.e.e, can_begin_to_leak, ll.b, besides, costa, women's_christmas, aikens, stop_codon, symbols, folio, technical_foul, port_o_john, nfd, fs, gentleman, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, ts, i18n, available, bs, java, w, bought, street_slang, type_b, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, au, b.chir, template_metaprogramming, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, attackt, scale, cola, assault, piss_like_racehorse, vitamin_e, h's, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, b.math, enharmonic, mother, electronics, stadia, america, bug_boo, alpha_privativum, clept, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, terminal_s, c, external, malloc, np, indefinite_article, aware, electronic, dwelt, cock_hoop, stl, elaborate, b_shaped, ed, s_hole, basketball_league, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, preposition, occupation, dateaversary, built, go, do, sol_fa, attacht, enravisht, s_size, no, aspect_ratio, entomology, sie, graph, rd, approacht, b_final, sixteenth_letter_of_roman_alphabet, lb, h_shackle, they, form, indicative, basketball, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, b.m.e, kenna, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, un, break_off, ies, fork, solfège, exhibit, big, n_acetyl_p_aminophenol, computer_languages, confest, exponential, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, transsexual, hulkamaniac, kb, ai, americanization, annus, b.lib, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, ra, snooker, latitude, alotta, acid, perfectly, brought, male, askt, b.c.e, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, apiece, b_♭_instrument, dript, b’s, australia, ii, abaft, ana, ette, medicine, 12mo, law, aweigh, 500, curly_bracket_language, acronym, old_penny, blood_type, drachm, artificer, robertsman, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, fatha, metacism, air_to_ground, b_school, tonic, astronomy, internet, pethers, semitone, darwin, aes, peso, besprent, jessa, chartered_accountant, music, water_spout, signore, lost, degree_centigrade, k, result, sn, australian, not, b.arch, clitic, software, ball, php, amacrine, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, b.b.a, billion, information_services_and_technology, acephalopodia, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, parkins, celestial_body, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, unsupported_titles_c_sharp, chemical_symbol_for_phosphorous, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, restaurant, hoodla, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, f_s, demolisht, relaxacon, lead, annealing, adoors, general, ship, polymyxin_e, final, asked, morpheme, class, scale_height, alexipyretic, transit_card, open, å, th, babs, t_pose, tritium, b_side, associate, clipt, m'lady, ge, fortran, musea, excrescence, monsieur, form_of_vessle, atta, semicircle, of, politics, deoxycytidine_monophosphate, ml, boson, ace, quanta, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, history, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, degree_fahrenheit, ground, b.med, problem, some, contradistinguisht, character, selligueain, object_oriented_programming, cherisht, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, z, mmole, loophole, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, aviation, foreroom, cor_anglais, j.d, heat_content, give_hand, pronoun, chemical_symbol_for_hydrogen, cent, chemistry, abundant, ab, amnia, its, lolz, b.s.a, hard, logic, pitch_perfect, f_minor, before_bee, t’s, e_quaintance, mitochondria, rust, anna, b.compt, guildswoman, perl, t_junction, stereodescriptor, cilia, set_containing_one_element, amplitude, d_shaped, s_shaped, ppbar, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, cock_leekie, burnt, goatshair, highland, m.d, business, s's, square_meter, testosterone, new_zealand, last, elemeno, digrest, clg, e, misle, ilka, allies, composition, every, secondary, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, cyclone, bps, abeigh, about, dunam, all_gog, point, potato, air_conditioner, ancient, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, d.d, cricket, taking_bus, afternoon, dex, galaxy, diminisht, seventh_letter_of_roman_alphabet, p’s, em, acroatics, economics, duff's_device, hundred, air_conditioning, swounds, ah, efold, m_shaped, mornings, size, also, xe, banned, had, air, possess, cytosine, b.th, americanize, galactic_coordinate_system, ata, deoxyribose, da, theorem, scotland, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, ff, monoatomic_cation, atomic_nucleus, caught, b_complex_vitamin, æ, holliers, wilkes, g's, ub, list, h’s, b.as, incuba, m'lord, ecstasy, taxable, also_known_as, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, luggage, ada, plus, li, long_vowel, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, awhape, cross, northern_england, example_of_programming_language, adventure_game, strong_electrolyte, 18mo, kd, slang, backwards, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, strident, fluor, fluorine, disrelisht, c_note, tuesday, burnisht, purposes, absorbancy, thyroxine, c_suite, g_minor, vitamin, hegira, against, human, to, gb, river, e_tard, 2h, per, saxon_genitive, city, absorbance, acceleration, echeng, hotel, beanbag, deduc’t, calendar_terms, svedberg, tee, astonisht, knitting, michigan, mark, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, d_major, he, ricketts, best, q, activity, apl, hip_hop_music, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, and_so_on, panthea, awk, expertise, besought, d’s, frame, sxsw, cocaine, bass_clef, bronx, arace, h_beam, meter, avancé, e_thumb, four, percentage_point, infix, anno, army, deuterium, ataxia_telangiectasia, henan, buffet, zf, f_bomb, b_movie, amateur, b.tech, zounds, drest, dialect, ds, hedra, tees, introverted, aspirated_h, sixth_letter_of_roman_alphabet, fail, person, gravitational_constant, address, forwards, died, e_head, medial_s, industry, attendance, meta, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>nitrogen, toonophile, ortho, aud, set_phrase, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, scalogram, ometry, sincerely, square_metre, t_internet, fandom_slang, o_face, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, algol, act, non_sequituri, b.s.n, proton, short_s, kay, third_person, t_piece, parsing, agaze, vowel, first, dezh, o_shaped, language, purchase_cellular_phone, base_of_natural_logarithms, thousands, drencht, historical, dirhem, account, academy, man, amos, type_erasure, 360, megabyte, diastereoisomer, tt, vide, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, rafivirumab, ballet, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, archeopteryx, balanophagous, nd, b's, e_vite, cup, soupcon, united_kingdom, casualty, group, embellisht, rosebush, f_minus, n_tert_butyl, damma, data, vv, visarga, double, dealt, xiphisternum, interfix, writer, north, high_c, kayo, ll, v’s, level, g_s, letter, robatumumab, penny_sterling, replace, kasra, cat, academic, type, diatonic_semitone, estes, before, e_tail, victim, have_got, belcht, aitkins, i’s, boron, subject, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, surname, meaning, dry_cell_battery, connecter, hb, efungumab, paradigm, man_o_war, svo, embryoniferous, u’s, kilobyte, dram, is, b_minor, count_out, vocative_case, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, espionage, ok, prototype_based_language, acrita, magic_e, tertiary, vagina, miserabilist, clicko, brassiere, u_tube, gf, dice, ambassador, nisba, c’s, team, pound_sterling, finance, c_hole, symbologenic, 4chan, homœo, personal, e_shaped, p_word, metre, ious, asymmetric, e’s, segovia, alias, heroin, ultimata, brewster, bethe, video_game, cœno, comics_character, you_and, c_minor, yt, half_crown, amp, anime, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, pandean, turn, proscribed, entertainment, automobile, hypercorrection, roentgen, carrying_capacity, neutron, spat, australian_dollar, roman_numeral, lose, d's, micro, proverb, hook_n_kill, twou'dn't, cajun, water, blest, perpendicular_pronoun, animanga_character, coenosteum, bel, vocative, b.ed, musical_artist, non_u, note, i_don't_care, einsteinium, bye, tier, f_k, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, salt_n_shake, twelvemo, fourth_letter_of_roman_alphabet, india, april, pork_n_beans, axiom, penalty_arc, la_dièse, grammar, air_branch, kmer, khoum, acardiacus, e_volution, pp, aaa, lemalesomab, annext, lexatumumab, cuppa, bornt, application, will_o_wisp, n_ary, first_person, clasht, philippine, time, cropt, kk, aken, television_show, zero, ms, seleno, perfection, answer, were, spectral_class, speako, noons, e_folding, oyl, gameto, arctic, e's, automata, excuse, gee, titular, libivirumab, sw, encroacht, accepted, unstressed, tis, run_o_mill, barn, mb, b.a, lurianic, argyro, coulomb, iferous, sr, chirpt, k_hole, audit, distinguisht, circa, e_quainted, galanthophile, labial, i_ship, b.mus, moo_u, ngl, mbta, j_pop, deoxythymidine_monophosphate, ignominy, para, cymoscope, mausolea, eirs, nemato, chink, build_cathedral, segrosome, hydrogen_atom, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, equiangular, thousand, u_boat, kth, seah, en, b.litt, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, sentences, television_station, cleft, falcon, organic_compound, ahold, believe, my, f_hole, compiler, zoö, taxa, politicker, green, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, dead_n_buried, problemo, kolmogorov, detumomab, antigen, bit, fish_n_chips, printing, ties, atmosphere, bynempt, pencil, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, nay, n_bomb, austria, dunzo, nebacumab, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, e_sharp, 56k, i'll've, key, genitive_case, nfc, e_tailing, d100, minor, stade, dog, do_dièse, hunter's_moon, ignore, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, tibeto, string, frolicker, mth, phm.b, dextro, warsaw, it's, liter, builder's_mug, c_channel, honey_oil, accidental, i'd, miscellaneum, emergency, scanno, hebdomadiversary, british, semivowel, ego, author, f’s, in, junonian, keynote, medium, uranium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, i_and_i, lino, statesman, let's, okay, stage, mimicker, solfege, cmos, rip, b.s, me_pronoun, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, denmark, can_store_food, angstrom, tert, twelveth_letter_of_roman_alphabet, ich, banisht, foravirumab, third_letter_of_roman_alphabet, four_lines, kilobit, roadway, encreast, combo_pass, nb, dispenst, jackanape, chill, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, transhumanism, l_size, acaulous, hoplo, ell, beeswax, me_reference, ze, bent, u_rp, academician, gasogen, aa, sudoriferous, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, palochka, other, mega, hey, be, programming, asqtad, homoio, blockt, aglutition, ods, ri, istro, thymine, absolute_temperature, titles, leetspeak, b_s, ues, or, u_shaped, argent, ex, talk_to, chromatic_scale, s, self, make, military, exbivirumab, ihood, american, charlie, van, logico, crease, writo, re, checkt, ss, k_drama, athanogene, bisphenol, after, connectogram, ebrary, gilf, education, maiden_over, oic, k_shaped, statement, viscount, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, i_wiss, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, iso, yours_truly, levo, saké, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, ℓ, single, fictional_character, mac, playoff, javascript, cisgender, self_me, self_reference, conservative, tittle, ecmascript, k_rad, softography, curst, purkins, videte, crept, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, linking_vowel, go_to_market, pip, gomer, e_tailer, l_shaped, ostomy, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, volt, pædo, k's, venipuncture, astragal, dacryohemorrhea, us, cor, value, grade, china, kilometres, deuteron, survival_horror, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, est, slut's_wool, from_latin_libra, me_subject, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, verse, um, bee, john_dreams, pithers, number, shortcut_for_air_conditioning, ragamuffin, mature, i'm, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, lambert, dioxygen, nacolomab_tafenatox, imac, major, betimes, otw, leonid, e_form, b.ch.d, did, anterior, salt, a, 4ktro, shanxi, lua, has, neighborhood, lvalue, tesla, nights, i'se, taplitumomab, g_shaped, skainsmate, f_sharp, ga, dispossest, wiener_dog, d_hole, hs, deprest, b.com, triple, i's, ketamine, admiral, fifth_letter_of_roman_alphabet, d_minor, victor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, b.des, pyrrhonist, czechoslovak, football, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, euphemism, ancient_greek, mit, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, hark, y, mammal, birdsmouth, klecksography, criteria, litre, sithence, me, celestial_object, absent, cl, admonisht, blemisht, weingarten_right, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, status, subjective, blent, unicode, jackanapes, v_neck, neuter, vagino, cervico, b_testing, otl, flowering_plant, archaea, regina, proton_hydron, ruby, state, u, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, rake_n_scrape, corn, lth, drag_n_drop, subway, jay, canonical, teen, absolute, guanine, pritumumab, ing, l_plate, verb, iv, manga, computing, u's, r's, b_♭, mapatumumab, cs, england, linotype, log, curiously_recurring_template_pattern, functional_group, lgbt, astand, kilometre, boa, bloviate, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, pronouns, taxaphobic, abolisht, rogers, capital, b.s.l, inorite, hearken, urbicidal, artery, crusht, ours, spherocylindrical, sterling, u_turn, lines, reflectoporn, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, korean, planck's_constant, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, speaker, emma, fuckabilly, c_shaped, blood, vegas, i_ness, thing, stretch, tween, sulesomab, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, polyvinyl_chloride, spearsman, drive, sapon, danc’t, mass_number, peripherovascular, rf, cycle_of_fifths, valor, power_pill, euse, v's, belgium, hib, women, esrb_rating, ch, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, muography, baulk_line, accurst, t_square, acre, comprest, fourteenth_letter_of_roman_alphabet, trailer, firs_person, necitumumab, empathogen, meetaversary, ns, madalyn, computer_science, drum_n_bass, movie, polynomial_time, issa, country, diptera, r, b.lit, cutting_edge, zero_g, actus, intetumumab, anxio, m's, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, i_hood, ephemera, deoxyadenosine_monophosphate, high_level, physicker, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, i_beam, hyoid, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, austroasiatic, e_road, d_s, taula, supercee, eradiation, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, norovirus, b_story, clu, islamic_calendar, employ, set_theory, rock_n_roll, take_l, mc, tositumomab, nyse, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, o’s, b.e.e, can_begin_to_leak, ll.b, besides, ownership, costa, homer, grammatical, women's_christmas, sevirumab, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, n's, port_o_john, fitz, nfd, fs, gentleman, u_bolt, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, ts, nae, i18n, available, bs, java, μ, w, apple, ramucirumab, bought, street_slang, type_b, yo, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, patronymic, au, metaphysics, audio, b.chir, template_metaprogramming, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, cannabinoid, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, terminology, h's, cobol, admit, urbiscript, b.acc, iii, long_s, denosumab, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, interstate, b.math, enharmonic, mother, abbreviation_of'you, electronics, rhotacism, o'clock, stadia, america, ock, bug_boo, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, version, terminal_s, v, home, kamiltonian, c, external, i'll, malloc, np, dog's_letter, indefinite_article, right, aware, super_c, electronic, dwelt, cock_hoop, r’s, stl, elaborate, 401k, b_shaped, n’s, ed, s_hole, basketball_league, n_butyl, flute, fora, twere, aunt, muggins, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, go, normal, do, sol_fa, attacht, enravisht, multiple_o's, no, s_size, aspect_ratio, entomology, sie, graph, rd, approacht, b_final, myself, levulose, sixteenth_letter_of_roman_alphabet, lb, h_shackle, they, form, toll_road, indicative, basketball, pers, set, anticker, natural_logarithm, used_mainly_after_where_here_and_there, christofascist, ks, b.m.e, kenna, kilo, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, o_ring, un, break_off, fashionable, ies, fork, upon, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, kinesiology, computer_languages, confest, exponential, aerial, computing_theory, stan, cherubs, crasht, fundamental_constant, s’s, decemvirate, transsexual, o'reilly, hulkamaniac, kb, ai, meaning_me, americanization, annus, b.lib, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, propoxur, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, 1, particle, ra, snipt, snooker, ü, read, latitude, alotta, and_eye, acid, ninth, perfectly, brought, male, askt, b.c.e, cannabinol, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, regavirumab, apiece, 50, dript, b_♭_instrument, raxibacumab, pick_n_mix, b’s, pneumato, australia, eye, chemical_symbol_of_oxygen, mitumomab, iratumumab, ii, i've, abaft, ana, ette, subjective_pronoun, medicine, ne, 12mo, law, aweigh, korea, hydraulic_conductivity, 500, curly_bracket_language, acronym, old_penny, gravo, identification, panobacumab, blood_type, drachm, artificer, i'ven't, idollator, robertsman, oto, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, mac_n_cheese, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, p_uman, fatha, metacism, gas_constant, air_to_ground, afaiu, i'd've, stamulumab, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, semitone, operator, darwin, aes, peso, besprent, ignoble, jessa, lucatumumab, iono, chartered_accountant, music, water_spout, sitcom, signore, vanadium, lost, degree_centigrade, k, result, sn, cinema, australian, arterio, not, musicker, b.arch, clitic, software, sentence, ball, php, ev, amacrine, idren, ith, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, b.b.a, super_acid, herpeto, billion, information_services_and_technology, nape, acephalopodia, by_from_home_depot, you, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, ify, dry_storage, base, aviator, n, echonian, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, pvc, spliceosome, unsupported_titles_c_sharp, magneto, uracil, chemical_symbol_for_phosphorous, accounts_receivable, molecule, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, iyaric, restaurant, hoodla, v_sign, philo, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, lead, shambolic, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, morpheme, noun, class, lev, scale_height, alexipyretic, transit_card, open, å, irrevocable, th, auri, babs, t_pose, tritium, b_side, associate, clipt, zymosimeter, pronoun_me, m'lady, ge, fortran, almost, musea, excrescence, flatulogenic, pound, monsieur, form_of_vessle, atta, semicircle, description, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, number_one, ps, first_alphabet, history, my_ass, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, iration, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, controlled_vocabulary_types, degree_fahrenheit, cyclo, ground, zoöphytology, b.med, newton, problem, some, contradistinguisht, character, issaron, selligueain, digital, object_oriented_programming, cherisht, multi, and, panitumumab, b.m, pells, of_piece, metalic_cylindrical_container, jamaica, jack_o_lantern, z, mmole, loophole, d_b, egocentric, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, bbs, aviation, vexillographer, foreroom, cor_anglais, j.d, heat_content, give_hand, penlite, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, referred, abundant, ab, gantenerumab, amnia, descendant, its, lolz, b.s.a, hard, peruvian, deictic, i_shaped, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, e_quaintance, ofatumumab, mitochondria, rust, anna, b.compt, equi, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, n_gram, set_containing_one_element, k’s, amplitude, d_shaped, s_shaped, u_235, ppbar, secretary_problem, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, twink, bridgmanite, cock_leekie, burnt, goatshair, highland, m.d, business, s's, illo, testosterone, square_meter, panicker, new_zealand, last, elemeno, kelvin, eleventh_letter_of_roman_alphabet, digrest, clg, e, misle, ilka, allies, composition, sphygmo, every, secondary, imperative, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, graphophone, iwantone, capitol, normality, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, spello, laetrile, ital, iform, l’s, cyclone, bps, abeigh, about, dunam, ocracy, all_gog, point, potato, manosphere, air_conditioner, ancient, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, edrecolomab, dotless_i, d.d, itinually, cricket, taking_bus, cab, afternoon, ⓚ, i'dn't've, dex, galaxy, u_pick, diminisht, seventh_letter_of_roman_alphabet, p’s, em, rig, acroatics, economics, duff's_device, hundred, air_conditioning, like_me, miladdo, urano, swounds, ah, ls, efold, m_shaped, roman, mornings, size, also, xe, banned, viscountess, had, air, possess, cytosine, b.th, self_description, irish, americanize, iodine, galactic_coordinate_system, poland, ata, deoxyribose, fifty, da, theorem, scotland, five, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, special_k, v_cut, one_person, ff, personal_identification, monoatomic_cation, atomic_nucleus, n_shaped, caught, b_complex_vitamin, æ, holliers, wilkes, g's, oes, 5, ub, list, h’s, b.as, incuba, m'lord, ecstasy, nosism, taxable, also_known_as, vulvo, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, n_plex, luggage, ada, plus, li, lethek, long_vowel, hemoglobin, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, awhape, cross, northern_england, example_of_programming_language, applicable, adventure_game, strong_electrolyte, 18mo, kd, inity, universal_donor, slang, backwards, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, group_o, strident, fluor, fluorine, egocentric_pronoun, upper_class, disrelisht, c_note, tuesday, panamanian, burnisht, v_twin, almost_me, purposes, absorbancy, thyroxine, americo, c_suite, g_minor, vitamin, hegira, balletomania, si, against, human, archæo, l's, contract, potassium, to, gb, v_necked, vs, river, e_tard, 2h, canine_letter, per, firs, saxon_genitive, city, versus, tuvirumab, absorbance, acceleration, litho, echeng, la, hotel, beanbag, deduc’t, like, calendar_terms, svedberg, tee, astonisht, knitting, michigan, mark, n_adic, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, porno, d_major, he, ricketts, best, q, activity, lyrical_i, apl, stinko, hip_hop_music, marinobufagin, convention, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, expertise, rexx, usd, besought, d’s, uranoso, frame, sxsw, cocaine, bass_clef, bronx, arace, jet, h_beam, meter, avancé, e_thumb, delta_v, four, percentage_point, toy, drill_n_bass, infix, anno, army, v_shaped, deuterium, personal_pronoun, ataxia_telangiectasia, henan, buffet, psepho, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, dialect, drest, pneumono, zir, ds, hedra, tees, introverted, aspirated_h, sixth_letter_of_roman_alphabet, fail, rex, person, coeno, gravitational_constant, address, forwards, cat_valium, direct_broadcast_satellite, over, single_alphabet, died, e_head, medial_s, industry, attendance, modius, meta, o_canada, british_film_certificate, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, fan_fiction, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>toonophile, ortho, aud, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, scalogram, ometry, sincerely, t_internet, fandom_slang, o_face, constant_of_integration, clansperson, lambdacism, getting_paid, air_conditioned, act, short_s, proton, third_person, t_piece, agaze, vowel, first, o_shaped, drencht, historical, dirhem, account, academy, myctag, amos, type_erasure, 360, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, ante, alphabetic, was, article, hydrogen, equipt, archeopteryx, balanophagous, w_r_t, cup, soupcon, group, embellisht, f_minus, data, visarga, double, dealt, xiphisternum, interfix, high_c, kayo, level, g_s, letter, replace, cat, academic, type, diatonic_semitone, estes, before, have_got, belcht, aitkins, a440, a's, sextodecimo, annually, adenine, p_adic, surname, dry_cell_battery, connecter, hb, paradigm, man_o_war, svo, dram, is, count_out, vocative_case, allele, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, acrita, tertiary, clicko, brassiere, double_u, gf, ambassador, c’s, team, finance, c_hole, symbologenic, 4chan, homœo, p_word, asymmetric, segovia, heroin, ultimata, cœno, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, coenoblast, sneaksman, theirs, aikins, algorithm, solfeggio, adjusted, sports_statistic, bleacht, american_library_association, triton, turn, proscribed, entertainment, automobile, spat, australian_dollar, lose, twou'dn't, cajun, water, blest, coenosteum, vocative, musical_artist, bohdanowiczite, organic_chemistry, monoclonal_antibody, social, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, april, axiom, la_dièse, grammar, air_branch, khoum, acardiacus, pp, aaa, lemalesomab, annext, cuppa, bornt, application, will_o_wisp, clasht, philippine, time, cropt, aken, zero, seleno, perfection, answer, were, spectral_class, speako, noons, oyl, gameto, arctic, automata, excuse, gee, encroacht, accepted, unstressed, tis, run_o_mill, argyro, coulomb, chirpt, audit, distinguisht, circa, galanthophile, labial, mbta, deoxythymidine_monophosphate, para, cymoscope, mausolea, eirs, nemato, build_cathedral, segrosome, hydrogen_atom, fb, frigga, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, thousand, en, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, cleft, falcon, ahold, f_hole, compiler, zoö, taxa, green, august, flat, wave_clip, fréchet, mab, hamiltonian, problemo, kolmogorov, detumomab, antigen, bit, printing, western, ties, atmosphere, bynempt, pencil, antigone, oötidogenesis, es, fatosphere, memosphere, austria, dunzo, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, genitive_case, wynn, nfc, nnw, minor, do_dièse, hunter's_moon, ratings, f's, the, tibeto, string, it's, builder's_mug, c_channel, accidental, miscellaneum, scanno, british, semivowel, f’s, author, in, keynote, vis_vis, ashoka, accommodation, glosso, signor, age, ae, lino, statesman, let's, okay, stage, solfege, cmos, rip, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, denmark, can_store_food, angstrom, tert, banisht, third_letter_of_roman_alphabet, four_lines, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, transhumanism, acaulous, hoplo, beeswax, bent, academician, gasogen, aa, fermion, partheno, blood_group, atomic_weight, gangsta, other, programming, hey, asqtad, homoio, blockt, aglutition, ods, istro, thymine, absolute_temperature, titles, or, argent, talk_to, chromatic_scale, s, military, american, charlie, wth, logico, writo, re, checkt, ss, athanogene, bisphenol, after, connectogram, education, statement, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, latin, adult, vitamin_c, as, phosphorus, dswounds, mo, alto, cello, urobilinogen, p, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, mac, playoff, javascript, cisgender, conservative, tittle, ecmascript, softography, curst, purkins, crept, w_o, randomness, oversman, a’s, twasn't, pip, ostomy, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, pædo, venipuncture, astragal, dacryohemorrhea, us, grade, china, deuteron, amphibian, bullswool, kc, hausdorff, sec, perrins, tungsten, est, slut's_wool, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, dioxygen, nacolomab_tafenatox, major, betimes, otw, anterior, a, lua, has, neighborhood, lvalue, tesla, nights, taplitumomab, g_shaped, skainsmate, f_sharp, ga, dispossest, wiener_dog, hs, deprest, triple, with, admiral, rating, sanatoria, average, o, ve, all_mort, czechoslovak, interconsonantal, phenomena, k_r, mit, ancient_greek, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, klecksography, criteria, sithence, celestial_object, absent, admonisht, blemisht, nones, jesus_was_crucified, developt, rix, area, saint, status, blent, unicode, jackanapes, vagino, cervico, otl, archaea, proton_hydron, ruby, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, linguistics, specific_rotation, resturant, adjective, alpha_privative, anuptaphobia, avoucht, subway, canonical, teen, absolute, guanine, ing, verb, iv, manga, b_♭, cs, england, linotype, curiously_recurring_template_pattern, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, taxaphobic, abolisht, rogers, artery, crusht, ours, spherocylindrical, wednesday, lines, reflectoporn, asian, sf_f, œ, singular, januarys, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, fuckabilly, c_shaped, blood, vegas, thing, tween, sulesomab, twas, anothergates, stock_symbol, dismist, rat, cancer, toward, beginnings, tcl, spearsman, drive, danc’t, mass_number, peripherovascular, witness, rf, cycle_of_fifths, valor, euse, belgium, women, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, muography, accurst, t_square, acre, comprest, trailer, empathogen, meetaversary, computer_science, movie, polynomial_time, issa, country, diptera, zero_g, anxio, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, tilt_whirl, corner_tooth, er, baseball, t_stop, association, taula, supercee, object, condenst, chess, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, norovirus, clu, islamic_calendar, employ, set_theory, mc, tositumomab, nyse, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, o’s, can_begin_to_leak, besides, costa, republican, women's_christmas, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, port_o_john, fitz, fs, gentleman, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, available, java, w, bought, yo, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, patronymic, au, audio, template_metaprogramming, copyright_symbol, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, attackt, scale, cola, assault, piss_like_racehorse, terminology, h's, cobol, admit, urbiscript, iii, long_s, sx, mho, batsman, córdoba, tg, hulkamania, enharmonic, electronics, o'clock, stadia, america, bug_boo, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, penny, g_rated, terminal_s, v, w's, c, external, malloc, np, indefinite_article, aware, dwelt, cock_hoop, stl, ed, s_hole, basketball_league, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, w_i, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, go, sol_fa, attacht, enravisht, multiple_o's, s_size, no, aspect_ratio, entomology, graph, approacht, sixteenth_letter_of_roman_alphabet, h_shackle, form, indicative, basketball, coarticulate, pers, set, used_mainly_after_where_here_and_there, christofascist, kenna, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, o_ring, un, ies, fork, upon, solfège, slidometer, exhibit, n_acetyl_p_aminophenol, doubleyou, kinesiology, confest, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, o'reilly, hulkamaniac, ai, americanization, annus, predicted, chemical_symbol_of_carbon, 3gl, dx, igg, gigabyte, accusative_case, c's, brusht, particle, ra, alotta, acid, perfectly, brought, askt, worn_on_nose, ajax, descending_s, game, etc, euphemistic, pantile, et_seq, apiece, b_♭_instrument, dript, pneumato, eye, chemical_symbol_of_oxygen, mitumomab, ii, abaft, ana, ette, medicine, law, aweigh, korea, curly_bracket_language, acronym, gravo, blood_type, drachm, artificer, robertsman, oto, eighth_letter_of_roman_alphabet, delete, p_complete, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, fist_letter_of_alphabet, cad, copenhagen, reference, fatha, air_to_ground, tonic, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, aes, peso, besprent, jessa, iono, chartered_accountant, music, water_spout, gw, signore, lost, degree_centigrade, k, result, white, australian, arterio, not, software, php, amacrine, airman, nipple, auditor, fo, search, treble_clef, hers, adp, awry, brandisht, toll_highway, wwwww, herpeto, information_services_and_technology, acephalopodia, you, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, spliceosome, unsupported_titles_c_sharp, magneto, chemical_symbol_for_phosphorous, canadian_dollar, acceleration_of_gravity, programming_language, g_major, denounc’t, restaurant, hoodla, philo, symbol_for_hydrogen, are, l, ampere, annodated, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, lead, shambolic, annealing, adoors, general, ship, final, asked, morpheme, class, alexipyretic, transit_card, open, å, th, babs, t_pose, tritium, associate, clipt, fortran, flatulogenic, musea, w5, excrescence, form_of_vessle, atta, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, abetalipoproteinemia, which's, ps, first_alphabet, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, topology, date, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, degree_fahrenheit, ground, zoöphytology, problem, contradistinguisht, character, selligueain, object_oriented_programming, cherisht, multi, and, pells, of_piece, metalic_cylindrical_container, jack_o_lantern, z, loophole, d_b, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, neuropraxia, beset, ess, aviation, vexillographer, foreroom, cor_anglais, heat_content, give_hand, pronoun, chemical_symbol_for_hydrogen, cent, chemistry, abundant, ab, amnia, descendant, its, lolz, hard, logic, pitch_perfect, f_minor, before_bee, t’s, mitochondria, rust, anna, guildswoman, perl, t_junction, stereodescriptor, cilia, set_containing_one_element, amplitude, s_shaped, ppbar, pointed, nf, twouldn't, effing_and_blinding, letter_grade, ne_er, bridgmanite, cock_leekie, burnt, goatshair, business, s's, illo, testosterone, new_zealand, w_shaped, last, elemeno, digrest, clg, e, ilka, allies, composition, sphygmo, every, secondary, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, graphophone, west, sports, hawksbeard, jack_napes, catherine_havasi's_initials, spello, laetrile, cyclone, abeigh, about, ocracy, all_gog, point, potato, manosphere, air_conditioner, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, edrecolomab, watt, cricket, afternoon, galaxy, diminisht, seventh_letter_of_roman_alphabet, p’s, acroatics, economics, duff's_device, hundred, air_conditioning, miladdo, urano, swounds, ah, mornings, also, air, cytosine, irish, americanize, ata, deoxyribose, theorem, scotland, horse, aptychus, henry, hydrogen's_chemical_symbol, t_shaped, exactly, bliss, abandannaad, afterwards, ff, monoatomic_cation, atomic_nucleus, caught, æ, holliers, wilkes, g's, oes, ub, list, h’s, incuba, taxable, vulvo, ack, she, second, kamatz, alee, container, anonymous, moisturizer, even, bethought, luggage, ada, plus, long_vowel, hemoglobin, any, clothing, abasht, f_18, wed, awhape, cross, northern_england, example_of_programming_language, strong_electrolyte, 18mo, kd, universal_donor, slang, backwards, grunsel, present_tense, c_sharp, gentleman's_agreement, altitude, bcpl, rail_transport, basic, azure, group_o, strident, fluor, fluorine, disrelisht, c_note, tuesday, burnisht, absorbancy, thyroxine, americo, c_suite, g_minor, vitamin, hegira, balletomania, against, human, archæo, to, gb, 2h, per, saxon_genitive, city, absorbance, acceleration, litho, la, hotel, beanbag, deduc’t, calendar_terms, svedberg, tee, astonisht, mark, see_also_es, at_pinch, jocular, computer_language, it, chapter, heifer, lmfao, deterministic, hertz, abc, porno, he, ricketts, best, q, activity, apl, stinko, hip_hop_music, marinobufagin, convention, walk_mile_in_someone's_shoes, atrocha, hail, and_so_on, panthea, awk, expertise, besought, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, h_beam, avancé, four, percentage_point, infix, anno, army, ataxia_telangiectasia, buffet, psepho, zf, f_bomb, amateur, zounds, dialect, drest, pneumono, hedra, tees, introverted, aspirated_h, sixth_letter_of_roman_alphabet, person, coeno, gravitational_constant, address, forwards, over, medial_s, industry, attendance, o_canada, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, düsseldorf, i, aircraft, equivalent, hors_categorie, king's_man, lemur, f, scampsman, python</t>
-  </si>
-  <si>
-    <t>condenst, chess, fourth_position, tert, of, sulfanylidene, politics, deoxycytidine_monophosphate, ml, banisht, boson, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, athwartships, t_zone, farad, b.eng, ff_hole, byte, which's, b_story, tesh, clu, islamic_calendar, third_letter_of_roman_alphabet, encreast, t's, ps, employ, nb, set_theory, dispenst, builder's_tea, biology, sincerely, addrest, t_internet, toodles, fandom_slang, internet_slang, nyse, d, date, topology, constant_of_integration, south, clansperson, decomposition, absorpt, limbo, advanc’t, transhumanism, numeral, inorganic_substance, air_conditioned, greengrocer's_apostrophe, degree_fahrenheit, b.e.e, beeswax, b.med, ll.b, besides, bent, b.s.n, proton, problem, short_s, costa, contradistinguisht, third_person, t_piece, fermion, character, women's_christmas, b.comm, blood_group, object_oriented_programming, aikens, stop_codon, cherisht, multi, symbols, and, folio, drencht, technical_foul, other, account, programming, type_erasure, fs, b.m, blockt, ods, pells, diastereoisomer, thymine, precisely, motorcycle, titles, procedural_programming_lanuage, b_s, perhaps, fuck, z, e_♭_instrument, talk_to, pbuh, ts, ballet, chromatic_scale, s, i18n, bs, uk, supersymmetry, java, begot, was, charlie, w, dilf, bought, beset, hydrogen, equipt, checkt, type_b, ss, b's, aitkens, journalism, cor_anglais, soupcon, gilf, heat_content, embellisht, down_to_t, chemical_symbol_for_hydrogen, f_minus, cent, b.chir, template_metaprogramming, copyright_symbol, visarga, empoverisht, 24mo, double, dealt, its, xtianity, lolz, sarcastic, b.s.a, high_c, legal, f_major, dropt, century, attackt, scale, bereft, pitch_perfect, pure, f_minor, t’s, vitamin_c, letter, h's, cobol, rust, dswounds, phosphorus, replace, urbiscript, b.acc, long_s, b.compt, sx, mho, batsman, cello, tg, córdoba, p, diatonic_semitone, estes, guildswoman, b.math, t_junction, j, enharmonic, stereodescriptor, belcht, an, have_got, perl, vicesimo_quarto, aitkins, boron, c_s, s_shaped, ℓ, sextodecimo, ppbar, javascript, cisgender, clept, conservative, tittle, ecmascript, encampt, p_adic, nuevo_sol, nf, penny, curst, twouldn't, terminal_s, purkins, dry_cell_battery, effing_and_blinding, b.sc.n, hb, paradigm, c, external, crept, burnt, goatshair, is, malloc, np, indefinite_article, b_minor, count_out, second_letter_of_alphabet, business, s's, randomness, testosterone, oversman, t_splice, dwelt, hentai, new_zealand, twasn't, last, elemeno, stl, digrest, b_shaped, e, pee, ed, pip, s_hole, allies, regards, use, composition, egotist, ino, secondary, c.f.r, chromatic_semitone, nationality, twere, t_shirt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, tertiary, coke, sports, 100, first_letter_of_word_chair, axiomatic, hawksbeard, b.s.e.e, occupation, catherine_havasi's_initials, us, built, go, c’s, grade, cyclone, bps, deuteron, finance, kc, c_hole, bullswool, 4chan, point, hausdorff, sec, sol_fa, perrins, p_word, enravisht, attacht, air_conditioner, d_♭, no, s_size, group_b, most_vexing_parse, entomology, lulz, t_group, clapt, segovia, heroin, brewster, scantily_clad, est, slut's_wool, bethe, company, approacht, b, subatomic_particle, c_minor, yt, b_final, cricket, anime, taking_bus, bass, sixteenth_letter_of_roman_alphabet, lb, seent, sigmoid, diminisht, h_shackle, fujita_scale, p’s, pithers, b.sc, form, sneaksman, acroatics, shortcut_for_air_conditioning, indicative, theirs, aikins, basketball, duff's_device, solfeggio, air_conditioning, pers, hundred, dipt, 1000, set, year, p_shaped, disjoint, bleacht, b_sharp, dreamt, used_mainly_after_where_here_and_there, b.m.e, american_library_association, swounds, ah, triton, bubnoff_unit, b_flat, mornings, size, proscribed, nonstandard, entertainment, banned, eth, betimes, mute_h, cytosine, otw, b.th, b.ch.d, spat, lose, ies, a, galactic_coordinate_system, solfège, deoxyribose, twou'dn't, theorem, water, blest, lua, has, neighborhood, lvalue, tesla, nights, n_acetyl_p_aminophenol, big, horse, bel, henry, skainsmate, b.ed, hydrogen's_chemical_symbol, computer_languages, f_sharp, confest, dispossest, musical_artist, computing_theory, t_shaped, cherubs, exactly, hs, bliss, bye, afterwards, crasht, tier, fundamental_constant, s’s, decemvirate, deprest, organic_chemistry, transsexual, b.com, kb, social, ff, b.lib, predicted, transmissivity, chemical_symbol_of_carbon, 3gl, monoatomic_cation, average, dx, abbreviation, atomic_nucleus, o, caught, b_complex_vitamin, caravansary, c's, holliers, wilkes, brusht, hirs, ub, ra, latitude, ve, h’s, b.as, perfectly, brought, taxable, b.des, axiom, askt, b.c.e, second_letter_of_roman_alphabet, grammar, second, kamatz, khoum, k_r, mit, moisturizer, h_shaped, descending_s, pp, etc, even, euphemistic, bethought, annext, pantile, et_seq, bornt, ada, pigscot, b_♭_instrument, philippine, dript, clasht, time, cropt, b.acy, clothing, methamphetamine, abasht, f_18, major_scale, b’s, perfection, were, tendu_en_arrière, spectral_class, triiodothyronine, y, cross, northern_england, noons, birdsmouth, medicine, law, sithence, example_of_programming_language, celestial_object, encroacht, tis, admonisht, curly_bracket_language, blemisht, strong_electrolyte, nones, barn, b.a, 18mo, kd, jesus_was_crucified, slang, coulomb, backwards, blood_type, developt, present_tense, c_sharp, chirpt, saint, status, robertsman, blent, gentleman's_agreement, unicode, eighth_letter_of_roman_alphabet, bcpl, delete, rail_transport, p_complete, b.s.e, basic, b_testing, cc, meadow, otl, distinguisht, strident, circa, electricity, fluor, fluorine, f_instrument, proton_hydron, disrelisht, alphabet, ruby, labial, c_note, c_major, plan_b, tuesday, b.mus, cad, copenhagen, burnisht, reference, mbta, thyroxine, c_suite, linguistics, deoxythymidine_monophosphate, b.f.a, para, b_school, hegira, avoucht, b_word, tonic, astronomy, internet, subway, pethers, against, human, eirs, canonical, teen, ing, verb, build_cathedral, manga, 2h, computing, hydrogen_atom, fb, breadth, vrykolaka, per, object_oriented_programming_language, peso, saxon_genitive, city, besprent, cs, chartered_accountant, music, tradeswoman, accomplisht, signore, thousand, lost, curiously_recurring_template_pattern, en, degree_centigrade, pawn, deduc’t, k, b.litt, saint_anthony's_cross, boa, metric_ton, physicotheology, calendar_terms, os, transgender, text_messaging, svedberg, yours, when_it_is_nonstandardly_used_as_relative_pronoun, tee, astonisht, cleft, falcon, abolisht, mark, b.arch, rogers, see_also_es, believe, b.s.l, jocular, f_hole, computer_language, it, software, chapter, compiler, crusht, ours, ball, php, lmfao, flat, wave_clip, fréchet, follow, bacillus, deterministic, b.l.s, b_major, sf_f, nipple, hamiltonian, singular, januarys, kolmogorov, fo, p's, planck's_constant, bit, hers, ricketts, printing, wolf_hook, brandisht, s_bomb, q, b.b.a, apl, ties, bynempt, pencil, c_shaped, billion, es, information_services_and_technology, vegas, black, thing, raguileo_alphabet, speed_of_light, eclipst, storativity, tween, ambusht, and_so_on, awk, twas, expertise, anothergates, stock_symbol, t, aeronautical_jargon, reporting, sulfur, dismist, st, besought, cancer, genitive_case, tcl, nfc, spearsman, base, sxsw, n, cocaine, danc’t, bass_clef, bronx, rf, parkins, h_beam, do_dièse, celestial_body, disestablisht, belgium, hunter's_moon, hib, women, anguisht, percentage_point, ratings, f's, embost, unsupported_titles_c_sharp, infix, blusht, turing_machine, enforc’t, chemical_symbol_for_phosphorous, the, string, canadian_dollar, phm.b, plantsperson, ataxia_telangiectasia, it's, t_square, accurst, programming_language, comprest, trailer, denounc’t, zf, f_bomb, b_movie, builder's_mug, b.tech, zounds, dialect, drest, polynomial_time, symbol_for_hydrogen, c_channel, tees, introverted, are, aspirated_h, l, sixth_letter_of_roman_alphabet, annodated, working_leg, person, b.lit, british, f’s, forwards, author, f_s, demolisht, lead, pinfall, third_letter_of_alphabet, kudo, medial_s, ashoka, attendance, signor, statesman, deckt, let's, daunc’t, high_level, open, gs, stage, th, babs, t_pose, cmos, weak_electrolyte, rip, tritium, emission_theory, düsseldorf, b_side, i, clipt, aircraft, equivalent, b.s, corner_tooth, b.e, hors_categorie, king's_man, f_shaped, baseball, t_stop, fortran, cetera, physics, begat, excrescence, f, kuh, atta, dislik’t, scampsman, taula, m, supercee, python, denmark</t>
-  </si>
-  <si>
-    <t>toonophile, ortho, aud, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, scalogram, ometry, sincerely, square_metre, t_internet, fandom_slang, o_face, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, algol, act, non_sequituri, b.s.n, proton, short_s, kay, third_person, t_piece, parsing, agaze, vowel, first, dezh, o_shaped, language, purchase_cellular_phone, base_of_natural_logarithms, thousands, drencht, historical, dirhem, account, academy, man, myctag, amos, type_erasure, 360, megabyte, diastereoisomer, tt, vide, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, rafivirumab, ballet, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, archeopteryx, balanophagous, nd, b's, e_vite, w_r_t, cup, soupcon, united_kingdom, casualty, group, embellisht, f_minus, damma, data, vv, visarga, double, dealt, xiphisternum, interfix, writer, high_c, kayo, ll, v’s, level, g_s, letter, robatumumab, penny_sterling, replace, kasra, cat, academic, type, diatonic_semitone, estes, before, e_tail, victim, have_got, belcht, aitkins, i’s, boron, subject, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, surname, meaning, dry_cell_battery, connecter, hb, efungumab, paradigm, man_o_war, svo, u’s, kilobyte, dram, is, b_minor, count_out, vocative_case, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, espionage, ok, prototype_based_language, acrita, magic_e, tertiary, vagina, miserabilist, clicko, brassiere, double_u, u_tube, gf, dice, ambassador, nisba, c’s, team, pound_sterling, finance, c_hole, symbologenic, 4chan, homœo, personal, e_shaped, p_word, metre, ious, asymmetric, e’s, segovia, alias, heroin, ultimata, brewster, bethe, video_game, cœno, comics_character, you_and, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, pandean, turn, proscribed, entertainment, automobile, hypercorrection, roentgen, carrying_capacity, spat, australian_dollar, roman_numeral, lose, d's, micro, proverb, twou'dn't, cajun, water, blest, perpendicular_pronoun, animanga_character, coenosteum, bel, vocative, b.ed, musical_artist, non_u, i_don't_care, einsteinium, bye, tier, f_k, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, twelvemo, fourth_letter_of_roman_alphabet, india, april, axiom, penalty_arc, la_dièse, grammar, air_branch, kmer, khoum, acardiacus, e_volution, pp, aaa, lemalesomab, annext, lexatumumab, cuppa, bornt, application, will_o_wisp, first_person, clasht, philippine, time, cropt, kk, aken, television_show, zero, ms, seleno, perfection, answer, were, spectral_class, speako, noons, e_folding, oyl, gameto, arctic, e's, automata, excuse, gee, titular, libivirumab, encroacht, accepted, unstressed, tis, run_o_mill, barn, mb, b.a, argyro, coulomb, iferous, sr, chirpt, k_hole, audit, distinguisht, circa, e_quainted, galanthophile, labial, i_ship, b.mus, moo_u, ngl, mbta, j_pop, deoxythymidine_monophosphate, ignominy, para, cymoscope, mausolea, eirs, nemato, chink, build_cathedral, segrosome, hydrogen_atom, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, equiangular, thousand, u_boat, kth, seah, en, b.litt, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, sentences, television_station, cleft, falcon, organic_compound, ahold, believe, my, f_hole, compiler, zoö, taxa, politicker, green, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, problemo, kolmogorov, detumomab, antigen, bit, printing, western, ties, atmosphere, bynempt, pencil, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, nay, austria, dunzo, nebacumab, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, e_sharp, 56k, i'll've, key, genitive_case, wynn, nfc, nnw, e_tailing, d100, minor, stade, dog, do_dièse, hunter's_moon, ignore, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, tibeto, string, frolicker, mth, phm.b, dextro, it's, liter, builder's_mug, c_channel, honey_oil, accidental, i'd, miscellaneum, emergency, scanno, hebdomadiversary, british, semivowel, ego, author, f’s, in, keynote, medium, uranium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, i_and_i, lino, statesman, let's, okay, stage, mimicker, solfege, cmos, rip, b.s, me_pronoun, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, can_store_food, denmark, angstrom, tert, twelveth_letter_of_roman_alphabet, ich, banisht, foravirumab, third_letter_of_roman_alphabet, four_lines, kilobit, roadway, encreast, combo_pass, nb, dispenst, jackanape, chill, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, transhumanism, l_size, acaulous, hoplo, ell, beeswax, me_reference, ze, bent, u_rp, academician, gasogen, aa, sudoriferous, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, palochka, other, mega, hey, be, programming, asqtad, homoio, blockt, aglutition, ods, ri, istro, thymine, absolute_temperature, titles, leetspeak, b_s, ues, or, u_shaped, argent, ex, talk_to, chromatic_scale, s, self, make, military, exbivirumab, ihood, american, charlie, van, wth, logico, crease, writo, re, checkt, ss, k_drama, athanogene, bisphenol, after, connectogram, ebrary, gilf, education, maiden_over, oic, k_shaped, statement, viscount, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, i_wiss, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, yours_truly, levo, saké, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, ℓ, single, fictional_character, mac, playoff, javascript, cisgender, self_me, self_reference, conservative, tittle, ecmascript, k_rad, softography, curst, purkins, videte, crept, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, linking_vowel, go_to_market, pip, gomer, e_tailer, l_shaped, ostomy, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, volt, pædo, k's, venipuncture, astragal, dacryohemorrhea, us, cor, value, grade, china, kilometres, deuteron, survival_horror, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, tungsten, est, slut's_wool, from_latin_libra, me_subject, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, verse, um, bee, john_dreams, pithers, number, shortcut_for_air_conditioning, ragamuffin, mature, i'm, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, lambert, dioxygen, nacolomab_tafenatox, imac, major, betimes, otw, e_form, b.ch.d, did, anterior, a, cap, 4ktro, shanxi, lua, has, neighborhood, lvalue, tesla, nights, i'se, taplitumomab, g_shaped, skainsmate, f_sharp, ga, dispossest, wiener_dog, d_hole, hs, deprest, b.com, triple, i's, with, ketamine, admiral, fifth_letter_of_roman_alphabet, d_minor, victor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, b.des, czechoslovak, football, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, euphemism, ancient_greek, mit, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, hark, y, mammal, birdsmouth, klecksography, criteria, litre, sithence, me, celestial_object, absent, cl, admonisht, blemisht, weingarten_right, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, status, subjective, blent, unicode, jackanapes, v_neck, vagino, cervico, b_testing, otl, flowering_plant, archaea, regina, proton_hydron, ruby, state, u, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, lth, subway, jay, canonical, teen, absolute, guanine, pritumumab, ing, l_plate, verb, iv, manga, computing, u's, r's, b_♭, mapatumumab, cs, england, linotype, log, curiously_recurring_template_pattern, lgbt, astand, kilometre, boa, bloviate, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, pronouns, taxaphobic, abolisht, rogers, capital, b.s.l, inorite, hearken, urbicidal, artery, crusht, ours, spherocylindrical, wednesday, sterling, u_turn, lines, reflectoporn, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, korean, planck's_constant, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, speaker, emma, fuckabilly, c_shaped, blood, vegas, i_ness, thing, stretch, tween, sulesomab, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, polyvinyl_chloride, spearsman, drive, danc’t, mass_number, peripherovascular, witness, rf, cycle_of_fifths, valor, power_pill, euse, v's, belgium, hib, women, esrb_rating, ch, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, muography, baulk_line, accurst, t_square, acre, comprest, trailer, firs_person, necitumumab, empathogen, meetaversary, madalyn, computer_science, movie, polynomial_time, issa, country, diptera, r, b.lit, cutting_edge, zero_g, actus, intetumumab, anxio, m's, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, i_hood, ephemera, deoxyadenosine_monophosphate, high_level, physicker, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, i_beam, hyoid, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, austroasiatic, e_road, d_s, taula, supercee, eradiation, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, norovirus, b_story, clu, islamic_calendar, employ, set_theory, take_l, mc, tositumomab, nyse, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, o’s, b.e.e, can_begin_to_leak, ll.b, besides, ownership, costa, homer, grammatical, republican, women's_christmas, sevirumab, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, port_o_john, fitz, nfd, fs, gentleman, u_bolt, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, i18n, available, bs, java, μ, w, apple, ramucirumab, bought, street_slang, type_b, yo, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, patronymic, au, metaphysics, audio, b.chir, template_metaprogramming, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, terminology, h's, cobol, admit, urbiscript, b.acc, iii, long_s, denosumab, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, interstate, b.math, enharmonic, mother, abbreviation_of'you, electronics, rhotacism, o'clock, stadia, america, ock, bug_boo, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, version, terminal_s, v, home, w's, kamiltonian, c, external, i'll, malloc, np, dog's_letter, indefinite_article, right, aware, super_c, electronic, dwelt, cock_hoop, r’s, stl, elaborate, 401k, b_shaped, ed, s_hole, basketball_league, flute, fora, twere, aunt, muggins, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, go, do, sol_fa, attacht, enravisht, multiple_o's, s_size, no, aspect_ratio, entomology, sie, graph, rd, approacht, b_final, myself, levulose, sixteenth_letter_of_roman_alphabet, lb, h_shackle, they, form, toll_road, indicative, basketball, coarticulate, pers, set, anticker, natural_logarithm, used_mainly_after_where_here_and_there, christofascist, ks, b.m.e, kenna, kilo, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, o_ring, un, break_off, fashionable, ies, fork, upon, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, doubleyou, kinesiology, computer_languages, confest, exponential, aerial, computing_theory, stan, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, o'reilly, hulkamaniac, kb, ai, meaning_me, americanization, annus, b.lib, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, 1, particle, ra, snipt, snooker, ü, read, latitude, alotta, and_eye, acid, ninth, perfectly, brought, male, askt, b.c.e, worn_on_nose, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, regavirumab, apiece, 50, dript, b_♭_instrument, raxibacumab, b’s, pneumato, australia, eye, chemical_symbol_of_oxygen, mitumomab, iratumumab, ii, i've, abaft, ana, ette, subjective_pronoun, medicine, 12mo, law, aweigh, korea, hydraulic_conductivity, 500, curly_bracket_language, acronym, old_penny, gravo, identification, panobacumab, blood_type, drachm, artificer, i'ven't, idollator, robertsman, oto, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, p_uman, fatha, metacism, gas_constant, air_to_ground, afaiu, i'd've, stamulumab, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, darwin, aes, peso, besprent, ignoble, jessa, lucatumumab, iono, chartered_accountant, music, water_spout, xyz, gw, sitcom, signore, vanadium, lost, degree_centigrade, k, result, sn, cinema, white, australian, arterio, not, musicker, b.arch, clitic, software, sentence, ball, php, ev, amacrine, idren, ith, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, vitamin_d, ob, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, wwwww, b.b.a, super_acid, herpeto, billion, information_services_and_technology, acephalopodia, by_from_home_depot, you, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, ify, dry_storage, base, aviator, n, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, pvc, spliceosome, unsupported_titles_c_sharp, magneto, uracil, chemical_symbol_for_phosphorous, accounts_receivable, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, iyaric, restaurant, hoodla, v_sign, philo, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, lead, shambolic, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, morpheme, class, lev, scale_height, alexipyretic, transit_card, open, å, irrevocable, th, auri, babs, t_pose, tritium, b_side, associate, clipt, zymosimeter, pronoun_me, m'lady, ge, fortran, almost, musea, w5, excrescence, pound, flatulogenic, monsieur, form_of_vessle, atta, semicircle, description, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, number_one, ps, first_alphabet, history, my_ass, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, iration, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, controlled_vocabulary_types, degree_fahrenheit, ground, zoöphytology, b.med, problem, some, contradistinguisht, character, issaron, selligueain, digital, object_oriented_programming, cherisht, multi, and, panitumumab, b.m, pells, of_piece, metalic_cylindrical_container, jamaica, jack_o_lantern, z, mmole, loophole, d_b, egocentric, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, bbs, aviation, vexillographer, foreroom, cor_anglais, j.d, heat_content, give_hand, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, referred, abundant, ab, gantenerumab, amnia, descendant, its, lolz, b.s.a, hard, peruvian, deictic, i_shaped, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, e_quaintance, ofatumumab, mitochondria, rust, anna, b.compt, equi, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, set_containing_one_element, k’s, amplitude, d_shaped, s_shaped, u_235, ppbar, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, twink, bridgmanite, cock_leekie, burnt, goatshair, highland, m.d, business, s's, illo, testosterone, square_meter, panicker, new_zealand, w_shaped, last, elemeno, kelvin, eleventh_letter_of_roman_alphabet, digrest, clg, e, misle, ilka, allies, composition, sphygmo, every, secondary, imperative, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, graphophone, iwantone, capitol, west, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, spello, laetrile, ital, iform, l’s, cyclone, bps, abeigh, about, dunam, ocracy, all_gog, point, potato, manosphere, air_conditioner, ancient, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, edrecolomab, watt, d.d, dotless_i, itinually, cricket, taking_bus, cab, afternoon, ⓚ, i'dn't've, dex, galaxy, u_pick, diminisht, seventh_letter_of_roman_alphabet, p’s, em, acroatics, economics, duff's_device, hundred, air_conditioning, like_me, miladdo, urano, swounds, ah, ls, efold, m_shaped, roman, mornings, size, also, xe, banned, viscountess, had, air, possess, cytosine, b.th, self_description, irish, americanize, iodine, galactic_coordinate_system, ata, deoxyribose, fifty, da, theorem, scotland, five, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, special_k, v_cut, one_person, ff, personal_identification, monoatomic_cation, atomic_nucleus, caught, b_complex_vitamin, æ, holliers, wilkes, g's, oes, 5, ub, list, h’s, b.as, incuba, m'lord, ecstasy, nosism, taxable, also_known_as, vulvo, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, luggage, ada, plus, li, lethek, long_vowel, hemoglobin, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, wed, awhape, cross, northern_england, example_of_programming_language, adventure_game, strong_electrolyte, 18mo, kd, inity, universal_donor, slang, backwards, grunsel, present_tense, diceroll, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, group_o, strident, fluor, fluorine, egocentric_pronoun, upper_class, disrelisht, c_note, tuesday, burnisht, v_twin, almost_me, purposes, absorbancy, thyroxine, americo, c_suite, g_minor, vitamin, hegira, balletomania, si, against, human, archæo, l's, contract, potassium, to, gb, v_necked, vs, river, e_tard, 2h, canine_letter, per, firs, saxon_genitive, city, versus, tuvirumab, absorbance, acceleration, litho, echeng, la, hotel, beanbag, deduc’t, like, calendar_terms, svedberg, tee, astonisht, knitting, michigan, mark, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, porno, d_major, he, ricketts, best, q, activity, lyrical_i, apl, stinko, hip_hop_music, marinobufagin, convention, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, expertise, rexx, usd, besought, d’s, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, jet, h_beam, meter, avancé, e_thumb, delta_v, four, percentage_point, toy, infix, anno, army, v_shaped, deuterium, personal_pronoun, ataxia_telangiectasia, henan, buffet, psepho, zf, f_bomb, b_movie, hin, amateur, b.tech, zounds, dialect, drest, pneumono, zir, ds, hedra, tees, introverted, aspirated_h, sixth_letter_of_roman_alphabet, fail, rex, person, coeno, gravitational_constant, address, forwards, cat_valium, over, single_alphabet, died, e_head, medial_s, industry, attendance, modius, meta, o_canada, british_film_certificate, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>toonophile, ortho, aud, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, scalogram, ometry, sincerely, square_metre, t_internet, fandom_slang, o_face, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, algol, act, non_sequituri, b.s.n, proton, short_s, kay, third_person, t_piece, parsing, agaze, vowel, first, o_shaped, purchase_cellular_phone, base_of_natural_logarithms, thousands, drencht, historical, dirhem, account, academy, man, myctag, amos, type_erasure, 360, megabyte, diastereoisomer, tt, vide, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, ballet, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, archeopteryx, balanophagous, b's, e_vite, w_r_t, cup, soupcon, casualty, group, embellisht, f_minus, data, vv, visarga, double, dealt, xiphisternum, interfix, writer, high_c, kayo, v’s, level, g_s, letter, replace, kasra, cat, academic, type, diatonic_semitone, estes, before, e_tail, victim, have_got, belcht, aitkins, i’s, boron, subject, a440, a's, sextodecimo, annually, adenine, p_adic, surname, meaning, dry_cell_battery, connecter, hb, paradigm, man_o_war, svo, kilobyte, dram, is, b_minor, count_out, vocative_case, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, ok, prototype_based_language, acrita, magic_e, tertiary, vagina, miserabilist, clicko, brassiere, double_u, gf, ambassador, nisba, c’s, team, finance, c_hole, symbologenic, 4chan, homœo, personal, e_shaped, p_word, metre, ious, asymmetric, e’s, segovia, alias, heroin, ultimata, brewster, bethe, cœno, comics_character, you_and, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, turn, proscribed, entertainment, automobile, hypercorrection, roentgen, carrying_capacity, spat, australian_dollar, roman_numeral, lose, proverb, twou'dn't, cajun, water, blest, perpendicular_pronoun, coenosteum, bel, vocative, b.ed, musical_artist, i_don't_care, einsteinium, bye, tier, f_k, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, india, april, axiom, la_dièse, grammar, air_branch, kmer, khoum, acardiacus, e_volution, pp, aaa, lemalesomab, annext, cuppa, bornt, application, will_o_wisp, first_person, clasht, philippine, time, cropt, kk, aken, television_show, zero, ms, seleno, perfection, answer, were, spectral_class, speako, noons, e_folding, oyl, gameto, arctic, e's, automata, excuse, gee, titular, encroacht, accepted, unstressed, tis, run_o_mill, barn, mb, b.a, argyro, coulomb, iferous, sr, chirpt, k_hole, audit, distinguisht, circa, e_quainted, galanthophile, labial, i_ship, b.mus, ngl, mbta, j_pop, deoxythymidine_monophosphate, ignominy, para, cymoscope, mausolea, eirs, nemato, chink, build_cathedral, segrosome, hydrogen_atom, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, equiangular, thousand, kth, en, b.litt, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, sentences, television_station, cleft, falcon, organic_compound, ahold, believe, my, f_hole, compiler, zoö, taxa, politicker, green, august, flat, wave_clip, fréchet, mab, hamiltonian, problemo, kolmogorov, detumomab, antigen, bit, printing, western, ties, atmosphere, bynempt, pencil, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, nay, austria, dunzo, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, e_sharp, 56k, i'll've, key, genitive_case, wynn, nfc, nnw, e_tailing, minor, stade, dog, do_dièse, hunter's_moon, ignore, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, tibeto, string, frolicker, mth, phm.b, it's, builder's_mug, c_channel, honey_oil, accidental, i'd, miscellaneum, emergency, scanno, hebdomadiversary, british, semivowel, ego, author, f’s, in, keynote, medium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, i_and_i, lino, statesman, let's, okay, stage, mimicker, solfege, cmos, rip, b.s, me_pronoun, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, can_store_food, denmark, angstrom, tert, ich, banisht, third_letter_of_roman_alphabet, four_lines, kilobit, roadway, encreast, combo_pass, nb, dispenst, jackanape, chill, internet_slang, toodles, at, numero_sign, mano_mano, decomposition, transhumanism, acaulous, hoplo, beeswax, me_reference, ze, bent, academician, gasogen, aa, sudoriferous, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, palochka, other, mega, hey, be, programming, asqtad, homoio, blockt, aglutition, ods, ri, istro, thymine, absolute_temperature, titles, leetspeak, b_s, or, argent, ex, talk_to, chromatic_scale, s, self, make, military, ihood, american, charlie, van, wth, logico, crease, writo, re, checkt, ss, k_drama, athanogene, bisphenol, after, connectogram, ebrary, gilf, education, maiden_over, oic, k_shaped, statement, viscount, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, i_wiss, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, mo, alto, cello, urobilinogen, p, yours_truly, saké, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, ℓ, single, fictional_character, mac, playoff, javascript, cisgender, self_me, self_reference, conservative, tittle, ecmascript, k_rad, softography, curst, purkins, videte, crept, w_o, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, linking_vowel, go_to_market, pip, e_tailer, ostomy, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, volt, pædo, k's, venipuncture, astragal, dacryohemorrhea, us, value, grade, china, kilometres, deuteron, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, tungsten, est, slut's_wool, me_subject, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, verse, um, bee, john_dreams, pithers, number, shortcut_for_air_conditioning, ragamuffin, mature, i'm, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, dioxygen, nacolomab_tafenatox, imac, major, betimes, otw, e_form, b.ch.d, anterior, a, 4ktro, shanxi, lua, has, neighborhood, lvalue, tesla, nights, i'se, taplitumomab, g_shaped, skainsmate, f_sharp, ga, dispossest, wiener_dog, hs, deprest, b.com, triple, i's, with, ketamine, admiral, fifth_letter_of_roman_alphabet, victor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, b.des, czechoslovak, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, euphemism, ancient_greek, mit, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, hark, y, mammal, birdsmouth, klecksography, criteria, sithence, me, celestial_object, absent, cl, admonisht, blemisht, weingarten_right, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, status, subjective, blent, unicode, jackanapes, v_neck, vagino, cervico, b_testing, flowering_plant, otl, archaea, regina, proton_hydron, ruby, state, u, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, linguistics, specific_rotation, b.f.a, resturant, adjective, alpha_privative, anuptaphobia, b_word, avoucht, subway, jay, canonical, teen, absolute, guanine, ing, verb, iv, manga, computing, r's, b_♭, cs, england, linotype, curiously_recurring_template_pattern, lgbt, astand, kilometre, boa, bloviate, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, pronouns, taxaphobic, abolisht, rogers, capital, b.s.l, inorite, hearken, urbicidal, artery, crusht, ours, spherocylindrical, wednesday, lines, reflectoporn, asian, sf_f, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, korean, planck's_constant, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, speaker, emma, fuckabilly, c_shaped, blood, vegas, i_ness, thing, stretch, tween, sulesomab, twas, anothergates, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, polyvinyl_chloride, spearsman, drive, danc’t, mass_number, peripherovascular, witness, rf, cycle_of_fifths, valor, power_pill, euse, v's, belgium, hib, women, esrb_rating, ch, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, muography, accurst, t_square, acre, comprest, trailer, firs_person, empathogen, meetaversary, madalyn, computer_science, movie, polynomial_time, issa, country, diptera, b.lit, cutting_edge, zero_g, actus, anxio, m's, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, i_hood, ephemera, deoxyadenosine_monophosphate, high_level, physicker, fox, weak_electrolyte, deoxyguanosine_monophosphate, roof, have, approved, ws, i_beam, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, e_road, taula, supercee, eradiation, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, ff_hole, norovirus, b_story, clu, islamic_calendar, employ, set_theory, mc, tositumomab, nyse, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, computerized, o’s, b.e.e, can_begin_to_leak, ll.b, besides, ownership, costa, grammatical, republican, women's_christmas, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, port_o_john, fitz, fs, gentleman, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, i18n, available, bs, java, w, apple, bought, street_slang, type_b, yo, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, patronymic, au, metaphysics, audio, b.chir, template_metaprogramming, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, f_major, dropt, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, terminology, h's, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, interstate, b.math, enharmonic, mother, electronics, rhotacism, o'clock, stadia, america, ock, bug_boo, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, penny, g_rated, version, terminal_s, w's, kamiltonian, c, external, i'll, malloc, np, dog's_letter, indefinite_article, right, aware, super_c, electronic, dwelt, cock_hoop, r’s, stl, elaborate, 401k, b_shaped, ed, s_hole, basketball_league, flute, fora, twere, aunt, muggins, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, go, sol_fa, attacht, enravisht, multiple_o's, no, s_size, aspect_ratio, entomology, sie, graph, approacht, b_final, myself, sixteenth_letter_of_roman_alphabet, lb, h_shackle, they, form, indicative, basketball, coarticulate, pers, set, anticker, natural_logarithm, used_mainly_after_where_here_and_there, christofascist, ks, b.m.e, kenna, kilo, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, o_ring, un, fashionable, ies, fork, upon, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, doubleyou, kinesiology, computer_languages, confest, exponential, aerial, computing_theory, stan, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, o'reilly, hulkamaniac, kb, ai, meaning_me, americanization, annus, b.lib, disco_biscuit, predicted, chemical_symbol_of_carbon, im, 3gl, dx, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, 1, particle, ra, snipt, latitude, alotta, and_eye, acid, ninth, perfectly, brought, male, askt, b.c.e, worn_on_nose, ajax, descending_s, game, etc, euphemistic, pantile, et_seq, apiece, b_♭_instrument, dript, b’s, pneumato, australia, eye, chemical_symbol_of_oxygen, mitumomab, ii, i've, abaft, ana, ette, subjective_pronoun, medicine, law, aweigh, korea, hydraulic_conductivity, curly_bracket_language, acronym, gravo, identification, blood_type, drachm, artificer, i'ven't, idollator, robertsman, oto, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, fatha, metacism, gas_constant, air_to_ground, afaiu, i'd've, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, aes, peso, besprent, ignoble, jessa, iono, chartered_accountant, music, water_spout, gw, sitcom, signore, vanadium, lost, degree_centigrade, k, result, cinema, white, australian, arterio, not, musicker, b.arch, clitic, software, sentence, ball, php, ev, amacrine, idren, ith, airman, bacillus, fathom, b.l.s, nipple, and_e, auditor, fo, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, wwwww, b.b.a, super_acid, herpeto, billion, information_services_and_technology, acephalopodia, you, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, ify, dry_storage, base, aviator, n, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, pvc, spliceosome, unsupported_titles_c_sharp, magneto, chemical_symbol_for_phosphorous, accounts_receivable, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, iyaric, restaurant, hoodla, v_sign, philo, symbol_for_hydrogen, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, lead, shambolic, annealing, adoors, general, ship, polymyxin_e, final, asked, morpheme, class, scale_height, alexipyretic, transit_card, open, å, th, auri, babs, t_pose, tritium, b_side, associate, clipt, zymosimeter, pronoun_me, m'lady, ge, fortran, almost, musea, w5, excrescence, flatulogenic, monsieur, form_of_vessle, atta, description, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, number_one, ps, first_alphabet, history, my_ass, builder's_tea, biology, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, iration, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, controlled_vocabulary_types, degree_fahrenheit, ground, zoöphytology, b.med, problem, contradistinguisht, character, selligueain, digital, object_oriented_programming, cherisht, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, jamaica, jack_o_lantern, z, mmole, loophole, d_b, egocentric, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, neuropraxia, beset, ess, estradiol, bbs, aviation, vexillographer, foreroom, cor_anglais, heat_content, give_hand, pronoun, chemical_symbol_for_hydrogen, cent, chemistry, referred, abundant, ab, amnia, descendant, its, lolz, b.s.a, hard, peruvian, deictic, i_shaped, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, e_quaintance, mitochondria, rust, anna, b.compt, equi, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, set_containing_one_element, k’s, amplitude, s_shaped, ppbar, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, twink, bridgmanite, cock_leekie, burnt, goatshair, highland, business, s's, illo, testosterone, square_meter, panicker, new_zealand, w_shaped, last, elemeno, kelvin, eleventh_letter_of_roman_alphabet, digrest, clg, e, ilka, allies, composition, sphygmo, every, secondary, imperative, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, graphophone, iwantone, capitol, west, madam, sports, hawksbeard, jack_napes, catherine_havasi's_initials, spello, laetrile, ital, iform, cyclone, bps, abeigh, about, dunam, ocracy, all_gog, point, potato, manosphere, air_conditioner, ancient, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, edrecolomab, watt, dotless_i, itinually, cricket, taking_bus, afternoon, ⓚ, i'dn't've, galaxy, diminisht, seventh_letter_of_roman_alphabet, p’s, em, acroatics, economics, duff's_device, hundred, air_conditioning, like_me, miladdo, urano, swounds, ah, efold, m_shaped, roman, mornings, size, also, xe, banned, viscountess, air, cytosine, b.th, self_description, irish, americanize, iodine, galactic_coordinate_system, ata, deoxyribose, theorem, scotland, five, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, special_k, v_cut, one_person, ff, personal_identification, monoatomic_cation, atomic_nucleus, caught, b_complex_vitamin, æ, holliers, wilkes, g's, oes, 5, ub, list, h’s, b.as, incuba, m'lord, ecstasy, nosism, taxable, also_known_as, vulvo, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, luggage, ada, plus, li, long_vowel, hemoglobin, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, wed, awhape, cross, northern_england, example_of_programming_language, strong_electrolyte, 18mo, kd, inity, universal_donor, slang, backwards, grunsel, present_tense, c_sharp, media, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, group_o, strident, fluor, fluorine, egocentric_pronoun, disrelisht, c_note, tuesday, burnisht, v_twin, almost_me, purposes, absorbancy, thyroxine, americo, c_suite, g_minor, vitamin, hegira, balletomania, si, against, human, archæo, contract, potassium, to, gb, v_necked, vs, river, e_tard, 2h, canine_letter, per, firs, saxon_genitive, city, versus, absorbance, acceleration, litho, echeng, la, hotel, beanbag, deduc’t, like, calendar_terms, svedberg, tee, astonisht, knitting, michigan, mark, estrogen, see_also_es, at_pinch, jocular, computer_language, it, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, marketing, porno, he, ricketts, best, q, activity, lyrical_i, apl, stinko, hip_hop_music, marinobufagin, convention, monday, black, atrocha, walk_mile_in_someone's_shoes, hail, relaxing, and_so_on, panthea, awk, expertise, rexx, besought, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, jet, h_beam, meter, avancé, e_thumb, delta_v, four, percentage_point, toy, infix, anno, army, v_shaped, personal_pronoun, ataxia_telangiectasia, henan, buffet, psepho, zf, f_bomb, b_movie, amateur, b.tech, zounds, dialect, drest, pneumono, zir, hedra, tees, introverted, aspirated_h, sixth_letter_of_roman_alphabet, fail, rex, person, coeno, gravitational_constant, address, forwards, cat_valium, over, single_alphabet, e_head, medial_s, industry, attendance, meta, o_canada, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, i, aircraft, equivalent, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
-  </si>
-  <si>
-    <t>question is "antonym, distinct_from, related_to" to statement | question is "distinct_from, related_to, desires, antonym" to answer | reply is "related_to" to statement | reply is "synonym, is_a, antonym, related_to" to answer | solution is "is_a" to statement | solution is "synonym, related_to" to answer</t>
-  </si>
-  <si>
-    <t>antlers is "related_to" to deer | doe is "is_a, related_to" to deer | fawn is "is_a, related_to" to deer</t>
-  </si>
-  <si>
-    <t>bud is "related_to" to plant | bud is "is_a, related_to" to flower | dandelion is "related_to" to plant | dandelion is "related_to, is_a" to flower | petals is "related_to" to plant | petals is "related_to" to flower</t>
+    <t>plain, mortification, start, discharge, big, rectangle, explore, movies, patch, valence, party, gui, sleepwear, canine, cream, bedrest, round, nightguard, bullet, nighty, hog, nightdream, short, facies, pencil, serious, pillow, get_warm, cartoon, go_to_bed, time_period, current, animal, process, nicker, entertainment, military, flying_in_airplane, plant, relaxation, intranight, pocket, deep, anxiety, wink, get_in_bed, doctor, deer, bundling, deal, book, salt, music, case, dreaming, hair, dig, related, length, incubus, dormant, camel, western, speed, breathing, mattress, visit, put_to_sleep, sleep_on, beautiful, hat, gytrash, grey, capsule, stroke, movie, re_energizing, dog, lay, us, live, sheep, sleepover, terrorism, night_time, long, harmful, course, nay, wake, hibernation, strong, affect, flower, pig, pin, dream_feed, have_nightmare, turn_into_pumpkin, prospective, nailbed, reading, draw, smoke, kentucky, laugh, skin, computing, eye, stool, watching_television_show, activity, catch_mumps, black, safety, feet, nightshade, emotion, high, being, relaxing, asleep, print, sofabed, sleep_disorder, law, injection, take, jade, hippoid, shiver, dogs, hypnos, bedtime, sleeper, complexion, places, attenuate, life, pots, one, napping, comfort, support, tractor, physics, quality, bioscopy, used, getting, ranch_house, bigger, pass, tent, famine, anaclasis, rouse, bridge, comic, go_for_walk, canary, general, operation, sleep_together, people, race, pectoral, duvet, sharp, plug, train_of_four, color, ultrasound, sleepers, state, rub, cooling_off, nautical, another, insult, bundle, almost, treatment, car, run, ring, work, nigh, slumber, field, body, awake, bay, watching_movie, rest_mind_and_body, exhibit, beauty, noon, hay, berth, knight, cats, foot, object, depression, night_person, kissing, junk, face, therapy, nest, catching_mumps, inside, attack, lucid_dream, thing, cast, grave, tuck, nighttime, family, use, bar, purple, tincture, abc, decubitus, pain, four_legged, profession, oxygen, coke, pace, sleep, affection, stay_in_bed, resting, ore, light, cow, kip, calm, grape, type, snore, count, watching_tv, science, special, circle, evil, generic, ball, biology, piss_like_racehorse, fish, term, cooling, pool, compound, blackwash, death, crown, go_to, go, gas, dreams, pad, beast, exhaustion, band, at_night, lie_down, affinity, blocker, hospital, like, finger, ant, british, element, drink, country, drop, solemn, nocturnal, large, hand, sound, unpleasant, negative, baseball, running_out_of_steam, sad, hill, pull, desire, counter, mining, relief, photography, resting_state, frame, quadriga, nap, point, back, vault, hit, tab, fast, enjoy_day, roar, dormitory, nice, diagnosis, snoring, plastic, eternal_sleep, pupil, nature, up, theater, blow, primer, oil, shoes, flowers, reduce, provide, lay_down, fit, gift, trailer, physical, fear, during, historical, bag, keratonyxis, cotton, hotel_room, found_in_hospital, hotel, price, dull, affair, call_it_night, nocturia, camp, horse, doze, scope, room, tired, iron, boggard, farm, hack, evening, rip, post, sleeper_berth, bedroom, power, bathroom, tetralogy, working, category, morning, taxis, humans, mammal, lectual, dress, in_bed, good_night, disease, nothing, motel, cold, painting, four_legs, weight, sleeping, swallow, staying_in_bed, smart, iv, slip, event, relative, nightdreaming, under, sleepness, regulation, beds, interval, tunnel, rest, rice, sleeperette, tail, bend, attractive, lie, attending_class, bit, has, outside, war, uk, quarter, alarm_clock_headache, night_rest, pillar, blood, en, go_into_coma, lodge, norrie, disinfectant, slept, cover_yourself_with_blanket, local, gate, white, aura, four_poster, medicine, dialect, art, aid, line, wake_up, bed, basketball, feather, nonsleeping, carrots, peep, dreamer, stone, nebula, barb, code_brown, window, steel, blue, chair, behaviour, alarm_clock, tend, open, date, show, jar, lying_down, person, mass, bedsite, pot, lying, rail_transport, stitch, drool, phaeton, a, equipment, mat, slang, sleep_schedule, cook, brown, schedule, soup, comfortable, glasseye, tap, head, massive, down, fall_asleep, form, sign, leg, sleepiness, cat, period, restful, night, get_into_bed, button, go_to_sleep, deliver, humour, sleeping_in, off, dresser, dry, furniture, napoleon, good, bear, cut, nightly, arise, mule, spacer, history, sleep_in, radical, four, sweat, statue, screen, chemistry, memory, acarophobia, zain, time, master_bedroom, shut_eye, sleepy, liquorice, void, legs, medical, signal, carriage, monster, going_to_bed, monkey, rancho, stuff, gathering_energy_for_tomorrow, lit, circus, response_time, mark, home, ageless_sleep, runner, unconscious, shut, chess, closing_eyes, dream</t>
+  </si>
+  <si>
+    <t>ground, fangy, swallow, bite, eater, tusk, creature, head, eat, face, big, fruit, teeth, tooth, nautical, coat, payara, handle, rat, stick, mouth, clean, poison, gorm, human, drink, white, canine, body, person, blow, device, dialect, snout, beaver, bridge, dogs, wolves, heterodont, biting, people, trap, squirrel, mammal, movie, slang, has, drinking, dog, river, us, bass, flesh, pointy, eating, fang</t>
+  </si>
+  <si>
+    <t>water, creature, australia, discharge, slag, big, blood, slabber, dialectal, weir, slush, like, slab, clothing, clean, human, drop, cleaning, pass, pond, dock, mix, slimy, coal, land, puddle, bridge, viscosity, making, wet, mermaid, showering, river, oar, fluid, movement, rain, ocean, metal, dirty, polish, zoology, mining, stone, coast, military, sensation, grass, place, plant, having_bath, getting_clean, rub, trail, bubbles, jellyfish, rise, nautical, action, lather, salt, rinse, slipstream, tongue, domain, spill, car, excessive, run, oceans, shower, body, up, lake, lotion, make, snow, act, mud, tears, stream, something, slang, flowing, us, anemone, suds, flush, soup, ground, fire, meat, clear, permeability, viscoplastic, fall, gleet, cast, stop, washing, use, rock, bar, whip, food, swim, sea, fluidity, bathroom, viscous, hand_sanitizer, earth, dry, fluent, bath, liquid, mammal, watery, activity, handwash, cover, wash, brook, fresh, feeling, anchor, sink, tide, calm, lead, foam, chemical, paint, slip, flow, event, coat, eel, mist, steep, earthflow, salt_water, game, soap, soft, bottom_of_sea, sloppy, moderator, weather, boat, ooze, shampoo, bathing, rivers, motion, gas</t>
+  </si>
+  <si>
+    <t>why, conversationism, wordfest, package, proverbs, nipponism, deck, active_voice, fashion, alphabets, our, proverb, autocapitalization, table, dramatism, pencil, neck, dreimorengesetz, postpose, preverbal, written_expression, mine, entertainment, genitive, mother, letters, boundary_term, nunate, deep, graphemic, polonism, fine, bird, teacher, vernacular, backword, abstract, sprachbund, ban, classroom, internet, make, perispomenon, backup_vocals, acrostic, logo, detail, hottentotism, periphrastic, hobby, nounship, microlinguistics, guideline, antiphrasis, boy, couch, wordcount, graphophonic, informalism, modernism, learning, transition, writer, semidialectal, opera, write, cryptogram, transflection, macroacquisition, method, proparoxytone, jakobsonian, epanadiplosis, axe, logocentrism, other, ladies, verbalize, collection, infinitive_marker, consonant, overgeneration, on_pages, nation, chicken, gestalt, modern, vulgate, pleasure, secret, full_score, article_in_newspaper, declare, how, homeroom, japanism, part, construe, technostrategic, preterite_present_verb, curse, grammar, neoterist, motion, linguistics, display, preliterate, quality, medallion, doorway, libretto, zettabit, bouts_rimés, canary, hybrid, definiendum, pleiad, ukrainianize, chief, benzaiten, palindrome, fill_in, word_up, inscribe, arithmography, root, ring, receptive_aphasia, terminal, apposition, god, old_norse, from, bogus, construct_state, hear, telephone, literature, second_order, writing, nonstandard, justifying_space, swarm, sign_language, creative, exessive, article, antecedent, bunch, tithing, mouth, timbre, constructionism, transcribe, gothic, mail, earth, twist, ottoman_turkish, context, sublexical, first_order, theatre, subjecthood, dirt, cognition, kite, onomasticon, middle_low_german, emphasis, suggestopedia, dialectism, inflect, action_word, generic, term, typonese, scriptio_continua, mixed_language, charge, antimetathesis, thesaurus, organ, expressive_style, ultima, modificative, component, antepenultima, fennicism, running_speech, human, synthetic, european_portuguese, giving, hand, queen's_english, high_level_language, introverted, dysgraphia, finite, structure, india, gem, vocal, tonkinese, classicism, qudit, design, modius, clue, latinize, additive, linguistic_turn, numbers, idiom, communication_form, workbook, female, two, up, journalese, oil, proper, woman, languagism, judgment, ana, who, pigeon, pot_boiler, apocope, horse, tenor, vowel, tale, passively, imagination, metathesis, construct, out_of, humans, illative, little, flash, parenthesis, hobson_jobson, tag, witness, quebecism, relative, lexiconophilist, dit, string, manner, output, every, musical_notation, reduplication, isogram, definition, epicene, house, heteronym, please, cochinchinese, overloaded, dependency_grammar, lesson, hit_parade, thesis, page, mind, casualism, education, pseudocharacter, meemaw, multilanguage, pronoun, parasynonym, creativity, peep, piece, charades, contemplation, roman, weird, sanskrit, symbol, libraries, reduplicative, apheresis, american_sign_language, women, fanslation, window, gradus, training, codeword, heterogram, always, tongue, rhematic, group, sauce, velvet, phrygian, value, hamza, grecism, part_sentence, indianism, typed, aryan, idiomatic, redditive, pirahã, description, meaning, sentence, yorkshireism, compilation, object_language, transliteration, cat, system, quantifier, heterophemy, language_arts, sociolinguistics, truth, english_plus, source, typestate, indeterminate_state, conjugate, taxon, token, regionalism, statue, manual, memory, pieces, artbook, verbalism, time, collective, role, number_sign, personal, monkey, stuff, tralation, middle_english, wu, sentence_element, syllabify, bulls_and_cows, analysis, dictogloss, realizational, dream, focus, law_of_hobson_jobson, microtypography, verbiage, judge, norse, rangeable, kigo, books, francophonie, native, neo, mystery, mathematics, instrument, lexical_analysis, sciagraphy, many_pages, instant_messaging, entry, question, love, essive, rhyming_dictionary, change, saxon, express, book, babel, phonetic, related, operator, translative, parabaik, yell, fancy, hymnbook, box, beautiful, basic_form, harmony, logograph, movie, lay, us, give_voice, pickup, pipe, logopoeia, pharmacopoeia, pilot_wave, punch_line, arabic_script, underword, transferred_sense, blob, signpost, prepositive, channel, linguistic, audiolingual, passive_vocabulary, laugh, prolative_case, sentoid, word, day, reason, comitative, term_of_address, probe, being, set_phrase, lettrism, king's_english, of, muse, written, paragoge, law, metanalysis, postmodify, shade, bible, shelf, child, motto, sequence, contortionist, function, british_sign_language, chinese_school, parole, school_class, city, doing, learn, physics, go_on_internet, inflection, computer, hacker, vulgar, metonym, anaphor, monosyllabic, english, illiterate, speaking, taboo_deformation, gathering, iconograph, afrikanerism, connective, steven, pop, diss, complement, greek_alphabet, material, trilingual, define, pictures, programming_language, intelligent_agent_activity, mandarin, help, speak_in_tongues, have, body, parselmouth, heptaglot, parts, way, population, describe, block, object, segment, equivalent, nest, record, obsoletism, in_library, kilobyte, derive, coiner, pain, lemur, unit, structuralism, booth, transliterate, bill, brazilian_portuguese, linker, calm, call, type, generally, fluff, bemba, game, talk, conversation, data, polysyllabic, turkish_language, say, biology, craft, talian, vocabularyclept, sentence_part, egg, discrete, indirective, modality, philosophy, wordbook, famous, band, bookhoard, notice, like, string_of_words, descriptive, acuted, japanese, parol, pictogram, large, script, beaver, paroxytone, whorfian, sound, collectanea, anastomosis, qutrit, pali, determinative, chevron, drift, gallery, polyword, ledger, gaelicism, sinicism, eye_rhyme, ukrainianism, teaching, portfolio, illustrate, crop, non_verbal, instruction, letter, give, determiner, historical, transcript, register, mediopassive, inspiration, distinctive, lexicogrammar, measure, hindi, placename, look, phrase, farm, you, poet, post, number, disyllabic, phone, chalk, schools, lydian, duck, blind, picture, individual, balkanism, acheron, painting, topology, together, bleep, riff, usage, lexicography, organization, pidgin, parseltongue, causal, information, german, wardrobe, sentences, company, phonology, uk, crude_form, expressing_information, item, cohyponym, paraphrase, adult, troponym, arrange, local, yola, synesis, album, art, anglo_saxon, line, canon, address, statement, cockney, represent, ergativity, cent, production, man, byword, newspaper, old_french, edge, chunk, sentence_fragment, barytone, entity, shape, lyric_video, flat, ancient_greek, tea, show, dirty_realism, mass, relation, be, metaplast, communicate, penultimate, translative_case, elect, college, head, syntax, written_unit, school, words, datum, tone, topic, no_changer, delexical, modifier, supplement, rhopalic, chord, ghanaianism, good, utterance, latin, anadiplosis, glosseme, gauge, crossnumber, fact, node, history, interrogative, ancient, paint, watching_film, treasury, reword, gender, generative_grammar, italian_language, pennill, retronym, psycholinguistics, style, abstraction, klang_association, alphabetize, flag, ending, telegraph, attributive, extrametricality, extension, arabic, but, pictograph, worth, romance, determinate_state, cartoon, animal, collector, process, purpose, indite, denotation, stilting, metonymic, scriptal, blanket_term, news, grouping, new_zealandism, guard, subjective, numeral, popular, cluster, propositional_function, portuguesism, oronym, small, meru, english_language, pipeline, egyptian, creolize, reference, its, clear, uncountable, classic, mean, wordage, europeanism, draw, reading, do, research, dictionary, ellipse, file, el, novel, jargon, photo_album, refer, hispanism, speech, treasure, passage, spoken, accentless, skill, poetry, brief, spanish, polyseme, inessive, classify, where, locate, hey, chipmunk, community, anagram, general_term, particularizer, ask, appositive, office, noun, clang, out, array, syncopate, phraseme, numerology, very, loanblend, play, primitive, lusism, exabit, making, old_irish, colonialism, middle_high_german, sketch, qubit, character, polish, color, vote, poster, shout, state, phraseology, term_of_endearment, christ, frenchism, accentology, qualifier, work, section, contains, vulgar_latin, leaflet, theolinguistics, adverbial, balance, petabit, paragraph, anemone, adprep, it, logogen, password, inside, logic, list, layer, sext, royal, silence, search_term, description_word, align, geekspeak, care, grape, latinism, writing_system, absolute, annotation, speak, surface, symbolicism, profile, medium, collocation, potpourri, loud, result, phonotypy, demonstration, fill, carrier, label, combination, ecbole, fox, phrasing, trisyllabic, garage, set, movement, assembly, nameword, prescriptive, space, microprosody, key, canada, action, young, doublet, plastic, observation, translingual, multilinguistic, arithmographic, christianity, expression, report, polyglot, dub, tetralingual, hymnal, single, choir, study, fit, internationalism, legendary, alpha_privative, alphabet, active_vocabulary, cohesive_device, pebibit, translate, sound_out, cognate, normative_grammar, programming, allative, fragment, origin, tool, combining_form, exocentric, arsis, subject, logogram, pages, nothing, rooster, enjoyment, making_sentences, welsh, reportative, listen, greek_foot, behaghelian, redundancy, incomplete_sentence, sesquipedalianism, jurat, has, lexical_item, serbo_croatian, tidbit, converse, heteronymy, euphemistic, pitch, gospel, homeoteleuton, dialect, compendium, propriety, notarikon, idea, circumflex, synonym, verbal, connotation, even, vocative, communication, phonetics, wenker_sentence, substantive, hot, voice, exclusive, ergative_case, rat, mention, syllabism, person, internal_rhyme, language_unit, semitism, valediction, caesura, overall, slang, abessive, colour, review, message, heteroglot, fair, fauna, down, form, sign, passive, cab, universal_grammar, dance, catchword, food, accidence, galaxy, attributive_noun, fucking, flavor, reference_book, glossematics, phonophoric, definitive, americanism, account, girl, double_acrostic, expound, empire, gather, brace, concern, unit_of_language, vetitive, cardinal, biblical_aramaic, distributive_number, thick, full_deckism, lexeme, q_value, calligram, anything, thinking, catachresis, dangling_modifier, hexapla, think, octapla, tonal, husky, plain, made, unction, big, double_marking, media, double_meaning, submorpheme, runt, univocal, houses, anglo_saxonism, diathesis, expletive, name, z, kiloword, representation, music_theory, stative, derivative, contents, descendant, very_old, place, bookshelf, grammaticity, rib, construction, music, case, example, supply, lead_vocals, guillemet, external_sandhi, word_break, numerolinguistic, arrangement, past, accent, vocable, multiple, range, order, noise, ground, long, intraverbal, identification, atlas, sloth, in_books, reduplicate, stem, pronominalizer, new_englandism, computing, leden, etc, activity, theology, or, technique, high, formative, listeme, 8x8_rule, secular, partitive, trademark, paper, palilogia, syllable, verb, berry_paradox, pick, specialist, crowd, explaining, rhyming_slang, syncopation, irish, life, marmoset, ictus, creature, modulate, units, mooring, sum, deictic, used, hangeul, graffiti, compound_imperative, proletarianism, illuminate, general, iterator, sing, bastardization, people, class, lexicometry, leed, dope, guide, heteroclite, attribute, bundle, printed, acute_accent, field, ability, aspect, relate, performance, euphuize, not, low, jespersenian, publication, fire, foreign, aphesis, reading_comprehension, scripture, adverb, title, thing, police, discourse, family, use, lyric, business, telling_story, on_paper, grapheme, eclipsis, talking, culture, simply, cacosyntheton, lexiconophilia, product, dad, shifter, fake_book, echo, map, song, thought, oxford, extended, bookwork, forth, triple_acrostic, beam, science, objective, complete, worm, legal, numbers_station, subordinating_conjunction, ball, aviation, afterword, guy, tell_all, byte, headword, ese, epanodos, ineffable, informetrics, quiet, supine, u, couplet, internal_sandhi, feel, element, end, epenthesis, country, drop, logogenic, library, glyph, numeronym, content, literary, melogenic, really, wordline, helping, thai_language, frame, geolinguistics, brake, argument, path, computer_science, nice, program, knowledge, poem, fakebook, nature, zoo, phoenician_alphabet, tonic, tin_ear, copula, interlinear, four_letter_word, interpunction, tell, lexicalize, diminutive, imagism, kawi, rip, sword, vocals, overword, birds, communicating, father_tongue, inform, wordprocess, chin, note, partword, passive_voice, songtext, descriptor, coding_system, dysphemia, speechlore, comment, position, mixoglossia, catchphrase, charade, chrestomathy, forest, test, instrumental, chinese_language, russian, orthography, gloss, code, bit, orthotactics, neurolinguistics, characters, noun_substantive, polysyllabism, concept, phrasal, polysemy, perintegration, tax, aramaic, translation, text, speechcraft, suprasegment, crambo, experience, grave_accent, jellyfish, meeting, epicism, cross_reference, liponym, many, lex, garden, volume, addressing, anamonic, intelligence, discipline, rhetoric, school_subject, adjective, almanac, spondee, creolization, auxiliary_verb, bark_at_print, australianism, broken_rhyme, wall, software, systematic_name, leg, mallspeak, scream, greek, shakespeare, what, mouse, catch_phrase, bareword, grammar_nazi, in_line, heavy, bald_eagle, advert, dude, initial, religious, language, ficus, teach, guoyu, wheel_of_fortune, epithet, substrate, middle_norwegian, misconstruction, universal, direction, hendecasyllable, makaton, clr_specific, practice</t>
+  </si>
+  <si>
+    <t>recent, wicked, moral_authority, perfectly, clean, jurisdiction, assert, fail, geometry, unreliable_narrator, straight, current, attitude, animal, e_residency, fallacious, military, purpose, bribe, place, misconception, incorrect, claim, change, accurate, fee, appear, guard, perfect, murder, option, garment, make, trust, failproof, us, due, junction, pickup, order, simple, wrongminded, wrongness, trick, clear, castle, in_wrong, conservative, conscience, present, mean, condemnation, preemption, duty, write, just, restore, put_one's_foot_in_one's_mouth, true, raise_red_flags, exploit, reason, imperfectly, being, morality, here, guilty, confute, law, abandon, loop, agree_with, fix, take, wild, age_of_majority, moral, office, one, location, display, very, authority, wrongtake, righteous, lines, play, pass, ideal, board, disenfranchised, concede, meet, people, cricket, offside, wrong, foreigner, expiate, misrepresentation, state, punishment, wrength, after, fallible, answer, nautical, faction, condition, insult, privilege, exercise, impute, awk, mend, assignment, holy, not, describe, injury, writing, nonstandard, object, tetralogy_of_fallot, misfortune, rent, sense, inside, culpable, handle, record, wrongfoot, re_entry, false, wrongous, use, opposite, floor, row, bust, pain, defendant, mischief, tortfeasance, sin, flawed, remorse, bill, light, mis, command, competent, anger, obligation, adequate, mistake, injure, middle, trouble, confound, opinion, legal, evil, misreckon, correct, misken, agley, corporate_citizen, staple, permission, british, righteousness, mad, rule, flop, access, hand, negative, situation, copywronged, violate, baseball, structure, blame, faulty, peremptory_challenge, movement, stopping_being_married_to, miscome, design, illegal, action, unblemished, corner, right_drag, foul_up, up, proper, common, justice, size, fit, judgment, bad, unlawful, outtake, exact, difficult, thin, everything, price, foil, iron, now, fraud, post, device, power, mishap, working, freedom, judging, error, bark_up_wrong_tree, correctness, mismean, dress, recovery, diagonal, rightness, position, immoral, perpendicular, improper, affliction, treat, ill_formed, infallibility, malign, lapse, franchise, wronghead, exactly, damage, misstep, australia, arrow, criminal, have_reason, unfair, if, correction, tax, dialect, suppress, idea, defile, mistaste, trench, sweet, window, turn, voice, slander, unbalanced, something_is_rotten_in_state_of_denmark, group, go_wrong, person, corrupt, citizen, okay, precisely, killing, property, put_foot_wrong, side, slang, altogether, enough, adjective, inaccurate, peccant, over, waiver, edit, naughty, sheet, grant, errorful, dead, food, air, make_mistake, truth, imposture, off, good, cut, wrongdom, interest, wrongly, visitation, mismove, wrongful, cross, pervert, amiss, amends, wrongdoing, signal, right, ill, far, particular, direction, abstraction, reprehensible, steal</t>
+  </si>
+  <si>
+    <t>flag, discharge, made, big, volunteer, sa, rank, fudge, squirt, run_in, preserve, judge, rate, clean, gill, intersection, party, merchant, heel, leader, crowbar, cream, core, fan, native, anguilla, hotfoot, slope, round, geometry, touch, land, bullet, extension, beard, liberty, table, mathematics, crawl, wave, skiing, squash, tube, market, continue, neck, wood, break, time_period, jockey, smear, animal, h, mine, prevail, process, obstruction, current, name, astragal, pants, bone, service, military, purpose, cave, closet, place, plant, observer, damp, reverse, change, double, drove, emergency, runless, deal, machine, male, cutting, book, convenience, case, appear, music, domain, plasma, guard, asset, hair, passing, realm, related, bird, blast, cake, venue, excavate, supply, flyover, racecourse, run_up, sail, moon, sudden, speed, brick, cruise, create, lake, internet, circuit, tennis, garment, make, bars, liquor, small, box, profit, hat, act, english_language, vessel, fighting_enemy, capsule, stream, arrangement, stroke, burn, dog, rush, runoff, cabinet, us, bunk, blade, live, vehicle, beat, range, dearterialization, bug, locomotion, melted, sports, license, batting_average, bodily, protect, long, ground, boy, punch, club, eat, course, escape, strike, health, conservative, enemy, present, transition, mean, flower, run_time, caput, carry, split, panel, natural, respect, hunting, pig, graft, write, for_cars, stop, metallic, nonexecuting, machine_gun, method, cao, draw, do, hunt, gang, lam, channel, pump, alive, fortify, smoke, stem, drill, spray, funny, bell, axe, vial, money, stay_fit, laugh, exist, match, eye, lump, collection, computing, master, day, violent, sucker, raid, activity, black, long_off, curb, move, feet, environment, lead, fight, shooting, lock, high, being, cove, street, covering, hurt, turtle, dandy, la, baby, paper, invasive, botany, soap, edges, farm_strike, cards, penis, french, acme, turn_off, can, law, specialist, century, take, quickly, hang, bloodletting, part, consume, living, crowd, flutter, dogs, degree, close, decannulate, suddenly, shade, throw, sleeper, cars, battle, issue, devil, roundabout, dye, battleship, self, molten, arm, one, motion, nut, out, riser, bing, creature, motivation, circinate, very, scale, dismiss, physics, quality, offer, capture, put_forth, flight, used, stick, territory, getting, cloud, urge, play, prohibit, settler, bus, pass, crime, hasty, coal, gully, bridge, board, english, grain, concede, banker, run_away, general, dominant, desert, illness, sidetrack, making, turnoff, people, black_market, cricket, gathering, execute, race, habit, river, class, matter, awesome, fluid, utter, plug, character, metal, dirty, smooth, philippines, sharp, zoology, crossing, color, building, math, rock_music, state, sex, smell, area, team, government, illegal_immigrant, enterprise, take_up, attach, nautical, behavior, turn_over, another, condition, aim, vital_organ, lave, material, human_activity, leaves, missile, suicide, suit, spill, anatomical_structure, car, subway, run, ring, exercise, bees, work, terminal, have, field, hurdle, god, body, exclude, ability, way, performance, muscle, real, tombstoning, not, level, fease, president, block, shake, nail, basal, low, muff, nonstandard, ankle, foot, talent, object, rifle, obturator, cabotage, port, rollover, ooch, firing, transport, foreign, fire, shell, ink, undifferentiated, jack, face, repeater, nest, influence, turning, article, inside, title, park, attack, record, journey, last, grow, hemodynamics, cast, logic, mouth, tack, fuel, agent, breathe_hard, family, use, financial, bar, business, wide, run_off, sea, cap, floor, exhaust, husband, break_one's_duck, pain, product, priest, well, oxygen, materiality, cube, twist, pace, truck, royal, catheter, leaf, unit, ore, map, ship, flea, horses, south_africa, purging, carry_through, bill, flame, light, bye, network, underground, insect, mousetrap, purchase, energy, type, drawing_room, injure, pop_music, astronomy, success, department, game, investment, campana, science, erythrocytapheresis, cease, miler, inflammation, trusteeship, worm, gutter, member, factor, entrance, television, say, ball, aviation, biology, fish, rope, playing_football, term, free, fly, average, craft, shed, join, world, guy, relationship, shop, drone, surface, compound, squirrel, spirit, termination, charge, nose, branch, prime, factory, crown, temperature, go, atom, gas, melt, let, extend, extra, village, result, bat, cowboy, organ, pad, danger, red, stay, boi, band, exhaustion, travel, organic, component, between, dose, application, hospital, like, finger, figure, new_zealand, ant, british, feel, clearance, goal, fill, drive, romp, noble, human, drink, country, fence, drop, carrier, film, singapore, axis, label, tie, brush, breathe, large, men, rule, literary, mineral, ordinary, freerun, hand, sound, really, bleed, gun, chest, add, strap, any, come_to, butt, negative, primate, scotland, baseball, structure, choke, garage, india, equip, bottom, walk, set, norman, movement, desire, top, contract, architecture, remove, drift, counterpart, sort, mining, pit, barker, intangible, organism, frame, workstyle, smile, back, design, point, space, into, essential, hit, fast, base, canada, battery, action, boss, scarper, illegal, run_down, solid_object, cell, man_made, weightlifting, distance, opponent, program, nice, doublet, lose, sewer, biological, player, rod, bright, sponge, two, nature, acute, up, blow, oil, woman, bow_chaser, single, provide, size, fit, physical, fear, shock, offshore, trap, pistol, farmer, i, historical, grade, lawyer, butcher, tread, hold, lochia, fake, husk, bad, smash, spot, hole, firefly, vent, mole, pot_boiler, blastpipe, price, register, canal, affair, surgery, horse, camp, athletics, room, capital, programming, measure, iron, does, shaft, extort, bomb, stretch, boot, look, farm, public, midline, whip, composite, bleeding, swim, post, see, cancel, tool, device, power, anatomy, chamber, ham, track, creek, fishing, coach, humans, cyanopathy, duck, bait, dress, trade, disease, little, stand, flash, rooster, cover, cold, dynamic, waste, weight, body_part, hide, swallow, transmission, bite, bee, sink, heading, turner, target, father, strip, position, slip, flow, event, got, poorly, some, under, manner, output, principal, plough, wicket, arc, rest, mountain, loose, spy, alien, test, carry_out, tail, cannula, slow, skipper, treat, very_fast, turkey_shoot, hurry, weather, bend, political, migration, preparation, information, independent, shot, honest, pick_up, company, house, tin, spider, smuggle, walking, fortification, organs, has, bit, outside, britain, barrage, war, uk, valve, quarter, taint, yellow, texas, trip, protection, item, slide, water, damage, run_into, arrow, blood, teeth, dialectal, television_episode, enucleate, euphemistic, defence, official, thrombendarteriectomy, local, sit, tank, page, gate, exec, white, drugs, mind, golf, genitourinary, obstruct, tax, traffic, weapon, stock, art, dialect, gold, medicine, wear, chat, suppress, receipt, line, bed, particle, mast, float, address, sky, run_batted_in, demand, control, plate, immunity, tender, piece, become, man, ocean, bowel, empty, hard, moving, header, stone, kill, climb, thrill, accelerator, apheresis, homunculus, reach, taste, turn, steel, rise, birth, meeting, shape, check, rat, positive, disposition, substance, finance, flat, mould, open, tend, ace, physiology, group, tally, sauce, six, pest, captain, shoot, stopping, succeed, square, commit_murder, person, mass, entropy, slant, crossbar, be, bib, typography, road, property, evacuate, pot, wound, sport, metalworking, rail_transport, side, social, yard, slang, games, advance, united_kingdom, hundred, half, sale, prison, solid, worse, desk, route, college, cylinder, tap, head, down, description, cause, series, chelate, feed, meaning, score, form, sign, wall, bolt, software, cachaemia, wing, school, motivate, metallurgy, force, load, bodywork, leg, dance, period, usually, system, chase, bracer, dead, food, shine, protocol, air, leave, various, button, sprint, hypo, ad, trunk, deliver, produce, step, humour, source, off, upper, lord, what, furniture, liquid, good, needle, turn_out, convoy, train, cut, ireland, obstacle, fun, drug, flesh, tear, interest, whitefly, marijuana, stress, forehead, wash, launch, resection, brook, holding, utility, staff, four, king, cradle, getting_physical_activity, sweat, statue, switch, cowboys, signature, screen, division, convey, hunt_down, video_game, memory, chemistry, smack, balloon, trial, cross, urban, executable, language, time, batch, slowly, conk, shoulder, euchymy, legs, medical, crystal, procedure, enforce, tour, carriage, animals, abate, parkway, england, fellow, monkey, execution, poker, away, stuff, mark, home, specific, soccer, great, direction, distress, motor, think, heat, spike, practice, toxic, chess, analysis, pan</t>
+  </si>
+  <si>
+    <t>authoritative, shelter, plain, flag, ending, big, opportunity, door, windsor, germany, panorama, bail, clean, printing, fountain, party, merchant, recruit, balmoral, passageway, our, round, geometry, explain, prince, land, bullet, below, queens, bow, but, table, scone, wave, starosty, short, prosecutor, neck, owner, wood, pier, straight, current, attitude, animal, adjacent, entertainment, pants, love, bone, tapestry, shoe, military, purpose, closet, receivership, place, oligarch, walls, plant, change, claim, lot, deep, construction, column, doctor, batsman, deal, soar, book, case, cry, rectangular, guard, concrete, hair, hollywood_accounting, colorado, credit, fine, bird, related, length, main, total, sail, moon, create, ruff, make, princess, sun, fancy, snow, gel, small, monarch, box, beautiful, vessel, cliff, stroke, burn, dog, corn, rush, lay, us, live, order, sports, ground, backman, protect, long, boy, rearm, seat, castle, cat's_paw, mean, flower, backset, bones, carry, pin, exploring, seal, rock, age, draw, smothered_mate, fold, pump, alive, dystopia, dictionary, money, coil, reputation_economy, full, erf, justiciary, eye, stool, word, vodka, bowl, activity, measurement, amount, chicken, black, carmel, sandy, elevation, inhabitant, jin, hut, feet, move, fresh, lead, virginia, santa_muerte, high, blouse, being, street, pleasure, mot, coat, turtle, clyde, baby, jump, don, pike, dungeon, fort, flood, can, halo, law, tailgate, colony, abandon, championship, virgin, living, part, crowd, store, card, close, degree, shade, similar, scorch, child, issue, old, life, self, silk, arm, office, one, location, riser, epaulement, dust, waist, creature, support, scale, authority, city, missouri, catwalk, bailey, physics, quality, shelter_intended_for_humans, restaurant, doorway, stick, pulp, cloud, play, castellate, toad, ribbon, thorn, pass, computer, habitat, coal, quill, levee, atmosphere, bridge, queen, europe, canary, making, watershed, university, defeat, people, cricket, benzaiten, habit, class, sharp, metal, orb, smooth, tablespoon, building, wrinkle, star, kingdom, rock_music, state, front_courtyard, giant, cup, government, pip, coin, clawback, root, material, suit, almost, car, everyone, ring, transportation, exercise, crab, work, have, dove, god, field, body, parts, way, bay, performance, real, garland, level, dai, slash, minute, balance, googolplex, knight, writing, mud, foot, vice_president, landmark, object, tourist, steamer, ice, robber_baron, depression, lap, regalia, castellated, transport, fire, rabbit, jack, kings, face, puppy, nest, gravel, united_states, inside, park, die, yoga, attack, record, shark, tithing, thing, mouth, about, grave, pony, defense, bar, elevator_music, fairy, royalty, pain, american, congress, earth, airplane, twist, unified, royal, unit, imitation, snake, ship, flea, royal_house, song, bill, anchor, belly, lantern, tide, insect, dirt, care, trout, type, grape, constable, drawing_room, astronomy, housing, middle, science, with, ward, maine, huainan, special, china, opinion, tram, legal, circle, galosh, member, peak, generic, frostbite, ball, nearest, biology, bricks, fly, shed, preslug, job, world, medieval, shop, soldier, barony, spirit, irs, profile, regent, rye, nose, mercury, burial, rooms, spire, crown, atom, go, crown_corporation, bread, bat, danger, organ, famous, band, angel, zhou, component, between, again, like, finger, ant, british, filth, steam, fill, dollar, tall, end, noble, human, drink, country, drop, wax, dock, disneyland, duke, tie, shave, large, dwelling, rule, stronghold, occupation, beaver, ducks, mineral, hand, fox, opposition, chest, add, wildcat, beck, situation, turf, bud, baseball, horizon, structure, residence, garage, interview, thong, bottom, remote, walk, top, hill, liao, movement, suspended_animation, castlebuilding, mining, coffin, coast, church, pseudocastle, proof, organism, combination_product, feature, smile, back, point, space, must, fruit, place_live, fast, base, canada, glass, cult, boss, inch, wire, spain, cell, shack, hamlet, rainmaker, young, rook, lordosis, chessman, spring, two, nature, up, report, theater, dinky, oil, common, woman, fit, physical, hip, clothes, ohio, letter, farmer, crown_green_bowls, businesscrat, flowing, historical, rollback, manor, ether, center, gwr, crash, hole, mole, translate, pot_boiler, molecule, ages, everything, fbi, turn_around, dull, synagogue, affair, fall, rag, room, capital, stretch, boot, evening, now, sneeze, turret, see, swim, number, hudson, castile, castrum, device, job_action, bathroom, castling, birds, cone, several, accessory, collecting_society, anatomy, chamber, creek, coach, humans, chin, dress, yorker, stand, little, corpse, flash, cover, weight, together, disassociate, partner, gumption, target, muffin, position, freeze, organization, ubo, gallon, under, tickler, divider, rest, mountain, tail, children, weather, information, dressing, boat, wardrobe, we, institution, matter_of_britain, company, house, concession, frost, diamond, highland, fortification, bit, has, offensive, outside, tales, cathedral, uk, important, barge, water, build, shank, australia, adult, arrow, major, large_building, great_outdoors, conceptual_work, forebuilding, actor, pitch, ruin, wick, local, bold, servant, gate, white, mind, crotch, dike, curtain_wall, skyscraper, put, dialect, art, medicine, education, pope, aid, line, bed, administration, planet, sky, address, tump, beer, wedge, wet, cent, piece, man, landscape, rain, boys_club, fantasy, existing, stone, parliament, lemniscus, header, climb, edge, reach, taste, turn, blue, cooler, rise, meeting, shape, treasurer, chair, check, alone, finance, flat, homo, group, tree, seven, show, spleen, hoarding, captain, consistency, square, tower, person, grand, be, garden, road, middle_ages, pot, wound, spanner, rail_transport, side, yard, slang, keep, adjective, kingdoms, among, sale, soup, solid, court, cannon, desk, fair, college, head, cellar, down, description, wall, rapid, form, score, wilderness, hollow, school, left, over, spread, palace, momo, dance, cat, leg, usually, torso, air, points, trunk, step, wisconsin, source, dry, off, lord, site, mouse, good, needle, battalion, urine, bear, teakettle, fun, natural_resource, jobber, flesh, nobleman, castlery, green, wash, holding, hurricane, king, ancient, sweat, statue, swat, paint, bald_eagle, cross, mansion, language, knock_over, acceptance, meridian, promontory, collective, milecastle, regular, maker, right, tantalus, luft, ill, far, personal, england, tarn, raise, pound, poker, away, stuff, skull, frog, home, direction, great, lad, sand, pointy, heat, highway, shut, chess</t>
+  </si>
+  <si>
+    <t>seat, furniture, sitting, chair</t>
+  </si>
+  <si>
+    <t>bayonet, seamanship, door, also, preserve, package, scientometrics, bowling, fountain, cream, ointment, bullet, below, blank, angienchyma, table, urceole, pencil, rotaxane, screw, break, jockey, mine, astragal, tribromoethanol, pants, bone, military, collar, pocket, double, hyperbaric_oxygen_chamber, deal, concrete, bird, calyx, tea_party, apple, vernacular, cleave, make, pseudorhabdite, graduated_cylinder, magnetic_stirrer, corn, wilhelm_ostwald, comb, boy, pudding, cat's_paw, transition, strong, spitbox, henry_cavendish, silver, mound, silicone, flute, weighing_boat, method, alive, smoke, blabber, bell, picker, stupidity, labour, mit_media_laboratory, bottles, electron_capture_detector, nessler_cylinder, labs, snipe, test_equipment, eye, automaton, cane, mold, chicken, room_in_house, dome, bro, move, eccentric, informal, pleasure, normal, rolodex, cup_of_tea, penis, ball_and_stick_model, stir_bar, part, store, dogs, nuts, robert_bunsen, jellybean, weighing_funnel, issue, laborant, one, taper, manufactured, catwalk, forty, chromophane, cutter, board, shiny, defense_laboratory, canary, chief, river, velamentous, testing_ground, bush, building, wine_o'clock, volumetric_flask, oncomouse, coin, root, anatomical_structure, ampulla, angiography, stir, enterprisey, headstage, slash, hour, gauze, claykicker, thlipsis, minute, human_body, cool, lensmeter, kissing, horn, bog, shell, vasculiferous, plant_organ, clamp_stand, handle, attack, marker, mouth, washing, colony_counter, floor, rhabdoid, researcher, beef, twist, smiler, rhizobox, leaf, slides, magazine, alcoholic, flame, light, command, anchor, knob, kite, sealab, cant, injure, workspace, drink_milk, soft, glossodynia, middle, gorge, hull, microfractionator, olive, coolroom, hump, generic, clown, fish, term, shampoo, watch, spirit, burial, go, zero, scotch, organ, component, ant, silicon_dioxide, human, dock, rumkin, notochord, filling, hand, stegnosis, opposition, angle, any, centre_of_effort, bud, cosmetics, vacuum, finite, telltale, biotechnician, intralaboratory, fool, medical_laboratory, grass, censer, knag, fruit, tab, ladle, base, glass, reaction_vessel, opening, consuming, test_tube, rod, player, two, up, proper, gridiron, woman, blotto, melvin_calvin, ear, log, hold, pot_boiler, diplomatic_bag, pimp, dag, lug, spam, vascular_system, horse, belt, poleman, kettle, balance_room, superlab, device, trash, rodwork, anatomy, tiger, chamber, robot, pint, engine, dioxide, padelle, little, workstead, flash, tag, cover, body_part, hide, crack, bee, pottery, string, yoke, lift, burner, rest, mountain, rice, drug_lab, breast, auxiliary, house, mice, diamond, bunsen_burners, pycnometer, narrow, barge, lagena, slide, australia, fiasco, pole, trophy, based, flask, balls, snub, stock, angling, bolts, clobber, reflux_condenser, receptacle, control, plate, piece, fred, bell_jar, fur, empty, glassware, taste, window, blue, luna, tongue, lag, group, sauce, jar, ribband, captain, link_motion, joint, tare, make_out, ernest_rutherford, sport, binder, dip_pen, strength, nef, choice, phytotron, soup, polyrod, cylinder, tap, chemist, cat, sexual, drag, robert_curl, dead, bishop, thimble, tidy, button, bath, gomer, cut, anus, format, angiocardiography, sporangium, sweat, plug_rod, shitty, nulled_work, prick, legs, microplate_reader, interfere, cynarrhodium, monkey, poker, dropper, stuff, reagent, bunson_burner, sand, lavatory, analysis, fundus, scoop, squeeze_box, corporal_punishment, spool, olives, lightning, aluminum, cheek, pod, clean, party, labrador_retriever, horseradish, crowbar, ornament, round, idant, mathematics, bicycle, instrument, hog, tube, outer, marquise, p, anneal, narcissus, matrass, fleet, cave, plant, lab_rats, change, machine, cages, book, salt, asset, related, brown_george, bromine, cake, tight, main, oral_gratification, brick, thoracic_duct, raëlism, fancy, chemistry_laboratory, twig, box, globe, tub, burn, rush, us, blade, vehicle, brassiere, pipe, divining_rod, vitreous, warp, incongruent, split, biolaboratory, mare, gas_jar, sperm, broad, gripe, gin, laugh, skin, measuring, decanter, word, generic_term, chill, wind, laboratory, oth, ufology, iceberg, tolerance, barnacle, botany, soxhlet_extractor, glasswork, wad, take, casting, child, microscope, microvessel, old, walker, chocolate, patellula, beamer, scyphiform, support, scale, lines, stick, bus, devan, vortex_mixer, drizzle, spectrophotometer, alcohol, vulgar, laboratorian, banker, compartment, speaking, mirror, pen, cricket, show_flag, wane, flasher, metal, dirty, sugar, pop, forward, lae, bum, oxide, nautical, jerk, material, glassformer, laboratorily, inhumation, crab, have, body, water_bath, way, florence_flask, block, implement, wang, object, knotter, surroundings, port, different, stinks, cottage, tritorium, chain, ink, twelve, face, nest, underwater, piston, using_computer, bar, bent, liquid_scintillation_counter, cap, abuse, atory, red_eye, apparatus, crocus, coke, unit, intrafusion, ship, membrane, flea, gyrorocker, bill, proxy, turtleback, seeing, lemon, astronomy, game, talk, invisible, test_tubes, dank, data, toast, margin, biology, craft, egg, nose, gnomon, lab, bread, band, labmate, bank, like, finger, standard, smallcraft, urinal, microbe, vein, drink, wax, hydrogen, duke, bluebottle, large, sovereign, rule, beaver, wallet, sound, lorica, chest, anastomosis, glassware_and_tubing, mailer, omphalode, pouch, scientifical, lab_rat, walk, büchner_funnel, glass_container, smile, point, hit, formal, chick, boss, corner, enclosed, cell, calicle, glass_bakers, incoercible, pseudoheart, blow, apricot, quarrel, crop, hoy, cupper, strake, historical, bag, mess, toxic_waste, growing, hole, earthenware, super, tooth, surgery, camp, measure, field_test, facial, instruments, hardware, number, bathroom, collateral_circulation, bogey, bacchanology, bin, citizen_science, hydrate, duck, blind, ballot_box, rhumb_line, topology, scull, strip, buttercup, organization, own, lymphangiogenesis, weighing_bottle, passing_class, boat, skylab, tin, secernent, wand, tropic_acid, counterimmunoelectrophoresis, ronald_george_wreyford_norrish, uk, quarter, nonlab, gray, augustin_jean_fresnel, item, rete, silicon, adult, blood, william_hyde_wollaston, vasodilator, discord, stream_clock, white, chemists, microscopes, litmus_paper, put, wheatstone's_rod, chloral_hydrate, weapon, onto, knot, volitile_chemicals, line, filler, waterguard, imbibition, man, yacht, ocean, mop, squid, cyatholith, workplace, hard, storage, moving, sensation, rhabdoidal, edge, rod_cell, basin, scientific, shape, ten, navigate, flat, open, scientific_method, pearl, square, continent, phial, mat, laboratories, keep, amphiaster, martin_heinrich_klaproth, recycled, cd, calyculus, science_fiction, head, roll, labrador, virgula, take_wheel, boost, school, lymphangioma, jacket, reading_newspaper, chase, softwarily, hypo, circulatory, bear, train, fungus, drug, gauge, green, omer, staff, taffrail, slap, mill, switch, screen, paint, chemistry_lab, researchers, middle_body, jaw, fresh_fruit, butter, mortar, crystal, trip_out, lab_coat, cigarette, william_henry, basket, robert_boyle, root_canal, science_lab, piloting, cotyliform, prepared, ground_glass_joint, science_laboratory, great_vessel, rape, turn_up, wet_lab, front, merchant, heel, perilymphangial, interlaboratory, touch, gassed, extension, bury, subscapular, plumbing, wood, straight, animal, dry_lab, cupping_glass, h, biology_lab, closet, erlenmeyer_flask, buster, steer, verge, beverage, fare, bot, porta, hair, plank, shower, fume_cupboard, spatula, snow, small, sailing, manubrium, vessel, capsule, chink, spiro, beat, distribute, aaron's_rod, headspace, separating_funnel, pod_slurping, lunette, clear, lime, strike, cup_of_coffee, scientist, affect, hammer, telangiectasis, rock, do, research, pump, kids, spray, scientificity, file, vial, studio_control_room, stool, master, preparation_room, go_down, bowl, speech, dynamite, lock, pins, waterfall, buncher, nursery, samariform, sundowner, soap, pelton_wheel, science_center, shredder, john_tyndall, can, technicians_and_nerds, gnotobiont, transfuse, hang, headaches, george, general_term, chemometrician, similar, variation, computer_work_station, snort, peg, bottle, office, out, aperture, swashplate, erg, very, clock, beakers, corolla, pack, ships, whelk_stall, play, cockhead, ram, ambulometer, sass, dp, making, university, layout, habit, multisiliquous, polish, exetainer, color, poster, shout, lab_work, tang, sex, slim, pericambium, slug, virgate, lupper, suit, one_pot, car, cruse, charter, ramrod, work, crt, clone, kicker, pitcher, kiss, shake, inverted, acid, exolabial, lap, fractionator, stringer, antoine_lavoisier, jack, glandulation, biscuit, inside, büchner_flask, berry, packet, sulfur, play_basketball, thistle_tube, tubes, gauze_mat, john, pony, list, lithium_carbonate, chimney, sea, abc, bunker, rod_shaped, magic, homecage, truck, empyreuma, batter, fistula, lantern, chemical, gutbomb, lab_animals, tester, fall_to, grape, bra, scyphus, guinea_pig, c, squeak, expansion_adapter, lemonade, biolab, huge, textshop, transit, pool, speak, shop, medium, laboratorization, macrovessel, chemical_reactor, josiah_willard_gibbs, sneaker, crystallizer, extra, result, bat, discordant, yaw, british, stretcher, catch_fish, fill, tall, multistirrer, label, jam, plank_sheer, mineral, fox, truss, leukapheresis, bate, herring, gun, butt, container, choke, garage, in_school, locker, bottom, meatware, top, set, movement, pixie, hydration, coffin, edgeware, feature, back, space, endolymphangial, bubbles, key, autostainer, canada, action, shatterbox, shakeout, wire, beehive_shelf, spinner, young, plastic, mom, toilet, flagfish, helium, fairway, sap, milk, single, wingsail, apartment, size, quiver, fit, manor, juice, acre, bad, smash, mole, nematocalyx, blue_ensign, appendage, endolymphatic, whale, iron, shaft, bomb, kernel, tangible_thing, wetware, whip, time_capsule, straw, see, cork_borer, corporation, tool, cone, spear, paste, strangulate, nonlaboratory, elaboratory, subject, pointer, loggerhead, rung, disease, rooster, enjoyment, swallow, bite, tissue, zero_air, cotyloid, kenning, joseph_black, under, treat, fuzz, scat, dimensional, institution, prize, firewall, cathedral, engineering, trip, holding_liquid, water, build, labrum, teeth, dialectal, bacteria, bucket, palm, ring_stand, rocket, pitch, potash, vas, folding, ductus_arteriosus, ball_flower, contain, dabba, wear, barratry, float, heart, toe, hijacked, lip, lithium_oxide, even, afterbody, stone, crater, cotyle, navigation, reach, policeman, hot, colloquial, test_bench, rat, positive, ace, bunching, inducement, graduate, person, ark, jet, louis_pasteur, road, doll, pot, wound, tripus, a, pyro, slang, schoolship, solid, desk, drawing, down, cause, form, score, brown_bottle_flu, mesoangioblast, food, shine, air, galaxy, bothrenchyma, recipient, schlenk_flask, moonshine, league, autoclave, vacuum_flask, account, girl, wash, casing, holding, sampling_straw, sway, cockroach, symposium, womb, hop, bookcase, hook, balloon, pisspot, snake_oil, sup, oxy, labside, photoreactor, thick, animals, cagewash, keeping, anything, flaskless, booze, square_yard, home, commingler, angioscope, runner, digester, think, heat, sharashka, microfuge, bump, genitalia, equipped, made, pasties, big, minilab, cold_finger, interior, angiology, rootball, beam_engine, land, spiraster, tune, session, operatory, prelab, mod_man, z, name, basic, roller, contents, muller, shoe, ic, amoeba, bump_and_grind, place, fodder, mono, construction, whitecoat, doctor, lymphangiopathy, carbon, arcana, music, invert, case, foist, gasometer, sand_bath, total, cage, soda, ton, liquor, nip, vacutainer, vasiform, dog, cabinet, pie, sports, license, ground, protect, pinch, punch, new_phone_who_dis, eat, soak, scab, carry, pig, graft, rack, just, external_anatomical_part, stem, tupperware, collaboratory, computing, keg, weak, plate_reader, garbage, rum, artery, archimedes, lead, mink, nickname, gas_syringe, high, street, covering, sandwich, gear, baby, polycarbonate, paper, gatherer, pyx, grind, insert, pasteur_pipette, specialist, ind, barrel, throw, physics_lab, knife, experiment, glomus, spindle, arm, richard_kuhn, kid, pathology, dust, biocontainment, politics, used, cloud, adults, glass_of_milk, ml, labware, white_coat, having_food, crucible, mondo, formula, agate, lymphedema, joseph_louis_gay_lussac, general, people, cupping, thermal_cycler, class, experimentation, fluid, sharp, spoiled_grape_juice, brain, zoology, occlusion, schlenk_tube, area, dope, beak, cup, jamoke, laser, michael_faraday, ounce, poison, bundle, cistern, run, mask, field, gallipot, not, arteries, mud, tar, foot, conical_flask, ice, envelope, cuphead, transport, underage, fire, ligature, junk, puppy, fiver, park, coffee, scientists, grow, thing, biostat, knuckle, defense, business, squeegee, fairy, cupola, lance, product, roust, supper, thermomixer, well, dipper, stomach, wine, drum, retort_stand, pomander, swag, stopper, pill, irving_langmuir, ernest_solvay, rats, stale, sickness, beam, jelly, science, lips, bladder, legal, ball, swing, fly, badge, cupboard, rotary_evaporator, gas, red, stay, labouratory, henri_becquerel, chi, staple, squilgee, new_zealand, tip, feel, element, meter, drop, shovel, sack, abeam, content, cuisenaire_rod, brain_freeze, strap, alchemy, baseball, fat, blood_vessel, suitcase, counter, microorganism, shaker, frame, potassium_permanganate, churn, brake, multilaboratory, round_bottomed_flask, inch, toy, storage_device, safe, primer, fleaker, wimp, wale, fixture, caddy, growth, crash, samaroid, clay, petri_dish, watch_glass, laticiferous, research_laboratory, room, bacillar, bunsen_burner, cam, rosedrop, sequential_file, winkler_bottle, witch, marble, research_lab, fishing, chin, sand_canal, drink_water, um, cold, snap, weight, sink, gooch_crucible, germ, minifilter, flow, beer_o'clock, watercraft, hemostasis, daniel, dolium, laboratory_equipment, grip, arc, test, bunsun_burner, daniel_rutherford, microsporangium, thermometer, cold_storage, straightness, pick_up, trend, tomato, bit, boiling_tube, portion, control_rod, retina, hemin, shank, catenary, golf, roald_hoffmann, medicine, footshock, bed, beer, sock, diaphragm, wet, lα, output_device, investigation, beaker, ply, chemicals, retort, kipp's_apparatus, thrower, sausage, urn, steel, tapper, chair, raft, substance, experiments, polymethyl_methyacrylate, sow, sam, knowledge_box, gad, animal_welfare, slant, dyke, garden, volume, dmitri_mendeleev, side, discipline, yard, thermoshaker, cleanliness, wall, software, wing, cheese, bang, nutmeg, load, leg, usually, inosculation, serial, chops, step, tests, off, mouse, liquid, lab_bench, bean, napoleon, rug, place_where_do_research, mule, refrigerator, launch, washback, small_dog, hans_fischer, radical, candy, latex_gloves, chemistry, spelk, heavy, knockout, contest, melon, ficus, slipper, trachea, dolphin, lymphangiectasia, pound, propagator, scientifically, breakwater, scintillation_vial, buccolabial, vivisectorium, theory, appearance, pan</t>
+  </si>
+  <si>
+    <t>item, peace, ending, big, end_of_line, city, bank, necrosol, hospital, like, physics, figure, detroit, goal, stick, austria, concentration, end, human, country, party, society, library, bus, cornfield, native, plot, our, civilization, whole, new_orleans, norway, men, medicine, art, bullet, graveyard, bridge, board, sound, michigan, bed, mathematics, cherokee, situation, continue, asia, people, baseball, county, wood, aircraft, race, town_twinning, animal, sad, department_store, sky_burial, mummy, brain, love, bone, mining, coffin, storage, mass_grave, building, church, moldavian, kill, grass, gravesite, place, smile, state, sex, space, point, end_of_world, urban_area, pocket, urn, birthday, knag, birth, voice, base, entity, nautical, action, shape, condition, grouping, music, stadium, poison, nice, lady, sewer, group, tree, ring, surface_of_earth, murder, show, ekistics, main, body, nature, person, theater, lots, mortuary, airport, breathing, square, mass, internet, road, zoo, kill_people, population, killing, apartment, small, immortality, chicago, block, box, governor, foot, farmer, valley_of_shadow_of_death, stroke, movie, protest, object, slang, us, butcher, adjective, range, prison, ground, republic, twang, hotel, shell, head, course, homicide, canal, health, wall, rap, form, park, die, handle, fall, room, school, police, grave, tangible_thing, bar, farm, americana, culture, dead, gang, post, alive, mexico, pain, georgian, bell, earth, money, bookstore, lord, plotinist, plane, unit, albert_einstein, humans, tonga, computing, note, temple, picture, disease, magazine, motel, activity, cold, heaven, feet, lead, theatre, womb, xi, emotion, statue, division, position, being, temperate_climate, type, memory, hook, organization, personification, gather, bunyoro, cross, paper, language, new_york_city, middle, mortal, rest, mountain, rice, alien, china, legal, dying, cause_of_death, television, carnary, living, crowd, term, degree, community, animals, world, house, surface, skull_and_crossbones, walking, battle, geography, home, life, office_building, death, war, factory, uk, born, go, downtown, engineering, childbirth, village</t>
+  </si>
+  <si>
+    <t>panic, big, support, like, explore, quality, british, goal, smoke_bomb, agitation, fill, stick, having_asthma_attack, end, human, party, drop, pretty, computer, impression, fail, coal, tax, forward_pass, education, ordinary, sound, problem, mathematics, worst, negative, failure, omen, people, break, complex, india, mine, set, awesome, wrong, metal, taking_midterm, place, point, state, joke, relaxation, change, smell, bid, area, deep, anxiety, double, steel, key, meeting, base, sometimes, action, attribute, condition, book, nice, music, fitting, american_football, lose, run, grill, related, cake, example, know, ability, body, person, up, slant, mass, performance, cage, kiss, wound, unskilled, having_examination, judgment, social, protest, stressful, historical, slang, us, adjective, bad, crash, choice, mole, pipe, idiots, fire, scary, sense, kind, boy, trick, club, low_grade, satisfaction, homicide, die, attack, room, apprehension, wanting, iron, false, go_bad, stretch, bomb, use, public, age, system, take_exam, dead, see, smoke, answering_questions, off, effect, sin, skin, laugh, unit, functional, subject, computing, blind, counterfeit, tag, black, history, boredom, cheat, move, calm, tusk, accident, fight, candy, target, being, climbing_mountain, type, covering, memory, bomb_out, organization, unsatisfactory, failing, gather, chemistry, cross, jump, under, success, game, botany, time, here, science, test, experience, spy, loss, take, hang, right, drunk, term, free, neglect, taking_exam, guy, concession, shop, spirit, insufficient, issue, reader, nervousness, flunk, prime, uk, think, sadness, excellent, debt, out</t>
+  </si>
+  <si>
+    <t>buddha_nature, peace, bourignian, crewe, bursary, sob, sermon, door, markan, package, urim_and_thummim, bagel, flying_spaghetti_monsterism, amphictyon, god_almighty, celebration, confinement, bowling, evangelicalism, fountain, fashion, dirty_kitchen, balebos, japan, above, throne, miner, fail, buck, our, ointment, mary_baker_eddy, bullet, east, blank, loa, table, adultery, sex_worker, have_sex, euonym, jurant, owner, neck, break, exhausted, hasidean, denomination, invocation, mine, transcendental_critique, fallen, bone, godly, bedwardism, macumba, military, mother, infamous, observer, dorcas, double, burgh_of_regality, deicide, stranger, town, deal, two_legs, paschal_lamb, romantic, concrete, intoxicated, proprietarianism, fine, bird, chishti, apple, teacher, acknowledgement, aeronautics, sail, clean_out, werehog, woodshed, speed, abstract, worthing, xerophagy, kilt, bourgeois, committee, heretoga, internet, make, omnipotent, sun, princess, wonder, pneumatics, yichud, titular, unholy_alliance, hat, human_touch, veve, self_flagellation, lore, pattern, musical_instrument, westminster_abbey, connexion, englishperson, ancestor_worship, common_law, corn, god_slot, mongolian, warm, deification, pentecostalism, boy, psychospiritual, seat, enemy, modernism, strong, warpath, outsider, writer, officer, opera, concrete_noun, cheater, story, illuminati, midgard, sky_daddy, docetae, hood, method, age, entrance_hall, smoker, church_tower, businessperson, goddess, friar, felix_culpa, alive, medical_practitioner, afford, wayside_pulpit, smoke, halloween, go_to_church, crispus, bod, gods, psalm, congratulations, merperson, bell, rota, prophesying, asiarch, monotheism, other, stupidity, picker, demogorgon, struggle, font, eye, keepsake, pallium, astronaut, knell, candidate, zap, nation, buy_food, chicken, black, exorcize, sandy, telestic, cosmism, modern, snuff, feet, bumper, genocide, buy_car, terminalia, move, pride, emotion, irreligiously, canonical_hour, eat_spaghetti, established_church, immortal, new_christian, pedagogue, godforsaken, exarch, possess, franciscan, penis, laying_on_of_hands, utopia, fallen_angel, faith, loop, gentlebeing, miraculism, religious_song, part, store, rotation, dogs, holy_writ, hypostasis, grammar, scapegoat, issue, devil, prior, do_laundry, anthozoa, ava, sincere, one, motion, linguistics, sabellian, seeker, assess, authority, establishment, aa, sunday_school, active, quality, narten_present, luciferian, bus_stop, to, heave_shoulder, classification, dipteral, religious_education, gain_knowledge, queen, fundraiser, mayor, tantra, blossom, money_supply, word_of_god, devotee, desert, novitiate, maltese, hanger_on, pastafarianism, heavens, chief, darrein, alien_priory, reverent, finish, ranter, teetotum, christmas, uncleanly, building, magyar, star, kesh, andrew, martin_luther, minyan, candle, islander, coin, westport, enjoy, ea, another, salvatorian, flagellant, acquirer, raphael, root, encloser, revere, ophite, tabu, reject, ring, transportation, god, celebrate, cresselle, bull, union, telephone, judeo_christian, hostie, characteristic, slash, minute, practice, propylaeum, writing, nonstandard, heterosexual, hagiotherapy, human_body, cloister, flabellum, winegrower, flatter, cool, misfortune, replicant, army, resacralization, shell, v, genesis, savingness, etiquette, appropriator, rap, united_states, dunny, article, handle, fetial, social_interaction, yoga, buzz, westminster_cathedral, tithing, trope, ninja, mouth, drawer, governing, agent, folk_religion, hicksite, chinese, presence, floor, beelzebub, physician, dereligionize, sodom, tradition, anointing_of_sick, slut_shaming, priest, mail, american, ambrosial, happening, earth, ser, slogan, twist, appointment, temple_in_jerusalem, purity_ring, pentecostal, seraph, karbis, holy_man, household_deity, karakia, carbon_footprint, ipswich, alcoholic, go_to_school, freehold, flame, jewelry, light, describing, command, evangelical, judaism, shetlandic, forgiveness, cheat, anger, ben, dirt, kite, computer_user, cant, admiration, sakawa, e_meter, happiness, expressive, creed, karezza, batman, soft, solution, middle, with, hook_up, irreligious, elegant, tajik, sergei_diaghilev, generic, blasphemy, fish, beadhouse, term, loving, watch, foresentence, pluriversity, saurian, omnibenevolent, arius, worldling, squirrel, spirit, thomas_jefferson, running, may, millennium, charge, incarnate, proposition, branch, crown, go, arian, beast, zero, organ, agreement, godfather, drighten, jonestown, conference, scent, thunder, mohatra, pontus, hospital, beadsman, gobryas, venerable, necrophagia, connect, liberalism, human, worker, pagoda, bosses, men, antireligious, filling, moses, ungodly, ordinary, hand, archdevil, lustrum, any, theomatics, primate, antipater, vacuum, structure, india, sad, old_man, stag, fool, age_of_reason, epistle_lesson, branch_davidian, sort, church, anastenaria, orange_order, sacerdotalism, christer, modius, multiethnic_person, tab, infidelity, drop_ball, nana, iconometry, mediocre, spiritual_awakening, hamlet, consessus, player, canonized, spring, female, sun_worshipper, two, armenia, up, laugh_about_joke, oil, proper, ceo, flowers, woman, acharya, infinite, antigod, suprareligious, immortality, fear, trap, salvation, farmer, capacocha, utas, transmit, log, hedge_sermon, who, petrobrusian, missioneering, owe, center, ana, hold, haugean, hemerobaptist, kind, safe_haven, virtues, mahound, price, cush, tailor, advocate, herder, rm, ukrainian, mercy_seat, divine_right, watchnight, reconstructionism, horse, seth_name, campbellite, rash, ursuline, sola_scriptura, lion, paean, provision, hurley, religiously, broken, tenor, north_america, his_holiness, sethian, rear, fugitive, hindustani, device, syriac, trash, battle_of_britain, nuwaubianism, great_britain, football, water_carrier, behemoth, surprise, model, humans, ultimate, charm, image, flash, hobson_jobson, cover, interbeing, holy_spirit, interaction, call_originator, theist, hide, koukoulion, eid, bee, holy_ghost, witness, illegal_alien, marprelatist, target, renewalism, acroamatic, resurrectionist, historic, gdi, relative, spiritual, string, manner, every, esteem, flandrian, christianese, lift, rest, new_lighter, martinism, sabaoth, jehovah's_witnesses, goat, weather, higher_power, political, godcast, epicene, see_light, tithingman, house, providence, powerful, concession, radha_soami, hierophobia, rogue, agnostic, please, cooperation, pillarist, knock_up, panspiritual, important, charles, praised, scandal, yen, slide, anythingarian, juristic_act, envy, cope, megaministry, werewolf, alhajia, praise, old_testament, official, theological_virtues, trophy, chapel, based, ptolemy, sphinx, informed, mind, frenzy, sanctify, xenophanes, stock, education, enter, mumbo_jumbo, vocation, beckon, pope, pronoia, lectisternium, clergyperson, logion, demonolatrous, mortify, control, plate, come, vayu, creativity, beguine, judgment_call, paludamentum, student, tag_day, atheism, roman, second, fantasy, sd, jumper, london, assets, placement, revealed_religion, celebrant, welsh_argentine, moravianism, ajax, symbol, kill, high_altar, elysium, women, homunculus, harrisburg, taste, congius, blue, window, birth, luna, tolerantist, mundane, spiritualness, undeify, behaviour, sphere, evidence, affiant, mantlet, always, amen, skip, tongue, walk_hospitals, temporal, tao, group, nonjurorism, functionalism, yarmulke, clicker, value, captain, consistency, offertory, few, decretalism, techno_shamanism, citizen, halal, marian, morrisite, priscillianist, killing, property, agape, communist, liver, come_outer, sport, find, beggar, house_of_god, vestryperson, campbellism, orphism, prospect, choice, ordeal, barakah, friends, predict, chinese_buddhism, virtue, luck, tap, tlaloc, chastity, seah, meaning, sadhana, judgement, harikatha, vintner, keswickism, sentence, blown_up, unworldly, bliss_ninny, mechanism, guru1, system, needed, anabaptist, dead, bishop, possibility, quiche_eater, advertisement, sprint, billionaire, georgian, truth, modekngei, dresser, gospel_music, source, lord, bath, plotinist, hannibal, chalcedonian, gomer, death_cult, cut, razana, abrahamic, monoreligious, satan, spiritualism, elementary, interest, wise, abraham, bastard, exeat, zeroah, token, principle, four, billy_graham, statue, biblethumping, henotheism, video_game, deprogramming, personification, services, mites, premonstratensian, exclaustration, ego, unknown_being, year_of_our_lord, augustinian, time, lightning_rod, east_asian, new_religious_movement, interpret_away, fandom, church_thing, taxes, hartford, deed, upstairs, taborite, diplograph, azymite, put_away, clever, maker, legs, role, experience_meeting, audience, personal, portrait, praying, goodman, poker, logos, nick, particular, stuff, autem_gogler, rich, life_partner, response_time, web, born_again, hieromnemon, know_how_to_read, sand, jerusalem_syndrome, philemon, dream, stanford_le_hope, chew, shelter, saint, memorial, restricted, satanist, rocker, volunteer, rank, divine_being, lonely, khasi, take_in, non_karbi_migrants, judge, good_house, deal_deck_of_cards, religionist, lampadarius, clothing, supervisor, clean, restriction, oblation, luxury, missional, party, religious_order, demon, holy_place, stupid, core, fan, ornament, conscientious_objector, native, wat, socioreligious, round, explain, stand_alone, mystery, convent, bow, hussitism, all_saints_day, segregationalism, instrument, mathematics, rat_pit, teach_controversy, conventicle, spiritualize, goddamn, followers, sell, water_footprint, belief, hermit, question, love, pounce, sadospiritual, go_to_heaven, narcissus, ghostly, walk_dog, plant, relaxation, dummy, change, torch, inmarriage, column, machine, express, book, religtard, decisor, numen, soulsick, cry, domain, englishman, cake, dangerous, know, uplift, main, driving_car, moon, naos, peon, responsibilities, sisterhood, concert_performance, sacred, parabolanus, hedge_priest, robigalia, condescension, box, religiosity, youth, act, islam, saturnalia, cosmocrat, acquire, misogamist, beirut, stroke, movie, astriction, rush, something, burn, pat_on_back, solomon, familism, ride, middleman, vehicle, us, valentinus, palaestra, hard_work, performer, representative, bug, derivation, buddha, edenic, flush, ingen, necrolater, cross_road, a_a, rearm, christian_science, course, artotyrite, theo, contempt, fanum, height, noetian, recognition, respect, baleboste, guiltless, eden, kratos, seal, gang, channel, cashier, prince_of_darkness, scorpion, horror_vacui, compassion, encaenia, fellowship, redhead, broadland, gin, cavaliere_servente, hands_off, laugh, daimonic, pseudoreligious, temptation, parent, justiciary, agnosticism, trust_god, hel, word, generic_term, neighbor, logology, measurement, clean_clothes, goodness, believe_in_god, wind, safety, kurdish, being, huey, brother, of, aeschylus, trial_by_ordeal, botany, print, bodybuilder, passion_play, teutonic_knights, cost, french, smarta, prod, ab, vaudois, parachurch, law, applause, take, wager_of_law, body_count, mon, household, pulp_engine, shade, yanakuna, bible, states_general, child, spa, false_alarm, tribulation, derbyshire, priest_king, old, function, beaconite, introvert, walker, sacristan, webster, county_seat, dive, hail, chocolate, astroproject, permanent, riser, carthusianism, dominical_letter, motivation, beghard, support, scale, city, pectoral_theology, learn, deodand, physics, extroversion, hypocrisy, hagiolatry, drug_addict, co_creating_with_god, flight, stick, peasant, errand_ghost, charity, vowess, arrha, bollandist, bus, messiah, crime, computer, jewellery, bellperson, alcohol, laugh_at_joke, week, english, omphalos, zar, tiberius, tartuffery, cherokee, banker, human_being, disorganized, somebody, speaking, mirror, pen, retrochoir, claimant, cricket, pornotrope, grandfather, vajazzling, metal, dirty, shari, mikadoism, sugar, crutch, posthuman, burnt_offering, ecology, after, employment, derogatory, terce, government, blessed, nautical, orthodox, asian, tetragrammaton, homer, postulate, humanity, contemplative, material, liberty_of_conscience, buttock_mail, pictures, scrupulous, privilege, clerestory, ungod, vimana, private, crab, patriot, help, have, sentient, speak_in_tongues, brood, body, ceremony, antibiblical, way, resignation, ordinance, purgatory, peculiar_people, holy, commodity, real, decimate, president, church_bell, salework, flemingian, ante_nicene, intelligent, demagogue, object, tourist, columbian, consumer, pardoner, pioneer, cottage, music_genre, shepherd, michael, face, devotional, nest, celebrity, supernaturalism, beginning, record, on_earth_probably_only_humans, lithuanian, ayatollah, big_enchilada, nonpracticing, anglicanism, bar, confessionalization, destroy, wealthy, each, best, puritanist, skolion, chakra, eat_one's_own_dog_food, sin, extrovert, unit, control_code, peter, godling, hispanic_and_latino_americans, snake, ship, flea, remorse, son_of_god, gnawa, great_schism, bill, chancel, commitment, fang, televangelist, cantiga, meat_offering, insurance, evangelize, casino, energy, cardinality, pogrom, call, mary, type, lammastide, generally, ideology, cigarette_girl, shafiite, copenhagen, mistake, astronomy, oikos, biggest, count, significavit, game, cuck, specifically, relegate, talk, housing, invisible, upanishad, mina, conversation, diadem, do_housework, performativity, theopathic, member, circle, moment, frostbite, challenge, foreman, gen, biology, free, adiaphorism, craft, national_treasure, lay, convert, many_people, ubiquitary, egg, virtue_name, geography, hands, read_book, nose, prime, death, sacrarium, eunomian, shameful, universal_opportunity, spiritual_incest, synod, labadism, philosophy, rochford, dright, month's_mind, village, pakistani, bread, martinique_person, estonian, famous, band, fuck, diamonds, antechoir, elixir, bank, again, like, figure, finger, metaphysics, anti_patriarch, diner, gideon, heterodox, kulturkampf, comprehensive, glory, hell, drink, disciple, plebeian, leisure, sun_myung_moon, wax, arab_american, duke, mattathias, mad, saved, large, rule, clean_house, creator, epiphany, wallet, sound, chest, magnifico, crotalum, waldense, wildcat, scotland, tenebrae, uyghur_people, apprentice, fay, nonfaith, lincoln, walk, pull, promised_land, ritual, occasion, sacrosanct, barker, favourite, andorran, smile, exorcise, point, unite, hit, mancunian, consistent, formal, fast, albigenses, parson, cult, boss, broose, janitor, chick, dispatcher, theism, jazz, search, cell, godhead, churches, voluntary_aided_school, supreme, raphigraphy, sunrise_service, divine_law, teaching, selby, push, blow, age_gracefully, godless, microcosm, benevolence, provide, chaplaincy, set_theory, perform, gift, zayat, ministerium, prudhommie, remonstrate, letter, brownie_point, shut_up, remember, suovetaurilia, killer, historical, pre_cana, bag, butcher, theurge, laughter, turlupin, theopathy, salem, mascot, men_women, thug, vocate, month, autonomous, pet, synagogue, ruler, pray, monolatry, inspiration, schism, gentile, distinctive, molinism, heresy, salafi_christian, immaculate_conception, measure, apostolate, opus_operatum, farm, bond, you, religiousness, poet, argumentum_ad_fidem, swim, post, number, spaniard, singing, been, culturicide, schools, junior, bin, joanna, tabernacle, scout, useful_idiot, blind, jesus, transfer, dress, trinitarianism, picture, trade, individual, concerning, virus, ethnic_group_of_saxons, alot, conjure, revival, protester, together, ancient_of_days, holy_fire, metamediary, master_new_skills, succession, smart, hero, zip, friend, organization, credence, strannik, brahmoism, regula, anthem, own, senator, puja, alien, put_down, commemoration, disincarnate, swami, i_am, deva, bend, drink_coffee, ancient_astronaut, isaac_watts, information, oath, singer, german, cyberspiritual, intent, boat, honest, buddhist, bell_gable, company, tin, hydrozoa, macedonian, convict, mercy, dažbog, issaron, philadelphian, founder, personal_god, uk, on, quarter, god_fearing, item, jeremiah, adult, gabriel, arrow, major, blood, doctrine, plan, save, heliogabalus, sexual_intercourse, makassarese_malay, bigotry, faith_healer, local, fever, bold, discord, butsudan, white, flyer, hymn, put, jesuit, artist, album, weapon, art, allergies, gold, prayer, chatterbox, line, canon, reside, address, worshipless, secularism, soul, represent, aisle, lane, neighbour, rotal, cent, racial_profiling, excubitorium, man, believe, tartar, ethnic_group, hard, edge, direct, accomplishment, telephote, osiris, scientific, entity, shape, ten, commit_suicide, apocatastasis, jewel, question_god_exists, finance, flat, wessington, alley, real_world, fascist, tea, show, caterer, shoot, defenestration, square, tower, demonolater, criminals_or_spy, mass, relation, be, independence, marjaiya, non_assamese, police_protection, manchu, catharism, pagan, novatian, churchgoing, nirvana, learner, east_elbia, paul, methuselah, apothecary, stylite, communicate, blackloist, social, grounation, eternal, keep, administrator, mullah, dean, frankalmoign, bede, married, sale, prison, elect, college, ethnic_cleansing, assumption, canon_law, head, roll, puritanism, antichrist, jolt, overspend, labadist, backslider, conge, hollow, god_fearer, school, te_deum, donatist, force, souperism, judas_iscariot, geniolatry, jacket, service_of_process, esoterism, stage, leprosy, godship, lasallian, patience, lazarus, azrael, sister, rabbi, saw, churchianity, holy_book, visitor, grant_in_aid, indeed, get_drunk, sky_fairy, house_of_worship, blessing, good, garbhagriha, jog, collate, pantheon, constitution, bear, train, inerrantism, latin, sounding_board, apse, dinner, arise, proskynesis, multireligious, maudlin, deposition, sothiac, stour, angelus, omer, practical, history, passion, religism, midnight_mass, martyr, barley_wine, queue, ancient, commemorabilia, switch, screen, paint, tribune, olympianism, chalcedonianism, man_upstairs, poor, shrine, patesi, failing, trial, cross, naturalist, churchly, hanif, stercorianism, skepticism, romanize, mortal, gender, intrareligious, new_covenant, manitou, void, swell, chechen, catechumenism, john_bull, middle_name, melamed, fellow, place_name, melancholy, raise, outlaw, frog, theanthropism, verse, basket, superior, style, exercitant, padroado, motor, roundhead, award, solicitant, andalusian, despair, bobo_ashanti, vassal, nun, reprobator, mortification, flag, pilgrim, bill_gates, wayuu_people, architect, rape, telegraph, introduction, convulsionist, dodona, libertine, personify, rate, bail, radiologist, merchant, latitudinarianism, healthy, elijah, pray_to, honor, divinity, touch, ho, occult, graveyard, extension, monothelete, liberty, feat, creditor, crawl, bury, short, subgenius, romance, postulant, especially, wood, man_woman, virginity, collector, animal, lindisfarne, process, equal, pashtun, aggravation, service, purpose, cartel, hyperreligiosity, wortcraft, antidisestablishmentarianism, buster, boyanese, witherwin, fortune, know_nothing, kuki, old_lighter, patronage, steer, vigil, verge, religioner, great_house, beverage, cyclist, keeper, scripture_cake, churchill, guard, sinese, juvenile, dead_person, parents, fiction, churchperson, eparch, forgive, lake, artifact, patronize, novendial, small, winterval, charism, english_language, profit, fence_tables, vessel, internuptial, iraqi, or_woman, incarnation, legal_entity, editor, pedestrian, heavenly_stem, bogomil, democrat, taste_food, lunette, ghost, clear, eid_al_fitr, need_companionship, scientist, mean, medicare_patient, flower, person_with_nationality, affect, i'm_not_religious, natural, reformation, pull_strings, mechanic, wight, pastoral_charge, rock, self_religion, midsphere, mana, reading, draw, do, monergism, taqiyya, crusade, victory, hungarian_people, poverty, interreligious, drill, doctor_of_humane_letters, dictionary, preacher, paradise, algebra, cuttystool, achieve, baldur, nuwaubian, temple, middle_class, spencer, james, master, petition, carpet, following, ash, dao, treachery, sucker, actus, dimasa, wafer, ob, amount, australian_aborigine, elevation, tripudium, faithful, jin, dignity, saints, virginia, akathist, rescue_mission, religiouses, mission, feel_relieved, nexus, true_blue, skill, baptise, jump, deacon, fard, soap, brief, ouster, kyrielle, talking_to, longer, 11, druze_star, identity, can, dominical, prophet, hesychasm, hang, cleric, boschian, card, community, close, degree, commination, defensor, general_term, compliments, pressure, john_wesley, similar, moral, worship, dictatorship, oratorio, kiruv, battle, divine_intervention, reader, satanism, dromos, bless, goel, prophesy, office, noun, steeple, location, vow, colleague, celibate, comfort, penniless, dati, supreme_being, very, madness, snow_lion, clock, tjurunga, superbeing, confessionalism, sadhaka, magicoreligious, victoria, play, olivet, primitive, bigger, toys, sting, searcher, pass, mundaneum, avon, wedding_ring, trefah, discover, ram, rouse, ideal, sheik, elementalism, keilah, chairperson, god_holy_ghost, irreligiousness, dodonaean, illness, making, certificate, university, myth, archdeceiver, thomism, incorruptible, powers, habit, knacker's_yard, character, polish, barbarian, nonsecular, divine_retribution, creonic, novena, color, shout, tibetan_buddhism, herodism, state, sex, punishment, pneumatology, smell, ghostking, giant, birthday, busy, crescentade, zombie, serve, madhouse, religiohistorical, suit, human_person, godlily, car, everyone, mystical, institute, exercise, work, altar, charter, niece, everlasting, age_of_aquarius, own_home, bay, hieromania, psychotheism, outmarriage, first_rate, religious_figure, religitard, whirling_dervish, level, olympiad, theolinguistics, confidence, painter, cooking, will, capitol, pantheism, sanbenito, holy_day, protest, know_things, godcasting, religious_person, syneisaktism, joy, sociomass, nanjinger, proselytess, piano, lap, judaizer, fall_from_grace, goddessling, homoousian, engagement, dear, ancien_régime, rosebud, influence, celebrated, nicholite, attendee, die, spark, superreligious, logic, alexander_melville_bell, grave, churchwarden, italian, john, congy, cargo_cult, grammatical_category, book_burning, lectern, philanthropinism, nones, percher, thief, god_botherer, sacellum, magic, purusha, cosmicism, payment, royal, catechesis, homo_sacer, antimissionary, remonstrant, creation, doukhobor, all_knowing, abstinent, veneration, yaksha, observance, lirnyk, network, transept, feeling, dönmeh, fixing, incredulity, lantern, listening_to_music, bhakt, noble_lie, accomplish, scientology, skydaddy, care, tester, chance, earlock, toque, abode, thick_hair, aarhus, anticonfessional, voodooism, preach, settle, rite, campana, doseh, ward, churchify, extreme, absolute, opinion, regeneration, dissident, regret, mental, new_thought, shaheed, job, scottish, world, evangelist, daily_bread, speak, surface, islamist, jesse, gnostic, flagellantism, gifting, compounder, loud, chopchurch, result, bat, climb_mountain, heort, chance_medley, man_killer, angel, hot_gospeller, iconodulism, church_affiliation, latitudinarian, sol, bristle, lollardy, demonstration, british, pianist, usher, resurrection, drive, simplicity, noble, munafiq, go_home, demiurge, nisi_prius, morada, earthly_branch, clouds, revised_standard_version, stable, breathe, march, two_arms, endogamy, ecbole, great_awakening, nelson, disciplinism, mormon_person, gun, pernoctation, radipraxy, ectomorph, garage, bottom, gosport, missionarying, top, set, biped, movement, kerygma, corner_of_two_streets, rector, landlord, relicmonger, gong, coffin, organism, feature, such_as, space, back, at_church_every_time_doors_are_open, refugee, dart, apocryphalist, key, watch_meeting, rosary, canada, action, friendship, ethnic, west, gross, adversary, dissenter, he, troll, zindiq, idren, theophilanthropy, parish_church, glutton, young, conscience_clause, skygod, testament, christianity, hydrolatry, stations, selling_things, voice_in_wilderness, theater, tausug, justice, single, undergod, choir, catholic, size, lay_down, apartment, pilgrimage, drachm, study, fit, anathema, child_molester, physical, godliness, ministry, grace, islam_in_india, clothes, public_servant, maundy_money, dogma, demolatry, bad, smash, mole, private_practice, translate, sarah, ecclesiastical, sebastomania, parareligious, archer, using_television, religiose, rusty, new_age, effigy, deism, theocratize, rule_of_three, quenchcoal, ephah, proprietary, proper_noun, capital, eber, listen_to_radio, shaft, iron, stretch, umpire, chapbook, sneeze, peribolos, bleeding, see, theoterrorism, bushel, muhajir, tool, fidelity, power, separation, nina, task, kingdom_of_heaven, cone, ufo_religion, swagger, crowded, ting, wherry, tien, spiritualist, error, sociable, thargelia, subject, central, mammal, scholar, lat, empiric, sieve, disease, nothing, lust, rooster, jew, bwiti, swallow, politician, beyond, turner, bush_baptist, vietnamese, listen, nichiren, event, mother_teresa, labor, alpheus, separatist, pay_for, weasel, worshipper, catastrophe, israelite, children, treat, deprivation, technology, alb, conformist, politicoreligious, independent, goddish, interfaithless, institution, suspect, kanaka, jurat, holy_basil, walking, unreligious, organs, has, broke, cathedral, augustinism, engineering, antiburgher, trip, orphrey, hieronymus, choirstall, personality, water, build, visit_museum, devotion, entablature, biter, dialectal, strange, observe, terrorist, testator, bliss, own_house, interfaith, dunker, spirituality, minster, lamb, gospel, confession, tertullianist, noctograph, society, paleocontact, guru_granth_sahib, vision, romper, reformist, fleas, wear, dedication, barratry, godlike, problem, detective, commoner, heart, toe, lip, fenestella, faithhead, guest, importance, communication, able, psychopomp, eremite, orderly, dropout, kadiempembe, leap, hoplochrism, westerner, hedge_parson, jewish, stone, climb, substantive, sensitivity, religiomilitary, sacrifice, dendroclimatology, canonical, worshippy, dismissal, sweet, bid, reach, rectify, apostle, voice, dynamo, coverture, chalice, affy, rat, mention, alone, positive, nonreligious, infralapsarian, polyatheist, isle, solifidian, miscredent, good_luck, me, seven, serviceperson, valencian, future, graduate, nergal, fivefold_ministry, new, commit_murder, meme, mother_and_father, person, ark, vanity, road, doll, universe, khomeinian, autonomy, pot, attention, wound, pious_fiction, dionysia, stitch, somewhereness, altar_server, a, negro_spiritual, slang, vino_collapso, forget, irreligiosity, colour, religionary, houseperson, partisan, solid, court, desk, afgod, in_sky, member_of_parliament, provost, jhandi, fair, quantity, chanson, fitness, down, slut_shame, cause, form, omnipotence, score, unique, desacralization, finding_information, cab, over, dance, getter, nunc_dimittis, noah, outreach, skullcap, food, funny_business, muslim, air, missionary_linguist, tutelary_deity, pillar_biter, television_station, customer, laotong, confessionalize, turmoil, nemausus, eucharist, academic, hashshashin, jacob, temper, thou, girl, wash, shaman, phillips_curve, purification, holding, officiant, apparitional, dead_handed, saeta, say_hello, much, batik, division, typtology, exorcism, dwell, surveying, sawdust_trail, celebrating, wye, heavenly_body, peer, mass_card, edible, capitalize, sedilium, cardinal, regular, equality_for_everyone, the, most, syncretic, diploma, right, earn_living, raphigraph, gold_standard, wajib, hin, england, anything, thinking, paulist, paideia, profiling, home, great, elohim, runner, religionism, deceased, think, kiteflying, theanthropos, heat, shut, peaceful, eusebius, there, mother_church, amenia, unction, big, alexander_graham_bell, kierkegaardianism, quakerism, lip_service, toronto_blessing, baptize, suicide_bomber, simonian, peal, happy_clappy, lower_class, novice, sundance, fighting_war, postreligious, digit, recruit, demythologization, leader, stigmata, forgiven, head_committee, relic, land, manufacture, temple_of_immensity, follower, yemen, mantuanesque, lethek, chameleon, wave, resident, mouridism, unknown, lice, with_lord, current, name, basic, representation, barperson, familist, monk, nanjingese, shoe, actress, african, tish, nontheism, place, mendicant_order, offering, proselytute, mono, whack, claim, pontiff, anxiety, doctor, consociational, homosexual, bitch, male, theonomy, space_shuttle, music, appear, case, abolitionist, alawite_person, perfect, feel_shame, eponymous, deify, christchurch, feast, baal, psyche, hired_muscle, indigenous_australian, spiritual_leader, ultrareligious, ten_commandments, lots, weather_storm, jude, social_group, ton, upper_middle_class, known, lollardism, take_off, khoja, meditation, with_god, dog, quasireligious, exemplar, danish, empower, live, flaky, monotheistic, range, museum, ollamh, joseph, all_powerful, milagro, order, sheep, noise, license, hobo, sports, baetyl, ground, long, hardsport, pinch, punch, eulogia, eat, cell_group, health, mae_west, oracle, olympian, castle, conservative, conscience, son, anacrisis, usager, tao_te_ching, carry, bones, committing_murder, obit, almighty, gold_point, gentleman, hunt, prosphora, segregationalist, langford, cadet, notifyee, kentucky, divine_service, money, armchair, outfangthief, exempt, parish, munchkin, ousia, full, exist, turkmen, computing, prang, bdsm, marry, theomania, miss, sotho, nude, nobody, theology, inhabitant, weak, rum, slav, transabled, lead, or, charisma, au, natural_world, high, benefice, street, blowjob, moist, morality, romanichal, lover, turtle, secular, cantor, baby, paper, sage, novelty, don, televangelize, frail, have_mental_illness, manga, souper, flood, metatron, areligious, archdemon, halo, independency, colony, specialist, in_partibus_infidelium, sabbatarian, pierre, celestial, responsibility, living, crowd, benediction, swedenborgianism, unprogrammed, musician, persuasion, duotheism, rational, corsepresent, irish, cerinthian, experiment, nonobservant, colorum, self, life, arm, committeeperson, projectile, pharisaism, guardian, birthplace, agony, bread_worship, kid, creature, original, devoted, wuism, potter's_clay, miracle, sib, goldie, decimation, abhorrence, annunciation, righteous, unbeliever, cheaster, getting, cloud, outcome, cor, hail_fellow_well_met, tutelary, dom, pro_secular, manners, five, sacagawea, general, host, humorous, tertiary, sing, defeat, people, execute, class, crypt, forebelief, rapture, sympathy, brain, anon, smasher, destroying_enemy, crossing, reptilian, high_priest, semireligious, holy_war, human_sacrifice, goddist, area, loyalty, guide, carmelite, edimmu, faction, condition, azazel, enma, poison, dervish, extra_liturgical, tetratheism, nethinim, mind_control, run, pious, develop, kin, diabololatry, godhood, ability, aspect, field, karen, mara, sue, devil's_advocate, petrobrusianism, performance, muscle, wedding, beauty, st, nail, sekos, missionization, catechetics, talent, natural_philosophy, congregant, ice, titian, transport, nonfestival, kayadanda, influential, foreign, fire, babism, sense, messenger, passionist, better, fiver, pseudomartyr, ascension, tyrant, title, bus_ministry, in_church, deus_ex_machina, park, electricity, national, thing, archisynagogue, honour, tuck, family, kami, use, ritual_servitude, sidetan, diptych, do_it, business, honorable, locution, tv, fairy, ashram, centumvirate, commander, product, dwarf, nepalese, valued, valley, profession, religious_icon, well, spear_penny, mile, airplane, digging, chorale, dad, bible_basher, paramaatma, slovak, troparion, social_being, wine, someone, song, possession, know_new_things, pomander, crawler, revert, prayer_book, apotactite, religion, antidemonic, european, pykar, superhuman, anthropomorphic, computers, speaker, santería, riddle, fiend, sickness, peace_offering, revelation, trouble, science, complete, special, china, legal, fundamentalist, evil, arab_iranian, ball, jesus_freak, join, fly, anthropopathite, jacobite, lychnapsia, god_king, guy, mithridates, relationship, justiciar, crucifix, soldier, sinulog, atlanta, political_party, live_forever, maronitism, mercury, atom, ethnoreligious, gas, danger, prostitute, stay, christian, between, chi, quiet, sallekhana, new_zealand, u, black_muslim, station, usa, receive, burke, religiofascist, feel, goal, element, end, country, drop, talk_to, sabian, cross_bearer, intermediate, content, consistory, faqir, lancashire, bleed, corporeal, negative, daimon, wool, hygiene, prime_minister, baseball, high_peak, nazi, actuality, shiite, thinker, sunshine, sally, spiritual_violence, happy, co</t>
+  </si>
+  <si>
+    <t>bayonet, slide, band, shank, australia, electrotome, finger, like, guillotine, british, wristband, steak, heal, stick, bronchotome, human, otoscope, selection, pass, film, calculifrage, computer, chop_up, round, fencing, put, weapon, medicine, board, bow, hand, aid, table, saddle, line, instrument, gun, filler, gorget, encephaloscope, plate, neck, wood, structure, break, cravat, band_aid, class, top, clavichord, movement, sharp, metal, architecture, remove, sax, reduction, pit, kill, edge, scissible, point, reverse, cup, deep, bioptome, hit, steel, sometimes, shape, action, tonsilotome, morcellator, fascia, opening, cell, root, flat, skip, tongue, open, capsulotome, fine, related, retractor, player, section, body, mass, performance, joint, hurts, road, make, audio, ecraseur, small, sling, size, metrotome, perform, user_powered_device, papillotome, box, shuffle, act, nephroscope, stitch, side, forte, hasp, stroke, burn, dog, bevel, slang, us, blade, beat, cadrans, repositor, sports, trephine, rongeur, cd, ligature, propeller, bulldog_clip, scrape, tap, canal, escape, remora, form, cat's_paw, tooth, cloth, score, transition, handle, forceps, hammer, record, cystotome, stethoscope, split, engraving, breaking, kickback, sharpen, tuck, stop, leg, microcautery, analysis, use, splice_edit, handicraft, look, whip, sheet, draw, do, food, air, saw, tool, device, stem, lance, drill, pain, utensil, produce, cautery, axe, apparatus, cleaver, stab, microkeratome, track, scratch, uvulatome, leaf, plane, computing, lanyard, cut, miss, song, activity, divide, bill, minor, cater, card_game, separatory, kitchen, collectable, together, operating_room, fork, staff, move, theatre, fight, switch, oblique, probe, division, passage, slip, memory, protractor, cephalotome, speculum, cross, paper, shred, botany, written, french, tail, shoulder, partition, bandsaw, ball, dj, biology, part, swing, term, napkin, stump, skate, job, join, iridectome, transit, wrest, fourchette, scissors, scarificator, lithotome, chondrotome, rugine, knife, tracheotome, gradation, boxing, erisophake, motion, butteris, frogs, pharyngotome, result, laryngotome, bat, tanto</t>
+  </si>
+  <si>
+    <t>press, bookfell, made, rank, door, rectangle, also, briefcase, spool, brightener, telegraph, workfare, highlighter, books, clothing, rate, printing, fountain, party, merchant, studying, write_letter, above, fan, variety, touch, flannel, transformer, dust_bunny, table, mathematics, instrument, houses, condenser, hog, pencils, peel, threadwork, pencil, market, provoke, pillow, slave, screw, ballot, beetle, break, wood, jockey, arbor, current, workshare, taconite, mine, animal, basic, found_in_house, process, container_product, roller, service, assistant, xuan_paper, vargueno, transmitter, purpose, toolbox, indite, excess, plant, relaxation, change, lot, torch, glue, exchange, doctor, handwriting, machine, deal, news, book, case, rectangular, indicator, guard, hair, dig, jig, memo_pad, fine, related, cake, chore, supply, mechanical_pencil, indie_rock, create, inkwork, disk, release, notes, classroom, make, artifact, snow, small, box, wrap, hat, strain, act, vessel, saddle_stitch, stroke, musical_instrument, cabinet, corn, timepiece, file_cabinet, us, bunk, burn, ride, live, vehicle, blade, entertain, habilitation, stationery, pie, museum, bug, sheep, noise, found_in_school, trade_secret, reference, easel, trooper, long, trick, punch, club, couch, pilot, course, eat, keywork, seat, appliance, spindlework, cousin_john, scab, drab, flower, hammer, hosel, writer, autography, opera, graft, atlas, textile, natural, organize, write, desk_organizer, rake, foolscap, stop, apply, rock, rack, age, seal, draw, reading, fold, in_books, research, gang, unruled, pump, do, lallygag, alive, gin, broad, bork, dictionary, workloom, cultivate, drill, bell, steel_pen, axe, file, picker, other, effect, stamp_pad, money, mac, labour, skin, quill_brush, exist, font, computing, eye, aviado, novel, word, workday, carpet, baton, yarn, activity, backhoe, sucker, writing_instrument, clean_clothes, hose, chicken, garbage, safety, non_powered_device, feet, laboratory, bumper, biglaw, move, radio, hinge, lock, undercut, daily, street, being, cash, dictograph, slog, covering, hurt, coat, pull, skill, chain_gang, trigger, furniture_secretary, blotting_paper, paper, soap, print, edges, written, dramaticomusical, joe_lunchbucket, clothing_store, pick, whiteboard, fix, paycheck, take, forework, charret, part, store, card, general_term, saxophone, khaki, coronis, microscope, knife, earn_money, eraser, manuscript_paper, spindle, function, artificial, life, compass, silk, office, location, pens_pencils, nut, cut_out, dust, baghouse, creature, generator, mechanical_device, very, bulwark, iron_sand, support, scale, clock, graphite_pencil, city, doing, guillotine, ratchet, lines, stick, getting, used, play, hub, typewriter, play_hooky, computer, hacker, heater, mouthpiece, ram, bridge, board, grain, permit, five, comforter, general, operation, making, people, wolf, pen, chief, umbrella, class, matter, recreation, character, metal, oven, smooth, turntable, bush, graph, building, vote, area, cup, team, birthday, knitting, coin, take_up, guide, busy, sometimes, project, stuffed_animal, manager, stack, printer, material, poison, human_activity, suit, printed, almost, car, coating, run, kin, exercise, work, essay, stir, have, body, railway, scrip, way, fuck_dog, writer's_block, union, ballpoint_pen, trumpet, ilk, connector, level, take_midterm, hamburger, nail, literature, painter, loot, speakers, writing, implement, foot, paragraph, object, cross_aisle, desk_drawer, steamer, diagram, envelope, fibre, traverse_drill, transport, horn, fire, pickaxe, make_work, calculate, shell, wrench, jack, ink, totalizator, tampon, article, die, piston, handle, record, attack, varnish, marker, grow, seatwork, tack, drawer, john, use, handicraft, using_computer, business, telling_story, lunch, squeegee, cap, floor, loom, lance, utensil, product, printing_on_printer, pain, profession, broom, apparatus, well, ground_floor, redwork, stab, airplane, twist, writing_implement, royal, leaf, unit, mallet, embroider, snake, fuse, ship, fastener, magazine, instrument_triangle, bill, light, payola, network, feeling, capriccio, cow, pen_pencil, lantern, phonograph, theatre, dirt, barn, kite, fuck_with, energy, care, type, shutter, texture, stale, fluff, speaker, fabric, wagon, department, hip_hop_music, game, accord, science, rolling_paper, mechanical, printer's_hat, legal, need, imprint, conductor, generic, challenge, television, ball, swing, term, napkin, fly, craft, shed, job, transit, watch, shop, drone, surface, quillwork, soldier, projector, pipework, squirrel, common_carrier, sweater, nose, prime, crown, copy, carpenter, opus, result, pad, bread, bat, organ, rough, gaff, band, rectifier, staple, bank, like, quantum, station, british, stretcher, dish, feel, urinal, fashioning_needle, fill, dollar, drive, artistic, accommodation, human, flipper, shovel, library, screed, leisure, wax, dock, tongs, optic, fantasia, burden, carrier, intellectual, shave, brush, workmanship, drafting, rule, literary, beaver, dog, writing_paper, hand, plunder, gun, wool, plain_work, labouring, structure, garage, equip, fountain_pen, oar, top, set, hill, wrote, sunshine, assembly, contract, travail, warehouse, drift, movement, pc, mining, sort, chuck, tubework, alligator, composition, pit, barker, combination_product, tweezers, back, space, design, brake, minister, windshield_wiper, key, holder, glass, boss, action, janitor, toy, fibrous, wire, solid_object, cell, program, nice, students, buro, fitting, plastic, basement, exam_table, writing_case, rod, stenograph, player, impress, two, report, primer, boondoggle, penwork, size, notebook, for_writing, adaptation, study, fit, gift, trailer, perform, journal, clothes, alert, shock, letter, trap, sewing_machine, heat_pump, work_tool, ear, historical, fiber, mess, single_user_device, sheet_of_paper, wicker, cotton, earning_living, bunting, propeller, vacation, kind, operameter, electric, playing, price, register, similarity, ruler, cloth, rootwork, voluntary, horse, office_supply_store, workweek, author, lure, capital, programming, measure, shaft, iron, stretch, boot, tangible_thing, restroom, farm, whip, straw, commuter, writings, post, spinning_wheel, number, triangle, tool, device, power, trash, pawn, phone, chalk, water_carrier, graphical_representation, schools, read, means, keyboard, paste, plane, engine, in_book, duck, elevator, note, turn_trick, pages, dress, trade, picture, stand, nylon, nothing, card_game, cover, dictation, cold, waste, four_legs, weight, bite, hide, crepe, cable, clip, tissue, heading, usage, non_agentive_artifact, position, slip, listen, desktop, reward, event, organization, instrumentality, needler, labor, company_seal, rider, string, manner, principal, output, every, lift, stylus, rest, test, rice, put_down, tail, select, dance_pop, thermometer, wandwork, secretary, hubble, boat, institution, honest, workhouse, useful, company, house, scissors, tin, found_in_office, pause, please, fortification, bit, brussels_carpet, polychord, outside, mouse_pad, mirrorwork, cathedral, uk, papers, barge, excuse, papeterie, preen, makes, water, flock, blue_box, australia, cutwork, sheets, writing_letter, plan, arrange, earn, electronic_device, euphemistic, laboring, storekeeper, wick, shield, sit, tank, page, servant, white, art_form, flyer, put, tax, album, stock, weapon, art, education, synthesizer, sewing, receipt, pivot, text, bed, canon, millwork, filler, scroll, sock, receptacle, wedge, plate, control_panel, communication, production, cock, piece, man, casekeeper, fur, wright, bring, diary, hard, storage, jumper, write_on, newspaper, folder, stone, passagework, cornet, symbol, kill, window, turn, steel, separate, voice, meeting, ladder, implementation, shape, pliers, winder, lollygag, chair, check, poke, substance, ironing_board, flat, carry_mail, group, tree, trash_can, sour, hoarding, value, new, person, communication_device, diligence, square, pentop, thread, relax, buy, magnum_opus, swarming, harrow, debug, whistle, pot, stitch, manufacturing, basswork, caesura, dod, adder, forms, slang, cook, mechanics, recording_information, sale, solid, message, desk, registration, college, tap, roll, drawing, calendar, description, cause, wall, feed, curriculum_vitae, software, form, sign, wing, potato, trees, sheepskin, school, box_standard, over, filing, leg, jacket, kit, cat, stage, power_take_off, sheet, bummer, saw, thimble, pastiche, sweatbox, rig, serial, produce, vellum, button, deliver, rubber_stamp, step, boom, chord, dry, good, needle, oeuvre, constitution, bear, rug, cut, ireland, fun, electropop, dump, pens, interest, account, wash, black_bag, automobile, crane, history, staff, four, exertion, statue, switch, paint, candy, felt, manual, hook, heavy, bureau, often, cross, language, ficus, time, featherwork, writing_desk, boring, extreme_metal, wait, document, heelwork, deed, butter, van, legs, right, raphigraph, electrical_device, animals, fleece, using, carriage, england, lightbox, raise, eldest, thinking, stuff, cigarette, console, making_shopping_list, style, home, runner, sand, motor, think, manuscript, detaching, practice, locomotive</t>
+  </si>
+  <si>
+    <t>piggy, chief_constable, move_car, there, bait_car, saint, press, messenger, start, traffic_warden, render, no_human_involved, shipmate, media, police_car, john_school, ran, stop_speeding_cars, judge, telegraph, letter_of_marque, rating, germany, mra, coop, deck, bail, front, party, wooden_top, guard_prisoners, jurisdiction, dashboard, exigenter, buck, civilization, touch, askari, commodore, land, below, piglice, fleet_captain, table, saddle, mathematics, instrument, hog, talivan, resident, short, continue, neck, owner, babylon, caribbean, wood, sergeant, break, dispatch, wrong_place, casket, name, quadragintireme, recognizance, navel, equal, entry, district, representation, roller, midshipman, police_burgh, prop_wash, assistant, booker, service, lawbot, military, alpr, cartel, commissionaire, informant, manbote, surveillance, identikit, place, securocracy, cops, change, pocket, claim, go_order, bar_association, cyberlaw, double, exchange, emergency, devise, town, flying_bridge, fee, copper_chopper, case, garda, feudal, guard, 187, mutawa_een, esclop, credit, plastic_plod, polacre, arrest, main, ban, wooden, release, internet, circuit, photospread, make, snow, baston, ic3, air_wing, copwise, sailing, swabber, monarch, hat, act, vessel, pleyt, tub, constabulary, movie, dog, lay, us, beat, showup, legal_entity, order, pipe, sports, license, protect, underpoliced, frivolous, yeoperson, trimmer, ghost, water_police, yeoman, cat's_paw, help_people, policer, sûreté_du_québec, posse, thorax, breech, officer, maintain, panel, pig, duty, silver, consequence, alt, reeve, stinger, rack, gentleman, help_victims, draw, gang, afterguardsman, saturation_patrol, naumachia, breathalyzer, snout, suitor, clipper, marked, file, institorial, magistrate, stop_cars, money, hands_off, chain_shot, power_of_attorney, station_house, set_off, clouseauesque, justiciary, computing, collection, moor, cinder_dick, ofc, master, fine_people_who_speed, baton, nation, police_officer, hunting_thieves, academy, prepositus, black, wind, escutcheon, armed_police, feet, move, lead, police_tape, nickname, chancellor, high, street, rap_sheet, blues_and_twos, bilander, serving_justice, pirate, nexus, blue_flu, direct_traffic, go_below, commission_agent, sheepdog, paper, abscotchalater, soap, donut_shop, captain's_servant, written, here, policier, garnish, force_law, rear_admiral_lower_half, antipolice, law, aplustre, pick, section_house, board_vessels, cuddy, hang, cauterise, dromon, discovery, community, signal_box, defensor, degree, regulate, corbito, shade, school_resource_officer, chokey, swedey, boater, commissary, sleeper, hung, helm, police_department, issue, prior, function, huissier_de_justice, catch_thief, patrol, cyberpolice, under_arrest, alow, arm, blue_heeler, one, office, seneschal, linguistics, emergency_service, policeable, parole, out, polis, waist, canteen_culture, mechanical_device, divvy_van, in_line_of_duty, very, support, dibble, authority, city, plod, notice_problems, politics, chapter, span, spot_criminals, stick, chief_legal_officer, parapolice, twakow, arm_themselves, alibi, cutter, sting, pass, crime, computer, folks, coal, bridge, mayor, floater, embassy, peeler, policeboat, general, people, cricket, chief, grandfather, ic5, fluid, complaint, sro, region, zoology, eight, crutch, aloft, quarterdeck, forward, misrepresentation, state, after, lactifuge, cup, stop_and_search, three_decker, government, answer, nautical, behavior, deputy, another, mousquetaire, manager, condition, attrahent, material, siren, poison, ghetto_bird, spill, suit, envoy, privilege, car, bounty, trace, ring, run, help, work, have, field, ability, body, sue, state_trooper, caracca, unpoliceable, police_force, capias, citation, first_rate, union, tic, real, militaria, garland, dragon, president, characteristic, videofit, royal_canadian_mounted_police, boma, writing, holding_charge, i'll_call_police, stop_most_criminals, foot, protest, commando, deforcement, claptrap, policial, port, zubatovshchina, brow, transport, army, escrow, fire, ic1, police_captain, shell, ic9, rape_shield, twelve, reversion, property_law, jack, law_enforcement, para, ssr, rap, homicide, title, water_bailiff, supposed_to_fight_crime, attack, record, mounted_police, national, question_suspect_now, dicky, jamb, cast, logic, thing, send_below, mouth, grave, drawer, 9_1_1, taut_hand, agent, post_punk, police, list, corner_criminal, use, bar, defense, chip, business, privateersman, cap, floor, slop, product, ecilop, harborage, bylaw, profession, mail, overseer, hurry_drivers, narc, appointment, truck, gavver, royal, shifter, snake, ship, rear_admiral, comparator, perpetual_motion, commissionerate, attorney, song, context, bill, aid, light, rope_off_crime_scene, slicktop, command, fang, heave, maverick, destroyer_escort, belowdecks, number_two, tide, mountie, phonograph, juanita_doe, blind_pig, upmaking, obligation, religion, bailiff, type, constable, tongkang, psyops, appropriate_adult, file_paperwork_to_record_crimes, sub_admiral, bailee, kitskonstabel, rules, antiblue, department, talk, middle, conning_tower, c, irritant, trouble, assignee, juan_doe, opinion, dissident, moderator, member, kotwal, police_procedural, bring_misery, legal, factor, ball, carry_gun, donut_patrol, secret_police, cot, term, fly, craft, job, afterguard, premier, badge, guy, justiciar, fother, state_police, policiary, soldier, tail_criminal, compound, subprior, barony, belandre, rozz, red_squad, charge, nose, branch, decrime, factory, crown, sert, guard_banks, enshrine, woodentop, patron, legal_representation, europol, paddy_wagon, pigfucker, carronade, result, aval, know_when_crimes_committed, stay, arm_weapons, policy, framer, band, tribunal, tail_suspect, khabri, flag_officer, mohatra, radar_trap, bank, ducks_and_geese, squilgee, like, master_mariner, standard, british, station, case_shot, filth, fill, police_state, drive, cobbler, first_mate, corset, element, human, vice_squad, policespeak, worker, blemish, dock, march, jam, status, fencing, rule, corvette, new_wave_music, ordinary, hand, truss, politic, gun, precinct, any, polity, negative, bud, telltale, scotland, apprentice, baseball, sea_lawyer, ic4, bottom, fine_people_who_break_law, rep, seed, walk, ploc, pentito, dhp, top, chevron, contract, architecture, drift, case_building, css, counter, polices, church, replevinger, attendant, lodesman, tallboy, frame, back, point, space, chaffwax, brake, deass, taxing_master, minister, boydem, oinker, base, shadow, action, code_of_practice, securocrat, draft, guys, cruiser, cell, respectability_politics, nice, attorney_general, luds, stationhouse, cc, warden, unpoliced, gendarmerie, syndic, christianity, constitutionalization, storm_house, rosewater_sailor, proper, common, gridiron, trierarch, assume, northern_england, size, lay_down, carosse, wardroom, bounty_hunter, stonewall, tye, crew, give_grief_to_public, terry_search, trap, tineman, fizgig, ruling, ear, historical, lawyer, log, who, scotale, hold, manor, bad, black_maria, wardmote, rookie, mole, bunting, newtonian, emergency_response, deckhand, allow, legisign, policing, field_sobriety_test, waffen_ss, traveller, in_charge, advocate, ruler, obey, red_ball, volkspolizei, five_o, horse, rag, room, booze_bus, hearsay, provision, bench, facial, boot, stade, farm, rear_admiral_upper_half, estonia, bond, whip, verballing, now, consideration, doughnut, hack, swim, post, corporation, chop, reset, estate, heads, device, power, traverse, cancel, vicomagister, blue_light, tenth, chamber, cachet, gun_lobby, thin_blue_line, council, moot, subject, jake, book_criminal, lawyer_up, strikeforce, authorized, obligator, ic6, scotland_yard, nipper, on_lam, policework, flash, regional, surrogate, cover, rogatory, powder_monkey, shipboard, popo, guardhouse, roundup, comfit, attack_dog, witness, heading, solicitor, partner, typical, position, slip, strip, boatswain, reward, client, continental_navy, company_seal, rider, plain_clothes, yoke, dromometer, principal, lift, wicket, police_station, plate_ship, law_enforcement_agency, squat, grip, slops, spy, breach, tail, anthropopeia, skipper, chemical_agent, breast, lpr, auxiliary, fuzz, bend, policeless, police_box, definition, boat, wardrobe, cauterize, corpsman, pirate_round, petit_treason, franchise, tithingman, company, code, communal, jurat, fin, mainstay, piracy, broke, commodore_admiral, given, war, uk, po_po, quarter, taint, naval, augmentation, usufructuary, pollis, master_key, debt, personality, item, water, blawg, third_rate, concept, ticket, subagent, referee, major, throat, blood, doctrine, filacer, dialectal, criminal, aye, corner_suspect, rail, ship's_husband, force_entry, nurse, disinfectant, hold_suspect, official, actor, civil, pitch, gospel, coucher, inform_on, nonpolice, shield, tank, society, policed, white, romper, night_stick, put, enlist, confidential_informant, thrum, medicine, stock, supercop, steward, education, second_rate, enter, schutzhund, squawker, line, taj, canon, administration, barratry, detective, counter_roll, bound_bailiff, political_system, wigwag, warrant, below_decks, electrotachyscope, statement, jigger, represent, control, livery, driver, supercargo, fraud_squad, able, racial_profiling, militsia, ensign, writ_of_execution, investigation, second, nations, substantive, kill, plushers, management, edge, one_time, jefe_político, policeman, cadm, turn, ic_code, policewoman, roach, corporal, chair, evidence, variable, suggestion, watch_and_ward, substance, finance, policeperson, tongue, emergency_services, gentleman's_agreement, ratissage, show, captain, marvel, shoot, plonk, stopping, person, torpent, passport, firm, relation, slant, ship's_company, property, hexerei, vector, security, pot, bail_out, yield, governor, intelligence, ferguson_effect, strength, beefer, social, slang, sticker, cook, terry_stop, feodary, stovec, police_service, review, dead_on_arrival, solid, cs, interpol, court, desk, copless, college, fair, cylinder, serf, head, provost, carry_gun_while_at_work, black_and_white, down, flog_someone_round_fleet, description, plea, lawman, software, broken_windows_policing, score, quartering, wing, galleass, taughten, lord_keeper, scare_people, accessary, cbp, force, disorder, bilgeway, panchnama, leg, attempt_to_catch_burgler, period, lathicharge, sheet, kettling, nonarrest, muzzle_bag, jury, rabbi, leave, air, helm_port, next_friend, drifter, 5_o, hypo, proctor, morgue, dry, mallemaroking, dunsel, what, mouse, furniture, liquid, hit_skip, force_into_confession, constitution, overpoliced, train, cut, sole, fun, academic, commissioner, watchhouse, stay_behind, deposition, wash, chaos, holding, six_water_grog, schutzstaffel, token, storm_building, staff, four, stiffening_order, king, cradle, ancient, statue, oiler, vice, free_prisoner, screen, swat, candy, espantoon, copper, hook, in, brace, military_rank, police_court, citizen's_arrest, buzzer, nark, extent, cvpi, chelandion, petit, sus_law, police_dog, big_blue_machine, dutchman's_log, national_bureau_of_investigation, judicial_officer, crimp, supergrass, walk_line, hooker, shoulder, monition, cardinal, verdict, document, yellow_card, prick, bacon, deed, grand_jury, bush_lawyer, right, dolphin, tenant, public, wergeld, revenue_cutter, pram, bargeman, keeping, nick, require_people_to_obey_law, when, mark, policelike, ic2, breeching, motor, tug, heat, mate, theory, practice, award</t>
+  </si>
+  <si>
+    <t>organ, water, scale, sum, also, preserve, active, like, finger, forcing, clothing, patch, species, play, human, drink, core, topical, geometry, touch, bridge, filling, herb, acceptor, sound, truss, but, mathematics, appeal, combat, sing, bound, scotland, baseball, cricket, aircraft, animal, process, man, top, set, sharp, hard, color, reduction, military, fusion, star, grass, dilepton, edge, boiling, flavon, design, point, plant, relaxation, change, dipion, pocket, speckle, taste, hit, punishment, cup, coin, fast, base, removal, shape, key, action, guide, path, cell, substance, material, rub, case, domain, vellicate, anatomical_structure, group, intelligent_agent_activity, ring, sauce, spin, body, person, blow, reduce, steel, sun, small, level, slash, wound, side, cooking, strength, impact, burn, object, slang, ear, historical, advance, bad, conserve, hole, mole, bug, ground, kind, shell, punch, description, dull, wall, software, attack, flavorless, pin, cast, left, mouth, about, measure, stop, leg, jacket, tangible_thing, period, age, destroy, food, tool, device, power, smoke, lenticula, intercurrent, pain, space, happening, dry, nucleus, anatomy, flavor, off, skin, liquid, rust, unit, computing, eye, cut, enable, drug, tense, decay, interest, furnish, flash, cover, cold, black, swallow, hide, move, excited, tide, pile, energy, division, position, cash, type, covering, chemistry, sodium_bicarbonate, coat, satellite, normal, lentiginosis, quark, soap, test, rice, can, path_length, legal, loop, circle, pore, weather, ball, preparation, spice, part, exotic, living, term, shot, fly, pressure, spirit, bit, outside, function, along, on, quarter, heat, gas, extend, bread, bat</t>
+  </si>
+  <si>
+    <t>platform, sit_down, door, preserve, mash, zoophyte, nerve, cream, leucosis, variety, fail, our, effort, bullet, table, buying_hamburger, caecotroph, break, rice_milk, entertainment, bone, military, mother, zipper, limit, deep, destress, deal, fee, dent, bird, clemency, apple, breath, speed, internet, committee, circuit, make, garment, pyruvic_acid, solids, corn, chips, warm, algorithm, boy, escape, seat, strong, protein, silver, write, age, watching_television, alive, axe, font, eye, entertaining, nation, loaf, chicken, black, feet, move, 3_1_1, pleasure, normal, musicians, part, store, rotation, grammar, cars, issue, competing, motion, one, fret, refine, slabber, pull_up, quality, capture, toad, having_physical_exam, vinegar, canary, wolf, polyunsaturated_fat, river, chylaqueous, impost, too, ring, bull, ketchup, slash, writing, cats, reductive, predisposition, horn, army, shell, rap, bunch, cast, chinese, geopathic, slop, jogging, economics, crib, light, performing, anchor, agriculture, cheat, kip, work_out, biochemistry, happiness, emphasis, solution, batman, middle, constrain, generic, fish, term, napkin, transcription, federal, spirit, compete, distribution, running, play_sport, charge, branch, go, honey, organ, travel, gain, functional_food, application, hospital, oat_milk, human, cleaning, comfort_food, burden, fisherman, whole, exemplary, coconut_milk, hand, self_improvement, structure, taking_walk, remove, yawn, grass, territorial_army, design, white_out, must, fruit, eject, glass, opening, scarf, refined, performing_arts, numbers, american_football, biological, female, up, oil, uniform, trap, farmer, intend, log, hold, center, cotton, election, price, flit, horse, satisfying, belt, traditional, rear, device, chamber, model, humans, dimension, little, flash, serving, interaction, four_legs, hide, raw, periodic, historic, client, waiting_on_tables, competition, rectificator, manner, lift, rest, mountain, rice, feel_good, tail, house, concession, center_of_gravity, valve, multicellular, australia, have_party, switching, avast, throw_out, give_up, getting_fit, lesson, official, almond_milk, mind, flask, stock, nightingale, having_party, control, plate, come, kleine_levin_syndrome, piece, become, fantasy, histology, powder, robbery, taste, congius, blue, serosity, sickliness, tongue, playing_games, group, sauce, jar, surfing, potable, con, killing, grapple, liver, sport, ox, vigour, psychological, shaping, schedule, soup, mobile, massive, expense, mechanism, spread, cat, crappify, soy_milk, leave, shoestring, sprint, source, dry, regiment, chin_up, bath, cut, four, sweat, running_in_marathon, in, warming_up, win, time, slowly, loss, legs, can_of_soda, personal, syndicate, lens, stuff, nightclub, ripper, analysis, staying_healthy, slurp, occur, aave, clean, party, creative_work, core, round, geometry, mathematics, go_jogging, failure, attitude, question, warm_up, reduction, plant, change, potables, column, machine, guarding, express, salt, domain, related, western, tight, main, transaction, act, stroke, burn, rush, lay, us, ride, bug, slinkskin, atomic_cocktail, playing_sport, club, course, closing, buying_presents_for_others, mare, seal, decomposition, effect, skin, trim, word, day, generic_term, measurement, goodness, island, wind, bruise, being, hurt, swill, bacterial, botany, cost, law, take, consume, shade, shelf, child, wettability, old, function, chocolate, take_out, scale, physics, intense, heal, flight, bus, actors, alcohol, coal, mcdungheap's, wane, utter, disturbance, metal, sugar, pop, orange_juice, team, derogatory, government, playing_game, nautical, paradigm, material, forum, have, body, nectar, withers, way, honeycomb, decimate, seroepizootiology, getting_in_shape, injury, having_heart_attack, ankle, object, face, nest, stage_fright, bar, destroy, utensil, pain, sleep, unit, ore, membrane, flea, hunger, bill, drinkable, keeping_things_orderly_and_tidy, energy, type, game, talk, windy, need, member, moment, toast, biology, craft, shed, convert, fother, egg, nose, death, bread, blooded, diminish, going_for_run, like, finger, play_game, concentration, drink, dermatophagy, rule, sound, drinking_water, animalism, deglaze, scotland, pull, ritual, mining, chuck, hearing_news, smile, point, fast, pullup, cell, going_for_jog, liqueur, perform, gift, fairy_butter, period_doubling, singers, give, historical, grade, hole, adherence, measure, warfare, bench, farm, you, winterize, number, singing, mug, bin, hydrate, fork, accident, calorie, friend, organization, loose, double_quick, bend, preparation, information, irregular, spider, tin, resolution, tract, phonology, uk, quarter, fatigue, item, take_care_of_proposals, adult, major, blood, plan, racer, grape_wine, limnobios, white, bellyband, put, art, so, line, phase, filler, soul, cent, production, man, mummy, gelatin, hard, moving, header, management, nervous, shape, seismic_design, instantaneous, square, tower, mass, relation, worry, social, keep, cannon, head, roll, lifting, school, force, period, stage, scratch, tiredness, good, jog, bear, train, dinner, drug, green, switch, paint, pantostomatous, failing, poor, cross, wait, tracking, butter, premium, buy_shirt, oppress, monster, fellow, frog, graybody, basket, shrink, caproic_acid, mate, stage_fear, ginger, fruit_machine, playing_tennis, press, introduction, advantage, rate, speedy, development, horse_racing, healthy, liberty, hazelnut_milk, information_transfer, wood, animal, process, eating, service, purpose, climbing, closet, fortune, beverage, follow, boil, molasses, hair, primary_reinforcement, traveling, hemp_milk, going_to_work, artifact, small, albedo, profit, grey, beat, clear, lime, present, mean, flower, natural, crocoduck, stop, rock, draw, reading, solidus, do, bauplan, sick, go_down, vodka, bowl, divide, amount, culture_medium, hare, passage, nursery, coat, skill, muscles, tom, can, spice, chipmunk, melody, close, general_term, pressure, battle, pheromone, bottle, fish_oil, imponderable, out, comfort, very, gasoline, speedball, play, sting, pass, ram, floater, illness, making, layout, race, improving_image, sketch, erode, polish, tablespoon, suffer, state, sex, punishment, sigh_of_relief, maintaining_good_health, getting_exercise, birthday, before, project, slug, serve, insult, ease, suicide, exercise, work, stern, level, shake, balance, video_games, cooking, acid, density, rabbit, dear, influence, berry, die, journey, gigantothermy, competing_against, abc, restrict, magic, ectoderm, pace, omega_3_fatty_acid, payment, investing_money_or_energy, horses, feeling, libation, care, grape, settle, flavour, absolute, mental, homeothermic, rotolo, shop, surface, take_l, cultural_activity, medium, aria, result, employ, venom, british, fill, drive, season, species, tall, eggs, earthly_branch, winning, mineral, bate, gun, add, container, set, movement, organism, back, space, essential, abnormal, infectious_disease, pullover, sanguivore, canada, action, brewing, milk, reduce, single, malfunction, size, cinnamon_roll, fit, physical, fade, going, denizen, juice, bad, mole, translate, metric, meat, recital, omega, capital, programming, overweight, iron, stretch, kernel, tangible_thing, unison, whip, isometric, origin, tool, power, paste, doing_exercises, subject, mammal, skunk, disease, swallow, bite, event, some, children, treat, dressing, running_errands, watching_tv_show, walking, has, extending, squeeze, taint, terrace, trip, water, build, play_tennis, dialectal, bacteria, rocket, liquid_oxygen, hydrogen_cycle, clean_up, contain, dialect, idea, heart, toe, souse, lip, immunity, kidney, amount_to_nothing, stone, sweet, reach, separate, looking_better, future, person, maintaining_muscle_strength, relax, flax_milk, jet, doll, hemovore, upset, pot, slang, counterbalance, wart, solid, hiking, fair, fitness, cause, feed, form, score, bolt, smother, dance, segregation, groundplan, food, going_on_stage, taking, entertaining_people, flavor, drip, do_exercises, stress, temper, hoof, getting_physical_activity, division, empire, snake_oil, sup, sambar, handicap, sports_action, regular, medical, heart_disease, procedure, animals, thinking, nurturance, home, think, heat, potion, made, big, slush, germany, spoon_meat, recruit, land, grabbing, wave, drown, endotherm, session, buying_products, current, heartbeat, roller, whack, anxiety, quench, doctor, carbon, music, case, perfect, example, archery, supply, total, social_group, provide_comfort, soda, ton, muscle_up, cage, arrangement, past, dog, cabinet, release_energy, live, punishing, range, pie, sheep, order, sports, soak, health, kink, riding_bicycle, carry, pig, ectotherm, hunt, money, ovulist, full, computing, miss, activity, weak, fresh, rum, playing_sports, lead, high, turtle, secular, good_condition, actual_bodily_harm, grind, obesity, colony, fix, prairie_dog, quickly, living, crowd, emphasize, throw, rational, experiment, life, yolk, nut, pathology, sill, retired_husband_syndrome, antistressor, getting, outcome, confection, get_job, break_even, general, host, sing, people, class, matter, fluid, change_state, oven, zoology, rub, sometimes, condition, ounce, poison, spill, run, field, get_physical_activity, performance, mutant, muscle, not, beauty, poise, low, slack, foot, talent, sop, acting, fire, republic, oscillation, coffee, thing, running_marathon, tuck, use, typehead, business, tick, dip, culture, zoophysics, cocktail, product, well, dipper, reserve, go_for_run, wine, drum, song, possession, thought, insect, stopper, pill, lard, kinetogenesis, texture, stale, baggy, success, sickness, jelly, complete, worm, legal, saturated_fat, fly, slop_bucket, cupboard, inoculation, mercury, gas, red, prostitute, organic, staple, staying_fit, feel, dish, goal, benefit, drop, disneyland, involved, intentional, plot, status, hum, negative, wool, baseball, fat, leather, counter, anime, checking_vital_signs, frame, pour, churn, colliquation, water_gruel, computer_science, program, lose, nature, reconstitute, growth, riding_bike, crash, snail, cracking, everything, playing, satisfaction, turn_around, easy, imposition, fall, athletics, room, daughter, hogwash, nutrient, chop, exercising, morning, stand, waste, weight, headache, slip, reward, playing_soccer, eyes, dancing, interval, test, slow, cycling, hurry, standing, grooming, bass, unicorn, wheel, war, debt, play_sports, bob, str, medicine, translation, receipt, square_wave, gym, bed, beer, feather, demand, wet, unsaturated_fat, taut, lactic_acid, bulldog, sausage, steel, rise, meeting, displace, substance, dipper_well, sour, firm, slant, decrease, going_to_mall, velocity, side, discipline, mental_health, cook, adjective, weight_loss, crossfeed, stew, rapid, wing, glycerol, load, disorder, leg, get, engineer, thoroughbred, produce, against, off, mouse, liquid, napoleon, thermotaxic, mule, kitchen, going_for_walk, playing_ball, cradle, candy, chemistry, heavy, contest, budget, jumbo, bacon, going_to_market, increase, concentrate, ill, pound, quick, practice, pan</t>
+  </si>
+  <si>
+    <t>bayonet, platform, peace, warrantless_search, approach, about_turn, commutation, peine_forte_et_dure, fail, buck, effort, blank, green_light, penology, complex, break, jockey, mine, astragal, military, surveillance, observer, limit, pocket, double, stranger, town, fine, bird, murder, brew_up, inculpate, arrestable, circuit, gunship, make, getting_in_line, detail, sheepshagger, boy, outpost, git, seat, enemy, cat's_paw, officer, duty, borrow, death_penalty, smoke, axe, soc, match, zap, munition, mold, move, fight, lp, frat_lit, branch_of_government, primary_offense, garnish, part, indict, dogs, khaki, crossfire, crown_attorney, cars, minute_gun, issue, test_paper, one, display, mechanical_device, serve_justice, capture, mufti, requisition, board, hand_grenade, desert, wolf, chief, river, sandbox, awesome, warrant_officer, pol, punish, civvy_street, freedom_of_information, obtention, attach, paviage, stack, assault, terminal, dragon, slash, loot, culpability, steamer, court_martial, appropriate, army, bog, shell, v, law_enforcement, absolve, united_states, r, handle, attack, suspook, on_point, doc, teinland, buy_off, approve, dobber, crib, command, raf, peak, television, fish, term, squirrel, peine, armor_piercing, charge, crown, criminals, go, tac, beast, ultimus_haeres, human, fence, stole, arsenal, iron_cross, burden, men, arms, fool, css, mil, plagiarize, design, rfc, firing_squad, base, battery, glass, draft, basement, rod, tomahawk, two, acute, up, send_criminal_to_prison, oil, flowers, colonel_blimp, dis, ana, hold, reprise, rm, scrag, horse, bad_behavior, rash, tale, scramble, rear, hoody, foxhole, accessory, wanted, humans, sleuth, breakthrough, little, flash, regional, cover, crack, fragmentation_grenade, bee, witness, heading, target, go_equipped, every, rest, spy, tail, plea_bargaining, seize, skyjack, mitrailleuse, shako, extraction, outside, makes, connive, complicity, flight_risk, defence, trophy, enter, ransom, control, sac, piece, become, fantasy, kill, robbery, lag, seduction, group, bks, captain, elocute, killing, er, sport, find, proceed, kerrison_predictor, disappearing_carriage, schedule, exfiltrate, cookie, tap, centesimation, sentence, snider, abetment, avowant, cat, sexual, murder_hole, dead, leave, counterfire, button, peremptory, cut, ireland, fun, four, vice, dugout, in, gunner, extent, wrongdoing, ship_out, all_nighter, gat, conquer, maker, jankers, circus, web, solidum, choker, penitentiary, malfeasance, chess, locomotive, dream, volunteer, scoop, rank, judge, ll, coop, criminal_law, aave, secondary_victimization, party, n.s, round, instrument, entry, love, cartooney, column, machine, formation, book, cake, dangerous, squib, box, act, stroke, rush, lay, us, vehicle, trick, club, course, theft, pin, respect, lagger, machine_gun, apply, abandonment, gang, scorpion, fortify, kick, broad, comrade_in_arms, effect, easement, raid, academy, wind, bolter, surrender, present_arms, adopt, being, hurt, pirate, of, armada, invasive, here, prod, ab, divorce, law, right_of_first_refusal, take, cid, child, sentencing, imp, testimony, scale, condemn, crucifixion, chapter, comics_character, stick, bus, crime, det, permit, cricket, gathering, assault_rifle, chapiter, diss, derogatory, government, nautical, outfit, behavior, aim, spoil, missile, intelligent_agent_activity, have, body, real, block, injury, rake_off, remeid, port, chain, twelve, violation, face, nest, para, beginning, record, villain, barber, bent, bar, destroy, best, pain, aaa, sin, clutch, stealing, unit, snake, ship, flea, bill, energy, call, type, crimes, mistake, indent, count, game, user, order_arms, challenge, spearhead, gen, overkill, free, craft, cob, convert, necklace, egg, arrastão, headstamp, boxing, pub, grenade, clash, prime, suss_law, explosive, rough, lieutenant, like, self_seeking, steam, drink, attachment, erstwhile, large, rule, female_tank, sound, altitude, plunder, scotland, equip, walk, chevron, retreat, mining, composition, tallboy, point, hit, interdict, cell, bugger, blackmail, carjack, push, blow, exclusionary_rule, troubles, infant, letter, admiralty, give, historical, mess, mt, gob, allow, register, camp, bench, look, farm, ace_of_aces, post, wager_of_battle, traverse, bogey, chalk, mug, brat, intercourse, hill_station, trade, individual, omertà, slow_march, bloody_code, together, galloper, crisis, beat_rap, accident, fid, own, at, wicket, stand_up, breach, whitey, irregular, disembody, franchise, spider, animus_furandi, company, convict, fin, rustle, disbarment, uk, quarter, four_by_two, bah, trite, damage, corbeil, honeypot, embuggerance, summons, tank, ack_emma, put, levy, weapon, art, line, bandit, address, statement, lituus, cent, retrench, understanding, lineup, wobbler, mop, bring, admittance, hard, barb, turn, bogie, beat_up, tea, sniper_rifle, square, be, kill_people, police_protection, defer, administrator, triumph, prison, cannon, head, gunfire, mess_up, force, service_revolver, jacket, chase, grant, saw, hypo, ad, martial_art, good, battalion, bear, train, note_shaver, tiny_tim, swede, green, staff, headnote, legit, cross, citizen's_arrest, bonnet, detachment, jaw, mortal, crimp, mag, mortar, goudron, tour, outlaw, motor, award, benchslap, cag, champerty, mia, rape, underground_area, gunshed, bail, touch, supra, ree, frag, fam, nissen_hut, dispatch, animal, vid, concealment, process, reit, service, drygulcher, fruit_of_poisonous_tree, buster, counterstrike, beverage, fare, guard, bracket, shower, ip, popular, cluster, snow, small, def, profit, embezzle, tinker, skysweeper, vessel, bunk, beat, trooper, decree, strike, present, affect, three_strikes, moither, rock, draw, lam, roughrider, drill, bamboo, achieve, accusation, police_search_advisor, master, accuse, felony, jump, gangster, henry, brief, vic, poll, fed, where, hang, around, close, tart, antipersonnel, battle, tit, office, location, out, array, offer, petition_of_right, wit, play, dep, blue_on_blue, pass, resetter, rouse, blinder, vest, umbrella, gras, suffer, color, state, sex, punishment, stop_and_search, sixty_one, pip, traversing_platform, serve, suit, car, fixed, work, section, snap_in, level, protest, rifle, jack, praemunire_facias, influence, inside, berry, berm, md, pollution, jark, order_of_day, thief, bunker, imprisonment, royal, hudud, avoid, purchase, as, get_out, investment, armorer, resistance, c, soft_coup, dumb_insolence, zone_of_fire, twenty, columbiad, salvo, requirements_contract, oblique_fire, tits, tubage, flypaper_theory, fell, loud, result, bat, demonstration, british, drive, film, march, jam, irish_pennant, fox, neutralise, gun, add, slacker, butt, air_marshal, container, wildlife, set, hill, contract, shoplift, back, buttstroke, troop, war_on_terrorism, canada, action, embezzlement, roof, pepper_spray, no, mong, sap, reduce, justice, single, assume, size, manor, bad, mole, casualty, substitute, pugil_stick, negligent, extort, bomb, boot, turret, body_cavity_search, predator, corporation, tool, heads, power, separation, service_pistol, inherit, error, lat, barrack, slick, bait, skunk, rooster, bite, welsh, actus_reus, event, got, subaltern, sapper, rocket_launcher, ship_of_line, gippo, vicious, settlement, shot, smuggle, illegal_activity, cop, diversion, squeeze, excuse, crimebuster, teeth, dialectal, inquisition_post_mortem, rocket, shield, onus, bill_of_attainder, hand_salute, traffic, taj, stolen_valor, detective, verbal, relieve, avre, able, substantive, donk, hot_pursuit, sacrifice, reach, friendly, apostle, check, rat, positive, ace, motive, turk, inducement, crows, person, admiral, glasshouse, pot, wound, slang, united_kingdom, hundred, forget, court, evolution, down, jail, cause, armor, prender, form, score, sign, bolt, mint, med, stab_rag, action_stations, air, prisage, lieutenant_general, needle, guns, donkey's_ears, sole, fireworker, transgression, finding, ronson, mun, wash, holding, missing_in_action, donatory, division, hook, right, animals, england, feeder, admit, home, soccer, heat, military_vehicle, whang, discharge, chassepot, big, gavel, mangonel, fighting_war, hon, recruit, leader, slope, squad_automatic_weapon, land, gam, high_crime, firepower, gunsel, scalp, sergeant, z, ownership, place, claim, whack, plight, music, case, dig, perfect, arrest, supply, flyover, impunity, tennis, atf, dog, cabinet, articles, illicit, sports, license, protect, long, punch, hold_up, carry, pig, lapidate, app, corps, just, first, gunbird, misfeasance, computing, firebase, militia, cook_off, activity, lead, fibua, blouse, turtle, trespass, abaction, paper, bricole, guilty, specialist, responsibility, sort_out, embracery, bowler, commissary, covering_fire, deactivate, battleship, arm, chevrette, admission, creature, sib, getting, quaker_gun, taker, fire_trench, military_service, commandeer, general, sing, defeat, burglary, execute, nor, class, sharp, wrong, alford_plea, process_server, cease_fire, sav, area, condition, cannonball, bundle, setter, run, accept_service, field, kern, not, completion, cop_plea, war_zone, foot, pac, humbug, ice, armour, transport, fratricide, fire, fire_bay, homicide, cities, better, guilt, undesirable, plea_of_crown, title, bribery, thing, shoulder_arms, police, defense, square_bashing, haver, bust, well, avow, overcharge, reserve, collect, cba, someone, song, mis, maverick, fireteam, stale, fiend, sequester, trouble, cue, special, legal, aviation, guy, bk, soldier, compound, barony, gas, let, cohort, organic, chi, quantum, receive, dish, spoon, soldiers, artillery, sortie, country, plot, status, gonk, kill_zone, chib, unpleasant, infantry, ranger, baseball, kennedy_plea, sally, activate, frame, sas, rescue, intromit, illegal, holder, merch, knowledge, common, terminally, hit_and_run, paddle, shock, commission, misdeed, dole, crash, catch, affair, fall, entrapment, rip, fraud, straddle, mitrailleur, packaged_petroleum_product, tithe, stand, surrogate, thud, cold, snap, waste, inner, praemunire, position, ordnance_survey, crown_prosecutor, rider, anti_aircraft, principal, forest, plough, arc, test, div, lie, pick_up, plea_bargain, offensive, jag, war, debt, engaged, bd, criminal, pocket_sheriff, sit, wizard, medicine, bludgeon, aid, sky, warrant, attorn, bulldog, experience, tackle, tankette, steel, rise, spoils_of_war, metro, corporal, penalty, abactor, smart_money, firm, slant, rafale, side, dod, cal, torture, advance, pyramid, war_crime, tiger_kidnap, pull_out, jeep, wall, nulla_pœna_sine_lege, wing, apprehension, leg, phalanx, protocol, produce, morgue, try, liquid, accept, weapon_of_mass_destruction, impact_statement, faa, bomber, king, convey, swat, chemistry, heavy, lysander, urban, expedition, punitive, non_obstante, remainder, gunshield, dolphin, remedy, ill, specific, distress, steal, spike, practice, pan</t>
+  </si>
+  <si>
+    <t>bayonet, platform, sit_down, bisexual, chin_music, duster, door, plants, also, thermal, approach, projection, package, haul, change_up, taxiarch, earhole, pomposo, fountain, fashion, occupy, canine, cream, zygon, falling, slut, fail, snafu, piliation, glaucope, bullet, below, east, baseball_equipment, blank, table, saddle, scratcher, polemarch, nasty, pencil, market, beam_up, neck, owner, screw, break, mine, diving, antipirate, astragal, midshipman, bone, fixature, accent_mark, military, people's_liberation_army_navy, surveillance, observer, limit, collar, pocket, deep, double, batsman, spatchcock, town, deal, fighting, warmth, hurt_else, virga, pallet, fine, tray, murder, destroyer_leader, apple, bird, sail, plica_polonica, abstract, speed, wooden, release, internet, circuit, make, gunship, pourpoint, sun, scabrous, heptameride, auburn, reinforcement, wrap, terreplein, hat, backup_vocals, cliff, mitraille, corn, detail, uncase, countermine, lombard, warm, potent, hobby, tendency_tone, giraffe, contemptible, comb, chiroplast, military_position, twang, boy, outpost, couch, escape, seat, enemy, transition, strong, breastwork, officer, opera, backgammon, duty, story, hunting, phatness, organize, stocking, goatfuck, mound, consequence, write, cdre, hood, flute, age, cleat, alive, deathhawk, smoke, latebricole, psalm, rota, bell, footing, picker, quadtone, snipe, font, minim_rest, eye, nightcore, collection, ground_offensive, gore, consonant, fourth, mold, foragemaster, chicken, black, dome, modern, feet, curb, move, eccentric, fight, stymie, pleasure, ordnance_survey_map, musical, mousse, branch_of_government, pointed, fort, hair_roller, penis, royal_yorker, garnish, loop, turnaround, abandon, pore, bad_hair_day, tones, part, store, rotation, knickerbockers, dogs, tanker, stones, hoe, come_in, hinged, issue, pitchless, vareuse, requiem, dandruff, motion, one, strand, hermandad, prepare, superdominant, ostiole, net, authority, aa, head_shop, quality, jaffa, hecka, whisker, toad, rdml, skilled, attitude_indicator, powdering_gown, sm, fermata, tent, reconnoitered, board, rimbase, queen, type_site, desert, picket, descant, warhorse, alipta, chief, deadstock, polyunsaturated_fat, river, pectoral, cancommarpac, aor, indutive, smooth, pinkville, loft, punish, bush, building, kesh, star, vertebrate, stand_of_arms, agrarian, candle, coin, murky_bass, attach, root, outpiss, anatomical_structure, ampulla, ring, transportation, light_ball, sabs, improve, god, bull, replicate, union, 6, hear, telephone, crotchet, dragon, per, slash, claykicker, tripod, trotter, writing, utonality, boomer, mora, human_body, steamer, more, diagram, expert, blaze_up, cool, army, bog, shell, electronics, rap, handle, attack, crock, weed, marker, bunch, cast, bassline, tack, mouth, drawer, ardian, chock, agent, inversion, isorhythm, chip, timbre, booby_trap, floor, transcribe, ghost_note, happening, cutwidth, debate, jogging, twist, earth, writing_implement, leaf, sharped, lick, crib, snapper, pmo, flame, light, jewelry, hdms, command, dell, anchor, parsons_code, theatre, ras, dirt, volley, kite, work_out, cant, defect, broadside, accolade, foul, batman, soft, microtone, middle, cease, hull, mechanical, inflect, olive, generic, television, fetlock, fish, playing_football, term, napkin, triad, watch, spitter, dubstep, gastropod, squirrel, spirit, running, deadstick, wiresmith, charge, branch, slight, salicional, factory, crown, go, curve, rangekeeper, beast, zero, organ, travel, luddism, thunder, component, wigs, pimple, bald, folding_chair, netherhair, ssgn, screw_thread, victualling, connect, human, flipper, arsenal, dock, groovemeister, men, airland, hand, comma, angle, beachhead, flake, bud, primate, telltale, cold_steel, structure, boots_on_ground, gem, quarter_tone, sad, ploc, gumming, fireball, stag, fool, sound_box, remove, aam, css, grass, rob, limb, covers, design, draught_hook, vault, gamey, knag, fruit, firing_squad, base, pug, battery, glass, draft, bur, pacflt, stability_conditions, american_football, triplophonia, rod, player, pentagon, spring, igloo, female, two, up, oil, flowers, woman, seminal, acu, corridor, infinite, frontperson, hightail_it, trap, farmer, jackass_battery, mount, propel, glib, ear, log, ana, hold, descend, center, cotton, punt, kind, price, dulciana, lug, rm, crud, cloth, horse, embolon, choro, hi, baked, belt, condottiere, lion, octavated, osteosynthesis, broken, tenor, north_america, beehive, latrine, rear, chromatic, scut, device, category, coyote, foxhole, blockade, accessory, football, backspin, tenth, anatomy, tiger, surprise, explosion, engine, humans, whole_tone, kingpin, charm, little, image, flash, cover, stripe, body_part, hide, quartermaster, sourdine, bee, raw, triblet, heading, crucial, target, lant, gi_can, parallel, pavais, relative, magnetic_variation, comsubpac, director, mylodon, yoke, manner, toasting_fork, increasing, lift, musical_notation, pass_box, rest, mountain, rice, spy, rfs, tail, hole_in_one, early, sestet, wig, weather, mitrailleuse, corpsman, cementation, pencil_test, house, concession, diamond, tiny, outside, narrow, harmonizer, passacaglia, hausse, land_mine, slide, flock, australia, hellbox, exuviae, difficulty, defence, shock_and_awe, pole, page, chapel, emerald, violence, twist_drill, curtain_wall, roulette, stock, enter, macroblock, pronoia, flag_rank, silent, hmis, having_party, receptacle, plate, high_church, beguine, paludamentum, dink, piece, rain, roman, hele, second, fur, empty, congreve_rocket, dormie, cad, retinaculum, kill, knockdown, classical_music, pointmaker, robbery, x_y_recorder, pitch_pipe, deadheading, escadrille, trail, cadm, blue, birth, mantlet, catch_plate, always, pitch_class, dot, skip, tongue, dial, group, sauce, jar, keel, velvet, clicker, bootleg, value, minenwerfer, duple, captain, joint, spanish_road, thrust, rendition, double_bass, melograph, property, grapple, deposit, er, sport, banneret, strength, kerrison_predictor, disappearing_carriage, transposition, dog_food, deathcore, soup, idiomatic, ears, hellacious, tap, abda, penny, have_fun, pucker_factor, 1, bark, canteen, snider, chopped, mechanism, light_barrel, spread, blaze, cat, drag, dl, dead, bishop, still, leave, thimble, receiver, button, pannel, dresser, source, dry, lord, diastematic, neighbor's_house, cut, ireland, fun, hawk, dump, interest, graphophone, automobile, canmarcom, brook, four, patchery, directory, plat, sweat, netherlands, signature, otonality, furnishing, felt, dugout, memory, meantone, wac, navy, tierce, shift, time, shitty, web_site, bounce, prick, acorn, signal, interfere, chart, using, poker, nick, globe_of_compression, stuff, circus, blockhole, mark, triphibious, sexlocular, tar_heel, lapping, chess, bottleneck_guitar, locomotive, pup, f, rocker, volunteer, pat, graph_theory, rank, crust, scoop, ack, spool, tippet, altissimo, clothing, elephantry, pod, party, stupid, myriarchy, fan, ornament, sotto_voce, sonobuoy, round, geometry, tenaille, geeked, wolf_tone, bow, mathematics, bicycle, instrument, rendezvous, funkhole, subcontrabass, zone, tube, waac, marquise, surgeon_general, entry, question, cut_and_run, stagnate, love, dogballs, pounce, upslur, cave, cuirassier, walk_dog, myriarch, plant, relaxation, change, transport_ship, drain, zither, actual, exchange, shoe_tree, doomcore, column, machine, formation, magnificat, express, book, salt, crotchet_rest, coehorn, related, cake, arpa, venue, western, bolster, darkpsy, main, big_four, brick, monody, fancy, grooving, carabine, box, globe, beautiful, act, dog_meat, acquire, stream, stroke, movie, comsubfor, blackjack, moll, burn, us, lay, electrolysis, blade, vehicle, ulcer, pickup, compensator, tell_off, pipe, locomotion, flush, playing_sport, jiedushi, trick, orchestra_pit, club, mopstick, clam, warp, course, reprobation, recognition, split, pin, respect, clarinet, alt, seal, spider_hole, folk, gang, channel, sperm, scorpion, lodgment, fortify, maroon, kick, broad, effect, snooker, chain_shot, skin, justiciary, poligar, minstrel, telharmony, trim, word, yarn, chill, academy, measurement, wind, reason, safety, present_arms, bruise, cgn, armed_conflict, pile, relaxing, manscaper, hurt, of, upheaval, footgolf, invasive, botany, print, written, slot, cry_blues, highball, rear_admiral_lower_half, take, lorry, graf, alfabeto, honour_guard, household, melee, authentic, shade, shelf, sleeper, child, sequence, rcn, old, halftone, function, punctum, agogic, unit_of_measurement, forkball, permanent, riser, forestay, waist, crinet, support, scale, city, learn, home_run, crucifixion, chapter, intense, comics_character, e_flat, heal, lines, stick, crime, computer, hacker, alcohol, vulgar, broach, coal, r_r, orchestra, martellato, pen, sesquitone, cricket, show_flag, caisson, consecutive, metal, dirty, counterland, punctation, r_and_r, pop, graph, photograph, ambitus, sv, forward, fiddle, hypomixolydian, rank_and_file, after, team, derogatory, complement, taille, pedal, nautical, pair, jerk, grubber, homer, material, coastwatcher, missile, tape, downslur, programming_language, private, patriot, have, body, assailant, parts, way, kargyraa, darkwave, president, darkcore, natural_harmonic, block, fundamental, injury, intelligent, ankle, implement, brunet, heptatonic, object, commando, pioneer, noose, port, depression, bel_canto, suite, tornado, buffet, sore, and, chain, shepherd, bedhead, ink, twelve, meatball, shorten, tormentor, face, nest, combination_tone, piston, beginning, record, shark, bar, bent, running_twenty_six_miles, precious, destroy, boyau, best, elevator_music, quadrivium, carry_tune, cap, abuse, utensil, 6_8, rn, hbms, pain, aaa, apparatus, clevis_pin, unit, pelt, ore, snake, ship, rear_admiral, flea, burgrave, relais, carol, bill, penetrating, fang, wpg, cow, pulley, energy, call, type, lughole, fluff, clock_tower, mistake, cloaca, indent, sloop, astronomy, count, game, portable_object, housing, talk, order_arms, civilian, data, réduit, moment, highlife, challenge, toast, uncover, biology, router, free, craft, wrest, flagstick, egg, geography, controller, modality, bar_shot, nose, prime, spire, explosive, bread, petrol_sniffer, rough, band, fuck, triarius, bank, bet, like, figure, finger, aggregate, standard, play_game, case_shot, steam, deathgrind, doit, middle_c, drink, roks, leisure, tankbusting, wax, axis, duke, bed_check, territorial, mad, attachment, shave, large, rule, beaver, herb, wallet, fr, sound, altitude, repeat, jeep_carrier, chest, rove, gorget, potential, scotland, limbo, hammerstone, pepper, drop_kick, inanimate_object, seed, walk, pull, retreat, drift, hellhole, mining, composition, fungi, air_strike, tallboy, objects, point, unite, relevant, mons_pubis, hit, fast, chick, boss, rapper, reconcentrado, enclosed, corner, cell, flex, supreme, plebe, blindage, lordosis, playing_frisbee, harmonize, going_for_jog, push, blow, obbligato, motograph, cycle, crop, sheet_music, troubles, post_horn, sling, perform, gift, beat_time, predominant, doghole, admiralty, letter, seasoning, historical, bag, mess, butcher, growing, spot, hole, tunic, shoehorn, thin, powder_room, voltage, capeline, perrier, auto_tune, canal, dull, drumstick, ruler, tooth, inspiration, camp, rag, measure, rock_band, warfare, bench, baubellum, facial, jungle, look, logistical_nightmare, farm, field_jacket, phrase, now, swim, post, number, wager_of_battle, triangle, castrum, traverse, bathroom, bogey, interchange, mordent, hypodorian, album_oriented_radio, phone, curtal, pawn, chalk, brat, keyboard, plane, hill_station, animal_science, tattoo, duck, blind, jesus, transfer, dress, digitigrade, trade, semibreve_rest, frontline, scull, together, harmonist, fork, crisis, cable, accident, rudiment, smart, pewter, diatonic, organization, pierce, psychedelic_rock, moo, perpendicular, smut, at, quarters, squat, italy, pollen, bend, auxiliary_cruiser, preparation, information, singer, german, boat, bunt, zhapu, minefield, disembody, company, tin, frost, petard, mississippi, uk, vegetable, on, quarter, gray, postlude, item, damage, third_rate, corbeil, strigose, ticket, adult, sheets, blood, lob, octavate, plan, local, fever, tank, gate, discord, gig, white, tuning, hymn, put, thrum, album, weapon, art, sewing, gold, knot, prayer, so, line, klang, canon, administration, filler, wigwag, soul, maneuver, cent, smoking, man, mummy, squid, bring, hard, moving, header, fluke, septimole, trench, edge, chisel, mute, vagina, turn, dreibund, entity, shape, male_pattern_baldness, poke, viola, mode, hunter, finance, flat, ton_up, open, pearl, bogie, beat_up, tree, thizz, tally, show, smelly, shoot, stopping, square, tower, mass, be, indumentum, shaef, burr, gaining, communicate, social, mat, waveshaping, sound_hole, brown, proslambanomenos, sale, triumph, cd, cannon, college, head, roll, rhombus, virgula, double_kill, roundel, school, force, downbeat, jacket, period, stage, rhythm, tone, melodeath, chase, near, sister, pitchy, saw, toman, jump_jet, wisconsin, scratch, latch, good, welbike, battalion, jog, bear, train, face_music, recitative, sounding_board, tiny_tim, twitch, marijuana, gauge, fougade, keynote, soft_pedal, traverse_board, node, history, staff, dig_in, sectional, mill, switch, screen, paint, spitball, bandage, cross, abdomen, pitch_simultaneity, jaw, fodient, promontory, si, heptachord, goudron, caponier, fellow, geographical_region, raise, corymbus, skull, verse, style, jim_crow, double_time, mate, ditone, ginger, commarpac, press, flag, start, cag, amir_al_umara, tonicize, ephebe, telegraph, projectionist, fettler, turn_up, rate, bail, front, development, heel, dux, touch, askari, gassed, furnace, extension, beard, dust_bunny, pneuma, crawl, electrical, bury, carbonado, metalworker, unbreech, short, romance, wood, straight, arbor, animal, local_board, concealment, h, process, equal, percussion, eating, service, purpose, climbing, closet, red_army, sextuple, buster, hypolydian, fortune, eyelet, reentrant, endocarp, tritone, phoney_war, guard, hair, jig, bracket, shower, popular, artifact, snow, small, risky, pandiatonic, swabber, accidental_chord, profit, skysweeper, vessel, grey, losing_weight, bunk, junction, beat, swab, integumentary_system, flag_carrier, lunette, clear, backbeat, rivet, strike, linen, jrm, bodyfur, mean, mazurka, flower, affect, dibber, hammer, reformed, natural, chindit, metal_detector, explorer, stop, rock, reeve, nailbed, reading, fold, draw, americana, bridgehead, robinet, clipper, drill, dictionary, file, achieve, pejorative, muster_roll, sick, burin, palanka, master, carpet, violent, sucker, ob, centenar, amount, chillout, booby_hatch, lock, gimbal, gravity, mission, palmigrade, taenia, coat, uspacflt, jump, soap, spanker, longer, 11, tom, can, poll, fed, lay_on, hang, musica_ficta, around, melody, card, close, degree, wild, suddenly, general_term, gabion, jedburgh, moral, variation, battle, caesar's_palace, cantonist, peg, dital, compass, bottle, hater, office, steeple, lcs, abyss, out, lithodome, tankbuster, homeset, very, no_man's_land, churchical, clock, telharmonium, nibbler, disco, steak, volleyball, pack, multigraph, tertiate, play, pass, pitchfork, manscape, cockhead, ram, happen, rouse, submarine, postindustrial, hedgehog, operation, making, university, rhubarb, umbrella, recreation, finish_nail, styled, plug, polish, orb, distributor, color, state, sex, smell, panjandrum, haircut, stridor, stoned, pip, slim, before, traversing_platform, zombie, manager, serve, manual_exercise, awl, nonaccent, car, spawn, grill, everyone, exercise, work, section, everlasting, fry, kicker, onager, pitcher, terrier, hobit, first_rate, level, postgraduate, quarterback, turkey_tones, shake, video_games, bivalve, gesture, sinkijon, sabotage, all_in, protest, joy, big_blue_blanket, max, piano, third, black_hole, manrent, it, rabbit, jack, perfect_pitch, rosebud, friction, ssr, biscuit, inside, berry, mullet, die, packet, grime, fraise, addition, traphole, re_entry, cord, grave, mutual_assured_destruction, john, list, sea, order_of_day, articulate, sext, bunker, god_botherer, broom, torque, grounder, baseball_stadium, false_flag, melodics, one_hit_wonder, rudder, royal, silence, batter, mallet, creation, semitone, tense, jab, slade, rangekeeping, feeling, destroyer_escort, lantern, tide, listening_to_music, purchase, commarcom, metapolitefsi, grape, arrive, hair_brown, schola, resistance, half_step, pavilion, in_tune, opinion, fire_step, twenty, hexatonic, squeak, falconet, columbiad, conductor, tipping, slew, articulation, rope, job, transit, quantize, speak, surface, tubage, aria, loud, carpenter, extra, tonicization, back_up, result, climb_mountain, stagnant, bat, gaff, herbed_up, army_officer, yaw, sol, slab, shantyman, neolith, flip_flop, demonstration, british, stretcher, highlighting, fill, dollar, species, drive, tall, film, label, wah_wah_pedal, march, breathe, jam, daydreamer, blunted, irish_pennant, ecbole, mineral, fox, truss, gun, add, butt, interdiction, container, garage, heraldiccharge, locker, bottom, top, set, hill, movement, athletic, sustained, cmdre, gong, pit, feature, boxer, nap, space, back, front_door, sea_shanty, rut, key, troop, hard_code, canada, action, taps, wire, body_of_water, young, main_gauche, roof, pupil, christianity, overtone, expression, theater, dub, fairway, tango_uniform, sap, shoes, hairwork, reduce, single, choir, madrigal, size, homes, sing_soprano, study, fit, physical, crest, clothes, going, laager, proving_ground, fillet, bad, hockey, smash, detune, mole, timber, billet, translate, place_kick, substitute, cutting_hair, meat, gouge, passing_bell, sixth, hand_tool, pitching, pipper, whale, wrns, starter, kicked, capital, programming, iron, shaft, stretch, bomb, boot, petardier, tangible_thing, rear_admiral_upper_half, bitter, whip, sneeze, chamade, turret, spinning_wheel, corporation, 2, pepperbox, origin, tool, power, separation, hike, painful, arsis, polissoir, paste, landing_craft, scutage, subject, revolve, mammal, elevator, lat, disease, nothing, rooster, cater, card_game, bite, pannier, grapnel, politician, partner, beyond, turner, listen, soil, event, labor, quad, glove, creeper, hair_tie, uncertain, clamp, ship_of_line, skipper, nigga, railhead, children, shot, institution, framework, prize, intervasion, epilation, headquarters, concert, walking, has, commodore_admiral, countryside, rude, cathedral, furrow, sich, trip, landing_ship, water, batterie, build, comanche, teeth, dialectal, shoop, euphemistic, pitch, shield, mesto, dialect, pulpit, soprano, rotate, wear, pogey, dedication, problem, particle, idea, float, heart, toe, grown, lip, relieve, kidney, able, ensign, orderly, cantinière, throw_smoke, leap, sextet, repair, substantive, stone, climb, telogen, navigation, reach, hot, friendly, breed, voice, check, anzac, rat, fortress, choke_up, headliner, pea, new, person, highcut, relax, pink, doll, grate, throne_village, padding, pot, wound, marcom, stitch, flank, caesura, a, equipment, slang, copedant, united_kingdom, atonal, porcate, forget, colour, combatant, interlude, solid, ordo, catchpole, court, desk, hiking, solitary_confinement, provost, fair, bearing, drawing, down, armor, series, depper, form, score, quartering, sign, bolt, defensive, cab, over, first_violin, dance, sheet, unpitched, praporshchik, food, domestic, air, strop, arch, galaxy, ridotto, furniture, needle, heeler, sole, fireworker, decameride, strophicus, composed, blazed, radm, stakehole, storm, hoof, temper, girl, wash, cavalier, holding, glasses, suspension, missing_in_action, crow, it_is, getting_physical_activity, canmarpac, hop, dishwater_blond, skyline, hook, balloon, brace, cruciferous, polo, card_games, outfield, whole_step, thick, paw, invertebrate, animals, footer, dredging_box, paideia, arnaut, profiling, home, soccer, great, chaser, runner, think, heat, shut, tonal, bump, ah, whole_rest, discharge, big, perch, disengagement, mangonel, half_rest, intonation, fall_down, valence, fighting_war, printing, digit, recruit, orifice, slope, venus, foothold, jew's_harp, commodore, land, testudo, pissaphone, transformer, univocal, fleet_captain, wave, houses, limber, session, tune, bed_hair, lice, black_and_tan, light_handed, das_reich, sergeant, cryptography, bimeter, current, name, basic, navel, roller, shoe, compacflt, place, rib, lats, highman, military_post, concert_pitch, bitch, buffalo_soldier, cutting, protrusion, diplophonia, ajam, music, case, passing, dig, sniperscope, perfect, excavate, example, supply, crossover, sudden, cornetcy, tennis, linstock, gel, provide_comfort, cage, horizontal, nip, arrangement, muzzle, rynd, bombed, accent, cabinet, dog, butterfly_ballot, live, range, pie, order, landing_craft_tank, sheep, dead_bird, noise, sports, ground, false_harmonic, long, punch, trimmer, warble, eat, rests, appliance, castle, kink, solidungulate, son, dribble, polypyrenous, deathpunk, carry, pig, graft, corps, rake, stinger, rack, defend, vortex, alla_marcia, capstan, marine, splice, stem, cadet, rigadoon, incoming, first, money, rogue's_march, caponiere, flip, full, socius, computing, meride, militia, three, snag, miss, ambulance, activity, tzaraath, hut, rum, lead, trichohyalin, apotome, high, blouse, street, covering, turtle, baby, quarter_rest, paper, overblow, bricole, pike, gregorian_chant, flood, xo, blue_chip, pick, very_small, partial, recess, fix, urchin, dirty_blond, spurn, responsibility, quintole, dark_haired, crowd, loo, musician, mm, throw, contralto, self, silk, arm, chevrette, cordon, moton, nut, coda, dust, hull_down, creature, sinew, modulate, sill, sib, dibble, reefer, backhand, used, getting, cloud, turnstile, kurultai, bridge, spar, grain, octave, agate, europe, fertilize, general, multiphonic, sing, defeat, people, mustard, class, matter, ruck, sharp, oven, brain, smasher, destroying_enemy, fl, stompbox, calibre, math, ssbn, toggle, area, beak, cup, rub, guide, sometimes, turn_over, condition, stadium, poison, spill, setter, dead_march, run, develop, mask, lamp, field, spin, barbecue, rhapsody, tone_deaf, performance, muscle, solipede, blockmaker, isotonic, frizette, wedding, staging_area, war_zone, beauty, low, giver, mud, buttonhole, foot, crosshair, ice, cornstalk, envelope, armour, titian, construction_soldier, transport, fire, might, truck_driver's_gear_change, restraint, puppy, better, railroad, magnetic_compass, park, electricity, dia, thing, tuck, remise, decreasing, family, use, defense, handlanger, daseian, business, body_covering, culture, cupola, played, commander, lance, well, mile, decoration, cleaver, digging, cube, dad, reserve, starting, wine, someone, voicing, drum, song, crawler, binary, jacked_up, ding, insect, religion, vulnerability, stopper, pill, decima, stale, speaker, dogleg, vertex, masculine, adjunct, sickness, accord, beam, trouble, science, cue, special, china, alopecia_areata, legal, evil, mortise, entrance, saturated_fat, ball, aviation, swing, join, fly, via, jacked, tonality, soldier, barony, pralltriller, scouter, dog_bone, gas, easily, copy, cohort, insignia, banda, pad, danger, red, eab, christian, forge_wagon, flag_officer, organic, ray, staple, quiet, usa, burke, artistic, spoon, auto_mechanic, elbow, element, sif, end, country, drop, piggle, shovel, put_together, springal, plot, tie, stove, major_scale, marpac, strap, infantry, come_to, ranger, wool, opaque, baseball, attraction, happy, counter, piker, luff, architecture, frame, backhaul, brake, slide_guitar, minister, mensuration, irritate, holder, revolution, toy, canoe, solid_object, man_made, program, nice, hbc, diagnosis, lady, eleven, pleb, thizzing, safe, primer, t, destroyer, common, terminally, zoo, wardroom, tonic, lighthanded, hip, shock, commission, sentry, diesis, pull_off, pastor, growth, burned, understand, brilliant, crash, accentuation, snail, x, cappella, everything, stability, bagpipes, playing, harmonic, affair, rasante, engraving, nails, tell, fall, hambone, final, public, daughter, foxer, rip, chop, legion, upcome, exercising, surname, reconcentration, crank, scorched_earth, track, coach, chin, sixteenth_rest, mantle, note, step_out, tithe, strike_blow, drink_water, stand, colonelcy, sit_on, backwash, cold, demitone, letter_opener, weight, sink, crepe, germ, clip, risbank, mammoth, chinrest, pebble, position, mister, flow, playing_soccer, sarcoderm, toss, trainer, company_seal, principal, forest, dancing, pes, her, plough, interval, test, baritone, vip, instrumental, slow, paragon, select, smoky, torpedo_net, standing, mustahfiz, pause, multiphonics, bass, bit, unicorn, psychology, chug, offensive, war, snuffer, wake_up_in_morning, shank, bach, play_sports, tuft, sew, bob, parade, gammon, find_downstairs, sit, servant, pretty, crotch, golf, elegy, wizard, str, alto, medicine, second_rate, brass, pivot, bed, aid, sky, warrant, triple, sock, accentor, wet, scoring, unsaturated_fat, chant, bipunctum, campaigner, massage, leiotrichi, war_story, accordion, experience, campylospermous, tankette, steel, rise, cassette_culture, bully, corporal, chair, squadron, substance, kennel, bugle, sextuplet, smart_money, como, soviet_armed_forces, sour, firm, stop_up, dogged, nuclear, garden, eighth_rest, balk, critical, big_gun, wah_wah, shuffle, side, intelligence, falsetto, discipline, dod, yard, stamp, advance, cook, promachos, dodecaphonist, registration, pilot_hole, jeep, weight_loss, apron, wall, software, stew, rapid, wing, cheese, trees, scud, loophole, load, filing, leg, phalanx, underlay, scream, protocol, engineer, get, caschrom, major_second, stinkball, rig, produce, step, off, unattractive, what, site, try, mouse, napoleon, caboose, sillon, weapon_of_mass_destruction, rug, mattock, pericarp, groovebox, convertible, faa, bomber, promote, mule, forehead, spacer, refrigerator, kitchen, carnival, crane, mareschal, sadcore, radical, king, cradle, run_twenty_six_miles, heavy, bandsman, lysander, artwork, dude, ken, initial, teach, language, lower, savart, shoulder, plunk, remainder, hank, sticks, asroc, spur, tridiapason, dolphin, cunted, mrv, pound, groove, away, leitmotif, tools, cakewalk, dense, direction, tellurocracy, pluck, spit, steal, stifler, spike, spade, claw_off, pan</t>
+  </si>
+  <si>
+    <t>agreement, feeling, kind, move, quantity, very, price, gain, conscious, keen, high, division, friendly, dialectal, like, event, offer, charitable, skill, thing, pitch, music, game, completely, consider, consideration, pass, bright, kindly, sensible, polite, promise, thoroughly, hand, giving, make, deliver, deliberate, step, card, indulgent, address, buxom, upset, twist, shake, surprise, poker, good, amiable, great, prudent, hold, quick, uk, amount, suitable</t>
+  </si>
+  <si>
+    <t>dust, red, water, vulcan, travel, scale, clock, city, sol, like, figure, finger, station, drive, victoria, meter, servant, digit, earthly_branch, core, computer, canicular, put, large, medicine, album, hand, octave, table, bed, mathematics, planet, sky, heart, angle, desert, humorous, asia, myth, neck, people, wood, break, wane, race, india, class, animal, man, matter, set, polish, brain, christmas, love, service, region, crater, church, star, place, space, area, brake, turn, blue, steel, birth, rise, base, canada, battery, companion, deal, zombie, book, music, guard, sextant, run, progression, group, ring, bird, transportation, fiction, bolster, god, fry, person, up, moon, speed, bull, oil, road, real, single, artifact, sun, population, small, dragon, physical, pot, slash, english_language, stitch, farmer, dog, cabinet, object, historical, slang, us, beat, hobby, ether, range, museum, smash, half, sports, transport, everything, fauna, club, face, canal, park, piston, present, beginning, deus_ex_machina, handle, camp, horse, starter, mons_mensae, mechanic, stop, lion, family, dance, b, bar, farm, sheet, ride_bitch, culture, quadrivium, sea, number, tool, night, smoke, bell, mile, dipper, earth, lord, truck, pejorative, dark_light, unit, plane, good, everywhere, nine, computing, ireland, linear, master, word, zodiac, dump, stars, nation, cow, heaven, four, lead, accident, radio, paint, street, being, stale, spiritual, heavy, astronomy, yoke, lily, language, accord, headlight, tunnel, slow, absolute, dance_pop, evil, increase, harvest, celestial, part, around, boat, term, circus, issue, star_chart, old, life, uk, office, gas, astrology</t>
+  </si>
+  <si>
+    <t>door, also, preserve, celebration, fashion, cream, fail, our, bullet, caffeinated, lobby, table, sweat_pore, genus, market, slit, exit, neck, break, time_period, family_history, pocket, deep, double, deal, leak, daypart, domesticate, bird, apple, theme_song, wooden, release, make, garment, visit, liberal, corn, woulfe's_bottle, boy, curtain, interrupt, escape, seat, transition, strong, glaze, batten, breech, hood, age, takeoff, alive, bell, snipe, proficiency, everywhere, soc, eye, roster, entertaining, consonant, innings, nation, dime, chicken, black, snuff, feet, move, fight, trump, canonical_hour, gasp, penis, loop, pore, part, store, grammar, cars, motion, reaction, aa, op, active, quality, cutter, to, board, disconnected, desert, chief, river, finish, smooth, sexy, building, gape, kingdom, coin, conduct, root, ring, surface_of_earth, bull, characteristic, slash, hour, writing, more, clinker, cool, bog, shell, sign_up, rap, united_states, handle, cast, mouth, nighttime, agent, chinese, earth, beef, leaf, fuck_off, economics, magazine, efficient, light, performing, knob, dirt, circular, evolve, happiness, middle, with, generic, term, watch, spirit, may, charge, factory, crown, go, scotch, travel, thunder, makeup, pimple, application, human, men, filling, giving, hand, any, bud, structure, labile_verb, sad, remove, sort, grass, rob, cork, fruit, glass, opening, biological, basement, spring, progress, two, up, oil, proper, flowers, woman, throw_down, trap, farmer, commercial, ear, vent, dice, cloth, pull_focus, technical, rash, broken, evening, device, category, drama, erupt, surprise, construct, chamber, gilt, humans, arno, little, image, flash, favorable, cover, tag, gap, interaction, hide, crack, heading, satellite, string, shark_fin_soup, rest, weather, house, rogue, former, outside, damaging, narrow, born, australia, sublimation, shackle, mind, shorter, cleft, stock, extract, enter, ephemeral, control, plate, piece, become, landscape, rain, second, jumper, kill, knockdown, keen, taste, window, blue, deadhead, debut, always, darg, group, functionalism, sauce, jar, clicker, value, few, typography, citizen, killing, sport, strength, hepatoduodenostomy, choice, soup, cookie, friends, tap, effective, description, meaning, bark, mechanism, spread, done, dead, leave, rift, sprint, button, source, lord, bath, cut, calling, automobile, brook, affluent, signature, lively, visitation, video_game, memory, take_time_off, time, describer, role, gat, qingming, audience, personal, poker, particular, nick, stuff, when, rich, circus, mark, successful, keyhole, chess, dream, saint, penicillin, graph_theory, cheek, fan, native, cash_in, geometry, bow, mathematics, os, bicycle, outer, funkcore, love, uppercut, cave, plant, change, column, machine, book, first_step, salt, asset, related, cake, main, moon, bars, come_on, television_show, box, spout, youth, act, stroke, movie, burn, rush, lay, us, blade, vehicle, ulcer, get_off, trick, club, course, betee, animate, split, closing, respect, apply, channel, maroon, kick, broad, laugh, word, day, generic_term, blowbuddy, clean_clothes, stiff, wind, bruise, being, iceberg, entering, law, take, shade, child, sequence, spa, old, chocolate, cinder, city, missouri, physics, intense, stick, computer, actors, alcohol, coal, atmosphere, smiling, cricket, metal, dirty, sugar, avenue, pop, fusion, rock_music, after, complement, nautical, aim, material, leaves, oak, pictures, croak, almost, have, body, parts, president, block, being_involved_in_accident, object, port, inn, face, beginning, mort, piss_slit, bar, precious, best, sleep, unit, energy, call, blackheart, type, fabric, lemon, astronomy, count, department, windy, biology, free, craft, shed, wrest, jingle, doors, shrub, termination, nose, prime, death, industry, bread, famous, facility, band, bet, like, figure, filth, steam, glory, drink, wax, sappy, promise, rule, diastema, herb, wallet, sound, chest, camera, scotland, pouch, pepper, seed, pull, mining, occasion, point, hit, flourish, years, chick, corner, cell, push, blow, crop, gift, give, shut_up, historical, growing, spot, hole, twilight, month, register, dull, availability, look, instruments, you, number, bathroom, opener, phone, junior, brat, hydrate, big_bang, blind, dress, picture, buildings, topology, together, smart, strip, wicket, loose, alien, breach, information, boat, company, tin, uk, debouchure, quarter, send, gray, fatigue, dark, throat, blood, bold, gate, white, put, album, art, gold, knot, line, address, filler, soul, represent, cent, production, man, hard, moving, overshift, edge, blacksmith, barb, turn, entity, shape, finance, flat, open, alley, tree, show, smelly, shoot, mass, relation, be, perforation, suffuse, continent, communicate, sound_hole, slot_pair, prison, head, roll, cellar, force, jacket, period, stage, tone, grant, saw, mince, chord, good, jog, bear, arise, marijuana, capable, green, fact, screen, paint, mortal, crimp, reproduction, void, swell, heyday, fellow, expand, style, theme, flag, start, opportunity, rape, introduction, forcing, rate, development, honor, graveyard, but, liberty, short, wood, straight, animal, process, eating, service, purpose, closet, leafs, news, keeper, fare, artifact, small, tubulure, vessel, stenopaeic, grey, chink, junction, pilot, its, lunette, ghost, clear, strike, present, mean, flower, hammer, wide_open, stop, draw, do, pall, funny, pejorative, available, late, ash, refer, sucker, speech, lock, passage, nursery, slog, jump, pantry, can, identity, hang, card, close, wild, general_term, eaten, peg, excellent, noun, location, out, cut_out, very, steak, pack, victoria, tertiate, play, pass, squint, happen, ideal, operation, making, certificate, rhubarb, coin_slot, prosper, race, fart, character, polish, color, state, giant, smell, birthday, pip, before, zombie, slug, serve, virgate, suit, car, exercise, work, bay, first_rate, first_person, spacecut, shake, gesture, joy, discolor, lap, it, pleasant, influence, turning, inside, scissure, die, sides, grave, john, sea, static, abc, slam, inflate, furnish, feeling, brack, shutter, investment, extreme, lemonade, conductor, huge, job, evangelist, surface, potpourri, loud, result, bat, choco, specify, british, fill, season, species, film, winning, march, breathe, bate, through, add, knock, queen_post, container, choke, wildlife, locker, set, top, hill, movement, space, key, canada, action, wire, scape, young, feminine, christianity, expression, milk, single, northern_england, apartment, fade, going, juice, bad, smash, meat, starter, undershift, capital, programming, iron, stretch, boot, whip, straw, sneeze, eating_vegetables, bleeding, power, temporal_hour, occurrence, decay, disease, indian, game_of_chance, stound, event, ostium, excitement, hair_space, children, bubble, has, yellow, taint, introduce, water, build, orpharion, dialectal, hiatus, rocket, pitch, wait_in_line, idea, float, lip, even, communication, able, chasm, phonetics, leap, catch_fire, phenomenon, stone, read_out, sweet, hot, voice, positive, isle, new, person, prompt, thread, road, doll, pot, wound, supermarket, year, slang, colour, properties, solid, yards, meteorology, fair, down, cause, form, sign, bolt, wallop, freedom_of_city, dance, sheet, segregation, food, air, galaxy, customer, obstacle, storm, temper, girl, utility, division, solder, hook, flue, brace, feck, pull_up_boy, edible, faceplant, most, tracery, home, heat, plain, whang, discharge, made, big, break_down, valence, printing, photo, land, manufacture, finesse, puddle, malleable, wave, puff, unknown, umbilicus, name, roller, place, living_thing, wink, doctor, machicolation, male, music, appear, case, passing, dig, perfect, example, supply, lots, nip, take_off, cabinet, live, animation, range, simple, indentation, noise, license, sports, ground, pinch, lacuna, eat, health, industrial, carry, graft, first, money, full, balistraria, computing, thrive, slice, garbage, fresh, lead, high, scuttle, baby, gatherer, pick, recess, elm, fix, urchin, living, crowd, meatus, throw, knife, life, coda, dust, creature, overture, induce, cloud, bridge, spar, build_up, general, sing, defeat, people, class, matter, fluid, change_state, radiation, math, excite, area, sometimes, condition, poison, run, develop, lamp, sign_on, field, performance, not, wedding, beauty, mud, envelope, fire, midnight, railroad, title, park, coffee, grow, thing, family, use, business, wide, culture, tv, bust, dwarf, product, profession, valley, well, stab, cube, dad, reserve, starting, wine, someone, outdoors, phoenix, corkscrew, religion, stale, masculine, cannabis, science, special, china, tram, legal, evil, entrance, harvest, ball, swing, fly, guy, greeting, inclusion, red, pass_through, dusk, usa, feel, spoon, element, end, country, drop, library, plot, really, negative, wool, opaque, baseball, sunshine, happy, coast, photography, bloom, toy, fissure, distance, nice, spend, program, lose, winker, bright, safe, nature, primer, t, common, zoo, appoint, go_somewhere, hip, shock, growth, ether, doff, catch, everything, turn_around, fall, room, final, rip, air_out, bedroom, earl, surname, morning, backhander, coach, note, none, bean_chute, cold, meet_girls, waste, snap, ramp, weight, heaven, clip, flarepath, position, slip, flow, forest, cycling, wheel, interstice, given, war, sunny, sew, bob, actor, nightfall, pretty, golf, aura, medicine, smaller, brass, bed, sky, beer, experience, urn, steel, rise, hatch, nickel, date, compact, firm, stop_up, garden, sarai, lebensraum, yield, side, yard, advance, cook, adjective, one_shot, wall, software, wing, bang, reproduce, gum, get, night, produce, boom, off, what, napoleon, amateur_hour, convertible, flesh, bomber, enrich, change_of_integrity, mule, refrigerator, kitchen, king, candy, heavy, knockout, initial, religious, lily, hank, resource, direction, lend, quick, spike, pan, muggle</t>
+  </si>
+  <si>
+    <t>point, very, clear, refine, deep, turn, rap, dialectal, learning, nautical, action, mean, hunting, nice, music, human, trouble, hunt, can, sword, law, person, art, pain, reduce, degree, mathematics, file, well, perform, craft, literature, brat, track, light_handed, sports_equipment, egg, spirit, dog, animal, us, man, blade, bad, uk, chicken, bat, thin</t>
+  </si>
+  <si>
+    <t>fruit_machine, scran, rank, japanese_pizza, aluminum, bagel, coop, party, rockfish, leader, cream, round, blacken, food_waste_disposer, bullet, beard, harpoon, salami, agri_food, squash, drinks, kicking, animal, process, name, pasty, contents, bone, mayonnaise_face, custard, place, fodder, plant, pocket, foodporn, batsman, briny, beverage, sourdough, salt, fare, greaseball, hair, dago, jig, bird, cake, apple, alloy, tight, lake, cookline, small, trayline, box, dog_meat, vessel, wattle, capsule, dog, caught, eye_talian, chips, go_large, us, berliner, beat, rat_pack, range, pie, order, sports, ground, cans, pudding, guido, eat, linen, sockdolager, carry, pig, silver, metallic, hot_dog, rock, blob, catmeat, topper_offer, smoker, gang, nosh, whiff, fortify, kick, dogfood, snakehead, snooker, money, full, eye, donkey, snag, miss, bowl, pack_fudge, toro, chicken, grub, tinned_dog, garbage, fresh, kebab, move, lead, being, ex_lax_fish, pike, seafood, rockhead, can, munga, pick, fix, wad, take, crowd, store, card, hoe, playing_card, pea_soup, pressure, wop, sequence, greaser, bronze, tagger, crumb, bottle, wally, croaker, chocolate, net, boning, scale, cupcake, fruitcake, oliebol, pack, play, chow, tinfoil, cooked, goombah, pond, mcdungheap's, bridge, canned, board, foodgasm, shiny, permit, grain, canary, ginzo, peeler, general, cod, making, wolf, wet_fly, cricket, rhubarb, river, frig, ruck, metal, tinnie, sugar, gino, pop, forward, beak, cup, mexican, coin, nautical, milkshake, tulumba, stack, slug, material, greasebomb, poison, bundle, car, run, ring, crab, have, ability, body, honeycomb, trash_fish, prawn, not, cafone, growler, hamburger, hay, ankle, ring_sting, object, rifle, ice, sop, salmon, rugby, fire, molly, jack, nest, biscuit, underwater, inside, berry, mullet, park, coffee, marker, cast, mouth, canner, bar, dip, sea, bunker, supper, dipper, beef, coke, twist, truck, ore, snapper, drum, ingredient, sozzled, light, anchor, belly, gutbomb, trout, type, grape, parmesan, bone_up, game, soft, blech, beam, jelly, purdy, tearoom, need, pinky, toast, fish, term, fly, stump, quiche, roofs, craft, pool, shop, mutton, fother, lid, egg, soldier, compound, diet, rivers, rainbow, branch, grouper_trooper, rad, naturally_occurring_tangible_substance, bread, pad, pastry, red, gaff, like, british, dish, tabnab, fill, spoon, cobbler, element, youtiao, prog, flipper, drink, chowline, sack, sopaipilla, swot, bamiyeh, fisherman, genetics, fisho, get_wet, jam, rule, herb, wallet, hand, sound, mineral, fox, angle, stuffed, doubleheader, catfish, german_pizza, fishhead, wildlife, seed, top, fish_cop, schlich, mining, overnet, chuck, starfish, grass, cork, space, eyetie, cheap, fast, glass, chick, draft, delicacy, troll, plastic, funnel_cake, roof, fishy, toilet, tucker, oil, milk, minnow, zoo, provide, size, cinnamon_roll, physical, fizgig, farmer, shut_up, christmas_cake, historical, bag, baguette, twinkie, hold, fillet, cotton, wanker, smash, spot, catch, thin, rat_tail, sprinkles, aquatic, whale, horse, breadline, lure, baked, iron, wonton, bench, whip, nz, hack, shiner, jointed, rip, swim, hardware, trash, opener, paste, foodie, mug, spear_biscuits, fishing, oyster, guinea, duck, blind, bait, pogey_bait, bean_chute, little, cover, cold, waste, scull, together, fork, raw, muffin, pewter, fish_pound, pickled, higenamine, chooch, junk_food, toss, turkey, grip, squat, italy, tail, goat, treat, boat, lie, tin, house, diamond, scoff, fin, bass, has, outside, taint, yummy, canhouse, koeksister, item, water, arse_like_japanese_flag, arrange, tasty, euphemistic, saltyback, guidette, tank, servant, gig, white, wizard, slimy, put, mungaree, medicine, grunt, brass, line, breakfast_food, float, bear_claw, lip, plate, wet, kidney, carrots, hopper, man, ocean, symbol, barb, sweet, sausage, strudel, hot, steel, timbits, cooler, hatch, shape, cabbage, swirl, finance, flat, atomic, open, tongue, jemmy, pizzahead, catch_and_release, lettuce, dipper_well, group, taco, loob, tea, ashcan, gamefish, sauce, smelly, indian_ocean, pea, value, person, torpedo, lakes, tare, garden, pot, worms, side, social, mat, slang, cook, figure_eight, forget, dog_food, eats, solid, soup, cookie, coconut, loaded, fair, cylinder, roll, foodaholic, billy, feed, software, form, potato, cheese, pizza_nigger, load, blower, shitcan, spread, pancake, cat, dance, drag, sheet, food, snack, bishop, produce, noodle, liquid, good, neighbor's_house, napoleon, fishnet, shrimp, cracker, bean, bear, cut, tear, pickle, kitchen, brook, gobbler, willy, beans, kingfish, prune, trophology, mouthgasm, paint, copper, brace, ken, banana, language, card_games, mortal, cardinal, puffer, butter, thick, dolphin, beignet, gob_stick, lobster, nit, poker, dessert, stuff, yes, cigarette, basket, mark, home, flimsy, lavatory, discard, heat, rundown, ripper, pan</t>
+  </si>
+  <si>
+    <t>platform, shelter, saint, plain, cag, discharge, made, big, rank, plants, back_yard, rowan, marmot, peal, pod, valence, printing, party, development, woods, leader, fan, buck, round, rubber, land, furnace, bullet, below, east, extension, liberty, table, saddle, mathematics, bicycle, instrument, play_pussy, houses, genus, zone, peel, short, market, puff, neck, complex, break, stoor, animal, process, name, mine, love, bone, eating, service, plant, change, collar, pocket, double, column, town, machine, male, news, salt, keeper, insects, grouping, music, hair, bracket, related, bird, cake, apple, cartomancy, main, speed, release, electorate, internet, make, artifact, fancy, snow, small, nip, box, hat, stroke, musical_instrument, burn, corn, pickmire, rush, lay, us, middleman, ride, live, pickup, beat, pie, sheep, order, pipe, noise, sports, ground, functional_group, willow, club, course, vine, scab, firearm, mean, flower, hammer, jill, evergreen, split, pin, natural, carry, hunting, silver, pig, mound, rake, seal, hood, age, rock, sub, takeoff, draw, do, hunt, pump, clough, smoke, stem, kick, gin, backlog, fridge, bell, axe, plash, first, intendant, money, skin, parish, bouk, full, soc, computing, blackcap, collection, moor, stool, word, day, snag, baton, ash, cane, nation, bowl, activity, chicken, island, wind, safety, dome, kebab, move, environment, pile, high, passage, sandwich, paper, pike, botany, homeroom, here, french, souper, can, identity, partition, poll, larger, take, hang, ion, part, crowd, store, flutter, dogs, close, tanker, stake, throw, cars, spa, old, function, peg, bottle, county_seat, office, arm, steeple, location, linguistics, nut, out, scale, growed, aa, sum, ranch, physics, louisiana, pack, stick, getting, pulp, play, bigger, broach, bridge, english, queen, pickery, europe, making, meet, swelly, people, cricket, gathering, chief, class, plug, metal, bush, uppercase, bun, region, building, snowflake, kingdom, forward, giant, beak, cup, derogatory, sometimes, nautical, solitaire, root, material, poison, car, run, develop, ring, crab, yam, field, fry, body, ass, nebraska, bay, archaeology, bull, toll, union, rose, level, slash, block, knight, mud, tar, foot, object, steamer, ice, publication, backyard, third, transport, horn, swarm, fire, bard, rabbit, shell, jack, face, nest, caps, electronics, mushroom, tyrant, biscuit, inside, berry, attack, bunch, thing, fungarium, italian, agent, family, use, bar, chip, business, wide, culture, fairy, originate, cap, floor, loom, sea, genet, supper, well, oxygen, baseball_stadium, earth, leaf, unit, collect, cotter_pin, wine, ore, snake, magazine, twin, rodent, bill, light, thicket, heave, cow, kip, pill, dirt, stopper, barn, energy, rocks, grape, type, stale, fabric, cows, astronomy, department, solution, soft, beam, science, bladder, gainage, lenormand, olive, member, legal, generic, huge, harvest, ball, gen, biology, fish, term, fly, scottish, moth, surface, egg, soldier, squirrel, compete, running, may, shrub, charge, lease, curve, death, crown, accumulation, go, backpack, fell, gas, ese, tinkler, extend, bread, bat, organ, angel, travel, yaw, bank, like, figure, finger, station, british, usa, chestnut, fill, drive, tall, species, wingnut, element, noble, human, drink, drop, wax, stable, whole, large, jam, pick_out, filling, herb, mineral, hand, sound, really, manganese, wool, situation, scotland, horizon, structure, county, container, choke, pepper, at_high_port, walk, top, winter, pull, set, hill, movement, sunshine, suitcase, architecture, drift, pollard, mining, fried_bread, church, composition, grass, feature, frame, back, point, unite, hit, knag, fruit, infectious_disease, fast, base, primary, canada, glass, action, holder, corner, toy, wire, path, opening, paddyland, bar_billiards, front_yard, troll, nice, opponent, bind, conduit, american_football, rook, player, progress, nature, conservation, up, push, blow, primer, seaweed, flowers, scatter, crop, zoo, single, size, physical, shock, letter, farmer, alphabet, hound, trains, goes, transmit, historical, bag, vegetation, juice, descend, cotton, hole, mole, snail, everything, hotel, pet, cavalry, lug, spoons, cotton_wool, horse, fall, san_francisco, capital, programming, measure, stretch, bomb, tangible_thing, jungle, look, farm, whip, north_america, straw, come_up, post, chop, tool, device, power, outbreak, pawn, working, surname, phone, freedom, paste, mug, junior, plane, oyster, pint, coach, moot, chin, lat, note, sheaf, cater, cover, cold, painting, weight, together, swallow, sink, heaven, position, slip, strip, flow, soil, reward, meal, turkey, string, yoke, own, get_up, forest, lift, weasel, mountain, goods, rice, gift_basket, early, treat, bake, weather, information, boat, pick_up, tin, house, lumber, funnel, assemblage, leyden_jar, living_room, has, outside, musical_artist, uk, vegetable, quarter, yellow, preen, item, water, dark, shuttle, australia, build, tiller, major, dialectal, tasty, save, bucket, rocket, grocery, pole, page, multure, omnium_gatherum, white, balls, desocialize, medicine, stock, art, education, smaller, text, circulate, canon, planet, sky, filler, turkey_tail, jigger, overgo, wedge, plate, wet, carrots, communication, production, piece, student, man, rain, roman, second, ocean, hard, header, symbol, newspaper, procession, cherry, direct, top_of_mountain, turn, blue, rise, meeting, shape, sphere, substance, finance, agglomerate, open, hypothetical, group, tree, sauce, captain, shoot, square, tower, person, mass, garden, broadcast, pot, uilleann_pipes, ream, shaped, social, yard, slang, stamp, keep, united_kingdom, brown, assembling, soup, seafaring, elect, provost, head, penny, cellar, lsd, down, wall, stew, software, form, score, potato, bolt, biggin, bark, wing, orange, hollow, cheese, scud, school, bung, spread, leg, dance, period, usually, chase, mush, guitar, dead, food, air, background, rig, produce, against, source, dresser, regiment, upper, bean, bear, ireland, plume, cargo, pickle, refrigerator, green, gobbler, node, small_dog, wellington, producer, mill, much, hob, division, candy, widdle, copper, video_game, muster, hook, rising, gather, bald_eagle, win, cross, logmaker, banana, time, lower, wait, ferret, roman_empire, spur, signal, animals, decide, geographical_region, england, raise, stuff, basket, style, home, specific, soccer, great, collecting, pluck, sand, heat, mate, spike, herd, ginger</t>
+  </si>
+  <si>
+    <t>broha, frequent_flier, peace, press, geezer, flag, epic, slag, restricted, hilt, big, happy_trail, son_of_whore, rank, pilgrim, corporosity, rape, also, galwayman, third_degree_burn, norse, bagel, bum_deal, bail, front, musclebrain, six_bob_day_tourist, party, jock, son_of_bitch, heel, stupid, hardy, xp, cream, native, gruntspeak, slut, fail, son_of_motherless_goat, chap, dickrider, land, bullet, beard, fire_department, veterinarian, chumpion, scratcher, medicare, fanny_magnet, nasty, market, snowman, wood, straight, break, aircraft, jockey, animal, name, mod_man, ground_pounder, calamity_jane, newsman, love, monk, military, loved_one, mother, cave, cradle_snatcher, west_virginia, place, valet, plant, bhaiya, buster, highman, exchange, drama_llama, hud, doctor, chargemaster, homosexual, town, bitch, machine, saxon, fuzznuts, cutting, news, iceman, fare, music, case, aggressive, guard, manscara, hair, ninjette, selfish, jig, for, dago, sanitarium, chuck_sickie, shower, cake, apple, sharply, bird, dangerous, one_minute_man, main, moon, speed, jat, pissing_match, kilt, steel, cage, ton, military_widow, bouncer, chef, small, liquor, toe_jam, monarch, nip, box, liberal, hat, vessel, stroke, movie, burn, dog, lay, us, slanguist, blade, live, hardman, boy_cunt, museum, representative, baffle, noise, sports, trooper, rustbucket, pinch, otkhod, boy, punch, sneezer, eat, ghost, cup_of_coffee, yeoman, enemy, animate, kink, son, conservative, mean, scab, pee_on, split, barracks_rat, natural, story, snitch_bitch, almighty, underinsured, hotsy_totsy, just, cao, caid, smoker, ameritrash, bogeyman, alive, jobby_jabber, deafie, beresque, smoke, kick, cadet, bod, maroon, cougar, axe, bendy_boy, picker, vaginamony, uncle, cheesedick, ammo_humper, awful, olden, full, flip, constellation, computing, eye, sick, man_boob, vodka, violent, sucker, activity, boitjie, brute, chicken, black, stiff, garbage, white_house, fresh, move, eccentric, lead, mink, fight, chickboy, hew, emotion, high, ax, being, cove, tinkerbell, pull, turtle, skill, peterman, iceberg, baby, frat_lit, henry, declare, cruel, how, talk_shit, frail, spanish, manga, 11, old_bill, flood, joe_lunchbucket, derp, colony, fed, century, manther, hang, winter_rat, part, mon, card, athlete, melee, shitting_match, george, tanker, degree, eaten, hypostasis, khaki, grammar, spa, irish, prior, requiem, function, tagger, bottle, hater, arm, office, rumble, one, kid, dust, weapons, gold_star_gay, creature, ogre, irishman, very, hombre, support, fuzzy, city, aa, establishment, quality, stick, slutbag, cooked, knocker, cutter, miss_thing, typewriter, rightpondian, to, mancation, hacker, quill, ram, saloon, dittohead, boy_pussy, ould_fella, shiny, redcoat, queen, europe, general, devotee, sing, meet, people, homecoming_king, rhubarb, cricket, rocketman, chief, bloody, wave_bloody_shirt, river, given_name, class, know_all, sharp, lire, dirty, bush, brain, cut_up, smasher, sexy, sugar, wrinkle, shout, state, sex, bum, beak, area, giant, derogatory, mexican, caveman, pip, berserkeley, jamoke, busy, canada, slim, jerk, asian, zombie, condition, another, assault, cannonball, whiskey, suit, wonderbread, croak, slaphead, grill, ring, run, private, work, crab, patriot, have, develop, annie_oakley, field, body, bay, hug, wargasm, holy, bull, pogue, alert_five, union, president, ould, beauty, characteristic, block, janner, confidence, manbitch, low, painter, loot, new_york, hay, john_thomas, nonstandard, protest, manimal, ugly, gainer, kansas, humaniac, manzilian, steamer, ice, columbian, mantrap, ostman, cornstalk, dicksize_war, daylights, master_at_arms, expert, horn, rebel, army, generation, foreign, fire, republic, rabbit, devil's_threesome, yeggman, jack, walking_carpet, it, face, repeater, railroad, dimitri, tyrant, meat_in_room, dunny, title, mullet, attack, stupe, marker, manarchist, tithing, thing, grow, ninja, mouth, police, john, family, image_consultant, leatherneck, bros_before_hoes, bent, vaginamoney, destroy, chrome, presence, squeegee, fairy, cap, loom, badman, royalty, abuse, pain, bunker, god_botherer, american, mail, well, magic, beef, twist, isolated, smiler, old_timer, dad, royal, unit, nelly, peter, snake, munt, hockey_stick, yardbird, alcoholic, bill, light, crawler, man_cunt, tweeb, anger, theatre, pill, dirt, diarrhea, energy, bailiff, crazy, care, tester, reliever, muscle_mary, speaker, barse, wagon, game, talk, batman, chick_boy, fag_stag, middle, terrible, tough, triggerman, dare, brofist, expensive, elegant, aristo, special, legal, evil, lemonade, manshake, huge, toast, pull_sickie, foreman, mental, biology, fish, term, thor's_hammer, fly, loving, job, premier, guy, many_people, mutton, egg, aussie, hairy, grenade, pell, charge, non_violent, senior, idiot, go, ese, spartan, man_pussy, puke, explosive, village, bread, famous, boi, sword_fighting, red, choco, band, fuck, man_killer, gaybo, angel, chi, meth, horndog, makeup, pimple, like, figure, finger, station, british, feel, filth, steam, rough_trade, drive, symptom, species, tall, noble, drink, human, country, post_captain, film, duke, cumberperson, mad, brass_balled, shack_rat, seaman, vietnam, fucked, committeeman, shave, large, mantit, beaver, clean_house, mineral, fox, freeze_baby, wallet, friend_of_dorothy, really, gun, ass_clown, angle, sneakerhead, kook, butt, wildcat, hygiene, turf, bud, booty, seg, scotland, nazi, dole_bludger, fat, ulster, heraldiccharge, crown_jewels, come_old_soldier, walk, top, set, hill, old_man, sunshine, get_laid, happy, stag, piker, rageaholic, hunk, landlord, fool, treasure_trail, proof, pit, leftpondian, barker, deskman, old_lady, elemental, point, betty, back, grognard, oinker, key, pug, primary, revolution, boss, coffin_dodger, janitor, nana, chick, delicacy, ka, give_face, broderick_crawford, cell, shit, nice, argument, mediocre, nerd, lady, doublet, foul_up, strong_handed, himbo, pleb, striker, eleven, winker, dame, bright, female, washing_dirt_from_between_toes, safe, two, expression, theater, blow, inferior, oke, dub, baby_killer, swinging_dick, woman, hellman, zoo, single, dumb_ass, fit, odd_and_curious, physical, manstress, paddle, hurler, hun, hip, crew, going, checkers, blue_balls, pistol, caddy, farmer, champion, killer, i, historical, lawyer, ana, manor, hold, brilliant, bad, hockey, butt_plug, crash, ether, difficult, counterman, coo, vacation, kind, crumbly, moob, deafo, pissing_contest, traveller, affair, biffo, faggot, horse, sugar_daddy, fall, kicked, author, fat_farm, capital, belt, iron, lion, bomb, stretch, facial, broken, jungle, farm, you, sneeze, loon, bleeding, swim, rear, kettle, number, post, scut, pork_sword, old_blighty, bolo, dutch, shilling, cut_cheese, oldfag, chalk, queerbait, crank, tiger, surprise, junior, brat, wholigan, subject, sleuth, blind, lat, transfer, shaver, pogey_bait, disease, little, crunchie, rageholic, rooster, welfare, sword_swallower, waste, weight, contra, rapier, jigaboo, hide, politician, partner, witness, goober, heading, raw, smart, target, slip, hero, father, open_sores, listen, event, british_isles, limerickman, labor, trainer, geriatric, own, shred, toasting_fork, gangbang, daniel, divider, courage, cock_slave, stand_up, bwana, goat, nigga, whitey, squaw_man, weather, crapmeister, independent, german, standing, we, shot, epicene, spider, tithingman, house, lumber, powerful, concession, eat_pussy, tin, dutchman, former, tomato, later, offensive, psycho, rude, war, uk, yellow, born, in_person, silly, gray, trip, savage, personality, water, damage, build, australia, fucknut, biffer, major, blood, biter, dialectal, strange, california, aye, plan, bob, manface, cleaning_clothes, nurse, defence, kamikaze, gammon, shekel, beastly, hb, bold, tank, freeman, pretty, white, mind, violence, wizard, dike, duffel_bag, ass_sucker, levy, medicine, dialect, weapon, manwhore, fly_kite, grunt, charlie, toadsticker, pope, bed, bandit, destructive, heart, progressive, beer, grown, demand, manly, robust, candyman, dink, cock, piece, man, manimony, ugliness, rain, fantasy, carnage, tartar, jumper, stone, destruction, kill, edge, throw_sickie, thrower, old_sweat, keen, tankie, getting_clean, deadhead, hot, birth, ponce, voice, mundane, shape, tapper, ten, pisser, criticism, bully, wales, jewel, obsolete, carder, action, captain_save_hoe, barf, associate, ace, homo, me, bravery, turk, show, smelly, mantastic, mack, crack_one_off, clicker, shoot, value, person, square, slant, few, gad, okay, road, pink, killing, doll, lu, clit_tease, amy_john, pot, er, wound, sport, beggar, side, overall, social, mat, slang, g, sed, beta_orbiter, cook, adjective, colonel_sanders, half, childish, freshman, spoilsman, posy_sniffer, cookie, manpris, olds, tomato_can, provost, fuckstruck, head, penny, fitness, down, description, mantrum, supporter, meaning, form, valley_boy, blue_bonnet, roundel, lace, phwoar, freedom_of_city, buffty, over, disorder, force, jap, dance, swagman, jacket, vamp, maneen, road_warrior, patience, dead, cocksmith, sister, shit_test, brutal, air, lizard, greek, prom_king, gary_glitter, go_fast, your_man, proctor, cat_wagon, source, grownup, lord, napoleon, good, guns, accept, manparts, bear, train, cut, old_woman, face_music, ireland, ass_rape, cop_out, swede, bomber, yomper, mule, wise, butt_rape, girl, stour, chaos, breeder, cock_tease, heinie, radical, king, sweat, paint, polish_one's_rocket, oliver, trial, cross, dude, hit_head, zilch, banana, time, bushwhacker, mortal, skyman, boy_scout, furball, sir, long_drink_of_water, mangina, butter, legs, regular, most, clever, medical, right, prosopolepsy, ill, carriage, tojo, personal, fellow, chicken_hawk, monkey, raise, jfk, nick, toss_salad, butt_pirate, dog_it, merm, gentle, good_people, ride_cock_carousel, tar_heel, great, lad, runner, distress, chimp_out, covey, clarity, yay, chess, superintendent, pan, muggle</t>
+  </si>
+  <si>
+    <t>question is "related_to, distinct_from, antonym, desires" to answer | question is "distinct_from, antonym, related_to" to statement | reply is "related_to, synonym, antonym, is_a" to answer | reply is "related_to" to statement | solution is "related_to, synonym" to answer | solution is "is_a" to statement</t>
+  </si>
+  <si>
+    <t>sensitive is "related_to" to red | sensitive is "related_to" to water | sensitive is "is_a" to band | sensitive is "related_to, similar_to" to very | sensitive is "related_to" to lonely | sensitive is "related_to" to quiet | sensitive is "related_to" to reaction | sensitive is "related_to" to city | sensitive is "related_to" to blood | sensitive is "related_to, antonym" to emotional | sensitive is "related_to" to like | sensitive is "related_to" to figure | sensitive is "synonym, related_to" to intense | sensitive is "has_context" to british | sensitive is "related_to" to cloud | sensitive is "related_to, manner_of" to clean | sensitive is "related_to" to pregnant | sensitive is "antonym" to local | sensitive is "related_to" to party | sensitive is "related_to" to brash | sensitive is "synonym" to cutter | sensitive is "related_to" to drop | sensitive is "related_to" to wax | sensitive is "related_to, is_a" to film | sensitive is "related_to" to page | sensitive is "related_to" to air_hunger | sensitive is "capable_of" to falling | sensitive is "has_prerequisite" to serve_customers | sensitive is "related_to" to bulla | sensitive is "related_to" to unhappy | sensitive is "related_to, antonym" to large | sensitive is "related_to, is_a" to herb | sensitive is "related_to, is_a" to sound | sensitive is "related_to, part_of" to gun | sensitive is "related_to" to negative | sensitive is "related_to" to operation | sensitive is "related_to, antonym" to wool | sensitive is "related_to, similar_to" to light_handed | sensitive is "has_property" to people | sensitive is "related_to" to wet | sensitive is "synonym" to grievous | sensitive is "related_to" to peep | sensitive is "related_to" to india | sensitive is "is_a" to communication | sensitive is "related_to, is_a" to river | sensitive is "related_to, is_a" to process | sensitive is "related_to" to sad | sensitive is "related_to" to set | sensitive is "related_to, synonym" to sharp | sensitive is "manner_of" to utter | sensitive is "related_to" to crimplene | sensitive is "related_to" to metal | sensitive is "related_to, antonym, distinct_from" to happy | sensitive is "is_a, related_to" to sympathy | sensitive is "related_to" to believe | sensitive is "related_to, has_property, is_a, capable_of" to love | sensitive is "related_to" to want | sensitive is "etymologically_related_to, related_to, synonym, derived_from" to hard | sensitive is "related_to" to color | sensitive is "not_has_property" to stone | sensitive is "related_to" to thrill | sensitive is "related_to" to smile | sensitive is "is_a" to state | sensitive is "related_to, antonym" to punishment | sensitive is "related_to" to point | sensitive is "manner_of, related_to" to change | sensitive is "synonym" to bid | sensitive is "has_context" to derogatory | sensitive is "synonym, related_to" to deep | sensitive is "related_to" to rub | sensitive is "related_to, synonym" to keen | sensitive is "related_to" to window | sensitive is "related_to" to hot | sensitive is "is_a" to howl | sensitive is "related_to, synonym" to steel | sensitive is "related_to" to busy | sensitive is "related_to" to rise | sensitive is "related_to" to action | sensitive is "related_to" to rapper | sensitive is "similar_to, related_to, synonym" to express | sensitive is "related_to" to cell | sensitive is "related_to" to positive | sensitive is "related_to" to flat | sensitive is "related_to" to boil | sensitive is "has_context, related_to" to music | sensitive is "related_to" to case | sensitive is "motivated_by_goal, related_to" to cry | sensitive is "synonym" to ace | sensitive is "related_to" to specified | sensitive is "is_a" to car | sensitive is "related_to, has_property, antonym" to tree | sensitive is "motivated_by_goal, antonym" to help | sensitive is "synonym" to bright | sensitive is "related_to" to show | sensitive is "related_to" to have | sensitive is "related_to" to safe | sensitive is "related_to, is_a" to person | sensitive is "antonym, related_to" to chronic | sensitive is "related_to" to make | sensitive is "related_to" to not | sensitive is "related_to" to sensationalism | sensitive is "has_context" to northern_england | sensitive is "related_to" to level | sensitive is "synonym, related_to" to fit | sensitive is "related_to" to upset | sensitive is "related_to" to kiss | sensitive is "distinct_from, antonym" to low | sensitive is "related_to" to act | sensitive is "related_to" to stitch | sensitive is "related_to, manner_of" to give | sensitive is "etymologically_related_to" to a | sensitive is "has_context" to slang | sensitive is "has_context" to us | sensitive is "related_to" to displeasure | sensitive is "related_to" to adjective | sensitive is "related_to" to smash | sensitive is "related_to" to crash | sensitive is "related_to" to depression | sensitive is "related_to, is_a" to hope | sensitive is "related_to" to sorrow | sensitive is "related_to, distinct_from" to noise | sensitive is "similar_to" to difficult | sensitive is "related_to" to fire_hose | sensitive is "etymologically_related_to" to trick | sensitive is "related_to" to tap | sensitive is "related_to" to price | sensitive is "related_to" to better | sensitive is "similar_to" to dull | sensitive is "derived_from" to para | sensitive is "related_to" to distraught | sensitive is "related_to" to wall | sensitive is "related_to" to strong | sensitive is "related_to" to attack | sensitive is "related_to" to pig | sensitive is "related_to" to lucid_dream | sensitive is "related_to" to boost | sensitive is "has_context" to cockney_rhyming_slang | sensitive is "related_to" to mouth | sensitive is "related_to" to faint | sensitive is "related_to, part_of" to belt | sensitive is "has_property" to family | sensitive is "related_to" to cat | sensitive is "not_has_property" to rock | sensitive is "related_to" to bar | sensitive is "related_to" to sneeze | sensitive is "related_to" to scream | sensitive is "is_a, related_to" to air | sensitive is "derived_from, used_for, related_to, manner_of, has_property, antonym, is_a, synonym" to pain | sensitive is "related_to" to ad | sensitive is "related_to" to yelp | sensitive is "related_to" to humour | sensitive is "related_to, is_a" to liquid | sensitive is "related_to, similar_to" to good | sensitive is "related_to" to wetness | sensitive is "related_to, is_a" to affection | sensitive is "related_to" to jog | sensitive is "has_property, has_a" to humans | sensitive is "causes" to visiting_art_gallery | sensitive is "related_to" to eye | sensitive is "related_to" to sick | sensitive is "related_to" to dress | sensitive is "related_to" to drug | sensitive is "related_to" to slice | sensitive is "related_to" to activity | sensitive is "related_to, synonym" to headroom | sensitive is "related_to" to wash | sensitive is "antonym, related_to, derived_from, synonym" to light | sensitive is "related_to" to measurement | sensitive is "related_to" to urgent | sensitive is "related_to" to chicken | sensitive is "related_to, antonym" to glad | sensitive is "related_to" to wind | sensitive is "derived_from, related_to" to cold | sensitive is "related_to, is_a" to feeling | sensitive is "has_context" to history | sensitive is "used_for" to loving_else | sensitive is "synonym, used_for, related_to, created_by, is_a" to emotion | sensitive is "related_to" to energy | sensitive is "is_a" to gravity | sensitive is "related_to, synonym" to high | sensitive is "related_to" to listen | sensitive is "related_to" to being | sensitive is "related_to" to paint | sensitive is "used_for" to type | sensitive is "related_to" to obstreperous | sensitive is "related_to" to event | sensitive is "synonym, related_to, has_property" to hurt | sensitive is "related_to, not_has_property" to coat | sensitive is "has_context, related_to" to chemistry | sensitive is "related_to" to mist | sensitive is "related_to" to speaker | sensitive is "related_to" to weighted | sensitive is "related_to" to shrill | sensitive is "related_to" to print | sensitive is "related_to" to talk | sensitive is "related_to, synonym, antonym" to soft | sensitive is "related_to" to test | sensitive is "related_to" to response | sensitive is "related_to" to haste | sensitive is "related_to" to regret | sensitive is "related_to" to subtle | sensitive is "antonym, distinct_from" to evil | sensitive is "synonym" to vicious | sensitive is "related_to" to swell | sensitive is "related_to" to censure | sensitive is "has_context" to aviation | sensitive is "related_to" to signal | sensitive is "related_to" to procedure | sensitive is "related_to" to term | sensitive is "related_to" to napkin | sensitive is "related_to" to shot | sensitive is "causes" to discovering_truth | sensitive is "is_a, related_to" to pressure | sensitive is "related_to" to ham_handed | sensitive is "related_to" to when | sensitive is "related_to" to moan | sensitive is "related_to" to running | sensitive is "derived_from, etymologically_related_to" to sorry | sensitive is "related_to" to great | sensitive is "related_to" to physically | sensitive is "related_to, synonym" to life | sensitive is "related_to" to charge | sensitive is "related_to, not_has_property" to war | sensitive is "has_subevent, has_prerequisite" to think | sensitive is "related_to" to crown | sensitive is "is_a" to sadness | sensitive is "related_to" to born | sensitive is "related_to" to gas | sensitive is "related_to" to practice | sensitive is "is_a" to despair | sob is "has_context, related_to" to red | sob is "related_to, at_location" to water | sob is "related_to, is_a, has_context" to band | sob is "related_to, synonym" to very | sob is "related_to, has_first_subevent" to lonely | sob is "synonym, distinct_from, derived_from, related_to, antonym" to quiet | sob is "related_to, etymologically_related_to" to reaction | sob is "related_to" to city | sob is "related_to" to blood | sob is "related_to, derived_from" to emotional | sob is "has_context, has_subevent, related_to" to like | sob is "related_to" to figure | sob is "similar_to, related_to" to intense | sob is "has_context" to british | sob is "has_context" to cloud | sob is "related_to" to clean | sob is "related_to" to pregnant | sob is "has_context, related_to" to local | sob is "related_to, has_context" to party | sob is "related_to" to brash | sob is "has_context" to cutter | sob is "related_to, has_context" to drop | sob is "related_to, has_context" to wax | sob is "related_to" to film | sob is "related_to" to page | sob is "related_to" to air_hunger | sob is "related_to, has_subevent" to falling | sob is "has_subevent, has_prerequisite, has_first_subevent" to serve_customers | sob is "related_to" to bulla | sob is "related_to" to unhappy | sob is "related_to, similar_to, has_context" to large | sob is "has_context" to herb | sob is "antonym, related_to, is_a, distinct_from, has_context" to sound | sob is "related_to, part_of" to gun | sob is "related_to" to negative | sob is "related_to, is_a" to operation | sob is "related_to" to wool | sob is "related_to" to light_handed | sob is "desires, related_to, has_property, causes_desire" to people | sob is "has_context, related_to, has_property" to wet | sob is "synonym" to grievous | sob is "has_context, related_to" to peep | sob is "has_context" to india | sob is "related_to" to communication | sob is "related_to" to river | sob is "related_to, synonym" to process | sob is "related_to, derived_from, motivated_by_goal, has_subevent, has_context" to sad | sob is "has_context" to set | sob is "has_context" to sharp | sob is "manner_of" to utter | sob is "related_to" to crimplene | sob is "related_to, has_property" to metal | sob is "has_subevent, motivated_by_goal, related_to, antonym, has_first_subevent" to happy | sob is "is_a, related_to" to sympathy | sob is "related_to" to believe | sob is "related_to, manner_of, is_a, synonym, distinct_from" to love | sob is "manner_of" to want | sob is "related_to, has_context" to hard | sob is "related_to" to color | sob is "related_to, has_context" to stone | sob is "related_to" to thrill | sob is "has_subevent, antonym, related_to" to smile | sob is "is_a, related_to" to state | sob is "related_to" to punishment | sob is "has_context, related_to" to point | sob is "manner_of, related_to, is_a" to change | sob is "related_to" to bid | sob is "has_context" to derogatory | sob is "synonym, related_to" to deep | sob is "related_to" to rub | sob is "related_to" to keen | sob is "related_to" to window | sob is "related_to, has_context" to hot | sob is "is_a, related_to, antonym" to howl | sob is "related_to, has_property, has_context" to steel | sob is "related_to, has_context" to busy | sob is "related_to" to rise | sob is "has_context, related_to" to action | sob is "related_to" to rapper | sob is "manner_of, related_to" to express | sob is "related_to" to cell | sob is "has_context, related_to" to positive | sob is "has_context" to flat | sob is "related_to" to boil | sob is "has_context, related_to, antonym" to music | sob is "related_to, synonym" to case | sob is "derived_from, causes_desire, related_to, antonym, synonym, form_of" to cry | sob is "synonym, has_context" to ace | sob is "related_to" to specified | sob is "has_property, has_context, related_to" to car | sob is "related_to" to tree | sob is "related_to, causes_desire" to help | sob is "related_to, antonym, synonym" to bright | sob is "related_to" to show | sob is "related_to, has_context" to have | sob is "has_context, related_to" to safe | sob is "desires, related_to, has_property, is_a" to person | sob is "has_context" to chronic | sob is "has_context, related_to" to make | sob is "related_to, has_context" to not | sob is "related_to" to sensationalism | sob is "has_context" to northern_england | sob is "related_to" to level | sob is "related_to, has_context" to fit | sob is "related_to" to upset | sob is "related_to, has_last_subevent, motivated_by_goal, has_subevent, has_prerequisite" to kiss | sob is "synonym, related_to, similar_to" to low | sob is "related_to, is_a, derived_from" to act | sob is "related_to" to stitch | sob is "related_to" to give | sob is "has_context, related_to" to a | sob is "has_context" to slang | sob is "has_context" to us | sob is "related_to, is_a" to displeasure | sob is "related_to" to adjective | sob is "has_context, related_to" to smash | sob is "has_context, related_to" to crash | sob is "related_to, is_a" to depression | sob is "related_to, is_a" to hope | sob is "related_to, is_a, synonym" to sorrow | sob is "related_to, antonym, is_a, distinct_from" to noise | sob is "related_to, distinct_from, synonym" to difficult | sob is "related_to" to fire_hose | sob is "related_to, has_context" to trick | sob is "has_context, related_to" to tap | sob is "related_to" to price | sob is "causes" to better | sob is "related_to" to dull | sob is "has_context" to para | sob is "motivated_by_goal" to distraught | sob is "related_to" to wall | sob is "has_context, related_to, synonym" to strong | sob is "related_to" to attack | sob is "has_context, related_to" to pig | sob is "has_subevent" to lucid_dream | sob is "has_context" to boost | sob is "has_context" to cockney_rhyming_slang | sob is "has_context, related_to" to mouth | sob is "distinct_from, related_to" to faint | sob is "has_context, related_to" to belt | sob is "has_context" to family | sob is "has_context" to cat | sob is "has_property, is_a, has_context, related_to" to rock | sob is "related_to" to bar | sob is "related_to" to sneeze | sob is "related_to, is_a" to scream | sob is "has_context, related_to" to air | sob is "related_to" to pain | sob is "has_context" to ad | sob is "related_to, is_a" to yelp | sob is "causes" to humour | sob is "related_to" to liquid | sob is "related_to, synonym" to good | sob is "related_to" to wetness | sob is "related_to, is_a" to affection | sob is "related_to" to jog | sob is "capable_of" to humans | sob is "has_subevent" to visiting_art_gallery | sob is "related_to, used_for, capable_of" to eye | sob is "has_subevent, has_context" to sick | sob is "capable_of, related_to" to dress | sob is "related_to" to drug | sob is "related_to" to slice | sob is "related_to, is_a, synonym" to activity | sob is "related_to" to headroom | sob is "related_to, is_a" to wash | sob is "antonym, related_to, distinct_from" to light | sob is "related_to" to measurement | sob is "related_to" to urgent | sob is "has_context, related_to" to chicken | sob is "related_to, antonym" to glad | sob is "related_to, has_context" to wind | sob is "has_context, related_to" to cold | sob is "related_to, created_by, is_a, synonym, used_for" to feeling | sob is "related_to" to history | sob is "causes" to loving_else | sob is "related_to, is_a" to emotion | sob is "related_to, synonym" to energy | sob is "related_to" to gravity | sob is "related_to, has_context, antonym" to high | sob is "etymologically_related_to, has_subevent, has_prerequisite, related_to, has_first_subevent" to listen | sob is "related_to" to being | sob is "related_to, has_context" to paint | sob is "related_to" to type | sob is "synonym" to obstreperous | sob is "related_to, is_a" to event | sob is "motivated_by_goal" to hurt | sob is "related_to" to coat | sob is "has_context" to chemistry | sob is "related_to" to mist | sob is "related_to" to speaker | sob is "related_to, similar_to" to weighted | sob is "related_to" to shrill | sob is "related_to" to print | sob is "has_context, antonym, related_to, distinct_from" to talk | sob is "related_to, not_has_property, synonym, distinct_from, has_context, antonym" to soft | sob is "has_context, related_to" to test | sob is "related_to" to response | sob is "related_to" to haste | sob is "related_to, is_a, etymologically_related_to" to regret | sob is "related_to" to subtle | sob is "related_to, has_context" to evil | sob is "synonym" to vicious | sob is "related_to" to swell | sob is "related_to" to censure | sob is "has_context" to aviation | sob is "related_to" to signal | sob is "synonym" to procedure | sob is "related_to" to term | sob is "related_to" to napkin | sob is "related_to, has_context" to shot | sob is "causes, has_subevent" to discovering_truth | sob is "related_to" to pressure | sob is "related_to" to ham_handed | sob is "related_to" to when | sob is "related_to" to moan | sob is "causes, related_to" to running | sob is "related_to" to sorry | sob is "related_to, synonym" to great | sob is "related_to" to physically | sob is "related_to, has_property, part_of" to life | sob is "related_to" to charge | sob is "related_to" to war | sob is "has_subevent, related_to" to think | sob is "related_to" to crown | sob is "related_to, causes_desire, part_of, is_a" to sadness | sob is "has_first_subevent, related_to" to born | sob is "has_context" to gas | sob is "related_to" to practice | sob is "related_to" to despair | weep is "related_to" to red | weep is "related_to, at_location, has_context" to water | weep is "related_to, has_context" to band | weep is "related_to" to very | weep is "has_first_subevent" to lonely | weep is "distinct_from, related_to, antonym" to quiet | weep is "related_to" to reaction | weep is "related_to" to city | weep is "has_context" to blood | weep is "related_to" to emotional | weep is "related_to" to like | weep is "related_to" to figure | weep is "related_to" to intense | weep is "has_context" to british | weep is "related_to" to cloud | weep is "related_to" to clean | weep is "related_to" to pregnant | weep is "has_context" to local | weep is "related_to" to party | weep is "related_to" to brash | weep is "has_context" to cutter | weep is "related_to" to drop | weep is "related_to" to wax | weep is "related_to" to film | weep is "related_to" to page | weep is "has_context" to air_hunger | weep is "related_to" to falling | weep is "has_first_subevent" to serve_customers | weep is "has_context" to bulla | weep is "related_to" to unhappy | weep is "related_to" to large | weep is "related_to" to herb | weep is "related_to, is_a, has_context" to sound | weep is "related_to" to gun | weep is "has_context" to negative | weep is "has_context, related_to" to operation | weep is "related_to" to wool | weep is "related_to" to light_handed | weep is "related_to, causes_desire" to people | weep is "related_to" to wet | weep is "synonym" to grievous | weep is "has_context" to peep | weep is "has_context" to india | weep is "related_to" to communication | weep is "derived_from, related_to" to river | weep is "related_to" to process | weep is "related_to, motivated_by_goal, has_subevent, has_context" to sad | weep is "etymologically_related_to" to set | weep is "has_context" to sharp | weep is "manner_of" to utter | weep is "related_to" to crimplene | weep is "related_to, has_property" to metal | weep is "antonym" to happy | weep is "related_to" to sympathy | weep is "related_to" to believe | weep is "related_to" to love | weep is "manner_of" to want | weep is "related_to" to hard | weep is "has_context" to color | weep is "related_to, has_context" to stone | weep is "has_context" to thrill | weep is "antonym" to smile | weep is "related_to" to state | weep is "related_to" to punishment | weep is "has_context" to point | weep is "manner_of, related_to" to change | weep is "has_context" to bid | weep is "has_context" to derogatory | weep is "synonym, related_to" to deep | weep is "synonym, related_to, manner_of" to rub | weep is "related_to" to keen | weep is "has_context" to window | weep is "related_to" to hot | weep is "is_a, synonym, related_to" to howl | weep is "related_to, has_context" to steel | weep is "related_to" to busy | weep is "related_to, manner_of" to rise | weep is "related_to" to action | weep is "related_to" to rapper | weep is "related_to" to express | weep is "related_to" to cell | weep is "has_context" to positive | weep is "related_to" to flat | weep is "related_to" to boil | weep is "has_context, related_to, synonym" to music | weep is "has_context" to case | weep is "manner_of, derived_from, etymologically_related_to, has_subevent, related_to, synonym, form_of" to cry | weep is "has_context" to ace | weep is "related_to" to specified | weep is "has_property" to car | weep is "related_to, is_a" to tree | weep is "related_to, causes_desire" to help | weep is "related_to" to bright | weep is "has_context" to show | weep is "related_to" to have | weep is "related_to" to safe | weep is "related_to" to person | weep is "has_context" to chronic | weep is "related_to" to make | weep is "related_to" to not | weep is "related_to" to sensationalism | weep is "has_context" to northern_england | weep is "related_to" to level | weep is "has_context" to fit | weep is "related_to" to upset | weep is "has_prerequisite" to kiss | weep is "synonym, related_to" to low | weep is "related_to" to act | weep is "related_to" to stitch | weep is "related_to" to give | weep is "has_context" to a | weep is "has_context" to slang | weep is "has_context" to us | weep is "related_to" to displeasure | weep is "related_to" to adjective | weep is "related_to" to smash | weep is "has_context, related_to" to crash | weep is "related_to" to depression | weep is "related_to" to hope | weep is "related_to" to sorrow | weep is "related_to, is_a" to noise | weep is "related_to" to difficult | weep is "related_to" to fire_hose | weep is "related_to" to trick | weep is "has_context" to tap | weep is "has_context" to price | weep is "causes" to better | weep is "related_to" to dull | weep is "has_context" to para | weep is "motivated_by_goal" to distraught | weep is "used_for, related_to" to wall | weep is "related_to, synonym" to strong | weep is "has_context" to attack | weep is "related_to" to pig | weep is "has_subevent" to lucid_dream | weep is "has_context" to boost | weep is "has_context" to cockney_rhyming_slang | weep is "related_to" to mouth | weep is "distinct_from" to faint | weep is "related_to" to belt | weep is "synonym" to family | weep is "has_context" to cat | weep is "has_property, related_to" to rock | weep is "related_to" to bar | weep is "related_to" to sneeze | weep is "related_to, is_a" to scream | weep is "related_to" to air | weep is "related_to" to pain | weep is "has_context" to ad | weep is "related_to, is_a" to yelp | weep is "has_context" to humour | weep is "related_to" to liquid | weep is "related_to" to good | weep is "related_to" to wetness | weep is "has_context" to affection | weep is "related_to" to jog | weep is "capable_of" to humans | weep is "has_subevent" to visiting_art_gallery | weep is "related_to, used_for, capable_of" to eye | weep is "has_subevent" to sick | weep is "has_context" to dress | weep is "has_context, related_to, is_a, synonym" to drug | weep is "has_context" to slice | weep is "related_to" to activity | weep is "related_to" to headroom | weep is "related_to" to wash | weep is "antonym, related_to, distinct_from" to light | weep is "related_to" to measurement | weep is "related_to" to urgent | weep is "related_to" to chicken | weep is "antonym" to glad | weep is "related_to" to wind | weep is "has_context" to cold | weep is "related_to" to feeling | weep is "has_context" to history | weep is "causes" to loving_else | weep is "related_to" to emotion | weep is "related_to" to energy | weep is "related_to" to gravity | weep is "related_to" to high | weep is "etymologically_related_to" to listen | weep is "related_to" to being | weep is "related_to" to paint | weep is "has_context" to type | weep is "synonym" to obstreperous | weep is "has_context, is_a" to event | weep is "motivated_by_goal" to hurt | weep is "related_to" to coat | weep is "has_context" to chemistry | weep is "related_to" to mist | weep is "related_to" to speaker | weep is "related_to, similar_to" to weighted | weep is "related_to" to shrill | weep is "related_to" to print | weep is "antonym, manner_of" to talk | weep is "related_to, derived_from, antonym" to soft | weep is "related_to" to test | weep is "related_to" to response | weep is "related_to" to haste | weep is "synonym, derived_from, etymologically_related_to" to regret | weep is "related_to" to subtle | weep is "related_to" to evil | weep is "synonym" to vicious | weep is "related_to" to swell | weep is "related_to" to censure | weep is "has_context" to aviation | weep is "related_to" to signal | weep is "has_context" to procedure | weep is "has_context" to term | weep is "related_to" to napkin | weep is "related_to" to shot | weep is "has_subevent" to discovering_truth | weep is "related_to" to pressure | weep is "related_to" to ham_handed | weep is "related_to" to when | weep is "related_to" to moan | weep is "has_context" to running | weep is "related_to" to sorry | weep is "related_to" to great | weep is "related_to" to physically | weep is "part_of" to life | weep is "related_to" to charge | weep is "related_to" to war | weep is "related_to" to think | weep is "has_context, related_to" to crown | weep is "related_to, causes_desire, part_of" to sadness | weep is "has_first_subevent" to born | weep is "related_to, has_context" to gas | weep is "has_context, related_to" to practice | weep is "related_to" to despair</t>
+  </si>
+  <si>
+    <t>antlers is "related_to" to deer | doe is "related_to, is_a" to deer | fawn is "is_a, related_to" to deer</t>
+  </si>
+  <si>
+    <t>bud is "related_to" to plant | bud is "is_a, related_to" to flower | dandelion is "related_to" to plant | dandelion is "is_a, related_to" to flower | petals is "related_to" to plant | petals is "related_to" to flower</t>
   </si>
   <si>
     <t>colt is "related_to, is_a" to horse | mare is "related_to, part_of, is_a" to horse | unicorn is "related_to" to horse</t>
   </si>
   <si>
-    <t>clockwise is "synonym" to aud | clockwise is "etymologically_related_to" to athwartships | clockwise is "derived_from" to t_zone | clockwise is "related_to" to acting | clockwise is "synonym, related_to" to farad | clockwise is "etymologically_related_to" to aphobia | clockwise is "related_to" to anaptyxis | clockwise is "related_to" to van_der_waals_constant | clockwise is "etymologically_related_to" to tesh | clockwise is "form_of" to t's | clockwise is "synonym" to sincerely | clockwise is "etymologically_related_to" to t_internet | clockwise is "related_to" to constant_of_integration | clockwise is "derived_from" to clansperson | clockwise is "related_to" to lambdacism | clockwise is "causes" to getting_paid | clockwise is "related_to" to air_conditioned | clockwise is "related_to" to act | clockwise is "derived_from" to b.s.n | clockwise is "synonym" to proton | clockwise is "related_to" to short_s | clockwise is "related_to" to third_person | clockwise is "derived_from" to t_piece | clockwise is "dbpedia/genre" to parsing | clockwise is "etymologically_related_to" to agaze | clockwise is "related_to, has_property" to vowel | clockwise is "related_to" to first | clockwise is "etymologically_related_to" to dezh | clockwise is "derived_from" to drencht | clockwise is "has_context" to historical | clockwise is "related_to" to account | clockwise is "related_to" to academy | clockwise is "form_of" to myctag | clockwise is "related_to" to amos | clockwise is "has_context" to type_erasure | clockwise is "related_to" to diastereoisomer | clockwise is "is_a" to motorcycle | clockwise is "is_a" to procedural_programming_lanuage | clockwise is "related_to" to fuck | clockwise is "derived_from" to zoa | clockwise is "related_to" to ballet | clockwise is "related_to" to ante | clockwise is "related_to" to alphabetic | clockwise is "related_to" to was | clockwise is "related_to" to article | clockwise is "derived_from" to remainder | clockwise is "derived_from" to equipt | clockwise is "synonym" to nd | clockwise is "form_of" to b's | clockwise is "related_to" to w_r_t | clockwise is "derived_from" to cup | clockwise is "etymologically_related_to" to soupcon | clockwise is "synonym" to group | clockwise is "derived_from" to embellisht | clockwise is "related_to" to f_minus | clockwise is "derived_from" to data | clockwise is "derived_from, related_to" to double | clockwise is "derived_from" to dealt | clockwise is "is_a" to high_c | clockwise is "related_to" to ll | clockwise is "derived_from, at_location" to level | clockwise is "is_a, related_to" to letter | clockwise is "related_to" to penny_sterling | clockwise is "related_to" to replace | clockwise is "has_property" to cat | clockwise is "related_to" to academic | clockwise is "synonym" to type | clockwise is "related_to" to diatonic_semitone | clockwise is "etymologically_related_to" to estes | clockwise is "related_to" to before | clockwise is "related_to" to have_got | clockwise is "derived_from" to belcht | clockwise is "etymologically_related_to" to aitkins | clockwise is "synonym" to boron | clockwise is "related_to" to a440 | clockwise is "form_of" to a's | clockwise is "related_to" to sextodecimo | clockwise is "related_to" to annually | clockwise is "synonym" to adenine | clockwise is "etymologically_related_to, derived_from" to p_adic | clockwise is "related_to" to dry_cell_battery | clockwise is "related_to" to connecter | clockwise is "related_to" to hb | clockwise is "related_to" to paradigm | clockwise is "related_to" to is | clockwise is "related_to" to b_minor | clockwise is "related_to" to count_out | clockwise is "related_to" to allele | clockwise is "derived_from" to t_splice | clockwise is "synonym" to pee | clockwise is "synonym" to regards | clockwise is "etymologically_related_to" to egotist | clockwise is "related_to" to ino | clockwise is "related_to" to axis | clockwise is "derived_from" to amain | clockwise is "is_a" to prototype_based_language | clockwise is "etymologically_related_to" to acrita | clockwise is "related_to" to tertiary | clockwise is "related_to" to brassiere | clockwise is "synonym" to double_u | clockwise is "has_context, etymologically_related_to" to dice | clockwise is "related_to" to ambassador | clockwise is "related_to" to c’s | clockwise is "derived_from" to team | clockwise is "has_context" to finance | clockwise is "derived_from, related_to" to c_hole | clockwise is "has_context" to 4chan | clockwise is "derived_from" to p_word | clockwise is "related_to" to asymmetric | clockwise is "related_to" to segovia | clockwise is "related_to" to heroin | clockwise is "derived_from" to ultimata | clockwise is "derived_from, synonym" to bethe | clockwise is "is_a" to video_game | clockwise is "related_to" to c_minor | clockwise is "etymologically_related_to" to yt | clockwise is "etymologically_related_to, derived_from" to half_crown | clockwise is "related_to" to amp | clockwise is "is_a" to anime | clockwise is "related_to" to h | clockwise is "etymologically_related_to" to w:abo_blood_group_system | clockwise is "related_to" to fujita_scale | clockwise is "related_to" to anode | clockwise is "derived_from" to b.sc | clockwise is "derived_from" to sneaksman | clockwise is "etymologically_related_to" to theirs | clockwise is "etymologically_related_to" to aikins | clockwise is "related_to" to algorithm | clockwise is "related_to" to football_pitch | clockwise is "related_to" to solfeggio | clockwise is "related_to" to adjusted | clockwise is "form_of" to b_sharp | clockwise is "derived_from" to bleacht | clockwise is "has_context" to american_library_association | clockwise is "synonym, similar_to" to triton | clockwise is "related_to" to bubnoff_unit | clockwise is "etymologically_related_to" to pandean | clockwise is "has_context" to proscribed | clockwise is "related_to" to entertainment | clockwise is "related_to" to automobile | clockwise is "synonym" to roentgen | clockwise is "related_to" to spat | clockwise is "synonym" to australian_dollar | clockwise is "etymologically_related_to" to lose | clockwise is "form_of" to d's | clockwise is "etymologically_related_to" to twou'dn't | clockwise is "has_property" to cajun | clockwise is "derived_from" to blest | clockwise is "synonym" to bel | clockwise is "derived_from" to b.ed | clockwise is "is_a" to musical_artist | clockwise is "related_to" to bye | clockwise is "related_to" to tier | clockwise is "has_context" to organic_chemistry | clockwise is "related_to" to monoclonal_antibody | clockwise is "related_to" to transmissivity | clockwise is "related_to" to abbreviation | clockwise is "etymologically_related_to" to caravansary | clockwise is "derived_from" to hirs | clockwise is "synonym" to twelvemo | clockwise is "defined_as" to fourth_letter_of_roman_alphabet | clockwise is "related_to" to april | clockwise is "related_to" to axiom | clockwise is "related_to" to penalty_arc | clockwise is "synonym" to la_dièse | clockwise is "has_context" to grammar | clockwise is "related_to" to air_branch | clockwise is "etymologically_related_to" to khoum | clockwise is "etymologically_related_to" to acardiacus | clockwise is "related_to, form_of" to pp | clockwise is "derived_from" to aaa | clockwise is "derived_from" to annext | clockwise is "etymologically_related_to" to cuppa | clockwise is "derived_from" to bornt | clockwise is "related_to" to application | clockwise is "derived_from" to clasht | clockwise is "related_to" to philippine | clockwise is "related_to" to time | clockwise is "derived_from" to cropt | clockwise is "is_a" to television_show | clockwise is "etymologically_related_to" to aken | clockwise is "synonym" to perfection | clockwise is "related_to" to answer | clockwise is "related_to" to were | clockwise is "related_to" to spectral_class | clockwise is "etymologically_related_to" to noons | clockwise is "related_to" to arctic | clockwise is "derived_from" to automata | clockwise is "etymologically_related_to" to excuse | clockwise is "derived_from" to encroacht | clockwise is "related_to" to accepted | clockwise is "related_to" to tis | clockwise is "synonym, related_to" to barn | clockwise is "derived_from" to b.a | clockwise is "synonym, related_to" to coulomb | clockwise is "derived_from" to chirpt | clockwise is "related_to" to audit | clockwise is "derived_from" to distinguisht | clockwise is "related_to" to circa | clockwise is "related_to" to labial | clockwise is "derived_from" to b.mus | clockwise is "related_to" to mbta | clockwise is "synonym" to deoxythymidine_monophosphate | clockwise is "related_to, derived_from" to para | clockwise is "derived_from" to mausolea | clockwise is "etymologically_related_to" to eirs | clockwise is "motivated_by_goal" to build_cathedral | clockwise is "related_to" to fb | clockwise is "etymologically_related_to" to frigga | clockwise is "related_to" to breadth | clockwise is "etymologically_related_to" to vrykolaka | clockwise is "related_to" to administration | clockwise is "is_a" to object_oriented_programming_language | clockwise is "derived_from" to tradeswoman | clockwise is "derived_from" to accomplisht | clockwise is "synonym, related_to" to en | clockwise is "derived_from" to b.litt | clockwise is "related_to" to pawn | clockwise is "related_to" to saint_anthony's_cross | clockwise is "synonym" to metric_ton | clockwise is "related_to" to physicotheology | clockwise is "synonym" to os | clockwise is "related_to" to transgender | clockwise is "etymologically_related_to" to copypasta | clockwise is "derived_from" to cleft | clockwise is "dbpedia/influenced_by" to falcon | clockwise is "derived_from" to ahold | clockwise is "related_to" to believe | clockwise is "related_to, derived_from" to f_hole | clockwise is "related_to" to compiler | clockwise is "derived_from" to taxa | clockwise is "related_to" to august | clockwise is "related_to" to flat | clockwise is "synonym" to fréchet | clockwise is "related_to" to mab | clockwise is "synonym" to kolmogorov | clockwise is "derived_from, synonym, related_to" to bit | clockwise is "has_context" to printing | clockwise is "related_to" to western | clockwise is "related_to" to ties | clockwise is "related_to" to atmosphere | clockwise is "derived_from" to bynempt | clockwise is "form_of, related_to, etymologically_related_to" to es | clockwise is "etymologically_related_to" to austria | clockwise is "related_to" to raguileo_alphabet | clockwise is "synonym" to speed_of_light | clockwise is "derived_from" to eclipst | clockwise is "related_to" to storativity | clockwise is "derived_from" to ambusht | clockwise is "form_of" to ha | clockwise is "related_to" to genitive_case | clockwise is "related_to" to wynn | clockwise is "derived_from" to nfc | clockwise is "derived_from" to nnw | clockwise is "synonym" to d100 | clockwise is "related_to" to minor | clockwise is "synonym" to do_dièse | clockwise is "etymologically_related_to" to hunter's_moon | clockwise is "has_context" to ratings | clockwise is "form_of" to f's | clockwise is "related_to" to electrical_resistance | clockwise is "related_to, etymologically_related_to" to the | clockwise is "related_to" to string | clockwise is "derived_from" to phm.b | clockwise is "synonym" to dextro | clockwise is "derived_from" to it's | clockwise is "derived_from" to builder's_mug | clockwise is "related_to" to c_channel | clockwise is "related_to" to accidental | clockwise is "etymologically_related_to" to miscellaneum | clockwise is "has_context" to british | clockwise is "related_to" to semivowel | clockwise is "related_to" to f’s | clockwise is "related_to" to author | clockwise is "related_to" to in | clockwise is "related_to" to keynote | clockwise is "derived_from" to vis_vis | clockwise is "related_to" to ashoka | clockwise is "related_to" to accommodation | clockwise is "related_to" to age | clockwise is "related_to" to signor | clockwise is "form_of, derived_from, etymologically_related_to, related_to" to ae | clockwise is "derived_from" to statesman | clockwise is "related_to" to let's | clockwise is "etymologically_related_to" to stage | clockwise is "related_to" to solfege | clockwise is "etymologically_related_to" to cmos | clockwise is "related_to" to rip | clockwise is "derived_from" to b.s | clockwise is "related_to" to f_shaped | clockwise is "etymologically_related_to" to cetera | clockwise is "has_context" to physics | clockwise is "derived_from" to begat | clockwise is "etymologically_related_to" to anecdotum | clockwise is "related_to" to kuh | clockwise is "derived_from" to dislik’t | clockwise is "related_to, similar_to" to m | clockwise is "capable_of" to can_store_food | clockwise is "at_location" to denmark | clockwise is "synonym, related_to" to angstrom | clockwise is "synonym" to tert | clockwise is "derived_from" to banisht | clockwise is "defined_as" to third_letter_of_roman_alphabet | clockwise is "related_to" to four_lines | clockwise is "derived_from" to encreast | clockwise is "at_location" to combo_pass | clockwise is "related_to" to nb | clockwise is "derived_from" to dispenst | clockwise is "etymologically_related_to" to jackanape | clockwise is "has_context" to internet_slang | clockwise is "etymologically_related_to" to toodles | clockwise is "related_to" to at | clockwise is "derived_from" to mano_mano | clockwise is "related_to" to decomposition | clockwise is "etymologically_related_to" to acaulous | clockwise is "etymologically_related_to" to beeswax | clockwise is "derived_from" to bent | clockwise is "related_to" to academician | clockwise is "derived_from" to aa | clockwise is "related_to" to fermion | clockwise is "derived_from" to b.comm | clockwise is "is_a" to blood_group | clockwise is "related_to" to atomic_weight | clockwise is "related_to" to other | clockwise is "has_context" to programming | clockwise is "etymologically_related_to" to asqtad | clockwise is "derived_from" to blockt | clockwise is "etymologically_related_to" to aglutition | clockwise is "related_to" to ods | clockwise is "synonym" to thymine | clockwise is "related_to" to absolute_temperature | clockwise is "has_context" to titles | clockwise is "form_of" to b_s | clockwise is "is_a, etymologically_related_to" to or | clockwise is "related_to" to argent | clockwise is "has_prerequisite" to talk_to | clockwise is "related_to" to chromatic_scale | clockwise is "etymologically_related_to, related_to, similar_to, form_of" to s | clockwise is "has_context" to military | clockwise is "related_to" to american | clockwise is "related_to" to charlie | clockwise is "synonym" to wth | clockwise is "related_to, form_of" to re | clockwise is "derived_from" to checkt | clockwise is "form_of" to ss | clockwise is "etymologically_related_to" to athanogene | clockwise is "related_to" to bisphenol | clockwise is "related_to" to after | clockwise is "etymologically_related_to" to gilf | clockwise is "has_context" to education | clockwise is "has_property" to statement | clockwise is "derived_from" to jack_lent | clockwise is "synonym" to 24mo | clockwise is "has_context" to pharmacology | clockwise is "etymologically_related_to" to xtianity | clockwise is "related_to" to automatic | clockwise is "related_to" to century | clockwise is "related_to" to pure | clockwise is "derived_from" to bereft | clockwise is "related_to" to adult | clockwise is "synonym" to vitamin_c | clockwise is "form_of, derived_from" to as | clockwise is "synonym" to phosphorus | clockwise is "etymologically_related_to" to dswounds | clockwise is "related_to" to alto | clockwise is "related_to" to nail | clockwise is "derived_from" to chaussé'd | clockwise is "related_to" to cello | clockwise is "related_to" to p | clockwise is "derived_from" to j | clockwise is "synonym, related_to, form_of" to an | clockwise is "synonym" to vicesimo_quarto | clockwise is "related_to" to assist | clockwise is "form_of" to c_s | clockwise is "related_to" to ℓ | clockwise is "has_property" to playoff | clockwise is "dbpedia/influenced_by" to javascript | clockwise is "related_to" to cisgender | clockwise is "related_to" to conservative | clockwise is "related_to, etymologically_related_to" to tittle | clockwise is "dbpedia/influenced_by" to ecmascript | clockwise is "derived_from" to curst | clockwise is "etymologically_related_to" to purkins | clockwise is "derived_from" to crept | clockwise is "related_to" to w_o | clockwise is "related_to" to round | clockwise is "has_property" to second_letter_of_alphabet | clockwise is "synonym" to randomness | clockwise is "derived_from" to oversman | clockwise is "related_to" to a’s | clockwise is "related_to" to twasn't | clockwise is "has_last_subevent" to go_to_market | clockwise is "related_to" to pip | clockwise is "related_to" to shaped | clockwise is "related_to" to inferior | clockwise is "synonym" to coke | clockwise is "defined_as" to first_letter_of_word_chair | clockwise is "related_to" to axiomatic | clockwise is "related_to" to astragal | clockwise is "has_context" to us | clockwise is "related_to, derived_from" to grade | clockwise is "similar_to, synonym" to deuteron | clockwise is "dbpedia/genre" to survival_horror | clockwise is "related_to" to kc | clockwise is "related_to" to amphibian | clockwise is "derived_from" to bullswool | clockwise is "dbpedia/influenced_by" to scheme | clockwise is "synonym" to hausdorff | clockwise is "synonym, derived_from" to sec | clockwise is "etymologically_related_to" to perrins | clockwise is "synonym" to group_b | clockwise is "synonym" to tungsten | clockwise is "etymologically_related_to" to est | clockwise is "etymologically_related_to" to slut's_wool | clockwise is "related_to, etymologically_related_to, dbpedia/influenced_by" to b | clockwise is "related_to" to subatomic_particle | clockwise is "derived_from" to jack_dandy | clockwise is "derived_from" to bass | clockwise is "etymologically_related_to" to seent | clockwise is "related_to" to sigmoid | clockwise is "form_of, related_to" to um | clockwise is "related_to" to bee | clockwise is "derived_from" to john_dreams | clockwise is "etymologically_related_to" to pithers | clockwise is "is_a" to shortcut_for_air_conditioning | clockwise is "etymologically_related_to, derived_from" to ragamuffin | clockwise is "derived_from" to dipt | clockwise is "at_location" to hair_clip | clockwise is "related_to" to year | clockwise is "related_to" to p_shaped | clockwise is "related_to" to disjoint | clockwise is "derived_from" to dreamt | clockwise is "etymologically_related_to" to abiosis | clockwise is "related_to" to b_flat | clockwise is "synonym, etymologically_related_to" to eth | clockwise is "related_to" to major | clockwise is "etymologically_related_to" to betimes | clockwise is "derived_from, related_to" to otw | clockwise is "derived_from" to b.ch.d | clockwise is "form_of" to did | clockwise is "related_to" to anterior | clockwise is "form_of, related_to" to a | clockwise is "dbpedia/influenced_by" to lua | clockwise is "form_of, related_to" to has | clockwise is "related_to" to neighborhood | clockwise is "etymologically_related_to" to lvalue | clockwise is "related_to" to tesla | clockwise is "etymologically_related_to" to nights | clockwise is "derived_from" to skainsmate | clockwise is "form_of" to f_sharp | clockwise is "derived_from" to dispossest | clockwise is "at_location" to wiener_dog | clockwise is "derived_from, related_to" to d_hole | clockwise is "derived_from" to deprest | clockwise is "derived_from" to b.com | clockwise is "derived_from" to triple | clockwise is "form_of, synonym" to with | clockwise is "related_to" to admiral | clockwise is "related_to" to d_minor | clockwise is "related_to" to rating | clockwise is "derived_from" to sanatoria | clockwise is "related_to" to average | clockwise is "form_of" to rs | clockwise is "form_of, synonym, related_to, etymologically_related_to" to o | clockwise is "related_to, form_of" to ve | clockwise is "derived_from, etymologically_related_to" to all_mort | clockwise is "derived_from" to b.des | clockwise is "has_context" to football | clockwise is "defined_as" to second_letter_of_roman_alphabet | clockwise is "derived_from" to phenomena | clockwise is "related_to" to k_r | clockwise is "part_of" to mit | clockwise is "derived_from" to pigscot | clockwise is "derived_from" to rackarock | clockwise is "derived_from" to neura | clockwise is "derived_from" to iodabenzene | clockwise is "related_to" to methamphetamine | clockwise is "related_to" to major_scale | clockwise is "related_to" to equal_temperament | clockwise is "synonym" to triiodothyronine | clockwise is "related_to" to amphibious | clockwise is "related_to" to y | clockwise is "capable_of" to mammal | clockwise is "derived_from" to birdsmouth | clockwise is "derived_from" to criteria | clockwise is "etymologically_related_to" to sithence | clockwise is "related_to" to celestial_object | clockwise is "related_to" to absent | clockwise is "derived_from" to admonisht | clockwise is "derived_from" to blemisht | clockwise is "etymologically_related_to" to nones | clockwise is "related_to" to r_shaped | clockwise is "is_a" to jesus_was_crucified | clockwise is "derived_from" to developt | clockwise is "synonym" to rix | clockwise is "related_to" to area | clockwise is "related_to" to saint | clockwise is "derived_from" to blent | clockwise is "has_context" to unicode | clockwise is "etymologically_related_to" to jackanapes | clockwise is "related_to" to b_testing | clockwise is "related_to" to otl | clockwise is "derived_from" to archaea | clockwise is "synonym" to regina | clockwise is "dbpedia/influenced_by" to ruby | clockwise is "derived_from" to bacteria | clockwise is "derived_from" to colossea | clockwise is "related_to" to arterial | clockwise is "related_to" to specific_absorption_coefficient | clockwise is "related_to" to specific_rotation | clockwise is "derived_from" to b.f.a | clockwise is "at_location" to resturant | clockwise is "related_to" to adjective | clockwise is "related_to" to alpha_privative | clockwise is "has_context" to until_february_1971 | clockwise is "etymologically_related_to" to anuptaphobia | clockwise is "related_to" to b_word | clockwise is "derived_from" to avoucht | clockwise is "related_to" to subway | clockwise is "related_to" to canonical | clockwise is "related_to" to teen | clockwise is "related_to" to absolute | clockwise is "related_to" to ing | clockwise is "related_to, has_context" to verb | clockwise is "related_to" to iv | clockwise is "is_a, instance_of" to manga | clockwise is "has_context" to computing | clockwise is "form_of" to r's | clockwise is "related_to" to b_♭ | clockwise is "form_of" to cs | clockwise is "has_context" to england | clockwise is "related_to" to curiously_recurring_template_pattern | clockwise is "etymologically_related_to" to astand | clockwise is "dbpedia/language" to boa | clockwise is "defined_as" to first_letter_of_roman_alphabet | clockwise is "related_to" to anthracite | clockwise is "has_context" to text_messaging | clockwise is "etymologically_related_to" to yours | clockwise is "has_context" to when_it_is_nonstandardly_used_as_relative_pronoun | clockwise is "etymologically_related_to" to taxaphobic | clockwise is "derived_from" to abolisht | clockwise is "etymologically_related_to" to rogers | clockwise is "derived_from" to b.s.l | clockwise is "related_to" to artery | clockwise is "derived_from" to crusht | clockwise is "etymologically_related_to" to ours | clockwise is "related_to" to wednesday | clockwise is "related_to" to lines | clockwise is "related_to" to asian | clockwise is "related_to" to sf_f | clockwise is "related_to" to singular | clockwise is "etymologically_related_to" to januarys | clockwise is "etymologically_related_to" to amissing | clockwise is "form_of" to p's | clockwise is "related_to" to wolf_hook | clockwise is "derived_from" to s_bomb | clockwise is "etymologically_related_to" to fuckabilly | clockwise is "related_to" to c_shaped | clockwise is "etymologically_related_to" to vegas | clockwise is "related_to" to thing | clockwise is "related_to" to tween | clockwise is "related_to" to twas | clockwise is "etymologically_related_to" to anothergates | clockwise is "has_context" to stock_symbol | clockwise is "derived_from" to dismist | clockwise is "related_to" to rat | clockwise is "related_to" to cancer | clockwise is "related_to" to toward | clockwise is "related_to" to beginnings | clockwise is "related_to" to tcl | clockwise is "derived_from" to spearsman | clockwise is "at_location" to drive | clockwise is "derived_from" to danc’t | clockwise is "related_to" to mass_number | clockwise is "related_to" to witness | clockwise is "related_to" to rf | clockwise is "related_to" to cycle_of_fifths | clockwise is "etymologically_related_to" to valor | clockwise is "synonym" to euse | clockwise is "at_location" to belgium | clockwise is "related_to" to hib | clockwise is "related_to" to women | clockwise is "derived_from" to embost | clockwise is "derived_from" to blusht | clockwise is "related_to" to turing_machine | clockwise is "derived_from" to enforc’t | clockwise is "derived_from" to plantsperson | clockwise is "related_to" to baulk_line | clockwise is "derived_from" to accurst | clockwise is "etymologically_related_to" to t_square | clockwise is "related_to" to acre | clockwise is "derived_from" to comprest | clockwise is "related_to" to trailer | clockwise is "etymologically_related_to" to meetaversary | clockwise is "has_context" to computer_science | clockwise is "is_a" to movie | clockwise is "related_to" to polynomial_time | clockwise is "related_to" to issa | clockwise is "has_property" to country | clockwise is "derived_from" to diptera | clockwise is "antonym" to r | clockwise is "derived_from" to b.lit | clockwise is "related_to" to pinfall | clockwise is "has_property" to third_letter_of_alphabet | clockwise is "etymologically_related_to" to kudo | clockwise is "derived_from" to ephemera | clockwise is "synonym" to deoxyadenosine_monophosphate | clockwise is "related_to" to high_level | clockwise is "at_location" to fox | clockwise is "is_a" to weak_electrolyte | clockwise is "at_location" to roof | clockwise is "etymologically_related_to, related_to" to have | clockwise is "related_to" to approved | clockwise is "form_of" to ws | clockwise is "derived_from" to tilt_whirl | clockwise is "related_to" to corner_tooth | clockwise is "derived_from" to b.e | clockwise is "related_to, etymologically_related_to" to er | clockwise is "has_context" to baseball | clockwise is "related_to" to t_stop | clockwise is "related_to" to association | clockwise is "form_of" to d_s | clockwise is "related_to" to taula | clockwise is "etymologically_related_to" to supercee | clockwise is "derived_from" to condenst | clockwise is "has_context" to chess | clockwise is "related_to" to fourth_position | clockwise is "related_to" to sulfanylidene | clockwise is "related_to" to acreage | clockwise is "related_to" to alphanumeric | clockwise is "has_context" to found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives | clockwise is "derived_from" to ceast | clockwise is "derived_from" to ff_hole | clockwise is "related_to" to b_story | clockwise is "dbpedia/influenced_by" to clu | clockwise is "has_context, related_to" to set_theory | clockwise is "related_to" to nyse | clockwise is "etymologically_related_to" to anecdota | clockwise is "synonym, related_to" to south | clockwise is "derived_from" to workaday | clockwise is "related_to" to numeral | clockwise is "related_to" to frequency | clockwise is "related_to" to oboe_d_amore | clockwise is "derived_from" to b.e.e | clockwise is "synonym" to five_hundred | clockwise is "capable_of" to can_begin_to_leak | clockwise is "derived_from" to ll.b | clockwise is "etymologically_related_to" to besides | clockwise is "synonym, related_to" to costa | clockwise is "is_a" to republican | clockwise is "etymologically_related_to" to women's_christmas | clockwise is "etymologically_related_to" to aikens | clockwise is "related_to" to stop_codon | clockwise is "has_context" to symbols | clockwise is "synonym, related_to" to folio | clockwise is "related_to" to technical_foul | clockwise is "etymologically_related_to" to port_o_john | clockwise is "derived_from" to nfd | clockwise is "form_of, related_to" to fs | clockwise is "related_to" to precisely | clockwise is "related_to" to atomic | clockwise is "at_location" to mouse | clockwise is "etymologically_related_to" to perhaps | clockwise is "at_location" to sloth | clockwise is "related_to" to oi | clockwise is "related_to" to scarlet_letter | clockwise is "related_to" to e_♭_instrument | clockwise is "etymologically_related_to, synonym" to dubya | clockwise is "related_to, form_of" to ts | clockwise is "related_to" to available | clockwise is "form_of, related_to" to bs | clockwise is "dbpedia/influenced_by" to java | clockwise is "related_to" to w | clockwise is "derived_from" to bought | clockwise is "synonym" to type_b | clockwise is "etymologically_related_to" to aitkens | clockwise is "related_to" to active | clockwise is "form_of" to down_to_t | clockwise is "has_context" to black_english_and_slang | clockwise is "has_context" to biblical | clockwise is "synonym" to au | clockwise is "derived_from" to b.chir | clockwise is "related_to" to template_metaprogramming | clockwise is "related_to" to copyright_symbol | clockwise is "derived_from" to empoverisht | clockwise is "etymologically_related_to" to cockalorum | clockwise is "related_to" to sarcastic | clockwise is "has_context" to legal | clockwise is "related_to" to airplane | clockwise is "related_to" to f_major | clockwise is "derived_from" to dropt | clockwise is "derived_from" to attackt | clockwise is "related_to" to scale | clockwise is "derived_from" to cola | clockwise is "related_to" to assault | clockwise is "derived_from" to schwar | clockwise is "etymologically_related_to" to piss_like_racehorse | clockwise is "dbpedia/influenced_by" to cobol | clockwise is "related_to" to admit | clockwise is "related_to" to urbiscript | clockwise is "derived_from" to b.acc | clockwise is "related_to" to iii | clockwise is "related_to" to long_s | clockwise is "similar_to" to sx | clockwise is "synonym" to mho | clockwise is "derived_from" to batsman | clockwise is "synonym" to córdoba | clockwise is "related_to" to tg | clockwise is "derived_from" to hulkamania | clockwise is "derived_from" to b.math | clockwise is "related_to" to enharmonic | clockwise is "related_to" to rhotacism | clockwise is "derived_from" to stadia | clockwise is "related_to" to america | clockwise is "derived_from" to bug_boo | clockwise is "related_to" to alpha_privativum | clockwise is "derived_from" to clept | clockwise is "related_to, synonym" to arc | clockwise is "derived_from" to encampt | clockwise is "related_to" to nuevo_sol | clockwise is "derived_from" to bomb | clockwise is "derived_from" to dactinomycin | clockwise is "related_to" to penny | clockwise is "related_to" to terminal_s | clockwise is "form_of" to w's | clockwise is "dbpedia/influenced_by, related_to, etymologically_related_to" to c | clockwise is "related_to" to external | clockwise is "related_to" to malloc | clockwise is "related_to" to np | clockwise is "related_to" to dog's_letter | clockwise is "related_to" to indefinite_article | clockwise is "related_to" to right | clockwise is "etymologically_related_to" to aware | clockwise is "derived_from" to dwelt | clockwise is "derived_from" to cock_hoop | clockwise is "related_to" to r’s | clockwise is "related_to" to stl | clockwise is "related_to" to b_shaped | clockwise is "form_of, related_to, etymologically_related_to" to ed | clockwise is "related_to, derived_from" to s_hole | clockwise is "is_a" to basketball_league | clockwise is "at_location" to flute | clockwise is "derived_from" to fora | clockwise is "related_to" to twere | clockwise is "related_to" to aunt | clockwise is "dbpedia/influenced_by" to assembly_language | clockwise is "has_context" to used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words | clockwise is "related_to, synonym" to carbon | clockwise is "related_to" to artillery | clockwise is "synonym" to 100 | clockwise is "derived_from" to b.s.e.e | clockwise is "related_to" to w_i | clockwise is "has_context" to preposition | clockwise is "related_to" to occupation | clockwise is "etymologically_related_to" to dateaversary | clockwise is "derived_from" to built | clockwise is "dbpedia/influenced_by" to go | clockw</t>
-  </si>
-  <si>
-    <t>astronomy is "has_context" to celestial_body | astronomy is "has_context, related_to" to star | moon is "related_to" to celestial_body | moon is "related_to, distinct_from" to star | twinkle is "has_context" to celestial_body | twinkle is "related_to" to star</t>
-  </si>
-  <si>
-    <t>bait is "related_to" to fish | bait is "related_to" to water | pond is "at_location, used_for, related_to" to fish | pond is "related_to, has_a" to water | tuna is "related_to, is_a" to fish | tuna is "at_location" to water</t>
-  </si>
-  <si>
-    <t>gravity is "related_to" to ground | gravity is "related_to" to hill | gravity is "related_to" to down | low is "related_to" to ground | low is "related_to" to hill | low is "related_to" to down | up is "related_to" to ground | up is "related_to" to hill | up is "antonym, distinct_from, related_to" to down</t>
-  </si>
-  <si>
-    <t>brawl is "related_to, is_a" to fight | debate is "related_to" to fight | soldier is "desires, used_for, related_to" to fight</t>
-  </si>
-  <si>
-    <t>finger is "at_location, part_of, related_to" to hand | glove is "related_to" to hand | palm is "related_to, part_of" to hand</t>
+    <t>algebra is "has_context" to bimedian | algebra is "has_context" to plus_minus_sign | algebra is "has_context" to supermodular | algebra is "has_context" to subtree | algebra is "has_context" to generatrix | algebra is "has_context, related_to" to anallagmatic | algebra is "has_context" to triaugmented | algebra is "has_context" to bidiagonal | algebra is "has_context" to power_of | algebra is "has_context" to finitism | algebra is "has_context" to tame | algebra is "has_context" to generalization | algebra is "has_context" to polyiamond | algebra is "has_context" to tractrix | algebra is "has_context" to trilogarithm | algebra is "related_to, synonym, has_context" to projection | algebra is "derived_from, related_to, has_context" to coanalytic | algebra is "dbpedia/field" to james_clerk_maxwell | algebra is "has_context" to homaloid | algebra is "has_context" to eigenspectrum | algebra is "has_context" to formal_power_series | algebra is "has_context" to please_excuse_my_dear_aunt_sally | algebra is "has_context" to compact_space | algebra is "has_context" to superlogarithm | algebra is "has_context" to trapezian | algebra is "has_context, related_to" to parametric_equation | algebra is "has_context" to incidence | algebra is "has_context, used_for, related_to" to intersection | algebra is "has_context" to trihexagonal | algebra is "has_context" to equimultiple | algebra is "has_context" to rectilinear | algebra is "has_context" to semiaxis | algebra is "derived_from, related_to, has_context, part_of" to norm | algebra is "has_context" to supermembrane | algebra is "has_context" to cuboctahedron | algebra is "has_context, derived_from, related_to" to binormal | algebra is "has_context" to fixed_set | algebra is "has_context" to apodization | algebra is "has_context" to subbase | algebra is "derived_from, related_to, has_context" to overorder | algebra is "has_context" to bimetric | algebra is "has_context, derived_from, is_a" to fractal_geometry | algebra is "has_context, derived_from, related_to" to algorithmics | algebra is "related_to, has_context" to dual | algebra is "related_to, is_a, has_context" to new_math | algebra is "has_context" to normal_form | algebra is "has_context, etymologically_related_to, related_to" to groud | algebra is "has_context" to spherical_harmonics | algebra is "has_context, derived_from, is_a" to elementary_geometry | algebra is "has_context, related_to" to polyhedron | algebra is "has_context" to pencil | algebra is "has_context" to fuzzification | algebra is "has_context" to cross_section | algebra is "has_context" to affinized | algebra is "has_context" to johnson_solid | algebra is "related_to, has_context" to complex | algebra is "has_context" to apothem | algebra is "has_context" to hyp | algebra is "has_context" to dihedron | algebra is "has_context" to equilateral_triangle | algebra is "has_context" to quasiperiodic | algebra is "has_context" to cubefree | algebra is "has_context" to linear_pair | algebra is "related_to, has_context" to accent_mark | algebra is "derived_from, related_to, has_context" to bialgebroid | algebra is "has_context" to subcollection | algebra is "has_context" to leafspace | algebra is "related_to, synonym, has_context" to primitive_root | algebra is "has_context" to boundary_term | algebra is "has_context" to angular_defect | algebra is "related_to, has_context" to syzygy | algebra is "is_a, related_to, has_context" to limit | algebra is "has_context, form_of, related_to" to bialgebra | algebra is "has_context" to dirigent | algebra is "has_context" to properness | algebra is "has_context, related_to" to quadratic_form | algebra is "has_context" to computus | algebra is "has_context" to amphihexahedron | algebra is "has_context" to conocuneus | algebra is "has_context" to binode | algebra is "has_context" to stellated | algebra is "derived_from" to mountainslope | algebra is "has_context" to power_center | algebra is "has_context" to subduple | algebra is "has_context" to metabelian | algebra is "related_to, has_context" to prime_decomposition | algebra is "has_context" to polytopal | algebra is "related_to" to mathematics_c | algebra is "has_context" to reweighted | algebra is "related_to" to aeronautics | algebra is "has_context" to decadic | algebra is "has_context" to speed | algebra is "has_context" to tacnode | algebra is "has_context" to exradius | algebra is "part_of, derived_from, at_location, related_to" to classroom | algebra is "has_context" to sinical | algebra is "has_context" to submersion | algebra is "related_to, has_context" to equiprobable | algebra is "has_context" to cologarithm | algebra is "has_context" to pseudospectral | algebra is "related_to, has_context" to homological | algebra is "has_context" to biquadrate | algebra is "related_to, has_context" to version | algebra is "has_context" to polynema | algebra is "has_context" to superseparability | algebra is "has_context" to bigraph | algebra is "has_context" to mediatrix | algebra is "has_context, etymologically_related_to, related_to" to nilmanifold | algebra is "has_context" to interpolate | algebra is "related_to" to cliff | algebra is "used_for" to calculating_circumference | algebra is "has_context" to metricity | algebra is "has_context" to desargues_configuration | algebra is "has_context" to maplet | algebra is "has_context" to topologized | algebra is "related_to, has_context" to logarithm | algebra is "has_context, related_to, synonym" to differentiate | algebra is "related_to, has_context" to cardinal_number | algebra is "has_context" to hexacosichoron | algebra is "related_to, has_context" to gradian | algebra is "has_context" to first_passage_time | algebra is "related_to, has_context" to axiom | algebra is "has_context, derived_from, synonym" to connected | algebra is "has_context" to radix_point | algebra is "has_context, related_to" to conic_section | algebra is "has_context" to reflection | algebra is "has_context" to cocircularity | algebra is "has_context" to ellipsis | algebra is "has_context" to bicategorical | algebra is "has_context" to line_of_apsides | algebra is "related_to, has_context" to maximal | algebra is "has_context" to rediagonalize | algebra is "synonym, has_context" to strong | algebra is "related_to, has_context" to involute | algebra is "has_context" to trigonometric_series | algebra is "derived_from, is_a, has_context" to semiprime | algebra is "has_context" to pathological | algebra is "dbpedia/field" to jacques_charles | algebra is "has_context" to backgammon | algebra is "has_context" to subacute | algebra is "has_context" to pandigital | algebra is "related_to" to chirality | algebra is "has_context" to gyrorotation | algebra is "has_context" to transflection | algebra is "has_context" to equicontinuous | algebra is "has_context" to supermeasure | algebra is "has_context, related_to" to exponential | algebra is "has_context" to eigenproblem | algebra is "has_context" to radius_vector | algebra is "related_to, has_context" to tiling | algebra is "has_context, related_to, antonym" to filter | algebra is "has_context, related_to" to hyperdiffusion | algebra is "has_context" to orthoradial | algebra is "has_context" to pronic | algebra is "has_context" to zero_matrix | algebra is "related_to, has_context" to solve | algebra is "has_context" to integerness | algebra is "has_context" to mathematical_process | algebra is "has_context" to ith | algebra is "related_to, has_context" to de_morgan's_law | algebra is "has_context" to positone | algebra is "has_context" to zeta_function | algebra is "related_to, is_a, has_context, etymologically_related_to, derived_from" to polynomial | algebra is "has_context" to orthant | algebra is "has_context, derived_from, related_to, is_a" to semigroup | algebra is "has_context" to triamond | algebra is "has_context" to unknottedness | algebra is "has_context" to apolar | algebra is "related_to" to mathematical_logic | algebra is "is_a, has_context" to quantic | algebra is "has_context" to hyperelliptic | algebra is "has_context" to hedron | algebra is "has_context" to cubic_curve | algebra is "has_context" to cochain_complex | algebra is "related_to, has_context" to additive_inverse | algebra is "has_context" to quasipotential | algebra is "derived_from, has_context" to complex_analysis | algebra is "has_context, related_to" to functional_analysis | algebra is "has_context" to malfatti_circle | algebra is "related_to" to art_gallery_problem | algebra is "has_context" to homothecy | algebra is "related_to, has_context" to measure_theory | algebra is "has_context" to wavelet | algebra is "has_context" to capacitated | algebra is "has_context" to adjacent_angle | algebra is "derived_from, related_to, has_context" to morphism | algebra is "has_context" to figural | algebra is "has_context" to polylogarithm | algebra is "is_a, has_context" to mapping | algebra is "has_context" to matroidal | algebra is "has_context, related_to" to reflexivity | algebra is "related_to, has_context" to canonical_form | algebra is "has_context" to clarithmetic | algebra is "has_context" to sublinear | algebra is "has_context" to enneagon | algebra is "has_context" to square_circle | algebra is "has_context" to information_theory | algebra is "has_context" to eccentric | algebra is "has_context" to holomorphy | algebra is "related_to, has_context, at_location" to radio | algebra is "has_context" to countably | algebra is "has_context" to conus | algebra is "has_context, related_to, synonym" to null | algebra is "has_context" to parallelotope | algebra is "related_to, has_context" to lp | algebra is "has_context" to invariance | algebra is "related_to, has_context" to ternary | algebra is "has_context" to parallel_postulate | algebra is "has_context" to surface_area | algebra is "derived_from, related_to, has_context" to coring | algebra is "similar_to, has_context, derived_from, related_to" to normal | algebra is "has_context, related_to" to sieve_of_eratosthenes | algebra is "related_to, has_context" to circumference | algebra is "has_context" to ordinate | algebra is "related_to, has_context" to affine_space | algebra is "has_context" to newform | algebra is "has_context" to nonmatrix | algebra is "has_context" to categorical_product | algebra is "has_context" to pentomino | algebra is "has_context, derived_from, related_to, is_a" to numerical_analysis | algebra is "related_to, has_context" to rheometry | algebra is "derived_from, related_to" to geometrylike | algebra is "has_context" to boron_tree | algebra is "has_context, derived_from, related_to" to associahedron | algebra is "related_to, has_context" to disjoint_union | algebra is "related_to" to semicircle | algebra is "has_context" to square_pyramid | algebra is "has_context" to orthonormalization | algebra is "has_context" to unary | algebra is "has_context" to quadrivariate | algebra is "derived_from, related_to" to iatromathematics | algebra is "has_context" to hexlet | algebra is "derived_from, related_to, has_context" to superellipse | algebra is "has_context" to basin_of_attraction | algebra is "has_context, derived_from, related_to" to semilattice | algebra is "has_context, related_to" to semisimple | algebra is "has_context" to nonisomorphically | algebra is "part_of, related_to, antonym, is_a, has_context" to part | algebra is "has_context" to cocircular | algebra is "has_context" to filf | algebra is "has_context" to achronality | algebra is "has_context, related_to" to rotation | algebra is "has_context" to without_loss_of_generality | algebra is "related_to, manner_of" to lean | algebra is "has_context" to horodisk | algebra is "has_context" to underbound | algebra is "has_context" to number_line | algebra is "related_to" to trilobite | algebra is "has_context" to lexicographic_order | algebra is "has_context" to anisotropic | algebra is "has_context, related_to" to factorable | algebra is "related_to" to x_ray_diffraction | algebra is "related_to, has_context" to retraction | algebra is "has_context" to eigenhead | algebra is "has_context" to partial_derivative | algebra is "has_context" to shearlike | algebra is "has_context" to summable | algebra is "is_a, has_context" to golden_ratio | algebra is "part_of, distinct_from, related_to, antonym, is_a, has_context" to one | algebra is "has_context" to lowest_common_multiple | algebra is "has_context" to cyclic_inscriptable | algebra is "has_context" to zonohedron | algebra is "has_context" to integral_equation | algebra is "has_context" to addend | algebra is "has_context" to pentacron | algebra is "has_context" to subspace | algebra is "has_context" to logocyclic_curve | algebra is "has_context" to net | algebra is "has_context" to line_segment | algebra is "has_context" to hyperbolic_sector | algebra is "has_context" to minus_plus_sign | algebra is "has_context" to projectability | algebra is "has_context" to pentakis | algebra is "related_to" to op | algebra is "has_context" to biholomorphic | algebra is "related_to" to backscatter | algebra is "derived_from, has_context" to cyclotomic | algebra is "has_context" to bounded_function | algebra is "has_context" to damping_ratio | algebra is "has_context" to tricorn | algebra is "has_context, derived_from" to eigenvariety | algebra is "has_context" to semiregular_tessellation | algebra is "has_context" to differentially | algebra is "has_context" to semidirect | algebra is "has_context" to pentadecimal | algebra is "related_to, has_context" to conversion | algebra is "has_context" to cointegration | algebra is "has_context" to tent | algebra is "has_context" to hexagonal_prism | algebra is "has_context" to dirac_delta_function | algebra is "has_context" to principal_ultrafilter | algebra is "related_to, has_context" to composite_function | algebra is "has_context, related_to" to osculator | algebra is "has_context" to leavable | algebra is "related_to, has_context" to dromion | algebra is "has_context" to point_at_infinity | algebra is "has_context" to k_adic | algebra is "related_to" to board | algebra is "has_context" to pseudo_edge | algebra is "has_context" to extremum | algebra is "has_context" to regular_open | algebra is "has_context" to orbifolding | algebra is "has_context" to null_set | algebra is "has_context" to domatic | algebra is "has_property" to useful_in_business | algebra is "similar_to, has_context, related_to" to mantissa | algebra is "related_to, has_context" to covering_space | algebra is "has_context" to pseudotriangle | algebra is "has_context, related_to" to even_function | algebra is "has_context" to capping | algebra is "has_context, derived_from, related_to" to primeness | algebra is "has_context" to biregular | algebra is "has_context" to grandi's_series | algebra is "has_context" to disconnected | algebra is "has_context" to nomogram | algebra is "has_context" to caustic | algebra is "related_to" to catalan_number | algebra is "has_context" to approximand | algebra is "has_context" to isospectral | algebra is "has_context" to radiant | algebra is "has_context" to nonomino | algebra is "has_context" to connectance | algebra is "has_context" to monodromic | algebra is "has_context" to central_angle | algebra is "related_to, is_a, has_context" to monic | algebra is "has_context" to tessellate | algebra is "has_context, related_to" to smooth | algebra is "has_context" to power_function | algebra is "has_context, related_to, synonym" to abstract_algebra | algebra is "has_context" to sexy | algebra is "has_context, related_to" to equinumerous | algebra is "related_to" to conics | algebra is "has_context, related_to" to n_dimensional | algebra is "has_context" to star | algebra is "has_context" to coproduct | algebra is "has_context" to tridigital | algebra is "has_context" to adjointable | algebra is "has_context" to inclusion_function | algebra is "has_context" to convexified | algebra is "has_context" to hyperbolic_function | algebra is "is_a" to aboslute | algebra is "has_context" to inscribe | algebra is "has_context" to n_omino | algebra is "has_context, related_to" to directly_proportional | algebra is "related_to" to coin | algebra is "has_context" to superdevelopment | algebra is "has_context" to contralaterality | algebra is "has_context" to noncardinal | algebra is "has_context" to hyperdeficient | algebra is "has_context" to half_integer | algebra is "related_to, has_context" to sumset | algebra is "has_context" to pentakis_dodecahedron | algebra is "has_context" to affinor | algebra is "has_context" to single_valued | algebra is "dbpedia/occupation" to thomas_carlyle | algebra is "has_context" to regular_continued_fraction | algebra is "related_to" to geometrogenesis | algebra is "has_context" to hexakis | algebra is "related_to, has_context" to trace | algebra is "etymologically_related_to, derived_from, related_to, is_a, has_context" to ring | algebra is "has_context" to derangement | algebra is "has_context" to summation | algebra is "related_to" to microarcsecond | algebra is "has_context" to chiliagon | algebra is "has_context" to inhabited | algebra is "has_context" to from | algebra is "has_context, derived_from, related_to" to frobenius | algebra is "has_context" to strictly_increasing_function | algebra is "has_context, derived_from, related_to" to coalgebraic | algebra is "derived_from, related_to, has_context" to superformula | algebra is "has_context" to quadrantal | algebra is "has_context" to radius | algebra is "related_to, has_context" to classifying_space | algebra is "related_to, synonym, has_context" to abelian_algebra | algebra is "related_to, has_context" to horocycle | algebra is "related_to" to hard_science | algebra is "has_context" to plane_angle | algebra is "has_context, related_to, synonym" to characteristic | algebra is "has_context" to triacontagon | algebra is "has_context" to cyclic_quadrilateral | algebra is "related_to, part_of" to minute | algebra is "has_context, related_to, antonym" to monotony | algebra is "has_context" to second_order | algebra is "has_context" to polyhedral | algebra is "has_context" to floor_function | algebra is "has_context" to signum_function | algebra is "has_context, related_to" to ramifiable | algebra is "has_context" to binomial_series | algebra is "related_to" to mansard_roof | algebra is "related_to" to subtracting | algebra is "has_context" to simplified_expression | algebra is "has_context" to homaloidal | algebra is "has_context" to tetragon | algebra is "related_to" to diagram | algebra is "has_context" to pentacube | algebra is "has_context" to laplace_transform | algebra is "has_context" to brahmagupta's_formula | algebra is "has_context" to intuitionistic | algebra is "has_context" to dodecagon | algebra is "related_to, has_context" to bilinear | algebra is "has_context" to if_and_only_if | algebra is "related_to, has_context" to modulo | algebra is "has_context" to inversion_pair | algebra is "has_context" to minimization | algebra is "defined_as" to language_of_nature | algebra is "has_context" to unit_function | algebra is "has_context" to divergent_series | algebra is "related_to, synonym, has_context" to cartesian_product | algebra is "related_to, has_context" to attack | algebra is "has_context" to sphenomegacorona | algebra is "has_context, related_to" to orthomodular | algebra is "etymologically_related_to" to mathemaku | algebra is "has_context" to trope | algebra is "has_context" to crunode | algebra is "has_context" to nondifferentiable | algebra is "has_context" to copoint | algebra is "has_context" to corner_solution | algebra is "has_context" to poissonian | algebra is "has_context" to semispace | algebra is "has_context, related_to" to tractable | algebra is "has_context" to spinode | algebra is "has_context, etymologically_related_to, related_to, similar_to" to idempotent | algebra is "has_context" to interpenetrative | algebra is "has_context" to pyritohedral | algebra is "has_context, related_to" to multigrid | algebra is "has_context" to lcm | algebra is "has_context" to trimery | algebra is "has_context" to floor | algebra is "has_context" to quadrature | algebra is "has_context" to n_ary | algebra is "related_to, has_context" to cauchy_problem | algebra is "has_context" to continuant | algebra is "related_to, has_context" to bomdas | algebra is "has_context" to knottedness | algebra is "has_context" to manipulative | algebra is "has_context" to subconical | algebra is "has_context, related_to" to covertex | algebra is "has_context" to antiunitary | algebra is "has_context" to leaf | algebra is "has_context" to cofinite | algebra is "has_context" to tractricoid | algebra is "related_to, has_context" to rounded | algebra is "has_context" to residuosity | algebra is "has_context" to expansivity | algebra is "is_a, has_context" to sexy_prime | algebra is "has_context, related_to" to poloid | algebra is "has_context" to cross_multiplication | algebra is "has_context" to scalene_triangle | algebra is "related_to, has_context" to infimum | algebra is "has_context" to compactify | algebra is "has_context" to hyperarithmetic | algebra is "has_context" to relatively_prime | algebra is "has_context" to gibbs_phenomenon | algebra is "has_context" to gyro | algebra is "related_to, has_context" to absolute_term | algebra is "has_context" to first_order | algebra is "has_context" to asymptotic_analysis | algebra is "has_context" to multideterminantal | algebra is "derived_from, related_to, is_a, synonym, has_context" to angle_bracket | algebra is "has_context" to kite | algebra is "related_to" to stereoelectronics | algebra is "has_context" to polyharmonic | algebra is "has_context, related_to" to linearoid | algebra is "has_context" to chaology | algebra is "related_to" to cant | algebra is "related_to, has_context" to flat_space | algebra is "has_context" to hyperellipsoid | algebra is "has_context" to disphenoid | algebra is "has_context" to astroid | algebra is "has_context" to true_lover's_knot | algebra is "has_context" to algebraist | algebra is "related_to, has_context" to equivariant | algebra is "related_to, has_context" to noncototient | algebra is "related_to, has_context" to tore | algebra is "has_context" to cyclometry | algebra is "has_context" to metric_tensor | algebra is "has_context" to formalism | algebra is "related_to" to middle | algebra is "has_context" to binary_function | algebra is "has_context" to antiphase | algebra is "has_context" to eikonalized | algebra is "has_context" to sedenion | algebra is "has_context" to superreal | algebra is "related_to" to adding_subtracting | algebra is "related_to, has_context" to polynomic | algebra is "related_to, has_context" to hull | algebra is "has_context, related_to" to superscript | algebra is "has_context" to sublemma | algebra is "has_context" to termgraph | algebra is "related_to, has_context" to peak | algebra is "related_to, has_context" to generic | algebra is "has_context" to supergauge | algebra is "has_context" to nonperturbative | algebra is "has_context" to mathematical_space | algebra is "has_context, is_a" to irrational | algebra is "derived_from, related_to, has_context" to pseudoradical | algebra is "has_context, derived_from, related_to" to semifield | algebra is "related_to" to fish | algebra is "has_context, related_to, is_a" to term | algebra is "has_context" to biinfinite | algebra is "has_context" to piecewise | algebra is "has_context" to adicity | algebra is "has_context" to biconjugate | algebra is "has_context" to polystick | algebra is "has_context" to nonsimple | algebra is "has_context" to nappe | algebra is "has_context" to real_valued | algebra is "has_context" to holomorphicity | algebra is "is_a, has_context" to resultant | algebra is "has_context" to embedding | algebra is "has_context" to circle_of_antisimilitude | algebra is "has_context" to euler_line | algebra is "has_context" to bispectrum | algebra is "has_context, derived_from" to interprime | algebra is "related_to" to algebra_geometry | algebra is "related_to, has_context" to dimensionality | algebra is "has_context" to distribution | algebra is "has_context" to nonsimply | algebra is "related_to, has_context" to evenly | algebra is "has_context" to uniformize | algebra is "related_to, has_context" to proposition | algebra is "has_context, related_to" to branch | algebra is "has_context" to logistic_function | algebra is "has_context" to crown | algebra is "has_context" to vertex_figure | algebra is "has_context" to semiparametric | algebra is "related_to, antonym, synonym" to go | algebra is "has_context" to pointwise | algebra is "has_context, related_to" to curve | algebra is "has_context" to homothety | algebra is "has_context" to regular_closed | algebra is "related_to, synonym, has_context" to zero | algebra is "related_to, has_context" to numeric | algebra is "has_context" to spline | algebra is "has_context" to permutohedron | algebra is "related_to, has_context" to algebroid | algebra is "related_to" to travel | algebra is "has_context, related_to" to radian | algebra is "related_to, has_context" to affinity | algebra is "has_context" to turning_number | algebra is "has_context" to cancellative | algebra is "has_context" to theorem | algebra is "has_context" to subsurface | algebra is "has_context" to comeasurable | algebra is "related_to" to constant | algebra is "has_context" to aperiodic | algebra is "has_context" to approximant | algebra is "related_to, has_context" to lp_space | algebra is "has_context" to setlike | algebra is "has_context" to degenerate_conic | algebra is "has_context" to eigenvariable | algebra is "has_context" to comonoid | algebra is "has_context" to 4_polytope | algebra is "has_context" to integrally | algebra is "has_context, related_to" to disassortative | algebra is "has_context" to subword | algebra is "has_context" to hyperfunction | algebra is "related_to, has_context" to genetics | algebra is "has_context" to game_theoretical | algebra is "has_context" to majorant | algebra is "related_to" to baseline | algebra is "related_to" to synergetics | algebra is "has_context" to obtuse_triangle | algebra is "has_context, related_to" to subresultant | algebra is "has_context, derived_from, related_to" to antiautomorphism | algebra is "has_context" to hyperscalar | algebra is "has_context, related_to" to hand | algebra is "has_context" to antifundamental | algebra is "has_context" to lorentz_group | algebra is "dbpedia/field" to anders_celsius | algebra is "has_context" to stereotomy | algebra is "has_context, related_to" to angle | algebra is "related_to, has_context" to septic | algebra is "has_context" to sinusoidal | algebra is "related_to, has_context, derived_from" to nonzero | algebra is "has_context" to enneahedral | algebra is "has_context" to equinumerosity | algebra is "related_to" to number_cruncher | algebra is "has_context" to posetal | algebra is "has_context, related_to" to orbit | algebra is "has_context" to pentamery | algebra is "related_to" to structure | algebra is "has_context" to epsilontic | algebra is "has_context" to quadrate | algebra is "related_to, has_context" to hyperbolic_polynomial | algebra is "has_context" to function_value | algebra is "has_context, related_to" to evector | algebra is "has_context" to nonstiff | algebra is "has_context, related_to" to accidental | algebra is "has_context" to coevent | algebra is "related_to, synonym, has_context" to sort | algebra is "related_to, has_context" to modulus | algebra is "has_context" to small_worldness | algebra is "has_context" to quasireversibility | algebra is "at_location, related_to" to grass | algebra is "has_context" to cogredient | algebra is "has_context" to epigraph | algebra is "derived_from, has_context" to discrete_mathematics | algebra is "has_context" to harmonic_series | algebra is "has_context" to hyperbolic_angle | algebra is "related_to" to form_factor | algebra is "related_to, has_context" to four_vector | algebra is "has_context, related_to" to subtend | algebra is "derived_from, related_to, has_context" to semialgebraic | algebra is "related_to, has_context" to base | algebra is "has_context" to paracompact | algebra is "has_context" to open_rectangle | algebra is "defined_as" to study_of_shapes | algebra is "has_context" to grothendieck_universe | algebra is "related_to, similar_to, has_context" to additive | algebra is "has_context" to sparsify | algebra is "related_to, has_context" to antipersistent | algebra is "related_to, has_context" to maximum | algebra is "has_context" to synclastic | algebra is "has_context" to sphenic_number | algebra is "has_context" to pyritohedron | algebra is "has_context" to bessel_function | algebra is "related_to" to numbers | algebra is "related_to, synonym, has_context" to permute | algebra is "has_context" to subterm | algebra is "has_context" to quasilinear | algebra is "related_to, has_context" to rod | algebra is "has_context" to preconditioner | algebra is "has_context" to pentagon | algebra is "has_context" to tomahawk | algebra is "has_context" to orthoplex | algebra is "has_context" to hypercell | algebra is "related_to, has_context" to rhombic_dodecahedron | algebra is "has_context" to lemmatically | algebra is "has_context, is_a" to regular_prime | algebra is "has_context" to laplacian | algebra is "related_to, synonym, has_context" to acute | algebra is "has_context" to subtense | algebra is "has_context" to periodogram | algebra is "related_to, synonym, has_context" to proper | algebra is "has_context" to isohedral | algebra is "has_context" to rounding | algebra is "has_context" to trigonometric_cofunction | algebra is "has_context" to octahedron | algebra is "related_to, has_context" to infinite | algebra is "has_context" to gon | algebra is "has_context, related_to" to uniform | algebra is "related_to, has_context" to coterminal | algebra is "derived_from, related_to, has_context" to biparavector | algebra is "related_to, has_context" to polynomial_time | algebra is "related_to, has_context" to decreasing_function | algebra is "has_context" to arg | algebra is "related_to, has_context" to exponential_equation | algebra is "has_context" to self_dual | algebra is "has_context" to prospectivity | algebra is "derived_from" to ophthalmogeometry | algebra is "has_context" to parallelizability | algebra is "has_context, related_to, is_a" to center | algebra is "at_location, related_to" to cotton | algebra is "has_context" to gyrotranslation | algebra is "has_context" to tromino | algebra is "has_context" to gyrocentroid | algebra is "related_to, has_context" to undefined | algebra is "has_context" to stellation | algebra is "related_to, has_context" to monsky's_theorem | algebra is "has_context" to isotomic | algebra is "has_context" to superseparable | algebra is "has_context" to compactum | algebra is "has_context" to foliate_curve | algebra is "has_context" to rbf | algebra is "related_to, has_context" to number_theorist | algebra is "has_context" to hyperbolic_plane | algebra is "has_context" to diffeomorphic | algebra is "has_context, derived_from, related_to" to polyalgorithm | algebra is "related_to, has_context" to coaugmentation | algebra is "has_context" to diffeomorphism | algebra is "has_context" to bicorn | algebra is "has_context" to transition_matrix | algebra is "related_to" to addition_subtraction | algebra is "has_context" to superposition_principle | algebra is "has_context" to spacelike | algebra is "has_context, related_to" to coquaternion | algebra is "has_context, related_to" to residue | algebra is "has_context" to snub_dodecahedron | algebra is "related_to, has_context" to equivalence | algebra is "has_context" to common_multiple | algebra is "has_context" to determinacy | algebra is "related_to, has_context" to bicrossproduct | algebra is "has_context" to centroid | algebra is "has_context, related_to, synonym" to category | algebra is "has_context" to divergent | algebra is "has_context" to parallelepipedal | algebra is "has_context" to atoroidal | algebra is "related_to, has_context" to symmetric_function | algebra is "has_context" to jacobi_identity | algebra is "has_context" to mlse | algebra is "has_context, related_to" to construct | algebra is "has_context" to iterate | algebra is "has_context" to treespace | algebra is "has_context" to sextantal | algebra is "related_to, has_context" to dimension | algebra is "has_context" to epicycle | algebra is "related_to, has_context" to exponential_function | algebra is "related_to, has_context" to image | algebra is "has_context" to exponential_g</t>
+  </si>
+  <si>
+    <t>pedal is "has_context" to frequent_flier | pedal is "related_to" to focus | pedal is "related_to" to press | pedal is "related_to" to slag | pedal is "form_of, related_to" to big | pedal is "related_to, has_context" to rank | pedal is "derived_from" to chin_music | pedal is "related_to" to door | pedal is "related_to" to crusher_gauge | pedal is "has_context" to scoop | pedal is "related_to" to judge | pedal is "related_to" to tuneage | pedal is "related_to, is_a" to aluminum | pedal is "related_to" to face_melter | pedal is "related_to" to fettler | pedal is "has_context" to pinheaded | pedal is "related_to" to pansy | pedal is "related_to" to front | pedal is "etymologically_related_to, related_to" to party | pedal is "part_of, derived_from, related_to, is_a" to heel | pedal is "related_to, is_a" to crowbar | pedal is "has_context, synonym" to cream | pedal is "related_to" to fan | pedal is "is_a" to seagull | pedal is "has_context" to vaginoid | pedal is "related_to" to taken | pedal is "related_to, synonym, used_for" to fail | pedal is "related_to, synonym, has_context" to round | pedal is "has_context, related_to, is_a" to touch | pedal is "related_to" to land | pedal is "related_to" to noisy | pedal is "related_to, is_a" to bullet | pedal is "related_to" to below | pedal is "has_context" to prosody | pedal is "related_to" to shin | pedal is "at_location, related_to" to table | pedal is "related_to, is_a, synonym, has_context, used_for" to instrument | pedal is "related_to" to electrical | pedal is "related_to" to wave | pedal is "related_to, is_a" to tune | pedal is "related_to" to hog | pedal is "related_to" to wired | pedal is "has_context" to tube | pedal is "related_to" to nasty | pedal is "used_for, form_of, related_to, synonym" to kicking | pedal is "similar_to" to continue | pedal is "is_a, has_context, related_to" to neck | pedal is "is_a, related_to" to screw | pedal is "has_context, distinct_from, related_to, antonym" to wood | pedal is "related_to" to sergeant | pedal is "related_to, has_context" to quack | pedal is "form_of, related_to, has_context" to break | pedal is "related_to" to current | pedal is "at_location, related_to" to animal | pedal is "has_context" to h | pedal is "at_location, related_to" to mine | pedal is "related_to" to nicker | pedal is "has_context" to entry | pedal is "related_to" to question | pedal is "related_to" to roller | pedal is "related_to" to pants | pedal is "has_context" to p | pedal is "is_a, related_to" to bone | pedal is "has_context" to ts_girl | pedal is "is_a" to fireman | pedal is "related_to, located_near, at_location" to shoe | pedal is "related_to, has_context" to military | pedal is "related_to" to zipper | pedal is "used_for" to cave | pedal is "related_to, manner_of" to place | pedal is "related_to, form_of" to kick_down | pedal is "related_to" to fodder | pedal is "distinct_from, related_to" to plant | pedal is "related_to" to reverse | pedal is "related_to, is_a, manner_of" to change | pedal is "related_to" to pocket | pedal is "related_to" to buster | pedal is "has_context, related_to" to double | pedal is "related_to, has_context" to construction | pedal is "has_context" to congestion | pedal is "has_context, related_to" to ventilate | pedal is "related_to, etymologically_related_to" to deal | pedal is "related_to" to formation | pedal is "related_to" to auditorium | pedal is "related_to" to salt | pedal is "entails, causes, related_to, manner_of" to leak | pedal is "related_to" to grouping | pedal is "related_to, has_context" to case | pedal is "has_context" to lovatic | pedal is "related_to, is_a, synonym, has_context, used_for" to music | pedal is "has_context" to dig | pedal is "related_to" to water_of_crystallization | pedal is "has_context" to jig | pedal is "has_context" to fine | pedal is "has_context, related_to" to related | pedal is "related_to" to souped_up | pedal is "has_context" to hyphy | pedal is "related_to" to main | pedal is "related_to" to sail | pedal is "has_context, related_to" to compression | pedal is "has_context" to woodshed | pedal is "used_for, causes, is_a, related_to" to speed | pedal is "etymologically_related_to" to brick | pedal is "related_to" to coercion | pedal is "related_to" to lots | pedal is "related_to" to omnipotent | pedal is "has_context" to diff | pedal is "has_context" to internet | pedal is "related_to" to committee | pedal is "related_to, has_context" to release | pedal is "related_to, used_for" to make | pedal is "has_context" to ruff | pedal is "related_to" to fancy | pedal is "related_to" to cage | pedal is "related_to" to magnify | pedal is "related_to" to small | pedal is "derived_from" to brokeback | pedal is "related_to, is_a" to box | pedal is "has_context" to pinhead | pedal is "has_context" to strain | pedal is "part_of, related_to, synonym, manner_of" to act | pedal is "has_context" to acquire | pedal is "manner_of" to fumble | pedal is "related_to" to grey | pedal is "related_to" to chink | pedal is "related_to, is_a, has_context" to stroke | pedal is "related_to" to past | pedal is "related_to, desires" to dog | pedal is "used_for" to rush | pedal is "has_context" to moll | pedal is "related_to" to lay | pedal is "has_context" to us | pedal is "has_context" to spiro | pedal is "part_of, related_to" to blade | pedal is "related_to" to live | pedal is "related_to, manner_of, has_context" to beat | pedal is "related_to" to acceleration | pedal is "has_context, related_to" to swab | pedal is "manner_of" to putt | pedal is "related_to, derived_from" to kickplate | pedal is "has_context, related_to" to range | pedal is "related_to, has_context" to simple | pedal is "related_to, manner_of, has_context" to pipe | pedal is "related_to, has_context" to sports | pedal is "related_to" to lowball | pedal is "synonym" to flush | pedal is "related_to, antonym, has_context, distinct_from" to noise | pedal is "related_to" to cans | pedal is "antonym" to trick | pedal is "related_to" to boy | pedal is "distinct_from, related_to, antonym" to punch | pedal is "has_context, related_to" to course | pedal is "related_to, is_a, manner_of" to escape | pedal is "related_to" to strike | pedal is "related_to, is_a" to snowdrop | pedal is "etymologically_related_to" to kink | pedal is "related_to, synonym" to strong | pedal is "related_to, has_context" to hammer | pedal is "antonym" to racket | pedal is "manner_of" to carry | pedal is "has_context, related_to, synonym" to split | pedal is "related_to" to bunk_off | pedal is "related_to" to pig | pedal is "related_to" to limp | pedal is "etymologically_related_to" to metal_detector | pedal is "has_context" to phatness | pedal is "is_a" to stinger | pedal is "related_to" to hood | pedal is "is_a, distinct_from, related_to" to rock | pedal is "related_to" to rack | pedal is "related_to" to sub | pedal is "related_to" to cowgirl | pedal is "related_to, has_context" to draw | pedal is "related_to, has_context" to do | pedal is "related_to" to pump | pedal is "related_to" to channel | pedal is "has_context" to retrospectoscope | pedal is "related_to, has_property" to alive | pedal is "related_to" to medical_practitioner | pedal is "has_context" to beresque | pedal is "related_to" to smoke | pedal is "derived_from, related_to" to kick | pedal is "related_to" to ear_rape | pedal is "has_context, related_to" to drill | pedal is "part_of, related_to, has_context" to stem | pedal is "similar_to" to bork | pedal is "related_to, has_context" to bell | pedal is "has_context" to horse's_doovers | pedal is "has_context" to axe | pedal is "has_context" to embalming_fluid | pedal is "related_to" to file | pedal is "related_to" to other | pedal is "related_to" to effect | pedal is "has_context, manner_of" to snooker | pedal is "related_to" to skin | pedal is "related_to" to dough | pedal is "related_to" to magnetism | pedal is "distinct_from" to full | pedal is "has_context" to computing | pedal is "related_to" to sick | pedal is "related_to" to lump | pedal is "related_to" to prang | pedal is "related_to" to word | pedal is "related_to" to available | pedal is "related_to" to three | pedal is "related_to" to titanic | pedal is "related_to, is_a" to sucker | pedal is "related_to" to chill | pedal is "derived_from" to bikie | pedal is "related_to" to dime | pedal is "antonym" to weak | pedal is "related_to" to nuke | pedal is "related_to, etymologically_related_to" to chicken | pedal is "related_to" to black | pedal is "has_context, related_to" to wind | pedal is "has_context" to tinned_dog | pedal is "derived_from" to play_ponies | pedal is "entails, related_to, manner_of" to move | pedal is "related_to, has_context" to bumper | pedal is "related_to" to pone | pedal is "has_context, related_to" to bruise | pedal is "related_to" to weight_weenie | pedal is "has_subevent, distinct_from, related_to" to fight | pedal is "related_to, has_context" to lead | pedal is "related_to, made_of, has_last_subevent" to lock | pedal is "derived_from" to cankle | pedal is "has_context" to gravity | pedal is "related_to" to high | pedal is "has_context, related_to" to passage | pedal is "at_location" to street | pedal is "related_to" to trump | pedal is "related_to" to doof | pedal is "related_to" to shitmobile | pedal is "has_context" to la | pedal is "derived_from, related_to" to beach_break | pedal is "related_to" to gear | pedal is "has_context" to sundowner | pedal is "related_to" to jump | pedal is "has_context" to deacon | pedal is "derived_from" to ankle_biter | pedal is "has_context" to invasive | pedal is "has_context" to botany | pedal is "related_to, has_context" to soap | pedal is "related_to" to paper | pedal is "related_to, etymologically_related_to" to frail | pedal is "related_to, synonym" to depart | pedal is "related_to" to here | pedal is "has_context" to rapmeister | pedal is "related_to" to headlight | pedal is "has_context" to shredder | pedal is "has_context" to tom | pedal is "related_to" to can | pedal is "antonym" to weakness | pedal is "related_to" to law | pedal is "related_to, made_of, synonym, has_context" to pick | pedal is "has_context" to foo | pedal is "has_context" to pediatron | pedal is "has_context" to moronic | pedal is "related_to, has_context" to take | pedal is "related_to" to spurn | pedal is "related_to" to around | pedal is "related_to" to crowd | pedal is "related_to" to card | pedal is "has_context" to flutter | pedal is "related_to, desires" to dogs | pedal is "related_to" to degree | pedal is "has_context, capable_of, related_to" to close | pedal is "related_to" to general_term | pedal is "related_to" to cactus | pedal is "has_context" to caesar's_palace | pedal is "derived_from" to step_to | pedal is "related_to" to equalizer | pedal is "related_to" to patrol | pedal is "has_context" to attenuate | pedal is "related_to" to monkey_metal | pedal is "synonym" to crumb | pedal is "related_to" to pan | pedal is "related_to" to roundabout | pedal is "related_to" to silk | pedal is "at_location, related_to, synonym" to office | pedal is "has_context, related_to, is_a" to motion | pedal is "capable_of, related_to" to one | pedal is "antonym, derived_from, related_to" to arm | pedal is "related_to, is_a" to peen | pedal is "related_to" to location | pedal is "related_to" to bilge | pedal is "related_to" to chocolate | pedal is "capable_of, related_to" to kid | pedal is "related_to" to out | pedal is "related_to" to nut | pedal is "related_to" to rapacious | pedal is "related_to" to very | pedal is "related_to" to dynamometer | pedal is "related_to, has_context" to scale | pedal is "related_to" to clock | pedal is "related_to, antonym" to doing | pedal is "has_context" to scorchio | pedal is "has_context" to physics | pedal is "related_to" to ghetto_blaster | pedal is "related_to" to sweight | pedal is "related_to" to flight | pedal is "related_to" to jackhammer | pedal is "related_to, is_a" to stick | pedal is "has_context" to comes | pedal is "has_context" to pack | pedal is "has_context, used_for, related_to" to play | pedal is "related_to, is_a, has_context" to upstage | pedal is "has_context" to cutter | pedal is "is_a" to bus | pedal is "related_to" to typewriter | pedal is "has_context, distinct_from, related_to, manner_of, is_a" to pass | pedal is "related_to, used_for" to computer | pedal is "has_context" to cissy | pedal is "has_context" to milk_of_amnesia | pedal is "related_to" to fields | pedal is "related_to" to snedge | pedal is "is_a" to mouthpiece | pedal is "related_to" to goer | pedal is "related_to" to ram | pedal is "manner_of" to happen | pedal is "has_context" to mallcore | pedal is "has_context" to wasted | pedal is "has_context, related_to" to bridge | pedal is "derived_from, related_to" to board | pedal is "related_to" to grain | pedal is "related_to" to shiny | pedal is "related_to" to jake_brake | pedal is "related_to" to scuffer | pedal is "related_to, has_context" to general | pedal is "related_to" to cod | pedal is "related_to, has_context, causes_desire" to sing | pedal is "synonym" to meet | pedal is "has_a, used_for, desires" to people | pedal is "related_to" to cratedigger | pedal is "has_context" to wolf | pedal is "related_to, manner_of" to cricket | pedal is "has_context" to gathering | pedal is "has_context" to crook | pedal is "related_to" to chief | pedal is "related_to" to wane | pedal is "related_to" to race | pedal is "related_to" to river | pedal is "related_to" to class | pedal is "related_to" to sandbox | pedal is "related_to" to stronghand | pedal is "related_to, has_context" to sharp | pedal is "related_to" to plug | pedal is "has_context, related_to, made_of, is_a" to metal | pedal is "part_of" to bush | pedal is "has_context, related_to" to smooth | pedal is "related_to" to polish | pedal is "has_context" to body_snatcher | pedal is "related_to" to tablespoon | pedal is "related_to, is_a" to brain | pedal is "related_to" to cut_up | pedal is "related_to" to pop | pedal is "has_context" to zoology | pedal is "has_context" to fl | pedal is "derived_from" to kick_up_arse | pedal is "related_to" to forward | pedal is "related_to" to absolute_system | pedal is "etymologically_related_to, related_to" to stomp | pedal is "related_to, manner_of, has_context, causes_desire, has_subevent" to fiddle | pedal is "has_context, derived_from, related_to, is_a" to rock_music | pedal is "related_to, synonym" to rank_and_file | pedal is "related_to" to state | pedal is "has_context" to noisemonger | pedal is "related_to" to area | pedal is "related_to" to beak | pedal is "has_context" to dope | pedal is "related_to" to spoonbending | pedal is "related_to" to government | pedal is "related_to" to coin | pedal is "related_to" to rub | pedal is "related_to" to sometimes | pedal is "related_to" to pair | pedal is "has_context" to nautical | pedal is "has_context" to nad | pedal is "related_to" to turn_over | pedal is "related_to" to jerk | pedal is "related_to" to eighty_eight | pedal is "related_to" to stack | pedal is "related_to" to condition | pedal is "related_to" to too | pedal is "has_context" to phat | pedal is "related_to, has_context" to root | pedal is "has_context" to spearchucker | pedal is "derived_from" to breakbone | pedal is "has_context" to furry_muff | pedal is "antonym, made_of, is_a, part_of, at_location, distinct_from, related_to" to car | pedal is "derived_from, related_to" to bikeporn | pedal is "etymologically_related_to, related_to" to ring | pedal is "manner_of" to put_out | pedal is "related_to, manner_of, antonym, synonym, has_context" to run | pedal is "related_to, antonym, synonym, manner_of, etymologically_related_to, distinct_from" to work | pedal is "has_context" to no_wucking_furries | pedal is "related_to, manner_of" to have | pedal is "related_to, manner_of" to field | pedal is "has_context" to crit | pedal is "at_location, related_to, part_of" to body | pedal is "derived_from, related_to" to kicker | pedal is "synonym" to way | pedal is "related_to" to fathom | pedal is "etymologically_related_to, derived_from, related_to" to kick_off | pedal is "related_to" to muscle | pedal is "related_to" to walking_gentleman | pedal is "related_to" to ableness | pedal is "related_to" to level | pedal is "is_a, manner_of" to block | pedal is "related_to, has_context" to shake | pedal is "related_to" to pedrail | pedal is "related_to" to trotter | pedal is "related_to" to tripod | pedal is "related_to" to minute | pedal is "is_a" to loot | pedal is "related_to" to buttonhole | pedal is "related_to" to ankle | pedal is "has_context" to bashment | pedal is "form_of, derived_from, related_to, is_a, has_context" to foot | pedal is "related_to, is_a" to object | pedal is "related_to" to proggy | pedal is "related_to" to foot_pound_second | pedal is "has_context, related_to" to acid | pedal is "related_to" to salmon | pedal is "has_context" to abg | pedal is "derived_from" to kick_up | pedal is "has_context" to lap | pedal is "related_to" to dutch_hoe | pedal is "related_to, used_for" to horn | pedal is "related_to" to dynamism | pedal is "related_to" to army | pedal is "synonym, related_to" to might | pedal is "has_context" to truck_driver's_gear_change | pedal is "is_a" to rock_and_roll | pedal is "has_context" to v | pedal is "related_to" to twelve | pedal is "related_to" to jack | pedal is "related_to, antonym" to face | pedal is "related_to" to rosebud | pedal is "has_context, related_to" to driving | pedal is "related_to, synonym" to better | pedal is "has_context" to para | pedal is "related_to" to skeg | pedal is "related_to" to friction | pedal is "related_to, is_a" to influence | pedal is "has_context" to incarceritis | pedal is "has_context, related_to" to scrunge | pedal is "related_to" to clew | pedal is "has_context" to hardcore | pedal is "related_to, manner_of" to die | pedal is "has_context" to kinematics | pedal is "related_to, antonym" to weed | pedal is "related_to, has_context" to attack | pedal is "is_a, related_to" to handle | pedal is "has_context" to blog | pedal is "related_to, synonym" to electricity | pedal is "has_context" to mashup | pedal is "related_to" to spark | pedal is "related_to, synonym" to bunch | pedal is "related_to, is_a" to thing | pedal is "related_to" to ninja | pedal is "related_to" to mouth | pedal is "related_to" to tack | pedal is "has_context" to tuck | pedal is "related_to, has_context" to family | pedal is "is_a, related_to, manner_of, synonym" to use | pedal is "has_context, related_to, is_a" to bar | pedal is "is_a, receives_action" to bent | pedal is "related_to" to chip | pedal is "synonym" to business | pedal is "related_to, synonym, manner_of" to destroy | pedal is "related_to" to strength_might | pedal is "related_to" to chrome | pedal is "related_to" to chunder | pedal is "related_to, has_context" to cap | pedal is "at_location, related_to" to floor | pedal is "manner_of" to bandy | pedal is "related_to" to broadway | pedal is "related_to" to royalty | pedal is "has_context, is_a" to abc | pedal is "related_to, synonym" to bust | pedal is "derived_from" to squeeze_play | pedal is "related_to" to product | pedal is "has_context" to lance | pedal is "related_to, is_a" to profession | pedal is "related_to" to crocus | pedal is "has_context" to red_eye | pedal is "related_to" to torque | pedal is "related_to, part_of" to mile | pedal is "related_to" to well | pedal is "related_to" to dipper | pedal is "related_to" to magic | pedal is "has_context" to stab | pedal is "related_to" to steed | pedal is "related_to" to twist | pedal is "related_to, is_a, synonym" to pace | pedal is "is_a" to truck | pedal is "related_to" to sleep | pedal is "part_of, is_a, related_to" to unit | pedal is "related_to" to funktastic | pedal is "related_to" to bird_colonel | pedal is "has_context" to lick | pedal is "related_to" to compulsion | pedal is "part_of, related_to" to ship | pedal is "related_to" to membrane | pedal is "desires" to horses | pedal is "related_to" to snapper | pedal is "related_to, has_context" to retropropulsion | pedal is "related_to" to crunkmeister | pedal is "related_to" to joystick | pedal is "related_to" to impetus | pedal is "manner_of, has_context, used_for, derived_from" to drum | pedal is "has_context" to mc | pedal is "has_context, related_to" to grinder | pedal is "related_to" to manhandle | pedal is "related_to" to fixing | pedal is "related_to" to mud_kicker | pedal is "related_to" to belly | pedal is "has_context" to tear_it_up | pedal is "related_to" to knob | pedal is "related_to" to stopper | pedal is "related_to, used_for" to pill | pedal is "related_to" to energy | pedal is "related_to" to chemical | pedal is "has_context" to rabiz | pedal is "related_to" to cant | pedal is "related_to" to digits | pedal is "related_to" to hippodrome | pedal is "related_to, has_context" to type | pedal is "derived_from" to footslut | pedal is "has_context" to reliever | pedal is "derived_from" to hong_kong_foot | pedal is "related_to" to casting_couch | pedal is "is_a" to softball | pedal is "antonym" to random | pedal is "synonym" to get_out | pedal is "related_to, is_a" to game | pedal is "related_to" to count | pedal is "related_to" to blech | pedal is "antonym, related_to, synonym" to soft | pedal is "related_to" to resistance | pedal is "has_context" to c | pedal is "related_to" to ebony | pedal is "related_to" to science | pedal is "synonym" to cue | pedal is "related_to" to cease | pedal is "related_to" to footsie | pedal is "related_to" to twenty | pedal is "related_to" to legal | pedal is "related_to" to evil | pedal is "related_to" to salvo | pedal is "used_for, related_to" to ball | pedal is "has_context" to carte_soleil | pedal is "has_context" to aviation | pedal is "related_to" to clown | pedal is "related_to, not_desires" to fish | pedal is "related_to" to rope | pedal is "has_context, related_to" to term | pedal is "related_to" to road_iron | pedal is "related_to, manner_of" to fly | pedal is "related_to" to craft | pedal is "has_context" to scut_monkey | pedal is "has_context, used_for, part_of" to pool | pedal is "related_to" to impetuously | pedal is "related_to" to ringnut | pedal is "has_context" to lac | pedal is "related_to" to surface | pedal is "has_context, related_to" to jingle | pedal is "related_to" to bedfordshire | pedal is "related_to" to egg | pedal is "related_to" to jake_leg | pedal is "used_for, derived_from, distinct_from, related_to, antonym" to accelerate | pedal is "has_context" to compound | pedal is "related_to" to geography | pedal is "derived_from" to litrebike | pedal is "has_context" to blackwash | pedal is "related_to" to charge | pedal is "related_to" to nose | pedal is "related_to" to dog_bone | pedal is "has_context" to idiot | pedal is "related_to" to self_existent | pedal is "derived_from, related_to" to go | pedal is "derived_from, related_to, synonym, has_context, distinct_from" to gas | pedal is "related_to" to loud | pedal is "is_a" to juggernaut | pedal is "derived_from, related_to, is_a" to horseplay | pedal is "related_to" to bread | pedal is "related_to" to cowboy | pedal is "has_context" to fap | pedal is "related_to" to pad | pedal is "used_for, related_to, is_a" to organ | pedal is "related_to" to wheels | pedal is "related_to, is_a, has_context" to band | pedal is "related_to" to angel | pedal is "has_context, related_to, manner_of" to travel | pedal is "has_context" to affinity | pedal is "synonym" to blooper | pedal is "related_to" to between | pedal is "is_a" to blocker | pedal is "has_context, related_to" to bank | pedal is "derived_from" to kick_it | pedal is "synonym, manner_of" to bet | pedal is "related_to" to like | pedal is "antonym, related_to, has_context" to finger | pedal is "related_to" to crawfish | pedal is "has_context, related_to" to tip | pedal is "related_to" to walking_lady | pedal is "has_context" to british | pedal is "has_context" to katycat | pedal is "related_to" to boris_bike | pedal is "related_to" to feel | pedal is "related_to" to dish | pedal is "related_to" to tabnab | pedal is "has_context, related_to" to fill | pedal is "has_context" to cylindroid | pedal is "related_to, manner_of" to drive | pedal is "related_to" to spoon | pedal is "related_to, synonym" to romp | pedal is "has_context" to abe | pedal is "related_to, is_a, manner_of" to end | pedal is "related_to" to elbow | pedal is "related_to" to human | pedal is "is_a" to physical_phenomenon | pedal is "related_to" to flipper | pedal is "has_context, related_to" to drop | pedal is "related_to" to shovel | pedal is "related_to" to wax | pedal is "has_context" to funky | pedal is "related_to" to go_ballistic | pedal is "related_to" to mad | pedal is "has_context, is_a" to brush | pedal is "has_context" to jam | pedal is "has_context, related_to" to large | pedal is "has_context" to cheez | pedal is "has_context" to normal_for_norfolk | pedal is "has_context" to liquid_laugh | pedal is "related_to" to rule | pedal is "is_a" to fencing | pedal is "related_to" to nard | pedal is "related_to" to herb | pedal is "related_to" to giving | pedal is "distinct_from, related_to, antonym" to hand | pedal is "related_to, manner_of, has_property, made_of, is_a, has_context, at_location" to sound | pedal is "related_to, has_context" to truss | pedal is "has_context" to strap | pedal is "related_to" to angle | pedal is "has_context" to flk | pedal is "is_a" to butt | pedal is "is_a" to hygiene | pedal is "related_to" to flake | pedal is "related_to, is_a" to bud | pedal is "related_to, synonym" to violate | pedal is "related_to, has_context" to telltale | pedal is "has_context" to scotland | pedal is "has_context" to baseball | pedal is "related_to" to bands | pedal is "related_to" to gem | pedal is "has_context" to funkadelic | pedal is "derived_from, related_to, manner_of" to drop_kick | pedal is "related_to, is_a" to bottom | pedal is "has_context" to sad | pedal is "related_to" to attraction | pedal is "entails, used_for, has_prerequisite, capable_of, related_to, is_a, synonym, manner_of" to walk | pedal is "related_to, has_context" to set | pedal is "related_to, has_context, used_for, has_prerequisite" to movement | pedal is "related_to" to pull | pedal is "related_to, antonym" to top | pedal is "related_to" to fool | pedal is "related_to" to assembly | pedal is "is_a" to hunk | pedal is "related_to" to tango | pedal is "synonym" to leg_it | pedal is "etymologically_related_to, derived_from, is_a, synonym" to bike | pedal is "has_context, related_to" to pit | pedal is "has_context" to stat | pedal is "related_to" to autogiro | pedal is "related_to" to grass | pedal is "related_to, is_a" to frame | pedal is "related_to" to objects | pedal is "related_to" to elemental | pedal is "related_to" to bop | pedal is "has_context, related_to" to point | pedal is "derived_from, related_to" to back | pedal is "related_to, has_context" to space | pedal is "related_to" to gee | pedal is "related_to, synonym" to link | pedal is "related_to, synonym, manner_of, causes" to break_in | pedal is "related_to, manner_of, antonym, has_context" to hit | pedal is "has_context" to pussy | pedal is "has_context" to formal | pedal is "has_context" to pfo | pedal is "related_to, is_a, has_context" to key | pedal is "has_context" to primary | pedal is "related_to" to vibe_out | pedal is "etymologically_related_to" to chick | pedal is "related_to, is_a, has_context" to action | pedal is "related_to, is_a, synonym" to toy | pedal is "related_to" to gross | pedal is "related_to" to wire | pedal is "related_to, manner_of, is_a, has_context" to jazz | pedal is "related_to" to opening | pedal is "related_to" to arse_end | pedal is "has_context" to creps | pedal is "has_context" to troll | pedal is "related_to" to distance | pedal is "related_to" to spinner | pedal is "related_to" to juicer | pedal is "antonym, has_context, distinct_from" to plastic | pedal is "related_to" to bugger | pedal is "related_to" to blooter | pedal is "has_context, derived_from, related_to" to player | pedal is "related_to" to rod | pedal is "related_to, made_of" to spring | pedal is "related_to" to progress | pedal is "related_to" to two | pedal is "related_to" to safe | pedal is "related_to" to up | pedal is "derived_from, related_to" to push | pedal is "related_to, is_a" to blow | pedal is "has_context" to dub | pedal is "has_context" to multicolour_yawn | pedal is "is_a" to nub | pedal is "related_to" to proper | pedal is "has_context" to chronic | pedal is "related_to, synonym, has_context" to cycle | pedal is "related_to" to magnet | pedal is "has_context" to contraction | pedal is "related_to" to single | pedal is "has_context" to northern_england | pedal is "related_to" to size | pedal is "has_context" to cupper | pedal is "related_to" to homes | pedal is "has_context" to fit | pedal is "has_context, related_to" to physical | pedal is "related_to, has_context" to hip | pedal is "related_to" to paddle | pedal is "has_context" to fade | pedal is "related_to" to chicken_colonel | pedal is "related_to" to going | pedal is "has_context" to trap | pedal is "related_to" to mount | pedal is "derived_from, related_to, manner_of" to propel | pedal is "has_context" to i_don't_fancy_yours | pedal is "has_context" to pull_off | pedal is "related_to" to ear | pedal is "related_to" to dis | pedal is "related_to" to include | pedal is "related_to" to log | pedal is "has_context" to bag | pedal is "related_to, antonym, synonym" to hold | pedal is "related_to, is_a, has_context" to grade | pedal is "related_to" to juice | pedal is "related_to, has_property" to bad | pedal is "has_context" to wanker | pedal is "manner_of, has_context, related_to" to smash | pedal is "capable_of, has_context, etymologically_related_to" to crash | pedal is "related_to" to shoehorn | pedal is "related_to" to hole | pedal is "related_to, is_a, manner_of" to punt | pedal is "has_context" to sprog | pedal is "has_context" to x | pedal is "has_context" to metric | pedal is "related_to" to difficult | pedal is "related_to" to hydrodynamic | pedal is "has_context" to pimp | pedal is "related_to" to electric | pedal is "related_to" to crumbly | pedal is "has_context" to unplugged | pedal is "related_to" to super | pedal is "related_to" to canal | pedal is "related_to" to lug | pedal is "related_to, synonym" to dicey | pedal is "has_context" to surgery | pedal is "related_to, similar_to" to horse | pedal is "derived_from, related_to" to underfoot | pedal is "has_context" to scope | pedal is "manner_of, has_context" to rag | pedal is "related_to" to fall | pedal is "form_of, related_to" to kicked | pedal is "has_context" to forces | pedal is "related_to" to room | pedal is "has_context" to hambone | pedal is "derived_from" to overpower | pedal is "receives_action" to tired | pedal is "related_to" to belt | pedal is "related_to, synonym, has_context" to measure | pedal is "related_to, is_a" to iron | pedal is "has_context" to jungle_fever | pedal is "related_to" to shaft | pedal is "related_to" to notch | pedal is "related_to" to kernel | pedal is "related_to" to flare | pedal is "form_of, related_to, similar_to" to broken | pedal is "related_to" to jungle | pedal is "related_to" to stretch | pedal is "at_location, related_to, synonym, manner_of" to boot | pedal is "related_to, has_context" to whip | pedal is "related_to" to hack | pedal is "has_context" to bleeding | pedal is "has_prerequisite" to straddle | pedal is "related_to" to hardware | pedal is "has_context, related_to" to post | pedal is "related_to" to number | pedal is "has_context" to corporation | pedal is "has_context" to scut | pedal is "related_to, is_a" to tool | pedal is "related_to" to power | pedal is "has_context" to zebra | pedal is "has_context" to have_painters_in | pedal is "derived_from, related_to, has_context" to football | pedal is "related_to" to input_arm | pedal is "related_to, synonym, has_context" to drama | pedal is "derived_from" to crank | pedal is "related_to" to kinodynamic | pedal is "related_to" to paste | pedal is "related_to" to surprise | pedal is "related_to" to read | pedal is "related_to" to sleeve | pedal is "has_context" to quincy | pedal is "manner_of" to backstop | pedal is "has_context, related_to" to subject | pedal is "related_to" to chin | pedal is "related_to" to duck | pedal is "has_context" to wail | pedal is "has_context" to mf | pedal is "has_context, part_of, related_to, is_a" to note | pedal is "related_to, has_context" to transfer | pedal is "related_to" to rockness | pedal is "related_to" to flash | pedal is "related_to</t>
+  </si>
+  <si>
+    <t>clockwise is "related_to" to there | clockwise is "is_a" to start | clockwise is "related_to" to big | clockwise is "related_to" to door | clockwise is "related_to" to detort | clockwise is "distinct_from, antonym, related_to" to front | clockwise is "has_context" to geometry | clockwise is "related_to" to touch | clockwise is "synonym, related_to" to counterclockwise | clockwise is "at_location" to table | clockwise is "related_to" to proprioception | clockwise is "has_context" to mathematics | clockwise is "related_to" to instrument | clockwise is "related_to" to electrical | clockwise is "related_to" to wave | clockwise is "related_to, synonym" to dextrorotatory | clockwise is "related_to" to contraversion | clockwise is "related_to" to neck | clockwise is "related_to" to screw | clockwise is "distinct_from, antonym" to straight | clockwise is "antonym" to current | clockwise is "related_to" to animal | clockwise is "related_to" to deflection | clockwise is "related_to" to moral_compass | clockwise is "related_to, derived_from" to return | clockwise is "derived_from" to turnkey | clockwise is "derived_from, is_a" to feedback | clockwise is "antonym" to claim | clockwise is "related_to, synonym" to reverse | clockwise is "manner_of, related_to, synonym" to change | clockwise is "related_to" to limit | clockwise is "related_to" to whack | clockwise is "related_to" to exchange | clockwise is "related_to" to steer | clockwise is "related_to" to devise | clockwise is "is_a, related_to" to machine | clockwise is "related_to" to introversion | clockwise is "related_to" to news | clockwise is "related_to" to corners | clockwise is "is_a, related_to" to book | clockwise is "derived_from" to backflow | clockwise is "related_to" to venue | clockwise is "related_to" to know | clockwise is "antonym" to main | clockwise is "is_a" to ruff | clockwise is "related_to" to make | clockwise is "derived_from" to sun | clockwise is "related_to, part_of" to small | clockwise is "related_to" to visit | clockwise is "synonym" to act | clockwise is "related_to" to stroke | clockwise is "related_to" to pattern | clockwise is "related_to" to lay | clockwise is "has_context" to us | clockwise is "related_to" to exproprioception | clockwise is "related_to" to order | clockwise is "related_to" to noise | clockwise is "derived_from" to backman | clockwise is "related_to" to orientation | clockwise is "is_a" to trick | clockwise is "related_to" to boy | clockwise is "related_to" to warp | clockwise is "related_to" to course | clockwise is "related_to" to clear | clockwise is "related_to" to strike | clockwise is "related_to" to castle | clockwise is "related_to" to conscience | clockwise is "related_to" to strong | clockwise is "related_to" to dorsopleural | clockwise is "related_to" to stocking | clockwise is "related_to" to sideslip | clockwise is "manner_of" to do | clockwise is "is_a" to favor | clockwise is "related_to" to other | clockwise is "related_to" to money | clockwise is "manner_of, related_to, synonym" to flip | clockwise is "has_context" to computing | clockwise is "related_to" to eye | clockwise is "related_to" to hind | clockwise is "related_to" to serpentine | clockwise is "related_to" to stool | clockwise is "manner_of" to deviate | clockwise is "is_a, related_to" to activity | clockwise is "related_to" to measurement | clockwise is "related_to" to reason | clockwise is "related_to, synonym, is_a, manner_of" to move | clockwise is "is_a" to lead | clockwise is "related_to" to street | clockwise is "related_to" to turtle | clockwise is "related_to" to normal | clockwise is "related_to" to edges | clockwise is "synonym" to call_on | clockwise is "related_to" to take | clockwise is "is_a, related_to" to part | clockwise is "related_to" to around | clockwise is "at_location" to store | clockwise is "manner_of" to caracole | clockwise is "related_to" to shade | clockwise is "manner_of, related_to" to throw | clockwise is "related_to" to cars | clockwise is "related_to" to sequence | clockwise is "at_location" to knife | clockwise is "related_to" to dextroversion | clockwise is "related_to" to right_left | clockwise is "at_location" to office | clockwise is "related_to" to motion | clockwise is "derived_from, form_of, related_to" to turned | clockwise is "related_to" to location | clockwise is "derived_from" to sinistrodextral | clockwise is "related_to" to epaulement | clockwise is "related_to" to contrary | clockwise is "derived_from" to backaction | clockwise is "is_a, related_to, synonym" to support | clockwise is "has_context" to physics | clockwise is "etymologically_related_to" to righteous | clockwise is "related_to" to shows | clockwise is "related_to, synonym, similar_to" to right_handed | clockwise is "related_to" to preposition | clockwise is "synonym" to determine | clockwise is "synonym" to play | clockwise is "related_to" to bigger | clockwise is "related_to" to pass | clockwise is "related_to" to five | clockwise is "related_to" to general | clockwise is "used_for" to people | clockwise is "has_context" to cricket | clockwise is "related_to" to crook | clockwise is "is_a" to river | clockwise is "related_to" to sharp | clockwise is "related_to" to character | clockwise is "related_to" to color | clockwise is "related_to" to dextro | clockwise is "related_to" to perfection | clockwise is "related_to" to decision | clockwise is "related_to, distinct_from, antonym" to forward | clockwise is "related_to" to misderive | clockwise is "related_to, synonym" to smell | clockwise is "related_to" to area | clockwise is "related_to" to askew | clockwise is "related_to" to rub | clockwise is "has_context" to nautical | clockwise is "manner_of" to aim | clockwise is "related_to" to justly | clockwise is "derived_from" to backup | clockwise is "related_to" to work | clockwise is "related_to" to ability | clockwise is "related_to, part_of" to body | clockwise is "related_to" to obvert | clockwise is "related_to" to torsion | clockwise is "related_to" to shake | clockwise is "has_context" to nonstandard | clockwise is "related_to" to foot | clockwise is "manner_of" to discolor | clockwise is "manner_of" to port | clockwise is "synonym" to rebel | clockwise is "antonym, related_to, part_of, manner_of, has_a" to face | clockwise is "related_to, antonym, has_subevent" to driving | clockwise is "related_to" to alarm | clockwise is "related_to" to handle | clockwise is "is_a" to attack | clockwise is "related_to" to record | clockwise is "related_to" to logic | clockwise is "related_to" to mouth | clockwise is "related_to" to chip | clockwise is "related_to" to purple | clockwise is "related_to" to opposite | clockwise is "related_to" to row | clockwise is "at_location, related_to" to pain | clockwise is "related_to" to earth | clockwise is "used_for" to decoration | clockwise is "synonym, antonym, manner_of, related_to" to twist | clockwise is "related_to" to payment | clockwise is "manner_of" to leaf | clockwise is "related_to" to rightways | clockwise is "related_to" to reserve | clockwise is "derived_from" to skewback | clockwise is "synonym" to change_by_reversal | clockwise is "related_to" to recline | clockwise is "related_to" to askance | clockwise is "related_to" to thought | clockwise is "related_to" to command | clockwise is "related_to" to feeling | clockwise is "related_to" to anchor | clockwise is "related_to" to religion | clockwise is "related_to" to circular | clockwise is "related_to" to dorsolateral | clockwise is "related_to, derived_from" to clock_tower | clockwise is "related_to" to canescent | clockwise is "related_to, distinct_from, antonym" to forth | clockwise is "related_to" to retention | clockwise is "related_to, has_context" to game | clockwise is "related_to, distinct_from, antonym" to middle | clockwise is "related_to" to with | clockwise is "is_a" to linebacker | clockwise is "related_to, synonym" to complete | clockwise is "related_to" to opinion | clockwise is "related_to" to regret | clockwise is "has_context" to legal | clockwise is "related_to" to falsify | clockwise is "related_to" to circle | clockwise is "related_to" to slew | clockwise is "related_to" to go_back | clockwise is "related_to" to world | clockwise is "antonym, is_a, related_to, distinct_from" to watch | clockwise is "derived_from, related_to" to righty | clockwise is "derived_from" to dextrally | clockwise is "related_to" to hands | clockwise is "distinct_from" to profile | clockwise is "related_to" to nose | clockwise is "related_to, similar_to" to dexter | clockwise is "related_to, synonym, antonym" to go | clockwise is "synonym" to back_up | clockwise is "is_a, related_to" to bat | clockwise is "antonym" to stay | clockwise is "related_to" to left_right | clockwise is "manner_of, related_to" to travel | clockwise is "related_to" to bank | clockwise is "related_to" to again | clockwise is "related_to" to like | clockwise is "related_to" to figure | clockwise is "has_context" to british | clockwise is "related_to, synonym" to feel | clockwise is "related_to" to drive | clockwise is "related_to" to season | clockwise is "related_to" to dollar | clockwise is "related_to" to large | clockwise is "related_to, similar_to" to right_hand | clockwise is "related_to" to flop | clockwise is "related_to" to wallet | clockwise is "related_to" to hand | clockwise is "related_to" to sound | clockwise is "related_to" to chest | clockwise is "related_to" to angle | clockwise is "related_to" to introverted | clockwise is "related_to, antonym" to sinistral | clockwise is "is_a" to bottom | clockwise is "related_to" to seed | clockwise is "synonym" to remote | clockwise is "is_a" to walk | clockwise is "related_to, synonym" to backwards | clockwise is "is_a" to top | clockwise is "related_to, part_of" to movement | clockwise is "related_to" to retreat | clockwise is "has_context" to mining | clockwise is "antonym, related_to" to back | clockwise is "related_to" to point | clockwise is "manner_of" to gee | clockwise is "related_to" to hit | clockwise is "related_to" to key | clockwise is "has_context" to canada | clockwise is "related_to" to weave | clockwise is "related_to, synonym" to action | clockwise is "related_to" to dominance | clockwise is "manner_of, related_to" to corner | clockwise is "derived_from" to cornerback | clockwise is "related_to" to nice | clockwise is "related_to" to lose | clockwise is "manner_of" to strengthen | clockwise is "is_a, related_to, synonym" to sight | clockwise is "related_to" to scanno | clockwise is "related_to" to deviation | clockwise is "related_to" to two | clockwise is "related_to" to nature | clockwise is "related_to" to proper | clockwise is "related_to" to common | clockwise is "related_to" to rightfully | clockwise is "related_to" to fear | clockwise is "related_to, antonym" to going | clockwise is "related_to" to ear | clockwise is "manner_of" to transmit | clockwise is "related_to" to googly | clockwise is "related_to" to fake | clockwise is "related_to" to center | clockwise is "related_to" to crash | clockwise is "derived_from" to backspace | clockwise is "related_to" to spot | clockwise is "related_to" to translate | clockwise is "related_to" to everything | clockwise is "related_to" to playing | clockwise is "is_a" to turn_around | clockwise is "related_to" to consulship | clockwise is "related_to" to horse | clockwise is "related_to" to distinctive | clockwise is "etymologically_related_to, related_to" to prone | clockwise is "derived_from, related_to" to rightie | clockwise is "related_to" to trepopnea | clockwise is "related_to" to measure | clockwise is "related_to" to angles | clockwise is "related_to" to introversive | clockwise is "related_to" to look | clockwise is "related_to" to bitter | clockwise is "synonym, related_to" to rear | clockwise is "related_to" to swim | clockwise is "related_to" to tool | clockwise is "related_to, is_a" to device | clockwise is "related_to" to refuse | clockwise is "related_to" to backhander | clockwise is "related_to" to sideways | clockwise is "related_to" to read | clockwise is "antonym" to stand | clockwise is "related_to" to counterfeit | clockwise is "related_to" to inverse | clockwise is "related_to, antonym" to cover | clockwise is "related_to" to snap | clockwise is "related_to" to hide | clockwise is "related_to" to heaven | clockwise is "related_to" to diagonal | clockwise is "has_context" to heading | clockwise is "related_to" to listen | clockwise is "is_a" to position | clockwise is "related_to" to dancing | clockwise is "related_to" to rest | clockwise is "at_location, related_to" to tail | clockwise is "derived_from, related_to" to backshot | clockwise is "related_to" to rightly | clockwise is "manner_of, related_to" to about_face | clockwise is "manner_of" to lie | clockwise is "at_location" to house | clockwise is "related_to" to correctly | clockwise is "related_to" to trend | clockwise is "used_for, related_to" to wheel | clockwise is "is_a" to diversion | clockwise is "has_context" to uk | clockwise is "related_to" to on | clockwise is "related_to" to quarter | clockwise is "manner_of" to send | clockwise is "related_to" to debt | clockwise is "related_to" to arrow | clockwise is "related_to" to pitch | clockwise is "related_to" to page | clockwise is "related_to" to gate | clockwise is "related_to" to worn | clockwise is "related_to" to translation | clockwise is "related_to" to line | clockwise is "related_to" to bed | clockwise is "related_to" to float | clockwise is "related_to" to preference | clockwise is "related_to" to sock | clockwise is "related_to" to piece | clockwise is "related_to, synonym" to become | clockwise is "related_to" to behind | clockwise is "related_to" to retort | clockwise is "related_to" to symbol | clockwise is "is_a" to sensitivity | clockwise is "related_to" to experience | clockwise is "antonym" to reach | clockwise is "manner_of, related_to" to turn | clockwise is "related_to" to steel | clockwise is "related_to" to stance | clockwise is "part_of, related_to" to chair | clockwise is "related_to" to tortuous | clockwise is "manner_of" to finance | clockwise is "related_to" to playing_games | clockwise is "related_to" to future | clockwise is "related_to" to garden | clockwise is "related_to" to road | clockwise is "related_to" to pot | clockwise is "has_context" to sport | clockwise is "related_to, distinct_from, antonym" to side | clockwise is "related_to" to perspective | clockwise is "related_to" to dextrad | clockwise is "has_context" to slang | clockwise is "related_to" to yard | clockwise is "related_to" to half | clockwise is "related_to" to retro | clockwise is "related_to" to oscillate | clockwise is "at_location" to desk | clockwise is "related_to" to rightward | clockwise is "related_to, manner_of" to roll | clockwise is "related_to" to head | clockwise is "is_a" to down | clockwise is "related_to" to counterwheel | clockwise is "related_to" to description | clockwise is "related_to" to whirl | clockwise is "at_location, related_to" to wall | clockwise is "manner_of" to form | clockwise is "related_to" to box_compass | clockwise is "related_to" to wend | clockwise is "related_to" to sundial | clockwise is "is_a, related_to" to left | clockwise is "is_a, related_to, etymologically_related_to" to force | clockwise is "synonym" to go_bad | clockwise is "related_to" to usually | clockwise is "related_to, manner_of" to get | clockwise is "part_of" to torso | clockwise is "related_to" to air | clockwise is "antonym" to leave | clockwise is "related_to" to back_and_forth | clockwise is "related_to, antonym" to left_handed | clockwise is "related_to" to taking | clockwise is "related_to" to off | clockwise is "related_to" to lord | clockwise is "related_to" to mouse | clockwise is "related_to, similar_to" to dextral | clockwise is "related_to" to slap | clockwise is "related_to, derived_from" to backface | clockwise is "related_to" to disorientation | clockwise is "manner_of, related_to" to switch | clockwise is "has_context" to chemistry | clockwise is "related_to" to memory | clockwise is "related_to" to empire | clockwise is "related_to" to in | clockwise is "related_to" to brace | clockwise is "related_to" to off_side | clockwise is "related_to" to initial | clockwise is "derived_from" to backcast | clockwise is "synonym" to bout | clockwise is "related_to, synonym" to time | clockwise is "derived_from" to slotback | clockwise is "related_to" to shoulder | clockwise is "related_to, etymologically_related_to" to bacon | clockwise is "related_to" to make_right | clockwise is "related_to" to signal | clockwise is "related_to, derived_from, is_a" to right | clockwise is "derived_from, related_to" to backside | clockwise is "related_to" to far | clockwise is "has_context" to poker | clockwise is "antonym" to away | clockwise is "related_to" to yes | clockwise is "related_to" to verse | clockwise is "related_to" to style | clockwise is "related_to" to direction | clockwise is "manner_of" to operate | clockwise is "related_to" to movable | clockwise is "related_to" to keyhole | clockwise is "related_to" to heat | left is "related_to" to there | left is "related_to, is_a" to start | left is "related_to" to big | left is "related_to" to door | left is "related_to" to detort | left is "distinct_from, related_to, antonym, is_a" to front | left is "has_context, related_to" to geometry | left is "related_to, manner_of" to touch | left is "related_to, similar_to" to counterclockwise | left is "at_location, related_to, part_of" to table | left is "related_to" to proprioception | left is "has_context, related_to" to mathematics | left is "related_to" to instrument | left is "related_to" to electrical | left is "related_to" to wave | left is "related_to, antonym, synonym" to dextrorotatory | left is "related_to" to contraversion | left is "related_to" to neck | left is "related_to" to screw | left is "distinct_from, related_to, antonym, has_context" to straight | left is "related_to" to current | left is "has_context, related_to" to animal | left is "related_to" to deflection | left is "related_to" to moral_compass | left is "related_to, antonym, is_a, derived_from" to return | left is "derived_from" to turnkey | left is "related_to" to feedback | left is "related_to, is_a" to claim | left is "distinct_from, related_to, antonym, is_a" to reverse | left is "related_to, antonym, synonym, manner_of" to change | left is "related_to" to limit | left is "related_to" to whack | left is "etymologically_related_to, related_to, synonym" to exchange | left is "has_subevent, related_to, has_prerequisite" to steer | left is "related_to" to devise | left is "has_context" to machine | left is "related_to" to introversion | left is "related_to" to news | left is "related_to" to corners | left is "at_location, related_to, is_a, synonym" to book | left is "related_to" to backflow | left is "related_to" to venue | left is "distinct_from" to know | left is "related_to" to main | left is "is_a" to ruff | left is "related_to, synonym, manner_of, has_context" to make | left is "at_location" to sun | left is "related_to, antonym" to small | left is "related_to" to visit | left is "related_to, is_a, synonym" to act | left is "related_to, synonym, manner_of" to stroke | left is "related_to" to pattern | left is "related_to, synonym" to lay | left is "has_context" to us | left is "related_to" to exproprioception | left is "synonym, derived_from, related_to" to order | left is "related_to, antonym" to noise | left is "related_to" to backman | left is "related_to, is_a" to orientation | left is "related_to, is_a" to trick | left is "related_to" to boy | left is "related_to" to warp | left is "related_to, is_a, synonym" to course | left is "related_to, manner_of" to clear | left is "related_to" to strike | left is "related_to" to castle | left is "related_to" to conscience | left is "antonym" to strong | left is "related_to" to dorsopleural | left is "related_to" to stocking | left is "derived_from, related_to" to sideslip | left is "related_to, manner_of, antonym" to do | left is "is_a" to favor | left is "form_of, related_to" to other | left is "related_to, antonym, is_a" to money | left is "related_to, synonym, manner_of, has_context" to flip | left is "has_context" to computing | left is "related_to" to eye | left is "related_to" to hind | left is "related_to" to serpentine | left is "is_a" to stool | left is "related_to, manner_of" to deviate | left is "distinct_from, related_to, antonym, is_a" to activity | left is "related_to" to measurement | left is "related_to" to reason | left is "distinct_from, related_to, is_a, synonym, manner_of" to move | left is "related_to, is_a, synonym, manner_of" to lead | left is "capable_of, related_to" to street | left is "related_to" to turtle | left is "synonym, similar_to, related_to, antonym" to normal | left is "distinct_from, related_to" to edges | left is "synonym" to call_on | left is "related_to, synonym" to take | left is "etymologically_related_to, related_to, antonym, is_a, synonym" to part | left is "related_to, antonym" to around | left is "related_to" to store | left is "related_to, manner_of" to caracole | left is "related_to, manner_of" to shade | left is "related_to, manner_of" to throw | left is "related_to" to cars | left is "related_to, is_a" to sequence | left is "related_to" to knife | left is "related_to" to dextroversion | left is "related_to" to right_left | left is "at_location, related_to, synonym" to office | left is "distinct_from, related_to, antonym, is_a" to motion | left is "derived_from, form_of, related_to" to turned | left is "related_to, is_a" to location | left is "related_to, antonym" to sinistrodextral | left is "related_to" to epaulement | left is "related_to" to contrary | left is "related_to" to backaction | left is "related_to, is_a" to support | left is "has_context" to physics | left is "derived_from" to righteous | left is "related_to" to shows | left is "related_to, antonym" to right_handed | left is "derived_from, related_to" to preposition | left is "synonym" to determine | left is "has_last_subevent, related_to, antonym, synonym, manner_of" to play | left is "related_to" to bigger | left is "related_to, manner_of, is_a, synonym" to pass | left is "related_to" to five | left is "related_to" to general | left is "has_a, related_to" to people | left is "has_context, related_to" to cricket | left is "related_to" to crook | left is "related_to" to river | left is "related_to" to sharp | left is "related_to" to character | left is "related_to, manner_of" to color | left is "related_to, antonym" to dextro | left is "related_to" to perfection | left is "has_context, related_to" to decision | left is "related_to, is_a" to forward | left is "related_to" to misderive | left is "related_to" to smell | left is "related_to, is_a" to area | left is "related_to" to askew | left is "related_to" to rub | left is "has_context" to nautical | left is "related_to, synonym, manner_of" to aim | left is "synonym" to justly | left is "related_to, synonym" to backup | left is "related_to, antonym, manner_of, causes_desire, distinct_from" to work | left is "is_a, related_to" to ability | left is "related_to, antonym, part_of" to body | left is "related_to" to obvert | left is "related_to" to torsion | left is "related_to, manner_of" to shake | left is "has_context" to nonstandard | left is "distinct_from, form_of, related_to, antonym" to foot | left is "manner_of" to discolor | left is "related_to, synonym, manner_of" to port | left is "synonym" to rebel | left is "related_to, manner_of, synonym" to face | left is "has_context, has_subevent, form_of, derived_from, related_to, antonym, synonym" to driving | left is "related_to, is_a" to alarm | left is "synonym, derived_from, related_to" to handle | left is "related_to, antonym, is_a, synonym" to attack | left is "related_to" to record | left is "has_context" to logic | left is "related_to" to mouth | left is "has_context" to chip | left is "has_context, related_to" to purple | left is "related_to" to opposite | left is "related_to" to row | left is "related_to, has_subevent" to pain | left is "related_to" to earth | left is "related_to" to decoration | left is "related_to, antonym, synonym, manner_of" to twist | left is "antonym" to payment | left is "related_to, manner_of, synonym, etymologically_related_to" to leaf | left is "derived_from" to rightways | left is "related_to" to reserve | left is "related_to" to skewback | left is "synonym, manner_of" to change_by_reversal | left is "related_to" to recline | left is "related_to" to askance | left is "related_to" to thought | left is "related_to" to command | left is "related_to" to feeling | left is "related_to" to anchor | left is "related_to" to religion | left is "related_to" to circular | left is "derived_from, related_to" to dorsolateral | left is "related_to" to clock_tower | left is "related_to" to canescent | left is "related_to" to forth | left is "related_to" to retention | left is "related_to, has_property, has_context" to game | left is "distinct_from, related_to, antonym" to middle | left is "related_to" to with | left is "related_to" to linebacker | left is "related_to, antonym, synonym" to complete | left is "related_to, is_a" to opinion | left is "related_to" to regret | left is "has_context" to legal | left is "related_to" to falsify | left is "related_to" to circle | left is "related_to" to slew | left is "related_to" to go_back | left is "related_to" to world | left is "related_to" to watch | left is "derived_from, related_to, antonym" to righty | left is "related_to" to dextrally | left is "related_to, antonym, has_context, distinct_from, form_of" to hands | left is "related_to" to profile | left is "related_to" to nose | left is "related_to, antonym, synonym" to dexter | left is "etymologically_related_to, distinct_from, form_of, related_to, antonym, synonym" to go | left is "related_to" to back_up | left is "is_a, related_to" to bat | left is "distinct_from, related_to, antonym, synonym" to stay | left is "related_to, antonym" to left_right | left is "has_first_subevent, related_to, manner_of" to travel | left is "is_a, related_to" to bank | left is "related_to" to again | left is "related_to" to like | left is "related_to" to figure | left is "has_context" to british | left is "related_to" to feel | left is "related_to, antonym" to drive | left is "related_to" to season | left is "related_to, antonym" to dollar | left is "related_to, antonym" to large | left is "derived_from, related_to, antonym, is_a, synonym, similar_to" to right_hand | left is "synonym, related_to" to flop | left is "related_to" to wallet | left is "distinct_from, derived_from, related_to, antonym, is_a" to hand | left is "related_to" to sound | left is "related_to" to chest | left is "related_to, antonym" to angle | left is "related_to" to introverted | left is "derived_from, related_to, synonym, similar_to" to sinistral | left is "distinct_from, related_to, antonym, is_a" to bottom | left is "related_to" to seed | left is "antonym" to remote | left is "used_for, has_first_subevent, distinct_from, capable_of, related_to, antonym, is_a" to walk | left is "related_to, synonym" to backwards | left is "distinct_from, related_to, antonym, is_a" to top | left is "related_to, is_a" to movement | left is "related_to, is_a" to retreat | left is "has_context" to mining | left is "distinct_from, derived_from, related_to, antonym, is_a" to back | left is "antonym, is_a, related_to" to point | left is "related_to, manner_of, has_context" to gee | left is "has_prerequisite, related_to, manner_of" to hit | left is "related_to" to key | left is "related_to, has_context" to canada | left is "related_to" to weave | left is "distinct_from, antonym, related_to, is_a, synonym" to action | left is "related_to" to dominance | left is "has_context, distinct_from, related_to, antonym, manner_of" to corner | left is "related_to" to cornerback | left is "related_to" to nice | left is "related_to" to lose | left is "manner_of" to strengthen | left is "is_a" to sight | left is "related_to" to scanno | left is "related_to" to deviation | left is "related_to" to two | left is "related_to" to nature | left is "related_to, synonym" to proper | left is "related_to, has_property, antonym" to common | left is "related_to" to rightfully | left is "related_to" to fear | left is "distinct_from, related_to, antonym" to going | left is "related_to" to ear | left is "related_to, manner_of" to transmit | left is "related_to" to googly | left is "related_to" to fake | left is "has_context, distinct_from, related_to, antonym, is_a, synonym" to center | left is "related_to, manner_of" to crash | left is "related_to" to backspace | left is "related_to, synonym, manner_of" to spot | left is "related_to, manner_of" to translate | left is "related_to" to everything | left is "related_to" to playing | left is "related_to, is_a" to turn_around | left is "is_a" to consulship | left is "related_to" to horse | left is "related_to" to distinctive | left is "related_to" to prone | left is "derived_from, related_to, antonym" to rightie | left is "related_to" to trepopnea | left is "related_to" to measure | left is "related_to" to angles | left is "related_to" to introversive | left is "related_to" to look | left is "related_to" to bitter | left is "related_to, is_a" to rear | left is "related_to" to swim | left is "related_to, is_a, manner_of" to tool | left is "related_to, is_a, has_context" to device | left is "synonym, related_to, has_property" to refuse | left is "related_to" to backhander | left is "related_to, is_a" to sideways | left is "has_subevent, related_to" to read | left is "related_to, manner_of, antonym, is_a, has_context" to stand | left is "related_to" to counterfeit | left is "related_to" to inverse | left is "related_to, antonym" to cover | left is "related_to" to snap | left is "related_to" to hide | left is "related_to" to heaven | left is "related_to, synonym" to diagonal | left is "related_to, has_context" to heading | left is "related_to" to listen | left is "related_to, is_a, synonym" to position | left is "used_for, related_to" to dancing | left is "related_to, synonym" to rest | left is "related_to" to tail | left is "related_to" to backshot | left is "related_to, derived_from" to rightly | left is "related_to, is_a, manner_of" to about_face | left is "similar_to, etymologically_related_to, related_to, is_a, synonym" to lie | left is "related_to, has_context" to house | left is "synonym" to correctly | left is "related_to" to trend | left is "used_for, related_to" to wheel | left is "related_to, is_a" to diversion | left is "has_context" to uk | left is "related_to" to on | left is "related_to" to quarter | left is "manner_of" to send | left is "related_to" to debt | left is "related_to" to arrow | left is "related_to, is_a" to pitch | left is "part_of, related_to, synonym" to page | left is "related_to" to gate | left is "related_to" to worn | left is "related_to" to translation | left is "related_to, is_a, synonym" to line | left is "has_prerequisite, related_to" to bed | left is "related_to" to float | left is "related_to" to preference | left is "related_to" to sock | left is "related_to, has_context" to piece | left is "related_to, synonym" to become | left is "related_to" to behind | left is "related_to" to retort | left is "related_to, is_a" to symbol | left is "related_to" to sensitivity | left is "manner_of" to experience | left is "has_context, related_to" to reach | left is "related_to, is_a, synonym, manner_of" to turn | left is "related_to" to steel | left is "related_to, is_a, synonym" to stance | left is "related_to" to chair | left is "related_to" to tortuous | left is "has_context" to finance | left is "related_to" to playing_games | left is "related_to" to future | left is "at_location, antonym" to garden | left is "related_to, is_a" to road | left is "related_to" to pot | left is "has_context" to sport | left is "distinct_from, related_to, antonym, is_a, synonym, has_context, etymologically_related_to" to side | left is "synonym" to perspective | left is "related_to" to dextrad | left is "related_to, has_context" to slang | left is "related_to" to yard | left is "has_context, related_to, synonym" to half | left is "related_to" to retro | left is "related_to" to oscillate | left is "at_location" to desk | left is "derived_from, related_to" to rightward | left is "related_to, manner_of" to roll | left is "antonym,</t>
+  </si>
+  <si>
+    <t>flu is "motivated_by_goal, capable_of" to lie_down | flu is "at_location, related_to" to hospital | flu is "not_desires" to give_up | flu is "is_a" to decompression_sickness | flu is "is_a" to abomination | flu is "is_a" to cholera | flu is "related_to, is_a, has_context" to british | flu is "not_desires" to filth | flu is "related_to" to vection | flu is "part_of, related_to, is_a" to symptom | flu is "related_to" to fever | flu is "not_desires" to drink | flu is "related_to" to nausea | flu is "has_context" to grim | flu is "distinct_from, antonym" to healthy | flu is "desires, has_subevent" to eat_lunch | flu is "derived_from" to sickless | flu is "is_a, synonym, related_to" to illness | flu is "has_a, form_of, capable_of, related_to, has_property, antonym, is_a" to people | flu is "related_to, synonym" to morbid | flu is "not_desires" to throw_up | flu is "etymologically_related_to, derived_from, form_of, capable_of, is_a, related_to, synonym, similar_to, not_desires, has_context" to flu | flu is "related_to, is_a, desires" to patient | flu is "related_to" to plant | flu is "not_desires" to nervous | flu is "not_desires" to smell | flu is "desires" to less | flu is "desires" to experience | flu is "not_desires" to indigestion | flu is "related_to" to ssp | flu is "related_to, is_a" to doctor | flu is "not_desires" to disgusting | flu is "is_a" to motion_sickness | flu is "has_context" to book | flu is "related_to" to he | flu is "is_a" to gastritis | flu is "desires, related_to" to music | flu is "has_subevent, related_to" to cry | flu is "capable_of, related_to, not_desires" to get_sick | flu is "is_a" to tabu | flu is "related_to" to biological | flu is "related_to" to instantaneous | flu is "related_to, is_a" to graduate | flu is "related_to, not_desires" to person | flu is "capable_of" to lay_down | flu is "antonym" to fit | flu is "at_location" to characteristic | flu is "capable_of" to courageous | flu is "related_to" to unwell | flu is "related_to" to mucus | flu is "related_to" to sickening | flu is "has_context" to slang | flu is "related_to, not_desires" to bad | flu is "related_to, has_context" to soup | flu is "related_to" to substitute | flu is "related_to" to uneasiness | flu is "capable_of" to eat | flu is "related_to, not_desires, has_context" to down | flu is "not_desires, form_of, derived_from, related_to" to diseased | flu is "related_to, antonym, distinct_from" to health | flu is "derived_from, related_to" to turnsick | flu is "related_to" to morbific | flu is "motivated_by_goal, related_to" to die | flu is "has_context" to pig | flu is "related_to" to unhealthy | flu is "related_to, is_a" to author | flu is "related_to" to tired | flu is "related_to, not_desires" to sneeze | flu is "derived_from" to trainsick | flu is "related_to, desires" to air | flu is "related_to" to pain | flu is "related_to" to anointing_of_sick | flu is "is_a, has_context" to american | flu is "distinct_from, antonym" to well | flu is "not_desires" to get_drunk | flu is "has_property, is_a, has_context" to peter | flu is "related_to, has_property" to humans | flu is "related_to" to sick | flu is "related_to" to anisakiasis | flu is "has_context, causes, related_to, is_a" to disease | flu is "desires" to wise | flu is "causes, related_to, is_a, not_desires" to virus | flu is "related_to" to sucker | flu is "causes, distinct_from, related_to, is_a" to cold | flu is "related_to" to amount | flu is "desires" to alot | flu is "has_context" to agriculture | flu is "desires, related_to" to move | flu is "has_context, causes, related_to" to germ | flu is "related_to" to being | flu is "has_context" to ar | flu is "related_to, derived_from" to sickly | flu is "created_by, related_to, synonym" to sickness | flu is "is_a, not_desires" to migraine | flu is "related_to" to gender | flu is "is_a" to manga | flu is "related_to" to stagger | flu is "related_to" to take | flu is "related_to" to nauseous | flu is "synonym, not_desires, related_to" to ill | flu is "not_desires" to bends | flu is "related_to" to spit | flu is "motivated_by_goal, related_to, synonym" to vomit | flu is "has_context" to uk | flu is "related_to" to motion | flu is "related_to" to being_ill | flu is "not_desires" to puke | flu is "has_context, related_to" to ginger | nauseous is "motivated_by_goal" to lie_down | nauseous is "at_location, related_to" to hospital | nauseous is "related_to" to give_up | nauseous is "related_to" to decompression_sickness | nauseous is "related_to" to abomination | nauseous is "related_to" to cholera | nauseous is "has_context" to british | nauseous is "related_to" to filth | nauseous is "related_to" to vection | nauseous is "is_a" to symptom | nauseous is "related_to" to fever | nauseous is "antonym" to drink | nauseous is "related_to, derived_from" to nausea | nauseous is "related_to" to grim | nauseous is "distinct_from, antonym" to healthy | nauseous is "has_subevent" to eat_lunch | nauseous is "derived_from" to sickless | nauseous is "is_a, related_to" to illness | nauseous is "is_a, has_property" to people | nauseous is "synonym" to morbid | nauseous is "has_subevent" to throw_up | nauseous is "related_to" to flu | nauseous is "related_to" to patient | nauseous is "has_context" to plant | nauseous is "synonym" to nervous | nauseous is "related_to" to smell | nauseous is "has_context" to less | nauseous is "related_to" to experience | nauseous is "related_to" to indigestion | nauseous is "related_to" to ssp | nauseous is "related_to" to doctor | nauseous is "related_to" to disgusting | nauseous is "is_a, related_to" to motion_sickness | nauseous is "is_a" to book | nauseous is "has_context" to he | nauseous is "related_to" to gastritis | nauseous is "related_to" to music | nauseous is "has_subevent" to cry | nauseous is "related_to" to get_sick | nauseous is "synonym" to tabu | nauseous is "has_context" to biological | nauseous is "derived_from" to instantaneous | nauseous is "has_context" to graduate | nauseous is "not_desires" to person | nauseous is "has_context" to lay_down | nauseous is "antonym" to fit | nauseous is "related_to" to characteristic | nauseous is "derived_from" to courageous | nauseous is "related_to" to unwell | nauseous is "related_to" to mucus | nauseous is "related_to, synonym" to sickening | nauseous is "has_context" to slang | nauseous is "synonym" to bad | nauseous is "related_to" to soup | nauseous is "related_to" to substitute | nauseous is "related_to" to uneasiness | nauseous is "antonym" to eat | nauseous is "related_to" to down | nauseous is "related_to" to diseased | nauseous is "distinct_from, antonym" to health | nauseous is "derived_from" to turnsick | nauseous is "related_to" to morbific | nauseous is "motivated_by_goal" to die | nauseous is "related_to" to pig | nauseous is "related_to" to unhealthy | nauseous is "has_context" to author | nauseous is "related_to" to tired | nauseous is "related_to" to sneeze | nauseous is "derived_from, related_to" to trainsick | nauseous is "derived_from" to air | nauseous is "related_to" to pain | nauseous is "related_to" to anointing_of_sick | nauseous is "has_context" to american | nauseous is "antonym, distinct_from" to well | nauseous is "has_last_subevent" to get_drunk | nauseous is "has_property" to peter | nauseous is "has_property" to humans | nauseous is "synonym, derived_from, related_to" to sick | nauseous is "related_to" to anisakiasis | nauseous is "related_to" to disease | nauseous is "etymologically_related_to" to wise | nauseous is "etymologically_related_to" to virus | nauseous is "related_to" to sucker | nauseous is "related_to" to cold | nauseous is "has_context" to amount | nauseous is "has_context" to alot | nauseous is "has_context" to agriculture | nauseous is "manner_of" to move | nauseous is "related_to" to germ | nauseous is "related_to" to being | nauseous is "synonym" to ar | nauseous is "related_to, derived_from" to sickly | nauseous is "related_to, synonym" to sickness | nauseous is "related_to" to migraine | nauseous is "has_context" to gender | nauseous is "has_context" to manga | nauseous is "related_to" to stagger | nauseous is "has_context" to take | nauseous is "related_to, synonym, etymologically_related_to, has_subevent, has_context, derived_from" to nauseous | nauseous is "synonym, similar_to, related_to" to ill | nauseous is "related_to" to bends | nauseous is "related_to" to spit | nauseous is "motivated_by_goal, related_to, synonym, is_a" to vomit | nauseous is "has_context" to uk | nauseous is "has_context" to motion | nauseous is "related_to" to being_ill | nauseous is "related_to" to puke | nauseous is "related_to" to ginger | virus is "capable_of" to lie_down | virus is "at_location, related_to" to hospital | virus is "not_desires" to give_up | virus is "is_a" to decompression_sickness | virus is "is_a" to abomination | virus is "is_a" to cholera | virus is "is_a" to british | virus is "not_desires" to filth | virus is "related_to" to vection | virus is "part_of, related_to" to symptom | virus is "distinct_from, derived_from, related_to" to fever | virus is "related_to, not_desires" to drink | virus is "related_to, synonym" to nausea | virus is "related_to" to grim | virus is "related_to, antonym" to healthy | virus is "desires" to eat_lunch | virus is "related_to" to sickless | virus is "is_a, synonym, at_location, related_to" to illness | virus is "has_a, form_of, related_to, has_property, antonym" to people | virus is "related_to" to morbid | virus is "not_desires" to throw_up | virus is "etymologically_related_to, is_a, related_to, synonym, similar_to, not_desires" to flu | virus is "related_to, is_a, desires" to patient | virus is "has_context, related_to, has_property, is_a" to plant | virus is "not_desires" to nervous | virus is "related_to, not_desires" to smell | virus is "desires" to less | virus is "desires" to experience | virus is "not_desires" to indigestion | virus is "related_to" to ssp | virus is "related_to, is_a" to doctor | virus is "not_desires" to disgusting | virus is "is_a" to motion_sickness | virus is "part_of, related_to, is_a" to book | virus is "related_to" to he | virus is "is_a" to gastritis | virus is "desires, related_to, has_context" to music | virus is "related_to" to cry | virus is "capable_of, not_desires" to get_sick | virus is "is_a" to tabu | virus is "related_to" to biological | virus is "related_to" to instantaneous | virus is "related_to, is_a" to graduate | virus is "has_a, desires, related_to, is_a, not_desires" to person | virus is "capable_of" to lay_down | virus is "related_to" to fit | virus is "at_location, related_to, synonym" to characteristic | virus is "capable_of" to courageous | virus is "related_to" to unwell | virus is "related_to" to mucus | virus is "related_to" to sickening | virus is "has_context" to slang | virus is "related_to, not_desires" to bad | virus is "related_to, antonym" to soup | virus is "related_to" to substitute | virus is "related_to" to uneasiness | virus is "has_subevent, capable_of, has_prerequisite" to eat | virus is "not_desires" to down | virus is "not_desires, form_of, derived_from, related_to" to diseased | virus is "related_to, antonym, distinct_from" to health | virus is "related_to" to turnsick | virus is "related_to" to morbific | virus is "not_desires, has_subevent, has_last_subevent, distinct_from, antonym, has_prerequisite, related_to" to die | virus is "related_to, manner_of" to pig | virus is "related_to" to unhealthy | virus is "related_to, is_a" to author | virus is "related_to" to tired | virus is "related_to, not_desires" to sneeze | virus is "related_to" to trainsick | virus is "desires" to air | virus is "related_to, at_location" to pain | virus is "related_to" to anointing_of_sick | virus is "is_a" to american | virus is "antonym" to well | virus is "not_desires" to get_drunk | virus is "is_a" to peter | virus is "related_to, has_property, capable_of" to humans | virus is "related_to" to sick | virus is "related_to" to anisakiasis | virus is "has_context, causes, related_to, is_a, synonym" to disease | virus is "desires" to wise | virus is "desires, etymologically_related_to, causes, created_by, part_of, distinct_from, receives_action, form_of, derived_from, at_location, capable_of, related_to, has_property, is_a, synonym, not_has_property, not_desires, has_context, has_a" to virus | virus is "related_to" to sucker | virus is "derived_from, related_to, is_a, synonym, similar_to" to cold | virus is "related_to" to amount | virus is "desires" to alot | virus is "has_context" to agriculture | virus is "used_for, desires, related_to, manner_of" to move | virus is "causes, related_to, is_a, synonym" to germ | virus is "related_to, antonym, synonym" to being | virus is "has_context" to ar | virus is "related_to" to sickly | virus is "related_to, is_a, synonym" to sickness | virus is "is_a, not_desires" to migraine | virus is "related_to" to gender | virus is "instance_of, is_a" to manga | virus is "related_to" to stagger | virus is "related_to" to take | virus is "related_to" to nauseous | virus is "not_desires, related_to" to ill | virus is "not_desires" to bends | virus is "causes_desire" to spit | virus is "motivated_by_goal" to vomit | virus is "has_context" to uk | virus is "related_to" to motion | virus is "related_to" to being_ill | virus is "not_desires" to puke | virus is "related_to" to ginger</t>
+  </si>
+  <si>
+    <t>astronomy is "related_to, has_context" to star | astronomy is "has_context" to celestial_body | moon is "related_to, distinct_from" to star | moon is "related_to" to celestial_body | twinkle is "related_to" to star | twinkle is "has_context" to celestial_body</t>
+  </si>
+  <si>
+    <t>bait is "related_to" to water | bait is "related_to" to fish | pond is "has_a, related_to" to water | pond is "at_location, used_for, related_to" to fish | tuna is "at_location" to water | tuna is "is_a, related_to" to fish</t>
+  </si>
+  <si>
+    <t>bandaid is "at_location" to container | bandaid is "derived_from" to band | bandaid is "related_to" to cut | bandaid is "related_to" to temporary | bandaid is "related_to" to jury_rig | bandaid is "is_a" to repair | bandaid is "related_to" to skin | bandaid is "etymologically_related_to" to aid | bandaid is "synonym" to hack | bandaid is "related_to" to wound | bandaid is "related_to" to cover | bandaid is "etymologically_related_to, is_a, related_to" to bandage | trim is "related_to" to container | trim is "related_to, has_context" to band | trim is "derived_from, related_to, manner_of, is_a, synonym, has_context, used_for" to cut | trim is "related_to" to temporary | trim is "has_context" to jury_rig | trim is "related_to, manner_of" to repair | trim is "derived_from, at_location, related_to, synonym, has_context" to skin | trim is "related_to" to aid | trim is "has_context, synonym, manner_of" to hack | trim is "related_to, is_a" to wound | trim is "related_to, manner_of" to cover | trim is "related_to, synonym, manner_of" to bandage | wound is "at_location, related_to" to container | wound is "derived_from, related_to, is_a" to band | wound is "derived_from, form_of, related_to, manner_of, antonym, is_a, synonym, similar_to" to cut | wound is "related_to" to temporary | wound is "related_to" to jury_rig | wound is "related_to, antonym, is_a, synonym, manner_of" to repair | wound is "part_of, at_location, related_to, used_for" to skin | wound is "etymologically_related_to, related_to, has_context" to aid | wound is "has_context, related_to, synonym, manner_of" to hack | wound is "etymologically_related_to, form_of, derived_from, at_location, capable_of, related_to, antonym, is_a, synonym, similar_to, not_desires, has_context, used_for" to wound | wound is "form_of, related_to, antonym, manner_of, has_context" to cover | wound is "etymologically_related_to, part_of, form_of, related_to, is_a, synonym" to bandage</t>
+  </si>
+  <si>
+    <t>gravity is "related_to" to ground | gravity is "related_to" to down | gravity is "related_to" to hill | low is "related_to" to ground | low is "related_to" to down | low is "related_to" to hill | up is "related_to" to ground | up is "antonym, related_to, distinct_from" to down | up is "related_to" to hill</t>
+  </si>
+  <si>
+    <t>emergency is "causes_desire" to move_car | emergency is "related_to" to assrun | emergency is "related_to" to door | emergency is "not_capable_of" to plants | emergency is "has_context" to package | emergency is "related_to" to items | emergency is "related_to" to warning | emergency is "motivated_by_goal" to get_someware_quickly | emergency is "related_to" to effort | emergency is "has_context" to bullet | emergency is "related_to" to millstone | emergency is "related_to" to break | emergency is "related_to, is_a" to time_period | emergency is "related_to" to mine | emergency is "has_context" to entertainment | emergency is "related_to" to faster_walk | emergency is "related_to, has_context" to military | emergency is "motivated_by_goal" to need_to_travel_fast | emergency is "related_to" to wheelpit | emergency is "related_to" to limit | emergency is "related_to" to batsman | emergency is "related_to" to deal | emergency is "has_prerequisite" to go_to_bathroom_first | emergency is "related_to" to leak | emergency is "has_context" to red_stick | emergency is "synonym, manner_of" to streak | emergency is "related_to" to pinch_hitter | emergency is "has_context" to eastern | emergency is "antonym" to fine | emergency is "has_context" to bird | emergency is "motivated_by_goal" to would_increase_heartrate | emergency is "manner_of, related_to" to sail | emergency is "related_to, synonym" to speed | emergency is "has_context, related_to" to internet | emergency is "related_to, has_context" to circuit | emergency is "has_context, related_to" to make | emergency is "has_context" to svecoman | emergency is "is_a, manner_of" to swamp | emergency is "related_to" to detail | emergency is "related_to" to landrush | emergency is "has_first_subevent, has_subevent, has_prerequisite" to prove_physical_endurance | emergency is "has_context, related_to" to hamgyong | emergency is "related_to, derived_from" to overrun | emergency is "has_context" to boy | emergency is "related_to" to overstride | emergency is "is_a, synonym" to reflection | emergency is "derived_from, related_to, synonym" to escape | emergency is "related_to, is_a" to seat | emergency is "has_context" to cat's_paw | emergency is "has_prerequisite" to learning | emergency is "is_a" to print_run | emergency is "related_to" to transition | emergency is "related_to" to story | emergency is "related_to" to stocking | emergency is "related_to" to consequence | emergency is "related_to" to inrunning | emergency is "synonym" to head_for_hills | emergency is "related_to, etymologically_related_to" to presentaneous | emergency is "has_context" to michurinism | emergency is "related_to" to movement_fast | emergency is "has_prerequisite" to act_quickly | emergency is "related_to" to smoke | emergency is "capable_of" to old_zebras | emergency is "has_prerequisite" to stay_fit | emergency is "related_to" to race_activity | emergency is "related_to, is_a" to eye | emergency is "related_to" to outdistance | emergency is "has_context" to shipping | emergency is "related_to" to without_troubling_scorers | emergency is "related_to" to candidate | emergency is "has_context" to executionism | emergency is "related_to" to chicken | emergency is "related_to, has_context" to black | emergency is "has_context" to cosmism | emergency is "distinct_from, related_to, antonym" to modern | emergency is "related_to" to snuff | emergency is "related_to" to feet | emergency is "related_to" to sessa | emergency is "related_to, synonym, manner_of" to move | emergency is "derived_from" to fight | emergency is "related_to" to trump | emergency is "is_a" to run_amok | emergency is "is_a" to run_risk | emergency is "related_to" to farm_strike | emergency is "related_to" to part | emergency is "related_to" to store | emergency is "desires" to dogs | emergency is "related_to" to neglect | emergency is "related_to" to curse | emergency is "related_to, synonym, has_context" to issue | emergency is "has_prerequisite" to wear_sports_suit | emergency is "manner_of" to seep | emergency is "related_to" to motion | emergency is "related_to" to one | emergency is "has_context" to linguistics | emergency is "related_to" to curry | emergency is "is_a, synonym" to display | emergency is "motivated_by_goal" to get_somewhere_faster_than_walking | emergency is "related_to" to plod | emergency is "antonym, is_a" to quality | emergency is "has_prerequisite" to go_to_park | emergency is "has_subevent" to maintain_muscle_strength | emergency is "related_to" to popping_crease | emergency is "related_to" to board | emergency is "motivated_by_goal" to go_faster | emergency is "related_to" to concede | emergency is "related_to" to intercurrence | emergency is "derived_from" to runout | emergency is "related_to" to type_in | emergency is "related_to, is_a" to river | emergency is "related_to" to fast_jog | emergency is "related_to" to christmas | emergency is "related_to" to protected_area | emergency is "related_to, is_a" to board_game | emergency is "related_to" to hurkaru | emergency is "has_context, related_to" to root | emergency is "related_to" to evacuation | emergency is "related_to" to fastpack | emergency is "is_a, has_context, related_to" to transportation | emergency is "related_to" to faster_jog | emergency is "related_to" to hurdle | emergency is "has_context" to new_left | emergency is "related_to" to slash | emergency is "related_to" to writing | emergency is "synonym" to rivulet | emergency is "related_to" to cool | emergency is "related_to" to zubatovshchina | emergency is "related_to" to bog | emergency is "related_to, manner_of" to shell | emergency is "synonym" to hasten | emergency is "related_to" to electronics | emergency is "has_context, related_to" to rap | emergency is "related_to" to leg_bye | emergency is "related_to" to delivery | emergency is "related_to, is_a" to attack | emergency is "manner_of" to crock | emergency is "related_to" to cast | emergency is "has_context" to antirightist | emergency is "related_to, has_context" to ninja | emergency is "related_to" to mouth | emergency is "related_to" to colorature | emergency is "has_context, related_to" to drawer | emergency is "is_a" to run_off | emergency is "has_subevent" to stay_healthy | emergency is "related_to" to floor | emergency is "is_a, related_to, similar_to" to dash | emergency is "derived_from" to moonrun | emergency is "related_to" to snap_it_up | emergency is "has_context" to mail | emergency is "related_to" to niceness | emergency is "related_to" to happening | emergency is "is_a" to earth | emergency is "related_to" to jogging | emergency is "related_to" to combustion | emergency is "related_to" to no_ball | emergency is "manner_of" to carry_through | emergency is "synonym" to flame | emergency is "is_a, related_to, etymologically_related_to" to light | emergency is "related_to" to dell | emergency is "is_a, etymologically_related_to, related_to" to anchor | emergency is "has_context" to agriculture | emergency is "related_to" to anger | emergency is "related_to, is_a" to earned_run | emergency is "related_to" to idle | emergency is "related_to" to solution | emergency is "related_to" to with | emergency is "related_to" to beat_feet | emergency is "has_prerequisite" to stretches | emergency is "related_to" to miler | emergency is "related_to, derived_from" to autorun | emergency is "related_to" to television | emergency is "has_context" to fish | emergency is "has_subevent" to playing_football | emergency is "related_to" to term | emergency is "related_to, synonym" to watch | emergency is "has_context" to federal | emergency is "related_to" to compete | emergency is "related_to, derived_from, synonym, form_of" to running | emergency is "has_subevent" to play_sport | emergency is "related_to, has_context" to charge | emergency is "causes_desire" to rabid_dog | emergency is "related_to" to branch | emergency is "synonym, related_to" to go | emergency is "is_a" to run_out | emergency is "derived_from, related_to" to presently | emergency is "related_to, synonym, manner_of" to travel | emergency is "related_to" to gain | emergency is "related_to" to thunder | emergency is "manner_of" to romp | emergency is "related_to, is_a" to human | emergency is "related_to" to dock | emergency is "has_prerequisite" to just_do | emergency is "related_to" to travelled | emergency is "related_to" to quickness | emergency is "related_to, has_context" to ordinary | emergency is "has_context, related_to" to hand | emergency is "derived_from" to freerun | emergency is "related_to" to dopamine | emergency is "related_to, is_a" to structure | emergency is "has_subevent" to drink_lot | emergency is "defined_as" to noun_form_of_verb_running | emergency is "has_last_subevent" to bathe_sweat_off_body | emergency is "related_to" to accidental | emergency is "has_context" to fool | emergency is "related_to" to unravelled | emergency is "related_to" to sort | emergency is "related_to" to yawn | emergency is "motivated_by_goal" to scared | emergency is "related_to" to vault | emergency is "related_to" to tab | emergency is "synonym, related_to, has_context, is_a" to base | emergency is "used_for, has_context" to battery | emergency is "synonym" to scarper | emergency is "derived_from, is_a, manner_of" to run_down | emergency is "related_to" to outslug | emergency is "has_prerequisite" to have_appropriate_shoes | emergency is "related_to, derived_from" to runny | emergency is "has_context" to american_football | emergency is "related_to" to rod | emergency is "related_to, has_context" to player | emergency is "related_to, is_a" to enclosure | emergency is "related_to" to spring | emergency is "related_to" to sneakers | emergency is "is_a" to re_run | emergency is "related_to" to up | emergency is "related_to" to oil | emergency is "causes_desire, related_to" to fear | emergency is "related_to, synonym" to hightail_it | emergency is "has_context" to log | emergency is "related_to" to fellrunning | emergency is "synonym, related_to" to hold | emergency is "related_to" to descend | emergency is "related_to" to husk | emergency is "related_to" to block_signal | emergency is "related_to" to election | emergency is "has_prerequisite" to declare_candidacy | emergency is "has_context" to haugean | emergency is "is_a" to run_somebody_ragged | emergency is "related_to" to subdecurrent | emergency is "related_to" to activity_fast | emergency is "related_to" to price | emergency is "related_to" to lug | emergency is "etymologically_related_to, related_to, has_context" to horse | emergency is "related_to" to belt | emergency is "has_property" to vowel | emergency is "related_to, has_context" to footmanship | emergency is "has_context" to north_america | emergency is "etymologically_related_to, related_to" to scramble | emergency is "related_to" to trot_gallop | emergency is "has_context, derived_from" to rundale | emergency is "related_to, is_a, has_context" to device | emergency is "motivated_by_goal" to get_into_shape | emergency is "has_context, related_to" to football | emergency is "has_subevent" to playing_lacrosse | emergency is "is_a" to run_low | emergency is "related_to" to surprise | emergency is "has_context" to taxis | emergency is "related_to" to model | emergency is "related_to" to engine | emergency is "capable_of" to humans | emergency is "related_to" to dimension | emergency is "related_to" to time_slice | emergency is "derived_from" to run_away_from | emergency is "etymologically_related_to, related_to, synonym" to flash | emergency is "related_to" to racetrack | emergency is "manner_of" to cover | emergency is "has_subevent" to shortness_of_breath | emergency is "related_to, derived_from" to uprun | emergency is "has_context, related_to" to hide | emergency is "related_to" to diverge | emergency is "related_to" to circumcursation | emergency is "related_to" to propagation | emergency is "related_to" to target | emergency is "has_context" to proscribed | emergency is "is_a, synonym, derived_from, has_context" to lift | emergency is "has_prerequisite" to put_on_running_shoes | emergency is "has_last_subevent" to rest | emergency is "related_to" to weather | emergency is "related_to" to migration | emergency is "has_context" to riding | emergency is "related_to" to dap | emergency is "related_to" to escaping | emergency is "related_to" to house | emergency is "etymologically_related_to" to hurl | emergency is "related_to" to former | emergency is "antonym" to stand_still | emergency is "related_to" to narrow | emergency is "related_to" to slide | emergency is "has_context" to australia | emergency is "manner_of" to expedite | emergency is "related_to" to rotary_encoder | emergency is "has_subevent" to getting_fit | emergency is "motivated_by_goal" to win_race | emergency is "motivated_by_goal" to wanted_to_get_in_shape | emergency is "has_context" to paulicianism | emergency is "related_to" to exec | emergency is "has_subevent" to may_fall | emergency is "synonym, has_context" to mind | emergency is "related_to" to shorter | emergency is "related_to" to assault_course | emergency is "related_to" to trip_trap | emergency is "has_context" to covenanter | emergency is "is_a" to run_temperature | emergency is "related_to, has_context" to enter | emergency is "has_context" to pope | emergency is "has_last_subevent" to reach_destination | emergency is "related_to" to faster_walking | emergency is "has_context" to electrotachyscope | emergency is "related_to, is_a" to run_batted_in | emergency is "related_to" to control | emergency is "has_context, related_to" to plate | emergency is "manner_of" to come | emergency is "has_context" to piece | emergency is "manner_of" to become | emergency is "related_to" to migrated | emergency is "related_to" to smallball | emergency is "related_to" to rain | emergency is "is_a" to run_bath | emergency is "has_context" to phonoscope | emergency is "has_last_subevent, synonym, manner_of, has_subevent, related_to" to kill | emergency is "has_context" to accelerator | emergency is "has_context" to blue | emergency is "related_to" to fast_action | emergency is "related_to" to always | emergency is "related_to" to racing | emergency is "related_to" to trajectory | emergency is "related_to" to group | emergency is "has_context" to solidarity | emergency is "related_to" to flight_line | emergency is "related_to" to jug | emergency is "has_context" to few | emergency is "related_to" to quick_walk | emergency is "is_a, has_property" to killing | emergency is "related_to" to property | emergency is "manner_of" to skedaddle | emergency is "has_context, related_to" to sport | emergency is "related_to" to move_fast | emergency is "has_context" to kerrison_predictor | emergency is "related_to" to manhattan | emergency is "related_to" to inadequate | emergency is "related_to" to schedule | emergency is "related_to" to crease | emergency is "is_a" to soup | emergency is "related_to" to mobile | emergency is "related_to" to tap | emergency is "related_to" to windmill | emergency is "has_context" to sleet | emergency is "used_for" to mechanism | emergency is "related_to" to spread | emergency is "has_context" to cat | emergency is "related_to" to plunge | emergency is "related_to" to bishop | emergency is "antonym" to still | emergency is "related_to, antonym, manner_of" to leave | emergency is "related_to, manner_of" to sprint | emergency is "has_subevent, related_to, synonym" to go_fast | emergency is "has_context" to lord | emergency is "related_to, has_context" to bath | emergency is "derived_from" to cut | emergency is "has_context" to dump | emergency is "related_to, is_a" to interest | emergency is "related_to" to rheophile | emergency is "has_prerequisite" to leave_house_first | emergency is "related_to" to four | emergency is "has_context" to seceder | emergency is "has_subevent, related_to, has_context" to sweat | emergency is "etymologically_related_to" to sheeprun | emergency is "related_to, derived_from" to runathon | emergency is "manner_of, derived_from" to underrun | emergency is "related_to" to buzzer | emergency is "related_to" to spawning | emergency is "related_to, has_context" to shift | emergency is "related_to, is_a" to time | emergency is "related_to" to dodder | emergency is "antonym" to slowly | emergency is "desires" to going_jogging_for_people_who | emergency is "has_context" to yank | emergency is "similar_to, related_to" to nod | emergency is "related_to" to van | emergency is "related_to, has_prerequisite, used_for" to legs | emergency is "related_to, is_a" to signal | emergency is "has_context" to air_travel | emergency is "derived_from, related_to" to runholder | emergency is "derived_from" to atren | emergency is "related_to, form_of" to hurrying | emergency is "related_to, derived_from" to runnable | emergency is "related_to, synonym" to footrace | emergency is "related_to" to stuff | emergency is "related_to, has_context" to mark | emergency is "manner_of, etymologically_related_to" to scurry | emergency is "has_subevent" to chew | emergency is "related_to, synonym" to wicked | emergency is "related_to, causes_desire" to panic | emergency is "related_to" to rank | emergency is "related_to, form_of" to ran | emergency is "is_a" to run_gamut | emergency is "related_to" to clothing | emergency is "related_to, manner_of" to occur | emergency is "related_to" to zoomies | emergency is "related_to" to ambulation | emergency is "related_to, has_context" to party | emergency is "motivated_by_goal, derived_from" to in_hurry | emergency is "derived_from, related_to" to forerun | emergency is "related_to" to fan | emergency is "related_to" to marathon_activity | emergency is "related_to" to bow | emergency is "has_context" to mathematics | emergency is "related_to" to bicycle | emergency is "has_subevent, has_prerequisite" to go_jogging | emergency is "related_to" to tube | emergency is "has_subevent" to get_tired | emergency is "synonym" to prevail | emergency is "motivated_by_goal" to might_miss_bus | emergency is "related_to" to plant | emergency is "is_a" to reverse | emergency is "related_to" to change | emergency is "synonym" to actual | emergency is "manner_of, antonym" to drain | emergency is "has_context" to removal | emergency is "used_for, related_to" to machine | emergency is "related_to" to speed_up | emergency is "related_to" to express | emergency is "used_for, related_to, is_a, synonym" to book | emergency is "related_to" to cry | emergency is "related_to" to leg_movement | emergency is "related_to" to make_run_for_it | emergency is "is_a" to run_up_against | emergency is "related_to" to cake | emergency is "has_context" to manchesterism | emergency is "related_to" to hurdles | emergency is "related_to, derived_from" to dangerous | emergency is "related_to" to racecourse | emergency is "related_to" to main | emergency is "related_to" to hasty_walk | emergency is "has_subevent" to increased_metabolism | emergency is "related_to" to cruise | emergency is "has_first_subevent" to choose_location | emergency is "related_to" to urinate | emergency is "related_to, is_a, at_location" to box | emergency is "antonym" to beautiful | emergency is "manner_of" to act | emergency is "manner_of" to stream | emergency is "related_to" to something | emergency is "synonym" to stroke | emergency is "manner_of" to burn | emergency is "used_for, manner_of, etymologically_related_to, related_to, is_a, synonym" to rush | emergency is "derived_from, related_to" to lay | emergency is "related_to, derived_from" to midrun | emergency is "has_context" to us | emergency is "has_context" to ride | emergency is "derived_from" to runlevel | emergency is "related_to" to vehicle | emergency is "related_to" to scampering | emergency is "has_context, related_to" to pipe | emergency is "related_to, is_a" to locomotion | emergency is "related_to" to melted | emergency is "manner_of, related_to, causes" to flush | emergency is "related_to" to batting_average | emergency is "has_subevent" to playing_sport | emergency is "related_to" to nonrunner | emergency is "related_to" to trick | emergency is "has_context" to mopstick | emergency is "related_to" to warp | emergency is "related_to, synonym" to course | emergency is "is_a" to run_out_of_steam | emergency is "has_context" to saint_simonianism | emergency is "related_to" to height | emergency is "has_context" to split | emergency is "synonym" to respect | emergency is "related_to" to close_hauled | emergency is "related_to" to fast_moving | emergency is "related_to" to gang | emergency is "related_to" to real_covenant | emergency is "related_to" to run_and_gun | emergency is "etymologically_related_to, related_to, derived_from" to unrun | emergency is "related_to" to tracks | emergency is "has_context" to kingitanga | emergency is "has_context" to north_midland_us | emergency is "related_to" to baton | emergency is "related_to" to races | emergency is "related_to" to measurement | emergency is "motivated_by_goal" to get_away_from | emergency is "related_to" to long_off | emergency is "related_to" to turn_on | emergency is "related_to, synonym" to daily | emergency is "related_to, antonym" to being | emergency is "related_to" to print | emergency is "related_to" to cost | emergency is "is_a, similar_to, has_context, related_to" to here | emergency is "related_to" to feese | emergency is "related_to" to curriculum | emergency is "related_to, derived_from" to runscorer | emergency is "has_context, related_to, synonym" to law | emergency is "related_to" to century | emergency is "is_a" to run_fever | emergency is "is_a" to run_gauntlet | emergency is "is_a" to sequence | emergency is "synonym, manner_of" to function | emergency is "related_to" to dye | emergency is "related_to" to county_seat | emergency is "antonym, manner_of, derived_from" to dive | emergency is "similar_to" to riser | emergency is "has_context" to effeminist | emergency is "related_to" to motivation | emergency is "causes_desire" to need_for_exercise | emergency is "related_to" to moving_forward | emergency is "related_to" to scale | emergency is "at_location, related_to" to city | emergency is "has_context" to physics | emergency is "form_of, derived_from, related_to" to runned | emergency is "related_to" to cooper_test | emergency is "motivated_by_goal" to need_exercise | emergency is "related_to" to sneaker_race | emergency is "similar_to, related_to" to intense | emergency is "related_to" to flight | emergency is "related_to, has_context" to stick | emergency is "related_to" to urge | emergency is "has_prerequisite" to run_after_ball | emergency is "related_to" to pond | emergency is "has_context, related_to" to crime | emergency is "related_to" to coal | emergency is "related_to" to concom | emergency is "related_to" to lightly | emergency is "related_to" to barrow | emergency is "related_to, derived_from" to speedrun | emergency is "has_context" to cricket | emergency is "related_to" to walking_fast | emergency is "related_to" to metal | emergency is "related_to" to slower_than | emergency is "related_to" to forward | emergency is "related_to" to bum | emergency is "related_to" to after | emergency is "related_to" to employment | emergency is "related_to" to striding | emergency is "related_to" to playground | emergency is "related_to" to pair | emergency is "has_context" to nautical | emergency is "related_to" to jerk | emergency is "related_to" to lave | emergency is "related_to" to human_activity | emergency is "related_to" to almost | emergency is "related_to" to programming_language | emergency is "is_a" to intelligent_agent_activity | emergency is "related_to" to help | emergency is "causes_desire" to bees | emergency is "has_subevent" to standing_up | emergency is "related_to" to body | emergency is "has_context" to peculiar_people | emergency is "related_to" to snotty | emergency is "related_to" to courant | emergency is "similar_to" to real | emergency is "related_to, is_a" to block | emergency is "related_to" to surge | emergency is "related_to, has_context" to motorway | emergency is "has_context" to seam | emergency is "has_context, related_to" to commando | emergency is "related_to, derived_from" to prerun | emergency is "related_to, is_a" to depression | emergency is "has_subevent" to car_could_run_over | emergency is "related_to" to different | emergency is "related_to, antonym" to and | emergency is "related_to" to promptness | emergency is "related_to" to record | emergency is "related_to, manner_of" to last | emergency is "related_to" to about | emergency is "related_to" to bar | emergency is "related_to" to trot_fast | emergency is "related_to, synonym" to destroy | emergency is "related_to" to exhaust | emergency is "related_to" to break_one's_duck | emergency is "related_to, has_property" to pain | emergency is "etymologically_related_to" to dry_run | emergency is "has_context, related_to" to unit | emergency is "related_to" to ore | emergency is "related_to" to ship | emergency is "related_to" to flea | emergency is "related_to" to minor | emergency is "related_to" to bye | emergency is "derived_from" to runnel | emergency is "related_to" to energy | emergency is "related_to" to long_on | emergency is "related_to" to type | emergency is "related_to" to almost_sprint | emergency is "etymologically_related_to" to random | emergency is "related_to, is_a" to game | emergency is "related_to" to fast_movement | emergency is "related_to, has_subevent" to talk | emergency is "related_to" to batmobile | emergency is "has_context" to moderator | emergency is "synonym" to break_away | emergency is "has_context, related_to" to moment | emergency is "derived_from, form_of" to runneth | emergency is "has_context" to biology | emergency is "related_to, manner_of" to free | emergency is "related_to, distinct_from" to average | emergency is "related_to" to craft | emergency is "has_context" to laudianism | emergency is "related_to" to geography | emergency is "capable_of, related_to" to nose | emergency is "antonym, has_context" to prime | emergency is "at_location, related_to" to death | emergency is "has_context" to philosophy | emergency is "derived_from" to ultrarun | emergency is "is_a" to band | emergency is "related_to" to fast_feet | emergency is "has_subevent" to going_for_run | emergency is "related_to" to migrate | emergency is "related_to" to warranty | emergency is "is_a, related_to" to bank | emergency is "related_to" to again | emergency is "related_to" to like | emergency is "has_context" to finger | emergency is "related_to" to vein | emergency is "related_to" to abduction | emergency is "related_to" to drink | emergency is "related_to" to duke | emergency is "related_to" to flash_cut | emergency is "related_to" to large | emergency is "related_to" to rule | emergency is "related_to" to sound | emergency is "related_to" to altitude | emergency is "motivated_by_goal" to were_wound_up | emergency is "derived_from, related_to" to nonrun | emergency is "related_to, has_context" to scotland | emergency is "related_to" to stationary | emergency is "has_prerequisite, related_to, antonym, synonym, distinct_from, has_context" to walk | emergency is "has_context" to pull | emergency is "is_a" to retreat | emergency is "related_to" to drift | emergency is "has_context" to mining | emergency is "has_subevent" to sore_knees | emergency is "has_prerequisite" to go_outside | emergency is "synonym, has_context, is_a, related_to" to point | emergency is "related_to" to necessary | emergency is "related_to" to fast | emergency is "related_to" to enclosed | emergency is "has_context, related_to" to cell | emergency is "entails" to stampede | emergency is "has_context" to beeline | emergency is "synonym" to blow | emergency is "has_context, related_to" to stonewall | emergency is "related_to, is_a" to instruction | emergency is "related_to, is_a" to letter | emergency is "related_to, manner_of, synonym" to give | emergency is "related_to" to remember | emergency is "has_subevent" to hearing_crowd_go_mad | emergency is "has_context" to historical | emergency is "has_context" to jerkwater | emergency is "has_context, related_to" to wardmote | emergency is "desires, related_to" to spot | emergency is "has_context, related_to" to hole | emergency is "related_to" to super | emergency is "related_to" to register | emergency is "related_to" to camp | emergency is "related_to" to measure | emergency is "related_to" to trance | emergency is "related_to" to slow_sprint | emergency is "related_to" to look | emergency is "is_a, related_to" to now | emergency is "is_a" to run_after | emergency is "related_to, has_context" to swim | emergency is "related_to, has_context" to post | emergency is "etymologically_related_to" to number | emergency is "related_to" to continuously | emergency is "related_to" to dot_ball | emergency is "related_to" to deplete | emergency is "used_for" to means | emergency is "etymologically_related_to" to rhine | emergency is "related_to" to duck | emergency is "related_to" to streak_it | emergency is "manner_of" to trade | emergency is "related_to, is_a" to picture | emergency is "has_context" to vortex_atom | emergency is "related_to" to nylon | emergency is "related_to" to scutter | emergency is "related_to" to proprietor | emergency is "related_to" to together | emergency is "related_to" to strip | emergency is "used_for" to meal | emergency is "is_a" to run_by | emergency is "has_subevent" to get_cramp | emergency is "related_to" to cursorialist | emergency is "has_context, related_to" to at | emergency is "related_to" to wicket | emergency is "has_subevent" to score_home_run | emergency is "related_to" to double_quick | emergency is "related_to" to speed_quickness | emergency is "has_context" to patten | emergency is "related_to" to preparation | emergency is "distinct_from, related_to" to boat | emergency is "antonym" to honest | emergency is "related_to, antonym" to company | emergency is "related_to" to king_pair | emergency is "manner_of" to trickle | emergency is "related_to, similar_to" to instant | emergency is "related_to" to fastest | emergency is "related_to" to parkour | emergency is "has_context" to uk | emergency is "synonym" to send | emergency is "etymologically_related_to, related_to" to rin | emergency is "related_to, is_a" to damage | emergency is "is_a" to run_around | emergency is "related_to" to plan | emergency is "related_to" to save | emergency is "related_to" to storekeeper | emergency is "related_to" to ruin | emergency is "form_of" to yrunne | emergency is "has_context" to compare_southern_us_branch_and_new_york_and_new_england_brook | emergency is "has_context" to roller_mill | emergency is "related_to" to local | emergency is "has_context" to white | emergency is "is_a" to run_amuck | emergency is "related_to" to put | emergency is "related_to" to french_fake | emergency is "manner_of" to circulate | emergency is "related_to, has_context, is_a, derived_from" to line | emergency is "is_a, related_to" to address | emergency is "has_context" to wigwag | emergency is "related_to" to scroll | emergency is "related_to" to statement | emergency is "related_to, synonym" to represent | emergency is "related_to" to maneuver | emergency is "has_context" to rotal | emergency is "related_to" to behind | emergency is "related_to" to bring | emergency is "related_to" to hard | emergency is "used_for, related_to" to storage | emergency is "related_to" to moving | emergency is "related_to, derived_from" to situationism | emergency is "is_a" to run_errand | emergency is "related_to" to direct | emergency is "related_to" to speel | emergency is "related_to" to basin | emergency is "related_to" to tenderness | emergency is "related_to" to walk_quickly | emergency is "has_context" to fennoman | emergency is "has_context" to finance | emergency is "related_to" to mould | emergency is "related_to" to partnership | emergency is "related_to" to speed_merchant | emergency is "related_to" to linescore | emergency is "related_to" to tree | emergency is "synonym" to tally | emergency is "related_to, is_a, synonym" to show | emergency is "manner_of" to succeed | emergency is "related_to, etymologically_related_to" to shoot | emergency is "related_to" to mass | emergency is "manner_of" to be | emergency is "related_to, has_context" to social | emergency is "causes_desire" to big_monster | emergency is "related_to" to bat_in | emergency is "form_of, related_to" to areas | emergency is "related_to" to head | emergency is "synonym, r</t>
+  </si>
+  <si>
+    <t>brawl is "related_to, is_a" to fight | debate is "related_to" to fight | soldier is "used_for, desires, related_to" to fight</t>
+  </si>
+  <si>
+    <t>birds is "related_to" to platform | birds is "related_to, at_location" to peace | birds is "related_to" to why | birds is "related_to" to roadkill | birds is "etymologically_related_to, related_to" to door | birds is "distinct_from, at_location, related_to, antonym" to plants | birds is "related_to" to preserve | birds is "related_to, antonym" to deck | birds is "derived_from" to home_wrecker | birds is "derived_from, related_to" to fountain | birds is "related_to" to argyll_robertson_pupil | birds is "synonym" to porridge | birds is "at_location" to nerve | birds is "related_to" to nitrogen_narcosis | birds is "related_to" to above | birds is "related_to" to cream | birds is "related_to" to piping | birds is "related_to, synonym" to buck | birds is "derived_from" to landshark | birds is "related_to" to bullet | birds is "related_to" to hoist | birds is "related_to, used_for" to table | birds is "related_to" to saddle | birds is "related_to" to genus | birds is "related_to" to green_on_green | birds is "related_to" to market | birds is "related_to" to slit | birds is "is_a, related_to" to neck | birds is "related_to" to owner | birds is "related_to" to break | birds is "related_to" to jockey | birds is "at_location, related_to" to mine | birds is "has_context" to snowboarding | birds is "related_to, used_for" to entertainment | birds is "part_of, related_to" to pants | birds is "has_context, at_location, related_to" to bone | birds is "related_to" to surface_layer | birds is "related_to, has_context, at_location" to military | birds is "related_to" to mother | birds is "related_to" to zipper | birds is "related_to" to little_house | birds is "related_to" to tail_shedding | birds is "related_to" to white_phosphorus | birds is "at_location, related_to" to pocket | birds is "related_to, antonym" to deep | birds is "is_a" to darter | birds is "related_to" to glue | birds is "at_location, related_to" to town | birds is "related_to" to indicator | birds is "related_to, similar_to" to fine | birds is "has_a, used_for, desires, part_of, distinct_from, derived_from, at_location, capable_of, related_to, antonym, is_a, synonym" to bird | birds is "is_a, related_to" to apple | birds is "related_to" to flesh_and_blood | birds is "is_a" to mata_mata | birds is "related_to" to sail | birds is "at_location, derived_from" to airport | birds is "related_to" to ban | birds is "related_to" to wooden | birds is "is_a" to python | birds is "has_context, related_to" to internet | birds is "related_to, is_a" to dry_fly | birds is "related_to, manner_of" to make | birds is "part_of" to garment | birds is "related_to, used_for, causes" to sun | birds is "dbpedia/occupation" to princess | birds is "related_to" to littlun | birds is "at_location, related_to" to hat | birds is "related_to" to noggin | birds is "related_to" to pattern | birds is "related_to" to corn | birds is "related_to" to warm | birds is "related_to" to hobby | birds is "related_to" to fledged | birds is "related_to" to comb | birds is "related_to, antonym" to boy | birds is "related_to" to curtain | birds is "related_to" to breakaway | birds is "related_to" to water_organ | birds is "has_context" to geordie | birds is "is_a" to thrush | birds is "related_to, synonym" to escape | birds is "related_to, is_a" to seat | birds is "related_to" to enemy | birds is "used_for, causes, related_to" to learning | birds is "related_to" to cat's_paw | birds is "related_to" to strong | birds is "related_to" to protein | birds is "at_location, related_to" to batten | birds is "at_location, related_to" to opera | birds is "related_to" to blood_sport | birds is "related_to" to limp | birds is "related_to" to write | birds is "is_a" to barbet | birds is "related_to" to lek | birds is "derived_from" to sky_daddy | birds is "is_a" to hood | birds is "related_to, antonym" to age | birds is "related_to, is_a" to roaster | birds is "related_to" to parasite | birds is "form_of, capable_of, related_to" to sing_song | birds is "at_location" to tiling | birds is "has_subevent, at_location, related_to, antonym" to smoke | birds is "related_to" to bell | birds is "derived_from" to flashlight | birds is "related_to" to labour | birds is "related_to" to everywhere | birds is "related_to, synonym" to match | birds is "related_to, form_of" to eye | birds is "used_for" to entertaining | birds is "related_to" to pollination | birds is "synonym, related_to" to nation | birds is "related_to" to dime | birds is "related_to" to vore | birds is "part_of, distinct_from, form_of, at_location, capable_of, related_to, antonym, is_a, etymologically_related_to, created_by" to chicken | birds is "related_to" to black | birds is "related_to, is_a" to sparrow | birds is "related_to, is_a" to amniote | birds is "related_to" to feet | birds is "related_to, manner_of" to move | birds is "derived_from, related_to" to roommate | birds is "related_to" to reclaim | birds is "related_to" to circumference | birds is "related_to, at_location" to musical | birds is "related_to" to heap | birds is "related_to" to penis | birds is "related_to" to loop | birds is "related_to" to cooling_tower | birds is "is_a" to black_headed_gull | birds is "is_a" to sandpiper | birds is "related_to" to part | birds is "related_to" to encore | birds is "related_to" to store | birds is "related_to" to athlete | birds is "at_location, capable_of, related_to, has_property, has_a, desires" to dogs | birds is "is_a" to rotation | birds is "derived_from" to outgrow | birds is "related_to, is_a" to roadrunner | birds is "capable_of" to leave_home | birds is "is_a" to oviparous_animal | birds is "not_capable_of" to cars | birds is "derived_from" to fishfly | birds is "related_to" to issue | birds is "related_to" to heaf | birds is "related_to" to one | birds is "related_to" to motion | birds is "related_to, manner_of" to strand | birds is "related_to" to benjamin | birds is "related_to" to display | birds is "related_to" to fret | birds is "is_a" to mechanical_device | birds is "related_to" to hydrofoil | birds is "related_to" to hydrofoil_craft | birds is "related_to" to blitzkrieg | birds is "related_to" to aerobiosis | birds is "related_to" to abiocoen | birds is "related_to, antonym" to tent | birds is "related_to" to classification | birds is "related_to, is_a" to pied_billed_grebe | birds is "related_to" to lightning_bird | birds is "related_to" to board | birds is "related_to" to shiny | birds is "distinct_from" to queen | birds is "related_to, is_a" to canary | birds is "related_to, manner_of, is_a, at_location" to wolf | birds is "etymologically_related_to, related_to" to chief | birds is "related_to, antonym" to river | birds is "related_to" to christmas | birds is "related_to" to windows | birds is "at_location" to snowflake | birds is "part_of, related_to, antonym" to building | birds is "at_location, related_to" to star | birds is "related_to, synonym" to kingdom | birds is "related_to, is_a" to vertebrate | birds is "is_a, related_to" to cassowary | birds is "related_to" to knitting | birds is "distinct_from, related_to, antonym" to coin | birds is "related_to" to bigging | birds is "related_to" to aerohydrodynamic | birds is "is_a" to springtail | birds is "part_of, at_location, related_to, manner_of" to root | birds is "related_to" to coating | birds is "related_to" to ring | birds is "related_to" to transportation | birds is "related_to" to waft | birds is "at_location" to surface_of_earth | birds is "related_to" to ass | birds is "related_to" to feedstore | birds is "related_to, is_a, synonym" to fowl | birds is "etymologically_related_to, is_a" to bull | birds is "related_to" to telephone | birds is "capable_of, related_to, is_a" to dragon | birds is "part_of, related_to" to characteristic | birds is "related_to, is_a" to slash | birds is "related_to" to minute | birds is "related_to" to googolplex | birds is "has_context, has_subevent, related_to" to writing | birds is "related_to, has_a, at_location" to cats | birds is "has_a" to human_body | birds is "manner_of" to hydroplane | birds is "related_to" to horn | birds is "related_to" to army | birds is "related_to, at_location" to lawn | birds is "part_of, related_to, has_a" to shell | birds is "has_context" to driving | birds is "has_context" to electronics | birds is "derived_from, related_to, antonym, is_a, synonym" to rap | birds is "related_to, has_context" to united_states | birds is "related_to" to bunch | birds is "is_a" to coon | birds is "related_to" to stingy | birds is "related_to" to tack | birds is "used_for, at_location, related_to, antonym, is_a" to mouth | birds is "used_for" to washing | birds is "related_to" to chip | birds is "related_to" to chinese | birds is "related_to" to respiratorium | birds is "related_to" to water_telescope | birds is "related_to" to american | birds is "related_to" to mail | birds is "distinct_from, related_to, antonym" to beef | birds is "part_of, at_location, distinct_from, antonym, related_to, synonym" to earth | birds is "at_location, related_to, manner_of, located_near, part_of" to leaf | birds is "related_to" to lick | birds is "is_a" to la_la_land | birds is "derived_from" to small_fry | birds is "related_to" to crib | birds is "related_to, is_a" to stilt | birds is "manner_of" to twin | birds is "at_location" to alcoholic | birds is "related_to, has_property" to light | birds is "related_to" to command | birds is "related_to" to ferry | birds is "related_to" to anchor | birds is "related_to, at_location" to theatre | birds is "at_location, related_to" to dirt | birds is "related_to, synonym" to circular | birds is "related_to" to cant | birds is "related_to" to snowgun | birds is "related_to" to verdin | birds is "related_to" to semiwater | birds is "related_to" to foul | birds is "related_to" to solution | birds is "related_to" to soft | birds is "related_to" to new_york_city | birds is "antonym" to middle | birds is "related_to" to with | birds is "related_to" to hull | birds is "related_to" to mechanical | birds is "related_to, is_a" to olive | birds is "related_to" to stench_trap | birds is "related_to" to curvet | birds is "related_to" to sprinkler | birds is "related_to" to generic | birds is "related_to" to bilateral_symmetry | birds is "has_context" to television | birds is "at_location" to drunk | birds is "has_property" to cot | birds is "related_to, antonym, is_a" to fish | birds is "related_to" to term | birds is "related_to" to napkin | birds is "related_to" to diddy | birds is "related_to, synonym" to watch | birds is "related_to" to predation | birds is "related_to" to moth | birds is "at_location, related_to, antonym, is_a, located_near" to squirrel | birds is "related_to" to spirit | birds is "related_to, used_for, has_subevent" to running | birds is "related_to, is_a" to rhea | birds is "manner_of" to propagate | birds is "related_to, synonym, at_location" to charge | birds is "part_of, at_location, related_to" to branch | birds is "related_to" to factory | birds is "part_of, related_to" to crown | birds is "related_to" to go | birds is "related_to, synonym" to beast | birds is "at_location, related_to, is_a" to organ | birds is "related_to" to bee's_dick | birds is "has_context, capable_of, related_to, antonym, manner_of" to travel | birds is "related_to" to thunder | birds is "related_to" to component | birds is "related_to" to upon | birds is "at_location, related_to" to ant | birds is "has_first_subevent, motivated_by_goal, has_last_subevent" to wash_hands | birds is "related_to" to girls | birds is "related_to" to connect | birds is "part_of, distinct_from, at_location, related_to, antonym, is_a" to human | birds is "related_to" to stole | birds is "related_to" to maintenance | birds is "related_to" to dock | birds is "is_a" to achromatism | birds is "used_for, related_to" to giving | birds is "related_to, antonym" to hand | birds is "is_a" to southern_lapwing | birds is "related_to" to deadfall | birds is "related_to" to any | birds is "related_to" to hairball | birds is "capable_of, related_to" to bud | birds is "is_a" to potoo | birds is "related_to" to structure | birds is "has_context" to india | birds is "related_to" to maniraptoran | birds is "has_subevent, causes" to sleighing_ride | birds is "at_location, related_to" to church | birds is "at_location, related_to" to grass | birds is "related_to" to design | birds is "related_to, is_a" to vault | birds is "related_to" to must | birds is "related_to" to knag | birds is "related_to" to tab | birds is "related_to, antonym, synonym" to base | birds is "related_to" to pug | birds is "derived_from" to bloodbird | birds is "related_to" to draft | birds is "is_a, related_to" to opening | birds is "related_to" to scarf | birds is "related_to" to front_yard | birds is "has_context" to weightlifting | birds is "has_a, related_to" to numbers | birds is "related_to" to opinicus | birds is "at_location" to basement | birds is "related_to, synonym" to rod | birds is "related_to" to player | birds is "manner_of" to spring | birds is "related_to" to progress | birds is "is_a, related_to" to female | birds is "related_to" to two | birds is "related_to, has_property, antonym" to up | birds is "related_to" to proper | birds is "derived_from, related_to" to parkette | birds is "at_location, related_to" to flowers | birds is "derived_from, related_to, is_a, synonym" to weaver | birds is "related_to" to uniform | birds is "related_to, antonym" to crew | birds is "related_to, similar_to" to alert | birds is "has_context, related_to" to trap | birds is "is_a" to orangutan | birds is "related_to" to farmer | birds is "is_a" to cape | birds is "is_a" to air_breathing_vertebrate | birds is "related_to" to mount | birds is "related_to" to retromingent | birds is "synonym" to transmit | birds is "related_to, antonym" to ear | birds is "related_to, is_a" to passerine | birds is "related_to" to overcrowd | birds is "related_to" to hold | birds is "related_to" to cotton | birds is "related_to, synonym" to vent | birds is "related_to" to propeller | birds is "related_to" to price | birds is "related_to" to bluetail | birds is "used_for" to spoons | birds is "at_location, related_to, is_a, has_a" to horse | birds is "is_a" to huia | birds is "desires, related_to, is_a" to lion | birds is "at_location" to north_america | birds is "is_a" to red_throated_loon | birds is "related_to" to evening | birds is "at_location" to trash | birds is "related_to" to category | birds is "has_a, is_a" to zebra | birds is "at_location, related_to" to football | birds is "etymologically_related_to, related_to" to onde | birds is "related_to" to punkie | birds is "has_context" to anatomy | birds is "capable_of, related_to, is_a" to tiger | birds is "related_to" to construct | birds is "related_to" to surprise | birds is "related_to" to out_of | birds is "related_to, has_a, at_location, capable_of, not_capable_of" to humans | birds is "related_to" to charm | birds is "related_to, synonym, similar_to" to little | birds is "related_to" to image | birds is "related_to" to tag | birds is "related_to, synonym, manner_of" to cover | birds is "is_a" to maggot | birds is "related_to, is_a" to body_part | birds is "related_to, etymologically_related_to" to hide | birds is "at_location, capable_of, related_to, antonym" to bee | birds is "similar_to" to raw | birds is "related_to" to target | birds is "related_to" to outdoor | birds is "related_to" to relative | birds is "related_to" to string | birds is "related_to" to yoke | birds is "synonym" to manner | birds is "related_to" to baggie | birds is "related_to" to output | birds is "related_to, synonym" to rest | birds is "related_to, antonym, made_of" to mountain | birds is "related_to" to rice | birds is "related_to" to oxygenator | birds is "related_to" to spy | birds is "form_of, related_to" to tail | birds is "related_to" to goat | birds is "related_to, form_of, capable_of" to flies | birds is "related_to" to weather | birds is "at_location" to moisture | birds is "distinct_from" to riding | birds is "is_a" to honey_buzzard | birds is "has_a, etymologically_related_to, part_of, derived_from, at_location, related_to, is_a, manner_of, similar_to" to house | birds is "related_to" to wallydraigle | birds is "is_a, related_to" to hamster | birds is "related_to" to lumber | birds is "related_to" to concession | birds is "related_to" to top_down | birds is "related_to" to legislature | birds is "related_to" to clydesdale | birds is "at_location, related_to, antonym" to outside | birds is "related_to" to born | birds is "is_a" to central_park | birds is "related_to" to makes | birds is "at_location, related_to" to slide | birds is "related_to, part_of" to flock | birds is "has_context" to australia | birds is "related_to" to cuttie | birds is "related_to" to exuviae | birds is "at_location" to merry_go_round | birds is "related_to" to lodge | birds is "related_to" to tasty | birds is "related_to" to fogbow | birds is "has_context, related_to, synonym" to pole | birds is "related_to" to page | birds is "related_to" to ridge | birds is "related_to" to chapel | birds is "is_a" to upland_moa | birds is "related_to" to mind | birds is "related_to" to flask | birds is "related_to" to thermotank | birds is "derived_from, related_to" to skyscraper | birds is "is_a" to kookaburra | birds is "related_to" to stock | birds is "related_to, etymologically_related_to, is_a" to pope | birds is "related_to, is_a" to nightingale | birds is "at_location" to basketball | birds is "related_to" to syndactyly | birds is "related_to" to control | birds is "at_location, related_to" to plate | birds is "related_to" to quarry | birds is "related_to" to vapour | birds is "related_to, is_a" to sac | birds is "etymologically_related_to, related_to, synonym" to peep | birds is "related_to" to piece | birds is "related_to" to become | birds is "used_for, at_location, related_to" to rain | birds is "used_for, related_to, is_a" to fur | birds is "related_to" to recreational | birds is "related_to" to wow | birds is "used_for, related_to" to kill | birds is "related_to" to thrill | birds is "related_to" to foredraft | birds is "related_to" to taste | birds is "related_to" to trail | birds is "capable_of, related_to, has_property, antonym" to blue | birds is "related_to" to window | birds is "related_to" to birth | birds is "related_to" to debut | birds is "is_a" to sapsucker | birds is "has_context, related_to" to always | birds is "derived_from, related_to" to birdmom | birds is "related_to" to dot | birds is "related_to" to tongue | birds is "related_to" to wantoe | birds is "related_to" to group | birds is "related_to" to sauce | birds is "at_location, related_to" to jar | birds is "dbpedia/occupation" to velvet | birds is "related_to, is_a" to pest | birds is "related_to" to value | birds is "related_to, antonym" to captain | birds is "related_to, manner_of" to sigh | birds is "related_to" to few | birds is "has_context" to typography | birds is "related_to" to fried_egg | birds is "related_to" to deposit | birds is "is_a" to budgerigar | birds is "has_context" to sport | birds is "related_to" to spanner | birds is "related_to" to kinnara | birds is "has_property" to lizards | birds is "related_to" to rookery | birds is "is_a, related_to" to hoatzin | birds is "related_to" to soup | birds is "related_to" to cookie | birds is "related_to" to mobile | birds is "related_to" to cylinder | birds is "at_location, related_to" to tap | birds is "related_to" to penny | birds is "related_to" to sowl | birds is "related_to" to moiety | birds is "related_to" to meaning | birds is "derived_from, related_to" to grown_up | birds is "part_of, at_location, related_to" to bark | birds is "related_to" to reckling | birds is "is_a" to great_auk | birds is "derived_from" to skyaking | birds is "related_to, manner_of" to spread | birds is "related_to" to sexual | birds is "at_location, related_to, is_a, has_a, desires, distinct_from" to cat | birds is "related_to" to flight_suit | birds is "related_to" to venatio | birds is "related_to" to bishop | birds is "related_to, etymologically_related_to" to leave | birds is "related_to" to thimble | birds is "related_to" to underbelly | birds is "related_to" to naturalization | birds is "related_to" to button | birds is "is_a" to cooper's_hawk | birds is "part_of, related_to, has_a" to trunk | birds is "related_to" to source | birds is "related_to, manner_of" to dry | birds is "related_to" to grownup | birds is "related_to" to bath | birds is "related_to" to bower | birds is "related_to" to shrimp | birds is "related_to, manner_of" to cut | birds is "has_property" to teakettle | birds is "etymologically_related_to, has_context" to ireland | birds is "related_to, used_for" to fun | birds is "related_to, is_a" to hawk | birds is "related_to, synonym" to plume | birds is "related_to, is_a" to saddleback | birds is "has_property" to pens | birds is "is_a" to gerfalcon | birds is "related_to" to automobile | birds is "at_location, related_to" to brook | birds is "related_to" to four | birds is "related_to" to beans | birds is "at_location, related_to" to statue | birds is "related_to" to tassel | birds is "is_a, dbpedia/product" to video_game | birds is "at_location, related_to, antonym" to navy | birds is "related_to" to win | birds is "distinct_from, related_to" to often | birds is "related_to" to podunk | birds is "at_location, related_to" to mansion | birds is "related_to, synonym, has_prerequisite" to time | birds is "related_to, manner_of" to tan | birds is "related_to, synonym" to mite | birds is "related_to" to regurgitalith | birds is "related_to" to van | birds is "related_to" to legs | birds is "related_to" to signal | birds is "related_to" to feral_child | birds is "related_to" to rape_rack | birds is "related_to" to butterfly_stroke | birds is "related_to, is_a" to carriage | birds is "related_to" to personal | birds is "related_to" to tarn | birds is "at_location, is_a, related_to" to monkey | birds is "related_to" to lens | birds is "related_to" to stuff | birds is "related_to" to circus | birds is "has_context" to mark | birds is "related_to" to web | birds is "related_to" to triphibious | birds is "at_location, related_to" to sand | birds is "related_to" to visible | birds is "part_of, related_to, has_context, used_for" to chess | birds is "related_to" to zugunruhe | birds is "related_to" to avivore | birds is "related_to" to pup | birds is "related_to" to render | birds is "related_to" to rocker | birds is "related_to" to rank | birds is "related_to" to wurly | birds is "related_to" to rectangle | birds is "related_to, is_a" to quadruped | birds is "is_a" to leech | birds is "related_to, is_a" to quail | birds is "at_location, related_to, antonym" to party | birds is "related_to, is_a" to drinker | birds is "related_to" to increment | birds is "related_to" to fan | birds is "related_to" to native | birds is "related_to" to rithe | birds is "related_to, has_property" to round | birds is "related_to, distinct_from, capable_of" to gnat | birds is "related_to" to rubber | birds is "is_a" to kittiwake | birds is "antonym, related_to" to bow | birds is "related_to" to instrument | birds is "related_to, is_a" to emu | birds is "related_to" to hog | birds is "related_to, has_property" to transparent | birds is "related_to" to peel | birds is "related_to" to marquise | birds is "is_a" to hermit | birds is "causes_desire, related_to, synonym" to love | birds is "related_to, is_a" to peeper | birds is "part_of, distinct_from, capable_of, related_to, antonym, is_a, synonym, manner_of" to plant | birds is "related_to" to reverse | birds is "related_to" to dummy | birds is "used_for, causes, at_location" to relaxation | birds is "distinct_from, related_to, antonym, manner_of" to change | birds is "etymologically_related_to" to rep_tile | birds is "related_to" to exchange | birds is "related_to" to column | birds is "related_to, used_for" to machine | birds is "related_to, is_a" to cry | birds is "related_to" to stall | birds is "related_to" to related | birds is "related_to, is_a" to blast | birds is "related_to, made_of, is_a, used_for" to cake | birds is "has_context" to cartomancy | birds is "related_to" to main | birds is "used_for, at_location, related_to" to moon | birds is "at_location, related_to" to buffalo | birds is "related_to, dbpedia/occupation" to fancy | birds is "related_to" to bars | birds is "related_to" to transaction | birds is "related_to" to eremacausis | birds is "related_to, is_a" to box | birds is "related_to" to globe | birds is "related_to, has_property" to beautiful | birds is "at_location, related_to" to spout | birds is "synonym" to strain | birds is "is_a" to vermin | birds is "at_location" to stream | birds is "synonym" to stroke | birds is "related_to" to movie | birds is "related_to, synonym" to burn | birds is "related_to, has_context" to us | birds is "related_to" to due | birds is "related_to" to blade | birds is "related_to" to ride | birds is "related_to" to vehicle | birds is "related_to" to swatch | birds is "related_to" to pterosaur | birds is "related_to" to quadratojugal | birds is "used_for, distinct_from, related_to" to bug | birds is "at_location, related_to" to pipe | birds is "related_to" to locomotion | birds is "related_to" to flush | birds is "related_to" to club | birds is "related_to" to clam | birds is "related_to" to course | birds is "related_to" to drop_dimes | birds is "is_a" to aardvark | birds is "related_to" to trinket | birds is "related_to" to toddle | birds is "related_to, is_a" to evergreen | birds is "related_to" to pin | birds is "is_a" to mare | birds is "related_to" to air_to_surface | birds is "related_to" to seal | birds is "related_to" to growl | birds is "motivated_by_goal, related_to" to offspring | birds is "derived_from" to small_stuff | birds is "is_a" to gang | birds is "used_for" to channel | birds is "related_to" to necessity | birds is "related_to" to zw_system | birds is "related_to, antonym" to sperm | birds is "related_to" to kick | birds is "is_a" to american_goldfinch | birds is "has_context" to snooker | birds is "is_a" to cancer | birds is "related_to, synonym" to skin | birds is "related_to, is_a" to vireo | birds is "is_a, related_to" to parent | birds is "is_a" to bee_eater | birds is "related_to" to word | birds is "at_location, related_to, has_property" to day | birds is "related_to" to generic_term | birds is "is_a" to warm_blooded_animal | birds is "etymologically_related_to, capable_of, related_to, antonym, made_of, has_prerequisite" to wind | birds is "etymologically_related_to" to gaol | birds is "related_to, antonym" to being | birds is "used_for, causes, has_last_subevent, has_property" to relaxing | birds is "capable_of, not_desires" to hurt | birds is "related_to" to jot | birds is "related_to, has_context" to botany | birds is "manner_of" to print | birds is "related_to" to here | birds is "related_to" to elder | birds is "related_to, has_context" to law | birds is "derived_from" to barfly | birds is "related_to" to crake | birds is "related_to, antonym" to take | birds is "is_a" to virgin | birds is "related_to" to mon | birds is "related_to" to household | birds is "related_to" to fourchette | birds is "distinct_from, at_location, related_to, antonym, used_for" to shade | birds is "related_to" to swimmer | birds is "is_a, desires, capable_of, related_to" to child | birds is "related_to" to sequence | birds is "related_to" to old | birds is "related_to" to sunday | birds is "related_to" to function | birds is "related_to, used_for" to cheque | birds is "related_to" to kleptoparasitize | birds is "is_a" to desert_tortoise | birds is "has_prerequisite" to dive | birds is "related_to" to hail | birds is "related_to" to dinosaurs | birds is "related_to" to chocolate | birds is "related_to" to swamp_cooler | birds is "related_to" to bowbearer | birds is "is_a" to support | birds is "related_to" to scale | birds is "related_to" to avidin | birds is "distinct_from, at_location, related_to, antonym" to city | birds is "related_to, has_property" to overcast | birds is "has_context" to physics | birds is "has_subevent" to masturbate | birds is "related_to, is_a" to cedar_waxwing | birds is "at_location, is_a" to drug_addict | birds is "at_location, related_to" to stick | birds is "related_to" to handkerchief | birds is "at_location, part_of" to bus | birds is "related_to" to trapeze | birds is "at_location, related_to" to pond | birds is "related_to" to drizzle | birds is "related_to" to rotor | birds is "part_of, related_to, is_a" to quill | birds is "at_location" to pets | birds is "used_for, related_to" to english | birds is "related_to" to human_being | birds is "synonym" to tattle | birds is "related_to, is_a" to elephant | birds is "related_to, etymologically_related_to" to pen | birds is "related_to" to cricket | birds is "related_to" to gathering | birds is "related_to" to given_name | birds is "related_to" to flasher | birds is "manner_of" to utter | birds is "related_to" to metal | birds is "related_to" to sugar | birds is "related_to" to municipal | birds is "related_to, synonym" to poky | birds is "related_to" to pop | birds is "related_to, is_a" to graph | birds is "related_to, is_a" to parrot | birds is "related_to" to red_cunt_hair | birds is "related_to" to floss | birds is "synonym" to forward | birds is "related_to, synonym" to bum | birds is "related_to" to psittaciform | birds is "related_to" to shit_factory | birds is "has_context" to derogatory | birds is "related_to" to systems_science | birds is "related_to" to government | birds is "at_location, related_to" to playground | birds is "related_to, has_context" to nautical | birds is "related_to" to stuffed_animal | birds is "related_to" to frozen_custard | birds is "related_to, manner_of" to eat_out | birds is "related_to" to material | birds is "made_of, has_a, at_location, related_to" to leaves | birds is "related_to, is_a" to oak | birds is "related_to" to almost | birds is "is_a" to intelligent_agent_activity | birds is "antonym" to private | birds is "is_a, at_location, related_to" to crab | birds is "related_to" to patriot | birds is "related_to, synonym, manner_of" to brood | birds is "related_to, synonym" to have | birds is "form_of, is_a, related_to" to dove | birds is "related_to, has_context" to body | birds is "related_to" to roast | birds is "related_to" to way | birds is "related_to" to honeycomb | birds is "related_to" to furculum | birds is "related_to" to block | birds is "related_to" to pickaninny | birds is "related_to, is_a" to object | birds is "related_to" to depression | birds is "synonym, related_to" to greenback | birds is "related_to" to entrainment | birds is "related_to" to inn | birds is "has_context, part_of" to rowing | birds is "at_location, related_to, is_a" to cottage | birds is "related_to" to chain | birds is "related_to" to microchromosome | birds is "related_to, part_of" to face | birds is "distinct_from, at_location, related_to, antonym" to nest | birds is "related_to" to pazuzu | birds is "at_location, related_to" to record | birds is "related_to" to noseclip | birds is "related_to" to bar | birds is "related_to" to boatswain's_pipe | birds is "at_location, is_a" to gazelle | birds is "capable_of, related_to" to destroy | birds is "is_a" to condominium | birds is "related_to, not_desires, causes" to pain | birds is "manner_of" to red_eye | birds is "derived_from, related_to" to waterbird | birds is "related_to" to coke | birds is "related_to" to fasten | birds is "related_to, is_a" to clutch | birds is "related_to, used_for" to sleep | birds is "related_to" to unit | birds is "related_to, manner_of" to pelt | birds is "at_location, related_to" to snake | birds is "at_location, antonym, related_to, used_for" to ship | birds is "causes_desire, motivated_by_goal, related_to" to hunger | birds is "capable_of, related_to" to flea | birds is "form_of, related_to, synonym" to bill | birds is "synonym" to fang | birds is "is_a" to auk | birds is "related_to" to qualities | birds is "distinct_from, at_location, related_to, antonym" to cow | birds is "related_to" to calm | birds is "related_to, made_of, is_a" to energy | birds is "related_to" to call | birds is "related_to, is_a" to sailor | birds is "has_subevent, related_to, is_a" to type | birds is "etymologically_related_to" to co | birds is "related_to, is_a" to eel | birds is "related_to" to cloaca | birds is "related_to" to fabric | birds is "has_co</t>
+  </si>
+  <si>
+    <t>finger is "at_location, related_to, part_of" to hand | glove is "related_to" to hand | palm is "part_of, related_to" to hand</t>
+  </si>
+  <si>
+    <t>bed is "related_to, is_a" to plain | bed is "related_to" to mortification | bed is "related_to, synonym" to start | bed is "related_to" to discharge | bed is "form_of, related_to, synonym, has_context" to big | bed is "related_to, is_a" to rectangle | bed is "desires" to explore | bed is "related_to, at_location" to movies | bed is "related_to, synonym, manner_of" to patch | bed is "related_to" to valence | bed is "has_context, at_location, antonym, etymologically_related_to, related_to, is_a" to party | bed is "has_context" to gui | bed is "synonym, derived_from" to sleepwear | bed is "distinct_from, related_to, is_a, synonym" to canine | bed is "related_to, has_context, used_for, at_location" to cream | bed is "derived_from, is_a" to bedrest | bed is "antonym, etymologically_related_to, related_to, has_property, distinct_from" to round | bed is "derived_from, related_to" to nightguard | bed is "related_to, is_a, has_context, at_location" to bullet | bed is "form_of, related_to, derived_from" to nighty | bed is "distinct_from, related_to, synonym, has_context" to hog | bed is "derived_from, related_to" to nightdream | bed is "related_to, has_property, synonym" to short | bed is "has_context, related_to" to facies | bed is "related_to, made_of" to pencil | bed is "antonym, related_to, synonym" to serious | bed is "form_of, related_to, is_a, synonym, has_context, used_for, derived_from, at_location, has_prerequisite, not_has_property, manner_of" to pillow | bed is "has_subevent, motivated_by_goal" to get_warm | bed is "at_location, related_to" to cartoon | bed is "causes_desire, has_prerequisite, manner_of, motivated_by_goal, has_subevent, form_of, related_to, synonym" to go_to_bed | bed is "is_a" to time_period | bed is "related_to" to current | bed is "related_to, has_property, is_a, has_context, at_location, distinct_from, antonym" to animal | bed is "related_to, is_a" to process | bed is "related_to, has_context" to nicker | bed is "causes, motivated_by_goal, related_to, used_for" to entertainment | bed is "related_to, has_context" to military | bed is "has_subevent, used_for" to flying_in_airplane | bed is "has_context, at_location, manner_of, part_of, related_to, has_property, is_a" to plant | bed is "used_for, desires, causes, has_prerequisite, has_subevent, related_to, synonym" to relaxation | bed is "derived_from, related_to" to intranight | bed is "related_to, is_a, synonym, has_context, at_location" to pocket | bed is "has_context, related_to, similar_to" to deep | bed is "not_desires, related_to, distinct_from" to anxiety | bed is "related_to" to wink | bed is "has_first_subevent, has_prerequisite, has_subevent" to get_in_bed | bed is "related_to, is_a, at_location" to doctor | bed is "related_to, has_a" to deer | bed is "form_of, related_to" to bundling | bed is "related_to, synonym, etymologically_related_to" to deal | bed is "form_of, related_to, is_a, has_context, causes_desire, has_a, at_location, distinct_from, has_prerequisite, antonym" to book | bed is "at_location, related_to, has_context" to salt | bed is "desires, capable_of, related_to, has_property, is_a, has_context, used_for" to music | bed is "related_to, is_a, synonym, derived_from, at_location" to case | bed is "has_subevent, form_of, related_to, synonym, used_for, causes, has_prerequisite" to dreaming | bed is "has_a, at_location, not_has_property, part_of, related_to, has_property, made_of, is_a" to hair | bed is "related_to, is_a, has_context, desires" to dig | bed is "related_to" to related | bed is "related_to, is_a, antonym" to length | bed is "related_to" to incubus | bed is "related_to, synonym" to dormant | bed is "related_to" to camel | bed is "is_a" to western | bed is "has_context, desires, is_a, related_to" to speed | bed is "has_subevent, related_to, causes" to breathing | bed is "form_of, related_to, is_a, derived_from, at_location" to mattress | bed is "related_to" to visit | bed is "derived_from, manner_of, related_to" to put_to_sleep | bed is "related_to, used_for, derived_from" to sleep_on | bed is "related_to, synonym" to beautiful | bed is "at_location, manner_of, related_to" to hat | bed is "related_to" to gytrash | bed is "related_to, has_context" to grey | bed is "related_to, is_a" to capsule | bed is "related_to, has_context, not_desires" to stroke | bed is "related_to, is_a, at_location" to movie | bed is "used_for, related_to" to re_energizing | bed is "antonym, not_desires, part_of, capable_of, related_to, has_property, made_of, is_a, synonym, has_context, has_a, used_for, desires, at_location, distinct_from, derived_from" to dog | bed is "form_of, related_to, is_a, synonym, has_context, causes, derived_from, antonym, manner_of" to lay | bed is "related_to, has_context" to us | bed is "motivated_by_goal, related_to, is_a, synonym, causes_desire, used_for, desires, manner_of" to live | bed is "related_to, antonym" to sheep | bed is "derived_from, related_to" to sleepover | bed is "has_context, not_desires" to terrorism | bed is "form_of, related_to" to night_time | bed is "antonym, related_to, synonym, distinct_from" to long | bed is "related_to" to harmful | bed is "has_context, distinct_from, part_of, related_to, is_a, synonym" to course | bed is "related_to" to nay | bed is "distinct_from, antonym, manner_of, related_to" to wake | bed is "related_to" to hibernation | bed is "related_to, synonym, has_context" to strong | bed is "related_to" to affect | bed is "related_to, has_property, is_a, distinct_from, derived_from" to flower | bed is "capable_of, related_to, synonym, has_context" to pig | bed is "related_to" to pin | bed is "related_to" to dream_feed | bed is "has_subevent" to have_nightmare | bed is "related_to" to turn_into_pumpkin | bed is "related_to" to prospective | bed is "form_of, related_to" to nailbed | bed is "has_prerequisite, antonym, has_subevent, related_to, used_for" to reading | bed is "related_to, is_a, synonym, has_context" to draw | bed is "has_context, causes_desire, at_location, related_to" to smoke | bed is "related_to, at_location" to kentucky | bed is "desires, etymologically_related_to, has_subevent, capable_of, related_to" to laugh | bed is "related_to, is_a, has_context, has_a, at_location" to skin | bed is "has_context" to computing | bed is "related_to, used_for, derived_from, antonym" to eye | bed is "antonym, etymologically_related_to, related_to, is_a, synonym, used_for" to stool | bed is "used_for, causes, has_subevent" to watching_television_show | bed is "related_to, is_a, distinct_from, antonym" to activity | bed is "has_subevent, has_last_subevent" to catch_mumps | bed is "related_to, has_property" to black | bed is "related_to, is_a" to safety | bed is "related_to, has_a, desires, at_location" to feet | bed is "derived_from" to nightshade | bed is "related_to, is_a, part_of" to emotion | bed is "antonym, related_to, has_context" to high | bed is "related_to, is_a, synonym, used_for, antonym" to being | bed is "used_for, causes, has_prerequisite, has_subevent, related_to, is_a" to relaxing | bed is "has_context, distinct_from, derived_from, has_prerequisite, antonym, motivated_by_goal, related_to, has_property, similar_to" to asleep | bed is "related_to" to print | bed is "form_of, is_a, used_for, at_location" to sofabed | bed is "derived_from" to sleep_disorder | bed is "etymologically_related_to, related_to, has_context" to law | bed is "related_to" to injection | bed is "related_to, synonym, manner_of, antonym" to take | bed is "related_to" to jade | bed is "related_to" to hippoid | bed is "has_context, related_to" to shiver | bed is "form_of, related_to, has_context, has_a, desires, at_location" to dogs | bed is "related_to" to hypnos | bed is "related_to, derived_from" to bedtime | bed is "has_context, derived_from, form_of, related_to, is_a" to sleeper | bed is "is_a" to complexion | bed is "form_of, related_to" to places | bed is "related_to" to attenuate | bed is "part_of, related_to, has_property, is_a, synonym, desires, derived_from" to life | bed is "related_to" to pots | bed is "distinct_from, antonym, capable_of, related_to, has_property, is_a, synonym" to one | bed is "related_to" to napping | bed is "etymologically_related_to, is_a, related_to, synonym, used_for, causes, derived_from" to comfort | bed is "related_to, is_a, synonym, desires, antonym" to support | bed is "related_to, is_a" to tractor | bed is "has_context, related_to" to physics | bed is "related_to, is_a, desires, distinct_from" to quality | bed is "related_to" to bioscopy | bed is "related_to" to used | bed is "related_to, has_subevent" to getting | bed is "has_property, is_a, has_a, used_for" to ranch_house | bed is "related_to, similar_to, form_of" to bigger | bed is "etymologically_related_to, related_to, is_a, synonym, has_context, distinct_from, manner_of, antonym" to pass | bed is "related_to" to tent | bed is "related_to, not_desires" to famine | bed is "related_to" to anaclasis | bed is "synonym, has_context, derived_from, etymologically_related_to, related_to" to rouse | bed is "related_to, is_a, has_context, at_location" to bridge | bed is "related_to, is_a" to comic | bed is "has_prerequisite, has_subevent, has_last_subevent, causes_desire, desires" to go_for_walk | bed is "related_to, has_context" to canary | bed is "related_to" to general | bed is "related_to, is_a" to operation | bed is "capable_of, related_to, synonym, derived_from" to sleep_together | bed is "form_of, capable_of, related_to, has_property, is_a, has_a, used_for, at_location, antonym" to people | bed is "related_to, manner_of" to race | bed is "related_to" to pectoral | bed is "etymologically_related_to, related_to, is_a, synonym, used_for, at_location" to duvet | bed is "related_to, has_context, antonym" to sharp | bed is "related_to, has_context" to plug | bed is "related_to" to train_of_four | bed is "related_to, is_a" to color | bed is "related_to" to ultrasound | bed is "form_of, related_to" to sleepers | bed is "at_location, related_to" to state | bed is "at_location, related_to" to rub | bed is "has_subevent, used_for, causes, has_prerequisite" to cooling_off | bed is "related_to, has_context" to nautical | bed is "related_to, distinct_from" to another | bed is "related_to" to insult | bed is "manner_of, form_of, related_to, has_context" to bundle | bed is "related_to" to almost | bed is "related_to" to treatment | bed is "has_property, is_a, has_context, used_for, has_a, at_location, distinct_from, antonym, dbpedia/product, part_of, related_to" to car | bed is "has_prerequisite, antonym, has_subevent, has_last_subevent, capable_of, related_to, synonym, has_context, used_for, desires" to run | bed is "related_to, is_a, used_for, at_location, antonym" to ring | bed is "related_to, has_property, is_a, synonym, has_context, causes_desire, used_for, distinct_from, derived_from, has_prerequisite, antonym, manner_of, has_subevent" to work | bed is "related_to" to nigh | bed is "antonym, related_to, synonym, similar_to" to slumber | bed is "related_to, synonym, at_location" to field | bed is "related_to, is_a, has_context, at_location, part_of" to body | bed is "distinct_from, has_prerequisite, antonym, related_to, is_a, causes_desire" to awake | bed is "related_to, is_a" to bay | bed is "has_prerequisite, has_subevent, causes" to watching_movie | bed is "has_last_subevent, causes" to rest_mind_and_body | bed is "related_to" to exhibit | bed is "not_desires, related_to" to beauty | bed is "related_to" to noon | bed is "related_to, synonym, has_context, at_location, antonym" to hay | bed is "manner_of, related_to, synonym" to berth | bed is "at_location, related_to" to knight | bed is "capable_of, related_to, has_property, has_a, desires, form_of" to cats | bed is "derived_from, at_location, antonym, part_of, form_of, related_to, is_a, synonym" to foot | bed is "related_to, is_a, synonym, has_a, at_location" to object | bed is "related_to, synonym" to depression | bed is "related_to" to night_person | bed is "capable_of, has_property, used_for, causes, has_prerequisite, has_subevent" to kissing | bed is "has_context, at_location, related_to, is_a, synonym" to junk | bed is "manner_of, part_of, is_a, related_to, has_context, has_a, at_location" to face | bed is "is_a" to therapy | bed is "has_context, related_to, is_a" to nest | bed is "has_subevent" to catching_mumps | bed is "related_to, is_a" to inside | bed is "antonym, related_to" to attack | bed is "has_prerequisite, motivated_by_goal, has_subevent" to lucid_dream | bed is "has_context, distinct_from, antonym, not_desires, etymologically_related_to, related_to, is_a, synonym" to thing | bed is "manner_of, related_to, synonym" to cast | bed is "related_to, at_location, antonym" to grave | bed is "related_to, derived_from" to tuck | bed is "form_of, related_to, synonym, derived_from" to nighttime | bed is "used_for, at_location, related_to, has_property, is_a, synonym, has_context" to family | bed is "derived_from, at_location, manner_of, form_of, is_a, related_to, synonym" to use | bed is "at_location, related_to, is_a, synonym" to bar | bed is "related_to, has_property" to purple | bed is "related_to" to tincture | bed is "has_context" to abc | bed is "related_to" to decubitus | bed is "antonym, capable_of, related_to, causes, at_location, distinct_from" to pain | bed is "derived_from, related_to" to four_legged | bed is "related_to" to profession | bed is "related_to, is_a, antonym" to oxygen | bed is "related_to, has_context" to coke | bed is "related_to" to pace | bed is "has_first_subevent, desires, causes, derived_from, distinct_from, has_prerequisite, manner_of, antonym, entails, motivated_by_goal, has_subevent, form_of, capable_of, related_to, is_a, synonym, causes_desire, used_for" to sleep | bed is "related_to, is_a, desires" to affection | bed is "has_prerequisite, motivated_by_goal, has_subevent, causes_desire, has_first_subevent" to stay_in_bed | bed is "used_for, causes, has_prerequisite, has_subevent, form_of, related_to" to resting | bed is "related_to, is_a" to ore | bed is "related_to, synonym, used_for, desires, derived_from, distinct_from, antonym, receives_action" to light | bed is "at_location, related_to, has_a" to cow | bed is "related_to, is_a, synonym" to kip | bed is "has_prerequisite, manner_of, related_to" to calm | bed is "has_context, at_location, related_to" to grape | bed is "related_to" to type | bed is "capable_of, related_to, causes_desire, has_prerequisite, entails, motivated_by_goal, has_subevent, has_last_subevent" to snore | bed is "capable_of, related_to" to count | bed is "used_for, causes, antonym, has_prerequisite, has_subevent" to watching_tv | bed is "related_to, is_a, used_for, desires" to science | bed is "desires, related_to, has_property" to special | bed is "related_to, distinct_from, antonym" to circle | bed is "antonym, not_desires, related_to, has_property, has_context, distinct_from" to evil | bed is "related_to" to generic | bed is "antonym, related_to, is_a, has_context, derived_from, at_location" to ball | bed is "related_to, dbpedia/field, has_context" to biology | bed is "etymologically_related_to" to piss_like_racehorse | bed is "related_to, is_a, has_context, at_location" to fish | bed is "related_to" to term | bed is "related_to" to cooling | bed is "related_to, synonym, has_context, used_for, at_location" to pool | bed is "related_to, synonym" to compound | bed is "has_context" to blackwash | bed is "causes, derived_from, at_location, related_to, is_a" to death | bed is "manner_of, is_a, related_to, synonym" to crown | bed is "related_to, derived_from" to go_to | bed is "related_to, has_context, derived_from, has_prerequisite, antonym" to go | bed is "related_to, synonym, has_context" to gas | bed is "used_for, causes, derived_from, form_of, related_to" to dreams | bed is "related_to, is_a, has_context, used_for, at_location, entails, form_of" to pad | bed is "related_to, is_a, has_context, antonym" to beast | bed is "causes_desire" to exhaustion | bed is "related_to, is_a, has_context, at_location" to band | bed is "related_to" to at_night | bed is "related_to, synonym, has_first_subevent, has_prerequisite, antonym, entails, has_subevent, motivated_by_goal, receives_action, form_of, capable_of" to lie_down | bed is "related_to, has_context" to affinity | bed is "derived_from, related_to" to blocker | bed is "at_location, etymologically_related_to, part_of, related_to, has_property" to hospital | bed is "distinct_from, manner_of, related_to, synonym, has_context" to like | bed is "part_of, related_to, has_context, used_for, at_location" to finger | bed is "related_to, derived_from, at_location" to ant | bed is "related_to, is_a, has_context" to british | bed is "related_to" to element | bed is "antonym, not_desires, related_to" to drink | bed is "used_for, at_location, related_to, is_a, synonym" to country | bed is "related_to, synonym, has_context, distinct_from, antonym" to drop | bed is "synonym" to solemn | bed is "etymologically_related_to, related_to" to nocturnal | bed is "related_to, is_a, synonym, similar_to, has_context" to large | bed is "part_of, capable_of, related_to, is_a, has_context, at_location, distinct_from, antonym" to hand | bed is "related_to, is_a, synonym, has_context" to sound | bed is "related_to" to unpleasant | bed is "related_to, synonym, similar_to, has_context, not_desires" to negative | bed is "related_to, has_property, has_context" to baseball | bed is "has_subevent, causes" to running_out_of_steam | bed is "has_context, related_to, has_property" to sad | bed is "related_to, used_for, antonym" to hill | bed is "has_context, distinct_from, antonym, related_to, is_a" to pull | bed is "related_to, synonym, manner_of" to desire | bed is "related_to, is_a, used_for" to counter | bed is "related_to, has_context" to mining | bed is "related_to, is_a, synonym" to relief | bed is "related_to, has_context" to photography | bed is "related_to" to resting_state | bed is "at_location, derived_from, etymologically_related_to, related_to, is_a, synonym, has_context" to frame | bed is "related_to" to quadriga | bed is "has_prerequisite, manner_of, form_of, related_to, is_a, synonym, used_for, desires, distinct_from" to nap | bed is "has_context, antonym, is_a, related_to, synonym" to point | bed is "has_context, derived_from, antonym, manner_of, part_of, related_to, is_a, synonym" to back | bed is "related_to" to vault | bed is "manner_of, related_to, is_a, has_context, used_for" to hit | bed is "related_to, has_context" to tab | bed is "etymologically_related_to, related_to" to fast | bed is "has_last_subevent" to enjoy_day | bed is "related_to" to roar | bed is "related_to, is_a, synonym" to dormitory | bed is "form_of, related_to, has_property, similar_to, antonym" to nice | bed is "related_to" to diagnosis | bed is "used_for, causes, has_prerequisite, has_subevent, related_to" to snoring | bed is "antonym, related_to, has_property, made_of, has_context, used_for, distinct_from, at_location" to plastic | bed is "synonym, related_to" to eternal_sleep | bed is "part_of, related_to, synonym, has_a" to pupil | bed is "antonym, part_of, related_to, at_location" to nature | bed is "related_to, has_context, distinct_from, derived_from, antonym" to up | bed is "related_to, is_a, synonym, has_context, has_a, at_location" to theater | bed is "related_to, is_a, synonym, has_context, manner_of" to blow | bed is "related_to" to primer | bed is "related_to, is_a, distinct_from, manner_of" to oil | bed is "related_to, has_property, synonym, at_location" to shoes | bed is "related_to, has_property, is_a, has_a, desires, at_location" to flowers | bed is "antonym, related_to" to reduce | bed is "manner_of, related_to, synonym" to provide | bed is "form_of, capable_of, related_to, synonym, has_first_subevent, derived_from, has_prerequisite, antonym, manner_of" to lay_down | bed is "etymologically_related_to, capable_of, related_to, synonym, has_context" to fit | bed is "related_to, is_a, desires, at_location" to gift | bed is "related_to" to trailer | bed is "related_to, has_context" to physical | bed is "related_to, is_a, causes" to fear | bed is "related_to" to during | bed is "related_to, has_context" to historical | bed is "used_for, at_location, derived_from, related_to, is_a, synonym, similar_to, has_context" to bag | bed is "related_to" to keratonyxis | bed is "made_of, is_a, used_for, manner_of, related_to" to cotton | bed is "is_a, used_for" to hotel_room | bed is "receives_action" to found_in_hospital | bed is "etymologically_related_to, part_of, related_to, is_a, used_for, at_location" to hotel | bed is "related_to" to price | bed is "not_desires, related_to" to dull | bed is "synonym, has_context, related_to" to affair | bed is "related_to" to call_it_night | bed is "has_subevent, related_to" to nocturia | bed is "related_to, is_a" to camp | bed is "related_to, is_a, has_context, has_a, at_location, etymologically_related_to" to horse | bed is "has_subevent, related_to, is_a, has_context" to doze | bed is "related_to, has_context" to scope | bed is "derived_from, at_location, antonym, part_of, form_of, related_to, has_property, is_a, synonym, has_a, used_for" to room | bed is "motivated_by_goal, has_subevent, receives_action, related_to, synonym, has_context, has_prerequisite, antonym" to tired | bed is "at_location, manner_of, receives_action, related_to, made_of, is_a, synonym, has_context" to iron | bed is "related_to" to boggard | bed is "antonym, related_to, synonym, at_location" to farm | bed is "related_to, is_a, has_context" to hack | bed is "distinct_from, antonym, part_of, related_to, is_a, synonym" to evening | bed is "related_to, has_context" to rip | bed is "form_of, related_to, derived_from, antonym" to post | bed is "related_to" to sleeper_berth | bed is "derived_from, at_location, distinct_from, antonym, located_near, part_of, form_of, defined_as, is_a, related_to, synonym, has_a, used_for" to bedroom | bed is "related_to, not_desires" to power | bed is "related_to, is_a, has_a, at_location, distinct_from, derived_from, located_near, part_of" to bathroom | bed is "related_to" to tetralogy | bed is "causes_desire, distinct_from, antonym, has_subevent, related_to" to working | bed is "related_to, is_a" to category | bed is "related_to, distinct_from, antonym" to morning | bed is "related_to" to taxis | bed is "form_of, capable_of, related_to, has_property, has_a, desires" to humans | bed is "related_to, has_property, is_a, at_location, part_of" to mammal | bed is "related_to" to lectual | bed is "part_of, related_to, used_for, derived_from, manner_of" to dress | bed is "related_to, synonym" to in_bed | bed is "synonym, related_to" to good_night | bed is "at_location, related_to" to disease | bed is "related_to, derived_from" to nothing | bed is "is_a, used_for, at_location" to motel | bed is "related_to, has_property, has_context, distinct_from, antonym" to cold | bed is "related_to, is_a, has_context, used_for, part_of" to painting | bed is "related_to, has_a" to four_legs | bed is "distinct_from, related_to, has_context, used_for" to weight | bed is "causes_desire, used_for, causes, antonym, has_prerequisite, has_subevent, part_of, form_of, related_to, is_a, similar_to" to sleeping | bed is "related_to, antonym" to swallow | bed is "has_subevent, used_for, causes, has_prerequisite" to staying_in_bed | bed is "related_to, has_property, has_context, desires" to smart | bed is "synonym" to iv | bed is "derived_from, antonym, not_desires, related_to, is_a" to slip | bed is "used_for, related_to" to event | bed is "related_to, is_a, has_context, at_location" to relative | bed is "related_to, derived_from" to nightdreaming | bed is "related_to, distinct_from, antonym" to under | bed is "related_to, derived_from" to sleepness | bed is "related_to" to regulation | bed is "related_to, is_a, has_a, at_location" to beds | bed is "related_to, synonym" to interval | bed is "related_to" to tunnel | bed is "form_of, related_to, is_a, synonym, similar_to, used_for, has_first_subevent, causes, distinct_from, derived_from, has_prerequisite, antonym, manner_of, has_subevent, motivated_by_goal" to rest | bed is "related_to" to rice | bed is "derived_from, related_to" to sleeperette | bed is "part_of, related_to, has_context, used_for, manner_of" to tail | bed is "related_to, has_context" to bend | bed is "related_to" to attractive | bed is "similar_to, causes_desire, causes, derived_from, at_location, antonym, manner_of, entails, etymologically_related_to, form_of, capable_of, related_to, synonym" to lie | bed is "used_for, has_subevent" to attending_class | bed is "related_to, is_a, synonym, has_context" to bit | bed is "related_to" to has | bed is "related_to, is_a, has_context, at_location, antonym, not_has_property" to outside | bed is "related_to, is_a, desires, causes, at_location, distinct_from, antonym, not_has_property" to war | bed is "has_context" to uk | bed is "is_a, part_of, related_to" to quarter | bed is "related_to" to alarm_clock_headache | bed is "related_to" to night_rest | bed is "related_to, is_a" to pillar | bed is "related_to, is_a, at_location" to blood | bed is "etymologically_related_to" to en | bed is "has_subevent" to go_into_coma | bed is "related_to, is_a, synonym, at_location, manner_of" to lodge | bed is "related_to, has_context" to norrie | bed is "related_to, at_location" to disinfectant | bed is "form_of, related_to" to slept | bed is "has_subevent" to cover_yourself_with_blanket | bed is "related_to, has_context" to local | bed is "at_location, manner_of, related_to" to gate | bed is "related_to, has_property, similar_to, has_context" to white | bed is "is_a" to aura | bed is "form_of, related_to, derived_from" to four_poster | bed is "at_location, receives_action, related_to, has_context" to medicine | bed is "related_to, has_context" to dialect | bed is "related_to, has_context, used_for, desires, at_location, antonym" to art | bed is "antonym, related_to, is_a, synonym" to aid | bed is "part_of, related_to, is_a, synonym, has_context, distinct_from, at_location, antonym, manner_of" to line | bed is "antonym, not_desires, entails, etymologically_related_to, has_last_subevent, related_to, synonym, has_prerequisite" to wake_up | bed is "part_of, receives_action, form_of, capable_of, related_to, has_property, made_of, is_a, synonym, has_context, used_for, has_a, derived_from, at_location, distinct_from, antonym, has_prerequisite, manner_of, not_has_property, etymologically_related_to" to bed | bed is "related_to, has_context" to basketball | bed is "related_to, is_a, synonym, at_location, manner_of" to feather | bed is "related_to, derived_from" to nonsleeping | bed is "has_context" to carrots | bed is "has_context, related_to" to peep | bed is "derived_from, related_to, is_a" to dreamer | bed is "derived_from, at_location, antonym, not_has_property, related_to, made_of, has_context" to stone | bed is "is_a, related_to" to nebula | bed is "related_to, has_context" to barb | bed is "related_to" to code_brown | bed is "at_location, antonym, part_of, receives_action, related_to, is_a" to window | bed is "manner_of, related_to, has_property, has_context, distinct_from, at_location, antonym" to steel | bed is "related_to, has_context, distinct_from, antonym" to blue | bed is "made_of, is_a, similar_to, has_context, has_a, used_for, distinct_from, derived_from, at_location, antonym, located_near, etymologically_related_to, receives_action, related_to" to chair | bed is "related_to, synonym" to behaviour | bed is "related_to, is_a, synonym, causes_desire, used_for" to alarm_clock | bed is "manner_of, related_to" to tend | bed is "related_to, is_a, synonym, distinct_from, antonym, manner_of, etymologically_related_to" to open | bed is "related_to, antonym, manner_of" to date | bed is "related_to, used_for, at_location, antonym" to show | bed is "used_for, at_location, manner_of, related_to, is_a" to jar | bed is "has_prerequisite, has_subevent, form_of, capable_of, related_to, used_for" to lying_down | bed is "has_a, used_for, desires, at_location, distinct_from, antonym, not_desires, part_of, form_of, capable_of, related_to, has_property, is_a" to person | bed is "manner_of, related_to, is_a" to mass | bed is "related_to, derived_from" to bedsite | bed is "related_to, is_a, synonym, has_context, desires, at_location, antonym" to pot | bed is "etymologically_related_to, has_subevent, form_of, related_to, used_for" to lying | bed is "has_context" to rail_transport | bed is "related_to" to stitch | bed is "causes, has_subevent" to drool | bed is "related_to" to phaeton | bed is "capable_of, related_to, has_property, has_context, derived_from" to a | bed is "related_to, is_a" to equipment | bed is "related_to, has_property, is_a, has_context, used_for, at_location" to mat | bed is "related_to, has_context, etymologically_related_to" to slang | bed is "derived_from, related_to" to sleep_schedule | bed is "related_to, synonym, has_context" to cook | bed is "related_to, is_a, has_property, has_context" to brown | bed is "manner_of, related_to" to schedule | bed is "at_location, etymologically_related_to, related_to, is_a, has_context" to soup | bed is "etymologically_related_to, related_to, has_property, synonym, derived_from, has_prerequisite" to comfortable | bed is "derived_from" to glasseye | bed is "at_location, manner_of, related_to, is_a, has_context" to tap | bed is "antonym, manner_of, part_of, form_of, is_a, related_to, has_property, synonym, has_context, has_a, derived_from, at_location, distinct_from" to head | bed is "similar_to, has_context" to massive | bed is "derived_from, distinct_from, antonym, not_desires, etymologically_related_to, related_to, is_a, has_context" to down | bed is "has_first_subevent, causes, has_prerequisite, has_subevent, capable_of, related_to" to fall_asleep | bed is "related_to, is_a, synonym, has_context, derived_from, manner_of" to form | bed is "is_a, related_to, at_location, manner_of" to sign | bed is "part_of, form_of, related_to, is_a, has_context, used_for, at_location, derived_from" to leg | bed is "causes, derived_from, has_prerequisite, related_to, causes_desire" to sleepiness | bed is "capable_of, related_to, is_a, has_context, has_a, desires, distinct_from, derived_from, at_location, antonym, etymologically_related_to" to cat | bed is "related_to, is_a, has_context" to period | bed is "related_to, derived_from" to restful | bed is "used_for, derived_from, etymologically_related_to, related_to, is_a, synonym" to night | bed is "has_prerequisite, has_last_subevent" to get_into_bed | bed is "has_context, related_to" to button | bed is "form_of, related_to, synonym, has_first_subevent, derived_from, has_prerequisite, motivated_by_goal, has_subevent, has_last_subevent" to go_to_sleep | bed is "related_to, antonym" to deliver | bed is "related_to" to humour | bed is "related_to, used_for, causes, has_prerequisite" to sleeping_in | bed is "related_to, has_context" to off | bed is "receives_action, related_to, is_a, at_location" to dresser | bed is "related_to, has_context" to dry | bed is "at_location, derived_from, receives_action, related_to, made_of, is_a, has_context, has_a, used_for" to furniture | bed is "related_to, has_context" to napoleon | bed is "antonym, related_to, has_property, similar_to" to good | bed is "etymologically_related_to, related_to, is_a, synonym, has_context, manner_of" to bear | bed is "distinct_from, manner_of, antonym, receives_action, related_to, has_context" to cut | bed is "derived_from, related_to" to nightly | bed is "antonym, entails, related_to, synonym" to arise | bed is "related_to, is_a, has_context, has_a" to mule | bed is "related_to, has_context" to spacer | bed is "etymologically_related_to, related_to, is_a, synonym, has_context, at_location, antonym" to history | bed is "used_for, derived_from" to sleep_in | bed is "related_to, is_a, has_context" to radical | bed is "derived_from, related_to" to four | bed is "has_context, has_subevent" to sweat | bed is "distinct_from, not_has_property, related_to" to statue | bed is "related_to, is_a, synonym" to screen | bed is "related_to, has_context" to chemistry | bed is "related_to" to memory | bed is "related_to" to acarophobia | bed is "related_to" to zain | bed is "derived_from, antonym, has_prerequisite, related_to, is_a, synonym, has_context, desires" to time | bed is "used_for, related_to, is_a" to master_bedroom | bed is "derived_from, related_to" to shut_eye | bed is "motivated_by_goal, related_to, derived_from" to sleepy | bed is</t>
   </si>
   <si>
     <t>discuss is "related_to" to talk | gossip is "is_a, related_to" to talk | telephone is "related_to" to talk</t>
   </si>
   <si>
-    <t>murder is "synonym, related_to" to nitrogen | murder is "derived_from" to toonophile | murder is "related_to" to ortho | murder is "synonym" to aud | murder is "related_to" to set_phrase | murder is "has_context" to urban | murder is "etymologically_related_to" to athwartships | murder is "derived_from" to t_zone | murder is "related_to" to acting | murder is "synonym, related_to" to farad | murder is "etymologically_related_to" to aphobia | murder is "related_to" to anaptyxis | murder is "related_to" to van_der_waals_constant | murder is "dbpedia/genre" to real_time_strategy | murder is "etymologically_related_to" to tesh | murder is "related_to" to goals | murder is "form_of" to t's | murder is "derived_from" to scalogram | murder is "etymologically_related_to" to ometry | murder is "synonym" to sincerely | murder is "synonym, related_to" to square_metre | murder is "etymologically_related_to" to t_internet | murder is "has_context" to fandom_slang | murder is "related_to" to o_face | murder is "related_to" to constant_of_integration | murder is "derived_from" to eddress | murder is "derived_from" to clansperson | murder is "related_to" to lambdacism | murder is "causes" to getting_paid | murder is "related_to, etymologically_related_to, form_of" to am | murder is "related_to" to air_conditioned | murder is "dbpedia/influenced_by" to algol | murder is "related_to" to act | murder is "etymologically_related_to" to non_sequituri | murder is "derived_from" to b.s.n | murder is "synonym" to proton | murder is "related_to" to short_s | murder is "related_to" to third_person | murder is "derived_from" to t_piece | murder is "dbpedia/genre" to parsing | murder is "etymologically_related_to" to agaze | murder is "related_to, has_property" to vowel | murder is "related_to" to first | murder is "etymologically_related_to" to dezh | murder is "related_to" to o_shaped | murder is "related_to" to language | murder is "has_last_subevent" to purchase_cellular_phone | murder is "defined_as" to base_of_natural_logarithms | murder is "derived_from" to drencht | murder is "has_context" to historical | murder is "related_to" to dirhem | murder is "related_to" to account | murder is "related_to" to academy | murder is "related_to" to man | murder is "form_of" to myctag | murder is "related_to" to amos | murder is "has_context" to type_erasure | murder is "related_to" to 360 | murder is "synonym" to megabyte | murder is "related_to" to diastereoisomer | murder is "has_property" to tt | murder is "related_to" to vide | murder is "is_a" to motorcycle | murder is "is_a" to procedural_programming_lanuage | murder is "related_to" to fuck | murder is "derived_from" to zoa | murder is "related_to" to pbuh | murder is "derived_from" to rafivirumab | murder is "related_to" to ballet | murder is "related_to" to ante | murder is "related_to" to alphabetic | murder is "etymologically_related_to" to there | murder is "related_to" to was | murder is "related_to" to article | murder is "derived_from" to remainder | murder is "synonym" to hydrogen | murder is "derived_from" to equipt | murder is "etymologically_related_to" to archeopteryx | murder is "etymologically_related_to" to balanophagous | murder is "synonym" to nd | murder is "form_of" to b's | murder is "derived_from" to e_vite | murder is "synonym" to from_aardvark_to_zymurgy | murder is "related_to" to w_r_t | murder is "derived_from" to cup | murder is "etymologically_related_to" to soupcon | murder is "has_context" to united_kingdom | murder is "related_to" to casualty | murder is "synonym" to group | murder is "derived_from" to embellisht | murder is "at_location" to rosebush | murder is "related_to" to f_minus | murder is "derived_from" to n_tert_butyl | murder is "related_to" to damma | murder is "derived_from" to data | murder is "form_of" to vv | murder is "related_to" to visarga | murder is "derived_from, related_to" to double | murder is "derived_from" to dealt | murder is "etymologically_related_to" to xiphisternum | murder is "related_to" to interfix | murder is "related_to" to writer | murder is "synonym, related_to" to north | murder is "is_a" to high_c | murder is "derived_from" to kayo | murder is "related_to" to ll | murder is "related_to" to v’s | murder is "derived_from, at_location" to level | murder is "form_of" to g_s | murder is "is_a, related_to" to letter | murder is "derived_from" to robatumumab | murder is "related_to" to penny_sterling | murder is "related_to" to replace | murder is "related_to" to kasra | murder is "has_property" to cat | murder is "related_to" to academic | murder is "synonym" to type | murder is "related_to" to diatonic_semitone | murder is "etymologically_related_to" to estes | murder is "related_to" to before | murder is "derived_from" to e_tail | murder is "related_to" to victim | murder is "related_to" to have_got | murder is "derived_from" to belcht | murder is "etymologically_related_to" to aitkins | murder is "related_to" to i’s | murder is "synonym" to boron | murder is "related_to" to subject | murder is "related_to" to oxford_spelling | murder is "related_to" to a440 | murder is "form_of" to a's | murder is "related_to" to sextodecimo | murder is "synonym" to rat_tail_radish | murder is "related_to" to annually | murder is "synonym" to adenine | murder is "etymologically_related_to, derived_from" to p_adic | murder is "related_to, form_of" to zs | murder is "related_to" to surname | murder is "related_to" to meaning | murder is "related_to" to dry_cell_battery | murder is "related_to" to connecter | murder is "related_to" to hb | murder is "derived_from" to efungumab | murder is "related_to" to paradigm | murder is "derived_from" to man_o_war | murder is "related_to" to svo | murder is "derived_from" to embryoniferous | murder is "related_to" to u’s | murder is "related_to" to dram | murder is "related_to, form_of, derived_from" to is | murder is "related_to" to b_minor | murder is "related_to" to count_out | murder is "related_to" to vocative_case | murder is "related_to" to allele | murder is "related_to, form_of" to ees | murder is "derived_from" to t_splice | murder is "related_to" to hentai | murder is "synonym" to pee | murder is "synonym" to regards | murder is "related_to" to use | murder is "etymologically_related_to" to egotist | murder is "related_to" to ino | murder is "related_to" to axis | murder is "derived_from" to amain | murder is "has_context" to espionage | murder is "is_a" to prototype_based_language | murder is "etymologically_related_to" to acrita | murder is "related_to" to magic_e | murder is "related_to" to tertiary | murder is "related_to" to vagina | murder is "etymologically_related_to" to miserabilist | murder is "derived_from" to clicko | murder is "related_to" to brassiere | murder is "synonym" to double_u | murder is "related_to" to u_tube | murder is "derived_from, related_to" to gf | murder is "has_context, etymologically_related_to" to dice | murder is "related_to" to ambassador | murder is "related_to" to nisba | murder is "related_to" to c’s | murder is "derived_from" to team | murder is "related_to" to pound_sterling | murder is "has_context" to finance | murder is "derived_from, related_to" to c_hole | murder is "derived_from" to symbologenic | murder is "has_context" to 4chan | murder is "derived_from" to homœo | murder is "related_to" to personal | murder is "related_to" to e_shaped | murder is "derived_from" to p_word | murder is "related_to" to z_shaped | murder is "synonym" to metre | murder is "derived_from" to ious | murder is "related_to" to asymmetric | murder is "related_to" to e’s | murder is "related_to" to segovia | murder is "related_to" to heroin | murder is "derived_from" to ultimata | murder is "related_to" to brewster | murder is "derived_from, synonym" to bethe | murder is "is_a" to video_game | murder is "derived_from" to cœno | murder is "is_a" to comics_character | murder is "related_to" to you_and | murder is "related_to" to c_minor | murder is "etymologically_related_to" to yt | murder is "etymologically_related_to, derived_from" to half_crown | murder is "related_to" to amp | murder is "is_a" to anime | murder is "related_to" to h | murder is "etymologically_related_to" to w:abo_blood_group_system | murder is "related_to" to fujita_scale | murder is "related_to" to anode | murder is "derived_from" to b.sc | murder is "derived_from" to coenoblast | murder is "derived_from" to sneaksman | murder is "etymologically_related_to" to theirs | murder is "etymologically_related_to" to aikins | murder is "related_to" to algorithm | murder is "related_to" to football_pitch | murder is "related_to" to solfeggio | murder is "related_to" to adjusted | murder is "synonym" to 1000 | murder is "has_context" to sports_statistic | murder is "related_to" to mdma | murder is "form_of" to b_sharp | murder is "derived_from" to bleacht | murder is "has_context" to american_library_association | murder is "is_a, synonym, similar_to" to triton | murder is "related_to" to bubnoff_unit | murder is "etymologically_related_to" to pandean | murder is "related_to" to turn | murder is "has_context" to proscribed | murder is "related_to" to entertainment | murder is "related_to" to automobile | murder is "has_context" to hypercorrection | murder is "synonym" to roentgen | murder is "synonym" to neutron | murder is "related_to" to spat | murder is "synonym" to australian_dollar | murder is "related_to" to roman_numeral | murder is "etymologically_related_to" to lose | murder is "form_of" to d's | murder is "etymologically_related_to" to micro | murder is "related_to" to proverb | murder is "derived_from" to hook_n_kill | murder is "etymologically_related_to" to twou'dn't | murder is "has_property" to cajun | murder is "related_to" to water | murder is "derived_from" to blest | murder is "related_to" to perpendicular_pronoun | murder is "is_a" to animanga_character | murder is "derived_from" to coenosteum | murder is "synonym" to bel | murder is "related_to" to vocative | murder is "derived_from" to b.ed | murder is "is_a" to musical_artist | murder is "related_to, derived_from, antonym" to non_u | murder is "related_to" to note | murder is "synonym" to i_don't_care | murder is "synonym" to einsteinium | murder is "related_to" to bye | murder is "related_to" to tier | murder is "etymologically_related_to" to bohdanowiczite | murder is "has_context" to organic_chemistry | murder is "synonym" to molarity | murder is "related_to" to monoclonal_antibody | murder is "related_to" to social | murder is "related_to" to transmissivity | murder is "related_to" to abbreviation | murder is "derived_from" to thinko | murder is "etymologically_related_to" to caravansary | murder is "derived_from" to hirs | murder is "derived_from" to naptumomab_estafenatox | murder is "related_to" to ie | murder is "related_to" to pneumo | murder is "derived_from" to xylanolysis | murder is "derived_from" to salt_n_shake | murder is "synonym" to twelvemo | murder is "defined_as" to fourth_letter_of_roman_alphabet | murder is "related_to" to india | murder is "related_to" to april | murder is "derived_from" to pork_n_beans | murder is "related_to" to axiom | murder is "related_to" to penalty_arc | murder is "synonym" to la_dièse | murder is "has_context" to grammar | murder is "related_to" to air_branch | murder is "derived_from" to z_order | murder is "etymologically_related_to" to khoum | murder is "etymologically_related_to" to acardiacus | murder is "derived_from" to e_volution | murder is "related_to, form_of" to pp | murder is "derived_from" to aaa | murder is "derived_from" to lemalesomab | murder is "derived_from" to annext | murder is "derived_from" to lexatumumab | murder is "etymologically_related_to" to cuppa | murder is "derived_from" to bornt | murder is "related_to" to application | murder is "derived_from" to will_o_wisp | murder is "etymologically_related_to" to n_ary | murder is "related_to" to first_person | murder is "derived_from" to clasht | murder is "related_to" to philippine | murder is "related_to" to time | murder is "derived_from" to cropt | murder is "is_a" to television_show | murder is "etymologically_related_to" to aken | murder is "synonym, related_to" to zero | murder is "derived_from, form_of" to ms | murder is "related_to" to seleno | murder is "synonym" to perfection | murder is "related_to" to answer | murder is "related_to" to were | murder is "related_to" to spectral_class | murder is "derived_from, etymologically_related_to" to speako | murder is "etymologically_related_to" to noons | murder is "related_to, derived_from" to e_folding | murder is "derived_from" to oyl | murder is "etymologically_related_to" to gameto | murder is "related_to" to arctic | murder is "etymologically_related_to, form_of" to e's | murder is "derived_from" to automata | murder is "etymologically_related_to" to excuse | murder is "synonym" to gee | murder is "has_context" to titular | murder is "derived_from" to libivirumab | murder is "related_to" to sw | murder is "derived_from" to encroacht | murder is "related_to" to accepted | murder is "has_context" to unstressed | murder is "related_to" to tis | murder is "derived_from" to run_o_mill | murder is "synonym, related_to" to barn | murder is "synonym" to mb | murder is "derived_from" to b.a | murder is "derived_from" to lurianic | murder is "related_to" to argyro | murder is "synonym, related_to" to coulomb | murder is "derived_from" to iferous | murder is "is_a" to sr | murder is "derived_from" to chirpt | murder is "related_to" to audit | murder is "derived_from" to distinguisht | murder is "related_to" to circa | murder is "derived_from" to e_quainted | murder is "etymologically_related_to" to galanthophile | murder is "related_to" to labial | murder is "derived_from" to i_ship | murder is "derived_from" to b.mus | murder is "etymologically_related_to" to moo_u | murder is "related_to" to ngl | murder is "related_to" to mbta | murder is "synonym" to deoxythymidine_monophosphate | murder is "related_to" to ignominy | murder is "related_to, derived_from" to para | murder is "etymologically_related_to" to cymoscope | murder is "derived_from" to mausolea | murder is "etymologically_related_to" to eirs | murder is "related_to" to nemato | murder is "motivated_by_goal" to build_cathedral | murder is "etymologically_related_to" to segrosome | murder is "is_a" to hydrogen_atom | murder is "related_to" to fb | murder is "etymologically_related_to" to frigga | murder is "related_to" to breadth | murder is "derived_from" to tenatumomab | murder is "etymologically_related_to" to vrykolaka | murder is "related_to" to administration | murder is "derived_from" to hematinometer | murder is "is_a" to object_oriented_programming_language | murder is "derived_from" to tradeswoman | murder is "derived_from" to accomplisht | murder is "derived_from" to megakaryocytopoiesis | murder is "etymologically_related_to" to equiangular | murder is "synonym, related_to" to thousand | murder is "derived_from" to u_boat | murder is "related_to" to seah | murder is "synonym, related_to, form_of" to en | murder is "derived_from" to b.litt | murder is "derived_from" to imciromab | murder is "related_to" to pawn | murder is "related_to" to saint_anthony's_cross | murder is "synonym" to metric_ton | murder is "related_to" to physicotheology | murder is "form_of, derived_from, synonym" to os | murder is "derived_from" to pemtumomab | murder is "related_to" to transgender | murder is "etymologically_related_to" to copypasta | murder is "related_to" to sentences | murder is "is_a" to television_station | murder is "derived_from" to cleft | murder is "dbpedia/influenced_by" to falcon | murder is "has_context" to organic_compound | murder is "derived_from" to ahold | murder is "related_to" to believe | murder is "related_to" to my | murder is "related_to, derived_from" to f_hole | murder is "related_to" to compiler | murder is "related_to" to zoö | murder is "derived_from" to taxa | murder is "synonym, related_to" to green | murder is "related_to" to august | murder is "related_to" to loser_sign | murder is "related_to" to flat | murder is "at_location" to wave_clip | murder is "synonym" to fréchet | murder is "related_to" to mab | murder is "derived_from" to hamiltonian | murder is "derived_from" to dead_n_buried | murder is "derived_from" to problemo | murder is "synonym" to kolmogorov | murder is "derived_from" to detumomab | murder is "related_to" to antigen | murder is "derived_from, synonym, related_to" to bit | murder is "derived_from" to fish_n_chips | murder is "has_context" to printing | murder is "related_to" to western | murder is "related_to" to ties | murder is "related_to" to atmosphere | murder is "derived_from" to bynempt | murder is "related_to" to pencil | murder is "related_to" to antigone | murder is "defined_as" to thirteenth_letter_of_roman_alphabet | murder is "etymologically_related_to" to oötidogenesis | murder is "form_of, derived_from, related_to, etymologically_related_to" to es | murder is "etymologically_related_to" to fatosphere | murder is "derived_from" to memosphere | murder is "related_to" to nay | murder is "derived_from" to n_bomb | murder is "etymologically_related_to" to austria | murder is "etymologically_related_to" to dunzo | murder is "derived_from" to nebacumab | murder is "related_to" to raguileo_alphabet | murder is "synonym" to speed_of_light | murder is "derived_from" to eclipst | murder is "related_to" to storativity | murder is "derived_from" to ambusht | murder is "form_of" to ha | murder is "has_context" to irc | murder is "form_of" to e_sharp | murder is "related_to" to i'll've | murder is "related_to" to genitive_case | murder is "related_to" to wynn | murder is "derived_from" to nfc | murder is "derived_from" to nnw | murder is "derived_from" to e_tailing | murder is "synonym" to d100 | murder is "related_to" to minor | murder is "related_to" to stade | murder is "synonym" to do_dièse | murder is "etymologically_related_to" to hunter's_moon | murder is "related_to" to ignore | murder is "has_context" to ratings | murder is "related_to" to gelfond's_constant | murder is "form_of" to f's | murder is "synonym" to shi | murder is "related_to" to electrical_resistance | murder is "related_to, etymologically_related_to" to the | murder is "etymologically_related_to" to tibeto | murder is "related_to" to string | murder is "derived_from" to mth | murder is "derived_from" to phm.b | murder is "synonym" to dextro | murder is "at_location" to warsaw | murder is "derived_from" to it's | murder is "related_to, synonym" to liter | murder is "derived_from" to builder's_mug | murder is "related_to" to c_channel | murder is "related_to" to accidental | murder is "related_to" to i'd | murder is "etymologically_related_to" to miscellaneum | murder is "related_to" to emergency | murder is "derived_from" to scanno | murder is "etymologically_related_to" to hebdomadiversary | murder is "has_context" to british | murder is "related_to" to semivowel | murder is "related_to" to ego | murder is "related_to" to author | murder is "related_to" to f’s | murder is "antonym, related_to" to in | murder is "derived_from" to junonian | murder is "related_to" to keynote | murder is "related_to" to medium | murder is "synonym" to uranium | murder is "derived_from" to vis_vis | murder is "related_to" to ashoka | murder is "related_to" to accommodation | murder is "related_to" to glosso | murder is "related_to" to signor | murder is "related_to" to age | murder is "form_of, derived_from, etymologically_related_to, related_to" to ae | murder is "related_to" to i_and_i | murder is "etymologically_related_to" to lino | murder is "derived_from" to statesman | murder is "related_to" to let's | murder is "derived_from" to okay | murder is "etymologically_related_to" to stage | murder is "related_to" to solfege | murder is "etymologically_related_to" to cmos | murder is "related_to" to rip | murder is "derived_from" to b.s | murder is "related_to" to me_pronoun | murder is "related_to" to f_shaped | murder is "etymologically_related_to" to cetera | murder is "has_context" to physics | murder is "derived_from" to begat | murder is "etymologically_related_to" to anecdotum | murder is "related_to" to kuh | murder is "has_property" to last_letter_of_alphabet | murder is "derived_from" to dislik’t | murder is "related_to, similar_to" to m | murder is "capable_of" to can_store_food | murder is "at_location" to denmark | murder is "synonym, related_to" to angstrom | murder is "synonym" to tert | murder is "defined_as" to twelveth_letter_of_roman_alphabet | murder is "related_to, etymologically_related_to" to ich | murder is "derived_from" to banisht | murder is "derived_from" to foravirumab | murder is "defined_as" to third_letter_of_roman_alphabet | murder is "related_to" to four_lines | murder is "has_context" to roadway | murder is "derived_from" to encreast | murder is "at_location" to combo_pass | murder is "related_to" to nb | murder is "derived_from" to dispenst | murder is "etymologically_related_to" to jackanape | murder is "dbpedia/influenced_by" to chill | murder is "has_context" to internet_slang | murder is "etymologically_related_to" to toodles | murder is "related_to" to at | murder is "related_to" to numero_sign | murder is "derived_from" to mano_mano | murder is "related_to" to decomposition | murder is "related_to" to transhumanism | murder is "synonym" to l_size | murder is "etymologically_related_to" to acaulous | murder is "related_to" to hoplo | murder is "etymologically_related_to" to ell | murder is "etymologically_related_to" to beeswax | murder is "related_to" to me_reference | murder is "synonym" to ze | murder is "derived_from" to bent | murder is "derived_from" to u_rp | murder is "form_of" to zzzzzz | murder is "related_to" to academician | murder is "derived_from" to gasogen | murder is "derived_from" to aa | murder is "etymologically_related_to" to sudoriferous | murder is "related_to" to fermion | murder is "related_to" to partheno | murder is "derived_from" to b.comm | murder is "is_a" to blood_group | murder is "related_to" to atomic_weight | murder is "related_to" to gangsta | murder is "related_to" to palochka | murder is "related_to" to other | murder is "related_to" to mega | murder is "synonym" to hey | murder is "related_to" to be | murder is "has_context" to programming | murder is "etymologically_related_to" to asqtad | murder is "related_to" to homoio | murder is "derived_from" to blockt | murder is "etymologically_related_to" to aglutition | murder is "related_to" to ods | murder is "related_to" to ri | murder is "etymologically_related_to" to istro | murder is "synonym" to thymine | murder is "related_to" to absolute_temperature | murder is "has_context" to titles | murder is "form_of" to b_s | murder is "form_of" to ues | murder is "is_a, synonym, etymologically_related_to" to or | murder is "derived_from" to u_shaped | murder is "related_to" to argent | murder is "synonym, related_to" to ex | murder is "has_prerequisite" to talk_to | murder is "form_of" to zzzzzzzz | murder is "related_to" to chromatic_scale | murder is "etymologically_related_to, related_to, similar_to, form_of" to s | murder is "related_to" to self | murder is "related_to" to make | murder is "has_context" to military | murder is "etymologically_related_to" to exbivirumab | murder is "derived_from" to ihood | murder is "related_to" to american | murder is "related_to" to charlie | murder is "form_of" to van | murder is "synonym" to wth | murder is "etymologically_related_to" to logico | murder is "related_to" to crease | murder is "derived_from" to writo | murder is "related_to, form_of" to re | murder is "derived_from" to checkt | murder is "form_of" to ss | murder is "etymologically_related_to" to athanogene | murder is "related_to" to bisphenol | murder is "related_to" to after | murder is "derived_from" to connectogram | murder is "derived_from" to ebrary | murder is "etymologically_related_to" to gilf | murder is "has_context" to education | murder is "related_to" to maiden_over | murder is "related_to" to oic | murder is "has_property" to statement | murder is "related_to" to viscount | murder is "derived_from" to jack_lent | murder is "related_to" to rh | murder is "synonym" to 24mo | murder is "has_context" to pharmacology | murder is "etymologically_related_to" to xtianity | murder is "derived_from" to minretumomab | murder is "derived_from" to edobacomab | murder is "related_to" to automatic | murder is "related_to" to homoeo | murder is "related_to" to century | murder is "related_to" to pure | murder is "derived_from" to bereft | murder is "etymologically_related_to" to i_wiss | murder is "related_to" to latin | murder is "related_to" to adult | murder is "synonym" to mi | murder is "synonym" to vitamin_c | murder is "form_of, derived_from" to as | murder is "synonym" to phosphorus | murder is "etymologically_related_to" to dswounds | murder is "etymologically_related_to" to mo | murder is "related_to" to alto | murder is "related_to" to nail | murder is "derived_from" to chaussé'd | murder is "related_to" to cello | murder is "derived_from" to urobilinogen | murder is "related_to" to p | murder is "related_to" to iso | murder is "related_to" to yours_truly | murder is "synonym" to levo | murder is "etymologically_related_to" to saké | murder is "derived_from, related_to" to j | murder is "synonym, related_to, form_of" to an | murder is "derived_from" to back_o_bourke | murder is "synonym" to vicesimo_quarto | murder is "related_to, etymologically_related_to, synonym, form_of" to oh | murder is "related_to" to assist | murder is "form_of" to c_s | murder is "related_to" to ℓ | murder is "related_to" to single | murder is "is_a" to fictional_character | murder is "related_to" to mac | murder is "has_property" to playoff | murder is "dbpedia/influenced_by" to javascript | murder is "related_to" to cisgender | murder is "related_to" to self_me | murder is "related_to" to self_reference | murder is "related_to" to conservative | murder is "related_to, etymologically_related_to" to tittle | murder is "dbpedia/influenced_by" to ecmascript | murder is "derived_from" to softography | murder is "derived_from" to curst | murder is "etymologically_related_to" to purkins | murder is "related_to" to videte | murder is "derived_from" to crept | murder is "related_to" to w_o | murder is "related_to" to round | murder is "has_property" to second_letter_of_alphabet | murder is "synonym" to randomness | murder is "derived_from" to oversman | murder is "related_to" to a’s | murder is "related_to" to twasn't | murder is "related_to" to linking_vowel | murder is "has_last_subevent" to go_to_market | murder is "related_to" to pip | murder is "related_to" to gomer | murder is "derived_from" to e_tailer | murder is "related_to" to l_shaped | murder is "etymologically_related_to" to ostomy | murder is "related_to" to bath | murder is "related_to" to shaped | murder is "related_to" to inferior | murder is "synonym" to coke | murder is "defined_as" to first_letter_of_word_chair | murder is "related_to" to axiomatic | murder is "synonym" to volt | murder is "derived_from" to pædo | murder is "etymologically_related_to" to venipuncture | murder is "related_to" to astragal | murder is "etymologically_related_to" to dacryohemorrhea | murder is "has_context, synonym, form_of" to us | murder is "synonym" to zee | murder is "related_to" to cor | murder is "related_to" to value | murder is "related_to, derived_from" to grade | murder is "related_to" to china | murder is "similar_to, is_a, synonym" to deuteron | murder is "dbpedia/genre" to survival_horror | murder is "related_to" to amphibian | murder is "derived_from" to bullswool | murder is "related_to" to kc | murder is "dbpedia/influenced_by" to scheme | murder is "synonym" to hausdorff | murder is "synonym, derived_from" to sec | murder is "etymologically_related_to" to perrins | murder is "synonym" to group_b | murder is "synonym" to tungsten | murder is "etymologically_related_to" to est | murder is "etymologically_related_to" to slut's_wool | murder is "has_context" to from_latin_libra | murder is "related_to" to me_subject | murder is "related_to, etymologically_related_to, dbpedia/influenced_by" to b | murder is "related_to" to subatomic_particle | murder is "derived_from" to jack_dandy | murder is "derived_from" to bass | murder is "etymologically_related_to" to seent | murder is "related_to" to sigmoid | murder is "related_to" to verse | murder is "form_of, related_to" to um | murder is "related_to" to bee | murder is "derived_from" to john_dreams | murder is "etymologically_related_to" to pithers | murder is "is_a, related_to" to number | murder is "is_a" to shortcut_for_air_conditioning | murder is "etymologically_related_to, derived_from" to ragamuffin | murder is "related_to" to mature | murder is "etymologically_related_to" to i'm | murder is "derived_from" to dipt | murder is "at_location" to hair_clip | murder is "related_to" to year | murder is "related_to" to p_shaped | murder is "related_to" to disjoint | murder is "derived_from" to dreamt | murder is "etymologically_related_to" to abiosis | murder is "related_to" to dendro | murder is "related_to" to b_flat | murder is "synonym, etymologically_related_to" to eth | murder is "synonym" to lambert | murder is "related_to" to dioxygen | murder is "derived_from" to nacolomab_tafenatox | murder is "etymologically_related_to" to imac | murder is "related_to" to major | murder is "etymologically_related_to" to betimes | murder is "derived_from, related_to" to otw | murder is "derived_from" to leonid | murder is "derived_from" to e_form | murder is "derived_from" to b.ch.d | murder is "form_of" to did | murder is "related_to" to anterior | murder is "related_to" to salt | murder is "form_of, synonym, related_to, etymologically_related_to" to a | murder is "related_to" to cap | murder is "related_to" to shanxi | murder is "dbpedia/influenced_by" to lua | murder is "form_of, related_to" to has | murder is "related_to" to neighborhood | murder is "derived_from, etymologically_related_to" to lvalue | murder is "related_to" to tesla | murder is "etymologically_related_to" to nights | murder is "related_to" to i'se | murder is "derived_from" to taplitumomab | murder is "related_to" to g_shaped | murder is "derived_from" to skainsmate | murder is "form_of" to f_sharp | murder is "related_to" to ga | murder is "derived_from" to dispossest | murder is "at_location" to wiener_dog | murder is "derived_from, related_to" to d_hole | murder is "form_of" to hs | murder is "derived_from" to deprest | murder is "derived_from" to b.com | murder is "derived_from" to triple | murder is "form_of" to i's | murder is "form_of, synonym" to with | murder is "related_to" to admiral | murder is "defined_as" to fifth_letter_of_roman_alphabet | murder is "related_to" to d_minor | murder is "related_to" to victor | murder is "related_to" to rating | murder is "derived_from" to sanatoria | murder is "related_to" to average | murder is "form_of" to rs | murder is "form_of, synonym, related_to, etymologically_related_to" to o | murder is "synonym" to ethyl | murder is "synonym" to omega | murder is "related_to, form_of" to ve | murder is "derived_from, etymologically_related_to" to all_mort | murder is "derived_from" to b.des | murder is "derived_from" to pyrrhonist | murder is "derived_from" to czechoslovak | murder is "has_context" to football | murder is "related_to" to interconsonantal | murder is "defined_as" to second_letter_of_roman_alphabet | murder is "form_of" to e_s | murder is "etymologically_related_to" to epeen | murder is "derived_from" to phenomena | murder is "related_to" to k_r | murder is "has_context" to euphemism | murder is "related_to" to ancient_greek | murder is "part_of" to mit | murder is "related_to" to h_shaped | murder is "related_to, synonym" to gram | murder is "etymologically_related_to" to rasopathy | murder is "derived_from" to pigscot | murder is "derived_from" to rackarock | murder is "derived_from" to neura | murder is "derived_from" to gigography | murder is "derived_from" to iodabenzene | murder is "related_to" to methamphetamine | murder is "related_to" to major_scale | murder is "related_to" to gravity | murder is "related_to" to equal_temperament | murder is "synonym" to triiodothyronine | murder is "related_to" to amphibious | murder is "related_to, etymologically_related_to, form_of, antonym" to y |</t>
-  </si>
-  <si>
-    <t>bench is "related_to, distinct_from" to chair | bench is "related_to" to sitting | bench is "is_a, used_for, related_to" to seat | bench is "is_a" to furniture | sofa is "is_a, related_to, distinct_from" to chair | sofa is "related_to" to sitting | sofa is "is_a, used_for, related_to" to seat | sofa is "is_a, related_to, has_context" to furniture | stool is "is_a, related_to, etymologically_related_to, antonym, synonym" to chair | stool is "related_to" to sitting | stool is "is_a, related_to" to seat | stool is "is_a" to furniture</t>
-  </si>
-  <si>
-    <t>beaker is "synonym" to aud | beaker is "etymologically_related_to" to athwartships | beaker is "related_to" to acting | beaker is "synonym, related_to" to farad | beaker is "etymologically_related_to" to aphobia | beaker is "related_to" to anaptyxis | beaker is "related_to" to van_der_waals_constant | beaker is "related_to" to goals | beaker is "synonym, related_to" to square_metre | beaker is "has_context" to fandom_slang | beaker is "related_to" to constant_of_integration | beaker is "derived_from" to clansperson | beaker is "related_to" to lambdacism | beaker is "causes" to getting_paid | beaker is "related_to, etymologically_related_to, form_of" to am | beaker is "related_to" to air_conditioned | beaker is "related_to" to act | beaker is "derived_from" to b.s.n | beaker is "synonym" to proton | beaker is "related_to" to short_s | beaker is "related_to" to third_person | beaker is "dbpedia/genre" to parsing | beaker is "etymologically_related_to" to agaze | beaker is "related_to, has_property" to vowel | beaker is "related_to" to first | beaker is "etymologically_related_to" to dezh | beaker is "has_context" to historical | beaker is "related_to" to dirhem | beaker is "related_to" to account | beaker is "related_to" to academy | beaker is "form_of" to myctag | beaker is "related_to" to amos | beaker is "has_context" to type_erasure | beaker is "synonym" to megabyte | beaker is "related_to" to diastereoisomer | beaker is "has_property" to tt | beaker is "related_to" to vide | beaker is "is_a" to motorcycle | beaker is "is_a" to procedural_programming_lanuage | beaker is "related_to" to fuck | beaker is "derived_from" to zoa | beaker is "related_to" to pbuh | beaker is "related_to" to ballet | beaker is "related_to" to ante | beaker is "related_to" to alphabetic | beaker is "related_to" to article | beaker is "derived_from" to remainder | beaker is "synonym" to hydrogen | beaker is "synonym" to nd | beaker is "form_of" to b's | beaker is "related_to" to w_r_t | beaker is "derived_from" to cup | beaker is "etymologically_related_to" to soupcon | beaker is "synonym" to group | beaker is "related_to" to f_minus | beaker is "derived_from" to data | beaker is "form_of" to vv | beaker is "related_to" to visarga | beaker is "derived_from, related_to" to double | beaker is "is_a" to high_c | beaker is "related_to" to ll | beaker is "related_to" to v’s | beaker is "derived_from, at_location" to level | beaker is "form_of" to g_s | beaker is "is_a, related_to" to letter | beaker is "related_to" to penny_sterling | beaker is "related_to" to replace | beaker is "has_property" to cat | beaker is "related_to" to academic | beaker is "synonym" to type | beaker is "related_to" to diatonic_semitone | beaker is "etymologically_related_to" to estes | beaker is "related_to" to before | beaker is "related_to" to victim | beaker is "related_to" to have_got | beaker is "etymologically_related_to" to aitkins | beaker is "synonym" to boron | beaker is "related_to" to a440 | beaker is "form_of" to a's | beaker is "related_to" to sextodecimo | beaker is "synonym" to rat_tail_radish | beaker is "related_to" to annually | beaker is "synonym" to adenine | beaker is "etymologically_related_to, derived_from" to p_adic | beaker is "related_to" to dry_cell_battery | beaker is "related_to" to connecter | beaker is "related_to" to hb | beaker is "related_to" to paradigm | beaker is "related_to" to dram | beaker is "related_to" to is | beaker is "related_to" to b_minor | beaker is "related_to" to count_out | beaker is "related_to" to allele | beaker is "related_to" to hentai | beaker is "synonym" to pee | beaker is "related_to" to use | beaker is "related_to" to ino | beaker is "related_to" to axis | beaker is "derived_from" to amain | beaker is "is_a" to prototype_based_language | beaker is "dbpedia/genre" to k_pop | beaker is "etymologically_related_to" to acrita | beaker is "related_to" to vagina | beaker is "related_to" to brassiere | beaker is "synonym" to double_u | beaker is "derived_from, related_to" to gf | beaker is "has_context, etymologically_related_to" to dice | beaker is "related_to" to ambassador | beaker is "related_to" to c’s | beaker is "derived_from" to team | beaker is "related_to" to pound_sterling | beaker is "derived_from, related_to" to c_hole | beaker is "derived_from" to p_word | beaker is "synonym" to metre | beaker is "related_to" to asymmetric | beaker is "related_to" to segovia | beaker is "related_to" to heroin | beaker is "derived_from" to ultimata | beaker is "related_to" to brewster | beaker is "derived_from, synonym" to bethe | beaker is "is_a" to video_game | beaker is "is_a" to comics_character | beaker is "related_to" to c_minor | beaker is "etymologically_related_to, derived_from" to half_crown | beaker is "related_to" to amp | beaker is "is_a" to anime | beaker is "related_to" to h | beaker is "etymologically_related_to" to w:abo_blood_group_system | beaker is "related_to" to fujita_scale | beaker is "related_to" to anode | beaker is "derived_from" to b.sc | beaker is "derived_from" to sneaksman | beaker is "etymologically_related_to" to theirs | beaker is "etymologically_related_to" to aikins | beaker is "related_to" to algorithm | beaker is "related_to" to football_pitch | beaker is "related_to" to solfeggio | beaker is "related_to" to adjusted | beaker is "synonym" to 1000 | beaker is "has_context" to sports_statistic | beaker is "form_of" to b_sharp | beaker is "has_context" to american_library_association | beaker is "is_a, similar_to" to triton | beaker is "related_to" to bubnoff_unit | beaker is "related_to" to j’s | beaker is "etymologically_related_to" to pandean | beaker is "related_to" to turn | beaker is "has_context" to proscribed | beaker is "related_to" to automobile | beaker is "synonym" to roentgen | beaker is "related_to" to spat | beaker is "synonym" to australian_dollar | beaker is "form_of" to d's | beaker is "derived_from" to jth | beaker is "related_to" to aberdeen_hook | beaker is "has_property" to cajun | beaker is "related_to" to water | beaker is "is_a" to animanga_character | beaker is "synonym" to bel | beaker is "derived_from" to b.ed | beaker is "is_a" to musical_artist | beaker is "related_to" to bye | beaker is "related_to" to tier | beaker is "has_context" to organic_chemistry | beaker is "synonym" to molarity | beaker is "related_to" to monoclonal_antibody | beaker is "related_to" to social | beaker is "related_to" to abbreviation | beaker is "etymologically_related_to" to caravansary | beaker is "derived_from" to hirs | beaker is "synonym" to twelvemo | beaker is "defined_as" to fourth_letter_of_roman_alphabet | beaker is "related_to" to april | beaker is "related_to" to axiom | beaker is "related_to" to penalty_arc | beaker is "synonym" to la_dièse | beaker is "has_context" to grammar | beaker is "related_to" to air_branch | beaker is "etymologically_related_to" to khoum | beaker is "etymologically_related_to" to acardiacus | beaker is "related_to, form_of" to pp | beaker is "derived_from" to aaa | beaker is "etymologically_related_to" to cuppa | beaker is "related_to" to application | beaker is "related_to" to philippine | beaker is "is_a" to television_show | beaker is "etymologically_related_to" to aken | beaker is "derived_from, form_of" to ms | beaker is "related_to" to answer | beaker is "related_to" to spectral_class | beaker is "etymologically_related_to" to noons | beaker is "related_to" to arctic | beaker is "derived_from" to automata | beaker is "etymologically_related_to" to excuse | beaker is "synonym" to gee | beaker is "has_context" to titular | beaker is "related_to" to accepted | beaker is "synonym, related_to" to barn | beaker is "synonym" to mb | beaker is "derived_from" to b.a | beaker is "synonym, related_to" to coulomb | beaker is "related_to" to audit | beaker is "related_to" to circa | beaker is "related_to" to labial | beaker is "derived_from" to b.mus | beaker is "related_to, derived_from" to para | beaker is "dbpedia/genre" to soul_music | beaker is "derived_from" to mausolea | beaker is "etymologically_related_to" to eirs | beaker is "is_a" to hydrogen_atom | beaker is "related_to" to fb | beaker is "etymologically_related_to" to frigga | beaker is "related_to" to breadth | beaker is "etymologically_related_to" to vrykolaka | beaker is "related_to" to administration | beaker is "is_a" to object_oriented_programming_language | beaker is "derived_from" to tradeswoman | beaker is "synonym, related_to" to thousand | beaker is "related_to" to seah | beaker is "synonym, related_to" to en | beaker is "derived_from" to b.litt | beaker is "related_to" to pawn | beaker is "related_to" to physicotheology | beaker is "synonym" to os | beaker is "etymologically_related_to" to copypasta | beaker is "dbpedia/influenced_by" to falcon | beaker is "has_context" to organic_compound | beaker is "derived_from" to ahold | beaker is "related_to" to believe | beaker is "related_to" to my | beaker is "related_to, derived_from" to f_hole | beaker is "related_to" to compiler | beaker is "derived_from" to taxa | beaker is "related_to" to green | beaker is "related_to" to august | beaker is "related_to" to loser_sign | beaker is "related_to" to flat | beaker is "at_location" to wave_clip | beaker is "related_to" to mab | beaker is "derived_from" to hamiltonian | beaker is "synonym, related_to" to bit | beaker is "has_context" to printing | beaker is "related_to" to western | beaker is "related_to" to unit | beaker is "related_to" to atmosphere | beaker is "related_to" to pencil | beaker is "defined_as" to thirteenth_letter_of_roman_alphabet | beaker is "form_of, related_to, etymologically_related_to" to es | beaker is "etymologically_related_to" to austria | beaker is "related_to" to raguileo_alphabet | beaker is "synonym" to speed_of_light | beaker is "related_to" to storativity | beaker is "form_of" to ha | beaker is "related_to" to genitive_case | beaker is "related_to" to wynn | beaker is "derived_from" to nfc | beaker is "derived_from" to nnw | beaker is "synonym" to d100 | beaker is "related_to" to minor | beaker is "related_to" to stade | beaker is "synonym" to do_dièse | beaker is "etymologically_related_to" to hunter's_moon | beaker is "form_of" to f's | beaker is "related_to" to electrical_resistance | beaker is "related_to" to the | beaker is "related_to" to string | beaker is "derived_from" to mth | beaker is "derived_from" to phm.b | beaker is "synonym" to dextro | beaker is "derived_from" to it's | beaker is "related_to, synonym" to liter | beaker is "derived_from" to builder's_mug | beaker is "related_to" to c_channel | beaker is "related_to" to accidental | beaker is "etymologically_related_to" to miscellaneum | beaker is "has_context" to british | beaker is "related_to" to semivowel | beaker is "related_to" to f’s | beaker is "related_to" to author | beaker is "related_to" to in | beaker is "related_to" to keynote | beaker is "related_to" to medium | beaker is "derived_from" to vis_vis | beaker is "related_to" to ashoka | beaker is "related_to" to accommodation | beaker is "related_to" to age | beaker is "related_to" to signor | beaker is "form_of, derived_from, etymologically_related_to, related_to" to ae | beaker is "derived_from" to statesman | beaker is "related_to" to let's | beaker is "etymologically_related_to" to stage | beaker is "related_to" to solfege | beaker is "etymologically_related_to" to cmos | beaker is "related_to" to rip | beaker is "derived_from" to b.s | beaker is "related_to" to f_shaped | beaker is "etymologically_related_to" to cetera | beaker is "has_context" to physics | beaker is "etymologically_related_to" to anecdotum | beaker is "related_to" to kuh | beaker is "related_to, similar_to" to m | beaker is "capable_of" to can_store_food | beaker is "at_location" to denmark | beaker is "synonym, related_to" to angstrom | beaker is "defined_as" to twelveth_letter_of_roman_alphabet | beaker is "defined_as" to third_letter_of_roman_alphabet | beaker is "related_to" to four_lines | beaker is "has_context" to roadway | beaker is "at_location" to combo_pass | beaker is "etymologically_related_to" to jackanape | beaker is "has_context" to internet_slang | beaker is "etymologically_related_to" to toodles | beaker is "related_to" to at | beaker is "derived_from" to mano_mano | beaker is "has_context" to road_transport | beaker is "related_to" to decomposition | beaker is "related_to" to transhumanism | beaker is "synonym" to l_size | beaker is "etymologically_related_to" to acaulous | beaker is "etymologically_related_to" to ell | beaker is "etymologically_related_to" to beeswax | beaker is "related_to" to academician | beaker is "derived_from" to aa | beaker is "related_to" to fermion | beaker is "derived_from" to b.comm | beaker is "is_a" to blood_group | beaker is "related_to" to atomic_weight | beaker is "related_to" to gangsta | beaker is "related_to" to other | beaker is "related_to" to mega | beaker is "related_to" to be | beaker is "has_context" to programming | beaker is "etymologically_related_to" to asqtad | beaker is "etymologically_related_to" to aglutition | beaker is "related_to" to ods | beaker is "related_to" to ri | beaker is "related_to" to absolute_temperature | beaker is "has_context" to titles | beaker is "form_of" to b_s | beaker is "is_a, etymologically_related_to" to or | beaker is "related_to" to argent | beaker is "has_prerequisite" to talk_to | beaker is "related_to" to chromatic_scale | beaker is "related_to, similar_to, form_of" to s | beaker is "related_to" to make | beaker is "has_context" to military | beaker is "related_to" to american | beaker is "related_to" to charlie | beaker is "form_of" to van | beaker is "synonym" to wth | beaker is "related_to" to crease | beaker is "related_to, form_of" to re | beaker is "form_of" to ss | beaker is "etymologically_related_to" to athanogene | beaker is "related_to" to bisphenol | beaker is "related_to" to after | beaker is "etymologically_related_to" to gilf | beaker is "has_context" to education | beaker is "related_to" to maiden_over | beaker is "has_property" to statement | beaker is "related_to" to viscount | beaker is "derived_from" to jack_lent | beaker is "has_context" to pharmacology | beaker is "related_to" to automatic | beaker is "related_to" to century | beaker is "related_to" to pure | beaker is "related_to" to latin | beaker is "related_to" to adult | beaker is "synonym" to mi | beaker is "synonym" to vitamin_c | beaker is "form_of, derived_from" to as | beaker is "synonym" to phosphorus | beaker is "etymologically_related_to" to dswounds | beaker is "related_to" to alto | beaker is "related_to" to nail | beaker is "derived_from" to chaussé'd | beaker is "related_to" to cello | beaker is "related_to" to p | beaker is "synonym" to levo | beaker is "derived_from" to j | beaker is "synonym, related_to, form_of" to an | beaker is "related_to" to assist | beaker is "form_of" to c_s | beaker is "related_to" to ℓ | beaker is "is_a" to fictional_character | beaker is "has_property" to playoff | beaker is "dbpedia/influenced_by" to javascript | beaker is "related_to" to conservative | beaker is "dbpedia/influenced_by" to ecmascript | beaker is "etymologically_related_to" to purkins | beaker is "related_to" to videte | beaker is "related_to" to w_o | beaker is "related_to" to round | beaker is "has_property" to second_letter_of_alphabet | beaker is "synonym" to randomness | beaker is "derived_from" to oversman | beaker is "related_to" to a’s | beaker is "has_last_subevent" to go_to_market | beaker is "related_to" to pip | beaker is "related_to" to gomer | beaker is "related_to" to l_shaped | beaker is "related_to" to bath | beaker is "related_to" to shaped | beaker is "related_to" to inferior | beaker is "synonym" to coke | beaker is "defined_as" to first_letter_of_word_chair | beaker is "related_to" to axiomatic | beaker is "synonym" to volt | beaker is "related_to" to astragal | beaker is "has_context" to us | beaker is "related_to" to cor | beaker is "related_to" to value | beaker is "related_to, derived_from" to grade | beaker is "similar_to, is_a, synonym" to deuteron | beaker is "dbpedia/genre" to survival_horror | beaker is "related_to" to amphibian | beaker is "derived_from" to bullswool | beaker is "related_to" to kc | beaker is "dbpedia/influenced_by" to scheme | beaker is "synonym, derived_from" to sec | beaker is "etymologically_related_to" to perrins | beaker is "synonym" to group_b | beaker is "synonym" to tungsten | beaker is "dbpedia/genre" to rhythm_and_blues | beaker is "etymologically_related_to" to est | beaker is "etymologically_related_to" to slut's_wool | beaker is "has_context" to from_latin_libra | beaker is "related_to, etymologically_related_to, dbpedia/influenced_by" to b | beaker is "related_to" to subatomic_particle | beaker is "derived_from" to jack_dandy | beaker is "derived_from" to bass | beaker is "related_to" to sigmoid | beaker is "related_to" to verse | beaker is "form_of, related_to" to um | beaker is "related_to" to bee | beaker is "derived_from" to john_dreams | beaker is "etymologically_related_to" to pithers | beaker is "is_a" to shortcut_for_air_conditioning | beaker is "etymologically_related_to, derived_from" to ragamuffin | beaker is "related_to" to mature | beaker is "defined_as" to tenth_letter_of_roman_alphabet | beaker is "at_location" to hair_clip | beaker is "related_to" to year | beaker is "related_to" to p_shaped | beaker is "etymologically_related_to" to abiosis | beaker is "related_to" to b_flat | beaker is "synonym, etymologically_related_to" to eth | beaker is "synonym" to lambert | beaker is "related_to" to major | beaker is "etymologically_related_to" to betimes | beaker is "derived_from, related_to" to otw | beaker is "derived_from" to b.ch.d | beaker is "form_of" to did | beaker is "related_to" to anterior | beaker is "form_of, related_to" to a | beaker is "dbpedia/influenced_by" to lua | beaker is "form_of, related_to" to has | beaker is "derived_from, etymologically_related_to" to lvalue | beaker is "etymologically_related_to" to nights | beaker is "related_to" to g_shaped | beaker is "derived_from" to skainsmate | beaker is "form_of" to f_sharp | beaker is "related_to" to ga | beaker is "related_to" to japanese | beaker is "at_location" to wiener_dog | beaker is "derived_from, related_to" to d_hole | beaker is "form_of" to hs | beaker is "synonym, related_to" to joule | beaker is "derived_from" to b.com | beaker is "derived_from" to triple | beaker is "form_of, synonym" to with | beaker is "dbpedia/occupation" to narration | beaker is "related_to" to admiral | beaker is "related_to" to d_minor | beaker is "related_to" to victor | beaker is "related_to" to rating | beaker is "derived_from" to sanatoria | beaker is "related_to" to average | beaker is "form_of" to rs | beaker is "form_of, synonym, related_to, etymologically_related_to" to o | beaker is "related_to, form_of" to ve | beaker is "derived_from, etymologically_related_to" to all_mort | beaker is "derived_from" to b.des | beaker is "has_context" to football | beaker is "defined_as" to second_letter_of_roman_alphabet | beaker is "derived_from" to phenomena | beaker is "related_to" to k_r | beaker is "has_context" to euphemism | beaker is "related_to" to h_shaped | beaker is "related_to, synonym" to gram | beaker is "derived_from" to pigscot | beaker is "derived_from" to rackarock | beaker is "derived_from" to neura | beaker is "derived_from" to iodabenzene | beaker is "related_to" to methamphetamine | beaker is "related_to" to major_scale | beaker is "related_to" to gravity | beaker is "related_to" to equal_temperament | beaker is "related_to" to amphibious | beaker is "related_to" to y | beaker is "capable_of" to mammal | beaker is "derived_from" to birdsmouth | beaker is "derived_from" to criteria | beaker is "related_to" to litre | beaker is "etymologically_related_to" to sithence | beaker is "related_to" to celestial_object | beaker is "related_to" to absent | beaker is "related_to" to cl | beaker is "related_to" to weingarten_right | beaker is "etymologically_related_to" to nones | beaker is "related_to" to r_shaped | beaker is "is_a" to jesus_was_crucified | beaker is "synonym" to rix | beaker is "related_to" to area | beaker is "related_to" to saint | beaker is "related_to" to status | beaker is "has_context" to unicode | beaker is "etymologically_related_to" to jackanapes | beaker is "derived_from" to v_neck | beaker is "related_to" to b_testing | beaker is "derived_from, related_to" to otl | beaker is "derived_from" to archaea | beaker is "synonym" to regina | beaker is "is_a" to proton_hydron | beaker is "dbpedia/influenced_by" to ruby | beaker is "etymologically_related_to" to u | beaker is "derived_from" to bacteria | beaker is "derived_from" to colossea | beaker is "related_to" to arterial | beaker is "related_to" to specific_absorption_coefficient | beaker is "has_context" to linguistics | beaker is "related_to" to specific_rotation | beaker is "derived_from" to b.f.a | beaker is "at_location" to resturant | beaker is "related_to" to adjective | beaker is "related_to" to alpha_privative | beaker is "has_context" to until_february_1971 | beaker is "etymologically_related_to" to anuptaphobia | beaker is "related_to" to b_word | beaker is "derived_from" to lth | beaker is "related_to" to canonical | beaker is "related_to" to absolute | beaker is "synonym" to guanine | beaker is "related_to" to ing | beaker is "related_to" to l_plate | beaker is "related_to, has_context" to verb | beaker is "related_to" to iv | beaker is "is_a, instance_of" to manga | beaker is "has_context" to computing | beaker is "form_of" to r's | beaker is "related_to" to b_♭ | beaker is "form_of" to cs | beaker is "has_context" to england | beaker is "related_to" to log | beaker is "related_to" to curiously_recurring_template_pattern | beaker is "etymologically_related_to" to astand | beaker is "dbpedia/language" to boa | beaker is "defined_as" to first_letter_of_roman_alphabet | beaker is "related_to" to anthracite | beaker is "has_context" to text_messaging | beaker is "etymologically_related_to" to yours | beaker is "has_context" to when_it_is_nonstandardly_used_as_relative_pronoun | beaker is "etymologically_related_to" to taxaphobic | beaker is "etymologically_related_to" to rogers | beaker is "derived_from" to b.s.l | beaker is "related_to" to artery | beaker is "etymologically_related_to" to ours | beaker is "related_to" to wednesday | beaker is "related_to" to sterling | beaker is "related_to" to lines | beaker is "related_to" to asian | beaker is "related_to" to sf_f | beaker is "related_to" to singular | beaker is "etymologically_related_to" to januarys | beaker is "has_context" to statistic_reporting_number_of_games_that_player_has_participated_in | beaker is "etymologically_related_to" to amissing | beaker is "form_of" to p's | beaker is "synonym" to planck's_constant | beaker is "related_to" to wolf_hook | beaker is "derived_from" to s_bomb | beaker is "related_to" to emma | beaker is "etymologically_related_to" to fuckabilly | beaker is "related_to" to c_shaped | beaker is "etymologically_related_to" to vegas | beaker is "related_to" to thing | beaker is "has_context" to britain | beaker is "etymologically_related_to" to anothergates | beaker is "related_to" to omer | beaker is "has_context" to stock_symbol | beaker is "related_to" to rat | beaker is "related_to" to cancer | beaker is "related_to" to toward | beaker is "related_to" to beginnings | beaker is "related_to" to tcl | beaker is "related_to" to polyvinyl_chloride | beaker is "derived_from" to spearsman | beaker is "at_location" to drive | beaker is "related_to" to mass_number | beaker is "related_to" to witness | beaker is "related_to" to rf | beaker is "related_to" to cycle_of_fifths | beaker is "etymologically_related_to" to valor | beaker is "synonym" to euse | beaker is "form_of" to v's | beaker is "at_location" to belgium | beaker is "related_to" to hib | beaker is "related_to" to turing_machine | beaker is "related_to" to gangster | beaker is "derived_from" to plantsperson | beaker is "related_to" to baulk_line | beaker is "related_to" to acre | beaker is "etymologically_related_to" to meetaversary | beaker is "etymologically_related_to" to madalyn | beaker is "has_context" to computer_science | beaker is "is_a, has_context" to movie | beaker is "related_to" to polynomial_time | beaker is "related_to" to issa | beaker is "has_property" to country | beaker is "derived_from" to diptera | beaker is "antonym" to r | beaker is "derived_from" to b.lit | beaker is "derived_from" to zero_g | beaker is "related_to" to actus | beaker is "form_of" to m's | beaker is "related_to" to pinfall | beaker is "has_property" to third_letter_of_alphabet | beaker is "etymologically_related_to" to kudo | beaker is "derived_from" to ephemera | beaker is "synonym" to deoxyadenosine_monophosphate | beaker is "related_to" to high_level | beaker is "related_to" to cj | beaker is "at_location" to fox | beaker is "is_a" to weak_electrolyte | beaker is "synonym" to deoxyguanosine_monophosphate | beaker is "at_location" to roof | beaker is "etymologically_related_to, related_to" to have | beaker is "related_to" to approved | beaker is "form_of" to ws | beaker is "derived_from" to tilt_whirl | beaker is "related_to" to corner_tooth | beaker is "derived_from" to b.e | beaker is "related_to, etymologically_related_to" to er | beaker is "has_context" to baseball | beaker is "related_to" to association | beaker is "form_of" to d_s | beaker is "etymologically_related_to" to supercee | beaker is "has_context" to chess | beaker is "related_to" to fourth_position | beaker is "related_to" to sulfanylidene | beaker is "related_to" to acreage | beaker is "related_to" to alphanumeric | beaker is "has_context" to found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives | beaker is "synonym" to g_force | beaker is "derived_from" to ff_hole | beaker is "related_to" to b_story | beaker is "dbpedia/influenced_by" to clu | beaker is "related_to" to islamic_calendar | beaker is "related_to" to employ | beaker is "has_context, related_to" to set_theory | beaker is "derived_from, etymologically_related_to" to take_l | beaker is "related_to" to nyse | beaker is "related_to" to variant | beaker is "etymologically_related_to" to anecdota | beaker is "synonym, related_to" to south | beaker is "derived_from" to workaday | beaker is "related_to" to numeral | beaker is "related_to" to frequency | beaker is "related_to" to oboe_d_amore | beaker is "derived_from" to b.e.e | beaker is "synonym" to five_hundred | beaker is "capable_of" to can_begin_to_leak | beaker is "related_to, form_of" to jj | beaker is "derived_from" to ll.b | beaker is "etymologically_related_to" to besides | beaker is "synonym, related_to" to costa | beaker is "related_to" to homer | beaker is "is_a" to republican | beaker is "etymologically_related_to" to women's_christmas | beaker is "etymologically_related_to" to aikens | beaker is "related_to" to stop_codon | beaker is "has_context" to symbols | beaker is "synonym, related_to" to folio | beaker is "etymologically_related_to" to port_o_john | beaker is "derived_from" to nfd | beaker is "form_of, related_to" to fs | beaker is "used_for" to gentleman | beaker is "related_to" to atomic | beaker is "at_location" to mouse | beaker is "etymologically_related_to" to perhaps | beaker is "at_location" to sloth | beaker is "related_to" to oi | beaker is "related_to" to scarlet_letter | beaker is "related_to" to e_♭_instrument | beaker is "etymologically_related_to, synonym" to dubya | beaker is "related_to" to available | beaker is "form_of, related_to" to bs | beaker is "related_to, derived_from, dbpedia/influenced_by" to java | beaker is "related_to" to w | beaker is "synonym" to type_b | beaker is "etymologically_related_to" to aitkens | beaker is "has_context" to journalism | beaker is "derived_from" to 1_g | beaker is "related_to" to active | beaker is "has_context" to black_english_and_slang | beaker is "has_context" to biblical | beaker is "synonym" to au | beaker is "related_to" to vector | beaker is "related_to" to template_metaprogramming | beaker is "derived_from" to b.chir | beaker is "related_to" to copyright_symbol | beaker is "etymologically_related_to" to cockalorum | beaker is "similar_to" to nc_17 | beaker is "related_to" to sarcastic | beaker is "has_context" to legal | beaker is "related_to" to airplane | beaker is "related_to" to f_major | beaker is "related_to" to scale | beaker is "derived_from" to cola | beaker is "related_to" to assault | beaker is "derived_from" to schwar | beaker is "etymologically_related_to" to piss_like_racehorse | beaker is "form_of" to h's | beaker is "dbpedia/influenced_by" to cobol | beaker is "related_to" to admit | beaker is "related_to" to urbiscript | beaker is "derived_from" to b.acc | beaker is "related_to" to iii | beaker is "related_to" to long_s | beaker is "similar_to" to sx | beaker is "synonym" to mho | beaker is "derived_from" to batsman | beaker is "synonym" to córdoba | beaker is "derived_from" to hulkamania | beaker is "etymologically_related_to" to ma_am | beaker is "derived_from" to b.math | beaker is "related_to" to enharmonic | beaker is "related_to" to mother | beaker is "has_context" to electronics | beaker is "related_to" to rhotacism | beaker is "derived_from" to stadia | beaker is "related_to" to america | beaker is "derived_from" to bug_boo | beaker is "related_to" to alpha_privativum | beaker is "related_to, synonym" to arc | beaker is "related_to" to nuevo_sol | beaker is "derived_from" to bomb | beaker is "derived_from" to dactinomycin | beaker is "related_to" to penny | beaker is "derived_from" to g_rated | beaker is "related_to" to version | beaker is "related_to" to terminal_s | beaker is "form_of" to w's | beaker is "derived_from, dbpedia/influenced_by, related_to, etymologically_related_to" to c | beaker is "related_to" to external | beaker is "related_to" to malloc | beaker is "related_to" to np | beaker is "related_to" to dog's_letter | beaker is "related_to" to indefinite_article | beaker is "related_to" to right | beaker is "etymologically_related_to" to aware | beaker is "derived_from" to cock_hoop | beaker is "related_to" to r’s | beaker is "related_to" to stl | beaker is "related_to" to b_shaped | beaker is "form_of, related_to" to ed | beaker is "related_to, derived_from" to s_hole | beaker is "is_a" to basketball_league | beaker is "at_location" to flute | beaker is "derived_from" to fora | beaker is "related_to" to aunt | beaker is "dbpedia/influenced_by" to assembly_language | beaker is "has_context" to used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words | beaker is "related_to, synonym" to carbon | beaker is "related_to" to artillery | beaker is "synonym" to 100 | beaker is "derived_from" to b.s.e.e | beaker is "related_to" to w_i | beaker is "has_context" to preposition | beaker is "etymologically_related_to" to dateaversary | beaker is "dbpedia/influenced_by" to go | beaker is "form_of" to do | beaker is "related_to" to sol_fa | beaker is "synonym" to s_size | beaker is "etymologically_related_to, derived_from" to no | beaker is "related_to" to aspect_ratio | beaker is "has_context" to entomology | beaker is "related_to" to graph | beaker is "synonym" to rd | beaker is "derived_from" to b_final | beaker is "derived_from" to levulose | beaker is "defined_as" to sixteenth_letter_of_roman_alphabet | beaker is "derived_from" to lb | beaker is "derived_from" to h_shackle | beaker is "synonym" to form | beaker is "related_to" to indicative | beaker is "related_to" to coarticulate | beaker is "derived_from" to pers | beaker is "related_to, etymologically_related_to" to set | beaker is "has_context" to used_mainly_after_where_here_and_there | beaker is "derived_from" to b.m.e | beaker is "etymologically_related_to" to kenna | beaker is "related_to, has_context" to nonstandard | beaker is "has_context" to dialectal | beaker is "related_to" to aqua | beaker is "related_to" to ⠁ | beaker is "related_to" to mute_h | beaker is "related_to" to g’s | beaker is "etymologically_related_to" to un | beaker is "related_to" to break_off | beaker is "form_of" to ies | beaker is "at_location" to fork | beaker is "etymologically_related_to" to upon | beaker is "related_to" to solfège | beaker is "derived_from" to exhibit | beaker is "related_to" to big | beaker is "related_to" to n_acetyl_p_aminophenol | beaker is "related_to"</t>
-  </si>
-  <si>
-    <t>hand is "part_of, at_location, related_to" to finger | toe is "antonym, distinct_from, synonym, related_to, similar_to" to finger | trigger is "related_to" to finger</t>
-  </si>
-  <si>
-    <t>bloom is "synonym, related_to" to nitrogen | bloom is "derived_from" to toonophile | bloom is "related_to" to ortho | bloom is "synonym" to aud | bloom is "related_to" to set_phrase | bloom is "etymologically_related_to" to athwartships | bloom is "derived_from" to t_zone | bloom is "related_to" to acting | bloom is "synonym, related_to" to farad | bloom is "etymologically_related_to" to aphobia | bloom is "related_to" to anaptyxis | bloom is "related_to" to van_der_waals_constant | bloom is "etymologically_related_to" to tesh | bloom is "related_to" to goals | bloom is "form_of" to t's | bloom is "derived_from" to scalogram | bloom is "etymologically_related_to" to ometry | bloom is "synonym" to sincerely | bloom is "synonym, related_to" to square_metre | bloom is "etymologically_related_to" to t_internet | bloom is "has_context" to fandom_slang | bloom is "related_to" to o_face | bloom is "related_to" to constant_of_integration | bloom is "derived_from" to eddress | bloom is "derived_from" to clansperson | bloom is "related_to" to lambdacism | bloom is "causes" to getting_paid | bloom is "related_to, etymologically_related_to, form_of" to am | bloom is "related_to" to air_conditioned | bloom is "dbpedia/influenced_by" to algol | bloom is "related_to" to act | bloom is "etymologically_related_to" to non_sequituri | bloom is "derived_from" to b.s.n | bloom is "synonym" to proton | bloom is "related_to" to short_s | bloom is "related_to" to kay | bloom is "related_to" to third_person | bloom is "derived_from" to t_piece | bloom is "dbpedia/genre" to parsing | bloom is "etymologically_related_to" to agaze | bloom is "related_to, has_property" to vowel | bloom is "related_to" to first | bloom is "etymologically_related_to" to dezh | bloom is "related_to" to o_shaped | bloom is "related_to" to language | bloom is "has_last_subevent" to purchase_cellular_phone | bloom is "defined_as" to base_of_natural_logarithms | bloom is "related_to" to thousands | bloom is "derived_from" to drencht | bloom is "has_context" to historical | bloom is "related_to" to dirhem | bloom is "related_to" to account | bloom is "related_to" to academy | bloom is "related_to" to man | bloom is "related_to" to amos | bloom is "has_context" to type_erasure | bloom is "related_to" to 360 | bloom is "synonym" to megabyte | bloom is "related_to" to diastereoisomer | bloom is "has_property" to tt | bloom is "related_to" to vide | bloom is "is_a" to motorcycle | bloom is "is_a" to procedural_programming_lanuage | bloom is "related_to" to fuck | bloom is "derived_from" to zoa | bloom is "related_to" to pbuh | bloom is "derived_from" to rafivirumab | bloom is "related_to" to ballet | bloom is "related_to" to ante | bloom is "related_to" to alphabetic | bloom is "etymologically_related_to" to there | bloom is "related_to" to was | bloom is "related_to" to article | bloom is "derived_from" to remainder | bloom is "synonym" to hydrogen | bloom is "derived_from" to equipt | bloom is "etymologically_related_to" to archeopteryx | bloom is "etymologically_related_to" to balanophagous | bloom is "synonym" to nd | bloom is "form_of" to b's | bloom is "derived_from" to e_vite | bloom is "derived_from" to cup | bloom is "etymologically_related_to" to soupcon | bloom is "has_context" to united_kingdom | bloom is "related_to" to casualty | bloom is "synonym" to group | bloom is "derived_from" to embellisht | bloom is "at_location" to rosebush | bloom is "related_to" to f_minus | bloom is "derived_from" to n_tert_butyl | bloom is "related_to" to damma | bloom is "derived_from" to data | bloom is "form_of" to vv | bloom is "related_to" to visarga | bloom is "derived_from, related_to" to double | bloom is "derived_from" to dealt | bloom is "etymologically_related_to" to xiphisternum | bloom is "related_to" to interfix | bloom is "related_to" to writer | bloom is "synonym, related_to" to north | bloom is "is_a" to high_c | bloom is "derived_from" to kayo | bloom is "related_to" to ll | bloom is "related_to" to v’s | bloom is "derived_from, at_location" to level | bloom is "form_of" to g_s | bloom is "is_a, related_to" to letter | bloom is "derived_from" to robatumumab | bloom is "related_to" to penny_sterling | bloom is "related_to" to replace | bloom is "related_to" to kasra | bloom is "has_property" to cat | bloom is "related_to" to academic | bloom is "synonym" to type | bloom is "related_to" to diatonic_semitone | bloom is "etymologically_related_to" to estes | bloom is "related_to" to before | bloom is "derived_from" to e_tail | bloom is "related_to" to victim | bloom is "related_to" to have_got | bloom is "derived_from" to belcht | bloom is "etymologically_related_to" to aitkins | bloom is "related_to" to i’s | bloom is "synonym" to boron | bloom is "related_to" to subject | bloom is "related_to" to a440 | bloom is "form_of" to a's | bloom is "related_to" to sextodecimo | bloom is "synonym" to rat_tail_radish | bloom is "related_to" to annually | bloom is "synonym" to adenine | bloom is "etymologically_related_to, derived_from" to p_adic | bloom is "related_to" to surname | bloom is "related_to" to meaning | bloom is "related_to" to dry_cell_battery | bloom is "related_to" to connecter | bloom is "related_to" to hb | bloom is "derived_from" to efungumab | bloom is "related_to" to paradigm | bloom is "derived_from" to man_o_war | bloom is "related_to" to svo | bloom is "derived_from" to embryoniferous | bloom is "related_to" to u’s | bloom is "related_to, etymologically_related_to, synonym" to kilobyte | bloom is "related_to" to dram | bloom is "related_to, form_of, derived_from" to is | bloom is "related_to" to b_minor | bloom is "related_to" to count_out | bloom is "related_to" to vocative_case | bloom is "related_to" to allele | bloom is "related_to, form_of" to ees | bloom is "derived_from" to t_splice | bloom is "related_to" to hentai | bloom is "synonym" to pee | bloom is "synonym" to regards | bloom is "related_to" to use | bloom is "etymologically_related_to" to egotist | bloom is "related_to" to ino | bloom is "related_to" to axis | bloom is "derived_from" to amain | bloom is "has_context" to espionage | bloom is "etymologically_related_to" to ok | bloom is "is_a" to prototype_based_language | bloom is "etymologically_related_to" to acrita | bloom is "related_to" to magic_e | bloom is "related_to" to tertiary | bloom is "related_to" to vagina | bloom is "etymologically_related_to" to miserabilist | bloom is "derived_from" to clicko | bloom is "related_to" to brassiere | bloom is "related_to" to u_tube | bloom is "derived_from, related_to" to gf | bloom is "has_context, etymologically_related_to" to dice | bloom is "related_to" to ambassador | bloom is "related_to" to nisba | bloom is "related_to" to c’s | bloom is "derived_from" to team | bloom is "related_to" to pound_sterling | bloom is "has_context" to finance | bloom is "derived_from, related_to" to c_hole | bloom is "derived_from" to symbologenic | bloom is "has_context" to 4chan | bloom is "derived_from" to homœo | bloom is "related_to" to personal | bloom is "related_to" to e_shaped | bloom is "derived_from" to p_word | bloom is "synonym" to metre | bloom is "derived_from" to ious | bloom is "related_to" to asymmetric | bloom is "related_to" to e’s | bloom is "related_to" to segovia | bloom is "synonym" to alias | bloom is "related_to" to heroin | bloom is "derived_from" to ultimata | bloom is "related_to" to brewster | bloom is "derived_from, synonym" to bethe | bloom is "is_a" to video_game | bloom is "derived_from" to cœno | bloom is "is_a" to comics_character | bloom is "related_to" to you_and | bloom is "related_to" to c_minor | bloom is "etymologically_related_to" to yt | bloom is "etymologically_related_to, derived_from" to half_crown | bloom is "related_to" to amp | bloom is "is_a" to anime | bloom is "etymologically_related_to" to w:abo_blood_group_system | bloom is "related_to" to fujita_scale | bloom is "related_to" to anode | bloom is "derived_from" to b.sc | bloom is "derived_from" to coenoblast | bloom is "derived_from" to sneaksman | bloom is "etymologically_related_to" to theirs | bloom is "etymologically_related_to" to aikins | bloom is "related_to" to algorithm | bloom is "related_to" to football_pitch | bloom is "related_to" to solfeggio | bloom is "related_to" to adjusted | bloom is "synonym" to 1000 | bloom is "has_context" to sports_statistic | bloom is "related_to" to mdma | bloom is "form_of" to b_sharp | bloom is "derived_from" to bleacht | bloom is "has_context" to american_library_association | bloom is "is_a, synonym, similar_to" to triton | bloom is "related_to" to bubnoff_unit | bloom is "etymologically_related_to" to pandean | bloom is "related_to" to turn | bloom is "has_context" to proscribed | bloom is "related_to" to entertainment | bloom is "related_to" to automobile | bloom is "has_context" to hypercorrection | bloom is "synonym" to roentgen | bloom is "derived_from" to carrying_capacity | bloom is "synonym" to neutron | bloom is "related_to" to spat | bloom is "synonym" to australian_dollar | bloom is "related_to" to roman_numeral | bloom is "etymologically_related_to" to lose | bloom is "form_of" to d's | bloom is "etymologically_related_to" to micro | bloom is "related_to" to proverb | bloom is "derived_from" to hook_n_kill | bloom is "etymologically_related_to" to twou'dn't | bloom is "has_property" to cajun | bloom is "related_to" to water | bloom is "derived_from" to blest | bloom is "related_to" to perpendicular_pronoun | bloom is "is_a" to animanga_character | bloom is "derived_from" to coenosteum | bloom is "synonym" to bel | bloom is "related_to" to vocative | bloom is "derived_from" to b.ed | bloom is "is_a" to musical_artist | bloom is "related_to, derived_from, antonym" to non_u | bloom is "related_to" to note | bloom is "synonym" to i_don't_care | bloom is "synonym" to einsteinium | bloom is "related_to" to bye | bloom is "related_to" to tier | bloom is "related_to" to f_k | bloom is "etymologically_related_to" to bohdanowiczite | bloom is "has_context" to organic_chemistry | bloom is "synonym" to molarity | bloom is "related_to" to monoclonal_antibody | bloom is "related_to" to social | bloom is "related_to" to transmissivity | bloom is "related_to" to abbreviation | bloom is "derived_from" to thinko | bloom is "etymologically_related_to" to caravansary | bloom is "derived_from" to hirs | bloom is "derived_from" to naptumomab_estafenatox | bloom is "related_to, etymologically_related_to" to ie | bloom is "related_to" to pneumo | bloom is "derived_from" to xylanolysis | bloom is "derived_from" to salt_n_shake | bloom is "synonym" to twelvemo | bloom is "defined_as" to fourth_letter_of_roman_alphabet | bloom is "related_to" to india | bloom is "related_to" to april | bloom is "derived_from" to pork_n_beans | bloom is "related_to" to axiom | bloom is "related_to" to penalty_arc | bloom is "synonym" to la_dièse | bloom is "has_context" to grammar | bloom is "related_to" to air_branch | bloom is "derived_from" to kmer | bloom is "etymologically_related_to" to khoum | bloom is "etymologically_related_to" to acardiacus | bloom is "derived_from" to e_volution | bloom is "related_to, form_of" to pp | bloom is "derived_from" to aaa | bloom is "derived_from" to lemalesomab | bloom is "derived_from" to annext | bloom is "derived_from" to lexatumumab | bloom is "etymologically_related_to" to cuppa | bloom is "derived_from" to bornt | bloom is "related_to" to application | bloom is "derived_from" to will_o_wisp | bloom is "etymologically_related_to" to n_ary | bloom is "related_to" to first_person | bloom is "derived_from" to clasht | bloom is "related_to" to philippine | bloom is "related_to" to time | bloom is "derived_from" to cropt | bloom is "derived_from" to kk | bloom is "etymologically_related_to" to aken | bloom is "is_a" to television_show | bloom is "synonym, related_to" to zero | bloom is "derived_from, form_of" to ms | bloom is "related_to" to seleno | bloom is "synonym" to perfection | bloom is "related_to" to answer | bloom is "related_to" to were | bloom is "related_to" to spectral_class | bloom is "derived_from, etymologically_related_to" to speako | bloom is "etymologically_related_to" to noons | bloom is "related_to, derived_from" to e_folding | bloom is "derived_from" to oyl | bloom is "etymologically_related_to" to gameto | bloom is "related_to" to arctic | bloom is "etymologically_related_to, form_of" to e's | bloom is "derived_from" to automata | bloom is "etymologically_related_to" to excuse | bloom is "synonym" to gee | bloom is "has_context" to titular | bloom is "derived_from" to libivirumab | bloom is "related_to" to sw | bloom is "derived_from" to encroacht | bloom is "related_to" to accepted | bloom is "has_context" to unstressed | bloom is "related_to" to tis | bloom is "derived_from" to run_o_mill | bloom is "synonym, related_to" to barn | bloom is "synonym" to mb | bloom is "derived_from" to b.a | bloom is "derived_from" to lurianic | bloom is "related_to" to argyro | bloom is "synonym, related_to" to coulomb | bloom is "derived_from" to iferous | bloom is "is_a" to sr | bloom is "derived_from" to chirpt | bloom is "derived_from" to k_hole | bloom is "related_to" to audit | bloom is "derived_from" to distinguisht | bloom is "related_to" to circa | bloom is "derived_from" to e_quainted | bloom is "etymologically_related_to" to galanthophile | bloom is "related_to" to labial | bloom is "derived_from" to i_ship | bloom is "derived_from" to b.mus | bloom is "etymologically_related_to" to moo_u | bloom is "related_to" to ngl | bloom is "related_to" to mbta | bloom is "dbpedia/genre" to j_pop | bloom is "synonym" to deoxythymidine_monophosphate | bloom is "related_to" to ignominy | bloom is "related_to, derived_from" to para | bloom is "etymologically_related_to" to cymoscope | bloom is "derived_from" to mausolea | bloom is "etymologically_related_to" to eirs | bloom is "related_to" to nemato | bloom is "etymologically_related_to" to chink | bloom is "motivated_by_goal" to build_cathedral | bloom is "etymologically_related_to" to segrosome | bloom is "is_a" to hydrogen_atom | bloom is "related_to" to fb | bloom is "etymologically_related_to" to frigga | bloom is "related_to" to breadth | bloom is "derived_from" to tenatumomab | bloom is "etymologically_related_to" to vrykolaka | bloom is "related_to" to administration | bloom is "derived_from" to hematinometer | bloom is "is_a" to object_oriented_programming_language | bloom is "derived_from" to tradeswoman | bloom is "derived_from" to accomplisht | bloom is "derived_from" to megakaryocytopoiesis | bloom is "etymologically_related_to" to equiangular | bloom is "synonym, related_to" to thousand | bloom is "derived_from" to u_boat | bloom is "derived_from" to kth | bloom is "related_to" to seah | bloom is "synonym, related_to, form_of" to en | bloom is "derived_from" to b.litt | bloom is "derived_from" to imciromab | bloom is "related_to" to pawn | bloom is "related_to" to saint_anthony's_cross | bloom is "synonym" to metric_ton | bloom is "related_to" to physicotheology | bloom is "form_of, derived_from, synonym" to os | bloom is "derived_from" to pemtumomab | bloom is "related_to" to transgender | bloom is "etymologically_related_to" to copypasta | bloom is "related_to" to sentences | bloom is "is_a" to television_station | bloom is "derived_from" to cleft | bloom is "dbpedia/influenced_by" to falcon | bloom is "has_context" to organic_compound | bloom is "derived_from" to ahold | bloom is "related_to" to believe | bloom is "related_to" to my | bloom is "related_to, derived_from" to f_hole | bloom is "related_to" to compiler | bloom is "related_to" to zoö | bloom is "derived_from" to taxa | bloom is "derived_from" to politicker | bloom is "synonym, related_to" to green | bloom is "related_to" to august | bloom is "related_to" to loser_sign | bloom is "related_to" to flat | bloom is "at_location" to wave_clip | bloom is "synonym" to fréchet | bloom is "related_to" to mab | bloom is "derived_from" to hamiltonian | bloom is "derived_from" to dead_n_buried | bloom is "derived_from" to problemo | bloom is "synonym" to kolmogorov | bloom is "derived_from" to detumomab | bloom is "related_to" to antigen | bloom is "derived_from, synonym, related_to" to bit | bloom is "derived_from" to fish_n_chips | bloom is "has_context" to printing | bloom is "related_to" to ties | bloom is "related_to" to atmosphere | bloom is "derived_from" to bynempt | bloom is "related_to" to pencil | bloom is "related_to" to antigone | bloom is "defined_as" to thirteenth_letter_of_roman_alphabet | bloom is "etymologically_related_to" to oötidogenesis | bloom is "form_of, derived_from, related_to, etymologically_related_to" to es | bloom is "etymologically_related_to" to fatosphere | bloom is "derived_from" to memosphere | bloom is "related_to" to nay | bloom is "derived_from" to n_bomb | bloom is "etymologically_related_to" to austria | bloom is "etymologically_related_to" to dunzo | bloom is "derived_from" to nebacumab | bloom is "related_to" to raguileo_alphabet | bloom is "synonym" to speed_of_light | bloom is "derived_from" to eclipst | bloom is "related_to" to storativity | bloom is "derived_from" to ambusht | bloom is "form_of" to ha | bloom is "has_context" to irc | bloom is "form_of" to e_sharp | bloom is "derived_from" to 56k | bloom is "related_to" to i'll've | bloom is "etymologically_related_to" to key | bloom is "related_to" to genitive_case | bloom is "derived_from" to nfc | bloom is "derived_from" to e_tailing | bloom is "synonym" to d100 | bloom is "related_to" to minor | bloom is "related_to" to stade | bloom is "related_to" to dog | bloom is "synonym" to do_dièse | bloom is "etymologically_related_to" to hunter's_moon | bloom is "related_to" to ignore | bloom is "has_context" to ratings | bloom is "related_to" to gelfond's_constant | bloom is "form_of" to f's | bloom is "synonym" to shi | bloom is "related_to" to electrical_resistance | bloom is "related_to, etymologically_related_to" to the | bloom is "etymologically_related_to" to tibeto | bloom is "related_to" to string | bloom is "derived_from" to frolicker | bloom is "derived_from" to mth | bloom is "derived_from" to phm.b | bloom is "synonym" to dextro | bloom is "at_location" to warsaw | bloom is "derived_from" to it's | bloom is "related_to, synonym" to liter | bloom is "derived_from" to builder's_mug | bloom is "related_to" to c_channel | bloom is "synonym" to honey_oil | bloom is "related_to" to accidental | bloom is "related_to" to i'd | bloom is "etymologically_related_to" to miscellaneum | bloom is "related_to" to emergency | bloom is "derived_from" to scanno | bloom is "etymologically_related_to" to hebdomadiversary | bloom is "has_context" to british | bloom is "related_to" to semivowel | bloom is "related_to" to ego | bloom is "related_to" to author | bloom is "related_to" to f’s | bloom is "antonym, related_to" to in | bloom is "derived_from" to junonian | bloom is "related_to" to keynote | bloom is "related_to" to medium | bloom is "synonym" to uranium | bloom is "derived_from" to vis_vis | bloom is "related_to" to ashoka | bloom is "related_to" to accommodation | bloom is "related_to" to glosso | bloom is "related_to" to signor | bloom is "related_to" to age | bloom is "form_of, derived_from, etymologically_related_to, related_to" to ae | bloom is "related_to" to i_and_i | bloom is "etymologically_related_to" to lino | bloom is "derived_from" to statesman | bloom is "related_to" to let's | bloom is "derived_from" to okay | bloom is "etymologically_related_to" to stage | bloom is "derived_from" to mimicker | bloom is "related_to" to solfege | bloom is "etymologically_related_to" to cmos | bloom is "related_to" to rip | bloom is "derived_from" to b.s | bloom is "related_to" to me_pronoun | bloom is "related_to" to f_shaped | bloom is "etymologically_related_to" to cetera | bloom is "has_context" to physics | bloom is "derived_from" to begat | bloom is "etymologically_related_to" to anecdotum | bloom is "related_to" to kuh | bloom is "derived_from" to dislik’t | bloom is "related_to, similar_to" to m | bloom is "at_location" to denmark | bloom is "capable_of" to can_store_food | bloom is "synonym, related_to" to angstrom | bloom is "synonym" to tert | bloom is "defined_as" to twelveth_letter_of_roman_alphabet | bloom is "related_to, etymologically_related_to" to ich | bloom is "derived_from" to banisht | bloom is "derived_from" to foravirumab | bloom is "defined_as" to third_letter_of_roman_alphabet | bloom is "related_to" to four_lines | bloom is "related_to" to kilobit | bloom is "has_context" to roadway | bloom is "derived_from" to encreast | bloom is "at_location" to combo_pass | bloom is "related_to" to nb | bloom is "derived_from" to dispenst | bloom is "etymologically_related_to" to jackanape | bloom is "dbpedia/influenced_by" to chill | bloom is "has_context" to internet_slang | bloom is "etymologically_related_to" to toodles | bloom is "related_to" to at | bloom is "related_to" to numero_sign | bloom is "derived_from" to mano_mano | bloom is "related_to" to decomposition | bloom is "related_to" to transhumanism | bloom is "synonym" to l_size | bloom is "etymologically_related_to" to acaulous | bloom is "related_to" to hoplo | bloom is "etymologically_related_to" to ell | bloom is "etymologically_related_to" to beeswax | bloom is "related_to" to me_reference | bloom is "synonym" to ze | bloom is "derived_from" to bent | bloom is "derived_from" to u_rp | bloom is "related_to" to academician | bloom is "derived_from" to gasogen | bloom is "derived_from" to aa | bloom is "etymologically_related_to" to sudoriferous | bloom is "related_to" to fermion | bloom is "related_to" to partheno | bloom is "derived_from" to b.comm | bloom is "is_a" to blood_group | bloom is "related_to" to atomic_weight | bloom is "related_to" to gangsta | bloom is "related_to" to palochka | bloom is "related_to" to other | bloom is "related_to" to mega | bloom is "synonym" to hey | bloom is "related_to" to be | bloom is "has_context" to programming | bloom is "etymologically_related_to" to asqtad | bloom is "related_to" to homoio | bloom is "derived_from" to blockt | bloom is "etymologically_related_to" to aglutition | bloom is "related_to" to ods | bloom is "related_to" to ri | bloom is "etymologically_related_to" to istro | bloom is "synonym" to thymine | bloom is "related_to" to absolute_temperature | bloom is "has_context" to titles | bloom is "related_to" to leetspeak | bloom is "form_of" to b_s | bloom is "form_of" to ues | bloom is "is_a, synonym, etymologically_related_to" to or | bloom is "derived_from" to u_shaped | bloom is "related_to" to argent | bloom is "synonym, related_to" to ex | bloom is "has_prerequisite" to talk_to | bloom is "related_to" to chromatic_scale | bloom is "etymologically_related_to, related_to, similar_to, form_of" to s | bloom is "related_to" to self | bloom is "related_to" to make | bloom is "has_context" to military | bloom is "etymologically_related_to" to exbivirumab | bloom is "derived_from" to ihood | bloom is "related_to" to american | bloom is "related_to" to charlie | bloom is "form_of" to van | bloom is "etymologically_related_to" to logico | bloom is "related_to" to crease | bloom is "derived_from" to writo | bloom is "related_to, form_of" to re | bloom is "derived_from" to checkt | bloom is "form_of" to ss | bloom is "derived_from" to k_drama | bloom is "etymologically_related_to" to athanogene | bloom is "related_to" to bisphenol | bloom is "related_to" to after | bloom is "derived_from" to connectogram | bloom is "derived_from" to ebrary | bloom is "etymologically_related_to" to gilf | bloom is "has_context" to education | bloom is "related_to" to maiden_over | bloom is "related_to" to oic | bloom is "related_to" to k_shaped | bloom is "has_property" to statement | bloom is "related_to" to viscount | bloom is "derived_from" to jack_lent | bloom is "related_to" to rh | bloom is "synonym" to 24mo | bloom is "has_context" to pharmacology | bloom is "etymologically_related_to" to xtianity | bloom is "derived_from" to minretumomab | bloom is "derived_from" to edobacomab | bloom is "related_to" to automatic | bloom is "related_to" to homoeo | bloom is "related_to" to century | bloom is "related_to" to pure | bloom is "derived_from" to bereft | bloom is "etymologically_related_to" to i_wiss | bloom is "related_to" to latin | bloom is "related_to" to adult | bloom is "synonym" to mi | bloom is "synonym" to vitamin_c | bloom is "form_of, derived_from" to as | bloom is "synonym" to phosphorus | bloom is "etymologically_related_to" to dswounds | bloom is "etymologically_related_to" to mo | bloom is "related_to" to alto | bloom is "related_to" to nail | bloom is "derived_from" to chaussé'd | bloom is "related_to" to cello | bloom is "derived_from" to urobilinogen | bloom is "related_to" to p | bloom is "related_to" to iso | bloom is "related_to" to yours_truly | bloom is "synonym" to levo | bloom is "etymologically_related_to" to saké | bloom is "derived_from, related_to" to j | bloom is "synonym, related_to, form_of" to an | bloom is "derived_from" to back_o_bourke | bloom is "synonym" to vicesimo_quarto | bloom is "related_to, etymologically_related_to, synonym, form_of" to oh | bloom is "related_to" to assist | bloom is "form_of" to c_s | bloom is "related_to" to ℓ | bloom is "related_to" to single | bloom is "is_a" to fictional_character | bloom is "related_to" to mac | bloom is "has_property" to playoff | bloom is "dbpedia/influenced_by" to javascript | bloom is "related_to" to cisgender | bloom is "related_to" to self_me | bloom is "related_to" to self_reference | bloom is "related_to" to conservative | bloom is "related_to, etymologically_related_to" to tittle | bloom is "dbpedia/influenced_by" to ecmascript | bloom is "derived_from" to k_rad | bloom is "derived_from" to softography | bloom is "derived_from" to curst | bloom is "etymologically_related_to" to purkins | bloom is "related_to" to videte | bloom is "derived_from" to crept | bloom is "related_to" to round | bloom is "has_property" to second_letter_of_alphabet | bloom is "synonym" to randomness | bloom is "derived_from" to oversman | bloom is "related_to" to a’s | bloom is "related_to" to twasn't | bloom is "related_to" to linking_vowel | bloom is "has_last_subevent" to go_to_market | bloom is "related_to" to pip | bloom is "related_to" to gomer | bloom is "derived_from" to e_tailer | bloom is "related_to" to l_shaped | bloom is "etymologically_related_to" to ostomy | bloom is "related_to" to bath | bloom is "related_to" to shaped | bloom is "related_to" to inferior | bloom is "synonym" to coke | bloom is "defined_as" to first_letter_of_word_chair | bloom is "related_to" to axiomatic | bloom is "synonym" to volt | bloom is "derived_from" to pædo | bloom is "form_of" to k's | bloom is "etymologically_related_to" to venipuncture | bloom is "related_to" to astragal | bloom is "etymologically_related_to" to dacryohemorrhea | bloom is "has_context, synonym, form_of" to us | bloom is "related_to" to cor | bloom is "related_to" to value | bloom is "related_to, derived_from" to grade | bloom is "related_to" to china | bloom is "related_to" to kilometres | bloom is "similar_to, is_a, synonym" to deuteron | bloom is "dbpedia/genre" to survival_horror | bloom is "related_to" to amphibian | bloom is "derived_from" to bullswool | bloom is "related_to" to kc | bloom is "dbpedia/influenced_by" to scheme | bloom is "synonym" to hausdorff | bloom is "synonym, derived_from" to sec | bloom is "etymologically_related_to" to perrins | bloom is "synonym" to group_b | bloom is "etymologically_related_to" to est | bloom is "etymologically_related_to" to slut's_wool | bloom is "has_context" to from_latin_libra | bloom is "related_to" to me_subject | bloom is "related_to, etymologically_related_to, dbpedia/influenced_by" to b | bloom is "related_to" to subatomic_particle | bloom is "derived_from" to jack_dandy | bloom is "derived_from" to bass | bloom is "etymologically_related_to" to seent | bloom is "related_to" to sigmoid | bloom is "related_to" to verse | bloom is "form_of, related_to" to um | bloom is "related_to" to bee | bloom is "derived_from" to john_dreams | bloom is "etymologically_related_to" to pithers | bloom is "related_to" to number | bloom is "is_a" to shortcut_for_air_conditioning | bloom is "etymologically_related_to, derived_from" to ragamuffin | bloom is "related_to" to mature | bloom is "etymologically_related_to" to i'm | bloom is "derived_from" to dipt | bloom is "at_location" to hair_clip | bloom is "related_to" to year | bloom is "related_to" to p_shaped | bloom is "related_to" to disjoint | bloom is "derived_from" to dreamt | bloom is "etymologically_related_to" to abiosis | bloom is "related_to" to dendro | bloom is "related_to" to b_flat | bloom is "synonym, etymologically_related_to" to eth | bloom is "synonym" to lambert | bloom is "related_to" to dioxygen | bloom is "derived_from" to nacolomab_tafenatox | bloom is "etymologically_related_to" to imac | bloom is "related_to" to major | bloom is "etymologically_related_to" to betimes | bloom is "related_to" to otw | bloom is "derived_from" to leonid | bloom is "derived_from" to e_form | bloom is "derived_from" to b.ch.d | bloom is "form_of" to did | bloom is "related_to" to anterior | bloom is "related_to" to salt | bloom is "form_of, synonym, related_to, etymologically_related_to" to a | bloom is "etymologically_related_to" to 4ktro | bloom is "related_to" to shanxi | bloom is "dbpedia/influenced_by" to lua | bloom is "form_of, related_to" to has | bloom is "related_to" to neighborhood | bloom is "derived_from, etymologically_related_to" to lvalue | bloom is "related_to" to tesla | bloom is "etymologically_related_to" to nights | bloom is "related_to" to i'se | bloom is "derived_from" to taplitumomab | bloom is "related_to" to g_shaped | bloom is "derived_from" to skainsmate | bloom is "form_of" to f_sharp | bloom is "related_to" to ga | bloom is "derived_from" to dispossest | bloom is "at_location" to wiener_dog | bloom is "derived_from, related_to" to d_hole | bloom is "form_of" to hs | bloom is "derived_from" to deprest | bloom is "derived_from" to b.com | bloom is "derived_from" to triple | bloom is "form_of" to i's | bloom is "is_a" to ketamine | bloom is "related_to" to admiral | bloom is "defined_as" to fifth_letter_of_roman_alphabet | bloom is "related_to" to d_minor | bloom is "related_to" to victor | bloom is "related_to" to rating | bloom is "derived_from" to sanatoria | bloom is "related_to" to average | bloom is "form_of" to rs | bloom is "form_of, synonym, related_to, etymologically_related_to" to o | bloom is "synonym" to ethyl | bloom is "related_to, form_of" to ve | bloom is "derived_from, etymologically_related_to" to all_mort | bloom is "derived_from" to b.des | bloom is "derived_from" to pyrrhonist | bloom is "derived_from" to czechoslovak | bloom is "has_context" to football | bloom is "related_to" to interconsonantal | bloom is "defined_as" to second_letter_of_roman_alphabet | bloom is "form_of" to e_s | bloom is "etymologically_related_to" to epeen | bloom is "derived_from" to phenomena | bloom is "related_to" to k_r | bloom is "has_context" to euphemism | bloom is "related_to" to ancient_greek | bloom is "part_of" to mit | bloom is "related_to" to h_shaped | bloom is "related_to, synonym" to gram | bloom is "etymologically_related_to" to rasopathy | bloom is "derived_from" to pigscot | bloom is "derived_from" to rackarock | bloom is "derived_from" to neura | bloom is "derived_from" to gigography | bloom is "derived_from" to iodabenzene | bloom is "related_to" to methamphetamine | bloom is "related_to" to major_scale | bloom is "related_to" to gravity | bloom is "related_to" to equal_temperament | bloom is "synonym" to triiodothyronine | bloom is "related_to" to amphibious | bloom is "etymologically_related_to" to hark | bloom is "related_to, etymologically_related_to, form_of, antonym" to y | bloom is "capable_of" to mammal | bloom is "derived_from" to birdsmouth | bloom is "etymologically_related_to" to klecksography | bloom is "derived_from" to criteria | bloom is "related_to" to litre | bloom is "etymologically_related_to" to sithence | bloom is "synonym, distinct_from" to me | bloom is "related_to" to celestial_object | bloom is "related_to" to absent | bloom is "related_to" to cl | bloom is "derived_from" to admonisht | bloom is "derived_from" to blemisht | bloom is "related_to" to weingar</t>
-  </si>
-  <si>
-    <t>question is "antonym" to statement | question is "distinct_from" to statement | question is "related_to" to statement | question is "antonym" to answer | question is "desires" to answer | question is "distinct_from" to answer | question is "related_to" to answer | reply is "related_to" to statement | reply is "antonym" to answer | reply is "related_to" to answer | reply is "related_to" to answer | reply is "related_to" to answer | reply is "synonym" to answer | reply is "synonym" to answer | reply is "synonym" to answer | reply is "synonym" to answer | solution is "is_a" to statement | solution is "related_to" to answer | solution is "related_to" to answer | answer is "antonym" to question | answer is "distinct_from" to question | answer is "related_to" to question | answer is "related_to" to question | answer is "related_to" to reply | answer is "related_to" to reply | answer is "synonym" to reply | answer is "synonym" to reply | answer is "is_a" to reply | answer is "related_to" to solution | answer is "related_to" to solution | answer is "synonym" to solution</t>
-  </si>
-  <si>
-    <t>doe is "related_to" to deer | doe is "related_to" to deer | doe is "is_a" to deer | doe is "is_a" to deer | fawn is "is_a" to deer | fawn is "related_to" to deer | fawn is "related_to" to deer | fawn is "is_a" to deer | fawn is "is_a" to deer | fawn is "is_a" to deer | deer is "related_to" to antlers | deer is "related_to" to doe | deer is "related_to" to fawn</t>
-  </si>
-  <si>
-    <t>bud is "related_to" to plant | bud is "related_to" to flower | bud is "is_a" to flower | dandelion is "related_to" to plant | dandelion is "related_to" to plant | dandelion is "is_a" to flower | dandelion is "related_to" to flower | dandelion is "related_to" to flower | plant is "related_to" to petals | flower is "related_to" to bud | flower is "related_to" to petals</t>
-  </si>
-  <si>
-    <t>colt is "related_to" to horse | colt is "related_to" to horse | colt is "is_a" to horse | colt is "is_a" to horse | mare is "is_a" to horse | mare is "related_to" to horse | mare is "related_to" to horse | mare is "is_a" to horse | mare is "part_of" to horse | mare is "is_a" to horse | unicorn is "related_to" to horse | horse is "related_to" to colt | horse is "related_to" to colt | horse is "related_to" to mare | horse is "related_to" to mare | horse is "related_to" to mare | horse is "related_to" to unicorn</t>
-  </si>
-  <si>
-    <t>left is "antonym" to right | left is "antonym" to right | left is "antonym" to right | left is "antonym" to right | left is "distinct_from" to right | left is "related_to" to right | left is "related_to" to right | left is "has_context" to politics | left is "has_context" to politics | left is "related_to" to west | wrong is "antonym" to right | wrong is "antonym" to right | wrong is "distinct_from" to right | wrong is "has_property" to right | wrong is "related_to" to right | wrong is "related_to" to right | wrong is "related_to" to right | answer is "antonym" to wrong | bereft is "etymologically_related_to" to left | drive is "related_to" to left | right is "antonym" to left | right is "antonym" to left | right is "antonym" to left | right is "antonym" to left | right is "antonym" to left | right is "distinct_from" to left | right is "related_to" to left | right is "antonym" to wrong | right is "antonym" to wrong | right is "antonym" to wrong | right is "antonym" to wrong | right is "antonym" to wrong | right is "distinct_from" to wrong | right is "related_to" to wrong | on is "related_to" to left | awk is "related_to" to wrong</t>
-  </si>
-  <si>
-    <t>astronomy is "related_to" to star | moon is "related_to" to celestial_body | moon is "related_to" to star | twinkle is "has_context" to celestial_body | celestial_body is "has_context" to astronomy | celestial_body is "related_to" to moon | star is "related_to" to astronomy | star is "has_context" to astronomy | star is "distinct_from" to moon | star is "related_to" to moon | star is "related_to" to twinkle</t>
-  </si>
-  <si>
-    <t>bait is "related_to" to fish | bait is "related_to" to water | pond is "related_to" to fish | pond is "used_for" to fish | pond is "has_a" to water | pond is "related_to" to water | pond is "related_to" to water | tuna is "related_to" to fish | tuna is "is_a" to fish | tuna is "is_a" to fish | tuna is "is_a" to fish | tuna is "at_location" to water | fish is "related_to" to bait | fish is "at_location" to pond | fish is "related_to" to tuna</t>
-  </si>
-  <si>
-    <t>gravity is "related_to" to down | low is "related_to" to ground | low is "related_to" to ground | low is "related_to" to down | up is "antonym" to down | up is "antonym" to down | up is "antonym" to down | up is "antonym" to down | up is "distinct_from" to down | up is "related_to" to down | ground is "related_to" to gravity | ground is "related_to" to low | ground is "related_to" to up | hill is "related_to" to gravity | hill is "related_to" to low | hill is "related_to" to up | down is "related_to" to low | down is "related_to" to low | down is "related_to" to low | down is "antonym" to up | down is "antonym" to up | down is "antonym" to up | down is "antonym" to up | down is "distinct_from" to up | down is "related_to" to up</t>
-  </si>
-  <si>
-    <t>brawl is "related_to" to fight | brawl is "related_to" to fight | brawl is "related_to" to fight | brawl is "is_a" to fight | debate is "related_to" to fight | soldier is "desires" to fight | soldier is "related_to" to fight | soldier is "used_for" to fight | fight is "related_to" to brawl</t>
-  </si>
-  <si>
-    <t>finger is "at_location" to hand | finger is "part_of" to hand | finger is "part_of" to hand | finger is "related_to" to hand | finger is "related_to" to hand | finger is "part_of" to hand | glove is "related_to" to hand | palm is "part_of" to hand | palm is "related_to" to hand | palm is "part_of" to hand | hand is "related_to" to finger | hand is "related_to" to glove | hand is "related_to" to palm</t>
-  </si>
-  <si>
-    <t>gossip is "related_to" to talk | telephone is "related_to" to talk | talk is "related_to" to discuss | talk is "related_to" to discuss | talk is "related_to" to discuss | talk is "related_to" to gossip | talk is "related_to" to gossip | talk is "is_a" to gossip</t>
-  </si>
-  <si>
-    <t>murder is "has_context" to british | murder is "antonym" to self | murder is "has_context" to legal | murder is "has_context" to sports | operate is "has_context" to medicine | operate is "related_to" to work | vein is "antonym" to artery | vein is "related_to" to artery | vein is "related_to" to blood | vein is "related_to" to blood | vein is "related_to" to mark | man is "related_to" to operate | use is "synonym" to operate | turn is "manner_of" to operate | string is "related_to" to vein | venipuncture is "related_to" to vein | artery is "related_to" to vein | blood is "at_location" to vein | blood is "related_to" to vein | blood is "related_to" to vein | drive is "related_to" to operate | drive is "related_to" to operate | drive is "manner_of" to operate | country is "related_to" to vein | mouse is "used_for" to operate | operator is "related_to" to operate | on is "related_to" to operate | on is "related_to" to operate | work is "related_to" to operate | work is "manner_of" to operate | fail is "related_to" to operate</t>
-  </si>
-  <si>
-    <t>bench is "distinct_from" to chair | bench is "related_to" to chair | bench is "related_to" to sitting | bench is "related_to" to seat | bench is "related_to" to seat | bench is "is_a" to seat | bench is "is_a" to seat | bench is "is_a" to seat | bench is "used_for" to seat | bench is "is_a" to furniture | sofa is "is_a" to chair | sofa is "related_to" to sitting | sofa is "related_to" to seat | sofa is "is_a" to seat | sofa is "is_a" to seat | sofa is "used_for" to seat | sofa is "has_context" to furniture | sofa is "related_to" to furniture | sofa is "is_a" to furniture | stool is "related_to" to chair | stool is "related_to" to chair | stool is "related_to" to sitting | stool is "is_a" to seat | stool is "related_to" to seat | stool is "related_to" to seat | stool is "is_a" to seat | stool is "is_a" to seat | stool is "is_a" to furniture | chair is "related_to" to bench | chair is "related_to" to bench | chair is "distinct_from" to sofa | chair is "related_to" to sofa | chair is "related_to" to sofa | chair is "antonym" to stool | chair is "etymologically_related_to" to stool | chair is "is_a" to stool | chair is "related_to" to stool | chair is "related_to" to stool | chair is "synonym" to stool | seat is "related_to" to bench | seat is "related_to" to bench | seat is "related_to" to sofa | seat is "related_to" to stool | seat is "related_to" to stool</t>
-  </si>
-  <si>
-    <t>beaker is "is_a" to cup | beaker is "related_to" to container | beaker is "has_context" to slang | flask is "related_to" to cup | flask is "related_to" to flat | flask is "related_to" to big | flask is "is_a" to software | flask is "related_to" to base | flask is "related_to" to chemistry | flask is "related_to" to size | flask is "is_a" to container | flask is "related_to" to container | flask is "related_to" to container | science is "related_to" to data | science is "related_to" to academic | science is "related_to" to physics | science is "related_to" to education | science is "related_to" to latin | science is "related_to" to major | science is "related_to" to area | science is "related_to" to thing | science is "related_to" to medicine | science is "related_to" to astronomy | science is "used_for" to astronomy | science is "related_to" to general | science is "related_to" to class | science is "distinct_from" to biology | science is "related_to" to biology | science is "related_to" to chemistry | science is "used_for" to chemistry | science is "related_to" to hard | science is "related_to" to mathematics | science is "related_to" to activity | science is "related_to" to work | academic is "related_to" to science | organic_chemistry is "part_of" to science | axiom is "related_to" to science | physics is "is_a" to science | physics is "related_to" to science | physics is "related_to" to science | physics is "is_a" to science | transhumanism is "related_to" to science | linguistics is "is_a" to science | computer_science is "is_a" to science | computer_science is "is_a" to science | bs is "related_to" to science | do is "has_context" to science | astronomy is "is_a" to science | astronomy is "is_a" to science | astronomy is "related_to" to science | astronomy is "is_a" to science | biology is "is_a" to science | biology is "related_to" to science | biology is "is_a" to science | chemistry is "is_a" to science | chemistry is "related_to" to science | chemistry is "related_to" to science | chemistry is "is_a" to science | logic is "is_a" to science | mathematics is "is_a" to science | mathematics is "has_context" to science | mathematics is "is_a" to science | person is "desires" to science | glass is "related_to" to beaker | glass is "is_a" to beaker</t>
-  </si>
-  <si>
-    <t>hand is "related_to" to finger | toe is "antonym" to finger | toe is "related_to" to finger | toe is "similar_to" to finger | trigger is "related_to" to finger | finger is "at_location" to hand | finger is "part_of" to hand | finger is "part_of" to hand | finger is "related_to" to hand | finger is "related_to" to hand | finger is "part_of" to hand | finger is "antonym" to toe | finger is "distinct_from" to toe | finger is "distinct_from" to toe | finger is "related_to" to toe | finger is "synonym" to toe</t>
-  </si>
-  <si>
-    <t>bloom is "related_to" to perfection | bloom is "related_to" to open | opportunity is "related_to" to available | opportunity is "related_to" to america | opportunity is "has_context" to nonstandard | opportunity is "related_to" to business | opportunity is "related_to" to tee | split is "has_context" to historical | split is "related_to" to group | split is "related_to" to turn | split is "related_to" to time | split is "synonym" to rip | split is "has_context" to us | split is "has_context" to baseball | split is "has_context" to music | split is "has_context" to sports | split is "has_context" to slang | split is "has_context" to slang | rosebush is "at_location" to bloom | cleft is "related_to" to split | bit is "related_to" to split | atomic is "related_to" to split | fork is "related_to" to split | fork is "related_to" to split | river is "related_to" to split | it is "related_to" to split | person is "desires" to opportunity</t>
-  </si>
-  <si>
-    <t>33.33%</t>
+    <t>fangs is "related_to" to ground | fangs is "derived_from, related_to" to fangy | fangs is "related_to" to swallow | fangs is "related_to" to bite | fangs is "related_to" to eater | fangs is "related_to" to tusk | fangs is "related_to" to creature | fangs is "related_to" to head | fangs is "manner_of, related_to" to eat | fangs is "related_to" to face | fangs is "related_to" to big | fangs is "related_to, synonym, manner_of" to fruit | fangs is "related_to" to teeth | fangs is "is_a, related_to" to tooth | fangs is "has_context" to nautical | fangs is "related_to" to coat | fangs is "related_to" to payara | fangs is "related_to" to handle | fangs is "related_to" to rat | fangs is "related_to" to stick | fangs is "related_to" to mouth | fangs is "related_to" to clean | fangs is "related_to" to poison | fangs is "related_to" to gorm | fangs is "is_a" to human | fangs is "related_to" to drink | fangs is "related_to" to white | fangs is "is_a, related_to" to canine | fangs is "related_to" to body | fangs is "is_a, desires" to person | fangs is "related_to" to blow | fangs is "related_to" to device | fangs is "has_context" to dialect | fangs is "has_a" to snout | fangs is "etymologically_related_to" to beaver | fangs is "at_location" to bridge | fangs is "related_to" to dogs | fangs is "form_of, related_to" to wolves | fangs is "related_to" to heterodont | fangs is "related_to" to biting | fangs is "related_to" to people | fangs is "related_to" to trap | fangs is "related_to" to squirrel | fangs is "is_a, related_to" to mammal | fangs is "related_to" to movie | fangs is "has_context" to slang | fangs is "related_to" to has | fangs is "related_to" to drinking | fangs is "related_to" to dog | fangs is "at_location, is_a, related_to" to river | fangs is "has_context" to us | fangs is "related_to" to bass | fangs is "related_to" to flesh | fangs is "related_to" to pointy | fangs is "related_to" to eating | fangs is "related_to" to fang | gums is "at_location" to ground | gums is "related_to" to fangy | gums is "related_to" to swallow | gums is "related_to" to bite | gums is "is_a" to eater | gums is "related_to" to tusk | gums is "related_to" to creature | gums is "at_location, related_to, part_of, has_a" to head | gums is "related_to" to eat | gums is "antonym, related_to, part_of" to face | gums is "related_to" to big | gums is "at_location" to fruit | gums is "at_location, has_a, related_to" to teeth | gums is "at_location, part_of, form_of, is_a, related_to" to tooth | gums is "has_context" to nautical | gums is "related_to" to coat | gums is "related_to" to payara | gums is "related_to" to handle | gums is "related_to" to rat | gums is "related_to" to stick | gums is "part_of, has_a, at_location, related_to" to mouth | gums is "related_to" to clean | gums is "related_to" to poison | gums is "etymologically_related_to" to gorm | gums is "related_to, at_location" to human | gums is "related_to" to drink | gums is "related_to" to white | gums is "related_to" to canine | gums is "related_to" to body | gums is "has_a" to person | gums is "related_to" to blow | gums is "related_to" to device | gums is "has_context" to dialect | gums is "related_to" to snout | gums is "related_to" to beaver | gums is "at_location" to bridge | gums is "has_a" to dogs | gums is "has_a" to wolves | gums is "related_to" to heterodont | gums is "related_to" to biting | gums is "has_a" to people | gums is "is_a, related_to" to trap | gums is "related_to" to squirrel | gums is "related_to" to mammal | gums is "at_location, related_to" to movie | gums is "has_context" to slang | gums is "related_to" to has | gums is "used_for, has_prerequisite" to drinking | gums is "has_a, related_to" to dog | gums is "at_location, related_to" to river | gums is "has_context" to us | gums is "related_to" to bass | gums is "related_to" to flesh | gums is "related_to" to pointy | gums is "related_to, used_for, has_prerequisite" to eating | gums is "related_to" to fang | wolf is "related_to, has_context, at_location" to ground | wolf is "derived_from, related_to" to fangy | wolf is "has_subevent, has_last_subevent, has_prerequisite, related_to, antonym, entails" to swallow | wolf is "has_context, capable_of, related_to" to bite | wolf is "derived_from" to eater | wolf is "related_to" to tusk | wolf is "at_location, related_to, is_a, synonym" to creature | wolf is "related_to, has_context, part_of" to head | wolf is "desires, form_of, related_to, manner_of" to eat | wolf is "related_to, has_context, part_of" to face | wolf is "has_context, related_to" to big | wolf is "used_for" to fruit | wolf is "related_to, has_a" to teeth | wolf is "related_to, is_a" to tooth | wolf is "has_context" to nautical | wolf is "derived_from, related_to" to coat | wolf is "related_to" to payara | wolf is "has_context, related_to" to handle | wolf is "related_to, is_a, has_context" to rat | wolf is "has_context, at_location, related_to, antonym" to stick | wolf is "has_context, at_location, related_to" to mouth | wolf is "related_to" to clean | wolf is "related_to" to poison | wolf is "related_to" to gorm | wolf is "distinct_from, related_to, antonym, is_a" to human | wolf is "distinct_from, related_to, antonym" to drink | wolf is "related_to, has_context" to white | wolf is "related_to, is_a, synonym" to canine | wolf is "related_to, has_context" to body | wolf is "desires, distinct_from, capable_of, related_to, antonym, is_a, not_desires" to person | wolf is "has_context, related_to" to blow | wolf is "distinct_from, related_to, is_a" to device | wolf is "has_context, related_to" to dialect | wolf is "related_to, has_context, part_of" to snout | wolf is "has_context, at_location, related_to, is_a" to beaver | wolf is "has_context, at_location, related_to" to bridge | wolf is "form_of, capable_of, related_to, has_context, desires" to dogs | wolf is "etymologically_related_to, form_of, at_location, related_to, has_property" to wolves | wolf is "related_to" to heterodont | wolf is "related_to" to biting | wolf is "has_a, created_by, related_to, antonym" to people | wolf is "has_context, at_location, related_to" to trap | wolf is "at_location, related_to, is_a" to squirrel | wolf is "related_to, is_a" to mammal | wolf is "related_to, at_location" to movie | wolf is "has_context" to slang | wolf is "related_to" to has | wolf is "related_to, antonym" to drinking | wolf is "related_to, is_a, synonym, dbpedia/genus, has_context, desires, form_of, capable_of" to dog | wolf is "related_to" to river | wolf is "has_context" to us | wolf is "used_for, at_location, related_to" to bass | wolf is "related_to" to flesh | wolf is "related_to" to pointy | wolf is "form_of, capable_of, related_to" to eating | wolf is "form_of, related_to, is_a" to fang</t>
+  </si>
+  <si>
+    <t>marsh is "at_location, capable_of, related_to, etymologically_related_to, manner_of, antonym, used_for" to water | marsh is "at_location, related_to" to creature | marsh is "has_context" to australia | marsh is "is_a, related_to" to discharge | marsh is "etymologically_related_to" to slag | marsh is "related_to" to big | marsh is "related_to" to blood | marsh is "related_to" to slabber | marsh is "has_context" to dialectal | marsh is "related_to" to weir | marsh is "related_to" to slush | marsh is "related_to" to like | marsh is "related_to" to slab | marsh is "related_to" to clothing | marsh is "manner_of, related_to" to clean | marsh is "is_a" to human | marsh is "related_to" to drop | marsh is "related_to" to cleaning | marsh is "related_to" to pass | marsh is "at_location, is_a, related_to" to pond | marsh is "manner_of" to dock | marsh is "related_to" to mix | marsh is "related_to" to slimy | marsh is "related_to" to coal | marsh is "related_to, derived_from, is_a" to land | marsh is "related_to" to puddle | marsh is "at_location" to bridge | marsh is "related_to" to viscosity | marsh is "related_to, antonym" to making | marsh is "related_to, derived_from" to wet | marsh is "derived_from" to mermaid | marsh is "related_to" to showering | marsh is "is_a, related_to" to river | marsh is "related_to" to oar | marsh is "related_to, etymologically_related_to" to fluid | marsh is "is_a, related_to" to movement | marsh is "at_location, related_to, has_property" to rain | marsh is "related_to, has_property" to ocean | marsh is "related_to" to metal | marsh is "distinct_from, antonym, related_to" to dirty | marsh is "related_to" to polish | marsh is "has_context" to zoology | marsh is "has_context" to mining | marsh is "related_to" to stone | marsh is "at_location" to coast | marsh is "has_context" to military | marsh is "related_to" to sensation | marsh is "related_to" to grass | marsh is "at_location, capable_of, related_to" to place | marsh is "is_a, related_to" to plant | marsh is "has_subevent" to having_bath | marsh is "related_to" to getting_clean | marsh is "related_to" to rub | marsh is "related_to" to trail | marsh is "related_to" to bubbles | marsh is "at_location" to jellyfish | marsh is "related_to" to rise | marsh is "has_context" to nautical | marsh is "related_to" to action | marsh is "entails" to lather | marsh is "related_to" to salt | marsh is "entails, antonym, part_of, is_a, manner_of, related_to, synonym" to rinse | marsh is "is_a, synonym" to slipstream | marsh is "related_to" to tongue | marsh is "related_to" to domain | marsh is "is_a" to spill | marsh is "related_to" to car | marsh is "related_to" to excessive | marsh is "is_a, related_to, synonym, manner_of, causes" to run | marsh is "has_property" to oceans | marsh is "related_to, used_for" to shower | marsh is "related_to" to body | marsh is "antonym, related_to" to up | marsh is "at_location, related_to" to lake | marsh is "related_to" to lotion | marsh is "antonym, manner_of, related_to" to make | marsh is "related_to" to snow | marsh is "manner_of, related_to" to act | marsh is "related_to" to mud | marsh is "has_property" to tears | marsh is "at_location, related_to, synonym, used_for" to stream | marsh is "related_to" to something | marsh is "has_context" to slang | marsh is "related_to, synonym, form_of" to flowing | marsh is "has_context" to us | marsh is "at_location" to anemone | marsh is "manner_of, related_to" to suds | marsh is "is_a, related_to" to flush | marsh is "related_to" to soup | marsh is "related_to" to ground | marsh is "antonym, at_location" to fire | marsh is "related_to" to meat | marsh is "related_to" to clear | marsh is "related_to" to permeability | marsh is "related_to" to viscoplastic | marsh is "motivated_by_goal" to fall | marsh is "related_to" to gleet | marsh is "related_to" to cast | marsh is "antonym" to stop | marsh is "related_to, synonym, derived_from, form_of" to washing | marsh is "related_to" to use | marsh is "is_a, related_to" to rock | marsh is "related_to" to bar | marsh is "related_to" to whip | marsh is "is_a, related_to" to food | marsh is "etymologically_related_to, related_to" to swim | marsh is "at_location, related_to, has_property" to sea | marsh is "related_to" to fluidity | marsh is "related_to" to bathroom | marsh is "related_to" to viscous | marsh is "related_to" to hand_sanitizer | marsh is "at_location" to earth | marsh is "distinct_from, antonym, related_to" to dry | marsh is "related_to" to fluent | marsh is "related_to" to bath | marsh is "capable_of, related_to" to liquid | marsh is "is_a" to mammal | marsh is "similar_to, related_to" to watery | marsh is "related_to" to activity | marsh is "related_to, manner_of, derived_from" to handwash | marsh is "manner_of, related_to" to cover | marsh is "related_to" to wash | marsh is "related_to" to brook | marsh is "related_to, similar_to" to fresh | marsh is "related_to" to feeling | marsh is "related_to" to anchor | marsh is "related_to" to sink | marsh is "related_to" to tide | marsh is "antonym" to calm | marsh is "etymologically_related_to" to lead | marsh is "related_to" to foam | marsh is "related_to" to chemical | marsh is "related_to" to paint | marsh is "related_to" to slip | marsh is "is_a, related_to" to flow | marsh is "related_to" to event | marsh is "related_to" to coat | marsh is "related_to" to eel | marsh is "related_to" to mist | marsh is "related_to" to steep | marsh is "derived_from, related_to" to earthflow | marsh is "at_location" to salt_water | marsh is "related_to" to game | marsh is "related_to" to soap | marsh is "related_to, similar_to" to soft | marsh is "at_location" to bottom_of_sea | marsh is "similar_to, related_to" to sloppy | marsh is "related_to" to moderator | marsh is "related_to" to weather | marsh is "related_to" to boat | marsh is "related_to" to ooze | marsh is "manner_of, related_to" to shampoo | marsh is "related_to" to bathing | marsh is "related_to" to rivers | marsh is "is_a, related_to" to motion | marsh is "is_a" to gas | saliva is "related_to, has_property, is_a, at_location, capable_of" to water | saliva is "related_to" to creature | saliva is "has_context" to australia | saliva is "related_to" to discharge | saliva is "related_to" to slag | saliva is "related_to" to big | saliva is "has_property, is_a, has_a, distinct_from, related_to" to blood | saliva is "etymologically_related_to, related_to, synonym" to slabber | saliva is "has_context" to dialectal | saliva is "related_to" to weir | saliva is "related_to, is_a, at_location" to slush | saliva is "etymologically_related_to, related_to, causes" to like | saliva is "derived_from, related_to" to slab | saliva is "related_to" to clothing | saliva is "related_to" to clean | saliva is "related_to, at_location" to human | saliva is "synonym, related_to" to drop | saliva is "has_prerequisite, used_for" to cleaning | saliva is "related_to" to pass | saliva is "related_to, has_a" to pond | saliva is "related_to" to dock | saliva is "related_to" to mix | saliva is "related_to" to slimy | saliva is "related_to" to coal | saliva is "related_to, antonym, distinct_from" to land | saliva is "at_location, related_to, is_a" to puddle | saliva is "related_to, at_location" to bridge | saliva is "related_to" to viscosity | saliva is "related_to" to making | saliva is "manner_of, at_location, etymologically_related_to, capable_of, related_to" to wet | saliva is "related_to" to mermaid | saliva is "used_for" to showering | saliva is "at_location, related_to, has_a" to river | saliva is "related_to" to oar | saliva is "related_to, is_a, synonym" to fluid | saliva is "related_to" to movement | saliva is "related_to, has_property, antonym, made_of, is_a, at_location" to rain | saliva is "related_to, has_property, made_of, is_a, has_a, at_location, synonym" to ocean | saliva is "related_to" to metal | saliva is "related_to" to dirty | saliva is "synonym, related_to" to polish | saliva is "has_context, related_to" to zoology | saliva is "has_context" to mining | saliva is "related_to" to stone | saliva is "related_to" to coast | saliva is "has_context" to military | saliva is "related_to, is_a" to sensation | saliva is "distinct_from" to grass | saliva is "related_to" to place | saliva is "related_to" to plant | saliva is "has_prerequisite" to having_bath | saliva is "has_prerequisite" to getting_clean | saliva is "has_context, related_to" to rub | saliva is "is_a" to trail | saliva is "related_to, at_location" to bubbles | saliva is "related_to" to jellyfish | saliva is "related_to" to rise | saliva is "has_context" to nautical | saliva is "related_to" to action | saliva is "related_to, manner_of, is_a" to lather | saliva is "is_a, at_location, related_to" to salt | saliva is "related_to" to rinse | saliva is "synonym" to slipstream | saliva is "part_of, synonym, at_location, related_to" to tongue | saliva is "related_to" to domain | saliva is "related_to, is_a" to spill | saliva is "related_to" to car | saliva is "related_to" to excessive | saliva is "related_to" to run | saliva is "related_to" to oceans | saliva is "at_location, related_to" to shower | saliva is "related_to" to body | saliva is "related_to" to up | saliva is "related_to, has_a, at_location" to lake | saliva is "related_to" to lotion | saliva is "manner_of" to make | saliva is "at_location, related_to, is_a" to snow | saliva is "related_to" to act | saliva is "related_to, at_location" to mud | saliva is "at_location, related_to" to tears | saliva is "related_to, at_location" to stream | saliva is "related_to" to something | saliva is "has_context" to slang | saliva is "related_to" to flowing | saliva is "has_context" to us | saliva is "at_location" to anemone | saliva is "at_location, related_to, synonym" to suds | saliva is "manner_of, related_to" to flush | saliva is "is_a, at_location, related_to, made_of" to soup | saliva is "related_to, antonym" to ground | saliva is "distinct_from, related_to, has_context, antonym" to fire | saliva is "has_a, used_for, related_to" to meat | saliva is "related_to, has_property, not_has_property" to clear | saliva is "related_to" to permeability | saliva is "related_to" to viscoplastic | saliva is "related_to, synonym" to fall | saliva is "related_to" to gleet | saliva is "related_to" to cast | saliva is "related_to" to stop | saliva is "related_to, used_for" to washing | saliva is "related_to" to use | saliva is "antonym, at_location, related_to" to rock | saliva is "related_to" to bar | saliva is "related_to" to whip | saliva is "related_to, antonym, is_a, at_location" to food | saliva is "related_to" to swim | saliva is "at_location, related_to, made_of, part_of, synonym" to sea | saliva is "related_to" to fluidity | saliva is "at_location" to bathroom | saliva is "related_to" to viscous | saliva is "related_to" to hand_sanitizer | saliva is "antonym, related_to" to earth | saliva is "related_to" to dry | saliva is "related_to, synonym" to fluent | saliva is "at_location, related_to" to bath | saliva is "related_to, has_property, is_a" to liquid | saliva is "related_to, is_a" to mammal | saliva is "related_to, similar_to" to watery | saliva is "related_to" to activity | saliva is "related_to" to handwash | saliva is "related_to" to cover | saliva is "related_to, derived_from, used_for" to wash | saliva is "has_a, at_location, related_to" to brook | saliva is "related_to" to fresh | saliva is "related_to" to feeling | saliva is "related_to" to anchor | saliva is "related_to, at_location" to sink | saliva is "related_to" to tide | saliva is "related_to" to calm | saliva is "related_to" to lead | saliva is "derived_from, related_to, synonym" to foam | saliva is "related_to, is_a" to chemical | saliva is "related_to" to paint | saliva is "related_to" to slip | saliva is "capable_of, related_to, antonym" to flow | saliva is "related_to" to event | saliva is "related_to" to coat | saliva is "at_location, related_to" to eel | saliva is "related_to" to mist | saliva is "related_to" to steep | saliva is "related_to" to earthflow | saliva is "is_a" to salt_water | saliva is "related_to" to game | saliva is "related_to, antonym, capable_of" to soap | saliva is "related_to" to soft | saliva is "at_location" to bottom_of_sea | saliva is "related_to" to sloppy | saliva is "related_to" to moderator | saliva is "related_to" to weather | saliva is "at_location, related_to" to boat | saliva is "related_to" to ooze | saliva is "is_a, related_to" to shampoo | saliva is "has_prerequisite, used_for" to bathing | saliva is "related_to" to rivers | saliva is "related_to" to motion | saliva is "not_has_property, related_to, similar_to, antonym, distinct_from" to gas | slippery is "related_to, antonym, at_location, distinct_from" to water | slippery is "related_to" to creature | slippery is "has_context" to australia | slippery is "related_to" to discharge | slippery is "related_to" to slag | slippery is "related_to" to big | slippery is "related_to" to blood | slippery is "derived_from, related_to" to slabber | slippery is "has_context" to dialectal | slippery is "related_to" to weir | slippery is "related_to" to slush | slippery is "related_to" to like | slippery is "related_to" to slab | slippery is "related_to, dbpedia/product" to clothing | slippery is "related_to, antonym, used_for" to clean | slippery is "related_to" to human | slippery is "related_to" to drop | slippery is "has_prerequisite, used_for, related_to" to cleaning | slippery is "related_to, manner_of" to pass | slippery is "used_for, at_location, related_to" to pond | slippery is "related_to, synonym" to dock | slippery is "distinct_from" to mix | slippery is "synonym, derived_from, related_to" to slimy | slippery is "related_to, distinct_from" to coal | slippery is "related_to" to land | slippery is "related_to" to puddle | slippery is "at_location" to bridge | slippery is "related_to, derived_from" to viscosity | slippery is "related_to" to making | slippery is "similar_to, related_to" to wet | slippery is "related_to" to mermaid | slippery is "used_for, related_to" to showering | slippery is "at_location, related_to" to river | slippery is "related_to" to oar | slippery is "related_to, is_a, synonym" to fluid | slippery is "related_to" to movement | slippery is "related_to" to rain | slippery is "related_to, at_location, used_for" to ocean | slippery is "related_to" to metal | slippery is "similar_to, related_to, antonym, manner_of" to dirty | slippery is "synonym, manner_of, related_to" to polish | slippery is "has_context" to zoology | slippery is "has_context, related_to" to mining | slippery is "related_to" to stone | slippery is "is_a, synonym, related_to" to coast | slippery is "has_context" to military | slippery is "is_a" to sensation | slippery is "related_to" to grass | slippery is "related_to" to place | slippery is "related_to" to plant | slippery is "has_prerequisite" to having_bath | slippery is "has_prerequisite, related_to" to getting_clean | slippery is "entails, related_to" to rub | slippery is "related_to, has_property" to trail | slippery is "related_to, made_of" to bubbles | slippery is "derived_from" to jellyfish | slippery is "related_to, synonym" to rise | slippery is "has_context" to nautical | slippery is "related_to" to action | slippery is "related_to, synonym" to lather | slippery is "related_to" to salt | slippery is "related_to" to rinse | slippery is "derived_from" to slipstream | slippery is "related_to" to tongue | slippery is "related_to" to domain | slippery is "related_to, is_a" to spill | slippery is "at_location, used_for, related_to" to car | slippery is "related_to" to excessive | slippery is "has_context, related_to" to run | slippery is "related_to, has_a" to oceans | slippery is "related_to" to shower | slippery is "related_to" to body | slippery is "related_to" to up | slippery is "related_to, at_location, used_for" to lake | slippery is "related_to, has_property" to lotion | slippery is "related_to" to make | slippery is "related_to, causes_desire" to snow | slippery is "manner_of" to act | slippery is "related_to" to mud | slippery is "related_to" to tears | slippery is "at_location" to stream | slippery is "related_to" to something | slippery is "has_context" to slang | slippery is "similar_to" to flowing | slippery is "has_context" to us | slippery is "at_location" to anemone | slippery is "related_to" to suds | slippery is "related_to" to flush | slippery is "related_to" to soup | slippery is "related_to, antonym, at_location" to ground | slippery is "synonym, related_to" to fire | slippery is "is_a, related_to, distinct_from" to meat | slippery is "related_to" to clear | slippery is "related_to" to permeability | slippery is "related_to" to viscoplastic | slippery is "related_to, has_prerequisite, manner_of" to fall | slippery is "related_to" to gleet | slippery is "has_subevent" to cast | slippery is "antonym" to stop | slippery is "related_to, used_for" to washing | slippery is "related_to" to use | slippery is "related_to" to rock | slippery is "related_to" to bar | slippery is "related_to" to whip | slippery is "related_to, is_a, desires" to food | slippery is "capable_of, related_to" to swim | slippery is "related_to" to sea | slippery is "related_to" to fluidity | slippery is "related_to" to bathroom | slippery is "related_to" to viscous | slippery is "related_to" to hand_sanitizer | slippery is "related_to" to earth | slippery is "related_to, not_desires" to dry | slippery is "synonym" to fluent | slippery is "related_to, used_for" to bath | slippery is "capable_of, related_to, has_property, is_a" to liquid | slippery is "distinct_from, antonym" to mammal | slippery is "related_to, distinct_from" to watery | slippery is "related_to" to activity | slippery is "related_to" to handwash | slippery is "manner_of, related_to" to cover | slippery is "related_to" to wash | slippery is "used_for" to brook | slippery is "related_to" to fresh | slippery is "related_to" to feeling | slippery is "related_to" to anchor | slippery is "related_to, at_location" to sink | slippery is "related_to" to tide | slippery is "related_to" to calm | slippery is "related_to" to lead | slippery is "related_to" to foam | slippery is "related_to" to chemical | slippery is "related_to" to paint | slippery is "related_to, derived_from, etymologically_related_to" to slip | slippery is "related_to" to flow | slippery is "related_to" to event | slippery is "related_to" to coat | slippery is "related_to, is_a, derived_from" to eel | slippery is "related_to" to mist | slippery is "related_to, distinct_from" to steep | slippery is "related_to" to earthflow | slippery is "related_to" to salt_water | slippery is "related_to" to game | slippery is "related_to" to soap | slippery is "related_to" to soft | slippery is "at_location" to bottom_of_sea | slippery is "derived_from, related_to" to sloppy | slippery is "related_to" to moderator | slippery is "related_to" to weather | slippery is "at_location, related_to" to boat | slippery is "related_to" to ooze | slippery is "antonym, distinct_from, related_to" to shampoo | slippery is "used_for, related_to" to bathing | slippery is "related_to" to rivers | slippery is "related_to, is_a" to motion | slippery is "related_to, antonym, distinct_from" to gas</t>
+  </si>
+  <si>
+    <t>dictionary is "distinct_from, related_to" to why | dictionary is "related_to" to conversationism | dictionary is "derived_from" to wordfest | dictionary is "has_context" to package | dictionary is "related_to" to proverbs | dictionary is "related_to" to nipponism | dictionary is "related_to" to deck | dictionary is "has_context" to active_voice | dictionary is "related_to" to fashion | dictionary is "related_to" to alphabets | dictionary is "related_to" to our | dictionary is "related_to" to proverb | dictionary is "related_to" to autocapitalization | dictionary is "at_location, related_to, has_context" to table | dictionary is "related_to" to dramatism | dictionary is "at_location" to pencil | dictionary is "related_to" to neck | dictionary is "related_to" to dreimorengesetz | dictionary is "related_to, has_context" to postpose | dictionary is "has_context, related_to" to preverbal | dictionary is "related_to" to written_expression | dictionary is "related_to, has_context" to mine | dictionary is "related_to, used_for" to entertainment | dictionary is "has_context, related_to" to genitive | dictionary is "related_to, is_a" to mother | dictionary is "related_to, has_a" to letters | dictionary is "related_to" to boundary_term | dictionary is "has_context, related_to" to nunate | dictionary is "related_to, synonym, similar_to" to deep | dictionary is "related_to" to graphemic | dictionary is "related_to" to polonism | dictionary is "related_to, similar_to" to fine | dictionary is "related_to" to bird | dictionary is "causes_desire, at_location, related_to" to teacher | dictionary is "related_to" to vernacular | dictionary is "derived_from, related_to" to backword | dictionary is "has_context" to abstract | dictionary is "related_to" to sprachbund | dictionary is "related_to" to ban | dictionary is "at_location" to classroom | dictionary is "has_context, related_to" to internet | dictionary is "related_to, manner_of, has_context" to make | dictionary is "has_context, related_to" to perispomenon | dictionary is "related_to" to backup_vocals | dictionary is "related_to" to acrostic | dictionary is "related_to" to logo | dictionary is "related_to" to detail | dictionary is "related_to" to hottentotism | dictionary is "related_to, has_context" to periphrastic | dictionary is "related_to" to hobby | dictionary is "has_context, related_to" to nounship | dictionary is "related_to" to microlinguistics | dictionary is "derived_from, related_to" to guideline | dictionary is "related_to" to antiphrasis | dictionary is "related_to" to boy | dictionary is "related_to" to couch | dictionary is "derived_from, related_to" to wordcount | dictionary is "related_to" to graphophonic | dictionary is "related_to" to informalism | dictionary is "related_to" to modernism | dictionary is "is_a, synonym, used_for, has_subevent, causes, has_prerequisite, related_to" to learning | dictionary is "related_to" to transition | dictionary is "created_by" to writer | dictionary is "related_to" to semidialectal | dictionary is "related_to" to opera | dictionary is "has_context, related_to, manner_of" to write | dictionary is "related_to" to cryptogram | dictionary is "derived_from, related_to" to transflection | dictionary is "related_to" to macroacquisition | dictionary is "related_to, is_a, synonym" to method | dictionary is "is_a" to proparoxytone | dictionary is "related_to" to jakobsonian | dictionary is "related_to" to epanadiplosis | dictionary is "is_a, related_to" to axe | dictionary is "related_to" to logocentrism | dictionary is "distinct_from, related_to" to other | dictionary is "related_to" to ladies | dictionary is "has_context, related_to" to verbalize | dictionary is "related_to, is_a" to collection | dictionary is "has_context, related_to" to infinitive_marker | dictionary is "related_to" to consonant | dictionary is "related_to" to overgeneration | dictionary is "related_to" to on_pages | dictionary is "related_to" to nation | dictionary is "related_to" to chicken | dictionary is "related_to" to gestalt | dictionary is "related_to" to modern | dictionary is "related_to" to vulgate | dictionary is "related_to, used_for" to pleasure | dictionary is "related_to, is_a" to secret | dictionary is "related_to" to full_score | dictionary is "used_for, at_location" to article_in_newspaper | dictionary is "related_to" to declare | dictionary is "distinct_from, related_to" to how | dictionary is "related_to" to homeroom | dictionary is "related_to" to japanism | dictionary is "form_of, related_to, is_a, synonym" to part | dictionary is "related_to, has_context" to construe | dictionary is "related_to" to technostrategic | dictionary is "related_to, has_context" to preterite_present_verb | dictionary is "related_to" to curse | dictionary is "related_to, has_context" to grammar | dictionary is "related_to" to neoterist | dictionary is "related_to, is_a" to motion | dictionary is "related_to, has_context" to linguistics | dictionary is "related_to, has_context" to display | dictionary is "related_to" to preliterate | dictionary is "related_to" to quality | dictionary is "related_to" to medallion | dictionary is "used_for, at_location, related_to" to doorway | dictionary is "related_to" to libretto | dictionary is "has_context" to zettabit | dictionary is "related_to" to bouts_rimés | dictionary is "related_to, has_context" to canary | dictionary is "related_to" to hybrid | dictionary is "related_to" to definiendum | dictionary is "related_to" to pleiad | dictionary is "related_to" to ukrainianize | dictionary is "related_to" to chief | dictionary is "related_to" to benzaiten | dictionary is "related_to, is_a" to palindrome | dictionary is "related_to" to fill_in | dictionary is "related_to, synonym" to word_up | dictionary is "related_to" to inscribe | dictionary is "related_to" to arithmography | dictionary is "related_to, has_context" to root | dictionary is "related_to" to ring | dictionary is "related_to" to receptive_aphasia | dictionary is "has_context, related_to" to terminal | dictionary is "has_context" to apposition | dictionary is "at_location, related_to" to god | dictionary is "is_a" to old_norse | dictionary is "related_to" to from | dictionary is "has_context" to bogus | dictionary is "has_context, related_to" to construct_state | dictionary is "distinct_from, related_to" to hear | dictionary is "related_to" to telephone | dictionary is "at_location, related_to, is_a, has_a, used_for, distinct_from" to literature | dictionary is "related_to" to second_order | dictionary is "has_context, has_prerequisite, related_to, antonym, is_a" to writing | dictionary is "has_context" to nonstandard | dictionary is "related_to" to justifying_space | dictionary is "has_context" to swarm | dictionary is "is_a" to sign_language | dictionary is "related_to" to creative | dictionary is "has_context, related_to" to exessive | dictionary is "related_to, is_a, synonym, has_context, used_for" to article | dictionary is "related_to, has_context" to antecedent | dictionary is "related_to" to bunch | dictionary is "related_to" to tithing | dictionary is "related_to, is_a" to mouth | dictionary is "related_to" to timbre | dictionary is "related_to" to constructionism | dictionary is "has_context, related_to" to transcribe | dictionary is "related_to" to gothic | dictionary is "related_to, at_location" to mail | dictionary is "at_location, is_a, related_to" to earth | dictionary is "related_to" to twist | dictionary is "related_to" to ottoman_turkish | dictionary is "related_to" to context | dictionary is "derived_from, related_to" to sublexical | dictionary is "related_to" to first_order | dictionary is "has_context" to theatre | dictionary is "related_to" to subjecthood | dictionary is "at_location, related_to, is_a" to dirt | dictionary is "is_a, synonym" to cognition | dictionary is "related_to, is_a" to kite | dictionary is "related_to, is_a" to onomasticon | dictionary is "is_a" to middle_low_german | dictionary is "related_to" to emphasis | dictionary is "related_to" to suggestopedia | dictionary is "related_to" to dialectism | dictionary is "related_to, has_context" to inflect | dictionary is "has_context, related_to" to action_word | dictionary is "related_to, has_context" to generic | dictionary is "has_context, has_a, form_of, related_to, is_a, synonym" to term | dictionary is "related_to" to typonese | dictionary is "related_to" to scriptio_continua | dictionary is "related_to" to mixed_language | dictionary is "related_to" to charge | dictionary is "related_to" to antimetathesis | dictionary is "related_to, is_a, synonym" to thesaurus | dictionary is "related_to" to organ | dictionary is "has_context" to expressive_style | dictionary is "related_to, has_context" to ultima | dictionary is "has_context, related_to" to modificative | dictionary is "related_to" to component | dictionary is "related_to" to antepenultima | dictionary is "related_to" to fennicism | dictionary is "related_to" to running_speech | dictionary is "at_location, related_to" to human | dictionary is "has_context, related_to" to synthetic | dictionary is "related_to, is_a" to european_portuguese | dictionary is "related_to, antonym" to giving | dictionary is "related_to" to hand | dictionary is "related_to" to queen's_english | dictionary is "derived_from" to high_level_language | dictionary is "related_to" to introverted | dictionary is "related_to" to dysgraphia | dictionary is "related_to, has_context" to finite | dictionary is "related_to, is_a, has_context" to structure | dictionary is "has_context, at_location" to india | dictionary is "related_to, has_context" to gem | dictionary is "related_to" to vocal | dictionary is "related_to" to tonkinese | dictionary is "related_to" to classicism | dictionary is "has_context" to qudit | dictionary is "related_to" to design | dictionary is "related_to" to modius | dictionary is "related_to" to clue | dictionary is "related_to" to latinize | dictionary is "related_to, has_context" to additive | dictionary is "related_to" to linguistic_turn | dictionary is "antonym" to numbers | dictionary is "related_to" to idiom | dictionary is "related_to" to communication_form | dictionary is "has_context, derived_from, related_to, is_a" to workbook | dictionary is "has_context, related_to" to female | dictionary is "related_to" to two | dictionary is "related_to, has_context" to up | dictionary is "related_to" to journalese | dictionary is "related_to" to oil | dictionary is "related_to, has_context" to proper | dictionary is "related_to" to woman | dictionary is "derived_from, related_to" to languagism | dictionary is "is_a" to judgment | dictionary is "related_to" to ana | dictionary is "etymologically_related_to, distinct_from, related_to" to who | dictionary is "related_to" to pigeon | dictionary is "related_to" to pot_boiler | dictionary is "related_to" to apocope | dictionary is "related_to" to horse | dictionary is "is_a" to tenor | dictionary is "related_to" to vowel | dictionary is "related_to" to tale | dictionary is "has_context" to passively | dictionary is "related_to" to imagination | dictionary is "related_to" to metathesis | dictionary is "related_to" to construct | dictionary is "related_to" to out_of | dictionary is "related_to" to humans | dictionary is "related_to, has_context" to illative | dictionary is "distinct_from, related_to, antonym, synonym, similar_to" to little | dictionary is "related_to, has_context" to flash | dictionary is "related_to" to parenthesis | dictionary is "related_to" to hobson_jobson | dictionary is "has_context" to tag | dictionary is "related_to" to witness | dictionary is "related_to" to quebecism | dictionary is "related_to, has_context" to relative | dictionary is "related_to" to lexiconophilist | dictionary is "related_to" to dit | dictionary is "has_context, related_to" to string | dictionary is "related_to" to manner | dictionary is "has_context" to output | dictionary is "related_to" to every | dictionary is "is_a" to musical_notation | dictionary is "is_a" to reduplication | dictionary is "related_to" to isogram | dictionary is "related_to, synonym, has_context, form_of" to definition | dictionary is "related_to" to epicene | dictionary is "part_of, at_location, related_to" to house | dictionary is "related_to, is_a" to heteronym | dictionary is "causes, related_to, synonym" to please | dictionary is "related_to" to cochinchinese | dictionary is "has_context, related_to" to overloaded | dictionary is "has_context, related_to" to dependency_grammar | dictionary is "related_to" to lesson | dictionary is "is_a" to hit_parade | dictionary is "related_to" to thesis | dictionary is "has_context, used_for, part_of, form_of, related_to, antonym" to page | dictionary is "related_to, synonym" to mind | dictionary is "related_to" to casualism | dictionary is "used_for, causes, part_of, has_prerequisite, related_to" to education | dictionary is "related_to" to pseudocharacter | dictionary is "related_to" to meemaw | dictionary is "derived_from, related_to" to multilanguage | dictionary is "related_to, has_context" to pronoun | dictionary is "related_to" to parasynonym | dictionary is "related_to" to creativity | dictionary is "related_to, manner_of" to peep | dictionary is "related_to" to piece | dictionary is "related_to" to charades | dictionary is "is_a" to contemplation | dictionary is "has_context" to roman | dictionary is "related_to" to weird | dictionary is "related_to, is_a" to sanskrit | dictionary is "related_to" to symbol | dictionary is "form_of, related_to, has_context" to libraries | dictionary is "has_context, related_to" to reduplicative | dictionary is "related_to" to apheresis | dictionary is "related_to, is_a" to american_sign_language | dictionary is "is_a" to women | dictionary is "derived_from, related_to" to fanslation | dictionary is "at_location, related_to" to window | dictionary is "related_to" to gradus | dictionary is "related_to, has_context" to training | dictionary is "derived_from" to codeword | dictionary is "related_to" to heterogram | dictionary is "related_to" to always | dictionary is "related_to, synonym" to tongue | dictionary is "related_to, has_context" to rhematic | dictionary is "has_context, at_location, related_to" to group | dictionary is "form_of, related_to" to sauce | dictionary is "related_to" to velvet | dictionary is "related_to" to phrygian | dictionary is "related_to" to value | dictionary is "related_to" to hamza | dictionary is "related_to" to grecism | dictionary is "related_to" to part_sentence | dictionary is "related_to" to indianism | dictionary is "related_to, has_context" to typed | dictionary is "related_to" to aryan | dictionary is "related_to" to idiomatic | dictionary is "related_to, has_context" to redditive | dictionary is "related_to" to pirahã | dictionary is "related_to" to description | dictionary is "form_of, related_to, is_a, synonym" to meaning | dictionary is "has_context, part_of, related_to, antonym" to sentence | dictionary is "related_to" to yorkshireism | dictionary is "related_to, has_context" to compilation | dictionary is "related_to, is_a, has_context" to object_language | dictionary is "related_to" to transliteration | dictionary is "at_location, related_to, is_a, dbpedia/genre, has_context" to cat | dictionary is "related_to" to system | dictionary is "related_to, is_a, has_context" to quantifier | dictionary is "related_to" to heterophemy | dictionary is "related_to" to language_arts | dictionary is "related_to" to sociolinguistics | dictionary is "at_location, related_to" to truth | dictionary is "related_to" to english_plus | dictionary is "synonym, has_context, related_to" to source | dictionary is "has_context" to typestate | dictionary is "has_context, related_to" to indeterminate_state | dictionary is "related_to, has_context" to conjugate | dictionary is "related_to" to taxon | dictionary is "has_context, related_to" to token | dictionary is "related_to" to regionalism | dictionary is "related_to" to statue | dictionary is "related_to, is_a" to manual | dictionary is "has_context, related_to" to memory | dictionary is "related_to" to pieces | dictionary is "derived_from, related_to" to artbook | dictionary is "related_to" to verbalism | dictionary is "related_to, synonym, has_context" to time | dictionary is "has_context" to collective | dictionary is "related_to, has_context" to role | dictionary is "related_to" to number_sign | dictionary is "related_to, has_context" to personal | dictionary is "at_location, related_to" to monkey | dictionary is "at_location, related_to, synonym, has_context" to stuff | dictionary is "etymologically_related_to, related_to" to tralation | dictionary is "related_to, is_a" to middle_english | dictionary is "related_to, has_context" to wu | dictionary is "has_context, related_to" to sentence_element | dictionary is "related_to" to syllabify | dictionary is "related_to" to bulls_and_cows | dictionary is "related_to" to analysis | dictionary is "related_to" to dictogloss | dictionary is "related_to" to realizational | dictionary is "related_to" to dream | dictionary is "related_to, has_context" to focus | dictionary is "related_to" to law_of_hobson_jobson | dictionary is "related_to" to microtypography | dictionary is "related_to" to verbiage | dictionary is "desires, related_to" to judge | dictionary is "related_to" to norse | dictionary is "has_context, related_to" to rangeable | dictionary is "related_to" to kigo | dictionary is "form_of, related_to, is_a, used_for, has_a, at_location" to books | dictionary is "related_to" to francophonie | dictionary is "has_context, related_to" to native | dictionary is "is_a" to neo | dictionary is "related_to" to mystery | dictionary is "has_context, at_location, related_to" to mathematics | dictionary is "related_to, synonym, used_for" to instrument | dictionary is "derived_from" to lexical_analysis | dictionary is "related_to" to sciagraphy | dictionary is "related_to" to many_pages | dictionary is "has_context" to instant_messaging | dictionary is "related_to, is_a, has_context" to entry | dictionary is "related_to" to question | dictionary is "distinct_from, related_to, manner_of, synonym" to love | dictionary is "related_to, has_context" to essive | dictionary is "related_to" to rhyming_dictionary | dictionary is "related_to" to change | dictionary is "related_to" to saxon | dictionary is "related_to" to express | dictionary is "part_of, derived_from, at_location, form_of, has_prerequisite, related_to, antonym, is_a, synonym, located_near, used_for, has_a" to book | dictionary is "related_to" to babel | dictionary is "related_to" to phonetic | dictionary is "related_to" to related | dictionary is "related_to, has_context" to operator | dictionary is "related_to" to translative | dictionary is "related_to" to parabaik | dictionary is "related_to" to yell | dictionary is "related_to, synonym, entails" to fancy | dictionary is "derived_from, related_to" to hymnbook | dictionary is "has_context, at_location, related_to" to box | dictionary is "related_to" to beautiful | dictionary is "related_to, synonym" to basic_form | dictionary is "related_to, is_a" to harmony | dictionary is "related_to" to logograph | dictionary is "related_to" to movie | dictionary is "related_to, antonym" to lay | dictionary is "related_to, has_context" to us | dictionary is "synonym" to give_voice | dictionary is "derived_from" to pickup | dictionary is "related_to, has_context" to pipe | dictionary is "related_to" to logopoeia | dictionary is "related_to" to pharmacopoeia | dictionary is "related_to" to pilot_wave | dictionary is "related_to" to punch_line | dictionary is "related_to" to arabic_script | dictionary is "derived_from, related_to" to underword | dictionary is "related_to" to transferred_sense | dictionary is "related_to" to blob | dictionary is "related_to" to signpost | dictionary is "related_to" to prepositive | dictionary is "related_to" to channel | dictionary is "has_context, related_to" to linguistic | dictionary is "related_to" to audiolingual | dictionary is "etymologically_related_to, related_to" to passive_vocabulary | dictionary is "has_subevent, related_to" to laugh | dictionary is "related_to, has_context" to prolative_case | dictionary is "related_to" to sentoid | dictionary is "related_to, is_a, synonym, has_context, part_of, derived_from, at_location" to word | dictionary is "related_to" to day | dictionary is "related_to" to reason | dictionary is "has_context, related_to" to comitative | dictionary is "related_to" to term_of_address | dictionary is "related_to" to probe | dictionary is "related_to" to being | dictionary is "related_to, has_context" to set_phrase | dictionary is "related_to" to lettrism | dictionary is "related_to, is_a, synonym" to king's_english | dictionary is "related_to" to of | dictionary is "related_to, is_a" to muse | dictionary is "receives_action, related_to" to written | dictionary is "related_to, has_context" to paragoge | dictionary is "related_to, antonym, synonym, has_context" to law | dictionary is "related_to" to metanalysis | dictionary is "related_to, has_context" to postmodify | dictionary is "related_to" to shade | dictionary is "related_to, is_a, synonym" to bible | dictionary is "at_location, derived_from, related_to, is_a, used_for" to shelf | dictionary is "has_context, related_to, antonym" to child | dictionary is "related_to" to motto | dictionary is "related_to, synonym" to sequence | dictionary is "related_to" to contortionist | dictionary is "has_context, related_to" to function | dictionary is "related_to, is_a" to british_sign_language | dictionary is "related_to" to chinese_school | dictionary is "synonym" to parole | dictionary is "related_to" to school_class | dictionary is "related_to, antonym, is_a" to city | dictionary is "related_to" to doing | dictionary is "causes_desire, used_for, has_subevent, causes, motivated_by_goal, etymologically_related_to, has_prerequisite, related_to, manner_of, synonym" to learn | dictionary is "has_context, related_to" to physics | dictionary is "motivated_by_goal" to go_on_internet | dictionary is "has_context" to inflection | dictionary is "at_location, related_to, is_a, has_context, used_for" to computer | dictionary is "related_to, has_context" to hacker | dictionary is "has_context, related_to" to vulgar | dictionary is "is_a, has_context" to metonym | dictionary is "related_to, is_a" to anaphor | dictionary is "related_to" to monosyllabic | dictionary is "distinct_from, related_to, is_a" to english | dictionary is "related_to, antonym" to illiterate | dictionary is "related_to" to speaking | dictionary is "related_to" to taboo_deformation | dictionary is "related_to, is_a" to gathering | dictionary is "related_to" to iconograph | dictionary is "related_to" to afrikanerism | dictionary is "related_to, has_context" to connective | dictionary is "related_to" to steven | dictionary is "has_context" to pop | dictionary is "related_to" to diss | dictionary is "has_context, related_to" to complement | dictionary is "related_to" to greek_alphabet | dictionary is "related_to" to material | dictionary is "related_to" to trilingual | dictionary is "form_of, related_to" to define | dictionary is "at_location" to pictures | dictionary is "is_a, etymologically_related_to, related_to" to programming_language | dictionary is "is_a" to intelligent_agent_activity | dictionary is "related_to" to mandarin | dictionary is "is_a, used_for" to help | dictionary is "related_to" to speak_in_tongues | dictionary is "related_to, antonym, form_of, derived_from" to have | dictionary is "related_to" to body | dictionary is "related_to" to parselmouth | dictionary is "related_to" to heptaglot | dictionary is "related_to" to parts | dictionary is "related_to, synonym" to way | dictionary is "used_for, related_to, has_context" to population | dictionary is "related_to" to describe | dictionary is "has_context" to block | dictionary is "has_context, related_to, is_a" to object | dictionary is "related_to, is_a, synonym, has_context" to segment | dictionary is "related_to" to equivalent | dictionary is "has_context, related_to" to nest | dictionary is "is_a, synonym, manner_of, has_context, related_to" to record | dictionary is "related_to" to obsoletism | dictionary is "related_to" to in_library | dictionary is "part_of, has_context" to kilobyte | dictionary is "related_to" to derive | dictionary is "related_to" to coiner | dictionary is "related_to" to pain | dictionary is "at_location" to lemur | dictionary is "related_to" to unit | dictionary is "related_to" to structuralism | dictionary is "related_to, is_a" to booth | dictionary is "related_to" to transliterate | dictionary is "related_to, is_a" to bill | dictionary is "related_to, is_a" to brazilian_portuguese | dictionary is "related_to, has_context" to linker | dictionary is "related_to" to calm | dictionary is "related_to, manner_of, antonym, has_context" to call | dictionary is "related_to" to type | dictionary is "related_to" to generally | dictionary is "is_a" to fluff | dictionary is "related_to" to bemba | dictionary is "at_location, related_to, is_a" to game | dictionary is "antonym, related_to" to talk | dictionary is "related_to, has_context" to conversation | dictionary is "related_to, has_context" to data | dictionary is "similar_to, related_to" to polysyllabic | dictionary is "is_a" to turkish_language | dictionary is "related_to, synonym" to say | dictionary is "has_context, related_to" to biology | dictionary is "related_to" to craft | dictionary is "related_to" to talian | dictionary is "related_to, etymologically_related_to" to vocabularyclept | dictionary is "related_to" to sentence_part | dictionary is "related_to" to egg | dictionary is "related_to" to discrete | dictionary is "has_context, related_to" to indirective | dictionary is "related_to" to modality | dictionary is "related_to, has_context" to philosophy | dictionary is "derived_from, related_to, is_a" to wordbook | dictionary is "related_to" to famous | dictionary is "part_of, related_to, is_a" to band | dictionary is "derived_from, related_to" to bookhoard | dictionary is "related_to, synonym" to notice | dictionary is "related_to" to like | dictionary is "is_a" to string_of_words | dictionary is "has_context, related_to" to descriptive | dictionary is "related_to" to acuted | dictionary is "related_to" to japanese | dictionary is "related_to" to parol | dictionary is "related_to" to pictogram | dictionary is "synonym, distinct_from, related_to, antonym" to large | dictionary is "has_context, related_to, synonym" to script | dictionary is "at_location, related_to" to beaver | dictionary is "is_a" to paroxytone | dictionary is "related_to" to whorfian | dictionary is "related_to, manner_of" to sound | dictionary is "related_to" to collectanea | dictionary is "related_to" to anastomosis | dictionary is "has_context" to qutrit | dictionary is "is_a" to pali | dictionary is "has_context, related_to" to determinative | dictionary is "related_to" to chevron | dictionary is "related_to" to drift | dictionary is "related_to, has_context" to gallery | dictionary is "derived_from, related_to" to polyword | dictionary is "related_to, is_a, synonym" to ledger | dictionary is "related_to" to gaelicism | dictionary is "related_to" to sinicism | dictionary is "related_to" to eye_rhyme | dictionary is "related_to" to ukrainianism | dictionary is "used_for" to teaching | dictionary is "is_a" to portfolio | dictionary is "related_to" to illustrate | dictionary is "related_to" to crop | dictionary is "has_context, related_to" to non_verbal | dictionary is "has_context, used_for, related_to, synonym" to instruction | dictionary is "used_for, part_of, related_to" to letter | dictionary is "related_to" to give | dictionary is "has_context, related_to" to determiner | dictionary is "has_context" to historical | dictionary is "related_to" to transcript | dictionary is "has_context, related_to, manner_of" to register | dictionary is "has_context" to mediopassive | dictionary is "is_a, used_for" to inspiration | dictionary is "has_context, related_to" to distinctive | dictionary is "related_to, derived_from" to lexicogrammar | dictionary is "related_to, is_a" to measure | dictionary is "is_a" to hindi | dictionary is "related_to" to placename | dictionary is "form_of, derived_from, related_to, synonym" to look | dictionary is "part_of, related_to, has_context" to phrase | dictionary is "related_to, has_context, at_location" to farm | dictionary is "distinct_from, related_to" to you | dictionary is "at_location" to poet | dictionary is "has_context, related_to, manner_of" to post | dictionary is "has_context, related_to, synonym" to number | dictionary is "related_to" to disyllabic | dictionary is "related_to, is_a" to phone | dictionary is "at_location, related_to" to chalk | dictionary is "at_location, related_to" to schools | dictionary is "related_to" to lydian | dictionary is "related_to, antonym" to duck | dictionary is "related_to, antonym" to blind | dictionary is "related_to, derived_from, at_location" to picture | dictionary is "related_to" to individual | dictionary is "related_to" to balkanism | dictionary is "related_to" to acheron | dictionary is "has_context, has_subevent" to painting | dictionary is "has_context" to topology | dictionary is "related_to" to together | dictionary is "related_to" to bleep | dictionary is "has_context" to riff | dictionary is "related_to, is_a, has_context" to usage | dictionary is "has_context, derived_from, related_to" to lexicography | dictionary is "related_to, is_a" to organization | dictionary is "related_to" to pidgin | dictionary is "related_to" to parseltongue | dictionary is "has_context, related_to" to causal | dictionary is "has_context, at_location, related_to, is_a" to information | dictionary is "related_to, is_a" to german | dictionary is "related_to" to wardrobe | dictionary is "related_to, has_a" to sentences | dictionary is "related_to, is_a, distinct_from" to company | dictionary is "related_to" to phonology | dictionary is "has_context, related_to" to uk | dictionary is "has_context, related_to" to crude_form | dictionary is "causes, has_prerequisite" to expressing_information | dictionary is "is_a, related_to, part_of" to item | dictionary is "related_to" to cohyponym | dictionary is "related_to, is_a" to paraphrase | dictionary is "related_to, antonym, synonym" to adult | dictionary is "is_a, has_context" to troponym | dictionary is "related_to, manner_of, synonym" to arrange | dictionary is "related_to, has_context" to local | dictionary is "related_to" to yola | dictionary is "related_to, has_context" to synesis | dictionary is "related_to, is_a" to album | dictionary is "has_context, related_to" to art | dictionary is "is_a, related_to" to anglo_saxon | dictionary is "used_for, at_location, related_to" to line | dictionary is "is_a, related_to" to canon | dictionary is "related_to, synonym, has_context" to address | dictionary is "has_context, related_to, is_a" to statement | dictionary is "is_a" to cockney | dictionary is "related_to" to represent | dictionary is "related_to" to ergativity | dictionary is "related_to, is_a" to cent | dictionary is "related_to, has_context" to production | dictionary is "has_context, related_to" to man | dictionary is "related_to, derived_from" to byword | dictionary is "used_for, at_location, related_to" to newspaper | dictionary is "related_to, is_a" to old_french | dictionary is "related_to" to edge | dictionary is "related_to, has_context" to chunk | dictionary is "related_to" to sentence_fragment | dictionary is "related_to" to barytone | dictionary is "related_to" to entity | dictionary is "related_to" to shape | dictionary is "related_to" to lyric_video | dictionary is "related_to, has_context" to flat | dictionary is "related_to, is_a" to ancient_greek | dictionary is "related_to" to tea | dictionary is "related_to" to show | dictionary is "related_to" to dirty_realism | dictionary is "distinct_from, related_to, antonym" to mass | dictionary is "related_to" to relation | dictionary is "related_to, manner_of" to be | dictionary is "has_context, related_to" to metaplast | dictionary is "related_to" to communicate | dictionary is "related_to" to penultimate | dictionary is "related_to, has_context" to translative_case | dictionary is "synonym" to elect | dictionary is "at_location, related_to" to college | dictionary is "is_a, related_to, synonym, has_context, derived</t>
+  </si>
+  <si>
+    <t>fault is "has_context, related_to" to recent | fault is "related_to" to wicked | fault is "related_to" to moral_authority | fault is "derived_from, related_to" to perfectly | fault is "related_to, is_a, similar_to, has_context" to clean | fault is "is_a" to jurisdiction | fault is "has_context, related_to" to assert | fault is "form_of, derived_from, related_to, synonym" to fail | fault is "used_for, related_to" to geometry | fault is "related_to" to unreliable_narrator | fault is "related_to, antonym, has_context" to straight | fault is "related_to" to current | fault is "related_to" to attitude | fault is "related_to" to animal | fault is "related_to" to e_residency | fault is "related_to" to fallacious | fault is "related_to, has_context" to military | fault is "antonym, related_to, synonym" to purpose | fault is "related_to" to bribe | fault is "at_location, related_to" to place | fault is "related_to, is_a" to misconception | fault is "distinct_from, related_to, synonym" to incorrect | fault is "related_to" to claim | fault is "related_to, is_a, manner_of" to change | fault is "synonym" to accurate | fault is "related_to" to fee | fault is "manner_of" to appear | fault is "related_to, has_context" to guard | fault is "distinct_from, related_to, antonym, synonym" to perfect | fault is "has_property" to murder | fault is "has_context" to option | fault is "related_to" to garment | fault is "related_to, synonym, has_context" to make | fault is "related_to, has_context" to trust | fault is "related_to" to failproof | fault is "has_context" to us | fault is "related_to" to due | fault is "has_context" to junction | fault is "used_for, related_to" to pickup | fault is "has_context, related_to" to order | fault is "related_to" to simple | fault is "related_to" to wrongminded | fault is "related_to" to wrongness | fault is "related_to, is_a, synonym" to trick | fault is "related_to, synonym, similar_to, has_context" to clear | fault is "related_to" to castle | fault is "related_to" to in_wrong | fault is "related_to" to conservative | fault is "related_to" to conscience | fault is "distinct_from, related_to" to present | fault is "has_context" to mean | fault is "synonym" to condemnation | fault is "has_context" to preemption | fault is "related_to, synonym, similar_to" to duty | fault is "has_context, related_to" to write | fault is "synonym" to just | fault is "has_context" to restore | fault is "related_to" to put_one's_foot_in_one's_mouth | fault is "has_context, related_to" to true | fault is "related_to" to raise_red_flags | fault is "has_context" to exploit | fault is "related_to" to reason | fault is "synonym" to imperfectly | fault is "related_to, antonym" to being | fault is "related_to" to morality | fault is "related_to" to here | fault is "similar_to, derived_from, related_to" to guilty | fault is "related_to" to confute | fault is "related_to, has_context" to law | fault is "related_to" to abandon | fault is "etymologically_related_to, related_to" to loop | fault is "causes_desire, has_last_subevent" to agree_with | fault is "distinct_from, related_to, antonym" to fix | fault is "derived_from, related_to" to take | fault is "related_to" to wild | fault is "related_to" to age_of_majority | fault is "related_to" to moral | fault is "related_to, has_context" to office | fault is "related_to" to one | fault is "related_to, is_a" to location | fault is "related_to, has_context" to display | fault is "related_to" to very | fault is "related_to" to authority | fault is "related_to" to wrongtake | fault is "related_to" to righteous | fault is "related_to, form_of" to lines | fault is "etymologically_related_to, at_location, related_to" to play | fault is "has_context, related_to, synonym" to pass | fault is "related_to, similar_to" to ideal | fault is "related_to" to board | fault is "related_to" to disenfranchised | fault is "related_to, manner_of" to concede | fault is "related_to" to meet | fault is "created_by, capable_of, related_to" to people | fault is "has_context" to cricket | fault is "related_to, is_a" to offside | fault is "synonym, derived_from, related_to, antonym" to wrong | fault is "related_to" to foreigner | fault is "related_to" to expiate | fault is "related_to" to misrepresentation | fault is "is_a, related_to" to state | fault is "related_to" to punishment | fault is "related_to, synonym" to wrength | fault is "related_to" to after | fault is "related_to, antonym, synonym" to fallible | fault is "related_to, antonym" to answer | fault is "has_context" to nautical | fault is "related_to" to faction | fault is "related_to, is_a" to condition | fault is "related_to" to insult | fault is "has_context" to privilege | fault is "related_to, is_a, has_subevent" to exercise | fault is "derived_from, related_to, manner_of" to impute | fault is "has_context" to awk | fault is "antonym, related_to" to mend | fault is "related_to, has_context" to assignment | fault is "related_to, synonym" to holy | fault is "related_to" to not | fault is "related_to" to describe | fault is "is_a, related_to" to injury | fault is "related_to" to writing | fault is "has_context" to nonstandard | fault is "distinct_from, related_to" to object | fault is "related_to" to tetralogy_of_fallot | fault is "is_a, synonym" to misfortune | fault is "related_to" to rent | fault is "etymologically_related_to, related_to" to sense | fault is "related_to" to inside | fault is "etymologically_related_to, related_to" to culpable | fault is "has_context, related_to" to handle | fault is "has_context, related_to" to record | fault is "has_context" to wrongfoot | fault is "related_to" to re_entry | fault is "has_context" to false | fault is "related_to" to wrongous | fault is "related_to" to use | fault is "related_to" to opposite | fault is "has_context" to floor | fault is "related_to, is_a, synonym" to row | fault is "related_to, synonym" to bust | fault is "synonym" to pain | fault is "related_to" to defendant | fault is "related_to" to mischief | fault is "related_to" to tortfeasance | fault is "related_to" to sin | fault is "distinct_from, form_of, derived_from, related_to, antonym" to flawed | fault is "related_to" to remorse | fault is "related_to" to bill | fault is "related_to" to light | fault is "related_to" to mis | fault is "antonym, has_context, related_to" to command | fault is "related_to" to competent | fault is "related_to" to anger | fault is "related_to" to obligation | fault is "related_to" to adequate | fault is "related_to, antonym, synonym" to mistake | fault is "related_to, manner_of" to injure | fault is "related_to" to middle | fault is "has_context, related_to" to trouble | fault is "related_to" to confound | fault is "related_to" to opinion | fault is "related_to, antonym, has_context" to legal | fault is "related_to, is_a, has_context" to evil | fault is "related_to" to misreckon | fault is "distinct_from, antonym, related_to" to correct | fault is "related_to" to misken | fault is "related_to" to agley | fault is "related_to" to corporate_citizen | fault is "has_context" to staple | fault is "has_context" to permission | fault is "has_context" to british | fault is "related_to" to righteousness | fault is "related_to" to mad | fault is "synonym, related_to, antonym" to rule | fault is "is_a, has_context, related_to" to flop | fault is "has_context, related_to" to access | fault is "related_to" to hand | fault is "related_to" to negative | fault is "related_to, is_a" to situation | fault is "has_context" to copywronged | fault is "related_to, synonym" to violate | fault is "has_context" to baseball | fault is "related_to, has_context, derived_from" to structure | fault is "etymologically_related_to, derived_from, related_to, synonym, manner_of, has_context" to blame | fault is "derived_from, related_to, antonym" to faulty | fault is "related_to" to peremptory_challenge | fault is "related_to" to movement | fault is "has_prerequisite" to stopping_being_married_to | fault is "related_to" to miscome | fault is "related_to" to design | fault is "related_to" to illegal | fault is "related_to, is_a" to action | fault is "related_to" to unblemished | fault is "is_a" to corner | fault is "has_context" to right_drag | fault is "related_to" to foul_up | fault is "related_to, has_context" to up | fault is "related_to" to proper | fault is "related_to" to common | fault is "related_to" to justice | fault is "related_to, has_context" to size | fault is "related_to" to fit | fault is "related_to" to judgment | fault is "distinct_from, related_to, synonym" to bad | fault is "related_to" to unlawful | fault is "related_to" to outtake | fault is "related_to, synonym, similar_to" to exact | fault is "related_to" to difficult | fault is "related_to" to thin | fault is "related_to" to everything | fault is "related_to" to price | fault is "has_context, related_to" to foil | fault is "related_to, antonym" to iron | fault is "related_to, has_context" to now | fault is "related_to" to fraud | fault is "has_context, related_to" to post | fault is "related_to, has_context" to device | fault is "related_to, antonym" to power | fault is "synonym, related_to" to mishap | fault is "distinct_from, related_to, antonym" to working | fault is "related_to" to freedom | fault is "causes" to judging | fault is "has_context, related_to, is_a, synonym" to error | fault is "related_to" to bark_up_wrong_tree | fault is "has_context, is_a, related_to" to correctness | fault is "related_to" to mismean | fault is "part_of, related_to" to dress | fault is "has_context" to recovery | fault is "related_to, is_a" to diagonal | fault is "antonym" to rightness | fault is "related_to" to position | fault is "related_to" to immoral | fault is "related_to" to perpendicular | fault is "related_to" to improper | fault is "is_a, synonym" to affliction | fault is "related_to" to treat | fault is "has_context" to ill_formed | fault is "related_to, synonym" to infallibility | fault is "related_to" to malign | fault is "related_to, synonym" to lapse | fault is "related_to" to franchise | fault is "related_to" to wronghead | fault is "related_to" to exactly | fault is "related_to, manner_of" to damage | fault is "related_to, synonym" to misstep | fault is "has_context" to australia | fault is "has_context, related_to" to arrow | fault is "synonym" to criminal | fault is "etymologically_related_to, derived_from" to have_reason | fault is "related_to" to unfair | fault is "has_context, related_to" to if | fault is "related_to, antonym" to correction | fault is "related_to, synonym" to tax | fault is "has_context" to dialect | fault is "related_to, synonym, has_context" to suppress | fault is "related_to" to idea | fault is "related_to" to defile | fault is "related_to" to mistaste | fault is "related_to" to trench | fault is "related_to" to sweet | fault is "related_to" to window | fault is "related_to" to turn | fault is "related_to" to voice | fault is "related_to" to slander | fault is "has_context" to unbalanced | fault is "related_to" to something_is_rotten_in_state_of_denmark | fault is "has_context, related_to" to group | fault is "related_to" to go_wrong | fault is "desires, capable_of, related_to, antonym, is_a, not_desires" to person | fault is "related_to" to corrupt | fault is "has_context, antonym" to citizen | fault is "antonym" to okay | fault is "related_to" to precisely | fault is "causes" to killing | fault is "related_to, is_a, has_context" to property | fault is "related_to" to put_foot_wrong | fault is "related_to, is_a" to side | fault is "has_context" to slang | fault is "related_to" to altogether | fault is "distinct_from, antonym" to enough | fault is "related_to, has_context" to adjective | fault is "similar_to" to inaccurate | fault is "related_to" to peccant | fault is "related_to" to over | fault is "related_to" to waiver | fault is "has_context" to edit | fault is "related_to" to naughty | fault is "has_context, is_a, related_to" to sheet | fault is "related_to" to grant | fault is "derived_from, related_to" to errorful | fault is "related_to, not_has_property" to dead | fault is "related_to" to food | fault is "related_to" to air | fault is "related_to" to make_mistake | fault is "related_to" to truth | fault is "related_to" to imposture | fault is "related_to" to off | fault is "distinct_from, related_to, antonym, not_has_property" to good | fault is "related_to, is_a, has_context" to cut | fault is "related_to" to wrongdom | fault is "related_to" to interest | fault is "related_to" to wrongly | fault is "synonym" to visitation | fault is "related_to" to mismove | fault is "related_to" to wrongful | fault is "related_to, synonym" to cross | fault is "related_to, manner_of" to pervert | fault is "related_to" to amiss | fault is "related_to" to amends | fault is "related_to, synonym" to wrongdoing | fault is "related_to, has_context" to signal | fault is "related_to" to right | fault is "synonym, related_to" to ill | fault is "has_context" to far | fault is "related_to" to particular | fault is "related_to" to direction | fault is "has_context" to abstraction | fault is "related_to, synonym" to reprehensible | fault is "has_context" to steal | incorrect is "related_to" to recent | incorrect is "related_to" to wicked | incorrect is "related_to" to moral_authority | incorrect is "derived_from" to perfectly | incorrect is "similar_to" to clean | incorrect is "related_to" to jurisdiction | incorrect is "related_to" to assert | incorrect is "related_to" to fail | incorrect is "has_context" to geometry | incorrect is "related_to" to unreliable_narrator | incorrect is "related_to, similar_to" to straight | incorrect is "related_to" to current | incorrect is "related_to" to attitude | incorrect is "related_to" to animal | incorrect is "related_to" to e_residency | incorrect is "related_to, synonym" to fallacious | incorrect is "has_context, related_to" to military | incorrect is "antonym, related_to" to purpose | incorrect is "related_to" to bribe | incorrect is "related_to" to place | incorrect is "is_a, related_to" to misconception | incorrect is "related_to, defined_as, synonym, has_property, distinct_from, similar_to, derived_from, antonym" to incorrect | incorrect is "is_a, related_to" to claim | incorrect is "manner_of" to change | incorrect is "antonym, similar_to, related_to, synonym" to accurate | incorrect is "related_to" to fee | incorrect is "synonym" to appear | incorrect is "related_to" to guard | incorrect is "related_to, antonym" to perfect | incorrect is "has_property" to murder | incorrect is "related_to" to option | incorrect is "related_to" to garment | incorrect is "related_to, synonym" to make | incorrect is "related_to" to trust | incorrect is "related_to" to failproof | incorrect is "has_context" to us | incorrect is "related_to, is_a" to due | incorrect is "related_to" to junction | incorrect is "related_to" to pickup | incorrect is "related_to" to order | incorrect is "related_to" to simple | incorrect is "related_to, derived_from" to wrongminded | incorrect is "related_to, synonym, derived_from" to wrongness | incorrect is "related_to" to trick | incorrect is "similar_to" to clear | incorrect is "related_to" to castle | incorrect is "derived_from" to in_wrong | incorrect is "synonym, similar_to, related_to" to conservative | incorrect is "related_to" to conscience | incorrect is "related_to" to present | incorrect is "related_to" to mean | incorrect is "related_to" to condemnation | incorrect is "is_a" to preemption | incorrect is "antonym" to duty | incorrect is "manner_of, distinct_from, antonym" to write | incorrect is "related_to, synonym, antonym" to just | incorrect is "related_to" to restore | incorrect is "related_to" to put_one's_foot_in_one's_mouth | incorrect is "related_to, distinct_from, not_has_property, antonym" to true | incorrect is "related_to" to raise_red_flags | incorrect is "related_to" to exploit | incorrect is "related_to" to reason | incorrect is "synonym" to imperfectly | incorrect is "related_to, antonym" to being | incorrect is "related_to" to morality | incorrect is "related_to" to here | incorrect is "related_to" to guilty | incorrect is "related_to" to confute | incorrect is "has_context, related_to" to law | incorrect is "related_to" to abandon | incorrect is "related_to" to loop | incorrect is "motivated_by_goal" to agree_with | incorrect is "related_to" to fix | incorrect is "related_to, derived_from" to take | incorrect is "related_to" to wild | incorrect is "related_to" to age_of_majority | incorrect is "related_to" to moral | incorrect is "related_to" to office | incorrect is "related_to, synonym" to one | incorrect is "related_to" to location | incorrect is "related_to, derived_from" to display | incorrect is "related_to" to very | incorrect is "related_to, has_property" to authority | incorrect is "related_to, derived_from" to wrongtake | incorrect is "derived_from" to righteous | incorrect is "related_to" to lines | incorrect is "related_to" to play | incorrect is "related_to" to pass | incorrect is "similar_to, related_to" to ideal | incorrect is "related_to" to board | incorrect is "related_to" to disenfranchised | incorrect is "related_to" to concede | incorrect is "manner_of, related_to" to meet | incorrect is "created_by, has_property" to people | incorrect is "has_context" to cricket | incorrect is "is_a, related_to" to offside | incorrect is "synonym, has_property, related_to, distinct_from, derived_from, antonym" to wrong | incorrect is "related_to" to foreigner | incorrect is "manner_of" to expiate | incorrect is "related_to" to misrepresentation | incorrect is "manner_of, related_to" to state | incorrect is "related_to" to punishment | incorrect is "related_to, synonym" to wrength | incorrect is "related_to" to after | incorrect is "related_to, synonym, antonym" to fallible | incorrect is "derived_from, antonym, manner_of, related_to" to answer | incorrect is "has_context" to nautical | incorrect is "is_a" to faction | incorrect is "related_to" to condition | incorrect is "related_to" to insult | incorrect is "is_a, related_to" to privilege | incorrect is "has_subevent" to exercise | incorrect is "related_to" to impute | incorrect is "related_to" to awk | incorrect is "related_to" to mend | incorrect is "related_to" to assignment | incorrect is "related_to" to holy | incorrect is "related_to" to not | incorrect is "related_to" to describe | incorrect is "synonym, is_a, related_to" to injury | incorrect is "related_to" to writing | incorrect is "has_context" to nonstandard | incorrect is "related_to" to object | incorrect is "related_to" to tetralogy_of_fallot | incorrect is "synonym" to misfortune | incorrect is "related_to" to rent | incorrect is "related_to" to sense | incorrect is "similar_to" to inside | incorrect is "related_to" to culpable | incorrect is "derived_from, related_to" to handle | incorrect is "related_to" to record | incorrect is "derived_from" to wrongfoot | incorrect is "related_to" to re_entry | incorrect is "related_to, synonym, derived_from" to false | incorrect is "derived_from, etymologically_related_to" to wrongous | incorrect is "derived_from, antonym, related_to, is_a" to use | incorrect is "related_to" to opposite | incorrect is "related_to, is_a" to floor | incorrect is "related_to" to row | incorrect is "related_to" to bust | incorrect is "related_to" to pain | incorrect is "related_to" to defendant | incorrect is "is_a, related_to" to mischief | incorrect is "related_to" to tortfeasance | incorrect is "related_to" to sin | incorrect is "distinct_from, antonym" to flawed | incorrect is "related_to" to remorse | incorrect is "related_to" to bill | incorrect is "related_to" to light | incorrect is "related_to" to mis | incorrect is "related_to" to command | incorrect is "related_to" to competent | incorrect is "related_to" to anger | incorrect is "antonym, related_to" to obligation | incorrect is "related_to" to adequate | incorrect is "antonym, form_of, related_to, distinct_from" to mistake | incorrect is "related_to" to injure | incorrect is "related_to, distinct_from, antonym" to middle | incorrect is "related_to, synonym" to trouble | incorrect is "related_to" to confound | incorrect is "related_to" to opinion | incorrect is "has_context, related_to" to legal | incorrect is "related_to" to evil | incorrect is "related_to" to misreckon | incorrect is "related_to, synonym, distinct_from, similar_to, derived_from, antonym" to correct | incorrect is "related_to" to misken | incorrect is "related_to" to agley | incorrect is "related_to" to corporate_citizen | incorrect is "related_to" to staple | incorrect is "is_a" to permission | incorrect is "has_context" to british | incorrect is "related_to" to righteousness | incorrect is "related_to" to mad | incorrect is "derived_from" to rule | incorrect is "synonym" to flop | incorrect is "is_a" to access | incorrect is "is_a, related_to" to hand | incorrect is "related_to" to negative | incorrect is "related_to" to situation | incorrect is "etymologically_related_to" to copywronged | incorrect is "synonym, related_to" to violate | incorrect is "has_context" to baseball | incorrect is "is_a, related_to" to structure | incorrect is "synonym" to blame | incorrect is "antonym, similar_to, related_to, synonym" to faulty | incorrect is "related_to" to peremptory_challenge | incorrect is "related_to" to movement | incorrect is "causes" to stopping_being_married_to | incorrect is "related_to" to miscome | incorrect is "related_to" to design | incorrect is "related_to, synonym" to illegal | incorrect is "derived_from, is_a, related_to" to action | incorrect is "related_to" to unblemished | incorrect is "related_to" to corner | incorrect is "related_to" to right_drag | incorrect is "related_to" to foul_up | incorrect is "related_to" to up | incorrect is "related_to, synonym, distinct_from, antonym, similar_to" to proper | incorrect is "related_to, has_property, distinct_from" to common | incorrect is "related_to, is_a" to justice | incorrect is "related_to" to size | incorrect is "related_to, synonym" to fit | incorrect is "related_to" to judgment | incorrect is "related_to, synonym, distinct_from, antonym" to bad | incorrect is "related_to" to unlawful | incorrect is "related_to" to outtake | incorrect is "related_to, synonym, similar_to" to exact | incorrect is "related_to" to difficult | incorrect is "related_to" to thin | incorrect is "related_to" to everything | incorrect is "related_to" to price | incorrect is "related_to" to foil | incorrect is "related_to" to iron | incorrect is "related_to" to now | incorrect is "related_to" to fraud | incorrect is "related_to" to post | incorrect is "related_to" to device | incorrect is "related_to" to power | incorrect is "related_to" to mishap | incorrect is "derived_from, related_to" to working | incorrect is "related_to" to freedom | incorrect is "has_subevent" to judging | incorrect is "antonym, is_a, related_to, synonym" to error | incorrect is "related_to, derived_from" to bark_up_wrong_tree | incorrect is "derived_from, antonym, related_to" to correctness | incorrect is "related_to" to mismean | incorrect is "related_to" to dress | incorrect is "related_to" to recovery | incorrect is "related_to" to diagonal | incorrect is "derived_from, related_to" to rightness | incorrect is "related_to, is_a" to position | incorrect is "similar_to, related_to" to immoral | incorrect is "similar_to, related_to" to perpendicular | incorrect is "related_to, synonym, similar_to, antonym" to improper | incorrect is "is_a, synonym" to affliction | incorrect is "manner_of" to treat | incorrect is "synonym" to ill_formed | incorrect is "related_to, distinct_from" to infallibility | incorrect is "related_to" to malign | incorrect is "related_to" to lapse | incorrect is "related_to" to franchise | incorrect is "derived_from" to wronghead | incorrect is "related_to, synonym" to exactly | incorrect is "synonym" to damage | incorrect is "related_to" to misstep | incorrect is "has_context" to australia | incorrect is "related_to" to arrow | incorrect is "related_to" to criminal | incorrect is "related_to" to have_reason | incorrect is "related_to" to unfair | incorrect is "related_to" to if | incorrect is "derived_from, antonym, related_to" to correction | incorrect is "related_to" to tax | incorrect is "has_context" to dialect | incorrect is "related_to" to suppress | incorrect is "part_of, related_to" to idea | incorrect is "related_to" to defile | incorrect is "related_to" to mistaste | incorrect is "related_to" to trench | incorrect is "related_to" to sweet | incorrect is "related_to" to window | incorrect is "is_a, related_to" to turn | incorrect is "related_to" to voice | incorrect is "related_to" to slander | incorrect is "related_to" to unbalanced | incorrect is "related_to" to something_is_rotten_in_state_of_denmark | incorrect is "related_to" to group | incorrect is "related_to, derived_from" to go_wrong | incorrect is "related_to, not_desires, desires" to person | incorrect is "related_to" to corrupt | incorrect is "related_to" to citizen | incorrect is "related_to" to okay | incorrect is "related_to" to precisely | incorrect is "has_property" to killing | incorrect is "related_to" to property | incorrect is "derived_from, related_to" to put_foot_wrong | incorrect is "related_to" to side | incorrect is "distinct_from, has_context" to slang | incorrect is "synonym" to altogether | incorrect is "related_to" to enough | incorrect is "has_context, related_to" to adjective | incorrect is "related_to, synonym, similar_to" to inaccurate | incorrect is "related_to" to peccant | incorrect is "related_to" to over | incorrect is "related_to" to waiver | incorrect is "related_to" to edit | incorrect is "related_to, distinct_from" to naughty | incorrect is "related_to, is_a" to sheet | incorrect is "is_a" to grant | incorrect is "related_to" to errorful | incorrect is "related_to" to dead | incorrect is "related_to" to food | incorrect is "related_to" to air | incorrect is "related_to" to make_mistake | incorrect is "related_to, has_property, distinct_from, antonym" to truth | incorrect is "related_to" to imposture | incorrect is "related_to" to off | incorrect is "related_to, synonym" to good | incorrect is "related_to" to cut | incorrect is "derived_from, related_to" to wrongdom | incorrect is "related_to, is_a" to interest | incorrect is "related_to, synonym, derived_from" to wrongly | incorrect is "related_to" to visitation | incorrect is "related_to" to mismove | incorrect is "derived_from, related_to" to wrongful | incorrect is "related_to" to cross | incorrect is "synonym" to pervert | incorrect is "related_to, synonym" to amiss | incorrect is "related_to" to amends | incorrect is "derived_from, is_a, related_to" to wrongdoing | incorrect is "related_to, derived_from" to signal | incorrect is "related_to, synonym, has_property, distinct_from, antonym" to right | incorrect is "synonym" to ill | incorrect is "similar_to" to far | incorrect is "related_to" to particular | incorrect is "related_to" to direction | incorrect is "is_a" to abstraction | incorrect is "similar_to" to reprehensible | incorrect is "has_subevent" to steal | unjust is "related_to" to recent | unjust is "related_to, synonym" to wicked | unjust is "related_to" to moral_authority | unjust is "related_to" to perfectly | unjust is "synonym" to clean | unjust is "related_to" to jurisdiction | unjust is "related_to" to assert | unjust is "related_to" to fail | unjust is "has_context" to geometry | unjust is "related_to" to unreliable_narrator | unjust is "related_to" to straight | unjust is "related_to" to current | unjust is "related_to" to attitude | unjust is "is_a, related_to" to animal | unjust is "related_to" to e_residency | unjust is "related_to" to fallacious | unjust is "has_context" to military | unjust is "related_to" to purpose | unjust is "related_to" to bribe | unjust is "related_to" to place | unjust is "related_to" to misconception | unjust is "related_to, synonym, antonym" to incorrect | unjust is "is_a, related_to" to claim | unjust is "manner_of" to change | unjust is "synonym" to accurate | unjust is "related_to" to fee | unjust is "related_to" to appear | unjust is "related_to" to guard | unjust is "related_to, antonym" to perfect | unjust is "has_property" to murder | unjust is "related_to" to option | unjust is "related_to" to garment | unjust is "manner_of, related_to" to make | unjust is "related_to" to trust | unjust is "related_to" to failproof | unjust is "has_context" to us | unjust is "related_to, synonym, is_a" to due | unjust is "related_to" to junction | unjust is "has_context" to pickup | unjust is "related_to" to order | unjust is "related_to" to simple | unjust is "derived_from" to wrongminded | unjust is "related_to, derived_from" to wrongness | unjust is "related_to, antonym" to trick | unjust is "similar_to" to clear | unjust is "related_to" to castle | unjust is "derived_from" to in_wrong | unjust is "synonym, similar_to, related_to" to conservative | unjust is "related_to" to conscience | unjust is "related_to" to present | unjust is "related_to" to mean | unjust is "related_to" to condemnation | unjust is "is_a" to preemption | unjust is "related_to, antonym" to duty | unjust is "distinct_from, antonym" to write | unjust is "related_to, synonym, derived_from, antonym" to just | unjust is "related_to" to restore | unjust is "related_to" to put_one's_foot_in_one's_mouth | unjust is "related_to, synonym" to true | unjust is "related_to" to raise_red_flags | unjust is "related_to" to exploit | unjust is "related_to" to reason | unjust is "related_to" to imperfectly | unjust is "related_to, antonym" to being | unjust is "related_to" to morality | unjust is "related_to" to here | unjust is "related_to" to guilty | unjust is "related_to" to confute | unjust is "related_to" to law | unjust is "related_to" to abandon | unjust is "related_to" to loop | unjust is "motivated_by_goal" to agree_with | unjust is "related_to" to fix | unjust is "related_to, synonym, has_context" to take | unjust is "is_a" to wild | unjust is "related_to" to age_of_majority | unjust is "related_to" to moral | unjust is "related_to" to office | unjust is "synonym" to one | unjust is "related_to" to location | unjust is "related_to" to display | unjust is "related_to" to very | unjust is "related_to, has_property" to authority | unjust is "derived_from" to wrongtake | unjust is "derived_from, related_to, synonym" to righteous | unjust is "has_context" to lines | unjust is "related_to, has_subevent, has_context" to play | unjust is "related_to" to pass | unjust is "related_to" to ideal | unjust is "related_to" to board | unjust is "related_to" to disenfranchised | unjust is "related_to" to concede | unjust is "related_to" to meet | unjust is "related_to, has_property, at_location" to people | unjust is "related_to" to cricket | unjust is "related_to" to offside | unjust is "synonym, is_a, has_property, related_to, distinct_from, derived_from, antonym" to wrong | unjust is "related_to" to foreigner | unjust is "manner_of" to expiate | unjust is "related_to" to misrepresentation | unjust is "related_to" to state | unjust is "related_to" to punishment | unjust is "related_to, synonym" to wrength | unjust is "related_to" to after | unjust is "related_to" to fallible | unjust is "antonym, related_to" to answer | unjust is "has_context" to nautical | unjust is "is_a, related_to" to faction | unjust is "related_to" to condition | unjust is "related_to, synonym" to insult | unjust is "is_a, related_to" to privilege | unjust is "related_to" to exercise | unjust is "related_to" to impute | unjust is "related_to" to awk | unjust is "related_to" to mend | unjust is "related_to" to assignment | unjust is "related_to" to holy | unjust is "related_to" to not | unjust is "related_to" to describe | unjust is "synonym, is_a, related_to" to injury | unjust is "related_to" to writing | unjust is "has_context" to nonstandard | unjust is "is_a, related_to" to object | unjust is "related_to" to tetralogy_of_fallot | unjust is "related_to, synonym" to misfortune | unjust is "related_to" to rent | unjust is "related_to" to sense | unjust is "similar_to" to inside | unjust is "related_to" to culpable | unjust is "related_to" to handle | unjust is "used_for, manner_of, related_to" to record | unjust is "derived_from" to wrongfoot | unjust is "related_to" to re_entry | unjust is "synonym" to false | unjust is "derived_from, related_to, etymologically_rela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">murder is "related_to, has_context" to flag | murder is "related_to, manner_of, is_a, synonym" to discharge | murder is "related_to" to made | murder is "related_to" to big | murder is "has_context" to volunteer | murder is "has_context" to sa | murder is "related_to" to rank | murder is "related_to" to fudge | murder is "related_to" to squirt | murder is "has_context" to run_in | murder is "antonym, related_to" to preserve | murder is "motivated_by_goal, related_to, has_prerequisite" to judge | murder is "related_to, has_context" to rate | murder is "related_to, manner_of" to clean | murder is "has_context" to gill | murder is "has_context" to intersection | murder is "has_context, related_to" to party | murder is "related_to" to merchant | murder is "manner_of" to heel | murder is "related_to" to leader | murder is "related_to, synonym" to crowbar | murder is "related_to" to cream | murder is "related_to" to core | murder is "related_to" to fan | murder is "related_to" to native | murder is "related_to" to anguilla | murder is "has_context" to hotfoot | murder is "distinct_from" to slope | murder is "related_to, has_context" to round | murder is "has_context" to geometry | murder is "related_to, is_a, manner_of" to touch | murder is "related_to, antonym" to land | murder is "related_to, antonym, used_for" to bullet | murder is "related_to, has_context" to extension | murder is "derived_from" to beard | murder is "related_to" to liberty | murder is "at_location, related_to, has_context" to table | murder is "has_context" to mathematics | murder is "related_to" to crawl | murder is "related_to" to wave | murder is "has_context" to skiing | murder is "has_context" to squash | murder is "has_context, related_to" to tube | murder is "related_to" to market | murder is "related_to" to continue | murder is "part_of, at_location, related_to" to neck | murder is "at_location, related_to, antonym" to wood | murder is "related_to, synonym, has_context" to break | murder is "is_a" to time_period | murder is "has_context" to jockey | murder is "related_to" to smear | murder is "has_context, related_to, is_a" to animal | murder is "has_context" to h | murder is "related_to" to mine | murder is "synonym" to prevail | murder is "related_to, is_a, has_context" to process | murder is "related_to" to obstruction | murder is "related_to" to current | murder is "related_to" to name | murder is "related_to" to astragal | murder is "related_to, has_context" to pants | murder is "derived_from, related_to, manner_of" to bone | murder is "has_context" to service | murder is "related_to, has_context" to military | murder is "related_to" to purpose | murder is "related_to, has_context" to cave | murder is "at_location, related_to" to closet | murder is "related_to, has_context" to place | murder is "related_to" to plant | murder is "related_to" to observer | murder is "related_to" to damp | murder is "has_context" to reverse | murder is "related_to, is_a, manner_of" to change | murder is "has_context, related_to, manner_of" to double | murder is "has_context" to drove | murder is "related_to" to emergency | murder is "has_context" to runless | murder is "antonym" to deal | murder is "derived_from, related_to, used_for" to machine | murder is "related_to" to male | murder is "has_subevent, related_to" to cutting | murder is "is_a, has_context" to book | murder is "has_context, related_to" to convenience | murder is "related_to, has_context" to case | murder is "related_to" to appear | murder is "related_to, has_context" to music | murder is "related_to" to domain | murder is "related_to" to plasma | murder is "related_to, has_context" to guard | murder is "related_to" to asset | murder is "related_to" to hair | murder is "related_to, is_a, has_context" to passing | murder is "has_context" to realm | murder is "related_to" to related | murder is "part_of, derived_from, related_to, is_a" to bird | murder is "related_to, synonym" to blast | murder is "related_to, antonym" to cake | murder is "related_to, has_context" to venue | murder is "manner_of" to excavate | murder is "manner_of" to supply | murder is "has_context" to flyover | murder is "has_context" to racecourse | murder is "has_context" to run_up | murder is "related_to" to sail | murder is "related_to" to moon | murder is "related_to" to sudden | murder is "related_to, synonym" to speed | murder is "related_to" to brick | murder is "has_context" to cruise | murder is "related_to" to create | murder is "related_to" to lake | murder is "has_context" to internet | murder is "has_context" to circuit | murder is "has_context" to tennis | murder is "related_to, is_a" to garment | murder is "related_to" to make | murder is "has_context" to bars | murder is "related_to" to liquor | murder is "related_to" to small | murder is "at_location, related_to, manner_of" to box | murder is "has_context" to profit | murder is "form_of, related_to" to hat | murder is "related_to, is_a, manner_of" to act | murder is "dbpedia/language" to english_language | murder is "related_to, part_of, at_location" to vessel | murder is "used_for, has_subevent, causes" to fighting_enemy | murder is "related_to" to capsule | murder is "related_to" to stream | murder is "related_to" to arrangement | murder is "related_to" to stroke | murder is "capable_of, related_to, manner_of, synonym" to burn | murder is "has_context" to dog | murder is "related_to, synonym" to rush | murder is "derived_from" to runoff | murder is "at_location" to cabinet | murder is "has_context" to us | murder is "has_context" to bunk | murder is "has_prerequisite" to blade | murder is "has_context, has_subevent, distinct_from, related_to, antonym" to live | murder is "related_to" to vehicle | murder is "related_to, manner_of, synonym, entails, etymologically_related_to" to beat | murder is "has_context, related_to" to range | murder is "related_to" to dearterialization | murder is "related_to" to bug | murder is "related_to" to locomotion | murder is "related_to, antonym, receives_action" to melted | murder is "has_context" to sports | murder is "related_to" to license | murder is "related_to" to batting_average | murder is "derived_from, related_to" to bodily | murder is "related_to" to protect | murder is "related_to, has_context" to long | murder is "related_to, manner_of, at_location" to ground | murder is "related_to" to boy | murder is "has_prerequisite, related_to, manner_of, has_context" to punch | murder is "related_to, manner_of" to club | murder is "related_to, manner_of" to eat | murder is "related_to" to course | murder is "related_to" to escape | murder is "synonym, has_context, related_to" to strike | murder is "related_to, antonym" to health | murder is "has_context" to conservative | murder is "related_to" to enemy | murder is "related_to" to present | murder is "has_context" to transition | murder is "motivated_by_goal, related_to, synonym" to mean | murder is "related_to" to flower | murder is "related_to" to run_time | murder is "related_to" to caput | murder is "has_context, related_to" to carry | murder is "has_context, related_to" to split | murder is "is_a, synonym, has_context" to panel | murder is "related_to" to natural | murder is "related_to" to respect | murder is "related_to, used_for" to hunting | murder is "related_to, synonym" to pig | murder is "has_context" to graft | murder is "distinct_from, antonym" to write | murder is "related_to" to for_cars | murder is "derived_from, related_to" to stop | murder is "related_to" to metallic | murder is "related_to" to nonexecuting | murder is "is_a, manner_of, used_for, related_to" to machine_gun | murder is "related_to" to method | murder is "related_to" to cao | murder is "related_to, manner_of, has_context" to draw | murder is "related_to, synonym" to do | murder is "related_to, used_for" to hunt | murder is "related_to" to gang | murder is "related_to, synonym" to lam | murder is "related_to" to channel | murder is "has_context" to pump | murder is "related_to, antonym, synonym" to alive | murder is "related_to" to fortify | murder is "has_context, has_subevent, causes, created_by, distinct_from, related_to, antonym, is_a" to smoke | murder is "related_to, manner_of" to stem | murder is "related_to" to drill | murder is "related_to" to spray | murder is "related_to, has_context" to funny | murder is "related_to, has_context" to bell | murder is "derived_from, related_to" to axe | murder is "related_to" to vial | murder is "related_to, used_for, motivated_by_goal" to money | murder is "causes_desire" to stay_fit | murder is "has_subevent" to laugh | murder is "antonym" to exist | murder is "causes, related_to, has_context, used_for" to match | murder is "related_to" to eye | murder is "related_to, synonym" to lump | murder is "related_to" to collection | murder is "has_context" to computing | murder is "has_context" to master | murder is "related_to" to day | murder is "related_to, has_property, etymologically_related_to" to violent | murder is "has_context" to sucker | murder is "related_to, has_context" to raid | murder is "related_to, is_a" to activity | murder is "has_context, related_to" to black | murder is "related_to" to long_off | murder is "related_to" to curb | murder is "used_for, related_to, synonym, manner_of" to move | murder is "related_to" to feet | murder is "related_to" to environment | murder is "related_to, synonym" to lead | murder is "related_to, has_context" to fight | murder is "used_for, has_subevent, related_to, is_a" to shooting | murder is "related_to, synonym" to lock | murder is "related_to" to high | murder is "related_to, is_a" to being | murder is "has_context" to cove | murder is "has_context" to street | murder is "related_to, is_a" to covering | murder is "capable_of, related_to, manner_of" to hurt | murder is "related_to, has_context" to turtle | murder is "has_context" to dandy | murder is "has_context" to la | murder is "related_to" to baby | murder is "related_to" to paper | murder is "related_to" to invasive | murder is "has_context" to botany | murder is "related_to" to soap | murder is "related_to" to edges | murder is "related_to" to farm_strike | murder is "has_context" to cards | murder is "part_of" to penis | murder is "related_to, has_context" to french | murder is "related_to, synonym" to acme | murder is "related_to" to turn_off | murder is "related_to, synonym" to can | murder is "related_to, antonym, has_context" to law | murder is "has_context" to specialist | murder is "has_context" to century | murder is "form_of, related_to, synonym" to take | murder is "related_to" to quickly | murder is "manner_of, has_context, related_to, is_a" to hang | murder is "related_to, synonym" to bloodletting | murder is "related_to, is_a" to part | murder is "synonym" to consume | murder is "used_for, causes, related_to, synonym" to living | murder is "related_to" to crowd | murder is "has_context" to flutter | murder is "has_property" to dogs | murder is "related_to, is_a, has_context" to degree | murder is "has_context, related_to" to close | murder is "related_to" to decannulate | murder is "related_to" to suddenly | murder is "related_to" to shade | murder is "has_context" to throw | murder is "has_context, is_a" to sleeper | murder is "related_to" to cars | murder is "at_location, related_to" to battle | murder is "related_to, has_context" to issue | murder is "related_to" to devil | murder is "has_context" to roundabout | murder is "related_to" to dye | murder is "related_to" to battleship | murder is "related_to" to self | murder is "related_to" to molten | murder is "has_context, part_of, has_prerequisite, related_to" to arm | murder is "etymologically_related_to, related_to" to one | murder is "related_to" to motion | murder is "related_to" to nut | murder is "related_to" to out | murder is "related_to" to riser | murder is "has_context" to bing | murder is "related_to" to creature | murder is "related_to, is_a, synonym" to motivation | murder is "related_to" to circinate | murder is "related_to" to very | murder is "related_to, manner_of" to scale | murder is "synonym, manner_of, related_to" to dismiss | murder is "has_context, related_to" to physics | murder is "related_to" to quality | murder is "related_to, has_context, derived_from" to offer | murder is "related_to, is_a" to capture | murder is "related_to" to put_forth | murder is "has_context, is_a" to flight | murder is "related_to" to used | murder is "has_context, related_to, antonym" to stick | murder is "has_context, related_to" to territory | murder is "causes, related_to, has_subevent" to getting | murder is "related_to" to cloud | murder is "related_to" to urge | murder is "related_to, manner_of" to play | murder is "related_to" to prohibit | murder is "has_context" to settler | murder is "has_context, used_for" to bus | murder is "has_context, related_to" to pass | murder is "related_to, is_a, has_context, causes_desire, used_for" to crime | murder is "related_to" to hasty | murder is "has_context, at_location, related_to" to coal | murder is "related_to" to gully | murder is "related_to" to bridge | murder is "related_to" to board | murder is "related_to" to english | murder is "related_to" to grain | murder is "has_context" to concede | murder is "has_context" to banker | murder is "has_first_subevent" to run_away | murder is "related_to, similar_to" to general | murder is "related_to" to dominant | murder is "related_to" to desert | murder is "is_a, at_location, related_to" to illness | murder is "related_to" to sidetrack | murder is "related_to" to making | murder is "derived_from" to turnoff | murder is "receives_action, related_to, has_property, antonym, synonym" to people | murder is "antonym, similar_to" to black_market | murder is "has_context" to cricket | murder is "related_to" to gathering | murder is "related_to, is_a, synonym, manner_of" to execute | murder is "related_to" to race | murder is "related_to" to habit | murder is "related_to" to river | murder is "related_to, has_context" to class | murder is "related_to" to matter | murder is "related_to" to awesome | murder is "related_to" to fluid | murder is "has_context, manner_of" to utter | murder is "related_to" to plug | murder is "related_to" to character | murder is "related_to, made_of" to metal | murder is "related_to" to dirty | murder is "related_to" to smooth | murder is "has_context" to philippines | murder is "related_to" to sharp | murder is "has_context" to zoology | murder is "related_to" to crossing | murder is "related_to" to color | murder is "related_to" to building | murder is "related_to" to math | murder is "dbpedia/genre" to rock_music | murder is "is_a, synonym, related_to" to state | murder is "related_to" to sex | murder is "related_to, manner_of, etymologically_related_to" to smell | murder is "has_context" to area | murder is "related_to, has_context" to team | murder is "distinct_from, related_to, has_context" to government | murder is "etymologically_related_to, derived_from, related_to" to illegal_immigrant | murder is "is_a" to enterprise | murder is "related_to" to take_up | murder is "has_context" to attach | murder is "has_context" to nautical | murder is "related_to" to behavior | murder is "has_context" to turn_over | murder is "related_to" to another | murder is "has_context" to condition | murder is "related_to, entails" to aim | murder is "related_to" to vital_organ | murder is "related_to" to lave | murder is "related_to, is_a" to material | murder is "is_a" to human_activity | murder is "related_to" to leaves | murder is "related_to" to missile | murder is "derived_from, related_to, is_a, synonym, used_for, causes, created_by" to suicide | murder is "has_context" to suit | murder is "related_to" to spill | murder is "related_to" to anatomical_structure | murder is "has_context, related_to" to car | murder is "has_context" to subway | murder is "related_to, synonym, has_context, has_subevent, has_last_subevent" to run | murder is "related_to, has_context" to ring | murder is "related_to, antonym" to exercise | murder is "related_to" to bees | murder is "related_to, antonym" to work | murder is "related_to" to terminal | murder is "related_to, synonym, has_context" to have | murder is "has_context, related_to" to field | murder is "related_to" to hurdle | murder is "related_to, antonym" to god | murder is "related_to, is_a" to body | murder is "has_context" to exclude | murder is "related_to" to ability | murder is "related_to" to way | murder is "synonym, related_to" to performance | murder is "part_of, related_to" to muscle | murder is "has_context, related_to" to real | murder is "has_context" to tombstoning | murder is "has_context" to not | murder is "has_context" to level | murder is "related_to" to fease | murder is "related_to, is_a" to president | murder is "has_context" to block | murder is "related_to" to shake | murder is "related_to" to nail | murder is "related_to" to basal | murder is "distinct_from, related_to" to low | murder is "has_context, synonym" to muff | murder is "has_context" to nonstandard | murder is "related_to" to ankle | murder is "part_of, related_to, antonym, has_context" to foot | murder is "related_to" to talent | murder is "related_to, is_a" to object | murder is "used_for, is_a, related_to" to rifle | murder is "related_to" to obturator | murder is "has_context" to cabotage | murder is "related_to, has_context" to port | murder is "has_context" to rollover | murder is "related_to" to ooch | murder is "form_of, related_to, synonym" to firing | murder is "related_to, manner_of" to transport | murder is "related_to, has_context" to foreign | murder is "distinct_from, capable_of, related_to, antonym, manner_of, not_has_property, has_context, used_for" to fire | murder is "related_to, manner_of" to shell | murder is "related_to" to ink | murder is "related_to" to undifferentiated | murder is "related_to, has_context" to jack | murder is "related_to, part_of, antonym" to face | murder is "related_to" to repeater | murder is "related_to" to nest | murder is "related_to" to influence | murder is "has_context" to turning | murder is "related_to" to article | murder is "related_to, similar_to" to inside | murder is "has_context, related_to" to title | murder is "at_location" to park | murder is "related_to, antonym, is_a, synonym" to attack | murder is "has_context, related_to" to record | murder is "has_context, is_a" to journey | murder is "related_to, synonym" to last | murder is "desires, related_to" to grow | murder is "related_to" to hemodynamics | murder is "related_to" to cast | murder is "related_to, has_context" to logic | murder is "related_to" to mouth | murder is "has_context" to tack | murder is "related_to, is_a, synonym, has_prerequisite" to fuel | murder is "related_to" to agent | murder is "has_subevent" to breathe_hard | murder is "related_to" to family | murder is "related_to" to use | murder is "related_to" to financial | murder is "has_context, at_location, related_to" to bar | murder is "has_context, related_to" to business | murder is "has_context" to wide | murder is "related_to" to run_off | murder is "has_context, related_to" to sea | murder is "related_to, is_a, synonym, has_context" to cap | murder is "at_location, related_to" to floor | murder is "manner_of" to exhaust | murder is "is_a" to husband | murder is "has_context" to break_one's_duck | murder is "related_to, has_subevent, causes, part_of, at_location" to pain | murder is "related_to" to product | murder is "related_to, is_a" to priest | murder is "has_context" to well | murder is "related_to, has_prerequisite" to oxygen | murder is "has_context" to materiality | murder is "related_to" to cube | murder is "related_to" to twist | murder is "has_context" to pace | murder is "has_context" to truck | murder is "related_to" to royal | murder is "related_to" to catheter | murder is "related_to" to leaf | murder is "related_to" to unit | murder is "related_to, has_context" to ore | murder is "related_to" to map | murder is "part_of, related_to, has_context" to ship | murder is "related_to" to flea | murder is "has_context" to horses | murder is "related_to" to south_africa | murder is "related_to" to purging | murder is "related_to, manner_of, synonym" to carry_through | murder is "has_context, related_to" to bill | murder is "related_to, is_a, synonym" to flame | murder is "related_to, has_property" to light | murder is "has_context" to bye | murder is "related_to" to network | murder is "has_context" to underground | murder is "related_to" to insect | murder is "has_context, related_to" to mousetrap | murder is "has_context" to purchase | murder is "related_to, has_property" to energy | murder is "related_to" to type | murder is "has_context" to drawing_room | murder is "related_to, synonym" to injure | murder is "dbpedia/genre" to pop_music | murder is "has_context" to astronomy | murder is "related_to, is_a" to success | murder is "related_to" to department | murder is "related_to, has_context" to game | murder is "related_to" to investment | murder is "related_to" to campana | murder is "related_to" to science | murder is "related_to" to erythrocytapheresis | murder is "related_to" to cease | murder is "has_context" to miler | murder is "related_to" to inflammation | murder is "has_context" to trusteeship | murder is "related_to" to worm | murder is "has_context" to gutter | murder is "related_to" to member | murder is "has_context" to factor | murder is "related_to" to entrance | murder is "has_context, has_property" to television | murder is "related_to" to say | murder is "derived_from, related_to" to ball | murder is "has_context" to aviation | murder is "has_context, related_to, is_a" to biology | murder is "related_to, synonym" to fish | murder is "related_to" to rope | murder is "used_for, causes" to playing_football | murder is "related_to" to term | murder is "has_context" to free | murder is "related_to, is_a, manner_of" to fly | murder is "related_to, antonym, has_context" to average | murder is "related_to" to craft | murder is "has_context, derived_from, related_to, manner_of" to shed | murder is "related_to" to join | murder is "has_a, synonym" to world | murder is "related_to, has_context" to guy | murder is "related_to" to relationship | murder is "related_to" to shop | murder is "related_to" to drone | murder is "related_to" to surface | murder is "has_context, related_to" to compound | murder is "related_to" to squirrel | murder is "related_to, antonym" to spirit | murder is "related_to, is_a" to termination | murder is "related_to, manner_of, synonym" to charge | murder is "part_of, related_to" to nose | murder is "related_to" to branch | murder is "related_to" to prime | murder is "related_to" to factory | murder is "has_context, form_of, is_a, related_to, synonym" to crown | murder is "has_a" to temperature | murder is "has_context, related_to, antonym, synonym" to go | murder is "related_to" to atom | murder is "related_to, synonym" to gas | murder is "capable_of, related_to" to melt | murder is "related_to, antonym" to let | murder is "has_context" to extend | murder is "related_to" to extra | murder is "has_context" to village | murder is "related_to, has_context" to result | murder is "related_to, manner_of, synonym, has_context" to bat | murder is "related_to, has_context" to cowboy | murder is "part_of, at_location, related_to" to organ | murder is "related_to, has_context" to pad | murder is "related_to" to danger | murder is "has_context, related_to" to red | murder is "related_to, synonym" to stay | murder is "related_to" to boi | murder is "is_a" to band | murder is "related_to" to exhaustion | murder is "manner_of" to travel | murder is "related_to" to organic | murder is "related_to" to component | murder is "related_to" to between | murder is "is_a" to dose | murder is "has_context" to application | murder is "at_location, related_to" to hospital | murder is "related_to" to like | murder is "related_to, used_for" to finger | murder is "related_to" to figure | murder is "related_to" to new_zealand | murder is "related_to" to ant | murder is "related_to, has_context" to british | murder is "related_to" to feel | murder is "related_to, has_context" to clearance | murder is "related_to" to goal | murder is "related_to" to fill | murder is "related_to, manner_of" to drive | murder is "etymologically_related_to, derived_from, related_to" to romp | murder is "related_to" to noble | murder is "related_to, has_property" to human | murder is "at_location, distinct_from, related_to, is_a, used_for" to drink | murder is "related_to" to country | murder is "has_context" to fence | murder is "synonym, manner_of, has_context, related_to" to drop | murder is "related_to" to carrier | murder is "is_a" to film | murder is "has_context, related_to" to singapore | murder is "related_to" to axis | murder is "related_to" to label | murder is "has_context, related_to" to tie | murder is "related_to, manner_of" to brush | murder is "related_to" to breathe | murder is "related_to" to large | murder is "has_context, related_to" to men | murder is "synonym, has_context, related_to" to rule | murder is "has_context" to literary | murder is "has_context" to mineral | murder is "has_context" to ordinary | murder is "has_context" to freerun | murder is "has_context, part_of, derived_from, related_to, antonym" to hand | murder is "related_to, has_context" to sound | murder is "related_to" to really | murder is "has_subevent, related_to" to bleed | murder is "derived_from, related_to, antonym, is_a, manner_of, used_for" to gun | murder is "at_location, related_to" to chest | murder is "has_context, distinct_from, antonym" to add | murder is "related_to" to strap | murder is "related_to" to any | murder is "synonym" to come_to | murder is "part_of" to butt | murder is "related_to" to negative | murder is "related_to" to primate | murder is "has_context" to scotland | murder is "has_context" to baseball | murder is "related_to, is_a" to structure | murder is "has_context" to choke | murder is "at_location, has_context" to garage | murder is "related_to" to india | murder is "has_context" to equip | murder is "has_context, distinct_from, related_to, antonym, manner_of" to bottom | murder is "has_context, related_to" to walk | murder is "manner_of" to set | murder is "related_to" to norman | murder is "related_to" to movement | murder is "causes" to desire | murder is "has_context, related_to, manner_of" to top | murder is "used_for, related_to, has_context" to contract | murder is "has_context, related_to" to architecture | murder is "has_context, derived_from, related_to, manner_of" to remove | murder is "related_to" to drift | murder is "has_context" to counterpart | murder is "has_context" to sort | murder is "related_to, has_context" to mining | murder is "related_to, manner_of" to pit | murder is "related_to" to barker | murder is "has_context" to intangible | murder is "related_to" to organism | murder is "related_to" to frame | murder is "related_to" to workstyle | murder is "has_subevent" to smile | murder is "has_context, part_of, related_to" to back | murder is "related_to" to design | murder is "has_context, related_to" to point | murder is "related_to" to space | murder is "has_context" to into | murder is "related_to, has_property" to essential | murder is "manner_of" to hit | murder is "has_context, related_to" to fast | murder is "distinct_from, related_to, antonym, has_context" to base | murder is "related_to, has_context" to canada | murder is "related_to, has_context" to battery | murder is "part_of, related_to, has_context" to action | murder is "related_to" to boss | murder is "has_context" to scarper | murder is "related_to, has_property, antonym" to illegal | murder is "has_context" to run_down | murder is "is_a" to solid_object | murder is "part_of, related_to" to cell | murder is "has_property" to man_made | murder is "related_to, has_context" to weightlifting | murder is "related_to, is_a" to distance | murder is "related_to" to opponent | murder is "related_to" to program | murder is "distinct_from, antonym" to nice | murder is "related_to" to doublet | murder is "related_to" to lose | murder is "related_to" to sewer | murder is "related_to, synonym" to biological | murder is "related_to" to player | murder is "used_for, related_to" to rod | murder is "related_to" to bright | murder is "has_context" to sponge | murder is "related_to" to two | murder is "has_a, related_to" to nature | murder is "related_to" to acute | murder is "related_to, antonym" to up | murder is "related_to, synonym" to blow | murder is "related_to, is_a" to oil | murder is "has_context, related_to" to woman | murder is "related_to" to bow_chaser | murder is "related_to, is_a, manner_of" to single | murder is "related_to" to provide | murder is "related_to" to size | murder is "has_context, related_to, is_a" to fit | murder is "has_context, related_to" to physical | murder is "related_to" to fear | murder is "related_to" to shock | murder is "derived_from" to offshore | murder is "has_context, derived_from" to trap | murder is "used_for, distinct_from, has_prerequisite, related_to, antonym, is_a, synonym" to pistol | murder is "related_to" to farmer | murder is "related_to" to i | murder is "has_context" to historical | murder is "related_to" to grade | murder is "has_prerequisite, related_to" to lawyer | murder is "related_to, manner_of, is_a, synonym" to butcher | murder is "related_to" to tread | murder is "related_to" to hold | murder is "related_to" to lochia | murder is "has_context" to fake | murder is "manner_of" to husk | murder is "has_context, related_to, has_property, is_a, synonym, similar_to" to bad | murder is "manner_of, has_context, related_to, synonym" to smash | murder is "has_context" to spot | murder is "related_to, manner_of" to hole | murder is "derived_from" to firefly | murder is "related_to" to vent | murder is "related_to" to mole | murder is "related_to" to pot_boiler | murder is "related_to" to blastpipe | murder is "related_to" to price | murder is "has_context, related_to" to register | murder is "related_to" to canal | murder is "related_to" to affair | murder is "has_context" to surgery | murder is "related_to" to horse | murder is "related_to" to camp | murder is "related_to, synonym, has_context" to athletics | murder is "related_to" to room | murder is "has_context, related_to, is_a" to capital | murder is "has_context" to programming | murder is "related_to" to measure | murder is "related_to, manner_of, similar_to" to iron | murder is "related_to" to does | murder is "related_to" to shaft | murder is "has_context" to extort | murder is "has_context, used_for, capable_of, is_a" to bomb | murder is "related_to, has_context" to stretch | murder is "related_to, is_a, has_context" to boot | murder is "related_to" to look | murder is "related_to" to farm | murder is "related_to, is_a" to public | murder is "related_to" to midline | murder is "related_to, synonym" to whip | murder is "related_to" to composite | murder is "related_to, has_subevent, causes" to bleeding | murder is "related_to" to swim | murder is "has_context, related_to" to post | murder is "related_to" to see | murder is "related_to" to cancel | murder is "related_to" to tool | murder is "related_to, has_context" to device | murder is "related_to" to power | murder is "related_to" to anatomy | murder is "related_to" to chamber | murder is "related_to" to ham | murder is "has_context" to track | murder is "related_to, has_context" to creek | murder is "has_context" to fishing | murder is "related_to, has_context" to coach | murder is "related_to" to humans | murder is "related_to" to cyanopathy | murder is "related_to" to duck | murder is "related_to" to bait | murder is "entails, related_to" to dress | murder is "related_to" to trade | murder is "used_for, related_to" to disease | murder is "related_to" to little | murder is "has_context" to stand | murder is "related_to, has_context" to flash | murder is "capable_of, related_to" to rooster | murder is "related_to, is_a, synonym, manner_of, entails, has_context" to cover | murder is "used_for, related_to, has_property, antonym" to cold | murder is "related_to" to dynamic | murder is "has_context, related_to" to waste | murder is "related_to, synonym" to weight | murder is "related_to" to body_part | murder is "related_to, manner_of, has_subevent" to hide | murder is "related_to" to swallow | murder is "has_context" to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">empire is "related_to" to authoritative | empire is "is_a, used_for, related_to" to shelter | empire is "related_to, is_a" to plain | empire is "related_to, has_context, at_location" to flag | empire is "related_to, antonym" to ending | empire is "related_to, synonym" to big | empire is "related_to" to opportunity | empire is "at_location, related_to" to door | empire is "related_to, is_a" to windsor | empire is "related_to, is_a" to germany | empire is "related_to" to panorama | empire is "has_context" to bail | empire is "related_to" to clean | empire is "has_context" to printing | empire is "at_location, related_to" to fountain | empire is "related_to, is_a" to party | empire is "related_to" to merchant | empire is "related_to" to recruit | empire is "related_to" to balmoral | empire is "at_location, related_to" to passageway | empire is "related_to" to our | empire is "related_to, has_property, not_has_property" to round | empire is "has_context" to geometry | empire is "manner_of" to explain | empire is "used_for, at_location, related_to, is_a, similar_to" to prince | empire is "related_to, synonym, at_location, form_of" to land | empire is "related_to" to bullet | empire is "antonym, related_to" to below | empire is "part_of, related_to" to queens | empire is "related_to" to bow | empire is "related_to" to but | empire is "at_location, related_to, is_a, has_context, used_for" to table | empire is "related_to" to scone | empire is "related_to, is_a" to wave | empire is "related_to" to starosty | empire is "related_to" to short | empire is "related_to" to prosecutor | empire is "is_a, related_to" to neck | empire is "related_to" to owner | empire is "used_for, related_to, made_of" to wood | empire is "related_to" to pier | empire is "related_to, has_context" to straight | empire is "distinct_from, related_to, antonym, synonym" to current | empire is "related_to" to attitude | empire is "related_to" to animal | empire is "related_to" to adjacent | empire is "related_to, used_for" to entertainment | empire is "has_context" to pants | empire is "has_context, related_to" to love | empire is "related_to" to bone | empire is "used_for" to tapestry | empire is "related_to, used_for" to shoe | empire is "related_to, has_context, at_location" to military | empire is "related_to" to purpose | empire is "at_location" to closet | empire is "is_a" to receivership | empire is "related_to, is_a" to place | empire is "is_a" to oligarch | empire is "at_location, related_to" to walls | empire is "related_to, is_a" to plant | empire is "related_to, is_a, manner_of" to change | empire is "related_to, antonym, synonym" to claim | empire is "related_to" to lot | empire is "related_to, similar_to" to deep | empire is "related_to, synonym" to construction | empire is "related_to" to column | empire is "related_to" to doctor | empire is "related_to" to batsman | empire is "related_to" to deal | empire is "related_to, manner_of, is_a" to soar | empire is "part_of, at_location, related_to, used_for" to book | empire is "related_to" to case | empire is "causes_desire, related_to" to cry | empire is "related_to" to rectangular | empire is "related_to" to guard | empire is "related_to" to concrete | empire is "related_to" to hair | empire is "related_to" to hollywood_accounting | empire is "related_to, is_a" to colorado | empire is "related_to, is_a, synonym" to credit | empire is "related_to, antonym" to fine | empire is "related_to" to bird | empire is "related_to" to related | empire is "related_to" to length | empire is "has_context, related_to, antonym" to main | empire is "related_to" to total | empire is "related_to" to sail | empire is "distinct_from, related_to, has_property, antonym" to moon | empire is "related_to" to create | empire is "related_to" to ruff | empire is "related_to, manner_of" to make | empire is "related_to, antonym, is_a" to princess | empire is "antonym, is_a, related_to" to sun | empire is "related_to, has_context" to fancy | empire is "antonym" to snow | empire is "has_context" to gel | empire is "part_of, distinct_from, related_to, has_property, antonym" to small | empire is "derived_from, related_to, is_a" to monarch | empire is "related_to" to box | empire is "related_to, has_property, antonym" to beautiful | empire is "related_to" to vessel | empire is "related_to" to cliff | empire is "related_to, manner_of" to stroke | empire is "related_to" to burn | empire is "related_to, has_context" to dog | empire is "at_location, has_context" to corn | empire is "related_to" to rush | empire is "antonym" to lay | empire is "related_to, has_context" to us | empire is "used_for, distinct_from, related_to, antonym, is_a" to live | empire is "antonym, is_a, synonym, used_for, related_to" to order | empire is "related_to, has_context, has_a" to sports | empire is "related_to, synonym, has_context" to ground | empire is "derived_from" to backman | empire is "related_to" to protect | empire is "related_to, has_context" to long | empire is "related_to" to boy | empire is "related_to" to rearm | empire is "related_to, is_a" to seat | empire is "at_location, related_to, is_a" to castle | empire is "related_to" to cat's_paw | empire is "related_to" to mean | empire is "related_to" to flower | empire is "derived_from" to backset | empire is "related_to" to bones | empire is "related_to" to carry | empire is "related_to" to pin | empire is "used_for" to exploring | empire is "related_to" to seal | empire is "synonym, has_context, related_to" to rock | empire is "related_to, antonym" to age | empire is "related_to, manner_of, has_context" to draw | empire is "related_to" to smothered_mate | empire is "related_to" to fold | empire is "has_context" to pump | empire is "related_to" to alive | empire is "is_a" to dystopia | empire is "related_to, is_a" to dictionary | empire is "related_to" to money | empire is "at_location" to coil | empire is "related_to" to reputation_economy | empire is "related_to" to full | empire is "at_location" to erf | empire is "related_to" to justiciary | empire is "related_to" to eye | empire is "at_location, related_to, is_a" to stool | empire is "related_to, at_location" to word | empire is "related_to" to vodka | empire is "related_to" to bowl | empire is "related_to, is_a" to activity | empire is "related_to" to measurement | empire is "related_to" to amount | empire is "related_to" to chicken | empire is "has_context, related_to" to black | empire is "related_to" to carmel | empire is "related_to" to sandy | empire is "related_to, is_a" to elevation | empire is "is_a, related_to" to inhabitant | empire is "related_to, is_a" to jin | empire is "related_to" to hut | empire is "related_to" to feet | empire is "related_to" to move | empire is "distinct_from, related_to, antonym, synonym, similar_to" to fresh | empire is "related_to, synonym" to lead | empire is "related_to, is_a" to virginia | empire is "related_to" to santa_muerte | empire is "related_to" to high | empire is "has_context" to blouse | empire is "related_to, is_a" to being | empire is "related_to" to street | empire is "related_to, used_for" to pleasure | empire is "related_to, has_context" to mot | empire is "related_to" to coat | empire is "related_to, has_context" to turtle | empire is "related_to" to clyde | empire is "related_to, antonym" to baby | empire is "synonym" to jump | empire is "related_to, is_a" to don | empire is "at_location, related_to, has_context" to pike | empire is "etymologically_related_to" to dungeon | empire is "related_to, is_a" to fort | empire is "related_to" to flood | empire is "related_to" to can | empire is "related_to" to halo | empire is "related_to, antonym, is_a, has_context" to law | empire is "has_context" to tailgate | empire is "related_to, antonym, is_a" to colony | empire is "related_to" to abandon | empire is "synonym, related_to" to championship | empire is "similar_to" to virgin | empire is "causes, related_to" to living | empire is "part_of, form_of, related_to, is_a, synonym" to part | empire is "related_to" to crowd | empire is "at_location" to store | empire is "related_to" to card | empire is "has_context" to close | empire is "related_to, is_a, has_context" to degree | empire is "distinct_from, related_to, antonym, has_context" to shade | empire is "related_to" to similar | empire is "related_to" to scorch | empire is "is_a, related_to" to child | empire is "related_to" to issue | empire is "distinct_from, related_to, antonym" to old | empire is "has_a, used_for, part_of, distinct_from, has_prerequisite, related_to, antonym, synonym" to life | empire is "related_to" to self | empire is "is_a" to silk | empire is "related_to" to arm | empire is "at_location, related_to, is_a, has_context" to office | empire is "related_to, is_a" to one | empire is "related_to, is_a" to location | empire is "related_to" to riser | empire is "related_to" to epaulement | empire is "at_location" to dust | empire is "related_to" to waist | empire is "at_location" to creature | empire is "related_to, is_a, synonym" to support | empire is "related_to" to scale | empire is "related_to, is_a, synonym" to authority | empire is "distinct_from, at_location, related_to, antonym, is_a, synonym" to city | empire is "related_to" to missouri | empire is "related_to" to catwalk | empire is "related_to" to bailey | empire is "has_context, related_to" to physics | empire is "related_to, antonym, is_a" to quality | empire is "is_a" to shelter_intended_for_humans | empire is "at_location, related_to, is_a" to restaurant | empire is "at_location" to doorway | empire is "has_context, related_to, antonym" to stick | empire is "related_to" to pulp | empire is "related_to, antonym" to cloud | empire is "related_to" to play | empire is "related_to" to castellate | empire is "related_to" to toad | empire is "used_for" to ribbon | empire is "related_to" to thorn | empire is "synonym" to pass | empire is "at_location, related_to" to computer | empire is "related_to" to habitat | empire is "related_to" to coal | empire is "related_to" to quill | empire is "related_to" to levee | empire is "is_a, has_a" to atmosphere | empire is "related_to, is_a" to bridge | empire is "at_location, distinct_from, related_to, antonym, is_a, used_for" to queen | empire is "part_of, at_location, related_to" to europe | empire is "related_to" to canary | empire is "related_to" to making | empire is "has_context" to watershed | empire is "at_location, related_to, is_a" to university | empire is "related_to" to defeat | empire is "used_for, at_location, related_to, has_property, made_of" to people | empire is "has_context, related_to" to cricket | empire is "related_to" to benzaiten | empire is "related_to" to habit | empire is "related_to, antonym, is_a, has_context" to class | empire is "antonym" to sharp | empire is "related_to, antonym" to metal | empire is "related_to" to orb | empire is "related_to" to smooth | empire is "related_to" to tablespoon | empire is "at_location" to building | empire is "related_to" to wrinkle | empire is "derived_from, related_to, is_a" to star | empire is "has_a, used_for, derived_from, at_location, related_to, is_a, synonym" to kingdom | empire is "related_to" to rock_music | empire is "antonym, is_a, synonym, at_location, distinct_from, related_to" to state | empire is "at_location" to front_courtyard | empire is "related_to" to giant | empire is "related_to" to cup | empire is "at_location, related_to, antonym, is_a, has_context, used_for" to government | empire is "has_context" to pip | empire is "related_to" to coin | empire is "derived_from" to clawback | empire is "related_to" to root | empire is "related_to" to material | empire is "related_to" to suit | empire is "related_to" to almost | empire is "has_property, at_location, related_to" to car | empire is "used_for" to everyone | empire is "related_to, has_context" to ring | empire is "related_to" to transportation | empire is "related_to" to exercise | empire is "related_to" to crab | empire is "has_prerequisite, related_to, is_a" to work | empire is "related_to, manner_of, has_context" to have | empire is "related_to" to dove | empire is "related_to" to god | empire is "at_location, related_to, is_a" to field | empire is "related_to, is_a, part_of" to body | empire is "related_to" to parts | empire is "related_to, synonym" to way | empire is "related_to" to bay | empire is "used_for, related_to, has_property" to performance | empire is "at_location, related_to" to real | empire is "related_to" to garland | empire is "has_context, used_for, related_to" to level | empire is "related_to" to dai | empire is "has_context, related_to, is_a" to slash | empire is "related_to, antonym" to minute | empire is "related_to" to balance | empire is "related_to" to googolplex | empire is "at_location, related_to" to knight | empire is "related_to, is_a" to writing | empire is "related_to" to mud | empire is "related_to" to foot | empire is "related_to" to vice_president | empire is "derived_from, at_location" to landmark | empire is "related_to, is_a" to object | empire is "related_to" to tourist | empire is "has_context, related_to" to steamer | empire is "related_to, has_context" to ice | empire is "related_to" to robber_baron | empire is "related_to" to depression | empire is "related_to, synonym" to lap | empire is "related_to" to regalia | empire is "related_to" to castellated | empire is "related_to" to transport | empire is "etymologically_related_to, related_to, is_a, has_context" to fire | empire is "has_context, related_to" to rabbit | empire is "distinct_from" to jack | empire is "form_of, related_to" to kings | empire is "related_to, antonym" to face | empire is "antonym" to puppy | empire is "related_to, is_a" to nest | empire is "related_to" to gravel | empire is "related_to, is_a, used_for, part_of" to united_states | empire is "related_to, is_a" to inside | empire is "related_to, antonym" to park | empire is "motivated_by_goal, etymologically_related_to, related_to, has_property" to die | empire is "related_to, is_a" to yoga | empire is "related_to, manner_of, is_a" to attack | empire is "is_a, synonym, manner_of, at_location, related_to" to record | empire is "related_to" to shark | empire is "related_to" to tithing | empire is "related_to, is_a, synonym" to thing | empire is "related_to" to mouth | empire is "related_to" to about | empire is "is_a, related_to" to grave | empire is "antonym" to pony | empire is "has_context, is_a" to defense | empire is "related_to" to bar | empire is "related_to" to elevator_music | empire is "related_to" to fairy | empire is "related_to, is_a" to royalty | empire is "related_to, has_property, at_location" to pain | empire is "related_to" to american | empire is "related_to, synonym" to congress | empire is "has_context, part_of, at_location, defined_as, related_to, synonym" to earth | empire is "related_to" to airplane | empire is "related_to" to twist | empire is "related_to" to unified | empire is "related_to, has_property" to royal | empire is "is_a, related_to" to unit | empire is "related_to" to imitation | empire is "at_location" to snake | empire is "related_to" to ship | empire is "related_to" to flea | empire is "synonym" to royal_house | empire is "related_to, has_a" to song | empire is "has_context, related_to" to bill | empire is "related_to" to anchor | empire is "related_to" to belly | empire is "related_to" to lantern | empire is "related_to" to tide | empire is "related_to, is_a" to insect | empire is "related_to" to dirt | empire is "related_to" to care | empire is "has_context" to trout | empire is "related_to" to type | empire is "at_location" to grape | empire is "related_to" to constable | empire is "has_context" to drawing_room | empire is "related_to, has_context" to astronomy | empire is "used_for, related_to" to housing | empire is "distinct_from, related_to, antonym" to middle | empire is "distinct_from, related_to, antonym, is_a, similar_to" to science | empire is "related_to" to with | empire is "related_to" to ward | empire is "related_to, is_a" to maine | empire is "related_to" to huainan | empire is "related_to, has_context" to special | empire is "related_to, is_a" to china | empire is "related_to" to opinion | empire is "has_context" to tram | empire is "related_to, antonym, similar_to, has_context" to legal | empire is "related_to, synonym" to circle | empire is "has_context" to galosh | empire is "related_to, is_a" to member | empire is "related_to" to peak | empire is "related_to" to generic | empire is "is_a" to frostbite | empire is "related_to" to ball | empire is "related_to" to nearest | empire is "has_context" to biology | empire is "used_for, at_location" to bricks | empire is "has_last_subevent, related_to, antonym" to fly | empire is "has_context, related_to" to shed | empire is "related_to" to preslug | empire is "related_to, is_a" to job | empire is "derived_from, at_location, related_to, made_of, synonym" to world | empire is "related_to" to medieval | empire is "related_to" to shop | empire is "has_context" to soldier | empire is "related_to, is_a, synonym" to barony | empire is "related_to" to spirit | empire is "part_of" to irs | empire is "distinct_from" to profile | empire is "etymologically_related_to, related_to, is_a" to regent | empire is "related_to" to rye | empire is "related_to" to nose | empire is "related_to" to mercury | empire is "causes, related_to" to burial | empire is "at_location, related_to" to rooms | empire is "related_to" to spire | empire is "similar_to, has_context, related_to, synonym" to crown | empire is "related_to" to atom | empire is "related_to, antonym" to go | empire is "related_to" to crown_corporation | empire is "related_to" to bread | empire is "related_to" to bat | empire is "etymologically_related_to, related_to" to danger | empire is "related_to, is_a" to organ | empire is "related_to" to famous | empire is "related_to, is_a" to band | empire is "related_to" to angel | empire is "is_a, related_to" to zhou | empire is "related_to" to component | empire is "related_to" to between | empire is "related_to, antonym" to again | empire is "related_to" to like | empire is "related_to, has_context" to finger | empire is "related_to" to ant | empire is "related_to, has_context" to british | empire is "has_context" to filth | empire is "related_to, manner_of" to steam | empire is "related_to" to fill | empire is "related_to" to dollar | empire is "related_to" to tall | empire is "related_to, is_a, synonym" to end | empire is "related_to, is_a" to noble | empire is "at_location, related_to, antonym, is_a" to human | empire is "related_to" to drink | empire is "part_of, distinct_from, form_of, at_location, related_to, antonym, is_a, synonym" to country | empire is "has_context, related_to, antonym" to drop | empire is "related_to, synonym" to wax | empire is "related_to" to dock | empire is "is_a" to disneyland | empire is "related_to" to duke | empire is "manner_of, has_context" to tie | empire is "related_to" to shave | empire is "has_property, synonym, related_to" to large | empire is "related_to" to dwelling | empire is "synonym, used_for, part_of, form_of, related_to, antonym" to rule | empire is "related_to" to stronghold | empire is "related_to" to occupation | empire is "at_location, related_to" to beaver | empire is "has_context" to ducks | empire is "has_context" to mineral | empire is "related_to" to hand | empire is "at_location, related_to" to fox | empire is "related_to" to opposition | empire is "related_to, is_a" to chest | empire is "manner_of" to add | empire is "related_to" to wildcat | empire is "etymologically_related_to" to beck | empire is "is_a" to situation | empire is "is_a" to turf | empire is "related_to" to bud | empire is "related_to, has_context" to baseball | empire is "related_to" to horizon | empire is "related_to, is_a" to structure | empire is "related_to" to residence | empire is "at_location, related_to, has_context" to garage | empire is "related_to" to interview | empire is "related_to" to thong | empire is "has_context, is_a" to bottom | empire is "synonym" to remote | empire is "related_to" to walk | empire is "has_context, related_to, is_a" to top | empire is "at_location, related_to, antonym" to hill | empire is "related_to, is_a" to liao | empire is "related_to" to movement | empire is "related_to" to suspended_animation | empire is "derived_from" to castlebuilding | empire is "related_to, has_context" to mining | empire is "causes, related_to" to coffin | empire is "at_location, related_to, antonym" to coast | empire is "related_to, is_a" to church | empire is "related_to" to pseudocastle | empire is "related_to" to proof | empire is "related_to" to organism | empire is "related_to" to combination_product | empire is "related_to" to feature | empire is "related_to" to smile | empire is "related_to" to back | empire is "derived_from, related_to" to point | empire is "related_to, has_property, at_location" to space | empire is "related_to" to must | empire is "related_to" to fruit | empire is "defined_as" to place_live | empire is "has_context" to fast | empire is "related_to, synonym" to base | empire is "at_location, related_to, is_a, has_context" to canada | empire is "related_to" to glass | empire is "related_to" to cult | empire is "related_to" to boss | empire is "related_to" to inch | empire is "related_to" to wire | empire is "related_to, is_a" to spain | empire is "related_to, antonym, is_a" to cell | empire is "is_a" to shack | empire is "has_context" to hamlet | empire is "related_to" to rainmaker | empire is "synonym, similar_to, distinct_from, related_to, antonym" to young | empire is "has_context" to rook | empire is "related_to" to lordosis | empire is "is_a" to chessman | empire is "related_to" to spring | empire is "related_to" to two | empire is "is_a, related_to" to nature | empire is "related_to" to up | empire is "related_to" to report | empire is "related_to, is_a, at_location" to theater | empire is "has_context" to dinky | empire is "related_to" to oil | empire is "related_to, antonym" to common | empire is "related_to" to woman | empire is "has_context, related_to" to fit | empire is "has_context" to physical | empire is "has_context" to hip | empire is "related_to" to clothes | empire is "related_to, is_a" to ohio | empire is "related_to" to letter | empire is "related_to" to farmer | empire is "related_to" to crown_green_bowls | empire is "related_to" to businesscrat | empire is "related_to" to flowing | empire is "has_context, related_to" to historical | empire is "derived_from, related_to" to rollback | empire is "related_to" to manor | empire is "related_to" to ether | empire is "related_to, is_a" to center | empire is "related_to" to gwr | empire is "related_to" to crash | empire is "related_to" to hole | empire is "related_to" to mole | empire is "related_to" to translate | empire is "related_to" to pot_boiler | empire is "is_a, related_to" to molecule | empire is "form_of, related_to" to ages | empire is "at_location, related_to, is_a" to everything | empire is "has_context" to fbi | empire is "related_to" to turn_around | empire is "related_to" to dull | empire is "at_location" to synagogue | empire is "related_to" to affair | empire is "related_to, antonym, is_a, synonym, has_subevent, distinct_from, has_last_subevent" to fall | empire is "has_context" to rag | empire is "at_location, related_to, used_for, etymologically_related_to, part_of" to room | empire is "has_context, distinct_from, at_location, related_to" to capital | empire is "related_to, is_a" to stretch | empire is "has_context" to boot | empire is "related_to" to evening | empire is "distinct_from, related_to, etymologically_related_to" to now | empire is "related_to" to sneeze | empire is "related_to" to turret | empire is "related_to, used_for" to see | empire is "related_to" to swim | empire is "related_to, antonym" to number | empire is "part_of, related_to" to hudson | empire is "part_of, related_to" to castile | empire is "related_to" to castrum | empire is "related_to, is_a" to device | empire is "related_to, is_a" to job_action | empire is "at_location" to bathroom | empire is "related_to" to castling | empire is "capable_of, related_to" to birds | empire is "related_to" to cone | empire is "related_to" to several | empire is "has_context" to accessory | empire is "related_to" to collecting_society | empire is "related_to, has_context" to anatomy | empire is "is_a" to chamber | empire is "related_to, has_context" to creek | empire is "has_context" to coach | empire is "related_to, synonym, at_location" to humans | empire is "related_to, has_context" to chin | empire is "related_to" to dress | empire is "etymologically_related_to, derived_from, related_to" to yorker | empire is "related_to, is_a, has_context" to stand | empire is "distinct_from, related_to, has_property, antonym, is_a" to little | empire is "related_to" to corpse | empire is "related_to, has_context" to flash | empire is "has_a, at_location, related_to, antonym" to cover | empire is "related_to" to weight | empire is "related_to" to together | empire is "related_to" to disassociate | empire is "related_to, is_a" to partner | empire is "has_context" to gumption | empire is "capable_of, related_to" to target | empire is "has_context" to muffin | empire is "related_to, is_a" to position | empire is "related_to" to freeze | empire is "related_to, is_a" to organization | empire is "related_to" to ubo | empire is "has_context, related_to" to gallon | empire is "related_to" to under | empire is "related_to" to tickler | empire is "has_context" to divider | empire is "related_to, is_a" to rest | empire is "related_to, antonym, made_of" to mountain | empire is "at_location, related_to" to tail | empire is "related_to, antonym" to children | empire is "related_to" to weather | empire is "used_for, at_location, related_to" to information | empire is "related_to" to dressing | empire is "related_to" to boat | empire is "part_of, related_to, is_a" to wardrobe | empire is "related_to, capable_of, is_a" to we | empire is "related_to, is_a" to institution | empire is "related_to" to matter_of_britain | empire is "related_to, is_a, at_location" to company | empire is "has_a, at_location, related_to, is_a" to house | empire is "related_to" to concession | empire is "is_a" to frost | empire is "related_to" to diamond | empire is "derived_from, related_to, is_a" to highland | empire is "is_a" to fortification | empire is "has_context, related_to" to bit | empire is "related_to" to has | empire is "has_context" to offensive | empire is "related_to, is_a" to outside | empire is "related_to" to tales | empire is "related_to" to cathedral | empire is "is_a, has_context, part_of, related_to" to uk | empire is "related_to, similar_to" to important | empire is "related_to" to barge | empire is "distinct_from, related_to, antonym, has_a" to water | empire is "form_of, derived_from, related_to, etymologically_related_to" to build | empire is "related_to" to shank | empire is "is_a, has_context, related_to" to australia | empire is "related_to, synonym" to adult | empire is "related_to" to arrow | empire is "related_to" to major | empire is "is_a" to large_building | empire is "at_location" to great_outdoors | empire is "is_a" to conceptual_work | empire is "derived_from" to forebuilding | empire is "related_to, is_a" to actor | empire is "has_context, related_to, is_a" to pitch | empire is "related_to, antonym, is_a" to ruin | empire is "has_context" to wick | empire is "related_to, has_context" to local | empire is "related_to" to bold | empire is "related_to, antonym" to servant | empire is "related_to, has_context" to gate | empire is "related_to" to white | empire is "related_to, etymologically_related_to" to mind | empire is "related_to" to crotch | empire is "related_to" to dike | empire is "related_to" to curtain_wall | empire is "related_to, is_a" to skyscraper | empire is "related_to, manner_of" to put | empire is "has_context, related_to" to dialect | empire is "related_to" to art | empire is "has_context" to medicine | empire is "used_for, is_a, synonym" to education | empire is "related_to, has_context" to pope | empire is "has_context" to aid | empire is "at_location, related_to" to line | empire is "at_location, antonym, related_to, is_a" to bed | empire is "part_of, related_to, is_a, synonym" to administration | empire is "distinct_from, related_to, is_a, synonym" to planet | empire is "used_for, at_location, distinct_from, related_to, antonym" to sky | empire is "related_to" to address | empire is "has_context" to tump | empire is "related_to" to beer | empire is "has_context" to wedge | empire is "has_context" to wet | empire is "related_to" to cent | empire is "related_to, is_a" to piece | empire is "related_to, synonym" to man | empire is "derived_from" to landscape | empire is "distinct_from, related_to, antonym" to rain | empire is "related_to" to boys_club | empire is "related_to" to fantasy | empire is "distinct_from" to existing | empire is "part_of, related_to, has_context" to stone | empire is "related_to" to parliament | empire is "related_to" to lemniscus | empire is "related_to" to header | empire is "manner_of, synonym, related_to, is_a" to climb | empire is "related_to" to edge | empire is "related_to, antonym" to reach | empire is "related_to, antonym, used_for" to taste | empire is "related_to" to turn | empire is "has_property, is_a, has_context" to blue | empire is "related_to" to cooler | empire is "antonym, related_to" to rise | empire is "at_location, related_to" to meeting | empire is "related_to, is_a" to shape | empire is "related_to" to treasurer | empire is "is_a, part_of, at_location, related_to" to chair | empire is "related_to" to check | empire is "related_to" to alone | empire is "has_context, related_to, manner_of" to finance | empire is "at_location, related_to, synonym, not_has_property, has_context" to flat | empire is "is_a" to homo | empire is "related_to, is_a" to group | empire is "related_to" to tree | empire is "related_to" to seven | empire is "related_to" to show | empire is "related_to" to spleen | empire is "has_context, related_to" to hoarding | empire is "related_to" to captain | empire is "used_for" to consistency | empire is "has_context, related_to, has_property" to square | empire is "related_to" to tower | empire is "desires, at_location, related_to, is_a, not_desires" to person | empire is "related_to" to grand | empire is "related_to, form_of" to be | empire is "related_to" to garden | empire is "related_to, has_context" to road | empire is "related_to" to middle_ages | empire is "related_to, has_context" to pot | empire is "related_to" to wound | empire is "has_context" to spanner | empire is "has_context" to rail_transport | empire is "distinct_from, related_to, antonym, is_a, has_context" to side | empire is "related_to, synonym" to yard | empire is "has_context" to slang | empire is "related_to" to keep | empire is "related_to, is_a" to adjective | empire is "form_of, related_to" to kingdoms | empire is "etymologically_related_to" to among | empire is "related_to" to sale | empire is "related_to" to soup | empire is "related_to" to solid | empire is "related_to, is_a, part_of, at_location" to court | empire is "related_to" to cannon | empire is "at_location, related_to, is_a" to desk | empire is "at_location, related_to" to fair | empire is "at_location, related_to" to college | empire is "related_to, synonym" to head | empire is "related_to" to cellar | empire is "antonym, manner_of, synonym" to down | empire is "related_to" to description | empire is "related_to, part_of, at_location" to wall | empire is "has_context" to rapid | empire is "related_to, synonym, manner_of" to form | empire is "related_to, is_a" to score | empire is "related_to, antonym" to wilderness | empire is "is_a" to hollow | empire is "has_context, used_for, at_location, related_to, is_a" to school | empire is "related_to" to left | empire is "related_to" to over | empire is "related_to, is_a" to spread | empire is "related_to, is_a" to palace | empire is "is_a" to momo | empire is "antonym, is_a, related_to" to dance | empire is "at_location, related_to, is_a" to cat | empire is "related_to" to leg | empire is "related_to" to usually | empire is "part_of" to torso | empire is "distinct_from, related_to, antonym, is_a, has_context" to air | empire is "has_context, related_to" to points | empire is "related_to" to trunk | empire </t>
+  </si>
+  <si>
+    <t>bench is "related_to, used_for, is_a" to seat | bench is "is_a" to furniture | bench is "related_to" to sitting | bench is "distinct_from, related_to" to chair | sofa is "related_to, used_for, is_a" to seat | sofa is "related_to, has_context, is_a" to furniture | sofa is "related_to" to sitting | sofa is "distinct_from, is_a, related_to" to chair | stool is "related_to, is_a" to seat | stool is "is_a" to furniture | stool is "related_to" to sitting | stool is "synonym, etymologically_related_to, antonym, is_a, related_to" to chair</t>
+  </si>
+  <si>
+    <t>beaker is "related_to" to bayonet | beaker is "related_to" to seamanship | beaker is "part_of, related_to, has_a, at_location, distinct_from, capable_of" to door | beaker is "related_to, has_context" to also | beaker is "related_to" to preserve | beaker is "is_a" to package | beaker is "related_to" to scientometrics | beaker is "has_context" to bowling | beaker is "used_for, related_to" to fountain | beaker is "has_context" to cream | beaker is "at_location" to ointment | beaker is "has_context" to bullet | beaker is "related_to" to below | beaker is "has_context" to blank | beaker is "related_to" to angienchyma | beaker is "at_location" to table | beaker is "related_to, is_a" to urceole | beaker is "at_location" to pencil | beaker is "related_to" to rotaxane | beaker is "has_context, related_to" to screw | beaker is "related_to, has_context" to break | beaker is "has_context" to jockey | beaker is "has_context" to mine | beaker is "related_to" to astragal | beaker is "related_to" to tribromoethanol | beaker is "has_context" to pants | beaker is "has_context, related_to" to bone | beaker is "related_to" to military | beaker is "has_context" to collar | beaker is "at_location, has_context, related_to" to pocket | beaker is "related_to" to double | beaker is "related_to" to hyperbaric_oxygen_chamber | beaker is "related_to, synonym" to deal | beaker is "related_to" to concrete | beaker is "has_context" to bird | beaker is "related_to" to calyx | beaker is "related_to" to tea_party | beaker is "has_context" to apple | beaker is "synonym" to vernacular | beaker is "related_to" to cleave | beaker is "has_context" to make | beaker is "related_to" to pseudorhabdite | beaker is "related_to, is_a" to graduated_cylinder | beaker is "related_to" to magnetic_stirrer | beaker is "at_location, related_to" to corn | beaker is "is_a" to wilhelm_ostwald | beaker is "related_to" to comb | beaker is "has_context, related_to" to boy | beaker is "at_location, has_context" to pudding | beaker is "related_to" to cat's_paw | beaker is "related_to" to transition | beaker is "has_context" to strong | beaker is "related_to" to spitbox | beaker is "is_a" to henry_cavendish | beaker is "related_to" to silver | beaker is "has_context, synonym" to mound | beaker is "related_to" to silicone | beaker is "related_to" to flute | beaker is "related_to" to weighing_boat | beaker is "has_context" to method | beaker is "not_has_property" to alive | beaker is "has_subevent, has_context" to smoke | beaker is "related_to" to blabber | beaker is "has_context" to bell | beaker is "has_context" to picker | beaker is "causes" to stupidity | beaker is "related_to" to labour | beaker is "is_a" to mit_media_laboratory | beaker is "related_to" to bottles | beaker is "related_to" to electron_capture_detector | beaker is "related_to" to nessler_cylinder | beaker is "form_of, related_to" to labs | beaker is "has_context" to snipe | beaker is "at_location" to test_equipment | beaker is "related_to, antonym, part_of" to eye | beaker is "at_location" to automaton | beaker is "related_to, has_context" to cane | beaker is "related_to, is_a" to mold | beaker is "has_context" to chicken | beaker is "is_a" to room_in_house | beaker is "has_context, at_location" to dome | beaker is "has_context" to bro | beaker is "manner_of" to move | beaker is "has_context" to eccentric | beaker is "related_to" to informal | beaker is "used_for" to pleasure | beaker is "has_context" to normal | beaker is "is_a" to rolodex | beaker is "related_to" to cup_of_tea | beaker is "related_to" to penis | beaker is "related_to" to ball_and_stick_model | beaker is "related_to" to stir_bar | beaker is "related_to, is_a" to part | beaker is "at_location, related_to" to store | beaker is "has_context" to dogs | beaker is "at_location, has_context" to nuts | beaker is "is_a" to robert_bunsen | beaker is "has_context" to jellybean | beaker is "related_to" to weighing_funnel | beaker is "related_to" to issue | beaker is "etymologically_related_to" to laborant | beaker is "related_to" to one | beaker is "related_to" to taper | beaker is "related_to" to manufactured | beaker is "related_to" to catwalk | beaker is "has_context" to forty | beaker is "related_to" to chromophane | beaker is "related_to, has_context" to cutter | beaker is "related_to" to board | beaker is "related_to, has_context" to shiny | beaker is "is_a" to defense_laboratory | beaker is "has_context" to canary | beaker is "has_context" to chief | beaker is "is_a" to river | beaker is "related_to" to velamentous | beaker is "synonym" to testing_ground | beaker is "has_context" to bush | beaker is "related_to" to building | beaker is "has_context" to wine_o'clock | beaker is "related_to" to volumetric_flask | beaker is "related_to" to oncomouse | beaker is "has_context" to coin | beaker is "has_context" to root | beaker is "is_a" to anatomical_structure | beaker is "related_to, is_a" to ampulla | beaker is "related_to" to angiography | beaker is "has_context, related_to" to stir | beaker is "has_context" to enterprisey | beaker is "related_to" to headstage | beaker is "has_context" to slash | beaker is "related_to" to hour | beaker is "related_to" to gauze | beaker is "has_context" to claykicker | beaker is "related_to" to thlipsis | beaker is "has_context" to minute | beaker is "at_location" to human_body | beaker is "related_to" to cool | beaker is "related_to" to lensmeter | beaker is "related_to" to kissing | beaker is "has_context" to horn | beaker is "has_context" to bog | beaker is "related_to" to shell | beaker is "related_to" to vasculiferous | beaker is "is_a" to plant_organ | beaker is "related_to" to clamp_stand | beaker is "part_of, has_a, has_context, related_to" to handle | beaker is "related_to" to attack | beaker is "has_context" to marker | beaker is "has_context, part_of, has_prerequisite, used_for, related_to, at_location" to mouth | beaker is "used_for" to washing | beaker is "related_to" to colony_counter | beaker is "has_context" to floor | beaker is "related_to" to rhabdoid | beaker is "is_a, at_location" to researcher | beaker is "has_context" to beef | beaker is "has_context" to twist | beaker is "has_context" to smiler | beaker is "related_to" to rhizobox | beaker is "is_a" to leaf | beaker is "at_location" to slides | beaker is "is_a" to magazine | beaker is "related_to" to alcoholic | beaker is "at_location" to flame | beaker is "related_to" to light | beaker is "related_to" to command | beaker is "part_of, related_to" to anchor | beaker is "has_context, related_to, is_a" to knob | beaker is "has_context" to kite | beaker is "derived_from, related_to" to sealab | beaker is "related_to, synonym" to cant | beaker is "related_to" to injure | beaker is "related_to" to workspace | beaker is "capable_of" to drink_milk | beaker is "related_to, has_context" to soft | beaker is "related_to" to glossodynia | beaker is "related_to" to middle | beaker is "has_context" to gorge | beaker is "related_to, part_of" to hull | beaker is "related_to" to microfractionator | beaker is "at_location" to olive | beaker is "related_to" to coolroom | beaker is "has_context" to hump | beaker is "related_to" to generic | beaker is "related_to" to clown | beaker is "has_context" to fish | beaker is "related_to" to term | beaker is "has_context" to shampoo | beaker is "related_to" to watch | beaker is "used_for" to spirit | beaker is "related_to" to burial | beaker is "has_context, related_to" to go | beaker is "has_context" to zero | beaker is "related_to" to scotch | beaker is "related_to, has_context" to organ | beaker is "related_to" to component | beaker is "related_to" to ant | beaker is "related_to" to silicon_dioxide | beaker is "related_to, is_a, at_location" to human | beaker is "related_to" to dock | beaker is "related_to" to rumkin | beaker is "related_to" to notochord | beaker is "used_for" to filling | beaker is "derived_from, related_to, at_location, synonym" to hand | beaker is "related_to" to stegnosis | beaker is "related_to" to opposition | beaker is "has_context" to angle | beaker is "related_to" to any | beaker is "related_to" to centre_of_effort | beaker is "has_context" to bud | beaker is "related_to" to cosmetics | beaker is "at_location, related_to" to vacuum | beaker is "has_property" to finite | beaker is "related_to, has_context" to telltale | beaker is "related_to" to biotechnician | beaker is "related_to, derived_from" to intralaboratory | beaker is "has_context, related_to" to fool | beaker is "is_a" to medical_laboratory | beaker is "has_context, related_to" to grass | beaker is "is_a" to censer | beaker is "has_context" to knag | beaker is "at_location" to fruit | beaker is "has_context" to tab | beaker is "related_to, is_a, part_of" to ladle | beaker is "related_to, part_of" to base | beaker is "has_prerequisite, used_for, related_to, antonym, is_a, distinct_from" to glass | beaker is "derived_from" to reaction_vessel | beaker is "related_to" to opening | beaker is "is_a" to consuming | beaker is "related_to, is_a, at_location" to test_tube | beaker is "related_to, has_context" to rod | beaker is "is_a, related_to" to player | beaker is "related_to" to two | beaker is "has_context" to up | beaker is "distinct_from" to proper | beaker is "related_to" to gridiron | beaker is "related_to" to woman | beaker is "related_to" to blotto | beaker is "is_a" to melvin_calvin | beaker is "has_context, related_to" to ear | beaker is "has_context" to log | beaker is "used_for, synonym, related_to" to hold | beaker is "related_to" to pot_boiler | beaker is "related_to" to diplomatic_bag | beaker is "has_context" to pimp | beaker is "has_context, related_to" to dag | beaker is "related_to, has_context" to lug | beaker is "at_location" to spam | beaker is "part_of" to vascular_system | beaker is "has_context" to horse | beaker is "has_context" to belt | beaker is "related_to" to poleman | beaker is "has_context, related_to, has_a" to kettle | beaker is "related_to" to balance_room | beaker is "related_to, derived_from" to superlab | beaker is "related_to" to device | beaker is "at_location, has_context" to trash | beaker is "related_to, derived_from" to rodwork | beaker is "has_context" to anatomy | beaker is "has_context" to tiger | beaker is "related_to" to chamber | beaker is "at_location" to robot | beaker is "related_to, part_of" to pint | beaker is "at_location, related_to" to engine | beaker is "related_to" to dioxide | beaker is "related_to" to padelle | beaker is "has_context, related_to" to little | beaker is "related_to" to workstead | beaker is "related_to, has_context" to flash | beaker is "has_context" to tag | beaker is "synonym, related_to" to cover | beaker is "related_to, is_a" to body_part | beaker is "related_to" to hide | beaker is "has_context" to crack | beaker is "at_location" to bee | beaker is "related_to" to pottery | beaker is "has_context" to string | beaker is "has_context" to yoke | beaker is "related_to, has_context" to lift | beaker is "has_context" to burner | beaker is "related_to" to rest | beaker is "has_context" to mountain | beaker is "related_to" to rice | beaker is "related_to" to drug_lab | beaker is "related_to" to breast | beaker is "related_to" to auxiliary | beaker is "at_location" to house | beaker is "at_location" to mice | beaker is "has_context" to diamond | beaker is "at_location" to bunsen_burners | beaker is "related_to" to pycnometer | beaker is "related_to" to narrow | beaker is "related_to" to barge | beaker is "related_to" to lagena | beaker is "related_to" to slide | beaker is "has_context" to australia | beaker is "etymologically_related_to" to fiasco | beaker is "has_context, related_to, is_a, synonym" to pole | beaker is "is_a, used_for, related_to" to trophy | beaker is "has_context" to based | beaker is "used_for, related_to, derived_from, is_a, at_location" to flask | beaker is "has_context" to balls | beaker is "related_to" to snub | beaker is "related_to, is_a" to stock | beaker is "related_to" to angling | beaker is "at_location" to bolts | beaker is "has_context" to clobber | beaker is "related_to" to reflux_condenser | beaker is "related_to, is_a" to receptacle | beaker is "related_to" to control | beaker is "distinct_from, related_to, antonym, made_of" to plate | beaker is "related_to, has_context" to piece | beaker is "has_context" to fred | beaker is "related_to" to bell_jar | beaker is "has_context" to fur | beaker is "has_property, is_a" to empty | beaker is "derived_from, is_a, at_location, related_to" to glassware | beaker is "used_for" to taste | beaker is "related_to, made_of, part_of, at_location" to window | beaker is "has_context" to blue | beaker is "related_to" to luna | beaker is "has_context" to tongue | beaker is "has_context" to lag | beaker is "related_to" to group | beaker is "has_context" to sauce | beaker is "related_to, is_a" to jar | beaker is "related_to" to ribband | beaker is "related_to" to captain | beaker is "related_to" to link_motion | beaker is "has_context" to joint | beaker is "related_to" to tare | beaker is "has_context" to make_out | beaker is "is_a" to ernest_rutherford | beaker is "has_context" to sport | beaker is "is_a" to binder | beaker is "related_to" to dip_pen | beaker is "used_for" to strength | beaker is "related_to" to nef | beaker is "has_context" to choice | beaker is "related_to" to phytotron | beaker is "at_location, has_context, related_to" to soup | beaker is "related_to, derived_from" to polyrod | beaker is "related_to, is_a" to cylinder | beaker is "has_context, related_to, synonym" to tap | beaker is "is_a, at_location" to chemist | beaker is "has_context" to cat | beaker is "related_to" to sexual | beaker is "has_context" to drag | beaker is "is_a" to robert_curl | beaker is "has_context" to dead | beaker is "related_to" to bishop | beaker is "related_to, is_a" to thimble | beaker is "related_to" to tidy | beaker is "has_context" to button | beaker is "is_a" to bath | beaker is "has_context" to gomer | beaker is "has_context" to cut | beaker is "is_a" to anus | beaker is "related_to" to format | beaker is "related_to" to angiocardiography | beaker is "related_to" to sporangium | beaker is "has_context" to sweat | beaker is "related_to" to plug_rod | beaker is "has_context" to shitty | beaker is "related_to" to nulled_work | beaker is "has_context" to prick | beaker is "related_to" to legs | beaker is "related_to" to microplate_reader | beaker is "related_to" to interfere | beaker is "related_to" to cynarrhodium | beaker is "at_location, has_context, related_to" to monkey | beaker is "related_to" to poker | beaker is "related_to" to dropper | beaker is "has_context, related_to" to stuff | beaker is "related_to" to reagent | beaker is "at_location" to bunson_burner | beaker is "made_of, related_to" to sand | beaker is "related_to" to lavatory | beaker is "related_to" to analysis | beaker is "related_to" to fundus | beaker is "related_to, has_context" to scoop | beaker is "related_to" to squeeze_box | beaker is "related_to" to corporal_punishment | beaker is "related_to" to spool | beaker is "at_location" to olives | beaker is "related_to" to lightning | beaker is "has_context" to aluminum | beaker is "related_to" to cheek | beaker is "is_a" to pod | beaker is "has_property" to clean | beaker is "related_to, has_context" to party | beaker is "related_to, synonym" to labrador_retriever | beaker is "at_location" to horseradish | beaker is "related_to" to crowbar | beaker is "related_to" to ornament | beaker is "related_to" to round | beaker is "related_to" to idant | beaker is "has_context" to mathematics | beaker is "at_location" to bicycle | beaker is "at_location, related_to" to instrument | beaker is "has_context" to hog | beaker is "related_to, has_context, is_a" to tube | beaker is "related_to" to outer | beaker is "related_to" to marquise | beaker is "has_context" to p | beaker is "related_to" to anneal | beaker is "related_to" to narcissus | beaker is "related_to" to matrass | beaker is "related_to" to fleet | beaker is "has_context" to cave | beaker is "has_context" to plant | beaker is "at_location" to lab_rats | beaker is "at_location" to change | beaker is "at_location" to machine | beaker is "at_location" to cages | beaker is "has_context, related_to" to book | beaker is "has_context" to salt | beaker is "has_context" to asset | beaker is "related_to" to related | beaker is "related_to" to brown_george | beaker is "at_location" to bromine | beaker is "related_to, has_context" to cake | beaker is "has_context" to tight | beaker is "related_to" to main | beaker is "related_to" to oral_gratification | beaker is "has_context" to brick | beaker is "related_to" to thoracic_duct | beaker is "related_to" to raëlism | beaker is "related_to" to fancy | beaker is "is_a, synonym" to chemistry_laboratory | beaker is "related_to" to twig | beaker is "related_to, has_context, is_a, synonym" to box | beaker is "has_context" to globe | beaker is "related_to, is_a, has_context" to tub | beaker is "has_context" to burn | beaker is "has_context" to rush | beaker is "has_context" to us | beaker is "has_context, antonym" to blade | beaker is "related_to, is_a" to vehicle | beaker is "related_to" to brassiere | beaker is "has_context, related_to, is_a" to pipe | beaker is "related_to, is_a" to divining_rod | beaker is "related_to" to vitreous | beaker is "related_to" to warp | beaker is "related_to" to incongruent | beaker is "has_context" to split | beaker is "derived_from, related_to" to biolaboratory | beaker is "has_context" to mare | beaker is "related_to" to gas_jar | beaker is "related_to, has_context" to sperm | beaker is "related_to, has_context" to broad | beaker is "related_to" to gripe | beaker is "used_for" to gin | beaker is "capable_of" to laugh | beaker is "related_to, has_context" to skin | beaker is "used_for" to measuring | beaker is "at_location, related_to, is_a" to decanter | beaker is "has_context" to word | beaker is "related_to" to generic_term | beaker is "has_context" to chill | beaker is "has_context" to wind | beaker is "related_to, synonym, at_location" to laboratory | beaker is "similar_to" to oth | beaker is "has_context" to ufology | beaker is "has_context" to iceberg | beaker is "has_prerequisite" to tolerance | beaker is "has_context" to barnacle | beaker is "has_context" to botany | beaker is "related_to" to soxhlet_extractor | beaker is "derived_from, related_to" to glasswork | beaker is "has_context" to wad | beaker is "related_to" to take | beaker is "related_to" to casting | beaker is "form_of, related_to" to child | beaker is "at_location, related_to" to microscope | beaker is "derived_from" to microvessel | beaker is "antonym" to old | beaker is "has_context" to walker | beaker is "has_context" to chocolate | beaker is "related_to" to patellula | beaker is "has_context" to beamer | beaker is "related_to" to scyphiform | beaker is "related_to" to support | beaker is "at_location" to scale | beaker is "related_to" to lines | beaker is "related_to, synonym, has_context" to stick | beaker is "has_context" to bus | beaker is "related_to" to devan | beaker is "related_to" to vortex_mixer | beaker is "has_context" to drizzle | beaker is "at_location" to spectrophotometer | beaker is "at_location, related_to" to alcohol | beaker is "has_context" to vulgar | beaker is "derived_from, related_to" to laboratorian | beaker is "related_to" to banker | beaker is "is_a" to compartment | beaker is "related_to" to speaking | beaker is "synonym, related_to, is_a" to mirror | beaker is "has_context" to pen | beaker is "has_context" to cricket | beaker is "related_to" to show_flag | beaker is "has_context" to wane | beaker is "has_context" to flasher | beaker is "related_to, antonym, made_of" to metal | beaker is "has_context, has_property" to dirty | beaker is "has_context, at_location" to sugar | beaker is "has_context" to pop | beaker is "related_to" to forward | beaker is "related_to" to lae | beaker is "related_to, has_context" to bum | beaker is "related_to" to oxide | beaker is "has_context" to nautical | beaker is "has_context" to jerk | beaker is "related_to" to material | beaker is "related_to, derived_from" to glassformer | beaker is "related_to" to laboratorily | beaker is "related_to" to inhumation | beaker is "has_context" to crab | beaker is "related_to, has_context" to have | beaker is "at_location, has_context, related_to, part_of" to body | beaker is "related_to" to water_bath | beaker is "has_context" to way | beaker is "related_to" to florence_flask | beaker is "has_context" to block | beaker is "related_to, is_a" to implement | beaker is "is_a" to wang | beaker is "related_to, part_of" to object | beaker is "related_to" to knotter | beaker is "related_to" to surroundings | beaker is "at_location, related_to" to port | beaker is "related_to" to different | beaker is "has_context" to stinks | beaker is "has_context" to cottage | beaker is "related_to" to tritorium | beaker is "related_to" to chain | beaker is "has_context, related_to" to ink | beaker is "has_context" to twelve | beaker is "related_to, has_context" to face | beaker is "related_to" to nest | beaker is "related_to" to underwater | beaker is "related_to" to piston | beaker is "used_for" to using_computer | beaker is "used_for, at_location, related_to" to bar | beaker is "has_context" to bent | beaker is "related_to" to liquid_scintillation_counter | beaker is "has_context, related_to" to cap | beaker is "related_to, manner_of" to abuse | beaker is "derived_from" to atory | beaker is "has_context, related_to" to red_eye | beaker is "related_to" to apparatus | beaker is "has_context" to crocus | beaker is "related_to, has_context" to coke | beaker is "has_context, related_to" to unit | beaker is "related_to" to intrafusion | beaker is "related_to, is_a" to ship | beaker is "related_to" to membrane | beaker is "related_to" to flea | beaker is "related_to" to gyrorocker | beaker is "has_context, related_to" to bill | beaker is "has_context" to proxy | beaker is "related_to" to turtleback | beaker is "has_context, related_to" to seeing | beaker is "has_context" to lemon | beaker is "has_context" to astronomy | beaker is "has_context, related_to" to game | beaker is "has_context, related_to" to talk | beaker is "related_to" to invisible | beaker is "at_location" to test_tubes | beaker is "has_context" to dank | beaker is "related_to" to data | beaker is "has_context" to toast | beaker is "is_a, related_to" to margin | beaker is "has_context" to biology | beaker is "related_to, is_a" to craft | beaker is "has_context, related_to" to egg | beaker is "related_to" to nose | beaker is "related_to" to gnomon | beaker is "related_to, is_a, synonym, at_location" to lab | beaker is "has_context" to bread | beaker is "is_a, has_context" to band | beaker is "derived_from, related_to" to labmate | beaker is "has_context, related_to" to bank | beaker is "has_context, related_to" to like | beaker is "has_context, related_to, synonym" to finger | beaker is "related_to" to standard | beaker is "related_to" to smallcraft | beaker is "related_to" to urinal | beaker is "related_to" to microbe | beaker is "related_to, antonym" to vein | beaker is "derived_from, at_location, synonym, form_of, has_prerequisite, related_to" to drink | beaker is "has_context" to wax | beaker is "at_location" to hydrogen | beaker is "has_context" to duke | beaker is "has_context" to bluebottle | beaker is "related_to, has_context" to large | beaker is "has_context" to sovereign | beaker is "has_context" to rule | beaker is "has_context" to beaver | beaker is "related_to, has_context" to wallet | beaker is "has_context" to sound | beaker is "related_to" to lorica | beaker is "related_to, is_a" to chest | beaker is "related_to" to anastomosis | beaker is "at_location" to glassware_and_tubing | beaker is "is_a, related_to" to mailer | beaker is "related_to" to omphalode | beaker is "has_context, related_to" to pouch | beaker is "related_to" to scientifical | beaker is "derived_from, related_to" to lab_rat | beaker is "capable_of, has_context" to walk | beaker is "related_to" to büchner_funnel | beaker is "is_a, related_to" to glass_container | beaker is "related_to" to smile | beaker is "has_context, related_to" to point | beaker is "has_context, used_for" to hit | beaker is "antonym" to formal | beaker is "has_context, related_to" to chick | beaker is "has_context" to boss | beaker is "related_to" to corner | beaker is "related_to" to enclosed | beaker is "related_to" to cell | beaker is "related_to" to calicle | beaker is "at_location" to glass_bakers | beaker is "related_to" to incoercible | beaker is "related_to" to pseudoheart | beaker is "has_context" to blow | beaker is "has_context" to apricot | beaker is "is_a, related_to" to quarrel | beaker is "is_a" to crop | beaker is "related_to" to hoy | beaker is "has_context, related_to, derived_from" to cupper | beaker is "related_to" to strake | beaker is "has_context" to historical | beaker is "related_to, is_a, has_context" to bag | beaker is "related_to" to mess | beaker is "at_location" to toxic_waste | beaker is "related_to" to growing | beaker is "is_a, has_context, related_to" to hole | beaker is "related_to" to earthenware | beaker is "has_context" to super | beaker is "related_to" to tooth | beaker is "has_context" to surgery | beaker is "related_to" to camp | beaker is "related_to, is_a" to measure | beaker is "related_to" to field_test | beaker is "has_context, related_to" to facial | beaker is "at_location" to instruments | beaker is "has_context, related_to" to hardware | beaker is "has_context" to number | beaker is "at_location" to bathroom | beaker is "related_to" to collateral_circulation | beaker is "has_context" to bogey | beaker is "related_to" to bacchanology | beaker is "is_a, synonym, related_to" to bin | beaker is "related_to" to citizen_science | beaker is "has_context" to hydrate | beaker is "has_context" to duck | beaker is "has_context" to blind | beaker is "is_a" to ballot_box | beaker is "related_to" to rhumb_line | beaker is "has_context" to topology | beaker is "has_context" to scull | beaker is "related_to" to strip | beaker is "derived_from" to buttercup | beaker is "used_for" to organization | beaker is "has_context" to own | beaker is "related_to" to lymphangiogenesis | beaker is "related_to" to weighing_bottle | beaker is "causes" to passing_class | beaker is "related_to, is_a" to boat | beaker is "derived_from, related_to" to skylab | beaker is "is_a, has_context, related_to" to tin | beaker is "related_to" to secernent | beaker is "is_a" to wand | beaker is "related_to" to tropic_acid | beaker is "related_to" to counterimmunoelectrophoresis | beaker is "is_a" to ronald_george_wreyford_norrish | beaker is "has_context" to uk | beaker is "related_to" to quarter | beaker is "derived_from" to nonlab | beaker is "has_context" to gray | beaker is "is_a" to augustin_jean_fresnel | beaker is "at_location, is_a" to item | beaker is "related_to" to rete | beaker is "related_to, has_context" to silicon | beaker is "related_to, antonym, distinct_from" to adult | beaker is "related_to" to blood | beaker is "is_a" to william_hyde_wollaston | beaker is "related_to" to vasodilator | beaker is "related_to" to discord | beaker is "related_to" to stream_clock | beaker is "has_context" to white | beaker is "at_location" to chemists | beaker is "at_location" to microscopes | beaker is "at_location" to litmus_paper | beaker is "related_to, manner_of" to put | beaker is "related_to" to wheatstone's_rod | beaker is "related_to" to chloral_hydrate | beaker is "has_context" to weapon | beaker is "related_to" to onto | beaker is "has_context" to knot | beaker is "at_location" to volitile_chemicals | beaker is "has_context" to line | beaker is "related_to" to filler | beaker is "related_to" to waterguard | beaker is "synonym" to imbibition | beaker is "has_context" to man | beaker is "is_a" to yacht | beaker is "at_location, used_for" to ocean | beaker is "related_to" to mop | beaker is "has_context" to squid | beaker is "related_to" to cyatholith | beaker is "is_a" to workplace | beaker is "related_to, has_context" to hard | beaker is "used_for, related_to" to storage | beaker is "used_for" to moving | beaker is "related_to" to sensation | beaker is "related_to" to rhabdoidal | beaker is "related_to, synonym" to edge | beaker is "related_to, synonym" to rod_cell | beaker is "is_a" to basin | beaker is "related_to" to scientific | beaker is "related_to" to shape | beaker is "has_context" to ten | beaker is "used_for" to navigate | beaker is "related_to, has_context" to flat | beaker is "related_to" to open | beaker is "related_to" to scientific_method | beaker is "has_context" to pearl | beaker is "has_context" to square | beaker is "is_a, related_to" to continent | beaker is "synonym" to phial | beaker is "has_context" to mat | beaker is "related_to, form_of" to laboratories | beaker is "used_for" to keep | beaker is "related_to" to amphiaster | beaker is "is_a" to martin_heinrich_klaproth | beaker is "receives_action" to recycled | beaker is "is_a" to cd | beaker is "related_to" to calyculus | beaker is "has_context" to science_fiction | beaker is "has_context, related_to" to head | beaker is "has_context" to roll | beaker is "has_context, related_to, derived_from" to labrador | beaker is "related_to" to virgula | beaker is "related_to" to take_wheel | beaker is "has_context" to boost | beaker is "used_for, at_location, related_to" to school | beaker is "related_to" to lymphangioma | beaker is "has_context" to jacket | beaker is "has_subevent" to reading_newspaper | beaker is "related_to" to chase | beaker is "has_context" to softwarily | beaker is "has_context" to hypo | beaker is "related_to" to circulatory | beaker is "has_context" to bear | beaker is "has_context" to train | beaker is "at_location" to fungus | beaker is "related_to" to drug | beaker is "has_context" to gauge | beaker is "has_property, has_context" to green | beaker is "related_to" to omer | beaker is "related_to" to staff | beaker is "related_to" to taffrail | beaker is "has_context" to slap | beaker is "has_context" to mill | beaker is "related_to, has_context" to switch | beaker is "related_to" to screen | beaker is "has_context" to paint | beaker is "is_a, at_location" to chemistry_lab | beaker is "at_location" to researchers | beaker is "related_to" to middle_body | beaker is "has_context" to jaw | beaker is "at_location" to fresh_fruit | beaker is "related_to, has_context" to butter | beaker is "related_to, is_a" to mortar | beaker is "related_to, synonym, distinct_from, has_context" to crystal | beaker is "has_context" to trip_out | beaker is "derived_from, related_to" to lab_coat | beaker is "has_context" to cigarette | beaker is "is_a" to william_henry | beaker is "is_a, related_to, has_context" to basket | beaker is "is_a" to robert_boyle | beaker is "related_to" to root_canal | beaker is "at_location, synonym" to science_lab | beaker is "used_for" to piloting | beaker is "related_to" to cotyliform | beaker is "related_to" to prepared | beaker is "related_to" to ground_glass_joint | beaker is "synonym" to science_laboratory | beaker is "related_to" to great_vessel | beaker is "has_context" to rape | beaker is "has_context" to turn_up | beaker is "related_to" to wet_lab | beaker is "related_to, has_context" to front | beaker is "related_to" to merchant | beaker is "has_context" to heel | beaker is "related_to" to perilymphangial | beaker is "related_to, derived_from" to interlaboratory | beaker is "manner_of, synonym, related_to, has_context" to touch | beaker is "has_context" to gassed | beaker is "related_to" to extension | beaker is "has_context" to bury | beaker is "related_to" to subscapular | beaker is "related_to" to plumbing | beaker is "has_context, antonym" to wood | beaker is "has_context" to straight | beaker is "has_context" to animal | beaker is "related_to" to dry_lab | beaker is "related_to" to cupping_glass | beaker is "has_context" to h | beaker is "is_a" to biology_lab | beaker is "at_location, related_to" to closet | beaker is "related_to, is_a" to erlenmeyer_flask | beaker is "has_context, related_to" to buster | beaker is "synonym, related_to" to steer | beaker is "related_to" to verge | beaker is "related_to, has_context, used_for" to beverage | beaker is "has_context" to fare | beaker is "has_context" to bot | beaker is "related_to" to porta | beaker is "related_to" to hair | beaker is "has_context" to plank | bea</t>
+  </si>
+  <si>
+    <t>cemetery is "related_to" to item | cemetery is "related_to" to peace | cemetery is "related_to" to ending | cemetery is "related_to" to big | cemetery is "related_to" to end_of_line | cemetery is "at_location, related_to, antonym, is_a, distinct_from, form_of" to city | cemetery is "at_location, related_to" to bank | cemetery is "related_to" to necrosol | cemetery is "related_to, at_location" to hospital | cemetery is "related_to" to like | cemetery is "related_to, has_context" to physics | cemetery is "related_to" to figure | cemetery is "is_a" to detroit | cemetery is "related_to" to goal | cemetery is "related_to" to stick | cemetery is "is_a" to austria | cemetery is "related_to" to concentration | cemetery is "synonym, related_to, is_a" to end | cemetery is "related_to, at_location" to human | cemetery is "related_to, antonym, is_a, distinct_from, at_location" to country | cemetery is "antonym" to party | cemetery is "at_location" to society | cemetery is "related_to" to library | cemetery is "at_location" to bus | cemetery is "related_to, derived_from" to cornfield | cemetery is "related_to" to native | cemetery is "related_to" to plot | cemetery is "related_to" to our | cemetery is "related_to" to civilization | cemetery is "related_to" to whole | cemetery is "is_a" to new_orleans | cemetery is "is_a" to norway | cemetery is "related_to" to men | cemetery is "related_to" to medicine | cemetery is "related_to" to art | cemetery is "related_to" to bullet | cemetery is "used_for, related_to, has_a, at_location, synonym" to graveyard | cemetery is "related_to" to bridge | cemetery is "related_to" to board | cemetery is "related_to" to sound | cemetery is "at_location" to michigan | cemetery is "related_to" to bed | cemetery is "has_context" to mathematics | cemetery is "related_to" to cherokee | cemetery is "related_to, synonym" to situation | cemetery is "related_to" to continue | cemetery is "at_location, related_to" to asia | cemetery is "at_location, related_to, is_a, used_for" to people | cemetery is "related_to, has_context" to baseball | cemetery is "at_location, related_to" to county | cemetery is "related_to" to wood | cemetery is "related_to" to aircraft | cemetery is "related_to" to race | cemetery is "related_to" to town_twinning | cemetery is "related_to" to animal | cemetery is "related_to, causes" to sad | cemetery is "at_location" to department_store | cemetery is "is_a, related_to" to sky_burial | cemetery is "related_to" to mummy | cemetery is "has_prerequisite" to brain | cemetery is "used_for" to love | cemetery is "related_to" to bone | cemetery is "has_context" to mining | cemetery is "at_location, causes, related_to" to coffin | cemetery is "related_to" to storage | cemetery is "derived_from, related_to" to mass_grave | cemetery is "is_a, related_to" to building | cemetery is "derived_from, at_location, related_to" to church | cemetery is "related_to" to moldavian | cemetery is "motivated_by_goal, has_subevent, related_to" to kill | cemetery is "at_location, related_to" to grass | cemetery is "has_a, derived_from, related_to" to gravesite | cemetery is "related_to, is_a, at_location, synonym" to place | cemetery is "has_subevent, causes" to smile | cemetery is "antonym, is_a, synonym, at_location, distinct_from, related_to" to state | cemetery is "related_to" to sex | cemetery is "related_to" to space | cemetery is "is_a" to point | cemetery is "related_to" to end_of_world | cemetery is "related_to, synonym" to urban_area | cemetery is "related_to" to pocket | cemetery is "derived_from, related_to" to urn | cemetery is "related_to, antonym" to birthday | cemetery is "related_to" to knag | cemetery is "antonym" to birth | cemetery is "used_for" to voice | cemetery is "related_to" to base | cemetery is "related_to" to entity | cemetery is "has_context" to nautical | cemetery is "is_a" to action | cemetery is "related_to" to shape | cemetery is "related_to" to condition | cemetery is "related_to" to grouping | cemetery is "related_to" to music | cemetery is "related_to, at_location" to stadium | cemetery is "related_to, causes" to poison | cemetery is "related_to" to nice | cemetery is "at_location" to lady | cemetery is "related_to" to sewer | cemetery is "related_to" to group | cemetery is "is_a" to tree | cemetery is "related_to" to ring | cemetery is "at_location" to surface_of_earth | cemetery is "related_to, created_by" to murder | cemetery is "used_for" to show | cemetery is "related_to" to ekistics | cemetery is "related_to" to main | cemetery is "at_location, related_to" to body | cemetery is "antonym, distinct_from, at_location, related_to" to nature | cemetery is "related_to" to person | cemetery is "is_a, at_location, synonym" to theater | cemetery is "related_to" to lots | cemetery is "related_to, synonym, similar_to" to mortuary | cemetery is "at_location" to airport | cemetery is "distinct_from" to breathing | cemetery is "related_to" to square | cemetery is "related_to" to mass | cemetery is "related_to" to internet | cemetery is "related_to" to road | cemetery is "related_to, at_location" to zoo | cemetery is "has_subevent" to kill_people | cemetery is "related_to, at_location" to population | cemetery is "is_a, has_prerequisite, has_subevent, causes" to killing | cemetery is "related_to" to apartment | cemetery is "antonym" to small | cemetery is "distinct_from, related_to, antonym" to immortality | cemetery is "instance_of, related_to, is_a" to chicago | cemetery is "related_to" to block | cemetery is "related_to, is_a" to box | cemetery is "related_to" to governor | cemetery is "at_location" to foot | cemetery is "related_to, antonym" to farmer | cemetery is "related_to" to valley_of_shadow_of_death | cemetery is "related_to" to stroke | cemetery is "related_to" to movie | cemetery is "at_location" to protest | cemetery is "related_to" to object | cemetery is "has_context" to slang | cemetery is "has_context, related_to" to us | cemetery is "related_to" to butcher | cemetery is "related_to" to adjective | cemetery is "related_to" to range | cemetery is "at_location" to prison | cemetery is "related_to, is_a, at_location" to ground | cemetery is "related_to" to republic | cemetery is "related_to" to twang | cemetery is "at_location, related_to" to hotel | cemetery is "related_to" to shell | cemetery is "at_location" to head | cemetery is "related_to, synonym" to course | cemetery is "created_by" to homicide | cemetery is "related_to" to canal | cemetery is "antonym" to health | cemetery is "is_a, related_to" to wall | cemetery is "related_to, antonym" to rap | cemetery is "related_to" to form | cemetery is "related_to, is_a, at_location" to park | cemetery is "related_to, etymologically_related_to, has_subevent" to die | cemetery is "manner_of" to handle | cemetery is "related_to" to fall | cemetery is "related_to" to room | cemetery is "at_location" to school | cemetery is "related_to" to police | cemetery is "derived_from, at_location, is_a, has_a, related_to" to grave | cemetery is "is_a" to tangible_thing | cemetery is "at_location, related_to" to bar | cemetery is "distinct_from, related_to, antonym" to farm | cemetery is "related_to" to americana | cemetery is "related_to" to culture | cemetery is "related_to, used_for" to dead | cemetery is "related_to" to gang | cemetery is "related_to" to post | cemetery is "related_to, antonym, distinct_from" to alive | cemetery is "related_to, is_a" to mexico | cemetery is "causes" to pain | cemetery is "related_to" to georgian | cemetery is "related_to" to bell | cemetery is "related_to" to earth | cemetery is "related_to" to money | cemetery is "at_location" to bookstore | cemetery is "related_to" to lord | cemetery is "related_to" to plotinist | cemetery is "related_to" to plane | cemetery is "related_to" to unit | cemetery is "has_property" to albert_einstein | cemetery is "at_location" to humans | cemetery is "related_to, is_a" to tonga | cemetery is "has_context" to computing | cemetery is "used_for, related_to" to note | cemetery is "at_location" to temple | cemetery is "related_to, at_location" to picture | cemetery is "related_to" to disease | cemetery is "related_to" to magazine | cemetery is "at_location" to motel | cemetery is "related_to" to activity | cemetery is "similar_to, has_property" to cold | cemetery is "related_to, is_a, synonym, similar_to" to heaven | cemetery is "related_to" to feet | cemetery is "related_to" to lead | cemetery is "related_to, synonym" to theatre | cemetery is "related_to" to womb | cemetery is "related_to, is_a" to xi | cemetery is "related_to" to emotion | cemetery is "at_location, capable_of, related_to" to statue | cemetery is "related_to" to division | cemetery is "is_a" to position | cemetery is "distinct_from, related_to, antonym" to being | cemetery is "at_location" to temperate_climate | cemetery is "related_to" to type | cemetery is "has_prerequisite, related_to, synonym, used_for" to memory | cemetery is "related_to" to hook | cemetery is "related_to" to organization | cemetery is "related_to" to personification | cemetery is "used_for" to gather | cemetery is "is_a" to bunyoro | cemetery is "related_to" to cross | cemetery is "related_to" to paper | cemetery is "related_to" to language | cemetery is "is_a" to new_york_city | cemetery is "related_to" to middle | cemetery is "related_to" to mortal | cemetery is "related_to, is_a" to rest | cemetery is "is_a" to mountain | cemetery is "related_to" to rice | cemetery is "related_to" to alien | cemetery is "related_to, is_a" to china | cemetery is "related_to, has_context" to legal | cemetery is "related_to, causes, synonym" to dying | cemetery is "derived_from, related_to" to cause_of_death | cemetery is "related_to" to television | cemetery is "related_to" to carnary | cemetery is "related_to, causes, antonym, distinct_from" to living | cemetery is "related_to" to crowd | cemetery is "related_to" to term | cemetery is "related_to, has_context" to degree | cemetery is "related_to" to community | cemetery is "related_to" to animals | cemetery is "related_to, at_location" to world | cemetery is "related_to, at_location" to house | cemetery is "related_to" to surface | cemetery is "related_to" to skull_and_crossbones | cemetery is "used_for" to walking | cemetery is "related_to" to battle | cemetery is "related_to" to geography | cemetery is "related_to, at_location" to home | cemetery is "related_to, antonym, part_of, distinct_from, has_prerequisite" to life | cemetery is "at_location" to office_building | cemetery is "at_location, related_to, causes, is_a" to death | cemetery is "part_of, related_to, at_location, causes" to war | cemetery is "at_location, related_to" to factory | cemetery is "related_to, has_context" to uk | cemetery is "antonym" to born | cemetery is "related_to" to go | cemetery is "at_location, related_to, synonym" to downtown | cemetery is "has_context" to engineering | cemetery is "antonym" to childbirth | cemetery is "related_to, antonym, is_a, at_location" to village | coma is "synonym, related_to" to item | coma is "related_to, causes" to peace | coma is "related_to" to ending | coma is "synonym, related_to" to big | coma is "at_location" to end_of_line | coma is "related_to, is_a, dbpedia/language" to city | coma is "at_location, related_to" to bank | coma is "related_to" to necrosol | coma is "at_location" to hospital | coma is "related_to" to like | coma is "is_a, related_to, has_context" to physics | coma is "related_to, synonym" to figure | coma is "at_location" to detroit | coma is "related_to" to goal | coma is "related_to, has_context" to stick | coma is "at_location" to austria | coma is "related_to" to concentration | coma is "synonym, capable_of, related_to, dbpedia/language, is_a" to end | coma is "related_to" to human | coma is "related_to, at_location" to country | coma is "related_to" to party | coma is "at_location" to society | coma is "related_to, antonym, part_of, at_location, located_near" to library | coma is "at_location" to bus | coma is "at_location" to cornfield | coma is "related_to" to native | coma is "related_to" to plot | coma is "related_to" to our | coma is "related_to" to civilization | coma is "related_to" to whole | coma is "at_location" to new_orleans | coma is "at_location" to norway | coma is "related_to" to men | coma is "has_context, related_to" to medicine | coma is "related_to" to art | coma is "related_to" to bullet | coma is "at_location" to graveyard | coma is "related_to" to bridge | coma is "related_to" to board | coma is "related_to" to sound | coma is "dbpedia/language, at_location" to michigan | coma is "at_location" to bed | coma is "has_context" to mathematics | coma is "is_a" to cherokee | coma is "is_a" to situation | coma is "related_to" to continue | coma is "at_location, has_context" to asia | coma is "related_to, has_property" to people | coma is "has_context" to baseball | coma is "at_location" to county | coma is "related_to" to wood | coma is "at_location" to aircraft | coma is "related_to" to race | coma is "related_to" to town_twinning | coma is "distinct_from, related_to, antonym, is_a" to animal | coma is "related_to" to sad | coma is "at_location" to department_store | coma is "related_to" to sky_burial | coma is "related_to" to mummy | coma is "related_to, derived_from, at_location" to brain | coma is "part_of, related_to, derived_from, at_location" to love | coma is "at_location, related_to" to bone | coma is "has_context" to mining | coma is "at_location, related_to" to coffin | coma is "related_to" to storage | coma is "related_to" to mass_grave | coma is "at_location, related_to" to building | coma is "at_location" to church | coma is "is_a" to moldavian | coma is "related_to" to kill | coma is "related_to" to grass | coma is "at_location" to gravesite | coma is "related_to" to place | coma is "capable_of" to smile | coma is "synonym, at_location, related_to" to state | coma is "related_to, is_a" to sex | coma is "related_to, at_location" to space | coma is "related_to" to point | coma is "related_to" to end_of_world | coma is "at_location" to urban_area | coma is "related_to" to pocket | coma is "related_to, has_context" to urn | coma is "related_to" to birthday | coma is "related_to" to knag | coma is "related_to, part_of" to birth | coma is "related_to" to voice | coma is "synonym, related_to, has_context" to base | coma is "related_to" to entity | coma is "has_context" to nautical | coma is "related_to" to action | coma is "synonym, form_of, related_to" to shape | coma is "related_to, is_a" to condition | coma is "related_to" to grouping | coma is "has_context, has_property" to music | coma is "related_to, at_location" to stadium | coma is "related_to" to poison | coma is "related_to" to nice | coma is "related_to" to lady | coma is "related_to" to sewer | coma is "at_location, related_to, has_context" to group | coma is "has_context, related_to" to tree | coma is "has_context" to ring | coma is "at_location" to surface_of_earth | coma is "related_to" to murder | coma is "related_to, at_location" to show | coma is "related_to" to ekistics | coma is "related_to" to main | coma is "at_location, related_to" to body | coma is "part_of, has_a, related_to" to nature | coma is "not_desires, desires, related_to, is_a" to person | coma is "at_location" to theater | coma is "related_to" to lots | coma is "at_location" to mortuary | coma is "at_location" to airport | coma is "causes, used_for, related_to" to breathing | coma is "related_to" to square | coma is "related_to" to mass | coma is "has_context, related_to" to internet | coma is "related_to" to road | coma is "at_location" to zoo | coma is "motivated_by_goal" to kill_people | coma is "related_to, at_location" to population | coma is "related_to, has_property" to killing | coma is "at_location" to apartment | coma is "related_to" to small | coma is "related_to" to immortality | coma is "at_location" to chicago | coma is "related_to" to block | coma is "related_to, at_location" to box | coma is "is_a" to governor | coma is "related_to, has_context" to foot | coma is "related_to" to farmer | coma is "related_to" to valley_of_shadow_of_death | coma is "is_a, related_to" to stroke | coma is "at_location" to movie | coma is "related_to, entails" to protest | coma is "related_to, is_a" to object | coma is "has_context" to slang | coma is "has_context, related_to" to us | coma is "related_to" to butcher | coma is "related_to" to adjective | coma is "synonym" to range | coma is "related_to, at_location" to prison | coma is "at_location" to ground | coma is "related_to, is_a" to republic | coma is "related_to" to twang | coma is "at_location" to hotel | coma is "related_to, has_context" to shell | coma is "antonym, is_a, related_to, synonym" to head | coma is "related_to" to course | coma is "related_to" to homicide | coma is "has_context, related_to" to canal | coma is "related_to, antonym, distinct_from" to health | coma is "related_to, has_context" to wall | coma is "related_to" to rap | coma is "related_to, synonym, manner_of" to form | coma is "at_location" to park | coma is "related_to, has_property, capable_of, antonym" to die | coma is "related_to" to handle | coma is "has_subevent, causes, is_a, dbpedia/language" to fall | coma is "at_location" to room | coma is "used_for, at_location, related_to, is_a" to school | coma is "is_a" to police | coma is "at_location" to grave | coma is "is_a" to tangible_thing | coma is "at_location" to bar | coma is "at_location" to farm | coma is "related_to" to americana | coma is "has_context, used_for" to culture | coma is "related_to, antonym, distinct_from" to dead | coma is "related_to" to gang | coma is "related_to" to post | coma is "related_to, not_has_property, synonym" to alive | coma is "at_location" to mexico | coma is "part_of, related_to, has_property, is_a, at_location" to pain | coma is "is_a" to georgian | coma is "related_to" to bell | coma is "related_to, at_location" to earth | coma is "related_to, desires" to money | coma is "related_to, derived_from" to bookstore | coma is "related_to" to lord | coma is "related_to" to plotinist | coma is "antonym, at_location" to plane | coma is "related_to" to unit | coma is "is_a" to albert_einstein | coma is "related_to, form_of" to humans | coma is "is_a, dbpedia/language" to tonga | coma is "has_context" to computing | coma is "related_to, at_location" to note | coma is "related_to" to temple | coma is "related_to, synonym, similar_to" to picture | coma is "is_a, synonym, related_to" to disease | coma is "related_to, antonym, is_a" to magazine | coma is "at_location" to motel | coma is "related_to" to activity | coma is "related_to" to cold | coma is "related_to" to heaven | coma is "related_to" to feet | coma is "related_to" to lead | coma is "at_location, has_context" to theatre | coma is "related_to" to womb | coma is "related_to" to xi | coma is "part_of" to emotion | coma is "is_a, related_to" to statue | coma is "has_context, related_to" to division | coma is "related_to, is_a" to position | coma is "is_a, related_to" to being | coma is "at_location" to temperate_climate | coma is "related_to" to type | coma is "related_to" to memory | coma is "related_to" to hook | coma is "related_to" to organization | coma is "related_to" to personification | coma is "related_to" to gather | coma is "is_a" to bunyoro | coma is "related_to" to cross | coma is "related_to, made_of" to paper | coma is "is_a, related_to" to language | coma is "at_location" to new_york_city | coma is "antonym, is_a" to middle | coma is "related_to" to mortal | coma is "used_for" to rest | coma is "related_to" to mountain | coma is "related_to" to rice | coma is "related_to, antonym, distinct_from" to alien | coma is "at_location, has_context" to china | coma is "has_context" to legal | coma is "has_subevent, has_prerequisite" to dying | coma is "is_a, dbpedia/language, related_to" to cause_of_death | coma is "at_location" to television | coma is "related_to" to carnary | coma is "related_to, causes, synonym, used_for" to living | coma is "synonym, related_to" to crowd | coma is "related_to, is_a" to term | coma is "synonym" to degree | coma is "at_location" to community | coma is "related_to" to animals | coma is "related_to, has_a, synonym" to world | coma is "at_location" to house | coma is "related_to" to surface | coma is "related_to" to skull_and_crossbones | coma is "related_to" to walking | coma is "at_location" to battle | coma is "has_context, related_to" to geography | coma is "related_to, at_location" to home | coma is "related_to" to life | coma is "at_location" to office_building | coma is "related_to, causes, antonym, part_of, is_a, has_prerequisite, distinct_from" to death | coma is "related_to, at_location" to war | coma is "at_location" to factory | coma is "has_context" to uk | coma is "related_to" to born | coma is "related_to" to go | coma is "at_location" to downtown | coma is "has_context" to engineering | coma is "related_to" to childbirth | coma is "related_to, at_location" to village | noose is "is_a, related_to" to item | noose is "related_to" to peace | noose is "related_to" to ending | noose is "form_of" to big | noose is "at_location" to end_of_line | noose is "at_location, related_to, used_for" to city | noose is "at_location, related_to" to bank | noose is "related_to" to necrosol | noose is "related_to, at_location" to hospital | noose is "related_to" to like | noose is "has_context" to physics | noose is "related_to" to figure | noose is "at_location" to detroit | noose is "related_to" to goal | noose is "related_to, manner_of" to stick | noose is "at_location" to austria | noose is "related_to" to concentration | noose is "related_to, is_a" to end | noose is "related_to, has_property, is_a" to human | noose is "related_to, at_location" to country | noose is "etymologically_related_to, related_to" to party | noose is "at_location, related_to" to society | noose is "at_location" to library | noose is "at_location, related_to" to bus | noose is "at_location" to cornfield | noose is "related_to" to native | noose is "related_to" to plot | noose is "related_to" to our | noose is "related_to" to civilization | noose is "related_to, antonym, part_of, distinct_from" to whole | noose is "at_location" to new_orleans | noose is "at_location" to norway | noose is "related_to" to men | noose is "has_context" to medicine | noose is "related_to, used_for" to art | noose is "related_to, is_a" to bullet | noose is "at_location" to graveyard | noose is "related_to" to bridge | noose is "part_of, related_to" to board | noose is "related_to" to sound | noose is "at_location" to michigan | noose is "related_to, at_location" to bed | noose is "has_context" to mathematics | noose is "is_a" to cherokee | noose is "related_to" to situation | noose is "related_to" to continue | noose is "at_location" to asia | noose is "related_to, has_property" to people | noose is "has_context" to baseball | noose is "at_location" to county | noose is "related_to, is_a" to wood | noose is "related_to, at_location" to aircraft | noose is "related_to" to race | noose is "related_to" to town_twinning | noose is "distinct_from, related_to, antonym, is_a" to animal | noose is "has_property" to sad | noose is "at_location" to department_store | noose is "related_to" to sky_burial | noose is "related_to" to mummy | noose is "related_to" to brain | noose is "related_to, at_location" to love | noose is "at_location, related_to" to bone | noose is "has_context" to mining | noose is "at_location, related_to" to coffin | noose is "related_to" to storage | noose is "related_to" to mass_grave | noose is "used_for, at_location, related_to" to building | noose is "at_location" to church | noose is "is_a" to moldavian | noose is "manner_of, related_to" to kill | noose is "related_to" to grass | noose is "at_location" to gravesite | noose is "related_to" to place | noose is "capable_of" to smile | noose is "at_location" to state | noose is "related_to, has_a" to sex | noose is "related_to" to space | noose is "is_a, related_to" to point | noose is "related_to" to end_of_world | noose is "at_location" to urban_area | noose is "is_a, related_to" to pocket | noose is "related_to" to urn | noose is "related_to" to birthday | noose is "related_to" to knag | noose is "related_to" to birth | noose is "related_to, synonym" to voice | noose is "related_to, is_a" to base | noose is "related_to" to entity | noose is "has_context" to nautical | noose is "related_to" to action | noose is "related_to" to shape | noose is "related_to" to condition | noose is "related_to" to grouping | noose is "has_context" to music | noose is "at_location" to stadium | noose is "related_to" to poison | noose is "has_property" to nice | noose is "related_to" to lady | noose is "related_to" to sewer | noose is "at_location, related_to, is_a" to group | noose is "related_to" to tree | noose is "related_to" to ring | noose is "at_location" to surface_of_earth | noose is "related_to" to murder | noose is "at_location" to show | noose is "related_to" to ekistics | noose is "related_to" to main | noose is "related_to" to body | noose is "part_of" to nature | noose is "has_a, synonym, not_desires, form_of, related_to, antonym, is_a" to person | noose is "at_location" to theater | noose is "related_to" to lots | noose is "at_location" to mortuary | noose is "at_location" to airport | noose is "related_to" to breathing | noose is "related_to" to square | noose is "related_to" to mass | noose is "has_context" to internet | noose is "related_to" to road | noose is "at_location" to zoo | noose is "capable_of" to kill_people | noose is "related_to, is_a, used_for, at_location" to population | noose is "related_to" to killing | noose is "at_location, related_to" to apartment | noose is "related_to" to small | noose is "related_to" to immortality | noose is "at_location, related_to" to chicago | noose is "related_to" to block | noose is "related_to" to box | noose is "is_a" to governor | noose is "related_to" to foot | noose is "related_to" to farmer | noose is "related_to" to valley_of_shadow_of_death | noose is "related_to" to stroke | noose is "related_to, at_location" to movie | noose is "related_to" to protest | noose is "related_to, is_a" to object | noose is "has_context" to slang | noose is "has_context, related_to" to us | noose is "related_to" to butcher | noose is "related_to" to adjective | noose is "related_to" to range | noose is "at_location" to prison | noose is "at_location" to ground | noose is "related_to" to republic | noose is "related_to" to twang | noose is "at_location" to hotel | noose is "is_a" to shell | noose is "part_of, related_to" to head | noose is "related_to" to course | noose is "related_to" to homicide | noose is "related_to" to canal | noose is "related_to" to health | noose is "related_to" to wall | noose is "related_to" to rap | noose is "related_to" to form | noose is "at_location" to park | noose is "has_prerequisite, related_to, motivated_by_goal, has_subevent, capable_of" to die | noose is "is_a, related_to" to handle | noose is "antonym, synonym" to fall | noose is "at_location, related_to" to room | noose is "at_location" to school | noose is "is_a" to police | noose is "at_location, related_to" to grave | noose is "is_a" to tangible_thing | noose is "manner_of, at_location, related_to" to bar | noose is "at_location" to farm | noose is "related_to" to americana | noose is "related_to" to culture | noose is "related_to, is_a" to dead | noose is "related_to, is_a" to gang | noose is "related_to" to post | noose is "related_to" to alive | noose is "at_location" to mexico | noose is "capable_of, at_location, has_subevent" to pain | noose is "is_a" to georgian | noose is "related_to" to bell | noose is "related_to" to earth | noose is "related_to, desires" to money | noose is "at_location" to bookstore | noose is "related_to" to lord | noose is "related_to" to plotinist | noose is "at_location, related_to" to plane | noose is "part_of, is_a, related_to" to unit | noose is "is_a" to albert_einstein | noose is "related_to, form_of" to humans | noose is "is_a" to tonga | noose is "has_context" to computing | noose is "related_to" to note | noose is "related_to" to temple | noose is "related_to" to picture | noose is "related_to" to disease | noose is "related_to, is_a" to magazine | noose is "used_for, at_location" to motel | noose is "related_to" to activity | noose is "has_property" to cold | noose is "related_to" to heaven | noose is "has_a, related_to" to feet | noose is "related_to" to lead | noose is "at_location" to theatre | noose is "related_to" to womb | noose is "related_to" to xi | noose is "part_of" to emotion | noose is "related_to" to statue | noose is "related_to, synonym" to division | noose is "synonym" to position | noose is "is_a, related_to" to being | noose is "at_location" to temperate_climate | noose is "related_to" to type | noose is "related_to" to memory | noose is "related_to, manner_of, synonym" to hook | noose is "related_to, made_of" to organization | noose is "related_to" to personification | noose is "related_to" to gather | noose is "is_a" to bunyoro | noose is "related_to" to cross | noose is "related_to" to paper | noose is "related_to" to language | noose is "at_location" to new_york_city | noose is "related_to, is_a" to middle | noose is "related_to" to mortal | noose is "related_to" to rest | noose is "related_to" to mountain | noose is "related_to" to rice | noose is "antonym, distinct_from" to alien | noose is "related_to, at_location" to china | noose is "has_context" to legal | noose is "has_subevent" to dying | noose is "related_to" to cause_of_death | noose is "created_by" to television | noose is "related_to" to carnary | noose is "related_to, is_a" to living | noose is "related_to, antonym, made_of" to crowd | noose is "related_to" to term | noose is "related_to" to degree | noose is "related_to, is_a, at_location" to community | noose is "antonym" to animals | noose is "related_to, is_a" to world | noose is "related_to" to house | noose is "related_to" to surface | noose is "related_to" to skull_and_crossbones | noose is "related_to" to walking | noose is "at_location, related_to" to battle | noose is "related_to" to geography | noose is "related_to, at_location" to home | noose is "related_to" to life | noose is "at_location" to office_building | noose is "related_to, causes" to death | noose is "related_to, at_location" to war | noose is "at_location, related_to" to factory | noose is "has_context" to uk | noose is "receives_action" to born | noose is "related_to, antonym" to go | noose is "at_location" to downtown | noose is "has_context" to engineering | noose is "related_to" to childbirth | noose is "related_to, at_location" to village</t>
+  </si>
+  <si>
+    <t>hand is "at_location, related_to, part_of" to finger | toe is "antonym, related_to, distinct_from, synonym, similar_to" to finger | trigger is "related_to" to finger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angel is "related_to" to buddha_nature | angel is "related_to, has_context" to peace | angel is "has_context, related_to" to bourignian | angel is "related_to" to crewe | angel is "related_to" to bursary | angel is "has_context" to sob | angel is "related_to, is_a" to sermon | angel is "related_to" to door | angel is "related_to" to markan | angel is "has_context" to package | angel is "related_to" to urim_and_thummim | angel is "has_context, desires" to bagel | angel is "related_to" to flying_spaghetti_monsterism | angel is "related_to, has_context" to amphictyon | angel is "synonym" to god_almighty | angel is "related_to, used_for" to celebration | angel is "not_desires" to confinement | angel is "has_context" to bowling | angel is "related_to, has_context" to evangelicalism | angel is "at_location, is_a" to fountain | angel is "related_to" to fashion | angel is "not_desires" to dirty_kitchen | angel is "related_to" to balebos | angel is "related_to" to japan | angel is "related_to" to above | angel is "related_to" to throne | angel is "related_to, is_a" to miner | angel is "capable_of, has_context" to fail | angel is "has_context" to buck | angel is "is_a" to our | angel is "related_to" to ointment | angel is "is_a" to mary_baker_eddy | angel is "related_to, has_context" to bullet | angel is "related_to, has_context" to east | angel is "has_context" to blank | angel is "related_to" to loa | angel is "at_location, related_to" to table | angel is "has_context" to adultery | angel is "is_a" to sex_worker | angel is "used_for" to have_sex | angel is "related_to" to euonym | angel is "related_to" to jurant | angel is "related_to, is_a" to owner | angel is "related_to" to neck | angel is "related_to, has_context" to break | angel is "not_desires" to exhausted | angel is "has_context, related_to" to hasidean | angel is "related_to" to denomination | angel is "related_to" to invocation | angel is "related_to, has_context" to mine | angel is "related_to" to transcendental_critique | angel is "derived_from, related_to, similar_to" to fallen | angel is "has_context, related_to" to bone | angel is "related_to, synonym, similar_to" to godly | angel is "related_to" to bedwardism | angel is "related_to" to macumba | angel is "related_to, has_context" to military | angel is "related_to, has_context" to mother | angel is "not_desires, has_context" to infamous | angel is "is_a" to observer | angel is "is_a, has_context" to dorcas | angel is "has_context, related_to, is_a" to double | angel is "related_to, has_context" to burgh_of_regality | angel is "related_to" to deicide | angel is "related_to, antonym, is_a" to stranger | angel is "at_location, related_to, antonym, has_context" to town | angel is "related_to, has_context" to deal | angel is "related_to" to two_legs | angel is "has_context" to paschal_lamb | angel is "has_context" to romantic | angel is "has_property" to concrete | angel is "desires" to intoxicated | angel is "related_to, has_context" to proprietarianism | angel is "related_to, not_desires" to fine | angel is "has_context, has_a, used_for, part_of, at_location, related_to" to bird | angel is "related_to" to chishti | angel is "has_context, related_to" to apple | angel is "is_a" to teacher | angel is "desires" to acknowledgement | angel is "related_to" to aeronautics | angel is "related_to" to sail | angel is "has_context" to clean_out | angel is "related_to" to werehog | angel is "has_context" to woodshed | angel is "has_context, desires, related_to" to speed | angel is "related_to" to abstract | angel is "part_of" to worthing | angel is "related_to" to xerophagy | angel is "has_context" to kilt | angel is "has_context, related_to" to bourgeois | angel is "related_to" to committee | angel is "has_context" to heretoga | angel is "has_context" to internet | angel is "related_to, manner_of, has_context" to make | angel is "related_to" to omnipotent | angel is "related_to" to sun | angel is "related_to" to princess | angel is "related_to" to wonder | angel is "related_to" to pneumatics | angel is "related_to" to yichud | angel is "related_to" to titular | angel is "related_to" to unholy_alliance | angel is "related_to" to hat | angel is "related_to" to human_touch | angel is "related_to" to veve | angel is "has_context" to self_flagellation | angel is "derived_from" to lore | angel is "related_to" to pattern | angel is "related_to, has_context" to musical_instrument | angel is "at_location" to westminster_abbey | angel is "has_context" to connexion | angel is "derived_from, related_to" to englishperson | angel is "related_to" to ancestor_worship | angel is "has_context" to common_law | angel is "related_to" to corn | angel is "related_to" to god_slot | angel is "is_a" to mongolian | angel is "related_to" to warm | angel is "related_to" to deification | angel is "related_to" to pentecostalism | angel is "has_context, related_to" to boy | angel is "derived_from" to psychospiritual | angel is "related_to, is_a" to seat | angel is "related_to" to enemy | angel is "related_to" to modernism | angel is "related_to, has_context" to strong | angel is "has_context" to warpath | angel is "related_to, is_a" to outsider | angel is "is_a, has_context" to writer | angel is "related_to, is_a" to officer | angel is "at_location" to opera | angel is "related_to" to concrete_noun | angel is "is_a" to cheater | angel is "related_to" to story | angel is "related_to" to illuminati | angel is "related_to" to midgard | angel is "has_context" to sky_daddy | angel is "has_context" to docetae | angel is "has_context, related_to" to hood | angel is "has_context" to method | angel is "not_desires, related_to" to age | angel is "at_location" to entrance_hall | angel is "has_context, is_a" to smoker | angel is "related_to" to church_tower | angel is "derived_from" to businessperson | angel is "is_a, related_to" to goddess | angel is "is_a" to friar | angel is "related_to" to felix_culpa | angel is "related_to, antonym, distinct_from" to alive | angel is "related_to" to medical_practitioner | angel is "related_to" to afford | angel is "related_to" to wayside_pulpit | angel is "has_context, related_to" to smoke | angel is "related_to" to halloween | angel is "not_desires" to go_to_church | angel is "related_to, is_a" to crispus | angel is "related_to, has_context" to bod | angel is "related_to" to gods | angel is "related_to" to psalm | angel is "desires" to congratulations | angel is "derived_from, related_to" to merperson | angel is "related_to, has_context" to bell | angel is "has_context" to rota | angel is "has_context, related_to" to prophesying | angel is "related_to, has_context" to asiarch | angel is "related_to" to monotheism | angel is "related_to" to other | angel is "not_desires" to stupidity | angel is "has_context, related_to, is_a" to picker | angel is "related_to" to demogorgon | angel is "not_desires" to struggle | angel is "related_to" to font | angel is "related_to" to eye | angel is "has_context" to keepsake | angel is "has_context" to pallium | angel is "is_a" to astronaut | angel is "related_to, is_a" to knell | angel is "related_to, antonym, is_a" to candidate | angel is "has_context" to zap | angel is "has_context, related_to" to nation | angel is "capable_of" to buy_food | angel is "related_to, antonym, has_context" to chicken | angel is "has_context, related_to" to black | angel is "related_to" to exorcize | angel is "related_to, is_a" to sandy | angel is "related_to" to telestic | angel is "has_context" to cosmism | angel is "distinct_from, antonym, is_a" to modern | angel is "has_context" to snuff | angel is "desires, related_to" to feet | angel is "has_context" to bumper | angel is "at_location" to genocide | angel is "desires, capable_of" to buy_car | angel is "has_context" to terminalia | angel is "desires, related_to" to move | angel is "related_to" to pride | angel is "related_to" to emotion | angel is "related_to" to irreligiously | angel is "related_to" to canonical_hour | angel is "capable_of" to eat_spaghetti | angel is "related_to" to established_church | angel is "synonym, not_desires, related_to" to immortal | angel is "has_context" to new_christian | angel is "has_context" to pedagogue | angel is "related_to" to godforsaken | angel is "has_context" to exarch | angel is "related_to" to possess | angel is "related_to" to franciscan | angel is "related_to" to penis | angel is "related_to" to laying_on_of_hands | angel is "related_to" to utopia | angel is "is_a, related_to" to fallen_angel | angel is "desires, related_to" to faith | angel is "related_to" to loop | angel is "derived_from" to gentlebeing | angel is "related_to" to miraculism | angel is "is_a" to religious_song | angel is "related_to" to part | angel is "related_to" to store | angel is "has_context" to rotation | angel is "related_to, has_context" to dogs | angel is "related_to, synonym" to holy_writ | angel is "related_to, has_context" to hypostasis | angel is "related_to, has_context" to grammar | angel is "not_desires" to scapegoat | angel is "related_to, has_context" to issue | angel is "related_to, synonym, has_context" to devil | angel is "has_context" to prior | angel is "not_desires" to do_laundry | angel is "related_to" to anthozoa | angel is "is_a, has_context" to ava | angel is "desires" to sincere | angel is "related_to, has_property" to one | angel is "antonym" to motion | angel is "has_context" to linguistics | angel is "related_to" to sabellian | angel is "related_to, is_a" to seeker | angel is "related_to" to assess | angel is "related_to, is_a, not_desires" to authority | angel is "related_to, has_context" to establishment | angel is "has_context, related_to, is_a" to aa | angel is "related_to" to sunday_school | angel is "is_a" to active | angel is "desires, related_to, is_a" to quality | angel is "related_to" to narten_present | angel is "has_context" to luciferian | angel is "at_location" to bus_stop | angel is "not_desires, desires, distinct_from" to to | angel is "has_context" to heave_shoulder | angel is "related_to" to classification | angel is "related_to" to dipteral | angel is "related_to" to religious_education | angel is "capable_of" to gain_knowledge | angel is "at_location, related_to, has_context" to queen | angel is "is_a" to fundraiser | angel is "has_context, related_to" to mayor | angel is "related_to" to tantra | angel is "related_to" to blossom | angel is "related_to" to money_supply | angel is "synonym" to word_of_god | angel is "has_context" to devotee | angel is "antonym, is_a, related_to" to desert | angel is "related_to" to novitiate | angel is "is_a" to maltese | angel is "has_context" to hanger_on | angel is "related_to" to pastafarianism | angel is "related_to, form_of" to heavens | angel is "related_to, has_context" to chief | angel is "has_context" to darrein | angel is "related_to" to alien_priory | angel is "synonym" to reverent | angel is "related_to" to finish | angel is "has_context" to ranter | angel is "related_to, has_context" to teetotum | angel is "related_to" to christmas | angel is "related_to" to uncleanly | angel is "distinct_from, at_location, related_to" to building | angel is "is_a" to magyar | angel is "related_to, is_a" to star | angel is "has_context" to kesh | angel is "is_a" to andrew | angel is "is_a" to martin_luther | angel is "related_to" to minyan | angel is "related_to" to candle | angel is "related_to, is_a" to islander | angel is "related_to, is_a, has_context" to coin | angel is "related_to" to westport | angel is "desires" to enjoy | angel is "related_to" to ea | angel is "related_to" to another | angel is "related_to" to salvatorian | angel is "related_to" to flagellant | angel is "is_a" to acquirer | angel is "related_to, is_a" to raphael | angel is "related_to, has_context" to root | angel is "has_context" to encloser | angel is "related_to" to revere | angel is "has_context" to ophite | angel is "is_a" to tabu | angel is "has_context" to reject | angel is "used_for, at_location, capable_of, related_to, has_context" to ring | angel is "has_context, used_for" to transportation | angel is "not_desires, desires, created_by, at_location, distinct_from, derived_from, related_to, antonym, is_a, synonym" to god | angel is "used_for, desires" to celebrate | angel is "has_context, related_to" to cresselle | angel is "has_context, related_to, is_a" to bull | angel is "has_context" to union | angel is "related_to" to telephone | angel is "related_to" to judeo_christian | angel is "related_to" to hostie | angel is "at_location, related_to" to characteristic | angel is "has_context" to slash | angel is "related_to, has_context, part_of" to minute | angel is "related_to" to practice | angel is "has_context" to propylaeum | angel is "related_to" to writing | angel is "has_context" to nonstandard | angel is "is_a" to heterosexual | angel is "related_to" to hagiotherapy | angel is "part_of, is_a" to human_body | angel is "related_to" to cloister | angel is "related_to" to flabellum | angel is "related_to" to winegrower | angel is "has_context" to flatter | angel is "related_to, has_property" to cool | angel is "not_desires" to misfortune | angel is "related_to" to replicant | angel is "related_to, is_a, synonym" to army | angel is "related_to" to resacralization | angel is "related_to" to shell | angel is "has_context" to v | angel is "related_to" to genesis | angel is "related_to" to savingness | angel is "related_to" to etiquette | angel is "related_to" to appropriator | angel is "related_to, has_context" to rap | angel is "at_location, related_to, synonym" to united_states | angel is "has_context, related_to" to dunny | angel is "related_to" to article | angel is "has_context" to handle | angel is "has_context" to fetial | angel is "used_for" to social_interaction | angel is "related_to" to yoga | angel is "related_to, similar_to" to buzz | angel is "related_to" to westminster_cathedral | angel is "has_context, related_to" to tithing | angel is "related_to" to trope | angel is "related_to, has_context, etymologically_related_to" to ninja | angel is "has_context, has_a, part_of, at_location, related_to" to mouth | angel is "has_context, at_location" to drawer | angel is "related_to" to governing | angel is "related_to" to agent | angel is "related_to" to folk_religion | angel is "has_context" to hicksite | angel is "is_a" to chinese | angel is "related_to, is_a" to presence | angel is "at_location, related_to, has_context" to floor | angel is "related_to" to beelzebub | angel is "related_to" to physician | angel is "related_to" to dereligionize | angel is "related_to" to sodom | angel is "related_to" to tradition | angel is "related_to" to anointing_of_sick | angel is "related_to" to slut_shaming | angel is "related_to, is_a" to priest | angel is "related_to, has_context, desires" to mail | angel is "derived_from, related_to, is_a" to american | angel is "related_to, similar_to" to ambrosial | angel is "has_context" to happening | angel is "distinct_from, antonym, related_to" to earth | angel is "related_to" to ser | angel is "related_to" to slogan | angel is "has_context, related_to" to twist | angel is "is_a" to appointment | angel is "related_to" to temple_in_jerusalem | angel is "related_to" to purity_ring | angel is "related_to" to pentecostal | angel is "related_to" to seraph | angel is "is_a" to karbis | angel is "related_to, synonym" to holy_man | angel is "related_to, is_a" to household_deity | angel is "related_to" to karakia | angel is "related_to" to carbon_footprint | angel is "part_of, related_to" to ipswich | angel is "not_desires, is_a" to alcoholic | angel is "motivated_by_goal" to go_to_school | angel is "related_to" to freehold | angel is "not_desires, related_to" to flame | angel is "used_for, desires, related_to" to jewelry | angel is "desires" to light | angel is "related_to" to describing | angel is "has_context, related_to" to command | angel is "related_to" to evangelical | angel is "related_to, has_context" to judaism | angel is "has_context" to shetlandic | angel is "desires" to forgiveness | angel is "related_to" to cheat | angel is "not_desires" to anger | angel is "related_to, is_a, has_context" to ben | angel is "not_desires" to dirt | angel is "has_context, used_for, related_to" to kite | angel is "is_a" to computer_user | angel is "related_to, synonym" to cant | angel is "desires" to admiration | angel is "related_to" to sakawa | angel is "related_to" to e_meter | angel is "not_desires" to happiness | angel is "desires" to expressive | angel is "related_to" to creed | angel is "related_to" to karezza | angel is "has_context, is_a" to batman | angel is "related_to, has_context" to soft | angel is "related_to" to solution | angel is "related_to" to middle | angel is "desires, related_to" to with | angel is "has_context" to hook_up | angel is "antonym, related_to" to irreligious | angel is "desires" to elegant | angel is "is_a" to tajik | angel is "is_a" to sergei_diaghilev | angel is "related_to" to generic | angel is "related_to" to blasphemy | angel is "related_to, is_a, has_context, derived_from, at_location" to fish | angel is "has_context" to beadhouse | angel is "related_to" to term | angel is "used_for" to loving | angel is "is_a" to watch | angel is "has_context" to foresentence | angel is "related_to" to pluriversity | angel is "related_to" to saurian | angel is "related_to" to omnibenevolent | angel is "is_a" to arius | angel is "related_to, is_a" to worldling | angel is "related_to" to squirrel | angel is "at_location, related_to, is_a" to spirit | angel is "is_a" to thomas_jefferson | angel is "related_to" to running | angel is "related_to" to may | angel is "related_to" to millennium | angel is "related_to, has_context" to charge | angel is "related_to" to incarnate | angel is "is_a" to proposition | angel is "synonym, related_to" to branch | angel is "has_context, is_a, related_to" to crown | angel is "has_context" to go | angel is "has_context" to arian | angel is "has_context, related_to" to beast | angel is "has_context" to zero | angel is "related_to, is_a, has_context" to organ | angel is "desires" to agreement | angel is "is_a" to godfather | angel is "has_context" to drighten | angel is "related_to" to jonestown | angel is "at_location" to conference | angel is "related_to" to scent | angel is "related_to" to thunder | angel is "has_context" to mohatra | angel is "has_context" to pontus | angel is "at_location, related_to" to hospital | angel is "has_context" to beadsman | angel is "is_a, has_context" to gobryas | angel is "related_to" to venerable | angel is "related_to" to necrophagia | angel is "has_context" to connect | angel is "is_a" to liberalism | angel is "distinct_from, related_to, is_a" to human | angel is "related_to, is_a" to worker | angel is "related_to, has_context" to pagoda | angel is "not_desires" to bosses | angel is "related_to, is_a" to men | angel is "derived_from" to antireligious | angel is "related_to" to filling | angel is "is_a" to moses | angel is "derived_from" to ungodly | angel is "related_to, has_context" to ordinary | angel is "has_context, distinct_from, capable_of, related_to, antonym" to hand | angel is "derived_from" to archdevil | angel is "has_context" to lustrum | angel is "related_to" to any | angel is "related_to" to theomatics | angel is "related_to" to primate | angel is "has_context, is_a" to antipater | angel is "related_to" to vacuum | angel is "related_to" to structure | angel is "has_context" to india | angel is "has_context" to sad | angel is "has_context" to old_man | angel is "related_to, is_a" to stag | angel is "has_context, related_to" to fool | angel is "related_to" to age_of_reason | angel is "related_to" to epistle_lesson | angel is "related_to" to branch_davidian | angel is "is_a, related_to" to sort | angel is "has_context, at_location, related_to" to church | angel is "related_to" to anastenaria | angel is "related_to" to orange_order | angel is "related_to" to sacerdotalism | angel is "related_to" to christer | angel is "has_context" to modius | angel is "is_a" to multiethnic_person | angel is "has_context" to tab | angel is "related_to" to infidelity | angel is "capable_of" to drop_ball | angel is "is_a, has_context" to nana | angel is "related_to" to iconometry | angel is "related_to, has_context" to mediocre | angel is "related_to" to spiritual_awakening | angel is "related_to" to hamlet | angel is "related_to" to consessus | angel is "has_context, is_a, related_to" to player | angel is "related_to" to canonized | angel is "is_a, has_context" to spring | angel is "is_a, related_to" to female | angel is "related_to" to sun_worshipper | angel is "related_to" to two | angel is "has_context" to armenia | angel is "derived_from, related_to, has_context" to up | angel is "capable_of" to laugh_about_joke | angel is "related_to" to oil | angel is "distinct_from, related_to" to proper | angel is "is_a" to ceo | angel is "desires" to flowers | angel is "related_to, antonym, is_a" to woman | angel is "related_to" to acharya | angel is "related_to" to infinite | angel is "related_to" to antigod | angel is "derived_from" to suprareligious | angel is "distinct_from, related_to" to immortality | angel is "related_to" to fear | angel is "has_context" to trap | angel is "related_to, desires" to salvation | angel is "has_context, related_to, is_a" to farmer | angel is "related_to" to capacocha | angel is "has_context" to utas | angel is "related_to" to transmit | angel is "has_context, related_to" to log | angel is "related_to, has_context" to hedge_sermon | angel is "related_to" to who | angel is "has_context, related_to" to petrobrusian | angel is "related_to" to missioneering | angel is "not_desires" to owe | angel is "related_to, is_a" to center | angel is "has_context, related_to" to ana | angel is "has_context, desires, related_to" to hold | angel is "has_context" to haugean | angel is "has_context, related_to" to hemerobaptist | angel is "related_to" to kind | angel is "related_to" to safe_haven | angel is "form_of, related_to" to virtues | angel is "related_to" to mahound | angel is "related_to" to price | angel is "has_context" to cush | angel is "related_to" to tailor | angel is "is_a" to advocate | angel is "is_a" to herder | angel is "has_context" to rm | angel is "is_a" to ukrainian | angel is "is_a, related_to" to mercy_seat | angel is "derived_from" to divine_right | angel is "related_to, has_context" to watchnight | angel is "related_to" to reconstructionism | angel is "related_to, has_context" to horse | angel is "has_context" to seth_name | angel is "related_to" to campbellite | angel is "not_desires" to rash | angel is "related_to" to ursuline | angel is "related_to" to sola_scriptura | angel is "has_context, related_to, is_a" to lion | angel is "has_context" to paean | angel is "related_to, has_context" to provision | angel is "related_to" to hurley | angel is "derived_from, related_to" to religiously | angel is "has_context, related_to" to broken | angel is "related_to, at_location" to tenor | angel is "part_of" to north_america | angel is "related_to" to his_holiness | angel is "related_to" to sethian | angel is "related_to" to rear | angel is "is_a" to fugitive | angel is "related_to" to hindustani | angel is "related_to" to device | angel is "is_a" to syriac | angel is "has_context" to trash | angel is "related_to, has_context" to battle_of_britain | angel is "related_to" to nuwaubianism | angel is "related_to, has_context, part_of" to great_britain | angel is "has_context" to football | angel is "related_to" to water_carrier | angel is "has_context" to behemoth | angel is "related_to" to surprise | angel is "related_to" to model | angel is "related_to" to humans | angel is "related_to" to ultimate | angel is "related_to" to charm | angel is "related_to" to image | angel is "related_to, has_context" to flash | angel is "related_to, has_context" to hobson_jobson | angel is "has_last_subevent, related_to" to cover | angel is "derived_from" to interbeing | angel is "etymologically_related_to, related_to, synonym" to holy_spirit | angel is "desires" to interaction | angel is "related_to" to call_originator | angel is "related_to, is_a" to theist | angel is "related_to, not_desires, has_context" to hide | angel is "related_to" to koukoulion | angel is "related_to" to eid | angel is "related_to" to bee | angel is "related_to" to holy_ghost | angel is "is_a, related_to" to witness | angel is "is_a" to illegal_alien | angel is "has_context" to marprelatist | angel is "related_to, not_desires" to target | angel is "related_to" to renewalism | angel is "has_context" to acroamatic | angel is "has_context" to resurrectionist | angel is "related_to, synonym" to historic | angel is "has_context" to gdi | angel is "is_a" to relative | angel is "has_context, related_to, synonym, similar_to" to spiritual | angel is "has_context, related_to" to string | angel is "related_to" to manner | angel is "related_to" to every | angel is "desires" to esteem | angel is "has_context" to flandrian | angel is "related_to, has_context" to christianese | angel is "has_context" to lift | angel is "related_to" to rest | angel is "related_to" to new_lighter | angel is "related_to" to martinism | angel is "has_context, related_to, is_a" to sabaoth | angel is "related_to" to jehovah's_witnesses | angel is "related_to, is_a, has_context" to goat | angel is "related_to" to weather | angel is "related_to" to higher_power | angel is "related_to" to political | angel is "related_to" to godcast | angel is "related_to" to epicene | angel is "related_to, has_context" to see_light | angel is "has_context" to tithingman | angel is "related_to, antonym, is_a" to house | angel is "related_to" to providence | angel is "derived_from, related_to" to powerful | angel is "related_to, has_context" to concession | angel is "related_to" to radha_soami | angel is "related_to" to hierophobia | angel is "related_to" to rogue | angel is "related_to, is_a" to agnostic | angel is "related_to" to please | angel is "is_a" to cooperation | angel is "has_context" to pillarist | angel is "has_context" to knock_up | angel is "derived_from" to panspiritual | angel is "related_to" to important | angel is "is_a" to charles | angel is "desires" to praised | angel is "related_to" to scandal | angel is "related_to" to yen | angel is "has_context" to slide | angel is "related_to" to anythingarian | angel is "related_to" to juristic_act | angel is "not_desires" to envy | angel is "related_to" to cope | angel is "related_to" to megaministry | angel is "related_to" to werewolf | angel is "related_to" to alhajia | angel is "desires" to praise | angel is "has_context, part_of, related_to" to old_testament | angel is "related_to" to official | angel is "related_to" to theological_virtues | angel is "has_context" to trophy | angel is "related_to" to chapel | angel is "has_context" to based | angel is "related_to, is_a" to ptolemy | angel is "related_to, is_a" to sphinx | angel is "desires" to informed | angel is "related_to, synonym, part_of" to mind | angel is "is_a" to frenzy | angel is "related_to" to sanctify | angel is "related_to" to xenophanes | angel is "has_context, related_to, is_a" to stock | angel is "desires, related_to, is_a" to education | angel is "has_context" to enter | angel is "has_context, related_to" to mumbo_jumbo | angel is "related_to" to vocation | angel is "related_to" to beckon | angel is "related_to, has_context, is_a" to pope | angel is "has_context, related_to" to pronoia | angel is "has_context" to lectisternium | angel is "derived_from" to clergyperson | angel is "related_to" to logion | angel is "related_to" to demonolatrous | angel is "has_context" to mortify | angel is "is_a, related_to" to control | angel is "has_context, at_location, related_to" to plate | angel is "has_context" to come | angel is "related_to" to vayu | angel is "desires, related_to, is_a" to creativity | angel is "has_context, related_to" to beguine | angel is "related_to" to judgment_call | angel is "has_context" to paludamentum | angel is "related_to, is_a" to student | angel is "has_context" to tag_day | angel is "has_context" to atheism | angel is "has_context" to roman | angel is "has_context, related_to" to second | angel is "has_context, related_to" to fantasy | angel is "related_to, has_context" to sd | angel is "is_a, has_context" to jumper | angel is "related_to, is_a, part_of" to london | angel is "is_a" to assets | angel is "related_to" to placement | angel is "related_to" to revealed_religion | angel is "related_to, is_a" to celebrant | angel is "is_a" to welsh_argentine | angel is "related_to" to moravianism | angel is "has_context" to ajax | angel is "related_to" to symbol | angel is "motivated_by_goal, related_to" to kill | angel is "related_to" to high_altar | angel is "related_to, is_a" to elysium | angel is "related_to" to women | angel is "is_a" to homunculus | angel is "related_to" to harrisburg | angel is "capable_of, related_to" to taste | angel is "has_context" to congius | angel is "related_to, has_context" to blue | angel is "related_to, is_a" to window | angel is "related_to, is_a" to birth | angel is "related_to, is_a" to luna | angel is "related_to" to tolerantist | angel is "related_to, antonym, has_context" to mundane | angel is "derived_from, related_to" to spiritualness | angel is "related_to" to undeify | angel is "related_to" to behaviour | angel is "has_context, related_to, is_a" to sphere | angel is "desires" to evidence | angel is "is_a" to affiant | angel is "has_context" to mantlet | angel is "related_to" to always | angel is "is_a, related_to" to amen | angel is "related_to, has_context" to skip | angel is "related_to, has_context" to tongue | angel is "has_context" to walk_hospitals | angel is "related_to" to temporal | angel is "has_context" to tao | angel is "related_to, antonym" to group | angel is "has_context" to nonjurorism | angel is "related_to" to functionalism | angel is "related_to" to yarmulke | angel is "related_to, has_context" to clicker | angel is "related_to, has_a, desires" to value | angel is "related_to" to captain | angel is "desires, related_to" to consistency | angel is "has_context" to offertory | angel is "has_context" to few | angel is "has_context" to decretalism | angel is "related_to" to techno_shamanism | angel is "is_a, has_context, related_to" to citizen | angel is "related_to" to halal | angel is "has_context" to marian | angel is "has_context" to morrisite | angel is "has_context" to priscillianist | angel is "is_a" to killing | angel is "is_a" to property | angel is "related_to" to agape | angel is "is_a" to communist | angel is "is_a" to liver | angel is "related_to" to come_outer | angel is "is_a, has_context" to sport | angel is "desires" to find | angel is "related_to" to beggar | angel is "related_to" to house_of_god | angel is "derived_from" to vestryperson | angel is "has_context" to campbellism | angel is "related_to" to orphism | angel is "related_to" to prospect | angel is "has_context" to choice | angel is "related_to" to ordeal | angel is "related_to" to barakah | angel is "is_a" to friends | angel is "related_to" to predict | angel is "related_to" to chinese_buddhism | angel is "related_to" to virtue | angel is "desires" to luck | angel is "related_to, has_context" to tap | angel is "related_to" to tlaloc | angel is "related_to, synonym" to chastity | angel is "has_context" to seah | angel is "desires" to meaning | angel is "related_to" to sadhana | angel is "not_desires" to judgement | angel is "related_to" to harikatha | angel is "is_a" to vintner | angel is "related_to" to keswickism | angel is "created_by, related_to" to sentence | angel is "not_desires" to blown_up | angel is "related_to, similar_to" to unworldly | angel is "related_to, has_context" to bliss_ninny | angel is "related_to" to mechanism | angel is "is_a" to guru1 | angel is "related_to" to system | angel is "desires" to needed | angel is "related_to" to anabaptist | angel is "distinct_from, related_to, antonym, has_context" to dead | angel is "related_to" to bishop | angel is "related_to, is_a" to possibility | angel is "related_to" to quiche_eater | angel is "related_to" to advertisement | angel is "capable_of" to sprint | angel is "is_a" to billionaire | angel is "related_to, has_context" to georgian | angel is "at_location, is_a, not_desires" to truth | angel is "related_to" to modekngei | angel is "related_to, is_a" to dresser | angel is "related_to" to gospel_music | angel is "related_to" </t>
+  </si>
+  <si>
+    <t>cello is "related_to" to bayonet | cello is "has_context" to slide | cello is "related_to, at_location" to band | cello is "related_to, synonym" to shank | cello is "related_to" to australia | cello is "related_to" to electrotome | cello is "has_context, related_to, derived_from" to finger | cello is "is_a, related_to" to like | cello is "related_to, at_location" to guillotine | cello is "has_context" to british | cello is "related_to, is_a" to wristband | cello is "related_to" to steak | cello is "related_to, capable_of" to heal | cello is "related_to, is_a, has_context" to stick | cello is "related_to" to bronchotome | cello is "related_to, at_location" to human | cello is "related_to" to otoscope | cello is "related_to" to selection | cello is "related_to" to pass | cello is "related_to" to film | cello is "related_to" to calculifrage | cello is "related_to, is_a, used_for" to computer | cello is "has_context" to chop_up | cello is "related_to" to round | cello is "has_context" to fencing | cello is "has_context, related_to" to put | cello is "is_a, related_to" to weapon | cello is "synonym, has_context" to medicine | cello is "derived_from" to board | cello is "has_context, is_a, related_to" to bow | cello is "related_to" to hand | cello is "related_to" to aid | cello is "has_context, related_to" to table | cello is "related_to, part_of" to saddle | cello is "related_to" to line | cello is "derived_from, is_a, at_location, synonym, capable_of, has_context, used_for, related_to" to instrument | cello is "related_to" to gun | cello is "related_to" to filler | cello is "related_to" to gorget | cello is "related_to" to encephaloscope | cello is "has_context, related_to" to plate | cello is "at_location, has_context, related_to" to neck | cello is "has_context, related_to" to wood | cello is "related_to, is_a" to structure | cello is "related_to, has_context" to break | cello is "related_to" to cravat | cello is "derived_from" to band_aid | cello is "related_to" to class | cello is "related_to" to top | cello is "related_to, is_a, has_context, used_for" to clavichord | cello is "related_to, synonym, has_context" to movement | cello is "has_context" to sharp | cello is "has_context, related_to, is_a" to metal | cello is "has_context, related_to" to architecture | cello is "related_to, manner_of" to remove | cello is "has_context, related_to" to sax | cello is "has_context" to reduction | cello is "has_context" to pit | cello is "related_to" to kill | cello is "related_to, is_a" to edge | cello is "related_to" to scissible | cello is "has_context, related_to" to point | cello is "related_to, synonym" to reverse | cello is "derived_from" to cup | cello is "related_to" to deep | cello is "related_to" to bioptome | cello is "has_context" to hit | cello is "at_location, related_to, has_context" to steel | cello is "related_to" to sometimes | cello is "related_to" to shape | cello is "has_context, related_to" to action | cello is "related_to" to tonsilotome | cello is "related_to" to morcellator | cello is "related_to" to fascia | cello is "is_a" to opening | cello is "related_to" to cell | cello is "has_context, related_to" to root | cello is "related_to, has_context, used_for" to flat | cello is "has_context" to skip | cello is "related_to, has_context" to tongue | cello is "related_to, has_context" to open | cello is "related_to" to capsulotome | cello is "has_context" to fine | cello is "has_context, related_to" to related | cello is "related_to" to retractor | cello is "related_to, has_context" to player | cello is "part_of, is_a, has_context" to section | cello is "at_location, related_to, part_of" to body | cello is "has_context" to mass | cello is "related_to" to performance | cello is "related_to, is_a" to joint | cello is "is_a" to hurts | cello is "at_location, related_to, part_of" to road | cello is "has_context, related_to" to make | cello is "related_to" to audio | cello is "related_to" to ecraseur | cello is "part_of, related_to" to small | cello is "related_to" to sling | cello is "related_to" to size | cello is "related_to" to metrotome | cello is "has_last_subevent, has_subevent" to perform | cello is "is_a" to user_powered_device | cello is "related_to" to papillotome | cello is "related_to, has_context" to box | cello is "has_context" to shuffle | cello is "related_to, antonym" to act | cello is "related_to" to nephroscope | cello is "related_to" to stitch | cello is "is_a, distinct_from, related_to, antonym" to side | cello is "related_to, has_context" to forte | cello is "related_to" to hasp | cello is "is_a" to stroke | cello is "related_to" to burn | cello is "related_to" to dog | cello is "related_to" to bevel | cello is "has_context" to slang | cello is "has_context" to us | cello is "related_to" to blade | cello is "related_to, has_context" to beat | cello is "related_to" to cadrans | cello is "related_to" to repositor | cello is "has_context" to sports | cello is "related_to" to trephine | cello is "related_to" to rongeur | cello is "has_a, at_location, related_to" to cd | cello is "is_a, has_context" to ligature | cello is "related_to" to propeller | cello is "related_to" to bulldog_clip | cello is "is_a, manner_of" to scrape | cello is "related_to" to tap | cello is "at_location" to canal | cello is "related_to" to escape | cello is "related_to" to remora | cello is "related_to" to form | cello is "synonym" to cat's_paw | cello is "related_to" to tooth | cello is "related_to" to cloth | cello is "related_to, has_context" to score | cello is "has_context, related_to" to transition | cello is "related_to" to handle | cello is "related_to" to forceps | cello is "has_context" to hammer | cello is "antonym, related_to" to record | cello is "related_to" to cystotome | cello is "related_to" to stethoscope | cello is "has_context" to split | cello is "has_context" to engraving | cello is "has_context" to breaking | cello is "has_context, derived_from" to kickback | cello is "has_context" to sharpen | cello is "has_context" to tuck | cello is "related_to, derived_from, distinct_from, has_context" to stop | cello is "related_to, has_context" to leg | cello is "related_to" to microcautery | cello is "has_context" to analysis | cello is "related_to" to use | cello is "has_context" to splice_edit | cello is "has_context" to handicraft | cello is "synonym" to look | cello is "has_context, is_a, related_to" to whip | cello is "related_to" to sheet | cello is "synonym" to draw | cello is "form_of, has_context" to do | cello is "related_to" to food | cello is "is_a, at_location, has_context, related_to" to air | cello is "related_to" to saw | cello is "related_to, is_a, synonym, used_for" to tool | cello is "related_to, is_a" to device | cello is "has_context, related_to, synonym" to stem | cello is "related_to" to lance | cello is "related_to, has_context" to drill | cello is "related_to, is_a, at_location" to pain | cello is "related_to" to utensil | cello is "related_to, has_context" to produce | cello is "is_a" to cautery | cello is "has_context" to axe | cello is "related_to, synonym" to apparatus | cello is "has_context" to cleaver | cello is "has_context" to stab | cello is "related_to" to microkeratome | cello is "has_context, related_to" to track | cello is "has_context" to scratch | cello is "related_to" to uvulatome | cello is "related_to" to leaf | cello is "related_to" to plane | cello is "has_context" to computing | cello is "related_to" to lanyard | cello is "related_to, is_a" to cut | cello is "is_a" to miss | cello is "made_of, related_to, part_of, is_a" to song | cello is "related_to, is_a" to activity | cello is "has_context, related_to" to divide | cello is "related_to" to bill | cello is "has_context, related_to" to minor | cello is "has_context" to cater | cello is "related_to, is_a" to card_game | cello is "related_to" to separatory | cello is "has_context" to kitchen | cello is "is_a" to collectable | cello is "related_to" to together | cello is "at_location" to operating_room | cello is "at_location" to fork | cello is "related_to, has_context" to staff | cello is "related_to, manner_of" to move | cello is "at_location" to theatre | cello is "related_to" to fight | cello is "manner_of, related_to" to switch | cello is "has_context" to oblique | cello is "related_to" to probe | cello is "has_context, related_to" to division | cello is "related_to" to passage | cello is "related_to" to slip | cello is "related_to" to memory | cello is "related_to" to protractor | cello is "related_to" to cephalotome | cello is "related_to" to speculum | cello is "related_to" to cross | cello is "related_to" to paper | cello is "has_context" to shred | cello is "has_context" to botany | cello is "related_to" to written | cello is "related_to" to french | cello is "has_context, related_to, derived_from, at_location" to tail | cello is "at_location, has_context, related_to" to shoulder | cello is "has_context" to partition | cello is "related_to, derived_from" to bandsaw | cello is "related_to" to ball | cello is "related_to" to dj | cello is "has_context" to biology | cello is "related_to, is_a" to part | cello is "has_context" to swing | cello is "related_to" to term | cello is "related_to" to napkin | cello is "related_to" to stump | cello is "causes_desire" to skate | cello is "causes" to job | cello is "manner_of" to join | cello is "related_to" to iridectome | cello is "related_to" to transit | cello is "has_context, related_to" to wrest | cello is "related_to" to fourchette | cello is "related_to" to scissors | cello is "related_to" to scarificator | cello is "related_to" to lithotome | cello is "related_to" to chondrotome | cello is "related_to" to rugine | cello is "is_a, at_location, related_to" to knife | cello is "related_to" to tracheotome | cello is "has_context" to gradation | cello is "has_context" to boxing | cello is "related_to" to erisophake | cello is "has_context" to motion | cello is "related_to" to butteris | cello is "related_to, form_of" to frogs | cello is "related_to" to pharyngotome | cello is "related_to" to result | cello is "related_to" to laryngotome | cello is "related_to, at_location" to bat | cello is "has_context" to tanto | scalpel is "is_a, manner_of, related_to" to bayonet | scalpel is "related_to" to slide | scalpel is "is_a, related_to" to band | scalpel is "is_a" to shank | scalpel is "has_context" to australia | scalpel is "related_to, has_context" to electrotome | scalpel is "at_location, related_to" to finger | scalpel is "related_to" to like | scalpel is "related_to" to guillotine | scalpel is "has_context" to british | scalpel is "related_to" to wristband | scalpel is "is_a, receives_action" to steak | scalpel is "antonym" to heal | scalpel is "related_to" to stick | scalpel is "has_context" to bronchotome | scalpel is "related_to" to human | scalpel is "is_a" to otoscope | scalpel is "related_to" to selection | scalpel is "manner_of" to pass | scalpel is "has_context" to film | scalpel is "has_context" to calculifrage | scalpel is "related_to" to computer | scalpel is "related_to" to chop_up | scalpel is "related_to" to round | scalpel is "has_context" to fencing | scalpel is "antonym" to put | scalpel is "is_a, related_to" to weapon | scalpel is "has_context" to medicine | scalpel is "related_to" to board | scalpel is "related_to" to bow | scalpel is "related_to" to hand | scalpel is "related_to" to aid | scalpel is "at_location, related_to" to table | scalpel is "is_a, related_to" to saddle | scalpel is "related_to" to line | scalpel is "used_for, related_to" to instrument | scalpel is "antonym" to gun | scalpel is "related_to" to filler | scalpel is "related_to, has_context" to gorget | scalpel is "has_context" to encephaloscope | scalpel is "used_for, at_location, related_to" to plate | scalpel is "is_a" to neck | scalpel is "related_to, receives_action" to wood | scalpel is "is_a" to structure | scalpel is "related_to" to break | scalpel is "has_context" to cravat | scalpel is "related_to" to band_aid | scalpel is "related_to" to class | scalpel is "related_to" to top | scalpel is "related_to" to clavichord | scalpel is "is_a, related_to" to movement | scalpel is "related_to, receives_action" to sharp | scalpel is "related_to, receives_action" to metal | scalpel is "has_context" to architecture | scalpel is "related_to" to remove | scalpel is "related_to" to sax | scalpel is "related_to" to reduction | scalpel is "related_to" to pit | scalpel is "capable_of, related_to" to kill | scalpel is "related_to" to edge | scalpel is "related_to" to scissible | scalpel is "related_to, part_of" to point | scalpel is "has_context" to reverse | scalpel is "has_context" to cup | scalpel is "related_to" to deep | scalpel is "related_to" to bioptome | scalpel is "manner_of" to hit | scalpel is "related_to, made_of" to steel | scalpel is "related_to" to sometimes | scalpel is "related_to" to shape | scalpel is "related_to" to action | scalpel is "has_context" to tonsilotome | scalpel is "has_context" to morcellator | scalpel is "related_to" to fascia | scalpel is "is_a, related_to, used_for" to opening | scalpel is "related_to" to cell | scalpel is "related_to" to root | scalpel is "related_to" to flat | scalpel is "synonym" to skip | scalpel is "related_to, synonym" to tongue | scalpel is "related_to" to open | scalpel is "has_context" to capsulotome | scalpel is "related_to" to fine | scalpel is "related_to" to related | scalpel is "related_to" to retractor | scalpel is "related_to" to player | scalpel is "derived_from, has_context, related_to, synonym" to section | scalpel is "related_to" to body | scalpel is "related_to" to mass | scalpel is "related_to" to performance | scalpel is "related_to" to joint | scalpel is "related_to" to hurts | scalpel is "related_to" to road | scalpel is "manner_of" to make | scalpel is "has_context, related_to" to audio | scalpel is "related_to, has_context" to ecraseur | scalpel is "related_to" to small | scalpel is "is_a" to sling | scalpel is "related_to" to size | scalpel is "has_context" to metrotome | scalpel is "related_to, manner_of" to perform | scalpel is "is_a" to user_powered_device | scalpel is "has_context, related_to" to papillotome | scalpel is "related_to" to box | scalpel is "manner_of" to shuffle | scalpel is "related_to" to act | scalpel is "has_context" to nephroscope | scalpel is "antonym, related_to" to stitch | scalpel is "is_a" to side | scalpel is "related_to" to forte | scalpel is "related_to" to hasp | scalpel is "is_a, related_to" to stroke | scalpel is "synonym, has_context" to burn | scalpel is "distinct_from" to dog | scalpel is "manner_of" to bevel | scalpel is "has_context" to slang | scalpel is "has_context" to us | scalpel is "part_of, related_to, used_for" to blade | scalpel is "related_to" to beat | scalpel is "related_to" to cadrans | scalpel is "has_context" to repositor | scalpel is "has_context" to sports | scalpel is "related_to" to trephine | scalpel is "has_context" to rongeur | scalpel is "related_to" to cd | scalpel is "has_context" to ligature | scalpel is "part_of, related_to" to propeller | scalpel is "has_context" to bulldog_clip | scalpel is "related_to" to scrape | scalpel is "manner_of, related_to" to tap | scalpel is "related_to, is_a" to canal | scalpel is "related_to" to escape | scalpel is "has_context" to remora | scalpel is "related_to" to form | scalpel is "related_to" to cat's_paw | scalpel is "related_to" to tooth | scalpel is "receives_action" to cloth | scalpel is "is_a, related_to" to score | scalpel is "is_a" to transition | scalpel is "antonym, related_to" to handle | scalpel is "related_to" to forceps | scalpel is "related_to" to hammer | scalpel is "manner_of, related_to" to record | scalpel is "has_context, related_to" to cystotome | scalpel is "is_a" to stethoscope | scalpel is "related_to, similar_to" to split | scalpel is "is_a, used_for" to engraving | scalpel is "related_to, used_for" to breaking | scalpel is "related_to" to kickback | scalpel is "related_to" to sharpen | scalpel is "has_context" to tuck | scalpel is "related_to, manner_of" to stop | scalpel is "is_a" to leg | scalpel is "has_context" to microcautery | scalpel is "is_a, related_to" to analysis | scalpel is "related_to" to use | scalpel is "related_to" to splice_edit | scalpel is "related_to" to handicraft | scalpel is "manner_of" to look | scalpel is "related_to" to whip | scalpel is "related_to" to sheet | scalpel is "related_to" to draw | scalpel is "related_to" to do | scalpel is "related_to" to food | scalpel is "related_to" to air | scalpel is "used_for, related_to, part_of, manner_of" to saw | scalpel is "is_a, related_to" to tool | scalpel is "is_a" to device | scalpel is "related_to" to stem | scalpel is "related_to, synonym" to lance | scalpel is "used_for" to drill | scalpel is "related_to" to pain | scalpel is "related_to" to utensil | scalpel is "manner_of" to produce | scalpel is "has_context" to cautery | scalpel is "related_to" to axe | scalpel is "related_to" to apparatus | scalpel is "is_a, used_for, related_to" to cleaver | scalpel is "related_to, synonym, used_for" to stab | scalpel is "related_to, has_context" to microkeratome | scalpel is "synonym" to track | scalpel is "synonym, related_to" to scratch | scalpel is "has_context" to uvulatome | scalpel is "is_a, related_to" to leaf | scalpel is "manner_of" to plane | scalpel is "has_context" to computing | scalpel is "related_to" to lanyard | scalpel is "used_for, form_of, is_a, capable_of, related_to, synonym" to cut | scalpel is "manner_of" to miss | scalpel is "related_to" to song | scalpel is "related_to" to activity | scalpel is "related_to" to divide | scalpel is "related_to" to bill | scalpel is "related_to" to minor | scalpel is "related_to" to cater | scalpel is "part_of" to card_game | scalpel is "has_context" to separatory | scalpel is "at_location" to kitchen | scalpel is "is_a" to collectable | scalpel is "antonym, distinct_from" to together | scalpel is "synonym" to operating_room | scalpel is "related_to, distinct_from, antonym" to fork | scalpel is "has_context" to staff | scalpel is "related_to, manner_of" to move | scalpel is "has_context" to theatre | scalpel is "related_to" to fight | scalpel is "manner_of" to switch | scalpel is "related_to" to oblique | scalpel is "has_context" to probe | scalpel is "is_a, related_to" to division | scalpel is "related_to" to passage | scalpel is "related_to, synonym" to slip | scalpel is "related_to" to memory | scalpel is "has_context" to protractor | scalpel is "has_context" to cephalotome | scalpel is "is_a" to speculum | scalpel is "related_to" to cross | scalpel is "related_to, receives_action" to paper | scalpel is "related_to" to shred | scalpel is "has_context" to botany | scalpel is "related_to" to written | scalpel is "manner_of, related_to" to french | scalpel is "has_context, related_to" to tail | scalpel is "is_a" to shoulder | scalpel is "related_to" to partition | scalpel is "related_to" to bandsaw | scalpel is "related_to" to ball | scalpel is "related_to" to dj | scalpel is "related_to" to biology | scalpel is "is_a, related_to" to part | scalpel is "related_to" to swing | scalpel is "related_to" to term | scalpel is "related_to" to napkin | scalpel is "related_to" to stump | scalpel is "related_to" to skate | scalpel is "related_to" to job | scalpel is "antonym" to join | scalpel is "has_context, related_to" to iridectome | scalpel is "manner_of" to transit | scalpel is "related_to" to wrest | scalpel is "has_context" to fourchette | scalpel is "part_of, related_to, used_for" to scissors | scalpel is "related_to, has_context" to scarificator | scalpel is "related_to, has_context" to lithotome | scalpel is "related_to" to chondrotome | scalpel is "has_context" to rugine | scalpel is "capable_of, part_of, is_a, related_to, used_for" to knife | scalpel is "related_to" to tracheotome | scalpel is "is_a" to gradation | scalpel is "has_context" to boxing | scalpel is "has_context" to erisophake | scalpel is "related_to" to motion | scalpel is "related_to" to butteris | scalpel is "related_to" to frogs | scalpel is "has_context" to pharyngotome | scalpel is "related_to" to result | scalpel is "has_context" to laryngotome | scalpel is "related_to" to bat | scalpel is "related_to" to tanto | trumpet is "related_to" to bayonet | trumpet is "has_context, related_to" to slide | trumpet is "used_for, has_a, part_of, derived_from, at_location, distinct_from, capable_of, related_to, antonym, is_a" to band | trumpet is "part_of, related_to" to shank | trumpet is "has_context, related_to" to australia | trumpet is "related_to" to electrotome | trumpet is "related_to, has_context" to finger | trumpet is "related_to, is_a" to like | trumpet is "related_to" to guillotine | trumpet is "related_to, has_context" to british | trumpet is "related_to, is_a" to wristband | trumpet is "related_to" to steak | trumpet is "capable_of" to heal | trumpet is "has_context" to stick | trumpet is "related_to" to bronchotome | trumpet is "at_location, related_to, antonym" to human | trumpet is "related_to" to otoscope | trumpet is "related_to" to selection | trumpet is "distinct_from, related_to, synonym" to pass | trumpet is "has_context, related_to" to film | trumpet is "related_to" to calculifrage | trumpet is "related_to, has_property, is_a, used_for" to computer | trumpet is "has_context" to chop_up | trumpet is "related_to" to round | trumpet is "is_a" to fencing | trumpet is "related_to, has_context" to put | trumpet is "is_a, related_to" to weapon | trumpet is "synonym, has_context" to medicine | trumpet is "related_to" to board | trumpet is "manner_of, has_context, used_for, related_to" to bow | trumpet is "related_to" to hand | trumpet is "related_to" to aid | trumpet is "related_to" to table | trumpet is "related_to" to saddle | trumpet is "at_location, related_to" to line | trumpet is "derived_from, at_location, related_to, is_a, synonym, has_context, used_for" to instrument | trumpet is "related_to" to gun | trumpet is "related_to" to filler | trumpet is "related_to" to gorget | trumpet is "related_to" to encephaloscope | trumpet is "synonym, has_context, related_to, is_a" to plate | trumpet is "has_context, related_to" to neck | trumpet is "has_context, derived_from, related_to, has_property, is_a" to wood | trumpet is "is_a" to structure | trumpet is "related_to, has_context" to break | trumpet is "related_to" to cravat | trumpet is "derived_from" to band_aid | trumpet is "related_to" to class | trumpet is "has_context, related_to, synonym" to top | trumpet is "used_for, related_to, is_a" to clavichord | trumpet is "related_to, has_context" to movement | trumpet is "related_to, has_context" to sharp | trumpet is "has_context, related_to, is_a" to metal | trumpet is "has_context" to architecture | trumpet is "related_to" to remove | trumpet is "has_context, etymologically_related_to, related_to, synonym" to sax | trumpet is "has_context" to reduction | trumpet is "has_context, related_to" to pit | trumpet is "used_for, related_to" to kill | trumpet is "related_to" to edge | trumpet is "related_to" to scissible | trumpet is "has_context, related_to" to point | trumpet is "related_to, synonym" to reverse | trumpet is "related_to" to cup | trumpet is "has_context, related_to" to deep | trumpet is "related_to" to bioptome | trumpet is "related_to, manner_of, synonym, has_context" to hit | trumpet is "has_context" to steel | trumpet is "related_to" to sometimes | trumpet is "related_to, is_a, manner_of" to shape | trumpet is "part_of, related_to, is_a, has_context" to action | trumpet is "related_to" to tonsilotome | trumpet is "related_to" to morcellator | trumpet is "related_to" to fascia | trumpet is "is_a, used_for, related_to" to opening | trumpet is "related_to" to cell | trumpet is "has_context" to root | trumpet is "has_context, used_for" to flat | trumpet is "has_context" to skip | trumpet is "related_to, manner_of, has_context" to tongue | trumpet is "related_to, has_context, used_for" to open | trumpet is "related_to" to capsulotome | trumpet is "has_context" to fine | trumpet is "has_context, related_to" to related | trumpet is "related_to" to retractor | trumpet is "has_context, derived_from, related_to, synonym" to player | trumpet is "has_context, part_of, is_a, synonym" to section | trumpet is "related_to" to body | trumpet is "has_context, related_to" to mass | trumpet is "at_location, capable_of, related_to" to performance | trumpet is "related_to" to joint | trumpet is "is_a" to hurts | trumpet is "related_to" to road | trumpet is "related_to, manner_of" to make | trumpet is "related_to, synonym" to audio | trumpet is "related_to" to ecraseur | trumpet is "related_to" to small | trumpet is "related_to" to sling | trumpet is "related_to" to size | trumpet is "related_to" to metrotome | trumpet is "related_to, manner_of, used_for, has_subevent" to perform | trumpet is "is_a" to user_powered_device | trumpet is "related_to" to papillotome | trumpet is "has_context, at_location, related_to, is_a, synonym" to box | trumpet is "has_context" to shuffle | trumpet is "part_of, related_to, antonym, synonym, manner_of" to act | trumpet is "related_to" to nephroscope | trumpet is "related_to" to stitch | trumpet is "related_to" to side | trumpet is "related_to, synonym, has_context" to forte | trumpet is "related_to" to hasp | trumpet is "related_to, is_a, synonym" to stroke | trumpet is "related_to, manner_of, synonym" to burn | trumpet is "desires" to dog | trumpet is "related_to" to bevel | trumpet is "has_context" to slang | trumpet is "has_context" to us | trumpet is "related_to" to blade | trumpet is "related_to, manner_of, is_a, synonym, has_context, used_for" to beat | trumpet is "related_to" to cadrans | trumpet is "related_to" to repositor | trumpet is "related_to, has_context" to sports | trumpet is "related_to" to trephine | trumpet is "related_to" to rongeur | trumpet is "at_location, related_to, has_property, has_a, used_for" to cd | trumpet is "is_a, has_context" to ligature | trumpet is "related_to" to propeller | trumpet is "related_to" to bulldog_clip | trumpet is "related_to" to scrape | trumpet is "form_of, related_to, manner_of" to tap | trumpet is "related_to" to canal | trumpet is "related_to" to escape | trumpet is "related_to" to remora | trumpet is "related_to, manner_of" to form | trumpet is "synonym" to cat's_paw | trumpet is "at_location" to tooth | trumpet is "related_to" to cloth | trumpet is "related_to, has_context" to score | trumpet is "has_context, related_to" to transition | trumpet is "synonym, related_to" to handle | trumpet is "related_to" to forceps | trumpet is "related_to, is_a, has_context" to hammer | trumpet is "antonym, distinct_from, related_to" to record | trumpet is "related_to" to cystotome | trumpet is "related_to" to stethoscope | trumpet is "has_context" to split | trumpet is "has_context" to engraving | trumpet is "has_context" to breaking | trumpet is "related_to" to kickback | trumpet is "has_context" to sharpen | trumpet is "related_to, has_context" to tuck | trumpet is "has_context, has_last_subevent, distinct_from, related_to" to stop | trumpet is "related_to, has_context" to leg | trumpet is "related_to" to microcautery | trumpet is "has_context" to analysis | trumpet is "is_a, related_to, manner_of" to use | trumpet is "has_context" to splice_edit | trumpet is "has_context" to handicraft | trumpet is "manner_of" to look | trumpet is "is_a, related_to, has_context" to whip | trumpet is "related_to" to sheet | trumpet is "related_to, synonym, manner_of" to draw | trumpet is "related_to, has_context" to do | trumpet is "is_a" to food | trumpet is "at_location, related_to, is_a, dbpedia/genre, has_context" to air | trumpet is "related_to" to saw | trumpet is "related_to, is_a, synonym, used_for" to tool | trumpet is "distinct_from, related_to, is_a" to device | trumpet is "part_of, related_to, has_context" to stem | trumpet is "related_to" to lance | trumpet is "has_context, related_to" to drill | trumpet is "related_to, is_a" to pain | trumpet is "related_to, is_a" to utensil | trumpet is "related_to, manner_of, has_context" to produce | trumpet is "is_a" to cautery | trumpet is "has_context, related_to" to axe | trumpet is "distinct_from, related_to, is_a, synonym" to apparatus | trumpet is "has_context" to cleaver | trumpet is "has_context, is_a" to stab | trumpet is "related_to" to microkeratome | trumpet is "related_to, has_context" to track | trumpet is "has_context, related_to" to scratch | trumpet is "related_to" to uvulatome | trumpet is "related_to" to leaf | trumpet is "related_to, is_a" to plane | trumpet is "has_context" to computing | trumpet is "related_to" to lanyard | trumpet is "related_to, manner_of" to cut | trumpet is "is_a" to miss | trumpet is "part_of, at_location, related_to, is_a, made_of" to song | trumpet is "related_to, is_a" to activity | trumpet is "has_context" to divide | trumpet is "related_to" to bill | trumpet is "has_context, related_to" to minor | trumpet is "has_context, related_to" to cater | trumpet is "has_context, related_to" to card_game | trumpet is "related_to" to separatory | trumpet is "has_context, related_to" to kitchen | trumpet is "is_a" to collectable | trumpet is "related_to" to together | trumpet is "at_location" to operating_room | trumpet is "related_to" to fork | trumpet is "related_to, has_context" to staff | trumpet is "entails, related_to, manner_of" to move | trumpet is "related_to, at_location" to theatre | trumpet is "part_of, distinct_from" to fight | trumpet is "related_to, synonym" to switch | trumpet is "has_context" to oblique | trumpet is "related_to" to probe | trumpet is "related_to, has_context" to division | trumpet is "related_to" to passage | trumpet is "related_to" to slip | trumpet is "related_to" to memory | trumpet is "related_to" to protractor | trumpet is "related_to" to cephalotome | trumpet is "related_to" to speculum | trumpet is "related_to" to cross | trumpet is "related_to, is_a, has_context" to paper | trumpet is "has_context" to shred | trumpet is "has_context" to botany | trumpet is "related_to" to written | trumpet is "derived_from, related_to, has_context" to french | trumpet is "has_context" to tail | trumpet is "related_to, has_context" to shoulder | trumpet is "related_to, has_context" to partition | trumpet is "derived_from, related_to" to bandsaw | trumpet is "synonym, used_for, related_to" to ball | trumpet is "related_to" to dj | trumpet is "has_context" to biology | trumpet is "related_to" to part | trumpet is "related_to, is_a, manner_of, has_context" to swing | trumpet is "related_to" to term | trumpet is "related_to" to napkin | trumpet is "related_to" to stump | trumpet is "causes_desire" to skate | trumpet is "causes, related_to" to job | trumpet is "related_to, manner_of" to join | trumpet is "related_to" to iridectome | trumpet is "related_to" to transit | trumpet is "has_context" to wrest | trumpet is "related_to" to fourchette | trumpet is "related_to" to scissors | trumpet is "related_to" to scarificator | trumpet is "related_to" to lithotome | trumpet is "related_to" to chondrotome | trumpet is "related_to" to rugine | trumpet is "related_to, is_a" to knife | trumpet is "related_to" to tracheotome | trumpet is "has_context" to gradation | trumpet is "related_to" to boxing | trumpet is "related_to" to erisophake | trumpet is "has_context, related_to" to motion | trumpet is "related_to" to butteris | trumpet is "is_a" to frogs | trumpet is "related_to" to pharyngotome | trumpet is "related_to" to result | trumpet is "related_to" to laryngotome | trumpet is "related_to" to bat | trumpet is "has_context" to tanto</t>
+  </si>
+  <si>
+    <t>desk is "related_to, manner_of" to press | desk is "related_to" to bookfell | desk is "receives_action, related_to" to made | desk is "related_to, manner_of" to rank | desk is "at_location, related_to, has_property, is_a" to door | desk is "related_to, is_a" to rectangle | desk is "related_to, has_context" to also | desk is "derived_from, at_location, is_a, related_to" to briefcase | desk is "related_to" to spool | desk is "related_to" to brightener | desk is "related_to, synonym" to telegraph | desk is "related_to, derived_from" to workfare | desk is "is_a, used_for, at_location" to highlighter | desk is "form_of, related_to, made_of, is_a, used_for, has_a, at_location" to books | desk is "at_location, related_to, is_a, used_for, has_a, desires" to clothing | desk is "related_to, synonym" to rate | desk is "has_prerequisite, related_to, is_a, has_context" to printing | desk is "derived_from, related_to" to fountain | desk is "distinct_from, at_location, related_to, antonym, is_a" to party | desk is "at_location, related_to" to merchant | desk is "form_of, related_to, used_for, has_subevent" to studying | desk is "capable_of, used_for" to write_letter | desk is "related_to" to above | desk is "related_to, is_a, at_location" to fan | desk is "related_to" to variety | desk is "related_to" to touch | desk is "related_to" to flannel | desk is "related_to" to transformer | desk is "form_of, derived_from, related_to" to dust_bunny | desk is "distinct_from, at_location, capable_of, related_to, antonym, made_of, is_a, synonym, similar_to, located_near, has_a, used_for, created_by" to table | desk is "has_context, at_location, related_to" to mathematics | desk is "at_location, related_to" to instrument | desk is "related_to, used_for" to houses | desk is "related_to" to condenser | desk is "related_to" to hog | desk is "used_for, at_location, related_to" to pencils | desk is "related_to" to peel | desk is "derived_from" to threadwork | desk is "used_for, form_of, at_location, has_prerequisite, related_to, made_of, is_a" to pencil | desk is "related_to, is_a, at_location" to market | desk is "related_to" to provoke | desk is "at_location, related_to, not_has_property, is_a, manner_of" to pillow | desk is "used_for, related_to, is_a, manner_of" to slave | desk is "at_location" to screw | desk is "related_to" to ballot | desk is "related_to" to beetle | desk is "distinct_from, related_to, antonym" to break | desk is "receives_action, distinct_from, derived_from, at_location, related_to, has_property, made_of, is_a, synonym" to wood | desk is "related_to, is_a" to jockey | desk is "related_to" to arbor | desk is "related_to" to current | desk is "derived_from" to workshare | desk is "related_to" to taconite | desk is "related_to" to mine | desk is "distinct_from, related_to, has_property, antonym, is_a" to animal | desk is "related_to, synonym" to basic | desk is "receives_action" to found_in_house | desk is "used_for, related_to, synonym" to process | desk is "is_a" to container_product | desk is "related_to" to roller | desk is "related_to, is_a, synonym" to service | desk is "related_to, is_a" to assistant | desk is "related_to" to xuan_paper | desk is "related_to" to vargueno | desk is "is_a" to transmitter | desk is "related_to, is_a, synonym" to purpose | desk is "derived_from, is_a, related_to" to toolbox | desk is "related_to, synonym" to indite | desk is "related_to" to excess | desk is "at_location, related_to, has_property, is_a, synonym, manner_of" to plant | desk is "used_for, desires, antonym" to relaxation | desk is "at_location, related_to, antonym, is_a, manner_of, not_desires" to change | desk is "distinct_from, related_to, synonym" to lot | desk is "related_to, is_a" to torch | desk is "at_location, capable_of" to glue | desk is "part_of, related_to, is_a" to exchange | desk is "related_to, is_a, at_location" to doctor | desk is "related_to, is_a, derived_from" to handwriting | desk is "at_location, related_to, has_property, is_a, used_for" to machine | desk is "related_to, is_a" to deal | desk is "derived_from, is_a, related_to" to news | desk is "part_of, created_by, derived_from, at_location, form_of, has_prerequisite, related_to, antonym, made_of, is_a, synonym, located_near, used_for" to book | desk is "related_to, is_a, synonym, derived_from, at_location" to case | desk is "related_to, has_property" to rectangular | desk is "related_to" to indicator | desk is "related_to" to guard | desk is "has_a, at_location, related_to, made_of, not_has_property" to hair | desk is "related_to, desires" to dig | desk is "related_to" to jig | desk is "used_for, at_location" to memo_pad | desk is "related_to, similar_to, not_desires" to fine | desk is "related_to" to related | desk is "related_to, desires" to cake | desk is "related_to" to chore | desk is "related_to, manner_of" to supply | desk is "synonym, used_for, at_location, related_to" to mechanical_pencil | desk is "dbpedia/genre" to indie_rock | desk is "desires, has_subevent, related_to" to create | desk is "derived_from" to inkwork | desk is "at_location, related_to, has_property" to disk | desk is "related_to, has_context" to release | desk is "related_to, used_for, form_of, at_location" to notes | desk is "has_a, used_for, part_of, form_of, derived_from, at_location, related_to, is_a, synonym" to classroom | desk is "related_to, antonym, synonym" to make | desk is "is_a, related_to" to artifact | desk is "related_to" to snow | desk is "has_context, related_to, has_property" to small | desk is "used_for, at_location, related_to, is_a, synonym" to box | desk is "related_to" to wrap | desk is "at_location" to hat | desk is "related_to" to strain | desk is "related_to, synonym" to act | desk is "related_to" to vessel | desk is "related_to" to saddle_stitch | desk is "related_to, not_desires" to stroke | desk is "at_location, related_to, is_a, has_context" to musical_instrument | desk is "part_of, at_location, is_a, related_to, synonym" to cabinet | desk is "related_to" to corn | desk is "related_to, is_a, synonym" to timepiece | desk is "at_location, related_to, is_a" to file_cabinet | desk is "related_to, has_context" to us | desk is "related_to" to bunk | desk is "capable_of, related_to, synonym, not_desires" to burn | desk is "related_to, synonym" to ride | desk is "motivated_by_goal, related_to, is_a, synonym, manner_of" to live | desk is "related_to" to vehicle | desk is "part_of, related_to, has_a" to blade | desk is "related_to, used_for, motivated_by_goal" to entertain | desk is "related_to" to habilitation | desk is "at_location, form_of, related_to, is_a" to stationery | desk is "related_to" to pie | desk is "at_location, related_to" to museum | desk is "at_location, related_to" to bug | desk is "related_to" to sheep | desk is "at_location, related_to, is_a, not_desires" to noise | desk is "receives_action" to found_in_school | desk is "has_context" to trade_secret | desk is "at_location, related_to, manner_of, has_context" to reference | desk is "related_to" to easel | desk is "related_to" to trooper | desk is "related_to" to long | desk is "related_to" to trick | desk is "related_to, synonym" to punch | desk is "related_to, synonym" to club | desk is "at_location, distinct_from, related_to, antonym, not_has_property, is_a, synonym, used_for" to couch | desk is "related_to" to pilot | desk is "related_to, is_a, synonym" to course | desk is "has_subevent, desires, capable_of, not_capable_of, has_prerequisite, related_to, manner_of, has_context, used_for" to eat | desk is "derived_from" to keywork | desk is "manner_of, used_for, causes, distinct_from, form_of, derived_from, related_to, antonym, is_a, synonym" to seat | desk is "related_to" to appliance | desk is "derived_from" to spindlework | desk is "related_to" to cousin_john | desk is "manner_of, is_a" to scab | desk is "related_to" to drab | desk is "at_location, related_to, has_property" to flower | desk is "related_to, has_property" to hammer | desk is "related_to" to hosel | desk is "derived_from, at_location, related_to, antonym, is_a, created_by" to writer | desk is "related_to" to autography | desk is "at_location, related_to" to opera | desk is "related_to" to graft | desk is "related_to" to atlas | desk is "related_to, is_a" to textile | desk is "related_to" to natural | desk is "used_for, related_to, antonym" to organize | desk is "has_context, used_for, form_of, derived_from, related_to, synonym, manner_of" to write | desk is "related_to" to desk_organizer | desk is "related_to" to rake | desk is "related_to" to foolscap | desk is "etymologically_related_to, derived_from, related_to, is_a" to stop | desk is "related_to" to apply | desk is "not_has_property, is_a, at_location, related_to" to rock | desk is "related_to, synonym, manner_of" to rack | desk is "not_desires, related_to" to age | desk is "related_to, synonym" to seal | desk is "form_of, at_location, related_to, is_a, manner_of" to draw | desk is "has_prerequisite, related_to, antonym, used_for, has_subevent" to reading | desk is "has_context" to fold | desk is "related_to" to in_books | desk is "related_to, synonym, has_prerequisite, used_for" to research | desk is "related_to" to gang | desk is "related_to" to unruled | desk is "related_to" to pump | desk is "capable_of, related_to, antonym" to do | desk is "related_to" to lallygag | desk is "related_to, has_property, not_has_property" to alive | desk is "form_of, related_to" to gin | desk is "has_context, related_to, synonym" to broad | desk is "related_to" to bork | desk is "at_location, related_to, is_a" to dictionary | desk is "derived_from" to workloom | desk is "synonym" to cultivate | desk is "related_to" to drill | desk is "related_to, at_location" to bell | desk is "has_property, used_for, at_location" to steel_pen | desk is "related_to" to axe | desk is "used_for, at_location, form_of, related_to, is_a, synonym" to file | desk is "is_a" to picker | desk is "related_to" to other | desk is "related_to" to effect | desk is "at_location, related_to, synonym" to stamp_pad | desk is "related_to, is_a, causes_desire, motivated_by_goal, at_location" to money | desk is "is_a" to mac | desk is "related_to, synonym" to labour | desk is "related_to, is_a" to skin | desk is "used_for, at_location" to quill_brush | desk is "related_to" to exist | desk is "related_to, synonym" to font | desk is "used_for, related_to, has_context" to computing | desk is "related_to, used_for" to eye | desk is "related_to" to aviado | desk is "created_by, related_to, is_a, dbpedia/genre" to novel | desk is "related_to, is_a, at_location" to word | desk is "related_to" to workday | desk is "at_location, related_to, is_a, synonym, used_for, receives_action, distinct_from" to carpet | desk is "related_to" to baton | desk is "related_to" to yarn | desk is "related_to, is_a" to activity | desk is "related_to" to backhoe | desk is "related_to, synonym" to sucker | desk is "has_prerequisite, related_to, used_for, at_location" to writing_instrument | desk is "causes_desire, desires" to clean_clothes | desk is "at_location, related_to" to hose | desk is "related_to" to chicken | desk is "used_for, at_location, related_to, synonym, not_desires" to garbage | desk is "related_to, is_a" to safety | desk is "is_a" to non_powered_device | desk is "desires, at_location, form_of, related_to" to feet | desk is "at_location, related_to, is_a" to laboratory | desk is "related_to" to bumper | desk is "related_to" to biglaw | desk is "used_for, desires, distinct_from, related_to, antonym, manner_of" to move | desk is "related_to, not_has_property, at_location" to radio | desk is "related_to" to hinge | desk is "related_to, part_of" to lock | desk is "related_to" to undercut | desk is "related_to" to daily | desk is "at_location, related_to" to street | desk is "used_for, related_to, antonym, synonym" to being | desk is "etymologically_related_to, related_to" to cash | desk is "related_to" to dictograph | desk is "related_to, synonym" to slog | desk is "related_to, is_a" to covering | desk is "related_to" to hurt | desk is "related_to, manner_of, not_has_property, synonym" to coat | desk is "related_to" to pull | desk is "has_prerequisite, related_to, is_a" to skill | desk is "related_to" to chain_gang | desk is "part_of, related_to" to trigger | desk is "used_for, at_location" to furniture_secretary | desk is "related_to, synonym" to blotting_paper | desk is "at_location, form_of, derived_from, has_prerequisite, related_to, antonym, made_of, is_a, has_a, used_for, desires" to paper | desk is "related_to, antonym, is_a" to soap | desk is "distinct_from, derived_from, related_to, manner_of, antonym" to print | desk is "related_to" to edges | desk is "receives_action, form_of, related_to" to written | desk is "related_to" to dramaticomusical | desk is "related_to" to joe_lunchbucket | desk is "related_to" to clothing_store | desk is "related_to, antonym, synonym" to pick | desk is "is_a, derived_from, related_to" to whiteboard | desk is "related_to, synonym" to fix | desk is "related_to" to paycheck | desk is "related_to, antonym, synonym" to take | desk is "derived_from, related_to" to forework | desk is "related_to" to charret | desk is "related_to, is_a, synonym" to part | desk is "used_for, at_location, related_to, antonym, is_a" to store | desk is "related_to, is_a, used_for" to card | desk is "related_to" to general_term | desk is "at_location, related_to" to saxophone | desk is "related_to" to khaki | desk is "related_to" to coronis | desk is "related_to" to microscope | desk is "at_location, antonym" to knife | desk is "related_to, used_for, has_subevent" to earn_money | desk is "related_to, at_location" to eraser | desk is "related_to" to manuscript_paper | desk is "related_to" to spindle | desk is "related_to, synonym, manner_of" to function | desk is "related_to" to artificial | desk is "desires, related_to, has_property, is_a, synonym" to life | desk is "related_to" to compass | desk is "related_to, is_a" to silk | desk is "part_of, form_of, at_location, related_to, synonym, used_for" to office | desk is "used_for, part_of, at_location, related_to, is_a, synonym" to location | desk is "related_to" to pens_pencils | desk is "related_to" to nut | desk is "related_to" to cut_out | desk is "derived_from, at_location, related_to" to dust | desk is "derived_from" to baghouse | desk is "related_to, is_a" to creature | desk is "related_to" to generator | desk is "is_a" to mechanical_device | desk is "related_to" to very | desk is "etymologically_related_to" to bulwark | desk is "related_to" to iron_sand | desk is "desires, related_to, is_a" to support | desk is "related_to" to scale | desk is "at_location, related_to, is_a, receives_action" to clock | desk is "used_for, at_location" to graphite_pencil | desk is "at_location, related_to, antonym, is_a" to city | desk is "related_to" to doing | desk is "related_to" to guillotine | desk is "related_to" to ratchet | desk is "related_to" to lines | desk is "distinct_from, capable_of, related_to, made_of, not_has_property" to stick | desk is "has_prerequisite, related_to, antonym, used_for" to getting | desk is "related_to" to used | desk is "has_context, used_for, desires, distinct_from, related_to, antonym" to play | desk is "related_to" to hub | desk is "part_of, receives_action, derived_from, related_to" to typewriter | desk is "related_to" to play_hooky | desk is "receives_action, at_location, form_of, derived_from, related_to, antonym, is_a, synonym, has_context, used_for, has_a, desires, part_of" to computer | desk is "is_a" to hacker | desk is "at_location" to heater | desk is "part_of, related_to" to mouthpiece | desk is "part_of, related_to, is_a" to ram | desk is "has_context, at_location, related_to" to bridge | desk is "derived_from, related_to, made_of, is_a, synonym" to board | desk is "at_location, related_to" to grain | desk is "related_to" to permit | desk is "distinct_from, related_to, antonym" to five | desk is "at_location, is_a" to comforter | desk is "related_to" to general | desk is "related_to, is_a" to operation | desk is "related_to" to making | desk is "has_a, used_for, form_of, at_location, capable_of, related_to, antonym, is_a" to people | desk is "related_to" to wolf | desk is "related_to, has_property, synonym, used_for, has_subevent, receives_action, form_of, at_location, defined_as, is_a, has_prerequisite" to pen | desk is "related_to" to chief | desk is "not_has_property" to umbrella | desk is "part_of, at_location, derived_from, related_to, antonym" to class | desk is "related_to, has_property, antonym, is_a, synonym" to matter | desk is "antonym" to recreation | desk is "is_a, synonym, antonym, related_to" to character | desk is "receives_action, distinct_from, related_to, antonym, made_of, is_a" to metal | desk is "receives_action, related_to, is_a" to oven | desk is "related_to" to smooth | desk is "related_to, is_a, derived_from" to turntable | desk is "has_property, etymologically_related_to, related_to" to bush | desk is "related_to" to graph | desk is "used_for, part_of, at_location, related_to, is_a, has_prerequisite" to building | desk is "related_to" to vote | desk is "at_location, related_to, is_a" to area | desk is "derived_from, at_location, related_to, is_a, not_has_property, synonym" to cup | desk is "related_to" to team | desk is "related_to" to birthday | desk is "related_to" to knitting | desk is "form_of, related_to" to coin | desk is "related_to" to take_up | desk is "related_to" to guide | desk is "desires, derived_from, related_to, manner_of" to busy | desk is "related_to" to sometimes | desk is "at_location, related_to" to project | desk is "not_has_property" to stuffed_animal | desk is "related_to, similar_to" to manager | desk is "has_context, at_location, related_to" to stack | desk is "at_location, capable_of, related_to" to printer | desk is "has_context, related_to, made_of, is_a, synonym" to material | desk is "related_to" to poison | desk is "is_a" to human_activity | desk is "distinct_from, related_to" to suit | desk is "related_to" to printed | desk is "related_to" to almost | desk is "antonym, dbpedia/product, has_a, etymologically_related_to, at_location, related_to" to car | desk is "related_to, is_a" to coating | desk is "has_prerequisite, related_to, antonym, is_a, used_for, desires, capable_of" to run | desk is "related_to" to kin | desk is "derived_from, distinct_from, related_to, manner_of, antonym, is_a, synonym, has_context" to exercise | desk is "at_location, capable_of, related_to, has_property, is_a, synonym, manner_of, used_for, desires, form_of, derived_from" to work | desk is "is_a, related_to" to essay | desk is "manner_of" to stir | desk is "related_to" to have | desk is "related_to, is_a, part_of" to body | desk is "related_to" to railway | desk is "related_to" to scrip | desk is "related_to, is_a, synonym, at_location" to way | desk is "related_to" to fuck_dog | desk is "related_to, not_desires" to writer's_block | desk is "at_location, is_a, related_to" to union | desk is "used_for, at_location" to ballpoint_pen | desk is "has_property" to trumpet | desk is "synonym" to ilk | desk is "part_of, related_to" to connector | desk is "is_a, synonym, related_to, has_property" to level | desk is "causes_desire, has_first_subevent, has_subevent, has_prerequisite" to take_midterm | desk is "desires, related_to, not_has_property" to hamburger | desk is "at_location, related_to" to nail | desk is "at_location, related_to, is_a, has_a, used_for, created_by" to literature | desk is "related_to" to painter | desk is "related_to" to loot | desk is "at_location, form_of, related_to" to speakers | desk is "has_context, used_for, form_of, derived_from, related_to, antonym, is_a" to writing | desk is "related_to, is_a" to implement | desk is "part_of, form_of, derived_from, at_location, related_to, antonym" to foot | desk is "part_of, at_location, related_to, is_a, manner_of, has_context" to paragraph | desk is "has_a, at_location, related_to, is_a, synonym" to object | desk is "related_to, synonym" to cross_aisle | desk is "used_for, at_location, related_to, is_a" to desk_drawer | desk is "related_to" to steamer | desk is "related_to" to diagram | desk is "at_location, related_to, is_a, not_has_property, used_for" to envelope | desk is "related_to" to fibre | desk is "related_to" to traverse_drill | desk is "used_for, related_to, manner_of" to transport | desk is "related_to" to horn | desk is "at_location, related_to, antonym, is_a, used_for" to fire | desk is "related_to" to pickaxe | desk is "derived_from" to make_work | desk is "related_to, used_for, derived_from, capable_of" to calculate | desk is "related_to, synonym, has_context, etymologically_related_to" to shell | desk is "synonym" to wrench | desk is "at_location, related_to, has_a" to jack | desk is "has_a, used_for, at_location, related_to" to ink | desk is "related_to" to totalizator | desk is "related_to" to tampon | desk is "related_to, synonym, used_for, created_by" to article | desk is "has_last_subevent, distinct_from, has_prerequisite, related_to" to die | desk is "related_to" to piston | desk is "part_of, at_location, related_to" to handle | desk is "is_a, synonym, manner_of, at_location, related_to" to record | desk is "related_to" to attack | desk is "at_location, related_to" to varnish | desk is "used_for, at_location, related_to, is_a" to marker | desk is "capable_of, related_to" to grow | desk is "derived_from" to seatwork | desk is "at_location, related_to" to tack | desk is "used_for, part_of, form_of, at_location, related_to, is_a" to drawer | desk is "is_a, related_to" to john | desk is "at_location, related_to, manner_of, synonym" to use | desk is "is_a" to handicraft | desk is "has_prerequisite, used_for, has_subevent" to using_computer | desk is "has_context, used_for, at_location, related_to, synonym" to business | desk is "used_for" to telling_story | desk is "at_location, related_to" to lunch | desk is "related_to" to squeegee | desk is "related_to, antonym, is_a, synonym" to cap | desk is "receives_action, part_of, distinct_from, at_location, related_to, has_property, antonym, made_of, is_a, has_a" to floor | desk is "related_to" to loom | desk is "related_to" to lance | desk is "related_to" to utensil | desk is "at_location, related_to, antonym, is_a" to product | desk is "has_prerequisite" to printing_on_printer | desk is "capable_of, related_to" to pain | desk is "related_to" to profession | desk is "related_to" to broom | desk is "related_to, is_a, used_for" to apparatus | desk is "related_to, is_a, synonym, manner_of" to well | desk is "is_a, at_location, related_to" to ground_floor | desk is "derived_from" to redwork | desk is "related_to" to stab | desk is "has_context, at_location, related_to" to airplane | desk is "related_to, antonym, manner_of" to twist | desk is "related_to, is_a" to writing_implement | desk is "related_to" to royal | desk is "related_to, is_a" to leaf | desk is "is_a, related_to, has_context" to unit | desk is "related_to" to mallet | desk is "related_to, synonym" to embroider | desk is "desires, at_location, related_to" to snake | desk is "related_to" to fuse | desk is "part_of, related_to, manner_of, is_a" to ship | desk is "is_a" to fastener | desk is "at_location, related_to, antonym, is_a" to magazine | desk is "at_location" to instrument_triangle | desk is "at_location, related_to, antonym, synonym" to bill | desk is "is_a, related_to, used_for, desires, receives_action" to light | desk is "related_to" to payola | desk is "part_of, derived_from, related_to" to network | desk is "related_to, is_a" to feeling | desk is "related_to" to capriccio | desk is "at_location, related_to, has_a" to cow | desk is "related_to" to pen_pencil | desk is "used_for, related_to, is_a" to lantern | desk is "related_to" to phonograph | desk is "related_to, has_context, at_location" to theatre | desk is "not_desires, at_location, related_to" to dirt | desk is "at_location" to barn | desk is "related_to" to kite | desk is "related_to" to fuck_with | desk is "etymologically_related_to, desires, related_to, made_of, is_a, has_prerequisite, causes_desire" to energy | desk is "desires, related_to, is_a" to care | desk is "has_subevent, derived_from, related_to, manner_of, used_for, motivated_by_goal" to type | desk is "related_to" to shutter | desk is "related_to" to texture | desk is "related_to, similar_to, etymologically_related_to" to stale | desk is "related_to" to fluff | desk is "at_location, related_to" to speaker | desk is "related_to" to fabric | desk is "related_to" to wagon | desk is "related_to, synonym" to department | desk is "dbpedia/genre" to hip_hop_music | desk is "part_of, at_location, related_to, antonym" to game | desk is "related_to" to accord | desk is "desires, at_location, related_to" to science | desk is "related_to" to rolling_paper | desk is "related_to" to mechanical | desk is "related_to" to printer's_hat | desk is "related_to, has_context" to legal | desk is "related_to" to need | desk is "related_to" to imprint | desk is "related_to, is_a" to conductor | desk is "related_to" to generic | desk is "at_location, related_to, manner_of" to challenge | desk is "part_of, at_location, related_to, is_a" to television | desk is "antonym, dbpedia/genre, related_to" to ball | desk is "related_to, is_a" to swing | desk is "related_to" to term | desk is "at_location, related_to" to napkin | desk is "desires, related_to, has_property" to fly | desk is "related_to, is_a" to craft | desk is "related_to" to shed | desk is "distinct_from, has_prerequisite, related_to, is_a, synonym, manner_of" to job | desk is "related_to" to transit | desk is "distinct_from, related_to, has_property, antonym, is_a" to watch | desk is "at_location, related_to, synonym" to shop | desk is "related_to" to drone | desk is "has_a, used_for, at_location, related_to, is_a" to surface | desk is "derived_from" to quillwork | desk is "related_to, is_a, synonym" to soldier | desk is "related_to" to projector | desk is "derived_from" to pipework | desk is "distinct_from, related_to" to squirrel | desk is "is_a" to common_carrier | desk is "at_location, is_a" to sweater | desk is "has_a, related_to" to nose | desk is "related_to" to prime | desk is "is_a, related_to, synonym" to crown | desk is "derived_from, related_to, manner_of, is_a" to copy | desk is "created_by, manner_of" to carpenter | desk is "related_to" to opus | desk is "related_to" to result | desk is "related_to, manner_of, is_a, synonym, used_for, derived_from, at_location" to pad | desk is "related_to" to bread | desk is "related_to" to bat | desk is "etymologically_related_to, part_of, related_to, is_a" to organ | desk is "related_to, etymologically_related_to" to rough | desk is "related_to" to gaff | desk is "derived_from, related_to, is_a, synonym" to band | desk is "is_a" to rectifier | desk is "derived_from, at_location, form_of, related_to, has_property" to staple | desk is "used_for, at_location, related_to, manner_of" to bank | desk is "related_to" to like | desk is "related_to" to quantum | desk is "related_to, synonym, derived_from" to station | desk is "is_a, has_context" to british | desk is "related_to" to stretcher | desk is "at_location, related_to" to dish | desk is "related_to" to feel | desk is "related_to" to urinal | desk is "related_to" to fashioning_needle | desk is "related_to, manner_of" to fill | desk is "distinct_from, related_to, antonym" to dollar | desk is "related_to, manner_of, is_a, desires" to drive | desk is "related_to" to artistic | desk is "related_to, is_a" to accommodation | desk is "at_location, capable_of, related_to, is_a" to human | desk is "related_to" to flipper | desk is "related_to" to shovel | desk is "has_a, used_for, part_of, at_location, related_to, antonym, is_a, located_near" to library | desk is "related_to, is_a" to screed | desk is "desires, distinct_from, antonym, related_to" to leisure | desk is "at_location, related_to" to wax | desk is "related_to, is_a, at_location" to dock | desk is "related_to" to tongs | desk is "related_to" to optic | desk is "related_to" to fantasia | desk is "related_to" to burden | desk is "related_to, is_a" to carrier | desk is "related_to, is_a" to intellectual | desk is "capable_of, related_to" to shave | desk is "related_to" to brush | desk is "related_to" to workmanship | desk is "is_a" to drafting | desk is "synonym, part_of, at_location, related_to" to rule | desk is "related_to" to literary | desk is "has_a, at_location, related_to, manner_of, is_a" to beaver | desk is "related_to, has_property, antonym, is_a, synonym, not_desires, has_a, desires, part_of, at_location, distinct_from" to dog | desk is "related_to, is_a" to writing_paper | desk is "used_for, at_location, distinct_from, capable_of, has_prerequisite, related_to, antonym, is_a" to hand | desk is "related_to" to plunder | desk is "related_to, at_location" to gun | desk is "related_to" to wool | desk is "derived_from" to plain_work | desk is "related_to" to labouring | desk is "related_to, manner_of, is_a" to structure | desk is "derived_from, at_location, related_to, is_a" to garage | desk is "related_to, derived_from" to equip | desk is "at_location" to fountain_pen | desk is "related_to" to oar | desk is "derived_from, related_to, antonym, is_a" to top | desk is "capable_of, related_to, synonym, manner_of" to set | desk is "related_to, antonym" to hill | desk is "form_of, related_to" to wrote | desk is "at_location, related_to, desires" to sunshine | desk is "related_to" to assembly | desk is "related_to" to contract | desk is "related_to" to travail | desk is "at_location, related_to" to warehouse | desk is "related_to" to drift | desk is "related_to, used_for, part_of" to movement | desk is "at_location, related_to, is_a, synonym" to pc | desk is "has_context" to mining | desk is "is_a, related_to" to sort | desk is "synonym" to chuck | desk is "derived_from" to tubework | desk is "related_to" to alligator | desk is "related_to, synonym" to composition | desk is "related_to, is_a" to pit | desk is "related_to" to barker | desk is "has_context" to combination_product | desk is "etymologically_related_to" to tweezers | desk is "part_of, related_to" to back | desk is "derived_from, related_to, is_a, synonym, manner_of, desires, part_of, at_location" to space | desk is "related_to" to design | desk is "related_to" to brake | desk is "related_to, manner_of" to minister | desk is "related_to" to windshield_wiper | desk is "derived_from, related_to, is_a" to key | desk is "derived_from, related_to, is_a" to holder | desk is "receives_action, at_location, related_to, has_property, antonym, made_of, is_a" to glass | desk is "related_to, antonym, is_a, similar_to, has_a, desires, at_location" to boss | desk is "part_of, related_to, is_a, synonym, has_context" to action | desk is "related_to, receives_action, at_location" to janitor | desk is "at_location, related_to" to toy | desk is "related_to" to fibrous | desk is "is_a, related_to, synonym" to wire | desk is "is_a" to solid_object | desk is "etymologically_related_to, related_to, antonym, is_a, synonym" to cell | desk is "at_location, related_to, synonym" to program | desk is "related_to" to nice | desk is "has_a, used_for, form_of, at_location, capable_of, related_to" to students | desk is "related_to" to buro | desk is "related_to" to fitting | desk is "related_to, has_property, antonym, made_of, is_a, distinct_from, at_location" to plastic | desk is "at_location, related_to, is_a" to basement | desk is "at_location, has_property, used_for" to exam_table | desk is "used_for, at_location" to writing_case | desk is "related_to" to rod | desk is "is_a, manner_of" to stenograph | desk is "is_a, related_to" to player | desk is "related_to" to impress | desk is "related_to" to two | desk is "related_to, synonym" to report | desk is "related_to" to primer | desk is "manner_of" to boondoggle | desk is "derived_from" to penwork | desk is "is_a, related_to" to size | desk is "has_a, derived_from, at_location, related_to, is_a, synonym, used_for" to notebook | desk is "related_to" to for_writing | desk is "is_a, related_to" to adaptation | desk is "form_of, at_location, has_prerequisite, capable_of, related_to, is_a, synonym, used_for, desires, has_subevent" to study | desk is "related_to" to fit | desk is "at_location, related_to, is_a, desires" to gift | desk is "related_to" to trailer | desk is "related_to, used_for, desires" to perform | desk is "at_location, related_to, is_a, syn</t>
+  </si>
+  <si>
+    <t>electron is "is_a" to organ | electron is "at_location, related_to, used_for" to water | electron is "related_to" to scale | electron is "related_to" to sum | electron is "related_to" to also | electron is "related_to" to preserve | electron is "related_to" to active | electron is "related_to" to like | electron is "synonym" to finger | electron is "related_to" to forcing | electron is "related_to" to clothing | electron is "related_to" to patch | electron is "related_to" to species | electron is "is_a" to play | electron is "at_location, antonym" to human | electron is "related_to" to drink | electron is "related_to, synonym" to core | electron is "related_to, synonym, similar_to" to topical | electron is "has_context" to geometry | electron is "related_to" to touch | electron is "has_context, related_to" to bridge | electron is "related_to" to filling | electron is "related_to" to herb | electron is "has_context, related_to" to acceptor | electron is "related_to, is_a" to sound | electron is "related_to" to truss | electron is "related_to" to but | electron is "has_context, related_to" to mathematics | electron is "related_to" to appeal | electron is "related_to" to combat | electron is "capable_of" to sing | electron is "has_context" to bound | electron is "has_context" to scotland | electron is "has_context" to baseball | electron is "has_context" to cricket | electron is "related_to" to aircraft | electron is "distinct_from, related_to, antonym, is_a" to animal | electron is "related_to" to process | electron is "related_to" to man | electron is "related_to" to top | electron is "related_to" to set | electron is "related_to" to sharp | electron is "related_to" to hard | electron is "related_to" to color | electron is "related_to, antonym, has_context, derived_from" to reduction | electron is "related_to, has_context" to military | electron is "related_to" to fusion | electron is "related_to, is_a, has_context" to star | electron is "related_to" to grass | electron is "derived_from, related_to" to dilepton | electron is "related_to" to edge | electron is "related_to" to boiling | electron is "related_to" to flavon | electron is "is_a" to design | electron is "related_to, synonym" to point | electron is "related_to, is_a" to plant | electron is "related_to" to relaxation | electron is "is_a, manner_of" to change | electron is "related_to" to dipion | electron is "at_location, related_to" to pocket | electron is "related_to" to speckle | electron is "related_to" to taste | electron is "manner_of" to hit | electron is "related_to" to punishment | electron is "related_to, is_a" to cup | electron is "related_to" to coin | electron is "related_to" to fast | electron is "distinct_from, related_to, antonym, synonym, has_context" to base | electron is "related_to" to removal | electron is "synonym" to shape | electron is "related_to" to key | electron is "related_to" to action | electron is "related_to" to guide | electron is "related_to" to path | electron is "part_of, related_to" to cell | electron is "related_to, is_a" to substance | electron is "related_to, antonym, is_a" to material | electron is "related_to" to rub | electron is "related_to" to case | electron is "related_to" to domain | electron is "related_to" to vellicate | electron is "is_a" to anatomical_structure | electron is "has_context, related_to, is_a" to group | electron is "is_a" to intelligent_agent_activity | electron is "related_to, has_context" to ring | electron is "related_to" to sauce | electron is "derived_from, related_to" to spin | electron is "related_to, is_a" to body | electron is "desires, not_desires" to person | electron is "related_to" to blow | electron is "has_context, related_to, is_a" to reduce | electron is "has_a, distinct_from, related_to, made_of, is_a" to steel | electron is "has_a" to sun | electron is "related_to" to small | electron is "synonym, related_to" to level | electron is "related_to" to slash | electron is "related_to" to wound | electron is "related_to" to side | electron is "has_context" to cooking | electron is "related_to" to strength | electron is "related_to" to impact | electron is "related_to, has_context" to burn | electron is "related_to" to object | electron is "has_context" to slang | electron is "related_to" to ear | electron is "has_context" to historical | electron is "related_to" to advance | electron is "related_to, similar_to" to bad | electron is "has_context" to conserve | electron is "derived_from, related_to" to hole | electron is "related_to, has_context" to mole | electron is "related_to" to bug | electron is "related_to, has_context, at_location" to ground | electron is "is_a" to kind | electron is "related_to, has_context" to shell | electron is "related_to" to punch | electron is "related_to" to description | electron is "related_to, antonym" to dull | electron is "related_to, at_location" to wall | electron is "related_to" to software | electron is "related_to, is_a" to attack | electron is "derived_from, related_to" to flavorless | electron is "related_to, has_context" to pin | electron is "receives_action, related_to" to cast | electron is "related_to" to left | electron is "related_to" to mouth | electron is "synonym" to about | electron is "related_to" to measure | electron is "related_to" to stop | electron is "related_to" to leg | electron is "related_to" to jacket | electron is "is_a" to tangible_thing | electron is "has_context" to period | electron is "related_to" to age | electron is "related_to" to destroy | electron is "related_to" to food | electron is "related_to, is_a" to tool | electron is "related_to, is_a" to device | electron is "related_to, is_a, synonym" to power | electron is "related_to" to smoke | electron is "related_to" to lenticula | electron is "derived_from" to intercurrent | electron is "related_to" to pain | electron is "related_to, is_a" to space | electron is "related_to, is_a" to happening | electron is "has_context" to dry | electron is "part_of, at_location, related_to, made_of, has_context" to nucleus | electron is "has_context" to anatomy | electron is "related_to" to flavor | electron is "distinct_from, related_to, antonym" to off | electron is "related_to" to skin | electron is "related_to, is_a" to liquid | electron is "capable_of, related_to, is_a" to rust | electron is "related_to, has_context" to unit | electron is "has_context" to computing | electron is "related_to, is_a, part_of, at_location" to eye | electron is "related_to" to cut | electron is "has_context" to enable | electron is "is_a" to drug | electron is "similar_to" to tense | electron is "has_context, is_a, synonym" to decay | electron is "related_to" to interest | electron is "related_to" to furnish | electron is "related_to" to flash | electron is "related_to" to cover | electron is "related_to" to cold | electron is "used_for, related_to" to black | electron is "related_to, is_a" to swallow | electron is "used_for" to hide | electron is "related_to" to move | electron is "form_of, related_to" to excited | electron is "related_to" to tide | electron is "is_a" to pile | electron is "related_to, is_a, synonym" to energy | electron is "related_to" to division | electron is "related_to" to position | electron is "distinct_from, related_to, antonym" to cash | electron is "related_to, has_context" to type | electron is "related_to" to covering | electron is "related_to, has_context" to chemistry | electron is "has_context" to sodium_bicarbonate | electron is "related_to, manner_of" to coat | electron is "related_to" to satellite | electron is "has_context" to normal | electron is "related_to" to lentiginosis | electron is "related_to, is_a, has_context" to quark | electron is "has_context" to soap | electron is "has_context" to test | electron is "has_context" to rice | electron is "related_to, made_of" to can | electron is "related_to" to path_length | electron is "has_context" to legal | electron is "related_to" to loop | electron is "related_to" to circle | electron is "is_a, related_to" to pore | electron is "related_to" to weather | electron is "at_location, related_to" to ball | electron is "related_to" to preparation | electron is "related_to" to spice | electron is "related_to" to part | electron is "related_to" to exotic | electron is "related_to" to living | electron is "related_to" to term | electron is "related_to, is_a" to shot | electron is "desires, derived_from, capable_of, related_to" to fly | electron is "related_to" to pressure | electron is "related_to, synonym" to spirit | electron is "related_to" to bit | electron is "related_to" to outside | electron is "has_context, related_to, is_a" to function | electron is "synonym" to along | electron is "has_context" to on | electron is "related_to" to quarter | electron is "related_to, entails" to heat | electron is "related_to, has_context" to gas | electron is "related_to" to extend | electron is "related_to" to bread | electron is "distinct_from, related_to" to bat | inertia is "related_to, part_of, at_location" to organ | inertia is "related_to, has_context" to water | inertia is "related_to" to scale | inertia is "related_to" to sum | inertia is "related_to" to also | inertia is "related_to" to preserve | inertia is "related_to" to active | inertia is "related_to" to like | inertia is "related_to" to finger | inertia is "related_to" to forcing | inertia is "related_to, is_a" to clothing | inertia is "has_context" to patch | inertia is "related_to" to species | inertia is "related_to, is_a" to play | inertia is "related_to, at_location" to human | inertia is "related_to" to drink | inertia is "has_context" to core | inertia is "related_to, has_context" to topical | inertia is "has_context" to geometry | inertia is "manner_of, related_to" to touch | inertia is "has_context" to bridge | inertia is "related_to" to filling | inertia is "related_to" to herb | inertia is "has_context" to acceptor | inertia is "is_a, has_context" to sound | inertia is "has_context" to truss | inertia is "related_to" to but | inertia is "has_context, related_to" to mathematics | inertia is "related_to" to appeal | inertia is "related_to, synonym" to combat | inertia is "has_context" to sing | inertia is "has_context" to bound | inertia is "has_context" to scotland | inertia is "has_context" to baseball | inertia is "has_context" to cricket | inertia is "has_context, used_for" to aircraft | inertia is "related_to, has_context" to animal | inertia is "synonym, related_to" to process | inertia is "related_to" to man | inertia is "has_context" to top | inertia is "manner_of" to set | inertia is "has_context, related_to" to sharp | inertia is "has_context" to hard | inertia is "has_context, manner_of" to color | inertia is "has_context, is_a" to reduction | inertia is "has_context" to military | inertia is "has_context" to fusion | inertia is "related_to" to star | inertia is "has_context" to grass | inertia is "has_context" to dilepton | inertia is "related_to" to edge | inertia is "related_to" to boiling | inertia is "has_context" to flavon | inertia is "related_to" to design | inertia is "has_context, related_to" to point | inertia is "related_to" to plant | inertia is "has_context" to relaxation | inertia is "manner_of, related_to, is_a" to change | inertia is "has_context" to dipion | inertia is "at_location, related_to" to pocket | inertia is "has_context" to speckle | inertia is "related_to" to taste | inertia is "related_to, manner_of, is_a" to hit | inertia is "related_to" to punishment | inertia is "has_context" to cup | inertia is "related_to, is_a, at_location" to coin | inertia is "related_to" to fast | inertia is "related_to" to base | inertia is "related_to" to removal | inertia is "related_to" to shape | inertia is "related_to, part_of" to key | inertia is "is_a, related_to" to action | inertia is "related_to" to guide | inertia is "has_context" to path | inertia is "related_to, part_of" to cell | inertia is "related_to" to substance | inertia is "related_to" to material | inertia is "related_to" to rub | inertia is "has_context, related_to, synonym" to case | inertia is "has_context" to domain | inertia is "related_to" to vellicate | inertia is "is_a, related_to" to anatomical_structure | inertia is "related_to" to group | inertia is "is_a" to intelligent_agent_activity | inertia is "related_to" to ring | inertia is "manner_of" to sauce | inertia is "related_to, has_context, is_a" to spin | inertia is "is_a, related_to" to body | inertia is "not_desires, desires, related_to, is_a" to person | inertia is "related_to" to blow | inertia is "has_context, related_to" to reduce | inertia is "related_to, has_context" to steel | inertia is "related_to" to sun | inertia is "related_to, has_property" to small | inertia is "has_context" to level | inertia is "related_to" to slash | inertia is "at_location, related_to" to wound | inertia is "related_to" to side | inertia is "is_a" to cooking | inertia is "related_to" to strength | inertia is "has_context" to impact | inertia is "has_context, related_to" to burn | inertia is "related_to" to object | inertia is "has_context" to slang | inertia is "related_to" to ear | inertia is "has_context" to historical | inertia is "related_to" to advance | inertia is "related_to" to bad | inertia is "has_context" to conserve | inertia is "has_context" to hole | inertia is "related_to, has_context" to mole | inertia is "related_to" to bug | inertia is "related_to" to ground | inertia is "related_to" to kind | inertia is "related_to" to shell | inertia is "related_to" to punch | inertia is "related_to" to description | inertia is "related_to, manner_of" to dull | inertia is "related_to" to wall | inertia is "is_a" to software | inertia is "has_context, related_to, synonym" to attack | inertia is "has_context" to flavorless | inertia is "has_context" to pin | inertia is "has_context, related_to" to cast | inertia is "related_to" to left | inertia is "related_to" to mouth | inertia is "related_to" to about | inertia is "related_to, synonym" to measure | inertia is "related_to, has_context, antonym" to stop | inertia is "related_to, part_of, at_location" to leg | inertia is "related_to" to jacket | inertia is "is_a" to tangible_thing | inertia is "has_context" to period | inertia is "manner_of" to age | inertia is "related_to" to destroy | inertia is "related_to, used_for" to food | inertia is "related_to, manner_of" to tool | inertia is "related_to, is_a" to device | inertia is "has_context, related_to, manner_of" to power | inertia is "related_to" to smoke | inertia is "has_context" to lenticula | inertia is "has_context" to intercurrent | inertia is "related_to, at_location" to pain | inertia is "related_to" to space | inertia is "is_a" to happening | inertia is "related_to, manner_of" to dry | inertia is "has_context" to nucleus | inertia is "has_context, related_to" to anatomy | inertia is "has_context" to flavor | inertia is "related_to" to off | inertia is "related_to, at_location, part_of" to skin | inertia is "related_to" to liquid | inertia is "related_to" to rust | inertia is "related_to" to unit | inertia is "has_context" to computing | inertia is "related_to" to eye | inertia is "related_to" to cut | inertia is "manner_of" to enable | inertia is "has_context, related_to, is_a, synonym" to drug | inertia is "related_to, manner_of" to tense | inertia is "manner_of, has_context, related_to" to decay | inertia is "related_to" to interest | inertia is "related_to" to furnish | inertia is "related_to" to flash | inertia is "related_to" to cover | inertia is "has_context" to cold | inertia is "related_to" to black | inertia is "related_to" to swallow | inertia is "related_to" to hide | inertia is "related_to, is_a, synonym, used_for, manner_of" to move | inertia is "has_context" to excited | inertia is "related_to" to tide | inertia is "related_to" to pile | inertia is "distinct_from, related_to, has_context, antonym, is_a, synonym" to energy | inertia is "related_to" to division | inertia is "related_to" to position | inertia is "related_to, is_a" to cash | inertia is "related_to, has_context" to type | inertia is "related_to" to covering | inertia is "has_context, related_to, distinct_from" to chemistry | inertia is "is_a" to sodium_bicarbonate | inertia is "related_to" to coat | inertia is "related_to" to satellite | inertia is "has_context" to normal | inertia is "has_context" to lentiginosis | inertia is "has_context" to quark | inertia is "related_to, has_context" to soap | inertia is "related_to" to test | inertia is "has_context" to rice | inertia is "related_to" to can | inertia is "has_context" to path_length | inertia is "has_context" to legal | inertia is "related_to" to loop | inertia is "related_to" to circle | inertia is "related_to" to pore | inertia is "related_to" to weather | inertia is "related_to" to ball | inertia is "related_to" to preparation | inertia is "manner_of" to spice | inertia is "related_to" to part | inertia is "has_context" to exotic | inertia is "related_to, causes" to living | inertia is "has_context, related_to" to term | inertia is "related_to" to shot | inertia is "manner_of, related_to" to fly | inertia is "has_context" to pressure | inertia is "antonym, related_to" to spirit | inertia is "related_to" to bit | inertia is "related_to" to outside | inertia is "related_to" to function | inertia is "related_to" to along | inertia is "has_context" to on | inertia is "related_to" to quarter | inertia is "related_to, manner_of" to heat | inertia is "related_to, has_context" to gas | inertia is "related_to, manner_of" to extend | inertia is "related_to" to bread | inertia is "capable_of, related_to" to bat | zest is "related_to" to organ | zest is "related_to, has_a, used_for" to water | zest is "related_to" to scale | zest is "synonym" to sum | zest is "is_a, has_context" to also | zest is "related_to" to preserve | zest is "related_to" to active | zest is "synonym, related_to" to like | zest is "at_location" to finger | zest is "related_to" to forcing | zest is "related_to" to clothing | zest is "related_to" to patch | zest is "is_a, related_to" to species | zest is "related_to" to play | zest is "related_to, at_location" to human | zest is "related_to" to drink | zest is "related_to, synonym" to core | zest is "related_to" to topical | zest is "has_context, related_to" to geometry | zest is "related_to" to touch | zest is "related_to" to bridge | zest is "related_to" to filling | zest is "related_to, is_a, similar_to" to herb | zest is "related_to" to acceptor | zest is "related_to, is_a" to sound | zest is "has_context" to truss | zest is "related_to" to but | zest is "has_context" to mathematics | zest is "related_to" to appeal | zest is "related_to" to combat | zest is "has_subevent" to sing | zest is "synonym" to bound | zest is "has_context" to scotland | zest is "has_context" to baseball | zest is "has_context" to cricket | zest is "part_of" to aircraft | zest is "related_to" to animal | zest is "related_to" to process | zest is "related_to" to man | zest is "related_to" to top | zest is "related_to" to set | zest is "related_to" to sharp | zest is "related_to" to hard | zest is "related_to, is_a" to color | zest is "has_context" to reduction | zest is "has_context" to military | zest is "related_to" to fusion | zest is "related_to" to star | zest is "related_to" to grass | zest is "related_to" to dilepton | zest is "related_to" to edge | zest is "is_a" to boiling | zest is "derived_from, related_to" to flavon | zest is "related_to" to design | zest is "related_to" to point | zest is "is_a, related_to, created_by" to plant | zest is "used_for" to relaxation | zest is "manner_of" to change | zest is "related_to" to dipion | zest is "related_to" to pocket | zest is "related_to" to speckle | zest is "related_to, is_a, causes, has_context" to taste | zest is "related_to, manner_of, has_prerequisite" to hit | zest is "related_to" to punishment | zest is "is_a" to cup | zest is "related_to" to coin | zest is "has_prerequisite" to fast | zest is "has_context" to base | zest is "related_to" to removal | zest is "related_to" to shape | zest is "related_to" to key | zest is "is_a, related_to" to action | zest is "related_to" to guide | zest is "related_to" to path | zest is "related_to" to cell | zest is "synonym" to substance | zest is "related_to" to material | zest is "related_to, manner_of" to rub | zest is "related_to" to case | zest is "related_to" to domain | zest is "related_to" to vellicate | zest is "is_a" to anatomical_structure | zest is "related_to" to group | zest is "is_a" to intelligent_agent_activity | zest is "related_to" to ring | zest is "related_to, manner_of, has_context" to sauce | zest is "has_context" to spin | zest is "at_location, related_to, part_of" to body | zest is "not_desires, related_to, is_a" to person | zest is "related_to, is_a" to blow | zest is "has_context, related_to" to reduce | zest is "related_to" to steel | zest is "related_to" to sun | zest is "related_to" to small | zest is "related_to" to level | zest is "related_to" to slash | zest is "related_to" to wound | zest is "is_a, synonym, has_context, related_to" to side | zest is "has_context, used_for, related_to" to cooking | zest is "related_to" to strength | zest is "related_to" to impact | zest is "has_subevent, related_to" to burn | zest is "related_to" to object | zest is "related_to, has_context" to slang | zest is "etymologically_related_to, is_a" to ear | zest is "has_context" to historical | zest is "manner_of" to advance | zest is "related_to" to bad | zest is "has_context, is_a" to conserve | zest is "related_to" to hole | zest is "related_to" to mole | zest is "related_to" to bug | zest is "related_to" to ground | zest is "related_to" to kind | zest is "related_to, has_a" to shell | zest is "related_to" to punch | zest is "related_to" to description | zest is "antonym" to dull | zest is "related_to" to wall | zest is "related_to, is_a" to software | zest is "related_to, manner_of" to attack | zest is "related_to" to flavorless | zest is "related_to" to pin | zest is "related_to" to cast | zest is "related_to" to left | zest is "at_location" to mouth | zest is "related_to" to about | zest is "related_to, has_context" to measure | zest is "related_to" to stop | zest is "related_to" to leg | zest is "related_to" to jacket | zest is "is_a" to tangible_thing | zest is "related_to" to period | zest is "synonym" to age | zest is "related_to" to destroy | zest is "has_prerequisite, related_to, causes, is_a" to food | zest is "is_a" to tool | zest is "related_to" to device | zest is "related_to" to power | zest is "causes" to smoke | zest is "related_to" to lenticula | zest is "related_to" to intercurrent | zest is "has_context, related_to, has_subevent" to pain | zest is "related_to, antonym" to space | zest is "related_to" to happening | zest is "related_to" to dry | zest is "related_to" to nucleus | zest is "has_context" to anatomy | zest is "synonym, related_to" to flavor | zest is "related_to" to off | zest is "related_to, at_location" to skin | zest is "related_to" to liquid | zest is "is_a" to rust | zest is "related_to" to unit | zest is "has_context" to computing | zest is "related_to" to eye | zest is "related_to, manner_of" to cut | zest is "related_to" to enable | zest is "related_to" to drug | zest is "related_to" to tense | zest is "capable_of" to decay | zest is "related_to, is_a, synonym" to interest | zest is "related_to" to furnish | zest is "related_to" to flash | zest is "related_to" to cover | zest is "related_to" to cold | zest is "related_to, has_property" to black | zest is "is_a" to swallow | zest is "synonym, etymologically_related_to, related_to" to hide | zest is "related_to" to move | zest is "related_to" to excited | zest is "related_to, synonym" to tide | zest is "related_to" to pile | zest is "related_to" to energy | zest is "related_to" to division | zest is "related_to" to position | zest is "related_to" to cash | zest is "related_to" to type | zest is "related_to" to covering | zest is "has_context" to chemistry | zest is "related_to" to sodium_bicarbonate | zest is "related_to" to coat | zest is "similar_to" to satellite | zest is "related_to" to normal | zest is "related_to" to lentiginosis | zest is "related_to" to quark | zest is "related_to" to soap | zest is "related_to" to test | zest is "related_to, has_context" to rice | zest is "has_context" to can | zest is "related_to" to path_length | zest is "has_context" to legal | zest is "related_to" to loop | zest is "related_to" to circle | zest is "part_of, related_to" to pore | zest is "related_to, is_a" to weather | zest is "related_to" to ball | zest is "synonym" to preparation | zest is "similar_to, related_to, is_a, synonym" to spice | zest is "related_to" to part | zest is "related_to" to exotic | zest is "related_to" to living | zest is "synonym" to term | zest is "related_to, synonym" to shot | zest is "related_to" to fly | zest is "related_to" to pressure | zest is "related_to, synonym" to spirit | zest is "related_to" to bit | zest is "similar_to, related_to" to outside | zest is "related_to" to function | zest is "related_to" to along | zest is "related_to" to on | zest is "related_to" to quarter | zest is "related_to, used_for, has_prerequisite" to heat | zest is "related_to, used_for" to gas | zest is "related_to" to extend | zest is "has_context, related_to" to bread | zest is "related_to" to bat</t>
+  </si>
+  <si>
+    <t>diet is "related_to" to platform | diet is "has_prerequisite" to sit_down | diet is "related_to" to door | diet is "manner_of, related_to" to preserve | diet is "is_a" to mash | diet is "related_to" to zoophyte | diet is "at_location" to nerve | diet is "related_to" to cream | diet is "related_to" to leucosis | diet is "related_to" to variety | diet is "related_to" to fail | diet is "related_to" to our | diet is "related_to, has_prerequisite" to effort | diet is "related_to" to bullet | diet is "used_for, at_location, related_to" to table | diet is "causes" to buying_hamburger | diet is "related_to" to caecotroph | diet is "related_to, synonym" to break | diet is "related_to" to rice_milk | diet is "used_for" to entertainment | diet is "at_location, has_context, related_to" to bone | diet is "related_to, has_context" to military | diet is "related_to" to mother | diet is "related_to" to zipper | diet is "related_to, synonym" to limit | diet is "synonym, related_to" to deep | diet is "related_to" to destress | diet is "related_to" to deal | diet is "related_to, form_of" to fee | diet is "related_to" to dent | diet is "related_to, antonym, is_a, distinct_from" to bird | diet is "is_a" to clemency | diet is "used_for, related_to" to apple | diet is "related_to" to breath | diet is "related_to" to speed | diet is "has_context" to internet | diet is "related_to, used_for" to committee | diet is "related_to" to circuit | diet is "related_to, antonym" to make | diet is "related_to" to garment | diet is "related_to" to pyruvic_acid | diet is "related_to" to solids | diet is "is_a, used_for, manner_of, related_to" to corn | diet is "is_a" to chips | diet is "related_to" to warm | diet is "related_to" to algorithm | diet is "synonym, related_to" to boy | diet is "related_to" to escape | diet is "has_context" to seat | diet is "antonym, synonym, motivated_by_goal" to strong | diet is "similar_to, related_to, is_a" to protein | diet is "related_to" to silver | diet is "has_prerequisite" to write | diet is "related_to" to age | diet is "has_subevent" to watching_television | diet is "related_to, has_property" to alive | diet is "related_to" to axe | diet is "related_to" to font | diet is "related_to" to eye | diet is "has_subevent, causes, used_for" to entertaining | diet is "at_location, related_to" to nation | diet is "related_to, is_a" to loaf | diet is "is_a, derived_from, capable_of, related_to" to chicken | diet is "related_to" to black | diet is "related_to" to feet | diet is "related_to" to move | diet is "related_to" to 3_1_1 | diet is "related_to, used_for" to pleasure | diet is "synonym, similar_to, related_to" to normal | diet is "used_for" to musicians | diet is "etymologically_related_to, related_to, synonym" to part | diet is "at_location" to store | diet is "related_to" to rotation | diet is "has_context" to grammar | diet is "related_to" to cars | diet is "related_to" to issue | diet is "has_subevent, causes" to competing | diet is "related_to" to motion | diet is "related_to" to one | diet is "related_to" to fret | diet is "related_to" to refine | diet is "related_to" to slabber | diet is "related_to" to pull_up | diet is "related_to" to quality | diet is "related_to" to capture | diet is "related_to" to toad | diet is "used_for" to having_physical_exam | diet is "related_to" to vinegar | diet is "related_to" to canary | diet is "related_to, manner_of, is_a" to wolf | diet is "related_to" to polyunsaturated_fat | diet is "related_to" to river | diet is "related_to" to chylaqueous | diet is "related_to" to impost | diet is "related_to" to too | diet is "related_to" to ring | diet is "is_a" to bull | diet is "is_a" to ketchup | diet is "related_to, manner_of" to slash | diet is "has_subevent" to writing | diet is "related_to" to cats | diet is "related_to" to reductive | diet is "has_prerequisite, related_to" to predisposition | diet is "related_to" to horn | diet is "related_to" to army | diet is "related_to" to shell | diet is "related_to" to rap | diet is "related_to" to bunch | diet is "related_to" to cast | diet is "related_to" to chinese | diet is "related_to" to geopathic | diet is "is_a, manner_of, related_to" to slop | diet is "used_for, has_subevent, causes" to jogging | diet is "has_context, related_to" to economics | diet is "related_to" to crib | diet is "antonym, related_to" to light | diet is "is_a" to performing | diet is "related_to" to anchor | diet is "related_to" to agriculture | diet is "related_to" to cheat | diet is "related_to" to kip | diet is "has_last_subevent, has_subevent, related_to" to work_out | diet is "has_context" to biochemistry | diet is "causes, related_to" to happiness | diet is "related_to" to emphasis | diet is "related_to" to solution | diet is "related_to" to batman | diet is "related_to" to middle | diet is "related_to" to constrain | diet is "related_to" to generic | diet is "related_to, is_a, desires" to fish | diet is "related_to" to term | diet is "related_to" to napkin | diet is "is_a" to transcription | diet is "related_to" to federal | diet is "related_to" to spirit | diet is "has_subevent, entails, has_last_subevent" to compete | diet is "related_to" to distribution | diet is "used_for, related_to" to running | diet is "has_subevent" to play_sport | diet is "related_to, is_a" to charge | diet is "related_to" to branch | diet is "synonym, has_context, related_to" to go | diet is "related_to, is_a" to honey | diet is "related_to, at_location" to organ | diet is "related_to, is_a, synonym, has_first_subevent" to travel | diet is "related_to, antonym, distinct_from" to gain | diet is "related_to" to functional_food | diet is "related_to" to application | diet is "related_to" to hospital | diet is "related_to" to oat_milk | diet is "related_to, antonym, is_a, distinct_from" to human | diet is "causes" to cleaning | diet is "is_a" to comfort_food | diet is "related_to, synonym" to burden | diet is "related_to" to fisherman | diet is "related_to, antonym, is_a, derived_from" to whole | diet is "related_to" to exemplary | diet is "is_a" to coconut_milk | diet is "related_to" to hand | diet is "related_to" to self_improvement | diet is "related_to" to structure | diet is "used_for" to taking_walk | diet is "related_to" to remove | diet is "has_last_subevent" to yawn | diet is "related_to" to grass | diet is "related_to" to territorial_army | diet is "related_to, synonym" to design | diet is "manner_of" to white_out | diet is "related_to" to must | diet is "has_prerequisite, used_for, related_to" to fruit | diet is "related_to" to eject | diet is "related_to" to glass | diet is "is_a, related_to" to opening | diet is "related_to" to scarf | diet is "related_to" to refined | diet is "related_to" to performing_arts | diet is "related_to" to numbers | diet is "has_context" to american_football | diet is "related_to" to biological | diet is "is_a" to female | diet is "antonym" to up | diet is "related_to" to oil | diet is "related_to, similar_to, synonym" to uniform | diet is "has_context" to trap | diet is "related_to" to farmer | diet is "manner_of, related_to" to intend | diet is "related_to" to log | diet is "antonym" to hold | diet is "related_to" to center | diet is "related_to" to cotton | diet is "related_to" to election | diet is "related_to" to price | diet is "related_to" to flit | diet is "related_to, is_a" to horse | diet is "has_property" to satisfying | diet is "related_to" to belt | diet is "related_to" to traditional | diet is "synonym" to rear | diet is "related_to" to device | diet is "related_to, is_a" to chamber | diet is "related_to" to model | diet is "capable_of" to humans | diet is "related_to" to dimension | diet is "related_to" to little | diet is "related_to" to flash | diet is "related_to" to serving | diet is "related_to" to interaction | diet is "related_to" to four_legs | diet is "related_to" to hide | diet is "related_to" to raw | diet is "related_to" to periodic | diet is "has_context" to historic | diet is "related_to" to client | diet is "used_for" to waiting_on_tables | diet is "is_a" to competition | diet is "related_to" to rectificator | diet is "related_to" to manner | diet is "related_to" to lift | diet is "related_to" to rest | diet is "related_to" to mountain | diet is "related_to" to rice | diet is "motivated_by_goal, related_to" to feel_good | diet is "related_to" to tail | diet is "related_to, is_a, at_location" to house | diet is "related_to" to concession | diet is "related_to" to center_of_gravity | diet is "related_to" to valve | diet is "related_to" to multicellular | diet is "has_context" to australia | diet is "has_first_subevent" to have_party | diet is "is_a" to switching | diet is "related_to" to avast | diet is "related_to" to throw_out | diet is "related_to, has_subevent" to give_up | diet is "has_subevent, causes, used_for" to getting_fit | diet is "related_to" to lesson | diet is "related_to" to official | diet is "related_to" to almond_milk | diet is "related_to" to mind | diet is "related_to" to flask | diet is "related_to" to stock | diet is "is_a" to nightingale | diet is "has_prerequisite, used_for" to having_party | diet is "form_of, related_to" to control | diet is "distinct_from, at_location, located_near, related_to" to plate | diet is "antonym" to come | diet is "related_to" to kleine_levin_syndrome | diet is "related_to, synonym" to piece | diet is "manner_of" to become | diet is "has_context" to fantasy | diet is "related_to" to histology | diet is "related_to" to powder | diet is "related_to" to robbery | diet is "related_to" to taste | diet is "related_to" to congius | diet is "related_to" to blue | diet is "related_to" to serosity | diet is "related_to" to sickliness | diet is "related_to" to tongue | diet is "has_subevent, causes" to playing_games | diet is "related_to" to group | diet is "related_to" to sauce | diet is "related_to, at_location" to jar | diet is "causes" to surfing | diet is "related_to, synonym" to potable | diet is "related_to" to con | diet is "used_for" to killing | diet is "etymologically_related_to" to grapple | diet is "at_location" to liver | diet is "has_context" to sport | diet is "related_to" to ox | diet is "related_to" to vigour | diet is "related_to" to psychological | diet is "is_a" to shaping | diet is "related_to, manner_of" to schedule | diet is "is_a, related_to, antonym" to soup | diet is "related_to" to mobile | diet is "related_to" to massive | diet is "related_to" to expense | diet is "related_to" to mechanism | diet is "related_to" to spread | diet is "related_to, is_a, desires" to cat | diet is "related_to" to crappify | diet is "is_a" to soy_milk | diet is "related_to" to leave | diet is "related_to" to shoestring | diet is "related_to" to sprint | diet is "related_to" to source | diet is "related_to" to dry | diet is "related_to" to regiment | diet is "related_to" to chin_up | diet is "related_to" to bath | diet is "related_to, synonym" to cut | diet is "related_to" to four | diet is "has_subevent, causes" to sweat | diet is "used_for, causes" to running_in_marathon | diet is "etymologically_related_to" to in | diet is "related_to" to warming_up | diet is "related_to, antonym, distinct_from" to win | diet is "related_to" to time | diet is "antonym, distinct_from" to slowly | diet is "related_to, derived_from, etymologically_related_to" to loss | diet is "related_to" to legs | diet is "is_a" to can_of_soda | diet is "derived_from" to personal | diet is "related_to" to syndicate | diet is "related_to" to lens | diet is "related_to" to stuff | diet is "related_to" to nightclub | diet is "related_to" to ripper | diet is "has_context" to analysis | diet is "has_prerequisite, used_for" to staying_healthy | diet is "related_to, manner_of" to slurp | diet is "related_to" to occur | diet is "has_context" to aave | diet is "related_to, has_context" to clean | diet is "related_to" to party | diet is "related_to" to creative_work | diet is "related_to" to core | diet is "related_to" to round | diet is "has_context" to geometry | diet is "has_context" to mathematics | diet is "has_subevent" to go_jogging | diet is "related_to" to failure | diet is "related_to" to attitude | diet is "related_to, derived_from" to question | diet is "related_to" to warm_up | diet is "related_to, is_a" to reduction | diet is "antonym, distinct_from, related_to" to plant | diet is "related_to" to change | diet is "related_to" to potables | diet is "related_to" to column | diet is "is_a, related_to" to machine | diet is "is_a" to guarding | diet is "similar_to, related_to, synonym" to express | diet is "used_for, at_location, related_to" to salt | diet is "related_to" to domain | diet is "related_to" to related | diet is "related_to" to western | diet is "synonym, antonym" to tight | diet is "related_to" to main | diet is "related_to" to transaction | diet is "related_to, has_subevent" to act | diet is "related_to" to stroke | diet is "is_a" to burn | diet is "related_to" to rush | diet is "related_to" to lay | diet is "has_context" to us | diet is "is_a" to ride | diet is "distinct_from" to bug | diet is "related_to" to slinkskin | diet is "related_to" to atomic_cocktail | diet is "causes, used_for" to playing_sport | diet is "related_to" to club | diet is "related_to" to course | diet is "is_a" to closing | diet is "used_for" to buying_presents_for_others | diet is "is_a" to mare | diet is "related_to" to seal | diet is "causes" to decomposition | diet is "related_to" to effect | diet is "related_to" to skin | diet is "related_to, synonym" to trim | diet is "related_to" to word | diet is "related_to" to day | diet is "related_to" to generic_term | diet is "related_to" to measurement | diet is "related_to" to goodness | diet is "is_a, related_to" to island | diet is "related_to, has_context" to wind | diet is "related_to" to bruise | diet is "related_to" to being | diet is "not_desires" to hurt | diet is "related_to" to swill | diet is "has_context" to bacterial | diet is "has_context" to botany | diet is "related_to" to cost | diet is "related_to" to law | diet is "related_to, derived_from, etymologically_related_to" to take | diet is "synonym, manner_of, related_to, is_a" to consume | diet is "related_to" to shade | diet is "at_location" to shelf | diet is "is_a, related_to" to child | diet is "related_to" to wettability | diet is "related_to" to old | diet is "related_to" to function | diet is "is_a, used_for, related_to" to chocolate | diet is "manner_of" to take_out | diet is "related_to" to scale | diet is "has_context" to physics | diet is "related_to" to intense | diet is "related_to" to heal | diet is "related_to" to flight | diet is "related_to" to bus | diet is "used_for" to actors | diet is "related_to, is_a" to alcohol | diet is "related_to" to coal | diet is "related_to" to mcdungheap's | diet is "related_to" to wane | diet is "related_to" to utter | diet is "related_to" to disturbance | diet is "related_to" to metal | diet is "related_to, is_a, synonym" to sugar | diet is "related_to" to pop | diet is "is_a, related_to" to orange_juice | diet is "not_desires" to team | diet is "related_to" to derogatory | diet is "related_to, synonym" to government | diet is "has_subevent" to playing_game | diet is "has_context" to nautical | diet is "related_to" to paradigm | diet is "related_to" to material | diet is "synonym" to forum | diet is "related_to, synonym" to have | diet is "used_for, derived_from, has_context, related_to" to body | diet is "related_to" to nectar | diet is "related_to" to withers | diet is "is_a" to way | diet is "related_to" to honeycomb | diet is "related_to, synonym" to decimate | diet is "related_to" to seroepizootiology | diet is "has_subevent, causes, used_for" to getting_in_shape | diet is "causes" to injury | diet is "causes" to having_heart_attack | diet is "related_to" to ankle | diet is "related_to" to object | diet is "related_to, part_of" to face | diet is "related_to" to nest | diet is "has_subevent, causes" to stage_fright | diet is "related_to" to bar | diet is "related_to" to destroy | diet is "related_to" to utensil | diet is "causes, not_desires" to pain | diet is "related_to" to sleep | diet is "related_to" to unit | diet is "related_to" to ore | diet is "at_location" to membrane | diet is "related_to" to flea | diet is "motivated_by_goal, related_to, causes, causes_desire, used_for" to hunger | diet is "related_to" to bill | diet is "synonym" to drinkable | diet is "used_for" to keeping_things_orderly_and_tidy | diet is "related_to, causes, has_prerequisite, used_for" to energy | diet is "related_to" to type | diet is "part_of, related_to, is_a" to game | diet is "has_last_subevent" to talk | diet is "similar_to" to windy | diet is "related_to" to need | diet is "related_to" to member | diet is "related_to" to moment | diet is "related_to, is_a" to toast | diet is "has_context, related_to, derived_from, is_a" to biology | diet is "related_to" to craft | diet is "related_to" to shed | diet is "related_to" to convert | diet is "related_to" to fother | diet is "used_for, related_to, is_a" to egg | diet is "has_context" to nose | diet is "related_to, causes, antonym" to death | diet is "used_for, related_to, is_a, synonym" to bread | diet is "related_to" to blooded | diet is "related_to, synonym" to diminish | diet is "causes, used_for" to going_for_run | diet is "related_to" to like | diet is "related_to" to finger | diet is "has_subevent, has_prerequisite" to play_game | diet is "is_a" to concentration | diet is "synonym, distinct_from, has_subevent, related_to, antonym" to drink | diet is "related_to" to dermatophagy | diet is "etymologically_related_to, related_to, is_a" to rule | diet is "related_to, similar_to" to sound | diet is "is_a" to drinking_water | diet is "related_to, derived_from" to animalism | diet is "related_to" to deglaze | diet is "has_context" to scotland | diet is "related_to" to pull | diet is "is_a" to ritual | diet is "has_context" to mining | diet is "related_to" to chuck | diet is "has_subevent" to hearing_news | diet is "has_subevent" to smile | diet is "related_to" to point | diet is "distinct_from, related_to, antonym" to fast | diet is "related_to" to pullup | diet is "related_to" to cell | diet is "used_for, has_subevent, causes" to going_for_jog | diet is "related_to" to liqueur | diet is "related_to, derived_from, form_of" to perform | diet is "related_to" to gift | diet is "related_to" to fairy_butter | diet is "related_to" to period_doubling | diet is "used_for" to singers | diet is "related_to, synonym" to give | diet is "has_context" to historical | diet is "related_to" to grade | diet is "related_to" to hole | diet is "related_to" to adherence | diet is "related_to" to measure | diet is "derived_from" to warfare | diet is "related_to, is_a" to bench | diet is "related_to, at_location" to farm | diet is "related_to" to you | diet is "related_to" to winterize | diet is "related_to" to number | diet is "used_for, has_subevent" to singing | diet is "related_to" to mug | diet is "related_to" to bin | diet is "derived_from" to hydrate | diet is "used_for, related_to" to fork | diet is "related_to" to accident | diet is "related_to, derived_from" to calorie | diet is "related_to" to friend | diet is "related_to, is_a" to organization | diet is "antonym, form_of" to loose | diet is "similar_to" to double_quick | diet is "related_to" to bend | diet is "related_to" to preparation | diet is "related_to" to information | diet is "related_to, antonym" to irregular | diet is "is_a" to spider | diet is "related_to" to tin | diet is "related_to" to resolution | diet is "related_to" to tract | diet is "has_context" to phonology | diet is "has_context" to uk | diet is "related_to" to quarter | diet is "related_to" to fatigue | diet is "related_to" to item | diet is "has_prerequisite" to take_care_of_proposals | diet is "related_to, is_a" to adult | diet is "related_to" to major | diet is "related_to" to blood | diet is "is_a" to plan | diet is "related_to, is_a" to racer | diet is "related_to" to grape_wine | diet is "related_to" to limnobios | diet is "related_to" to white | diet is "related_to" to bellyband | diet is "manner_of" to put | diet is "at_location, related_to" to art | diet is "related_to" to so | diet is "related_to" to line | diet is "related_to" to phase | diet is "related_to" to filler | diet is "related_to" to soul | diet is "related_to" to cent | diet is "related_to, antonym" to production | diet is "related_to, antonym, distinct_from" to man | diet is "related_to" to mummy | diet is "related_to" to gelatin | diet is "etymologically_related_to" to hard | diet is "related_to" to moving | diet is "related_to" to header | diet is "related_to" to management | diet is "related_to" to nervous | diet is "related_to" to shape | diet is "related_to" to seismic_design | diet is "similar_to" to instantaneous | diet is "related_to" to square | diet is "related_to" to tower | diet is "related_to" to mass | diet is "related_to" to relation | diet is "manner_of, related_to" to worry | diet is "related_to, has_context" to social | diet is "antonym" to keep | diet is "related_to" to cannon | diet is "part_of, related_to" to head | diet is "related_to" to roll | diet is "related_to" to lifting | diet is "at_location" to school | diet is "related_to" to force | diet is "related_to" to period | diet is "related_to" to stage | diet is "related_to" to scratch | diet is "causes" to tiredness | diet is "related_to, has_property, antonym, is_a" to good | diet is "motivated_by_goal, has_subevent, related_to" to jog | diet is "related_to, is_a" to bear | diet is "related_to" to train | diet is "related_to, at_location" to dinner | diet is "related_to" to drug | diet is "related_to, has_property" to green | diet is "similar_to" to switch | diet is "related_to" to paint | diet is "related_to" to pantostomatous | diet is "related_to" to failing | diet is "related_to" to poor | diet is "related_to" to cross | diet is "related_to" to wait | diet is "is_a" to tracking | diet is "related_to, is_a" to butter | diet is "distinct_from" to premium | diet is "causes_desire" to buy_shirt | diet is "related_to" to oppress | diet is "related_to" to monster | diet is "related_to" to fellow | diet is "related_to" to frog | diet is "related_to" to graybody | diet is "related_to" to basket | diet is "synonym, manner_of, related_to" to shrink | diet is "related_to" to caproic_acid | diet is "is_a, related_to" to mate | diet is "related_to" to stage_fear | diet is "related_to" to ginger | diet is "has_context" to fruit_machine | diet is "has_subevent" to playing_tennis | diet is "at_location, related_to" to press | diet is "is_a" to introduction | diet is "related_to" to advantage | diet is "related_to" to rate | diet is "similar_to, related_to, synonym" to speedy | diet is "related_to" to development | diet is "has_context" to horse_racing | diet is "related_to, causes, derived_from, motivated_by_goal" to healthy | diet is "related_to" to liberty | diet is "related_to" to hazelnut_milk | diet is "is_a" to information_transfer | diet is "related_to" to wood | diet is "capable_of, desires, related_to, is_a, used_for" to animal | diet is "related_to" to process | diet is "has_prerequisite, related_to, is_a, used_for, distinct_from, form_of, capable_of" to eating | diet is "related_to" to service | diet is "related_to" to purpose | diet is "is_a" to climbing | diet is "related_to" to closet | diet is "related_to, synonym" to fortune | diet is "related_to, antonym, is_a" to beverage | diet is "related_to" to follow | diet is "related_to" to boil | diet is "related_to" to molasses | diet is "at_location" to hair | diet is "related_to" to primary_reinforcement | diet is "has_subevent, has_prerequisite" to traveling | diet is "related_to" to hemp_milk | diet is "has_prerequisite" to going_to_work | diet is "is_a" to artifact | diet is "related_to" to small | diet is "related_to" to albedo | diet is "related_to, antonym" to profit | diet is "related_to" to grey | diet is "related_to" to beat | diet is "related_to" to clear | diet is "related_to" to lime | diet is "related_to" to present | diet is "related_to" to mean | diet is "related_to" to flower | diet is "synonym" to natural | diet is "related_to" to crocoduck | diet is "related_to" to stop | diet is "related_to" to rock | diet is "related_to" to draw | diet is "related_to, has_context" to reading | diet is "related_to" to solidus | diet is "related_to, synonym" to do | diet is "related_to" to bauplan | diet is "antonym, distinct_from" to sick | diet is "manner_of" to go_down | diet is "related_to" to vodka | diet is "at_location, related_to" to bowl | diet is "related_to, synonym" to divide | diet is "related_to" to amount | diet is "is_a, has_context" to culture_medium | diet is "is_a, related_to" to hare | diet is "related_to" to passage | diet is "related_to" to nursery | diet is "related_to" to coat | diet is "has_prerequisite" to skill | diet is "causes" to muscles | diet is "related_to" to tom | diet is "used_for, related_to, at_location" to can | diet is "related_to" to spice | diet is "related_to" to chipmunk | diet is "is_a" to melody | diet is "related_to" to close | diet is "related_to" to general_term | diet is "related_to" to pressure | diet is "related_to" to battle | diet is "related_to" to pheromone | diet is "related_to, at_location" to bottle | diet is "related_to" to fish_oil | diet is "related_to" to imponderable | diet is "related_to" to out | diet is "related_to" to comfort | diet is "related_to" to very | diet is "related_to" to gasoline | diet is "related_to" to speedball | diet is "related_to" to play | diet is "related_to" to sting | diet is "related_to" to pass | diet is "related_to" to ram | diet is "related_to" to floater | diet is "distinct_from, related_to, antonym" to illness | diet is "related_to" to making | diet is "related_to" to layout | diet is "related_to, used_for" to race | diet is "has_subevent" to improving_image | diet is "related_to" to sketch | diet is "related_to" to erode | diet is "related_to" to polish | diet is "related_to" to tablespoon | diet is "manner_of, synonym" to suffer | diet is "related_to" to state | diet is "related_to" to sex | diet is "related_to" to punishment | diet is "related_to" to sigh_of_relief | diet is "used_for, has_subevent" to maintaining_good_health | diet is "used_for, has_subevent, causes" to getting_exercise | diet is "related_to" to birthday | diet is "related_to" to before | diet is "is_a, synonym, related_to, manner_of" to project | diet is "is_a" to slug | diet is "related_to" to serve | diet is "related_to" to insult | diet is "related_to" to ease | diet is "is_a" to suicide | diet is "causes, causes_desire, has_prerequisite, related_to, has_first_subevent, has_subevent" to exercise | diet is "has_subevent, has_prerequisite, related_to, is_a" to work | diet is "related_to" to stern | diet is "related_to" to level | diet is "related_to" to shake | diet is "related_to" to balance | diet is "has_context" to video_games | diet is "has_subevent, causes, has_context, has_prerequisite, used_for, related_to" to cooking | diet is "related_to" to acid | diet is "related_to" to density | diet is "related_to, is_a" to rabbit | diet is "related_to" to dear | diet is "related_to" to influence | diet is "derived_from, related_to" to berry | diet is "not_desires, related_to" to die | diet is "related_to" to journey | diet is "related_to" to gigantothermy | diet is "has_subevent, causes" to competing_against | diet is "has_context" to abc | diet is "manner_of, related_to" to restrict | diet is "is_a, related_to" to magic | diet is "related_to" to ectoderm | diet is "related_to" to pace | diet is "related_to" to omega_3_fatty_acid | diet is "related_to, is_a" to payment | diet is "causes" to investing_money_or_energy | diet is "has_property" to horses | diet is "related_to" to feeling | diet is "related_to, synonym" to libation | diet is "related_to" to care | diet is "at_location" to grape | diet is "has_context" to settle | diet is "related_to" to flavour | diet is "related_to" to absolute | diet is "related_to" to mental | diet is "has_context" to homeothermic | diet is "related_to" to rotolo | diet is "motivated_by_goal, at_location" to shop | diet is "related_to" to surface | diet is "related_to" to take_l | diet is "is_a" to cultural_activity | diet is "has_context" to medium | diet is "at_location" to aria | diet is "related_to" to result | diet is "related_to" to employ | diet is "related_to" to venom | diet is "has_context, etymologically_related_to, related_to" to british | diet is "related_to" to fill | diet is "related_to" to drive | diet is "related_to, at_location" to season | diet is "related_to" to species | diet is "antonym" to tall | diet is "is_a" to eggs | diet is "related_to" to earthly_branch | diet is "related_to, antonym, distinct_from" to winning | diet is "used_for, distinct_from, derived_from, related_to, antonym" to mineral | diet is "etymologically_related_to, related_to" to bate | diet is "related_to" to gun | diet is "related_to" to add | diet is "at_location" to container | diet is "related_to" to set | diet is "related_to" to movement | diet is "related_to, is_a" to organism | diet is "related_to" to back | diet is "related_to" to space | diet is "related_to, derived_from" to essential | diet is "related_to, antonym" to abnormal | diet is "related_to" to infectious_disease | diet is "related_to" to pullover | diet is "related_to" to sanguivore | diet is "at_location, has_context" to canada | diet is "is_a, synonym, causes, related_to" to action | diet is "related_to" to brewing | diet is "related_to, is_a" to milk | diet is "related_to, antonym" to reduce | diet is "is_a" to single | diet is "related_to" to malfunction | diet is "distinct_from, is_a, related_to" to size | diet is "is_a" to cinnamon_roll | diet is "related_to" to fit | diet is "related_to" to physical | diet is "related_to" to fade | diet is "related_to" to going | diet is "synonym, related_to" to denizen | diet is "derived_from, is_a, related_to" to juice | diet is "related_to" to bad | diet is "related_to, is_a" to mole | diet is "related_to" to translate | diet is "related_to" to metric | diet is "is_a, has_a, used_for, related_to, at_location, synonym" to meat | diet is "is_a" to recital | diet is "at_location" to omega | diet is "related_to" to capital | diet is "has_context" to programming | diet is "related_to" to overweight | diet is "related_to" to iron | diet is "related_to" to stretch | diet is "related_to" to kernel | diet is "is_a" to tangible_thing | diet is "related_to" to unison | diet is "related_to" to whip | diet is "related_to" to isometric | diet is "related_to" to origin | diet is "related_to" to tool | diet is "related_to" to power | diet is "related_to, distinct_from" to paste | diet is "used_for, causes" to doing_exercises | diet is "related_to" to subject | diet is "related_to, is_a" to mammal | diet is "related_to" to skunk | diet is "is_a, distinct_from, related_to, antonym" to disease | diet is "has_subevent, has_prerequisite, related_to, has_last_subevent, antonym, is_a, entails" to swallow | diet is "related_to, is_a, has_subevent" to bite | diet is "related_to" to event | diet is "related_to" to some | diet is "related_to" to children | diet is "related_to" to treat | diet is "related_to" to dressing | diet is "has_prerequisite" to running_errands | diet is "has_subevent" to watching_tv_show | diet is "has_property, causes, used_for" to walking | diet is "related_to" to has | diet is "related_to" to extending | diet is "has_subevent" to squeeze | diet is "related_to" to taint | diet is "at_location" to terrace | diet is "related_to" to trip | diet is "related_to, antonym, is_a, has_a, at_location" to water | diet is "related_to" to build | diet is "motivated_by_goal, has_subevent, has_prerequisite" to play_tennis | diet is "has_context" to dialectal | diet is "has_context, related_to" to bacteria | diet is "related_to" to rocket | diet is "related_to" to liquid_oxygen | diet is "related_to" to hydrogen_cycle | diet is "has_last_subevent" to clean_up | diet is "related_to" to contain | diet is "has_context" to dialect | diet is "related_to, is_a" to idea | diet is "at_location" to heart | diet is "related_to" to toe | diet is "related_to" to souse | diet is "related_to" to lip | diet is "related_to" to immunity | diet is "related_to" to kidney | diet is "capable_of" to amount_to_nothing | diet is "related_to, used_for" to st</t>
+  </si>
+  <si>
+    <t>assault is "has_context" to bayonet | assault is "has_context" to platform | assault is "antonym" to peace | assault is "has_context" to warrantless_search | assault is "synonym, has_context" to approach | assault is "has_context" to about_turn | assault is "has_context" to commutation | assault is "has_context" to peine_forte_et_dure | assault is "related_to, antonym" to fail | assault is "has_context" to buck | assault is "related_to, synonym" to effort | assault is "has_context" to blank | assault is "related_to" to green_light | assault is "related_to" to penology | assault is "related_to" to complex | assault is "related_to, has_context" to break | assault is "has_context" to jockey | assault is "has_context" to mine | assault is "related_to" to astragal | assault is "related_to, has_context" to military | assault is "has_context, related_to" to surveillance | assault is "has_context" to observer | assault is "related_to" to limit | assault is "has_context" to pocket | assault is "derived_from, has_context" to double | assault is "has_context" to stranger | assault is "related_to, has_context" to town | assault is "has_context" to fine | assault is "related_to, at_location" to bird | assault is "related_to, is_a, has_context" to murder | assault is "has_context" to brew_up | assault is "has_context" to inculpate | assault is "has_context" to arrestable | assault is "has_context" to circuit | assault is "has_context" to gunship | assault is "has_context, related_to, synonym, manner_of" to make | assault is "used_for" to getting_in_line | assault is "has_context" to detail | assault is "related_to" to sheepshagger | assault is "has_context" to boy | assault is "has_context, related_to" to outpost | assault is "related_to, etymologically_related_to" to git | assault is "related_to" to seat | assault is "has_context, related_to" to enemy | assault is "related_to" to cat's_paw | assault is "related_to, has_context" to officer | assault is "related_to" to duty | assault is "manner_of" to borrow | assault is "has_context" to death_penalty | assault is "has_context" to smoke | assault is "related_to" to axe | assault is "has_context" to soc | assault is "related_to" to match | assault is "has_context" to zap | assault is "has_context" to munition | assault is "has_context" to mold | assault is "related_to" to move | assault is "is_a, related_to, manner_of, synonym" to fight | assault is "has_context" to lp | assault is "related_to" to frat_lit | assault is "related_to" to branch_of_government | assault is "has_context" to primary_offense | assault is "has_context" to garnish | assault is "related_to" to part | assault is "has_context" to indict | assault is "capable_of" to dogs | assault is "related_to" to khaki | assault is "has_context" to crossfire | assault is "has_context" to crown_attorney | assault is "related_to, has_a" to cars | assault is "has_context" to minute_gun | assault is "has_context" to issue | assault is "has_context" to test_paper | assault is "related_to" to one | assault is "has_context" to display | assault is "is_a" to mechanical_device | assault is "causes_desire" to serve_justice | assault is "synonym, manner_of" to capture | assault is "related_to" to mufti | assault is "has_context, related_to" to requisition | assault is "related_to" to board | assault is "has_context" to hand_grenade | assault is "related_to" to desert | assault is "related_to" to wolf | assault is "related_to" to chief | assault is "related_to" to river | assault is "has_context" to sandbox | assault is "related_to" to awesome | assault is "has_context" to warrant_officer | assault is "has_context" to pol | assault is "related_to" to punish | assault is "has_context" to civvy_street | assault is "related_to" to freedom_of_information | assault is "has_context" to obtention | assault is "has_context" to attach | assault is "has_context" to paviage | assault is "has_context" to stack | assault is "etymologically_related_to, related_to, causes, similar_to, has_context, part_of, is_a, form_of, derived_from, synonym" to assault | assault is "related_to, part_of" to terminal | assault is "related_to, has_context" to dragon | assault is "related_to" to slash | assault is "related_to, has_context" to loot | assault is "related_to" to culpability | assault is "etymologically_related_to, related_to, has_context" to steamer | assault is "has_context, related_to" to court_martial | assault is "has_context" to appropriate | assault is "related_to, has_context" to army | assault is "has_context" to bog | assault is "related_to" to shell | assault is "has_context, related_to" to v | assault is "related_to" to law_enforcement | assault is "has_context" to absolve | assault is "has_context" to united_states | assault is "has_context" to r | assault is "part_of, has_a, manner_of, related_to" to handle | assault is "has_context, related_to, manner_of, is_a, synonym" to attack | assault is "related_to" to suspook | assault is "has_context" to on_point | assault is "related_to" to doc | assault is "has_context" to teinland | assault is "has_context" to buy_off | assault is "has_context" to approve | assault is "related_to" to dobber | assault is "has_context" to crib | assault is "has_context, related_to" to command | assault is "has_context" to raf | assault is "related_to" to peak | assault is "has_property" to television | assault is "related_to" to fish | assault is "related_to" to term | assault is "related_to" to squirrel | assault is "has_context" to peine | assault is "has_context" to armor_piercing | assault is "related_to, is_a, has_context, used_for" to charge | assault is "has_context" to crown | assault is "form_of, related_to" to criminals | assault is "synonym, related_to" to go | assault is "has_context" to tac | assault is "has_context, synonym" to beast | assault is "has_context" to ultimus_haeres | assault is "at_location" to human | assault is "has_prerequisite, related_to, causes_desire, synonym, form_of, derived_from" to fence | assault is "related_to, distinct_from" to stole | assault is "related_to, has_context" to arsenal | assault is "has_context" to iron_cross | assault is "related_to" to burden | assault is "related_to, has_context" to men | assault is "related_to" to arms | assault is "related_to" to fool | assault is "has_context" to css | assault is "related_to" to mil | assault is "has_context" to plagiarize | assault is "related_to" to design | assault is "has_context" to rfc | assault is "has_context" to firing_squad | assault is "related_to, has_context" to base | assault is "related_to, is_a, synonym, has_context" to battery | assault is "at_location" to glass | assault is "related_to" to draft | assault is "at_location" to basement | assault is "at_location" to rod | assault is "has_context" to tomahawk | assault is "related_to" to two | assault is "related_to" to acute | assault is "antonym" to up | assault is "causes_desire" to send_criminal_to_prison | assault is "at_location, related_to" to oil | assault is "has_property" to flowers | assault is "related_to" to colonel_blimp | assault is "has_context" to dis | assault is "related_to" to ana | assault is "used_for" to hold | assault is "has_context, related_to" to reprise | assault is "has_context" to rm | assault is "related_to" to scrag | assault is "at_location, has_context" to horse | assault is "related_to" to bad_behavior | assault is "synonym, related_to" to rash | assault is "has_context" to tale | assault is "has_context" to scramble | assault is "has_context" to rear | assault is "related_to" to hoody | assault is "has_context" to foxhole | assault is "is_a, has_context" to accessory | assault is "has_context, motivated_by_goal" to wanted | assault is "capable_of" to humans | assault is "related_to" to sleuth | assault is "has_context" to breakthrough | assault is "related_to" to little | assault is "related_to, has_context" to flash | assault is "has_context" to regional | assault is "has_context" to cover | assault is "is_a" to crack | assault is "has_context" to fragmentation_grenade | assault is "related_to" to bee | assault is "related_to" to witness | assault is "has_context" to heading | assault is "related_to" to target | assault is "related_to" to go_equipped | assault is "related_to" to every | assault is "has_context" to rest | assault is "has_context, related_to" to spy | assault is "has_context" to tail | assault is "has_context" to plea_bargaining | assault is "manner_of, related_to" to seize | assault is "has_context" to skyjack | assault is "has_context" to mitrailleuse | assault is "related_to" to shako | assault is "has_context" to extraction | assault is "at_location" to outside | assault is "related_to" to makes | assault is "related_to" to connive | assault is "related_to" to complicity | assault is "has_context" to flight_risk | assault is "related_to, antonym, distinct_from" to defence | assault is "related_to" to trophy | assault is "has_context" to enter | assault is "has_context" to ransom | assault is "related_to" to control | assault is "has_context" to sac | assault is "has_context" to piece | assault is "related_to, synonym" to become | assault is "related_to" to fantasy | assault is "causes_desire, is_a, distinct_from, related_to" to kill | assault is "related_to, has_context" to robbery | assault is "related_to" to lag | assault is "has_context" to seduction | assault is "has_context, synonym" to group | assault is "has_context" to bks | assault is "at_location, related_to, has_context" to captain | assault is "has_context" to elocute | assault is "is_a, has_prerequisite, used_for" to killing | assault is "etymologically_related_to, related_to" to er | assault is "has_context, related_to" to sport | assault is "manner_of, related_to, has_context" to find | assault is "has_context" to proceed | assault is "has_context" to kerrison_predictor | assault is "has_context" to disappearing_carriage | assault is "has_context" to schedule | assault is "has_context" to exfiltrate | assault is "related_to" to cookie | assault is "has_context" to tap | assault is "has_context" to centesimation | assault is "related_to" to sentence | assault is "has_context" to snider | assault is "related_to" to abetment | assault is "has_context" to avowant | assault is "at_location, has_property, has_context" to cat | assault is "related_to" to sexual | assault is "related_to" to murder_hole | assault is "has_context" to dead | assault is "antonym, has_context" to leave | assault is "has_context" to counterfire | assault is "has_context" to button | assault is "has_context" to peremptory | assault is "has_context" to cut | assault is "has_context" to ireland | assault is "used_for" to fun | assault is "related_to" to four | assault is "has_context" to vice | assault is "has_context" to dugout | assault is "has_context, related_to" to in | assault is "has_context" to gunner | assault is "has_context" to extent | assault is "is_a" to wrongdoing | assault is "related_to" to ship_out | assault is "has_context, related_to" to all_nighter | assault is "form_of" to gat | assault is "related_to" to conquer | assault is "has_context" to maker | assault is "has_context, related_to" to jankers | assault is "has_context" to circus | assault is "related_to" to web | assault is "has_context" to solidum | assault is "related_to" to choker | assault is "related_to" to penitentiary | assault is "has_context" to malfeasance | assault is "related_to, has_context" to chess | assault is "related_to, synonym" to locomotive | assault is "related_to" to dream | assault is "has_context" to volunteer | assault is "related_to" to scoop | assault is "related_to" to rank | assault is "antonym, related_to" to judge | assault is "has_context" to ll | assault is "has_context" to coop | assault is "related_to, has_context" to criminal_law | assault is "has_context" to aave | assault is "related_to" to secondary_victimization | assault is "related_to, has_context" to party | assault is "has_context" to n.s | assault is "synonym" to round | assault is "is_a, has_context" to instrument | assault is "has_context" to entry | assault is "causes_desire" to love | assault is "related_to" to cartooney | assault is "has_context" to column | assault is "synonym, related_to" to machine | assault is "has_context" to formation | assault is "has_context" to book | assault is "related_to" to cake | assault is "related_to" to dangerous | assault is "has_context" to squib | assault is "has_context" to box | assault is "related_to, is_a, manner_of" to act | assault is "is_a, related_to" to stroke | assault is "manner_of, derived_from, has_context, related_to, is_a" to rush | assault is "derived_from, has_context" to lay | assault is "has_a, has_context" to us | assault is "related_to" to vehicle | assault is "related_to" to trick | assault is "has_context, related_to" to club | assault is "related_to" to course | assault is "related_to, is_a, synonym" to theft | assault is "manner_of, related_to" to pin | assault is "related_to" to respect | assault is "derived_from" to lagger | assault is "used_for, related_to" to machine_gun | assault is "related_to" to apply | assault is "has_context" to abandonment | assault is "related_to" to gang | assault is "related_to" to scorpion | assault is "has_context" to fortify | assault is "related_to" to kick | assault is "has_context" to broad | assault is "has_context" to comrade_in_arms | assault is "related_to" to effect | assault is "related_to" to easement | assault is "manner_of, synonym, related_to, has_context" to raid | assault is "related_to" to academy | assault is "related_to" to wind | assault is "has_context" to bolter | assault is "related_to, antonym, has_context" to surrender | assault is "has_context" to present_arms | assault is "related_to" to adopt | assault is "is_a" to being | assault is "related_to" to hurt | assault is "has_context, is_a" to pirate | assault is "etymologically_related_to" to of | assault is "related_to" to armada | assault is "related_to" to invasive | assault is "etymologically_related_to" to here | assault is "has_context" to prod | assault is "related_to" to ab | assault is "related_to" to divorce | assault is "has_context, related_to, antonym" to law | assault is "has_context" to right_of_first_refusal | assault is "related_to, antonym, synonym" to take | assault is "related_to" to cid | assault is "has_context, related_to" to child | assault is "related_to" to sentencing | assault is "has_context" to imp | assault is "has_context" to testimony | assault is "related_to" to scale | assault is "has_context" to condemn | assault is "has_context" to crucifixion | assault is "has_context" to chapter | assault is "is_a" to comics_character | assault is "has_context" to stick | assault is "has_context" to bus | assault is "derived_from, has_context, related_to, is_a" to crime | assault is "has_context" to det | assault is "related_to" to permit | assault is "has_context, related_to" to cricket | assault is "related_to" to gathering | assault is "has_context" to assault_rifle | assault is "has_context" to chapiter | assault is "related_to" to diss | assault is "has_context" to derogatory | assault is "related_to" to government | assault is "has_context" to nautical | assault is "related_to, has_prerequisite" to outfit | assault is "related_to" to behavior | assault is "synonym, related_to" to aim | assault is "synonym" to spoil | assault is "has_context, related_to" to missile | assault is "is_a" to intelligent_agent_activity | assault is "related_to, synonym, motivated_by_goal" to have | assault is "related_to" to body | assault is "has_context" to real | assault is "related_to, antonym" to block | assault is "related_to, causes" to injury | assault is "has_context" to rake_off | assault is "related_to" to remeid | assault is "has_context" to port | assault is "related_to" to chain | assault is "has_context" to twelve | assault is "related_to, synonym" to violation | assault is "related_to" to face | assault is "has_context, related_to" to nest | assault is "has_context" to para | assault is "is_a" to beginning | assault is "has_context, related_to" to record | assault is "synonym" to villain | assault is "related_to" to barber | assault is "related_to" to bent | assault is "at_location, related_to" to bar | assault is "manner_of, related_to" to destroy | assault is "is_a, related_to" to best | assault is "related_to" to pain | assault is "derived_from, has_context" to aaa | assault is "related_to" to sin | assault is "related_to" to clutch | assault is "is_a" to stealing | assault is "has_context, related_to" to unit | assault is "at_location" to snake | assault is "related_to, is_a" to ship | assault is "antonym" to flea | assault is "has_context" to bill | assault is "related_to, causes" to energy | assault is "has_context" to call | assault is "synonym" to type | assault is "related_to, form_of" to crimes | assault is "related_to" to mistake | assault is "has_context" to indent | assault is "related_to, has_context" to count | assault is "has_context, derived_from" to game | assault is "has_context" to user | assault is "has_context" to order_arms | assault is "related_to, has_context, manner_of" to challenge | assault is "has_context" to spearhead | assault is "has_context" to gen | assault is "has_context" to overkill | assault is "has_context" to free | assault is "is_a" to craft | assault is "has_context" to cob | assault is "has_context, related_to" to convert | assault is "related_to" to necklace | assault is "related_to" to egg | assault is "related_to" to arrastão | assault is "has_context" to headstamp | assault is "has_context" to boxing | assault is "has_context" to pub | assault is "at_location" to grenade | assault is "has_context" to clash | assault is "has_context" to prime | assault is "has_context" to suss_law | assault is "is_a" to explosive | assault is "related_to" to rough | assault is "has_context, related_to" to lieutenant | assault is "related_to" to like | assault is "has_context" to self_seeking | assault is "related_to, has_context" to steam | assault is "related_to" to drink | assault is "has_context" to attachment | assault is "has_context" to erstwhile | assault is "related_to" to large | assault is "related_to, has_context" to rule | assault is "has_context" to female_tank | assault is "has_context" to sound | assault is "related_to" to altitude | assault is "related_to, synonym" to plunder | assault is "has_context" to scotland | assault is "related_to, has_context" to equip | assault is "has_context" to walk | assault is "has_context, related_to" to chevron | assault is "has_context, related_to, antonym, distinct_from" to retreat | assault is "has_context" to mining | assault is "has_context" to composition | assault is "has_context" to tallboy | assault is "has_context" to point | assault is "related_to, manner_of, has_context" to hit | assault is "has_context" to interdict | assault is "related_to" to cell | assault is "has_context" to bugger | assault is "has_context" to blackmail | assault is "has_context" to carjack | assault is "has_context" to push | assault is "manner_of" to blow | assault is "has_context" to exclusionary_rule | assault is "related_to" to troubles | assault is "has_context" to infant | assault is "related_to, is_a" to letter | assault is "has_context" to admiralty | assault is "antonym, has_prerequisite, related_to" to give | assault is "has_context" to historical | assault is "has_context" to mess | assault is "has_context" to mt | assault is "has_context" to gob | assault is "related_to" to allow | assault is "has_context" to register | assault is "has_context, related_to" to camp | assault is "has_context" to bench | assault is "related_to" to look | assault is "related_to" to farm | assault is "has_context, related_to" to ace_of_aces | assault is "related_to, similar_to" to post | assault is "derived_from, related_to, has_context" to wager_of_battle | assault is "has_context" to traverse | assault is "has_context" to bogey | assault is "has_context" to chalk | assault is "has_context, related_to, form_of" to mug | assault is "has_context, related_to" to brat | assault is "related_to" to intercourse | assault is "related_to" to hill_station | assault is "related_to" to trade | assault is "has_context" to individual | assault is "has_context" to omertà | assault is "has_context" to slow_march | assault is "related_to" to bloody_code | assault is "related_to" to together | assault is "has_context" to galloper | assault is "related_to" to crisis | assault is "related_to" to beat_rap | assault is "has_context" to accident | assault is "has_context" to fid | assault is "related_to" to own | assault is "has_context, related_to" to at | assault is "related_to" to wicket | assault is "has_context" to stand_up | assault is "has_context, related_to" to breach | assault is "related_to" to whitey | assault is "related_to" to irregular | assault is "related_to" to disembody | assault is "related_to" to franchise | assault is "related_to" to spider | assault is "has_context" to animus_furandi | assault is "related_to, has_context" to company | assault is "related_to, has_context" to convict | assault is "has_context, related_to" to fin | assault is "has_context" to rustle | assault is "has_context" to disbarment | assault is "part_of, related_to, has_context" to uk | assault is "has_context" to quarter | assault is "has_context" to four_by_two | assault is "has_context" to bah | assault is "has_context" to trite | assault is "related_to, has_context" to damage | assault is "has_context" to corbeil | assault is "related_to" to honeypot | assault is "has_context" to embuggerance | assault is "has_context" to summons | assault is "related_to, has_context" to tank | assault is "has_context" to ack_emma | assault is "related_to, antonym, distinct_from" to put | assault is "related_to, has_context" to levy | assault is "used_for, related_to" to weapon | assault is "has_context" to art | assault is "has_context" to line | assault is "has_context, related_to, is_a, synonym" to bandit | assault is "synonym, related_to" to address | assault is "has_property" to statement | assault is "related_to" to lituus | assault is "has_context" to cent | assault is "has_context" to retrench | assault is "related_to" to understanding | assault is "has_context" to lineup | assault is "has_context" to wobbler | assault is "has_context" to mop | assault is "related_to, synonym" to bring | assault is "has_context" to admittance | assault is "related_to" to hard | assault is "has_context" to barb | assault is "is_a, synonym, manner_of" to turn | assault is "has_context" to bogie | assault is "has_context, related_to" to beat_up | assault is "used_for" to tea | assault is "has_context" to sniper_rifle | assault is "has_context" to square | assault is "related_to, synonym" to be | assault is "has_subevent" to kill_people | assault is "related_to" to police_protection | assault is "has_context" to defer | assault is "has_context" to administrator | assault is "related_to" to triumph | assault is "related_to, at_location" to prison | assault is "related_to, used_for" to cannon | assault is "has_context" to head | assault is "has_context" to gunfire | assault is "related_to" to mess_up | assault is "is_a, synonym, has_context, related_to" to force | assault is "related_to" to service_revolver | assault is "has_context" to jacket | assault is "related_to, derived_from" to chase | assault is "has_context" to grant | assault is "has_context" to saw | assault is "has_context" to hypo | assault is "has_context" to ad | assault is "is_a, related_to" to martial_art | assault is "not_has_property" to good | assault is "has_context" to battalion | assault is "has_context, related_to" to bear | assault is "related_to, has_context, part_of" to train | assault is "related_to" to note_shaver | assault is "has_context" to tiny_tim | assault is "related_to" to swede | assault is "has_context" to green | assault is "has_context" to staff | assault is "has_context" to headnote | assault is "related_to" to legit | assault is "related_to, has_context" to cross | assault is "related_to, has_context" to citizen's_arrest | assault is "related_to" to bonnet | assault is "related_to, has_context" to detachment | assault is "related_to" to jaw | assault is "related_to" to mortal | assault is "has_context" to crimp | assault is "has_context" to mag | assault is "has_context" to mortar | assault is "has_context" to goudron | assault is "has_context" to tour | assault is "related_to, is_a, synonym" to outlaw | assault is "related_to, is_a, synonym" to motor | assault is "has_context" to award | assault is "has_context" to benchslap | assault is "has_context" to cag | assault is "has_context" to champerty | assault is "has_context" to mia | assault is "related_to, manner_of, derived_from" to rape | assault is "at_location" to underground_area | assault is "related_to" to gunshed | assault is "related_to, has_context" to bail | assault is "is_a, manner_of" to touch | assault is "has_context" to supra | assault is "related_to" to ree | assault is "has_context" to frag | assault is "has_context" to fam | assault is "related_to" to nissen_hut | assault is "related_to" to dispatch | assault is "at_location, related_to" to animal | assault is "has_context" to vid | assault is "has_context" to concealment | assault is "has_context" to process | assault is "has_context" to reit | assault is "has_context, related_to" to service | assault is "derived_from" to drygulcher | assault is "has_context" to fruit_of_poisonous_tree | assault is "has_context" to buster | assault is "has_context" to counterstrike | assault is "related_to" to beverage | assault is "has_context" to fare | assault is "has_context, antonym" to guard | assault is "has_context" to bracket | assault is "related_to" to shower | assault is "has_context" to ip | assault is "has_context" to popular | assault is "has_context" to cluster | assault is "related_to" to snow | assault is "related_to" to small | assault is "has_context" to def | assault is "manner_of, has_context" to profit | assault is "has_context" to embezzle | assault is "related_to, has_context" to tinker | assault is "has_context" to skysweeper | assault is "related_to" to vessel | assault is "has_context" to bunk | assault is "has_context" to beat | assault is "has_context" to trooper | assault is "has_context" to decree | assault is "is_a, manner_of, related_to" to strike | assault is "has_context, related_to" to present | assault is "synonym, manner_of" to affect | assault is "has_context, related_to" to three_strikes | assault is "related_to" to moither | assault is "related_to" to rock | assault is "synonym" to draw | assault is "has_context" to lam | assault is "has_context" to roughrider | assault is "related_to, has_context" to drill | assault is "related_to" to bamboo | assault is "related_to" to achieve | assault is "has_context" to accusation | assault is "related_to" to police_search_advisor | assault is "has_context" to master | assault is "related_to" to accuse | assault is "related_to, is_a, has_context" to felony | assault is "manner_of, related_to" to jump | assault is "related_to, is_a" to gangster | assault is "related_to" to henry | assault is "has_context" to brief | assault is "related_to, etymologically_related_to" to vic | assault is "has_context, manner_of" to poll | assault is "has_context" to fed | assault is "has_context" to where | assault is "has_context, related_to" to hang | assault is "related_to" to around | assault is "has_context" to close | assault is "etymologically_related_to, related_to" to tart | assault is "has_context" to antipersonnel | assault is "is_a, synonym, has_context, related_to" to battle | assault is "has_context" to tit | assault is "has_context" to office | assault is "has_context" to location | assault is "has_context, related_to" to out | assault is "has_context" to array | assault is "related_to, has_context, manner_of" to offer | assault is "has_context" to petition_of_right | assault is "has_context" to wit | assault is "related_to, is_a" to play | assault is "has_context" to dep | assault is "has_context" to blue_on_blue | assault is "has_context, related_to" to pass | assault is "related_to, has_context" to resetter | assault is "has_context" to rouse | assault is "related_to" to blinder | assault is "has_context" to vest | assault is "has_context" to umbrella | assault is "has_context" to gras | assault is "synonym" to suffer | assault is "has_context" to color | assault is "is_a, related_to" to state | assault is "desires" to sex | assault is "related_to" to punishment | assault is "has_context" to stop_and_search | assault is "related_to" to sixty_one | assault is "has_context" to pip | assault is "has_context" to traversing_platform | assault is "has_context, related_to" to serve | assault is "has_context" to suit | assault is "has_a, at_location, part_of, related_to" to car | assault is "has_context" to fixed | assault is "used_for" to work | assault is "related_to, has_context" to section | assault is "has_context" to snap_in | assault is "derived_from, at_location" to level | assault is "has_context, related_to" to protest | assault is "is_a, used_for, related_to, etymologically_related_to" to rifle | assault is "has_context" to jack | assault is "related_to" to praemunire_facias | assault is "related_to" to influence | assault is "related_to" to inside | assault is "related_to" to berry | assault is "has_context" to berm | assault is "has_context" to md | assault is "is_a" to pollution | assault is "has_context" to jark | assault is "has_context" to order_of_day | assault is "related_to, is_a" to thief | assault is "has_context, related_to" to bunker | assault is "related_to" to imprisonment | assault is "has_context" to royal | assault is "related_to" to hudud | assault is "has_context" to avoid | assault is "has_context, has_prerequisite, related_to" to purchase | assault is "form_of, derived_from" to as | assault is "related_to" to get_out | assault is "has_context" to investment | assault is "related_to" to armorer | assault is "has_context" to resistance | assault is "related_to, has_context" to c | assault is "related_to" to soft_coup | assault is "has_context" to dumb_insolence | assault is "has_context" to zone_of_fire | assault is "has_context" to twenty | assault is "has_context" to columbiad | assault is "has_context" to salvo | assault is "has_context" to requirements_contract | assault is "has_context" to oblique_fire | assault is "has_context" to tits | assault is "has_context" to tubage | assault is "has_context" to flypaper_theory | assault is "related_to" to fell | assault is "related_to" to loud | assault is "related_to, has_context" to result | assault is "related_to" to bat | assault is "at_location, related_to, has_context" to demonstration | assault is "has_context" to british | assault is "has_context, at_location, synonym" to drive | assault is "is_a" to film | assault is "related_to" to march | assault is "has_context" to jam | assault is "related_to" to irish_pennant | assault is "related_to, at_location" to fox | assault is "has_context" to neutralise | assault is "has_context" to gun | assault is "has_context" to add | assault is "has_context" to slacker | assault is "is_a" to butt | assault is "related_to" to air_marshal | assault is "is_a, capable_of, related_to" to container | assault is "derived_from" to wildlife | assault is "derived_from, related_to" to set | assault is "related_to" to hill | assault is "related_to, synonym, has_context" to contract | assault is "has_context" to shoplift | assault is "has_context" to back | assault is "has_context" to buttstroke | assault is "has_context" to troop | assault is "related_to" to war_on_terrorism | assault is "has_context, related_to" to canada | assault is "synonym, has_context, related_to" to action | assault is "related_to, has_context" to embezzlement | assault is "at_location" to roof | assault is "related_to" to pepper_spray | assault is "derived_from, etymologically_related_to" to no | assault is "has_context" to mong | assault is "has_context" to sap | assault is "has_context" to reduce | assault is "related_to, antonym" to justice | assault is "related_to" to single | assault is "related_to" to assume | assault is "has_context" to size | assault is "related_to" to manor | assault is "related_to" to bad | assault is "etymologically_related_to" to mole | assault is "</t>
+  </si>
+  <si>
+    <t>drill is "has_context, related_to" to bayonet | drill is "related_to, has_context" to platform | drill is "has_last_subevent" to sit_down | drill is "related_to" to bisexual | drill is "derived_from, has_context" to chin_music | drill is "has_context" to duster | drill is "related_to" to door | drill is "related_to" to plants | drill is "related_to" to also | drill is "has_context" to thermal | drill is "related_to, manner_of, synonym, has_context" to approach | drill is "related_to" to projection | drill is "has_context" to package | drill is "related_to" to haul | drill is "has_context" to change_up | drill is "related_to" to taxiarch | drill is "derived_from" to earhole | drill is "has_context" to pomposo | drill is "related_to, is_a" to fountain | drill is "is_a, has_context" to fashion | drill is "has_context" to occupy | drill is "related_to, is_a" to canine | drill is "has_context, related_to" to cream | drill is "has_context" to zygon | drill is "has_subevent" to falling | drill is "has_context" to slut | drill is "has_context" to fail | drill is "has_context" to snafu | drill is "related_to" to piliation | drill is "related_to" to glaucope | drill is "related_to, has_context" to bullet | drill is "related_to" to below | drill is "related_to" to east | drill is "is_a, has_context" to baseball_equipment | drill is "has_context" to blank | drill is "related_to" to table | drill is "related_to, is_a" to saddle | drill is "has_context, is_a" to scratcher | drill is "related_to" to polemarch | drill is "has_context" to nasty | drill is "related_to" to pencil | drill is "related_to" to market | drill is "has_context" to beam_up | drill is "is_a, has_context, at_location, related_to" to neck | drill is "related_to" to owner | drill is "derived_from, is_a, related_to, has_context" to screw | drill is "related_to, manner_of, has_context" to break | drill is "at_location, related_to, entails, has_context" to mine | drill is "used_for" to diving | drill is "has_context" to antipirate | drill is "related_to" to astragal | drill is "has_context" to midshipman | drill is "has_context, related_to" to bone | drill is "related_to" to fixature | drill is "has_context" to accent_mark | drill is "related_to, has_context" to military | drill is "has_context, related_to" to people's_liberation_army_navy | drill is "has_context" to surveillance | drill is "has_context, is_a" to observer | drill is "related_to" to limit | drill is "related_to, has_context" to collar | drill is "has_context, at_location, related_to" to pocket | drill is "related_to" to deep | drill is "has_context, related_to, manner_of" to double | drill is "has_context, related_to" to batsman | drill is "related_to" to spatchcock | drill is "at_location, related_to" to town | drill is "manner_of, has_context" to deal | drill is "related_to" to fighting | drill is "used_for" to warmth | drill is "has_prerequisite" to hurt_else | drill is "has_context" to virga | drill is "synonym, has_context" to pallet | drill is "related_to, has_context" to fine | drill is "related_to" to tray | drill is "related_to, is_a, synonym" to murder | drill is "has_context" to destroyer_leader | drill is "has_context, related_to" to apple | drill is "has_context, related_to, antonym" to bird | drill is "related_to" to sail | drill is "related_to" to plica_polonica | drill is "related_to, has_context" to abstract | drill is "has_context, related_to" to speed | drill is "related_to" to wooden | drill is "related_to, is_a, has_context" to release | drill is "has_context" to internet | drill is "related_to" to circuit | drill is "derived_from, related_to, manner_of, has_context" to make | drill is "has_context" to gunship | drill is "related_to" to pourpoint | drill is "related_to" to sun | drill is "related_to" to scabrous | drill is "has_context" to heptameride | drill is "related_to, is_a" to auburn | drill is "related_to" to reinforcement | drill is "related_to" to wrap | drill is "has_context" to terreplein | drill is "form_of" to hat | drill is "has_context" to backup_vocals | drill is "has_context" to cliff | drill is "has_context" to mitraille | drill is "related_to, antonym" to corn | drill is "has_context, related_to" to detail | drill is "has_context" to uncase | drill is "has_context" to countermine | drill is "has_context" to lombard | drill is "related_to" to warm | drill is "etymologically_related_to" to potent | drill is "related_to, is_a" to hobby | drill is "has_context" to tendency_tone | drill is "is_a" to giraffe | drill is "related_to" to contemptible | drill is "used_for, at_location, is_a, has_context" to comb | drill is "has_context" to chiroplast | drill is "has_context" to military_position | drill is "has_context, related_to" to twang | drill is "has_context, related_to" to boy | drill is "related_to, has_context" to outpost | drill is "related_to, antonym" to couch | drill is "related_to" to escape | drill is "used_for, at_location, related_to, is_a" to seat | drill is "related_to, has_context" to enemy | drill is "has_context, is_a" to transition | drill is "related_to, has_property, has_context" to strong | drill is "has_context" to breastwork | drill is "related_to, is_a, has_context" to officer | drill is "at_location, related_to, has_context" to opera | drill is "has_context, related_to" to backgammon | drill is "related_to" to duty | drill is "used_for" to story | drill is "related_to" to hunting | drill is "has_context" to phatness | drill is "has_context" to organize | drill is "form_of, derived_from, related_to" to stocking | drill is "has_context" to goatfuck | drill is "has_context, used_for" to mound | drill is "is_a" to consequence | drill is "related_to" to write | drill is "has_context" to cdre | drill is "has_context" to hood | drill is "used_for, related_to" to flute | drill is "related_to" to age | drill is "related_to" to cleat | drill is "not_has_property" to alive | drill is "related_to" to deathhawk | drill is "has_context, related_to" to smoke | drill is "related_to" to latebricole | drill is "has_context" to psalm | drill is "related_to" to rota | drill is "related_to, has_context" to bell | drill is "related_to" to footing | drill is "has_context" to picker | drill is "has_context" to quadtone | drill is "has_context" to snipe | drill is "related_to" to font | drill is "has_context" to minim_rest | drill is "related_to, is_a, at_location" to eye | drill is "related_to" to nightcore | drill is "at_location, related_to" to collection | drill is "has_context" to ground_offensive | drill is "related_to, manner_of" to gore | drill is "has_context" to consonant | drill is "has_context" to fourth | drill is "related_to" to mold | drill is "has_context, derived_from" to foragemaster | drill is "related_to, has_context, etymologically_related_to" to chicken | drill is "has_context, used_for, related_to" to black | drill is "related_to, has_context" to dome | drill is "related_to" to modern | drill is "related_to" to feet | drill is "related_to, is_a, synonym" to curb | drill is "entails, related_to, has_prerequisite, manner_of" to move | drill is "has_context" to eccentric | drill is "has_subevent, related_to" to fight | drill is "related_to" to stymie | drill is "related_to, used_for" to pleasure | drill is "related_to" to ordnance_survey_map | drill is "related_to, derived_from" to musical | drill is "at_location, related_to" to mousse | drill is "related_to" to branch_of_government | drill is "related_to" to pointed | drill is "related_to" to fort | drill is "at_location" to hair_roller | drill is "related_to" to penis | drill is "has_context" to royal_yorker | drill is "has_context" to garnish | drill is "related_to" to loop | drill is "has_context" to turnaround | drill is "related_to, manner_of" to abandon | drill is "is_a, related_to" to pore | drill is "related_to" to bad_hair_day | drill is "related_to" to tones | drill is "part_of, related_to, is_a" to part | drill is "at_location, related_to, synonym, manner_of" to store | drill is "has_context, related_to" to rotation | drill is "related_to, has_context" to knickerbockers | drill is "related_to, has_context" to dogs | drill is "has_context" to tanker | drill is "has_context" to stones | drill is "related_to, is_a, has_context, entails" to hoe | drill is "has_context" to come_in | drill is "has_context" to hinged | drill is "related_to, has_context" to issue | drill is "has_context" to pitchless | drill is "related_to" to vareuse | drill is "related_to" to requiem | drill is "related_to" to dandruff | drill is "has_context, related_to, is_a" to motion | drill is "related_to, has_property" to one | drill is "related_to, is_a, has_context" to strand | drill is "related_to" to hermandad | drill is "has_context, synonym" to prepare | drill is "has_context" to superdominant | drill is "related_to" to ostiole | drill is "related_to, is_a" to net | drill is "related_to, is_a" to authority | drill is "has_context, related_to" to aa | drill is "related_to" to head_shop | drill is "is_a" to quality | drill is "related_to, has_context, etymologically_related_to" to jaffa | drill is "has_context" to hecka | drill is "related_to, is_a" to whisker | drill is "related_to" to toad | drill is "has_context" to rdml | drill is "related_to" to skilled | drill is "has_context" to attitude_indicator | drill is "related_to" to powdering_gown | drill is "has_context, related_to" to sm | drill is "has_context" to fermata | drill is "related_to" to tent | drill is "related_to" to reconnoitered | drill is "related_to, is_a, synonym" to board | drill is "has_context" to rimbase | drill is "has_context" to queen | drill is "related_to" to type_site | drill is "related_to" to desert | drill is "has_context, related_to" to picket | drill is "has_context" to descant | drill is "has_context" to warhorse | drill is "related_to, has_context" to alipta | drill is "related_to, synonym, has_context" to chief | drill is "related_to, derived_from" to deadstock | drill is "related_to" to polyunsaturated_fat | drill is "distinct_from, related_to, antonym, is_a" to river | drill is "related_to" to pectoral | drill is "has_context" to cancommarpac | drill is "has_context" to aor | drill is "related_to" to indutive | drill is "has_property" to smooth | drill is "has_context" to pinkville | drill is "manner_of" to loft | drill is "has_prerequisite, related_to, synonym, manner_of" to punish | drill is "has_context, related_to" to bush | drill is "used_for, motivated_by_goal, part_of, at_location, related_to" to building | drill is "related_to" to kesh | drill is "related_to" to star | drill is "related_to, is_a" to vertebrate | drill is "has_context" to stand_of_arms | drill is "related_to, synonym" to agrarian | drill is "at_location, manner_of" to candle | drill is "related_to, synonym, has_context" to coin | drill is "has_context" to murky_bass | drill is "related_to, used_for" to attach | drill is "part_of, related_to, has_context" to root | drill is "has_context" to outpiss | drill is "is_a" to anatomical_structure | drill is "related_to" to ampulla | drill is "at_location, related_to" to ring | drill is "related_to" to transportation | drill is "has_context" to light_ball | drill is "has_context" to sabs | drill is "motivated_by_goal, has_subevent, related_to" to improve | drill is "related_to" to god | drill is "has_context, manner_of" to bull | drill is "has_context" to replicate | drill is "is_a" to union | drill is "is_a, has_context" to 6 | drill is "related_to, synonym" to hear | drill is "related_to" to telephone | drill is "has_context" to crotchet | drill is "has_context" to dragon | drill is "related_to" to per | drill is "has_context, related_to, manner_of, is_a, synonym" to slash | drill is "has_context" to claykicker | drill is "has_context" to tripod | drill is "has_context" to trotter | drill is "related_to" to writing | drill is "has_context" to utonality | drill is "has_context" to boomer | drill is "related_to" to mora | drill is "related_to" to human_body | drill is "has_context, related_to" to steamer | drill is "related_to" to more | drill is "related_to" to diagram | drill is "related_to" to expert | drill is "has_context" to blaze_up | drill is "related_to" to cool | drill is "has_context, related_to" to army | drill is "has_context" to bog | drill is "related_to, manner_of, has_context" to shell | drill is "has_context, related_to" to electronics | drill is "distinct_from, related_to, antonym, is_a, has_context" to rap | drill is "is_a, has_context, related_to" to handle | drill is "related_to, has_context" to attack | drill is "has_context" to crock | drill is "has_context" to weed | drill is "has_context, related_to" to marker | drill is "related_to" to bunch | drill is "related_to" to cast | drill is "has_context" to bassline | drill is "related_to, is_a" to tack | drill is "has_context, related_to" to mouth | drill is "at_location, related_to" to drawer | drill is "has_context" to ardian | drill is "etymologically_related_to" to chock | drill is "related_to" to agent | drill is "has_context" to inversion | drill is "has_context" to isorhythm | drill is "related_to, manner_of, synonym" to chip | drill is "has_context" to timbre | drill is "related_to, has_context" to booby_trap | drill is "related_to, is_a, has_context" to floor | drill is "has_context, related_to" to transcribe | drill is "has_context" to ghost_note | drill is "has_context" to happening | drill is "derived_from, related_to" to cutwidth | drill is "related_to" to debate | drill is "is_a, used_for, related_to" to jogging | drill is "has_context, derived_from, related_to, synonym, manner_of" to twist | drill is "related_to" to earth | drill is "is_a" to writing_implement | drill is "related_to" to leaf | drill is "has_context" to sharped | drill is "has_context, related_to" to lick | drill is "has_context, related_to" to crib | drill is "has_context, related_to" to snapper | drill is "has_context" to pmo | drill is "has_context" to flame | drill is "related_to" to light | drill is "used_for, related_to" to jewelry | drill is "has_context" to hdms | drill is "has_context, related_to" to command | drill is "related_to" to dell | drill is "related_to, is_a" to anchor | drill is "related_to" to parsons_code | drill is "has_context, at_location" to theatre | drill is "has_context" to ras | drill is "used_for, at_location, related_to, is_a" to dirt | drill is "manner_of" to volley | drill is "has_context, related_to" to kite | drill is "capable_of, related_to, synonym" to work_out | drill is "related_to, synonym" to cant | drill is "has_context, is_a" to defect | drill is "related_to, manner_of" to broadside | drill is "has_context" to accolade | drill is "related_to, manner_of, has_context" to foul | drill is "has_context" to batman | drill is "related_to, has_context" to soft | drill is "has_context" to microtone | drill is "related_to" to middle | drill is "related_to" to cease | drill is "related_to" to hull | drill is "has_context, related_to" to mechanical | drill is "has_context" to inflect | drill is "related_to" to olive | drill is "related_to" to generic | drill is "at_location, antonym, is_a" to television | drill is "related_to" to fetlock | drill is "antonym, has_context, at_location, distinct_from" to fish | drill is "used_for, is_a" to playing_football | drill is "related_to" to term | drill is "related_to" to napkin | drill is "has_context" to triad | drill is "related_to" to watch | drill is "has_context" to spitter | drill is "related_to" to dubstep | drill is "is_a" to gastropod | drill is "related_to, is_a" to squirrel | drill is "related_to" to spirit | drill is "related_to, used_for" to running | drill is "related_to" to deadstick | drill is "related_to" to wiresmith | drill is "related_to, has_context" to charge | drill is "is_a, related_to" to branch | drill is "has_context" to slight | drill is "has_context" to salicional | drill is "related_to" to factory | drill is "has_context, related_to" to crown | drill is "has_context, related_to" to go | drill is "has_context, is_a" to curve | drill is "has_context" to rangekeeper | drill is "has_context, related_to, synonym" to beast | drill is "related_to, has_context" to zero | drill is "at_location, related_to, has_context" to organ | drill is "related_to, manner_of" to travel | drill is "related_to" to luddism | drill is "related_to" to thunder | drill is "related_to" to component | drill is "used_for" to wigs | drill is "related_to, has_context" to pimple | drill is "related_to" to bald | drill is "used_for, at_location" to folding_chair | drill is "related_to, derived_from" to netherhair | drill is "has_context" to ssgn | drill is "related_to" to screw_thread | drill is "has_context" to victualling | drill is "has_context, related_to, manner_of" to connect | drill is "part_of, at_location, related_to" to human | drill is "has_context, related_to" to flipper | drill is "has_context, related_to" to arsenal | drill is "related_to, manner_of" to dock | drill is "related_to" to groovemeister | drill is "has_context, related_to" to men | drill is "has_context" to airland | drill is "derived_from, related_to" to hand | drill is "has_context" to comma | drill is "has_context" to angle | drill is "has_context" to beachhead | drill is "synonym, has_context" to flake | drill is "has_context" to bud | drill is "is_a, related_to" to primate | drill is "has_context" to telltale | drill is "has_context" to cold_steel | drill is "related_to" to structure | drill is "has_context" to boots_on_ground | drill is "related_to, is_a" to gem | drill is "has_context" to quarter_tone | drill is "has_context" to sad | drill is "related_to" to ploc | drill is "related_to" to gumming | drill is "has_context" to fireball | drill is "related_to" to stag | drill is "has_context, related_to" to fool | drill is "has_context" to sound_box | drill is "entails, related_to, manner_of" to remove | drill is "has_context" to aam | drill is "has_context" to css | drill is "has_context, has_a, related_to" to grass | drill is "has_context" to rob | drill is "part_of, related_to" to limb | drill is "related_to" to covers | drill is "related_to, is_a, manner_of" to design | drill is "has_context" to draught_hook | drill is "related_to" to vault | drill is "related_to" to gamey | drill is "has_context" to knag | drill is "related_to, is_a" to fruit | drill is "has_context" to firing_squad | drill is "derived_from, related_to, has_context" to base | drill is "has_context" to pug | drill is "used_for, capable_of, has_context" to battery | drill is "at_location, related_to" to glass | drill is "related_to" to draft | drill is "part_of, related_to, is_a" to bur | drill is "has_context" to pacflt | drill is "has_context" to stability_conditions | drill is "has_context" to american_football | drill is "has_context" to triplophonia | drill is "used_for, related_to, is_a, has_context" to rod | drill is "has_context, related_to" to player | drill is "has_context" to pentagon | drill is "related_to, has_context" to spring | drill is "related_to" to igloo | drill is "related_to" to female | drill is "related_to" to two | drill is "related_to, antonym, has_context" to up | drill is "motivated_by_goal, at_location, related_to" to oil | drill is "related_to" to flowers | drill is "related_to" to woman | drill is "related_to" to seminal | drill is "has_context" to acu | drill is "has_context" to corridor | drill is "has_context" to infinite | drill is "has_context" to frontperson | drill is "has_context" to hightail_it | drill is "has_context, etymologically_related_to, derived_from, related_to, is_a, synonym" to trap | drill is "related_to" to farmer | drill is "has_context" to jackass_battery | drill is "related_to, has_context" to mount | drill is "related_to, manner_of" to propel | drill is "related_to" to glib | drill is "related_to, has_context, at_location" to ear | drill is "has_context, related_to" to log | drill is "has_context" to ana | drill is "has_context, etymologically_related_to, related_to, antonym" to hold | drill is "has_context" to descend | drill is "has_context" to center | drill is "is_a, at_location, related_to" to cotton | drill is "entails, related_to, is_a, manner_of" to punt | drill is "related_to" to kind | drill is "related_to" to price | drill is "has_context" to dulciana | drill is "has_context" to lug | drill is "has_context" to rm | drill is "has_context" to crud | drill is "related_to, synonym, receives_action" to cloth | drill is "at_location, related_to, is_a, has_context" to horse | drill is "related_to" to embolon | drill is "has_context" to choro | drill is "related_to" to hi | drill is "has_context" to baked | drill is "related_to, manner_of, has_context" to belt | drill is "related_to" to condottiere | drill is "related_to, is_a" to lion | drill is "has_context" to octavated | drill is "related_to" to osteosynthesis | drill is "has_context, at_location" to broken | drill is "has_context" to tenor | drill is "has_context" to north_america | drill is "related_to" to beehive | drill is "related_to, has_context" to latrine | drill is "has_context" to rear | drill is "has_context" to chromatic | drill is "has_context" to scut | drill is "related_to, is_a" to device | drill is "related_to" to category | drill is "is_a" to coyote | drill is "is_a, has_context, derived_from" to foxhole | drill is "has_context" to blockade | drill is "related_to" to accessory | drill is "related_to, has_context" to football | drill is "has_context" to backspin | drill is "has_context" to tenth | drill is "has_context" to anatomy | drill is "has_context, related_to, is_a" to tiger | drill is "related_to" to surprise | drill is "related_to" to explosion | drill is "at_location, related_to, used_for, part_of" to engine | drill is "has_a, desires, capable_of" to humans | drill is "has_context" to whole_tone | drill is "is_a" to kingpin | drill is "related_to" to charm | drill is "related_to, synonym, has_context" to little | drill is "related_to" to image | drill is "related_to, has_context" to flash | drill is "at_location, related_to, manner_of, has_context" to cover | drill is "has_context, related_to" to stripe | drill is "related_to, is_a" to body_part | drill is "used_for" to hide | drill is "has_context, derived_from, related_to" to quartermaster | drill is "has_context" to sourdine | drill is "etymologically_related_to, related_to" to bee | drill is "has_context, related_to" to raw | drill is "related_to" to triblet | drill is "has_context" to heading | drill is "related_to, has_context" to crucial | drill is "related_to" to target | drill is "has_context" to lant | drill is "has_context" to gi_can | drill is "has_context" to parallel | drill is "has_context" to pavais | drill is "has_context" to relative | drill is "has_context" to magnetic_variation | drill is "has_context" to comsubpac | drill is "related_to, has_context" to director | drill is "is_a" to mylodon | drill is "has_context, related_to, is_a" to yoke | drill is "related_to" to manner | drill is "has_context" to toasting_fork | drill is "has_context" to increasing | drill is "related_to, manner_of, is_a, has_context" to lift | drill is "has_context, related_to" to musical_notation | drill is "has_context" to pass_box | drill is "related_to, antonym, has_context, causes_desire" to rest | drill is "has_context, related_to" to mountain | drill is "related_to, is_a" to rice | drill is "manner_of, entails, has_context, related_to, is_a" to spy | drill is "has_context" to rfs | drill is "related_to, has_context" to tail | drill is "derived_from, related_to" to hole_in_one | drill is "related_to, similar_to" to early | drill is "has_context" to sestet | drill is "at_location, related_to, antonym" to wig | drill is "related_to" to weather | drill is "has_context" to mitrailleuse | drill is "has_context" to corpsman | drill is "has_context" to cementation | drill is "related_to" to pencil_test | drill is "has_a, part_of, at_location, related_to" to house | drill is "related_to" to concession | drill is "has_context, used_for, at_location, related_to" to diamond | drill is "related_to" to tiny | drill is "has_context" to outside | drill is "related_to" to narrow | drill is "has_context" to harmonizer | drill is "has_context" to passacaglia | drill is "has_context" to hausse | drill is "has_context" to land_mine | drill is "has_context, related_to" to slide | drill is "related_to" to flock | drill is "has_context" to australia | drill is "has_context" to hellbox | drill is "has_context" to exuviae | drill is "related_to" to difficulty | drill is "related_to" to defence | drill is "has_context" to shock_and_awe | drill is "has_context, related_to" to pole | drill is "related_to" to page | drill is "related_to, antonym" to chapel | drill is "distinct_from, related_to" to emerald | drill is "etymologically_related_to, related_to" to violence | drill is "related_to" to twist_drill | drill is "has_context" to curtain_wall | drill is "related_to" to roulette | drill is "derived_from, related_to" to stock | drill is "related_to, manner_of" to enter | drill is "related_to" to macroblock | drill is "related_to" to pronoia | drill is "related_to, has_context" to flag_rank | drill is "antonym" to silent | drill is "has_context" to hmis | drill is "has_prerequisite, has_subevent" to having_party | drill is "related_to" to receptacle | drill is "has_context, at_location, related_to" to plate | drill is "related_to" to high_church | drill is "related_to" to beguine | drill is "related_to" to paludamentum | drill is "has_context" to dink | drill is "derived_from, related_to, synonym, has_context" to piece | drill is "dbpedia/occupation" to rain | drill is "related_to" to roman | drill is "form_of" to hele | drill is "has_context" to second | drill is "has_context, used_for, related_to" to fur | drill is "related_to, manner_of" to empty | drill is "related_to" to congreve_rocket | drill is "related_to" to dormie | drill is "related_to" to cad | drill is "related_to" to retinaculum | drill is "manner_of, related_to" to kill | drill is "has_context" to knockdown | drill is "has_context, derived_from, is_a" to classical_music | drill is "derived_from" to pointmaker | drill is "related_to" to robbery | drill is "related_to" to x_y_recorder | drill is "has_context" to pitch_pipe | drill is "related_to" to deadheading | drill is "has_context" to escadrille | drill is "synonym, has_context, related_to" to trail | drill is "has_context" to cadm | drill is "has_property, has_context" to blue | drill is "related_to" to birth | drill is "has_context" to mantlet | drill is "related_to" to catch_plate | drill is "is_a" to always | drill is "has_context" to pitch_class | drill is "related_to" to dot | drill is "synonym, has_context" to skip | drill is "related_to, has_context" to tongue | drill is "related_to" to dial | drill is "has_context, related_to" to group | drill is "has_context" to sauce | drill is "at_location" to jar | drill is "related_to" to keel | drill is "has_context, related_to, is_a" to velvet | drill is "related_to, has_context" to clicker | drill is "has_context" to bootleg | drill is "related_to, has_context" to value | drill is "has_context" to minenwerfer | drill is "has_context" to duple | drill is "has_context, at_location, related_to, synonym" to captain | drill is "has_context" to joint | drill is "related_to" to spanish_road | drill is "related_to, synonym, manner_of" to thrust | drill is "related_to" to rendition | drill is "has_context" to double_bass | drill is "related_to" to melograph | drill is "related_to" to property | drill is "related_to" to grapple | drill is "related_to" to deposit | drill is "has_context" to er | drill is "related_to, has_property, is_a, has_context" to sport | drill is "has_context" to banneret | drill is "synonym, related_to" to strength | drill is "has_context" to kerrison_predictor | drill is "has_context" to disappearing_carriage | drill is "has_context, related_to" to transposition | drill is "has_context" to dog_food | drill is "has_context" to deathcore | drill is "at_location, related_to, has_context" to soup | drill is "has_context" to idiomatic | drill is "related_to" to ears | drill is "has_context" to hellacious | drill is "related_to, is_a, synonym, manner_of, has_context" to tap | drill is "has_context" to abda | drill is "has_context" to penny | drill is "causes_desire, motivated_by_goal" to have_fun | drill is "has_context" to pucker_factor | drill is "has_context" to 1 | drill is "related_to" to bark | drill is "related_to" to canteen | drill is "has_context" to snider | drill is "related_to, has_context" to chopped | drill is "is_a, related_to" to mechanism | drill is "has_context" to light_barrel | drill is "related_to, has_context" to spread | drill is "has_context" to blaze | drill is "at_location, related_to, has_property, is_a, has_context, has_a" to cat | drill is "related_to, synonym, has_context" to drag | drill is "has_context" to dl | drill is "related_to, has_context" to dead | drill is "at_location, related_to" to bishop | drill is "antonym, has_context" to still | drill is "related_to" to leave | drill is "related_to" to thimble | drill is "located_near" to receiver | drill is "has_context, at_location, related_to" to button | drill is "has_context" to pannel | drill is "related_to, is_a" to dresser | drill is "synonym, related_to" to source | drill is "derived_from, related_to, etymologically_related_to" to dry | drill is "related_to, has_context" to lord | drill is "has_context" to diastematic | drill is "at_location" to neighbor's_house | drill is "related_to, manner_of, is_a, similar_to, has_context" to cut | drill is "has_context" to ireland | drill is "motivated_by_goal, distinct_from, related_to, has_property" to fun | drill is "related_to" to hawk | drill is "related_to, has_context" to dump | drill is "related_to, antonym, is_a" to interest | drill is "related_to" to graphophone | drill is "at_location" to automobile | drill is "has_context" to canmarcom | drill is "is_a, synonym, related_to" to brook | drill is "related_to" to four | drill is "has_context" to patchery | drill is "related_to" to directory | drill is "related_to" to plat | drill is "has_context, causes, related_to" to sweat | drill is "has_context" to netherlands | drill is "has_context" to signature | drill is "has_context" to otonality | drill is "related_to" to furnishing | drill is "related_to, is_a" to felt | drill is "related_to, has_context" to dugout | drill is "related_to" to memory | drill is "has_context" to meantone | drill is "has_context" to wac | drill is "related_to, has_context" to navy | drill is "has_context" to tierce | drill is "has_context" to shift | drill is "related_to, is_a, has_context" to time | drill is "has_context" to shitty | drill is "related_to" to web_site | drill is "has_context, related_to, manner_of" to bounce | drill is "related_to, has_context" to prick | drill is "related_to, is_a, has_context" to acorn | drill is "is_a" to signal | drill is "related_to" to interfere | drill is "related_to" to chart | drill is "used_for, related_to" to using | drill is "related_to, synonym, has_context" to poker | drill is "related_to, manner_of, has_context" to nick | drill is "has_context" to globe_of_compression | drill is "at_location, related_to, has_context" to stuff | drill is "has_context" to circus | drill is "derived_from" to blockhole | drill is "related_to" to mark | drill is "has_context" to triphibious | drill is "related_to" to sexlocular | drill is "has_context" to tar_heel | drill is "related_to" to lapping | drill is "related_to, has_context" to chess | drill is "has_context" to bottleneck_guitar | drill is "related_to, has_context, used_for" to locomotive | drill is "related_to" to pup | drill is "has_context" to f | drill is "related_to" to rocker | drill is "is_a, has_context" to volunteer | drill is "related_to, synonym" to pat | drill is "has_context" to graph_theory | drill is "related_to, has_context" to rank | drill is "related_to" to crust | drill is "has_context" to scoop | drill is "has_context" to ack | drill is "related_to, is_a" to spool | drill is "related_to" to tippet | drill is "has_context" to altissimo | drill is "related_to, used_for" to clothing | drill is "has_context" to elephantry | drill is "related_to" to pod | drill is "has_context, has_subevent, related_to, is_a" to party | drill is "has_context, motivated_by_goal" to stupid | drill is "has_context" to myriarchy | dr</t>
+  </si>
+  <si>
+    <t>care is "related_to, has_property, synonym, desires" to agreement | care is "used_for, created_by, form_of, derived_from, related_to, is_a, synonym" to feeling | care is "derived_from, distinct_from, antonym, is_a, related_to, has_property, similar_to, motivated_by_goal" to kind | care is "entails, desires, causes, related_to, synonym, manner_of" to move | care is "distinct_from, related_to" to quantity | care is "related_to" to very | care is "related_to" to price | care is "related_to" to gain | care is "related_to" to conscious | care is "related_to, synonym" to keen | care is "related_to, antonym" to high | care is "related_to" to division | care is "related_to, has_property, antonym, synonym, has_prerequisite" to friendly | care is "has_context" to dialectal | care is "distinct_from, related_to, antonym, is_a, synonym, manner_of" to like | care is "related_to, is_a" to event | care is "related_to, antonym, synonym, has_prerequisite, manner_of, etymologically_related_to" to offer | care is "related_to, has_property, synonym" to charitable | care is "related_to" to skill | care is "distinct_from, related_to, antonym, is_a, synonym, not_desires" to thing | care is "related_to" to pitch | care is "desires, related_to, has_property, has_context" to music | care is "related_to, has_property, antonym, is_a" to game | care is "related_to" to completely | care is "related_to, antonym, synonym, manner_of" to consider | care is "related_to, antonym, is_a, synonym" to consideration | care is "related_to, manner_of, antonym, synonym" to pass | care is "related_to, has_property" to bright | care is "derived_from, related_to" to kindly | care is "related_to" to sensible | care is "has_subevent, etymologically_related_to, related_to, synonym" to polite | care is "capable_of, related_to" to promise | care is "related_to, synonym" to thoroughly | care is "part_of, capable_of, derived_from, related_to, is_a, synonym" to hand | care is "used_for, distinct_from, form_of, derived_from, related_to, has_property, antonym, is_a, synonym" to giving | care is "related_to, antonym, synonym, manner_of" to make | care is "related_to, manner_of, antonym" to deliver | care is "related_to, synonym" to deliberate | care is "related_to, is_a" to step | care is "related_to, manner_of" to card | care is "synonym" to indulgent | care is "related_to, synonym" to address | care is "related_to" to buxom | care is "related_to" to upset | care is "related_to" to twist | care is "related_to" to shake | care is "motivated_by_goal, related_to, antonym, is_a, has_prerequisite" to surprise | care is "has_context" to poker | care is "receives_action, distinct_from, capable_of, related_to, has_property, antonym, is_a, synonym, similar_to, has_subevent" to good | care is "related_to, synonym" to amiable | care is "related_to, distinct_from" to great | care is "etymologically_related_to, related_to, similar_to" to prudent | care is "used_for, desires, has_last_subevent, related_to, antonym, synonym" to hold | care is "related_to, synonym" to quick | care is "has_context, related_to" to uk | care is "related_to" to amount | care is "related_to" to suitable | tactful is "is_a, synonym, related_to" to agreement | tactful is "related_to" to feeling | tactful is "related_to" to kind | tactful is "related_to" to move | tactful is "related_to" to quantity | tactful is "related_to" to very | tactful is "related_to" to price | tactful is "derived_from" to gain | tactful is "related_to" to conscious | tactful is "related_to" to keen | tactful is "related_to" to high | tactful is "related_to" to division | tactful is "related_to" to friendly | tactful is "has_context" to dialectal | tactful is "related_to" to like | tactful is "related_to" to event | tactful is "related_to" to offer | tactful is "synonym" to charitable | tactful is "related_to" to skill | tactful is "related_to" to thing | tactful is "related_to, synonym" to pitch | tactful is "has_context" to music | tactful is "related_to" to game | tactful is "related_to" to completely | tactful is "related_to, synonym" to consider | tactful is "derived_from, related_to, is_a" to consideration | tactful is "manner_of, related_to" to pass | tactful is "synonym" to bright | tactful is "related_to" to kindly | tactful is "related_to, synonym" to sensible | tactful is "synonym" to polite | tactful is "related_to" to promise | tactful is "related_to" to thoroughly | tactful is "related_to, synonym" to hand | tactful is "related_to" to giving | tactful is "related_to" to make | tactful is "related_to" to deliver | tactful is "synonym, related_to" to deliberate | tactful is "related_to" to step | tactful is "related_to" to card | tactful is "related_to" to indulgent | tactful is "synonym" to address | tactful is "related_to" to buxom | tactful is "related_to" to upset | tactful is "related_to" to twist | tactful is "related_to" to shake | tactful is "related_to" to surprise | tactful is "related_to" to poker | tactful is "related_to" to good | tactful is "related_to, synonym" to amiable | tactful is "related_to" to great | tactful is "synonym" to prudent | tactful is "related_to" to hold | tactful is "related_to" to quick | tactful is "has_context" to uk | tactful is "related_to" to amount | tactful is "related_to" to suitable | willing is "related_to" to agreement | willing is "related_to" to feeling | willing is "related_to" to kind | willing is "related_to, derived_from" to move | willing is "related_to" to quantity | willing is "related_to" to very | willing is "related_to" to price | willing is "related_to" to gain | willing is "related_to" to conscious | willing is "related_to" to keen | willing is "related_to" to high | willing is "related_to" to division | willing is "related_to" to friendly | willing is "has_context" to dialectal | willing is "related_to" to like | willing is "related_to" to event | willing is "related_to" to offer | willing is "related_to" to charitable | willing is "related_to" to skill | willing is "related_to" to thing | willing is "related_to" to pitch | willing is "related_to, has_context" to music | willing is "related_to, derived_from" to game | willing is "related_to" to completely | willing is "related_to" to consider | willing is "related_to" to consideration | willing is "related_to" to pass | willing is "similar_to, related_to" to bright | willing is "synonym" to kindly | willing is "related_to" to sensible | willing is "related_to" to polite | willing is "related_to" to promise | willing is "related_to" to thoroughly | willing is "related_to" to hand | willing is "related_to" to giving | willing is "related_to" to make | willing is "antonym" to deliver | willing is "synonym" to deliberate | willing is "related_to" to step | willing is "related_to" to card | willing is "related_to" to indulgent | willing is "related_to" to address | willing is "related_to" to buxom | willing is "antonym, distinct_from" to upset | willing is "related_to" to twist | willing is "related_to" to shake | willing is "related_to, has_last_subevent, antonym" to surprise | willing is "has_context" to poker | willing is "related_to, synonym" to good | willing is "synonym" to amiable | willing is "related_to" to great | willing is "related_to, synonym" to prudent | willing is "related_to, antonym" to hold | willing is "synonym, related_to" to quick | willing is "has_context" to uk | willing is "related_to" to amount | willing is "synonym" to suitable</t>
+  </si>
+  <si>
+    <t>midnight is "related_to" to dust | midnight is "related_to" to red | midnight is "related_to" to water | midnight is "has_context" to vulcan | midnight is "synonym" to travel | midnight is "related_to" to scale | midnight is "has_a, synonym, related_to" to clock | midnight is "has_property" to city | midnight is "has_context" to sol | midnight is "related_to" to like | midnight is "related_to" to figure | midnight is "has_context, related_to" to finger | midnight is "is_a" to station | midnight is "related_to" to drive | midnight is "has_context" to victoria | midnight is "synonym" to meter | midnight is "related_to" to servant | midnight is "has_context, related_to" to digit | midnight is "related_to, has_context" to earthly_branch | midnight is "related_to, has_context" to core | midnight is "has_context" to computer | midnight is "has_context" to canicular | midnight is "related_to, manner_of" to put | midnight is "antonym" to large | midnight is "has_context" to medicine | midnight is "has_context, is_a" to album | midnight is "has_context, related_to" to hand | midnight is "related_to" to octave | midnight is "related_to" to table | midnight is "related_to" to bed | midnight is "related_to" to mathematics | midnight is "has_context" to planet | midnight is "related_to, has_property, at_location" to sky | midnight is "related_to" to heart | midnight is "has_context" to angle | midnight is "related_to" to desert | midnight is "has_context" to humorous | midnight is "has_context" to asia | midnight is "related_to" to myth | midnight is "related_to" to neck | midnight is "related_to" to people | midnight is "related_to" to wood | midnight is "related_to, is_a" to break | midnight is "related_to" to wane | midnight is "related_to" to race | midnight is "has_context" to india | midnight is "related_to" to class | midnight is "related_to" to animal | midnight is "has_context, is_a" to man | midnight is "related_to" to matter | midnight is "synonym" to set | midnight is "related_to" to polish | midnight is "related_to" to brain | midnight is "related_to" to christmas | midnight is "related_to" to love | midnight is "related_to" to service | midnight is "related_to, has_context" to region | midnight is "has_context" to crater | midnight is "has_context" to church | midnight is "related_to" to star | midnight is "related_to, antonym, at_location" to place | midnight is "distinct_from, related_to, has_property, antonym, is_a" to space | midnight is "related_to, is_a" to area | midnight is "has_context" to brake | midnight is "related_to" to turn | midnight is "related_to, has_context" to blue | midnight is "related_to" to steel | midnight is "related_to" to birth | midnight is "antonym, related_to, derived_from, distinct_from" to rise | midnight is "has_context" to base | midnight is "has_context" to canada | midnight is "has_context" to battery | midnight is "related_to" to companion | midnight is "related_to" to deal | midnight is "has_context" to zombie | midnight is "is_a" to book | midnight is "has_context, related_to" to music | midnight is "related_to" to guard | midnight is "related_to" to sextant | midnight is "related_to" to run | midnight is "related_to" to progression | midnight is "related_to" to group | midnight is "has_context" to ring | midnight is "synonym" to bird | midnight is "has_context" to transportation | midnight is "related_to" to fiction | midnight is "has_context" to bolster | midnight is "related_to" to god | midnight is "has_context" to fry | midnight is "not_desires, desires, related_to" to person | midnight is "related_to" to up | midnight is "related_to" to moon | midnight is "related_to" to speed | midnight is "has_context" to bull | midnight is "related_to" to oil | midnight is "related_to" to road | midnight is "similar_to" to real | midnight is "is_a" to single | midnight is "related_to" to artifact | midnight is "related_to, derived_from" to sun | midnight is "related_to" to population | midnight is "derived_from, antonym" to small | midnight is "has_context" to dragon | midnight is "related_to" to physical | midnight is "has_context" to pot | midnight is "related_to, synonym" to slash | midnight is "dbpedia/language" to english_language | midnight is "related_to" to stitch | midnight is "has_context" to farmer | midnight is "related_to, has_property" to dog | midnight is "has_context" to cabinet | midnight is "related_to" to object | midnight is "has_context" to historical | midnight is "has_context" to slang | midnight is "has_context" to us | midnight is "related_to, is_a" to beat | midnight is "related_to" to hobby | midnight is "has_context" to ether | midnight is "has_context" to range | midnight is "related_to" to museum | midnight is "related_to" to smash | midnight is "related_to" to half | midnight is "has_context" to sports | midnight is "has_context" to transport | midnight is "related_to" to everything | midnight is "related_to" to fauna | midnight is "related_to" to club | midnight is "related_to" to face | midnight is "related_to" to canal | midnight is "has_property" to park | midnight is "related_to" to piston | midnight is "is_a, related_to" to present | midnight is "related_to, distinct_from" to beginning | midnight is "has_context" to deus_ex_machina | midnight is "related_to" to handle | midnight is "related_to" to camp | midnight is "related_to, has_context" to horse | midnight is "has_context" to starter | midnight is "has_context" to mons_mensae | midnight is "has_context" to mechanic | midnight is "related_to" to stop | midnight is "has_context" to lion | midnight is "related_to" to family | midnight is "related_to" to dance | midnight is "etymologically_related_to" to b | midnight is "related_to" to bar | midnight is "has_context" to farm | midnight is "related_to" to sheet | midnight is "related_to" to ride_bitch | midnight is "related_to" to culture | midnight is "has_context" to quadrivium | midnight is "at_location" to sea | midnight is "is_a, form_of, related_to" to number | midnight is "related_to" to tool | midnight is "related_to, has_property, antonym, part_of, is_a, synonym, distinct_from, derived_from" to night | midnight is "related_to" to smoke | midnight is "related_to" to bell | midnight is "related_to" to mile | midnight is "has_context" to dipper | midnight is "related_to" to earth | midnight is "related_to, has_context" to lord | midnight is "has_context" to truck | midnight is "has_context" to pejorative | midnight is "derived_from" to dark_light | midnight is "has_context, related_to" to unit | midnight is "related_to" to plane | midnight is "related_to" to good | midnight is "related_to" to everywhere | midnight is "related_to" to nine | midnight is "has_context" to computing | midnight is "has_context" to ireland | midnight is "has_property" to linear | midnight is "related_to" to master | midnight is "antonym" to word | midnight is "related_to" to zodiac | midnight is "has_context" to dump | midnight is "related_to" to stars | midnight is "has_context" to nation | midnight is "related_to" to cow | midnight is "related_to" to heaven | midnight is "related_to, antonym" to four | midnight is "has_context, related_to" to lead | midnight is "synonym" to accident | midnight is "related_to" to radio | midnight is "related_to, has_property" to paint | midnight is "related_to, has_property" to street | midnight is "related_to" to being | midnight is "related_to" to stale | midnight is "has_context, related_to" to spiritual | midnight is "synonym" to heavy | midnight is "has_context" to astronomy | midnight is "has_context" to yoke | midnight is "related_to" to lily | midnight is "related_to" to language | midnight is "related_to" to accord | midnight is "related_to" to headlight | midnight is "related_to" to tunnel | midnight is "related_to" to slow | midnight is "related_to, has_property" to absolute | midnight is "dbpedia/genre" to dance_pop | midnight is "related_to" to evil | midnight is "related_to" to increase | midnight is "related_to" to harvest | midnight is "has_context" to celestial | midnight is "related_to, is_a" to part | midnight is "antonym" to around | midnight is "related_to" to boat | midnight is "related_to" to term | midnight is "has_context" to circus | midnight is "related_to, has_context" to issue | midnight is "related_to" to star_chart | midnight is "related_to, similar_to" to old | midnight is "synonym" to life | midnight is "has_context" to uk | midnight is "related_to, has_context" to office | midnight is "related_to" to gas | midnight is "has_context" to astrology | saturn is "related_to, at_location" to dust | saturn is "has_property, has_context" to red | saturn is "related_to" to water | saturn is "has_context, related_to" to vulcan | saturn is "related_to, manner_of" to travel | saturn is "related_to" to scale | saturn is "at_location" to clock | saturn is "at_location, related_to" to city | saturn is "has_context, related_to" to sol | saturn is "related_to" to like | saturn is "has_context, related_to" to figure | saturn is "related_to, at_location" to finger | saturn is "has_context" to station | saturn is "causes_desire, used_for, related_to" to drive | saturn is "related_to, has_context" to victoria | saturn is "related_to" to meter | saturn is "related_to" to servant | saturn is "has_context" to digit | saturn is "related_to, has_context" to earthly_branch | saturn is "related_to" to core | saturn is "at_location" to computer | saturn is "has_context" to canicular | saturn is "related_to" to put | saturn is "related_to" to large | saturn is "has_context" to medicine | saturn is "is_a" to album | saturn is "related_to" to hand | saturn is "has_context" to octave | saturn is "related_to" to table | saturn is "related_to" to bed | saturn is "has_context" to mathematics | saturn is "related_to, has_context, is_a, synonym, at_location" to planet | saturn is "related_to, at_location" to sky | saturn is "has_context" to heart | saturn is "has_context, related_to" to angle | saturn is "related_to" to desert | saturn is "related_to" to humorous | saturn is "has_context, related_to" to asia | saturn is "related_to" to myth | saturn is "related_to" to neck | saturn is "related_to, used_for" to people | saturn is "related_to" to wood | saturn is "related_to" to break | saturn is "has_context" to wane | saturn is "related_to" to race | saturn is "has_context" to india | saturn is "related_to, is_a, has_context" to class | saturn is "is_a" to animal | saturn is "related_to" to man | saturn is "related_to" to matter | saturn is "has_context, related_to" to set | saturn is "related_to" to polish | saturn is "related_to" to brain | saturn is "related_to" to christmas | saturn is "is_a, capable_of, defined_as" to love | saturn is "has_context" to service | saturn is "related_to, is_a" to region | saturn is "has_context, related_to, is_a" to crater | saturn is "at_location, related_to" to church | saturn is "is_a, distinct_from, at_location, has_context, related_to" to star | saturn is "is_a" to place | saturn is "related_to, at_location" to space | saturn is "related_to" to area | saturn is "related_to, part_of, at_location" to brake | saturn is "related_to" to turn | saturn is "related_to, has_context" to blue | saturn is "related_to" to steel | saturn is "related_to" to birth | saturn is "has_context, related_to" to rise | saturn is "related_to" to base | saturn is "has_context" to canada | saturn is "at_location" to battery | saturn is "has_context" to companion | saturn is "related_to" to deal | saturn is "related_to" to zombie | saturn is "is_a" to book | saturn is "related_to" to music | saturn is "related_to" to guard | saturn is "has_context" to sextant | saturn is "has_context" to run | saturn is "related_to" to progression | saturn is "related_to, has_context" to group | saturn is "related_to, derived_from, form_of, has_context" to ring | saturn is "related_to, is_a" to bird | saturn is "related_to" to transportation | saturn is "at_location" to fiction | saturn is "has_context" to bolster | saturn is "related_to, is_a" to god | saturn is "related_to" to fry | saturn is "not_desires, desires, related_to, created_by" to person | saturn is "related_to" to up | saturn is "related_to, is_a, at_location, distinct_from" to moon | saturn is "related_to" to speed | saturn is "has_context" to bull | saturn is "used_for, at_location, related_to" to oil | saturn is "at_location, related_to" to road | saturn is "has_property" to real | saturn is "related_to, has_context" to single | saturn is "is_a" to artifact | saturn is "has_context, part_of, is_a, related_to, at_location" to sun | saturn is "related_to" to population | saturn is "related_to" to small | saturn is "has_context" to dragon | saturn is "related_to" to physical | saturn is "related_to, antonym, is_a" to pot | saturn is "has_context" to slash | saturn is "dbpedia/language" to english_language | saturn is "has_context" to stitch | saturn is "related_to" to farmer | saturn is "related_to, antonym" to dog | saturn is "at_location" to cabinet | saturn is "related_to" to object | saturn is "has_context" to historical | saturn is "has_context" to slang | saturn is "has_context" to us | saturn is "related_to" to beat | saturn is "is_a" to hobby | saturn is "related_to" to ether | saturn is "related_to" to range | saturn is "at_location" to museum | saturn is "related_to" to smash | saturn is "related_to" to half | saturn is "has_context" to sports | saturn is "related_to, used_for" to transport | saturn is "at_location, created_by" to everything | saturn is "related_to" to fauna | saturn is "related_to" to club | saturn is "related_to" to face | saturn is "has_context" to canal | saturn is "related_to, at_location" to park | saturn is "related_to" to piston | saturn is "related_to" to present | saturn is "related_to" to beginning | saturn is "related_to" to deus_ex_machina | saturn is "has_a, related_to" to handle | saturn is "has_context" to camp | saturn is "related_to, part_of, is_a" to horse | saturn is "part_of" to starter | saturn is "has_context" to mons_mensae | saturn is "related_to" to mechanic | saturn is "related_to" to stop | saturn is "has_context" to lion | saturn is "related_to" to family | saturn is "related_to" to dance | saturn is "has_context" to b | saturn is "related_to" to bar | saturn is "related_to" to farm | saturn is "related_to" to sheet | saturn is "related_to" to ride_bitch | saturn is "related_to" to culture | saturn is "related_to" to quadrivium | saturn is "related_to" to sea | saturn is "related_to" to number | saturn is "is_a" to tool | saturn is "related_to" to night | saturn is "related_to" to smoke | saturn is "related_to" to bell | saturn is "related_to" to mile | saturn is "has_context" to dipper | saturn is "part_of, is_a, related_to, created_by, at_location" to earth | saturn is "related_to, has_context" to lord | saturn is "distinct_from, related_to, antonym" to truck | saturn is "has_context" to pejorative | saturn is "has_context" to dark_light | saturn is "related_to" to unit | saturn is "related_to" to plane | saturn is "etymologically_related_to" to good | saturn is "capable_of" to everywhere | saturn is "related_to" to nine | saturn is "has_context" to computing | saturn is "has_context" to ireland | saturn is "has_context" to linear | saturn is "related_to" to master | saturn is "related_to" to word | saturn is "related_to, has_context" to zodiac | saturn is "related_to" to dump | saturn is "related_to, at_location" to stars | saturn is "related_to" to nation | saturn is "related_to" to cow | saturn is "related_to, at_location" to heaven | saturn is "related_to" to four | saturn is "related_to" to lead | saturn is "related_to" to accident | saturn is "related_to" to radio | saturn is "related_to" to paint | saturn is "related_to" to street | saturn is "related_to" to being | saturn is "has_context" to stale | saturn is "related_to" to spiritual | saturn is "has_property" to heavy | saturn is "has_context, related_to" to astronomy | saturn is "related_to" to yoke | saturn is "related_to" to lily | saturn is "related_to" to language | saturn is "related_to" to accord | saturn is "at_location" to headlight | saturn is "has_context" to tunnel | saturn is "related_to, has_property" to slow | saturn is "related_to" to absolute | saturn is "dbpedia/genre" to dance_pop | saturn is "related_to, antonym" to evil | saturn is "has_context" to increase | saturn is "related_to" to harvest | saturn is "related_to" to celestial | saturn is "related_to" to part | saturn is "related_to" to around | saturn is "distinct_from, related_to, antonym" to boat | saturn is "has_context" to term | saturn is "related_to" to circus | saturn is "related_to" to issue | saturn is "has_context" to star_chart | saturn is "related_to" to old | saturn is "related_to" to life | saturn is "has_context" to uk | saturn is "at_location" to office | saturn is "derived_from, related_to" to gas | saturn is "related_to, has_context" to astrology | wolf is "has_context, related_to" to dust | wolf is "has_context, derived_from, related_to" to red | wolf is "at_location, related_to, has_a" to water | wolf is "has_context" to vulcan | wolf is "has_first_subevent, has_prerequisite, manner_of" to travel | wolf is "related_to, is_a, has_context" to scale | wolf is "related_to, is_a, has_context" to clock | wolf is "related_to, antonym" to city | wolf is "has_context" to sol | wolf is "related_to, has_context" to like | wolf is "related_to, has_context" to figure | wolf is "related_to, has_context" to finger | wolf is "related_to" to station | wolf is "related_to, manner_of, has_context" to drive | wolf is "related_to" to victoria | wolf is "has_context" to meter | wolf is "related_to" to servant | wolf is "related_to" to digit | wolf is "related_to" to earthly_branch | wolf is "related_to" to core | wolf is "related_to, has_property, antonym, is_a" to computer | wolf is "related_to" to canicular | wolf is "has_context" to put | wolf is "synonym, has_context, related_to" to large | wolf is "synonym, has_context" to medicine | wolf is "related_to, is_a, used_for" to album | wolf is "related_to" to hand | wolf is "has_context" to octave | wolf is "at_location, related_to, used_for" to table | wolf is "at_location, related_to, has_context" to bed | wolf is "has_context" to mathematics | wolf is "related_to, is_a" to planet | wolf is "at_location, related_to" to sky | wolf is "at_location" to heart | wolf is "has_context" to angle | wolf is "antonym" to desert | wolf is "has_context" to humorous | wolf is "at_location, related_to" to asia | wolf is "related_to" to myth | wolf is "has_context" to neck | wolf is "has_a, created_by, related_to, antonym" to people | wolf is "has_context, related_to, synonym" to wood | wolf is "has_context" to break | wolf is "has_context" to wane | wolf is "used_for" to race | wolf is "related_to" to india | wolf is "has_context" to class | wolf is "has_context, desires, at_location, related_to, is_a, synonym" to animal | wolf is "has_context, distinct_from, derived_from, related_to, antonym, is_a" to man | wolf is "related_to" to matter | wolf is "manner_of, has_context" to set | wolf is "related_to" to polish | wolf is "has_context, related_to" to brain | wolf is "related_to" to christmas | wolf is "used_for, related_to" to love | wolf is "related_to" to service | wolf is "related_to" to region | wolf is "has_context, related_to, is_a" to crater | wolf is "related_to" to church | wolf is "at_location, related_to, part_of" to star | wolf is "capable_of, related_to, has_context" to place | wolf is "related_to, has_context" to space | wolf is "related_to, has_context" to area | wolf is "related_to" to brake | wolf is "derived_from" to turn | wolf is "related_to, has_context" to blue | wolf is "has_context" to steel | wolf is "related_to" to birth | wolf is "related_to, synonym" to rise | wolf is "has_context" to base | wolf is "at_location" to canada | wolf is "has_context" to battery | wolf is "related_to" to companion | wolf is "related_to" to deal | wolf is "has_context" to zombie | wolf is "at_location, is_a, has_context" to book | wolf is "has_context" to music | wolf is "related_to" to guard | wolf is "related_to" to sextant | wolf is "related_to, synonym, has_context, desires, capable_of" to run | wolf is "has_context" to progression | wolf is "has_context, related_to" to group | wolf is "related_to" to ring | wolf is "has_context, distinct_from, at_location, related_to, antonym, is_a" to bird | wolf is "used_for" to transportation | wolf is "has_context" to fiction | wolf is "related_to" to bolster | wolf is "related_to, antonym" to god | wolf is "used_for" to fry | wolf is "desires, distinct_from, capable_of, related_to, antonym, is_a, not_desires" to person | wolf is "related_to, antonym, has_context" to up | wolf is "related_to, has_property" to moon | wolf is "has_context" to speed | wolf is "has_context, is_a, synonym" to bull | wolf is "related_to" to oil | wolf is "related_to, antonym" to road | wolf is "has_context" to real | wolf is "is_a" to single | wolf is "is_a" to artifact | wolf is "related_to" to sun | wolf is "related_to" to population | wolf is "distinct_from, related_to, has_property, antonym" to small | wolf is "related_to, is_a, has_context" to dragon | wolf is "has_context" to physical | wolf is "distinct_from, has_context" to pot | wolf is "has_context, related_to" to slash | wolf is "dbpedia/language" to english_language | wolf is "related_to" to stitch | wolf is "related_to" to farmer | wolf is "related_to, is_a, synonym, dbpedia/genus, has_context, desires, form_of, capable_of" to dog | wolf is "at_location" to cabinet | wolf is "related_to" to object | wolf is "has_context" to historical | wolf is "has_context" to slang | wolf is "has_context" to us | wolf is "related_to, has_context" to beat | wolf is "is_a" to hobby | wolf is "has_context" to ether | wolf is "has_context, related_to" to range | wolf is "at_location" to museum | wolf is "has_context, related_to" to smash | wolf is "has_context" to half | wolf is "has_context" to sports | wolf is "related_to, manner_of" to transport | wolf is "related_to" to everything | wolf is "related_to, synonym" to fauna | wolf is "related_to, is_a" to club | wolf is "related_to, has_context, part_of" to face | wolf is "related_to" to canal | wolf is "has_context, at_location, related_to" to park | wolf is "has_context" to piston | wolf is "related_to" to present | wolf is "related_to" to beginning | wolf is "related_to" to deus_ex_machina | wolf is "has_context, related_to" to handle | wolf is "related_to" to camp | wolf is "at_location, related_to, is_a, has_context" to horse | wolf is "related_to" to starter | wolf is "related_to" to mons_mensae | wolf is "etymologically_related_to" to mechanic | wolf is "has_context, distinct_from" to stop | wolf is "similar_to, related_to, is_a" to lion | wolf is "related_to, has_context" to family | wolf is "causes_desire, related_to" to dance | wolf is "has_context, related_to" to b | wolf is "has_context, at_location, related_to" to bar | wolf is "related_to, at_location" to farm | wolf is "related_to" to sheet | wolf is "has_context" to ride_bitch | wolf is "related_to" to culture | wolf is "related_to" to quadrivium | wolf is "derived_from, related_to, antonym" to sea | wolf is "has_context" to number | wolf is "related_to, has_context" to tool | wolf is "related_to" to night | wolf is "has_context, related_to" to smoke | wolf is "related_to, has_context" to bell | wolf is "has_context" to mile | wolf is "has_context, related_to" to dipper | wolf is "derived_from, at_location, related_to" to earth | wolf is "has_context" to lord | wolf is "related_to, has_context" to truck | wolf is "has_context" to pejorative | wolf is "has_context" to dark_light | wolf is "related_to, has_context" to unit | wolf is "related_to, is_a" to plane | wolf is "related_to, has_property" to good | wolf is "related_to" to everywhere | wolf is "related_to" to nine | wolf is "has_context" to computing | wolf is "related_to, has_context" to ireland | wolf is "related_to" to linear | wolf is "related_to" to master | wolf is "has_context" to word | wolf is "related_to" to zodiac | wolf is "has_context, used_for" to dump | wolf is "has_property" to stars | wolf is "related_to" to nation | wolf is "related_to" to cow | wolf is "related_to" to heaven | wolf is "related_to" to four | wolf is "related_to, has_context" to lead | wolf is "related_to" to accident | wolf is "related_to, at_location" to radio | wolf is "has_context" to paint | wolf is "has_context, at_location, related_to" to street | wolf is "related_to" to being | wolf is "related_to" to stale | wolf is "related_to" to spiritual | wolf is "similar_to, has_context, related_to, synonym" to heavy | wolf is "has_context" to astronomy | wolf is "has_context" to yoke | wolf is "has_context" to lily | wolf is "etymologically_related_to, related_to, is_a" to language | wolf is "related_to" to accord | wolf is "has_context" to headlight | wolf is "related_to" to tunnel | wolf is "has_context" to slow | wolf is "has_context" to absolute | wolf is "is_a" to dance_pop | wolf is "has_property, has_context" to evil | wolf is "related_to, is_a" to increase | wolf is "used_for" to harvest | wolf is "has_context" to celestial | wolf is "form_of, related_to" to part | wolf is "related_to" to around | wolf is "at_location, related_to" to boat | wolf is "related_to" to term | wolf is "related_to" to circus | wolf is "related_to" to issue | wolf is "related_to" to star_chart | wolf is "related_to" to old | wolf is "related_to" to life | wolf is "has_context" to uk | wolf is "at_location, has_context" to office | wolf is "synonym, has_context" to gas | wolf is "has_context" to astrology</t>
+  </si>
+  <si>
+    <t>bloom is "related_to, antonym, capable_of" to door | bloom is "related_to, is_a" to also | bloom is "related_to" to preserve | bloom is "related_to" to celebration | bloom is "related_to" to fashion | bloom is "related_to, synonym" to cream | bloom is "related_to, synonym" to fail | bloom is "related_to" to our | bloom is "related_to" to bullet | bloom is "related_to" to caffeinated | bloom is "has_property" to lobby | bloom is "at_location" to table | bloom is "related_to" to sweat_pore | bloom is "related_to" to genus | bloom is "related_to, at_location" to market | bloom is "is_a, related_to" to slit | bloom is "related_to, is_a, synonym" to exit | bloom is "is_a, related_to" to neck | bloom is "related_to, synonym" to break | bloom is "is_a" to time_period | bloom is "related_to" to family_history | bloom is "is_a" to pocket | bloom is "synonym, related_to" to deep | bloom is "related_to" to double | bloom is "related_to" to deal | bloom is "related_to" to leak | bloom is "related_to, has_context" to daypart | bloom is "related_to, has_context" to domesticate | bloom is "related_to" to bird | bloom is "is_a, at_location, synonym, derived_from, related_to" to apple | bloom is "related_to" to theme_song | bloom is "antonym" to wooden | bloom is "related_to" to release | bloom is "related_to, synonym, used_for, manner_of" to make | bloom is "related_to" to garment | bloom is "related_to" to visit | bloom is "related_to" to liberal | bloom is "related_to" to corn | bloom is "related_to" to woulfe's_bottle | bloom is "synonym, related_to" to boy | bloom is "used_for" to curtain | bloom is "manner_of" to interrupt | bloom is "is_a" to escape | bloom is "related_to" to seat | bloom is "related_to" to transition | bloom is "related_to" to strong | bloom is "related_to, is_a" to glaze | bloom is "related_to" to batten | bloom is "is_a" to breech | bloom is "part_of" to hood | bloom is "related_to, antonym, is_a, synonym, manner_of" to age | bloom is "etymologically_related_to, form_of, related_to" to takeoff | bloom is "has_prerequisite, related_to, has_property, distinct_from" to alive | bloom is "related_to, is_a" to bell | bloom is "related_to" to snipe | bloom is "related_to" to proficiency | bloom is "related_to" to everywhere | bloom is "related_to" to soc | bloom is "related_to" to eye | bloom is "at_location" to roster | bloom is "has_property" to entertaining | bloom is "related_to" to consonant | bloom is "related_to" to innings | bloom is "related_to" to nation | bloom is "related_to" to dime | bloom is "related_to" to chicken | bloom is "related_to, antonym, synonym" to black | bloom is "related_to" to snuff | bloom is "related_to" to feet | bloom is "related_to, manner_of" to move | bloom is "part_of" to fight | bloom is "related_to" to trump | bloom is "related_to, is_a" to canonical_hour | bloom is "related_to" to gasp | bloom is "related_to" to penis | bloom is "related_to" to loop | bloom is "related_to" to pore | bloom is "related_to, is_a" to part | bloom is "at_location" to store | bloom is "has_context" to grammar | bloom is "related_to, made_of" to cars | bloom is "is_a" to motion | bloom is "related_to" to reaction | bloom is "is_a" to aa | bloom is "related_to" to op | bloom is "similar_to" to active | bloom is "related_to" to quality | bloom is "is_a" to cutter | bloom is "antonym" to to | bloom is "related_to, synonym" to board | bloom is "related_to" to disconnected | bloom is "related_to" to desert | bloom is "related_to" to chief | bloom is "related_to, is_a" to river | bloom is "related_to, synonym" to finish | bloom is "related_to" to smooth | bloom is "related_to" to sexy | bloom is "related_to, has_property" to building | bloom is "related_to" to gape | bloom is "related_to" to kingdom | bloom is "related_to" to coin | bloom is "related_to" to conduct | bloom is "part_of, manner_of, related_to" to root | bloom is "related_to, synonym" to ring | bloom is "at_location" to surface_of_earth | bloom is "etymologically_related_to" to bull | bloom is "related_to" to characteristic | bloom is "related_to" to slash | bloom is "related_to" to hour | bloom is "related_to" to writing | bloom is "related_to" to more | bloom is "related_to" to clinker | bloom is "related_to" to cool | bloom is "related_to" to bog | bloom is "related_to" to shell | bloom is "related_to" to sign_up | bloom is "related_to" to rap | bloom is "related_to" to united_states | bloom is "related_to" to handle | bloom is "related_to" to cast | bloom is "related_to, is_a, at_location" to mouth | bloom is "related_to" to nighttime | bloom is "related_to" to agent | bloom is "related_to" to chinese | bloom is "related_to" to earth | bloom is "related_to" to beef | bloom is "antonym, part_of, related_to" to leaf | bloom is "related_to" to fuck_off | bloom is "has_context" to economics | bloom is "is_a" to magazine | bloom is "related_to" to efficient | bloom is "similar_to, antonym, related_to, has_property, synonym, distinct_from" to light | bloom is "is_a" to performing | bloom is "at_location, related_to" to knob | bloom is "related_to, at_location" to dirt | bloom is "related_to" to circular | bloom is "related_to, manner_of, synonym" to evolve | bloom is "related_to" to happiness | bloom is "related_to" to middle | bloom is "related_to" to with | bloom is "related_to" to generic | bloom is "related_to, manner_of" to term | bloom is "related_to, part_of" to watch | bloom is "related_to" to spirit | bloom is "derived_from, related_to" to may | bloom is "related_to" to charge | bloom is "is_a, related_to" to factory | bloom is "related_to" to crown | bloom is "synonym, related_to" to go | bloom is "related_to" to scotch | bloom is "has_prerequisite, has_context" to travel | bloom is "related_to" to thunder | bloom is "related_to, is_a" to makeup | bloom is "related_to" to pimple | bloom is "synonym" to application | bloom is "capable_of, related_to" to human | bloom is "related_to" to men | bloom is "related_to" to filling | bloom is "related_to" to giving | bloom is "related_to" to hand | bloom is "related_to" to any | bloom is "related_to, is_a, manner_of, derived_from" to bud | bloom is "is_a" to structure | bloom is "related_to" to labile_verb | bloom is "related_to" to sad | bloom is "related_to, synonym, manner_of" to remove | bloom is "related_to" to sort | bloom is "related_to, is_a" to grass | bloom is "related_to" to rob | bloom is "related_to" to cork | bloom is "related_to, created_by" to fruit | bloom is "related_to, antonym" to glass | bloom is "form_of, related_to" to opening | bloom is "related_to" to biological | bloom is "at_location, related_to" to basement | bloom is "related_to, made_of, at_location" to spring | bloom is "related_to, manner_of, synonym" to progress | bloom is "related_to" to two | bloom is "etymologically_related_to" to up | bloom is "related_to" to oil | bloom is "related_to" to proper | bloom is "form_of, at_location, related_to" to flowers | bloom is "related_to" to woman | bloom is "related_to" to throw_down | bloom is "related_to" to trap | bloom is "related_to" to farmer | bloom is "at_location, related_to" to commercial | bloom is "is_a" to ear | bloom is "related_to" to vent | bloom is "related_to, synonym, form_of" to dice | bloom is "related_to" to cloth | bloom is "has_context" to pull_focus | bloom is "has_context, related_to" to technical | bloom is "synonym, related_to" to rash | bloom is "receives_action" to broken | bloom is "related_to" to evening | bloom is "related_to, is_a" to device | bloom is "related_to" to category | bloom is "related_to" to drama | bloom is "related_to" to erupt | bloom is "related_to" to surprise | bloom is "related_to" to construct | bloom is "is_a" to chamber | bloom is "is_a" to gilt | bloom is "capable_of" to humans | bloom is "related_to" to arno | bloom is "related_to" to little | bloom is "related_to" to image | bloom is "etymologically_related_to, related_to, antonym" to flash | bloom is "synonym" to favorable | bloom is "antonym" to cover | bloom is "related_to, manner_of" to tag | bloom is "is_a, synonym, manner_of" to gap | bloom is "related_to" to interaction | bloom is "related_to" to hide | bloom is "is_a" to crack | bloom is "has_context" to heading | bloom is "related_to" to satellite | bloom is "related_to" to string | bloom is "has_context" to shark_fin_soup | bloom is "related_to, has_last_subevent, has_first_subevent, manner_of" to rest | bloom is "related_to, is_a" to weather | bloom is "related_to, made_of, at_location" to house | bloom is "related_to" to rogue | bloom is "related_to" to former | bloom is "at_location, related_to" to outside | bloom is "related_to" to damaging | bloom is "related_to" to narrow | bloom is "distinct_from, antonym, related_to" to born | bloom is "related_to, has_context" to australia | bloom is "related_to" to sublimation | bloom is "related_to" to shackle | bloom is "related_to" to mind | bloom is "related_to" to shorter | bloom is "related_to" to cleft | bloom is "related_to, manner_of, is_a" to stock | bloom is "related_to" to extract | bloom is "related_to" to enter | bloom is "related_to" to ephemeral | bloom is "related_to" to control | bloom is "at_location, related_to" to plate | bloom is "related_to" to piece | bloom is "related_to" to become | bloom is "related_to, at_location" to landscape | bloom is "related_to" to rain | bloom is "related_to" to second | bloom is "related_to" to jumper | bloom is "manner_of, motivated_by_goal, related_to, causes" to kill | bloom is "related_to, is_a" to knockdown | bloom is "synonym" to keen | bloom is "related_to" to taste | bloom is "related_to, is_a" to window | bloom is "related_to, has_property, etymologically_related_to" to blue | bloom is "related_to" to deadhead | bloom is "related_to" to debut | bloom is "related_to" to always | bloom is "etymologically_related_to" to darg | bloom is "related_to" to group | bloom is "related_to" to functionalism | bloom is "related_to" to sauce | bloom is "at_location" to jar | bloom is "related_to" to clicker | bloom is "related_to" to value | bloom is "related_to" to few | bloom is "has_context" to typography | bloom is "related_to" to citizen | bloom is "has_subevent" to killing | bloom is "related_to" to sport | bloom is "used_for, related_to, is_a" to strength | bloom is "related_to" to hepatoduodenostomy | bloom is "synonym" to choice | bloom is "related_to" to soup | bloom is "related_to" to cookie | bloom is "related_to" to friends | bloom is "related_to" to tap | bloom is "related_to" to effective | bloom is "related_to" to description | bloom is "is_a" to meaning | bloom is "etymologically_related_to" to bark | bloom is "related_to" to mechanism | bloom is "related_to" to spread | bloom is "related_to" to done | bloom is "related_to" to dead | bloom is "related_to, synonym, entails" to leave | bloom is "is_a" to rift | bloom is "related_to" to sprint | bloom is "related_to" to button | bloom is "related_to" to source | bloom is "related_to" to lord | bloom is "related_to" to bath | bloom is "related_to, receives_action, is_a" to cut | bloom is "related_to" to calling | bloom is "related_to" to automobile | bloom is "etymologically_related_to" to brook | bloom is "related_to" to affluent | bloom is "is_a, related_to" to signature | bloom is "synonym, related_to" to lively | bloom is "synonym" to visitation | bloom is "related_to" to video_game | bloom is "related_to" to memory | bloom is "synonym" to take_time_off | bloom is "related_to" to time | bloom is "related_to" to describer | bloom is "related_to" to role | bloom is "related_to" to gat | bloom is "related_to" to qingming | bloom is "related_to" to audience | bloom is "related_to" to personal | bloom is "has_context" to poker | bloom is "related_to" to particular | bloom is "related_to, distinct_from" to nick | bloom is "related_to" to stuff | bloom is "related_to, antonym" to when | bloom is "related_to" to rich | bloom is "related_to" to circus | bloom is "related_to" to mark | bloom is "related_to" to successful | bloom is "related_to" to keyhole | bloom is "related_to, has_context" to chess | bloom is "is_a, has_subevent" to dream | bloom is "related_to" to saint | bloom is "related_to" to penicillin | bloom is "has_context" to graph_theory | bloom is "related_to" to cheek | bloom is "related_to" to fan | bloom is "has_context" to native | bloom is "related_to" to cash_in | bloom is "has_context" to geometry | bloom is "related_to" to bow | bloom is "has_context, related_to" to mathematics | bloom is "related_to" to os | bloom is "made_of" to bicycle | bloom is "related_to" to outer | bloom is "related_to" to funkcore | bloom is "related_to" to love | bloom is "is_a, related_to" to uppercut | bloom is "related_to" to cave | bloom is "is_a, distinct_from, not_desires, related_to, created_by" to plant | bloom is "manner_of, capable_of, related_to" to change | bloom is "related_to" to column | bloom is "is_a, has_context, related_to" to machine | bloom is "related_to, is_a, at_location" to book | bloom is "synonym" to first_step | bloom is "related_to" to salt | bloom is "related_to" to asset | bloom is "related_to" to related | bloom is "related_to, has_property" to cake | bloom is "related_to" to main | bloom is "related_to, has_property" to moon | bloom is "related_to" to bars | bloom is "related_to, synonym" to come_on | bloom is "at_location, related_to" to television_show | bloom is "related_to, is_a, synonym, at_location" to box | bloom is "related_to, is_a" to spout | bloom is "is_a, related_to" to youth | bloom is "related_to, manner_of" to act | bloom is "is_a, synonym, related_to" to stroke | bloom is "related_to, at_location" to movie | bloom is "related_to" to burn | bloom is "related_to" to rush | bloom is "manner_of, has_context" to lay | bloom is "has_context" to us | bloom is "related_to" to blade | bloom is "related_to" to vehicle | bloom is "related_to" to ulcer | bloom is "related_to, antonym" to get_off | bloom is "related_to" to trick | bloom is "related_to" to club | bloom is "related_to" to course | bloom is "related_to" to betee | bloom is "related_to" to animate | bloom is "synonym" to split | bloom is "antonym" to closing | bloom is "related_to" to respect | bloom is "related_to" to apply | bloom is "at_location, related_to" to channel | bloom is "related_to" to maroon | bloom is "related_to, is_a" to kick | bloom is "related_to" to broad | bloom is "related_to" to laugh | bloom is "related_to" to word | bloom is "derived_from, related_to, has_property" to day | bloom is "related_to" to generic_term | bloom is "derived_from" to blowbuddy | bloom is "has_prerequisite" to clean_clothes | bloom is "has_context" to stiff | bloom is "related_to" to wind | bloom is "has_context, related_to" to bruise | bloom is "related_to" to being | bloom is "related_to" to iceberg | bloom is "related_to" to entering | bloom is "has_context" to law | bloom is "related_to, antonym" to take | bloom is "distinct_from, related_to, antonym" to shade | bloom is "related_to" to child | bloom is "related_to" to sequence | bloom is "related_to" to spa | bloom is "related_to, antonym, distinct_from, motivated_by_goal" to old | bloom is "is_a, related_to" to chocolate | bloom is "related_to" to cinder | bloom is "has_property" to city | bloom is "related_to" to missouri | bloom is "has_context" to physics | bloom is "related_to" to intense | bloom is "related_to" to stick | bloom is "related_to" to computer | bloom is "at_location" to actors | bloom is "related_to" to alcohol | bloom is "related_to" to coal | bloom is "related_to" to atmosphere | bloom is "synonym" to smiling | bloom is "has_context" to cricket | bloom is "related_to, created_by, made_of" to metal | bloom is "antonym" to dirty | bloom is "related_to, has_a" to sugar | bloom is "related_to" to avenue | bloom is "has_context" to pop | bloom is "related_to" to fusion | bloom is "related_to" to rock_music | bloom is "related_to" to after | bloom is "related_to" to complement | bloom is "has_context" to nautical | bloom is "related_to" to aim | bloom is "related_to" to material | bloom is "related_to" to leaves | bloom is "is_a" to oak | bloom is "antonym" to pictures | bloom is "related_to, synonym" to croak | bloom is "related_to" to almost | bloom is "related_to" to have | bloom is "related_to" to body | bloom is "related_to" to parts | bloom is "related_to" to president | bloom is "related_to" to block | bloom is "causes" to being_involved_in_accident | bloom is "related_to" to object | bloom is "is_a, related_to" to port | bloom is "synonym" to inn | bloom is "related_to" to face | bloom is "similar_to, is_a" to beginning | bloom is "related_to" to mort | bloom is "related_to" to piss_slit | bloom is "at_location, related_to" to bar | bloom is "related_to" to precious | bloom is "related_to" to best | bloom is "related_to" to sleep | bloom is "related_to" to unit | bloom is "related_to, is_a, synonym" to energy | bloom is "related_to, synonym" to call | bloom is "related_to" to blackheart | bloom is "related_to" to type | bloom is "related_to, is_a" to fabric | bloom is "related_to, is_a" to lemon | bloom is "has_context" to astronomy | bloom is "related_to" to count | bloom is "related_to" to department | bloom is "related_to" to windy | bloom is "has_context, related_to" to biology | bloom is "related_to, synonym" to free | bloom is "related_to" to craft | bloom is "related_to" to shed | bloom is "related_to" to wrest | bloom is "related_to" to jingle | bloom is "related_to" to doors | bloom is "related_to" to shrub | bloom is "related_to" to termination | bloom is "related_to" to nose | bloom is "related_to, synonym" to prime | bloom is "etymologically_related_to, related_to" to death | bloom is "related_to" to industry | bloom is "related_to" to bread | bloom is "synonym" to famous | bloom is "related_to" to facility | bloom is "related_to" to band | bloom is "related_to" to bet | bloom is "related_to" to like | bloom is "related_to, synonym" to figure | bloom is "at_location" to filth | bloom is "related_to" to steam | bloom is "related_to, synonym" to glory | bloom is "has_subevent, related_to" to drink | bloom is "related_to, is_a" to wax | bloom is "related_to" to sappy | bloom is "related_to" to promise | bloom is "related_to" to rule | bloom is "is_a" to diastema | bloom is "related_to, is_a" to herb | bloom is "at_location" to wallet | bloom is "related_to, manner_of" to sound | bloom is "related_to" to chest | bloom is "related_to" to camera | bloom is "has_context" to scotland | bloom is "related_to" to pouch | bloom is "is_a" to pepper | bloom is "antonym, related_to, created_by, is_a" to seed | bloom is "related_to" to pull | bloom is "has_context" to mining | bloom is "related_to" to occasion | bloom is "related_to" to point | bloom is "related_to" to hit | bloom is "related_to, synonym" to flourish | bloom is "related_to" to years | bloom is "related_to" to chick | bloom is "related_to" to corner | bloom is "related_to" to cell | bloom is "related_to" to push | bloom is "etymologically_related_to, related_to, derived_from" to blow | bloom is "is_a, related_to" to crop | bloom is "related_to" to gift | bloom is "related_to, manner_of, synonym" to give | bloom is "antonym" to shut_up | bloom is "has_context" to historical | bloom is "related_to" to growing | bloom is "related_to" to spot | bloom is "is_a, synonym, related_to, has_property" to hole | bloom is "related_to" to twilight | bloom is "related_to" to month | bloom is "part_of, at_location" to register | bloom is "related_to, antonym, distinct_from" to dull | bloom is "synonym" to availability | bloom is "related_to" to look | bloom is "at_location" to instruments | bloom is "related_to" to you | bloom is "is_a, manner_of, related_to" to number | bloom is "has_property" to bathroom | bloom is "related_to, derived_from" to opener | bloom is "related_to" to phone | bloom is "related_to" to junior | bloom is "related_to" to brat | bloom is "related_to" to hydrate | bloom is "related_to" to big_bang | bloom is "related_to" to blind | bloom is "related_to, has_property" to dress | bloom is "related_to, at_location" to picture | bloom is "related_to" to buildings | bloom is "has_context" to topology | bloom is "related_to" to together | bloom is "related_to, antonym, synonym" to smart | bloom is "synonym, has_context, related_to" to strip | bloom is "related_to, is_a" to wicket | bloom is "related_to, synonym" to loose | bloom is "related_to" to alien | bloom is "related_to, is_a" to breach | bloom is "related_to, at_location" to information | bloom is "related_to" to boat | bloom is "related_to" to company | bloom is "is_a, distinct_from, related_to" to tin | bloom is "has_context" to uk | bloom is "related_to" to debouchure | bloom is "related_to" to quarter | bloom is "manner_of" to send | bloom is "related_to, antonym" to gray | bloom is "has_context" to fatigue | bloom is "distinct_from, related_to, antonym" to dark | bloom is "is_a" to throat | bloom is "related_to" to blood | bloom is "related_to" to bold | bloom is "related_to, used_for" to gate | bloom is "related_to, has_property" to white | bloom is "related_to, manner_of" to put | bloom is "is_a" to album | bloom is "related_to" to art | bloom is "related_to, is_a" to gold | bloom is "related_to" to knot | bloom is "related_to" to line | bloom is "related_to, antonym" to address | bloom is "related_to" to filler | bloom is "related_to" to soul | bloom is "used_for" to represent | bloom is "related_to" to cent | bloom is "related_to" to production | bloom is "related_to" to man | bloom is "related_to" to hard | bloom is "related_to" to moving | bloom is "has_context" to overshift | bloom is "related_to" to edge | bloom is "related_to" to blacksmith | bloom is "related_to" to barb | bloom is "related_to" to turn | bloom is "related_to" to entity | bloom is "related_to" to shape | bloom is "has_context" to finance | bloom is "related_to" to flat | bloom is "related_to, distinct_from, form_of, capable_of" to open | bloom is "has_property" to alley | bloom is "capable_of, related_to, antonym, is_a, at_location, used_for, manner_of" to tree | bloom is "related_to, at_location" to show | bloom is "related_to" to smelly | bloom is "related_to" to shoot | bloom is "related_to" to mass | bloom is "related_to" to relation | bloom is "manner_of" to be | bloom is "related_to" to perforation | bloom is "related_to, manner_of" to suffuse | bloom is "has_a, related_to" to continent | bloom is "manner_of" to communicate | bloom is "related_to" to sound_hole | bloom is "related_to" to slot_pair | bloom is "related_to" to prison | bloom is "related_to, synonym" to head | bloom is "related_to, has_context" to roll | bloom is "at_location, related_to, has_property" to cellar | bloom is "synonym, related_to" to force | bloom is "has_property" to jacket | bloom is "related_to" to period | bloom is "related_to" to stage | bloom is "related_to" to tone | bloom is "related_to" to grant | bloom is "related_to" to saw | bloom is "related_to" to mince | bloom is "related_to" to chord | bloom is "distinct_from, related_to, has_property" to good | bloom is "motivated_by_goal" to jog | bloom is "synonym, etymologically_related_to, manner_of" to bear | bloom is "manner_of" to arise | bloom is "related_to" to marijuana | bloom is "synonym" to capable | bloom is "related_to, has_property" to green | bloom is "etymologically_related_to" to fact | bloom is "has_context" to screen | bloom is "related_to, has_property, is_a, manner_of" to paint | bloom is "related_to" to mortal | bloom is "related_to" to crimp | bloom is "related_to" to reproduction | bloom is "related_to" to void | bloom is "related_to" to swell | bloom is "synonym, related_to" to heyday | bloom is "related_to" to fellow | bloom is "related_to, synonym, manner_of" to expand | bloom is "manner_of, related_to" to style | bloom is "has_context" to theme | bloom is "related_to" to flag | bloom is "manner_of, related_to, is_a, synonym" to start | bloom is "related_to, is_a" to opportunity | bloom is "related_to" to rape | bloom is "related_to, is_a" to introduction | bloom is "related_to" to forcing | bloom is "related_to" to rate | bloom is "related_to, is_a, derived_from" to development | bloom is "related_to" to honor | bloom is "used_for" to graveyard | bloom is "related_to" to but | bloom is "related_to" to liberty | bloom is "related_to" to short | bloom is "related_to, antonym, distinct_from" to wood | bloom is "related_to" to straight | bloom is "distinct_from, related_to, antonym, not_desires" to animal | bloom is "related_to" to process | bloom is "related_to, used_for" to eating | bloom is "related_to" to service | bloom is "synonym" to purpose | bloom is "has_property, related_to" to closet | bloom is "related_to" to leafs | bloom is "related_to, at_location" to news | bloom is "related_to" to keeper | bloom is "related_to" to fare | bloom is "is_a" to artifact | bloom is "related_to" to small | bloom is "related_to" to tubulure | bloom is "related_to" to vessel | bloom is "related_to" to stenopaeic | bloom is "related_to" to grey | bloom is "related_to" to chink | bloom is "related_to, has_context" to junction | bloom is "has_context" to pilot | bloom is "related_to" to its | bloom is "related_to, is_a" to lunette | bloom is "related_to" to ghost | bloom is "related_to, synonym" to clear | bloom is "synonym, related_to" to strike | bloom is "related_to" to present | bloom is "related_to" to mean | bloom is "form_of, derived_from, etymologically_related_to, capable_of, related_to, is_a, synonym, distinct_from" to flower | bloom is "is_a" to hammer | bloom is "similar_to" to wide_open | bloom is "related_to" to stop | bloom is "related_to, manner_of" to draw | bloom is "related_to, synonym" to do | bloom is "causes, synonym" to pall | bloom is "at_location" to funny | bloom is "has_context" to pejorative | bloom is "similar_to" to available | bloom is "derived_from" to late | bloom is "related_to" to ash | bloom is "manner_of" to refer | bloom is "related_to" to sucker | bloom is "related_to" to speech | bloom is "capable_of, related_to, made_of" to lock | bloom is "related_to" to passage | bloom is "related_to" to nursery | bloom is "related_to" to slog | bloom is "related_to, synonym" to jump | bloom is "at_location" to pantry | bloom is "related_to" to can | bloom is "related_to" to identity | bloom is "related_to" to hang | bloom is "related_to, has_context" to card | bloom is "capable_of, related_to, antonym, distinct_from" to close | bloom is "has_property" to wild | bloom is "related_to" to general_term | bloom is "receives_action" to eaten | bloom is "related_to" to peg | bloom is "related_to, synonym" to excellent | bloom is "synonym, is_a" to noun | bloom is "related_to" to location | bloom is "related_to" to out | bloom is "manner_of" to cut_out | bloom is "related_to" to very | bloom is "related_to" to steak | bloom is "related_to" to pack | bloom is "related_to, is_a" to victoria | bloom is "related_to" to tertiate | bloom is "related_to, manner_of" to play | bloom is "related_to, synonym" to pass | bloom is "related_to" to squint | bloom is "manner_of, causes" to happen | bloom is "related_to" to ideal | bloom is "related_to" to operation | bloom is "related_to" to making | bloom is "at_location, related_to" to certificate | bloom is "is_a, related_to" to rhubarb | bloom is "related_to" to coin_slot | bloom is "related_to, synonym" to prosper | bloom is "related_to" to race | bloom is "has_last_subevent, has_first_subevent" to fart | bloom is "related_to" to character | bloom is "is_a, related_to" to polish | bloom is "related_to, has_property, antonym" to color | bloom is "is_a" to state | bloom is "related_to" to giant | bloom is "related_to" to smell | bloom is "related_to, antonym" to birthday | bloom is "related_to, has_context" to pip | bloom is "related_to" to before | bloom is "related_to" to zombie | bloom is "related_to" to slug | bloom is "manner_of" to serve | bloom is "related_to" to virgate | bloom is "related_to" to suit | bloom is "made_of, at_location" to car | bloom is "related_to, motivated_by_goal" to exercise | bloom is "related_to, has_last_subevent" to work | bloom is "related_to" to bay | bloom is "related_to" to first_rate | bloom is "has_context" to first_person | bloom is "related_to" to spacecut | bloom is "related_to" to shake | bloom is "related_to, is_a" to gesture | bloom is "related_to" to joy | bloom is "manner_of" to discolor | bloom is "etymologically_related_to" to lap | bloom is "related_to" to it | bloom is "synonym" to pleasant | bloom is "related_to" to influence | bloom is "related_to" to turning | bloom is "related_to" to inside | bloom is "related_to" to scissure | bloom is "not_desires" to die | bloom is "related_to" to sides | bloom is "related_to" to grave | bloom is "related_to" to john | bloom is "related_to" to sea | bloom is "related_to" to static | bloom is "has_context" to abc | bloom is "related_to" to slam | bloom is "related_to, synonym" to inflate | bloom is "related_to" to furnish | bloom is "related_to" to feeling | bloom is "related_to" to brack | bloom is "related_to" to shutter | bloom is "related_to" to investment | bloom is "related_to" to extreme | bloom is "related_to" to lemonade | bloom is "related_to, is_a" to conductor | bloom is "related_to" to huge | bloom is "related_to" to job | bloom is "related_to" to evangelist | bloom is "related_to, part_of, synonym" to surface | bloom is "related_to" to potpourri | bloom is "related_to" to loud | bloom is "related_to" to result | bloom is "related_to" to bat | bloom is "related_to" to choco | bloom is "manner_of, related_to" to specify | bloom is "has_context" to british | bloom is "manner_of" to fill | bloom is "related_to, is_a" to season | bloom is "related_to" to species | bloom is "has_context, related_to" to film | bloom is "related_to" to winning | bloom is "related_to" to march | bloom is "antonym, related_to" to breathe | bloom is "related_to" to bate | bloom is "related_to" to through | bloom is "synonym" to add | bloom is "is_a" to knock | bloom is "related_to" to queen_post | bloom is "made_of, at_location" to container | bloom is "synonym, related_to" to choke | bloom is "related_to" to wildlife | bloom is "made_of, related_to" to locker | bloom is "related_to, synonym" to set | bloom is "related_to" to top | bloom is "related_to" to hill | bloom is "related_to" to movement | bloom is "related_to, has_property, is_a" to space | bloom is "has_context, related_to, used_for" to key | bloom is "at_location, has_context, related_to" to canada | bloom is "related_to" to action | bloom is "related_to" to wire | bloom is "related_to" to scape | bloom is "synonym, derived_from, related_to" to young | bloom is "related_to" to feminine | bloom is "has_context" to christianity | bloom is "related_to, has_property" to expression | bloom is "related_to" to milk | bloom is "related_to" to single | bloom is "has_context" to northern_england | bloom is "at_location" to apartment | bloom is "related_to" to fade | bloom is "related_to" to going | bloom is "related_to" to juice | bloom is "has_property, antonym" to bad | bloom is "related_to" to smash | bloom is "related_to, antonym" to meat | bloom is "related_to" to starter | bloom is "has_context" to undershift | bloom is "related_to" to capital | bloom is "at_location, related_to" to programming | bloom is "related_to, is_a" to iron | bloom is "related_to" to stretch | bloom is "related_to" to boot | bloom is "is_a" to whip | bloom is "related_to" to straw | bloom is "related_to" to sneeze | bloom is "causes" to eating_vegetables | bloom is "related_to" to bleeding | bloom is "related_to" to power | bloom is "related_to" to temporal_hour | bloom is "related_to" to occurrence | bloom is "capable_of" to decay | bloom is "related_to" to disease | bloom is "related_to" to indian | bloom is "related_to" to game_of_chance | bloom is "related_to" to stound | bloom is "related_to, is_a" to event | bloom is "related_to" to ostium | bloom is "related_to" to excitement | bloom is "related_to" to hair_space | bloom is "related_to" to children | bloom is "related_to" to bubble | bloom is "related_to" to has | bloom is "has_property" to yellow | bloom is "related_to" to taint | bloom is "related_to" to introduce | bloom is "related_to, manner_of, has_a, at_location" to water | bloom is "manner_of, related_to" to build | bloom is "related_to" to orpharion | bloom is "has_con</t>
+  </si>
+  <si>
+    <t>duck is "has_context" to fruit_machine | duck is "related_to, has_context" to scran | duck is "related_to, has_context" to rank | duck is "has_context" to japanese_pizza | duck is "related_to, has_context" to aluminum | duck is "is_a, has_context" to bagel | duck is "related_to, has_context" to coop | duck is "has_context, at_location, related_to, antonym" to party | duck is "has_context" to rockfish | duck is "related_to" to leader | duck is "has_context, related_to" to cream | duck is "related_to, has_property, antonym, distinct_from" to round | duck is "related_to" to blacken | duck is "related_to, has_context" to food_waste_disposer | duck is "related_to, has_context, used_for" to bullet | duck is "related_to, has_context" to beard | duck is "related_to, has_context" to harpoon | duck is "has_context" to salami | duck is "derived_from, related_to" to agri_food | duck is "has_context" to squash | duck is "at_location, related_to, has_context" to drinks | duck is "has_context, related_to" to kicking | duck is "has_context, has_a, used_for, desires, at_location, distinct_from, capable_of, related_to, has_property, antonym, is_a" to animal | duck is "related_to" to process | duck is "related_to" to name | duck is "has_context, related_to, is_a" to pasty | duck is "related_to" to contents | duck is "is_a, has_context, desires, at_location, related_to" to bone | duck is "has_context" to mayonnaise_face | duck is "related_to, is_a" to custard | duck is "used_for, related_to, is_a, has_context" to place | duck is "related_to, synonym, has_context, etymologically_related_to" to fodder | duck is "has_context, distinct_from, related_to, has_property, antonym, is_a" to plant | duck is "has_context, related_to" to pocket | duck is "derived_from, related_to, has_context" to foodporn | duck is "has_context, related_to" to batsman | duck is "has_context" to briny | duck is "related_to, antonym, is_a, has_context" to beverage | duck is "has_context, related_to, is_a" to sourdough | duck is "at_location, related_to, has_context, used_for" to salt | duck is "has_context, related_to, manner_of, is_a, synonym" to fare | duck is "has_context" to greaseball | duck is "at_location, related_to, made_of, not_has_property" to hair | duck is "has_context" to dago | duck is "has_context" to jig | duck is "has_context, has_a, desires, part_of, distinct_from, receives_action, derived_from, capable_of, related_to, antonym, is_a, synonym" to bird | duck is "related_to, antonym, is_a, synonym, has_context, used_for, distinct_from" to cake | duck is "has_context, used_for, receives_action, related_to, has_property" to apple | duck is "related_to" to alloy | duck is "has_context" to tight | duck is "related_to, is_a, has_a, at_location, distinct_from, form_of" to lake | duck is "related_to" to cookline | duck is "related_to, has_property, antonym" to small | duck is "related_to" to trayline | duck is "has_context, related_to, is_a" to box | duck is "related_to, has_context" to dog_meat | duck is "related_to, part_of" to vessel | duck is "related_to" to wattle | duck is "related_to" to capsule | duck is "related_to, has_property, is_a, has_context, used_for, desires, at_location, capable_of" to dog | duck is "has_context" to caught | duck is "has_context" to eye_talian | duck is "at_location, related_to, is_a, has_context" to chips | duck is "related_to, has_context" to go_large | duck is "has_context" to us | duck is "is_a" to berliner | duck is "related_to, manner_of, has_context" to beat | duck is "has_context" to rat_pack | duck is "has_context, related_to" to range | duck is "related_to, has_context" to pie | duck is "has_context, related_to" to order | duck is "related_to, has_context" to sports | duck is "related_to, antonym, has_context, at_location" to ground | duck is "has_context" to cans | duck is "has_context, used_for, related_to, is_a" to pudding | duck is "has_context" to guido | duck is "motivated_by_goal, desires, has_last_subevent, form_of, related_to, antonym, causes_desire, used_for" to eat | duck is "related_to, is_a" to linen | duck is "has_context" to sockdolager | duck is "has_context, related_to" to carry | duck is "related_to, is_a, has_context" to pig | duck is "related_to" to silver | duck is "is_a" to metallic | duck is "not_has_property, is_a, has_context, related_to" to hot_dog | duck is "manner_of, antonym, not_has_property, is_a, has_context, at_location, related_to" to rock | duck is "has_context" to blob | duck is "has_context, derived_from, related_to" to catmeat | duck is "has_context, related_to" to topper_offer | duck is "has_context, related_to" to smoker | duck is "related_to, has_context" to gang | duck is "related_to, synonym, manner_of, has_context" to nosh | duck is "has_context" to whiff | duck is "has_context" to fortify | duck is "entails, has_context, has_subevent, capable_of, related_to, manner_of" to kick | duck is "derived_from, has_context" to dogfood | duck is "has_context" to snakehead | duck is "has_context, related_to" to snooker | duck is "related_to, is_a" to money | duck is "related_to" to full | duck is "related_to, derived_from" to eye | duck is "related_to" to donkey | duck is "has_context" to snag | duck is "related_to" to miss | duck is "has_context, at_location, related_to" to bowl | duck is "has_context" to pack_fudge | duck is "has_context" to toro | duck is "part_of, distinct_from, form_of, derived_from, capable_of, related_to, antonym, is_a, has_context, etymologically_related_to, receives_action" to chicken | duck is "has_context, related_to" to grub | duck is "related_to, has_context" to tinned_dog | duck is "has_context, related_to" to garbage | duck is "has_context, related_to" to fresh | duck is "has_context, related_to, is_a" to kebab | duck is "has_context, distinct_from, related_to, antonym, manner_of" to move | duck is "related_to, is_a, has_context" to lead | duck is "related_to, antonym, is_a" to being | duck is "has_context" to ex_lax_fish | duck is "used_for, at_location, related_to, has_context" to pike | duck is "derived_from, related_to, is_a" to seafood | duck is "related_to, has_context" to rockhead | duck is "derived_from, at_location, related_to, antonym, has_context, used_for" to can | duck is "related_to, has_context" to munga | duck is "related_to, has_context" to pick | duck is "has_context, capable_of, related_to, antonym" to fix | duck is "related_to, has_context" to wad | duck is "form_of, related_to, has_context" to take | duck is "related_to, antonym" to crowd | duck is "at_location, related_to" to store | duck is "related_to, is_a, synonym, has_context, derived_from" to card | duck is "is_a, has_context" to hoe | duck is "related_to" to playing_card | duck is "has_context, is_a" to pea_soup | duck is "related_to" to pressure | duck is "has_context" to wop | duck is "related_to" to sequence | duck is "has_context" to greaser | duck is "related_to" to bronze | duck is "has_context" to tagger | duck is "related_to, has_context" to crumb | duck is "not_has_property, has_context, at_location" to bottle | duck is "has_context" to wally | duck is "has_context" to croaker | duck is "has_context, used_for, receives_action, is_a, related_to" to chocolate | duck is "related_to, is_a, synonym" to net | duck is "has_context" to boning | duck is "related_to" to scale | duck is "is_a, has_context" to cupcake | duck is "has_context, is_a" to fruitcake | duck is "is_a" to oliebol | duck is "related_to, similar_to, has_context" to pack | duck is "entails, used_for, desires, related_to, is_a, manner_of" to play | duck is "has_context, is_a, related_to" to chow | duck is "related_to" to tinfoil | duck is "receives_action, capable_of, related_to, similar_to, has_context" to cooked | duck is "has_context" to goombah | duck is "used_for, distinct_from, form_of, derived_from, at_location, related_to, is_a, has_a" to pond | duck is "has_context, related_to" to mcdungheap's | duck is "has_context, at_location, related_to, is_a" to bridge | duck is "has_context" to canned | duck is "related_to" to board | duck is "related_to, has_context, derived_from" to foodgasm | duck is "has_context" to shiny | duck is "related_to" to permit | duck is "related_to" to grain | duck is "related_to, is_a, has_context" to canary | duck is "has_context" to ginzo | duck is "has_context, related_to" to peeler | duck is "related_to, similar_to" to general | duck is "has_context" to cod | duck is "related_to" to making | duck is "related_to, manner_of, is_a, has_context" to wolf | duck is "is_a" to wet_fly | duck is "has_context, related_to, is_a" to cricket | duck is "related_to, has_context" to rhubarb | duck is "used_for, distinct_from, at_location, related_to, antonym, has_a" to river | duck is "related_to, has_context" to frig | duck is "has_context" to ruck | duck is "related_to" to metal | duck is "has_context" to tinnie | duck is "has_context, related_to" to sugar | duck is "has_context" to gino | duck is "has_context" to pop | duck is "related_to" to forward | duck is "part_of, form_of, related_to, synonym, has_context" to beak | duck is "related_to, not_has_property, has_context" to cup | duck is "has_property, is_a, has_context" to mexican | duck is "distinct_from, related_to, antonym, has_context" to coin | duck is "has_context" to nautical | duck is "related_to, is_a, has_context" to milkshake | duck is "is_a" to tulumba | duck is "has_context" to stack | duck is "is_a, has_context" to slug | duck is "related_to, synonym" to material | duck is "related_to, has_context" to greasebomb | duck is "distinct_from, related_to" to poison | duck is "has_context" to bundle | duck is "has_property, antonym, has_context, at_location, related_to" to car | duck is "related_to, manner_of, antonym, is_a, synonym, has_context, has_subevent, capable_of" to run | duck is "derived_from, related_to" to ring | duck is "is_a, has_context, at_location, related_to" to crab | duck is "related_to, manner_of, synonym, has_context" to have | duck is "related_to" to ability | duck is "related_to, has_context, used_for" to body | duck is "related_to" to honeycomb | duck is "has_context" to trash_fish | duck is "has_context" to prawn | duck is "derived_from, related_to, antonym, is_a, has_context" to not | duck is "has_context" to cafone | duck is "has_context" to growler | duck is "related_to, not_has_property, is_a" to hamburger | duck is "related_to, has_context" to hay | duck is "related_to, has_context" to ankle | duck is "has_context, related_to" to ring_sting | duck is "related_to, antonym, is_a" to object | duck is "used_for, distinct_from, related_to" to rifle | duck is "at_location, related_to, antonym, made_of, is_a, has_context" to ice | duck is "related_to, antonym" to sop | duck is "has_context, is_a" to salmon | duck is "related_to, is_a" to rugby | duck is "distinct_from, related_to, antonym, is_a, manner_of, synonym, has_context" to fire | duck is "has_context" to molly | duck is "related_to, is_a, has_context" to jack | duck is "at_location, related_to" to nest | duck is "related_to, is_a, similar_to, has_context" to biscuit | duck is "derived_from, related_to" to underwater | duck is "related_to" to inside | duck is "has_context, related_to" to berry | duck is "has_context" to mullet | duck is "has_context, at_location, related_to, synonym" to park | duck is "at_location, related_to" to coffee | duck is "has_context, is_a" to marker | duck is "related_to" to cast | duck is "has_context, used_for, at_location, related_to, is_a" to mouth | duck is "related_to, has_context" to canner | duck is "has_context, related_to" to bar | duck is "at_location, related_to, is_a, synonym, manner_of, etymologically_related_to" to dip | duck is "part_of, distinct_from, derived_from, at_location, related_to, antonym, made_of" to sea | duck is "has_context" to bunker | duck is "related_to, has_context" to supper | duck is "has_context, derived_from, related_to, is_a, synonym" to dipper | duck is "has_context, distinct_from, related_to, antonym, is_a" to beef | duck is "at_location, has_context" to coke | duck is "has_context, related_to, antonym" to twist | duck is "at_location, related_to, has_context" to truck | duck is "related_to, is_a" to ore | duck is "has_context" to snapper | duck is "has_context" to drum | duck is "related_to" to ingredient | duck is "has_context" to sozzled | duck is "related_to, has_property, similar_to" to light | duck is "related_to" to anchor | duck is "related_to" to belly | duck is "related_to, has_context" to gutbomb | duck is "related_to" to trout | duck is "related_to" to type | duck is "has_context, at_location, related_to, has_property" to grape | duck is "has_context" to parmesan | duck is "has_context" to bone_up | duck is "causes, at_location, related_to, is_a, has_context, used_for" to game | duck is "related_to, has_context" to soft | duck is "has_context, related_to" to blech | duck is "related_to" to beam | duck is "has_context, related_to" to jelly | duck is "has_context" to purdy | duck is "has_context, related_to" to tearoom | duck is "related_to" to need | duck is "has_context, related_to" to pinky | duck is "receives_action, instance_of, is_a, related_to, made_of, has_context" to toast | duck is "related_to, antonym, is_a, has_context, used_for, desires, receives_action, at_location, distinct_from" to fish | duck is "related_to" to term | duck is "has_context, has_a, used_for, desires, form_of, derived_from, capable_of, related_to, has_property, manner_of" to fly | duck is "has_context, related_to" to stump | duck is "related_to, is_a, has_context" to quiche | duck is "has_property" to roofs | duck is "related_to" to craft | duck is "at_location, related_to, synonym, has_context, has_a, used_for" to pool | duck is "motivated_by_goal, at_location, related_to, has_context" to shop | duck is "is_a, related_to, has_context" to mutton | duck is "related_to" to fother | duck is "has_context, related_to" to lid | duck is "created_by, at_location, distinct_from, related_to, has_property, antonym, is_a, has_context, used_for" to egg | duck is "related_to, synonym" to soldier | duck is "related_to, manner_of, synonym" to compound | duck is "related_to, synonym, has_context" to diet | duck is "related_to" to rivers | duck is "derived_from, at_location, related_to, is_a, has_context" to rainbow | duck is "synonym, related_to" to branch | duck is "has_context" to grouper_trooper | duck is "has_context" to rad | duck is "is_a" to naturally_occurring_tangible_substance | duck is "has_context, used_for, receives_action, antonym, related_to, manner_of, has_property, is_a, synonym" to bread | duck is "related_to, has_context" to pad | duck is "related_to, is_a" to pastry | duck is "has_context, distinct_from, derived_from, related_to, antonym" to red | duck is "has_context" to gaff | duck is "related_to, synonym, has_context" to like | duck is "has_context" to british | duck is "related_to, has_context, used_for" to dish | duck is "related_to, has_context" to tabnab | duck is "has_context, related_to, manner_of" to fill | duck is "has_context, used_for, at_location, related_to" to spoon | duck is "is_a, has_context" to cobbler | duck is "related_to, is_a" to element | duck is "is_a" to youtiao | duck is "related_to, has_context" to prog | duck is "has_context, related_to" to flipper | duck is "has_subevent, at_location, distinct_from, related_to, antonym, used_for" to drink | duck is "related_to" to chowline | duck is "has_context" to sack | duck is "related_to, is_a" to sopaipilla | duck is "has_context" to swot | duck is "is_a" to bamiyeh | duck is "related_to" to fisherman | duck is "has_context" to genetics | duck is "has_context" to fisho | duck is "related_to, has_first_subevent, has_subevent, causes" to get_wet | duck is "has_context, related_to" to jam | duck is "has_context, at_location, related_to" to rule | duck is "has_context, related_to" to herb | duck is "at_location, related_to, has_context" to wallet | duck is "distinct_from, related_to, antonym" to hand | duck is "related_to, is_a, has_context" to sound | duck is "distinct_from, related_to, antonym, not_has_property" to mineral | duck is "has_context, at_location, related_to, is_a" to fox | duck is "is_a, has_context, related_to" to angle | duck is "has_context" to stuffed | duck is "related_to" to doubleheader | duck is "has_context, at_location, related_to" to catfish | duck is "has_context" to german_pizza | duck is "has_context" to fishhead | duck is "derived_from, related_to, is_a, has_context" to wildlife | duck is "related_to" to seed | duck is "has_context, related_to, synonym" to top | duck is "has_context" to fish_cop | duck is "related_to" to schlich | duck is "has_context" to mining | duck is "related_to" to overnet | duck is "has_context, etymologically_related_to, related_to" to chuck | duck is "is_a, has_context" to starfish | duck is "has_context, distinct_from, related_to, manner_of" to grass | duck is "has_context" to cork | duck is "related_to, synonym" to space | duck is "has_context" to eyetie | duck is "has_context, related_to, antonym" to cheap | duck is "synonym, distinct_from, related_to, antonym" to fast | duck is "at_location, related_to, has_property" to glass | duck is "etymologically_related_to, part_of, form_of, related_to, antonym, is_a, synonym, has_context" to chick | duck is "related_to" to draft | duck is "related_to" to delicacy | duck is "has_context, related_to" to troll | duck is "has_context" to plastic | duck is "related_to, is_a, has_context" to funnel_cake | duck is "related_to, manner_of, part_of, at_location" to roof | duck is "at_location, has_context" to fishy | duck is "at_location, related_to" to toilet | duck is "related_to, has_context" to tucker | duck is "distinct_from, related_to, antonym, manner_of" to oil | duck is "at_location, related_to, has_property, antonym, is_a, has_context, has_a" to milk | duck is "related_to" to minnow | duck is "at_location, related_to, has_context" to zoo | duck is "related_to" to provide | duck is "is_a, related_to" to size | duck is "has_context, is_a" to cinnamon_roll | duck is "related_to" to physical | duck is "has_context" to fizgig | duck is "related_to, antonym" to farmer | duck is "has_context" to shut_up | duck is "is_a, has_context" to christmas_cake | duck is "has_context" to historical | duck is "related_to, synonym, has_context" to bag | duck is "has_context, instance_of, related_to, is_a" to baguette | duck is "is_a, has_context" to twinkie | duck is "related_to, antonym, manner_of, synonym" to hold | duck is "related_to, is_a" to fillet | duck is "is_a, manner_of, at_location, related_to" to cotton | duck is "has_context" to wanker | duck is "has_context, related_to" to smash | duck is "part_of, related_to, is_a, has_context" to spot | duck is "has_context, is_a" to catch | duck is "related_to" to thin | duck is "has_context" to rat_tail | duck is "is_a" to sprinkles | duck is "related_to" to aquatic | duck is "related_to, manner_of, has_context, at_location" to whale | duck is "at_location, capable_of, related_to, has_property, is_a, has_context" to horse | duck is "derived_from, related_to" to breadline | duck is "related_to" to lure | duck is "has_context, related_to, similar_to" to baked | duck is "related_to, has_context" to iron | duck is "is_a, has_context" to wonton | duck is "related_to, has_context" to bench | duck is "related_to, has_context" to whip | duck is "has_context" to nz | duck is "has_context, manner_of" to hack | duck is "has_context" to shiner | duck is "has_context" to jointed | duck is "has_context" to rip | duck is "motivated_by_goal, has_last_subevent, form_of, derived_from, capable_of, related_to, antonym, synonym, manner_of" to swim | duck is "has_context" to hardware | duck is "at_location, has_context" to trash | duck is "related_to, has_context" to opener | duck is "distinct_from, related_to, manner_of" to paste | duck is "related_to, has_context, derived_from" to foodie | duck is "at_location, not_has_property, has_context" to mug | duck is "has_context, related_to" to spear_biscuits | duck is "has_prerequisite, related_to, has_context, used_for" to fishing | duck is "has_context, part_of, related_to" to oyster | duck is "has_context" to guinea | duck is "etymologically_related_to, has_subevent, causes, part_of, distinct_from, receives_action, form_of, derived_from, at_location, capable_of, related_to, has_property, antonym, is_a, synonym, manner_of, similar_to, has_context, has_a, used_for" to duck | duck is "related_to, has_context" to blind | duck is "related_to, synonym" to bait | duck is "has_context, related_to" to pogey_bait | duck is "has_context, related_to" to bean_chute | duck is "distinct_from, related_to, antonym, synonym, similar_to, has_context" to little | duck is "derived_from, related_to, manner_of, has_context" to cover | duck is "has_context, related_to, has_property" to cold | duck is "has_context, related_to" to waste | duck is "has_context" to scull | duck is "related_to" to together | duck is "used_for, related_to" to fork | duck is "has_context, distinct_from, related_to, antonym, synonym" to raw | duck is "has_context, related_to, is_a" to muffin | duck is "has_context" to pewter | duck is "has_context" to fish_pound | duck is "has_context" to pickled | duck is "related_to" to higenamine | duck is "has_context" to chooch | duck is "related_to, is_a" to junk_food | duck is "related_to, has_context, entails" to toss | duck is "distinct_from, derived_from, related_to, antonym, is_a, has_context" to turkey | duck is "has_context, related_to" to grip | duck is "derived_from, related_to, has_context" to squat | duck is "related_to" to italy | duck is "derived_from, related_to, has_context" to tail | duck is "desires, related_to, has_context" to goat | duck is "related_to, synonym" to treat | duck is "used_for, at_location, related_to" to boat | duck is "related_to" to lie | duck is "has_context, related_to" to tin | duck is "at_location, related_to, is_a, has_context" to house | duck is "has_context, related_to, is_a" to diamond | duck is "related_to, has_context" to scoff | duck is "has_context" to fin | duck is "used_for, at_location, related_to" to bass | duck is "related_to" to has | duck is "has_context, at_location, related_to" to outside | duck is "related_to, has_context" to taint | duck is "related_to, has_context" to yummy | duck is "has_context" to canhouse | duck is "is_a" to koeksister | duck is "related_to" to item | duck is "at_location, derived_from, has_prerequisite, related_to, antonym, is_a, has_a" to water | duck is "related_to, has_context" to arse_like_japanese_flag | duck is "related_to, manner_of, synonym" to arrange | duck is "has_context, related_to" to tasty | duck is "related_to" to euphemistic | duck is "has_context" to saltyback | duck is "has_context" to guidette | duck is "has_context, related_to" to tank | duck is "related_to" to servant | duck is "has_context, antonym" to gig | duck is "related_to, has_property, has_context" to white | duck is "has_context" to wizard | duck is "has_context" to slimy | duck is "related_to, manner_of, antonym" to put | duck is "has_context, related_to" to mungaree | duck is "related_to, has_context" to medicine | duck is "has_context" to grunt | duck is "related_to, has_context" to brass | duck is "has_context, related_to, antonym, is_a, synonym, manner_of" to line | duck is "is_a" to breakfast_food | duck is "related_to, has_context, has_subevent, causes, form_of" to float | duck is "is_a" to bear_claw | duck is "related_to, has_context" to lip | duck is "has_context, located_near, distinct_from, at_location, related_to, not_has_property" to plate | duck is "has_context, etymologically_related_to, derived_from, at_location, capable_of, related_to, manner_of" to wet | duck is "related_to, has_context" to kidney | duck is "related_to, is_a, has_context, receives_action" to carrots | duck is "related_to, has_context" to hopper | duck is "has_context, distinct_from, related_to, antonym, is_a" to man | duck is "has_a, used_for, at_location, distinct_from, related_to, antonym, made_of" to ocean | duck is "related_to, is_a" to symbol | duck is "related_to, has_context" to barb | duck is "related_to" to sweet | duck is "has_context, used_for, receives_action, made_of, is_a" to sausage | duck is "has_context, is_a" to strudel | duck is "related_to, has_context" to hot | duck is "manner_of, has_context, related_to" to steel | duck is "is_a" to timbits | duck is "has_context, at_location, related_to" to cooler | duck is "has_context, related_to" to hatch | duck is "related_to" to shape | duck is "has_context, related_to" to cabbage | duck is "related_to" to swirl | duck is "has_context" to finance | duck is "related_to, has_context" to flat | duck is "related_to" to atomic | duck is "antonym, manner_of, has_context, etymologically_related_to" to open | duck is "related_to, has_context" to tongue | duck is "has_context" to jemmy | duck is "has_context" to pizzahead | duck is "has_context" to catch_and_release | duck is "has_context, related_to, made_of, is_a" to lettuce | duck is "related_to" to dipper_well | duck is "related_to" to group | duck is "has_context, related_to, is_a" to taco | duck is "has_context" to loob | duck is "has_context, related_to" to tea | duck is "has_context" to ashcan | duck is "derived_from" to gamefish | duck is "related_to, has_context" to sauce | duck is "related_to, has_context" to smelly | duck is "used_for, related_to" to indian_ocean | duck is "related_to" to pea | duck is "related_to" to value | duck is "desires, distinct_from, capable_of, related_to, antonym, made_of, is_a, not_desires, has_context" to person | duck is "has_context" to torpedo | duck is "at_location, form_of, related_to" to lakes | duck is "related_to, synonym" to tare | duck is "has_context, at_location, related_to" to garden | duck is "related_to, has_context" to pot | duck is "capable_of, related_to" to worms | duck is "related_to, has_context" to side | duck is "related_to, has_context" to social | duck is "has_context, related_to, has_property" to mat | duck is "related_to, has_context" to slang | duck is "has_last_subevent, form_of, has_prerequisite, related_to, has_context, has_first_subevent, motivated_by_goal" to cook | duck is "has_context" to figure_eight | duck is "related_to, has_context" to forget | duck is "related_to, is_a, has_context" to dog_food | duck is "form_of, related_to, has_context" to eats | duck is "related_to, not_has_property, is_a, has_context" to solid | duck is "at_location, related_to, antonym, made_of, is_a, has_context" to soup | duck is "has_context, receives_action, related_to, is_a" to cookie | duck is "is_a, has_context" to coconut | duck is "has_context" to loaded | duck is "at_location, distinct_from, related_to, antonym, synonym" to fair | duck is "related_to" to cylinder | duck is "related_to, is_a, synonym, manner_of, has_context, used_for" to roll | duck is "derived_from, related_to, has_context" to foodaholic | duck is "has_context" to billy | duck is "causes, etymologically_related_to, related_to, is_a, synonym" to feed | duck is "is_a, has_context" to software | duck is "related_to" to form | duck is "used_for, at_location, is_a, has_context" to potato | duck is "has_context, receives_action, related_to, is_a" to cheese | duck is "has_context" to pizza_nigger | duck is "has_context, related_to" to load | duck is "has_context" to blower | duck is "has_context" to shitcan | duck is "related_to, manner_of, has_context" to spread | duck is "related_to, is_a" to pancake | duck is "at_location, capable_of, related_to, antonym, is_a, has_prerequisite, has_context, used_for, desires, distinct_from" to cat | duck is "has_context, has_last_subevent, antonym, has_prerequisite, related_to, manner_of" to dance | duck is "manner_of, has_context" to drag | duck is "related_to, manner_of, has_property" to sheet | duck is "causes_desire, used_for, desires, motivated_by_goal, receives_action, at_location, has_prerequisite, capable_of, related_to, antonym, is_a, synonym" to food | duck is "related_to" to snack | duck is "related_to, has_context" to bishop | duck is "related_to, antonym, is_a, has_context" to produce | duck is "related_to, is_a, has_context" to noodle | duck is "related_to, has_property, is_a, synonym" to liquid | duck is "related_to, has_property, is_a, synonym, similar_to, has_context" to good | duck is "at_location" to neighbor's_house | duck is "has_context, related_to" to napoleon | duck is "related_to" to fishnet | duck is "related_to, has_context" to shrimp | duck is "related_to, is_a, synonym, has_context" to cracker | duck is "related_to, has_context, used_for" to bean | duck is "related_to, is_a, synonym, entails, has_context" to bear | duck is "distinct_from, related_to, manner_of, is_a, synonym, similar_to, has_context" to cut | duck is "related_to, synonym, has_context" to tear | duck is "has_context, used_for, receives_action, is_a, related_to" to pickle | duck is "at_location, related_to" to kitchen | duck is "has_a, used_for, at_location, related_to" to brook | duck is "related_to, has_context" to gobbler | duck is "has_context" to willy | duck is "has_context" to beans | duck is "related_to" to kingfish | duck is "has_context, related_to" to prune | duck is "related_to" to trophology | duck is "related_to, has_context" to mouthgasm | duck is "has_context, related_to, manner_of" to paint | duck is "related_to, has_context" to copper | duck is "related_to, synonym" to brace | duck is "has_context" to ken | duck is "has_context, used_for, receives_action, related_to, has_property, is_a" to banana | duck is "etymologically_related_to, related_to" to language | duck is "has_context" to card_games | duck is "has_context, related_to" to mortal | duck is "related_to, is_a, has_context" to cardinal | duck is "has_context" to puffer | duck is "has_context, receives_action, derived_from, related_to, antonym, is_a, manner_of, has_property, not_has_property" to butter | duck is "has_context, related_to" to thick | duck is "at_location, related_to, has_property, is_a" to dolphin | duck is "has_context, is_a" to beignet | duck is "has_context" to gob_stick | duck is "related_to, is_a, has_context, at_location" to lobster | duck is "has_context" to nit | duck is "related_to, has_context" to poker | duck is "is_a" to dessert | duck is "related_to, has_context" to stuff | duck is "related_to, has_context" to yes | duck is "has_context, related_to" to cigarette | duck is "is_a, has_context, at_location, related_to" to basket | duck is "related_to, synonym" to mark | duck is "at_location, antonym, related_to, used_for" to home | duck is "has_context" to flimsy | duck is "has_context" to lavatory | duck is "related_to" to discard | duck is "related_to, has_context" to heat | duck is "related_to" to rundown | duck is "has_context" to ripper | duck is "related_to, has_context" to pan | sardine is "has_context" to fruit_machine | sardine is "related_to" to scran | sardine is "related_to" to rank | sardine is "has_context" to japanese_pizza | sardine is "distinct_from, related_to, antonym, made_of" to aluminum | sardine is "is_a" to bagel | sardine is "related_to" to coop | sardine is "related_to" to party | sardine is "is_a, derived_from, related_to" to rockfish | sardine is "related_to, at_location" to leader | sardine is "related_to" to cream | sardine is "related_to" to round | sardine is "related_to" to blacken | sardine is "related_to" to food_waste_disposer | sardine is "related_to" to bullet | sardine is "related_to" to beard | sardine is "related_to" to harpoon | sardine is "related_to" to salami | sardine is "derived_from, related_to" to agri_food | sardine is "has_context" to squash | sardine is "related_to" to drinks | sardine is "used_for" to kicking | sardine is "related_to, is_a, used_for" to animal | sardine is "related_to" to process | sardine is "related_to" to name | sardine is "is_a" to pasty | sardine is "related_to" to contents | sardine is "at_location, synonym, related_to" to bone | sardine is "related_to" to mayonnaise_face | sardine is "is_a" to custard | sardine is "related_to" to place | sardine is "synonym, etymologically_related_to, related_to" to fodder | sardine is "related_to" to plant | sardine is "related_to" to pocket | sardine is "derived_from, related_to" to foodporn | sardine is "related_to" to batsman | sardine is "related_to" to briny | sardine is "related_to, antonym, is_a" to beverage | sardine is "is_a" to sourdough | sardine is "synonym, used</t>
+  </si>
+  <si>
+    <t>question is "antonym" to answer | question is "desires" to answer | question is "distinct_from" to answer | question is "related_to" to answer | question is "antonym" to statement | question is "distinct_from" to statement | question is "related_to" to statement | reply is "antonym" to answer | reply is "related_to" to answer | reply is "related_to" to answer | reply is "related_to" to answer | reply is "synonym" to answer | reply is "synonym" to answer | reply is "synonym" to answer | reply is "synonym" to answer | reply is "related_to" to statement | solution is "related_to" to answer | solution is "related_to" to answer | solution is "is_a" to statement</t>
+  </si>
+  <si>
+    <t>sensitive is "related_to" to upset | sensitive is "related_to" to hurt | sob is "related_to" to quiet | sob is "related_to" to like | sob is "related_to" to hard | sob is "antonym" to smile | sob is "related_to" to deep | sob is "related_to" to action | sob is "related_to" to cry | sob is "related_to" to cry | sob is "manner_of" to cry | sob is "has_context" to slang | sob is "related_to" to emotion | sob is "related_to" to sadness | weep is "related_to" to cry | weep is "related_to" to cry | weep is "related_to" to cry | weep is "synonym" to cry</t>
+  </si>
+  <si>
+    <t>doe is "related_to" to deer | doe is "related_to" to deer | doe is "is_a" to deer | doe is "is_a" to deer | fawn is "is_a" to deer | fawn is "related_to" to deer | fawn is "related_to" to deer | fawn is "is_a" to deer | fawn is "is_a" to deer | fawn is "is_a" to deer</t>
+  </si>
+  <si>
+    <t>bud is "related_to" to plant | bud is "related_to" to flower | bud is "is_a" to flower | dandelion is "related_to" to plant | dandelion is "related_to" to plant | dandelion is "is_a" to flower | dandelion is "related_to" to flower | dandelion is "related_to" to flower</t>
+  </si>
+  <si>
+    <t>colt is "related_to" to horse | colt is "related_to" to horse | colt is "is_a" to horse | colt is "is_a" to horse | mare is "is_a" to horse | mare is "related_to" to horse | mare is "related_to" to horse | mare is "is_a" to horse | mare is "part_of" to horse | mare is "is_a" to horse | unicorn is "related_to" to horse</t>
+  </si>
+  <si>
+    <t>algebra is "related_to" to intersection | algebra is "related_to" to ring | algebra is "related_to" to bilinear | algebra is "related_to" to numbers | algebra is "has_context" to analysis | algebra is "related_to" to geometry | algebra is "has_context" to mathematics | algebra is "has_context" to mathematics | algebra is "related_to" to related | algebra is "related_to" to complement | algebra is "related_to" to module | algebra is "related_to" to math_class | algebra is "related_to" to math_subject | algebra is "has_context" to set_theory | algebra is "has_context" to historical | algebra is "related_to" to school | algebra is "synonym" to algebra | algebra is "is_a" to pure_mathematics | algebra is "related_to" to group_theory | algebra is "related_to" to subject | algebra is "related_to" to integers | algebra is "related_to" to equations | algebra is "related_to" to formula | algebra is "related_to" to math | algebra is "related_to" to mathematical_structure | algebra is "related_to" to commutative | calculus is "related_to" to algebra_geometry | calculus is "related_to" to numbers | calculus is "related_to" to calculation | calculus is "synonym" to calculus | calculus is "related_to" to stuff | calculus is "related_to" to analysis | calculus is "related_to" to analysis | calculus is "related_to" to geometry | calculus is "has_context" to mathematics | calculus is "related_to" to mathematics | calculus is "has_context" to mathematics | calculus is "related_to" to course | calculus is "related_to" to physics | calculus is "related_to" to math_class | calculus is "related_to" to calculate | calculus is "related_to" to unit | calculus is "related_to" to math_subject | calculus is "related_to" to school | calculus is "distinct_from" to algebra | calculus is "related_to" to algebra | calculus is "is_a" to pure_mathematics | calculus is "related_to" to expression | calculus is "related_to" to subject | calculus is "related_to" to computation | calculus is "related_to" to math | calculus is "related_to" to differential_calculus | calculus is "related_to" to integral_calculus | trigonometry is "related_to" to angle | trigonometry is "related_to" to calculation | trigonometry is "related_to" to geometry | trigonometry is "has_context" to mathematics | trigonometry is "related_to" to mathematics | trigonometry is "has_context" to mathematics | trigonometry is "related_to" to triangle | trigonometry is "derived_from" to metry | trigonometry is "derived_from" to tri | trigonometry is "related_to" to trigonometric | trigonometry is "is_a" to pure_mathematics | trigonometry is "synonym" to trigonometry | trigonometry is "related_to" to trigonometrist | trigonometry is "related_to" to trigon | trigonometry is "related_to" to relationship | trigonometry is "related_to" to side</t>
+  </si>
+  <si>
+    <t>pedal is "has_context" to music | pedal is "has_context" to music | pedal is "entails" to play | pedal is "related_to" to foot | pedal is "related_to" to foot | pedal is "related_to" to foot | pedal is "part_of" to organ | pedal is "related_to" to bike | pedal is "related_to" to power | pedal is "has_context" to medicine | pedal is "related_to" to step | pull is "related_to" to door | pull is "has_context" to internet | pull is "related_to" to strain | pull is "has_context" to us | pull is "has_context" to sports | pull is "synonym" to draw | pull is "related_to" to do | pull is "manner_of" to move | pull is "manner_of" to move | pull is "related_to" to motion | pull is "related_to" to motion | pull is "has_context" to cricket | pull is "has_context" to cricket | pull is "related_to" to jerk | pull is "related_to" to muscle | pull is "related_to" to influence | pull is "synonym" to influence | pull is "related_to" to handle | pull is "related_to" to handle | pull is "synonym" to handle | pull is "related_to" to knob | pull is "related_to" to energy | pull is "related_to" to rope | pull is "related_to" to rope | pull is "manner_of" to drive | pull is "has_context" to baseball | pull is "related_to" to attraction | pull is "synonym" to attraction | pull is "related_to" to movement | pull is "manner_of" to hit | pull is "related_to" to action | pull is "related_to" to opening | pull is "antonym" to push | pull is "antonym" to push | pull is "related_to" to push | pull is "has_context" to uk | pull is "related_to" to grunt | pull is "related_to" to moving | pull is "synonym" to side | pull is "related_to" to yard | pull is "has_context" to slang | pull is "has_context" to slang | pull is "related_to" to score | pull is "synonym" to score | pull is "related_to" to force | pull is "related_to" to force | pull is "related_to" to force | pull is "is_a" to force | pull is "manner_of" to force | pull is "related_to" to drag | pull is "synonym" to drag | pull is "synonym" to drag | pull is "antonym" to button | pull is "is_a" to propulsion | pull is "related_to" to direction | pull is "related_to" to pluck | pull is "synonym" to pluck | shove is "related_to" to pass | shove is "related_to" to bet | shove is "related_to" to push | shove is "manner_of" to push | shove is "is_a" to push | shove is "synonym" to thrust | shove is "has_context" to slang | shove is "related_to" to force | shove is "has_context" to poker</t>
+  </si>
+  <si>
+    <t>clockwise is "antonym" to counterclockwise | clockwise is "similar_to" to dextrorotatory | clockwise is "related_to" to dextral | left is "related_to" to hand | left is "is_a" to hand | left is "is_a" to position | left is "is_a" to turn | left is "related_to" to side | left is "antonym" to rightward | left is "synonym" to left | left is "etymologically_related_to" to leave | left is "form_of" to leave | left is "related_to" to leave | left is "form_of" to leave | left is "related_to" to left_handed | left is "antonym" to right | left is "antonym" to right | left is "antonym" to right | left is "antonym" to right | left is "distinct_from" to right | left is "related_to" to right | left is "related_to" to right | left is "related_to" to direction | wrong is "related_to" to opposite | wrong is "related_to" to opinion | wrong is "related_to" to position | wrong is "related_to" to worn | wrong is "antonym" to right | wrong is "antonym" to right | wrong is "distinct_from" to right | wrong is "has_property" to right | wrong is "related_to" to right | wrong is "related_to" to right | wrong is "related_to" to right</t>
+  </si>
+  <si>
+    <t>flu is "is_a" to virus | flu is "has_context" to uk | nauseous is "etymologically_related_to" to nausea | nauseous is "related_to" to nausea | nauseous is "derived_from" to nausea | nauseous is "has_subevent" to throw_up | nauseous is "related_to" to disgusting | nauseous is "related_to" to sickening | nauseous is "related_to" to sick | virus is "causes" to disease | virus is "synonym" to virus | virus is "causes" to cold</t>
+  </si>
+  <si>
+    <t>astronomy is "related_to" to star | moon is "related_to" to star | moon is "related_to" to celestial_body | twinkle is "has_context" to celestial_body</t>
+  </si>
+  <si>
+    <t>bait is "related_to" to water | bait is "related_to" to fish | pond is "has_a" to water | pond is "related_to" to water | pond is "related_to" to water | pond is "related_to" to fish | pond is "used_for" to fish | tuna is "at_location" to water | tuna is "related_to" to fish | tuna is "is_a" to fish | tuna is "is_a" to fish | tuna is "is_a" to fish</t>
+  </si>
+  <si>
+    <t>trim is "related_to" to cut | trim is "related_to" to cut | trim is "is_a" to cut | wound is "related_to" to cut | wound is "related_to" to cut | wound is "related_to" to skin | wound is "related_to" to skin | wound is "synonym" to wound | wound is "related_to" to bandage</t>
+  </si>
+  <si>
+    <t>gravity is "related_to" to down | low is "related_to" to ground | low is "related_to" to ground | low is "related_to" to down | up is "antonym" to down | up is "antonym" to down | up is "antonym" to down | up is "antonym" to down | up is "distinct_from" to down | up is "related_to" to down</t>
+  </si>
+  <si>
+    <t>emergency is "has_context" to historical | emergency is "related_to" to location | emergency is "related_to" to area | emergency is "causes_desire" to run | emergency is "related_to" to situation | emergency is "related_to" to situation | emergency is "related_to" to hurry | rapid is "related_to" to speed | rapid is "related_to" to motion | rapid is "related_to" to river | rapid is "related_to" to river | rapid is "part_of" to river | rapid is "related_to" to fast_moving | rapid is "related_to" to fast | rapid is "similar_to" to fast | rapid is "related_to" to white | rapid is "related_to" to moving | rapid is "related_to" to very | rapid is "related_to" to quick_motion | rapid is "related_to" to really_fast | rapid is "related_to" to movement | rapid is "related_to" to water | rapid is "related_to" to current | rapid is "related_to" to quickly | rapid is "related_to" to rapidly | rapid is "related_to" to really | rapid is "antonym" to slow | rapid is "distinct_from" to slow | rapid is "related_to" to very_fast | rapid is "related_to" to site | rapid is "related_to" to quick | rapid is "related_to" to quick | slow is "related_to" to speed | slow is "related_to" to speed | slow is "related_to" to move | slow is "related_to" to motion | slow is "related_to" to spread | slow is "related_to" to time | slow is "related_to" to slowly | slow is "related_to" to slowly | slow is "related_to" to promptness | slow is "antonym" to fast | slow is "antonym" to fast | slow is "distinct_from" to fast | slow is "related_to" to behind | slow is "synonym" to behind | slow is "related_to" to hinder | slow is "related_to" to busy | slow is "related_to" to movement | slow is "antonym" to prompt | slow is "has_context" to music | slow is "has_context" to music | slow is "related_to" to activity | slow is "related_to" to quickly | slow is "antonym" to hasty | slow is "related_to" to hasty | slow is "synonym" to delay | slow is "related_to" to run | slow is "related_to" to low | slow is "related_to" to song | slow is "related_to" to distance | slow is "antonym" to rapid | slow is "related_to" to quick</t>
+  </si>
+  <si>
+    <t>brawl is "related_to" to fight | brawl is "related_to" to fight | brawl is "related_to" to fight | brawl is "is_a" to fight | debate is "related_to" to fight | soldier is "desires" to fight | soldier is "related_to" to fight | soldier is "used_for" to fight</t>
+  </si>
+  <si>
+    <t>birds is "form_of" to bird | birds is "related_to" to bird | birds is "form_of" to bird | birds is "has_property" to light | birds is "at_location" to flock | birds is "not_capable_of" to bark | birds is "at_location" to nest | birds is "has_a" to feathers | birds is "has_a" to tails | birds is "capable_of" to mate | birds is "has_property" to small | birds is "has_a" to eggs | birds is "at_location" to roof | birds is "at_location" to countryside | birds is "at_location" to air | birds is "capable_of" to perch | birds is "capable_of" to land | birds is "capable_of" to eat | birds is "at_location" to park | birds is "capable_of" to grow | birds is "is_a" to heavier_than_air | birds is "has_a" to eyes | birds is "at_location" to forest | birds is "at_location" to sky | birds is "has_property" to cute | frog is "related_to" to garment | frog is "related_to" to loop | frog is "at_location" to lawn | frog is "related_to" to horse | frog is "related_to" to plate | frog is "related_to" to button | frog is "related_to" to bow | frog is "at_location" to pond | frog is "related_to" to pond | frog is "has_context" to derogatory | frog is "related_to" to fasten | frog is "related_to" to cell | frog is "capable_of" to pet | frog is "related_to" to blood | frog is "related_to" to knot | frog is "has_property" to green | frog is "related_to" to green | frog is "related_to" to switch | frog is "related_to" to animal | frog is "related_to" to small | frog is "related_to" to coat | frog is "receives_action" to eaten | frog is "related_to" to water | frog is "related_to" to road | frog is "has_context" to rail_transport | frog is "related_to" to hoof | frog is "related_to" to hop | frog is "related_to" to big | frog is "related_to" to order | frog is "related_to" to paddock | frog is "related_to" to creature | frog is "related_to" to violin | kite is "used_for" to entertainment | kite is "is_a" to bird | kite is "related_to" to bird | kite is "is_a" to bird | kite is "used_for" to hobby | kite is "related_to" to travel | kite is "related_to" to draft | kite is "related_to" to string | kite is "has_a" to tail | kite is "related_to" to tail | kite is "related_to" to fun | kite is "used_for" to fun | kite is "related_to" to hawk | kite is "is_a" to hawk | kite is "has_context" to us | kite is "has_context" to us | kite is "is_a" to word | kite is "related_to" to child | kite is "has_context" to nautical | kite is "related_to" to object | kite is "related_to" to flying | kite is "used_for" to flying | kite is "related_to" to letter | kite is "has_context" to uk | kite is "has_context" to uk | kite is "has_context" to prison | kite is "has_context" to prison | kite is "related_to" to aircraft | kite is "has_context" to sailing | kite is "related_to" to clear | kite is "related_to" to has | kite is "has_context" to engineering | kite is "has_context" to dialectal | kite is "related_to" to climb | kite is "has_context" to slang | kite is "has_context" to slang | kite is "at_location" to air | kite is "related_to" to air | kite is "related_to" to glide | kite is "manner_of" to glide | kite is "related_to" to hunt | kite is "related_to" to paper | kite is "at_location" to park | kite is "related_to" to stomach | kite is "is_a" to scavenger | kite is "capable_of" to fly | kite is "related_to" to fly | kite is "manner_of" to fly | kite is "related_to" to toy | kite is "is_a" to toy | kite is "used_for" to playing | kite is "related_to" to rider | kite is "at_location" to sky | kite is "related_to" to sky | kite is "manner_of" to increase</t>
+  </si>
+  <si>
+    <t>finger is "at_location" to hand | finger is "part_of" to hand | finger is "part_of" to hand | finger is "related_to" to hand | finger is "related_to" to hand | finger is "part_of" to hand | glove is "related_to" to hand | palm is "part_of" to hand | palm is "related_to" to hand | palm is "part_of" to hand</t>
+  </si>
+  <si>
+    <t>bed is "related_to" to big | bed is "related_to" to rectangle | bed is "related_to" to short | bed is "related_to" to pillow | bed is "synonym" to go_to_bed | bed is "related_to" to plant | bed is "manner_of" to plant | bed is "related_to" to relaxation | bed is "related_to" to related | bed is "related_to" to western | bed is "has_a" to mattress | bed is "related_to" to mattress | bed is "related_to" to sleep_on | bed is "related_to" to lay | bed is "related_to" to lay | bed is "related_to" to night_time | bed is "related_to" to course | bed is "related_to" to wake | bed is "used_for" to reading | bed is "related_to" to eye | bed is "related_to" to feet | bed is "related_to" to asleep | bed is "related_to" to sleeper | bed is "used_for" to napping | bed is "related_to" to comfort | bed is "related_to" to support | bed is "related_to" to used | bed is "related_to" to people | bed is "related_to" to duvet | bed is "related_to" to sleepers | bed is "antonym" to awake | bed is "related_to" to object | bed is "related_to" to thing | bed is "related_to" to nighttime | bed is "related_to" to pace | bed is "antonym" to sleep | bed is "related_to" to sleep | bed is "related_to" to sleep | bed is "related_to" to sleep | bed is "used_for" to sleep | bed is "related_to" to resting | bed is "used_for" to resting | bed is "related_to" to ore | bed is "used_for" to watching_tv | bed is "related_to" to go_to | bed is "related_to" to go | bed is "related_to" to pad | bed is "related_to" to at_night | bed is "related_to" to lie_down | bed is "used_for" to lie_down | bed is "at_location" to hospital | bed is "related_to" to like | bed is "related_to" to nocturnal | bed is "related_to" to large | bed is "related_to" to frame | bed is "related_to" to nice | bed is "related_to" to up | bed is "related_to" to lay_down | bed is "at_location" to hotel_room | bed is "receives_action" to found_in_hospital | bed is "at_location" to room | bed is "related_to" to room | bed is "related_to" to post | bed is "related_to" to bedroom | bed is "part_of" to bedroom | bed is "related_to" to bathroom | bed is "related_to" to good_night | bed is "related_to" to four_legs | bed is "related_to" to sleeping | bed is "related_to" to event | bed is "related_to" to under | bed is "related_to" to rest | bed is "related_to" to rest | bed is "related_to" to lie | bed is "related_to" to has | bed is "related_to" to night_rest | bed is "related_to" to slept | bed is "related_to" to four_poster | bed is "related_to" to aid | bed is "synonym" to bed | bed is "related_to" to stone | bed is "antonym" to chair | bed is "related_to" to alarm_clock | bed is "related_to" to lying_down | bed is "used_for" to lying_down | bed is "related_to" to person | bed is "related_to" to person | bed is "related_to" to lying | bed is "related_to" to equipment | bed is "related_to" to mat | bed is "has_context" to slang | bed is "related_to" to comfortable | bed is "related_to" to down | bed is "related_to" to sleepiness | bed is "related_to" to restful | bed is "related_to" to night | bed is "related_to" to sleeping_in | bed is "related_to" to dresser | bed is "antonym" to furniture | bed is "is_a" to furniture | bed is "related_to" to furniture | bed is "related_to" to furniture | bed is "is_a" to furniture | bed is "related_to" to good | bed is "related_to" to nightly | bed is "related_to" to sleep_in | bed is "related_to" to four | bed is "related_to" to time | bed is "related_to" to shut_eye | bed is "related_to" to sleepy | bed is "related_to" to legs | bed is "used_for" to going_to_bed | bed is "related_to" to shut | bed is "used_for" to closing_eyes | darkness is "at_location" to movies | darkness is "related_to" to black | darkness is "is_a" to complexion | darkness is "causes_desire" to stay_in_bed | darkness is "antonym" to light | darkness is "antonym" to light | darkness is "distinct_from" to light | darkness is "related_to" to light | darkness is "related_to" to light | darkness is "related_to" to like | darkness is "causes" to fear | darkness is "related_to" to nothing | darkness is "at_location" to bed | darkness is "related_to" to night | darkness is "related_to" to four | sedative is "causes_desire" to sleep | sedative is "related_to" to sleep | sedative is "is_a" to medicine | sedative is "is_a" to medicine</t>
+  </si>
+  <si>
+    <t>gossip is "related_to" to talk | telephone is "related_to" to talk</t>
+  </si>
+  <si>
+    <t>fangs is "form_of" to fang | fangs is "related_to" to fang | fangs is "form_of" to fang | fangs is "form_of" to fang | gums is "at_location" to mouth | wolf is "related_to" to eat | wolf is "manner_of" to eat | wolf is "related_to" to big | wolf is "is_a" to canine | wolf is "related_to" to dogs | wolf is "has_context" to slang | wolf is "related_to" to dog | wolf is "is_a" to river</t>
+  </si>
+  <si>
+    <t>marsh is "has_property" to wet | saliva is "is_a" to liquid | slippery is "related_to" to viscous | slippery is "related_to" to slip</t>
+  </si>
+  <si>
+    <t>dictionary is "at_location" to table | dictionary is "at_location" to classroom | dictionary is "related_to" to other | dictionary is "related_to" to grammar | dictionary is "antonym" to thesaurus | dictionary is "distinct_from" to thesaurus | dictionary is "related_to" to thesaurus | dictionary is "related_to" to up | dictionary is "related_to" to definition | dictionary is "related_to" to libraries | dictionary is "related_to" to meaning | dictionary is "related_to" to source | dictionary is "related_to" to books | dictionary is "related_to" to many_pages | dictionary is "is_a" to book | dictionary is "related_to" to book | dictionary is "related_to" to word | dictionary is "related_to" to bible | dictionary is "at_location" to shelf | dictionary is "related_to" to english | dictionary is "related_to" to material | dictionary is "related_to" to material | dictionary is "related_to" to help | dictionary is "related_to" to in_library | dictionary is "is_a" to wordbook | dictionary is "related_to" to like | dictionary is "related_to" to large | dictionary is "related_to" to look | dictionary is "related_to" to you | dictionary is "related_to" to schools | dictionary is "related_to" to small | dictionary is "related_to" to reference | dictionary is "related_to" to reading | dictionary is "synonym" to dictionary | dictionary is "antonym" to novel | dictionary is "related_to" to refer | dictionary is "related_to" to where | dictionary is "related_to" to very | dictionary is "related_to" to section | dictionary is "related_to" to contains | dictionary is "related_to" to list | dictionary is "related_to" to study | dictionary is "related_to" to tool | dictionary is "related_to" to pages | dictionary is "related_to" to has | dictionary is "related_to" to reference_book | dictionary is "related_to" to thick | dictionary is "related_to" to big | dictionary is "related_to" to bookshelf | dictionary is "related_to" to order | dictionary is "related_to" to long | dictionary is "has_context" to computing | dictionary is "related_to" to guide | dictionary is "related_to" to oxford | dictionary is "at_location" to library | dictionary is "related_to" to library | dictionary is "related_to" to knowledge | dictionary is "related_to" to translation | dictionary is "related_to" to volume | dictionary is "related_to" to heavy | dictionary is "related_to" to language | verse is "manner_of" to write | verse is "related_to" to part | verse is "related_to" to grammar | verse is "related_to" to writing | verse is "related_to" to generic | verse is "related_to" to component | verse is "related_to" to structure | verse is "related_to" to piece | verse is "related_to" to sentence | verse is "related_to" to book | verse is "related_to" to us | verse is "related_to" to written | verse is "related_to" to bible | verse is "related_to" to parts | verse is "related_to" to segment | verse is "related_to" to unit | verse is "related_to" to type | verse is "related_to" to like | verse is "related_to" to measure | verse is "related_to" to phrase | verse is "related_to" to sentences | verse is "related_to" to line | verse is "is_a" to line | verse is "related_to" to passage | verse is "related_to" to poetry | verse is "has_context" to poetry | verse is "synonym" to poetry | verse is "related_to" to character | verse is "related_to" to section | verse is "antonym" to paragraph | verse is "related_to" to paragraph | verse is "related_to" to expression | verse is "related_to" to music | verse is "related_to" to multiple | verse is "related_to" to range | verse is "related_to" to scripture | verse is "related_to" to lyric | verse is "related_to" to song | verse is "related_to" to couplet | verse is "related_to" to literary | verse is "related_to" to poem | verse is "is_a" to poem | verse is "part_of" to poem | verse is "related_to" to religious | verse is "related_to" to teach | vocabulary is "related_to" to collection | vocabulary is "is_a" to cognition | vocabulary is "related_to" to vocal | vocabulary is "related_to" to word | vocabulary is "is_a" to wordbook | vocabulary is "is_a" to information | vocabulary is "has_context" to art | vocabulary is "related_to" to alphabetize | vocabulary is "similar_to" to dictionary | vocabulary is "related_to" to vocable | vocabulary is "related_to" to language | vocabulary is "part_of" to language</t>
+  </si>
+  <si>
+    <t>fault is "related_to" to reason | fault is "related_to" to mistake | fault is "synonym" to mistake | fault is "related_to" to blame | fault is "related_to" to blame | fault is "related_to" to blame | fault is "synonym" to blame | fault is "related_to" to illegal | fault is "related_to" to error | incorrect is "similar_to" to fallacious | incorrect is "related_to" to wrong | incorrect is "related_to" to false | incorrect is "derived_from" to correct | incorrect is "antonym" to correct | incorrect is "related_to" to correct | incorrect is "related_to" to faulty | incorrect is "synonym" to faulty | incorrect is "antonym" to proper | incorrect is "related_to" to improper | incorrect is "related_to" to improper | incorrect is "similar_to" to improper | incorrect is "related_to" to inaccurate | incorrect is "antonym" to right | unjust is "antonym" to just | unjust is "derived_from" to just | unjust is "related_to" to just | unjust is "related_to" to wrong | unjust is "related_to" to justice | unjust is "synonym" to unfair | unjust is "related_to" to unfair | unjust is "synonym" to unfair | unjust is "similar_to" to wrongful | unjust is "related_to" to right</t>
+  </si>
+  <si>
+    <t>murder is "has_context" to sports | murder is "antonym" to self | murder is "is_a" to crime | murder is "related_to" to crime | murder is "has_context" to british | murder is "has_property" to illegal | murder is "related_to" to kill | murder is "synonym" to kill | murder is "manner_of" to kill | murder is "antonym" to birth | operate is "related_to" to work | operate is "related_to" to physical | operate is "related_to" to stock | operate is "has_context" to medicine | vein is "related_to" to wood | vein is "related_to" to vessel | vein is "has_context" to botany | vein is "related_to" to quality | vein is "has_context" to zoology | vein is "is_a" to anatomical_structure | vein is "related_to" to insect | vein is "has_context" to anatomy | vein is "related_to" to flow | vein is "related_to" to blood | vein is "related_to" to blood | vein is "related_to" to road | vein is "related_to" to mark</t>
+  </si>
+  <si>
+    <t>empire is "related_to" to big | empire is "related_to" to land | empire is "is_a" to book | empire is "related_to" to sun | empire is "related_to" to age | empire is "related_to" to old | empire is "related_to" to building | empire is "related_to" to star | empire is "related_to" to kingdom | empire is "related_to" to kingdom | empire is "related_to" to state | empire is "related_to" to state | empire is "related_to" to government | empire is "is_a" to government | empire is "related_to" to royalty | empire is "related_to" to unit | empire is "related_to" to world | empire is "related_to" to british | empire is "related_to" to country | empire is "related_to" to rule | empire is "related_to" to back | empire is "related_to" to organization | empire is "has_context" to art | empire is "related_to" to king | empire is "related_to" to england | empire is "related_to" to pointy | moat is "related_to" to small | moat is "related_to" to castle | moat is "related_to" to body | moat is "etymologically_related_to" to mud | moat is "related_to" to defense | moat is "related_to" to hill | moat is "related_to" to water | moat is "related_to" to water | moat is "related_to" to edge | princess is "derived_from" to prince | princess is "related_to" to prince | princess is "related_to" to prince | princess is "similar_to" to prince | princess is "related_to" to queens | princess is "synonym" to princess | princess is "synonym" to princess | princess is "related_to" to monarch | princess is "has_context" to us | princess is "related_to" to high | princess is "related_to" to queen | princess is "related_to" to queen | princess is "related_to" to jack | princess is "is_a" to royalty | princess is "related_to" to royalty | princess is "related_to" to royal | princess is "related_to" to royal | princess is "related_to" to crown | princess is "related_to" to woman | princess is "related_to" to position | princess is "related_to" to person | princess is "antonym" to king | princess is "related_to" to king</t>
+  </si>
+  <si>
+    <t>bench is "related_to" to seat | bench is "related_to" to seat | bench is "is_a" to seat | bench is "is_a" to seat | bench is "is_a" to seat | bench is "used_for" to seat | bench is "is_a" to furniture | bench is "related_to" to sitting | bench is "distinct_from" to chair | bench is "related_to" to chair | sofa is "related_to" to seat | sofa is "is_a" to seat | sofa is "is_a" to seat | sofa is "used_for" to seat | sofa is "has_context" to furniture | sofa is "related_to" to furniture | sofa is "is_a" to furniture | sofa is "related_to" to sitting | sofa is "is_a" to chair | stool is "is_a" to seat | stool is "related_to" to seat | stool is "related_to" to seat | stool is "is_a" to seat | stool is "is_a" to seat | stool is "is_a" to furniture | stool is "related_to" to sitting | stool is "related_to" to chair | stool is "related_to" to chair</t>
+  </si>
+  <si>
+    <t>beaker is "related_to" to handle | beaker is "is_a" to jar | beaker is "at_location" to laboratory | beaker is "related_to" to laboratory | beaker is "at_location" to lab | beaker is "at_location" to chemistry_lab | beaker is "related_to" to vessel | beaker is "related_to" to scientist | beaker is "etymologically_related_to" to pitcher | beaker is "related_to" to container | beaker is "related_to" to lip | beaker is "has_context" to slang | beaker is "is_a" to cup | beaker is "is_a" to storage_device | flask is "at_location" to pocket | flask is "related_to" to pocket | flask is "related_to" to silver | flask is "related_to" to mold | flask is "related_to" to mouth | flask is "related_to" to alcoholic | flask is "related_to" to base | flask is "related_to" to test_tube | flask is "related_to" to hide | flask is "related_to" to narrow | flask is "synonym" to flask | flask is "related_to" to glassware | flask is "related_to" to jar | flask is "related_to" to cylinder | flask is "related_to" to box | flask is "at_location" to laboratory | flask is "related_to" to laboratory | flask is "related_to" to casting | flask is "related_to" to alcohol | flask is "related_to" to alcohol | flask is "at_location" to lab | flask is "related_to" to standard | flask is "related_to" to drink | flask is "related_to" to scientific | flask is "related_to" to flat | flask is "synonym" to phial | flask is "at_location" to chemistry_lab | flask is "at_location" to science_lab | flask is "related_to" to beverage | flask is "related_to" to small | flask is "related_to" to vessel | flask is "synonym" to vial | flask is "related_to" to bottle | flask is "synonym" to bottle | flask is "is_a" to bottle | flask is "is_a" to container | flask is "related_to" to container | flask is "related_to" to container | flask is "related_to" to size | flask is "has_context" to engineering | flask is "used_for" to holding_liquid | flask is "related_to" to recipient | flask is "related_to" to holding | flask is "related_to" to big | flask is "related_to" to liquor | flask is "related_to" to cup | flask is "related_to" to coffee | flask is "used_for" to wine | flask is "at_location" to cupboard | flask is "is_a" to storage_device | flask is "related_to" to beaker | flask is "related_to" to volume | flask is "is_a" to software | flask is "has_a" to liquid | flask is "related_to" to liquid | flask is "related_to" to chemistry | science is "related_to" to method | science is "related_to" to labs | science is "related_to" to root | science is "related_to" to generic | science is "related_to" to term | science is "related_to" to anatomy | science is "related_to" to stuff | science is "related_to" to mathematics | science is "related_to" to related | science is "related_to" to laboratory | science is "related_to" to botany | science is "related_to" to microscope | science is "related_to" to astronomy | science is "used_for" to astronomy | science is "related_to" to test_tubes | science is "related_to" to data | science is "distinct_from" to biology | science is "related_to" to biology | science is "related_to" to lab | science is "related_to" to like | science is "related_to" to microscopes | science is "related_to" to hard | science is "related_to" to scientific | science is "related_to" to scientific_method | science is "at_location" to school | science is "related_to" to school | science is "related_to" to researchers | science is "related_to" to research | science is "used_for" to research | science is "related_to" to general_term | science is "related_to" to beakers | science is "at_location" to university | science is "related_to" to lab_work | science is "related_to" to work | science is "related_to" to tubes | science is "distinct_from" to magic | science is "related_to" to in_school | science is "is_a" to subject | science is "related_to" to subject | science is "related_to" to name | science is "related_to" to high | science is "related_to" to experiment | science is "related_to" to general | science is "related_to" to class | science is "related_to" to experimentation | science is "related_to" to zoology | science is "related_to" to area | science is "related_to" to field | science is "related_to" to thing | science is "synonym" to science | science is "synonym" to science | science is "synonym" to science | science is "related_to" to test | science is "related_to" to medicine | science is "related_to" to investigation | science is "related_to" to chemicals | science is "related_to" to experiments | science is "related_to" to discipline | science is "is_a" to discipline | science is "related_to" to chemistry | science is "used_for" to chemistry</t>
+  </si>
+  <si>
+    <t>cemetery is "at_location" to city | cemetery is "at_location" to country | cemetery is "related_to" to graveyard | cemetery is "related_to" to graveyard | cemetery is "synonym" to graveyard | cemetery is "related_to" to mortuary | cemetery is "related_to" to dead | coma is "related_to" to point | noose is "related_to" to human | noose is "related_to" to people</t>
+  </si>
+  <si>
+    <t>toe is "antonym" to finger | toe is "related_to" to finger | toe is "similar_to" to finger | trigger is "related_to" to finger</t>
+  </si>
+  <si>
+    <t>angel is "related_to" to godly | angel is "related_to" to feet | angel is "related_to" to coin | angel is "related_to" to spirit | angel is "related_to" to spiritual | angel is "related_to" to virtue | angel is "related_to" to dead | angel is "synonym" to saint | angel is "is_a" to divine_being | angel is "related_to" to demon | angel is "related_to" to being | angel is "related_to" to bible | angel is "synonym" to errand_ghost | angel is "related_to" to michael | angel is "has_context" to historical | angel is "related_to" to gold | angel is "related_to" to angelus | angel is "related_to" to dead_person | angel is "synonym" to angel | angel is "synonym" to angel | angel is "synonym" to angel | angel is "synonym" to angel | angel is "related_to" to capital | angel is "related_to" to has | angel is "related_to" to person | angel is "has_context" to slang | angel is "related_to" to england | angel is "related_to" to creature | angel is "related_to" to host | angel is "has_context" to baseball | angel is "related_to" to heavenly | angel is "related_to" to divine | angel is "related_to" to deity | angel is "related_to" to genius | angel is "related_to" to religious | church is "related_to" to sermon | church is "related_to" to denomination | church is "at_location" to town | church is "related_to" to gods | church is "related_to" to bell | church is "is_a" to building | church is "related_to" to building | church is "related_to" to god | church is "used_for" to practice | church is "synonym" to church | church is "related_to" to house | church is "related_to" to chapel | church is "synonym" to chapel | church is "related_to" to praying | church is "used_for" to praying | church is "related_to" to holy_place | church is "related_to" to sacred | church is "related_to" to bible | church is "at_location" to city | church is "used_for" to learn | church is "is_a" to body | church is "related_to" to holy | church is "related_to" to large | church is "manner_of" to perform | church is "has_context" to historical | church is "related_to" to synagogue | church is "is_a" to organization | church is "is_a" to organization | church is "related_to" to hymn | church is "related_to" to prayer | church is "used_for" to prayer | church is "related_to" to tower | church is "related_to" to mass | church is "is_a" to house_of_worship | church is "related_to" to house_of_worship | church is "related_to" to house_of_worship | church is "is_a" to house_of_worship | church is "etymologically_related_to" to bury | church is "related_to" to service | church is "related_to" to service | church is "related_to" to service | church is "related_to" to temple | church is "is_a" to temple | church is "related_to" to mission | church is "at_location" to community | church is "related_to" to community | church is "related_to" to worship | church is "related_to" to worship | church is "used_for" to worship | church is "related_to" to steeple | church is "used_for" to serve | church is "related_to" to altar | church is "related_to" to rector | church is "related_to" to christianity | church is "related_to" to christianity | church is "related_to" to ecclesiastical | church is "related_to" to institution | church is "related_to" to cathedral | church is "related_to" to eucharist | church is "related_to" to england | church is "is_a" to place | church is "related_to" to place | church is "is_a" to parish | church is "used_for" to sing | church is "at_location" to wedding | church is "is_a" to religion | church is "related_to" to religion | church is "related_to" to religion | church is "is_a" to religion | church is "related_to" to christian | church is "related_to" to christian | church is "has_property" to quiet | church is "used_for" to quiet | church is "related_to" to lancashire | church is "related_to" to bibles | church is "related_to" to pastor | church is "related_to" to accrington | church is "related_to" to religious_place | church is "used_for" to weddings | church is "related_to" to religious | church is "related_to" to religious | church is "related_to" to religious | church is "used_for" to funerals | church is "related_to" to bells | faith is "related_to" to strong | faith is "related_to" to god | faith is "related_to" to practice | faith is "at_location" to church | faith is "related_to" to church | faith is "related_to" to spiritual | faith is "is_a" to theological_virtues | faith is "causes_desire" to kill | faith is "related_to" to evidence | faith is "related_to" to followers | faith is "created_by" to belief | faith is "is_a" to belief | faith is "related_to" to belief | faith is "related_to" to belief | faith is "similar_to" to belief | faith is "synonym" to belief | faith is "is_a" to belief | faith is "related_to" to trust_god | faith is "related_to" to being | faith is "related_to" to charity | faith is "related_to" to charity | faith is "related_to" to have | faith is "related_to" to object | faith is "is_a" to commitment | faith is "etymologically_related_to" to fay | faith is "related_to" to churches | faith is "at_location" to synagogue | faith is "causes_desire" to pray | faith is "related_to" to blind | faith is "related_to" to believe | faith is "has_property" to good | faith is "antonym" to despair | faith is "used_for" to worship | faith is "related_to" to ideal | faith is "related_to" to confidence | faith is "related_to" to observance | faith is "related_to" to feeling | faith is "causes" to action | faith is "related_to" to fidelity | faith is "related_to" to nothing | faith is "related_to" to devotion | faith is "related_to" to leap | faith is "related_to" to person | faith is "related_to" to general | faith is "related_to" to loyalty | faith is "related_to" to religion | faith is "synonym" to religion | faith is "synonym" to religion | faith is "synonym" to religion | faith is "antonym" to knowledge | faith is "created_by" to experience | faith is "related_to" to hope | faith is "related_to" to hope | faith is "related_to" to religious | faith is "related_to" to religious</t>
+  </si>
+  <si>
+    <t>cello is "at_location" to band | cello is "related_to" to bow | cello is "is_a" to instrument | scalpel is "related_to" to blade | scalpel is "used_for" to cut | scalpel is "is_a" to knife | scalpel is "related_to" to knife | scalpel is "is_a" to knife | trumpet is "at_location" to band | trumpet is "related_to" to band | trumpet is "is_a" to instrument | trumpet is "related_to" to instrument</t>
+  </si>
+  <si>
+    <t>desk is "related_to" to rectangle | desk is "related_to" to books | desk is "related_to" to studying | desk is "related_to" to above | desk is "is_a" to table | desk is "related_to" to table | desk is "related_to" to table | desk is "is_a" to table | desk is "is_a" to table | desk is "related_to" to pencils | desk is "related_to" to wood | desk is "receives_action" to found_in_house | desk is "related_to" to service | desk is "related_to" to case | desk is "related_to" to rectangular | desk is "related_to" to related | desk is "etymologically_related_to" to disk | desk is "related_to" to classroom | desk is "related_to" to small | desk is "related_to" to box | desk is "receives_action" to found_in_school | desk is "related_to" to long | desk is "related_to" to seat | desk is "related_to" to writer | desk is "related_to" to write | desk is "used_for" to write | desk is "related_to" to reading | desk is "not_has_property" to alive | desk is "related_to" to office | desk is "related_to" to location | desk is "related_to" to pens_pencils | desk is "related_to" to computer | desk is "related_to" to area | desk is "related_to" to work | desk is "used_for" to work | desk is "used_for" to work | desk is "related_to" to writing | desk is "used_for" to writing | desk is "related_to" to object | desk is "related_to" to drawer | desk is "related_to" to drawer | desk is "related_to" to business | desk is "related_to" to department | desk is "related_to" to surface | desk is "created_by" to carpenter | desk is "related_to" to like | desk is "related_to" to station | desk is "etymologically_related_to" to dish | desk is "at_location" to library | desk is "used_for" to drafting | desk is "related_to" to top | desk is "related_to" to set | desk is "related_to" to space | desk is "related_to" to holder | desk is "related_to" to students | desk is "related_to" to for_writing | desk is "at_location" to study | desk is "related_to" to study | desk is "related_to" to schools | desk is "related_to" to stand | desk is "related_to" to four_legs | desk is "related_to" to secretary | desk is "receives_action" to found_in_office | desk is "related_to" to papers | desk is "related_to" to sit | desk is "related_to" to put | desk is "related_to" to hard | desk is "related_to" to write_on | desk is "antonym" to chair | desk is "distinct_from" to chair | desk is "related_to" to chair | desk is "similar_to" to chair | desk is "related_to" to flat | desk is "related_to" to square | desk is "related_to" to solid | desk is "related_to" to school | desk is "related_to" to filing | desk is "used_for" to filing | desk is "related_to" to pens | desk is "related_to" to four | desk is "related_to" to bureau | desk is "related_to" to legs | desk is "related_to" to stuff | quill is "related_to" to spool | quill is "related_to" to instrument | quill is "related_to" to musical_instrument | quill is "has_context" to us | quill is "related_to" to write | quill is "used_for" to write | quill is "related_to" to fold | quill is "is_a" to writing_instrument | quill is "related_to" to writing_instrument | quill is "used_for" to writing_instrument | quill is "related_to" to chicken | quill is "related_to" to spindle | quill is "related_to" to pen | quill is "related_to" to pen | quill is "is_a" to pen | quill is "related_to" to writing | quill is "used_for" to writing | quill is "related_to" to implement | quill is "at_location" to ink | quill is "related_to" to ink | quill is "related_to" to writing_implement | quill is "related_to" to fabric | quill is "related_to" to quillwork | quill is "related_to" to like | quill is "related_to" to for_writing | quill is "related_to" to shaft | quill is "related_to" to thread | quill is "related_to" to needle | quill is "related_to" to needle | stapler is "is_a" to machine | stapler is "not_has_property" to alive | stapler is "related_to" to paper | stapler is "is_a" to mechanical_device | stapler is "at_location" to work | stapler is "at_location" to desk_drawer | stapler is "related_to" to staple | stapler is "related_to" to staple | stapler is "related_to" to staple | stapler is "derived_from" to staple | stapler is "related_to" to wool | stapler is "related_to" to sort | stapler is "at_location" to office_supply_store | stapler is "is_a" to tool | stapler is "is_a" to device | stapler is "at_location" to desktop | stapler is "receives_action" to found_in_office | stapler is "at_location" to desk</t>
+  </si>
+  <si>
+    <t>electron is "related_to" to nucleus | electron is "has_context" to chemistry | electron is "etymologically_related_to" to on | inertia is "related_to" to change | inertia is "related_to" to action | inertia is "related_to" to body | zest is "has_context" to cooking | zest is "has_context" to cooking | zest is "synonym" to punch | zest is "related_to" to skin</t>
+  </si>
+  <si>
+    <t>diet is "is_a" to performing | diet is "is_a" to fast | diet is "manner_of" to fast | diet is "related_to" to plan | diet is "related_to" to healthy | diet is "has_context" to animal | diet is "related_to" to eating | diet is "related_to" to beverage | diet is "is_a" to cultural_activity | diet is "related_to" to feed | diet is "related_to" to food | diet is "related_to" to food | diet is "related_to" to food | diet is "related_to" to health | diet is "related_to" to health | diet is "related_to" to lose | diet is "related_to" to weight | diet is "related_to" to weight | strain is "is_a" to effort | strain is "related_to" to quality | strain is "related_to" to hold | strain is "related_to" to come | strain is "has_context" to physics | strain is "is_a" to injury | strain is "has_context" to biology | strain is "related_to" to force | strain is "related_to" to muscles | strain is "related_to" to race | strain is "related_to" to stretch | strain is "is_a" to disease | strain is "related_to" to separate | strain is "related_to" to solid | strain is "synonym" to form | strain is "related_to" to stress | strain is "synonym" to stress | strain is "has_context" to music | strain is "related_to" to yolk | strain is "manner_of" to use | strain is "synonym" to song | strain is "related_to" to liquid | sweat is "synonym" to effort | sweat is "synonym" to fret | sweat is "related_to" to oil | sweat is "related_to" to sport | sweat is "synonym" to sweat | sweat is "related_to" to slowly | sweat is "related_to" to salt | sweat is "related_to" to skin | sweat is "related_to" to skin | sweat is "related_to" to function | sweat is "related_to" to body | sweat is "related_to" to body | sweat is "has_context" to historical | sweat is "related_to" to blood | sweat is "related_to" to exercise | sweat is "related_to" to exercise | sweat is "has_context" to cooking | sweat is "has_context" to british | sweat is "is_a" to single | sweat is "related_to" to physical | sweat is "related_to" to water | sweat is "has_context" to slang | sweat is "has_context" to slang | sweat is "capable_of" to drip | sweat is "related_to" to stress | sweat is "related_to" to high | sweat is "related_to" to fluid | sweat is "related_to" to fluid | sweat is "related_to" to run | sweat is "related_to" to cook | sweat is "related_to" to liquid</t>
+  </si>
+  <si>
+    <t>assault is "has_context" to military | assault is "synonym" to assault | assault is "related_to" to attack | assault is "related_to" to attack | assault is "synonym" to attack | assault is "is_a" to attack | assault is "part_of" to attack | assault is "synonym" to attack | assault is "related_to" to battery | assault is "similar_to" to battery | assault is "is_a" to crime | assault is "related_to" to crime | assault is "related_to" to crime | assault is "synonym" to rape | assault is "synonym" to rape | assault is "is_a" to battle | assault is "has_context" to legal | assault is "has_context" to criminal | cop is "has_context" to military | cop is "has_context" to law_enforcement | cop is "related_to" to crown | cop is "related_to" to wrongdoing | cop is "related_to" to locomotive | cop is "related_to" to adopt | cop is "related_to" to take | cop is "related_to" to spider | cop is "related_to" to head | cop is "related_to" to bear | cop is "related_to" to punishment | cop is "has_context" to slang | cop is "has_context" to slang | cop is "synonym" to hook | cop is "related_to" to admit | cop is "related_to" to receive | cop is "related_to" to steal | murder is "synonym" to murder | murder is "etymologically_related_to" to burden | murder is "antonym" to killing | murder is "is_a" to killing | murder is "related_to" to killing | murder is "related_to" to killing | murder is "synonym" to spoil | murder is "is_a" to sin | murder is "is_a" to felony | murder is "related_to" to crows | murder is "has_property" to wrong | murder is "is_a" to homicide | murder is "is_a" to homicide | murder is "related_to" to homicide | murder is "synonym" to homicide | murder is "is_a" to homicide | murder is "related_to" to someone | murder is "has_context" to legal</t>
+  </si>
+  <si>
+    <t>drill is "related_to" to military | drill is "has_context" to military | drill is "related_to" to oil | drill is "is_a" to device | drill is "related_to" to twist_drill | drill is "used_for" to cut | drill is "related_to" to drain | drill is "related_to" to stream | drill is "related_to" to kick | drill is "manner_of" to learn | drill is "has_context" to vulgar | drill is "related_to" to implement | drill is "related_to" to chest | drill is "related_to" to seed | drill is "related_to" to hit | drill is "related_to" to hole | drill is "related_to" to hole | drill is "related_to" to hole | drill is "used_for" to hole | drill is "used_for" to hole | drill is "related_to" to train | drill is "manner_of" to train | drill is "related_to" to hair | drill is "synonym" to drill | drill is "related_to" to violent | drill is "related_to" to awl | drill is "related_to" to exercise | drill is "synonym" to exercise | drill is "at_location" to garage | drill is "is_a" to tool | drill is "related_to" to tool | drill is "related_to" to tool | drill is "is_a" to tool | drill is "is_a" to tool | drill is "related_to" to power | drill is "is_a" to mammal | drill is "related_to" to furrow | drill is "has_context" to slang | drill is "has_context" to music | drill is "related_to" to dig | drill is "at_location" to cabinet | drill is "related_to" to used | drill is "has_context" to baseball | drill is "related_to" to flow | drill is "related_to" to bit | drill is "related_to" to bit | drill is "manner_of" to teach | grave is "related_to" to also | grave is "related_to" to deep | grave is "related_to" to mound | grave is "related_to" to feet | grave is "related_to" to marker | grave is "related_to" to earth | grave is "related_to" to dirt | grave is "related_to" to men | grave is "related_to" to rest | grave is "related_to" to dead | grave is "has_context" to nautical | grave is "related_to" to body | grave is "related_to" to burgrave | grave is "related_to" to burgrave | grave is "related_to" to count | grave is "has_context" to historical | grave is "related_to" to hole | grave is "related_to" to tone | grave is "related_to" to cross | grave is "related_to" to bury | grave is "related_to" to office | grave is "related_to" to very | grave is "synonym" to grave | grave is "related_to" to pit | grave is "related_to" to pitch | grave is "related_to" to stone | grave is "related_to" to person | grave is "related_to" to home | grave is "related_to" to land | grave is "related_to" to place | grave is "related_to" to dig | grave is "related_to" to accent | grave is "related_to" to ground | grave is "related_to" to covering | grave is "related_to" to people | grave is "related_to" to area | grave is "related_to" to low | grave is "related_to" to plot | grave is "related_to" to final | grave is "related_to" to rip | grave is "related_to" to site | grave is "antonym" to cradle | grave is "etymologically_related_to" to groove | grave is "related_to" to groove | spike is "is_a" to projection | spike is "has_context" to military | spike is "related_to" to cleat | spike is "related_to" to attack | spike is "related_to" to attack | spike is "used_for" to running | spike is "related_to" to up | spike is "synonym" to ear | spike is "related_to" to football | spike is "manner_of" to change | spike is "has_context" to botany | spike is "has_context" to botany | spike is "related_to" to stick | spike is "related_to" to metal | spike is "related_to" to graph | spike is "related_to" to block | spike is "is_a" to implement | spike is "related_to" to type | spike is "related_to" to axis | spike is "related_to" to point | spike is "is_a" to point | spike is "related_to" to hit | spike is "related_to" to heel | spike is "related_to" to hair | spike is "related_to" to flower | spike is "has_context" to volleyball | spike is "has_context" to volleyball | spike is "related_to" to volleyball | spike is "related_to" to sole | spike is "related_to" to name | spike is "part_of" to shoe | spike is "has_context" to music | spike is "related_to" to gel | spike is "related_to" to dog | spike is "related_to" to high | spike is "related_to" to sharp | spike is "manner_of" to develop | spike is "is_a" to rise | spike is "synonym" to spike</t>
+  </si>
+  <si>
+    <t>care is "related_to" to feeling | care is "related_to" to kind | care is "related_to" to giving | care is "related_to" to good</t>
+  </si>
+  <si>
+    <t>midnight is "has_context" to historical | midnight is "derived_from" to night | midnight is "related_to" to night | midnight is "part_of" to night | saturn is "is_a" to planet | saturn is "is_a" to planet | saturn is "is_a" to god | saturn is "has_context" to astronomy | saturn is "has_context" to astrology | saturn is "related_to" to astrology | wolf is "is_a" to animal | wolf is "is_a" to animal | wolf is "related_to" to animal | wolf is "has_context" to music</t>
+  </si>
+  <si>
+    <t>bloom is "related_to" to generic | bloom is "related_to" to bud | bloom is "related_to" to fruit | bloom is "related_to" to opening | bloom is "related_to" to spring | bloom is "related_to" to flowers | bloom is "related_to" to plant | bloom is "part_of" to youth | bloom is "related_to" to chocolate | bloom is "related_to" to metal | bloom is "related_to" to flourish | bloom is "related_to" to dark | bloom is "related_to" to open | bloom is "related_to" to flower | bloom is "related_to" to flower | bloom is "synonym" to flower | bloom is "synonym" to flower | bloom is "synonym" to flower | bloom is "antonym" to die | bloom is "related_to" to name | bloom is "manner_of" to develop | bloom is "related_to" to bright | opportunity is "antonym" to door | opportunity is "related_to" to op | opportunity is "related_to" to opening | opportunity is "related_to" to progress | opportunity is "causes_desire" to surprise | opportunity is "related_to" to favorable | opportunity is "related_to" to change | opportunity is "related_to" to occasion | opportunity is "related_to" to good | opportunity is "synonym" to opportunity | opportunity is "related_to" to available | opportunity is "related_to" to job | opportunity is "related_to" to land | opportunity is "related_to" to business | opportunity is "related_to" to given | split is "related_to" to cream | split is "related_to" to deal | split is "related_to" to spirit | split is "related_to" to crack | split is "is_a" to crack | split is "related_to" to group | split is "related_to" to spread | split is "related_to" to leave | split is "related_to" to cut | split is "similar_to" to cut | split is "related_to" to time | split is "has_context" to us | split is "has_context" to historical | split is "antonym" to together | split is "related_to" to breach | split is "related_to" to turn | split is "related_to" to wood | split is "related_to" to card | split is "related_to" to race | split is "has_context" to slang | split is "has_context" to slang | split is "has_context" to dance | split is "related_to" to division | split is "related_to" to division | split is "has_context" to music | split is "synonym" to take_off | split is "has_context" to sports | split is "has_context" to baseball | split is "related_to" to fissure | split is "synonym" to rip</t>
+  </si>
+  <si>
+    <t>duck is "related_to" to animal | duck is "related_to" to batsman | duck is "related_to" to bird | duck is "related_to" to bird | duck is "at_location" to lake | duck is "related_to" to lake | duck is "related_to" to small | duck is "related_to" to dog | duck is "has_context" to us | duck is "used_for" to eat | duck is "antonym" to chicken | duck is "distinct_from" to chicken | duck is "related_to" to chicken | duck is "manner_of" to move | duck is "related_to" to playing_card | duck is "receives_action" to cooked | duck is "at_location" to pond | duck is "related_to" to pond | duck is "has_context" to cricket | duck is "has_context" to cricket | duck is "related_to" to beak | duck is "synonym" to dip | duck is "synonym" to dip | duck is "related_to" to type | duck is "related_to" to game | duck is "related_to" to fly | duck is "related_to" to bread | duck is "related_to" to like | duck is "related_to" to aquatic | duck is "part_of" to duck | duck is "related_to" to cover | duck is "related_to" to water | duck is "related_to" to white | duck is "related_to" to flat | duck is "related_to" to lakes | duck is "has_context" to slang | duck is "related_to" to food | duck is "related_to" to yes | sardine is "related_to" to cans | sardine is "related_to" to can | sardine is "related_to" to pack | sardine is "is_a" to fish | sardine is "related_to" to fish | sardine is "related_to" to fish | sardine is "related_to" to pickled | sardine is "related_to" to tin | sardine is "related_to" to food | sinker is "related_to" to net | sinker is "has_context" to fishing | sinker is "related_to" to line | sinker is "has_context" to slang</t>
+  </si>
+  <si>
+    <t>answer is "antonym" to question | answer is "distinct_from" to question | answer is "related_to" to question | answer is "related_to" to question | answer is "related_to" to reply | answer is "related_to" to reply | answer is "synonym" to reply | answer is "synonym" to reply | answer is "is_a" to reply | answer is "related_to" to solution | answer is "related_to" to solution | answer is "synonym" to solution</t>
+  </si>
+  <si>
+    <t>cry is "related_to" to sob | cry is "synonym" to sob | cry is "related_to" to weep | cry is "related_to" to weep | cry is "synonym" to weep | feeling is "related_to" to sensitive</t>
+  </si>
+  <si>
+    <t>deer is "related_to" to antlers | deer is "related_to" to doe | deer is "related_to" to fawn</t>
+  </si>
+  <si>
+    <t>plant is "related_to" to petals | flower is "related_to" to bud | flower is "related_to" to petals</t>
+  </si>
+  <si>
+    <t>horse is "related_to" to colt | horse is "related_to" to colt | horse is "related_to" to mare | horse is "related_to" to mare | horse is "related_to" to mare | horse is "related_to" to unicorn</t>
+  </si>
+  <si>
+    <t>formal_power_series is "has_context" to algebra | limit is "related_to" to calculus | bialgebra is "derived_from" to algebra | bialgebra is "related_to" to algebra | quadratic_form is "has_context" to algebra | gradian is "has_context" to trigonometry | polynomial is "has_context" to algebra | polynomial is "has_context" to algebra | normal is "has_context" to algebra | rheometry is "related_to" to calculus | superellipse is "has_context" to algebra | ring is "has_context" to algebra | ring is "part_of" to algebra | characteristic is "has_context" to algebra | algebraist is "derived_from" to algebra | algebraist is "related_to" to algebra | zero is "has_context" to algebra | algebroid is "derived_from" to algebra | constant is "has_context" to algebra | gon is "has_context" to trigonometry | superellipsoid is "has_context" to algebra | representation_theory is "has_context" to algebra | calculation is "related_to" to calculus | associate is "has_context" to algebra | group is "part_of" to algebra | infinitesimal_analysis is "has_context" to calculus | infinitesimal_analysis is "related_to" to calculus | supercommutative is "related_to" to algebra | transposition is "has_context" to algebra | calculus is "distinct_from" to algebra | calculus is "related_to" to algebra | calculus is "synonym" to calculus | adjoin is "has_context" to algebra | superalgebra is "derived_from" to algebra | superalgebra is "related_to" to algebra | coxeter_dynkin_diagram is "has_context" to algebra | galois_theory is "has_context" to algebra | additive_group is "has_context" to algebra | synthetic_division is "has_context" to algebra | analysis is "is_a" to calculus | commutative_algebra is "has_context" to algebra | commutative_algebra is "related_to" to algebra | mathematics is "related_to" to algebra | tangent is "related_to" to trigonometry | congruence is "has_context" to algebra | coxeter_diagram is "has_context" to algebra | supergeometry is "related_to" to algebra | function is "related_to" to calculus | analytic is "related_to" to algebra | unital is "related_to" to algebra | differential_geometry is "related_to" to calculus | linear_algebra is "related_to" to algebra | linear_algebra is "is_a" to algebra | linear_algebra is "part_of" to algebra | module is "has_context" to algebra | grad is "has_context" to trigonometry | calculate is "related_to" to calculus | unit is "has_context" to algebra | prime is "has_context" to algebra | congruent is "has_context" to algebra | combinatorial_commutative_algebra is "has_context" to algebra | triangle is "at_location" to trigonometry | triangle is "used_for" to trigonometry | multiplicative is "has_context" to algebra | algebraic_geometry is "related_to" to algebra | probability_theory is "has_prerequisite" to calculus | vector_algebra is "is_a" to algebra | trinomial is "has_context" to algebra | transpose is "has_context" to algebra | transpose is "has_context" to algebra | transpose is "has_context" to algebra | supercatenoid is "has_context" to algebra | gradient is "has_context" to calculus | algebraic_number_theory is "related_to" to algebra | algebraic is "derived_from" to algebra | algebraic is "has_context" to algebra | algebraic is "related_to" to algebra | cogebra is "derived_from" to algebra | equal is "related_to" to algebra | unit_circle is "has_context" to trigonometry | bracket is "has_context" to algebra | trigonometric is "derived_from" to trigonometry | trigonometric is "related_to" to trigonometry | algebra is "synonym" to algebra | discriminant is "has_context" to algebra | rolle's_theorem is "has_context" to calculus | algebraical is "related_to" to algebra | multialgebra is "derived_from" to algebra | multialgebra is "related_to" to algebra | degree is "has_context" to algebra | paravector is "related_to" to algebra | ideal is "has_context" to algebra | boolean_algebra is "has_context" to algebra | group_theory is "has_context" to algebra | hyperconnected is "related_to" to algebra | kernel is "has_context" to calculus | sine is "related_to" to calculus | sine is "has_context" to trigonometry | sine is "related_to" to trigonometry | trigonometry is "synonym" to trigonometry | secant is "has_context" to trigonometry | analytic_mechanics is "related_to" to calculus | superconformal is "related_to" to algebra | modern_algebra is "synonym" to algebra | trigonometrist is "derived_from" to trigonometry | trigonometrist is "related_to" to trigonometry | coalgebra is "derived_from" to algebra | derived_function is "has_context" to calculus | calculus_of_variations is "has_context" to calculus | calculus_of_variations is "is_a" to calculus | matrix_algebra is "is_a" to algebra | trigon is "related_to" to trigonometry | slope is "related_to" to algebra | slope is "related_to" to calculus | unknown is "has_context" to algebra | spherical_trigonometry is "is_a" to trigonometry | linear_dependence is "has_context" to algebra | nomial is "has_context" to algebra | order is "has_context" to algebra | quadratics is "is_a" to algebra | split_complex_number is "related_to" to algebra | prealgebra is "derived_from" to algebra | prealgebra is "related_to" to algebra | diophantus is "related_to" to algebra | field is "has_context" to algebra | field is "part_of" to algebra | differential_calculus is "has_context" to calculus | differential_calculus is "related_to" to calculus | differential_calculus is "related_to" to calculus | differential_calculus is "is_a" to calculus | vector_space is "has_context" to algebra | vector_space is "part_of" to algebra | integral_calculus is "has_context" to calculus | integral_calculus is "related_to" to calculus | integral_calculus is "is_a" to calculus | atom is "has_context" to algebra | commutative is "has_context" to algebra | spherics is "related_to" to trigonometry | content is "has_context" to algebra | subconstituent is "related_to" to algebra | isaac_newton is "dbpedia/known_for" to calculus | sine_wave is "has_context" to trigonometry | elementary_algebra is "related_to" to algebra | semigroupoid is "related_to" to algebra | binomial is "has_context" to algebra | symmetry_group is "has_context" to algebra | mean_value_theorem is "has_context" to calculus | hopf_algebra is "related_to" to algebra | johann_bernoulli is "dbpedia/known_for" to calculus | radical is "has_context" to algebra | gyrotrigonometry is "derived_from" to trigonometry</t>
+  </si>
+  <si>
+    <t>press is "antonym" to pull | press is "distinct_from" to pull | rank is "related_to" to pedal | bullet is "related_to" to pull | break is "related_to" to pedal | break is "related_to" to pull | current is "related_to" to pull | pants is "related_to" to pull | acceleration is "related_to" to pedal | split is "related_to" to pull | draw is "related_to" to pull | draw is "synonym" to pull | draw is "is_a" to pull | draw is "synonym" to pull | draw is "synonym" to pull | do is "related_to" to pull | kick is "related_to" to pedal | gravity is "related_to" to pull | crowd is "related_to" to shove | equalizer is "related_to" to pull | metal is "related_to" to pedal | jerk is "related_to" to pull | ankle is "related_to" to pedal | foot is "related_to" to pedal | dutch_hoe is "related_to" to pull | tuck is "related_to" to pull | shovel is "derived_from" to shove | shovel is "related_to" to shove | attraction is "synonym" to pull | push is "related_to" to shove | cycle is "related_to" to pedal | magnet is "related_to" to pull | pull_off is "etymologically_related_to" to pull | pull_off is "related_to" to pull | lug is "related_to" to pull | horse is "related_to" to pull | stretch is "related_to" to pull | stretch is "related_to" to pull | stretch is "manner_of" to pull | weight is "related_to" to pull | scuff is "etymologically_related_to" to shove | push_bike is "related_to" to pedal | magnetic is "related_to" to pull | lift is "related_to" to pull | soft_boxing is "related_to" to pull | mass is "related_to" to pull | shuffle is "etymologically_related_to" to shove | ox is "related_to" to pull | turnout is "related_to" to pull | force is "related_to" to pull | force is "related_to" to pull | drag is "related_to" to pull | drag is "is_a" to pull | drag is "manner_of" to pull | sole is "related_to" to pull | gather is "manner_of" to pull | heavy is "related_to" to pull | pluck is "etymologically_related_to" to pull | pluck is "related_to" to pull | pluck is "is_a" to pull | pluck is "manner_of" to pull</t>
+  </si>
+  <si>
+    <t>start is "related_to" to left | counterclockwise is "antonym" to clockwise | counterclockwise is "related_to" to clockwise | counterclockwise is "related_to" to clockwise | dextrorotatory is "related_to" to clockwise | dextrorotatory is "similar_to" to clockwise | moral_compass is "related_to" to wrong | change is "related_to" to left | castle is "related_to" to left | conscience is "related_to" to wrong | caracole is "related_to" to left | sinistrodextral is "related_to" to left | right_handed is "related_to" to clockwise | right_handed is "related_to" to left | rub is "related_to" to wrong | port is "related_to" to left | port is "related_to" to left | row is "related_to" to left | reserve is "related_to" to left | middle is "antonym" to left | middle is "distinct_from" to left | middle is "related_to" to left | drive is "related_to" to left | hand is "related_to" to left | sinistral is "related_to" to left | back is "related_to" to clockwise | proper is "antonym" to wrong | proper is "distinct_from" to wrong | diagonal is "related_to" to left | rest is "related_to" to left | on is "related_to" to left | turn is "related_to" to clockwise | turn is "related_to" to left | side is "related_to" to left | side is "related_to" to wrong | box_compass is "related_to" to clockwise | left is "synonym" to left | leave is "related_to" to left | left_handed is "related_to" to left | left_handed is "related_to" to left | dextral is "related_to" to clockwise | signal is "related_to" to left | right is "antonym" to left | right is "antonym" to left | right is "antonym" to left | right is "antonym" to left | right is "antonym" to left | right is "distinct_from" to left | right is "related_to" to left | right is "antonym" to wrong | right is "antonym" to wrong | right is "antonym" to wrong | right is "antonym" to wrong | right is "antonym" to wrong | right is "distinct_from" to wrong | right is "related_to" to wrong | direction is "related_to" to left</t>
+  </si>
+  <si>
+    <t>fever is "related_to" to flu | flu is "is_a" to virus | person is "not_desires" to flu | person is "not_desires" to virus | sneeze is "related_to" to flu | sick is "related_to" to flu | disease is "related_to" to flu | disease is "related_to" to virus | virus is "synonym" to virus | germ is "related_to" to virus | germ is "related_to" to virus | sickness is "created_by" to virus</t>
+  </si>
+  <si>
+    <t>star is "related_to" to astronomy | star is "has_context" to astronomy | star is "distinct_from" to moon | star is "related_to" to moon | star is "related_to" to twinkle | celestial_body is "has_context" to astronomy | celestial_body is "related_to" to moon</t>
+  </si>
+  <si>
+    <t>fish is "related_to" to bait | fish is "at_location" to pond | fish is "related_to" to tuna</t>
+  </si>
+  <si>
+    <t>cut is "related_to" to trim | cut is "related_to" to wound | cut is "related_to" to wound | cut is "is_a" to wound | wound is "synonym" to wound | bandage is "related_to" to wound | bandage is "related_to" to wound</t>
+  </si>
+  <si>
+    <t>ground is "related_to" to gravity | ground is "related_to" to low | ground is "related_to" to up | down is "related_to" to low | down is "related_to" to low | down is "related_to" to low | down is "antonym" to up | down is "antonym" to up | down is "antonym" to up | down is "antonym" to up | down is "distinct_from" to up | down is "related_to" to up | hill is "related_to" to gravity | hill is "related_to" to low | hill is "related_to" to up</t>
+  </si>
+  <si>
+    <t>motion is "related_to" to slow | plod is "related_to" to slow | river is "related_to" to rapid | bog is "related_to" to slow | crock is "related_to" to slow | watch is "has_property" to slow | lug is "related_to" to slow | slowly is "derived_from" to slow | slowly is "related_to" to slow | slowly is "derived_from" to slow | express is "related_to" to rapid | express is "antonym" to slow | express is "distinct_from" to slow | rush is "related_to" to rapid | rush is "related_to" to rapid | rush is "antonym" to slow | rush is "related_to" to slow | run_out_of_steam is "has_last_subevent" to slow | help is "related_to" to emergency | walk is "related_to" to slow | fast is "related_to" to rapid | fast is "related_to" to rapid | fast is "similar_to" to rapid | fast is "antonym" to slow | fast is "antonym" to slow | fast is "distinct_from" to slow | fast is "distinct_from" to slow | fast is "related_to" to slow | blow is "related_to" to rapid | put is "related_to" to slow | behind is "related_to" to slow | shoot is "related_to" to rapid | jog is "related_to" to slow | spare is "related_to" to slow | slower is "form_of" to slow | slower is "form_of" to slow | slower is "derived_from" to slow | crawl is "related_to" to rapid | crawl is "related_to" to slow | present is "related_to" to emergency | slow_down is "derived_from" to slow | slow_down is "synonym" to slow | race is "related_to" to rapid | race is "related_to" to rapid | busy is "distinct_from" to slow | car is "has_property" to slow | shake is "related_to" to rapid | haste is "antonym" to slow | back is "related_to" to slow | pinch_point is "related_to" to slow | walking is "related_to" to slow | pinch is "synonym" to emergency | ambulance is "related_to" to emergency | ambulance is "related_to" to emergency | high is "related_to" to rapid | turtle is "related_to" to slow | dullness is "related_to" to slow | sheet_anchor is "related_to" to emergency | fast_lane is "related_to" to rapid | run is "related_to" to rapid | run is "related_to" to rapid | run is "related_to" to slow | spin is "related_to" to rapid | low is "related_to" to slow | rapidly is "derived_from" to rapid | rapidly is "related_to" to rapid | rapidly is "derived_from" to rapid | fast_track is "related_to" to rapid | danger is "related_to" to emergency | rapidless is "derived_from" to rapid | rapidless is "related_to" to rapid | brake is "related_to" to slow | snail is "related_to" to slow | slow is "antonym" to rapid | rapid is "antonym" to slow | rapid is "distinct_from" to slow | quick is "related_to" to rapid | quick is "related_to" to rapid | quick is "synonym" to rapid | quick is "antonym" to slow | quick is "antonym" to slow | quick is "distinct_from" to slow</t>
+  </si>
+  <si>
+    <t>fight is "related_to" to brawl</t>
+  </si>
+  <si>
+    <t>chicken is "related_to" to birds | fowl is "related_to" to birds | squirrel is "related_to" to birds | potoo is "has_context" to birds | string is "at_location" to kite | string is "part_of" to kite | string is "related_to" to kite | flock is "related_to" to birds | captain is "related_to" to birds | bishop is "related_to" to birds | love is "related_to" to birds | peeper is "related_to" to frog | wind is "related_to" to kite | fourchette is "related_to" to frog | pond is "related_to" to frog | brood is "related_to" to birds | nest is "related_to" to birds | bar is "related_to" to frog | bill is "related_to" to birds | egg is "related_to" to birds | chick is "related_to" to birds | swim is "related_to" to frog | tree is "related_to" to birds | green is "related_to" to frog | animal is "related_to" to birds | pilot is "related_to" to kite | sucker is "related_to" to frog | fry is "related_to" to frog | home is "related_to" to birds | perch is "related_to" to birds | cage is "related_to" to birds | glide is "related_to" to kite | paddock is "related_to" to frog | song is "related_to" to birds | fly is "related_to" to birds | fly is "related_to" to kite | nature is "related_to" to birds | sky is "related_to" to birds | sky is "used_for" to birds | feather is "at_location" to birds | wing is "related_to" to birds | wing is "used_for" to birds</t>
+  </si>
+  <si>
+    <t>hand is "related_to" to finger | hand is "related_to" to glove | hand is "related_to" to palm</t>
+  </si>
+  <si>
+    <t>sleepwear is "related_to" to bed | bedrest is "derived_from" to bed | pillow is "related_to" to bed | pillow is "related_to" to bed | go_to_bed is "related_to" to bed | go_to_bed is "derived_from" to bed | plant is "related_to" to bed | bundling is "related_to" to bed | book is "at_location" to bed | hair is "at_location" to bed | dig is "related_to" to bed | mattress is "at_location" to bed | mattress is "part_of" to bed | mattress is "related_to" to bed | mattress is "part_of" to bed | put_to_sleep is "related_to" to bed | dog is "at_location" to bed | lay is "related_to" to bed | pig is "related_to" to bed | turn_into_pumpkin is "related_to" to bed | nailbed is "derived_from" to bed | black is "related_to" to darkness | bedtime is "derived_from" to bed | sleeper is "related_to" to sedative | comfort is "at_location" to bed | comfort is "related_to" to bed | rouse is "related_to" to bed | sleep_together is "related_to" to bed | duvet is "at_location" to bed | color is "related_to" to darkness | bundle is "related_to" to bed | berth is "related_to" to bed | berth is "is_a" to bed | junk is "at_location" to bed | nest is "related_to" to bed | nest is "related_to" to bed | grave is "related_to" to bed | tuck is "related_to" to bed | nighttime is "related_to" to darkness | decubitus is "related_to" to bed | sleep is "related_to" to bed | light is "antonym" to darkness | light is "related_to" to darkness | kip is "related_to" to bed | evil is "related_to" to darkness | pad is "related_to" to bed | frame is "at_location" to bed | frame is "part_of" to bed | shoes is "at_location" to bed | lay_down is "related_to" to bed | bag is "at_location" to bed | horse is "related_to" to sedative | room is "related_to" to bed | evening is "related_to" to darkness | post is "related_to" to bed | sleeper_berth is "related_to" to bed | bedroom is "derived_from" to bed | bedroom is "related_to" to bed | bedroom is "related_to" to bed | bedroom is "derived_from" to bed | lectual is "related_to" to bed | in_bed is "derived_from" to bed | sleeping is "at_location" to bed | sleeping is "has_prerequisite" to bed | sleeping is "has_prerequisite" to darkness | staying_in_bed is "has_prerequisite" to bed | beds is "form_of" to bed | beds is "form_of" to bed | beds is "related_to" to bed | beds is "related_to" to bed | beds is "form_of" to bed | beds is "form_of" to bed | rest is "has_prerequisite" to bed | rest is "related_to" to bed | sleeperette is "related_to" to bed | lie is "related_to" to bed | four_poster is "is_a" to bed | bed is "synonym" to bed | code_brown is "related_to" to bed | bedsite is "derived_from" to bed | bedsite is "related_to" to bed | comfortable is "related_to" to bed | cat is "at_location" to bed | night is "related_to" to darkness | night is "related_to" to darkness | arise is "related_to" to bed | sweat is "at_location" to bed | monster is "at_location" to bed | dream is "related_to" to bed</t>
+  </si>
+  <si>
+    <t>talk is "related_to" to discuss | talk is "related_to" to discuss | talk is "related_to" to discuss | talk is "related_to" to gossip | talk is "related_to" to gossip | talk is "is_a" to gossip</t>
+  </si>
+  <si>
+    <t>teeth is "antonym" to gums | gorm is "related_to" to wolf | canine is "related_to" to wolf | wolves is "form_of" to wolf | wolves is "related_to" to wolf | wolves is "form_of" to wolf | dog is "related_to" to wolf | dog is "related_to" to wolf | fang is "related_to" to wolf</t>
+  </si>
+  <si>
+    <t>water is "at_location" to saliva | slabber is "related_to" to saliva | anemone is "at_location" to marsh | wash is "related_to" to marsh | foam is "related_to" to saliva | slip is "related_to" to slippery | flow is "related_to" to marsh | soap is "related_to" to slippery</t>
+  </si>
+  <si>
+    <t>sprachbund is "related_to" to vocabulary | bouts_rimés is "related_to" to verse | onomasticon is "related_to" to vocabulary | thesaurus is "related_to" to dictionary | thesaurus is "synonym" to dictionary | languagism is "related_to" to vocabulary | lexiconophilist is "related_to" to dictionary | definition is "related_to" to dictionary | definition is "related_to" to dictionary | gradus is "related_to" to dictionary | object_language is "related_to" to dictionary | entry is "related_to" to dictionary | rhyming_dictionary is "derived_from" to dictionary | rhyming_dictionary is "is_a" to dictionary | book is "related_to" to dictionary | basic_form is "related_to" to dictionary | passive_vocabulary is "etymologically_related_to" to vocabulary | word is "part_of" to dictionary | word is "related_to" to dictionary | word is "related_to" to vocabulary | lemur is "at_location" to dictionary | vocabularyclept is "etymologically_related_to" to vocabulary | wordbook is "related_to" to dictionary | wordbook is "related_to" to vocabulary | descriptive is "related_to" to vocabulary | beaver is "at_location" to dictionary | poet is "related_to" to verse | number is "related_to" to verse | lexicography is "related_to" to dictionary | pidgin is "related_to" to vocabulary | paraphrase is "related_to" to verse | line is "related_to" to verse | pennill is "related_to" to verse | blanket_term is "related_to" to vocabulary | creolize is "related_to" to vocabulary | dictionary is "synonym" to dictionary | dictionary is "related_to" to vocabulary | poetry is "related_to" to verse | poetry is "related_to" to verse | anemone is "at_location" to dictionary | voice is "related_to" to vocabulary | internal_rhyme is "related_to" to verse | accent is "related_to" to verse | vocable is "related_to" to vocabulary | sloth is "at_location" to dictionary | marmoset is "at_location" to dictionary | leed is "related_to" to verse | lexiconophilia is "related_to" to dictionary | song is "related_to" to verse | song is "related_to" to verse | oxford is "related_to" to dictionary | headword is "related_to" to dictionary | poem is "related_to" to verse | creolization is "related_to" to vocabulary | language is "related_to" to vocabulary | language is "related_to" to vocabulary | ficus is "at_location" to dictionary | hendecasyllable is "related_to" to verse</t>
+  </si>
+  <si>
+    <t>fallacious is "related_to" to incorrect | fallacious is "similar_to" to incorrect | perfect is "related_to" to fault | perfect is "distinct_from" to incorrect | wrongness is "related_to" to fault | in_wrong is "related_to" to incorrect | just is "antonym" to unjust | wrong is "related_to" to incorrect | wrong is "related_to" to incorrect | wrong is "synonym" to incorrect | wrong is "synonym" to incorrect | wrong is "related_to" to unjust | wrong is "synonym" to unjust | wrong is "related_to" to unjust | answer is "related_to" to incorrect | impute is "related_to" to fault | false is "related_to" to incorrect | false is "related_to" to incorrect | bill is "related_to" to fault | mistake is "related_to" to fault | mistake is "related_to" to incorrect | trouble is "related_to" to fault | correct is "antonym" to incorrect | blame is "related_to" to fault | blame is "related_to" to fault | faulty is "derived_from" to fault | faulty is "derived_from" to fault | faulty is "related_to" to fault | proper is "antonym" to incorrect | foil is "related_to" to incorrect | error is "synonym" to fault | improper is "related_to" to incorrect | improper is "similar_to" to incorrect | unfair is "related_to" to unjust | unfair is "related_to" to unjust | inaccurate is "related_to" to incorrect | inaccurate is "synonym" to incorrect | inaccurate is "related_to" to incorrect | wrongful is "related_to" to unjust | wrongful is "similar_to" to unjust | cross is "related_to" to incorrect | amiss is "related_to" to fault | amiss is "related_to" to incorrect | ill is "synonym" to unjust</t>
+  </si>
+  <si>
+    <t>discharge is "related_to" to operate | bullet is "used_for" to murder | vessel is "antonym" to vein | vessel is "related_to" to vein | machine_gun is "used_for" to murder | hang is "related_to" to murder | crime is "related_to" to murder | execute is "manner_of" to murder | run is "related_to" to operate | run is "synonym" to operate | run is "related_to" to vein | work is "related_to" to operate | work is "manner_of" to operate | body is "related_to" to murder | block is "manner_of" to operate | rifle is "used_for" to murder | fire is "capable_of" to murder | use is "synonym" to operate | bar is "related_to" to vein | run_off is "related_to" to operate | fly is "manner_of" to operate | drive is "related_to" to operate | drive is "related_to" to operate | drive is "manner_of" to operate | country is "related_to" to vein | gun is "related_to" to murder | top is "related_to" to murder | remove is "related_to" to murder | remove is "synonym" to murder | hit is "related_to" to murder | hit is "is_a" to murder | hit is "synonym" to murder | got is "related_to" to murder | blood is "at_location" to vein | blood is "related_to" to vein | blood is "related_to" to vein | gate is "manner_of" to operate | control is "related_to" to operate | control is "synonym" to operate | man is "related_to" to operate | kill is "has_prerequisite" to murder | kill is "has_subevent" to murder | kill is "related_to" to murder | turn is "manner_of" to operate | shoot is "related_to" to vein | humour is "related_to" to vein | off is "synonym" to murder | launch is "related_to" to operate | execution is "synonym" to murder</t>
+  </si>
+  <si>
+    <t>germany is "related_to" to empire | prince is "related_to" to princess | prince is "related_to" to princess | prince is "used_for" to princess | prince is "form_of" to princess | princess is "synonym" to princess | princess is "synonym" to princess | castle is "related_to" to moat | castle is "related_to" to princess | jin is "related_to" to empire | jin is "related_to" to empire | colony is "related_to" to empire | queen is "related_to" to princess | kingdom is "related_to" to empire | fairy is "related_to" to princess | royal is "related_to" to princess | song is "related_to" to empire | barony is "related_to" to empire | rise is "related_to" to empire</t>
+  </si>
+  <si>
+    <t>seat is "related_to" to bench | seat is "related_to" to bench | seat is "related_to" to sofa | seat is "related_to" to stool | seat is "related_to" to stool | chair is "related_to" to bench | chair is "related_to" to bench | chair is "distinct_from" to sofa | chair is "related_to" to sofa | chair is "related_to" to sofa | chair is "antonym" to stool | chair is "etymologically_related_to" to stool | chair is "is_a" to stool | chair is "related_to" to stool | chair is "related_to" to stool | chair is "synonym" to stool</t>
+  </si>
+  <si>
+    <t>ampulla is "is_a" to flask | glass is "related_to" to beaker | glass is "is_a" to beaker | rod is "related_to" to beaker | rod is "related_to" to flask | anatomy is "is_a" to science | lagena is "related_to" to flask | fiasco is "etymologically_related_to" to flask | flask is "related_to" to beaker | flask is "synonym" to flask | control is "has_context" to science | chemist is "related_to" to science | cheek is "related_to" to flask | mathematics is "is_a" to science | mathematics is "has_context" to science | mathematics is "is_a" to science | matrass is "related_to" to flask | botany is "related_to" to science | soxhlet_extractor is "related_to" to flask | body is "related_to" to science | water_bath is "related_to" to flask | astronomy is "is_a" to science | astronomy is "is_a" to science | astronomy is "related_to" to science | astronomy is "is_a" to science | biology is "is_a" to science | biology is "related_to" to science | biology is "is_a" to science | craft is "related_to" to science | scientifical is "related_to" to science | point is "has_context" to science | citizen_science is "has_context" to science | citizen_science is "is_a" to science | scientific is "related_to" to science | phial is "synonym" to flask | science_fiction is "etymologically_related_to" to science | science_fiction is "related_to" to science | straight is "has_context" to science | erlenmeyer_flask is "is_a" to flask | scientist is "related_to" to science | do is "has_context" to science | research is "related_to" to science | spray is "related_to" to flask | scientificity is "related_to" to science | vial is "synonym" to flask | vial is "related_to" to science | preparation_room is "has_context" to science | science_center is "related_to" to science | bottle is "related_to" to flask | bottle is "synonym" to flask | beakers is "form_of" to beaker | beakers is "related_to" to beaker | pitcher is "etymologically_related_to" to beaker | büchner_flask is "related_to" to flask | gauze_mat is "related_to" to beaker | gauze_mat is "related_to" to flask | space is "related_to" to science | shakeout is "related_to" to flask | engineering is "related_to" to science | person is "desires" to science | schlenk_flask is "related_to" to flask | vacuum_flask is "is_a" to flask | cagewash is "has_context" to science | flaskless is "derived_from" to flask | flaskless is "related_to" to flask | experiment is "related_to" to science | labware is "has_context" to science | zoology is "is_a" to science | zoology is "related_to" to science | beam is "related_to" to science | science is "synonym" to science | science is "synonym" to science | science is "synonym" to science | fleaker is "derived_from" to beaker | fleaker is "related_to" to beaker | fleaker is "derived_from" to flask | fleaker is "related_to" to flask | watch_glass is "related_to" to beaker | bunsen_burner is "has_context" to science | chemistry is "is_a" to science | chemistry is "related_to" to science | chemistry is "related_to" to science | chemistry is "is_a" to science | scientifically is "related_to" to science | theory is "related_to" to science</t>
+  </si>
+  <si>
+    <t>human is "at_location" to coma | graveyard is "at_location" to cemetery | graveyard is "synonym" to cemetery | graveyard is "synonym" to cemetery | coffin is "related_to" to cemetery | coffin is "related_to" to cemetery | grave is "related_to" to cemetery | life is "antonym" to coma | death is "related_to" to cemetery</t>
+  </si>
+  <si>
+    <t>hand is "related_to" to finger | finger is "at_location" to hand | finger is "part_of" to hand | finger is "part_of" to hand | finger is "related_to" to hand | finger is "related_to" to hand | finger is "part_of" to hand | finger is "antonym" to toe | finger is "distinct_from" to toe | finger is "distinct_from" to toe | finger is "related_to" to toe | finger is "synonym" to toe</t>
+  </si>
+  <si>
+    <t>sermon is "at_location" to church | throne is "is_a" to angel | throne is "related_to" to angel | east is "related_to" to church | committee is "at_location" to church | pneumatics is "related_to" to angel | titular is "related_to" to angel | titular is "related_to" to church | westminster_abbey is "related_to" to church | church_tower is "part_of" to church | wayside_pulpit is "related_to" to church | psalm is "related_to" to church | bell is "related_to" to angel | bell is "at_location" to church | bell is "related_to" to church | rota is "related_to" to church | font is "at_location" to church | fallen_angel is "is_a" to angel | faith is "at_location" to church | faith is "related_to" to church | devil is "antonym" to angel | devil is "related_to" to angel | devil is "related_to" to angel | sunday_school is "at_location" to church | sunday_school is "related_to" to church | luciferian is "related_to" to church | ranter is "related_to" to church | candle is "at_location" to church | god is "at_location" to church | god is "related_to" to church | cresselle is "related_to" to church | westminster_cathedral is "related_to" to church | tithing is "related_to" to church | priest is "related_to" to church | seraph is "related_to" to angel | seraph is "is_a" to angel | evangelical is "related_to" to church | creed is "related_to" to faith | spirit is "related_to" to angel | organ is "related_to" to church | venerable is "related_to" to church | human is "at_location" to church | church is "synonym" to church | hamlet is "related_to" to church | haugean is "related_to" to church | bee is "at_location" to church | tithingman is "related_to" to church | praise is "related_to" to church | chapel is "at_location" to church | chapel is "related_to" to church | chapel is "related_to" to church | pope is "at_location" to church | pope is "related_to" to church | pope is "related_to" to church | high_altar is "related_to" to church | agape is "related_to" to church | house_of_god is "related_to" to church | anabaptist is "related_to" to church | bishop is "at_location" to church | bishop is "related_to" to church | bishop is "related_to" to church | bishop is "related_to" to church | statue is "at_location" to church | audience is "at_location" to church | praying is "has_prerequisite" to faith | born_again is "related_to" to faith | born_again is "related_to" to faith | demon is "related_to" to angel | ornament is "related_to" to church | belief is "part_of" to faith | belief is "related_to" to faith | belief is "related_to" to faith | cake is "related_to" to angel | christian_science is "related_to" to church | artotyrite is "related_to" to church | noetian is "related_to" to church | encaenia is "related_to" to church | brother is "related_to" to church | parachurch is "derived_from" to church | hypocrisy is "at_location" to church | errand_ghost is "related_to" to angel | retrochoir is "related_to" to church | orthodox is "related_to" to faith | buttock_mail is "related_to" to church | clerestory is "related_to" to church | ceremony is "at_location" to church | church_bell is "related_to" to church | shepherd is "related_to" to church | bar is "antonym" to church | sin is "related_to" to church | chancel is "part_of" to church | evangelize is "related_to" to angel | call is "related_to" to church | significavit is "related_to" to church | convert is "related_to" to faith | sacrarium is "related_to" to church | synod is "related_to" to church | village is "related_to" to church | antechoir is "related_to" to church | fay is "related_to" to faith | nonfaith is "derived_from" to faith | nonfaith is "related_to" to faith | albigenses is "related_to" to church | broose is "related_to" to church | churches is "form_of" to church | churches is "form_of" to church | churches is "related_to" to church | churches is "form_of" to church | sunrise_service is "related_to" to church | synagogue is "related_to" to church | pray is "related_to" to church | schism is "related_to" to church | tabernacle is "related_to" to church | honest is "related_to" to faith | bell_gable is "related_to" to church | hymn is "at_location" to church | hymn is "related_to" to church | gold is "at_location" to church | prayer is "at_location" to church | prayer is "related_to" to church | canon is "related_to" to church | canon is "related_to" to church | aisle is "at_location" to church | excubitorium is "related_to" to church | believe is "related_to" to faith | alley is "related_to" to church | mass is "related_to" to church | mass is "related_to" to church | churchgoing is "derived_from" to church | churchgoing is "related_to" to church | dean is "related_to" to church | canon_law is "related_to" to church | esoterism is "related_to" to faith | churchianity is "derived_from" to church | churchianity is "related_to" to church | holy_book is "at_location" to church | house_of_worship is "related_to" to church | house_of_worship is "synonym" to church | house_of_worship is "related_to" to faith | blessing is "related_to" to church | apse is "related_to" to church | apse is "part_of" to church | deposition is "related_to" to church | tribune is "related_to" to church | cross is "related_to" to church | churchly is "related_to" to church | basket is "at_location" to church | padroado is "related_to" to church | nun is "at_location" to church | graveyard is "at_location" to church | service is "related_to" to church | patronage is "related_to" to church | churchill is "derived_from" to church | churchperson is "derived_from" to church | churchperson is "related_to" to church | reformation is "related_to" to church | paradise is "related_to" to church | cuttystool is "related_to" to church | temple is "related_to" to church | temple is "related_to" to church | temple is "related_to" to faith | carpet is "at_location" to church | treachery is "related_to" to faith | faithful is "derived_from" to faith | faithful is "related_to" to faith | brief is "related_to" to church | cleric is "at_location" to church | community is "at_location" to church | degree is "related_to" to angel | commination is "related_to" to church | defensor is "related_to" to church | reader is "related_to" to church | bless is "related_to" to church | steeple is "at_location" to church | steeple is "related_to" to church | steeple is "related_to" to church | searcher is "related_to" to church | wedding_ring is "at_location" to church | altar is "used_for" to church | confidence is "related_to" to faith | sanbenito is "related_to" to church | piano is "at_location" to church | ancien_régime is "related_to" to church | grave is "related_to" to church | churchwarden is "derived_from" to church | lectern is "related_to" to church | sacellum is "related_to" to church | observance is "related_to" to church | transept is "part_of" to church | incredulity is "related_to" to faith | campana is "related_to" to church | churchify is "derived_from" to church | evangelist is "related_to" to angel | evangelist is "related_to" to church | chopchurch is "derived_from" to church | angel is "synonym" to angel | angel is "synonym" to angel | angel is "synonym" to angel | angel is "synonym" to angel | hot_gospeller is "related_to" to faith | usher is "related_to" to church | rector is "related_to" to church | rector is "related_to" to church | west is "related_to" to church | dissenter is "related_to" to church | christianity is "is_a" to faith | choir is "related_to" to angel | choir is "related_to" to church | choir is "related_to" to church | ministry is "related_to" to church | dogma is "related_to" to faith | ecclesiastical is "related_to" to church | fidelity is "etymologically_related_to" to faith | fidelity is "related_to" to faith | power is "related_to" to angel | kingdom_of_heaven is "related_to" to angel | sociable is "related_to" to church | separatist is "related_to" to church | cathedral is "is_a" to church | cathedral is "related_to" to church | cathedral is "related_to" to church | cathedral is "is_a" to church | antiburgher is "related_to" to church | choirstall is "related_to" to church | devotion is "related_to" to faith | interfaith is "derived_from" to faith | spirituality is "at_location" to church | spirituality is "related_to" to church | minster is "related_to" to church | leap is "antonym" to faith | leap is "related_to" to faith | apostle is "related_to" to church | isle is "at_location" to church | solifidian is "related_to" to faith | fivefold_ministry is "related_to" to church | person is "desires" to faith | autonomy is "related_to" to church | altar_server is "at_location" to church | provost is "related_to" to church | desacralization is "related_to" to church | outreach is "related_to" to church | heavenly_body is "related_to" to angel | sedilium is "related_to" to church | cardinal is "related_to" to church | simonian is "related_to" to church | happy_clappy is "related_to" to church | monk is "at_location" to church | monk is "related_to" to church | christchurch is "derived_from" to church | baal is "related_to" to angel | monotheistic is "related_to" to faith | gentleman is "at_location" to church | money is "at_location" to church | parish is "related_to" to church | parish is "related_to" to church | marry is "related_to" to church | benefice is "related_to" to church | secular is "related_to" to church | corsepresent is "related_to" to church | miracle is "related_to" to faith | class is "related_to" to church | crypt is "related_to" to church | forebelief is "related_to" to faith | crossing is "related_to" to church | devil's_advocate is "related_to" to church | wedding is "at_location" to church | wedding is "related_to" to church | title is "related_to" to church | electricity is "at_location" to church | diptych is "related_to" to church | religious_icon is "at_location" to church | wine is "at_location" to church | prayer_book is "at_location" to church | religion is "related_to" to church | religion is "related_to" to faith | religion is "synonym" to faith | science is "antonym" to faith | crucifix is "related_to" to church | crucifix is "related_to" to church | quiet is "at_location" to church | consistory is "related_to" to church | holy_roller is "related_to" to church | minister is "related_to" to church | minister is "related_to" to church | lady is "at_location" to church | pastor is "related_to" to church | febronianism is "related_to" to church | gallicanism is "related_to" to church | heaven is "related_to" to angel | heaven is "related_to" to angel | churchyard is "at_location" to church | churchyard is "derived_from" to church | guardian_angel is "etymologically_related_to" to angel | guardian_angel is "is_a" to angel | guardian_angel is "related_to" to angel | guardian_angel is "derived_from" to angel | proselytize is "related_to" to faith | lily_crucifix is "related_to" to church | excommunicate is "related_to" to church | sepulchre is "related_to" to church | chair is "at_location" to church | misfaith is "derived_from" to faith | misfaith is "related_to" to faith | mormon is "related_to" to faith | hope is "part_of" to faith | hope is "related_to" to faith | hope is "related_to" to faith | sanctuary is "at_location" to church | sanctuary is "related_to" to church | root_and_brancher is "related_to" to church | lector is "related_to" to church | kliros is "related_to" to church | aileron is "related_to" to church | ecclesia is "related_to" to church | bells is "at_location" to church | prosperity_theology is "related_to" to faith | monastery is "related_to" to church</t>
+  </si>
+  <si>
+    <t>saddle is "part_of" to cello | instrument is "related_to" to cello | neck is "part_of" to cello | tap is "related_to" to trumpet | shoulder is "part_of" to cello | knife is "related_to" to scalpel</t>
+  </si>
+  <si>
+    <t>briefcase is "at_location" to desk | highlighter is "at_location" to desk | books is "at_location" to desk | dust_bunny is "at_location" to desk | table is "distinct_from" to desk | table is "related_to" to desk | wood is "at_location" to desk | wood is "related_to" to desk | vargueno is "related_to" to desk | glue is "at_location" to desk | book is "at_location" to desk | notes is "at_location" to desk | file_cabinet is "at_location" to desk | stationery is "at_location" to desk | organize is "related_to" to desk | desk_organizer is "derived_from" to desk | steel_pen is "at_location" to desk | stamp_pad is "at_location" to desk | quill_brush is "at_location" to desk | carpet is "at_location" to desk | feet is "at_location" to desk | furniture_secretary is "is_a" to desk | eraser is "at_location" to desk | office is "related_to" to desk | dust is "at_location" to desk | clock is "at_location" to desk | typewriter is "at_location" to desk | board is "related_to" to desk | class is "related_to" to desk | manager is "at_location" to desk | printer is "at_location" to desk | work is "at_location" to desk | ballpoint_pen is "at_location" to desk | writing is "related_to" to desk | foot is "at_location" to desk | cross_aisle is "related_to" to desk | desk_drawer is "at_location" to desk | envelope is "at_location" to desk | jack is "related_to" to quill | varnish is "at_location" to desk | marker is "at_location" to desk | seatwork is "related_to" to desk | drawer is "part_of" to desk | lunch is "at_location" to desk | floor is "at_location" to desk | instrument_triangle is "at_location" to desk | light is "at_location" to desk | dirt is "at_location" to desk | speaker is "at_location" to desk | quillwork is "derived_from" to quill | quillwork is "related_to" to quill | pad is "at_location" to desk | staple is "at_location" to stapler | dish is "etymologically_related_to" to desk | dog is "at_location" to desk | writing_paper is "at_location" to desk | gun is "at_location" to desk | fountain_pen is "at_location" to desk | boss is "at_location" to desk | buro is "related_to" to desk | exam_table is "is_a" to desk | report is "at_location" to desk | notebook is "at_location" to desk | mess is "at_location" to desk | ruler is "at_location" to desk | shaft is "synonym" to quill | phone is "at_location" to desk | phone is "related_to" to desk | keyboard is "at_location" to desk | note is "at_location" to desk | cable is "at_location" to desk | clip is "at_location" to desk | desktop is "derived_from" to desk | desktop is "related_to" to desk | secretary is "related_to" to desk | secretary is "is_a" to desk | scissors is "at_location" to desk | scissors is "related_to" to desk | mouse_pad is "at_location" to desk | diary is "at_location" to desk | chair is "at_location" to desk | chair is "located_near" to desk | chair is "related_to" to desk | trash_can is "at_location" to desk | person is "at_location" to desk | forms is "at_location" to desk | calendar is "at_location" to desk | cat is "at_location" to desk | rubber_stamp is "at_location" to desk | rug is "at_location" to desk | bureau is "related_to" to desk | bureau is "related_to" to desk | writing_desk is "related_to" to desk | writing_desk is "is_a" to desk | legs is "at_location" to desk</t>
+  </si>
+  <si>
+    <t>acceptor is "related_to" to electron | reduction is "related_to" to electron | edge is "synonym" to zest | hole is "related_to" to electron | flavor is "related_to" to electron | spice is "synonym" to zest | fly is "related_to" to inertia</t>
+  </si>
+  <si>
+    <t>sweat is "at_location" to bed | effort is "related_to" to strain | competing is "causes" to sweat | jogging is "causes" to sweat | performing is "has_subevent" to sweat | constrain is "related_to" to strain | running is "causes" to sweat | running is "has_subevent" to sweat | intend is "related_to" to strain | getting_fit is "causes" to sweat | sweat is "synonym" to sweat | getting_in_shape is "has_subevent" to diet | getting_in_shape is "causes" to sweat | sleep is "has_subevent" to sweat | going_for_run is "causes" to sweat | pull is "related_to" to strain | going_for_jog is "causes" to sweat | fatigue is "similar_to" to strain | playing_tennis is "causes" to sweat | playing_tennis is "has_subevent" to sweat | close is "related_to" to strain | race is "related_to" to strain | exercise is "causes" to sweat | exercise is "related_to" to sweat | work is "has_prerequisite" to sweat | work is "has_subevent" to sweat | grape is "at_location" to diet | reduce is "related_to" to diet | water is "at_location" to sweat | reach is "related_to" to strain | maintaining_muscle_strength is "has_subevent" to sweat | hemovore is "related_to" to diet | food is "synonym" to diet | stress is "related_to" to strain | stress is "related_to" to strain | getting_physical_activity is "has_subevent" to sweat | regular is "related_to" to diet | release_energy is "has_subevent" to sweat | riding_bicycle is "causes" to sweat | money is "has_subevent" to sweat | run is "has_subevent" to sweat | get_physical_activity is "has_subevent" to sweat | slack is "related_to" to strain | saturated_fat is "related_to" to diet | staying_fit is "has_subevent" to diet | exercising is "causes" to sweat | dancing is "causes" to sweat | dancing is "has_subevent" to sweat | play_sports is "has_subevent" to sweat | unsaturated_fat is "related_to" to diet | crossfeed is "related_to" to strain | going_for_walk is "has_subevent" to sweat</t>
+  </si>
+  <si>
+    <t>murder is "related_to" to kill | murder is "synonym" to kill | murder is "manner_of" to kill | murder is "is_a" to crime | murder is "related_to" to crime | murder is "has_context" to british | murder is "has_context" to sports | murder is "has_property" to illegal | murder is "synonym" to murder | assault is "synonym" to assault | attack is "related_to" to assault | attack is "related_to" to assault | battery is "related_to" to assault | battery is "related_to" to assault | battery is "is_a" to assault | kill is "has_prerequisite" to murder | kill is "has_subevent" to murder | kill is "related_to" to murder | murder_hole is "related_to" to murder | coop is "etymologically_related_to" to cop | machine_gun is "used_for" to murder | crime is "related_to" to murder | assault_rifle is "etymologically_related_to" to assault | body is "related_to" to murder | cob is "etymologically_related_to" to cop | grenade is "used_for" to murder | hit is "related_to" to murder | hit is "is_a" to murder | hit is "synonym" to murder | mug is "related_to" to assault | dispatch is "synonym" to murder | hang is "related_to" to murder | rifle is "used_for" to murder | gun is "related_to" to murder | got is "related_to" to murder | motive is "related_to" to murder | pig is "related_to" to cop | execute is "manner_of" to murder | cop_plea is "derived_from" to cop | ice is "related_to" to murder | fratricide is "is_a" to murder | fire is "capable_of" to murder | homicide is "related_to" to murder</t>
+  </si>
+  <si>
+    <t>grave is "related_to" to bed | nasty is "related_to" to grave | bone is "related_to" to grave | cleat is "related_to" to spike | human is "at_location" to grave | sad is "related_to" to grave | oil is "related_to" to drill | ear is "synonym" to spike | diamond is "used_for" to drill | stock is "related_to" to drill | dead is "related_to" to grave | bow is "related_to" to drill | fortify is "synonym" to spike | body is "at_location" to grave | push is "related_to" to drill | fork is "related_to" to spike | bury is "related_to" to grave | drill is "synonym" to drill | master is "entails" to drill | gravity is "related_to" to grave | gravity is "synonym" to grave | exercise is "synonym" to drill | grave is "synonym" to grave | gaff is "is_a" to spike | pit is "related_to" to grave | creeper is "related_to" to spike | cathedral is "related_to" to drill | dance is "related_to" to drill | dig is "related_to" to drill | high is "related_to" to grave | pick is "related_to" to spike | low is "related_to" to grave | foot is "at_location" to grave | drum is "related_to" to drill | danger is "related_to" to grave | bit is "part_of" to drill | bit is "related_to" to drill | bit is "related_to" to drill | bit is "part_of" to drill | discipline is "synonym" to drill | pilot_hole is "related_to" to drill | spur is "related_to" to spike | groove is "etymologically_related_to" to grave | spit is "synonym" to spike | spike is "synonym" to spike</t>
+  </si>
+  <si>
+    <t>like is "related_to" to care</t>
+  </si>
+  <si>
+    <t>wolf is "related_to" to dog | wolf is "has_context" to slang | earthly_branch is "related_to" to midnight | planet is "related_to" to saturn | dog is "related_to" to wolf | dog is "related_to" to wolf</t>
+  </si>
+  <si>
+    <t>split is "related_to" to pull | slit is "related_to" to split | slit is "synonym" to split | break is "related_to" to split | break is "related_to" to split | break is "synonym" to split | part is "related_to" to split | op is "related_to" to opportunity | river is "related_to" to split | bud is "related_to" to bloom | opening is "related_to" to opportunity | opening is "is_a" to opportunity | vent is "related_to" to opportunity | gap is "synonym" to split | cleft is "related_to" to split | soup is "related_to" to split | rift is "related_to" to split | cut is "related_to" to split | cut is "similar_to" to split | plant is "capable_of" to bloom | day is "is_a" to opportunity | prime is "synonym" to bloom | occasion is "related_to" to opportunity | occasion is "is_a" to opportunity | blow is "related_to" to bloom | blow is "related_to" to bloom | opportunity is "synonym" to opportunity | flower is "related_to" to bloom | flower is "related_to" to bloom | flower is "related_to" to bloom | flower is "synonym" to bloom | flower is "synonym" to bloom | flower is "synonym" to bloom | flower is "synonym" to bloom | shake is "related_to" to split | it is "related_to" to split | space is "related_to" to opportunity | person is "desires" to opportunity | division is "related_to" to split | division is "synonym" to split | take_off is "synonym" to bloom | throw is "is_a" to opportunity | life is "is_a" to opportunity | life is "related_to" to opportunity | catch is "related_to" to opportunity | room is "related_to" to opportunity | room is "is_a" to opportunity</t>
+  </si>
+  <si>
+    <t>bullet is "related_to" to sinker | bird is "related_to" to duck | chicken is "antonym" to duck | chicken is "related_to" to duck | lead is "related_to" to sinker | jack is "related_to" to sinker | bar is "related_to" to duck | chick is "related_to" to duck | duck is "part_of" to duck | cover is "related_to" to duck</t>
+  </si>
+  <si>
+    <t>83.33%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +893,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -666,7 +947,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -698,9 +979,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,6 +1031,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -907,14 +1224,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,7 +1265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -954,13 +1279,16 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -971,10 +1299,19 @@
         <v>105</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -988,13 +1325,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1008,13 +1348,16 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1028,13 +1371,16 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
+        <v>191</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1056,10 +1402,19 @@
         <v>109</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1070,10 +1425,19 @@
         <v>110</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1087,13 +1451,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>154</v>
+      </c>
+      <c r="F10" t="s">
+        <v>194</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1104,10 +1471,19 @@
         <v>112</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1121,13 +1497,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+      <c r="F12" t="s">
+        <v>196</v>
       </c>
       <c r="G12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1141,13 +1520,16 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>157</v>
+      </c>
+      <c r="F13" t="s">
+        <v>197</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1158,10 +1540,19 @@
         <v>115</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1175,13 +1566,16 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>159</v>
+      </c>
+      <c r="F15" t="s">
+        <v>199</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1192,10 +1586,19 @@
         <v>117</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1209,13 +1612,16 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>161</v>
+      </c>
+      <c r="F17" t="s">
+        <v>201</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1226,10 +1632,19 @@
         <v>119</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1243,13 +1658,16 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>163</v>
+      </c>
+      <c r="F19" t="s">
+        <v>203</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1260,10 +1678,19 @@
         <v>121</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1277,13 +1704,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>165</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1294,10 +1724,19 @@
         <v>122</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1308,10 +1747,19 @@
         <v>123</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1322,10 +1770,19 @@
         <v>124</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1336,10 +1793,19 @@
         <v>125</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1353,13 +1819,16 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>170</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
       </c>
       <c r="G26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1370,10 +1839,19 @@
         <v>127</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1387,13 +1865,16 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>172</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1407,13 +1888,16 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>173</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
       </c>
       <c r="G29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1424,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1435,10 +1919,19 @@
         <v>130</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1452,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1466,24 +1959,39 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>175</v>
+      </c>
+      <c r="F33" t="s">
+        <v>215</v>
       </c>
       <c r="G33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
       </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
       <c r="D34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1494,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1502,13 +2010,22 @@
         <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1516,13 +2033,22 @@
         <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1530,13 +2056,13 @@
         <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1544,13 +2070,22 @@
         <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1558,13 +2093,22 @@
         <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" t="s">
+        <v>220</v>
+      </c>
+      <c r="G40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1572,13 +2116,22 @@
         <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1586,13 +2139,22 @@
         <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" t="s">
+        <v>222</v>
+      </c>
+      <c r="G42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1600,13 +2162,22 @@
         <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" t="s">
+        <v>223</v>
+      </c>
+      <c r="G43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1614,13 +2185,22 @@
         <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1628,19 +2208,22 @@
         <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>185</v>
+      </c>
+      <c r="F45" t="s">
+        <v>225</v>
       </c>
       <c r="G45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1648,13 +2231,13 @@
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1662,13 +2245,22 @@
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" t="s">
+        <v>226</v>
+      </c>
+      <c r="G47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1676,13 +2268,13 @@
         <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1690,15 +2282,15 @@
         <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H50" t="s">
-        <v>178</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/output/frat/depth_2/frat_3_conceptnet_search.xlsx
+++ b/output/frat/depth_2/frat_3_conceptnet_search.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rejna/projects/github.com/r_m_thesis/output/frat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\output\frat\depth_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5AC24-A90C-DC47-97FF-4AF548950B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47722E02-350F-4CF8-AF4E-2CB2134834E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13360" yWindow="500" windowWidth="15980" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1227,19 +1227,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="35.6328125" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H50" t="s">
         <v>267</v>
       </c>

--- a/output/frat/depth_2/frat_3_conceptnet_search.xlsx
+++ b/output/frat/depth_2/frat_3_conceptnet_search.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\output\frat\depth_2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47722E02-350F-4CF8-AF4E-2CB2134834E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
   <si>
     <t>FrAt</t>
   </si>
@@ -334,10 +328,10 @@
     <t>strong</t>
   </si>
   <si>
-    <t>answer, statement</t>
-  </si>
-  <si>
-    <t>red, water, band, very, lonely, quiet, reaction, city, blood, emotional, like, figure, intense, british, cloud, clean, pregnant, local, party, brash, cutter, drop, wax, film, page, air_hunger, falling, serve_customers, bulla, unhappy, large, herb, sound, gun, negative, operation, wool, light_handed, people, wet, grievous, peep, india, communication, river, process, sad, set, sharp, utter, crimplene, metal, happy, sympathy, believe, love, want, hard, color, stone, thrill, smile, state, punishment, point, change, bid, derogatory, deep, rub, keen, window, hot, howl, steel, busy, rise, action, rapper, express, cell, positive, flat, boil, music, case, cry, ace, specified, car, tree, help, bright, show, have, safe, person, chronic, make, not, sensationalism, northern_england, level, fit, upset, kiss, low, act, stitch, give, a, slang, us, displeasure, adjective, smash, crash, depression, hope, sorrow, noise, difficult, fire_hose, trick, tap, price, better, dull, para, distraught, wall, strong, attack, pig, lucid_dream, boost, cockney_rhyming_slang, mouth, faint, belt, family, cat, rock, bar, sneeze, scream, air, pain, ad, yelp, humour, liquid, good, wetness, affection, jog, humans, visiting_art_gallery, eye, sick, dress, drug, slice, activity, headroom, wash, light, measurement, urgent, chicken, glad, wind, cold, feeling, history, loving_else, emotion, energy, gravity, high, listen, being, paint, type, obstreperous, event, hurt, coat, chemistry, mist, speaker, weighted, shrill, print, talk, soft, test, response, haste, regret, subtle, evil, vicious, swell, censure, aviation, signal, procedure, term, napkin, shot, discovering_truth, pressure, ham_handed, when, moan, running, sorry, great, physically, life, charge, war, think, crown, sadness, born, gas, practice, despair</t>
+    <t>statement, answer</t>
+  </si>
+  <si>
+    <t>semicircle, object, condenst, toonophile, tert, fourth_position, of, ortho, sulfanylidene, used_in_reading_out_numbers, politics, twelveth_letter_of_roman_alphabet, deoxycytidine_monophosphate, ml, banisht, boson, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, bruxomania, athwartships, t_zone, g_force, r_rotunda, b.eng, anaptyxis, byte, norovirus, third_letter_of_roman_alphabet, tesh, goals, b_story, clu, islamic_calendar, which's, encreast, t's, scalogram, employ, nb, set_theory, dispenst, builder's_tea, ometry, grand, sincerely, take_l, addrest, mc, t_internet, internet_slang, fandom_slang, toodles, tositumomab, nyse, numero_sign, oxygen, o_face, d, constant_of_integration, topology, date, smell_o_meter, clansperson, south, decomposition, lambdacism, absorpt, limbo, advanc’t, transhumanism, l_size, numeral, air_conditioned, greengrocer's_apostrophe, inorganic_substance, hoplo, b.e.e, five_hundred, o’s, ground, zoöphytology, ell, beeswax, b.med, ll.b, besides, bent, b.s.n, short_s, costa, some, contradistinguisht, third_person, t_piece, parsing, gasogen, homer, vowel, fermion, dezh, partheno, b.comm, republican, women's_christmas, character, issaron, blood_group, o_shaped, object_oriented_programming, aikens, stop_codon, symbols, cherisht, multi, gangsta, auriculo, drencht, technical_foul, blogosphere, other, dirhem, account, hey, programming, myctag, fitz, type_erasure, homoio, 360, nfd, blockt, ods, gentleman, b.m, pells, istro, diastereoisomer, thymine, titles, motorcycle, precisely, procedural_programming_lanuage, b_s, perhaps, or, jack_o_lantern, talk_to, e_♭_instrument, dubya, pbuh, z, ts, d_b, ballet, chromatic_scale, s, bs, uk, supersymmetry, java, begot, was, charlie, w, dilf, wth, remainder, logico, y_all'd've, bought, beset, hydrogen, equipt, writo, re, archeopteryx, balanophagous, nd, checkt, type_b, ss, vexillographer, b's, yo, aitkens, journalism, connectogram, w_r_t, soupcon, 1_g, j.d, gilf, heat_content, embellisht, education, down_to_t, el, chemical_symbol_for_hydrogen, cent, patronymic, audio, b.chir, template_metaprogramming, copyright_symbol, visarga, empoverisht, rh, 24mo, double, dealt, pharmacology, descendant, xiphisternum, interfix, xtianity, nc_17, sarcastic, its, minretumomab, lolz, high_c, edobacomab, kayo, legal, b.s.a, homoeo, dropt, hard, century, attackt, scale, bereft, pitch_perfect, latin, non_rhotic, ll, t’s, schwar, vitamin_c, g_s, terminology, letter, h's, cobol, rust, penny_sterling, dswounds, replace, urbiscript, b.acc, mo, long_s, sx, b.compt, nail, chaussé'd, mho, batsman, cello, urobilinogen, córdoba, p, diatonic_semitone, tg, estes, levo, guildswoman, b.math, j, back_o_bourke, enharmonic, have_got, belcht, perl, t_junction, stereodescriptor, radius, vicesimo_quarto, aitkins, oh, boron, c_s, electronics, d_shaped, s_shaped, ℓ, rhotacism, sextodecimo, o'clock, mac, rat_tail_radish, javascript, cisgender, doxogenic, conservative, tittle, ecmascript, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, softography, encampt, nuevo_sol, dactinomycin, nf, curst, penny, g_rated, twouldn't, terminal_s, v, surname, purkins, dry_cell_battery, hb, w's, b.sc.n, paradigm, man_o_war, c, svo, external, bridgmanite, crept, burnt, w_o, goatshair, dram, is, malloc, dog's_letter, m.d, right, b_minor, round, count_out, second_letter_of_alphabet, randomness, vocative_case, oversman, business, s's, illo, testosterone, t_splice, dwelt, hentai, twasn't, r’s, stl, w_shaped, last, b_shaped, digrest, clg, go_to_market, e, ed, s_hole, misle, allies, regards, use, gomer, composition, egotist, ino, sphygmo, prototype_based_language, secondary, l_shaped, c.f.r, gev, chromatic_semitone, ostomy, nationality, twere, bath, t_shirt, graphophone, west, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, tertiary, coke, first_letter_of_word_chair, 100, axiomatic, sports, b.s.e.e, w_i, hawksbeard, clicko, pædo, glycopeptidolipid, dialects, venipuncture, double_u, dacryohemorrhea, occupation, us, catherine_havasi's_initials, berkeleio, spello, gf, built, laetrile, dice, go, cor, c’s, l’s, grade, cyclone, china, bps, pound_sterling, finance, deuteron, survival_horror, kc, c_hole, symbologenic, 4chan, homœo, bullswool, scheme, hausdorff, sec, perrins, sol_fa, attacht, enravisht, ocracy, point, manosphere, air_conditioner, wide, multiple_o's, s_size, group_b, d_♭, most_vexing_parse, entomology, lulz, t_group, tungsten, clapt, segovia, rd, company, scantily_clad, est, slut's_wool, bethe, from_latin_libra, video_game, cœno, b, approacht, subatomic_particle, c_minor, edrecolomab, watt, yt, d.d, b_final, cricket, anime, taking_bus, cab, levulose, lb, dex, seent, galaxy, sigmoid, h, diminisht, h_shackle, seventh_letter_of_roman_alphabet, pithers, b.sc, coenoblast, sneaksman, acroatics, shortcut_for_air_conditioning, theirs, aikins, indicative, economics, basketball, coarticulate, football_pitch, solfeggio, dipt, pers, duff's_device, hundred, air_conditioning, year, set, sports_statistic, b_sharp, bleacht, disjoint, dreamt, miladdo, used_mainly_after_where_here_and_there, christofascist, urano, american_library_association, b.m.e, ds, swounds, ah, ls, triton, dendro, bubnoff_unit, b_flat, mornings, cholecystolithiasis, pandean, size, turn, proscribed, entertainment, nonstandard, banned, eth, had, lambert, dioxygen, nacolomab_tafenatox, roentgen, betimes, possess, mute_h, otw, cytosine, g’s, b.ch.d, did, b.th, o_ring, spat, irish, lose, d's, break_off, ies, a, galactic_coordinate_system, upon, solfège, deoxyribose, fifty, twou'dn't, slidometer, da, water, theorem, blest, lua, has, neighborhood, lvalue, animanga_character, tesla, nights, coenosteum, taplitumomab, big, bel, vocative, g_shaped, doubleyou, horse, henry, b.ed, skainsmate, kinesiology, computer_languages, ga, confest, dispossest, hydrogen's_chemical_symbol, t_shaped, cherubs, d_hole, hs, exactly, bye, bliss, afterwards, crasht, tier, fundamental_constant, s’s, deprest, decemvirate, word, bohdanowiczite, organic_chemistry, transsexual, o'reilly, b.com, kb, monoclonal_antibody, social, with, b.lib, predicted, transmissivity, would, chemical_symbol_of_carbon, 3gl, d_minor, abbreviation, average, dx, monoatomic_cation, rs, igg, o, gigabyte, atomic_nucleus, caught, thinko, caravansary, c's, b_complex_vitamin, holliers, wilkes, g's, brusht, hirs, oes, naptumomab_estafenatox, particle, ie, pneumo, ub, snooker, xylanolysis, twelvemo, latitude, fourth_letter_of_roman_alphabet, ve, h’s, b.as, perfectly, brought, taxable, b.des, axiom, penalty_arc, vulvo, czechoslovak, askt, b.c.e, football, interconsonantal, second_letter_of_roman_alphabet, worn_on_nose, grammar, second, kamatz, khoum, k_r, mit, ancient_greek, descending_s, h_shaped, moisturizer, game, etc, people'd, even, gram, lemalesomab, bethought, annext, rasopathy, pantile, bornt, pigscot, ada, will_o_wisp, clasht, 50, dript, b_♭_instrument, lethek, long_vowel, time, cropt, television_show, gigography, hemoglobin, zero, b.acy, clothing, abasht, seleno, major_scale, perfection, were, b’s, spectral_class, pneumato, gravity, tendu_en_arrière, triiodothyronine, chemical_symbol_of_oxygen, mitumomab, speako, y, wed, cross, birdsmouth, noons, northern_england, oyl, klecksography, medicine, gameto, litre, 12mo, sithence, law, example_of_programming_language, excuse, gee, korea, celestial_object, encroacht, unstressed, tis, 500, admonisht, curly_bracket_language, blemisht, adventure_game, strong_electrolyte, run_o_mill, nones, barn, r_shaped, b.a, 18mo, kd, argyro, old_penny, jesus_was_crucified, universal_donor, slang, gravo, coulomb, backwards, blood_type, developt, grunsel, present_tense, diceroll, drachm, c_sharp, chirpt, saint, status, robertsman, blent, gentleman's_agreement, unicode, oto, eighth_letter_of_roman_alphabet, delete, bcpl, rail_transport, vagino, b.s.e, cervico, basic, b_testing, cc, meadow, distinguisht, otl, group_o, circa, strident, force_unit, electricity, regina, f_instrument, galanthophile, proton_hydron, disrelisht, labial, ruby, alphabet, one, c_major, plan_b, c_note, b.mus, tuesday, cad, copenhagen, burnisht, reference, mbta, type_o, thyroxine, americo, c_suite, gas_constant, linguistics, deoxythymidine_monophosphate, air_to_ground, g_minor, b.f.a, avoucht, b_school, hegira, until_february_1971, cymoscope, b_word, tonic, astronomy, always_capitalized_in_modern_usage, balletomania, lth, internet, subway, orotidine, pethers, against, human, archæo, l's, w’s, eirs, nemato, canonical, teen, guanine, ing, l_plate, gb, operator, verb, build_cathedral, segrosome, darwin, hydrogen_atom, computing, 2h, canine_letter, r's, breadth, tenatumomab, vrykolaka, do, hematinometer, object_oriented_programming_language, saxon_genitive, city, besprent, iono, cs, chartered_accountant, music, tradeswoman, accomplisht, megakaryocytopoiesis, gw, sitcom, signore, thousand, linotype, lost, litho, la, log, curiously_recurring_template_pattern, seah, en, b.litt, imciromab, degree_centigrade, k, saint_anthony's_cross, deduc’t, metric_ton, boa, sn, physicotheology, calendar_terms, os, pemtumomab, transgender, text_messaging, yours, white, when_it_is_nonstandardly_used_as_relative_pronoun, arterio, svedberg, tee, astonisht, blackophilia, cleft, falcon, abolisht, mark, b.arch, rogers, see_also_es, believe, b.s.l, jocular, computer_language, it, eiffel, software, compiler, zoö, chapter, crusht, ours, ball, php, spherocylindrical, green, wednesday, loser_sign, flat, wave_clip, fréchet, sterling, follow, bacillus, reflectoporn, b.l.s, mab, b_major, hamiltonian, œ, singular, januarys, problemo, porno, vitamin_d, kolmogorov, ob, d_major, statistic_reporting_number_of_games_that_player_has_participated_in, detumomab, antigen, planck's_constant, treble_clef, bit, hers, soccer, printing, ricketts, western, zoarchaeologist, wolf_hook, brandisht, s_bomb, q, o's, wwwww, b.b.a, herpeto, ties, stinko, bynempt, pencil, antigone, oötidogenesis, c_shaped, es, billion, information_services_and_technology, fatosphere, marinobufagin, convention, blood, memosphere, vegas, black, dunzo, thing, raguileo_alphabet, speed_of_light, you, eclipst, storativity, ambusht, tween, relaxing, sulesomab, twas, and_so_on, anothergates, omer, stock_symbol, awk, t, irc, drop_d, aeronautical_jargon, reporting, sulfur, dismist, st, besought, cancer, d’s, uranoso, genitive_case, wynn, tcl, nfc, spearsman, nnw, d100, base, sxsw, n, cocaine, danc’t, peripherovascular, work, bronx, witness, parkins, valor, do_dièse, celestial_body, mathmo, disestablisht, r_rated, h_beam, belgium, hunter's_moon, hib, women, anguisht, ratings, toy, spliceosome, embost, blusht, electrical_resistance, magneto, unsupported_titles_c_sharp, infix, enforc’t, the, accounts_receivable, tibeto, string, canadian_dollar, deuterium, gangster, phm.b, dextro, plantsperson, muography, baulk_line, it's, accurst, t_square, acceleration_of_gravity, programming_language, expertise, comprest, trailer, ataxia_telangiectasia, g_major, denounc’t, psepho, empathogen, zf, philo, liter, builder's_mug, b_movie, hin, b.tech, zounds, dialect, d_sharp, movie, drest, pneumono, symbol_for_hydrogen, c_channel, are, tees, introverted, aspirated_h, l, annodated, r, working_leg, rex, person, b.lit, scanno, zero_g, british, semivowel, cat_o_nine_tails, coeno, demolisht, gravitational_constant, forwards, anxio, lead, shambolic, pinfall, czechoslovakian, third_letter_of_alphabet, over, kudo, died, general, medial_s, ashoka, glosso, attendance, signor, modius, lino, ephah, o_canada, statesman, morpheme, g_sharp, deckt, let's, lev, daunc’t, high_level, open, okay, gs, stage, th, babs, t_pose, cmos, deoxyguanosine_monophosphate, tritium, emission_theory, have, b_side, düsseldorf, cue_ball, ws, clipt, i, aircraft, b.s, equivalent, corner_tooth, b.e, hors_categorie, king's_man, baseball, t_stop, ge, fortran, cetera, physics, begat, flatulogenic, w5, excrescence, pound, kuh, f, atta, dislik’t, d_s, taula, m, supercee, scampsman, python, denmark</t>
   </si>
   <si>
     <t>deer</t>
@@ -349,488 +343,221 @@
     <t>horse</t>
   </si>
   <si>
-    <t xml:space="preserve">bimedian, plus_minus_sign, supermodular, subtree, generatrix, anallagmatic, triaugmented, bidiagonal, power_of, finitism, tame, generalization, polyiamond, tractrix, trilogarithm, projection, coanalytic, james_clerk_maxwell, homaloid, eigenspectrum, formal_power_series, please_excuse_my_dear_aunt_sally, compact_space, superlogarithm, trapezian, parametric_equation, incidence, intersection, trihexagonal, equimultiple, rectilinear, semiaxis, norm, supermembrane, cuboctahedron, binormal, fixed_set, apodization, subbase, overorder, bimetric, fractal_geometry, algorithmics, dual, new_math, normal_form, groud, spherical_harmonics, elementary_geometry, polyhedron, pencil, fuzzification, cross_section, affinized, johnson_solid, complex, apothem, hyp, dihedron, equilateral_triangle, quasiperiodic, cubefree, linear_pair, accent_mark, bialgebroid, subcollection, leafspace, primitive_root, boundary_term, angular_defect, syzygy, limit, bialgebra, dirigent, properness, quadratic_form, computus, amphihexahedron, conocuneus, binode, stellated, mountainslope, power_center, subduple, metabelian, prime_decomposition, polytopal, mathematics_c, reweighted, aeronautics, decadic, speed, tacnode, exradius, classroom, sinical, submersion, equiprobable, cologarithm, pseudospectral, homological, biquadrate, version, polynema, superseparability, bigraph, mediatrix, nilmanifold, interpolate, cliff, calculating_circumference, metricity, desargues_configuration, maplet, topologized, logarithm, differentiate, cardinal_number, hexacosichoron, gradian, first_passage_time, axiom, connected, radix_point, conic_section, reflection, cocircularity, ellipsis, bicategorical, line_of_apsides, maximal, rediagonalize, strong, involute, trigonometric_series, semiprime, pathological, jacques_charles, backgammon, subacute, pandigital, chirality, gyrorotation, transflection, equicontinuous, supermeasure, exponential, eigenproblem, radius_vector, tiling, filter, hyperdiffusion, orthoradial, pronic, zero_matrix, solve, integerness, mathematical_process, ith, de_morgan's_law, positone, zeta_function, polynomial, orthant, semigroup, triamond, unknottedness, apolar, mathematical_logic, quantic, hyperelliptic, hedron, cubic_curve, cochain_complex, additive_inverse, quasipotential, complex_analysis, functional_analysis, malfatti_circle, art_gallery_problem, homothecy, measure_theory, wavelet, capacitated, adjacent_angle, morphism, figural, polylogarithm, mapping, matroidal, reflexivity, canonical_form, clarithmetic, sublinear, enneagon, square_circle, information_theory, eccentric, holomorphy, radio, countably, conus, null, parallelotope, lp, invariance, ternary, parallel_postulate, surface_area, coring, normal, sieve_of_eratosthenes, circumference, ordinate, affine_space, newform, nonmatrix, categorical_product, pentomino, numerical_analysis, rheometry, geometrylike, boron_tree, associahedron, disjoint_union, semicircle, square_pyramid, orthonormalization, unary, quadrivariate, iatromathematics, hexlet, superellipse, basin_of_attraction, semilattice, semisimple, nonisomorphically, part, cocircular, filf, achronality, rotation, without_loss_of_generality, lean, horodisk, underbound, number_line, trilobite, lexicographic_order, anisotropic, factorable, x_ray_diffraction, retraction, eigenhead, partial_derivative, shearlike, summable, golden_ratio, one, lowest_common_multiple, cyclic_inscriptable, zonohedron, integral_equation, addend, pentacron, subspace, logocyclic_curve, net, line_segment, hyperbolic_sector, minus_plus_sign, projectability, pentakis, op, biholomorphic, backscatter, cyclotomic, bounded_function, damping_ratio, tricorn, eigenvariety, semiregular_tessellation, differentially, semidirect, pentadecimal, conversion, cointegration, tent, hexagonal_prism, dirac_delta_function, principal_ultrafilter, composite_function, osculator, leavable, dromion, point_at_infinity, k_adic, board, pseudo_edge, extremum, regular_open, orbifolding, null_set, domatic, useful_in_business, mantissa, covering_space, pseudotriangle, even_function, capping, primeness, biregular, grandi's_series, disconnected, nomogram, caustic, catalan_number, approximand, isospectral, radiant, nonomino, connectance, monodromic, central_angle, monic, tessellate, smooth, power_function, abstract_algebra, sexy, equinumerous, conics, n_dimensional, star, coproduct, tridigital, adjointable, inclusion_function, convexified, hyperbolic_function, aboslute, inscribe, n_omino, directly_proportional, coin, superdevelopment, contralaterality, noncardinal, hyperdeficient, half_integer, sumset, pentakis_dodecahedron, affinor, single_valued, thomas_carlyle, regular_continued_fraction, geometrogenesis, hexakis, trace, ring, derangement, summation, microarcsecond, chiliagon, inhabited, from, frobenius, strictly_increasing_function, coalgebraic, superformula, quadrantal, radius, classifying_space, abelian_algebra, horocycle, hard_science, plane_angle, characteristic, triacontagon, cyclic_quadrilateral, minute, monotony, second_order, polyhedral, floor_function, signum_function, ramifiable, binomial_series, mansard_roof, subtracting, simplified_expression, homaloidal, tetragon, diagram, pentacube, laplace_transform, brahmagupta's_formula, intuitionistic, dodecagon, bilinear, if_and_only_if, modulo, inversion_pair, minimization, language_of_nature, unit_function, divergent_series, cartesian_product, attack, sphenomegacorona, orthomodular, mathemaku, trope, crunode, nondifferentiable, copoint, corner_solution, poissonian, semispace, tractable, spinode, idempotent, interpenetrative, pyritohedral, multigrid, lcm, trimery, floor, quadrature, n_ary, cauchy_problem, continuant, bomdas, knottedness, manipulative, subconical, covertex, antiunitary, leaf, cofinite, tractricoid, rounded, residuosity, expansivity, sexy_prime, poloid, cross_multiplication, scalene_triangle, infimum, compactify, hyperarithmetic, relatively_prime, gibbs_phenomenon, gyro, absolute_term, first_order, asymptotic_analysis, multideterminantal, angle_bracket, kite, stereoelectronics, polyharmonic, linearoid, chaology, cant, flat_space, hyperellipsoid, disphenoid, astroid, true_lover's_knot, algebraist, equivariant, noncototient, tore, cyclometry, metric_tensor, formalism, middle, binary_function, antiphase, eikonalized, sedenion, superreal, adding_subtracting, polynomic, hull, superscript, sublemma, termgraph, peak, generic, supergauge, nonperturbative, mathematical_space, irrational, pseudoradical, semifield, fish, term, biinfinite, piecewise, adicity, biconjugate, polystick, nonsimple, nappe, real_valued, holomorphicity, resultant, embedding, circle_of_antisimilitude, euler_line, bispectrum, interprime, algebra_geometry, dimensionality, distribution, nonsimply, evenly, uniformize, proposition, branch, logistic_function, crown, vertex_figure, semiparametric, go, pointwise, curve, homothety, regular_closed, zero, numeric, spline, permutohedron, algebroid, travel, radian, affinity, turning_number, cancellative, theorem, subsurface, comeasurable, constant, aperiodic, approximant, lp_space, setlike, degenerate_conic, eigenvariable, comonoid, 4_polytope, integrally, disassortative, subword, hyperfunction, genetics, game_theoretical, majorant, baseline, synergetics, obtuse_triangle, subresultant, antiautomorphism, hyperscalar, hand, antifundamental, lorentz_group, anders_celsius, stereotomy, angle, septic, sinusoidal, nonzero, enneahedral, equinumerosity, number_cruncher, posetal, orbit, pentamery, structure, epsilontic, quadrate, hyperbolic_polynomial, function_value, evector, nonstiff, accidental, coevent, sort, modulus, small_worldness, quasireversibility, grass, cogredient, epigraph, discrete_mathematics, harmonic_series, hyperbolic_angle, form_factor, four_vector, subtend, semialgebraic, base, paracompact, open_rectangle, study_of_shapes, grothendieck_universe, additive, sparsify, antipersistent, maximum, synclastic, sphenic_number, pyritohedron, bessel_function, numbers, permute, subterm, quasilinear, rod, preconditioner, pentagon, tomahawk, orthoplex, hypercell, rhombic_dodecahedron, lemmatically, regular_prime, laplacian, acute, subtense, periodogram, proper, isohedral, rounding, trigonometric_cofunction, octahedron, infinite, gon, uniform, coterminal, biparavector, polynomial_time, decreasing_function, arg, exponential_equation, self_dual, prospectivity, ophthalmogeometry, parallelizability, center, cotton, gyrotranslation, tromino, gyrocentroid, undefined, stellation, monsky's_theorem, isotomic, superseparable, compactum, foliate_curve, rbf, number_theorist, hyperbolic_plane, diffeomorphic, polyalgorithm, coaugmentation, diffeomorphism, bicorn, transition_matrix, addition_subtraction, superposition_principle, spacelike, coquaternion, residue, snub_dodecahedron, equivalence, common_multiple, determinacy, bicrossproduct, centroid, category, divergent, parallelepipedal, atoroidal, symmetric_function, jacobi_identity, mlse, construct, iterate, treespace, sextantal, dimension, epicycle, exponential_function, image, exponential_growth, wavenumber, parenthesis, f.g, locale, inclined, cofactor, calculations, parallelepiped, abbreviate, diverge, eigenequation, fourgon, monotonic, frequently, truth_function, anticommutation, periodic, comparable, adele, parallel, bis, relative, superellipsoid, conjugate_angles, vector_field, string, hyperdeterminant, mountain, subbag, rice, bodmas, lognormal, octonion, moniamond, tail, spherical_geometry, representation_theory, central_limit_theorem, generate, quadrable, multivariate, absolute_value, extrapolate, tesseral, tissot's_indicatrix, piecewise_linear, bitruncated, definition, inertial_space, calculator, comparison, kumon_method, glome, isoperimetric, linear_equation, diamond, quasiconvex, magnitude, ultraproduct, conformality, slide, automorphy, scalar_field, flype, odd_number, australia, size_theory, pauli_matrix, angular, duplation, one_form, punctual, transactional_analysis, self_affinity, possibilistic, multimodality, hyperbolic_cosine, additive_operation, abelian, hero_of_alexandria, geometrography, one_start, microtile, pole, page, reasoning, zenzizenzic, circle_segment, biordinal, intersect, hendecagon, mass_function, snub, concurrent, squashable, roulette, calculation, extract, so_called, geometricity, facultative, lerp, line_of_centers, polygonness, tetracuspid, domain_theory, alternate_angles, evaluation, nine_point_circle, angled, hessian, csc, piece, hosohedron, ramification, monograde, second, obvious_by_inspection, hyperball, sd, bichromatic, nonfuzzy, slope_field, eigenphase, quincunx, stochastic_process, nonconformally, kill, ground_set, natural_function, dividable, interjoin, real_number, antiset, rectangular_number, biharmonic, window, euclidean, antiprismatic, co_ordinate_axis, allometric, eigensolution, sphere, hyperbola, hypocycloid, zero_vector, gaussian, graph_theoretical, eckardt_point, dot, taxicab_distance, associate, crunodal, group, infinitesimal_analysis, microgeometry, quadratic_integer, superconnection, dodecadodecahedron, common_antilog, value, centroscopy, vanish, polymath, half_space, citizen, metrization, faciend, round_angle, homomorphically, pauli_vector, overlap, hypergroup, ill_defined, nonprime, dynamic_programming, supercommutative, univariate, spirallikeness, grassmannian, isocline, projectivization, irregular_prism, dendrimer, trapdoor_function, exinscribed, subgrid, transposition, pseudoprime, geometric, laplace_operator, bell_curve, decycling, semi_decidability, zetetics, thalesian, pcp, trihedron, cylinder, nonagon, quasiharmonic, effective, quintate, superficies, antisymmetrization, calculus, scalar, cyclometric, roc, tetraspace, descriptive_geometry, flecnode, phase, wwwww, monodendron, factorion, quadrant, grothendieck_group, overprime, spread, theory_of_games, sexual, antipersistence, system, polygenic, diagonalizable, reachable, operadic, pseudoconcave, amalgamate, hyperoctahedral, call_graph, johari_window, hexadecagon, transformally, simplices, injective, antikink, antimatroid, bitangential, apex, subcubic, del, standardized_variable, subsolution, einstein_space, functional, lowest_common_denominator, cut, ireland, reductio_ad_absurdum, nonhyperbolic, logistic_curve, number_ray, equianharmonic, simplexity, spherical_excess, conjugate, submatrix, helicoid, projective_plane, superstatistics, wave_vector, real_function, principle, four, zenoness, superadditive, sexangle, radical_center, signature, centre_of_mass, repellor, reweight, z_transform, adjoin, biclustering, quasicontinuous, gyroangle, superalgebra, oliver_heaviside, graph_theoretic, tamari_lattice, hebesphenomegacorona, lemniscate, unranking, bornological, spherical, resplendent, coxeter_dynkin_diagram, sidelength, anharmonic, profinite, asymptotic, hexagonal, tetrad, zero_dimensional, equiaffine, mle, recursive_definition, hemiellipse, trispectrum, real_axis, deficiency, lens, stuff, ratelessly, oxygon, galois_theory, stochastics, mark, hamiltonian, do_math, chain_complex, explementary, nephroid, discrete_fourier_transform, coefficientwise, additive_group, differential_topology, closed_form, synthetic_division, smooth_function, symmorphic, digon, trinitrocresol, lemma, algorithmic, analysis_situs, supertransformation, convolve, cyclidic, analysis, laparo, homocentric, focus, superization, adj, multilobe, dihedral_angle, paracentric, pyramidal_number, pemdas, symplectomorphism, antitrigonometric_function, graph_theory, rank, ansatz, self_adjoint, rectangle, reducible, euclidean_distance, alhazen, commutative_algebra, excircle, monotonicity, ultrafinitism, persistent, equicrescent, rederive, alternativity, semilune, idele, multivalued, projective, taken, econometrician, round, rhombitruncated_icosidodecahedron, geometry, nonlinear, analytic_geometry, wa, levi_graph, mathematics, instrument, zone, subsequence, tangent, coaction, n_space, covariantize, folium, subrange, mathml, archimedean_spiral, divergence, eilenberg_maclane_space, manifoldness, evangelista_torricelli, conoid, comtrace, j, icosihenagon, symmetry, k_adic_notation, calculating_area, obtuse_angled, generant, supersmooth, love, dirichlet_eta_function, maxitive, reduction, hyperjump, congruence, isoptic, bidiagonalization, riemannian_geometry, semicontinuity, change, bistochastic, rep_tile, adelically, subunitary, hyperspace, quasi_invariant, coxeter_diagram, supergeometry, transvection, instantaneous_velocity, separatrix, cancellation, vorticity, partial_differential, domain, antisymmetrizing, related, horseshoe_map, semimean, regular_black_hole, main, random_function, squircle, operator, quinquesect, supertranslation, pythagorean_quadruple, lower_extreme, nonodd, set_theoretic, orbiform, intensionality, fiberwise, dual_polyhedron, box, beautiful, act, lineoid, antilinear, elliptization, verification, incommensurable, numeracy, defuzzification, superexponential, us, superposability, cline, persymmetry, regular_function, covariantization, pleuro, factorial, derivation, multiplicative_operation, zero_one_law, geocentric_coordinate_time, bifundamental, semiparabola, kelvin_function, centrosymmetry, congruency, connected_space, complex_plane, transpose_conjugate, orthogon, claude_shannon, airy_equation, laplace, cusp, trick, duotensorial, course, lightlike, orthocenter, common_antilogarithm, novelty_theory, resplendency, prism, antilogarithm, multifractal, incongruent, hexatetrahedron, geometric_mean, oblong_number, terminating, hyperspatial, glider_gun, polar_equation, quadric, locally_finite, multenion, hyperreal, geometry_shader, biholomorphism, macrogeometry, linearization, curlicue_fractal, gaze, channel, penalty_function, primality, local_maximum, scalefree, apollonian_gasket, polyhe, deviatoric, categorify, specialization, supertorus, hermitian, polar, degenerate, quadratic_function, epsilontics, semiangle, square_matrix, skin, sociotemporal, orthonormal, cumulant, oblique_line, bedmas, operatorial, bimodule, icosasphere, scalenohedron, cremona_richmond_configuration, astrogeometry, gamma, conjugation, reason, formal_science, twin_prime, contour_integral, coquaternionic, integrodifferential, agonic, pentatope, automorphic, commensurizer, vector_function, concentric, category_theory, trinominal, phi, sail_curve, straight_line, radical_line, recurrence_relation, fourier_series, law, injection, cuboid, polycube, beamspace, random_walker, nonmanifold, intersphere, deficient, acute_triangle, angle_bisector, submonoid, semiminor, keith_number, zero_order_hold, perimeter, heptakis, stationary_point, chi_square_test, non_negative, plane_geometry, gudermannian, zonotopic, identity_function, nonprimitive, sequence, superpolynomial, homogeneous_polynomial, trident, function, morita_equivalence, inflection_point, superpose, semiconjugate, numbers_equations, biorthogonal, incircle, square_root, analytic, conchoidal, continuum, polygonization, elliptic_geometry, constraint, pi, minoration, support, city, data_smoothing, anticlastic, octomino, physics, multilinear, scaling, quasilocal, cross_ratio, euclidean_group, concordant, polygonize, factorise, mathlete, non_euclidean_geometry, directrix, positive_recurrent, chronogeometry, semilogarithmic, trapeze, nullipotent, semicontinuous, taxicab_geometry, inflection, computer, cyclic, truncation, normed_vector_space, dct, polytan, nonconstructive, english, generating_function, unital, quadrangulation, subexpression, archimedean_solid, infinite_continued_fraction, cross_polytope, peakon, deconvolution, exceptional, unbinned, truncated_cube, cocommutative, disjunction, noncuple, alhazen's_problem, plücker_coordinate, sesquialterate, monotonic_increasing, differential, inscribed_circle, graph, fixed_point, differential_geometry, harmonic_function, polynomiography, pentachoron, bitangent, midpoint, nontotient, rational_function, semidecidability, team, convergent, solid_torus, complement, superparticular, circulant, bielliptic, uncolorability, reflex_angle, hypermatrix, gcd, kronecker_delta, left_inverse, dedekind_cut, hypertensor, halfspace, prime_constellation, orthonormality, edgepath, logicism, quasisplit, define, groupoidal, median, nonidentity, linear_algebra, distribution_function, phasor, implicit_function, have, module, asymptotics, body, math_class, way, honeycomb, cyclotomy, heptahedron, quadrisecant, real, pointless_topology, multicategory, bidirected, rose, projective_geometry, nonvanishing, multibody, apodize, describe, arccosh, antihyperbolic_function, unit_interval, undercomplete, toset, grad, convex, antimonotone, quasivariety, keplerate, trivariate, tombstone, eutactic, segment, anisotomic, undegenerate, port, semilinear, polykay, logarithmic_trigonometric_function, equivalent, comparable_function, different, symplectic, generation, chain, recursive, calculate, generic_property, hyperrectangle, heaviside_unit_function, face, round_off, eigenbasis, decigrade, superegg, cospectral, record, instanton, dms, morley_triangle, ipsilaterality, trapezium, tracial, hemiaplasia, scheme_theory, deg, rose_curve, bar, noncommutativity, comparability, quadrivium, isogonal, cap, polyacron, hyperinteger, entscheidungsproblem, sawtooth_wave, toolpath, unit, upper_quartile, subproposition, fuzzify, deltoidal_icositetrahedron, snake, structuralism, ship, anticommutator, snark, euclidian_space, octadecagon, floydian, line_of_striction, sdr, underrelax, zeroary, nonnull, minor, branching_process, symmedian, semiregular, countable, jacob's_ladder, divisibility_sequence, polymatroid, tetrakis_hexahedron, ometry, finite_element, supershape, hertzian, cardinality, cointegrated, scalar_curl, type, co, rateless, corepresentation, quasidisorder, polymodality, bialtitude, knotting, random, geocomplexity, game, multinomial, parallelohedron, subequal, hypergraph, erosion, hemiequilateral, involution, nonsingleton, circle, sphericon, superintegrable, penteract, step_function, pentacontagon, free, average, subdigraph, perturb, sethood, acoptic, arithmetic_progression, first_normal_form, geography, riemann_space, subtangent, antiperiodic, subsphere, geometry_of_numbers, skew, subgradient, bisector, balayage, nose, prime, heapable, eliminate, spire, horospherical, gnomon, icosagon, dense_in_itself, bisect, coding_theory, band, rpd, lower_set, matric, nonparametric, transitivity, bank, alternate, superuniversal, like, figure, tetracontagon, pseudotensor, antisymmetrical, dioperad, aggregate, orthobicupola, metric_space, transform, hairy_ball_theorem, schläfli_symbol, circular_arc, cylindroid, conjoin, ruled, superatomic, subposet, degree_of_freedom, irregular_prime, persymmetric, hexeract, axis, semimeridian, complex_differentiable, bisymmetry, enneract, definite_integral, homothetic, emmy_noether, large, rule, cofunction, fibonacci_spiral, antimedial, rw, macdonald_polynomial, commutativity, sound, steradian, pointclass, altitude, ergodic, pseudoduality, supermodule, cycle_chord, commensurable, arithmetization, regular_polygon, isotropy, scotland, maximization, one_on_one, travelling_salesman_problem, frequentist, stereogeometry, antilogarithmic, octant, laplace_plane, right_angle, isotrivial, zeno, equidecomposability, major_axis, composition, superfactorial, subface, axial_point, math_subject, paraboloid, point, sublattice, plesiohedron, formal, obtuse_angled_triangle, mod, singularity, retrosnub, hemiellipsoid, parameter, logit, five_lemma, corner, epicycloid, subconvexity, cell, flex, hyperradius, closure, curvilinead, trapezoid, scientific_notation, azygetic, progression, sub_gaussian, checksum, iso, cryptomorphism, elliptic_function, difference_quotient, fundamental_theorem, seminormality, icositetrahedron, evolute, direct_product, integral_transform, wallcrossing, nonpositive, strictly_decreasing_function, sequent_calculus, set_theory, coassociative, halfwave, subcardioid, subcone, computational_chemistry, congruent, beknottedness, octeract, abelianization, detailed_balance, polytope, historical, bag, grade, acute_angle, strict_ordering, salinon, preexponential, harmonic_mean, duad, projectivity, undecagon, primitive_recursive, polytrope, metacube, mathematical_analysis, polar_coordinates, frey_curve, supertrace, apeirogon, critical_point, discontinuous, combinatorial_commutative_algebra, bisymmetric, geometricize, uncertainty, hypercube, septangle, deduction, mathematese, probabilistic, bridgeness, nonconcordant, subsequential, one_of, hyperoperation, transversal, mereotopology, ball_game, measure, centre_of_curvature, increasing_function, extreme_point, concave_envelope, sagitta, natural_log, farm, convergence, kronecker_product, composite, geometrization, monogon, swim, coaxial, denumerable, number, antiparallelly, triangle, deterministic, traverse, arithmetic, quasiconcave, crunch, decakis, enneagonal, applicate, terminate, root_mean_square, oblongum, tesseract, alternately, fluent, golygon, discretize, verging, noneuclidean_geometry, sector, plane, holed_torus, polykite, common_denominator, diophantine_geometry, entrywise, unimodular, golden_spiral, dress, geodesic, complex_number, common_difference, poisson, total_function, bigenus, hyperfinite, nonordinal, affine_group, orthotomy, topology, subnormal, together, underrelaxation, complementary_angles, polydrafter, accident, basepoint, logicomathematical, smart, hemisymptom, summability, friend, solvmanifold, procyclic, octacube, semipositone, posology, perpendicular, probability_mass_function, precisely_unless, ultrafilter, overrelax, orthotope, language_of_god, uncolorable, quantion, anchor_ring, convexification, oblique_angle, bifurcation_theory, semimajor_axis, collinear, nascent, timelike, not_function, rationalization, geometric_progression, sesquitertian, semiparabolic, irregular, longer_version, departure, space_centrode, arithmetic_geometry, acalculiac, pigeonhole_principle, probability_measure, cyclohedron, absolute_geometry, antisymmetrize, heptadecagon, pseudodifferential_operator, parabolic, subproof, determinantal, nonsqueezing, hexiamond, number_theoretic_function, rangebased, uk, on, quarter, inradius, penalty_copy, nonvoid, poisson_process, well_ordering, ellipticity, subbasis, unity, polygonhood, polychoron, blood, indeterminate, superlinear, function_table, octavate, mathematical_economics, euclidean_geometry, coordinate, subpolynomial, multiplicative, apeirohedron, proth_number, ulp, totally_disconnected, local, john_venn, pythagorean_triple, trisector, inversely_proportional, pleurodynia, build_better_gun, eigencoefficient, algebraic_geometry, supercompact, nonselfadjoint, nonnegatively, belinkedness, discontinuity, metamathematical, dilogarithm, metry, eigencurve, onto, knot, fibonacci_number, s_plane, triexponential, line, rectangular_hyperbola, equiregular, laplace's_equation, monadic, recursion, hyperbolic_space, gunter's_scale, scroll, amphichiral, affine, identical, lituus, wedge, probability_theory, fluorophobic, unary_function, equiaffinity, hypersphere, vector_algebra, superexponentiation, cubed, torsor, difference_equation, codimension, pre_hilbert_space, edge, pythagorean_triangle, direct, presented, tridecagonal, graph_state, codomain, turn, rectification, subtraction, entity, shape, antisymmetrized, calculating_radius, lumpability, vectorial, scalene, topological, variable, mode, lateralism, quindecagonal, flat, exeter_point, open, trinomial, tri, gyroparallelogram, tqft, decimal_without_zero, randomized_algorithm, unode, ramsey's_theorem, number_language, pseudocodeword, inverse_trigonometric_function, square, hillclimbing, correlogram, decategorification, lower_bound, relation, pseudocubic, be, perforation, unipotent, infix_notation, biprism, non_null_persistent, projectable, unlesss, chainette, cartesian_space, radical_plane, oloid, trihedral, cochain, confluent, semigroud, abbreviation, quasiconformal, bimaximal, nonproper, hadwiger's_theorem, parity, let_be, linearizable, equilaterality, counion, polyform, triquadrantal, tetrakis, logarithmic_spiral, roll, subshift, hyperbolic_sine, hepteract, rhombus, probability_space, rotopulsator, orbispace, affix, orthochronous, lissajous_curve, ceiling_function, school, transpose, principal_part, fleflecnode, arxiv, antifield, pyramidalized, topic, improper_integral, posedness, exponentiation, truncation_error, wavefield, interior_point, ssa, supplement, isocapacitary, ramsey_theory, triomino, prismoid, pretzelosity, benoit_mandelbrot, pomset, affinization, multinumber, irrep, chord, homogenous_polynomial, uneven, locus, system_of_equations, bidegree, clipmapping, 8_cell, nlp, hexoctahedron, spheroform, mathematical_relation, gauge, sextic, amblygon, game_theory, redex, rhombihexahedron, unit_hyperbola, osculating, arbelos, node, graph_theoretically, indeterminant, equidissectable, homography, inflectional, ice_fractal, inner_product_space, open_book, hypograph, field_axiom, euclid's_postulate, supercatenoid, semiautomaton, arclength, polysquare, rectangular_coordinates, word_problem, brachistochrone, isoperimetry, meridian, critical_function, toroid, catacaustic, rampant, fuzzy_logic, extremal, slinky, subfactorial, epsilon, parallelizable, cogroup, osculation, wellsean, turing_computable_function, anticommuting, helmholtz_function, half_plane, integer_factorization, ultradiscretizing, minus_sign, reachability, evectant, supremal, oscnode, lévy_flight, supertransform, semilocal, subbundle, for_all, flag, lagrangian_function, cartesian_plane, isography, euler's_identity, confounder, variadic, siegel_zero, holyhedron, ultralocal, hypercritical_point, space_curve, transcendental_number, lectically, rate, ary, front, facet, b.math, möbius_transformation, gradient, rooted, kepler_solid, ics, algebraic_number_theory, exceptional_space, isomorphic, loxodrome, prime_factorization, practical_number, monte_carlo_method, integraph, riemann, heegner_point, orthogonal, resummation, directed_infinity, unit_vector, nonconnected, even_number, nonnegative, homogeneous_function, hyperdiffusive, bicriterion, algebraic, straight, cogebra, pentagonal_prism, bihamiltonian, equal, quaternion, lemoine_hexagon, mathematical_sociology, endomorphism, pseudoinverse, pedal_curve, dipyramid, indecomposability, hyperellipse, unit_circle, immersion, blockwise, argumentless, multisymplectic, distinguished, granocentric, subrepresentation, queensland, ceil, refactorable, bracket, length, bouquet, hyperreal_number, complete_angle, factorizable, octogram, equidecomposable, comonad, open_book_decomposition, bicircular, small, divine_proportion, desmic, bouquet_of_circles, satisfiability, clinometer, cofibration, isomonodromic, boolean_logic, polyplet, intuitionistic_logic, klein_bottle, evaluate, simple_harmonic_motion, fuchsian_group, yellis, hermitize, lie_algebra, distribute, kaprekar_number, spiral_of_archimedes, constant_function, bean_curve, theta, helix, orthoplexes, connectivity, superlinearity, gyrodiagonal, theoretical_probability, big_o_notation, uncountable, cepstrum, sigma, present, mean, corollary, full_circle, graph_antihole, axiomless, n_iamond, allegory, waveform, orthoplices, right_angled_triangle, midsphere, trigonometric, modular, chaotic, matrix, kth, well_defined, monomino, partition_function, brutalism, comodule, irreducible, jsr, pyramidoid, ellipse, polylog, curvature, odd, motor_variable, many_to_many, algebra, clino, covector, supersingular, e, finite_dimensional, coordinatization, erdős_number, parabola, tractory, sequentiality, unconstrainted, saw_tooth, actus, semistrict, divide, adic, polysaturated, ellipsoidal, tailedness, eventually, bimedial, faithful, john_von_neumann, discriminant, polyangle, null_recurrence, distance_function, archimedean_ordered_field, surjective, tautochronous, antiholomorphic, hyperstructure, strange_attractor, heptagrid, calculating_degrees, mesologarithm, cubic_equation, assortativity, partition_of_unity, jump, acg, regular_grid, semianalytic, almost_all, logarithmic_function, longer, rolle's_theorem, pseudospherical, polyhex, nonfunction, topological_group, orthoptic, algebraical, multialgebra, monotonically, invex, degree, wild, trochoid, obtuse, homogenous_function, similar, convolution, figurework, euclidean_space, enneagram, quartic_function, extensionality, semiarc, lerf, translationary, location, glider, refactorization, great_circle, aperture, gerbe, indicatrix, array, quartal, goniometer, voxel, division_sign, subtriplicate, gauss_map, time_independent, superjump, mandelbrot_set, quasipolynomial, paravector, malnormality, multigraph, niels_henrik_abel, music_room, play, osculate, hyperplane, primitive, semitangent, halving, right_angled, triality, submultialgebra, weakening, hilbert_curve, cantellation, polyfrob, cohesion, bicharacteristic, ideal, zeuthen_segre_invariant, mediant, immerse, hyperscaling, geometrician, bifurcation, paracomplex, simple_fraction, truncated_icosahedron, parallelogram, cutset, semimartingale, contingence, operation, tfae, metaplectic, university, centrosymmetric, reptation, homotopical, octonionics, dx, character, stationary_distribution, eccentricity, canonical_formalism, orthotomic, hyperfactorial, tomset, color, state, radius_of_curvature, open_half_space, decomino, conformal_mapping, plane_curve, truncated_cuboctahedron, subforest, residuated, estimator, sidehill, augmented_sphenocorona, premetric, homoeoid, polyomino, geometrist, crt, section, rationalize, bourbakism, binarize, steinmetz_solid, noncomputable, factorization, suffix, subscript, quasiidentity, fitness_model, quadratrix, stepsize, supercircle, choron, sedenionic, hypergroupoid, hexadecachoron, antispace, coth, martingale, level, arithmetical, 24_cell, delta, smallest_common_multiples, scalar_multiplication, aberrancy, defuzzify, coframe, spherocylinder, conchoid, approximable, circumcenter, pierre_de_fermat, physicomathematics, nonagram, porime, negligible_set, rigidification, precongruence, quasitoric, mansard, expansive, indefinite, mathematician, polynome, trivial, heptagon, hendecagonal, inside, mathematicalism, applied_mathematics, icositetragon, addition, significant_digit, complex_fraction, injectivity, polygonality, logic, isochrone, antiparallel, crystallogeometrical, antipole, subplane, orthocomplemented, coinverse, interior_angle, universal_property, eigengap, treelength, pseudomathematics, ergodic_theory, binomial_theorem, normality, diagram_chasing, restrict, outcome_variable, quism, simple_continued_fraction, hyperkähler, n_dimensional_space, stress_function, semiperimeter, polycell, absolutely_convergent, coend, great_rhombicuboctahedron, rounded_down, boolean_algebra, obround, random_walk, inapproximable, superalgebraic, non_strict, golyhedron, domain_of_convergence, </t>
-  </si>
-  <si>
-    <t>frequent_flier, focus, press, slag, big, rank, chin_music, door, crusher_gauge, scoop, judge, tuneage, aluminum, face_melter, fettler, pinheaded, pansy, front, party, heel, crowbar, cream, fan, seagull, vaginoid, taken, fail, round, touch, land, noisy, bullet, below, prosody, shin, table, instrument, electrical, wave, tune, hog, wired, tube, nasty, kicking, continue, neck, screw, wood, sergeant, quack, break, current, animal, h, mine, nicker, entry, question, roller, pants, p, bone, ts_girl, fireman, shoe, military, zipper, cave, place, kick_down, fodder, plant, reverse, change, pocket, buster, double, construction, congestion, ventilate, deal, formation, auditorium, salt, leak, grouping, case, lovatic, music, dig, water_of_crystallization, jig, fine, related, souped_up, hyphy, main, sail, compression, woodshed, speed, brick, coercion, lots, omnipotent, diff, internet, committee, release, make, ruff, fancy, cage, magnify, small, brokeback, box, pinhead, strain, act, acquire, fumble, grey, chink, stroke, past, dog, rush, moll, lay, us, spiro, blade, live, beat, acceleration, swab, putt, kickplate, range, simple, pipe, sports, lowball, flush, noise, cans, trick, boy, punch, course, escape, strike, snowdrop, kink, strong, hammer, racket, carry, split, bunk_off, pig, limp, metal_detector, phatness, stinger, hood, rock, rack, sub, cowgirl, draw, do, pump, channel, retrospectoscope, alive, medical_practitioner, beresque, smoke, kick, ear_rape, drill, stem, bork, bell, horse's_doovers, axe, embalming_fluid, file, other, effect, snooker, skin, dough, magnetism, full, computing, sick, lump, prang, word, available, three, titanic, sucker, chill, bikie, dime, weak, nuke, chicken, black, wind, tinned_dog, play_ponies, move, bumper, pone, bruise, weight_weenie, fight, lead, lock, cankle, gravity, high, passage, street, trump, doof, shitmobile, la, beach_break, gear, sundowner, jump, deacon, ankle_biter, invasive, botany, soap, paper, frail, depart, here, rapmeister, headlight, shredder, tom, can, weakness, law, pick, foo, pediatron, moronic, take, spurn, around, crowd, card, flutter, dogs, degree, close, general_term, cactus, caesar's_palace, step_to, equalizer, patrol, attenuate, monkey_metal, crumb, pan, roundabout, silk, office, motion, one, arm, peen, location, bilge, chocolate, kid, out, nut, rapacious, very, dynamometer, scale, clock, doing, scorchio, physics, ghetto_blaster, sweight, flight, jackhammer, stick, comes, pack, play, upstage, cutter, bus, typewriter, pass, computer, cissy, milk_of_amnesia, fields, snedge, mouthpiece, goer, ram, happen, mallcore, wasted, bridge, board, grain, shiny, jake_brake, scuffer, general, cod, sing, meet, people, cratedigger, wolf, cricket, gathering, crook, chief, wane, race, river, class, sandbox, stronghand, sharp, plug, metal, bush, smooth, polish, body_snatcher, tablespoon, brain, cut_up, pop, zoology, fl, kick_up_arse, forward, absolute_system, stomp, fiddle, rock_music, rank_and_file, state, noisemonger, area, beak, dope, spoonbending, government, coin, rub, sometimes, pair, nautical, nad, turn_over, jerk, eighty_eight, stack, condition, too, phat, root, spearchucker, breakbone, furry_muff, car, bikeporn, ring, put_out, run, work, no_wucking_furries, have, field, crit, body, kicker, way, fathom, kick_off, muscle, walking_gentleman, ableness, level, block, shake, pedrail, trotter, tripod, minute, loot, buttonhole, ankle, bashment, foot, object, proggy, foot_pound_second, acid, salmon, abg, kick_up, lap, dutch_hoe, horn, dynamism, army, might, truck_driver's_gear_change, rock_and_roll, v, twelve, jack, face, rosebud, driving, better, para, skeg, friction, influence, incarceritis, scrunge, clew, hardcore, die, kinematics, weed, attack, handle, blog, electricity, mashup, spark, bunch, thing, ninja, mouth, tack, tuck, family, use, bar, bent, chip, business, destroy, strength_might, chrome, chunder, cap, floor, bandy, broadway, royalty, abc, bust, squeeze_play, product, lance, profession, crocus, red_eye, torque, mile, well, dipper, magic, stab, steed, twist, pace, truck, sleep, unit, funktastic, bird_colonel, lick, compulsion, ship, membrane, horses, snapper, retropropulsion, crunkmeister, joystick, impetus, drum, mc, grinder, manhandle, fixing, mud_kicker, belly, tear_it_up, knob, stopper, pill, energy, chemical, rabiz, cant, digits, hippodrome, type, footslut, reliever, hong_kong_foot, casting_couch, softball, random, get_out, game, count, blech, soft, resistance, c, ebony, science, cue, cease, footsie, twenty, legal, evil, salvo, ball, carte_soleil, aviation, clown, fish, rope, term, road_iron, fly, craft, scut_monkey, pool, impetuously, ringnut, lac, surface, jingle, bedfordshire, egg, jake_leg, accelerate, compound, geography, litrebike, blackwash, charge, nose, dog_bone, idiot, self_existent, go, gas, loud, juggernaut, horseplay, bread, cowboy, fap, pad, organ, wheels, band, angel, travel, affinity, blooper, between, blocker, bank, kick_it, bet, like, finger, crawfish, tip, walking_lady, british, katycat, boris_bike, feel, dish, tabnab, fill, cylindroid, drive, spoon, romp, abe, end, elbow, human, physical_phenomenon, flipper, drop, shovel, wax, funky, go_ballistic, mad, brush, jam, large, cheez, normal_for_norfolk, liquid_laugh, rule, fencing, nard, herb, giving, hand, sound, truss, strap, angle, flk, butt, hygiene, flake, bud, violate, telltale, scotland, baseball, bands, gem, funkadelic, drop_kick, bottom, sad, attraction, walk, set, movement, pull, top, fool, assembly, hunk, tango, leg_it, bike, pit, stat, autogiro, grass, frame, objects, elemental, bop, point, back, space, gee, link, break_in, hit, pussy, formal, pfo, key, primary, vibe_out, chick, action, toy, gross, wire, jazz, opening, arse_end, creps, troll, distance, spinner, juicer, plastic, bugger, blooter, player, rod, spring, progress, two, safe, up, push, blow, dub, multicolour_yawn, nub, proper, chronic, cycle, magnet, contraction, single, northern_england, size, cupper, homes, fit, physical, hip, paddle, fade, chicken_colonel, going, trap, mount, propel, i_don't_fancy_yours, pull_off, ear, dis, include, log, bag, hold, grade, juice, bad, wanker, smash, crash, shoehorn, hole, punt, sprog, x, metric, difficult, hydrodynamic, pimp, electric, crumbly, unplugged, super, canal, lug, dicey, surgery, horse, underfoot, scope, rag, fall, kicked, forces, room, hambone, overpower, tired, belt, measure, iron, jungle_fever, shaft, notch, kernel, flare, broken, jungle, stretch, boot, whip, hack, bleeding, straddle, hardware, post, number, corporation, scut, tool, power, zebra, have_painters_in, football, input_arm, drama, crank, kinodynamic, paste, surprise, read, sleeve, quincy, backstop, subject, chin, duck, wail, mf, note, transfer, rockness, flash, ching, tag, cold, gap, dynamic, snap, maggot, weight, together, bite, crack, bleep, accident, raw, clip, scuff, eighth, crucial, target, pewter, push_bike, slip, event, equipollent, organization, pierce, shunt, moo, trainer, some, bougie, string, chassé, yoke, shred, prodge, diddle, magnetic, agony_box, lift, endo, under, plough, grip, burner, rest, mountain, supratentorial, tail, lunge, ivory, bend, scat, mode_of_production, boat, bitser, parakinesis, shot, standing, tin, spider, two_stroke, euboxic, fin, bit, shrinker, outside, wheel, squeeze, brakeforce, uk, quarter, gray, trip, buzzie, wrist, fascinoma, slide, damage, build, shank, put_boot_in, hellbox, arrow, altuve, blood, chassis, crapmobile, hand_solo, spaz_attack, shoop, ballkicker, lawn_job, norrie, rocket, pitch, shoot_boots, wick, local, pole, page, soft_boxing, poundal, crush, gig, white, violence, sailboat, balls, centripetal_force, medicine, stock, fly_kite, wear, offbeat, grunt, so, line, bed, brass, sky, walloper, toe, sock, jigger, pinheadedness, control, wedge, come, unbreakable, maneuver, lip, peep, kidney, piece, man, behind, hard, moving, stone, donk, chunk, barb, banger, ringhead, tackle, bid, leverage, turn, steel, hatch, winder, ten, chair, check, rat, stave, positive, many, nickel, flat, skip, tongue, lag, open, ace, banjo, sow, dial, group, eph, skronky, tea, show, jar, choogle, smelly, shoot, hive, square, person, mass, joint, jet, garden, pink, road, windpipe, jolly, thrust, inside_straight_draw, critical, tee_off, grice, power_bottom, pot, er, shuffle, sport, mixmaster, rail_transport, side, dodge, ox, strength, a, yard, mat, slang, games, keep, baller, jungalist, sticker, stamp, turnout, cook, adjective, half, mechanics, cunt_punt, solid, soup, resonance, perfuse, olds, scrape, kinit, tap, head, roll, down, kick_ass, series, kick_butt, score, stylee, bolt, wing, bang, rapophile, boost, lace, rocketamine, force, over, load, house_of_commons, gambling, gerbil, leg, cat, vamp, stage, drag, bollocks, road_warrior, peckhorn, durability, stink, dead, swedge, shine, brutal, air, saw, thimble, ecstasy, nudge, park, button, hypo, ad, crescendo, serial, hall, boom, step, taking, manipulate, force_play, off, lord, bluey, scratch, good, guns, inject, heeler, bear, cut, sole, dump, tear, interest, stress, promote, storm, hoof, spacer, girl, launch, dry_pot, vitamin_h, fong, history, staff, four, king, sweat, netherlands, switch, hop, screen, copper, video_game, hook, balloon, oliver, snake_oil, gather, heavy, cross, ken, abdomen, polo, lily, language, time, jaw, lower, saturation, transgress, appy, shoulder, push_button, plunk, collective, tosh, play_with_oneself, gamble, bounce, swell, document, van, butter, si, open_ended, leftpondia, audience, vehemence, poker, trip_out, stuff, when, cigarette, footer, cut_up_shines, propulsion, superior, let_fluffy_off_chain, pommie_wash, breakwater, gentle, direction, great, pluck, physically, stimulation, footfucker, sand, chaser, runner, get_around, motor, flimsy, heat, ac, chess, locomotive</t>
-  </si>
-  <si>
-    <t>there, start, big, door, detort, front, geometry, touch, counterclockwise, table, proprioception, mathematics, instrument, electrical, wave, dextrorotatory, contraversion, neck, screw, straight, current, animal, deflection, moral_compass, return, turnkey, feedback, claim, reverse, change, limit, whack, exchange, steer, devise, machine, introversion, news, corners, book, backflow, venue, know, main, ruff, make, sun, small, visit, act, stroke, pattern, lay, us, exproprioception, order, noise, backman, orientation, trick, boy, warp, course, clear, strike, castle, conscience, strong, dorsopleural, stocking, sideslip, do, favor, other, money, flip, computing, eye, hind, serpentine, stool, deviate, activity, measurement, reason, move, lead, street, turtle, normal, edges, call_on, take, part, around, store, caracole, shade, throw, cars, sequence, knife, dextroversion, right_left, office, motion, turned, location, sinistrodextral, epaulement, contrary, backaction, support, physics, righteous, shows, right_handed, preposition, determine, play, bigger, pass, five, general, people, cricket, crook, river, sharp, character, color, dextro, perfection, decision, forward, misderive, smell, area, askew, rub, nautical, aim, justly, backup, work, ability, body, obvert, torsion, shake, nonstandard, foot, discolor, port, rebel, face, driving, alarm, handle, attack, record, logic, mouth, chip, purple, opposite, row, pain, earth, decoration, twist, payment, leaf, rightways, reserve, skewback, change_by_reversal, recline, askance, thought, command, feeling, anchor, religion, circular, dorsolateral, clock_tower, canescent, forth, retention, game, middle, with, linebacker, complete, opinion, regret, legal, falsify, circle, slew, go_back, world, watch, righty, dextrally, hands, profile, nose, dexter, go, back_up, bat, stay, left_right, travel, bank, again, like, figure, british, feel, drive, season, dollar, large, right_hand, flop, wallet, hand, sound, chest, angle, introverted, sinistral, bottom, seed, remote, walk, backwards, top, movement, retreat, mining, back, point, gee, hit, key, canada, weave, action, dominance, corner, cornerback, nice, lose, strengthen, sight, scanno, deviation, two, nature, proper, common, rightfully, fear, going, ear, transmit, googly, fake, center, crash, backspace, spot, translate, everything, playing, turn_around, consulship, horse, distinctive, prone, rightie, trepopnea, measure, angles, introversive, look, bitter, rear, swim, tool, device, refuse, backhander, sideways, read, stand, counterfeit, inverse, cover, snap, hide, heaven, diagonal, heading, listen, position, dancing, rest, tail, backshot, rightly, about_face, lie, house, correctly, trend, wheel, diversion, uk, on, quarter, send, debt, arrow, pitch, page, gate, worn, translation, line, bed, float, preference, sock, piece, become, behind, retort, symbol, sensitivity, experience, reach, turn, steel, stance, chair, tortuous, finance, playing_games, future, garden, road, pot, sport, side, perspective, dextrad, slang, yard, half, retro, oscillate, desk, rightward, roll, head, down, counterwheel, description, whirl, wall, form, box_compass, wend, sundial, left, force, go_bad, usually, get, torso, air, leave, back_and_forth, left_handed, taking, off, lord, mouse, dextral, slap, backface, disorientation, switch, chemistry, memory, empire, in, brace, off_side, initial, backcast, bout, time, slotback, shoulder, bacon, make_right, signal, right, backside, far, poker, away, yes, verse, style, direction, operate, movable, keyhole, heat</t>
-  </si>
-  <si>
-    <t>lie_down, hospital, give_up, decompression_sickness, abomination, cholera, british, filth, vection, symptom, fever, drink, nausea, grim, healthy, eat_lunch, sickless, illness, people, morbid, throw_up, flu, patient, plant, nervous, smell, less, experience, indigestion, ssp, doctor, disgusting, motion_sickness, book, he, gastritis, music, cry, get_sick, tabu, biological, instantaneous, graduate, person, lay_down, fit, characteristic, courageous, unwell, mucus, sickening, slang, bad, soup, substitute, uneasiness, eat, down, diseased, health, turnsick, morbific, die, pig, unhealthy, author, tired, sneeze, trainsick, air, pain, anointing_of_sick, american, well, get_drunk, peter, humans, sick, anisakiasis, disease, wise, virus, sucker, cold, amount, alot, agriculture, move, germ, being, ar, sickly, sickness, migraine, gender, manga, stagger, take, nauseous, ill, bends, spit, vomit, uk, motion, being_ill, puke, ginger</t>
-  </si>
-  <si>
-    <t>star, celestial_body</t>
-  </si>
-  <si>
-    <t>water, fish</t>
-  </si>
-  <si>
-    <t>container, band, cut, temporary, jury_rig, repair, skin, aid, hack, wound, cover, bandage</t>
-  </si>
-  <si>
-    <t>ground, down, hill</t>
-  </si>
-  <si>
-    <t>move_car, assrun, door, plants, package, items, warning, get_someware_quickly, effort, bullet, millstone, break, time_period, mine, entertainment, faster_walk, military, need_to_travel_fast, wheelpit, limit, batsman, deal, go_to_bathroom_first, leak, red_stick, streak, pinch_hitter, eastern, fine, bird, would_increase_heartrate, sail, speed, internet, circuit, make, svecoman, swamp, detail, landrush, prove_physical_endurance, hamgyong, overrun, boy, overstride, reflection, escape, seat, cat's_paw, learning, print_run, transition, story, stocking, consequence, inrunning, head_for_hills, presentaneous, michurinism, movement_fast, act_quickly, smoke, old_zebras, stay_fit, race_activity, eye, outdistance, shipping, without_troubling_scorers, candidate, executionism, chicken, black, cosmism, modern, snuff, feet, sessa, move, fight, trump, run_amok, run_risk, farm_strike, part, store, dogs, neglect, curse, issue, wear_sports_suit, seep, motion, one, linguistics, curry, display, get_somewhere_faster_than_walking, plod, quality, go_to_park, maintain_muscle_strength, popping_crease, board, go_faster, concede, intercurrence, runout, type_in, river, fast_jog, christmas, protected_area, board_game, hurkaru, root, evacuation, fastpack, transportation, faster_jog, hurdle, new_left, slash, writing, rivulet, cool, zubatovshchina, bog, shell, hasten, electronics, rap, leg_bye, delivery, attack, crock, cast, antirightist, ninja, mouth, colorature, drawer, run_off, stay_healthy, floor, dash, moonrun, snap_it_up, mail, niceness, happening, earth, jogging, combustion, no_ball, carry_through, flame, light, dell, anchor, agriculture, anger, earned_run, idle, solution, with, beat_feet, stretches, miler, autorun, television, fish, playing_football, term, watch, federal, compete, running, play_sport, charge, rabid_dog, branch, go, run_out, presently, travel, gain, thunder, romp, human, dock, just_do, travelled, quickness, ordinary, hand, freerun, dopamine, structure, drink_lot, noun_form_of_verb_running, bathe_sweat_off_body, accidental, fool, unravelled, sort, yawn, scared, vault, tab, base, battery, scarper, run_down, outslug, have_appropriate_shoes, runny, american_football, rod, player, enclosure, spring, sneakers, re_run, up, oil, fear, hightail_it, log, fellrunning, hold, descend, husk, block_signal, election, declare_candidacy, haugean, run_somebody_ragged, subdecurrent, activity_fast, price, lug, horse, belt, vowel, footmanship, north_america, scramble, trot_gallop, rundale, device, get_into_shape, football, playing_lacrosse, run_low, surprise, taxis, model, engine, humans, dimension, time_slice, run_away_from, flash, racetrack, cover, shortness_of_breath, uprun, hide, diverge, circumcursation, propagation, target, proscribed, lift, put_on_running_shoes, rest, weather, migration, riding, dap, escaping, house, hurl, former, stand_still, narrow, slide, australia, expedite, rotary_encoder, getting_fit, win_race, wanted_to_get_in_shape, paulicianism, exec, may_fall, mind, shorter, assault_course, trip_trap, covenanter, run_temperature, enter, pope, reach_destination, faster_walking, electrotachyscope, run_batted_in, control, plate, come, piece, become, migrated, smallball, rain, run_bath, phonoscope, kill, accelerator, blue, fast_action, always, racing, trajectory, group, solidarity, flight_line, jug, few, quick_walk, killing, property, skedaddle, sport, move_fast, kerrison_predictor, manhattan, inadequate, schedule, crease, soup, mobile, tap, windmill, sleet, mechanism, spread, cat, plunge, bishop, still, leave, sprint, go_fast, lord, bath, cut, dump, interest, rheophile, leave_house_first, four, seceder, sweat, sheeprun, runathon, underrun, buzzer, spawning, shift, time, dodder, slowly, going_jogging_for_people_who, yank, nod, van, legs, signal, air_travel, runholder, atren, hurrying, runnable, footrace, stuff, mark, scurry, chew, wicked, panic, rank, ran, run_gamut, clothing, occur, zoomies, ambulation, party, in_hurry, forerun, fan, marathon_activity, bow, mathematics, bicycle, go_jogging, tube, get_tired, prevail, might_miss_bus, plant, reverse, change, actual, drain, removal, machine, speed_up, express, book, cry, leg_movement, make_run_for_it, run_up_against, cake, manchesterism, hurdles, dangerous, racecourse, main, hasty_walk, increased_metabolism, cruise, choose_location, urinate, box, beautiful, act, stream, something, stroke, burn, rush, lay, midrun, us, ride, runlevel, vehicle, scampering, pipe, locomotion, melted, flush, batting_average, playing_sport, nonrunner, trick, mopstick, warp, course, run_out_of_steam, saint_simonianism, height, split, respect, close_hauled, fast_moving, gang, real_covenant, run_and_gun, unrun, tracks, kingitanga, north_midland_us, baton, races, measurement, get_away_from, long_off, turn_on, daily, being, print, cost, here, feese, curriculum, runscorer, law, century, run_fever, run_gauntlet, sequence, function, dye, county_seat, dive, riser, effeminist, motivation, need_for_exercise, moving_forward, scale, city, physics, runned, cooper_test, need_exercise, sneaker_race, intense, flight, stick, urge, run_after_ball, pond, crime, coal, concom, lightly, barrow, speedrun, cricket, walking_fast, metal, slower_than, forward, bum, after, employment, striding, playground, pair, nautical, jerk, lave, human_activity, almost, programming_language, intelligent_agent_activity, help, bees, standing_up, body, peculiar_people, snotty, courant, real, block, surge, motorway, seam, commando, prerun, depression, car_could_run_over, different, and, promptness, record, last, about, bar, trot_fast, destroy, exhaust, break_one's_duck, pain, dry_run, unit, ore, ship, flea, minor, bye, runnel, energy, long_on, type, almost_sprint, random, game, fast_movement, talk, batmobile, moderator, break_away, moment, runneth, biology, free, average, craft, laudianism, geography, nose, prime, death, philosophy, ultrarun, band, fast_feet, going_for_run, migrate, warranty, bank, again, like, finger, vein, abduction, drink, duke, flash_cut, large, rule, sound, altitude, were_wound_up, nonrun, scotland, stationary, walk, pull, retreat, drift, mining, sore_knees, go_outside, point, necessary, fast, enclosed, cell, stampede, beeline, blow, stonewall, instruction, letter, give, remember, hearing_crowd_go_mad, historical, jerkwater, wardmote, spot, hole, super, register, camp, measure, trance, slow_sprint, look, now, run_after, swim, post, number, continuously, dot_ball, deplete, means, rhine, duck, streak_it, trade, picture, vortex_atom, nylon, scutter, proprietor, together, strip, meal, run_by, get_cramp, cursorialist, at, wicket, score_home_run, double_quick, speed_quickness, patten, preparation, boat, honest, company, king_pair, trickle, instant, fastest, parkour, uk, send, rin, damage, run_around, plan, save, storekeeper, ruin, yrunne, compare_southern_us_branch_and_new_york_and_new_england_brook, roller_mill, local, white, run_amuck, put, french_fake, circulate, line, address, wigwag, scroll, statement, represent, maneuver, rotal, behind, bring, hard, storage, moving, situationism, run_errand, direct, speel, basin, tenderness, walk_quickly, fennoman, finance, mould, partnership, speed_merchant, linescore, tree, tally, show, succeed, shoot, mass, be, social, big_monster, bat_in, areas, head, playthrough, labadist, equilibrium, start_now, school, force, period, locus, ultrarunning, relocation, mean_dog_chasing, good, jog, train, fat_people, arise, translocating, jogging_sprint, staff, paint, hunt_down, run_aground, secure, trial, cross, rushlight, football_play, dutchman's_log, spare, rat_race, fast_jogging, thank, hurry_up, enforce, runabout, execution, get_somewhere_quickly, highway, floppy_boobs, vertical, rape, slower, run_in, trouble_scorers, wear_good_shoes, slogger, front, hotfoot, touch, sprinting, pony_express, liberty, inrun, crawl, fast_motion, talivan, continue, run_somebody_of_their_feet, aircraft, run_over, animal, process, eating, service, return, fastloader, dummy_run, purpose, tear_along, jog_fast, emergency, overflow, news, hinder, vellicate, sprint_jog, running_game, scamper, length, traveling, mentastics, compare_walk, run_up, sensitive, urgency, run_in_family, eddy, vessel, descent, runoff, bunk, menace, multirun, spank, moving_quickly, present, run_time, fire_away, natural, run_for_hills, mechanic, stop, move_legs_quickly, use_legs, contemporary, draw, do, lam, silverite, foredeal, clipper, dictionary, drill, hustle, sick, leave_line, late, runs, speech, five_tool_player, hare, jin, big_hairy_monster, wild_horses, with_legs, passage, hear_crowd_go_mad, fortified, true_blue, young_italy, situate, jump, runrate, brief, cards, bowling_figures, clothing_store, frightened, around, card, degree, close, suddenly, pressure, ask, bottle, molten, office, location, out, bing, very, slow_down, you're_in_running_race, non_aspectual_quantity, play, pass, run_along, runway, footstep, runagate, run_away, illness, black_market, race, habit, recreation, sketch, walk_slowly, orb, region, join_track_team, going_fast, state, getting_exercise, birthday, maquis, busy, faster, write_program, suicide, suit, movement_2_june, car, backup, exercise, work, stretch_leg_muscles, age_of_aquarius, zoopraxinoscope, stern, irreversible, kiss, fastest_walking, shake, standstill, video_games, cooking, gesture, tie_shoes, protest, joy, seeing_wolverine, rheophyte, run_scared, gravel, biscuit, inside, atrin, millrun, hot_swap, cord, grave, list, dogme, run_high, get_away, juggling, run_for_roses, knit, flee, pace, truck, runningly, tense, walk_off, tide, bobsledding, young_ireland, cultural_revolution, quick_motion, incur, retention, athletes, run_circles_around, yedding, flurry, haste, runaway, mental, job, world, surface, put_on_shoes, procursive, really_fast, sneaker, extra, back_up, angel, lollardy, runholding, british, fluids, fill, drive, tall, march, breathe, look_where_going, track_down, through, walk_very, gun, runaholic, butt, container, underground_railroad, misfield, rushingly, bottom, top, hill, movement, afraid, frush, end_run, gallop, back, space, stop_walking, aquathlon, action, gaum, rapid_walking, roof, toilet, boating, dub, single, physical, going, pinch_point, tread, smash, fire_up, wearing, meat, walk_speedily, duration, run_for_it, get_somewhere_fast, programming, tired, iron, stretch, boot, maths, hurrisome, landholding, wildfire, play_soccer, error, doing_exercises, terror, consort, like_jogging, occurrence, disease, nothing, indian, ex, swallow, runback, voyage, event, than, under, with_quickness, decide_on_platform, scat, shot, smuggle, monkey_run, walking, stitches, has, everrunning, haunt, squeeze, introduce, trip, water, bowling_average, television_episode, burrows_wheeler_transform, rocket, song_and_supper_room, play_baseball, traffic, dialect, float, heart, driver, communication, drinking, orderly, run_of_mill, climb, reach, hot, scorer, vatakkiruttal, positive, ace, were_scared, strike_bowler, auto_tiering, future, six, lack, new, commit_murder, person, prompt, next, staircase, walk_very_fast, jet, road, harrow, get_out_of_bed, intermittent, broadcast, marathonist, rapid_locomotion, pot, wound, rail_transport, stitch, a, slang, hundred, solid, worse, court, west_coast_offense, run_rampant, releasing_energy, run_into_ground, down, cause, feed, form, score, mahagujarat, sign, walking_faster, over, food, domestic, air, racing_feet, deliver, celerity, taking, sole, hurried, stress, storm, disintegrate, getting_physical_activity, division, dam, fastest_walk, move_legs_very_fast, empire, hook, go_quickly, run_through, executable, card_games, beway, regular, medical, walking_motion, right, procedure, one_short, soccer, great, runner, heat, beached, move_legs, discharge, big, media, take_asthma_meds, fall_down, valence, physical_activity, slope, run_show, land, puddle, fast_striding, skiing, strike_rate, tab_stop, current, moving_fast, shoe, place, lot, construction, runless, gait, fast_walking, music, case, radiate, perfect, colorado, rean, arrest, sudden, lots, diluviate, waling, horizontal, nonstarter, fighting_enemy, trot, run_across, past, dog, low_wine, cabinet, car_park, range, museum, order, noise, sports, outgallop, ground, pinch, punch, eat, flying_kite, carry, burst, nonexecuting, maiden_over, rake, get_there_faster, hunt, take_to_woods, in_short_order, first, money, computing, toolsy, unsteady, miss, ambulance, activity, weak, fresh, playing_sports, yronne, lead, or, high, street, turtle, dullness, pound_pavement, run_to, move_feet, baby, maiden, friendship_store, hedge, run_for, fear_of_getting_beat_up, walk_faster, quickly, boulangism, barrel, swedenborgianism, stake, experiment, life, sheet_anchor, trip_over_tree_root, fast_lane, outrun, lope, span, chow, view, hasty, transcur, roadwork, bridge, parliamentary, general, host, people, debacle, execute, proposal, ahead, intrarun, area, political_campaign, dispeed, guide, ribbonism, baseball_term, turn_over, delay, condition, spill, bundle, run, field, spin, not_to_face_one's_problems, get_physical_activity, diffuse, play_lacrosse, nail, human_movement, low, bodyline, pee, transport, interrun, run_dry, fire, home_plate, wearing_sneakers, headway, lidderon, hie, railroad, rapidly, park, like_ran, laudian, fly_coop, family, breathe_hard, use, business, wide, fast_track, feeze, étape, well, oxygen, walking_quickly, go_for_run, put_foot_forward, wine, someone, run_bases, song, go_far, ago, festinate, boredom, unearned_run, favourable, ravel, stale, boundary, sickness, errand, science, trouble, complete, special, china, gutter, worm, legal, retail, aviation, dispatchful, go_for_jog, fly, rushaholic, accelerate, mercury, on_prem, atom, gas, melt, sprint_race, extend, danger, red, exhaustion, complain, between, new_zealand, rapidless, station, usa, element, biohardware, running_play, country, nether, drop, runlet, golden_duck, intentional, tie, content, status, hurry_skurry, bleed, really, negative, situation, baseball, movement_forward, exposure, ralstonism, photography, frame, pour, brake, rescue, confederationist, illegal, cruiser, path, fog, distance, nice, fell_running, program, walk_fast, lose, straightaway, bright, safe, primer, rannest, holy_hour, shock, regenerationism, not_necessarily_by_foot, chowder_beer, growth, snail, electric, fast_pace, turn_around, febronianism, athletics, unravel, exercising, morning, grab, blue_light, track, creek, up_and_running, physical_event, fast_walk, stand, runstand, waste, weight, heaven, nash, spate, position, flow, reward, move_quickly, forest, dancing, grip, test, carry_out, buy_pair_of_sneakers, slow, quality_control, enthusiasm, very_fast, hurry, jogging_fast, standing, leeroy, lie, fast_gait, trend, later, wheel, war, run_into, sidewalk, expeditiousness, make_break_for_it, sidewalks, sit, locality, servant, rerun, pretty, golf, inaction, medicine, smaller, fly_kite, brass, ern, travel_rapidly, bed, aid, demand, wet, exercise_activity, marathon, ply, bored, one_time, campaign, steel, rise, meeting, ladder, time_frame, tend, date, rapid_leggings, defensive_field, decrease, learn_to_walk, dyke, slant, scoring_home_run, garden, chartism, volume, lace_tennis_shoes, oxford_movement, bustle, side, remark, yard, getting_away_with_crime, manage, adjective, turn_tail, noncandidacy, route, software, run_hot, rapid, wing, speedily, leg, usually, run_of_ball, indefinite_quantity, thoroughbred, produce, step, run_on, off, site, accompany, liquid, napoleon, hit_six, linear, speed_heart_up, flesh, minimarathon, leggings, hurricane, playing_ball, convey, jacobitism, expedition, language, become_physically_fit, batch, flooding, perspire, run_hot_and_cold, away, specific, operate, bleep_test, pluck, quick, quicksand, runnest, cantonalism, appearance</t>
+    <t>aud, athwartships, t_zone, acting, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, sincerely, square_metre, t_internet, fandom_slang, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, act, short_s, proton, third_person, t_piece, parsing, agaze, vowel, first, dezh, language, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, dirhem, account, academy, amos, type_erasure, megabyte, diastereoisomer, motorcycle, procedural_programming_lanuage, zoa, pbuh, rafivirumab, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, nd, e_vite, cup, soupcon, united_kingdom, casualty, group, embellisht, damma, data, visarga, double, dealt, high_c, ll, level, g_s, letter, robatumumab, penny_sterling, replace, cat, academic, type, diatonic_semitone, estes, before, e_tail, have_got, belcht, aitkins, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, dry_cell_battery, connecter, hb, efungumab, paradigm, u’s, dram, is, count_out, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, espionage, prototype_based_language, acrita, magic_e, tertiary, brassiere, u_tube, gf, dice, ambassador, c’s, team, pound_sterling, finance, c_hole, 4chan, e_shaped, p_word, metre, asymmetric, e’s, segovia, heroin, ultimata, brewster, video_game, c_minor, yt, half_crown, amp, anime, w:abo_blood_group_system, anode, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, bleacht, american_library_association, triton, pandean, turn, proscribed, entertainment, automobile, roentgen, spat, australian_dollar, lose, d's, micro, twou'dn't, cajun, water, blest, animanga_character, musical_artist, non_u, einsteinium, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, caravansary, hirs, twelvemo, fourth_letter_of_roman_alphabet, april, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, annext, lexatumumab, cuppa, bornt, application, clasht, philippine, time, cropt, television_show, aken, ms, perfection, answer, were, spectral_class, noons, e_folding, arctic, e's, automata, excuse, gee, libivirumab, encroacht, accepted, tis, mb, coulomb, chirpt, audit, distinguisht, circa, e_quainted, labial, moo_u, mbta, deoxythymidine_monophosphate, para, mausolea, eirs, build_cathedral, hydrogen_atom, frigga, vrykolaka, administration, object_oriented_programming_language, tradeswoman, accomplisht, thousand, u_boat, seah, en, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, transgender, copypasta, television_station, cleft, falcon, ahold, my, compiler, taxa, green, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, kolmogorov, bit, ties, atmosphere, bynempt, pencil, thirteenth_letter_of_roman_alphabet, es, austria, nebacumab, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, e_sharp, genitive_case, nfc, e_tailing, d100, minor, stade, do_dièse, hunter's_moon, ratings, gelfond's_constant, shi, electrical_resistance, the, string, mth, dextro, it's, liter, builder's_mug, c_channel, accidental, miscellaneum, emergency, british, author, in, keynote, medium, uranium, vis_vis, ashoka, accommodation, age, signor, ae, statesman, let's, stage, solfege, cmos, cetera, physics, begat, anecdotum, kuh, dislik’t, m, can_store_food, denmark, angstrom, tert, twelveth_letter_of_roman_alphabet, banisht, foravirumab, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, mano_mano, decomposition, transhumanism, l_size, acaulous, ell, beeswax, ze, bent, u_rp, academician, aa, fermion, blood_group, atomic_weight, gangsta, other, mega, be, programming, asqtad, blockt, aglutition, ods, ri, thymine, absolute_temperature, titles, ues, or, u_shaped, argent, ex, talk_to, chromatic_scale, s, make, military, exbivirumab, american, charlie, crease, re, checkt, ss, athanogene, bisphenol, after, ebrary, gilf, education, maiden_over, statement, jack_lent, 24mo, pharmacology, xtianity, automatic, century, pure, bereft, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, alto, nail, chaussé'd, cello, p, levo, saké, j, an, vicesimo_quarto, assist, c_s, fictional_character, playoff, javascript, cisgender, conservative, tittle, ecmascript, curst, purkins, crept, round, randomness, oversman, a’s, twasn't, go_to_market, pip, gomer, e_tailer, l_shaped, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, astragal, us, cor, grade, china, deuteron, survival_horror, kc, amphibian, bullswool, scheme, hausdorff, sec, perrins, est, slut's_wool, from_latin_libra, b, subatomic_particle, jack_dandy, seent, sigmoid, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, mature, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, b_flat, eth, lambert, major, betimes, otw, e_form, did, anterior, a, shanxi, lua, has, neighborhood, lvalue, tesla, nights, g_shaped, skainsmate, ga, dispossest, wiener_dog, d_hole, hs, deprest, triple, admiral, fifth_letter_of_roman_alphabet, d_minor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, football, e_s, epeen, phenomena, k_r, mit, h_shaped, gram, pigscot, rackarock, neura, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, criteria, litre, sithence, celestial_object, absent, admonisht, blemisht, nones, r_shaped, jesus_was_crucified, developt, rix, primary_care, area, saint, status, blent, unicode, jackanapes, otl, flowering_plant, archaea, regina, proton_hydron, ruby, state, bacteria, colossea, arterial, specific_absorption_coefficient, linguistics, specific_rotation, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, avoucht, lth, subway, canonical, teen, absolute, guanine, pritumumab, ing, l_plate, verb, iv, u's, r's, b_♭, mapatumumab, cs, england, log, curiously_recurring_template_pattern, lgbt, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, taxaphobic, abolisht, rogers, capital, artery, crusht, ours, sterling, u_turn, lines, asian, e_major, œ, singular, januarys, east, statistic_reporting_number_of_games_that_player_has_participated_in, amissing, p's, planck's_constant, wolf_hook, s_bomb, emma, fuckabilly, c_shaped, vegas, thing, stretch, tween, twas, anothergates, omer, stock_symbol, dismist, rat, cancer, toward, beginnings, erlang, tcl, spearsman, drive, danc’t, mass_number, cycle_of_fifths, valor, power_pill, euse, belgium, women, esrb_rating, e_minor, embost, blusht, turing_machine, enforc’t, gangster, plantsperson, baulk_line, accurst, t_square, acre, comprest, trailer, necitumumab, meetaversary, madalyn, computer_science, movie, polynomial_time, issa, country, diptera, r, zero_g, actus, intetumumab, m's, pinfall, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, fox, deoxyguanosine_monophosphate, roof, have, approved, hyoid, tilt_whirl, corner_tooth, er, baseball, t_stop, association, austroasiatic, e_road, d_s, taula, supercee, eradiation, condenst, chess, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, g_force, clu, islamic_calendar, employ, set_theory, take_l, nyse, anecdota, south, workaday, numeral, frequency, oboe_d_amore, computerized, five_hundred, can_begin_to_leak, besides, costa, homer, women's_christmas, sevirumab, aikens, stop_codon, symbols, technical_foul, port_o_john, nfd, gentleman, u_bolt, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, ts, available, java, μ, w, ramucirumab, bought, street_slang, aitkens, journalism, 1_g, active, down_to_t, black_english_and_slang, biblical, au, template_metaprogramming, copyright_symbol, ey, empoverisht, cockalorum, nc_17, sarcastic, legal, airplane, dropt, attackt, scale, cola, assault, schwar, piss_like_racehorse, vitamin_e, h's, cobol, admit, urbiscript, iii, long_s, denosumab, sx, mho, batsman, córdoba, tg, hulkamania, ma_am, enharmonic, mother, abbreviation_of'you, electronics, rhotacism, america, stadia, bug_boo, alpha_privativum, clept, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, g_rated, terminal_s, v, home, c, external, malloc, np, dog's_letter, indefinite_article, right, aware, electronic, dwelt, cock_hoop, r’s, stl, elaborate, ed, s_hole, basketball_league, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, preposition, occupation, dateaversary, built, go, do, sol_fa, attacht, enravisht, s_size, no, aspect_ratio, entomology, sie, graph, rd, approacht, levulose, sixteenth_letter_of_roman_alphabet, h_shackle, they, toll_road, indicative, basketball, pers, set, natural_logarithm, used_mainly_after_where_here_and_there, kenna, nonstandard, dialectal, aqua, ⠁, mute_h, g’s, un, break_off, ies, fork, upon, solfège, exhibit, n_acetyl_p_aminophenol, computer_languages, confest, exponential, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, transsexual, hulkamaniac, ai, americanization, annus, disco_biscuit, predicted, would, chemical_symbol_of_carbon, im, 3gl, dx, igg, gigabyte, accusative_case, c's, m’s, m_size, brusht, snooker, ü, read, alotta, acid, perfectly, brought, male, askt, worn_on_nose, ajax, descending_s, game, etc, people'd, pantile, regavirumab, apiece, 50, dript, b_♭_instrument, raxibacumab, australia, eye, iratumumab, ii, abaft, ana, ette, medicine, 12mo, law, aweigh, 500, curly_bracket_language, acronym, old_penny, panobacumab, blood_type, drachm, artificer, robertsman, hyperbolic_function, eighth_letter_of_roman_alphabet, delete, p_complete, cc, meadow, force_unit, electricity, atlantic, f_instrument, alphabet, one, c_major, fist_letter_of_alphabet, cad, copenhagen, reference, p_uman, fatha, metacism, gas_constant, air_to_ground, stamulumab, tonic, internet, pethers, semitone, darwin, aes, peso, besprent, jessa, lucatumumab, chartered_accountant, music, water_spout, sitcom, signore, lost, degree_centigrade, result, sn, australian, not, clitic, software, php, amacrine, airman, fathom, and_e, auditor, vitamin_d, ob, search, nautical_mile, treble_clef, hers, adp, awry, brandisht, toll_highway, ezhou, information_services_and_technology, acephalopodia, by_from_home_depot, you, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, parkins, celestial_body, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, hubei, department, unsupported_titles_c_sharp, uracil, chemical_symbol_for_phosphorous, accounts_receivable, canadian_dollar, equal_mc_squared, acceleration_of_gravity, programming_language, g_major, denounc’t, restaurant, hoodla, d_sharp, symbol_for_hydrogen, are, l, ampere, annodated, attack, adjutant, demolisht, relaxacon, lead, annealing, adoors, general, ship, polymyxin_e, ephah, final, asked, class, lev, scale_height, alexipyretic, transit_card, open, å, irrevocable, th, babs, t_pose, tritium, associate, clipt, m'lady, ge, fortran, musea, excrescence, pound, monsieur, form_of_vessle, atta, semicircle, of, politics, deoxycytidine_monophosphate, ml, boson, ace, quanta, r_rotunda, abetalipoproteinemia, which's, ps, first_alphabet, history, builder's_tea, grand, addrest, quotha, can_return_five_cents, oxygen, superior, d, date, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, yes'm, transcendental_number, ground, problem, some, contradistinguisht, character, issaron, selligueain, object_oriented_programming, cherisht, multi, and, panitumumab, pells, of_piece, metalic_cylindrical_container, z, mmole, loophole, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, estradiol, aviation, foreroom, j.d, heat_content, give_hand, pronoun, el, chemical_symbol_for_hydrogen, cent, chemistry, abundant, ab, gantenerumab, amnia, its, lolz, hard, logic, pitch_perfect, non_rhotic, before_bee, t’s, e_quaintance, ofatumumab, mitochondria, rust, anna, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, set_containing_one_element, amplitude, d_shaped, s_shaped, u_235, ppbar, pointed, nf, twouldn't, letter_grade, ne_er, cock_leekie, burnt, goatshair, highland, m.d, business, s's, square_meter, testosterone, new_zealand, last, elemeno, digrest, clg, e, misle, ilka, allies, composition, every, secondary, c.f.r, fraunhofer_line, gev, chromatic_semitone, nationality, alfa, t_shirt, madam, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, l’s, cyclone, abeigh, about, dunam, all_gog, point, potato, air_conditioner, ancient, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, d.d, cricket, cab, afternoon, dex, galaxy, u_pick, diminisht, seventh_letter_of_roman_alphabet, p’s, em, acroatics, economics, duff's_device, hundred, air_conditioning, swounds, ah, ls, efold, m_shaped, mornings, size, also, xe, had, air, possess, cytosine, americanize, ata, deoxyribose, fifty, da, theorem, scotland, horse, aptychus, accident_and_emergency, henry, hydrogen's_chemical_symbol, igm, t_shaped, exactly, bliss, abandannaad, afterwards, monoatomic_cation, atomic_nucleus, caught, æ, holliers, wilkes, g's, ub, list, h’s, incuba, m'lord, ecstasy, taxable, also_known_as, ack, she, nz, second, kamatz, alee, container, e_conomy, anonymous, moisturizer, even, bethought, luggage, ada, plus, li, lethek, long_vowel, any, clothing, abasht, mathematics, awhape, cross, northern_england, example_of_programming_language, adventure_game, strong_electrolyte, 18mo, kd, slang, backwards, present_tense, diceroll, c_sharp, media, gentleman's_agreement, altitude, bcpl, rail_transport, basic, azure, strident, upper_class, disrelisht, c_note, tuesday, burnisht, purposes, absorbancy, thyroxine, c_suite, g_minor, vitamin, hegira, against, human, l's, to, gb, river, e_tard, 2h, canine_letter, per, saxon_genitive, city, tuvirumab, absorbance, acceleration, echeng, hotel, beanbag, deduc’t, calendar_terms, svedberg, tee, astonisht, knitting, michigan, mark, estrogen, see_also_es, at_pinch, jocular, computer_language, it, eiffel, chapter, heifer, deterministic, hertz, abc, marketing, d_major, he, ricketts, best, q, activity, apl, hip_hop_music, monday, walk_mile_in_someone's_shoes, atrocha, hail, relaxing, and_so_on, panthea, awk, expertise, usd, besought, d’s, frame, sxsw, cocaine, bronx, arace, h_beam, meter, avancé, e_thumb, four, percentage_point, toy, infix, anno, army, deuterium, ataxia_telangiectasia, henan, buffet, zf, hin, amateur, zounds, drest, dialect, ds, hedra, tees, introverted, aspirated_h, fail, rex, person, gravitational_constant, address, forwards, died, e_head, medial_s, industry, attendance, modius, meta, british_film_certificate, g_sharp, deckt, auxiliary, daunc’t, gs, glass, emission_theory, e_cruitment, düsseldorf, cue_ball, i, aircraft, equivalent, hors_categorie, king's_man, lemur, f, str, secret_intelligence_service, scampsman, python, hospital</t>
+  </si>
+  <si>
+    <t>toonophile, ortho, aud, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, t's, scalogram, ometry, sincerely, t_internet, o_face, constant_of_integration, clansperson, lambdacism, getting_paid, air_conditioned, act, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, o_shaped, drencht, historical, account, academy, myctag, amos, type_erasure, 360, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, ballet, ante, alphabetic, was, article, remainder, equipt, archeopteryx, balanophagous, b's, w_r_t, cup, soupcon, group, embellisht, f_minus, data, double, dealt, xiphisternum, interfix, high_c, kayo, level, letter, replace, cat, academic, type, diatonic_semitone, estes, before, have_got, belcht, aitkins, boron, a440, a's, sextodecimo, annually, adenine, p_adic, surname, dry_cell_battery, connecter, hb, paradigm, man_o_war, svo, is, b_minor, count_out, vocative_case, allele, t_splice, pee, regards, egotist, ino, axis, amain, prototype_based_language, k_pop, acrita, tertiary, clicko, brassiere, double_u, ambassador, c’s, team, finance, c_hole, symbologenic, 4chan, homœo, p_word, asymmetric, segovia, heroin, ultimata, bethe, cœno, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, solfeggio, adjusted, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, j’s, proscribed, entertainment, automobile, roentgen, spat, australian_dollar, lose, jth, aberdeen_hook, twou'dn't, cajun, blest, coenosteum, bel, vocative, b.ed, musical_artist, bye, tier, bohdanowiczite, organic_chemistry, monoclonal_antibody, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, april, axiom, la_dièse, grammar, air_branch, khoum, acardiacus, pp, aaa, lemalesomab, annext, cuppa, bornt, application, will_o_wisp, clasht, philippine, time, cropt, television_show, aken, zero, seleno, perfection, answer, were, spectral_class, speako, noons, oyl, gameto, arctic, automata, encroacht, accepted, unstressed, tis, run_o_mill, barn, b.a, argyro, coulomb, chirpt, audit, distinguisht, circa, galanthophile, labial, b.mus, mbta, deoxythymidine_monophosphate, para, cymoscope, soul_music, mausolea, eirs, nemato, build_cathedral, segrosome, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, en, b.litt, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, cleft, falcon, ahold, believe, f_hole, compiler, zoö, taxa, august, flat, fréchet, mab, problemo, kolmogorov, detumomab, antigen, bit, printing, western, unit, ties, atmosphere, bynempt, antigone, oötidogenesis, es, fatosphere, memosphere, austria, dunzo, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, genitive_case, wynn, nfc, nnw, minor, do_dièse, hunter's_moon, ratings, f's, electrical_resistance, the, tibeto, string, phm.b, it's, builder's_mug, c_channel, accidental, miscellaneum, scanno, british, semivowel, f’s, author, in, keynote, vis_vis, ashoka, accommodation, glosso, signor, age, ae, lino, statesman, let's, okay, stage, solfege, cmos, rip, b.s, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, can_store_food, denmark, angstrom, tert, banisht, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, numero_sign, mano_mano, road_transport, decomposition, acaulous, hoplo, beeswax, bent, academician, gasogen, aa, fermion, partheno, b.comm, blood_group, atomic_weight, other, programming, hey, asqtad, homoio, blockt, aglutition, ods, istro, thymine, absolute_temperature, titles, b_s, or, argent, talk_to, chromatic_scale, s, military, american, charlie, wth, logico, writo, re, checkt, ss, athanogene, bisphenol, after, connectogram, gilf, education, statement, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, latin, adult, vitamin_c, as, phosphorus, dswounds, mo, alto, cello, urobilinogen, p, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, ℓ, mac, playoff, javascript, cisgender, conservative, tittle, ecmascript, softography, curst, purkins, crept, w_o, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, go_to_market, pip, ostomy, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, pædo, venipuncture, astragal, dacryohemorrhea, us, grade, deuteron, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, tungsten, rhythm_and_blues, est, slut's_wool, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, tenth_letter_of_roman_alphabet, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, dioxygen, nacolomab_tafenatox, major, betimes, otw, b.ch.d, anterior, a, lua, has, neighborhood, lvalue, tesla, nights, taplitumomab, skainsmate, f_sharp, japanese, dispossest, wiener_dog, deprest, joule, b.com, triple, with, narration, admiral, rating, sanatoria, average, rs, o, ve, all_mort, b.des, czechoslovak, interconsonantal, second_letter_of_roman_alphabet, phenomena, k_r, mit, ancient_greek, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, klecksography, criteria, sithence, celestial_object, absent, admonisht, blemisht, nones, r_shaped, jesus_was_crucified, developt, rix, area, saint, blent, unicode, jackanapes, vagino, cervico, b_testing, otl, archaea, regina, ruby, bacteria, colossea, type_o, arterial, specific_absorption_coefficient, specific_rotation, b.f.a, resturant, adjective, alpha_privative, anuptaphobia, b_word, avoucht, subway, canonical, teen, absolute, ing, verb, iv, manga, computing, r's, b_♭, cs, england, linotype, curiously_recurring_template_pattern, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, blackophilia, taxaphobic, abolisht, rogers, b.s.l, artery, crusht, ours, spherocylindrical, wednesday, lines, reflectoporn, asian, sf_f, œ, singular, januarys, amissing, p's, soccer, zoarchaeologist, wolf_hook, s_bomb, o's, fuckabilly, c_shaped, blood, vegas, thing, britain, tween, sulesomab, twas, anothergates, stock_symbol, dismist, rat, cancer, toward, beginnings, tcl, spearsman, drive, danc’t, mass_number, peripherovascular, witness, rf, cycle_of_fifths, euse, belgium, hib, women, embost, blusht, turing_machine, enforc’t, plantsperson, muography, accurst, t_square, acre, comprest, trailer, empathogen, meetaversary, computer_science, movie, polynomial_time, issa, country, diptera, b.lit, anxio, pinfall, czechoslovakian, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, cj, fox, weak_electrolyte, roof, have, approved, ws, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, taula, supercee, object, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, ff_hole, norovirus, b_story, clu, set_theory, mc, tositumomab, nyse, variant, anecdota, smell_o_meter, south, workaday, numeral, frequency, oboe_d_amore, b.e.e, o’s, can_begin_to_leak, jj, ll.b, besides, costa, republican, women's_christmas, aikens, stop_codon, symbols, folio, auriculo, technical_foul, blogosphere, port_o_john, fitz, fs, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, available, bs, java, w, bought, type_b, yo, aitkens, active, down_to_t, black_english_and_slang, biblical, patronymic, au, audio, vector, template_metaprogramming, b.chir, copyright_symbol, empoverisht, cockalorum, sarcastic, legal, airplane, f_major, dropt, attackt, scale, cola, assault, schwar, piss_like_racehorse, terminology, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, tg, hulkamania, b.math, enharmonic, rhotacism, o'clock, stadia, america, bug_boo, doxogenic, alpha_privativum, clept, techonomic, primogenitor, fifteenth_letter_of_roman_alphabet, arc, encampt, nuevo_sol, bomb, penny, terminal_s, w's, c, external, malloc, np, dog's_letter, indefinite_article, right, aware, dwelt, cock_hoop, r’s, stl, b_shaped, ed, s_hole, basketball_league, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, glycopeptidolipid, occupation, berkeleio, dateaversary, built, go, sol_fa, attacht, enravisht, multiple_o's, s_size, no, aspect_ratio, entomology, graph, approacht, b_final, sixteenth_letter_of_roman_alphabet, lb, form, indicative, basketball, coarticulate, pers, set, used_mainly_after_where_here_and_there, christofascist, b.m.e, kenna, cholecystolithiasis, nonstandard, dialectal, aqua, ⠁, o_ring, un, ies, fork, solfège, slidometer, exhibit, big, n_acetyl_p_aminophenol, doubleyou, kinesiology, computer_languages, confest, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, o'reilly, hulkamaniac, yot, kb, ai, americanization, annus, b.lib, predicted, chemical_symbol_of_carbon, 3gl, dx, accusative_case, c's, brusht, particle, ra, latitude, alotta, acid, perfectly, brought, singer_songwriter, askt, b.c.e, ajax, descending_s, game, etc, euphemistic, pantile, et_seq, apiece, b_♭_instrument, dript, b’s, marijuana, pneumato, eye, chemical_symbol_of_oxygen, mitumomab, ii, abaft, ana, ette, medicine, law, aweigh, korea, curly_bracket_language, j_shaped, acronym, gravo, blood_type, artificer, cigarette, robertsman, oto, delete, p_complete, cc, meadow, atlantic, electricity, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, reference, fatha, gas_constant, b_school, tonic, astronomy, always_capitalized_in_modern_usage, internet, orotidine, pethers, w’s, semitone, operator, aes, peso, besprent, jessa, iono, chartered_accountant, music, water_spout, gw, sitcom, signore, lost, degree_centigrade, k, result, white, australian, arterio, not, b.arch, software, ball, php, amacrine, airman, bacillus, b.l.s, nipple, auditor, fo, search, hers, adp, awry, brandisht, toll_highway, wwwww, b.b.a, herpeto, billion, information_services_and_technology, acephalopodia, you, apprentice, t, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, parkins, celestial_body, mathmo, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, spliceosome, unsupported_titles_c_sharp, magneto, chemical_symbol_for_phosphorous, accounts_receivable, canadian_dollar, programming_language, denounc’t, restaurant, hoodla, philo, are, l, ampere, annodated, working_leg, attack, adjutant, cat_o_nine_tails, f_s, demolisht, relaxacon, shambolic, annealing, adoors, ship, final, asked, morpheme, class, alexipyretic, transit_card, open, å, th, babs, t_pose, tritium, b_side, associate, clipt, fortran, musea, w5, excrescence, flatulogenic, form_of_vessle, atta, of, used_in_reading_out_numbers, politics, deoxycytidine_monophosphate, ml, boson, ace, bruxomania, quanta, postnominal, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, builder's_tea, biology, addrest, quotha, can_return_five_cents, js, oxygen, superior, d, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, degree_fahrenheit, zoöphytology, b.med, problem, contradistinguisht, selligueain, object_oriented_programming, cherisht, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, jack_o_lantern, z, loophole, d_b, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, neuropraxia, beset, ess, aviation, vexillographer, foreroom, cor_anglais, give_hand, pronoun, cent, chemistry, abundant, ab, amnia, descendant, its, lolz, b.s.a, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, mitochondria, rust, anna, b.compt, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, set_containing_one_element, amplitude, s_shaped, ppbar, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, bridgmanite, cock_leekie, burnt, goatshair, business, s's, illo, testosterone, new_zealand, w_shaped, last, elemeno, digrest, e, ilka, allies, composition, sphygmo, every, secondary, c.f.r, fraunhofer_line, chromatic_semitone, nationality, alfa, t_shirt, graphophone, west, sports, hawksbeard, jack_napes, catherine_havasi's_initials, spello, laetrile, cyclone, bps, abeigh, about, ocracy, all_gog, point, potato, manosphere, air_conditioner, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, edrecolomab, watt, cricket, taking_bus, afternoon, diminisht, p’s, acroatics, duff's_device, hundred, air_conditioning, miladdo, urano, swounds, ah, master_of_ceremonies, mornings, size, also, banned, air, cytosine, b.th, irish, americanize, galactic_coordinate_system, ata, theorem, scotland, horse, aptychus, t_shaped, exactly, bliss, abandannaad, afterwards, ff, caught, b_complex_vitamin, æ, holliers, wilkes, oes, ub, list, b.as, incuba, taxable, vulvo, ack, she, second, kamatz, alee, container, anonymous, moisturizer, even, bethought, luggage, ada, plus, long_vowel, hemoglobin, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, mathematics, wed, awhape, cross, northern_england, example_of_programming_language, 18mo, kd, universal_donor, slang, backwards, grunsel, present_tense, c_sharp, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, group_o, strident, fluor, fluorine, disrelisht, c_note, tuesday, burnisht, absorbancy, thyroxine, americo, c_suite, vitamin, balletomania, against, archæo, to, canine_letter, per, saxon_genitive, city, absorbance, acceleration, litho, la, hotel, beanbag, deduc’t, j_drama, svedberg, tee, astonisht, jack, see_also_es, at_pinch, jocular, computer_language, it, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, porno, he, ricketts, best, activity, apl, stinko, hip_hop_music, marinobufagin, convention, black, walk_mile_in_someone's_shoes, atrocha, hail, relaxing, and_so_on, panthea, awk, expertise, besought, uranoso, frame, sxsw, cocaine, work, bass_clef, bronx, arace, avancé, four, percentage_point, toy, infix, anno, army, ataxia_telangiectasia, buffet, psepho, zf, f_bomb, b_movie, amateur, b.tech, zounds, dialect, drest, pneumono, hedra, tees, introverted, sixth_letter_of_roman_alphabet, rex, person, coeno, address, forwards, over, medial_s, industry, attendance, o_canada, deckt, auxiliary, daunc’t, gs, glass, emission_theory, düsseldorf, i, aircraft, equivalent, j's, hors_categorie, king's_man, lemur, f, scampsman, python</t>
+  </si>
+  <si>
+    <t>aud, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, t's, sincerely, t_internet, constant_of_integration, clansperson, lambdacism, getting_paid, air_conditioned, act, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, dezh, drencht, historical, account, academy, myctag, amos, type_erasure, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, ballet, ante, alphabetic, was, article, remainder, equipt, nd, b's, w_r_t, cup, soupcon, group, embellisht, f_minus, data, double, dealt, high_c, ll, level, letter, penny_sterling, replace, cat, academic, type, diatonic_semitone, estes, before, have_got, belcht, aitkins, boron, a440, a's, sextodecimo, annually, adenine, p_adic, dry_cell_battery, connecter, hb, paradigm, is, b_minor, count_out, allele, t_splice, pee, regards, egotist, ino, axis, amain, prototype_based_language, acrita, tertiary, brassiere, double_u, dice, ambassador, c’s, team, finance, c_hole, 4chan, p_word, asymmetric, segovia, heroin, ultimata, bethe, video_game, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, pandean, proscribed, entertainment, automobile, roentgen, spat, australian_dollar, lose, d's, twou'dn't, cajun, blest, bel, b.ed, musical_artist, bye, tier, organic_chemistry, monoclonal_antibody, transmissivity, abbreviation, caravansary, hirs, twelvemo, fourth_letter_of_roman_alphabet, april, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, pp, aaa, annext, cuppa, bornt, application, clasht, philippine, time, cropt, television_show, aken, perfection, answer, were, spectral_class, noons, arctic, automata, excuse, encroacht, accepted, tis, barn, b.a, coulomb, chirpt, audit, distinguisht, circa, labial, b.mus, mbta, deoxythymidine_monophosphate, para, mausolea, eirs, build_cathedral, fb, frigga, breadth, vrykolaka, administration, object_oriented_programming_language, tradeswoman, accomplisht, en, b.litt, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, transgender, copypasta, cleft, falcon, ahold, believe, f_hole, compiler, taxa, august, flat, fréchet, mab, kolmogorov, bit, printing, western, ties, atmosphere, bynempt, es, austria, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, genitive_case, wynn, nfc, nnw, d100, minor, do_dièse, hunter's_moon, ratings, f's, electrical_resistance, the, string, phm.b, dextro, it's, builder's_mug, c_channel, accidental, miscellaneum, british, semivowel, f’s, author, in, keynote, vis_vis, ashoka, accommodation, age, signor, ae, statesman, let's, stage, solfege, cmos, rip, b.s, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, can_store_food, denmark, angstrom, tert, banisht, third_letter_of_roman_alphabet, four_lines, encreast, combo_pass, nb, dispenst, jackanape, internet_slang, toodles, at, mano_mano, decomposition, acaulous, beeswax, bent, academician, aa, fermion, b.comm, blood_group, atomic_weight, other, programming, asqtad, blockt, aglutition, ods, thymine, absolute_temperature, titles, b_s, or, argent, talk_to, chromatic_scale, s, military, american, charlie, wth, re, checkt, ss, athanogene, bisphenol, after, gilf, education, statement, jack_lent, 24mo, pharmacology, xtianity, automatic, century, pure, bereft, adult, vitamin_c, as, phosphorus, dswounds, alto, nail, chaussé'd, cello, p, j, an, vicesimo_quarto, assist, c_s, ℓ, playoff, javascript, cisgender, conservative, tittle, ecmascript, curst, purkins, crept, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, go_to_market, pip, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, astragal, us, grade, deuteron, survival_horror, kc, amphibian, bullswool, scheme, hausdorff, sec, perrins, group_b, tungsten, est, slut's_wool, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, shortcut_for_air_conditioning, ragamuffin, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, b_flat, eth, major, betimes, otw, b.ch.d, did, anterior, a, lua, has, neighborhood, lvalue, tesla, nights, skainsmate, f_sharp, dispossest, wiener_dog, d_hole, deprest, b.com, triple, with, admiral, d_minor, rating, sanatoria, average, rs, o, ve, all_mort, b.des, football, second_letter_of_roman_alphabet, phenomena, k_r, mit, pigscot, rackarock, neura, iodabenzene, methamphetamine, major_scale, equal_temperament, triiodothyronine, amphibious, y, mammal, birdsmouth, criteria, sithence, celestial_object, absent, admonisht, blemisht, nones, r_shaped, jesus_was_crucified, developt, rix, area, saint, blent, unicode, jackanapes, b_testing, otl, archaea, regina, ruby, bacteria, colossea, arterial, specific_absorption_coefficient, specific_rotation, b.f.a, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, b_word, avoucht, subway, canonical, teen, absolute, ing, verb, iv, manga, computing, r's, b_♭, cs, england, curiously_recurring_template_pattern, astand, boa, first_letter_of_roman_alphabet, anthracite, text_messaging, yours, when_it_is_nonstandardly_used_as_relative_pronoun, taxaphobic, abolisht, rogers, b.s.l, artery, crusht, ours, wednesday, lines, asian, sf_f, singular, januarys, amissing, p's, wolf_hook, s_bomb, fuckabilly, c_shaped, vegas, thing, tween, twas, anothergates, stock_symbol, dismist, rat, cancer, toward, beginnings, tcl, spearsman, drive, danc’t, mass_number, witness, rf, cycle_of_fifths, valor, euse, belgium, hib, women, embost, blusht, turing_machine, enforc’t, plantsperson, baulk_line, accurst, t_square, acre, comprest, trailer, meetaversary, computer_science, movie, polynomial_time, issa, country, diptera, r, b.lit, pinfall, third_letter_of_alphabet, kudo, ephemera, deoxyadenosine_monophosphate, high_level, fox, weak_electrolyte, roof, have, approved, ws, tilt_whirl, corner_tooth, b.e, er, baseball, t_stop, association, d_s, taula, supercee, condenst, chess, fourth_position, sulfanylidene, acreage, alphanumeric, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, ff_hole, b_story, clu, set_theory, nyse, anecdota, south, workaday, numeral, frequency, oboe_d_amore, b.e.e, five_hundred, can_begin_to_leak, ll.b, besides, costa, republican, women's_christmas, aikens, stop_codon, symbols, folio, technical_foul, port_o_john, nfd, fs, precisely, atomic, mouse, perhaps, sloth, oi, scarlet_letter, e_♭_instrument, dubya, ts, available, bs, java, w, bought, type_b, aitkens, active, down_to_t, black_english_and_slang, biblical, au, b.chir, template_metaprogramming, copyright_symbol, empoverisht, cockalorum, sarcastic, legal, airplane, f_major, dropt, attackt, scale, cola, assault, schwar, piss_like_racehorse, cobol, admit, urbiscript, b.acc, iii, long_s, sx, mho, batsman, córdoba, tg, hulkamania, b.math, enharmonic, rhotacism, stadia, america, bug_boo, alpha_privativum, clept, arc, encampt, nuevo_sol, bomb, dactinomycin, penny, terminal_s, w's, c, external, malloc, np, dog's_letter, indefinite_article, right, aware, dwelt, cock_hoop, r’s, stl, b_shaped, ed, s_hole, basketball_league, flute, fora, twere, aunt, assembly_language, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, artillery, 100, b.s.e.e, w_i, preposition, occupation, dateaversary, built, go, do, sol_fa, attacht, enravisht, s_size, no, aspect_ratio, entomology, graph, rd, approacht, b_final, sixteenth_letter_of_roman_alphabet, lb, form, indicative, basketball, coarticulate, pers, set, used_mainly_after_where_here_and_there, b.m.e, kenna, nonstandard, dialectal, aqua, ⠁, un, break_off, ies, fork, upon, solfège, exhibit, big, n_acetyl_p_aminophenol, doubleyou, computer_languages, confest, aerial, computing_theory, cherubs, crasht, fundamental_constant, s’s, decemvirate, word, transsexual, hulkamaniac, kb, ai, americanization, annus, b.lib, predicted, would, chemical_symbol_of_carbon, 3gl, dx, accusative_case, c's, brusht, ra, snooker, latitude, alotta, acid, perfectly, brought, askt, b.c.e, ajax, descending_s, game, etc, people'd, euphemistic, pantile, et_seq, apiece, b_♭_instrument, dript, b’s, ii, abaft, ana, ette, medicine, 12mo, law, aweigh, 500, curly_bracket_language, acronym, old_penny, blood_type, artificer, robertsman, delete, p_complete, cc, meadow, atlantic, electricity, f_instrument, alphabet, one, c_major, plan_b, fist_letter_of_alphabet, cad, copenhagen, fatha, gas_constant, b_school, tonic, astronomy, internet, pethers, w’s, semitone, darwin, aes, peso, besprent, jessa, chartered_accountant, music, water_spout, gw, sitcom, signore, lost, degree_centigrade, result, sn, white, australian, not, b.arch, software, ball, php, amacrine, airman, bacillus, b.l.s, nipple, auditor, vitamin_d, ob, fo, search, hers, adp, awry, brandisht, toll_highway, wwwww, b.b.a, billion, information_services_and_technology, acephalopodia, apprentice, t, drop_d, aeronautical_jargon, reporting, sulfur, st, dry_storage, base, aviator, n, parkins, celestial_body, disestablisht, r_rated, print_on_printer, anguisht, on, neighborhood_map, unsupported_titles_c_sharp, chemical_symbol_for_phosphorous, accounts_receivable, canadian_dollar, programming_language, denounc’t, restaurant, hoodla, d_sharp, are, l, ampere, annodated, working_leg, attack, adjutant, f_s, demolisht, relaxacon, annealing, adoors, ship, final, asked, class, alexipyretic, transit_card, open, å, th, babs, t_pose, tritium, b_side, associate, clipt, ge, fortran, musea, w5, excrescence, form_of_vessle, atta, semicircle, of, politics, deoxycytidine_monophosphate, ml, boson, ace, quanta, r_rotunda, b.eng, abetalipoproteinemia, byte, which's, ps, first_alphabet, builder's_tea, biology, addrest, quotha, can_return_five_cents, oxygen, superior, d, topology, absorpt, limbo, advanc’t, greengrocer's_apostrophe, inorganic_substance, degree_fahrenheit, b.med, problem, some, contradistinguisht, selligueain, object_oriented_programming, cherisht, multi, and, b.m, pells, of_piece, metalic_cylindrical_container, z, loophole, indefinite, send_criminal_to_prison, uk, supersymmetry, begot, jack_lantern, dilf, y_all'd've, neuropraxia, beset, ess, aviation, foreroom, cor_anglais, j.d, give_hand, pronoun, cent, chemistry, abundant, ab, amnia, its, lolz, b.s.a, logic, pitch_perfect, non_rhotic, before_bee, t’s, f_minor, mitochondria, rust, anna, b.compt, guildswoman, perl, t_junction, stereodescriptor, radius, cilia, set_containing_one_element, amplitude, d_shaped, s_shaped, ppbar, pointed, nf, twouldn't, effing_and_blinding, b.sc.n, letter_grade, ne_er, cock_leekie, burnt, goatshair, m.d, business, s's, testosterone, new_zealand, w_shaped, last, elemeno, digrest, e, misle, ilka, allies, composition, every, secondary, c.f.r, fraunhofer_line, chromatic_semitone, nationality, alfa, t_shirt, west, sports, hawksbeard, jack_napes, dialects, catherine_havasi's_initials, cyclone, bps, abeigh, about, all_gog, point, potato, air_conditioner, wide, d_♭, memoranda, acardiacus_acephalus, most_vexing_parse, accumulator, lulz, t_group, clapt, chockablock, scantily_clad, company, watt, d.d, cricket, taking_bus, afternoon, dex, diminisht, p’s, acroatics, duff's_device, hundred, air_conditioning, swounds, ah, mornings, size, also, banned, had, air, possess, cytosine, b.th, americanize, galactic_coordinate_system, ata, da, theorem, scotland, horse, aptychus, t_shaped, exactly, bliss, abandannaad, afterwards, ff, caught, b_complex_vitamin, æ, holliers, wilkes, ub, list, b.as, incuba, taxable, ack, she, second, kamatz, alee, container, anonymous, moisturizer, even, bethought, luggage, ada, plus, long_vowel, any, b.acy, clothing, abasht, f_18, tendu_en_arrière, wed, awhape, cross, northern_england, example_of_programming_language, adventure_game, 18mo, kd, slang, backwards, grunsel, present_tense, diceroll, c_sharp, gentleman's_agreement, bcpl, altitude, rail_transport, b.s.e, basic, azure, strident, fluor, fluorine, disrelisht, c_note, tuesday, burnisht, absorbancy, thyroxine, c_suite, vitamin, against, to, canine_letter, per, saxon_genitive, city, absorbance, acceleration, hotel, beanbag, deduc’t, svedberg, tee, astonisht, see_also_es, at_pinch, computer_language, it, eiffel, chapter, heifer, lmfao, follow, deterministic, hertz, b_major, abc, d_major, he, ricketts, best, activity, apl, hip_hop_music, black, walk_mile_in_someone's_shoes, atrocha, hail, relaxing, and_so_on, panthea, awk, expertise, besought, d’s, frame, sxsw, cocaine, work, bass_clef, bronx, arace, avancé, four, percentage_point, toy, infix, anno, army, deuterium, ataxia_telangiectasia, buffet, zf, f_bomb, b_movie, amateur, b.tech, zounds, dialect, drest, ds, hedra, tees, introverted, sixth_letter_of_roman_alphabet, rex, person, address, forwards, died, medial_s, industry, attendance, deckt, auxiliary, daunc’t, gs, glass, emission_theory, düsseldorf, cue_ball, i, aircraft, equivalent, hors_categorie, king's_man, lemur, f, scampsman, python</t>
+  </si>
+  <si>
+    <t>semicircle, object, condenst, angstrom, chess, tert, of, sulfanylidene, aud, acreage, alphanumeric, boson, banisht, ace, found_in_formula_let’s_which_is_used_to_form_first_person_plural_imperatives, ceast, quanta, athwartships, t_zone, acting, aphobia, abetalipoproteinemia, anaptyxis, van_der_waals_constant, which's, tesh, four_lines, roadway, encreast, combo_pass, t's, ps, first_alphabet, nb, set_theory, dispenst, builder's_tea, jackanape, sincerely, addrest, square_metre, quotha, mc, t_internet, internet_slang, fandom_slang, toodles, at, can_return_five_cents, oxygen, superior, d, anecdota, topology, mano_mano, south, clansperson, absorpt, workaday, advanc’t, greengrocer's_apostrophe, getting_paid, numeral, am, frequency, oboe_d_amore, acaulous, yes'm, act, controlled_vocabulary_types, five_hundred, can_begin_to_leak, beeswax, besides, bent, short_s, proton, problem, some, academician, contradistinguisht, third_person, t_piece, agaze, aa, vowel, first, dezh, fermion, women's_christmas, selligueain, blood_group, aikens, stop_codon, atomic_weight, symbols, cherisht, and, drencht, technical_foul, historical, account, mega, be, port_o_john, academy, asqtad, amos, megabyte, nfd, blockt, aglutition, ods, ri, pells, diastereoisomer, of_piece, tt, vide, thymine, motorcycle, absolute_temperature, precisely, atomic, metalic_cylindrical_container, mouse, perhaps, sloth, or, zoa, argent, oi, talk_to, scarlet_letter, z, mmole, loophole, ts, s, indefinite, ante, make, military, i18n, available, send_criminal_to_prison, uk, supersymmetry, java, american, begot, alphabetic, was, jack_lantern, van, w, article, dilf, y_all'd've, neuropraxia, bought, crease, beset, ess, re, equipt, checkt, nd, aviation, ss, athanogene, foreroom, bisphenol, after, aitkens, cup, active, j.d, gilf, group, embellisht, education, maiden_over, give_hand, down_to_t, pronoun, black_english_and_slang, biblical, au, data, chemistry, abundant, vv, statement, ab, viscount, jack_lent, empoverisht, 24mo, double, dealt, pharmacology, cockalorum, xiphisternum, interfix, xtianity, sarcastic, amnia, its, lolz, legal, airplane, automatic, dropt, peruvian, pure, attackt, bereft, pitch_perfect, scale, latin, adult, ll, cola, mi, assault, logic, piss_like_racehorse, v’s, level, before_bee, t’s, letter, as, mitochondria, phosphorus, penny_sterling, dswounds, replace, admit, iii, anna, cat, academic, long_s, alto, sx, type, nail, chaussé'd, mho, batsman, cello, tg, p, diatonic_semitone, hulkamania, estes, before, ma_am, guildswoman, victim, an, enharmonic, mother, have_got, belcht, t_junction, stereodescriptor, vicesimo_quarto, aitkins, cilia, set_containing_one_element, a440, assist, amplitude, d_shaped, s_shaped, a's, sextodecimo, fictional_character, america, stadia, playoff, bug_boo, ppbar, cisgender, alpha_privativum, clept, tittle, annually, adenine, arc, encampt, p_adic, nuevo_sol, bomb, dactinomycin, pointed, curst, penny, version, twouldn't, terminal_s, purkins, connecter, letter_grade, ne_er, c, videte, cock_leekie, crept, burnt, goatshair, is, np, indefinite_article, m.d, round, count_out, aware, randomness, allele, oversman, business, s's, testosterone, square_meter, t_splice, a’s, dwelt, new_zealand, twasn't, cock_hoop, last, elemeno, digrest, e, pee, ed, pip, s_hole, basketball_league, misle, ilka, allies, regards, egotist, ino, every, axis, amain, secondary, imperative, flute, fraunhofer_line, chromatic_semitone, nationality, fora, twere, alfa, aunt, acrita, t_shirt, shaped, inferior, used_only_with_auxiliary_meaning_of_does_and_only_after_interrogative_words, carbon, tertiary, madam, artillery, sports, vagina, axiomatic, hawksbeard, jack_napes, volt, preposition, dialects, brassiere, venipuncture, astragal, occupation, us, dateaversary, built, dice, ambassador, value, grade, team, china, abeigh, about, finance, deuteron, survival_horror, do, amphibian, bullswool, dunam, 4chan, all_gog, point, p_word, hausdorff, sec, perrins, attacht, enravisht, potato, metre, s_size, no, memoranda, acardiacus_acephalus, aspect_ratio, asymmetric, entomology, accumulator, lulz, t_group, graph, clapt, segovia, rd, heroin, ultimata, brewster, est, slut's_wool, chockablock, scantily_clad, video_game, company, comics_character, b, subatomic_particle, approacht, d.d, yt, half_crown, amp, cricket, jack_dandy, afternoon, sixteenth_letter_of_roman_alphabet, dex, seent, sigmoid, verse, um, w:abo_blood_group_system, bee, diminisht, john_dreams, p’s, anode, pithers, em, sneaksman, acroatics, theirs, aikins, ragamuffin, mature, indicative, algorithm, basketball, football_pitch, dipt, pers, hair_clip, adjusted, 1000, year, set, p_shaped, disjoint, bleacht, dreamt, used_mainly_after_where_here_and_there, abiosis, american_library_association, swounds, kenna, ah, triton, m_shaped, mornings, size, pandean, also, proscribed, entertainment, nonstandard, eth, dialectal, viscountess, had, automobile, air, aqua, major, betimes, ⠁, possess, otw, did, anterior, spat, australian_dollar, un, lose, d's, break_off, ies, americanize, a, fork, upon, ata, twou'dn't, cajun, da, theorem, blest, neighborhood, has, exhibit, scotland, tesla, nights, n_acetyl_p_aminophenol, five, horse, aptychus, musical_artist, skainsmate, computer_languages, confest, igm, dispossest, aerial, computing_theory, t_shaped, wiener_dog, cherubs, d_hole, exactly, abandannaad, afterwards, crasht, s’s, deprest, v_cut, organic_chemistry, transsexual, hulkamaniac, molarity, monoclonal_antibody, triple, ai, americanization, annus, predicted, transmissivity, admiral, would, d_minor, victor, abbreviation, rating, sanatoria, dx, o, accusative_case, caught, caravansary, m’s, æ, m_size, holliers, wilkes, brusht, hirs, 5, snipt, list, snooker, twelvemo, fourth_letter_of_roman_alphabet, ve, april, alotta, acid, incuba, m'lord, perfectly, all_mort, brought, taxable, axiom, penalty_arc, male, ack, she, la_dièse, askt, football, interconsonantal, grammar, air_branch, second, ajax, kamatz, alee, container, khoum, phenomena, acardiacus, euphemism, mit, descending_s, anonymous, pp, game, aaa, people'd, even, bethought, annext, pantile, cuppa, luggage, bornt, pigscot, application, rackarock, neura, apiece, clasht, philippine, dript, plus, li, long_vowel, time, cropt, aken, any, iodabenzene, methamphetamine, ms, abasht, perfection, answer, were, spectral_class, mathematics, equal_temperament, triiodothyronine, amphibious, ii, y, mammal, abaft, ana, awhape, cross, birdsmouth, noons, ette, medicine, northern_england, criteria, 12mo, sithence, arctic, automata, excuse, titular, aweigh, celestial_object, encroacht, absent, accepted, cl, tis, 500, admonisht, adventure_game, blemisht, weingarten_right, nones, acronym, mb, 18mo, old_penny, slang, backwards, blood_type, developt, present_tense, diceroll, rix, area, c_sharp, media, chirpt, artificer, saint, robertsman, blent, gentleman's_agreement, jackanapes, audit, v_neck, delete, altitude, rail_transport, p_complete, meadow, azure, distinguisht, otl, strident, archaea, atlantic, can_store_food, disrelisht, labial, ruby, alphabet, one, tuesday, u, bacteria, fist_letter_of_alphabet, copenhagen, burnisht, colossea, v_twin, mbta, arterial, absorbancy, thyroxine, specific_absorption_coefficient, fatha, metacism, deoxythymidine_monophosphate, specific_rotation, para, resturant, adjective, alpha_privative, until_february_1971, anuptaphobia, avoucht, vitamin, mausolea, internet, subway, pethers, against, eirs, teen, absolute, to, ing, semitone, verb, v_necked, vs, build_cathedral, iv, darwin, frigga, aes, vrykolaka, per, b_♭, administration, peso, saxon_genitive, besprent, jessa, versus, music, tradeswoman, accomplisht, water_spout, absorbance, england, signore, thousand, vanadium, lost, acceleration, hotel, en, astand, pawn, beanbag, k, saint_anthony's_cross, deduc’t, metric_ton, result, sn, physicotheology, first_letter_of_roman_alphabet, anthracite, os, transgender, svedberg, yours, australian, copypasta, when_it_is_nonstandardly_used_as_relative_pronoun, not, tee, astonisht, knitting, cleft, taxaphobic, michigan, organic_compound, abolisht, ahold, rogers, see_also_es, my, at_pinch, jocular, it, eiffel, clitic, software, artery, taxa, crusht, ours, heifer, ev, amacrine, august, fréchet, lines, airman, fathom, asian, deterministic, hertz, mab, abc, singular, auditor, januarys, vitamin_d, kolmogorov, ob, d_major, amissing, p's, search, he, nautical_mile, bit, hers, ricketts, printing, adp, awry, best, wolf_hook, brandisht, s_bomb, toll_highway, activity, apl, ties, atmosphere, bynempt, hip_hop_music, emma, thirteenth_letter_of_roman_alphabet, fuckabilly, es, information_services_and_technology, vegas, acephalopodia, austria, monday, walk_mile_in_someone's_shoes, raguileo_alphabet, atrocha, hail, eclipst, storativity, ambusht, tween, apprentice, panthea, twas, expertise, anothergates, ha, stock_symbol, t, drop_d, reporting, sulfur, dismist, st, besought, rat, dry_storage, toward, d’s, beginnings, genitive_case, frame, polyvinyl_chloride, spearsman, drive, d100, aviator, sxsw, n, danc’t, minor, mass_number, stade, bronx, arace, parkins, cycle_of_fifths, valor, celestial_body, meter, euse, v's, disestablisht, avancé, print_on_printer, hunter's_moon, anguisht, women, on, delta_v, four, percentage_point, ratings, neighborhood_map, pvc, embost, blusht, infix, turing_machine, enforc’t, chemical_symbol_for_phosphorous, the, anno, army, v_shaped, string, deuterium, mth, dextro, plantsperson, baulk_line, accurst, it's, t_square, acre, programming_language, ataxia_telangiectasia, buffet, comprest, trailer, denounc’t, restaurant, zf, meetaversary, hoodla, v_sign, madalyn, builder's_mug, amateur, computer_science, zounds, dialect, drest, d_sharp, polynomial_time, ds, issa, country, are, hedra, tees, accidental, diptera, l, ampere, miscellaneum, r, annodated, attack, person, adjutant, british, actus, author, demolisht, address, forwards, relaxacon, in, m's, keynote, pinfall, annealing, adoors, kudo, medium, died, vis_vis, medial_s, accommodation, age, signor, industry, ship, ae, ephemera, attendance, final, asked, statesman, morpheme, meta, deckt, let's, class, auxiliary, deoxyadenosine_monophosphate, daunc’t, alexipyretic, transit_card, open, gs, stage, å, th, glass, solfege, fox, babs, t_pose, tritium, roof, have, cue_ball, approved, associate, clipt, i, aircraft, equivalent, tilt_whirl, corner_tooth, hors_categorie, king's_man, er, baseball, t_stop, m'lady, ge, lemur, musea, physics, begat, association, excrescence, f, anecdotum, monsieur, form_of_vessle, str, secret_intelligence_service, atta, dislik’t, d_s, taula, m, scampsman, python, denmark</t>
+  </si>
+  <si>
+    <t>celestial_body, star</t>
+  </si>
+  <si>
+    <t>fish, water</t>
+  </si>
+  <si>
+    <t>believe, b.s.l, computer_language, chemical_symbol_of_carbon, 3gl, fourth_position, compiler, chapter, nf, average, politics, ball, dry_cell_battery, o, deoxycytidine_monophosphate, b.sc.n, php, c's, b_complex_vitamin, ml, paradigm, hb, c, flat, external, ub, follow, b.eng, bacillus, malloc, latitude, byte, b.l.s, b_major, b.as, b_story, third_letter_of_roman_alphabet, clu, b_minor, second_letter_of_alphabet, b.des, stl, b.c.e, b_shaped, second_letter_of_roman_alphabet, bit, internet_slang, k_r, nyse, composition, moisturizer, d, etc, constant_of_integration, b.b.a, c.f.r, decomposition, chromatic_semitone, limbo, ada, billion, c_shaped, air_conditioned, b_♭_instrument, b.e.e, assembly_language, carbon, b.acy, coke, 100, b.med, clothing, black, raguileo_alphabet, speed_of_light, b.s.e.e, first_letter_of_word_chair, b’s, tendu_en_arrière, ll.b, major_scale, and_so_on, spectral_class, awk, catherine_havasi's_initials, b.s.n, stock_symbol, costa, aeronautical_jargon, go, cancer, b.comm, c’s, cyclone, object_oriented_programming, bps, blood_group, law, example_of_programming_language, stop_codon, multi, tcl, nfc, kc, c_hole, other, sol_fa, cocaine, programming, account, air_conditioner, curly_bracket_language, d_♭, type_erasure, group_b, barn, b.a, kd, b.m, most_vexing_parse, entomology, jesus_was_crucified, do_dièse, slang, coulomb, belgium, titles, hib, blood_type, company, procedural_programming_lanuage, bethe, b_s, b, c_sharp, c_minor, b_final, e_♭_instrument, cricket, unsupported_titles_c_sharp, anime, taking_bus, ballet, chromatic_scale, lb, unicode, bs, uk, sigmoid, canadian_dollar, bcpl, java, phm.b, b.s.e, charlie, basic, b_testing, cc, programming_language, b.sc, circa, shortcut_for_air_conditioning, electricity, f_instrument, c_note, ecmascript, labial, ruby, duff's_device, alphabet, hundred, type_b, air_conditioning, b_movie, b.mus, b's, b.tech, c_major, plan_b, soupcon, cad, c_channel, b_sharp, introverted, working_leg, c_suite, b.lit, b.m.e, cent, solfeggio, b.f.a, british, b_school, b_word, bubnoff_unit, b_flat, astronomy, tonic, size, template_metaprogramming, b.chir, thing, copyright_symbol, banned, third_letter_of_alphabet, b.s.a, high_c, legal, canonical, century, scale, ashoka, b.th, cytosine, vitamin_c, b.ch.d, computing, letter, breadth, rust, cobol, galactic_coordinate_system, a, object_oriented_programming_language, urbiscript, b.acc, city, high_level, cs, music, b.compt, chartered_accountant, solfège, lua, big, cello, lvalue, córdoba, diatonic_semitone, cmos, bel, emission_theory, b_side, düsseldorf, perl, b.math, enharmonic, aircraft, computer_languages, curiously_recurring_template_pattern, b.s, i, j, degree_centigrade, b.ed, b.litt, boa, b.e, boron, bye, bliss, c_s, fundamental_constant, fortran, decemvirate, tier, text_messaging, cetera, ℓ, b.com, physics, f, kuh, kb, javascript, falcon, supercee, conservative, python, b.lib, b.arch</t>
+  </si>
+  <si>
+    <t>ground, hill, down</t>
+  </si>
+  <si>
+    <t>toonophile, ortho, aud, athwartships, t_zone, acting, farad, aphobia, anaptyxis, van_der_waals_constant, tesh, goals, t's, scalogram, ometry, sincerely, square_metre, t_internet, fandom_slang, o_face, constant_of_integration, eddress, clansperson, lambdacism, getting_paid, am, air_conditioned, algol, act, non_sequituri, b.s.n, proton, short_s, third_person, t_piece, parsing, agaze, vowel, first, dezh, o_shaped, language, purchase_cellular_phone, base_of_natural_logarithms, drencht, historical, dirhem, account, academy, man, myctag, amos, type_erasure, 360, megabyte, diastereoisomer, motorcycle, procedural_programming_lanuage, fuck, zoa, pbuh, rafivirumab, ballet, ante, alphabetic, there, was, article, remainder, hydrogen, equipt, archeopteryx, balanophagous, nd, b's, e_vite, w_r_t, cup, soupcon, united_kingdom, casualty, group, embellisht, f_minus, damma, data, visarga, double, dealt, xiphisternum, interfix, writer, high_c, kayo, ll, level, g_s, letter, robatumumab, penny_sterling, replace, kasra, cat, academic, type, diatonic_semitone, estes, before, e_tail, have_got, belcht, aitkins, i’s, boron, subject, a440, a's, sextodecimo, rat_tail_radish, annually, adenine, p_adic, surname, meaning, dry_cell_battery, connecter, hb, efungumab, paradigm, man_o_war, svo, u’s, dram, is, b_minor, count_out, vocative_case, allele, ees, t_splice, hentai, pee, regards, use, egotist, ino, axis, amain, espionage, prototype_based_language, k_pop, acrita, magic_e, tertiary, miserabilist, clicko, brassiere, double_u, u_tube, gf, dice, ambassador, nisba, c’s, team, pound_sterling, finance, c_hole, symbologenic, 4chan, homœo, personal, e_shaped, p_word, metre, ious, asymmetric, e’s, segovia, heroin, ultimata, brewster, bethe, video_game, cœno, you_and, c_minor, yt, half_crown, amp, anime, h, w:abo_blood_group_system, fujita_scale, anode, b.sc, coenoblast, sneaksman, theirs, aikins, algorithm, football_pitch, solfeggio, adjusted, 1000, sports_statistic, mdma, b_sharp, bleacht, american_library_association, triton, bubnoff_unit, j’s, pandean, turn, proscribed, entertainment, automobile, hypercorrection, roentgen, spat, australian_dollar, roman_numeral, lose, d's, jth, micro, aberdeen_hook, proverb, twou'dn't, cajun, water, blest, perpendicular_pronoun, animanga_character, coenosteum, bel, vocative, b.ed, musical_artist, non_u, i_don't_care, einsteinium, bye, tier, bohdanowiczite, organic_chemistry, molarity, monoclonal_antibody, social, transmissivity, abbreviation, thinko, caravansary, hirs, naptumomab_estafenatox, ie, pneumo, xylanolysis, twelvemo, fourth_letter_of_roman_alphabet, india, april, axiom, penalty_arc, la_dièse, grammar, air_branch, khoum, acardiacus, e_volution, pp, aaa, lemalesomab, annext, lexatumumab, cuppa, bornt, application, will_o_wisp, first_person, clasht, philippine, time, cropt, television_show, aken, zero, ms, seleno, perfection, answer, were, spectral_class, speako, noons, e_folding, oyl, gameto, arctic, e's, automata, excuse, gee, libivirumab, encroacht, accepted, unstressed, tis, run_o_mill, barn, mb, b.a, argyro, coulomb, iferous, sr, chirpt, audit, distinguisht, circa, e_quainted, galanthophile, labial, i_ship, b.mus, moo_u, ngl, mbta, deoxythymidine_monophosphate, ignominy, para, cymoscope, soul_music, mausolea, eirs, nemato, build_cathedral, segrosome, hydrogen_atom, fb, frigga, breadth, tenatumomab, vrykolaka, administration, hematinometer, object_oriented_programming_language, tradeswoman, accomplisht, megakaryocytopoiesis, equiangular, thousand, u_boat, seah, en, b.litt, imciromab, pawn, saint_anthony's_cross, metric_ton, physicotheology, os, pemtumomab, transgender, copypasta, sentences, television_station, cleft, falcon, ahold, believe, my, f_hole, compiler, zoö, taxa, green, august, loser_sign, flat, wave_clip, fréchet, mab, hamiltonian, problemo, kolmogorov, detumomab, antigen, bit, printing, western, unit, ties, atmosphere, bynempt, pencil, antigone, thirteenth_letter_of_roman_alphabet, oötidogenesis, es, fatosphere, memosphere, nay, austria, dunzo, nebacumab, raguileo_alphabet, speed_of_light, eclipst, storativity, ambusht, ha, irc, e_sharp, i'll've, genitive_case, wynn, nfc, nnw, e_tailing, d100, minor, stade, do_dièse, hunter's_moon, ignore, ratings, gelfond's_constant, f's, shi, electrical_resistance, the, tibeto, string, mth, phm.b, dextro, it's, liter, builder's_mug, c_channel, accidental, i'd, miscellaneum, emergency, scanno, hebdomadiversary, british, semivowel, ego, author, f’s, in, keynote, medium, uranium, vis_vis, ashoka, accommodation, glosso, signor, age, ae, i_and_i, lino, statesman, let's, okay, stage, solfege, cmos, rip, b.s, me_pronoun, f_shaped, cetera, physics, begat, anecdotum, kuh, dislik’t, m, denmark, can_store_food, angstrom, tert, twelveth_letter_of_roman_alphabet, ich, banisht, foravirumab, third_letter_of_roman_alphabet, four_lines, roadway, encreast, combo_pass, nb, dispenst, jackanape, chill, internet_slang, toodles, at, numero_sign, mano_mano, road_transport, decomposition, transhumanism, l_size, acaulous, hoplo, ell, beeswax, me_reference, ze, bent, u_rp, academician, gasogen, aa, sudoriferous, fermion, partheno, b.comm, blood_group, atomic_weight, gangsta, palochka, other, mega, hey, be, programming, asqtad, homoio, blockt, aglutition, ods, ri, istro, thymine, absolute_temperature, titles, b_s, ues, or, u_shaped, argent, ex, talk_to, chromatic_scale, s, self, make, military, exbivirumab, ihood, american, charlie, wth, logico, crease, writo, re, checkt, ss, athanogene, bisphenol, after, connectogram, ebrary, gilf, education, maiden_over, oic, statement, jack_lent, rh, 24mo, pharmacology, xtianity, minretumomab, edobacomab, automatic, homoeo, century, pure, bereft, i_wiss, latin, adult, mi, vitamin_c, as, phosphorus, dswounds, mo, alto, nail, chaussé'd, cello, urobilinogen, p, yours_truly, levo, saké, j, an, back_o_bourke, vicesimo_quarto, oh, assist, c_s, ℓ, single, fictional_character, mac, playoff, javascript, cisgender, self_me, self_reference, conservative, tittle, ecmascript, softography, curst, purkins, crept, w_o, round, second_letter_of_alphabet, randomness, oversman, a’s, twasn't, linking_vowel, go_to_market, pip, gomer, e_tailer, l_shaped, ostomy, bath, shaped, inferior, coke, first_letter_of_word_chair, axiomatic, pædo, venipuncture, astragal, dacryohemorrhea, us, cor, grade, china, deuteron, survival_horror, amphibian, bullswool, kc, scheme, hausdorff, sec, perrins, group_b, tungsten, rhythm_and_blues, est, slut's_wool, from_latin_libra, me_subject, b, subatomic_particle, jack_dandy, bass, seent, sigmoid, um, bee, john_dreams, pithers, number, shortcut_for_air_conditioning, ragamuffin, mature, tenth_letter_of_roman_alphabet, i'm, dipt, hair_clip, year, p_shaped, disjoint, dreamt, abiosis, dendro, b_flat, eth, lambert, dioxygen, nacolomab_tafenatox, imac, major, betimes, otw, e_form, b.ch.d, did, anterior, a, shanxi, lua, has, neighborhood, lvalue, tesla, nights, i'se, taplitumomab, g_shaped, skainsmate, f_sharp, ga, dispossest, japanese, wiener_dog, d_hole, hs, deprest, joule, b.com, triple, i's, with, narration, admiral, fifth_letter_of_roman_alphabet, d_minor, rating, sanatoria, average, rs, o, ethyl, ve, all_mort, b.des, czechoslovak, football, interconsonantal, second_letter_of_roman_alphabet, e_s, epeen, phenomena, k_r, mit, ancient_greek, h_shaped, gram, rasopathy, pigscot, rackarock, neura, gigography, iodabenzene, methamphetamine, major_scale, gravity, equal_temperament, triiodothyronine, amphibious, y, mam